--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -187,7 +187,7 @@
     <t>炸板_次日实体上涨比例</t>
   </si>
   <si>
-    <t>20250115</t>
+    <t>20250116</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE54"/>
+  <dimension ref="A1:BE55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9532,8 +9532,8 @@
       </c>
     </row>
     <row r="54" spans="1:57">
-      <c r="A54" t="s">
-        <v>57</v>
+      <c r="A54">
+        <v>20250115</v>
       </c>
       <c r="B54">
         <v>1666</v>
@@ -9675,6 +9675,152 @@
       </c>
       <c r="BE54">
         <v>28.57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>3368</v>
+      </c>
+      <c r="C55">
+        <v>1816</v>
+      </c>
+      <c r="D55">
+        <v>194</v>
+      </c>
+      <c r="E55">
+        <v>196</v>
+      </c>
+      <c r="F55">
+        <v>36</v>
+      </c>
+      <c r="G55">
+        <v>117</v>
+      </c>
+      <c r="H55">
+        <v>15</v>
+      </c>
+      <c r="I55">
+        <v>70</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>27</v>
+      </c>
+      <c r="L55">
+        <v>29</v>
+      </c>
+      <c r="M55">
+        <v>64</v>
+      </c>
+      <c r="N55">
+        <v>2.11</v>
+      </c>
+      <c r="O55">
+        <v>3.36</v>
+      </c>
+      <c r="P55">
+        <v>7</v>
+      </c>
+      <c r="Q55">
+        <v>-0.99</v>
+      </c>
+      <c r="R55">
+        <v>1.26</v>
+      </c>
+      <c r="S55">
+        <v>51.56</v>
+      </c>
+      <c r="T55">
+        <v>62.5</v>
+      </c>
+      <c r="U55">
+        <v>54.69</v>
+      </c>
+      <c r="V55">
+        <v>30</v>
+      </c>
+      <c r="W55">
+        <v>4.4</v>
+      </c>
+      <c r="X55">
+        <v>5.78</v>
+      </c>
+      <c r="Y55">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="Z55">
+        <v>0.85</v>
+      </c>
+      <c r="AA55">
+        <v>1.34</v>
+      </c>
+      <c r="AB55">
+        <v>70</v>
+      </c>
+      <c r="AC55">
+        <v>76.67</v>
+      </c>
+      <c r="AD55">
+        <v>50</v>
+      </c>
+      <c r="AN55">
+        <v>7</v>
+      </c>
+      <c r="AO55">
+        <v>-3.68</v>
+      </c>
+      <c r="AP55">
+        <v>-1.58</v>
+      </c>
+      <c r="AQ55">
+        <v>1.8</v>
+      </c>
+      <c r="AR55">
+        <v>-5.74</v>
+      </c>
+      <c r="AS55">
+        <v>2.18</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>42.86</v>
+      </c>
+      <c r="AV55">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AW55">
+        <v>24</v>
+      </c>
+      <c r="AX55">
+        <v>-2.36</v>
+      </c>
+      <c r="AY55">
+        <v>-0.75</v>
+      </c>
+      <c r="AZ55">
+        <v>2.8</v>
+      </c>
+      <c r="BA55">
+        <v>-5.1</v>
+      </c>
+      <c r="BB55">
+        <v>1.66</v>
+      </c>
+      <c r="BC55">
+        <v>12.5</v>
+      </c>
+      <c r="BD55">
+        <v>29.17</v>
+      </c>
+      <c r="BE55">
+        <v>58.33</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6816F1-6CE2-4BC2-B0D6-5C5A03B5A077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>日期</t>
   </si>
@@ -253,234 +247,21 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20241016</t>
+    <t>20250120</t>
   </si>
   <si>
-    <t>20241017</t>
-  </si>
-  <si>
-    <t>20241018</t>
-  </si>
-  <si>
-    <t>20241021</t>
-  </si>
-  <si>
-    <t>20241022</t>
-  </si>
-  <si>
-    <t>20241023</t>
-  </si>
-  <si>
-    <t>20241024</t>
-  </si>
-  <si>
-    <t>20241025</t>
-  </si>
-  <si>
-    <t>20241028</t>
-  </si>
-  <si>
-    <t>20241029</t>
-  </si>
-  <si>
-    <t>20241030</t>
-  </si>
-  <si>
-    <t>20241031</t>
-  </si>
-  <si>
-    <t>20250102</t>
-  </si>
-  <si>
-    <t>20250103</t>
-  </si>
-  <si>
-    <t>20250106</t>
-  </si>
-  <si>
-    <t>20250107</t>
-  </si>
-  <si>
-    <t>20250108</t>
-  </si>
-  <si>
-    <t>20250109</t>
-  </si>
-  <si>
-    <t>20250110</t>
-  </si>
-  <si>
-    <t>20250113</t>
-  </si>
-  <si>
-    <t>20250114</t>
-  </si>
-  <si>
-    <t>20250115</t>
-  </si>
-  <si>
-    <t>20250116</t>
-  </si>
-  <si>
-    <t>20250117</t>
-  </si>
-  <si>
-    <t>20241202</t>
-  </si>
-  <si>
-    <t>20241203</t>
-  </si>
-  <si>
-    <t>20241204</t>
-  </si>
-  <si>
-    <t>20241205</t>
-  </si>
-  <si>
-    <t>20241206</t>
-  </si>
-  <si>
-    <t>20241209</t>
-  </si>
-  <si>
-    <t>20241210</t>
-  </si>
-  <si>
-    <t>20241211</t>
-  </si>
-  <si>
-    <t>20241212</t>
-  </si>
-  <si>
-    <t>20241213</t>
-  </si>
-  <si>
-    <t>20241216</t>
-  </si>
-  <si>
-    <t>20241217</t>
-  </si>
-  <si>
-    <t>20241218</t>
-  </si>
-  <si>
-    <t>20241219</t>
-  </si>
-  <si>
-    <t>20241220</t>
-  </si>
-  <si>
-    <t>20241223</t>
-  </si>
-  <si>
-    <t>20241224</t>
-  </si>
-  <si>
-    <t>20241225</t>
-  </si>
-  <si>
-    <t>20241226</t>
-  </si>
-  <si>
-    <t>20241227</t>
-  </si>
-  <si>
-    <t>20241230</t>
-  </si>
-  <si>
-    <t>20241231</t>
-  </si>
-  <si>
-    <t>20241101</t>
-  </si>
-  <si>
-    <t>20241104</t>
-  </si>
-  <si>
-    <t>20241105</t>
-  </si>
-  <si>
-    <t>20241106</t>
-  </si>
-  <si>
-    <t>20241107</t>
-  </si>
-  <si>
-    <t>20241108</t>
-  </si>
-  <si>
-    <t>20241111</t>
-  </si>
-  <si>
-    <t>20241112</t>
-  </si>
-  <si>
-    <t>20241113</t>
-  </si>
-  <si>
-    <t>20241114</t>
-  </si>
-  <si>
-    <t>20241115</t>
-  </si>
-  <si>
-    <t>20241118</t>
-  </si>
-  <si>
-    <t>20241119</t>
-  </si>
-  <si>
-    <t>20241120</t>
-  </si>
-  <si>
-    <t>20241121</t>
-  </si>
-  <si>
-    <t>20241122</t>
-  </si>
-  <si>
-    <t>20241125</t>
-  </si>
-  <si>
-    <t>20241126</t>
-  </si>
-  <si>
-    <t>20241127</t>
-  </si>
-  <si>
-    <t>20241128</t>
-  </si>
-  <si>
-    <t>20241129</t>
-  </si>
-  <si>
-    <t>20241008</t>
-  </si>
-  <si>
-    <t>20241009</t>
-  </si>
-  <si>
-    <t>20241010</t>
-  </si>
-  <si>
-    <t>20241011</t>
-  </si>
-  <si>
-    <t>20241014</t>
-  </si>
-  <si>
-    <t>20241015</t>
+    <t>20250121</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -488,15 +269,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -535,36 +309,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -602,7 +364,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -636,7 +398,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -671,10 +432,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -847,17 +607,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BY76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:77">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1089,9 +847,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>144</v>
+    <row r="2" spans="1:77">
+      <c r="A2">
+        <v>20241008</v>
       </c>
       <c r="B2">
         <v>5029</v>
@@ -1115,9 +873,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>145</v>
+    <row r="3" spans="1:77">
+      <c r="A3">
+        <v>20241009</v>
       </c>
       <c r="B3">
         <v>295</v>
@@ -1165,7 +923,7 @@
         <v>4.76</v>
       </c>
       <c r="Q3">
-        <v>-8.0500000000000007</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="R3">
         <v>-2.7</v>
@@ -1198,7 +956,7 @@
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-2.5099999999999998</v>
+        <v>-2.51</v>
       </c>
       <c r="AC3">
         <v>6.24</v>
@@ -1234,16 +992,16 @@
         <v>513</v>
       </c>
       <c r="BA3">
-        <v>-2.2599999999999998</v>
+        <v>-2.26</v>
       </c>
       <c r="BB3">
-        <v>-8.4700000000000006</v>
+        <v>-8.470000000000001</v>
       </c>
       <c r="BC3">
         <v>-1.41</v>
       </c>
       <c r="BD3">
-        <v>-9.11</v>
+        <v>-9.109999999999999</v>
       </c>
       <c r="BE3">
         <v>-6.34</v>
@@ -1270,9 +1028,9 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>146</v>
+    <row r="4" spans="1:77">
+      <c r="A4">
+        <v>20241010</v>
       </c>
       <c r="B4">
         <v>2998</v>
@@ -1314,7 +1072,7 @@
         <v>6.83</v>
       </c>
       <c r="O4">
-        <v>-2.4900000000000002</v>
+        <v>-2.49</v>
       </c>
       <c r="P4">
         <v>9.52</v>
@@ -1323,7 +1081,7 @@
         <v>-6.35</v>
       </c>
       <c r="R4">
-        <v>-8.7100000000000009</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="S4">
         <v>15.07</v>
@@ -1389,7 +1147,7 @@
         <v>43</v>
       </c>
       <c r="BA4">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="BB4">
         <v>-8.35</v>
@@ -1416,10 +1174,10 @@
         <v>6.98</v>
       </c>
       <c r="BJ4">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BK4">
-        <v>81.400000000000006</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="BL4">
         <v>32.56</v>
@@ -1437,16 +1195,16 @@
         <v>3.13</v>
       </c>
       <c r="BQ4">
-        <v>-4.0599999999999996</v>
+        <v>-4.06</v>
       </c>
       <c r="BR4">
         <v>-0.06</v>
       </c>
       <c r="BS4">
-        <v>-8.1300000000000008</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="BT4">
-        <v>-8.2100000000000009</v>
+        <v>-8.210000000000001</v>
       </c>
       <c r="BU4">
         <v>23.62</v>
@@ -1461,12 +1219,12 @@
         <v>0.26</v>
       </c>
       <c r="BY4">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>147</v>
+    <row r="5" spans="1:77">
+      <c r="A5">
+        <v>20241011</v>
       </c>
       <c r="B5">
         <v>442</v>
@@ -1511,7 +1269,7 @@
         <v>-2.76</v>
       </c>
       <c r="P5">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="Q5">
         <v>-5.68</v>
@@ -1532,7 +1290,7 @@
         <v>30.88</v>
       </c>
       <c r="W5">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="X5">
         <v>94.12</v>
@@ -1637,7 +1395,7 @@
         <v>2.21</v>
       </c>
       <c r="BS5">
-        <v>-17.760000000000002</v>
+        <v>-17.76</v>
       </c>
       <c r="BT5">
         <v>-16.22</v>
@@ -1658,9 +1416,9 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>148</v>
+    <row r="6" spans="1:77">
+      <c r="A6">
+        <v>20241014</v>
       </c>
       <c r="B6">
         <v>5023</v>
@@ -1705,7 +1463,7 @@
         <v>4.71</v>
       </c>
       <c r="P6">
-        <v>8.4499999999999993</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Q6">
         <v>-3.27</v>
@@ -1720,19 +1478,19 @@
         <v>15.07</v>
       </c>
       <c r="U6">
-        <v>65.709999999999994</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="V6">
-        <v>74.290000000000006</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="W6">
         <v>48.57</v>
       </c>
       <c r="X6">
-        <v>94.29</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="Y6">
-        <v>94.29</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="Z6">
         <v>17</v>
@@ -1741,10 +1499,10 @@
         <v>4.95</v>
       </c>
       <c r="AB6">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="AC6">
-        <v>9.11</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="AD6">
         <v>-3.26</v>
@@ -1768,10 +1526,10 @@
         <v>29.41</v>
       </c>
       <c r="AK6">
-        <v>88.24</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="AL6">
-        <v>88.24</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="AZ6">
         <v>15</v>
@@ -1780,7 +1538,7 @@
         <v>-1.67</v>
       </c>
       <c r="BB6">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="BC6">
         <v>2.6</v>
@@ -1834,7 +1592,7 @@
         <v>-7.18</v>
       </c>
       <c r="BT6">
-        <v>-2.4700000000000002</v>
+        <v>-2.47</v>
       </c>
       <c r="BU6">
         <v>12.5</v>
@@ -1852,9 +1610,9 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>149</v>
+    <row r="7" spans="1:77">
+      <c r="A7">
+        <v>20241015</v>
       </c>
       <c r="B7">
         <v>801</v>
@@ -1947,7 +1705,7 @@
         <v>1.02</v>
       </c>
       <c r="AF7">
-        <v>8.5399999999999991</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="AG7">
         <v>9.81</v>
@@ -2046,9 +1804,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>77</v>
+    <row r="8" spans="1:77">
+      <c r="A8">
+        <v>20241016</v>
       </c>
       <c r="B8">
         <v>2726</v>
@@ -2096,7 +1854,7 @@
         <v>8.33</v>
       </c>
       <c r="Q8">
-        <v>-2.0299999999999998</v>
+        <v>-2.03</v>
       </c>
       <c r="R8">
         <v>1.41</v>
@@ -2177,7 +1935,7 @@
         <v>-5.71</v>
       </c>
       <c r="BE8">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="BF8">
         <v>3.39</v>
@@ -2210,7 +1968,7 @@
         <v>-2.06</v>
       </c>
       <c r="BP8">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="BQ8">
         <v>-5.46</v>
@@ -2222,7 +1980,7 @@
         <v>-12.35</v>
       </c>
       <c r="BT8">
-        <v>-9.11</v>
+        <v>-9.109999999999999</v>
       </c>
       <c r="BU8">
         <v>0</v>
@@ -2240,9 +1998,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>78</v>
+    <row r="9" spans="1:77">
+      <c r="A9">
+        <v>20241017</v>
       </c>
       <c r="B9">
         <v>1800</v>
@@ -2302,7 +2060,7 @@
         <v>11.19</v>
       </c>
       <c r="U9">
-        <v>78.650000000000006</v>
+        <v>78.65000000000001</v>
       </c>
       <c r="V9">
         <v>47.19</v>
@@ -2326,7 +2084,7 @@
         <v>3.48</v>
       </c>
       <c r="AC9">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AD9">
         <v>-2.08</v>
@@ -2341,7 +2099,7 @@
         <v>11.5</v>
       </c>
       <c r="AH9">
-        <v>84.85</v>
+        <v>84.84999999999999</v>
       </c>
       <c r="AI9">
         <v>60.61</v>
@@ -2353,7 +2111,7 @@
         <v>93.94</v>
       </c>
       <c r="AL9">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AZ9">
         <v>14</v>
@@ -2413,7 +2171,7 @@
         <v>4.72</v>
       </c>
       <c r="BS9">
-        <v>-4.1100000000000003</v>
+        <v>-4.11</v>
       </c>
       <c r="BT9">
         <v>0.45</v>
@@ -2434,9 +2192,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>79</v>
+    <row r="10" spans="1:77">
+      <c r="A10">
+        <v>20241018</v>
       </c>
       <c r="B10">
         <v>5094</v>
@@ -2508,7 +2266,7 @@
         <v>86.27</v>
       </c>
       <c r="Y10">
-        <v>98.04</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="Z10">
         <v>21</v>
@@ -2517,7 +2275,7 @@
         <v>3.42</v>
       </c>
       <c r="AB10">
-        <v>8.2899999999999991</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AC10">
         <v>10.36</v>
@@ -2535,19 +2293,19 @@
         <v>12.44</v>
       </c>
       <c r="AH10">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AI10">
-        <v>85.71</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="AJ10">
         <v>57.14</v>
       </c>
       <c r="AK10">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AL10">
-        <v>95.24</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="AZ10">
         <v>33</v>
@@ -2568,7 +2326,7 @@
         <v>5.13</v>
       </c>
       <c r="BF10">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="BG10">
         <v>9.67</v>
@@ -2577,13 +2335,13 @@
         <v>30.3</v>
       </c>
       <c r="BI10">
-        <v>75.760000000000005</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="BJ10">
         <v>93.94</v>
       </c>
       <c r="BK10">
-        <v>75.760000000000005</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="BL10">
         <v>90.91</v>
@@ -2598,7 +2356,7 @@
         <v>-0.43</v>
       </c>
       <c r="BP10">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="BQ10">
         <v>-5.81</v>
@@ -2607,7 +2365,7 @@
         <v>3.04</v>
       </c>
       <c r="BS10">
-        <v>-9.4499999999999993</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="BT10">
         <v>-6.69</v>
@@ -2628,9 +2386,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>80</v>
+    <row r="11" spans="1:77">
+      <c r="A11">
+        <v>20241021</v>
       </c>
       <c r="B11">
         <v>3773</v>
@@ -2675,7 +2433,7 @@
         <v>6.13</v>
       </c>
       <c r="P11">
-        <v>9.4600000000000009</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="Q11">
         <v>1.51</v>
@@ -2690,10 +2448,10 @@
         <v>16.8</v>
       </c>
       <c r="U11">
-        <v>83.96</v>
+        <v>83.95999999999999</v>
       </c>
       <c r="V11">
-        <v>86.79</v>
+        <v>86.79000000000001</v>
       </c>
       <c r="W11">
         <v>53.77</v>
@@ -2720,7 +2478,7 @@
         <v>3.68</v>
       </c>
       <c r="AE11">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="AF11">
         <v>12.42</v>
@@ -2729,7 +2487,7 @@
         <v>14.89</v>
       </c>
       <c r="AH11">
-        <v>82.76</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="AI11">
         <v>89.66</v>
@@ -2738,7 +2496,7 @@
         <v>41.38</v>
       </c>
       <c r="AK11">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AL11">
         <v>100</v>
@@ -2750,7 +2508,7 @@
         <v>-0.7</v>
       </c>
       <c r="BB11">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="BC11">
         <v>3.22</v>
@@ -2783,9 +2541,9 @@
         <v>96.88</v>
       </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>81</v>
+    <row r="12" spans="1:77">
+      <c r="A12">
+        <v>20241022</v>
       </c>
       <c r="B12">
         <v>3595</v>
@@ -2836,13 +2594,13 @@
         <v>-0.99</v>
       </c>
       <c r="R12">
-        <v>-1.1299999999999999</v>
+        <v>-1.13</v>
       </c>
       <c r="S12">
         <v>11.63</v>
       </c>
       <c r="T12">
-        <v>10.220000000000001</v>
+        <v>10.22</v>
       </c>
       <c r="U12">
         <v>76.38</v>
@@ -2854,7 +2612,7 @@
         <v>33.86</v>
       </c>
       <c r="X12">
-        <v>98.43</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="Y12">
         <v>93.7</v>
@@ -2914,10 +2672,10 @@
         <v>-3.95</v>
       </c>
       <c r="BE12">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="BF12">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="BG12">
         <v>5.97</v>
@@ -2938,9 +2696,9 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>82</v>
+    <row r="13" spans="1:77">
+      <c r="A13">
+        <v>20241023</v>
       </c>
       <c r="B13">
         <v>2752</v>
@@ -2979,7 +2737,7 @@
         <v>107</v>
       </c>
       <c r="N13">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="O13">
         <v>3.34</v>
@@ -2988,7 +2746,7 @@
         <v>8.18</v>
       </c>
       <c r="Q13">
-        <v>-0.28000000000000003</v>
+        <v>-0.28</v>
       </c>
       <c r="R13">
         <v>-0.96</v>
@@ -3009,7 +2767,7 @@
         <v>33.64</v>
       </c>
       <c r="X13">
-        <v>96.26</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="Y13">
         <v>91.59</v>
@@ -3021,22 +2779,22 @@
         <v>5.27</v>
       </c>
       <c r="AB13">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="AC13">
-        <v>8.6300000000000008</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="AD13">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AE13">
         <v>-1.08</v>
       </c>
       <c r="AF13">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG13">
-        <v>8.0500000000000007</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AH13">
         <v>82.61</v>
@@ -3060,13 +2818,13 @@
         <v>-2.4</v>
       </c>
       <c r="BB13">
-        <v>-0.94</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="BC13">
         <v>3.92</v>
       </c>
       <c r="BD13">
-        <v>-5.0599999999999996</v>
+        <v>-5.06</v>
       </c>
       <c r="BE13">
         <v>1.56</v>
@@ -3093,9 +2851,9 @@
         <v>86.11</v>
       </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>83</v>
+    <row r="14" spans="1:77">
+      <c r="A14">
+        <v>20241024</v>
       </c>
       <c r="B14">
         <v>2141</v>
@@ -3137,13 +2895,13 @@
         <v>3.92</v>
       </c>
       <c r="O14">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="P14">
         <v>7.57</v>
       </c>
       <c r="Q14">
-        <v>-2.4300000000000002</v>
+        <v>-2.43</v>
       </c>
       <c r="R14">
         <v>-1.26</v>
@@ -3161,13 +2919,13 @@
         <v>60.64</v>
       </c>
       <c r="W14">
-        <v>32.979999999999997</v>
+        <v>32.98</v>
       </c>
       <c r="X14">
         <v>96.81</v>
       </c>
       <c r="Y14">
-        <v>91.49</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="Z14">
         <v>41</v>
@@ -3176,13 +2934,13 @@
         <v>5.58</v>
       </c>
       <c r="AB14">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="AC14">
-        <v>8.7200000000000006</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="AD14">
-        <v>-2.3199999999999998</v>
+        <v>-2.32</v>
       </c>
       <c r="AE14">
         <v>-1.18</v>
@@ -3191,22 +2949,22 @@
         <v>9.98</v>
       </c>
       <c r="AG14">
-        <v>8.6300000000000008</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="AH14">
         <v>75.61</v>
       </c>
       <c r="AI14">
-        <v>68.290000000000006</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="AJ14">
         <v>29.27</v>
       </c>
       <c r="AK14">
-        <v>92.68</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="AL14">
-        <v>82.93</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="AZ14">
         <v>41</v>
@@ -3236,7 +2994,7 @@
         <v>21.95</v>
       </c>
       <c r="BI14">
-        <v>36.590000000000003</v>
+        <v>36.59</v>
       </c>
       <c r="BJ14">
         <v>56.1</v>
@@ -3269,7 +3027,7 @@
         <v>-12.2</v>
       </c>
       <c r="BT14">
-        <v>-4.1399999999999997</v>
+        <v>-4.14</v>
       </c>
       <c r="BU14">
         <v>0</v>
@@ -3287,9 +3045,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>84</v>
+    <row r="15" spans="1:77">
+      <c r="A15">
+        <v>20241025</v>
       </c>
       <c r="B15">
         <v>4303</v>
@@ -3349,7 +3107,7 @@
         <v>15.39</v>
       </c>
       <c r="U15">
-        <v>82.35</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="V15">
         <v>89.41</v>
@@ -3358,7 +3116,7 @@
         <v>54.12</v>
       </c>
       <c r="X15">
-        <v>95.29</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="Y15">
         <v>100</v>
@@ -3406,7 +3164,7 @@
         <v>25</v>
       </c>
       <c r="BA15">
-        <v>-0.28999999999999998</v>
+        <v>-0.29</v>
       </c>
       <c r="BB15">
         <v>4.66</v>
@@ -3418,7 +3176,7 @@
         <v>-2.35</v>
       </c>
       <c r="BE15">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="BF15">
         <v>0.44</v>
@@ -3481,9 +3239,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>85</v>
+    <row r="16" spans="1:77">
+      <c r="A16">
+        <v>20241028</v>
       </c>
       <c r="B16">
         <v>4223</v>
@@ -3552,7 +3310,7 @@
         <v>58.44</v>
       </c>
       <c r="X16">
-        <v>99.35</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="Y16">
         <v>100</v>
@@ -3564,13 +3322,13 @@
         <v>5.95</v>
       </c>
       <c r="AB16">
-        <v>8.2899999999999991</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AC16">
         <v>9.59</v>
       </c>
       <c r="AD16">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="AE16">
         <v>2.29</v>
@@ -3585,7 +3343,7 @@
         <v>92.06</v>
       </c>
       <c r="AI16">
-        <v>95.24</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="AJ16">
         <v>61.9</v>
@@ -3636,9 +3394,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>86</v>
+    <row r="17" spans="1:77">
+      <c r="A17">
+        <v>20241029</v>
       </c>
       <c r="B17">
         <v>1062</v>
@@ -3680,7 +3438,7 @@
         <v>5.22</v>
       </c>
       <c r="O17">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="P17">
         <v>8.48</v>
@@ -3728,10 +3486,10 @@
         <v>0.49</v>
       </c>
       <c r="AE17">
-        <v>-2.2799999999999998</v>
+        <v>-2.28</v>
       </c>
       <c r="AF17">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="AG17">
         <v>7.44</v>
@@ -3779,10 +3537,10 @@
         <v>27.78</v>
       </c>
       <c r="BI17">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BJ17">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BK17">
         <v>88.89</v>
@@ -3791,9 +3549,9 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>87</v>
+    <row r="18" spans="1:77">
+      <c r="A18">
+        <v>20241030</v>
       </c>
       <c r="B18">
         <v>2320</v>
@@ -3838,7 +3596,7 @@
         <v>4.99</v>
       </c>
       <c r="P18">
-        <v>8.4499999999999993</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Q18">
         <v>-1.63</v>
@@ -3871,7 +3629,7 @@
         <v>51</v>
       </c>
       <c r="AA18">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="AB18">
         <v>7.17</v>
@@ -3889,10 +3647,10 @@
         <v>6.61</v>
       </c>
       <c r="AG18">
-        <v>9.2799999999999994</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AH18">
-        <v>74.510000000000005</v>
+        <v>74.51000000000001</v>
       </c>
       <c r="AI18">
         <v>84.31</v>
@@ -3940,7 +3698,7 @@
         <v>60.53</v>
       </c>
       <c r="BK18">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="BL18">
         <v>48.68</v>
@@ -3985,9 +3743,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>88</v>
+    <row r="19" spans="1:77">
+      <c r="A19">
+        <v>20241031</v>
       </c>
       <c r="B19">
         <v>3512</v>
@@ -4071,7 +3829,7 @@
         <v>7.82</v>
       </c>
       <c r="AC19">
-        <v>10.029999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="AD19">
         <v>1.94</v>
@@ -4125,7 +3883,7 @@
         <v>5.63</v>
       </c>
       <c r="BH19">
-        <v>17.239999999999998</v>
+        <v>17.24</v>
       </c>
       <c r="BI19">
         <v>55.17</v>
@@ -4137,7 +3895,7 @@
         <v>72.41</v>
       </c>
       <c r="BL19">
-        <v>82.76</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="BM19">
         <v>4</v>
@@ -4161,7 +3919,7 @@
         <v>-7.72</v>
       </c>
       <c r="BT19">
-        <v>-8.3000000000000007</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="BU19">
         <v>0</v>
@@ -4179,9 +3937,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>123</v>
+    <row r="20" spans="1:77">
+      <c r="A20">
+        <v>20241101</v>
       </c>
       <c r="B20">
         <v>975</v>
@@ -4244,7 +4002,7 @@
         <v>89.53</v>
       </c>
       <c r="V20">
-        <v>38.950000000000003</v>
+        <v>38.95</v>
       </c>
       <c r="W20">
         <v>11.63</v>
@@ -4289,7 +4047,7 @@
         <v>9.09</v>
       </c>
       <c r="AK20">
-        <v>97.4</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AL20">
         <v>45.45</v>
@@ -4319,7 +4077,7 @@
         <v>-1.27</v>
       </c>
       <c r="BH20">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="BI20">
         <v>15.29</v>
@@ -4328,7 +4086,7 @@
         <v>14.12</v>
       </c>
       <c r="BK20">
-        <v>78.819999999999993</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="BL20">
         <v>36.47</v>
@@ -4373,9 +4131,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>124</v>
+    <row r="21" spans="1:77">
+      <c r="A21">
+        <v>20241104</v>
       </c>
       <c r="B21">
         <v>4495</v>
@@ -4423,7 +4181,7 @@
         <v>6.54</v>
       </c>
       <c r="Q21">
-        <v>-4.1500000000000004</v>
+        <v>-4.15</v>
       </c>
       <c r="R21">
         <v>-1.41</v>
@@ -4432,7 +4190,7 @@
         <v>10.25</v>
       </c>
       <c r="T21">
-        <v>8.6300000000000008</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="U21">
         <v>64.89</v>
@@ -4444,16 +4202,16 @@
         <v>31.91</v>
       </c>
       <c r="X21">
-        <v>80.849999999999994</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="Y21">
-        <v>79.790000000000006</v>
+        <v>79.79000000000001</v>
       </c>
       <c r="Z21">
         <v>40</v>
       </c>
       <c r="AA21">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="AB21">
         <v>1.31</v>
@@ -4465,7 +4223,7 @@
         <v>-5.68</v>
       </c>
       <c r="AE21">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="AF21">
         <v>4.42</v>
@@ -4495,7 +4253,7 @@
         <v>-2.02</v>
       </c>
       <c r="BB21">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="BC21">
         <v>4.05</v>
@@ -4516,7 +4274,7 @@
         <v>28.3</v>
       </c>
       <c r="BI21">
-        <v>39.619999999999997</v>
+        <v>39.62</v>
       </c>
       <c r="BJ21">
         <v>54.72</v>
@@ -4567,9 +4325,9 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>125</v>
+    <row r="22" spans="1:77">
+      <c r="A22">
+        <v>20241105</v>
       </c>
       <c r="B22">
         <v>5069</v>
@@ -4632,13 +4390,13 @@
         <v>80</v>
       </c>
       <c r="V22">
-        <v>88.57</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="W22">
         <v>57.86</v>
       </c>
       <c r="X22">
-        <v>99.29</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="Y22">
         <v>100</v>
@@ -4656,7 +4414,7 @@
         <v>9.24</v>
       </c>
       <c r="AD22">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AE22">
         <v>0.97</v>
@@ -4704,7 +4462,7 @@
         <v>3.32</v>
       </c>
       <c r="BG22">
-        <v>8.7200000000000006</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="BH22">
         <v>13.33</v>
@@ -4731,7 +4489,7 @@
         <v>0.52</v>
       </c>
       <c r="BP22">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="BQ22">
         <v>-6.56</v>
@@ -4743,7 +4501,7 @@
         <v>-5.49</v>
       </c>
       <c r="BT22">
-        <v>-0.28000000000000003</v>
+        <v>-0.28</v>
       </c>
       <c r="BU22">
         <v>5.56</v>
@@ -4761,9 +4519,9 @@
         <v>41.67</v>
       </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>126</v>
+    <row r="23" spans="1:77">
+      <c r="A23">
+        <v>20241106</v>
       </c>
       <c r="B23">
         <v>2828</v>
@@ -4802,13 +4560,13 @@
         <v>160</v>
       </c>
       <c r="N23">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="O23">
         <v>5.13</v>
       </c>
       <c r="P23">
-        <v>9.0500000000000007</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q23">
         <v>1.24</v>
@@ -4886,7 +4644,7 @@
         <v>0.06</v>
       </c>
       <c r="BC23">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="BD23">
         <v>-3.81</v>
@@ -4916,9 +4674,9 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>127</v>
+    <row r="24" spans="1:77">
+      <c r="A24">
+        <v>20241107</v>
       </c>
       <c r="B24">
         <v>4528</v>
@@ -4963,7 +4721,7 @@
         <v>4.13</v>
       </c>
       <c r="P24">
-        <v>8.2100000000000009</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="Q24">
         <v>-1.39</v>
@@ -4978,13 +4736,13 @@
         <v>11.22</v>
       </c>
       <c r="U24">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="V24">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="W24">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="X24">
         <v>91.2</v>
@@ -5023,7 +4781,7 @@
         <v>67.8</v>
       </c>
       <c r="AJ24">
-        <v>35.590000000000003</v>
+        <v>35.59</v>
       </c>
       <c r="AK24">
         <v>83.05</v>
@@ -5074,13 +4832,13 @@
         <v>3</v>
       </c>
       <c r="BN24">
-        <v>-8.1999999999999993</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="BO24">
-        <v>-8.3800000000000008</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="BP24">
-        <v>-2.4300000000000002</v>
+        <v>-2.43</v>
       </c>
       <c r="BQ24">
         <v>-10</v>
@@ -5110,9 +4868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>128</v>
+    <row r="25" spans="1:77">
+      <c r="A25">
+        <v>20241108</v>
       </c>
       <c r="B25">
         <v>2221</v>
@@ -5151,7 +4909,7 @@
         <v>185</v>
       </c>
       <c r="N25">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="O25">
         <v>1.42</v>
@@ -5172,7 +4930,7 @@
         <v>10.99</v>
       </c>
       <c r="U25">
-        <v>87.57</v>
+        <v>87.56999999999999</v>
       </c>
       <c r="V25">
         <v>52.97</v>
@@ -5208,10 +4966,10 @@
         <v>12.19</v>
       </c>
       <c r="AG25">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AH25">
-        <v>82.76</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="AI25">
         <v>58.62</v>
@@ -5262,7 +5020,7 @@
         <v>66.67</v>
       </c>
       <c r="BL25">
-        <v>71.790000000000006</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="BM25">
         <v>7</v>
@@ -5277,13 +5035,13 @@
         <v>2.88</v>
       </c>
       <c r="BQ25">
-        <v>-8.1199999999999992</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="BR25">
         <v>1.67</v>
       </c>
       <c r="BS25">
-        <v>-8.7100000000000009</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="BT25">
         <v>-7.27</v>
@@ -5304,9 +5062,9 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>129</v>
+    <row r="26" spans="1:77">
+      <c r="A26">
+        <v>20241111</v>
       </c>
       <c r="B26">
         <v>3939</v>
@@ -5366,7 +5124,7 @@
         <v>10.83</v>
       </c>
       <c r="U26">
-        <v>65.709999999999994</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="V26">
         <v>72.38</v>
@@ -5396,7 +5154,7 @@
         <v>-3.11</v>
       </c>
       <c r="AE26">
-        <v>-0.28999999999999998</v>
+        <v>-0.29</v>
       </c>
       <c r="AF26">
         <v>5.62</v>
@@ -5435,10 +5193,10 @@
         <v>-4.46</v>
       </c>
       <c r="BE26">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="BF26">
-        <v>-0.56999999999999995</v>
+        <v>-0.57</v>
       </c>
       <c r="BG26">
         <v>1.96</v>
@@ -5498,9 +5256,9 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>130</v>
+    <row r="27" spans="1:77">
+      <c r="A27">
+        <v>20241112</v>
       </c>
       <c r="B27">
         <v>1486</v>
@@ -5569,10 +5327,10 @@
         <v>17.29</v>
       </c>
       <c r="X27">
-        <v>95.49</v>
+        <v>95.48999999999999</v>
       </c>
       <c r="Y27">
-        <v>84.96</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="Z27">
         <v>43</v>
@@ -5593,7 +5351,7 @@
         <v>-3.36</v>
       </c>
       <c r="AF27">
-        <v>8.7200000000000006</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="AG27">
         <v>5.05</v>
@@ -5605,7 +5363,7 @@
         <v>41.86</v>
       </c>
       <c r="AJ27">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="AK27">
         <v>86.05</v>
@@ -5641,16 +5399,16 @@
         <v>34.04</v>
       </c>
       <c r="BI27">
-        <v>19.149999999999999</v>
+        <v>19.15</v>
       </c>
       <c r="BJ27">
         <v>23.4</v>
       </c>
       <c r="BK27">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="BL27">
-        <v>65.959999999999994</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="BM27">
         <v>15</v>
@@ -5665,7 +5423,7 @@
         <v>-0.64</v>
       </c>
       <c r="BQ27">
-        <v>-8.1999999999999993</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="BR27">
         <v>1.49</v>
@@ -5692,9 +5450,9 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>131</v>
+    <row r="28" spans="1:77">
+      <c r="A28">
+        <v>20241113</v>
       </c>
       <c r="B28">
         <v>2586</v>
@@ -5793,19 +5551,19 @@
         <v>6.44</v>
       </c>
       <c r="AH28">
-        <v>64.290000000000006</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="AI28">
-        <v>64.290000000000006</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="AJ28">
         <v>39.29</v>
       </c>
       <c r="AK28">
-        <v>89.29</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="AL28">
-        <v>78.569999999999993</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="AZ28">
         <v>51</v>
@@ -5817,13 +5575,13 @@
         <v>-1.43</v>
       </c>
       <c r="BC28">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="BD28">
         <v>-4.91</v>
       </c>
       <c r="BE28">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="BF28">
         <v>2.56</v>
@@ -5841,10 +5599,10 @@
         <v>49.02</v>
       </c>
       <c r="BK28">
-        <v>82.35</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="BL28">
-        <v>78.430000000000007</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="BM28">
         <v>15</v>
@@ -5886,9 +5644,9 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>132</v>
+    <row r="29" spans="1:77">
+      <c r="A29">
+        <v>20241114</v>
       </c>
       <c r="B29">
         <v>487</v>
@@ -5966,7 +5724,7 @@
         <v>18</v>
       </c>
       <c r="AA29">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="AB29">
         <v>2.27</v>
@@ -5981,10 +5739,10 @@
         <v>-0.22</v>
       </c>
       <c r="AF29">
-        <v>9.0399999999999991</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="AG29">
-        <v>8.7899999999999991</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AH29">
         <v>55.56</v>
@@ -6050,7 +5808,7 @@
         <v>-7.45</v>
       </c>
       <c r="BP29">
-        <v>-2.3199999999999998</v>
+        <v>-2.32</v>
       </c>
       <c r="BQ29">
         <v>-8.16</v>
@@ -6080,9 +5838,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>133</v>
+    <row r="30" spans="1:77">
+      <c r="A30">
+        <v>20241115</v>
       </c>
       <c r="B30">
         <v>929</v>
@@ -6124,7 +5882,7 @@
         <v>1.64</v>
       </c>
       <c r="O30">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="P30">
         <v>8.67</v>
@@ -6136,7 +5894,7 @@
         <v>2.61</v>
       </c>
       <c r="S30">
-        <v>9.0299999999999994</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T30">
         <v>11.75</v>
@@ -6166,10 +5924,10 @@
         <v>4.33</v>
       </c>
       <c r="AC30">
-        <v>9.2100000000000009</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="AD30">
-        <v>-2.2200000000000002</v>
+        <v>-2.22</v>
       </c>
       <c r="AE30">
         <v>2.62</v>
@@ -6217,7 +5975,7 @@
         <v>-0.95</v>
       </c>
       <c r="BG30">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="BH30">
         <v>12.9</v>
@@ -6250,7 +6008,7 @@
         <v>-7.67</v>
       </c>
       <c r="BR30">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="BS30">
         <v>-9.99</v>
@@ -6265,7 +6023,7 @@
         <v>15.79</v>
       </c>
       <c r="BW30">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="BX30">
         <v>0</v>
@@ -6274,9 +6032,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>134</v>
+    <row r="31" spans="1:77">
+      <c r="A31">
+        <v>20241118</v>
       </c>
       <c r="B31">
         <v>1165</v>
@@ -6387,7 +6145,7 @@
         <v>100</v>
       </c>
       <c r="AL31">
-        <v>85.71</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="AZ31">
         <v>30</v>
@@ -6396,7 +6154,7 @@
         <v>-1.27</v>
       </c>
       <c r="BB31">
-        <v>-4.4000000000000004</v>
+        <v>-4.4</v>
       </c>
       <c r="BC31">
         <v>1.89</v>
@@ -6447,13 +6205,13 @@
         <v>-1.43</v>
       </c>
       <c r="BS31">
-        <v>-8.0299999999999994</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="BT31">
-        <v>-9.3699999999999992</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="BU31">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BV31">
         <v>26.09</v>
@@ -6465,12 +6223,12 @@
         <v>0</v>
       </c>
       <c r="BY31">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>135</v>
+    <row r="32" spans="1:77">
+      <c r="A32">
+        <v>20241119</v>
       </c>
       <c r="B32">
         <v>4516</v>
@@ -6518,7 +6276,7 @@
         <v>5.81</v>
       </c>
       <c r="Q32">
-        <v>-4.3899999999999997</v>
+        <v>-4.39</v>
       </c>
       <c r="R32">
         <v>1.24</v>
@@ -6662,9 +6420,9 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>136</v>
+    <row r="33" spans="1:77">
+      <c r="A33">
+        <v>20241120</v>
       </c>
       <c r="B33">
         <v>4572</v>
@@ -6766,7 +6524,7 @@
         <v>75</v>
       </c>
       <c r="AI33">
-        <v>96.43</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="AJ33">
         <v>50</v>
@@ -6790,7 +6548,7 @@
         <v>5.17</v>
       </c>
       <c r="BD33">
-        <v>-4.8499999999999996</v>
+        <v>-4.85</v>
       </c>
       <c r="BE33">
         <v>6.61</v>
@@ -6832,7 +6590,7 @@
         <v>-5.89</v>
       </c>
       <c r="BR33">
-        <v>8.9499999999999993</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="BS33">
         <v>-6.18</v>
@@ -6856,9 +6614,9 @@
         <v>83.33</v>
       </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>137</v>
+    <row r="34" spans="1:77">
+      <c r="A34">
+        <v>20241121</v>
       </c>
       <c r="B34">
         <v>2564</v>
@@ -6927,7 +6685,7 @@
         <v>40.54</v>
       </c>
       <c r="X34">
-        <v>98.65</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="Y34">
         <v>97.97</v>
@@ -6942,13 +6700,13 @@
         <v>4.2</v>
       </c>
       <c r="AC34">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD34">
         <v>0.52</v>
       </c>
       <c r="AE34">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="AF34">
         <v>11.65</v>
@@ -6957,7 +6715,7 @@
         <v>10.38</v>
       </c>
       <c r="AH34">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AI34">
         <v>74.55</v>
@@ -6978,7 +6736,7 @@
         <v>-1.59</v>
       </c>
       <c r="BB34">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="BC34">
         <v>4.21</v>
@@ -6987,13 +6745,13 @@
         <v>-3.28</v>
       </c>
       <c r="BE34">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="BF34">
         <v>5.96</v>
       </c>
       <c r="BG34">
-        <v>8.2799999999999994</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="BH34">
         <v>15.38</v>
@@ -7014,7 +6772,7 @@
         <v>2</v>
       </c>
       <c r="BN34">
-        <v>-2.2799999999999998</v>
+        <v>-2.28</v>
       </c>
       <c r="BO34">
         <v>-3.1</v>
@@ -7050,9 +6808,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>138</v>
+    <row r="35" spans="1:77">
+      <c r="A35">
+        <v>20241122</v>
       </c>
       <c r="B35">
         <v>429</v>
@@ -7124,7 +6882,7 @@
         <v>92.16</v>
       </c>
       <c r="Y35">
-        <v>88.24</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="Z35">
         <v>51</v>
@@ -7163,7 +6921,7 @@
         <v>86.27</v>
       </c>
       <c r="AL35">
-        <v>82.35</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="AZ35">
         <v>41</v>
@@ -7208,16 +6966,16 @@
         <v>3</v>
       </c>
       <c r="BN35">
-        <v>-4.2300000000000004</v>
+        <v>-4.23</v>
       </c>
       <c r="BO35">
-        <v>-9.61</v>
+        <v>-9.609999999999999</v>
       </c>
       <c r="BP35">
         <v>-2.16</v>
       </c>
       <c r="BQ35">
-        <v>-9.6999999999999993</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="BR35">
         <v>-5.59</v>
@@ -7244,9 +7002,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>139</v>
+    <row r="36" spans="1:77">
+      <c r="A36">
+        <v>20241125</v>
       </c>
       <c r="B36">
         <v>3734</v>
@@ -7294,7 +7052,7 @@
         <v>8.51</v>
       </c>
       <c r="Q36">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="R36">
         <v>2.21</v>
@@ -7306,7 +7064,7 @@
         <v>13.46</v>
       </c>
       <c r="U36">
-        <v>72.459999999999994</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="V36">
         <v>82.61</v>
@@ -7318,7 +7076,7 @@
         <v>91.3</v>
       </c>
       <c r="Y36">
-        <v>86.96</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="Z36">
         <v>40</v>
@@ -7378,7 +7136,7 @@
         <v>1.59</v>
       </c>
       <c r="BF36">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="BG36">
         <v>5.92</v>
@@ -7393,7 +7151,7 @@
         <v>53.73</v>
       </c>
       <c r="BK36">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="BL36">
         <v>71.64</v>
@@ -7423,7 +7181,7 @@
         <v>-7.98</v>
       </c>
       <c r="BU36">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BV36">
         <v>33.33</v>
@@ -7438,9 +7196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>140</v>
+    <row r="37" spans="1:77">
+      <c r="A37">
+        <v>20241126</v>
       </c>
       <c r="B37">
         <v>1536</v>
@@ -7491,7 +7249,7 @@
         <v>-3.46</v>
       </c>
       <c r="R37">
-        <v>-4.1399999999999997</v>
+        <v>-4.14</v>
       </c>
       <c r="S37">
         <v>10.44</v>
@@ -7530,13 +7288,13 @@
         <v>-5.54</v>
       </c>
       <c r="AE37">
-        <v>-4.9000000000000004</v>
+        <v>-4.9</v>
       </c>
       <c r="AF37">
         <v>5.99</v>
       </c>
       <c r="AG37">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="AH37">
         <v>52.54</v>
@@ -7545,7 +7303,7 @@
         <v>25.42</v>
       </c>
       <c r="AJ37">
-        <v>8.4700000000000006</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="AK37">
         <v>79.66</v>
@@ -7608,7 +7366,7 @@
         <v>-8.43</v>
       </c>
       <c r="BR37">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="BS37">
         <v>-11.18</v>
@@ -7632,9 +7390,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>141</v>
+    <row r="38" spans="1:77">
+      <c r="A38">
+        <v>20241127</v>
       </c>
       <c r="B38">
         <v>4329</v>
@@ -7691,7 +7449,7 @@
         <v>7.34</v>
       </c>
       <c r="T38">
-        <v>8.9600000000000009</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="U38">
         <v>34.83</v>
@@ -7706,7 +7464,7 @@
         <v>86.52</v>
       </c>
       <c r="Y38">
-        <v>83.15</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="Z38">
         <v>31</v>
@@ -7751,10 +7509,10 @@
         <v>58</v>
       </c>
       <c r="BA38">
-        <v>-4.2300000000000004</v>
+        <v>-4.23</v>
       </c>
       <c r="BB38">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="BC38">
         <v>3.05</v>
@@ -7778,7 +7536,7 @@
         <v>50</v>
       </c>
       <c r="BJ38">
-        <v>87.93</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="BK38">
         <v>53.45</v>
@@ -7802,7 +7560,7 @@
         <v>-7.69</v>
       </c>
       <c r="BR38">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="BS38">
         <v>-11.84</v>
@@ -7826,9 +7584,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>142</v>
+    <row r="39" spans="1:77">
+      <c r="A39">
+        <v>20241128</v>
       </c>
       <c r="B39">
         <v>2530</v>
@@ -7867,16 +7625,16 @@
         <v>94</v>
       </c>
       <c r="N39">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="O39">
         <v>3.9</v>
       </c>
       <c r="P39">
-        <v>9.0500000000000007</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q39">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="R39">
         <v>-0.64</v>
@@ -7951,7 +7709,7 @@
         <v>0.66</v>
       </c>
       <c r="BC39">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="BD39">
         <v>-2.67</v>
@@ -7999,7 +7757,7 @@
         <v>-2.59</v>
       </c>
       <c r="BS39">
-        <v>-4.3899999999999997</v>
+        <v>-4.39</v>
       </c>
       <c r="BT39">
         <v>-6.96</v>
@@ -8020,9 +7778,9 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>143</v>
+    <row r="40" spans="1:77">
+      <c r="A40">
+        <v>20241129</v>
       </c>
       <c r="B40">
         <v>4290</v>
@@ -8076,16 +7834,16 @@
         <v>1.2</v>
       </c>
       <c r="S40">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="T40">
         <v>11.3</v>
       </c>
       <c r="U40">
-        <v>66.290000000000006</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="V40">
-        <v>68.540000000000006</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="W40">
         <v>53.93</v>
@@ -8094,7 +7852,7 @@
         <v>92.13</v>
       </c>
       <c r="Y40">
-        <v>93.26</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="Z40">
         <v>39</v>
@@ -8121,7 +7879,7 @@
         <v>9.9</v>
       </c>
       <c r="AH40">
-        <v>64.099999999999994</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="AI40">
         <v>69.23</v>
@@ -8133,7 +7891,7 @@
         <v>84.62</v>
       </c>
       <c r="AL40">
-        <v>89.74</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="AZ40">
         <v>57</v>
@@ -8142,7 +7900,7 @@
         <v>-2.97</v>
       </c>
       <c r="BB40">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="BC40">
         <v>2.78</v>
@@ -8166,13 +7924,13 @@
         <v>33.33</v>
       </c>
       <c r="BJ40">
-        <v>71.930000000000007</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="BK40">
         <v>61.4</v>
       </c>
       <c r="BL40">
-        <v>70.180000000000007</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="BM40">
         <v>6</v>
@@ -8193,30 +7951,30 @@
         <v>-2.37</v>
       </c>
       <c r="BS40">
-        <v>-9.36</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="BT40">
         <v>-11.45</v>
       </c>
       <c r="BU40">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BV40">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BW40">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BX40">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BY40">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>101</v>
+    <row r="41" spans="1:77">
+      <c r="A41">
+        <v>20241202</v>
       </c>
       <c r="B41">
         <v>4644</v>
@@ -8261,7 +8019,7 @@
         <v>5.53</v>
       </c>
       <c r="P41">
-        <v>8.86</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Q41">
         <v>0.68</v>
@@ -8279,13 +8037,13 @@
         <v>73.81</v>
       </c>
       <c r="V41">
-        <v>85.71</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="W41">
         <v>66.67</v>
       </c>
       <c r="X41">
-        <v>95.24</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="Y41">
         <v>96.03</v>
@@ -8372,13 +8130,13 @@
         <v>7</v>
       </c>
       <c r="BN41">
-        <v>-5.0999999999999996</v>
+        <v>-5.1</v>
       </c>
       <c r="BO41">
         <v>-2.9</v>
       </c>
       <c r="BP41">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="BQ41">
         <v>-7.03</v>
@@ -8387,7 +8145,7 @@
         <v>2.27</v>
       </c>
       <c r="BS41">
-        <v>-8.11</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="BT41">
         <v>-5.98</v>
@@ -8399,7 +8157,7 @@
         <v>14.29</v>
       </c>
       <c r="BW41">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="BX41">
         <v>0</v>
@@ -8408,9 +8166,9 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>102</v>
+    <row r="42" spans="1:77">
+      <c r="A42">
+        <v>20241203</v>
       </c>
       <c r="B42">
         <v>2448</v>
@@ -8449,7 +8207,7 @@
         <v>158</v>
       </c>
       <c r="N42">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="O42">
         <v>2.4</v>
@@ -8488,16 +8246,16 @@
         <v>60</v>
       </c>
       <c r="AA42">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="AB42">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="AC42">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD42">
-        <v>-1.1399999999999999</v>
+        <v>-1.14</v>
       </c>
       <c r="AE42">
         <v>-2.25</v>
@@ -8536,7 +8294,7 @@
         <v>2.33</v>
       </c>
       <c r="BD42">
-        <v>-4.1900000000000004</v>
+        <v>-4.19</v>
       </c>
       <c r="BE42">
         <v>-0.39</v>
@@ -8560,7 +8318,7 @@
         <v>80.39</v>
       </c>
       <c r="BL42">
-        <v>74.510000000000005</v>
+        <v>74.51000000000001</v>
       </c>
       <c r="BM42">
         <v>5</v>
@@ -8572,10 +8330,10 @@
         <v>-6.52</v>
       </c>
       <c r="BP42">
-        <v>-2.4300000000000002</v>
+        <v>-2.43</v>
       </c>
       <c r="BQ42">
-        <v>-8.6999999999999993</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="BR42">
         <v>-0.62</v>
@@ -8602,9 +8360,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>103</v>
+    <row r="43" spans="1:77">
+      <c r="A43">
+        <v>20241204</v>
       </c>
       <c r="B43">
         <v>981</v>
@@ -8712,7 +8470,7 @@
         <v>25.45</v>
       </c>
       <c r="AK43">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AL43">
         <v>63.64</v>
@@ -8727,7 +8485,7 @@
         <v>-2.52</v>
       </c>
       <c r="BC43">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="BD43">
         <v>-6.05</v>
@@ -8784,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="BV43">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BW43">
         <v>33.33</v>
@@ -8796,9 +8554,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>104</v>
+    <row r="44" spans="1:77">
+      <c r="A44">
+        <v>20241205</v>
       </c>
       <c r="B44">
         <v>3823</v>
@@ -8837,7 +8595,7 @@
         <v>82</v>
       </c>
       <c r="N44">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="O44">
         <v>3.75</v>
@@ -8858,7 +8616,7 @@
         <v>11.55</v>
       </c>
       <c r="U44">
-        <v>68.290000000000006</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="V44">
         <v>73.17</v>
@@ -8867,7 +8625,7 @@
         <v>51.22</v>
       </c>
       <c r="X44">
-        <v>90.24</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="Y44">
         <v>85.37</v>
@@ -8885,7 +8643,7 @@
         <v>7.19</v>
       </c>
       <c r="AD44">
-        <v>-2.0099999999999998</v>
+        <v>-2.01</v>
       </c>
       <c r="AE44">
         <v>2.04</v>
@@ -8906,10 +8664,10 @@
         <v>42.11</v>
       </c>
       <c r="AK44">
-        <v>84.21</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="AL44">
-        <v>73.680000000000007</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="AZ44">
         <v>51</v>
@@ -8927,7 +8685,7 @@
         <v>-4.43</v>
       </c>
       <c r="BE44">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="BF44">
         <v>-0.36</v>
@@ -8936,7 +8694,7 @@
         <v>1.77</v>
       </c>
       <c r="BH44">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="BI44">
         <v>41.18</v>
@@ -8945,7 +8703,7 @@
         <v>68.63</v>
       </c>
       <c r="BK44">
-        <v>64.709999999999994</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="BL44">
         <v>66.67</v>
@@ -8990,9 +8748,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>105</v>
+    <row r="45" spans="1:77">
+      <c r="A45">
+        <v>20241206</v>
       </c>
       <c r="B45">
         <v>3635</v>
@@ -9070,16 +8828,16 @@
         <v>45</v>
       </c>
       <c r="AA45">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="AB45">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="AC45">
         <v>8.23</v>
       </c>
       <c r="AD45">
-        <v>-2.0699999999999998</v>
+        <v>-2.07</v>
       </c>
       <c r="AE45">
         <v>-2.12</v>
@@ -9088,7 +8846,7 @@
         <v>10.96</v>
       </c>
       <c r="AG45">
-        <v>8.5299999999999994</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="AH45">
         <v>71.11</v>
@@ -9109,7 +8867,7 @@
         <v>21</v>
       </c>
       <c r="BA45">
-        <v>-0.94</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="BB45">
         <v>-1.19</v>
@@ -9142,7 +8900,7 @@
         <v>76.19</v>
       </c>
       <c r="BL45">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="BM45">
         <v>9</v>
@@ -9184,9 +8942,9 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>106</v>
+    <row r="46" spans="1:77">
+      <c r="A46">
+        <v>20241209</v>
       </c>
       <c r="B46">
         <v>2040</v>
@@ -9246,7 +9004,7 @@
         <v>9.5</v>
       </c>
       <c r="U46">
-        <v>82.46</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="V46">
         <v>51.75</v>
@@ -9255,7 +9013,7 @@
         <v>22.81</v>
       </c>
       <c r="X46">
-        <v>96.49</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="Y46">
         <v>87.72</v>
@@ -9267,7 +9025,7 @@
         <v>3.65</v>
       </c>
       <c r="AB46">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="AC46">
         <v>7.48</v>
@@ -9378,9 +9136,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>107</v>
+    <row r="47" spans="1:77">
+      <c r="A47">
+        <v>20241210</v>
       </c>
       <c r="B47">
         <v>2890</v>
@@ -9419,7 +9177,7 @@
         <v>100</v>
       </c>
       <c r="N47">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="O47">
         <v>2.34</v>
@@ -9464,7 +9222,7 @@
         <v>3.33</v>
       </c>
       <c r="AC47">
-        <v>9.1199999999999992</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="AD47">
         <v>-1.18</v>
@@ -9488,7 +9246,7 @@
         <v>23.68</v>
       </c>
       <c r="AK47">
-        <v>94.74</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="AL47">
         <v>71.05</v>
@@ -9497,7 +9255,7 @@
         <v>36</v>
       </c>
       <c r="BA47">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="BB47">
         <v>0.45</v>
@@ -9572,9 +9330,9 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>108</v>
+    <row r="48" spans="1:77">
+      <c r="A48">
+        <v>20241211</v>
       </c>
       <c r="B48">
         <v>3853</v>
@@ -9643,7 +9401,7 @@
         <v>59.05</v>
       </c>
       <c r="X48">
-        <v>84.76</v>
+        <v>84.76000000000001</v>
       </c>
       <c r="Y48">
         <v>93.33</v>
@@ -9670,7 +9428,7 @@
         <v>4.97</v>
       </c>
       <c r="AG48">
-        <v>8.7899999999999991</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AH48">
         <v>50</v>
@@ -9691,7 +9449,7 @@
         <v>54</v>
       </c>
       <c r="BA48">
-        <v>-2.1800000000000002</v>
+        <v>-2.18</v>
       </c>
       <c r="BB48">
         <v>-0.3</v>
@@ -9718,7 +9476,7 @@
         <v>51.85</v>
       </c>
       <c r="BJ48">
-        <v>74.069999999999993</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="BK48">
         <v>46.3</v>
@@ -9745,10 +9503,10 @@
         <v>-1.52</v>
       </c>
       <c r="BS48">
-        <v>-8.6999999999999993</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="BT48">
-        <v>-10.199999999999999</v>
+        <v>-10.2</v>
       </c>
       <c r="BU48">
         <v>33.33</v>
@@ -9766,9 +9524,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>109</v>
+    <row r="49" spans="1:77">
+      <c r="A49">
+        <v>20241212</v>
       </c>
       <c r="B49">
         <v>3536</v>
@@ -9849,7 +9607,7 @@
         <v>3.85</v>
       </c>
       <c r="AB49">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="AC49">
         <v>8.32</v>
@@ -9894,7 +9652,7 @@
         <v>3.8</v>
       </c>
       <c r="BD49">
-        <v>-4.5599999999999996</v>
+        <v>-4.56</v>
       </c>
       <c r="BE49">
         <v>2.87</v>
@@ -9915,10 +9673,10 @@
         <v>77.42</v>
       </c>
       <c r="BK49">
-        <v>80.650000000000006</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="BL49">
-        <v>90.32</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="BM49">
         <v>9</v>
@@ -9936,7 +9694,7 @@
         <v>-5.13</v>
       </c>
       <c r="BR49">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="BS49">
         <v>-4.38</v>
@@ -9960,9 +9718,9 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>110</v>
+    <row r="50" spans="1:77">
+      <c r="A50">
+        <v>20241213</v>
       </c>
       <c r="B50">
         <v>920</v>
@@ -10010,13 +9768,13 @@
         <v>7.14</v>
       </c>
       <c r="Q50">
-        <v>-2.4900000000000002</v>
+        <v>-2.49</v>
       </c>
       <c r="R50">
         <v>-0.77</v>
       </c>
       <c r="S50">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="T50">
         <v>9.32</v>
@@ -10031,7 +9789,7 @@
         <v>37.68</v>
       </c>
       <c r="X50">
-        <v>94.93</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="Y50">
         <v>92.03</v>
@@ -10043,7 +9801,7 @@
         <v>2.65</v>
       </c>
       <c r="AB50">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="AC50">
         <v>8.67</v>
@@ -10070,10 +9828,10 @@
         <v>41.94</v>
       </c>
       <c r="AK50">
-        <v>88.71</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="AL50">
-        <v>82.26</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="AZ50">
         <v>33</v>
@@ -10130,7 +9888,7 @@
         <v>-9.25</v>
       </c>
       <c r="BR50">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="BS50">
         <v>-11</v>
@@ -10154,9 +9912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>111</v>
+    <row r="51" spans="1:77">
+      <c r="A51">
+        <v>20241216</v>
       </c>
       <c r="B51">
         <v>1768</v>
@@ -10222,7 +9980,7 @@
         <v>56.25</v>
       </c>
       <c r="W51">
-        <v>34.380000000000003</v>
+        <v>34.38</v>
       </c>
       <c r="X51">
         <v>96.88</v>
@@ -10240,7 +9998,7 @@
         <v>1.9</v>
       </c>
       <c r="AC51">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD51">
         <v>-1.07</v>
@@ -10252,10 +10010,10 @@
         <v>11.27</v>
       </c>
       <c r="AG51">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH51">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="AI51">
         <v>59.57</v>
@@ -10264,7 +10022,7 @@
         <v>31.91</v>
       </c>
       <c r="AK51">
-        <v>95.74</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="AL51">
         <v>82.98</v>
@@ -10324,13 +10082,13 @@
         <v>-6.7</v>
       </c>
       <c r="BR51">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="BS51">
-        <v>-9.1300000000000008</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="BT51">
-        <v>-8.14</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="BU51">
         <v>20</v>
@@ -10348,9 +10106,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>112</v>
+    <row r="52" spans="1:77">
+      <c r="A52">
+        <v>20241217</v>
       </c>
       <c r="B52">
         <v>553</v>
@@ -10404,7 +10162,7 @@
         <v>-5.37</v>
       </c>
       <c r="S52">
-        <v>9.61</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="T52">
         <v>3.65</v>
@@ -10416,13 +10174,13 @@
         <v>31.31</v>
       </c>
       <c r="W52">
-        <v>17.170000000000002</v>
+        <v>17.17</v>
       </c>
       <c r="X52">
         <v>93.94</v>
       </c>
       <c r="Y52">
-        <v>67.680000000000007</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="Z52">
         <v>37</v>
@@ -10431,7 +10189,7 @@
         <v>2.25</v>
       </c>
       <c r="AB52">
-        <v>-4.7300000000000004</v>
+        <v>-4.73</v>
       </c>
       <c r="AC52">
         <v>4.21</v>
@@ -10479,7 +10237,7 @@
         <v>-8.74</v>
       </c>
       <c r="BE52">
-        <v>-4.9800000000000004</v>
+        <v>-4.98</v>
       </c>
       <c r="BF52">
         <v>-0.95</v>
@@ -10494,7 +10252,7 @@
         <v>10.45</v>
       </c>
       <c r="BJ52">
-        <v>8.9600000000000009</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="BK52">
         <v>46.27</v>
@@ -10542,9 +10300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>113</v>
+    <row r="53" spans="1:77">
+      <c r="A53">
+        <v>20241218</v>
       </c>
       <c r="B53">
         <v>2801</v>
@@ -10637,19 +10395,19 @@
         <v>4.82</v>
       </c>
       <c r="AF53">
-        <v>8.86</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="AG53">
         <v>14.08</v>
       </c>
       <c r="AH53">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AI53">
         <v>100</v>
       </c>
       <c r="AJ53">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AK53">
         <v>100</v>
@@ -10688,10 +10446,10 @@
         <v>38.24</v>
       </c>
       <c r="BJ53">
-        <v>64.709999999999994</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="BK53">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="BL53">
         <v>50</v>
@@ -10718,7 +10476,7 @@
         <v>-11.98</v>
       </c>
       <c r="BT53">
-        <v>-9.89</v>
+        <v>-9.890000000000001</v>
       </c>
       <c r="BU53">
         <v>3.97</v>
@@ -10736,9 +10494,9 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>114</v>
+    <row r="54" spans="1:77">
+      <c r="A54">
+        <v>20241219</v>
       </c>
       <c r="B54">
         <v>2422</v>
@@ -10825,7 +10583,7 @@
         <v>7.95</v>
       </c>
       <c r="AD54">
-        <v>-4.2300000000000004</v>
+        <v>-4.23</v>
       </c>
       <c r="AE54">
         <v>-3.22</v>
@@ -10930,9 +10688,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>115</v>
+    <row r="55" spans="1:77">
+      <c r="A55">
+        <v>20241220</v>
       </c>
       <c r="B55">
         <v>3555</v>
@@ -11124,9 +10882,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>116</v>
+    <row r="56" spans="1:77">
+      <c r="A56">
+        <v>20241223</v>
       </c>
       <c r="B56">
         <v>555</v>
@@ -11213,7 +10971,7 @@
         <v>7.11</v>
       </c>
       <c r="AD56">
-        <v>-4.1100000000000003</v>
+        <v>-4.11</v>
       </c>
       <c r="AE56">
         <v>-1.01</v>
@@ -11225,7 +10983,7 @@
         <v>5.69</v>
       </c>
       <c r="AH56">
-        <v>64.709999999999994</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="AI56">
         <v>52.94</v>
@@ -11234,7 +10992,7 @@
         <v>23.53</v>
       </c>
       <c r="AK56">
-        <v>82.35</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="AL56">
         <v>70.59</v>
@@ -11252,7 +11010,7 @@
         <v>1.21</v>
       </c>
       <c r="BD56">
-        <v>-8.2899999999999991</v>
+        <v>-8.289999999999999</v>
       </c>
       <c r="BE56">
         <v>-5.03</v>
@@ -11297,7 +11055,7 @@
         <v>-1.31</v>
       </c>
       <c r="BS56">
-        <v>-9.3800000000000008</v>
+        <v>-9.380000000000001</v>
       </c>
       <c r="BT56">
         <v>-10.85</v>
@@ -11309,7 +11067,7 @@
         <v>8.33</v>
       </c>
       <c r="BW56">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BX56">
         <v>0</v>
@@ -11318,9 +11076,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>117</v>
+    <row r="57" spans="1:77">
+      <c r="A57">
+        <v>20241224</v>
       </c>
       <c r="B57">
         <v>3913</v>
@@ -11359,10 +11117,10 @@
         <v>30</v>
       </c>
       <c r="N57">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="O57">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="P57">
         <v>8.16</v>
@@ -11404,7 +11162,7 @@
         <v>2.6</v>
       </c>
       <c r="AC57">
-        <v>8.3800000000000008</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="AD57">
         <v>-1.54</v>
@@ -11440,13 +11198,13 @@
         <v>-1.72</v>
       </c>
       <c r="BB57">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="BC57">
         <v>5.28</v>
       </c>
       <c r="BD57">
-        <v>-4.7699999999999996</v>
+        <v>-4.77</v>
       </c>
       <c r="BE57">
         <v>4.12</v>
@@ -11488,7 +11246,7 @@
         <v>-6.19</v>
       </c>
       <c r="BR57">
-        <v>-0.57999999999999996</v>
+        <v>-0.58</v>
       </c>
       <c r="BS57">
         <v>-10.15</v>
@@ -11512,9 +11270,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>118</v>
+    <row r="58" spans="1:77">
+      <c r="A58">
+        <v>20241225</v>
       </c>
       <c r="B58">
         <v>910</v>
@@ -11622,10 +11380,10 @@
         <v>28.57</v>
       </c>
       <c r="AK58">
-        <v>95.24</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="AL58">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AZ58">
         <v>26</v>
@@ -11634,7 +11392,7 @@
         <v>-2.71</v>
       </c>
       <c r="BB58">
-        <v>-4.8600000000000003</v>
+        <v>-4.86</v>
       </c>
       <c r="BC58">
         <v>0.79</v>
@@ -11643,13 +11401,13 @@
         <v>-7.22</v>
       </c>
       <c r="BE58">
-        <v>-2.2000000000000002</v>
+        <v>-2.2</v>
       </c>
       <c r="BF58">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="BG58">
-        <v>-1.1299999999999999</v>
+        <v>-1.13</v>
       </c>
       <c r="BH58">
         <v>11.54</v>
@@ -11679,7 +11437,7 @@
         <v>-2.8</v>
       </c>
       <c r="BQ58">
-        <v>-9.1300000000000008</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="BR58">
         <v>-0.61</v>
@@ -11706,9 +11464,9 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>119</v>
+    <row r="59" spans="1:77">
+      <c r="A59">
+        <v>20241226</v>
       </c>
       <c r="B59">
         <v>3648</v>
@@ -11789,10 +11547,10 @@
         <v>2.06</v>
       </c>
       <c r="AB59">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="AC59">
-        <v>9.1300000000000008</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="AD59">
         <v>-1.53</v>
@@ -11870,7 +11628,7 @@
         <v>-2.17</v>
       </c>
       <c r="BP59">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="BQ59">
         <v>-6.71</v>
@@ -11888,10 +11646,10 @@
         <v>10.81</v>
       </c>
       <c r="BV59">
-        <v>37.840000000000003</v>
+        <v>37.84</v>
       </c>
       <c r="BW59">
-        <v>67.569999999999993</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="BX59">
         <v>0</v>
@@ -11900,9 +11658,9 @@
         <v>16.22</v>
       </c>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>120</v>
+    <row r="60" spans="1:77">
+      <c r="A60">
+        <v>20241227</v>
       </c>
       <c r="B60">
         <v>3546</v>
@@ -11959,7 +11717,7 @@
         <v>11.95</v>
       </c>
       <c r="T60">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="U60">
         <v>60.44</v>
@@ -11971,7 +11729,7 @@
         <v>28.57</v>
       </c>
       <c r="X60">
-        <v>98.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="Y60">
         <v>92.31</v>
@@ -11998,7 +11756,7 @@
         <v>11.06</v>
       </c>
       <c r="AG60">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AH60">
         <v>70.83</v>
@@ -12028,10 +11786,10 @@
         <v>1.92</v>
       </c>
       <c r="BD60">
-        <v>-4.6900000000000004</v>
+        <v>-4.69</v>
       </c>
       <c r="BE60">
-        <v>-1.1599999999999999</v>
+        <v>-1.16</v>
       </c>
       <c r="BF60">
         <v>2</v>
@@ -12049,7 +11807,7 @@
         <v>30.43</v>
       </c>
       <c r="BK60">
-        <v>69.569999999999993</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="BL60">
         <v>73.91</v>
@@ -12073,7 +11831,7 @@
         <v>4.33</v>
       </c>
       <c r="BS60">
-        <v>-9.2899999999999991</v>
+        <v>-9.289999999999999</v>
       </c>
       <c r="BT60">
         <v>-5.32</v>
@@ -12094,9 +11852,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>121</v>
+    <row r="61" spans="1:77">
+      <c r="A61">
+        <v>20241230</v>
       </c>
       <c r="B61">
         <v>1322</v>
@@ -12150,7 +11908,7 @@
         <v>0.13</v>
       </c>
       <c r="S61">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T61">
         <v>9.33</v>
@@ -12195,7 +11953,7 @@
         <v>5.46</v>
       </c>
       <c r="AH61">
-        <v>78.569999999999993</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="AI61">
         <v>50</v>
@@ -12207,7 +11965,7 @@
         <v>92.86</v>
       </c>
       <c r="AL61">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AZ61">
         <v>32</v>
@@ -12228,7 +11986,7 @@
         <v>-1.69</v>
       </c>
       <c r="BF61">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="BG61">
         <v>-0.6</v>
@@ -12264,7 +12022,7 @@
         <v>-7.6</v>
       </c>
       <c r="BR61">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="BS61">
         <v>-11.98</v>
@@ -12288,9 +12046,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>122</v>
+    <row r="62" spans="1:77">
+      <c r="A62">
+        <v>20241231</v>
       </c>
       <c r="B62">
         <v>705</v>
@@ -12386,7 +12144,7 @@
         <v>8.98</v>
       </c>
       <c r="AG62">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH62">
         <v>69.23</v>
@@ -12437,7 +12195,7 @@
         <v>21.43</v>
       </c>
       <c r="BK62">
-        <v>78.569999999999993</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="BL62">
         <v>35.71</v>
@@ -12455,7 +12213,7 @@
         <v>-0.39</v>
       </c>
       <c r="BQ62">
-        <v>-8.9700000000000006</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="BR62">
         <v>-2.95</v>
@@ -12482,9 +12240,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>89</v>
+    <row r="63" spans="1:77">
+      <c r="A63">
+        <v>20250102</v>
       </c>
       <c r="B63">
         <v>925</v>
@@ -12571,13 +12329,13 @@
         <v>7.59</v>
       </c>
       <c r="AD63">
-        <v>-2.3199999999999998</v>
+        <v>-2.32</v>
       </c>
       <c r="AE63">
         <v>0.15</v>
       </c>
       <c r="AF63">
-        <v>9.9499999999999993</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AG63">
         <v>10.1</v>
@@ -12652,7 +12410,7 @@
         <v>-5.93</v>
       </c>
       <c r="BE63">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="BF63">
         <v>-1.99</v>
@@ -12661,7 +12419,7 @@
         <v>0.32</v>
       </c>
       <c r="BH63">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BI63">
         <v>44.44</v>
@@ -12691,7 +12449,7 @@
         <v>-6.02</v>
       </c>
       <c r="BR63">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="BS63">
         <v>-9.74</v>
@@ -12715,9 +12473,9 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>90</v>
+    <row r="64" spans="1:77">
+      <c r="A64">
+        <v>20250103</v>
       </c>
       <c r="B64">
         <v>615</v>
@@ -12756,7 +12514,7 @@
         <v>58</v>
       </c>
       <c r="N64">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="O64">
         <v>-0.27</v>
@@ -12780,7 +12538,7 @@
         <v>68.97</v>
       </c>
       <c r="V64">
-        <v>39.659999999999997</v>
+        <v>39.66</v>
       </c>
       <c r="W64">
         <v>29.31</v>
@@ -12843,7 +12601,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ64">
-        <v>-8.1300000000000008</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="AR64">
         <v>-4.17</v>
@@ -12852,16 +12610,16 @@
         <v>5.27</v>
       </c>
       <c r="AT64">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AU64">
         <v>50</v>
       </c>
       <c r="AV64">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="AW64">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="AX64">
         <v>66.67</v>
@@ -12879,7 +12637,7 @@
         <v>-5</v>
       </c>
       <c r="BC64">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="BD64">
         <v>-7.57</v>
@@ -12903,7 +12661,7 @@
         <v>20</v>
       </c>
       <c r="BK64">
-        <v>85.71</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="BL64">
         <v>40</v>
@@ -12927,7 +12685,7 @@
         <v>-3.24</v>
       </c>
       <c r="BS64">
-        <v>-8.0500000000000007</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="BT64">
         <v>-11.17</v>
@@ -12948,9 +12706,9 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>91</v>
+    <row r="65" spans="1:77">
+      <c r="A65">
+        <v>20250106</v>
       </c>
       <c r="B65">
         <v>2292</v>
@@ -12992,7 +12750,7 @@
         <v>0.72</v>
       </c>
       <c r="O65">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="P65">
         <v>6.9</v>
@@ -13007,7 +12765,7 @@
         <v>7.7</v>
       </c>
       <c r="T65">
-        <v>9.36</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="U65">
         <v>51.11</v>
@@ -13046,7 +12804,7 @@
         <v>5.59</v>
       </c>
       <c r="AG65">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="AH65">
         <v>52.63</v>
@@ -13055,10 +12813,10 @@
         <v>47.37</v>
       </c>
       <c r="AJ65">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="AK65">
-        <v>73.680000000000007</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="AL65">
         <v>63.16</v>
@@ -13106,7 +12864,7 @@
         <v>17</v>
       </c>
       <c r="BA65">
-        <v>-4.8499999999999996</v>
+        <v>-4.85</v>
       </c>
       <c r="BB65">
         <v>-5.67</v>
@@ -13154,7 +12912,7 @@
         <v>-1.69</v>
       </c>
       <c r="BQ65">
-        <v>-8.61</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="BR65">
         <v>-1.95</v>
@@ -13181,9 +12939,9 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>92</v>
+    <row r="66" spans="1:77">
+      <c r="A66">
+        <v>20250107</v>
       </c>
       <c r="B66">
         <v>4393</v>
@@ -13231,7 +12989,7 @@
         <v>6.49</v>
       </c>
       <c r="Q66">
-        <v>-2.1800000000000002</v>
+        <v>-2.18</v>
       </c>
       <c r="R66">
         <v>1.03</v>
@@ -13243,7 +13001,7 @@
         <v>12.08</v>
       </c>
       <c r="U66">
-        <v>66.069999999999993</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="V66">
         <v>67.86</v>
@@ -13252,10 +13010,10 @@
         <v>55.36</v>
       </c>
       <c r="X66">
-        <v>98.21</v>
+        <v>98.20999999999999</v>
       </c>
       <c r="Y66">
-        <v>89.29</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="Z66">
         <v>19</v>
@@ -13291,10 +13049,10 @@
         <v>47.37</v>
       </c>
       <c r="AK66">
-        <v>94.74</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="AL66">
-        <v>73.680000000000007</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="AM66">
         <v>9</v>
@@ -13312,7 +13070,7 @@
         <v>-9.98</v>
       </c>
       <c r="AR66">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="AS66">
         <v>-7.26</v>
@@ -13405,7 +13163,7 @@
         <v>56.45</v>
       </c>
       <c r="BW66">
-        <v>88.71</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="BX66">
         <v>0</v>
@@ -13414,9 +13172,9 @@
         <v>14.52</v>
       </c>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>93</v>
+    <row r="67" spans="1:77">
+      <c r="A67">
+        <v>20250108</v>
       </c>
       <c r="B67">
         <v>1978</v>
@@ -13479,7 +13237,7 @@
         <v>54.95</v>
       </c>
       <c r="V67">
-        <v>75.819999999999993</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="W67">
         <v>68.13</v>
@@ -13542,7 +13300,7 @@
         <v>6.08</v>
       </c>
       <c r="AQ67">
-        <v>-4.6100000000000003</v>
+        <v>-4.61</v>
       </c>
       <c r="AR67">
         <v>6.17</v>
@@ -13647,9 +13405,9 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>94</v>
+    <row r="68" spans="1:77">
+      <c r="A68">
+        <v>20250109</v>
       </c>
       <c r="B68">
         <v>2728</v>
@@ -13745,7 +13503,7 @@
         <v>10.09</v>
       </c>
       <c r="AG68">
-        <v>9.2799999999999994</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AH68">
         <v>62.96</v>
@@ -13820,7 +13578,7 @@
         <v>1.81</v>
       </c>
       <c r="BF68">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="BG68">
         <v>4.37</v>
@@ -13880,9 +13638,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>95</v>
+    <row r="69" spans="1:77">
+      <c r="A69">
+        <v>20250110</v>
       </c>
       <c r="B69">
         <v>534</v>
@@ -13924,13 +13682,13 @@
         <v>1.3</v>
       </c>
       <c r="O69">
-        <v>-2.2000000000000002</v>
+        <v>-2.2</v>
       </c>
       <c r="P69">
         <v>5.05</v>
       </c>
       <c r="Q69">
-        <v>-4.3099999999999996</v>
+        <v>-4.31</v>
       </c>
       <c r="R69">
         <v>-3.45</v>
@@ -13960,7 +13718,7 @@
         <v>30</v>
       </c>
       <c r="AA69">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB69">
         <v>-4.96</v>
@@ -14002,13 +13760,13 @@
         <v>-3.67</v>
       </c>
       <c r="AO69">
-        <v>-10.050000000000001</v>
+        <v>-10.05</v>
       </c>
       <c r="AP69">
         <v>1.77</v>
       </c>
       <c r="AQ69">
-        <v>-10.050000000000001</v>
+        <v>-10.05</v>
       </c>
       <c r="AR69">
         <v>-6.63</v>
@@ -14047,7 +13805,7 @@
         <v>3.02</v>
       </c>
       <c r="BD69">
-        <v>-4.6100000000000003</v>
+        <v>-4.61</v>
       </c>
       <c r="BE69">
         <v>-2.31</v>
@@ -14086,13 +13844,13 @@
         <v>-0.26</v>
       </c>
       <c r="BQ69">
-        <v>-9.3000000000000007</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="BR69">
         <v>-1.7</v>
       </c>
       <c r="BS69">
-        <v>-9.89</v>
+        <v>-9.890000000000001</v>
       </c>
       <c r="BT69">
         <v>-11.62</v>
@@ -14113,9 +13871,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>96</v>
+    <row r="70" spans="1:77">
+      <c r="A70">
+        <v>20250113</v>
       </c>
       <c r="B70">
         <v>3007</v>
@@ -14187,7 +13945,7 @@
         <v>92.11</v>
       </c>
       <c r="Y70">
-        <v>76.319999999999993</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="Z70">
         <v>16</v>
@@ -14253,7 +14011,7 @@
         <v>2.88</v>
       </c>
       <c r="BH70">
-        <v>9.3800000000000008</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="BI70">
         <v>25</v>
@@ -14307,9 +14065,9 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>97</v>
+    <row r="71" spans="1:77">
+      <c r="A71">
+        <v>20250114</v>
       </c>
       <c r="B71">
         <v>5333</v>
@@ -14354,7 +14112,7 @@
         <v>6.43</v>
       </c>
       <c r="P71">
-        <v>8.3800000000000008</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="Q71">
         <v>0.65</v>
@@ -14390,7 +14148,7 @@
         <v>3.5</v>
       </c>
       <c r="AB71">
-        <v>8.2799999999999994</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AC71">
         <v>9.43</v>
@@ -14414,7 +14172,7 @@
         <v>100</v>
       </c>
       <c r="AJ71">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AK71">
         <v>100</v>
@@ -14438,7 +14196,7 @@
         <v>-5.38</v>
       </c>
       <c r="AR71">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="AS71">
         <v>-1.22</v>
@@ -14450,7 +14208,7 @@
         <v>14.29</v>
       </c>
       <c r="AV71">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AW71">
         <v>100</v>
@@ -14459,7 +14217,7 @@
         <v>42.86</v>
       </c>
       <c r="AY71">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AZ71">
         <v>18</v>
@@ -14468,7 +14226,7 @@
         <v>-2.1</v>
       </c>
       <c r="BB71">
-        <v>4.9400000000000004</v>
+        <v>4.94</v>
       </c>
       <c r="BC71">
         <v>6.53</v>
@@ -14528,10 +14286,10 @@
         <v>21.43</v>
       </c>
       <c r="BV71">
-        <v>89.29</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="BW71">
-        <v>96.43</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="BX71">
         <v>0</v>
@@ -14540,9 +14298,9 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>98</v>
+    <row r="72" spans="1:77">
+      <c r="A72">
+        <v>20250115</v>
       </c>
       <c r="B72">
         <v>1666</v>
@@ -14584,7 +14342,7 @@
         <v>3.53</v>
       </c>
       <c r="O72">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="P72">
         <v>6.6</v>
@@ -14626,13 +14384,13 @@
         <v>1.85</v>
       </c>
       <c r="AC72">
-        <v>8.5299999999999994</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="AD72">
         <v>-1.44</v>
       </c>
       <c r="AE72">
-        <v>-2.4500000000000002</v>
+        <v>-2.45</v>
       </c>
       <c r="AF72">
         <v>12.26</v>
@@ -14698,7 +14456,7 @@
         <v>28</v>
       </c>
       <c r="BA72">
-        <v>-0.56999999999999995</v>
+        <v>-0.57</v>
       </c>
       <c r="BB72">
         <v>-1.9</v>
@@ -14731,12 +14489,12 @@
         <v>92.86</v>
       </c>
       <c r="BL72">
-        <v>89.29</v>
+        <v>89.29000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>99</v>
+    <row r="73" spans="1:77">
+      <c r="A73">
+        <v>20250116</v>
       </c>
       <c r="B73">
         <v>3368</v>
@@ -14814,13 +14572,13 @@
         <v>30</v>
       </c>
       <c r="AA73">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AB73">
         <v>5.78</v>
       </c>
       <c r="AC73">
-        <v>8.7799999999999994</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="AD73">
         <v>0.85</v>
@@ -14832,7 +14590,7 @@
         <v>7.19</v>
       </c>
       <c r="AG73">
-        <v>8.6300000000000008</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="AH73">
         <v>70</v>
@@ -14862,7 +14620,7 @@
         <v>2.8</v>
       </c>
       <c r="BD73">
-        <v>-5.0999999999999996</v>
+        <v>-5.1</v>
       </c>
       <c r="BE73">
         <v>1.66</v>
@@ -14904,13 +14662,13 @@
         <v>-5.74</v>
       </c>
       <c r="BR73">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="BS73">
         <v>-11.04</v>
       </c>
       <c r="BT73">
-        <v>-9.1300000000000008</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="BU73">
         <v>0</v>
@@ -14919,7 +14677,7 @@
         <v>42.86</v>
       </c>
       <c r="BW73">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="BX73">
         <v>0</v>
@@ -14928,9 +14686,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>100</v>
+    <row r="74" spans="1:77">
+      <c r="A74">
+        <v>20250117</v>
       </c>
       <c r="B74">
         <v>2619</v>
@@ -14984,7 +14742,7 @@
         <v>-1.88</v>
       </c>
       <c r="S74">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="T74">
         <v>6.62</v>
@@ -14999,7 +14757,7 @@
         <v>27.14</v>
       </c>
       <c r="X74">
-        <v>91.43</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="Y74">
         <v>82.86</v>
@@ -15017,7 +14775,7 @@
         <v>6.49</v>
       </c>
       <c r="AD74">
-        <v>-4.3099999999999996</v>
+        <v>-4.31</v>
       </c>
       <c r="AE74">
         <v>-2.48</v>
@@ -15071,7 +14829,7 @@
         <v>6.9</v>
       </c>
       <c r="BI74">
-        <v>17.239999999999998</v>
+        <v>17.24</v>
       </c>
       <c r="BJ74">
         <v>27.59</v>
@@ -15095,7 +14853,7 @@
         <v>0.06</v>
       </c>
       <c r="BQ74">
-        <v>-9.0299999999999994</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="BR74">
         <v>1.36</v>
@@ -15122,11 +14880,473 @@
         <v>25</v>
       </c>
     </row>
+    <row r="75" spans="1:77">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>3617</v>
+      </c>
+      <c r="C75">
+        <v>1587</v>
+      </c>
+      <c r="D75">
+        <v>172</v>
+      </c>
+      <c r="E75">
+        <v>236</v>
+      </c>
+      <c r="F75">
+        <v>67</v>
+      </c>
+      <c r="G75">
+        <v>119</v>
+      </c>
+      <c r="H75">
+        <v>37</v>
+      </c>
+      <c r="I75">
+        <v>70</v>
+      </c>
+      <c r="J75">
+        <v>19</v>
+      </c>
+      <c r="K75">
+        <v>20</v>
+      </c>
+      <c r="L75">
+        <v>33</v>
+      </c>
+      <c r="M75">
+        <v>56</v>
+      </c>
+      <c r="N75">
+        <v>3.04</v>
+      </c>
+      <c r="O75">
+        <v>1.78</v>
+      </c>
+      <c r="P75">
+        <v>6.43</v>
+      </c>
+      <c r="Q75">
+        <v>-1.08</v>
+      </c>
+      <c r="R75">
+        <v>-1.22</v>
+      </c>
+      <c r="S75">
+        <v>11.76</v>
+      </c>
+      <c r="T75">
+        <v>10.44</v>
+      </c>
+      <c r="U75">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="V75">
+        <v>48.21</v>
+      </c>
+      <c r="W75">
+        <v>35.71</v>
+      </c>
+      <c r="X75">
+        <v>91.06999999999999</v>
+      </c>
+      <c r="Y75">
+        <v>83.93000000000001</v>
+      </c>
+      <c r="Z75">
+        <v>20</v>
+      </c>
+      <c r="AA75">
+        <v>2.67</v>
+      </c>
+      <c r="AB75">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC75">
+        <v>6.3</v>
+      </c>
+      <c r="AD75">
+        <v>-2.87</v>
+      </c>
+      <c r="AE75">
+        <v>-2.52</v>
+      </c>
+      <c r="AF75">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="AG75">
+        <v>6.65</v>
+      </c>
+      <c r="AH75">
+        <v>60</v>
+      </c>
+      <c r="AI75">
+        <v>40</v>
+      </c>
+      <c r="AJ75">
+        <v>25</v>
+      </c>
+      <c r="AK75">
+        <v>80</v>
+      </c>
+      <c r="AL75">
+        <v>65</v>
+      </c>
+      <c r="AM75">
+        <v>2</v>
+      </c>
+      <c r="AN75">
+        <v>-6.13</v>
+      </c>
+      <c r="AO75">
+        <v>-7.93</v>
+      </c>
+      <c r="AP75">
+        <v>-3.03</v>
+      </c>
+      <c r="AQ75">
+        <v>-9.460000000000001</v>
+      </c>
+      <c r="AR75">
+        <v>-1.85</v>
+      </c>
+      <c r="AS75">
+        <v>-5.06</v>
+      </c>
+      <c r="AT75">
+        <v>-6.89</v>
+      </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
+      <c r="AW75">
+        <v>0</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+      <c r="AZ75">
+        <v>20</v>
+      </c>
+      <c r="BA75">
+        <v>-2.62</v>
+      </c>
+      <c r="BB75">
+        <v>-1.94</v>
+      </c>
+      <c r="BC75">
+        <v>1.05</v>
+      </c>
+      <c r="BD75">
+        <v>-4.59</v>
+      </c>
+      <c r="BE75">
+        <v>0.7</v>
+      </c>
+      <c r="BF75">
+        <v>0.13</v>
+      </c>
+      <c r="BG75">
+        <v>0.78</v>
+      </c>
+      <c r="BH75">
+        <v>10</v>
+      </c>
+      <c r="BI75">
+        <v>20</v>
+      </c>
+      <c r="BJ75">
+        <v>45</v>
+      </c>
+      <c r="BK75">
+        <v>75</v>
+      </c>
+      <c r="BL75">
+        <v>65</v>
+      </c>
+      <c r="BM75">
+        <v>12</v>
+      </c>
+      <c r="BN75">
+        <v>-3.88</v>
+      </c>
+      <c r="BO75">
+        <v>-2.25</v>
+      </c>
+      <c r="BP75">
+        <v>2.3</v>
+      </c>
+      <c r="BQ75">
+        <v>-6.41</v>
+      </c>
+      <c r="BR75">
+        <v>1.68</v>
+      </c>
+      <c r="BS75">
+        <v>-9.5</v>
+      </c>
+      <c r="BT75">
+        <v>-7.96</v>
+      </c>
+      <c r="BU75">
+        <v>8.33</v>
+      </c>
+      <c r="BV75">
+        <v>50</v>
+      </c>
+      <c r="BW75">
+        <v>50</v>
+      </c>
+      <c r="BX75">
+        <v>0</v>
+      </c>
+      <c r="BY75">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:77">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76">
+        <v>1985</v>
+      </c>
+      <c r="C76">
+        <v>3257</v>
+      </c>
+      <c r="D76">
+        <v>136</v>
+      </c>
+      <c r="E76">
+        <v>219</v>
+      </c>
+      <c r="F76">
+        <v>89</v>
+      </c>
+      <c r="G76">
+        <v>116</v>
+      </c>
+      <c r="H76">
+        <v>38</v>
+      </c>
+      <c r="I76">
+        <v>45</v>
+      </c>
+      <c r="J76">
+        <v>18</v>
+      </c>
+      <c r="K76">
+        <v>18</v>
+      </c>
+      <c r="L76">
+        <v>28</v>
+      </c>
+      <c r="M76">
+        <v>70</v>
+      </c>
+      <c r="N76">
+        <v>2.54</v>
+      </c>
+      <c r="O76">
+        <v>1.6</v>
+      </c>
+      <c r="P76">
+        <v>5.88</v>
+      </c>
+      <c r="Q76">
+        <v>-1.83</v>
+      </c>
+      <c r="R76">
+        <v>-0.9</v>
+      </c>
+      <c r="S76">
+        <v>9.44</v>
+      </c>
+      <c r="T76">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="U76">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="V76">
+        <v>51.43</v>
+      </c>
+      <c r="W76">
+        <v>32.86</v>
+      </c>
+      <c r="X76">
+        <v>92.86</v>
+      </c>
+      <c r="Y76">
+        <v>90</v>
+      </c>
+      <c r="Z76">
+        <v>20</v>
+      </c>
+      <c r="AA76">
+        <v>4.47</v>
+      </c>
+      <c r="AB76">
+        <v>2.42</v>
+      </c>
+      <c r="AC76">
+        <v>7.71</v>
+      </c>
+      <c r="AD76">
+        <v>-2.49</v>
+      </c>
+      <c r="AE76">
+        <v>-1.97</v>
+      </c>
+      <c r="AF76">
+        <v>8.93</v>
+      </c>
+      <c r="AG76">
+        <v>6.75</v>
+      </c>
+      <c r="AH76">
+        <v>70</v>
+      </c>
+      <c r="AI76">
+        <v>60</v>
+      </c>
+      <c r="AJ76">
+        <v>20</v>
+      </c>
+      <c r="AK76">
+        <v>80</v>
+      </c>
+      <c r="AL76">
+        <v>85</v>
+      </c>
+      <c r="AM76">
+        <v>11</v>
+      </c>
+      <c r="AN76">
+        <v>-8.15</v>
+      </c>
+      <c r="AO76">
+        <v>-7.17</v>
+      </c>
+      <c r="AP76">
+        <v>-4.79</v>
+      </c>
+      <c r="AQ76">
+        <v>-9.02</v>
+      </c>
+      <c r="AR76">
+        <v>1.08</v>
+      </c>
+      <c r="AS76">
+        <v>-8.15</v>
+      </c>
+      <c r="AT76">
+        <v>-7.17</v>
+      </c>
+      <c r="AU76">
+        <v>0</v>
+      </c>
+      <c r="AV76">
+        <v>0</v>
+      </c>
+      <c r="AW76">
+        <v>54.55</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
+      <c r="AZ76">
+        <v>33</v>
+      </c>
+      <c r="BA76">
+        <v>-0.59</v>
+      </c>
+      <c r="BB76">
+        <v>-0.61</v>
+      </c>
+      <c r="BC76">
+        <v>2.57</v>
+      </c>
+      <c r="BD76">
+        <v>-3.17</v>
+      </c>
+      <c r="BE76">
+        <v>-0.01</v>
+      </c>
+      <c r="BF76">
+        <v>3.51</v>
+      </c>
+      <c r="BG76">
+        <v>3.51</v>
+      </c>
+      <c r="BH76">
+        <v>33.33</v>
+      </c>
+      <c r="BI76">
+        <v>39.39</v>
+      </c>
+      <c r="BJ76">
+        <v>45.45</v>
+      </c>
+      <c r="BK76">
+        <v>90.91</v>
+      </c>
+      <c r="BL76">
+        <v>87.88</v>
+      </c>
+      <c r="BM76">
+        <v>19</v>
+      </c>
+      <c r="BN76">
+        <v>-6.99</v>
+      </c>
+      <c r="BO76">
+        <v>-7.09</v>
+      </c>
+      <c r="BP76">
+        <v>-4.29</v>
+      </c>
+      <c r="BQ76">
+        <v>-8.48</v>
+      </c>
+      <c r="BR76">
+        <v>-0.08</v>
+      </c>
+      <c r="BS76">
+        <v>-9.31</v>
+      </c>
+      <c r="BT76">
+        <v>-9.390000000000001</v>
+      </c>
+      <c r="BU76">
+        <v>10.53</v>
+      </c>
+      <c r="BV76">
+        <v>5.26</v>
+      </c>
+      <c r="BW76">
+        <v>36.84</v>
+      </c>
+      <c r="BX76">
+        <v>0</v>
+      </c>
+      <c r="BY76">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BY74">
-    <sortCondition ref="A1:A74"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>日期</t>
   </si>
@@ -247,10 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250120</t>
-  </si>
-  <si>
-    <t>20250121</t>
+    <t>20250205</t>
   </si>
 </sst>
 </file>
@@ -608,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY76"/>
+  <dimension ref="A1:BY81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13897,7 +13894,7 @@
         <v>89</v>
       </c>
       <c r="I70">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>28</v>
@@ -14103,37 +14100,37 @@
         <v>29</v>
       </c>
       <c r="M71">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N71">
-        <v>3.45</v>
+        <v>3.38</v>
       </c>
       <c r="O71">
-        <v>6.43</v>
+        <v>6.35</v>
       </c>
       <c r="P71">
-        <v>8.380000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="Q71">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="R71">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="S71">
-        <v>12.06</v>
+        <v>12.08</v>
       </c>
       <c r="T71">
         <v>15.34</v>
       </c>
       <c r="U71">
-        <v>76.19</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="V71">
         <v>100</v>
       </c>
       <c r="W71">
-        <v>73.81</v>
+        <v>74.42</v>
       </c>
       <c r="X71">
         <v>100</v>
@@ -14324,7 +14321,7 @@
         <v>27</v>
       </c>
       <c r="I72">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J72">
         <v>7</v>
@@ -14333,7 +14330,7 @@
         <v>30</v>
       </c>
       <c r="L72">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M72">
         <v>130</v>
@@ -14527,46 +14524,46 @@
         <v>27</v>
       </c>
       <c r="L73">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M73">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N73">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="O73">
-        <v>3.36</v>
+        <v>3.29</v>
       </c>
       <c r="P73">
-        <v>7</v>
+        <v>6.92</v>
       </c>
       <c r="Q73">
-        <v>-0.99</v>
+        <v>-1.04</v>
       </c>
       <c r="R73">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="S73">
-        <v>8.44</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="T73">
-        <v>9.77</v>
+        <v>9.73</v>
       </c>
       <c r="U73">
-        <v>51.56</v>
+        <v>52.31</v>
       </c>
       <c r="V73">
-        <v>62.5</v>
+        <v>61.54</v>
       </c>
       <c r="W73">
-        <v>54.69</v>
+        <v>53.85</v>
       </c>
       <c r="X73">
-        <v>95.31</v>
+        <v>95.38</v>
       </c>
       <c r="Y73">
-        <v>93.75</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="Z73">
         <v>30</v>
@@ -14608,43 +14605,43 @@
         <v>86.67</v>
       </c>
       <c r="AZ73">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA73">
-        <v>-2.36</v>
+        <v>-2.55</v>
       </c>
       <c r="BB73">
-        <v>-0.75</v>
+        <v>-0.73</v>
       </c>
       <c r="BC73">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="BD73">
-        <v>-5.1</v>
+        <v>-5.09</v>
       </c>
       <c r="BE73">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="BF73">
-        <v>-0.35</v>
+        <v>-0.7</v>
       </c>
       <c r="BG73">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="BH73">
-        <v>12.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BI73">
-        <v>29.17</v>
+        <v>30.43</v>
       </c>
       <c r="BJ73">
-        <v>58.33</v>
+        <v>60.87</v>
       </c>
       <c r="BK73">
-        <v>62.5</v>
+        <v>60.87</v>
       </c>
       <c r="BL73">
-        <v>75</v>
+        <v>73.91</v>
       </c>
       <c r="BM73">
         <v>7</v>
@@ -14802,43 +14799,43 @@
         <v>66.67</v>
       </c>
       <c r="AZ74">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA74">
-        <v>-2.75</v>
+        <v>-2.73</v>
       </c>
       <c r="BB74">
-        <v>-3.38</v>
+        <v>-3.34</v>
       </c>
       <c r="BC74">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="BD74">
-        <v>-5.44</v>
+        <v>-5.43</v>
       </c>
       <c r="BE74">
-        <v>-0.64</v>
+        <v>-0.62</v>
       </c>
       <c r="BF74">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="BG74">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="BH74">
-        <v>6.9</v>
+        <v>6.67</v>
       </c>
       <c r="BI74">
-        <v>17.24</v>
+        <v>16.67</v>
       </c>
       <c r="BJ74">
-        <v>27.59</v>
+        <v>26.67</v>
       </c>
       <c r="BK74">
-        <v>75.86</v>
+        <v>73.33</v>
       </c>
       <c r="BL74">
-        <v>62.07</v>
+        <v>60</v>
       </c>
       <c r="BM74">
         <v>4</v>
@@ -14881,8 +14878,8 @@
       </c>
     </row>
     <row r="75" spans="1:77">
-      <c r="A75" t="s">
-        <v>77</v>
+      <c r="A75">
+        <v>20250120</v>
       </c>
       <c r="B75">
         <v>3617</v>
@@ -15114,8 +15111,8 @@
       </c>
     </row>
     <row r="76" spans="1:77">
-      <c r="A76" t="s">
-        <v>78</v>
+      <c r="A76">
+        <v>20250121</v>
       </c>
       <c r="B76">
         <v>1985</v>
@@ -15344,6 +15341,976 @@
       </c>
       <c r="BY76">
         <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:77">
+      <c r="A77">
+        <v>20250122</v>
+      </c>
+      <c r="B77">
+        <v>1032</v>
+      </c>
+      <c r="C77">
+        <v>4261</v>
+      </c>
+      <c r="D77">
+        <v>89</v>
+      </c>
+      <c r="E77">
+        <v>118</v>
+      </c>
+      <c r="F77">
+        <v>236</v>
+      </c>
+      <c r="G77">
+        <v>68</v>
+      </c>
+      <c r="H77">
+        <v>90</v>
+      </c>
+      <c r="I77">
+        <v>39</v>
+      </c>
+      <c r="J77">
+        <v>20</v>
+      </c>
+      <c r="K77">
+        <v>14</v>
+      </c>
+      <c r="L77">
+        <v>11</v>
+      </c>
+      <c r="M77">
+        <v>45</v>
+      </c>
+      <c r="N77">
+        <v>2.15</v>
+      </c>
+      <c r="O77">
+        <v>0.98</v>
+      </c>
+      <c r="P77">
+        <v>6.02</v>
+      </c>
+      <c r="Q77">
+        <v>-2.96</v>
+      </c>
+      <c r="R77">
+        <v>-1.06</v>
+      </c>
+      <c r="S77">
+        <v>8</v>
+      </c>
+      <c r="T77">
+        <v>6.75</v>
+      </c>
+      <c r="U77">
+        <v>60</v>
+      </c>
+      <c r="V77">
+        <v>46.67</v>
+      </c>
+      <c r="W77">
+        <v>33.33</v>
+      </c>
+      <c r="X77">
+        <v>88.89</v>
+      </c>
+      <c r="Y77">
+        <v>82.22</v>
+      </c>
+      <c r="Z77">
+        <v>18</v>
+      </c>
+      <c r="AA77">
+        <v>3.51</v>
+      </c>
+      <c r="AB77">
+        <v>2.67</v>
+      </c>
+      <c r="AC77">
+        <v>8.17</v>
+      </c>
+      <c r="AD77">
+        <v>-2.75</v>
+      </c>
+      <c r="AE77">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="AF77">
+        <v>6.64</v>
+      </c>
+      <c r="AG77">
+        <v>5.78</v>
+      </c>
+      <c r="AH77">
+        <v>61.11</v>
+      </c>
+      <c r="AI77">
+        <v>55.56</v>
+      </c>
+      <c r="AJ77">
+        <v>33.33</v>
+      </c>
+      <c r="AK77">
+        <v>83.33</v>
+      </c>
+      <c r="AL77">
+        <v>72.22</v>
+      </c>
+      <c r="AM77">
+        <v>11</v>
+      </c>
+      <c r="AN77">
+        <v>-7.32</v>
+      </c>
+      <c r="AO77">
+        <v>-6.33</v>
+      </c>
+      <c r="AP77">
+        <v>-3.43</v>
+      </c>
+      <c r="AQ77">
+        <v>-8.619999999999999</v>
+      </c>
+      <c r="AR77">
+        <v>1.08</v>
+      </c>
+      <c r="AS77">
+        <v>-6.33</v>
+      </c>
+      <c r="AT77">
+        <v>-5.36</v>
+      </c>
+      <c r="AU77">
+        <v>0</v>
+      </c>
+      <c r="AV77">
+        <v>9.09</v>
+      </c>
+      <c r="AW77">
+        <v>27.27</v>
+      </c>
+      <c r="AX77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>9.09</v>
+      </c>
+      <c r="AZ77">
+        <v>28</v>
+      </c>
+      <c r="BA77">
+        <v>-3.37</v>
+      </c>
+      <c r="BB77">
+        <v>-4.44</v>
+      </c>
+      <c r="BC77">
+        <v>-0.49</v>
+      </c>
+      <c r="BD77">
+        <v>-6.7</v>
+      </c>
+      <c r="BE77">
+        <v>-1.08</v>
+      </c>
+      <c r="BF77">
+        <v>-0.8</v>
+      </c>
+      <c r="BG77">
+        <v>-1.9</v>
+      </c>
+      <c r="BH77">
+        <v>7.14</v>
+      </c>
+      <c r="BI77">
+        <v>10.71</v>
+      </c>
+      <c r="BJ77">
+        <v>21.43</v>
+      </c>
+      <c r="BK77">
+        <v>46.43</v>
+      </c>
+      <c r="BL77">
+        <v>35.71</v>
+      </c>
+      <c r="BM77">
+        <v>18</v>
+      </c>
+      <c r="BN77">
+        <v>-6.42</v>
+      </c>
+      <c r="BO77">
+        <v>-7</v>
+      </c>
+      <c r="BP77">
+        <v>-3.02</v>
+      </c>
+      <c r="BQ77">
+        <v>-8.83</v>
+      </c>
+      <c r="BR77">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="BS77">
+        <v>-10.63</v>
+      </c>
+      <c r="BT77">
+        <v>-11.09</v>
+      </c>
+      <c r="BU77">
+        <v>0</v>
+      </c>
+      <c r="BV77">
+        <v>5.56</v>
+      </c>
+      <c r="BW77">
+        <v>22.22</v>
+      </c>
+      <c r="BX77">
+        <v>0</v>
+      </c>
+      <c r="BY77">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:77">
+      <c r="A78">
+        <v>20250123</v>
+      </c>
+      <c r="B78">
+        <v>2334</v>
+      </c>
+      <c r="C78">
+        <v>2795</v>
+      </c>
+      <c r="D78">
+        <v>254</v>
+      </c>
+      <c r="E78">
+        <v>123</v>
+      </c>
+      <c r="F78">
+        <v>115</v>
+      </c>
+      <c r="G78">
+        <v>75</v>
+      </c>
+      <c r="H78">
+        <v>51</v>
+      </c>
+      <c r="I78">
+        <v>40</v>
+      </c>
+      <c r="J78">
+        <v>20</v>
+      </c>
+      <c r="K78">
+        <v>15</v>
+      </c>
+      <c r="L78">
+        <v>33</v>
+      </c>
+      <c r="M78">
+        <v>39</v>
+      </c>
+      <c r="N78">
+        <v>4.74</v>
+      </c>
+      <c r="O78">
+        <v>0.95</v>
+      </c>
+      <c r="P78">
+        <v>8.16</v>
+      </c>
+      <c r="Q78">
+        <v>-2.46</v>
+      </c>
+      <c r="R78">
+        <v>-3.51</v>
+      </c>
+      <c r="S78">
+        <v>12.92</v>
+      </c>
+      <c r="T78">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="U78">
+        <v>87.18000000000001</v>
+      </c>
+      <c r="V78">
+        <v>48.72</v>
+      </c>
+      <c r="W78">
+        <v>25.64</v>
+      </c>
+      <c r="X78">
+        <v>94.87</v>
+      </c>
+      <c r="Y78">
+        <v>82.05</v>
+      </c>
+      <c r="Z78">
+        <v>14</v>
+      </c>
+      <c r="AA78">
+        <v>5.29</v>
+      </c>
+      <c r="AB78">
+        <v>-0.39</v>
+      </c>
+      <c r="AC78">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AD78">
+        <v>-6.07</v>
+      </c>
+      <c r="AE78">
+        <v>-5.3</v>
+      </c>
+      <c r="AF78">
+        <v>10.78</v>
+      </c>
+      <c r="AG78">
+        <v>4.76</v>
+      </c>
+      <c r="AH78">
+        <v>92.86</v>
+      </c>
+      <c r="AI78">
+        <v>50</v>
+      </c>
+      <c r="AJ78">
+        <v>35.71</v>
+      </c>
+      <c r="AK78">
+        <v>92.86</v>
+      </c>
+      <c r="AL78">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="AM78">
+        <v>12</v>
+      </c>
+      <c r="AN78">
+        <v>-6.02</v>
+      </c>
+      <c r="AO78">
+        <v>-4.26</v>
+      </c>
+      <c r="AP78">
+        <v>-0.21</v>
+      </c>
+      <c r="AQ78">
+        <v>-7.07</v>
+      </c>
+      <c r="AR78">
+        <v>1.97</v>
+      </c>
+      <c r="AS78">
+        <v>-4.96</v>
+      </c>
+      <c r="AT78">
+        <v>-3.22</v>
+      </c>
+      <c r="AU78">
+        <v>8.33</v>
+      </c>
+      <c r="AV78">
+        <v>8.33</v>
+      </c>
+      <c r="AW78">
+        <v>58.33</v>
+      </c>
+      <c r="AX78">
+        <v>8.33</v>
+      </c>
+      <c r="AY78">
+        <v>16.67</v>
+      </c>
+      <c r="AZ78">
+        <v>11</v>
+      </c>
+      <c r="BA78">
+        <v>-1.64</v>
+      </c>
+      <c r="BB78">
+        <v>-3.49</v>
+      </c>
+      <c r="BC78">
+        <v>1.89</v>
+      </c>
+      <c r="BD78">
+        <v>-4.81</v>
+      </c>
+      <c r="BE78">
+        <v>-1.9</v>
+      </c>
+      <c r="BF78">
+        <v>-1.03</v>
+      </c>
+      <c r="BG78">
+        <v>-2.75</v>
+      </c>
+      <c r="BH78">
+        <v>36.36</v>
+      </c>
+      <c r="BI78">
+        <v>9.09</v>
+      </c>
+      <c r="BJ78">
+        <v>18.18</v>
+      </c>
+      <c r="BK78">
+        <v>63.64</v>
+      </c>
+      <c r="BL78">
+        <v>54.55</v>
+      </c>
+      <c r="BM78">
+        <v>20</v>
+      </c>
+      <c r="BN78">
+        <v>-4.34</v>
+      </c>
+      <c r="BO78">
+        <v>-4.38</v>
+      </c>
+      <c r="BP78">
+        <v>0.76</v>
+      </c>
+      <c r="BQ78">
+        <v>-6.68</v>
+      </c>
+      <c r="BR78">
+        <v>0.06</v>
+      </c>
+      <c r="BS78">
+        <v>-7.24</v>
+      </c>
+      <c r="BT78">
+        <v>-7.21</v>
+      </c>
+      <c r="BU78">
+        <v>15</v>
+      </c>
+      <c r="BV78">
+        <v>10</v>
+      </c>
+      <c r="BW78">
+        <v>40</v>
+      </c>
+      <c r="BX78">
+        <v>0</v>
+      </c>
+      <c r="BY78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:77">
+      <c r="A79">
+        <v>20250124</v>
+      </c>
+      <c r="B79">
+        <v>3956</v>
+      </c>
+      <c r="C79">
+        <v>1226</v>
+      </c>
+      <c r="D79">
+        <v>198</v>
+      </c>
+      <c r="E79">
+        <v>312</v>
+      </c>
+      <c r="F79">
+        <v>75</v>
+      </c>
+      <c r="G79">
+        <v>168</v>
+      </c>
+      <c r="H79">
+        <v>44</v>
+      </c>
+      <c r="I79">
+        <v>63</v>
+      </c>
+      <c r="J79">
+        <v>19</v>
+      </c>
+      <c r="K79">
+        <v>18</v>
+      </c>
+      <c r="L79">
+        <v>9</v>
+      </c>
+      <c r="M79">
+        <v>40</v>
+      </c>
+      <c r="N79">
+        <v>0.78</v>
+      </c>
+      <c r="O79">
+        <v>1.59</v>
+      </c>
+      <c r="P79">
+        <v>5.06</v>
+      </c>
+      <c r="Q79">
+        <v>-2.87</v>
+      </c>
+      <c r="R79">
+        <v>0.87</v>
+      </c>
+      <c r="S79">
+        <v>7.44</v>
+      </c>
+      <c r="T79">
+        <v>8.24</v>
+      </c>
+      <c r="U79">
+        <v>55</v>
+      </c>
+      <c r="V79">
+        <v>47.5</v>
+      </c>
+      <c r="W79">
+        <v>42.5</v>
+      </c>
+      <c r="X79">
+        <v>87.5</v>
+      </c>
+      <c r="Y79">
+        <v>87.5</v>
+      </c>
+      <c r="Z79">
+        <v>15</v>
+      </c>
+      <c r="AA79">
+        <v>-0.23</v>
+      </c>
+      <c r="AB79">
+        <v>1.3</v>
+      </c>
+      <c r="AC79">
+        <v>5.12</v>
+      </c>
+      <c r="AD79">
+        <v>-3.22</v>
+      </c>
+      <c r="AE79">
+        <v>1.64</v>
+      </c>
+      <c r="AF79">
+        <v>4.77</v>
+      </c>
+      <c r="AG79">
+        <v>6.28</v>
+      </c>
+      <c r="AH79">
+        <v>46.67</v>
+      </c>
+      <c r="AI79">
+        <v>46.67</v>
+      </c>
+      <c r="AJ79">
+        <v>40</v>
+      </c>
+      <c r="AK79">
+        <v>73.33</v>
+      </c>
+      <c r="AL79">
+        <v>73.33</v>
+      </c>
+      <c r="AM79">
+        <v>11</v>
+      </c>
+      <c r="AN79">
+        <v>-7.79</v>
+      </c>
+      <c r="AO79">
+        <v>-6.88</v>
+      </c>
+      <c r="AP79">
+        <v>-4.2</v>
+      </c>
+      <c r="AQ79">
+        <v>-9.029999999999999</v>
+      </c>
+      <c r="AR79">
+        <v>1.02</v>
+      </c>
+      <c r="AS79">
+        <v>-5.54</v>
+      </c>
+      <c r="AT79">
+        <v>-4.66</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AV79">
+        <v>0</v>
+      </c>
+      <c r="AW79">
+        <v>36.36</v>
+      </c>
+      <c r="AX79">
+        <v>18.18</v>
+      </c>
+      <c r="AY79">
+        <v>9.09</v>
+      </c>
+      <c r="AZ79">
+        <v>33</v>
+      </c>
+      <c r="BA79">
+        <v>-2.26</v>
+      </c>
+      <c r="BB79">
+        <v>1.58</v>
+      </c>
+      <c r="BC79">
+        <v>3.56</v>
+      </c>
+      <c r="BD79">
+        <v>-4.23</v>
+      </c>
+      <c r="BE79">
+        <v>3.89</v>
+      </c>
+      <c r="BF79">
+        <v>-1.63</v>
+      </c>
+      <c r="BG79">
+        <v>2.23</v>
+      </c>
+      <c r="BH79">
+        <v>15.15</v>
+      </c>
+      <c r="BI79">
+        <v>48.48</v>
+      </c>
+      <c r="BJ79">
+        <v>75.76000000000001</v>
+      </c>
+      <c r="BK79">
+        <v>57.58</v>
+      </c>
+      <c r="BL79">
+        <v>69.7</v>
+      </c>
+      <c r="BM79">
+        <v>20</v>
+      </c>
+      <c r="BN79">
+        <v>-6.67</v>
+      </c>
+      <c r="BO79">
+        <v>-4.42</v>
+      </c>
+      <c r="BP79">
+        <v>-1.41</v>
+      </c>
+      <c r="BQ79">
+        <v>-8.93</v>
+      </c>
+      <c r="BR79">
+        <v>2.45</v>
+      </c>
+      <c r="BS79">
+        <v>-12.08</v>
+      </c>
+      <c r="BT79">
+        <v>-10.07</v>
+      </c>
+      <c r="BU79">
+        <v>0</v>
+      </c>
+      <c r="BV79">
+        <v>20</v>
+      </c>
+      <c r="BW79">
+        <v>35</v>
+      </c>
+      <c r="BX79">
+        <v>0</v>
+      </c>
+      <c r="BY79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:77">
+      <c r="A80">
+        <v>20250127</v>
+      </c>
+      <c r="B80">
+        <v>1816</v>
+      </c>
+      <c r="C80">
+        <v>3422</v>
+      </c>
+      <c r="D80">
+        <v>143</v>
+      </c>
+      <c r="E80">
+        <v>115</v>
+      </c>
+      <c r="F80">
+        <v>434</v>
+      </c>
+      <c r="G80">
+        <v>68</v>
+      </c>
+      <c r="H80">
+        <v>197</v>
+      </c>
+      <c r="I80">
+        <v>39</v>
+      </c>
+      <c r="J80">
+        <v>38</v>
+      </c>
+      <c r="K80">
+        <v>11</v>
+      </c>
+      <c r="L80">
+        <v>21</v>
+      </c>
+      <c r="M80">
+        <v>63</v>
+      </c>
+      <c r="N80">
+        <v>1.68</v>
+      </c>
+      <c r="O80">
+        <v>-0.5</v>
+      </c>
+      <c r="P80">
+        <v>4.89</v>
+      </c>
+      <c r="Q80">
+        <v>-3.16</v>
+      </c>
+      <c r="R80">
+        <v>-2.08</v>
+      </c>
+      <c r="S80">
+        <v>11.71</v>
+      </c>
+      <c r="T80">
+        <v>9.31</v>
+      </c>
+      <c r="U80">
+        <v>60.32</v>
+      </c>
+      <c r="V80">
+        <v>49.21</v>
+      </c>
+      <c r="W80">
+        <v>28.57</v>
+      </c>
+      <c r="X80">
+        <v>96.83</v>
+      </c>
+      <c r="Y80">
+        <v>88.89</v>
+      </c>
+      <c r="Z80">
+        <v>18</v>
+      </c>
+      <c r="AA80">
+        <v>0.15</v>
+      </c>
+      <c r="AB80">
+        <v>-1.08</v>
+      </c>
+      <c r="AC80">
+        <v>4.63</v>
+      </c>
+      <c r="AD80">
+        <v>-4.34</v>
+      </c>
+      <c r="AE80">
+        <v>-1.11</v>
+      </c>
+      <c r="AF80">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="AG80">
+        <v>7.09</v>
+      </c>
+      <c r="AH80">
+        <v>38.89</v>
+      </c>
+      <c r="AI80">
+        <v>50</v>
+      </c>
+      <c r="AJ80">
+        <v>22.22</v>
+      </c>
+      <c r="AK80">
+        <v>88.89</v>
+      </c>
+      <c r="AL80">
+        <v>66.67</v>
+      </c>
+      <c r="AM80">
+        <v>15</v>
+      </c>
+      <c r="AN80">
+        <v>-4.52</v>
+      </c>
+      <c r="AO80">
+        <v>-1.22</v>
+      </c>
+      <c r="AP80">
+        <v>3.47</v>
+      </c>
+      <c r="AQ80">
+        <v>-5.79</v>
+      </c>
+      <c r="AR80">
+        <v>3.61</v>
+      </c>
+      <c r="AS80">
+        <v>-3</v>
+      </c>
+      <c r="AT80">
+        <v>0.3</v>
+      </c>
+      <c r="AU80">
+        <v>6.67</v>
+      </c>
+      <c r="AV80">
+        <v>33.33</v>
+      </c>
+      <c r="AW80">
+        <v>60</v>
+      </c>
+      <c r="AX80">
+        <v>20</v>
+      </c>
+      <c r="AY80">
+        <v>40</v>
+      </c>
+      <c r="AZ80">
+        <v>9</v>
+      </c>
+      <c r="BA80">
+        <v>-3.94</v>
+      </c>
+      <c r="BB80">
+        <v>-5.14</v>
+      </c>
+      <c r="BC80">
+        <v>-0.67</v>
+      </c>
+      <c r="BD80">
+        <v>-6.71</v>
+      </c>
+      <c r="BE80">
+        <v>-1.2</v>
+      </c>
+      <c r="BF80">
+        <v>0.23</v>
+      </c>
+      <c r="BG80">
+        <v>-1.07</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>22.22</v>
+      </c>
+      <c r="BJ80">
+        <v>22.22</v>
+      </c>
+      <c r="BK80">
+        <v>55.56</v>
+      </c>
+      <c r="BL80">
+        <v>44.44</v>
+      </c>
+      <c r="BM80">
+        <v>19</v>
+      </c>
+      <c r="BN80">
+        <v>-4.63</v>
+      </c>
+      <c r="BO80">
+        <v>-2.06</v>
+      </c>
+      <c r="BP80">
+        <v>2.99</v>
+      </c>
+      <c r="BQ80">
+        <v>-6.29</v>
+      </c>
+      <c r="BR80">
+        <v>2.8</v>
+      </c>
+      <c r="BS80">
+        <v>-6.72</v>
+      </c>
+      <c r="BT80">
+        <v>-4.19</v>
+      </c>
+      <c r="BU80">
+        <v>5.26</v>
+      </c>
+      <c r="BV80">
+        <v>31.58</v>
+      </c>
+      <c r="BW80">
+        <v>57.89</v>
+      </c>
+      <c r="BX80">
+        <v>0</v>
+      </c>
+      <c r="BY80">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81">
+        <v>3433</v>
+      </c>
+      <c r="C81">
+        <v>1850</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81">
+        <v>440</v>
+      </c>
+      <c r="F81">
+        <v>160</v>
+      </c>
+      <c r="G81">
+        <v>216</v>
+      </c>
+      <c r="H81">
+        <v>89</v>
+      </c>
+      <c r="I81">
+        <v>68</v>
+      </c>
+      <c r="J81">
+        <v>31</v>
+      </c>
+      <c r="K81">
+        <v>16</v>
+      </c>
+      <c r="L81">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BD6120-99E5-4B03-9470-7915E427DFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>日期</t>
   </si>
@@ -249,16 +255,256 @@
   <si>
     <t>20250205</t>
   </si>
+  <si>
+    <t>20241008</t>
+  </si>
+  <si>
+    <t>20241009</t>
+  </si>
+  <si>
+    <t>20241010</t>
+  </si>
+  <si>
+    <t>20241011</t>
+  </si>
+  <si>
+    <t>20241014</t>
+  </si>
+  <si>
+    <t>20241015</t>
+  </si>
+  <si>
+    <t>20241016</t>
+  </si>
+  <si>
+    <t>20241017</t>
+  </si>
+  <si>
+    <t>20241018</t>
+  </si>
+  <si>
+    <t>20241021</t>
+  </si>
+  <si>
+    <t>20241022</t>
+  </si>
+  <si>
+    <t>20241023</t>
+  </si>
+  <si>
+    <t>20241024</t>
+  </si>
+  <si>
+    <t>20241025</t>
+  </si>
+  <si>
+    <t>20241028</t>
+  </si>
+  <si>
+    <t>20241029</t>
+  </si>
+  <si>
+    <t>20241030</t>
+  </si>
+  <si>
+    <t>20241031</t>
+  </si>
+  <si>
+    <t>20241101</t>
+  </si>
+  <si>
+    <t>20241104</t>
+  </si>
+  <si>
+    <t>20241105</t>
+  </si>
+  <si>
+    <t>20241106</t>
+  </si>
+  <si>
+    <t>20241107</t>
+  </si>
+  <si>
+    <t>20241108</t>
+  </si>
+  <si>
+    <t>20241111</t>
+  </si>
+  <si>
+    <t>20241112</t>
+  </si>
+  <si>
+    <t>20241113</t>
+  </si>
+  <si>
+    <t>20241114</t>
+  </si>
+  <si>
+    <t>20241115</t>
+  </si>
+  <si>
+    <t>20241118</t>
+  </si>
+  <si>
+    <t>20241119</t>
+  </si>
+  <si>
+    <t>20241120</t>
+  </si>
+  <si>
+    <t>20241121</t>
+  </si>
+  <si>
+    <t>20241122</t>
+  </si>
+  <si>
+    <t>20241125</t>
+  </si>
+  <si>
+    <t>20241126</t>
+  </si>
+  <si>
+    <t>20241127</t>
+  </si>
+  <si>
+    <t>20241128</t>
+  </si>
+  <si>
+    <t>20241129</t>
+  </si>
+  <si>
+    <t>20241202</t>
+  </si>
+  <si>
+    <t>20241203</t>
+  </si>
+  <si>
+    <t>20241204</t>
+  </si>
+  <si>
+    <t>20241205</t>
+  </si>
+  <si>
+    <t>20241206</t>
+  </si>
+  <si>
+    <t>20241209</t>
+  </si>
+  <si>
+    <t>20241210</t>
+  </si>
+  <si>
+    <t>20241211</t>
+  </si>
+  <si>
+    <t>20241212</t>
+  </si>
+  <si>
+    <t>20241213</t>
+  </si>
+  <si>
+    <t>20241216</t>
+  </si>
+  <si>
+    <t>20241217</t>
+  </si>
+  <si>
+    <t>20241218</t>
+  </si>
+  <si>
+    <t>20241219</t>
+  </si>
+  <si>
+    <t>20241220</t>
+  </si>
+  <si>
+    <t>20241223</t>
+  </si>
+  <si>
+    <t>20241224</t>
+  </si>
+  <si>
+    <t>20241225</t>
+  </si>
+  <si>
+    <t>20241226</t>
+  </si>
+  <si>
+    <t>20241227</t>
+  </si>
+  <si>
+    <t>20241230</t>
+  </si>
+  <si>
+    <t>20241231</t>
+  </si>
+  <si>
+    <t>20250102</t>
+  </si>
+  <si>
+    <t>20250103</t>
+  </si>
+  <si>
+    <t>20250106</t>
+  </si>
+  <si>
+    <t>20250107</t>
+  </si>
+  <si>
+    <t>20250108</t>
+  </si>
+  <si>
+    <t>20250109</t>
+  </si>
+  <si>
+    <t>20250110</t>
+  </si>
+  <si>
+    <t>20250113</t>
+  </si>
+  <si>
+    <t>20250114</t>
+  </si>
+  <si>
+    <t>20250115</t>
+  </si>
+  <si>
+    <t>20250116</t>
+  </si>
+  <si>
+    <t>20250117</t>
+  </si>
+  <si>
+    <t>20250120</t>
+  </si>
+  <si>
+    <t>20250121</t>
+  </si>
+  <si>
+    <t>20250122</t>
+  </si>
+  <si>
+    <t>20250123</t>
+  </si>
+  <si>
+    <t>20250124</t>
+  </si>
+  <si>
+    <t>20250127</t>
+  </si>
+  <si>
+    <t>20250206</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -266,8 +512,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -306,24 +559,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -361,7 +626,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -395,6 +660,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -429,9 +695,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -604,15 +871,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BY82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="R84" sqref="R84"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:77">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -844,9 +1113,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
-      <c r="A2">
-        <v>20241008</v>
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B2">
         <v>5029</v>
@@ -870,9 +1139,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
-      <c r="A3">
-        <v>20241009</v>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B3">
         <v>295</v>
@@ -920,7 +1189,7 @@
         <v>4.76</v>
       </c>
       <c r="Q3">
-        <v>-8.050000000000001</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="R3">
         <v>-2.7</v>
@@ -953,7 +1222,7 @@
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-2.51</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="AC3">
         <v>6.24</v>
@@ -989,16 +1258,16 @@
         <v>513</v>
       </c>
       <c r="BA3">
-        <v>-2.26</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="BB3">
-        <v>-8.470000000000001</v>
+        <v>-8.4700000000000006</v>
       </c>
       <c r="BC3">
         <v>-1.41</v>
       </c>
       <c r="BD3">
-        <v>-9.109999999999999</v>
+        <v>-9.11</v>
       </c>
       <c r="BE3">
         <v>-6.34</v>
@@ -1025,9 +1294,9 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
-      <c r="A4">
-        <v>20241010</v>
+    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B4">
         <v>2998</v>
@@ -1069,7 +1338,7 @@
         <v>6.83</v>
       </c>
       <c r="O4">
-        <v>-2.49</v>
+        <v>-2.4900000000000002</v>
       </c>
       <c r="P4">
         <v>9.52</v>
@@ -1078,7 +1347,7 @@
         <v>-6.35</v>
       </c>
       <c r="R4">
-        <v>-8.710000000000001</v>
+        <v>-8.7100000000000009</v>
       </c>
       <c r="S4">
         <v>15.07</v>
@@ -1144,7 +1413,7 @@
         <v>43</v>
       </c>
       <c r="BA4">
-        <v>-0.07000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="BB4">
         <v>-8.35</v>
@@ -1171,10 +1440,10 @@
         <v>6.98</v>
       </c>
       <c r="BJ4">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="BK4">
-        <v>81.40000000000001</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="BL4">
         <v>32.56</v>
@@ -1192,16 +1461,16 @@
         <v>3.13</v>
       </c>
       <c r="BQ4">
-        <v>-4.06</v>
+        <v>-4.0599999999999996</v>
       </c>
       <c r="BR4">
         <v>-0.06</v>
       </c>
       <c r="BS4">
-        <v>-8.130000000000001</v>
+        <v>-8.1300000000000008</v>
       </c>
       <c r="BT4">
-        <v>-8.210000000000001</v>
+        <v>-8.2100000000000009</v>
       </c>
       <c r="BU4">
         <v>23.62</v>
@@ -1216,12 +1485,12 @@
         <v>0.26</v>
       </c>
       <c r="BY4">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
-      <c r="A5">
-        <v>20241011</v>
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B5">
         <v>442</v>
@@ -1266,7 +1535,7 @@
         <v>-2.76</v>
       </c>
       <c r="P5">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q5">
         <v>-5.68</v>
@@ -1287,7 +1556,7 @@
         <v>30.88</v>
       </c>
       <c r="W5">
-        <v>17.65</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="X5">
         <v>94.12</v>
@@ -1392,7 +1661,7 @@
         <v>2.21</v>
       </c>
       <c r="BS5">
-        <v>-17.76</v>
+        <v>-17.760000000000002</v>
       </c>
       <c r="BT5">
         <v>-16.22</v>
@@ -1413,9 +1682,9 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
-      <c r="A6">
-        <v>20241014</v>
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B6">
         <v>5023</v>
@@ -1460,7 +1729,7 @@
         <v>4.71</v>
       </c>
       <c r="P6">
-        <v>8.449999999999999</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="Q6">
         <v>-3.27</v>
@@ -1475,19 +1744,19 @@
         <v>15.07</v>
       </c>
       <c r="U6">
-        <v>65.70999999999999</v>
+        <v>65.709999999999994</v>
       </c>
       <c r="V6">
-        <v>74.29000000000001</v>
+        <v>74.290000000000006</v>
       </c>
       <c r="W6">
         <v>48.57</v>
       </c>
       <c r="X6">
-        <v>94.29000000000001</v>
+        <v>94.29</v>
       </c>
       <c r="Y6">
-        <v>94.29000000000001</v>
+        <v>94.29</v>
       </c>
       <c r="Z6">
         <v>17</v>
@@ -1496,10 +1765,10 @@
         <v>4.95</v>
       </c>
       <c r="AB6">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="AC6">
-        <v>9.109999999999999</v>
+        <v>9.11</v>
       </c>
       <c r="AD6">
         <v>-3.26</v>
@@ -1523,10 +1792,10 @@
         <v>29.41</v>
       </c>
       <c r="AK6">
-        <v>88.23999999999999</v>
+        <v>88.24</v>
       </c>
       <c r="AL6">
-        <v>88.23999999999999</v>
+        <v>88.24</v>
       </c>
       <c r="AZ6">
         <v>15</v>
@@ -1535,7 +1804,7 @@
         <v>-1.67</v>
       </c>
       <c r="BB6">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="BC6">
         <v>2.6</v>
@@ -1589,7 +1858,7 @@
         <v>-7.18</v>
       </c>
       <c r="BT6">
-        <v>-2.47</v>
+        <v>-2.4700000000000002</v>
       </c>
       <c r="BU6">
         <v>12.5</v>
@@ -1607,9 +1876,9 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
-      <c r="A7">
-        <v>20241015</v>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B7">
         <v>801</v>
@@ -1702,7 +1971,7 @@
         <v>1.02</v>
       </c>
       <c r="AF7">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="AG7">
         <v>9.81</v>
@@ -1801,9 +2070,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
-      <c r="A8">
-        <v>20241016</v>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B8">
         <v>2726</v>
@@ -1851,7 +2120,7 @@
         <v>8.33</v>
       </c>
       <c r="Q8">
-        <v>-2.03</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="R8">
         <v>1.41</v>
@@ -1932,7 +2201,7 @@
         <v>-5.71</v>
       </c>
       <c r="BE8">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="BF8">
         <v>3.39</v>
@@ -1965,7 +2234,7 @@
         <v>-2.06</v>
       </c>
       <c r="BP8">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="BQ8">
         <v>-5.46</v>
@@ -1977,7 +2246,7 @@
         <v>-12.35</v>
       </c>
       <c r="BT8">
-        <v>-9.109999999999999</v>
+        <v>-9.11</v>
       </c>
       <c r="BU8">
         <v>0</v>
@@ -1995,9 +2264,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
-      <c r="A9">
-        <v>20241017</v>
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B9">
         <v>1800</v>
@@ -2057,7 +2326,7 @@
         <v>11.19</v>
       </c>
       <c r="U9">
-        <v>78.65000000000001</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="V9">
         <v>47.19</v>
@@ -2081,7 +2350,7 @@
         <v>3.48</v>
       </c>
       <c r="AC9">
-        <v>8.710000000000001</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="AD9">
         <v>-2.08</v>
@@ -2096,7 +2365,7 @@
         <v>11.5</v>
       </c>
       <c r="AH9">
-        <v>84.84999999999999</v>
+        <v>84.85</v>
       </c>
       <c r="AI9">
         <v>60.61</v>
@@ -2108,7 +2377,7 @@
         <v>93.94</v>
       </c>
       <c r="AL9">
-        <v>81.81999999999999</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="AZ9">
         <v>14</v>
@@ -2168,7 +2437,7 @@
         <v>4.72</v>
       </c>
       <c r="BS9">
-        <v>-4.11</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="BT9">
         <v>0.45</v>
@@ -2189,9 +2458,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
-      <c r="A10">
-        <v>20241018</v>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B10">
         <v>5094</v>
@@ -2263,7 +2532,7 @@
         <v>86.27</v>
       </c>
       <c r="Y10">
-        <v>98.04000000000001</v>
+        <v>98.04</v>
       </c>
       <c r="Z10">
         <v>21</v>
@@ -2272,7 +2541,7 @@
         <v>3.42</v>
       </c>
       <c r="AB10">
-        <v>8.289999999999999</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="AC10">
         <v>10.36</v>
@@ -2290,19 +2559,19 @@
         <v>12.44</v>
       </c>
       <c r="AH10">
-        <v>71.43000000000001</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="AI10">
-        <v>85.70999999999999</v>
+        <v>85.71</v>
       </c>
       <c r="AJ10">
         <v>57.14</v>
       </c>
       <c r="AK10">
-        <v>71.43000000000001</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="AL10">
-        <v>95.23999999999999</v>
+        <v>95.24</v>
       </c>
       <c r="AZ10">
         <v>33</v>
@@ -2323,7 +2592,7 @@
         <v>5.13</v>
       </c>
       <c r="BF10">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BG10">
         <v>9.67</v>
@@ -2332,13 +2601,13 @@
         <v>30.3</v>
       </c>
       <c r="BI10">
-        <v>75.76000000000001</v>
+        <v>75.760000000000005</v>
       </c>
       <c r="BJ10">
         <v>93.94</v>
       </c>
       <c r="BK10">
-        <v>75.76000000000001</v>
+        <v>75.760000000000005</v>
       </c>
       <c r="BL10">
         <v>90.91</v>
@@ -2353,7 +2622,7 @@
         <v>-0.43</v>
       </c>
       <c r="BP10">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="BQ10">
         <v>-5.81</v>
@@ -2362,7 +2631,7 @@
         <v>3.04</v>
       </c>
       <c r="BS10">
-        <v>-9.449999999999999</v>
+        <v>-9.4499999999999993</v>
       </c>
       <c r="BT10">
         <v>-6.69</v>
@@ -2383,9 +2652,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
-      <c r="A11">
-        <v>20241021</v>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B11">
         <v>3773</v>
@@ -2430,7 +2699,7 @@
         <v>6.13</v>
       </c>
       <c r="P11">
-        <v>9.460000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="Q11">
         <v>1.51</v>
@@ -2445,10 +2714,10 @@
         <v>16.8</v>
       </c>
       <c r="U11">
-        <v>83.95999999999999</v>
+        <v>83.96</v>
       </c>
       <c r="V11">
-        <v>86.79000000000001</v>
+        <v>86.79</v>
       </c>
       <c r="W11">
         <v>53.77</v>
@@ -2475,7 +2744,7 @@
         <v>3.68</v>
       </c>
       <c r="AE11">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AF11">
         <v>12.42</v>
@@ -2484,7 +2753,7 @@
         <v>14.89</v>
       </c>
       <c r="AH11">
-        <v>82.76000000000001</v>
+        <v>82.76</v>
       </c>
       <c r="AI11">
         <v>89.66</v>
@@ -2493,7 +2762,7 @@
         <v>41.38</v>
       </c>
       <c r="AK11">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="AL11">
         <v>100</v>
@@ -2505,7 +2774,7 @@
         <v>-0.7</v>
       </c>
       <c r="BB11">
-        <v>-0.07000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="BC11">
         <v>3.22</v>
@@ -2538,9 +2807,9 @@
         <v>96.88</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
-      <c r="A12">
-        <v>20241022</v>
+    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B12">
         <v>3595</v>
@@ -2591,13 +2860,13 @@
         <v>-0.99</v>
       </c>
       <c r="R12">
-        <v>-1.13</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="S12">
         <v>11.63</v>
       </c>
       <c r="T12">
-        <v>10.22</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="U12">
         <v>76.38</v>
@@ -2609,7 +2878,7 @@
         <v>33.86</v>
       </c>
       <c r="X12">
-        <v>98.43000000000001</v>
+        <v>98.43</v>
       </c>
       <c r="Y12">
         <v>93.7</v>
@@ -2669,10 +2938,10 @@
         <v>-3.95</v>
       </c>
       <c r="BE12">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="BF12">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="BG12">
         <v>5.97</v>
@@ -2693,9 +2962,9 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
-      <c r="A13">
-        <v>20241023</v>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B13">
         <v>2752</v>
@@ -2734,7 +3003,7 @@
         <v>107</v>
       </c>
       <c r="N13">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O13">
         <v>3.34</v>
@@ -2743,7 +3012,7 @@
         <v>8.18</v>
       </c>
       <c r="Q13">
-        <v>-0.28</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="R13">
         <v>-0.96</v>
@@ -2764,7 +3033,7 @@
         <v>33.64</v>
       </c>
       <c r="X13">
-        <v>96.26000000000001</v>
+        <v>96.26</v>
       </c>
       <c r="Y13">
         <v>91.59</v>
@@ -2776,22 +3045,22 @@
         <v>5.27</v>
       </c>
       <c r="AB13">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AC13">
-        <v>8.630000000000001</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="AD13">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AE13">
         <v>-1.08</v>
       </c>
       <c r="AF13">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AG13">
-        <v>8.050000000000001</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AH13">
         <v>82.61</v>
@@ -2815,13 +3084,13 @@
         <v>-2.4</v>
       </c>
       <c r="BB13">
-        <v>-0.9399999999999999</v>
+        <v>-0.94</v>
       </c>
       <c r="BC13">
         <v>3.92</v>
       </c>
       <c r="BD13">
-        <v>-5.06</v>
+        <v>-5.0599999999999996</v>
       </c>
       <c r="BE13">
         <v>1.56</v>
@@ -2848,9 +3117,9 @@
         <v>86.11</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
-      <c r="A14">
-        <v>20241024</v>
+    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B14">
         <v>2141</v>
@@ -2892,13 +3161,13 @@
         <v>3.92</v>
       </c>
       <c r="O14">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="P14">
         <v>7.57</v>
       </c>
       <c r="Q14">
-        <v>-2.43</v>
+        <v>-2.4300000000000002</v>
       </c>
       <c r="R14">
         <v>-1.26</v>
@@ -2916,13 +3185,13 @@
         <v>60.64</v>
       </c>
       <c r="W14">
-        <v>32.98</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="X14">
         <v>96.81</v>
       </c>
       <c r="Y14">
-        <v>91.48999999999999</v>
+        <v>91.49</v>
       </c>
       <c r="Z14">
         <v>41</v>
@@ -2931,13 +3200,13 @@
         <v>5.58</v>
       </c>
       <c r="AB14">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="AC14">
-        <v>8.720000000000001</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="AD14">
-        <v>-2.32</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="AE14">
         <v>-1.18</v>
@@ -2946,22 +3215,22 @@
         <v>9.98</v>
       </c>
       <c r="AG14">
-        <v>8.630000000000001</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="AH14">
         <v>75.61</v>
       </c>
       <c r="AI14">
-        <v>68.29000000000001</v>
+        <v>68.290000000000006</v>
       </c>
       <c r="AJ14">
         <v>29.27</v>
       </c>
       <c r="AK14">
-        <v>92.68000000000001</v>
+        <v>92.68</v>
       </c>
       <c r="AL14">
-        <v>82.93000000000001</v>
+        <v>82.93</v>
       </c>
       <c r="AZ14">
         <v>41</v>
@@ -2991,7 +3260,7 @@
         <v>21.95</v>
       </c>
       <c r="BI14">
-        <v>36.59</v>
+        <v>36.590000000000003</v>
       </c>
       <c r="BJ14">
         <v>56.1</v>
@@ -3024,7 +3293,7 @@
         <v>-12.2</v>
       </c>
       <c r="BT14">
-        <v>-4.14</v>
+        <v>-4.1399999999999997</v>
       </c>
       <c r="BU14">
         <v>0</v>
@@ -3042,9 +3311,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
-      <c r="A15">
-        <v>20241025</v>
+    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B15">
         <v>4303</v>
@@ -3104,7 +3373,7 @@
         <v>15.39</v>
       </c>
       <c r="U15">
-        <v>82.34999999999999</v>
+        <v>82.35</v>
       </c>
       <c r="V15">
         <v>89.41</v>
@@ -3113,7 +3382,7 @@
         <v>54.12</v>
       </c>
       <c r="X15">
-        <v>95.29000000000001</v>
+        <v>95.29</v>
       </c>
       <c r="Y15">
         <v>100</v>
@@ -3161,7 +3430,7 @@
         <v>25</v>
       </c>
       <c r="BA15">
-        <v>-0.29</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="BB15">
         <v>4.66</v>
@@ -3173,7 +3442,7 @@
         <v>-2.35</v>
       </c>
       <c r="BE15">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="BF15">
         <v>0.44</v>
@@ -3236,9 +3505,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:77">
-      <c r="A16">
-        <v>20241028</v>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B16">
         <v>4223</v>
@@ -3307,7 +3576,7 @@
         <v>58.44</v>
       </c>
       <c r="X16">
-        <v>99.34999999999999</v>
+        <v>99.35</v>
       </c>
       <c r="Y16">
         <v>100</v>
@@ -3319,13 +3588,13 @@
         <v>5.95</v>
       </c>
       <c r="AB16">
-        <v>8.289999999999999</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="AC16">
         <v>9.59</v>
       </c>
       <c r="AD16">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="AE16">
         <v>2.29</v>
@@ -3340,7 +3609,7 @@
         <v>92.06</v>
       </c>
       <c r="AI16">
-        <v>95.23999999999999</v>
+        <v>95.24</v>
       </c>
       <c r="AJ16">
         <v>61.9</v>
@@ -3391,9 +3660,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:77">
-      <c r="A17">
-        <v>20241029</v>
+    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B17">
         <v>1062</v>
@@ -3435,7 +3704,7 @@
         <v>5.22</v>
       </c>
       <c r="O17">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="P17">
         <v>8.48</v>
@@ -3483,10 +3752,10 @@
         <v>0.49</v>
       </c>
       <c r="AE17">
-        <v>-2.28</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="AF17">
-        <v>10.04</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="AG17">
         <v>7.44</v>
@@ -3534,10 +3803,10 @@
         <v>27.78</v>
       </c>
       <c r="BI17">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="BJ17">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="BK17">
         <v>88.89</v>
@@ -3546,9 +3815,9 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="18" spans="1:77">
-      <c r="A18">
-        <v>20241030</v>
+    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B18">
         <v>2320</v>
@@ -3593,7 +3862,7 @@
         <v>4.99</v>
       </c>
       <c r="P18">
-        <v>8.449999999999999</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="Q18">
         <v>-1.63</v>
@@ -3626,7 +3895,7 @@
         <v>51</v>
       </c>
       <c r="AA18">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="AB18">
         <v>7.17</v>
@@ -3644,10 +3913,10 @@
         <v>6.61</v>
       </c>
       <c r="AG18">
-        <v>9.279999999999999</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="AH18">
-        <v>74.51000000000001</v>
+        <v>74.510000000000005</v>
       </c>
       <c r="AI18">
         <v>84.31</v>
@@ -3695,7 +3964,7 @@
         <v>60.53</v>
       </c>
       <c r="BK18">
-        <v>36.84</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="BL18">
         <v>48.68</v>
@@ -3740,9 +4009,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:77">
-      <c r="A19">
-        <v>20241031</v>
+    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B19">
         <v>3512</v>
@@ -3826,7 +4095,7 @@
         <v>7.82</v>
       </c>
       <c r="AC19">
-        <v>10.03</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="AD19">
         <v>1.94</v>
@@ -3880,7 +4149,7 @@
         <v>5.63</v>
       </c>
       <c r="BH19">
-        <v>17.24</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="BI19">
         <v>55.17</v>
@@ -3892,7 +4161,7 @@
         <v>72.41</v>
       </c>
       <c r="BL19">
-        <v>82.76000000000001</v>
+        <v>82.76</v>
       </c>
       <c r="BM19">
         <v>4</v>
@@ -3916,7 +4185,7 @@
         <v>-7.72</v>
       </c>
       <c r="BT19">
-        <v>-8.300000000000001</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="BU19">
         <v>0</v>
@@ -3934,9 +4203,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:77">
-      <c r="A20">
-        <v>20241101</v>
+    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B20">
         <v>975</v>
@@ -3999,7 +4268,7 @@
         <v>89.53</v>
       </c>
       <c r="V20">
-        <v>38.95</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="W20">
         <v>11.63</v>
@@ -4044,7 +4313,7 @@
         <v>9.09</v>
       </c>
       <c r="AK20">
-        <v>97.40000000000001</v>
+        <v>97.4</v>
       </c>
       <c r="AL20">
         <v>45.45</v>
@@ -4074,7 +4343,7 @@
         <v>-1.27</v>
       </c>
       <c r="BH20">
-        <v>17.65</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="BI20">
         <v>15.29</v>
@@ -4083,7 +4352,7 @@
         <v>14.12</v>
       </c>
       <c r="BK20">
-        <v>78.81999999999999</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="BL20">
         <v>36.47</v>
@@ -4128,9 +4397,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:77">
-      <c r="A21">
-        <v>20241104</v>
+    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B21">
         <v>4495</v>
@@ -4178,7 +4447,7 @@
         <v>6.54</v>
       </c>
       <c r="Q21">
-        <v>-4.15</v>
+        <v>-4.1500000000000004</v>
       </c>
       <c r="R21">
         <v>-1.41</v>
@@ -4187,7 +4456,7 @@
         <v>10.25</v>
       </c>
       <c r="T21">
-        <v>8.630000000000001</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="U21">
         <v>64.89</v>
@@ -4199,16 +4468,16 @@
         <v>31.91</v>
       </c>
       <c r="X21">
-        <v>80.84999999999999</v>
+        <v>80.849999999999994</v>
       </c>
       <c r="Y21">
-        <v>79.79000000000001</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="Z21">
         <v>40</v>
       </c>
       <c r="AA21">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="AB21">
         <v>1.31</v>
@@ -4220,7 +4489,7 @@
         <v>-5.68</v>
       </c>
       <c r="AE21">
-        <v>-0.55</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="AF21">
         <v>4.42</v>
@@ -4250,7 +4519,7 @@
         <v>-2.02</v>
       </c>
       <c r="BB21">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BC21">
         <v>4.05</v>
@@ -4271,7 +4540,7 @@
         <v>28.3</v>
       </c>
       <c r="BI21">
-        <v>39.62</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="BJ21">
         <v>54.72</v>
@@ -4322,9 +4591,9 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="22" spans="1:77">
-      <c r="A22">
-        <v>20241105</v>
+    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B22">
         <v>5069</v>
@@ -4387,13 +4656,13 @@
         <v>80</v>
       </c>
       <c r="V22">
-        <v>88.56999999999999</v>
+        <v>88.57</v>
       </c>
       <c r="W22">
         <v>57.86</v>
       </c>
       <c r="X22">
-        <v>99.29000000000001</v>
+        <v>99.29</v>
       </c>
       <c r="Y22">
         <v>100</v>
@@ -4411,7 +4680,7 @@
         <v>9.24</v>
       </c>
       <c r="AD22">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AE22">
         <v>0.97</v>
@@ -4459,7 +4728,7 @@
         <v>3.32</v>
       </c>
       <c r="BG22">
-        <v>8.720000000000001</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="BH22">
         <v>13.33</v>
@@ -4486,7 +4755,7 @@
         <v>0.52</v>
       </c>
       <c r="BP22">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="BQ22">
         <v>-6.56</v>
@@ -4498,7 +4767,7 @@
         <v>-5.49</v>
       </c>
       <c r="BT22">
-        <v>-0.28</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="BU22">
         <v>5.56</v>
@@ -4516,9 +4785,9 @@
         <v>41.67</v>
       </c>
     </row>
-    <row r="23" spans="1:77">
-      <c r="A23">
-        <v>20241106</v>
+    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B23">
         <v>2828</v>
@@ -4557,13 +4826,13 @@
         <v>160</v>
       </c>
       <c r="N23">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="O23">
         <v>5.13</v>
       </c>
       <c r="P23">
-        <v>9.050000000000001</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="Q23">
         <v>1.24</v>
@@ -4641,7 +4910,7 @@
         <v>0.06</v>
       </c>
       <c r="BC23">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="BD23">
         <v>-3.81</v>
@@ -4671,9 +4940,9 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="24" spans="1:77">
-      <c r="A24">
-        <v>20241107</v>
+    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B24">
         <v>4528</v>
@@ -4718,7 +4987,7 @@
         <v>4.13</v>
       </c>
       <c r="P24">
-        <v>8.210000000000001</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="Q24">
         <v>-1.39</v>
@@ -4733,13 +5002,13 @@
         <v>11.22</v>
       </c>
       <c r="U24">
-        <v>73.59999999999999</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="V24">
-        <v>74.40000000000001</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="W24">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="X24">
         <v>91.2</v>
@@ -4778,7 +5047,7 @@
         <v>67.8</v>
       </c>
       <c r="AJ24">
-        <v>35.59</v>
+        <v>35.590000000000003</v>
       </c>
       <c r="AK24">
         <v>83.05</v>
@@ -4829,13 +5098,13 @@
         <v>3</v>
       </c>
       <c r="BN24">
-        <v>-8.199999999999999</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="BO24">
-        <v>-8.380000000000001</v>
+        <v>-8.3800000000000008</v>
       </c>
       <c r="BP24">
-        <v>-2.43</v>
+        <v>-2.4300000000000002</v>
       </c>
       <c r="BQ24">
         <v>-10</v>
@@ -4865,9 +5134,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:77">
-      <c r="A25">
-        <v>20241108</v>
+    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B25">
         <v>2221</v>
@@ -4906,7 +5175,7 @@
         <v>185</v>
       </c>
       <c r="N25">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="O25">
         <v>1.42</v>
@@ -4927,7 +5196,7 @@
         <v>10.99</v>
       </c>
       <c r="U25">
-        <v>87.56999999999999</v>
+        <v>87.57</v>
       </c>
       <c r="V25">
         <v>52.97</v>
@@ -4963,10 +5232,10 @@
         <v>12.19</v>
       </c>
       <c r="AG25">
-        <v>8.710000000000001</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="AH25">
-        <v>82.76000000000001</v>
+        <v>82.76</v>
       </c>
       <c r="AI25">
         <v>58.62</v>
@@ -5017,7 +5286,7 @@
         <v>66.67</v>
       </c>
       <c r="BL25">
-        <v>71.79000000000001</v>
+        <v>71.790000000000006</v>
       </c>
       <c r="BM25">
         <v>7</v>
@@ -5032,13 +5301,13 @@
         <v>2.88</v>
       </c>
       <c r="BQ25">
-        <v>-8.119999999999999</v>
+        <v>-8.1199999999999992</v>
       </c>
       <c r="BR25">
         <v>1.67</v>
       </c>
       <c r="BS25">
-        <v>-8.710000000000001</v>
+        <v>-8.7100000000000009</v>
       </c>
       <c r="BT25">
         <v>-7.27</v>
@@ -5059,9 +5328,9 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="26" spans="1:77">
-      <c r="A26">
-        <v>20241111</v>
+    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B26">
         <v>3939</v>
@@ -5121,7 +5390,7 @@
         <v>10.83</v>
       </c>
       <c r="U26">
-        <v>65.70999999999999</v>
+        <v>65.709999999999994</v>
       </c>
       <c r="V26">
         <v>72.38</v>
@@ -5151,7 +5420,7 @@
         <v>-3.11</v>
       </c>
       <c r="AE26">
-        <v>-0.29</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="AF26">
         <v>5.62</v>
@@ -5190,10 +5459,10 @@
         <v>-4.46</v>
       </c>
       <c r="BE26">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="BF26">
-        <v>-0.57</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="BG26">
         <v>1.96</v>
@@ -5253,9 +5522,9 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="27" spans="1:77">
-      <c r="A27">
-        <v>20241112</v>
+    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B27">
         <v>1486</v>
@@ -5324,10 +5593,10 @@
         <v>17.29</v>
       </c>
       <c r="X27">
-        <v>95.48999999999999</v>
+        <v>95.49</v>
       </c>
       <c r="Y27">
-        <v>84.95999999999999</v>
+        <v>84.96</v>
       </c>
       <c r="Z27">
         <v>43</v>
@@ -5348,7 +5617,7 @@
         <v>-3.36</v>
       </c>
       <c r="AF27">
-        <v>8.720000000000001</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="AG27">
         <v>5.05</v>
@@ -5360,7 +5629,7 @@
         <v>41.86</v>
       </c>
       <c r="AJ27">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AK27">
         <v>86.05</v>
@@ -5396,16 +5665,16 @@
         <v>34.04</v>
       </c>
       <c r="BI27">
-        <v>19.15</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="BJ27">
         <v>23.4</v>
       </c>
       <c r="BK27">
-        <v>76.59999999999999</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="BL27">
-        <v>65.95999999999999</v>
+        <v>65.959999999999994</v>
       </c>
       <c r="BM27">
         <v>15</v>
@@ -5420,7 +5689,7 @@
         <v>-0.64</v>
       </c>
       <c r="BQ27">
-        <v>-8.199999999999999</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="BR27">
         <v>1.49</v>
@@ -5447,9 +5716,9 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="28" spans="1:77">
-      <c r="A28">
-        <v>20241113</v>
+    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B28">
         <v>2586</v>
@@ -5548,19 +5817,19 @@
         <v>6.44</v>
       </c>
       <c r="AH28">
-        <v>64.29000000000001</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="AI28">
-        <v>64.29000000000001</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="AJ28">
         <v>39.29</v>
       </c>
       <c r="AK28">
-        <v>89.29000000000001</v>
+        <v>89.29</v>
       </c>
       <c r="AL28">
-        <v>78.56999999999999</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="AZ28">
         <v>51</v>
@@ -5572,13 +5841,13 @@
         <v>-1.43</v>
       </c>
       <c r="BC28">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="BD28">
         <v>-4.91</v>
       </c>
       <c r="BE28">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BF28">
         <v>2.56</v>
@@ -5596,10 +5865,10 @@
         <v>49.02</v>
       </c>
       <c r="BK28">
-        <v>82.34999999999999</v>
+        <v>82.35</v>
       </c>
       <c r="BL28">
-        <v>78.43000000000001</v>
+        <v>78.430000000000007</v>
       </c>
       <c r="BM28">
         <v>15</v>
@@ -5641,9 +5910,9 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="29" spans="1:77">
-      <c r="A29">
-        <v>20241114</v>
+    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B29">
         <v>487</v>
@@ -5721,7 +5990,7 @@
         <v>18</v>
       </c>
       <c r="AA29">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="AB29">
         <v>2.27</v>
@@ -5736,10 +6005,10 @@
         <v>-0.22</v>
       </c>
       <c r="AF29">
-        <v>9.039999999999999</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="AG29">
-        <v>8.789999999999999</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="AH29">
         <v>55.56</v>
@@ -5805,7 +6074,7 @@
         <v>-7.45</v>
       </c>
       <c r="BP29">
-        <v>-2.32</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="BQ29">
         <v>-8.16</v>
@@ -5835,9 +6104,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:77">
-      <c r="A30">
-        <v>20241115</v>
+    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B30">
         <v>929</v>
@@ -5879,7 +6148,7 @@
         <v>1.64</v>
       </c>
       <c r="O30">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="P30">
         <v>8.67</v>
@@ -5891,7 +6160,7 @@
         <v>2.61</v>
       </c>
       <c r="S30">
-        <v>9.029999999999999</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="T30">
         <v>11.75</v>
@@ -5921,10 +6190,10 @@
         <v>4.33</v>
       </c>
       <c r="AC30">
-        <v>9.210000000000001</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="AD30">
-        <v>-2.22</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="AE30">
         <v>2.62</v>
@@ -5972,7 +6241,7 @@
         <v>-0.95</v>
       </c>
       <c r="BG30">
-        <v>-0.5600000000000001</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="BH30">
         <v>12.9</v>
@@ -6005,7 +6274,7 @@
         <v>-7.67</v>
       </c>
       <c r="BR30">
-        <v>-1.09</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="BS30">
         <v>-9.99</v>
@@ -6020,7 +6289,7 @@
         <v>15.79</v>
       </c>
       <c r="BW30">
-        <v>36.84</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="BX30">
         <v>0</v>
@@ -6029,9 +6298,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:77">
-      <c r="A31">
-        <v>20241118</v>
+    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B31">
         <v>1165</v>
@@ -6142,7 +6411,7 @@
         <v>100</v>
       </c>
       <c r="AL31">
-        <v>85.70999999999999</v>
+        <v>85.71</v>
       </c>
       <c r="AZ31">
         <v>30</v>
@@ -6151,7 +6420,7 @@
         <v>-1.27</v>
       </c>
       <c r="BB31">
-        <v>-4.4</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="BC31">
         <v>1.89</v>
@@ -6202,13 +6471,13 @@
         <v>-1.43</v>
       </c>
       <c r="BS31">
-        <v>-8.029999999999999</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="BT31">
-        <v>-9.369999999999999</v>
+        <v>-9.3699999999999992</v>
       </c>
       <c r="BU31">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="BV31">
         <v>26.09</v>
@@ -6220,12 +6489,12 @@
         <v>0</v>
       </c>
       <c r="BY31">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:77">
-      <c r="A32">
-        <v>20241119</v>
+    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B32">
         <v>4516</v>
@@ -6273,7 +6542,7 @@
         <v>5.81</v>
       </c>
       <c r="Q32">
-        <v>-4.39</v>
+        <v>-4.3899999999999997</v>
       </c>
       <c r="R32">
         <v>1.24</v>
@@ -6417,9 +6686,9 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="33" spans="1:77">
-      <c r="A33">
-        <v>20241120</v>
+    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B33">
         <v>4572</v>
@@ -6521,7 +6790,7 @@
         <v>75</v>
       </c>
       <c r="AI33">
-        <v>96.43000000000001</v>
+        <v>96.43</v>
       </c>
       <c r="AJ33">
         <v>50</v>
@@ -6545,7 +6814,7 @@
         <v>5.17</v>
       </c>
       <c r="BD33">
-        <v>-4.85</v>
+        <v>-4.8499999999999996</v>
       </c>
       <c r="BE33">
         <v>6.61</v>
@@ -6587,7 +6856,7 @@
         <v>-5.89</v>
       </c>
       <c r="BR33">
-        <v>8.949999999999999</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="BS33">
         <v>-6.18</v>
@@ -6611,9 +6880,9 @@
         <v>83.33</v>
       </c>
     </row>
-    <row r="34" spans="1:77">
-      <c r="A34">
-        <v>20241121</v>
+    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B34">
         <v>2564</v>
@@ -6682,7 +6951,7 @@
         <v>40.54</v>
       </c>
       <c r="X34">
-        <v>98.65000000000001</v>
+        <v>98.65</v>
       </c>
       <c r="Y34">
         <v>97.97</v>
@@ -6697,13 +6966,13 @@
         <v>4.2</v>
       </c>
       <c r="AC34">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD34">
         <v>0.52</v>
       </c>
       <c r="AE34">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="AF34">
         <v>11.65</v>
@@ -6712,7 +6981,7 @@
         <v>10.38</v>
       </c>
       <c r="AH34">
-        <v>81.81999999999999</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="AI34">
         <v>74.55</v>
@@ -6733,7 +7002,7 @@
         <v>-1.59</v>
       </c>
       <c r="BB34">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="BC34">
         <v>4.21</v>
@@ -6742,13 +7011,13 @@
         <v>-3.28</v>
       </c>
       <c r="BE34">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="BF34">
         <v>5.96</v>
       </c>
       <c r="BG34">
-        <v>8.279999999999999</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="BH34">
         <v>15.38</v>
@@ -6769,7 +7038,7 @@
         <v>2</v>
       </c>
       <c r="BN34">
-        <v>-2.28</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="BO34">
         <v>-3.1</v>
@@ -6805,9 +7074,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:77">
-      <c r="A35">
-        <v>20241122</v>
+    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B35">
         <v>429</v>
@@ -6879,7 +7148,7 @@
         <v>92.16</v>
       </c>
       <c r="Y35">
-        <v>88.23999999999999</v>
+        <v>88.24</v>
       </c>
       <c r="Z35">
         <v>51</v>
@@ -6918,7 +7187,7 @@
         <v>86.27</v>
       </c>
       <c r="AL35">
-        <v>82.34999999999999</v>
+        <v>82.35</v>
       </c>
       <c r="AZ35">
         <v>41</v>
@@ -6963,16 +7232,16 @@
         <v>3</v>
       </c>
       <c r="BN35">
-        <v>-4.23</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="BO35">
-        <v>-9.609999999999999</v>
+        <v>-9.61</v>
       </c>
       <c r="BP35">
         <v>-2.16</v>
       </c>
       <c r="BQ35">
-        <v>-9.699999999999999</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="BR35">
         <v>-5.59</v>
@@ -6999,9 +7268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:77">
-      <c r="A36">
-        <v>20241125</v>
+    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B36">
         <v>3734</v>
@@ -7049,7 +7318,7 @@
         <v>8.51</v>
       </c>
       <c r="Q36">
-        <v>-0.5600000000000001</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="R36">
         <v>2.21</v>
@@ -7061,7 +7330,7 @@
         <v>13.46</v>
       </c>
       <c r="U36">
-        <v>72.45999999999999</v>
+        <v>72.459999999999994</v>
       </c>
       <c r="V36">
         <v>82.61</v>
@@ -7073,7 +7342,7 @@
         <v>91.3</v>
       </c>
       <c r="Y36">
-        <v>86.95999999999999</v>
+        <v>86.96</v>
       </c>
       <c r="Z36">
         <v>40</v>
@@ -7133,7 +7402,7 @@
         <v>1.59</v>
       </c>
       <c r="BF36">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="BG36">
         <v>5.92</v>
@@ -7148,7 +7417,7 @@
         <v>53.73</v>
       </c>
       <c r="BK36">
-        <v>79.09999999999999</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="BL36">
         <v>71.64</v>
@@ -7178,7 +7447,7 @@
         <v>-7.98</v>
       </c>
       <c r="BU36">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="BV36">
         <v>33.33</v>
@@ -7193,9 +7462,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:77">
-      <c r="A37">
-        <v>20241126</v>
+    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="B37">
         <v>1536</v>
@@ -7246,7 +7515,7 @@
         <v>-3.46</v>
       </c>
       <c r="R37">
-        <v>-4.14</v>
+        <v>-4.1399999999999997</v>
       </c>
       <c r="S37">
         <v>10.44</v>
@@ -7285,13 +7554,13 @@
         <v>-5.54</v>
       </c>
       <c r="AE37">
-        <v>-4.9</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="AF37">
         <v>5.99</v>
       </c>
       <c r="AG37">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AH37">
         <v>52.54</v>
@@ -7300,7 +7569,7 @@
         <v>25.42</v>
       </c>
       <c r="AJ37">
-        <v>8.470000000000001</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="AK37">
         <v>79.66</v>
@@ -7363,7 +7632,7 @@
         <v>-8.43</v>
       </c>
       <c r="BR37">
-        <v>-1.09</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="BS37">
         <v>-11.18</v>
@@ -7387,9 +7656,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:77">
-      <c r="A38">
-        <v>20241127</v>
+    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B38">
         <v>4329</v>
@@ -7446,7 +7715,7 @@
         <v>7.34</v>
       </c>
       <c r="T38">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="U38">
         <v>34.83</v>
@@ -7461,7 +7730,7 @@
         <v>86.52</v>
       </c>
       <c r="Y38">
-        <v>83.15000000000001</v>
+        <v>83.15</v>
       </c>
       <c r="Z38">
         <v>31</v>
@@ -7506,10 +7775,10 @@
         <v>58</v>
       </c>
       <c r="BA38">
-        <v>-4.23</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="BB38">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="BC38">
         <v>3.05</v>
@@ -7533,7 +7802,7 @@
         <v>50</v>
       </c>
       <c r="BJ38">
-        <v>87.93000000000001</v>
+        <v>87.93</v>
       </c>
       <c r="BK38">
         <v>53.45</v>
@@ -7557,7 +7826,7 @@
         <v>-7.69</v>
       </c>
       <c r="BR38">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="BS38">
         <v>-11.84</v>
@@ -7581,9 +7850,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:77">
-      <c r="A39">
-        <v>20241128</v>
+    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B39">
         <v>2530</v>
@@ -7622,16 +7891,16 @@
         <v>94</v>
       </c>
       <c r="N39">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="O39">
         <v>3.9</v>
       </c>
       <c r="P39">
-        <v>9.050000000000001</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="Q39">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R39">
         <v>-0.64</v>
@@ -7706,7 +7975,7 @@
         <v>0.66</v>
       </c>
       <c r="BC39">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="BD39">
         <v>-2.67</v>
@@ -7754,7 +8023,7 @@
         <v>-2.59</v>
       </c>
       <c r="BS39">
-        <v>-4.39</v>
+        <v>-4.3899999999999997</v>
       </c>
       <c r="BT39">
         <v>-6.96</v>
@@ -7775,9 +8044,9 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="40" spans="1:77">
-      <c r="A40">
-        <v>20241129</v>
+    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B40">
         <v>4290</v>
@@ -7831,16 +8100,16 @@
         <v>1.2</v>
       </c>
       <c r="S40">
-        <v>10.04</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="T40">
         <v>11.3</v>
       </c>
       <c r="U40">
-        <v>66.29000000000001</v>
+        <v>66.290000000000006</v>
       </c>
       <c r="V40">
-        <v>68.54000000000001</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="W40">
         <v>53.93</v>
@@ -7849,7 +8118,7 @@
         <v>92.13</v>
       </c>
       <c r="Y40">
-        <v>93.26000000000001</v>
+        <v>93.26</v>
       </c>
       <c r="Z40">
         <v>39</v>
@@ -7876,7 +8145,7 @@
         <v>9.9</v>
       </c>
       <c r="AH40">
-        <v>64.09999999999999</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="AI40">
         <v>69.23</v>
@@ -7888,7 +8157,7 @@
         <v>84.62</v>
       </c>
       <c r="AL40">
-        <v>89.73999999999999</v>
+        <v>89.74</v>
       </c>
       <c r="AZ40">
         <v>57</v>
@@ -7897,7 +8166,7 @@
         <v>-2.97</v>
       </c>
       <c r="BB40">
-        <v>-1.09</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="BC40">
         <v>2.78</v>
@@ -7921,13 +8190,13 @@
         <v>33.33</v>
       </c>
       <c r="BJ40">
-        <v>71.93000000000001</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="BK40">
         <v>61.4</v>
       </c>
       <c r="BL40">
-        <v>70.18000000000001</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="BM40">
         <v>6</v>
@@ -7948,30 +8217,30 @@
         <v>-2.37</v>
       </c>
       <c r="BS40">
-        <v>-9.359999999999999</v>
+        <v>-9.36</v>
       </c>
       <c r="BT40">
         <v>-11.45</v>
       </c>
       <c r="BU40">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="BV40">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="BW40">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="BX40">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="BY40">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:77">
-      <c r="A41">
-        <v>20241202</v>
+    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B41">
         <v>4644</v>
@@ -8016,7 +8285,7 @@
         <v>5.53</v>
       </c>
       <c r="P41">
-        <v>8.859999999999999</v>
+        <v>8.86</v>
       </c>
       <c r="Q41">
         <v>0.68</v>
@@ -8034,13 +8303,13 @@
         <v>73.81</v>
       </c>
       <c r="V41">
-        <v>85.70999999999999</v>
+        <v>85.71</v>
       </c>
       <c r="W41">
         <v>66.67</v>
       </c>
       <c r="X41">
-        <v>95.23999999999999</v>
+        <v>95.24</v>
       </c>
       <c r="Y41">
         <v>96.03</v>
@@ -8127,13 +8396,13 @@
         <v>7</v>
       </c>
       <c r="BN41">
-        <v>-5.1</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="BO41">
         <v>-2.9</v>
       </c>
       <c r="BP41">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="BQ41">
         <v>-7.03</v>
@@ -8142,7 +8411,7 @@
         <v>2.27</v>
       </c>
       <c r="BS41">
-        <v>-8.109999999999999</v>
+        <v>-8.11</v>
       </c>
       <c r="BT41">
         <v>-5.98</v>
@@ -8154,7 +8423,7 @@
         <v>14.29</v>
       </c>
       <c r="BW41">
-        <v>71.43000000000001</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="BX41">
         <v>0</v>
@@ -8163,9 +8432,9 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="42" spans="1:77">
-      <c r="A42">
-        <v>20241203</v>
+    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B42">
         <v>2448</v>
@@ -8204,7 +8473,7 @@
         <v>158</v>
       </c>
       <c r="N42">
-        <v>4.36</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="O42">
         <v>2.4</v>
@@ -8243,16 +8512,16 @@
         <v>60</v>
       </c>
       <c r="AA42">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="AB42">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="AC42">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AD42">
-        <v>-1.14</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="AE42">
         <v>-2.25</v>
@@ -8291,7 +8560,7 @@
         <v>2.33</v>
       </c>
       <c r="BD42">
-        <v>-4.19</v>
+        <v>-4.1900000000000004</v>
       </c>
       <c r="BE42">
         <v>-0.39</v>
@@ -8315,7 +8584,7 @@
         <v>80.39</v>
       </c>
       <c r="BL42">
-        <v>74.51000000000001</v>
+        <v>74.510000000000005</v>
       </c>
       <c r="BM42">
         <v>5</v>
@@ -8327,10 +8596,10 @@
         <v>-6.52</v>
       </c>
       <c r="BP42">
-        <v>-2.43</v>
+        <v>-2.4300000000000002</v>
       </c>
       <c r="BQ42">
-        <v>-8.699999999999999</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="BR42">
         <v>-0.62</v>
@@ -8357,9 +8626,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:77">
-      <c r="A43">
-        <v>20241204</v>
+    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B43">
         <v>981</v>
@@ -8467,7 +8736,7 @@
         <v>25.45</v>
       </c>
       <c r="AK43">
-        <v>81.81999999999999</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="AL43">
         <v>63.64</v>
@@ -8482,7 +8751,7 @@
         <v>-2.52</v>
       </c>
       <c r="BC43">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="BD43">
         <v>-6.05</v>
@@ -8539,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="BV43">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="BW43">
         <v>33.33</v>
@@ -8551,9 +8820,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:77">
-      <c r="A44">
-        <v>20241205</v>
+    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="B44">
         <v>3823</v>
@@ -8592,7 +8861,7 @@
         <v>82</v>
       </c>
       <c r="N44">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="O44">
         <v>3.75</v>
@@ -8613,7 +8882,7 @@
         <v>11.55</v>
       </c>
       <c r="U44">
-        <v>68.29000000000001</v>
+        <v>68.290000000000006</v>
       </c>
       <c r="V44">
         <v>73.17</v>
@@ -8622,7 +8891,7 @@
         <v>51.22</v>
       </c>
       <c r="X44">
-        <v>90.23999999999999</v>
+        <v>90.24</v>
       </c>
       <c r="Y44">
         <v>85.37</v>
@@ -8640,7 +8909,7 @@
         <v>7.19</v>
       </c>
       <c r="AD44">
-        <v>-2.01</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="AE44">
         <v>2.04</v>
@@ -8661,10 +8930,10 @@
         <v>42.11</v>
       </c>
       <c r="AK44">
-        <v>84.20999999999999</v>
+        <v>84.21</v>
       </c>
       <c r="AL44">
-        <v>73.68000000000001</v>
+        <v>73.680000000000007</v>
       </c>
       <c r="AZ44">
         <v>51</v>
@@ -8682,7 +8951,7 @@
         <v>-4.43</v>
       </c>
       <c r="BE44">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="BF44">
         <v>-0.36</v>
@@ -8691,7 +8960,7 @@
         <v>1.77</v>
       </c>
       <c r="BH44">
-        <v>17.65</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="BI44">
         <v>41.18</v>
@@ -8700,7 +8969,7 @@
         <v>68.63</v>
       </c>
       <c r="BK44">
-        <v>64.70999999999999</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="BL44">
         <v>66.67</v>
@@ -8745,9 +9014,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:77">
-      <c r="A45">
-        <v>20241206</v>
+    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B45">
         <v>3635</v>
@@ -8825,16 +9094,16 @@
         <v>45</v>
       </c>
       <c r="AA45">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="AB45">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="AC45">
         <v>8.23</v>
       </c>
       <c r="AD45">
-        <v>-2.07</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="AE45">
         <v>-2.12</v>
@@ -8843,7 +9112,7 @@
         <v>10.96</v>
       </c>
       <c r="AG45">
-        <v>8.529999999999999</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="AH45">
         <v>71.11</v>
@@ -8864,7 +9133,7 @@
         <v>21</v>
       </c>
       <c r="BA45">
-        <v>-0.9399999999999999</v>
+        <v>-0.94</v>
       </c>
       <c r="BB45">
         <v>-1.19</v>
@@ -8897,7 +9166,7 @@
         <v>76.19</v>
       </c>
       <c r="BL45">
-        <v>71.43000000000001</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="BM45">
         <v>9</v>
@@ -8939,9 +9208,9 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="46" spans="1:77">
-      <c r="A46">
-        <v>20241209</v>
+    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B46">
         <v>2040</v>
@@ -9001,7 +9270,7 @@
         <v>9.5</v>
       </c>
       <c r="U46">
-        <v>82.45999999999999</v>
+        <v>82.46</v>
       </c>
       <c r="V46">
         <v>51.75</v>
@@ -9010,7 +9279,7 @@
         <v>22.81</v>
       </c>
       <c r="X46">
-        <v>96.48999999999999</v>
+        <v>96.49</v>
       </c>
       <c r="Y46">
         <v>87.72</v>
@@ -9022,7 +9291,7 @@
         <v>3.65</v>
       </c>
       <c r="AB46">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="AC46">
         <v>7.48</v>
@@ -9133,9 +9402,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:77">
-      <c r="A47">
-        <v>20241210</v>
+    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B47">
         <v>2890</v>
@@ -9174,7 +9443,7 @@
         <v>100</v>
       </c>
       <c r="N47">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O47">
         <v>2.34</v>
@@ -9219,7 +9488,7 @@
         <v>3.33</v>
       </c>
       <c r="AC47">
-        <v>9.119999999999999</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="AD47">
         <v>-1.18</v>
@@ -9243,7 +9512,7 @@
         <v>23.68</v>
       </c>
       <c r="AK47">
-        <v>94.73999999999999</v>
+        <v>94.74</v>
       </c>
       <c r="AL47">
         <v>71.05</v>
@@ -9252,7 +9521,7 @@
         <v>36</v>
       </c>
       <c r="BA47">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="BB47">
         <v>0.45</v>
@@ -9327,9 +9596,9 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="48" spans="1:77">
-      <c r="A48">
-        <v>20241211</v>
+    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B48">
         <v>3853</v>
@@ -9398,7 +9667,7 @@
         <v>59.05</v>
       </c>
       <c r="X48">
-        <v>84.76000000000001</v>
+        <v>84.76</v>
       </c>
       <c r="Y48">
         <v>93.33</v>
@@ -9425,7 +9694,7 @@
         <v>4.97</v>
       </c>
       <c r="AG48">
-        <v>8.789999999999999</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="AH48">
         <v>50</v>
@@ -9446,7 +9715,7 @@
         <v>54</v>
       </c>
       <c r="BA48">
-        <v>-2.18</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="BB48">
         <v>-0.3</v>
@@ -9473,7 +9742,7 @@
         <v>51.85</v>
       </c>
       <c r="BJ48">
-        <v>74.06999999999999</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="BK48">
         <v>46.3</v>
@@ -9500,10 +9769,10 @@
         <v>-1.52</v>
       </c>
       <c r="BS48">
-        <v>-8.699999999999999</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="BT48">
-        <v>-10.2</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="BU48">
         <v>33.33</v>
@@ -9521,9 +9790,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:77">
-      <c r="A49">
-        <v>20241212</v>
+    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B49">
         <v>3536</v>
@@ -9604,7 +9873,7 @@
         <v>3.85</v>
       </c>
       <c r="AB49">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="AC49">
         <v>8.32</v>
@@ -9649,7 +9918,7 @@
         <v>3.8</v>
       </c>
       <c r="BD49">
-        <v>-4.56</v>
+        <v>-4.5599999999999996</v>
       </c>
       <c r="BE49">
         <v>2.87</v>
@@ -9670,10 +9939,10 @@
         <v>77.42</v>
       </c>
       <c r="BK49">
-        <v>80.65000000000001</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="BL49">
-        <v>90.31999999999999</v>
+        <v>90.32</v>
       </c>
       <c r="BM49">
         <v>9</v>
@@ -9691,7 +9960,7 @@
         <v>-5.13</v>
       </c>
       <c r="BR49">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="BS49">
         <v>-4.38</v>
@@ -9715,9 +9984,9 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="50" spans="1:77">
-      <c r="A50">
-        <v>20241213</v>
+    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B50">
         <v>920</v>
@@ -9765,13 +10034,13 @@
         <v>7.14</v>
       </c>
       <c r="Q50">
-        <v>-2.49</v>
+        <v>-2.4900000000000002</v>
       </c>
       <c r="R50">
         <v>-0.77</v>
       </c>
       <c r="S50">
-        <v>10.21</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="T50">
         <v>9.32</v>
@@ -9786,7 +10055,7 @@
         <v>37.68</v>
       </c>
       <c r="X50">
-        <v>94.93000000000001</v>
+        <v>94.93</v>
       </c>
       <c r="Y50">
         <v>92.03</v>
@@ -9798,7 +10067,7 @@
         <v>2.65</v>
       </c>
       <c r="AB50">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AC50">
         <v>8.67</v>
@@ -9825,10 +10094,10 @@
         <v>41.94</v>
       </c>
       <c r="AK50">
-        <v>88.70999999999999</v>
+        <v>88.71</v>
       </c>
       <c r="AL50">
-        <v>82.26000000000001</v>
+        <v>82.26</v>
       </c>
       <c r="AZ50">
         <v>33</v>
@@ -9885,7 +10154,7 @@
         <v>-9.25</v>
       </c>
       <c r="BR50">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="BS50">
         <v>-11</v>
@@ -9909,9 +10178,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:77">
-      <c r="A51">
-        <v>20241216</v>
+    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B51">
         <v>1768</v>
@@ -9977,7 +10246,7 @@
         <v>56.25</v>
       </c>
       <c r="W51">
-        <v>34.38</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="X51">
         <v>96.88</v>
@@ -9995,7 +10264,7 @@
         <v>1.9</v>
       </c>
       <c r="AC51">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AD51">
         <v>-1.07</v>
@@ -10007,10 +10276,10 @@
         <v>11.27</v>
       </c>
       <c r="AG51">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AH51">
-        <v>76.59999999999999</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="AI51">
         <v>59.57</v>
@@ -10019,7 +10288,7 @@
         <v>31.91</v>
       </c>
       <c r="AK51">
-        <v>95.73999999999999</v>
+        <v>95.74</v>
       </c>
       <c r="AL51">
         <v>82.98</v>
@@ -10079,13 +10348,13 @@
         <v>-6.7</v>
       </c>
       <c r="BR51">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="BS51">
-        <v>-9.130000000000001</v>
+        <v>-9.1300000000000008</v>
       </c>
       <c r="BT51">
-        <v>-8.140000000000001</v>
+        <v>-8.14</v>
       </c>
       <c r="BU51">
         <v>20</v>
@@ -10103,9 +10372,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:77">
-      <c r="A52">
-        <v>20241217</v>
+    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="B52">
         <v>553</v>
@@ -10159,7 +10428,7 @@
         <v>-5.37</v>
       </c>
       <c r="S52">
-        <v>9.609999999999999</v>
+        <v>9.61</v>
       </c>
       <c r="T52">
         <v>3.65</v>
@@ -10171,13 +10440,13 @@
         <v>31.31</v>
       </c>
       <c r="W52">
-        <v>17.17</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="X52">
         <v>93.94</v>
       </c>
       <c r="Y52">
-        <v>67.68000000000001</v>
+        <v>67.680000000000007</v>
       </c>
       <c r="Z52">
         <v>37</v>
@@ -10186,7 +10455,7 @@
         <v>2.25</v>
       </c>
       <c r="AB52">
-        <v>-4.73</v>
+        <v>-4.7300000000000004</v>
       </c>
       <c r="AC52">
         <v>4.21</v>
@@ -10234,7 +10503,7 @@
         <v>-8.74</v>
       </c>
       <c r="BE52">
-        <v>-4.98</v>
+        <v>-4.9800000000000004</v>
       </c>
       <c r="BF52">
         <v>-0.95</v>
@@ -10249,7 +10518,7 @@
         <v>10.45</v>
       </c>
       <c r="BJ52">
-        <v>8.960000000000001</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="BK52">
         <v>46.27</v>
@@ -10297,9 +10566,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:77">
-      <c r="A53">
-        <v>20241218</v>
+    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B53">
         <v>2801</v>
@@ -10392,19 +10661,19 @@
         <v>4.82</v>
       </c>
       <c r="AF53">
-        <v>8.859999999999999</v>
+        <v>8.86</v>
       </c>
       <c r="AG53">
         <v>14.08</v>
       </c>
       <c r="AH53">
-        <v>71.43000000000001</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="AI53">
         <v>100</v>
       </c>
       <c r="AJ53">
-        <v>71.43000000000001</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="AK53">
         <v>100</v>
@@ -10443,10 +10712,10 @@
         <v>38.24</v>
       </c>
       <c r="BJ53">
-        <v>64.70999999999999</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="BK53">
-        <v>17.65</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="BL53">
         <v>50</v>
@@ -10473,7 +10742,7 @@
         <v>-11.98</v>
       </c>
       <c r="BT53">
-        <v>-9.890000000000001</v>
+        <v>-9.89</v>
       </c>
       <c r="BU53">
         <v>3.97</v>
@@ -10491,9 +10760,9 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="54" spans="1:77">
-      <c r="A54">
-        <v>20241219</v>
+    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B54">
         <v>2422</v>
@@ -10580,7 +10849,7 @@
         <v>7.95</v>
       </c>
       <c r="AD54">
-        <v>-4.23</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="AE54">
         <v>-3.22</v>
@@ -10685,9 +10954,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:77">
-      <c r="A55">
-        <v>20241220</v>
+    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="B55">
         <v>3555</v>
@@ -10879,9 +11148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:77">
-      <c r="A56">
-        <v>20241223</v>
+    <row r="56" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B56">
         <v>555</v>
@@ -10968,7 +11237,7 @@
         <v>7.11</v>
       </c>
       <c r="AD56">
-        <v>-4.11</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="AE56">
         <v>-1.01</v>
@@ -10980,7 +11249,7 @@
         <v>5.69</v>
       </c>
       <c r="AH56">
-        <v>64.70999999999999</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="AI56">
         <v>52.94</v>
@@ -10989,7 +11258,7 @@
         <v>23.53</v>
       </c>
       <c r="AK56">
-        <v>82.34999999999999</v>
+        <v>82.35</v>
       </c>
       <c r="AL56">
         <v>70.59</v>
@@ -11007,7 +11276,7 @@
         <v>1.21</v>
       </c>
       <c r="BD56">
-        <v>-8.289999999999999</v>
+        <v>-8.2899999999999991</v>
       </c>
       <c r="BE56">
         <v>-5.03</v>
@@ -11052,7 +11321,7 @@
         <v>-1.31</v>
       </c>
       <c r="BS56">
-        <v>-9.380000000000001</v>
+        <v>-9.3800000000000008</v>
       </c>
       <c r="BT56">
         <v>-10.85</v>
@@ -11064,7 +11333,7 @@
         <v>8.33</v>
       </c>
       <c r="BW56">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="BX56">
         <v>0</v>
@@ -11073,9 +11342,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:77">
-      <c r="A57">
-        <v>20241224</v>
+    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="B57">
         <v>3913</v>
@@ -11114,10 +11383,10 @@
         <v>30</v>
       </c>
       <c r="N57">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="O57">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P57">
         <v>8.16</v>
@@ -11159,7 +11428,7 @@
         <v>2.6</v>
       </c>
       <c r="AC57">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="AD57">
         <v>-1.54</v>
@@ -11195,13 +11464,13 @@
         <v>-1.72</v>
       </c>
       <c r="BB57">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="BC57">
         <v>5.28</v>
       </c>
       <c r="BD57">
-        <v>-4.77</v>
+        <v>-4.7699999999999996</v>
       </c>
       <c r="BE57">
         <v>4.12</v>
@@ -11243,7 +11512,7 @@
         <v>-6.19</v>
       </c>
       <c r="BR57">
-        <v>-0.58</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="BS57">
         <v>-10.15</v>
@@ -11267,9 +11536,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:77">
-      <c r="A58">
-        <v>20241225</v>
+    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B58">
         <v>910</v>
@@ -11377,10 +11646,10 @@
         <v>28.57</v>
       </c>
       <c r="AK58">
-        <v>95.23999999999999</v>
+        <v>95.24</v>
       </c>
       <c r="AL58">
-        <v>71.43000000000001</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="AZ58">
         <v>26</v>
@@ -11389,7 +11658,7 @@
         <v>-2.71</v>
       </c>
       <c r="BB58">
-        <v>-4.86</v>
+        <v>-4.8600000000000003</v>
       </c>
       <c r="BC58">
         <v>0.79</v>
@@ -11398,13 +11667,13 @@
         <v>-7.22</v>
       </c>
       <c r="BE58">
-        <v>-2.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="BF58">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="BG58">
-        <v>-1.13</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="BH58">
         <v>11.54</v>
@@ -11434,7 +11703,7 @@
         <v>-2.8</v>
       </c>
       <c r="BQ58">
-        <v>-9.130000000000001</v>
+        <v>-9.1300000000000008</v>
       </c>
       <c r="BR58">
         <v>-0.61</v>
@@ -11461,9 +11730,9 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="59" spans="1:77">
-      <c r="A59">
-        <v>20241226</v>
+    <row r="59" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B59">
         <v>3648</v>
@@ -11544,10 +11813,10 @@
         <v>2.06</v>
       </c>
       <c r="AB59">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="AC59">
-        <v>9.130000000000001</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="AD59">
         <v>-1.53</v>
@@ -11625,7 +11894,7 @@
         <v>-2.17</v>
       </c>
       <c r="BP59">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="BQ59">
         <v>-6.71</v>
@@ -11643,10 +11912,10 @@
         <v>10.81</v>
       </c>
       <c r="BV59">
-        <v>37.84</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="BW59">
-        <v>67.56999999999999</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="BX59">
         <v>0</v>
@@ -11655,9 +11924,9 @@
         <v>16.22</v>
       </c>
     </row>
-    <row r="60" spans="1:77">
-      <c r="A60">
-        <v>20241227</v>
+    <row r="60" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="B60">
         <v>3546</v>
@@ -11714,7 +11983,7 @@
         <v>11.95</v>
       </c>
       <c r="T60">
-        <v>10.04</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="U60">
         <v>60.44</v>
@@ -11726,7 +11995,7 @@
         <v>28.57</v>
       </c>
       <c r="X60">
-        <v>98.90000000000001</v>
+        <v>98.9</v>
       </c>
       <c r="Y60">
         <v>92.31</v>
@@ -11753,7 +12022,7 @@
         <v>11.06</v>
       </c>
       <c r="AG60">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AH60">
         <v>70.83</v>
@@ -11783,10 +12052,10 @@
         <v>1.92</v>
       </c>
       <c r="BD60">
-        <v>-4.69</v>
+        <v>-4.6900000000000004</v>
       </c>
       <c r="BE60">
-        <v>-1.16</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="BF60">
         <v>2</v>
@@ -11804,7 +12073,7 @@
         <v>30.43</v>
       </c>
       <c r="BK60">
-        <v>69.56999999999999</v>
+        <v>69.569999999999993</v>
       </c>
       <c r="BL60">
         <v>73.91</v>
@@ -11828,7 +12097,7 @@
         <v>4.33</v>
       </c>
       <c r="BS60">
-        <v>-9.289999999999999</v>
+        <v>-9.2899999999999991</v>
       </c>
       <c r="BT60">
         <v>-5.32</v>
@@ -11849,9 +12118,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:77">
-      <c r="A61">
-        <v>20241230</v>
+    <row r="61" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="B61">
         <v>1322</v>
@@ -11905,7 +12174,7 @@
         <v>0.13</v>
       </c>
       <c r="S61">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="T61">
         <v>9.33</v>
@@ -11950,7 +12219,7 @@
         <v>5.46</v>
       </c>
       <c r="AH61">
-        <v>78.56999999999999</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="AI61">
         <v>50</v>
@@ -11962,7 +12231,7 @@
         <v>92.86</v>
       </c>
       <c r="AL61">
-        <v>71.43000000000001</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="AZ61">
         <v>32</v>
@@ -11983,7 +12252,7 @@
         <v>-1.69</v>
       </c>
       <c r="BF61">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="BG61">
         <v>-0.6</v>
@@ -12019,7 +12288,7 @@
         <v>-7.6</v>
       </c>
       <c r="BR61">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="BS61">
         <v>-11.98</v>
@@ -12043,9 +12312,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:77">
-      <c r="A62">
-        <v>20241231</v>
+    <row r="62" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B62">
         <v>705</v>
@@ -12141,7 +12410,7 @@
         <v>8.98</v>
       </c>
       <c r="AG62">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AH62">
         <v>69.23</v>
@@ -12192,7 +12461,7 @@
         <v>21.43</v>
       </c>
       <c r="BK62">
-        <v>78.56999999999999</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="BL62">
         <v>35.71</v>
@@ -12210,7 +12479,7 @@
         <v>-0.39</v>
       </c>
       <c r="BQ62">
-        <v>-8.970000000000001</v>
+        <v>-8.9700000000000006</v>
       </c>
       <c r="BR62">
         <v>-2.95</v>
@@ -12237,9 +12506,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:77">
-      <c r="A63">
-        <v>20250102</v>
+    <row r="63" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="B63">
         <v>925</v>
@@ -12326,13 +12595,13 @@
         <v>7.59</v>
       </c>
       <c r="AD63">
-        <v>-2.32</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="AE63">
         <v>0.15</v>
       </c>
       <c r="AF63">
-        <v>9.949999999999999</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="AG63">
         <v>10.1</v>
@@ -12407,7 +12676,7 @@
         <v>-5.93</v>
       </c>
       <c r="BE63">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="BF63">
         <v>-1.99</v>
@@ -12416,7 +12685,7 @@
         <v>0.32</v>
       </c>
       <c r="BH63">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="BI63">
         <v>44.44</v>
@@ -12446,7 +12715,7 @@
         <v>-6.02</v>
       </c>
       <c r="BR63">
-        <v>-0.55</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="BS63">
         <v>-9.74</v>
@@ -12470,9 +12739,9 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="64" spans="1:77">
-      <c r="A64">
-        <v>20250103</v>
+    <row r="64" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B64">
         <v>615</v>
@@ -12511,7 +12780,7 @@
         <v>58</v>
       </c>
       <c r="N64">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="O64">
         <v>-0.27</v>
@@ -12535,7 +12804,7 @@
         <v>68.97</v>
       </c>
       <c r="V64">
-        <v>39.66</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="W64">
         <v>29.31</v>
@@ -12598,7 +12867,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ64">
-        <v>-8.130000000000001</v>
+        <v>-8.1300000000000008</v>
       </c>
       <c r="AR64">
         <v>-4.17</v>
@@ -12607,16 +12876,16 @@
         <v>5.27</v>
       </c>
       <c r="AT64">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AU64">
         <v>50</v>
       </c>
       <c r="AV64">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="AW64">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="AX64">
         <v>66.67</v>
@@ -12634,7 +12903,7 @@
         <v>-5</v>
       </c>
       <c r="BC64">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BD64">
         <v>-7.57</v>
@@ -12658,7 +12927,7 @@
         <v>20</v>
       </c>
       <c r="BK64">
-        <v>85.70999999999999</v>
+        <v>85.71</v>
       </c>
       <c r="BL64">
         <v>40</v>
@@ -12682,7 +12951,7 @@
         <v>-3.24</v>
       </c>
       <c r="BS64">
-        <v>-8.050000000000001</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="BT64">
         <v>-11.17</v>
@@ -12703,9 +12972,9 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="65" spans="1:77">
-      <c r="A65">
-        <v>20250106</v>
+    <row r="65" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="B65">
         <v>2292</v>
@@ -12747,7 +13016,7 @@
         <v>0.72</v>
       </c>
       <c r="O65">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P65">
         <v>6.9</v>
@@ -12762,7 +13031,7 @@
         <v>7.7</v>
       </c>
       <c r="T65">
-        <v>9.359999999999999</v>
+        <v>9.36</v>
       </c>
       <c r="U65">
         <v>51.11</v>
@@ -12801,7 +13070,7 @@
         <v>5.59</v>
       </c>
       <c r="AG65">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="AH65">
         <v>52.63</v>
@@ -12810,10 +13079,10 @@
         <v>47.37</v>
       </c>
       <c r="AJ65">
-        <v>36.84</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="AK65">
-        <v>73.68000000000001</v>
+        <v>73.680000000000007</v>
       </c>
       <c r="AL65">
         <v>63.16</v>
@@ -12861,7 +13130,7 @@
         <v>17</v>
       </c>
       <c r="BA65">
-        <v>-4.85</v>
+        <v>-4.8499999999999996</v>
       </c>
       <c r="BB65">
         <v>-5.67</v>
@@ -12909,7 +13178,7 @@
         <v>-1.69</v>
       </c>
       <c r="BQ65">
-        <v>-8.609999999999999</v>
+        <v>-8.61</v>
       </c>
       <c r="BR65">
         <v>-1.95</v>
@@ -12936,9 +13205,9 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="66" spans="1:77">
-      <c r="A66">
-        <v>20250107</v>
+    <row r="66" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B66">
         <v>4393</v>
@@ -12986,7 +13255,7 @@
         <v>6.49</v>
       </c>
       <c r="Q66">
-        <v>-2.18</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="R66">
         <v>1.03</v>
@@ -12998,7 +13267,7 @@
         <v>12.08</v>
       </c>
       <c r="U66">
-        <v>66.06999999999999</v>
+        <v>66.069999999999993</v>
       </c>
       <c r="V66">
         <v>67.86</v>
@@ -13007,10 +13276,10 @@
         <v>55.36</v>
       </c>
       <c r="X66">
-        <v>98.20999999999999</v>
+        <v>98.21</v>
       </c>
       <c r="Y66">
-        <v>89.29000000000001</v>
+        <v>89.29</v>
       </c>
       <c r="Z66">
         <v>19</v>
@@ -13046,10 +13315,10 @@
         <v>47.37</v>
       </c>
       <c r="AK66">
-        <v>94.73999999999999</v>
+        <v>94.74</v>
       </c>
       <c r="AL66">
-        <v>73.68000000000001</v>
+        <v>73.680000000000007</v>
       </c>
       <c r="AM66">
         <v>9</v>
@@ -13067,7 +13336,7 @@
         <v>-9.98</v>
       </c>
       <c r="AR66">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="AS66">
         <v>-7.26</v>
@@ -13160,7 +13429,7 @@
         <v>56.45</v>
       </c>
       <c r="BW66">
-        <v>88.70999999999999</v>
+        <v>88.71</v>
       </c>
       <c r="BX66">
         <v>0</v>
@@ -13169,9 +13438,9 @@
         <v>14.52</v>
       </c>
     </row>
-    <row r="67" spans="1:77">
-      <c r="A67">
-        <v>20250108</v>
+    <row r="67" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B67">
         <v>1978</v>
@@ -13234,7 +13503,7 @@
         <v>54.95</v>
       </c>
       <c r="V67">
-        <v>75.81999999999999</v>
+        <v>75.819999999999993</v>
       </c>
       <c r="W67">
         <v>68.13</v>
@@ -13297,7 +13566,7 @@
         <v>6.08</v>
       </c>
       <c r="AQ67">
-        <v>-4.61</v>
+        <v>-4.6100000000000003</v>
       </c>
       <c r="AR67">
         <v>6.17</v>
@@ -13402,9 +13671,9 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="68" spans="1:77">
-      <c r="A68">
-        <v>20250109</v>
+    <row r="68" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="B68">
         <v>2728</v>
@@ -13500,7 +13769,7 @@
         <v>10.09</v>
       </c>
       <c r="AG68">
-        <v>9.279999999999999</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="AH68">
         <v>62.96</v>
@@ -13575,7 +13844,7 @@
         <v>1.81</v>
       </c>
       <c r="BF68">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="BG68">
         <v>4.37</v>
@@ -13635,9 +13904,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:77">
-      <c r="A69">
-        <v>20250110</v>
+    <row r="69" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="B69">
         <v>534</v>
@@ -13679,13 +13948,13 @@
         <v>1.3</v>
       </c>
       <c r="O69">
-        <v>-2.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="P69">
         <v>5.05</v>
       </c>
       <c r="Q69">
-        <v>-4.31</v>
+        <v>-4.3099999999999996</v>
       </c>
       <c r="R69">
         <v>-3.45</v>
@@ -13715,7 +13984,7 @@
         <v>30</v>
       </c>
       <c r="AA69">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB69">
         <v>-4.96</v>
@@ -13757,13 +14026,13 @@
         <v>-3.67</v>
       </c>
       <c r="AO69">
-        <v>-10.05</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="AP69">
         <v>1.77</v>
       </c>
       <c r="AQ69">
-        <v>-10.05</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="AR69">
         <v>-6.63</v>
@@ -13802,7 +14071,7 @@
         <v>3.02</v>
       </c>
       <c r="BD69">
-        <v>-4.61</v>
+        <v>-4.6100000000000003</v>
       </c>
       <c r="BE69">
         <v>-2.31</v>
@@ -13841,13 +14110,13 @@
         <v>-0.26</v>
       </c>
       <c r="BQ69">
-        <v>-9.300000000000001</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="BR69">
         <v>-1.7</v>
       </c>
       <c r="BS69">
-        <v>-9.890000000000001</v>
+        <v>-9.89</v>
       </c>
       <c r="BT69">
         <v>-11.62</v>
@@ -13868,9 +14137,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:77">
-      <c r="A70">
-        <v>20250113</v>
+    <row r="70" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="B70">
         <v>3007</v>
@@ -13942,7 +14211,7 @@
         <v>92.11</v>
       </c>
       <c r="Y70">
-        <v>76.31999999999999</v>
+        <v>76.319999999999993</v>
       </c>
       <c r="Z70">
         <v>16</v>
@@ -14008,7 +14277,7 @@
         <v>2.88</v>
       </c>
       <c r="BH70">
-        <v>9.380000000000001</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="BI70">
         <v>25</v>
@@ -14062,9 +14331,9 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="71" spans="1:77">
-      <c r="A71">
-        <v>20250114</v>
+    <row r="71" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B71">
         <v>5333</v>
@@ -14109,7 +14378,7 @@
         <v>6.35</v>
       </c>
       <c r="P71">
-        <v>8.279999999999999</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="Q71">
         <v>0.59</v>
@@ -14124,7 +14393,7 @@
         <v>15.34</v>
       </c>
       <c r="U71">
-        <v>76.73999999999999</v>
+        <v>76.739999999999995</v>
       </c>
       <c r="V71">
         <v>100</v>
@@ -14145,7 +14414,7 @@
         <v>3.5</v>
       </c>
       <c r="AB71">
-        <v>8.279999999999999</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="AC71">
         <v>9.43</v>
@@ -14169,7 +14438,7 @@
         <v>100</v>
       </c>
       <c r="AJ71">
-        <v>81.81999999999999</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="AK71">
         <v>100</v>
@@ -14193,7 +14462,7 @@
         <v>-5.38</v>
       </c>
       <c r="AR71">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="AS71">
         <v>-1.22</v>
@@ -14205,7 +14474,7 @@
         <v>14.29</v>
       </c>
       <c r="AV71">
-        <v>71.43000000000001</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="AW71">
         <v>100</v>
@@ -14214,7 +14483,7 @@
         <v>42.86</v>
       </c>
       <c r="AY71">
-        <v>71.43000000000001</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="AZ71">
         <v>18</v>
@@ -14223,7 +14492,7 @@
         <v>-2.1</v>
       </c>
       <c r="BB71">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="BC71">
         <v>6.53</v>
@@ -14283,10 +14552,10 @@
         <v>21.43</v>
       </c>
       <c r="BV71">
-        <v>89.29000000000001</v>
+        <v>89.29</v>
       </c>
       <c r="BW71">
-        <v>96.43000000000001</v>
+        <v>96.43</v>
       </c>
       <c r="BX71">
         <v>0</v>
@@ -14295,9 +14564,9 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="72" spans="1:77">
-      <c r="A72">
-        <v>20250115</v>
+    <row r="72" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="B72">
         <v>1666</v>
@@ -14339,7 +14608,7 @@
         <v>3.53</v>
       </c>
       <c r="O72">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="P72">
         <v>6.6</v>
@@ -14381,13 +14650,13 @@
         <v>1.85</v>
       </c>
       <c r="AC72">
-        <v>8.529999999999999</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="AD72">
         <v>-1.44</v>
       </c>
       <c r="AE72">
-        <v>-2.45</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="AF72">
         <v>12.26</v>
@@ -14453,7 +14722,7 @@
         <v>28</v>
       </c>
       <c r="BA72">
-        <v>-0.57</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="BB72">
         <v>-1.9</v>
@@ -14486,12 +14755,12 @@
         <v>92.86</v>
       </c>
       <c r="BL72">
-        <v>89.29000000000001</v>
+        <v>89.29</v>
       </c>
     </row>
-    <row r="73" spans="1:77">
-      <c r="A73">
-        <v>20250116</v>
+    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="B73">
         <v>3368</v>
@@ -14545,7 +14814,7 @@
         <v>1.2</v>
       </c>
       <c r="S73">
-        <v>8.460000000000001</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="T73">
         <v>9.73</v>
@@ -14563,19 +14832,19 @@
         <v>95.38</v>
       </c>
       <c r="Y73">
-        <v>93.84999999999999</v>
+        <v>93.85</v>
       </c>
       <c r="Z73">
         <v>30</v>
       </c>
       <c r="AA73">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AB73">
         <v>5.78</v>
       </c>
       <c r="AC73">
-        <v>8.779999999999999</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="AD73">
         <v>0.85</v>
@@ -14587,7 +14856,7 @@
         <v>7.19</v>
       </c>
       <c r="AG73">
-        <v>8.630000000000001</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="AH73">
         <v>70</v>
@@ -14608,7 +14877,7 @@
         <v>23</v>
       </c>
       <c r="BA73">
-        <v>-2.55</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="BB73">
         <v>-0.73</v>
@@ -14626,10 +14895,10 @@
         <v>-0.7</v>
       </c>
       <c r="BG73">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BH73">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="BI73">
         <v>30.43</v>
@@ -14659,13 +14928,13 @@
         <v>-5.74</v>
       </c>
       <c r="BR73">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="BS73">
         <v>-11.04</v>
       </c>
       <c r="BT73">
-        <v>-9.130000000000001</v>
+        <v>-9.1300000000000008</v>
       </c>
       <c r="BU73">
         <v>0</v>
@@ -14674,7 +14943,7 @@
         <v>42.86</v>
       </c>
       <c r="BW73">
-        <v>71.43000000000001</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="BX73">
         <v>0</v>
@@ -14683,9 +14952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:77">
-      <c r="A74">
-        <v>20250117</v>
+    <row r="74" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="B74">
         <v>2619</v>
@@ -14739,7 +15008,7 @@
         <v>-1.88</v>
       </c>
       <c r="S74">
-        <v>8.710000000000001</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="T74">
         <v>6.62</v>
@@ -14754,7 +15023,7 @@
         <v>27.14</v>
       </c>
       <c r="X74">
-        <v>91.43000000000001</v>
+        <v>91.43</v>
       </c>
       <c r="Y74">
         <v>82.86</v>
@@ -14772,7 +15041,7 @@
         <v>6.49</v>
       </c>
       <c r="AD74">
-        <v>-4.31</v>
+        <v>-4.3099999999999996</v>
       </c>
       <c r="AE74">
         <v>-2.48</v>
@@ -14826,7 +15095,7 @@
         <v>6.67</v>
       </c>
       <c r="BI74">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="BJ74">
         <v>26.67</v>
@@ -14850,7 +15119,7 @@
         <v>0.06</v>
       </c>
       <c r="BQ74">
-        <v>-9.029999999999999</v>
+        <v>-9.0299999999999994</v>
       </c>
       <c r="BR74">
         <v>1.36</v>
@@ -14877,9 +15146,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:77">
-      <c r="A75">
-        <v>20250120</v>
+    <row r="75" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="B75">
         <v>3617</v>
@@ -14939,7 +15208,7 @@
         <v>10.44</v>
       </c>
       <c r="U75">
-        <v>64.29000000000001</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="V75">
         <v>48.21</v>
@@ -14948,10 +15217,10 @@
         <v>35.71</v>
       </c>
       <c r="X75">
-        <v>91.06999999999999</v>
+        <v>91.07</v>
       </c>
       <c r="Y75">
-        <v>83.93000000000001</v>
+        <v>83.93</v>
       </c>
       <c r="Z75">
         <v>20</v>
@@ -14960,7 +15229,7 @@
         <v>2.67</v>
       </c>
       <c r="AB75">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC75">
         <v>6.3</v>
@@ -14972,7 +15241,7 @@
         <v>-2.52</v>
       </c>
       <c r="AF75">
-        <v>9.289999999999999</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="AG75">
         <v>6.65</v>
@@ -15005,13 +15274,13 @@
         <v>-3.03</v>
       </c>
       <c r="AQ75">
-        <v>-9.460000000000001</v>
+        <v>-9.4600000000000009</v>
       </c>
       <c r="AR75">
         <v>-1.85</v>
       </c>
       <c r="AS75">
-        <v>-5.06</v>
+        <v>-5.0599999999999996</v>
       </c>
       <c r="AT75">
         <v>-6.89</v>
@@ -15080,7 +15349,7 @@
         <v>-2.25</v>
       </c>
       <c r="BP75">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BQ75">
         <v>-6.41</v>
@@ -15110,9 +15379,9 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="76" spans="1:77">
-      <c r="A76">
-        <v>20250121</v>
+    <row r="76" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="B76">
         <v>1985</v>
@@ -15169,10 +15438,10 @@
         <v>9.44</v>
       </c>
       <c r="T76">
-        <v>8.470000000000001</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="U76">
-        <v>71.43000000000001</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="V76">
         <v>51.43</v>
@@ -15199,7 +15468,7 @@
         <v>7.71</v>
       </c>
       <c r="AD76">
-        <v>-2.49</v>
+        <v>-2.4900000000000002</v>
       </c>
       <c r="AE76">
         <v>-1.97</v>
@@ -15325,7 +15594,7 @@
         <v>-9.31</v>
       </c>
       <c r="BT76">
-        <v>-9.390000000000001</v>
+        <v>-9.39</v>
       </c>
       <c r="BU76">
         <v>10.53</v>
@@ -15334,7 +15603,7 @@
         <v>5.26</v>
       </c>
       <c r="BW76">
-        <v>36.84</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="BX76">
         <v>0</v>
@@ -15343,9 +15612,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:77">
-      <c r="A77">
-        <v>20250122</v>
+    <row r="77" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="B77">
         <v>1032</v>
@@ -15435,7 +15704,7 @@
         <v>-2.75</v>
       </c>
       <c r="AE77">
-        <v>-0.5600000000000001</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="AF77">
         <v>6.64</v>
@@ -15471,7 +15740,7 @@
         <v>-3.43</v>
       </c>
       <c r="AQ77">
-        <v>-8.619999999999999</v>
+        <v>-8.6199999999999992</v>
       </c>
       <c r="AR77">
         <v>1.08</v>
@@ -15504,7 +15773,7 @@
         <v>-3.37</v>
       </c>
       <c r="BB77">
-        <v>-4.44</v>
+        <v>-4.4400000000000004</v>
       </c>
       <c r="BC77">
         <v>-0.49</v>
@@ -15552,7 +15821,7 @@
         <v>-8.83</v>
       </c>
       <c r="BR77">
-        <v>-0.5600000000000001</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="BS77">
         <v>-10.63</v>
@@ -15576,9 +15845,9 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="78" spans="1:77">
-      <c r="A78">
-        <v>20250123</v>
+    <row r="78" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="B78">
         <v>2334</v>
@@ -15635,10 +15904,10 @@
         <v>12.92</v>
       </c>
       <c r="T78">
-        <v>8.859999999999999</v>
+        <v>8.86</v>
       </c>
       <c r="U78">
-        <v>87.18000000000001</v>
+        <v>87.18</v>
       </c>
       <c r="V78">
         <v>48.72</v>
@@ -15662,7 +15931,7 @@
         <v>-0.39</v>
       </c>
       <c r="AC78">
-        <v>9.449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="AD78">
         <v>-6.07</v>
@@ -15689,7 +15958,7 @@
         <v>92.86</v>
       </c>
       <c r="AL78">
-        <v>64.29000000000001</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="AM78">
         <v>12</v>
@@ -15728,7 +15997,7 @@
         <v>8.33</v>
       </c>
       <c r="AY78">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="AZ78">
         <v>11</v>
@@ -15743,7 +16012,7 @@
         <v>1.89</v>
       </c>
       <c r="BD78">
-        <v>-4.81</v>
+        <v>-4.8099999999999996</v>
       </c>
       <c r="BE78">
         <v>-1.9</v>
@@ -15809,9 +16078,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:77">
-      <c r="A79">
-        <v>20250124</v>
+    <row r="79" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="B79">
         <v>3956</v>
@@ -15856,7 +16125,7 @@
         <v>1.59</v>
       </c>
       <c r="P79">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="Q79">
         <v>-2.87</v>
@@ -15904,7 +16173,7 @@
         <v>1.64</v>
       </c>
       <c r="AF79">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="AG79">
         <v>6.28</v>
@@ -15937,7 +16206,7 @@
         <v>-4.2</v>
       </c>
       <c r="AQ79">
-        <v>-9.029999999999999</v>
+        <v>-9.0299999999999994</v>
       </c>
       <c r="AR79">
         <v>1.02</v>
@@ -15967,7 +16236,7 @@
         <v>33</v>
       </c>
       <c r="BA79">
-        <v>-2.26</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="BB79">
         <v>1.58</v>
@@ -15976,7 +16245,7 @@
         <v>3.56</v>
       </c>
       <c r="BD79">
-        <v>-4.23</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="BE79">
         <v>3.89</v>
@@ -15994,7 +16263,7 @@
         <v>48.48</v>
       </c>
       <c r="BJ79">
-        <v>75.76000000000001</v>
+        <v>75.760000000000005</v>
       </c>
       <c r="BK79">
         <v>57.58</v>
@@ -16018,7 +16287,7 @@
         <v>-8.93</v>
       </c>
       <c r="BR79">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="BS79">
         <v>-12.08</v>
@@ -16042,9 +16311,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:77">
-      <c r="A80">
-        <v>20250127</v>
+    <row r="80" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="B80">
         <v>1816</v>
@@ -16089,7 +16358,7 @@
         <v>-0.5</v>
       </c>
       <c r="P80">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="Q80">
         <v>-3.16</v>
@@ -16134,10 +16403,10 @@
         <v>-4.34</v>
       </c>
       <c r="AE80">
-        <v>-1.11</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="AF80">
-        <v>8.289999999999999</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="AG80">
         <v>7.09</v>
@@ -16161,7 +16430,7 @@
         <v>15</v>
       </c>
       <c r="AN80">
-        <v>-4.52</v>
+        <v>-4.5199999999999996</v>
       </c>
       <c r="AO80">
         <v>-1.22</v>
@@ -16257,7 +16526,7 @@
         <v>-6.72</v>
       </c>
       <c r="BT80">
-        <v>-4.19</v>
+        <v>-4.1900000000000004</v>
       </c>
       <c r="BU80">
         <v>5.26</v>
@@ -16275,8 +16544,8 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
-      <c r="A81" t="s">
+    <row r="81" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B81">
@@ -16310,10 +16579,442 @@
         <v>16</v>
       </c>
       <c r="L81">
+        <v>20</v>
+      </c>
+      <c r="M81">
+        <v>39</v>
+      </c>
+      <c r="N81">
+        <v>2.91</v>
+      </c>
+      <c r="O81">
+        <v>3.15</v>
+      </c>
+      <c r="P81">
+        <v>7</v>
+      </c>
+      <c r="Q81">
+        <v>-0.37</v>
+      </c>
+      <c r="R81">
+        <v>0.27</v>
+      </c>
+      <c r="S81">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T81">
+        <v>8.99</v>
+      </c>
+      <c r="U81">
+        <v>56.41</v>
+      </c>
+      <c r="V81">
+        <v>69.23</v>
+      </c>
+      <c r="W81">
+        <v>38.46</v>
+      </c>
+      <c r="X81">
+        <v>89.74</v>
+      </c>
+      <c r="Y81">
+        <v>87.18</v>
+      </c>
+      <c r="Z81">
+        <v>11</v>
+      </c>
+      <c r="AA81">
+        <v>0.63</v>
+      </c>
+      <c r="AB81">
+        <v>1.67</v>
+      </c>
+      <c r="AC81">
+        <v>6.33</v>
+      </c>
+      <c r="AD81">
+        <v>-3.69</v>
+      </c>
+      <c r="AE81">
+        <v>1.17</v>
+      </c>
+      <c r="AF81">
+        <v>5.98</v>
+      </c>
+      <c r="AG81">
+        <v>7.35</v>
+      </c>
+      <c r="AH81">
+        <v>45.45</v>
+      </c>
+      <c r="AI81">
+        <v>63.64</v>
+      </c>
+      <c r="AJ81">
+        <v>45.45</v>
+      </c>
+      <c r="AK81">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="AL81">
+        <v>72.73</v>
+      </c>
+      <c r="AM81">
+        <v>18</v>
+      </c>
+      <c r="AN81">
+        <v>-5.72</v>
+      </c>
+      <c r="AO81">
+        <v>-1.37</v>
+      </c>
+      <c r="AP81">
+        <v>0.06</v>
+      </c>
+      <c r="AQ81">
+        <v>-6.72</v>
+      </c>
+      <c r="AR81">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AS81">
+        <v>-3.63</v>
+      </c>
+      <c r="AT81">
+        <v>0.97</v>
+      </c>
+      <c r="AU81">
+        <v>5.56</v>
+      </c>
+      <c r="AV81">
+        <v>50</v>
+      </c>
+      <c r="AW81">
+        <v>72.22</v>
+      </c>
+      <c r="AX81">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="AY81">
+        <v>55.56</v>
+      </c>
+      <c r="AZ81">
         <v>21</v>
+      </c>
+      <c r="BA81">
+        <v>-1.25</v>
+      </c>
+      <c r="BB81">
+        <v>-2.6</v>
+      </c>
+      <c r="BC81">
+        <v>1.68</v>
+      </c>
+      <c r="BD81">
+        <v>-4.3600000000000003</v>
+      </c>
+      <c r="BE81">
+        <v>-1.33</v>
+      </c>
+      <c r="BF81">
+        <v>0.19</v>
+      </c>
+      <c r="BG81">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="BH81">
+        <v>38.1</v>
+      </c>
+      <c r="BI81">
+        <v>33.33</v>
+      </c>
+      <c r="BJ81">
+        <v>33.33</v>
+      </c>
+      <c r="BK81">
+        <v>47.62</v>
+      </c>
+      <c r="BL81">
+        <v>42.86</v>
+      </c>
+      <c r="BM81">
+        <v>38</v>
+      </c>
+      <c r="BN81">
+        <v>-4.58</v>
+      </c>
+      <c r="BO81">
+        <v>-2.7</v>
+      </c>
+      <c r="BP81">
+        <v>-0.9</v>
+      </c>
+      <c r="BQ81">
+        <v>-6.15</v>
+      </c>
+      <c r="BR81">
+        <v>1.96</v>
+      </c>
+      <c r="BS81">
+        <v>-8.51</v>
+      </c>
+      <c r="BT81">
+        <v>-6.66</v>
+      </c>
+      <c r="BU81">
+        <v>10.53</v>
+      </c>
+      <c r="BV81">
+        <v>39.47</v>
+      </c>
+      <c r="BW81">
+        <v>52.63</v>
+      </c>
+      <c r="BX81">
+        <v>2.63</v>
+      </c>
+      <c r="BY81">
+        <v>23.68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82">
+        <v>4801</v>
+      </c>
+      <c r="C82">
+        <v>471</v>
+      </c>
+      <c r="D82">
+        <v>112</v>
+      </c>
+      <c r="E82">
+        <v>667</v>
+      </c>
+      <c r="F82">
+        <v>12</v>
+      </c>
+      <c r="G82">
+        <v>319</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>79</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>20</v>
+      </c>
+      <c r="L82">
+        <v>22</v>
+      </c>
+      <c r="M82">
+        <v>68</v>
+      </c>
+      <c r="N82">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="O82">
+        <v>4.78</v>
+      </c>
+      <c r="P82">
+        <v>7.39</v>
+      </c>
+      <c r="Q82">
+        <v>-0.34</v>
+      </c>
+      <c r="R82">
+        <v>2.6</v>
+      </c>
+      <c r="S82">
+        <v>7.88</v>
+      </c>
+      <c r="T82">
+        <v>10.67</v>
+      </c>
+      <c r="U82">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="V82">
+        <v>86.76</v>
+      </c>
+      <c r="W82">
+        <v>69.12</v>
+      </c>
+      <c r="X82">
+        <v>95.59</v>
+      </c>
+      <c r="Y82">
+        <v>97.06</v>
+      </c>
+      <c r="Z82">
+        <v>16</v>
+      </c>
+      <c r="AA82">
+        <v>4.34</v>
+      </c>
+      <c r="AB82">
+        <v>5.76</v>
+      </c>
+      <c r="AC82">
+        <v>9.06</v>
+      </c>
+      <c r="AD82">
+        <v>0.84</v>
+      </c>
+      <c r="AE82">
+        <v>1.49</v>
+      </c>
+      <c r="AF82">
+        <v>7.46</v>
+      </c>
+      <c r="AG82">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="AH82">
+        <v>62.5</v>
+      </c>
+      <c r="AI82">
+        <v>81.25</v>
+      </c>
+      <c r="AJ82">
+        <v>50</v>
+      </c>
+      <c r="AK82">
+        <v>81.25</v>
+      </c>
+      <c r="AL82">
+        <v>87.5</v>
+      </c>
+      <c r="AM82">
+        <v>16</v>
+      </c>
+      <c r="AN82">
+        <v>-4.49</v>
+      </c>
+      <c r="AO82">
+        <v>-1.27</v>
+      </c>
+      <c r="AP82">
+        <v>1.45</v>
+      </c>
+      <c r="AQ82">
+        <v>-5.9</v>
+      </c>
+      <c r="AR82">
+        <v>3.39</v>
+      </c>
+      <c r="AS82">
+        <v>-2.85</v>
+      </c>
+      <c r="AT82">
+        <v>0.41</v>
+      </c>
+      <c r="AU82">
+        <v>12.5</v>
+      </c>
+      <c r="AV82">
+        <v>37.5</v>
+      </c>
+      <c r="AW82">
+        <v>93.75</v>
+      </c>
+      <c r="AX82">
+        <v>37.5</v>
+      </c>
+      <c r="AY82">
+        <v>43.75</v>
+      </c>
+      <c r="AZ82">
+        <v>20</v>
+      </c>
+      <c r="BA82">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="BB82">
+        <v>3.66</v>
+      </c>
+      <c r="BC82">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="BD82">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="BE82">
+        <v>4.87</v>
+      </c>
+      <c r="BF82">
+        <v>2.82</v>
+      </c>
+      <c r="BG82">
+        <v>7.85</v>
+      </c>
+      <c r="BH82">
+        <v>25</v>
+      </c>
+      <c r="BI82">
+        <v>90</v>
+      </c>
+      <c r="BJ82">
+        <v>100</v>
+      </c>
+      <c r="BK82">
+        <v>80</v>
+      </c>
+      <c r="BL82">
+        <v>85</v>
+      </c>
+      <c r="BM82">
+        <v>31</v>
+      </c>
+      <c r="BN82">
+        <v>-3.39</v>
+      </c>
+      <c r="BO82">
+        <v>-0.12</v>
+      </c>
+      <c r="BP82">
+        <v>2.6</v>
+      </c>
+      <c r="BQ82">
+        <v>-5.39</v>
+      </c>
+      <c r="BR82">
+        <v>3.44</v>
+      </c>
+      <c r="BS82">
+        <v>-6.89</v>
+      </c>
+      <c r="BT82">
+        <v>-3.72</v>
+      </c>
+      <c r="BU82">
+        <v>16.13</v>
+      </c>
+      <c r="BV82">
+        <v>48.39</v>
+      </c>
+      <c r="BW82">
+        <v>83.87</v>
+      </c>
+      <c r="BX82">
+        <v>6.45</v>
+      </c>
+      <c r="BY82">
+        <v>16.13</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BY82">
+    <sortCondition ref="A49:A82"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BD6120-99E5-4B03-9470-7915E427DFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>日期</t>
   </si>
@@ -253,258 +247,18 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250205</t>
-  </si>
-  <si>
-    <t>20241008</t>
-  </si>
-  <si>
-    <t>20241009</t>
-  </si>
-  <si>
-    <t>20241010</t>
-  </si>
-  <si>
-    <t>20241011</t>
-  </si>
-  <si>
-    <t>20241014</t>
-  </si>
-  <si>
-    <t>20241015</t>
-  </si>
-  <si>
-    <t>20241016</t>
-  </si>
-  <si>
-    <t>20241017</t>
-  </si>
-  <si>
-    <t>20241018</t>
-  </si>
-  <si>
-    <t>20241021</t>
-  </si>
-  <si>
-    <t>20241022</t>
-  </si>
-  <si>
-    <t>20241023</t>
-  </si>
-  <si>
-    <t>20241024</t>
-  </si>
-  <si>
-    <t>20241025</t>
-  </si>
-  <si>
-    <t>20241028</t>
-  </si>
-  <si>
-    <t>20241029</t>
-  </si>
-  <si>
-    <t>20241030</t>
-  </si>
-  <si>
-    <t>20241031</t>
-  </si>
-  <si>
-    <t>20241101</t>
-  </si>
-  <si>
-    <t>20241104</t>
-  </si>
-  <si>
-    <t>20241105</t>
-  </si>
-  <si>
-    <t>20241106</t>
-  </si>
-  <si>
-    <t>20241107</t>
-  </si>
-  <si>
-    <t>20241108</t>
-  </si>
-  <si>
-    <t>20241111</t>
-  </si>
-  <si>
-    <t>20241112</t>
-  </si>
-  <si>
-    <t>20241113</t>
-  </si>
-  <si>
-    <t>20241114</t>
-  </si>
-  <si>
-    <t>20241115</t>
-  </si>
-  <si>
-    <t>20241118</t>
-  </si>
-  <si>
-    <t>20241119</t>
-  </si>
-  <si>
-    <t>20241120</t>
-  </si>
-  <si>
-    <t>20241121</t>
-  </si>
-  <si>
-    <t>20241122</t>
-  </si>
-  <si>
-    <t>20241125</t>
-  </si>
-  <si>
-    <t>20241126</t>
-  </si>
-  <si>
-    <t>20241127</t>
-  </si>
-  <si>
-    <t>20241128</t>
-  </si>
-  <si>
-    <t>20241129</t>
-  </si>
-  <si>
-    <t>20241202</t>
-  </si>
-  <si>
-    <t>20241203</t>
-  </si>
-  <si>
-    <t>20241204</t>
-  </si>
-  <si>
-    <t>20241205</t>
-  </si>
-  <si>
-    <t>20241206</t>
-  </si>
-  <si>
-    <t>20241209</t>
-  </si>
-  <si>
-    <t>20241210</t>
-  </si>
-  <si>
-    <t>20241211</t>
-  </si>
-  <si>
-    <t>20241212</t>
-  </si>
-  <si>
-    <t>20241213</t>
-  </si>
-  <si>
-    <t>20241216</t>
-  </si>
-  <si>
-    <t>20241217</t>
-  </si>
-  <si>
-    <t>20241218</t>
-  </si>
-  <si>
-    <t>20241219</t>
-  </si>
-  <si>
-    <t>20241220</t>
-  </si>
-  <si>
-    <t>20241223</t>
-  </si>
-  <si>
-    <t>20241224</t>
-  </si>
-  <si>
-    <t>20241225</t>
-  </si>
-  <si>
-    <t>20241226</t>
-  </si>
-  <si>
-    <t>20241227</t>
-  </si>
-  <si>
-    <t>20241230</t>
-  </si>
-  <si>
-    <t>20241231</t>
-  </si>
-  <si>
-    <t>20250102</t>
-  </si>
-  <si>
-    <t>20250103</t>
-  </si>
-  <si>
-    <t>20250106</t>
-  </si>
-  <si>
-    <t>20250107</t>
-  </si>
-  <si>
-    <t>20250108</t>
-  </si>
-  <si>
-    <t>20250109</t>
-  </si>
-  <si>
-    <t>20250110</t>
-  </si>
-  <si>
-    <t>20250113</t>
-  </si>
-  <si>
-    <t>20250114</t>
-  </si>
-  <si>
-    <t>20250115</t>
-  </si>
-  <si>
-    <t>20250116</t>
-  </si>
-  <si>
-    <t>20250117</t>
-  </si>
-  <si>
-    <t>20250120</t>
-  </si>
-  <si>
-    <t>20250121</t>
-  </si>
-  <si>
-    <t>20250122</t>
-  </si>
-  <si>
-    <t>20250123</t>
-  </si>
-  <si>
-    <t>20250124</t>
-  </si>
-  <si>
-    <t>20250127</t>
-  </si>
-  <si>
-    <t>20250206</t>
+    <t>20250207</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -512,15 +266,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -559,36 +306,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -626,7 +361,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -660,7 +395,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -695,10 +429,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -871,17 +604,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BY83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="R84" sqref="R84"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:77">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1113,9 +844,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>78</v>
+    <row r="2" spans="1:77">
+      <c r="A2">
+        <v>20241008</v>
       </c>
       <c r="B2">
         <v>5029</v>
@@ -1139,9 +870,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>79</v>
+    <row r="3" spans="1:77">
+      <c r="A3">
+        <v>20241009</v>
       </c>
       <c r="B3">
         <v>295</v>
@@ -1189,7 +920,7 @@
         <v>4.76</v>
       </c>
       <c r="Q3">
-        <v>-8.0500000000000007</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="R3">
         <v>-2.7</v>
@@ -1222,7 +953,7 @@
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-2.5099999999999998</v>
+        <v>-2.51</v>
       </c>
       <c r="AC3">
         <v>6.24</v>
@@ -1258,16 +989,16 @@
         <v>513</v>
       </c>
       <c r="BA3">
-        <v>-2.2599999999999998</v>
+        <v>-2.26</v>
       </c>
       <c r="BB3">
-        <v>-8.4700000000000006</v>
+        <v>-8.470000000000001</v>
       </c>
       <c r="BC3">
         <v>-1.41</v>
       </c>
       <c r="BD3">
-        <v>-9.11</v>
+        <v>-9.109999999999999</v>
       </c>
       <c r="BE3">
         <v>-6.34</v>
@@ -1294,9 +1025,9 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>80</v>
+    <row r="4" spans="1:77">
+      <c r="A4">
+        <v>20241010</v>
       </c>
       <c r="B4">
         <v>2998</v>
@@ -1338,7 +1069,7 @@
         <v>6.83</v>
       </c>
       <c r="O4">
-        <v>-2.4900000000000002</v>
+        <v>-2.49</v>
       </c>
       <c r="P4">
         <v>9.52</v>
@@ -1347,7 +1078,7 @@
         <v>-6.35</v>
       </c>
       <c r="R4">
-        <v>-8.7100000000000009</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="S4">
         <v>15.07</v>
@@ -1413,7 +1144,7 @@
         <v>43</v>
       </c>
       <c r="BA4">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="BB4">
         <v>-8.35</v>
@@ -1440,10 +1171,10 @@
         <v>6.98</v>
       </c>
       <c r="BJ4">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BK4">
-        <v>81.400000000000006</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="BL4">
         <v>32.56</v>
@@ -1461,16 +1192,16 @@
         <v>3.13</v>
       </c>
       <c r="BQ4">
-        <v>-4.0599999999999996</v>
+        <v>-4.06</v>
       </c>
       <c r="BR4">
         <v>-0.06</v>
       </c>
       <c r="BS4">
-        <v>-8.1300000000000008</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="BT4">
-        <v>-8.2100000000000009</v>
+        <v>-8.210000000000001</v>
       </c>
       <c r="BU4">
         <v>23.62</v>
@@ -1485,12 +1216,12 @@
         <v>0.26</v>
       </c>
       <c r="BY4">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>81</v>
+    <row r="5" spans="1:77">
+      <c r="A5">
+        <v>20241011</v>
       </c>
       <c r="B5">
         <v>442</v>
@@ -1535,7 +1266,7 @@
         <v>-2.76</v>
       </c>
       <c r="P5">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="Q5">
         <v>-5.68</v>
@@ -1556,7 +1287,7 @@
         <v>30.88</v>
       </c>
       <c r="W5">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="X5">
         <v>94.12</v>
@@ -1661,7 +1392,7 @@
         <v>2.21</v>
       </c>
       <c r="BS5">
-        <v>-17.760000000000002</v>
+        <v>-17.76</v>
       </c>
       <c r="BT5">
         <v>-16.22</v>
@@ -1682,9 +1413,9 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>82</v>
+    <row r="6" spans="1:77">
+      <c r="A6">
+        <v>20241014</v>
       </c>
       <c r="B6">
         <v>5023</v>
@@ -1729,7 +1460,7 @@
         <v>4.71</v>
       </c>
       <c r="P6">
-        <v>8.4499999999999993</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Q6">
         <v>-3.27</v>
@@ -1744,19 +1475,19 @@
         <v>15.07</v>
       </c>
       <c r="U6">
-        <v>65.709999999999994</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="V6">
-        <v>74.290000000000006</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="W6">
         <v>48.57</v>
       </c>
       <c r="X6">
-        <v>94.29</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="Y6">
-        <v>94.29</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="Z6">
         <v>17</v>
@@ -1765,10 +1496,10 @@
         <v>4.95</v>
       </c>
       <c r="AB6">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="AC6">
-        <v>9.11</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="AD6">
         <v>-3.26</v>
@@ -1792,10 +1523,10 @@
         <v>29.41</v>
       </c>
       <c r="AK6">
-        <v>88.24</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="AL6">
-        <v>88.24</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="AZ6">
         <v>15</v>
@@ -1804,7 +1535,7 @@
         <v>-1.67</v>
       </c>
       <c r="BB6">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="BC6">
         <v>2.6</v>
@@ -1858,7 +1589,7 @@
         <v>-7.18</v>
       </c>
       <c r="BT6">
-        <v>-2.4700000000000002</v>
+        <v>-2.47</v>
       </c>
       <c r="BU6">
         <v>12.5</v>
@@ -1876,9 +1607,9 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>83</v>
+    <row r="7" spans="1:77">
+      <c r="A7">
+        <v>20241015</v>
       </c>
       <c r="B7">
         <v>801</v>
@@ -1971,7 +1702,7 @@
         <v>1.02</v>
       </c>
       <c r="AF7">
-        <v>8.5399999999999991</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="AG7">
         <v>9.81</v>
@@ -2070,9 +1801,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>84</v>
+    <row r="8" spans="1:77">
+      <c r="A8">
+        <v>20241016</v>
       </c>
       <c r="B8">
         <v>2726</v>
@@ -2120,7 +1851,7 @@
         <v>8.33</v>
       </c>
       <c r="Q8">
-        <v>-2.0299999999999998</v>
+        <v>-2.03</v>
       </c>
       <c r="R8">
         <v>1.41</v>
@@ -2201,7 +1932,7 @@
         <v>-5.71</v>
       </c>
       <c r="BE8">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="BF8">
         <v>3.39</v>
@@ -2234,7 +1965,7 @@
         <v>-2.06</v>
       </c>
       <c r="BP8">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="BQ8">
         <v>-5.46</v>
@@ -2246,7 +1977,7 @@
         <v>-12.35</v>
       </c>
       <c r="BT8">
-        <v>-9.11</v>
+        <v>-9.109999999999999</v>
       </c>
       <c r="BU8">
         <v>0</v>
@@ -2264,9 +1995,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>85</v>
+    <row r="9" spans="1:77">
+      <c r="A9">
+        <v>20241017</v>
       </c>
       <c r="B9">
         <v>1800</v>
@@ -2326,7 +2057,7 @@
         <v>11.19</v>
       </c>
       <c r="U9">
-        <v>78.650000000000006</v>
+        <v>78.65000000000001</v>
       </c>
       <c r="V9">
         <v>47.19</v>
@@ -2350,7 +2081,7 @@
         <v>3.48</v>
       </c>
       <c r="AC9">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AD9">
         <v>-2.08</v>
@@ -2365,7 +2096,7 @@
         <v>11.5</v>
       </c>
       <c r="AH9">
-        <v>84.85</v>
+        <v>84.84999999999999</v>
       </c>
       <c r="AI9">
         <v>60.61</v>
@@ -2377,7 +2108,7 @@
         <v>93.94</v>
       </c>
       <c r="AL9">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AZ9">
         <v>14</v>
@@ -2437,7 +2168,7 @@
         <v>4.72</v>
       </c>
       <c r="BS9">
-        <v>-4.1100000000000003</v>
+        <v>-4.11</v>
       </c>
       <c r="BT9">
         <v>0.45</v>
@@ -2458,9 +2189,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>86</v>
+    <row r="10" spans="1:77">
+      <c r="A10">
+        <v>20241018</v>
       </c>
       <c r="B10">
         <v>5094</v>
@@ -2532,7 +2263,7 @@
         <v>86.27</v>
       </c>
       <c r="Y10">
-        <v>98.04</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="Z10">
         <v>21</v>
@@ -2541,7 +2272,7 @@
         <v>3.42</v>
       </c>
       <c r="AB10">
-        <v>8.2899999999999991</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AC10">
         <v>10.36</v>
@@ -2559,19 +2290,19 @@
         <v>12.44</v>
       </c>
       <c r="AH10">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AI10">
-        <v>85.71</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="AJ10">
         <v>57.14</v>
       </c>
       <c r="AK10">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AL10">
-        <v>95.24</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="AZ10">
         <v>33</v>
@@ -2592,7 +2323,7 @@
         <v>5.13</v>
       </c>
       <c r="BF10">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="BG10">
         <v>9.67</v>
@@ -2601,13 +2332,13 @@
         <v>30.3</v>
       </c>
       <c r="BI10">
-        <v>75.760000000000005</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="BJ10">
         <v>93.94</v>
       </c>
       <c r="BK10">
-        <v>75.760000000000005</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="BL10">
         <v>90.91</v>
@@ -2622,7 +2353,7 @@
         <v>-0.43</v>
       </c>
       <c r="BP10">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="BQ10">
         <v>-5.81</v>
@@ -2631,7 +2362,7 @@
         <v>3.04</v>
       </c>
       <c r="BS10">
-        <v>-9.4499999999999993</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="BT10">
         <v>-6.69</v>
@@ -2652,9 +2383,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>87</v>
+    <row r="11" spans="1:77">
+      <c r="A11">
+        <v>20241021</v>
       </c>
       <c r="B11">
         <v>3773</v>
@@ -2699,7 +2430,7 @@
         <v>6.13</v>
       </c>
       <c r="P11">
-        <v>9.4600000000000009</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="Q11">
         <v>1.51</v>
@@ -2714,10 +2445,10 @@
         <v>16.8</v>
       </c>
       <c r="U11">
-        <v>83.96</v>
+        <v>83.95999999999999</v>
       </c>
       <c r="V11">
-        <v>86.79</v>
+        <v>86.79000000000001</v>
       </c>
       <c r="W11">
         <v>53.77</v>
@@ -2744,7 +2475,7 @@
         <v>3.68</v>
       </c>
       <c r="AE11">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="AF11">
         <v>12.42</v>
@@ -2753,7 +2484,7 @@
         <v>14.89</v>
       </c>
       <c r="AH11">
-        <v>82.76</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="AI11">
         <v>89.66</v>
@@ -2762,7 +2493,7 @@
         <v>41.38</v>
       </c>
       <c r="AK11">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AL11">
         <v>100</v>
@@ -2774,7 +2505,7 @@
         <v>-0.7</v>
       </c>
       <c r="BB11">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="BC11">
         <v>3.22</v>
@@ -2807,9 +2538,9 @@
         <v>96.88</v>
       </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>88</v>
+    <row r="12" spans="1:77">
+      <c r="A12">
+        <v>20241022</v>
       </c>
       <c r="B12">
         <v>3595</v>
@@ -2860,13 +2591,13 @@
         <v>-0.99</v>
       </c>
       <c r="R12">
-        <v>-1.1299999999999999</v>
+        <v>-1.13</v>
       </c>
       <c r="S12">
         <v>11.63</v>
       </c>
       <c r="T12">
-        <v>10.220000000000001</v>
+        <v>10.22</v>
       </c>
       <c r="U12">
         <v>76.38</v>
@@ -2878,7 +2609,7 @@
         <v>33.86</v>
       </c>
       <c r="X12">
-        <v>98.43</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="Y12">
         <v>93.7</v>
@@ -2938,10 +2669,10 @@
         <v>-3.95</v>
       </c>
       <c r="BE12">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="BF12">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="BG12">
         <v>5.97</v>
@@ -2962,9 +2693,9 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>89</v>
+    <row r="13" spans="1:77">
+      <c r="A13">
+        <v>20241023</v>
       </c>
       <c r="B13">
         <v>2752</v>
@@ -3003,7 +2734,7 @@
         <v>107</v>
       </c>
       <c r="N13">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="O13">
         <v>3.34</v>
@@ -3012,7 +2743,7 @@
         <v>8.18</v>
       </c>
       <c r="Q13">
-        <v>-0.28000000000000003</v>
+        <v>-0.28</v>
       </c>
       <c r="R13">
         <v>-0.96</v>
@@ -3033,7 +2764,7 @@
         <v>33.64</v>
       </c>
       <c r="X13">
-        <v>96.26</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="Y13">
         <v>91.59</v>
@@ -3045,22 +2776,22 @@
         <v>5.27</v>
       </c>
       <c r="AB13">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="AC13">
-        <v>8.6300000000000008</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="AD13">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AE13">
         <v>-1.08</v>
       </c>
       <c r="AF13">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG13">
-        <v>8.0500000000000007</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AH13">
         <v>82.61</v>
@@ -3084,13 +2815,13 @@
         <v>-2.4</v>
       </c>
       <c r="BB13">
-        <v>-0.94</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="BC13">
         <v>3.92</v>
       </c>
       <c r="BD13">
-        <v>-5.0599999999999996</v>
+        <v>-5.06</v>
       </c>
       <c r="BE13">
         <v>1.56</v>
@@ -3117,9 +2848,9 @@
         <v>86.11</v>
       </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>90</v>
+    <row r="14" spans="1:77">
+      <c r="A14">
+        <v>20241024</v>
       </c>
       <c r="B14">
         <v>2141</v>
@@ -3161,13 +2892,13 @@
         <v>3.92</v>
       </c>
       <c r="O14">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="P14">
         <v>7.57</v>
       </c>
       <c r="Q14">
-        <v>-2.4300000000000002</v>
+        <v>-2.43</v>
       </c>
       <c r="R14">
         <v>-1.26</v>
@@ -3185,13 +2916,13 @@
         <v>60.64</v>
       </c>
       <c r="W14">
-        <v>32.979999999999997</v>
+        <v>32.98</v>
       </c>
       <c r="X14">
         <v>96.81</v>
       </c>
       <c r="Y14">
-        <v>91.49</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="Z14">
         <v>41</v>
@@ -3200,13 +2931,13 @@
         <v>5.58</v>
       </c>
       <c r="AB14">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="AC14">
-        <v>8.7200000000000006</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="AD14">
-        <v>-2.3199999999999998</v>
+        <v>-2.32</v>
       </c>
       <c r="AE14">
         <v>-1.18</v>
@@ -3215,22 +2946,22 @@
         <v>9.98</v>
       </c>
       <c r="AG14">
-        <v>8.6300000000000008</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="AH14">
         <v>75.61</v>
       </c>
       <c r="AI14">
-        <v>68.290000000000006</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="AJ14">
         <v>29.27</v>
       </c>
       <c r="AK14">
-        <v>92.68</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="AL14">
-        <v>82.93</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="AZ14">
         <v>41</v>
@@ -3260,7 +2991,7 @@
         <v>21.95</v>
       </c>
       <c r="BI14">
-        <v>36.590000000000003</v>
+        <v>36.59</v>
       </c>
       <c r="BJ14">
         <v>56.1</v>
@@ -3293,7 +3024,7 @@
         <v>-12.2</v>
       </c>
       <c r="BT14">
-        <v>-4.1399999999999997</v>
+        <v>-4.14</v>
       </c>
       <c r="BU14">
         <v>0</v>
@@ -3311,9 +3042,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>91</v>
+    <row r="15" spans="1:77">
+      <c r="A15">
+        <v>20241025</v>
       </c>
       <c r="B15">
         <v>4303</v>
@@ -3373,7 +3104,7 @@
         <v>15.39</v>
       </c>
       <c r="U15">
-        <v>82.35</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="V15">
         <v>89.41</v>
@@ -3382,7 +3113,7 @@
         <v>54.12</v>
       </c>
       <c r="X15">
-        <v>95.29</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="Y15">
         <v>100</v>
@@ -3430,7 +3161,7 @@
         <v>25</v>
       </c>
       <c r="BA15">
-        <v>-0.28999999999999998</v>
+        <v>-0.29</v>
       </c>
       <c r="BB15">
         <v>4.66</v>
@@ -3442,7 +3173,7 @@
         <v>-2.35</v>
       </c>
       <c r="BE15">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="BF15">
         <v>0.44</v>
@@ -3505,9 +3236,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>92</v>
+    <row r="16" spans="1:77">
+      <c r="A16">
+        <v>20241028</v>
       </c>
       <c r="B16">
         <v>4223</v>
@@ -3576,7 +3307,7 @@
         <v>58.44</v>
       </c>
       <c r="X16">
-        <v>99.35</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="Y16">
         <v>100</v>
@@ -3588,13 +3319,13 @@
         <v>5.95</v>
       </c>
       <c r="AB16">
-        <v>8.2899999999999991</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AC16">
         <v>9.59</v>
       </c>
       <c r="AD16">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="AE16">
         <v>2.29</v>
@@ -3609,7 +3340,7 @@
         <v>92.06</v>
       </c>
       <c r="AI16">
-        <v>95.24</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="AJ16">
         <v>61.9</v>
@@ -3660,9 +3391,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>93</v>
+    <row r="17" spans="1:77">
+      <c r="A17">
+        <v>20241029</v>
       </c>
       <c r="B17">
         <v>1062</v>
@@ -3704,7 +3435,7 @@
         <v>5.22</v>
       </c>
       <c r="O17">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="P17">
         <v>8.48</v>
@@ -3752,10 +3483,10 @@
         <v>0.49</v>
       </c>
       <c r="AE17">
-        <v>-2.2799999999999998</v>
+        <v>-2.28</v>
       </c>
       <c r="AF17">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="AG17">
         <v>7.44</v>
@@ -3803,10 +3534,10 @@
         <v>27.78</v>
       </c>
       <c r="BI17">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BJ17">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BK17">
         <v>88.89</v>
@@ -3815,9 +3546,9 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>94</v>
+    <row r="18" spans="1:77">
+      <c r="A18">
+        <v>20241030</v>
       </c>
       <c r="B18">
         <v>2320</v>
@@ -3862,7 +3593,7 @@
         <v>4.99</v>
       </c>
       <c r="P18">
-        <v>8.4499999999999993</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Q18">
         <v>-1.63</v>
@@ -3895,7 +3626,7 @@
         <v>51</v>
       </c>
       <c r="AA18">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="AB18">
         <v>7.17</v>
@@ -3913,10 +3644,10 @@
         <v>6.61</v>
       </c>
       <c r="AG18">
-        <v>9.2799999999999994</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AH18">
-        <v>74.510000000000005</v>
+        <v>74.51000000000001</v>
       </c>
       <c r="AI18">
         <v>84.31</v>
@@ -3964,7 +3695,7 @@
         <v>60.53</v>
       </c>
       <c r="BK18">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="BL18">
         <v>48.68</v>
@@ -4009,9 +3740,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>95</v>
+    <row r="19" spans="1:77">
+      <c r="A19">
+        <v>20241031</v>
       </c>
       <c r="B19">
         <v>3512</v>
@@ -4095,7 +3826,7 @@
         <v>7.82</v>
       </c>
       <c r="AC19">
-        <v>10.029999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="AD19">
         <v>1.94</v>
@@ -4149,7 +3880,7 @@
         <v>5.63</v>
       </c>
       <c r="BH19">
-        <v>17.239999999999998</v>
+        <v>17.24</v>
       </c>
       <c r="BI19">
         <v>55.17</v>
@@ -4161,7 +3892,7 @@
         <v>72.41</v>
       </c>
       <c r="BL19">
-        <v>82.76</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="BM19">
         <v>4</v>
@@ -4185,7 +3916,7 @@
         <v>-7.72</v>
       </c>
       <c r="BT19">
-        <v>-8.3000000000000007</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="BU19">
         <v>0</v>
@@ -4203,9 +3934,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>96</v>
+    <row r="20" spans="1:77">
+      <c r="A20">
+        <v>20241101</v>
       </c>
       <c r="B20">
         <v>975</v>
@@ -4268,7 +3999,7 @@
         <v>89.53</v>
       </c>
       <c r="V20">
-        <v>38.950000000000003</v>
+        <v>38.95</v>
       </c>
       <c r="W20">
         <v>11.63</v>
@@ -4313,7 +4044,7 @@
         <v>9.09</v>
       </c>
       <c r="AK20">
-        <v>97.4</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AL20">
         <v>45.45</v>
@@ -4343,7 +4074,7 @@
         <v>-1.27</v>
       </c>
       <c r="BH20">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="BI20">
         <v>15.29</v>
@@ -4352,7 +4083,7 @@
         <v>14.12</v>
       </c>
       <c r="BK20">
-        <v>78.819999999999993</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="BL20">
         <v>36.47</v>
@@ -4397,9 +4128,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>97</v>
+    <row r="21" spans="1:77">
+      <c r="A21">
+        <v>20241104</v>
       </c>
       <c r="B21">
         <v>4495</v>
@@ -4447,7 +4178,7 @@
         <v>6.54</v>
       </c>
       <c r="Q21">
-        <v>-4.1500000000000004</v>
+        <v>-4.15</v>
       </c>
       <c r="R21">
         <v>-1.41</v>
@@ -4456,7 +4187,7 @@
         <v>10.25</v>
       </c>
       <c r="T21">
-        <v>8.6300000000000008</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="U21">
         <v>64.89</v>
@@ -4468,16 +4199,16 @@
         <v>31.91</v>
       </c>
       <c r="X21">
-        <v>80.849999999999994</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="Y21">
-        <v>79.790000000000006</v>
+        <v>79.79000000000001</v>
       </c>
       <c r="Z21">
         <v>40</v>
       </c>
       <c r="AA21">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="AB21">
         <v>1.31</v>
@@ -4489,7 +4220,7 @@
         <v>-5.68</v>
       </c>
       <c r="AE21">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="AF21">
         <v>4.42</v>
@@ -4519,7 +4250,7 @@
         <v>-2.02</v>
       </c>
       <c r="BB21">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="BC21">
         <v>4.05</v>
@@ -4540,7 +4271,7 @@
         <v>28.3</v>
       </c>
       <c r="BI21">
-        <v>39.619999999999997</v>
+        <v>39.62</v>
       </c>
       <c r="BJ21">
         <v>54.72</v>
@@ -4591,9 +4322,9 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>98</v>
+    <row r="22" spans="1:77">
+      <c r="A22">
+        <v>20241105</v>
       </c>
       <c r="B22">
         <v>5069</v>
@@ -4656,13 +4387,13 @@
         <v>80</v>
       </c>
       <c r="V22">
-        <v>88.57</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="W22">
         <v>57.86</v>
       </c>
       <c r="X22">
-        <v>99.29</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="Y22">
         <v>100</v>
@@ -4680,7 +4411,7 @@
         <v>9.24</v>
       </c>
       <c r="AD22">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AE22">
         <v>0.97</v>
@@ -4728,7 +4459,7 @@
         <v>3.32</v>
       </c>
       <c r="BG22">
-        <v>8.7200000000000006</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="BH22">
         <v>13.33</v>
@@ -4755,7 +4486,7 @@
         <v>0.52</v>
       </c>
       <c r="BP22">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="BQ22">
         <v>-6.56</v>
@@ -4767,7 +4498,7 @@
         <v>-5.49</v>
       </c>
       <c r="BT22">
-        <v>-0.28000000000000003</v>
+        <v>-0.28</v>
       </c>
       <c r="BU22">
         <v>5.56</v>
@@ -4785,9 +4516,9 @@
         <v>41.67</v>
       </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>99</v>
+    <row r="23" spans="1:77">
+      <c r="A23">
+        <v>20241106</v>
       </c>
       <c r="B23">
         <v>2828</v>
@@ -4826,13 +4557,13 @@
         <v>160</v>
       </c>
       <c r="N23">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="O23">
         <v>5.13</v>
       </c>
       <c r="P23">
-        <v>9.0500000000000007</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q23">
         <v>1.24</v>
@@ -4910,7 +4641,7 @@
         <v>0.06</v>
       </c>
       <c r="BC23">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="BD23">
         <v>-3.81</v>
@@ -4940,9 +4671,9 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>100</v>
+    <row r="24" spans="1:77">
+      <c r="A24">
+        <v>20241107</v>
       </c>
       <c r="B24">
         <v>4528</v>
@@ -4987,7 +4718,7 @@
         <v>4.13</v>
       </c>
       <c r="P24">
-        <v>8.2100000000000009</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="Q24">
         <v>-1.39</v>
@@ -5002,13 +4733,13 @@
         <v>11.22</v>
       </c>
       <c r="U24">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="V24">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="W24">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="X24">
         <v>91.2</v>
@@ -5047,7 +4778,7 @@
         <v>67.8</v>
       </c>
       <c r="AJ24">
-        <v>35.590000000000003</v>
+        <v>35.59</v>
       </c>
       <c r="AK24">
         <v>83.05</v>
@@ -5098,13 +4829,13 @@
         <v>3</v>
       </c>
       <c r="BN24">
-        <v>-8.1999999999999993</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="BO24">
-        <v>-8.3800000000000008</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="BP24">
-        <v>-2.4300000000000002</v>
+        <v>-2.43</v>
       </c>
       <c r="BQ24">
         <v>-10</v>
@@ -5134,9 +4865,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>101</v>
+    <row r="25" spans="1:77">
+      <c r="A25">
+        <v>20241108</v>
       </c>
       <c r="B25">
         <v>2221</v>
@@ -5175,7 +4906,7 @@
         <v>185</v>
       </c>
       <c r="N25">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="O25">
         <v>1.42</v>
@@ -5196,7 +4927,7 @@
         <v>10.99</v>
       </c>
       <c r="U25">
-        <v>87.57</v>
+        <v>87.56999999999999</v>
       </c>
       <c r="V25">
         <v>52.97</v>
@@ -5232,10 +4963,10 @@
         <v>12.19</v>
       </c>
       <c r="AG25">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AH25">
-        <v>82.76</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="AI25">
         <v>58.62</v>
@@ -5286,7 +5017,7 @@
         <v>66.67</v>
       </c>
       <c r="BL25">
-        <v>71.790000000000006</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="BM25">
         <v>7</v>
@@ -5301,13 +5032,13 @@
         <v>2.88</v>
       </c>
       <c r="BQ25">
-        <v>-8.1199999999999992</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="BR25">
         <v>1.67</v>
       </c>
       <c r="BS25">
-        <v>-8.7100000000000009</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="BT25">
         <v>-7.27</v>
@@ -5328,9 +5059,9 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>102</v>
+    <row r="26" spans="1:77">
+      <c r="A26">
+        <v>20241111</v>
       </c>
       <c r="B26">
         <v>3939</v>
@@ -5390,7 +5121,7 @@
         <v>10.83</v>
       </c>
       <c r="U26">
-        <v>65.709999999999994</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="V26">
         <v>72.38</v>
@@ -5420,7 +5151,7 @@
         <v>-3.11</v>
       </c>
       <c r="AE26">
-        <v>-0.28999999999999998</v>
+        <v>-0.29</v>
       </c>
       <c r="AF26">
         <v>5.62</v>
@@ -5459,10 +5190,10 @@
         <v>-4.46</v>
       </c>
       <c r="BE26">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="BF26">
-        <v>-0.56999999999999995</v>
+        <v>-0.57</v>
       </c>
       <c r="BG26">
         <v>1.96</v>
@@ -5522,9 +5253,9 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>103</v>
+    <row r="27" spans="1:77">
+      <c r="A27">
+        <v>20241112</v>
       </c>
       <c r="B27">
         <v>1486</v>
@@ -5593,10 +5324,10 @@
         <v>17.29</v>
       </c>
       <c r="X27">
-        <v>95.49</v>
+        <v>95.48999999999999</v>
       </c>
       <c r="Y27">
-        <v>84.96</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="Z27">
         <v>43</v>
@@ -5617,7 +5348,7 @@
         <v>-3.36</v>
       </c>
       <c r="AF27">
-        <v>8.7200000000000006</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="AG27">
         <v>5.05</v>
@@ -5629,7 +5360,7 @@
         <v>41.86</v>
       </c>
       <c r="AJ27">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="AK27">
         <v>86.05</v>
@@ -5665,16 +5396,16 @@
         <v>34.04</v>
       </c>
       <c r="BI27">
-        <v>19.149999999999999</v>
+        <v>19.15</v>
       </c>
       <c r="BJ27">
         <v>23.4</v>
       </c>
       <c r="BK27">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="BL27">
-        <v>65.959999999999994</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="BM27">
         <v>15</v>
@@ -5689,7 +5420,7 @@
         <v>-0.64</v>
       </c>
       <c r="BQ27">
-        <v>-8.1999999999999993</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="BR27">
         <v>1.49</v>
@@ -5716,9 +5447,9 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>104</v>
+    <row r="28" spans="1:77">
+      <c r="A28">
+        <v>20241113</v>
       </c>
       <c r="B28">
         <v>2586</v>
@@ -5817,19 +5548,19 @@
         <v>6.44</v>
       </c>
       <c r="AH28">
-        <v>64.290000000000006</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="AI28">
-        <v>64.290000000000006</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="AJ28">
         <v>39.29</v>
       </c>
       <c r="AK28">
-        <v>89.29</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="AL28">
-        <v>78.569999999999993</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="AZ28">
         <v>51</v>
@@ -5841,13 +5572,13 @@
         <v>-1.43</v>
       </c>
       <c r="BC28">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="BD28">
         <v>-4.91</v>
       </c>
       <c r="BE28">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="BF28">
         <v>2.56</v>
@@ -5865,10 +5596,10 @@
         <v>49.02</v>
       </c>
       <c r="BK28">
-        <v>82.35</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="BL28">
-        <v>78.430000000000007</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="BM28">
         <v>15</v>
@@ -5910,9 +5641,9 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>105</v>
+    <row r="29" spans="1:77">
+      <c r="A29">
+        <v>20241114</v>
       </c>
       <c r="B29">
         <v>487</v>
@@ -5990,7 +5721,7 @@
         <v>18</v>
       </c>
       <c r="AA29">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="AB29">
         <v>2.27</v>
@@ -6005,10 +5736,10 @@
         <v>-0.22</v>
       </c>
       <c r="AF29">
-        <v>9.0399999999999991</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="AG29">
-        <v>8.7899999999999991</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AH29">
         <v>55.56</v>
@@ -6074,7 +5805,7 @@
         <v>-7.45</v>
       </c>
       <c r="BP29">
-        <v>-2.3199999999999998</v>
+        <v>-2.32</v>
       </c>
       <c r="BQ29">
         <v>-8.16</v>
@@ -6104,9 +5835,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>106</v>
+    <row r="30" spans="1:77">
+      <c r="A30">
+        <v>20241115</v>
       </c>
       <c r="B30">
         <v>929</v>
@@ -6148,7 +5879,7 @@
         <v>1.64</v>
       </c>
       <c r="O30">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="P30">
         <v>8.67</v>
@@ -6160,7 +5891,7 @@
         <v>2.61</v>
       </c>
       <c r="S30">
-        <v>9.0299999999999994</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T30">
         <v>11.75</v>
@@ -6190,10 +5921,10 @@
         <v>4.33</v>
       </c>
       <c r="AC30">
-        <v>9.2100000000000009</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="AD30">
-        <v>-2.2200000000000002</v>
+        <v>-2.22</v>
       </c>
       <c r="AE30">
         <v>2.62</v>
@@ -6241,7 +5972,7 @@
         <v>-0.95</v>
       </c>
       <c r="BG30">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="BH30">
         <v>12.9</v>
@@ -6274,7 +6005,7 @@
         <v>-7.67</v>
       </c>
       <c r="BR30">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="BS30">
         <v>-9.99</v>
@@ -6289,7 +6020,7 @@
         <v>15.79</v>
       </c>
       <c r="BW30">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="BX30">
         <v>0</v>
@@ -6298,9 +6029,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>107</v>
+    <row r="31" spans="1:77">
+      <c r="A31">
+        <v>20241118</v>
       </c>
       <c r="B31">
         <v>1165</v>
@@ -6411,7 +6142,7 @@
         <v>100</v>
       </c>
       <c r="AL31">
-        <v>85.71</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="AZ31">
         <v>30</v>
@@ -6420,7 +6151,7 @@
         <v>-1.27</v>
       </c>
       <c r="BB31">
-        <v>-4.4000000000000004</v>
+        <v>-4.4</v>
       </c>
       <c r="BC31">
         <v>1.89</v>
@@ -6471,13 +6202,13 @@
         <v>-1.43</v>
       </c>
       <c r="BS31">
-        <v>-8.0299999999999994</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="BT31">
-        <v>-9.3699999999999992</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="BU31">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BV31">
         <v>26.09</v>
@@ -6489,12 +6220,12 @@
         <v>0</v>
       </c>
       <c r="BY31">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>108</v>
+    <row r="32" spans="1:77">
+      <c r="A32">
+        <v>20241119</v>
       </c>
       <c r="B32">
         <v>4516</v>
@@ -6542,7 +6273,7 @@
         <v>5.81</v>
       </c>
       <c r="Q32">
-        <v>-4.3899999999999997</v>
+        <v>-4.39</v>
       </c>
       <c r="R32">
         <v>1.24</v>
@@ -6686,9 +6417,9 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>109</v>
+    <row r="33" spans="1:77">
+      <c r="A33">
+        <v>20241120</v>
       </c>
       <c r="B33">
         <v>4572</v>
@@ -6790,7 +6521,7 @@
         <v>75</v>
       </c>
       <c r="AI33">
-        <v>96.43</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="AJ33">
         <v>50</v>
@@ -6814,7 +6545,7 @@
         <v>5.17</v>
       </c>
       <c r="BD33">
-        <v>-4.8499999999999996</v>
+        <v>-4.85</v>
       </c>
       <c r="BE33">
         <v>6.61</v>
@@ -6856,7 +6587,7 @@
         <v>-5.89</v>
       </c>
       <c r="BR33">
-        <v>8.9499999999999993</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="BS33">
         <v>-6.18</v>
@@ -6880,9 +6611,9 @@
         <v>83.33</v>
       </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>110</v>
+    <row r="34" spans="1:77">
+      <c r="A34">
+        <v>20241121</v>
       </c>
       <c r="B34">
         <v>2564</v>
@@ -6951,7 +6682,7 @@
         <v>40.54</v>
       </c>
       <c r="X34">
-        <v>98.65</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="Y34">
         <v>97.97</v>
@@ -6966,13 +6697,13 @@
         <v>4.2</v>
       </c>
       <c r="AC34">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD34">
         <v>0.52</v>
       </c>
       <c r="AE34">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="AF34">
         <v>11.65</v>
@@ -6981,7 +6712,7 @@
         <v>10.38</v>
       </c>
       <c r="AH34">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AI34">
         <v>74.55</v>
@@ -7002,7 +6733,7 @@
         <v>-1.59</v>
       </c>
       <c r="BB34">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="BC34">
         <v>4.21</v>
@@ -7011,13 +6742,13 @@
         <v>-3.28</v>
       </c>
       <c r="BE34">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="BF34">
         <v>5.96</v>
       </c>
       <c r="BG34">
-        <v>8.2799999999999994</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="BH34">
         <v>15.38</v>
@@ -7038,7 +6769,7 @@
         <v>2</v>
       </c>
       <c r="BN34">
-        <v>-2.2799999999999998</v>
+        <v>-2.28</v>
       </c>
       <c r="BO34">
         <v>-3.1</v>
@@ -7074,9 +6805,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>111</v>
+    <row r="35" spans="1:77">
+      <c r="A35">
+        <v>20241122</v>
       </c>
       <c r="B35">
         <v>429</v>
@@ -7148,7 +6879,7 @@
         <v>92.16</v>
       </c>
       <c r="Y35">
-        <v>88.24</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="Z35">
         <v>51</v>
@@ -7187,7 +6918,7 @@
         <v>86.27</v>
       </c>
       <c r="AL35">
-        <v>82.35</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="AZ35">
         <v>41</v>
@@ -7232,16 +6963,16 @@
         <v>3</v>
       </c>
       <c r="BN35">
-        <v>-4.2300000000000004</v>
+        <v>-4.23</v>
       </c>
       <c r="BO35">
-        <v>-9.61</v>
+        <v>-9.609999999999999</v>
       </c>
       <c r="BP35">
         <v>-2.16</v>
       </c>
       <c r="BQ35">
-        <v>-9.6999999999999993</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="BR35">
         <v>-5.59</v>
@@ -7268,9 +6999,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>112</v>
+    <row r="36" spans="1:77">
+      <c r="A36">
+        <v>20241125</v>
       </c>
       <c r="B36">
         <v>3734</v>
@@ -7318,7 +7049,7 @@
         <v>8.51</v>
       </c>
       <c r="Q36">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="R36">
         <v>2.21</v>
@@ -7330,7 +7061,7 @@
         <v>13.46</v>
       </c>
       <c r="U36">
-        <v>72.459999999999994</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="V36">
         <v>82.61</v>
@@ -7342,7 +7073,7 @@
         <v>91.3</v>
       </c>
       <c r="Y36">
-        <v>86.96</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="Z36">
         <v>40</v>
@@ -7402,7 +7133,7 @@
         <v>1.59</v>
       </c>
       <c r="BF36">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="BG36">
         <v>5.92</v>
@@ -7417,7 +7148,7 @@
         <v>53.73</v>
       </c>
       <c r="BK36">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="BL36">
         <v>71.64</v>
@@ -7447,7 +7178,7 @@
         <v>-7.98</v>
       </c>
       <c r="BU36">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BV36">
         <v>33.33</v>
@@ -7462,9 +7193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>113</v>
+    <row r="37" spans="1:77">
+      <c r="A37">
+        <v>20241126</v>
       </c>
       <c r="B37">
         <v>1536</v>
@@ -7515,7 +7246,7 @@
         <v>-3.46</v>
       </c>
       <c r="R37">
-        <v>-4.1399999999999997</v>
+        <v>-4.14</v>
       </c>
       <c r="S37">
         <v>10.44</v>
@@ -7554,13 +7285,13 @@
         <v>-5.54</v>
       </c>
       <c r="AE37">
-        <v>-4.9000000000000004</v>
+        <v>-4.9</v>
       </c>
       <c r="AF37">
         <v>5.99</v>
       </c>
       <c r="AG37">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="AH37">
         <v>52.54</v>
@@ -7569,7 +7300,7 @@
         <v>25.42</v>
       </c>
       <c r="AJ37">
-        <v>8.4700000000000006</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="AK37">
         <v>79.66</v>
@@ -7632,7 +7363,7 @@
         <v>-8.43</v>
       </c>
       <c r="BR37">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="BS37">
         <v>-11.18</v>
@@ -7656,9 +7387,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>114</v>
+    <row r="38" spans="1:77">
+      <c r="A38">
+        <v>20241127</v>
       </c>
       <c r="B38">
         <v>4329</v>
@@ -7715,7 +7446,7 @@
         <v>7.34</v>
       </c>
       <c r="T38">
-        <v>8.9600000000000009</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="U38">
         <v>34.83</v>
@@ -7730,7 +7461,7 @@
         <v>86.52</v>
       </c>
       <c r="Y38">
-        <v>83.15</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="Z38">
         <v>31</v>
@@ -7775,10 +7506,10 @@
         <v>58</v>
       </c>
       <c r="BA38">
-        <v>-4.2300000000000004</v>
+        <v>-4.23</v>
       </c>
       <c r="BB38">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="BC38">
         <v>3.05</v>
@@ -7802,7 +7533,7 @@
         <v>50</v>
       </c>
       <c r="BJ38">
-        <v>87.93</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="BK38">
         <v>53.45</v>
@@ -7826,7 +7557,7 @@
         <v>-7.69</v>
       </c>
       <c r="BR38">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="BS38">
         <v>-11.84</v>
@@ -7850,9 +7581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>115</v>
+    <row r="39" spans="1:77">
+      <c r="A39">
+        <v>20241128</v>
       </c>
       <c r="B39">
         <v>2530</v>
@@ -7891,16 +7622,16 @@
         <v>94</v>
       </c>
       <c r="N39">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="O39">
         <v>3.9</v>
       </c>
       <c r="P39">
-        <v>9.0500000000000007</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q39">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="R39">
         <v>-0.64</v>
@@ -7975,7 +7706,7 @@
         <v>0.66</v>
       </c>
       <c r="BC39">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="BD39">
         <v>-2.67</v>
@@ -8023,7 +7754,7 @@
         <v>-2.59</v>
       </c>
       <c r="BS39">
-        <v>-4.3899999999999997</v>
+        <v>-4.39</v>
       </c>
       <c r="BT39">
         <v>-6.96</v>
@@ -8044,9 +7775,9 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>116</v>
+    <row r="40" spans="1:77">
+      <c r="A40">
+        <v>20241129</v>
       </c>
       <c r="B40">
         <v>4290</v>
@@ -8100,16 +7831,16 @@
         <v>1.2</v>
       </c>
       <c r="S40">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="T40">
         <v>11.3</v>
       </c>
       <c r="U40">
-        <v>66.290000000000006</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="V40">
-        <v>68.540000000000006</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="W40">
         <v>53.93</v>
@@ -8118,7 +7849,7 @@
         <v>92.13</v>
       </c>
       <c r="Y40">
-        <v>93.26</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="Z40">
         <v>39</v>
@@ -8145,7 +7876,7 @@
         <v>9.9</v>
       </c>
       <c r="AH40">
-        <v>64.099999999999994</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="AI40">
         <v>69.23</v>
@@ -8157,7 +7888,7 @@
         <v>84.62</v>
       </c>
       <c r="AL40">
-        <v>89.74</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="AZ40">
         <v>57</v>
@@ -8166,7 +7897,7 @@
         <v>-2.97</v>
       </c>
       <c r="BB40">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="BC40">
         <v>2.78</v>
@@ -8190,13 +7921,13 @@
         <v>33.33</v>
       </c>
       <c r="BJ40">
-        <v>71.930000000000007</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="BK40">
         <v>61.4</v>
       </c>
       <c r="BL40">
-        <v>70.180000000000007</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="BM40">
         <v>6</v>
@@ -8217,30 +7948,30 @@
         <v>-2.37</v>
       </c>
       <c r="BS40">
-        <v>-9.36</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="BT40">
         <v>-11.45</v>
       </c>
       <c r="BU40">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BV40">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BW40">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BX40">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BY40">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>117</v>
+    <row r="41" spans="1:77">
+      <c r="A41">
+        <v>20241202</v>
       </c>
       <c r="B41">
         <v>4644</v>
@@ -8285,7 +8016,7 @@
         <v>5.53</v>
       </c>
       <c r="P41">
-        <v>8.86</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Q41">
         <v>0.68</v>
@@ -8303,13 +8034,13 @@
         <v>73.81</v>
       </c>
       <c r="V41">
-        <v>85.71</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="W41">
         <v>66.67</v>
       </c>
       <c r="X41">
-        <v>95.24</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="Y41">
         <v>96.03</v>
@@ -8396,13 +8127,13 @@
         <v>7</v>
       </c>
       <c r="BN41">
-        <v>-5.0999999999999996</v>
+        <v>-5.1</v>
       </c>
       <c r="BO41">
         <v>-2.9</v>
       </c>
       <c r="BP41">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="BQ41">
         <v>-7.03</v>
@@ -8411,7 +8142,7 @@
         <v>2.27</v>
       </c>
       <c r="BS41">
-        <v>-8.11</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="BT41">
         <v>-5.98</v>
@@ -8423,7 +8154,7 @@
         <v>14.29</v>
       </c>
       <c r="BW41">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="BX41">
         <v>0</v>
@@ -8432,9 +8163,9 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>118</v>
+    <row r="42" spans="1:77">
+      <c r="A42">
+        <v>20241203</v>
       </c>
       <c r="B42">
         <v>2448</v>
@@ -8473,7 +8204,7 @@
         <v>158</v>
       </c>
       <c r="N42">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="O42">
         <v>2.4</v>
@@ -8512,16 +8243,16 @@
         <v>60</v>
       </c>
       <c r="AA42">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="AB42">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="AC42">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD42">
-        <v>-1.1399999999999999</v>
+        <v>-1.14</v>
       </c>
       <c r="AE42">
         <v>-2.25</v>
@@ -8560,7 +8291,7 @@
         <v>2.33</v>
       </c>
       <c r="BD42">
-        <v>-4.1900000000000004</v>
+        <v>-4.19</v>
       </c>
       <c r="BE42">
         <v>-0.39</v>
@@ -8584,7 +8315,7 @@
         <v>80.39</v>
       </c>
       <c r="BL42">
-        <v>74.510000000000005</v>
+        <v>74.51000000000001</v>
       </c>
       <c r="BM42">
         <v>5</v>
@@ -8596,10 +8327,10 @@
         <v>-6.52</v>
       </c>
       <c r="BP42">
-        <v>-2.4300000000000002</v>
+        <v>-2.43</v>
       </c>
       <c r="BQ42">
-        <v>-8.6999999999999993</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="BR42">
         <v>-0.62</v>
@@ -8626,9 +8357,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>119</v>
+    <row r="43" spans="1:77">
+      <c r="A43">
+        <v>20241204</v>
       </c>
       <c r="B43">
         <v>981</v>
@@ -8736,7 +8467,7 @@
         <v>25.45</v>
       </c>
       <c r="AK43">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AL43">
         <v>63.64</v>
@@ -8751,7 +8482,7 @@
         <v>-2.52</v>
       </c>
       <c r="BC43">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="BD43">
         <v>-6.05</v>
@@ -8808,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="BV43">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BW43">
         <v>33.33</v>
@@ -8820,9 +8551,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>120</v>
+    <row r="44" spans="1:77">
+      <c r="A44">
+        <v>20241205</v>
       </c>
       <c r="B44">
         <v>3823</v>
@@ -8861,7 +8592,7 @@
         <v>82</v>
       </c>
       <c r="N44">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="O44">
         <v>3.75</v>
@@ -8882,7 +8613,7 @@
         <v>11.55</v>
       </c>
       <c r="U44">
-        <v>68.290000000000006</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="V44">
         <v>73.17</v>
@@ -8891,7 +8622,7 @@
         <v>51.22</v>
       </c>
       <c r="X44">
-        <v>90.24</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="Y44">
         <v>85.37</v>
@@ -8909,7 +8640,7 @@
         <v>7.19</v>
       </c>
       <c r="AD44">
-        <v>-2.0099999999999998</v>
+        <v>-2.01</v>
       </c>
       <c r="AE44">
         <v>2.04</v>
@@ -8930,10 +8661,10 @@
         <v>42.11</v>
       </c>
       <c r="AK44">
-        <v>84.21</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="AL44">
-        <v>73.680000000000007</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="AZ44">
         <v>51</v>
@@ -8951,7 +8682,7 @@
         <v>-4.43</v>
       </c>
       <c r="BE44">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="BF44">
         <v>-0.36</v>
@@ -8960,7 +8691,7 @@
         <v>1.77</v>
       </c>
       <c r="BH44">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="BI44">
         <v>41.18</v>
@@ -8969,7 +8700,7 @@
         <v>68.63</v>
       </c>
       <c r="BK44">
-        <v>64.709999999999994</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="BL44">
         <v>66.67</v>
@@ -9014,9 +8745,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>121</v>
+    <row r="45" spans="1:77">
+      <c r="A45">
+        <v>20241206</v>
       </c>
       <c r="B45">
         <v>3635</v>
@@ -9094,16 +8825,16 @@
         <v>45</v>
       </c>
       <c r="AA45">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="AB45">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="AC45">
         <v>8.23</v>
       </c>
       <c r="AD45">
-        <v>-2.0699999999999998</v>
+        <v>-2.07</v>
       </c>
       <c r="AE45">
         <v>-2.12</v>
@@ -9112,7 +8843,7 @@
         <v>10.96</v>
       </c>
       <c r="AG45">
-        <v>8.5299999999999994</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="AH45">
         <v>71.11</v>
@@ -9133,7 +8864,7 @@
         <v>21</v>
       </c>
       <c r="BA45">
-        <v>-0.94</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="BB45">
         <v>-1.19</v>
@@ -9166,7 +8897,7 @@
         <v>76.19</v>
       </c>
       <c r="BL45">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="BM45">
         <v>9</v>
@@ -9208,9 +8939,9 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>122</v>
+    <row r="46" spans="1:77">
+      <c r="A46">
+        <v>20241209</v>
       </c>
       <c r="B46">
         <v>2040</v>
@@ -9270,7 +9001,7 @@
         <v>9.5</v>
       </c>
       <c r="U46">
-        <v>82.46</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="V46">
         <v>51.75</v>
@@ -9279,7 +9010,7 @@
         <v>22.81</v>
       </c>
       <c r="X46">
-        <v>96.49</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="Y46">
         <v>87.72</v>
@@ -9291,7 +9022,7 @@
         <v>3.65</v>
       </c>
       <c r="AB46">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="AC46">
         <v>7.48</v>
@@ -9402,9 +9133,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>123</v>
+    <row r="47" spans="1:77">
+      <c r="A47">
+        <v>20241210</v>
       </c>
       <c r="B47">
         <v>2890</v>
@@ -9443,7 +9174,7 @@
         <v>100</v>
       </c>
       <c r="N47">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="O47">
         <v>2.34</v>
@@ -9488,7 +9219,7 @@
         <v>3.33</v>
       </c>
       <c r="AC47">
-        <v>9.1199999999999992</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="AD47">
         <v>-1.18</v>
@@ -9512,7 +9243,7 @@
         <v>23.68</v>
       </c>
       <c r="AK47">
-        <v>94.74</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="AL47">
         <v>71.05</v>
@@ -9521,7 +9252,7 @@
         <v>36</v>
       </c>
       <c r="BA47">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="BB47">
         <v>0.45</v>
@@ -9596,9 +9327,9 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>124</v>
+    <row r="48" spans="1:77">
+      <c r="A48">
+        <v>20241211</v>
       </c>
       <c r="B48">
         <v>3853</v>
@@ -9667,7 +9398,7 @@
         <v>59.05</v>
       </c>
       <c r="X48">
-        <v>84.76</v>
+        <v>84.76000000000001</v>
       </c>
       <c r="Y48">
         <v>93.33</v>
@@ -9694,7 +9425,7 @@
         <v>4.97</v>
       </c>
       <c r="AG48">
-        <v>8.7899999999999991</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AH48">
         <v>50</v>
@@ -9715,7 +9446,7 @@
         <v>54</v>
       </c>
       <c r="BA48">
-        <v>-2.1800000000000002</v>
+        <v>-2.18</v>
       </c>
       <c r="BB48">
         <v>-0.3</v>
@@ -9742,7 +9473,7 @@
         <v>51.85</v>
       </c>
       <c r="BJ48">
-        <v>74.069999999999993</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="BK48">
         <v>46.3</v>
@@ -9769,10 +9500,10 @@
         <v>-1.52</v>
       </c>
       <c r="BS48">
-        <v>-8.6999999999999993</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="BT48">
-        <v>-10.199999999999999</v>
+        <v>-10.2</v>
       </c>
       <c r="BU48">
         <v>33.33</v>
@@ -9790,9 +9521,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>125</v>
+    <row r="49" spans="1:77">
+      <c r="A49">
+        <v>20241212</v>
       </c>
       <c r="B49">
         <v>3536</v>
@@ -9873,7 +9604,7 @@
         <v>3.85</v>
       </c>
       <c r="AB49">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="AC49">
         <v>8.32</v>
@@ -9918,7 +9649,7 @@
         <v>3.8</v>
       </c>
       <c r="BD49">
-        <v>-4.5599999999999996</v>
+        <v>-4.56</v>
       </c>
       <c r="BE49">
         <v>2.87</v>
@@ -9939,10 +9670,10 @@
         <v>77.42</v>
       </c>
       <c r="BK49">
-        <v>80.650000000000006</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="BL49">
-        <v>90.32</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="BM49">
         <v>9</v>
@@ -9960,7 +9691,7 @@
         <v>-5.13</v>
       </c>
       <c r="BR49">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="BS49">
         <v>-4.38</v>
@@ -9984,9 +9715,9 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>126</v>
+    <row r="50" spans="1:77">
+      <c r="A50">
+        <v>20241213</v>
       </c>
       <c r="B50">
         <v>920</v>
@@ -10034,13 +9765,13 @@
         <v>7.14</v>
       </c>
       <c r="Q50">
-        <v>-2.4900000000000002</v>
+        <v>-2.49</v>
       </c>
       <c r="R50">
         <v>-0.77</v>
       </c>
       <c r="S50">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="T50">
         <v>9.32</v>
@@ -10055,7 +9786,7 @@
         <v>37.68</v>
       </c>
       <c r="X50">
-        <v>94.93</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="Y50">
         <v>92.03</v>
@@ -10067,7 +9798,7 @@
         <v>2.65</v>
       </c>
       <c r="AB50">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="AC50">
         <v>8.67</v>
@@ -10094,10 +9825,10 @@
         <v>41.94</v>
       </c>
       <c r="AK50">
-        <v>88.71</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="AL50">
-        <v>82.26</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="AZ50">
         <v>33</v>
@@ -10154,7 +9885,7 @@
         <v>-9.25</v>
       </c>
       <c r="BR50">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="BS50">
         <v>-11</v>
@@ -10178,9 +9909,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>127</v>
+    <row r="51" spans="1:77">
+      <c r="A51">
+        <v>20241216</v>
       </c>
       <c r="B51">
         <v>1768</v>
@@ -10246,7 +9977,7 @@
         <v>56.25</v>
       </c>
       <c r="W51">
-        <v>34.380000000000003</v>
+        <v>34.38</v>
       </c>
       <c r="X51">
         <v>96.88</v>
@@ -10264,7 +9995,7 @@
         <v>1.9</v>
       </c>
       <c r="AC51">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD51">
         <v>-1.07</v>
@@ -10276,10 +10007,10 @@
         <v>11.27</v>
       </c>
       <c r="AG51">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH51">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="AI51">
         <v>59.57</v>
@@ -10288,7 +10019,7 @@
         <v>31.91</v>
       </c>
       <c r="AK51">
-        <v>95.74</v>
+        <v>95.73999999999999</v>
       </c>
       <c r="AL51">
         <v>82.98</v>
@@ -10348,13 +10079,13 @@
         <v>-6.7</v>
       </c>
       <c r="BR51">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="BS51">
-        <v>-9.1300000000000008</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="BT51">
-        <v>-8.14</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="BU51">
         <v>20</v>
@@ -10372,9 +10103,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>128</v>
+    <row r="52" spans="1:77">
+      <c r="A52">
+        <v>20241217</v>
       </c>
       <c r="B52">
         <v>553</v>
@@ -10428,7 +10159,7 @@
         <v>-5.37</v>
       </c>
       <c r="S52">
-        <v>9.61</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="T52">
         <v>3.65</v>
@@ -10440,13 +10171,13 @@
         <v>31.31</v>
       </c>
       <c r="W52">
-        <v>17.170000000000002</v>
+        <v>17.17</v>
       </c>
       <c r="X52">
         <v>93.94</v>
       </c>
       <c r="Y52">
-        <v>67.680000000000007</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="Z52">
         <v>37</v>
@@ -10455,7 +10186,7 @@
         <v>2.25</v>
       </c>
       <c r="AB52">
-        <v>-4.7300000000000004</v>
+        <v>-4.73</v>
       </c>
       <c r="AC52">
         <v>4.21</v>
@@ -10503,7 +10234,7 @@
         <v>-8.74</v>
       </c>
       <c r="BE52">
-        <v>-4.9800000000000004</v>
+        <v>-4.98</v>
       </c>
       <c r="BF52">
         <v>-0.95</v>
@@ -10518,7 +10249,7 @@
         <v>10.45</v>
       </c>
       <c r="BJ52">
-        <v>8.9600000000000009</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="BK52">
         <v>46.27</v>
@@ -10566,9 +10297,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>129</v>
+    <row r="53" spans="1:77">
+      <c r="A53">
+        <v>20241218</v>
       </c>
       <c r="B53">
         <v>2801</v>
@@ -10661,19 +10392,19 @@
         <v>4.82</v>
       </c>
       <c r="AF53">
-        <v>8.86</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="AG53">
         <v>14.08</v>
       </c>
       <c r="AH53">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AI53">
         <v>100</v>
       </c>
       <c r="AJ53">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AK53">
         <v>100</v>
@@ -10712,10 +10443,10 @@
         <v>38.24</v>
       </c>
       <c r="BJ53">
-        <v>64.709999999999994</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="BK53">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="BL53">
         <v>50</v>
@@ -10742,7 +10473,7 @@
         <v>-11.98</v>
       </c>
       <c r="BT53">
-        <v>-9.89</v>
+        <v>-9.890000000000001</v>
       </c>
       <c r="BU53">
         <v>3.97</v>
@@ -10760,9 +10491,9 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>130</v>
+    <row r="54" spans="1:77">
+      <c r="A54">
+        <v>20241219</v>
       </c>
       <c r="B54">
         <v>2422</v>
@@ -10849,7 +10580,7 @@
         <v>7.95</v>
       </c>
       <c r="AD54">
-        <v>-4.2300000000000004</v>
+        <v>-4.23</v>
       </c>
       <c r="AE54">
         <v>-3.22</v>
@@ -10954,9 +10685,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>131</v>
+    <row r="55" spans="1:77">
+      <c r="A55">
+        <v>20241220</v>
       </c>
       <c r="B55">
         <v>3555</v>
@@ -11148,9 +10879,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>132</v>
+    <row r="56" spans="1:77">
+      <c r="A56">
+        <v>20241223</v>
       </c>
       <c r="B56">
         <v>555</v>
@@ -11237,7 +10968,7 @@
         <v>7.11</v>
       </c>
       <c r="AD56">
-        <v>-4.1100000000000003</v>
+        <v>-4.11</v>
       </c>
       <c r="AE56">
         <v>-1.01</v>
@@ -11249,7 +10980,7 @@
         <v>5.69</v>
       </c>
       <c r="AH56">
-        <v>64.709999999999994</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="AI56">
         <v>52.94</v>
@@ -11258,7 +10989,7 @@
         <v>23.53</v>
       </c>
       <c r="AK56">
-        <v>82.35</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="AL56">
         <v>70.59</v>
@@ -11276,7 +11007,7 @@
         <v>1.21</v>
       </c>
       <c r="BD56">
-        <v>-8.2899999999999991</v>
+        <v>-8.289999999999999</v>
       </c>
       <c r="BE56">
         <v>-5.03</v>
@@ -11321,7 +11052,7 @@
         <v>-1.31</v>
       </c>
       <c r="BS56">
-        <v>-9.3800000000000008</v>
+        <v>-9.380000000000001</v>
       </c>
       <c r="BT56">
         <v>-10.85</v>
@@ -11333,7 +11064,7 @@
         <v>8.33</v>
       </c>
       <c r="BW56">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BX56">
         <v>0</v>
@@ -11342,9 +11073,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>133</v>
+    <row r="57" spans="1:77">
+      <c r="A57">
+        <v>20241224</v>
       </c>
       <c r="B57">
         <v>3913</v>
@@ -11383,10 +11114,10 @@
         <v>30</v>
       </c>
       <c r="N57">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="O57">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="P57">
         <v>8.16</v>
@@ -11428,7 +11159,7 @@
         <v>2.6</v>
       </c>
       <c r="AC57">
-        <v>8.3800000000000008</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="AD57">
         <v>-1.54</v>
@@ -11464,13 +11195,13 @@
         <v>-1.72</v>
       </c>
       <c r="BB57">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="BC57">
         <v>5.28</v>
       </c>
       <c r="BD57">
-        <v>-4.7699999999999996</v>
+        <v>-4.77</v>
       </c>
       <c r="BE57">
         <v>4.12</v>
@@ -11512,7 +11243,7 @@
         <v>-6.19</v>
       </c>
       <c r="BR57">
-        <v>-0.57999999999999996</v>
+        <v>-0.58</v>
       </c>
       <c r="BS57">
         <v>-10.15</v>
@@ -11536,9 +11267,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>134</v>
+    <row r="58" spans="1:77">
+      <c r="A58">
+        <v>20241225</v>
       </c>
       <c r="B58">
         <v>910</v>
@@ -11646,10 +11377,10 @@
         <v>28.57</v>
       </c>
       <c r="AK58">
-        <v>95.24</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="AL58">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AZ58">
         <v>26</v>
@@ -11658,7 +11389,7 @@
         <v>-2.71</v>
       </c>
       <c r="BB58">
-        <v>-4.8600000000000003</v>
+        <v>-4.86</v>
       </c>
       <c r="BC58">
         <v>0.79</v>
@@ -11667,13 +11398,13 @@
         <v>-7.22</v>
       </c>
       <c r="BE58">
-        <v>-2.2000000000000002</v>
+        <v>-2.2</v>
       </c>
       <c r="BF58">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="BG58">
-        <v>-1.1299999999999999</v>
+        <v>-1.13</v>
       </c>
       <c r="BH58">
         <v>11.54</v>
@@ -11703,7 +11434,7 @@
         <v>-2.8</v>
       </c>
       <c r="BQ58">
-        <v>-9.1300000000000008</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="BR58">
         <v>-0.61</v>
@@ -11730,9 +11461,9 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>135</v>
+    <row r="59" spans="1:77">
+      <c r="A59">
+        <v>20241226</v>
       </c>
       <c r="B59">
         <v>3648</v>
@@ -11813,10 +11544,10 @@
         <v>2.06</v>
       </c>
       <c r="AB59">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="AC59">
-        <v>9.1300000000000008</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="AD59">
         <v>-1.53</v>
@@ -11894,7 +11625,7 @@
         <v>-2.17</v>
       </c>
       <c r="BP59">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="BQ59">
         <v>-6.71</v>
@@ -11912,10 +11643,10 @@
         <v>10.81</v>
       </c>
       <c r="BV59">
-        <v>37.840000000000003</v>
+        <v>37.84</v>
       </c>
       <c r="BW59">
-        <v>67.569999999999993</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="BX59">
         <v>0</v>
@@ -11924,9 +11655,9 @@
         <v>16.22</v>
       </c>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>136</v>
+    <row r="60" spans="1:77">
+      <c r="A60">
+        <v>20241227</v>
       </c>
       <c r="B60">
         <v>3546</v>
@@ -11983,7 +11714,7 @@
         <v>11.95</v>
       </c>
       <c r="T60">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="U60">
         <v>60.44</v>
@@ -11995,7 +11726,7 @@
         <v>28.57</v>
       </c>
       <c r="X60">
-        <v>98.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="Y60">
         <v>92.31</v>
@@ -12022,7 +11753,7 @@
         <v>11.06</v>
       </c>
       <c r="AG60">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AH60">
         <v>70.83</v>
@@ -12052,10 +11783,10 @@
         <v>1.92</v>
       </c>
       <c r="BD60">
-        <v>-4.6900000000000004</v>
+        <v>-4.69</v>
       </c>
       <c r="BE60">
-        <v>-1.1599999999999999</v>
+        <v>-1.16</v>
       </c>
       <c r="BF60">
         <v>2</v>
@@ -12073,7 +11804,7 @@
         <v>30.43</v>
       </c>
       <c r="BK60">
-        <v>69.569999999999993</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="BL60">
         <v>73.91</v>
@@ -12097,7 +11828,7 @@
         <v>4.33</v>
       </c>
       <c r="BS60">
-        <v>-9.2899999999999991</v>
+        <v>-9.289999999999999</v>
       </c>
       <c r="BT60">
         <v>-5.32</v>
@@ -12118,9 +11849,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>137</v>
+    <row r="61" spans="1:77">
+      <c r="A61">
+        <v>20241230</v>
       </c>
       <c r="B61">
         <v>1322</v>
@@ -12174,7 +11905,7 @@
         <v>0.13</v>
       </c>
       <c r="S61">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T61">
         <v>9.33</v>
@@ -12219,7 +11950,7 @@
         <v>5.46</v>
       </c>
       <c r="AH61">
-        <v>78.569999999999993</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="AI61">
         <v>50</v>
@@ -12231,7 +11962,7 @@
         <v>92.86</v>
       </c>
       <c r="AL61">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AZ61">
         <v>32</v>
@@ -12252,7 +11983,7 @@
         <v>-1.69</v>
       </c>
       <c r="BF61">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="BG61">
         <v>-0.6</v>
@@ -12288,7 +12019,7 @@
         <v>-7.6</v>
       </c>
       <c r="BR61">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="BS61">
         <v>-11.98</v>
@@ -12312,9 +12043,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>138</v>
+    <row r="62" spans="1:77">
+      <c r="A62">
+        <v>20241231</v>
       </c>
       <c r="B62">
         <v>705</v>
@@ -12410,7 +12141,7 @@
         <v>8.98</v>
       </c>
       <c r="AG62">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH62">
         <v>69.23</v>
@@ -12461,7 +12192,7 @@
         <v>21.43</v>
       </c>
       <c r="BK62">
-        <v>78.569999999999993</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="BL62">
         <v>35.71</v>
@@ -12479,7 +12210,7 @@
         <v>-0.39</v>
       </c>
       <c r="BQ62">
-        <v>-8.9700000000000006</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="BR62">
         <v>-2.95</v>
@@ -12506,9 +12237,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>139</v>
+    <row r="63" spans="1:77">
+      <c r="A63">
+        <v>20250102</v>
       </c>
       <c r="B63">
         <v>925</v>
@@ -12595,13 +12326,13 @@
         <v>7.59</v>
       </c>
       <c r="AD63">
-        <v>-2.3199999999999998</v>
+        <v>-2.32</v>
       </c>
       <c r="AE63">
         <v>0.15</v>
       </c>
       <c r="AF63">
-        <v>9.9499999999999993</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AG63">
         <v>10.1</v>
@@ -12676,7 +12407,7 @@
         <v>-5.93</v>
       </c>
       <c r="BE63">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="BF63">
         <v>-1.99</v>
@@ -12685,7 +12416,7 @@
         <v>0.32</v>
       </c>
       <c r="BH63">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BI63">
         <v>44.44</v>
@@ -12715,7 +12446,7 @@
         <v>-6.02</v>
       </c>
       <c r="BR63">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="BS63">
         <v>-9.74</v>
@@ -12739,9 +12470,9 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>140</v>
+    <row r="64" spans="1:77">
+      <c r="A64">
+        <v>20250103</v>
       </c>
       <c r="B64">
         <v>615</v>
@@ -12780,7 +12511,7 @@
         <v>58</v>
       </c>
       <c r="N64">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="O64">
         <v>-0.27</v>
@@ -12804,7 +12535,7 @@
         <v>68.97</v>
       </c>
       <c r="V64">
-        <v>39.659999999999997</v>
+        <v>39.66</v>
       </c>
       <c r="W64">
         <v>29.31</v>
@@ -12867,7 +12598,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ64">
-        <v>-8.1300000000000008</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="AR64">
         <v>-4.17</v>
@@ -12876,16 +12607,16 @@
         <v>5.27</v>
       </c>
       <c r="AT64">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AU64">
         <v>50</v>
       </c>
       <c r="AV64">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="AW64">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="AX64">
         <v>66.67</v>
@@ -12903,7 +12634,7 @@
         <v>-5</v>
       </c>
       <c r="BC64">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="BD64">
         <v>-7.57</v>
@@ -12927,7 +12658,7 @@
         <v>20</v>
       </c>
       <c r="BK64">
-        <v>85.71</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="BL64">
         <v>40</v>
@@ -12951,7 +12682,7 @@
         <v>-3.24</v>
       </c>
       <c r="BS64">
-        <v>-8.0500000000000007</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="BT64">
         <v>-11.17</v>
@@ -12972,9 +12703,9 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>141</v>
+    <row r="65" spans="1:77">
+      <c r="A65">
+        <v>20250106</v>
       </c>
       <c r="B65">
         <v>2292</v>
@@ -13016,7 +12747,7 @@
         <v>0.72</v>
       </c>
       <c r="O65">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="P65">
         <v>6.9</v>
@@ -13031,7 +12762,7 @@
         <v>7.7</v>
       </c>
       <c r="T65">
-        <v>9.36</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="U65">
         <v>51.11</v>
@@ -13070,7 +12801,7 @@
         <v>5.59</v>
       </c>
       <c r="AG65">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="AH65">
         <v>52.63</v>
@@ -13079,10 +12810,10 @@
         <v>47.37</v>
       </c>
       <c r="AJ65">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="AK65">
-        <v>73.680000000000007</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="AL65">
         <v>63.16</v>
@@ -13130,7 +12861,7 @@
         <v>17</v>
       </c>
       <c r="BA65">
-        <v>-4.8499999999999996</v>
+        <v>-4.85</v>
       </c>
       <c r="BB65">
         <v>-5.67</v>
@@ -13178,7 +12909,7 @@
         <v>-1.69</v>
       </c>
       <c r="BQ65">
-        <v>-8.61</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="BR65">
         <v>-1.95</v>
@@ -13205,9 +12936,9 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>142</v>
+    <row r="66" spans="1:77">
+      <c r="A66">
+        <v>20250107</v>
       </c>
       <c r="B66">
         <v>4393</v>
@@ -13255,7 +12986,7 @@
         <v>6.49</v>
       </c>
       <c r="Q66">
-        <v>-2.1800000000000002</v>
+        <v>-2.18</v>
       </c>
       <c r="R66">
         <v>1.03</v>
@@ -13267,7 +12998,7 @@
         <v>12.08</v>
       </c>
       <c r="U66">
-        <v>66.069999999999993</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="V66">
         <v>67.86</v>
@@ -13276,10 +13007,10 @@
         <v>55.36</v>
       </c>
       <c r="X66">
-        <v>98.21</v>
+        <v>98.20999999999999</v>
       </c>
       <c r="Y66">
-        <v>89.29</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="Z66">
         <v>19</v>
@@ -13315,10 +13046,10 @@
         <v>47.37</v>
       </c>
       <c r="AK66">
-        <v>94.74</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="AL66">
-        <v>73.680000000000007</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="AM66">
         <v>9</v>
@@ -13336,7 +13067,7 @@
         <v>-9.98</v>
       </c>
       <c r="AR66">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="AS66">
         <v>-7.26</v>
@@ -13429,7 +13160,7 @@
         <v>56.45</v>
       </c>
       <c r="BW66">
-        <v>88.71</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="BX66">
         <v>0</v>
@@ -13438,9 +13169,9 @@
         <v>14.52</v>
       </c>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>143</v>
+    <row r="67" spans="1:77">
+      <c r="A67">
+        <v>20250108</v>
       </c>
       <c r="B67">
         <v>1978</v>
@@ -13503,7 +13234,7 @@
         <v>54.95</v>
       </c>
       <c r="V67">
-        <v>75.819999999999993</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="W67">
         <v>68.13</v>
@@ -13566,7 +13297,7 @@
         <v>6.08</v>
       </c>
       <c r="AQ67">
-        <v>-4.6100000000000003</v>
+        <v>-4.61</v>
       </c>
       <c r="AR67">
         <v>6.17</v>
@@ -13671,9 +13402,9 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>144</v>
+    <row r="68" spans="1:77">
+      <c r="A68">
+        <v>20250109</v>
       </c>
       <c r="B68">
         <v>2728</v>
@@ -13769,7 +13500,7 @@
         <v>10.09</v>
       </c>
       <c r="AG68">
-        <v>9.2799999999999994</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AH68">
         <v>62.96</v>
@@ -13844,7 +13575,7 @@
         <v>1.81</v>
       </c>
       <c r="BF68">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="BG68">
         <v>4.37</v>
@@ -13904,9 +13635,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>145</v>
+    <row r="69" spans="1:77">
+      <c r="A69">
+        <v>20250110</v>
       </c>
       <c r="B69">
         <v>534</v>
@@ -13948,13 +13679,13 @@
         <v>1.3</v>
       </c>
       <c r="O69">
-        <v>-2.2000000000000002</v>
+        <v>-2.2</v>
       </c>
       <c r="P69">
         <v>5.05</v>
       </c>
       <c r="Q69">
-        <v>-4.3099999999999996</v>
+        <v>-4.31</v>
       </c>
       <c r="R69">
         <v>-3.45</v>
@@ -13984,7 +13715,7 @@
         <v>30</v>
       </c>
       <c r="AA69">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB69">
         <v>-4.96</v>
@@ -14026,13 +13757,13 @@
         <v>-3.67</v>
       </c>
       <c r="AO69">
-        <v>-10.050000000000001</v>
+        <v>-10.05</v>
       </c>
       <c r="AP69">
         <v>1.77</v>
       </c>
       <c r="AQ69">
-        <v>-10.050000000000001</v>
+        <v>-10.05</v>
       </c>
       <c r="AR69">
         <v>-6.63</v>
@@ -14071,7 +13802,7 @@
         <v>3.02</v>
       </c>
       <c r="BD69">
-        <v>-4.6100000000000003</v>
+        <v>-4.61</v>
       </c>
       <c r="BE69">
         <v>-2.31</v>
@@ -14110,13 +13841,13 @@
         <v>-0.26</v>
       </c>
       <c r="BQ69">
-        <v>-9.3000000000000007</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="BR69">
         <v>-1.7</v>
       </c>
       <c r="BS69">
-        <v>-9.89</v>
+        <v>-9.890000000000001</v>
       </c>
       <c r="BT69">
         <v>-11.62</v>
@@ -14137,9 +13868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>146</v>
+    <row r="70" spans="1:77">
+      <c r="A70">
+        <v>20250113</v>
       </c>
       <c r="B70">
         <v>3007</v>
@@ -14211,7 +13942,7 @@
         <v>92.11</v>
       </c>
       <c r="Y70">
-        <v>76.319999999999993</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="Z70">
         <v>16</v>
@@ -14277,7 +14008,7 @@
         <v>2.88</v>
       </c>
       <c r="BH70">
-        <v>9.3800000000000008</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="BI70">
         <v>25</v>
@@ -14331,9 +14062,9 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>147</v>
+    <row r="71" spans="1:77">
+      <c r="A71">
+        <v>20250114</v>
       </c>
       <c r="B71">
         <v>5333</v>
@@ -14378,7 +14109,7 @@
         <v>6.35</v>
       </c>
       <c r="P71">
-        <v>8.2799999999999994</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="Q71">
         <v>0.59</v>
@@ -14393,7 +14124,7 @@
         <v>15.34</v>
       </c>
       <c r="U71">
-        <v>76.739999999999995</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="V71">
         <v>100</v>
@@ -14414,7 +14145,7 @@
         <v>3.5</v>
       </c>
       <c r="AB71">
-        <v>8.2799999999999994</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AC71">
         <v>9.43</v>
@@ -14438,7 +14169,7 @@
         <v>100</v>
       </c>
       <c r="AJ71">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AK71">
         <v>100</v>
@@ -14462,7 +14193,7 @@
         <v>-5.38</v>
       </c>
       <c r="AR71">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="AS71">
         <v>-1.22</v>
@@ -14474,7 +14205,7 @@
         <v>14.29</v>
       </c>
       <c r="AV71">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AW71">
         <v>100</v>
@@ -14483,7 +14214,7 @@
         <v>42.86</v>
       </c>
       <c r="AY71">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AZ71">
         <v>18</v>
@@ -14492,7 +14223,7 @@
         <v>-2.1</v>
       </c>
       <c r="BB71">
-        <v>4.9400000000000004</v>
+        <v>4.94</v>
       </c>
       <c r="BC71">
         <v>6.53</v>
@@ -14552,10 +14283,10 @@
         <v>21.43</v>
       </c>
       <c r="BV71">
-        <v>89.29</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="BW71">
-        <v>96.43</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="BX71">
         <v>0</v>
@@ -14564,9 +14295,9 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>148</v>
+    <row r="72" spans="1:77">
+      <c r="A72">
+        <v>20250115</v>
       </c>
       <c r="B72">
         <v>1666</v>
@@ -14608,7 +14339,7 @@
         <v>3.53</v>
       </c>
       <c r="O72">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="P72">
         <v>6.6</v>
@@ -14650,13 +14381,13 @@
         <v>1.85</v>
       </c>
       <c r="AC72">
-        <v>8.5299999999999994</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="AD72">
         <v>-1.44</v>
       </c>
       <c r="AE72">
-        <v>-2.4500000000000002</v>
+        <v>-2.45</v>
       </c>
       <c r="AF72">
         <v>12.26</v>
@@ -14722,7 +14453,7 @@
         <v>28</v>
       </c>
       <c r="BA72">
-        <v>-0.56999999999999995</v>
+        <v>-0.57</v>
       </c>
       <c r="BB72">
         <v>-1.9</v>
@@ -14755,12 +14486,12 @@
         <v>92.86</v>
       </c>
       <c r="BL72">
-        <v>89.29</v>
+        <v>89.29000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>149</v>
+    <row r="73" spans="1:77">
+      <c r="A73">
+        <v>20250116</v>
       </c>
       <c r="B73">
         <v>3368</v>
@@ -14814,7 +14545,7 @@
         <v>1.2</v>
       </c>
       <c r="S73">
-        <v>8.4600000000000009</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="T73">
         <v>9.73</v>
@@ -14832,19 +14563,19 @@
         <v>95.38</v>
       </c>
       <c r="Y73">
-        <v>93.85</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="Z73">
         <v>30</v>
       </c>
       <c r="AA73">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AB73">
         <v>5.78</v>
       </c>
       <c r="AC73">
-        <v>8.7799999999999994</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="AD73">
         <v>0.85</v>
@@ -14856,7 +14587,7 @@
         <v>7.19</v>
       </c>
       <c r="AG73">
-        <v>8.6300000000000008</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="AH73">
         <v>70</v>
@@ -14877,7 +14608,7 @@
         <v>23</v>
       </c>
       <c r="BA73">
-        <v>-2.5499999999999998</v>
+        <v>-2.55</v>
       </c>
       <c r="BB73">
         <v>-0.73</v>
@@ -14895,10 +14626,10 @@
         <v>-0.7</v>
       </c>
       <c r="BG73">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="BH73">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BI73">
         <v>30.43</v>
@@ -14928,13 +14659,13 @@
         <v>-5.74</v>
       </c>
       <c r="BR73">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="BS73">
         <v>-11.04</v>
       </c>
       <c r="BT73">
-        <v>-9.1300000000000008</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="BU73">
         <v>0</v>
@@ -14943,7 +14674,7 @@
         <v>42.86</v>
       </c>
       <c r="BW73">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="BX73">
         <v>0</v>
@@ -14952,9 +14683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>150</v>
+    <row r="74" spans="1:77">
+      <c r="A74">
+        <v>20250117</v>
       </c>
       <c r="B74">
         <v>2619</v>
@@ -15008,7 +14739,7 @@
         <v>-1.88</v>
       </c>
       <c r="S74">
-        <v>8.7100000000000009</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="T74">
         <v>6.62</v>
@@ -15023,7 +14754,7 @@
         <v>27.14</v>
       </c>
       <c r="X74">
-        <v>91.43</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="Y74">
         <v>82.86</v>
@@ -15041,7 +14772,7 @@
         <v>6.49</v>
       </c>
       <c r="AD74">
-        <v>-4.3099999999999996</v>
+        <v>-4.31</v>
       </c>
       <c r="AE74">
         <v>-2.48</v>
@@ -15095,7 +14826,7 @@
         <v>6.67</v>
       </c>
       <c r="BI74">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BJ74">
         <v>26.67</v>
@@ -15119,7 +14850,7 @@
         <v>0.06</v>
       </c>
       <c r="BQ74">
-        <v>-9.0299999999999994</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="BR74">
         <v>1.36</v>
@@ -15146,9 +14877,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>151</v>
+    <row r="75" spans="1:77">
+      <c r="A75">
+        <v>20250120</v>
       </c>
       <c r="B75">
         <v>3617</v>
@@ -15208,7 +14939,7 @@
         <v>10.44</v>
       </c>
       <c r="U75">
-        <v>64.290000000000006</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="V75">
         <v>48.21</v>
@@ -15217,10 +14948,10 @@
         <v>35.71</v>
       </c>
       <c r="X75">
-        <v>91.07</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="Y75">
-        <v>83.93</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="Z75">
         <v>20</v>
@@ -15229,7 +14960,7 @@
         <v>2.67</v>
       </c>
       <c r="AB75">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC75">
         <v>6.3</v>
@@ -15241,7 +14972,7 @@
         <v>-2.52</v>
       </c>
       <c r="AF75">
-        <v>9.2899999999999991</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AG75">
         <v>6.65</v>
@@ -15274,13 +15005,13 @@
         <v>-3.03</v>
       </c>
       <c r="AQ75">
-        <v>-9.4600000000000009</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="AR75">
         <v>-1.85</v>
       </c>
       <c r="AS75">
-        <v>-5.0599999999999996</v>
+        <v>-5.06</v>
       </c>
       <c r="AT75">
         <v>-6.89</v>
@@ -15349,7 +15080,7 @@
         <v>-2.25</v>
       </c>
       <c r="BP75">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="BQ75">
         <v>-6.41</v>
@@ -15379,9 +15110,9 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>152</v>
+    <row r="76" spans="1:77">
+      <c r="A76">
+        <v>20250121</v>
       </c>
       <c r="B76">
         <v>1985</v>
@@ -15438,10 +15169,10 @@
         <v>9.44</v>
       </c>
       <c r="T76">
-        <v>8.4700000000000006</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="U76">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="V76">
         <v>51.43</v>
@@ -15468,7 +15199,7 @@
         <v>7.71</v>
       </c>
       <c r="AD76">
-        <v>-2.4900000000000002</v>
+        <v>-2.49</v>
       </c>
       <c r="AE76">
         <v>-1.97</v>
@@ -15594,7 +15325,7 @@
         <v>-9.31</v>
       </c>
       <c r="BT76">
-        <v>-9.39</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="BU76">
         <v>10.53</v>
@@ -15603,7 +15334,7 @@
         <v>5.26</v>
       </c>
       <c r="BW76">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="BX76">
         <v>0</v>
@@ -15612,9 +15343,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>153</v>
+    <row r="77" spans="1:77">
+      <c r="A77">
+        <v>20250122</v>
       </c>
       <c r="B77">
         <v>1032</v>
@@ -15704,7 +15435,7 @@
         <v>-2.75</v>
       </c>
       <c r="AE77">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="AF77">
         <v>6.64</v>
@@ -15740,7 +15471,7 @@
         <v>-3.43</v>
       </c>
       <c r="AQ77">
-        <v>-8.6199999999999992</v>
+        <v>-8.619999999999999</v>
       </c>
       <c r="AR77">
         <v>1.08</v>
@@ -15773,7 +15504,7 @@
         <v>-3.37</v>
       </c>
       <c r="BB77">
-        <v>-4.4400000000000004</v>
+        <v>-4.44</v>
       </c>
       <c r="BC77">
         <v>-0.49</v>
@@ -15821,7 +15552,7 @@
         <v>-8.83</v>
       </c>
       <c r="BR77">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="BS77">
         <v>-10.63</v>
@@ -15845,9 +15576,9 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>154</v>
+    <row r="78" spans="1:77">
+      <c r="A78">
+        <v>20250123</v>
       </c>
       <c r="B78">
         <v>2334</v>
@@ -15904,10 +15635,10 @@
         <v>12.92</v>
       </c>
       <c r="T78">
-        <v>8.86</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="U78">
-        <v>87.18</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="V78">
         <v>48.72</v>
@@ -15931,7 +15662,7 @@
         <v>-0.39</v>
       </c>
       <c r="AC78">
-        <v>9.4499999999999993</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AD78">
         <v>-6.07</v>
@@ -15958,7 +15689,7 @@
         <v>92.86</v>
       </c>
       <c r="AL78">
-        <v>64.290000000000006</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="AM78">
         <v>12</v>
@@ -15997,7 +15728,7 @@
         <v>8.33</v>
       </c>
       <c r="AY78">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="AZ78">
         <v>11</v>
@@ -16012,7 +15743,7 @@
         <v>1.89</v>
       </c>
       <c r="BD78">
-        <v>-4.8099999999999996</v>
+        <v>-4.81</v>
       </c>
       <c r="BE78">
         <v>-1.9</v>
@@ -16078,9 +15809,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>155</v>
+    <row r="79" spans="1:77">
+      <c r="A79">
+        <v>20250124</v>
       </c>
       <c r="B79">
         <v>3956</v>
@@ -16125,7 +15856,7 @@
         <v>1.59</v>
       </c>
       <c r="P79">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="Q79">
         <v>-2.87</v>
@@ -16173,7 +15904,7 @@
         <v>1.64</v>
       </c>
       <c r="AF79">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="AG79">
         <v>6.28</v>
@@ -16206,7 +15937,7 @@
         <v>-4.2</v>
       </c>
       <c r="AQ79">
-        <v>-9.0299999999999994</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="AR79">
         <v>1.02</v>
@@ -16236,7 +15967,7 @@
         <v>33</v>
       </c>
       <c r="BA79">
-        <v>-2.2599999999999998</v>
+        <v>-2.26</v>
       </c>
       <c r="BB79">
         <v>1.58</v>
@@ -16245,7 +15976,7 @@
         <v>3.56</v>
       </c>
       <c r="BD79">
-        <v>-4.2300000000000004</v>
+        <v>-4.23</v>
       </c>
       <c r="BE79">
         <v>3.89</v>
@@ -16263,7 +15994,7 @@
         <v>48.48</v>
       </c>
       <c r="BJ79">
-        <v>75.760000000000005</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="BK79">
         <v>57.58</v>
@@ -16287,7 +16018,7 @@
         <v>-8.93</v>
       </c>
       <c r="BR79">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="BS79">
         <v>-12.08</v>
@@ -16311,9 +16042,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>156</v>
+    <row r="80" spans="1:77">
+      <c r="A80">
+        <v>20250127</v>
       </c>
       <c r="B80">
         <v>1816</v>
@@ -16358,7 +16089,7 @@
         <v>-0.5</v>
       </c>
       <c r="P80">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="Q80">
         <v>-3.16</v>
@@ -16403,10 +16134,10 @@
         <v>-4.34</v>
       </c>
       <c r="AE80">
-        <v>-1.1100000000000001</v>
+        <v>-1.11</v>
       </c>
       <c r="AF80">
-        <v>8.2899999999999991</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AG80">
         <v>7.09</v>
@@ -16430,7 +16161,7 @@
         <v>15</v>
       </c>
       <c r="AN80">
-        <v>-4.5199999999999996</v>
+        <v>-4.52</v>
       </c>
       <c r="AO80">
         <v>-1.22</v>
@@ -16526,7 +16257,7 @@
         <v>-6.72</v>
       </c>
       <c r="BT80">
-        <v>-4.1900000000000004</v>
+        <v>-4.19</v>
       </c>
       <c r="BU80">
         <v>5.26</v>
@@ -16544,9 +16275,9 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="81" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>77</v>
+    <row r="81" spans="1:77">
+      <c r="A81">
+        <v>20250205</v>
       </c>
       <c r="B81">
         <v>3433</v>
@@ -16600,7 +16331,7 @@
         <v>0.27</v>
       </c>
       <c r="S81">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T81">
         <v>8.99</v>
@@ -16615,10 +16346,10 @@
         <v>38.46</v>
       </c>
       <c r="X81">
-        <v>89.74</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="Y81">
-        <v>87.18</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="Z81">
         <v>11</v>
@@ -16654,7 +16385,7 @@
         <v>45.45</v>
       </c>
       <c r="AK81">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AL81">
         <v>72.73</v>
@@ -16675,7 +16406,7 @@
         <v>-6.72</v>
       </c>
       <c r="AR81">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="AS81">
         <v>-3.63</v>
@@ -16693,7 +16424,7 @@
         <v>72.22</v>
       </c>
       <c r="AX81">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="AY81">
         <v>55.56</v>
@@ -16711,7 +16442,7 @@
         <v>1.68</v>
       </c>
       <c r="BD81">
-        <v>-4.3600000000000003</v>
+        <v>-4.36</v>
       </c>
       <c r="BE81">
         <v>-1.33</v>
@@ -16720,7 +16451,7 @@
         <v>0.19</v>
       </c>
       <c r="BG81">
-        <v>-1.1399999999999999</v>
+        <v>-1.14</v>
       </c>
       <c r="BH81">
         <v>38.1</v>
@@ -16777,9 +16508,9 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="82" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>157</v>
+    <row r="82" spans="1:77">
+      <c r="A82">
+        <v>20250206</v>
       </c>
       <c r="B82">
         <v>4801</v>
@@ -16818,7 +16549,7 @@
         <v>68</v>
       </c>
       <c r="N82">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="O82">
         <v>4.78</v>
@@ -16839,10 +16570,10 @@
         <v>10.67</v>
       </c>
       <c r="U82">
-        <v>67.650000000000006</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="V82">
-        <v>86.76</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="W82">
         <v>69.12</v>
@@ -16875,7 +16606,7 @@
         <v>7.46</v>
       </c>
       <c r="AG82">
-        <v>9.0500000000000007</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="AH82">
         <v>62.5</v>
@@ -16935,16 +16666,16 @@
         <v>20</v>
       </c>
       <c r="BA82">
-        <v>-1.1299999999999999</v>
+        <v>-1.13</v>
       </c>
       <c r="BB82">
         <v>3.66</v>
       </c>
       <c r="BC82">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="BD82">
-        <v>-2.5099999999999998</v>
+        <v>-2.51</v>
       </c>
       <c r="BE82">
         <v>4.87</v>
@@ -17010,11 +16741,201 @@
         <v>16.13</v>
       </c>
     </row>
+    <row r="83" spans="1:77">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83">
+        <v>4169</v>
+      </c>
+      <c r="C83">
+        <v>1088</v>
+      </c>
+      <c r="D83">
+        <v>128</v>
+      </c>
+      <c r="E83">
+        <v>338</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>186</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>73</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>30</v>
+      </c>
+      <c r="L83">
+        <v>44</v>
+      </c>
+      <c r="M83">
+        <v>79</v>
+      </c>
+      <c r="N83">
+        <v>3.63</v>
+      </c>
+      <c r="O83">
+        <v>4.84</v>
+      </c>
+      <c r="P83">
+        <v>7.45</v>
+      </c>
+      <c r="Q83">
+        <v>0.76</v>
+      </c>
+      <c r="R83">
+        <v>1.22</v>
+      </c>
+      <c r="S83">
+        <v>13.56</v>
+      </c>
+      <c r="T83">
+        <v>14.88</v>
+      </c>
+      <c r="U83">
+        <v>77.22</v>
+      </c>
+      <c r="V83">
+        <v>84.81</v>
+      </c>
+      <c r="W83">
+        <v>58.23</v>
+      </c>
+      <c r="X83">
+        <v>98.73</v>
+      </c>
+      <c r="Y83">
+        <v>100</v>
+      </c>
+      <c r="Z83">
+        <v>20</v>
+      </c>
+      <c r="AA83">
+        <v>6</v>
+      </c>
+      <c r="AB83">
+        <v>7.98</v>
+      </c>
+      <c r="AC83">
+        <v>9.74</v>
+      </c>
+      <c r="AD83">
+        <v>2.42</v>
+      </c>
+      <c r="AE83">
+        <v>1.98</v>
+      </c>
+      <c r="AF83">
+        <v>11.09</v>
+      </c>
+      <c r="AG83">
+        <v>13.16</v>
+      </c>
+      <c r="AH83">
+        <v>80</v>
+      </c>
+      <c r="AI83">
+        <v>90</v>
+      </c>
+      <c r="AJ83">
+        <v>45</v>
+      </c>
+      <c r="AK83">
+        <v>100</v>
+      </c>
+      <c r="AL83">
+        <v>100</v>
+      </c>
+      <c r="AM83">
+        <v>6</v>
+      </c>
+      <c r="AN83">
+        <v>-3.54</v>
+      </c>
+      <c r="AO83">
+        <v>-0.09</v>
+      </c>
+      <c r="AP83">
+        <v>3.48</v>
+      </c>
+      <c r="AQ83">
+        <v>-4.94</v>
+      </c>
+      <c r="AR83">
+        <v>3.63</v>
+      </c>
+      <c r="AS83">
+        <v>2.38</v>
+      </c>
+      <c r="AT83">
+        <v>6.08</v>
+      </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+      <c r="AV83">
+        <v>16.67</v>
+      </c>
+      <c r="AW83">
+        <v>83.33</v>
+      </c>
+      <c r="AX83">
+        <v>66.67</v>
+      </c>
+      <c r="AY83">
+        <v>100</v>
+      </c>
+      <c r="AZ83">
+        <v>22</v>
+      </c>
+      <c r="BA83">
+        <v>-1.57</v>
+      </c>
+      <c r="BB83">
+        <v>1.81</v>
+      </c>
+      <c r="BC83">
+        <v>4.45</v>
+      </c>
+      <c r="BD83">
+        <v>-3.28</v>
+      </c>
+      <c r="BE83">
+        <v>3.5</v>
+      </c>
+      <c r="BF83">
+        <v>6.19</v>
+      </c>
+      <c r="BG83">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="BH83">
+        <v>22.73</v>
+      </c>
+      <c r="BI83">
+        <v>59.09</v>
+      </c>
+      <c r="BJ83">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="BK83">
+        <v>77.27</v>
+      </c>
+      <c r="BL83">
+        <v>95.45</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BY82">
-    <sortCondition ref="A49:A82"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -247,7 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250207</t>
+    <t>20250210</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY83"/>
+  <dimension ref="A1:BY84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16742,8 +16742,8 @@
       </c>
     </row>
     <row r="83" spans="1:77">
-      <c r="A83" t="s">
-        <v>77</v>
+      <c r="A83">
+        <v>20250207</v>
       </c>
       <c r="B83">
         <v>4169</v>
@@ -16933,6 +16933,200 @@
       </c>
       <c r="BL83">
         <v>95.45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:77">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84">
+        <v>4146</v>
+      </c>
+      <c r="C84">
+        <v>1110</v>
+      </c>
+      <c r="D84">
+        <v>130</v>
+      </c>
+      <c r="E84">
+        <v>543</v>
+      </c>
+      <c r="F84">
+        <v>18</v>
+      </c>
+      <c r="G84">
+        <v>299</v>
+      </c>
+      <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>106</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>29</v>
+      </c>
+      <c r="L84">
+        <v>11</v>
+      </c>
+      <c r="M84">
+        <v>73</v>
+      </c>
+      <c r="N84">
+        <v>3.09</v>
+      </c>
+      <c r="O84">
+        <v>4.04</v>
+      </c>
+      <c r="P84">
+        <v>6.7</v>
+      </c>
+      <c r="Q84">
+        <v>-0.16</v>
+      </c>
+      <c r="R84">
+        <v>0.92</v>
+      </c>
+      <c r="S84">
+        <v>11.24</v>
+      </c>
+      <c r="T84">
+        <v>12.25</v>
+      </c>
+      <c r="U84">
+        <v>69.86</v>
+      </c>
+      <c r="V84">
+        <v>67.12</v>
+      </c>
+      <c r="W84">
+        <v>47.95</v>
+      </c>
+      <c r="X84">
+        <v>94.52</v>
+      </c>
+      <c r="Y84">
+        <v>94.52</v>
+      </c>
+      <c r="Z84">
+        <v>30</v>
+      </c>
+      <c r="AA84">
+        <v>3.93</v>
+      </c>
+      <c r="AB84">
+        <v>4.38</v>
+      </c>
+      <c r="AC84">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AD84">
+        <v>0.29</v>
+      </c>
+      <c r="AE84">
+        <v>0.43</v>
+      </c>
+      <c r="AF84">
+        <v>9.33</v>
+      </c>
+      <c r="AG84">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AH84">
+        <v>73.33</v>
+      </c>
+      <c r="AI84">
+        <v>66.67</v>
+      </c>
+      <c r="AJ84">
+        <v>36.67</v>
+      </c>
+      <c r="AK84">
+        <v>90</v>
+      </c>
+      <c r="AL84">
+        <v>86.67</v>
+      </c>
+      <c r="AZ84">
+        <v>44</v>
+      </c>
+      <c r="BA84">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="BB84">
+        <v>1.91</v>
+      </c>
+      <c r="BC84">
+        <v>3.79</v>
+      </c>
+      <c r="BD84">
+        <v>-2.62</v>
+      </c>
+      <c r="BE84">
+        <v>2.52</v>
+      </c>
+      <c r="BF84">
+        <v>5.43</v>
+      </c>
+      <c r="BG84">
+        <v>8.08</v>
+      </c>
+      <c r="BH84">
+        <v>38.64</v>
+      </c>
+      <c r="BI84">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="BJ84">
+        <v>79.55</v>
+      </c>
+      <c r="BK84">
+        <v>86.36</v>
+      </c>
+      <c r="BL84">
+        <v>90.91</v>
+      </c>
+      <c r="BM84">
+        <v>1</v>
+      </c>
+      <c r="BN84">
+        <v>-4.67</v>
+      </c>
+      <c r="BO84">
+        <v>-7.95</v>
+      </c>
+      <c r="BP84">
+        <v>-3.91</v>
+      </c>
+      <c r="BQ84">
+        <v>-9.41</v>
+      </c>
+      <c r="BR84">
+        <v>-3.44</v>
+      </c>
+      <c r="BS84">
+        <v>-8.48</v>
+      </c>
+      <c r="BT84">
+        <v>-11.64</v>
+      </c>
+      <c r="BU84">
+        <v>0</v>
+      </c>
+      <c r="BV84">
+        <v>0</v>
+      </c>
+      <c r="BW84">
+        <v>0</v>
+      </c>
+      <c r="BX84">
+        <v>0</v>
+      </c>
+      <c r="BY84">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>日期</t>
   </si>
@@ -247,7 +247,10 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250210</t>
+    <t>20250211</t>
+  </si>
+  <si>
+    <t>20250212</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY84"/>
+  <dimension ref="A1:BY86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16936,8 +16939,8 @@
       </c>
     </row>
     <row r="84" spans="1:77">
-      <c r="A84" t="s">
-        <v>77</v>
+      <c r="A84">
+        <v>20250210</v>
       </c>
       <c r="B84">
         <v>4146</v>
@@ -17127,6 +17130,394 @@
       </c>
       <c r="BY84">
         <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:77">
+      <c r="A85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85">
+        <v>1834</v>
+      </c>
+      <c r="C85">
+        <v>3418</v>
+      </c>
+      <c r="D85">
+        <v>133</v>
+      </c>
+      <c r="E85">
+        <v>223</v>
+      </c>
+      <c r="F85">
+        <v>65</v>
+      </c>
+      <c r="G85">
+        <v>136</v>
+      </c>
+      <c r="H85">
+        <v>20</v>
+      </c>
+      <c r="I85">
+        <v>64</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>26</v>
+      </c>
+      <c r="L85">
+        <v>27</v>
+      </c>
+      <c r="M85">
+        <v>106</v>
+      </c>
+      <c r="N85">
+        <v>2.43</v>
+      </c>
+      <c r="O85">
+        <v>1.48</v>
+      </c>
+      <c r="P85">
+        <v>6.14</v>
+      </c>
+      <c r="Q85">
+        <v>-1.16</v>
+      </c>
+      <c r="R85">
+        <v>-0.92</v>
+      </c>
+      <c r="S85">
+        <v>10.31</v>
+      </c>
+      <c r="T85">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="U85">
+        <v>66.04000000000001</v>
+      </c>
+      <c r="V85">
+        <v>46.23</v>
+      </c>
+      <c r="W85">
+        <v>22.64</v>
+      </c>
+      <c r="X85">
+        <v>99.06</v>
+      </c>
+      <c r="Y85">
+        <v>95.28</v>
+      </c>
+      <c r="Z85">
+        <v>29</v>
+      </c>
+      <c r="AA85">
+        <v>4.51</v>
+      </c>
+      <c r="AB85">
+        <v>4</v>
+      </c>
+      <c r="AC85">
+        <v>8.31</v>
+      </c>
+      <c r="AD85">
+        <v>0.75</v>
+      </c>
+      <c r="AE85">
+        <v>-0.5</v>
+      </c>
+      <c r="AF85">
+        <v>9.07</v>
+      </c>
+      <c r="AG85">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="AH85">
+        <v>79.31</v>
+      </c>
+      <c r="AI85">
+        <v>58.62</v>
+      </c>
+      <c r="AJ85">
+        <v>20.69</v>
+      </c>
+      <c r="AK85">
+        <v>100</v>
+      </c>
+      <c r="AL85">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
+        <v>-7.41</v>
+      </c>
+      <c r="AO85">
+        <v>-7.41</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>-11.11</v>
+      </c>
+      <c r="AR85">
+        <v>0</v>
+      </c>
+      <c r="AS85">
+        <v>-7.41</v>
+      </c>
+      <c r="AT85">
+        <v>-7.41</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <v>0</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
+      <c r="AZ85">
+        <v>11</v>
+      </c>
+      <c r="BA85">
+        <v>-1.83</v>
+      </c>
+      <c r="BB85">
+        <v>-2.75</v>
+      </c>
+      <c r="BC85">
+        <v>0.46</v>
+      </c>
+      <c r="BD85">
+        <v>-4.17</v>
+      </c>
+      <c r="BE85">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="BF85">
+        <v>2.02</v>
+      </c>
+      <c r="BG85">
+        <v>1.06</v>
+      </c>
+      <c r="BH85">
+        <v>0</v>
+      </c>
+      <c r="BI85">
+        <v>9.09</v>
+      </c>
+      <c r="BJ85">
+        <v>18.18</v>
+      </c>
+      <c r="BK85">
+        <v>72.73</v>
+      </c>
+      <c r="BL85">
+        <v>63.64</v>
+      </c>
+      <c r="BM85">
+        <v>1</v>
+      </c>
+      <c r="BN85">
+        <v>-7.41</v>
+      </c>
+      <c r="BO85">
+        <v>-7.41</v>
+      </c>
+      <c r="BP85">
+        <v>0</v>
+      </c>
+      <c r="BQ85">
+        <v>-11.11</v>
+      </c>
+      <c r="BR85">
+        <v>0</v>
+      </c>
+      <c r="BS85">
+        <v>-7.41</v>
+      </c>
+      <c r="BT85">
+        <v>-7.41</v>
+      </c>
+      <c r="BU85">
+        <v>0</v>
+      </c>
+      <c r="BV85">
+        <v>0</v>
+      </c>
+      <c r="BW85">
+        <v>0</v>
+      </c>
+      <c r="BX85">
+        <v>0</v>
+      </c>
+      <c r="BY85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:77">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86">
+        <v>3560</v>
+      </c>
+      <c r="C86">
+        <v>1568</v>
+      </c>
+      <c r="D86">
+        <v>257</v>
+      </c>
+      <c r="E86">
+        <v>333</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86">
+        <v>174</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>76</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>26</v>
+      </c>
+      <c r="L86">
+        <v>22</v>
+      </c>
+      <c r="M86">
+        <v>64</v>
+      </c>
+      <c r="N86">
+        <v>2.09</v>
+      </c>
+      <c r="O86">
+        <v>2.53</v>
+      </c>
+      <c r="P86">
+        <v>6.34</v>
+      </c>
+      <c r="Q86">
+        <v>-1.97</v>
+      </c>
+      <c r="R86">
+        <v>0.49</v>
+      </c>
+      <c r="S86">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="T86">
+        <v>10</v>
+      </c>
+      <c r="U86">
+        <v>56.25</v>
+      </c>
+      <c r="V86">
+        <v>53.12</v>
+      </c>
+      <c r="W86">
+        <v>43.75</v>
+      </c>
+      <c r="X86">
+        <v>92.19</v>
+      </c>
+      <c r="Y86">
+        <v>89.06</v>
+      </c>
+      <c r="Z86">
+        <v>26</v>
+      </c>
+      <c r="AA86">
+        <v>3.19</v>
+      </c>
+      <c r="AB86">
+        <v>4.27</v>
+      </c>
+      <c r="AC86">
+        <v>7.25</v>
+      </c>
+      <c r="AD86">
+        <v>-0.99</v>
+      </c>
+      <c r="AE86">
+        <v>1.07</v>
+      </c>
+      <c r="AF86">
+        <v>8.15</v>
+      </c>
+      <c r="AG86">
+        <v>9.34</v>
+      </c>
+      <c r="AH86">
+        <v>65.38</v>
+      </c>
+      <c r="AI86">
+        <v>61.54</v>
+      </c>
+      <c r="AJ86">
+        <v>46.15</v>
+      </c>
+      <c r="AK86">
+        <v>80.77</v>
+      </c>
+      <c r="AL86">
+        <v>80.77</v>
+      </c>
+      <c r="AZ86">
+        <v>27</v>
+      </c>
+      <c r="BA86">
+        <v>-1.47</v>
+      </c>
+      <c r="BB86">
+        <v>0.51</v>
+      </c>
+      <c r="BC86">
+        <v>3.37</v>
+      </c>
+      <c r="BD86">
+        <v>-3.11</v>
+      </c>
+      <c r="BE86">
+        <v>2.02</v>
+      </c>
+      <c r="BF86">
+        <v>4.9</v>
+      </c>
+      <c r="BG86">
+        <v>7.03</v>
+      </c>
+      <c r="BH86">
+        <v>11.11</v>
+      </c>
+      <c r="BI86">
+        <v>48.15</v>
+      </c>
+      <c r="BJ86">
+        <v>74.06999999999999</v>
+      </c>
+      <c r="BK86">
+        <v>88.89</v>
+      </c>
+      <c r="BL86">
+        <v>85.19</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>日期</t>
   </si>
@@ -247,10 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250211</t>
-  </si>
-  <si>
-    <t>20250212</t>
+    <t>20250213</t>
   </si>
 </sst>
 </file>
@@ -608,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY86"/>
+  <dimension ref="A1:BY87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17133,8 +17130,8 @@
       </c>
     </row>
     <row r="85" spans="1:77">
-      <c r="A85" t="s">
-        <v>77</v>
+      <c r="A85">
+        <v>20250211</v>
       </c>
       <c r="B85">
         <v>1834</v>
@@ -17366,8 +17363,8 @@
       </c>
     </row>
     <row r="86" spans="1:77">
-      <c r="A86" t="s">
-        <v>78</v>
+      <c r="A86">
+        <v>20250212</v>
       </c>
       <c r="B86">
         <v>3560</v>
@@ -17518,6 +17515,161 @@
       </c>
       <c r="BL86">
         <v>85.19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:77">
+      <c r="A87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87">
+        <v>1151</v>
+      </c>
+      <c r="C87">
+        <v>4112</v>
+      </c>
+      <c r="D87">
+        <v>123</v>
+      </c>
+      <c r="E87">
+        <v>152</v>
+      </c>
+      <c r="F87">
+        <v>239</v>
+      </c>
+      <c r="G87">
+        <v>94</v>
+      </c>
+      <c r="H87">
+        <v>55</v>
+      </c>
+      <c r="I87">
+        <v>62</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>22</v>
+      </c>
+      <c r="L87">
+        <v>29</v>
+      </c>
+      <c r="M87">
+        <v>76</v>
+      </c>
+      <c r="N87">
+        <v>3.42</v>
+      </c>
+      <c r="O87">
+        <v>2.57</v>
+      </c>
+      <c r="P87">
+        <v>7.39</v>
+      </c>
+      <c r="Q87">
+        <v>-1.62</v>
+      </c>
+      <c r="R87">
+        <v>-0.79</v>
+      </c>
+      <c r="S87">
+        <v>12.32</v>
+      </c>
+      <c r="T87">
+        <v>11.48</v>
+      </c>
+      <c r="U87">
+        <v>81.58</v>
+      </c>
+      <c r="V87">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="W87">
+        <v>36.84</v>
+      </c>
+      <c r="X87">
+        <v>100</v>
+      </c>
+      <c r="Y87">
+        <v>97.37</v>
+      </c>
+      <c r="Z87">
+        <v>26</v>
+      </c>
+      <c r="AA87">
+        <v>4.76</v>
+      </c>
+      <c r="AB87">
+        <v>3.35</v>
+      </c>
+      <c r="AC87">
+        <v>8.74</v>
+      </c>
+      <c r="AD87">
+        <v>-2.32</v>
+      </c>
+      <c r="AE87">
+        <v>-1.29</v>
+      </c>
+      <c r="AF87">
+        <v>11.56</v>
+      </c>
+      <c r="AG87">
+        <v>10.15</v>
+      </c>
+      <c r="AH87">
+        <v>80.77</v>
+      </c>
+      <c r="AI87">
+        <v>73.08</v>
+      </c>
+      <c r="AJ87">
+        <v>26.92</v>
+      </c>
+      <c r="AK87">
+        <v>100</v>
+      </c>
+      <c r="AL87">
+        <v>92.31</v>
+      </c>
+      <c r="AZ87">
+        <v>18</v>
+      </c>
+      <c r="BA87">
+        <v>-1.88</v>
+      </c>
+      <c r="BB87">
+        <v>-0.43</v>
+      </c>
+      <c r="BC87">
+        <v>2.76</v>
+      </c>
+      <c r="BD87">
+        <v>-4.56</v>
+      </c>
+      <c r="BE87">
+        <v>1.48</v>
+      </c>
+      <c r="BF87">
+        <v>1.36</v>
+      </c>
+      <c r="BG87">
+        <v>2.81</v>
+      </c>
+      <c r="BH87">
+        <v>5.56</v>
+      </c>
+      <c r="BI87">
+        <v>33.33</v>
+      </c>
+      <c r="BJ87">
+        <v>33.33</v>
+      </c>
+      <c r="BK87">
+        <v>72.22</v>
+      </c>
+      <c r="BL87">
+        <v>61.11</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>日期</t>
   </si>
@@ -247,7 +247,10 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250213</t>
+    <t>20250214</t>
+  </si>
+  <si>
+    <t>20250217</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY87"/>
+  <dimension ref="A1:BY89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17518,8 +17521,8 @@
       </c>
     </row>
     <row r="87" spans="1:77">
-      <c r="A87" t="s">
-        <v>77</v>
+      <c r="A87">
+        <v>20250213</v>
       </c>
       <c r="B87">
         <v>1151</v>
@@ -17670,6 +17673,433 @@
       </c>
       <c r="BL87">
         <v>61.11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:77">
+      <c r="A88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88">
+        <v>2400</v>
+      </c>
+      <c r="C88">
+        <v>2799</v>
+      </c>
+      <c r="D88">
+        <v>186</v>
+      </c>
+      <c r="E88">
+        <v>299</v>
+      </c>
+      <c r="F88">
+        <v>92</v>
+      </c>
+      <c r="G88">
+        <v>180</v>
+      </c>
+      <c r="H88">
+        <v>23</v>
+      </c>
+      <c r="I88">
+        <v>71</v>
+      </c>
+      <c r="J88">
+        <v>6</v>
+      </c>
+      <c r="K88">
+        <v>22</v>
+      </c>
+      <c r="L88">
+        <v>22</v>
+      </c>
+      <c r="M88">
+        <v>62</v>
+      </c>
+      <c r="N88">
+        <v>1.72</v>
+      </c>
+      <c r="O88">
+        <v>1.77</v>
+      </c>
+      <c r="P88">
+        <v>6.99</v>
+      </c>
+      <c r="Q88">
+        <v>-2.91</v>
+      </c>
+      <c r="R88">
+        <v>0.06</v>
+      </c>
+      <c r="S88">
+        <v>10.78</v>
+      </c>
+      <c r="T88">
+        <v>10.88</v>
+      </c>
+      <c r="U88">
+        <v>58.06</v>
+      </c>
+      <c r="V88">
+        <v>46.77</v>
+      </c>
+      <c r="W88">
+        <v>43.55</v>
+      </c>
+      <c r="X88">
+        <v>91.94</v>
+      </c>
+      <c r="Y88">
+        <v>91.94</v>
+      </c>
+      <c r="Z88">
+        <v>22</v>
+      </c>
+      <c r="AA88">
+        <v>2.4</v>
+      </c>
+      <c r="AB88">
+        <v>2.88</v>
+      </c>
+      <c r="AC88">
+        <v>7.92</v>
+      </c>
+      <c r="AD88">
+        <v>-2.91</v>
+      </c>
+      <c r="AE88">
+        <v>0.46</v>
+      </c>
+      <c r="AF88">
+        <v>7.91</v>
+      </c>
+      <c r="AG88">
+        <v>8.44</v>
+      </c>
+      <c r="AH88">
+        <v>59.09</v>
+      </c>
+      <c r="AI88">
+        <v>54.55</v>
+      </c>
+      <c r="AJ88">
+        <v>50</v>
+      </c>
+      <c r="AK88">
+        <v>77.27</v>
+      </c>
+      <c r="AL88">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="AZ88">
+        <v>29</v>
+      </c>
+      <c r="BA88">
+        <v>-2.17</v>
+      </c>
+      <c r="BB88">
+        <v>-0</v>
+      </c>
+      <c r="BC88">
+        <v>3.63</v>
+      </c>
+      <c r="BD88">
+        <v>-5.57</v>
+      </c>
+      <c r="BE88">
+        <v>2.24</v>
+      </c>
+      <c r="BF88">
+        <v>0.05</v>
+      </c>
+      <c r="BG88">
+        <v>2.24</v>
+      </c>
+      <c r="BH88">
+        <v>13.79</v>
+      </c>
+      <c r="BI88">
+        <v>41.38</v>
+      </c>
+      <c r="BJ88">
+        <v>48.28</v>
+      </c>
+      <c r="BK88">
+        <v>62.07</v>
+      </c>
+      <c r="BL88">
+        <v>62.07</v>
+      </c>
+      <c r="BM88">
+        <v>2</v>
+      </c>
+      <c r="BN88">
+        <v>-0.58</v>
+      </c>
+      <c r="BO88">
+        <v>-2.8</v>
+      </c>
+      <c r="BP88">
+        <v>1.53</v>
+      </c>
+      <c r="BQ88">
+        <v>-4.71</v>
+      </c>
+      <c r="BR88">
+        <v>-2.16</v>
+      </c>
+      <c r="BS88">
+        <v>-7.52</v>
+      </c>
+      <c r="BT88">
+        <v>-9.6</v>
+      </c>
+      <c r="BU88">
+        <v>50</v>
+      </c>
+      <c r="BV88">
+        <v>0</v>
+      </c>
+      <c r="BW88">
+        <v>50</v>
+      </c>
+      <c r="BX88">
+        <v>0</v>
+      </c>
+      <c r="BY88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:77">
+      <c r="A89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89">
+        <v>3675</v>
+      </c>
+      <c r="C89">
+        <v>1604</v>
+      </c>
+      <c r="D89">
+        <v>110</v>
+      </c>
+      <c r="E89">
+        <v>446</v>
+      </c>
+      <c r="F89">
+        <v>61</v>
+      </c>
+      <c r="G89">
+        <v>238</v>
+      </c>
+      <c r="H89">
+        <v>29</v>
+      </c>
+      <c r="I89">
+        <v>97</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <v>28</v>
+      </c>
+      <c r="L89">
+        <v>49</v>
+      </c>
+      <c r="M89">
+        <v>71</v>
+      </c>
+      <c r="N89">
+        <v>5.18</v>
+      </c>
+      <c r="O89">
+        <v>3.82</v>
+      </c>
+      <c r="P89">
+        <v>9.66</v>
+      </c>
+      <c r="Q89">
+        <v>-0.53</v>
+      </c>
+      <c r="R89">
+        <v>-1.14</v>
+      </c>
+      <c r="S89">
+        <v>15.83</v>
+      </c>
+      <c r="T89">
+        <v>14.45</v>
+      </c>
+      <c r="U89">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="V89">
+        <v>67.61</v>
+      </c>
+      <c r="W89">
+        <v>29.58</v>
+      </c>
+      <c r="X89">
+        <v>98.59</v>
+      </c>
+      <c r="Y89">
+        <v>94.37</v>
+      </c>
+      <c r="Z89">
+        <v>22</v>
+      </c>
+      <c r="AA89">
+        <v>5.09</v>
+      </c>
+      <c r="AB89">
+        <v>1.37</v>
+      </c>
+      <c r="AC89">
+        <v>9.6</v>
+      </c>
+      <c r="AD89">
+        <v>-3.38</v>
+      </c>
+      <c r="AE89">
+        <v>-3.18</v>
+      </c>
+      <c r="AF89">
+        <v>13.88</v>
+      </c>
+      <c r="AG89">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="AH89">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AI89">
+        <v>59.09</v>
+      </c>
+      <c r="AJ89">
+        <v>31.82</v>
+      </c>
+      <c r="AK89">
+        <v>95.45</v>
+      </c>
+      <c r="AL89">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="AM89">
+        <v>3</v>
+      </c>
+      <c r="AN89">
+        <v>-7</v>
+      </c>
+      <c r="AO89">
+        <v>-0.85</v>
+      </c>
+      <c r="AP89">
+        <v>5.39</v>
+      </c>
+      <c r="AQ89">
+        <v>-9.5</v>
+      </c>
+      <c r="AR89">
+        <v>6.95</v>
+      </c>
+      <c r="AS89">
+        <v>-7</v>
+      </c>
+      <c r="AT89">
+        <v>-0.85</v>
+      </c>
+      <c r="AU89">
+        <v>0</v>
+      </c>
+      <c r="AV89">
+        <v>66.67</v>
+      </c>
+      <c r="AW89">
+        <v>66.67</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>66.67</v>
+      </c>
+      <c r="AZ89">
+        <v>22</v>
+      </c>
+      <c r="BA89">
+        <v>-0.2</v>
+      </c>
+      <c r="BB89">
+        <v>0.98</v>
+      </c>
+      <c r="BC89">
+        <v>6.15</v>
+      </c>
+      <c r="BD89">
+        <v>-3.25</v>
+      </c>
+      <c r="BE89">
+        <v>1.17</v>
+      </c>
+      <c r="BF89">
+        <v>6.13</v>
+      </c>
+      <c r="BG89">
+        <v>7.34</v>
+      </c>
+      <c r="BH89">
+        <v>36.36</v>
+      </c>
+      <c r="BI89">
+        <v>54.55</v>
+      </c>
+      <c r="BJ89">
+        <v>45.45</v>
+      </c>
+      <c r="BK89">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="BL89">
+        <v>77.27</v>
+      </c>
+      <c r="BM89">
+        <v>6</v>
+      </c>
+      <c r="BN89">
+        <v>-4.29</v>
+      </c>
+      <c r="BO89">
+        <v>-0.39</v>
+      </c>
+      <c r="BP89">
+        <v>5.42</v>
+      </c>
+      <c r="BQ89">
+        <v>-8.08</v>
+      </c>
+      <c r="BR89">
+        <v>4.51</v>
+      </c>
+      <c r="BS89">
+        <v>-7.31</v>
+      </c>
+      <c r="BT89">
+        <v>-3.15</v>
+      </c>
+      <c r="BU89">
+        <v>16.67</v>
+      </c>
+      <c r="BV89">
+        <v>50</v>
+      </c>
+      <c r="BW89">
+        <v>66.67</v>
+      </c>
+      <c r="BX89">
+        <v>0</v>
+      </c>
+      <c r="BY89">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>日期</t>
   </si>
@@ -247,10 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250214</t>
-  </si>
-  <si>
-    <t>20250217</t>
+    <t>20250218</t>
   </si>
 </sst>
 </file>
@@ -608,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY89"/>
+  <dimension ref="A1:BY90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17676,8 +17673,8 @@
       </c>
     </row>
     <row r="88" spans="1:77">
-      <c r="A88" t="s">
-        <v>77</v>
+      <c r="A88">
+        <v>20250214</v>
       </c>
       <c r="B88">
         <v>2400</v>
@@ -17797,7 +17794,7 @@
         <v>-2.17</v>
       </c>
       <c r="BB88">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC88">
         <v>3.63</v>
@@ -17870,8 +17867,8 @@
       </c>
     </row>
     <row r="89" spans="1:77">
-      <c r="A89" t="s">
-        <v>78</v>
+      <c r="A89">
+        <v>20250217</v>
       </c>
       <c r="B89">
         <v>3675</v>
@@ -18100,6 +18097,239 @@
       </c>
       <c r="BY89">
         <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:77">
+      <c r="A90" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90">
+        <v>731</v>
+      </c>
+      <c r="C90">
+        <v>4626</v>
+      </c>
+      <c r="D90">
+        <v>31</v>
+      </c>
+      <c r="E90">
+        <v>110</v>
+      </c>
+      <c r="F90">
+        <v>695</v>
+      </c>
+      <c r="G90">
+        <v>71</v>
+      </c>
+      <c r="H90">
+        <v>228</v>
+      </c>
+      <c r="I90">
+        <v>45</v>
+      </c>
+      <c r="J90">
+        <v>15</v>
+      </c>
+      <c r="K90">
+        <v>20</v>
+      </c>
+      <c r="L90">
+        <v>24</v>
+      </c>
+      <c r="M90">
+        <v>97</v>
+      </c>
+      <c r="N90">
+        <v>2.36</v>
+      </c>
+      <c r="O90">
+        <v>0.6</v>
+      </c>
+      <c r="P90">
+        <v>6.52</v>
+      </c>
+      <c r="Q90">
+        <v>-2.72</v>
+      </c>
+      <c r="R90">
+        <v>-1.63</v>
+      </c>
+      <c r="S90">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="T90">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="U90">
+        <v>65.98</v>
+      </c>
+      <c r="V90">
+        <v>48.45</v>
+      </c>
+      <c r="W90">
+        <v>30.93</v>
+      </c>
+      <c r="X90">
+        <v>92.78</v>
+      </c>
+      <c r="Y90">
+        <v>82.47</v>
+      </c>
+      <c r="Z90">
+        <v>28</v>
+      </c>
+      <c r="AA90">
+        <v>0.7</v>
+      </c>
+      <c r="AB90">
+        <v>0.13</v>
+      </c>
+      <c r="AC90">
+        <v>6.43</v>
+      </c>
+      <c r="AD90">
+        <v>-5.45</v>
+      </c>
+      <c r="AE90">
+        <v>-0.46</v>
+      </c>
+      <c r="AF90">
+        <v>6.72</v>
+      </c>
+      <c r="AG90">
+        <v>6.3</v>
+      </c>
+      <c r="AH90">
+        <v>46.43</v>
+      </c>
+      <c r="AI90">
+        <v>53.57</v>
+      </c>
+      <c r="AJ90">
+        <v>42.86</v>
+      </c>
+      <c r="AK90">
+        <v>82.14</v>
+      </c>
+      <c r="AL90">
+        <v>60.71</v>
+      </c>
+      <c r="AM90">
+        <v>3</v>
+      </c>
+      <c r="AN90">
+        <v>-2.03</v>
+      </c>
+      <c r="AO90">
+        <v>-0.91</v>
+      </c>
+      <c r="AP90">
+        <v>2.44</v>
+      </c>
+      <c r="AQ90">
+        <v>-5.18</v>
+      </c>
+      <c r="AR90">
+        <v>1.06</v>
+      </c>
+      <c r="AS90">
+        <v>3.97</v>
+      </c>
+      <c r="AT90">
+        <v>5.01</v>
+      </c>
+      <c r="AU90">
+        <v>0</v>
+      </c>
+      <c r="AV90">
+        <v>33.33</v>
+      </c>
+      <c r="AW90">
+        <v>33.33</v>
+      </c>
+      <c r="AX90">
+        <v>100</v>
+      </c>
+      <c r="AY90">
+        <v>66.67</v>
+      </c>
+      <c r="AZ90">
+        <v>47</v>
+      </c>
+      <c r="BA90">
+        <v>-2.02</v>
+      </c>
+      <c r="BB90">
+        <v>-3.98</v>
+      </c>
+      <c r="BC90">
+        <v>1.22</v>
+      </c>
+      <c r="BD90">
+        <v>-5.98</v>
+      </c>
+      <c r="BE90">
+        <v>-2</v>
+      </c>
+      <c r="BF90">
+        <v>0.61</v>
+      </c>
+      <c r="BG90">
+        <v>-1.47</v>
+      </c>
+      <c r="BH90">
+        <v>12.77</v>
+      </c>
+      <c r="BI90">
+        <v>23.4</v>
+      </c>
+      <c r="BJ90">
+        <v>19.15</v>
+      </c>
+      <c r="BK90">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="BL90">
+        <v>44.68</v>
+      </c>
+      <c r="BM90">
+        <v>5</v>
+      </c>
+      <c r="BN90">
+        <v>-5.84</v>
+      </c>
+      <c r="BO90">
+        <v>-7.96</v>
+      </c>
+      <c r="BP90">
+        <v>-3.43</v>
+      </c>
+      <c r="BQ90">
+        <v>-8.27</v>
+      </c>
+      <c r="BR90">
+        <v>-2.2</v>
+      </c>
+      <c r="BS90">
+        <v>-13.5</v>
+      </c>
+      <c r="BT90">
+        <v>-15.52</v>
+      </c>
+      <c r="BU90">
+        <v>0</v>
+      </c>
+      <c r="BV90">
+        <v>0</v>
+      </c>
+      <c r="BW90">
+        <v>0</v>
+      </c>
+      <c r="BX90">
+        <v>0</v>
+      </c>
+      <c r="BY90">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -247,7 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250218</t>
+    <t>20250219</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY90"/>
+  <dimension ref="A1:BY91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18100,8 +18100,8 @@
       </c>
     </row>
     <row r="90" spans="1:77">
-      <c r="A90" t="s">
-        <v>77</v>
+      <c r="A90">
+        <v>20250218</v>
       </c>
       <c r="B90">
         <v>731</v>
@@ -18330,6 +18330,239 @@
       </c>
       <c r="BY90">
         <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:77">
+      <c r="A91" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91">
+        <v>4645</v>
+      </c>
+      <c r="C91">
+        <v>591</v>
+      </c>
+      <c r="D91">
+        <v>152</v>
+      </c>
+      <c r="E91">
+        <v>594</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>318</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>104</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>25</v>
+      </c>
+      <c r="L91">
+        <v>10</v>
+      </c>
+      <c r="M91">
+        <v>45</v>
+      </c>
+      <c r="N91">
+        <v>1.85</v>
+      </c>
+      <c r="O91">
+        <v>3.63</v>
+      </c>
+      <c r="P91">
+        <v>7.04</v>
+      </c>
+      <c r="Q91">
+        <v>-1.76</v>
+      </c>
+      <c r="R91">
+        <v>1.82</v>
+      </c>
+      <c r="S91">
+        <v>10.77</v>
+      </c>
+      <c r="T91">
+        <v>12.76</v>
+      </c>
+      <c r="U91">
+        <v>62.22</v>
+      </c>
+      <c r="V91">
+        <v>75.56</v>
+      </c>
+      <c r="W91">
+        <v>62.22</v>
+      </c>
+      <c r="X91">
+        <v>97.78</v>
+      </c>
+      <c r="Y91">
+        <v>93.33</v>
+      </c>
+      <c r="Z91">
+        <v>20</v>
+      </c>
+      <c r="AA91">
+        <v>1.29</v>
+      </c>
+      <c r="AB91">
+        <v>1.96</v>
+      </c>
+      <c r="AC91">
+        <v>5.99</v>
+      </c>
+      <c r="AD91">
+        <v>-3.32</v>
+      </c>
+      <c r="AE91">
+        <v>0.73</v>
+      </c>
+      <c r="AF91">
+        <v>8.24</v>
+      </c>
+      <c r="AG91">
+        <v>8.99</v>
+      </c>
+      <c r="AH91">
+        <v>55</v>
+      </c>
+      <c r="AI91">
+        <v>55</v>
+      </c>
+      <c r="AJ91">
+        <v>40</v>
+      </c>
+      <c r="AK91">
+        <v>95</v>
+      </c>
+      <c r="AL91">
+        <v>85</v>
+      </c>
+      <c r="AM91">
+        <v>4</v>
+      </c>
+      <c r="AN91">
+        <v>-8.26</v>
+      </c>
+      <c r="AO91">
+        <v>-1.39</v>
+      </c>
+      <c r="AP91">
+        <v>1.5</v>
+      </c>
+      <c r="AQ91">
+        <v>-8.82</v>
+      </c>
+      <c r="AR91">
+        <v>7.46</v>
+      </c>
+      <c r="AS91">
+        <v>-8.26</v>
+      </c>
+      <c r="AT91">
+        <v>-1.39</v>
+      </c>
+      <c r="AU91">
+        <v>0</v>
+      </c>
+      <c r="AV91">
+        <v>50</v>
+      </c>
+      <c r="AW91">
+        <v>100</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
+        <v>50</v>
+      </c>
+      <c r="AZ91">
+        <v>24</v>
+      </c>
+      <c r="BA91">
+        <v>-2.55</v>
+      </c>
+      <c r="BB91">
+        <v>2.82</v>
+      </c>
+      <c r="BC91">
+        <v>5.18</v>
+      </c>
+      <c r="BD91">
+        <v>-4.74</v>
+      </c>
+      <c r="BE91">
+        <v>5.56</v>
+      </c>
+      <c r="BF91">
+        <v>-0.14</v>
+      </c>
+      <c r="BG91">
+        <v>5.35</v>
+      </c>
+      <c r="BH91">
+        <v>12.5</v>
+      </c>
+      <c r="BI91">
+        <v>70.83</v>
+      </c>
+      <c r="BJ91">
+        <v>87.5</v>
+      </c>
+      <c r="BK91">
+        <v>50</v>
+      </c>
+      <c r="BL91">
+        <v>75</v>
+      </c>
+      <c r="BM91">
+        <v>15</v>
+      </c>
+      <c r="BN91">
+        <v>-3.67</v>
+      </c>
+      <c r="BO91">
+        <v>1.92</v>
+      </c>
+      <c r="BP91">
+        <v>3.66</v>
+      </c>
+      <c r="BQ91">
+        <v>-4.97</v>
+      </c>
+      <c r="BR91">
+        <v>5.84</v>
+      </c>
+      <c r="BS91">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="BT91">
+        <v>-3.43</v>
+      </c>
+      <c r="BU91">
+        <v>13.33</v>
+      </c>
+      <c r="BV91">
+        <v>73.33</v>
+      </c>
+      <c r="BW91">
+        <v>100</v>
+      </c>
+      <c r="BX91">
+        <v>0</v>
+      </c>
+      <c r="BY91">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -247,7 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250219</t>
+    <t>20250220</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY91"/>
+  <dimension ref="A1:BY92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18333,8 +18333,8 @@
       </c>
     </row>
     <row r="91" spans="1:77">
-      <c r="A91" t="s">
-        <v>77</v>
+      <c r="A91">
+        <v>20250219</v>
       </c>
       <c r="B91">
         <v>4645</v>
@@ -18563,6 +18563,239 @@
       </c>
       <c r="BY91">
         <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:77">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92">
+        <v>3377</v>
+      </c>
+      <c r="C92">
+        <v>1842</v>
+      </c>
+      <c r="D92">
+        <v>168</v>
+      </c>
+      <c r="E92">
+        <v>340</v>
+      </c>
+      <c r="F92">
+        <v>34</v>
+      </c>
+      <c r="G92">
+        <v>194</v>
+      </c>
+      <c r="H92">
+        <v>12</v>
+      </c>
+      <c r="I92">
+        <v>92</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>27</v>
+      </c>
+      <c r="L92">
+        <v>22</v>
+      </c>
+      <c r="M92">
+        <v>104</v>
+      </c>
+      <c r="N92">
+        <v>2.79</v>
+      </c>
+      <c r="O92">
+        <v>2.89</v>
+      </c>
+      <c r="P92">
+        <v>6.51</v>
+      </c>
+      <c r="Q92">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="R92">
+        <v>0.1</v>
+      </c>
+      <c r="S92">
+        <v>12.75</v>
+      </c>
+      <c r="T92">
+        <v>12.88</v>
+      </c>
+      <c r="U92">
+        <v>75</v>
+      </c>
+      <c r="V92">
+        <v>60.58</v>
+      </c>
+      <c r="W92">
+        <v>43.27</v>
+      </c>
+      <c r="X92">
+        <v>99.04000000000001</v>
+      </c>
+      <c r="Y92">
+        <v>96.15000000000001</v>
+      </c>
+      <c r="Z92">
+        <v>25</v>
+      </c>
+      <c r="AA92">
+        <v>3.12</v>
+      </c>
+      <c r="AB92">
+        <v>5.13</v>
+      </c>
+      <c r="AC92">
+        <v>7.83</v>
+      </c>
+      <c r="AD92">
+        <v>0.09</v>
+      </c>
+      <c r="AE92">
+        <v>1.97</v>
+      </c>
+      <c r="AF92">
+        <v>10.86</v>
+      </c>
+      <c r="AG92">
+        <v>12.99</v>
+      </c>
+      <c r="AH92">
+        <v>80</v>
+      </c>
+      <c r="AI92">
+        <v>80</v>
+      </c>
+      <c r="AJ92">
+        <v>60</v>
+      </c>
+      <c r="AK92">
+        <v>96</v>
+      </c>
+      <c r="AL92">
+        <v>92</v>
+      </c>
+      <c r="AM92">
+        <v>3</v>
+      </c>
+      <c r="AN92">
+        <v>-6.49</v>
+      </c>
+      <c r="AO92">
+        <v>-2.92</v>
+      </c>
+      <c r="AP92">
+        <v>4.92</v>
+      </c>
+      <c r="AQ92">
+        <v>-7.18</v>
+      </c>
+      <c r="AR92">
+        <v>3.92</v>
+      </c>
+      <c r="AS92">
+        <v>-1.49</v>
+      </c>
+      <c r="AT92">
+        <v>2.06</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+      <c r="AV92">
+        <v>66.67</v>
+      </c>
+      <c r="AW92">
+        <v>66.67</v>
+      </c>
+      <c r="AX92">
+        <v>66.67</v>
+      </c>
+      <c r="AY92">
+        <v>100</v>
+      </c>
+      <c r="AZ92">
+        <v>9</v>
+      </c>
+      <c r="BA92">
+        <v>0.01</v>
+      </c>
+      <c r="BB92">
+        <v>0.36</v>
+      </c>
+      <c r="BC92">
+        <v>2.8</v>
+      </c>
+      <c r="BD92">
+        <v>-1.87</v>
+      </c>
+      <c r="BE92">
+        <v>0.34</v>
+      </c>
+      <c r="BF92">
+        <v>8.1</v>
+      </c>
+      <c r="BG92">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="BH92">
+        <v>22.22</v>
+      </c>
+      <c r="BI92">
+        <v>33.33</v>
+      </c>
+      <c r="BJ92">
+        <v>55.56</v>
+      </c>
+      <c r="BK92">
+        <v>100</v>
+      </c>
+      <c r="BL92">
+        <v>100</v>
+      </c>
+      <c r="BM92">
+        <v>2</v>
+      </c>
+      <c r="BN92">
+        <v>-7.79</v>
+      </c>
+      <c r="BO92">
+        <v>-1.39</v>
+      </c>
+      <c r="BP92">
+        <v>7.86</v>
+      </c>
+      <c r="BQ92">
+        <v>-8.98</v>
+      </c>
+      <c r="BR92">
+        <v>7.04</v>
+      </c>
+      <c r="BS92">
+        <v>-11.29</v>
+      </c>
+      <c r="BT92">
+        <v>-4.99</v>
+      </c>
+      <c r="BU92">
+        <v>0</v>
+      </c>
+      <c r="BV92">
+        <v>50</v>
+      </c>
+      <c r="BW92">
+        <v>100</v>
+      </c>
+      <c r="BX92">
+        <v>0</v>
+      </c>
+      <c r="BY92">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -247,7 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250220</t>
+    <t>20250221</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY92"/>
+  <dimension ref="A1:BY93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18566,8 +18566,8 @@
       </c>
     </row>
     <row r="92" spans="1:77">
-      <c r="A92" t="s">
-        <v>77</v>
+      <c r="A92">
+        <v>20250220</v>
       </c>
       <c r="B92">
         <v>3377</v>
@@ -18796,6 +18796,239 @@
       </c>
       <c r="BY92">
         <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:77">
+      <c r="A93" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93">
+        <v>2872</v>
+      </c>
+      <c r="C93">
+        <v>2352</v>
+      </c>
+      <c r="D93">
+        <v>165</v>
+      </c>
+      <c r="E93">
+        <v>418</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93">
+        <v>244</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
+        <v>104</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>28</v>
+      </c>
+      <c r="L93">
+        <v>11</v>
+      </c>
+      <c r="M93">
+        <v>92</v>
+      </c>
+      <c r="N93">
+        <v>2.87</v>
+      </c>
+      <c r="O93">
+        <v>2.06</v>
+      </c>
+      <c r="P93">
+        <v>6.35</v>
+      </c>
+      <c r="Q93">
+        <v>-1.53</v>
+      </c>
+      <c r="R93">
+        <v>-0.75</v>
+      </c>
+      <c r="S93">
+        <v>11.19</v>
+      </c>
+      <c r="T93">
+        <v>10.38</v>
+      </c>
+      <c r="U93">
+        <v>67.39</v>
+      </c>
+      <c r="V93">
+        <v>56.52</v>
+      </c>
+      <c r="W93">
+        <v>35.87</v>
+      </c>
+      <c r="X93">
+        <v>98.91</v>
+      </c>
+      <c r="Y93">
+        <v>92.39</v>
+      </c>
+      <c r="Z93">
+        <v>27</v>
+      </c>
+      <c r="AA93">
+        <v>4.84</v>
+      </c>
+      <c r="AB93">
+        <v>3.35</v>
+      </c>
+      <c r="AC93">
+        <v>8.34</v>
+      </c>
+      <c r="AD93">
+        <v>-0.93</v>
+      </c>
+      <c r="AE93">
+        <v>-1.39</v>
+      </c>
+      <c r="AF93">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="AG93">
+        <v>7.98</v>
+      </c>
+      <c r="AH93">
+        <v>81.48</v>
+      </c>
+      <c r="AI93">
+        <v>59.26</v>
+      </c>
+      <c r="AJ93">
+        <v>25.93</v>
+      </c>
+      <c r="AK93">
+        <v>96.3</v>
+      </c>
+      <c r="AL93">
+        <v>81.48</v>
+      </c>
+      <c r="AM93">
+        <v>1</v>
+      </c>
+      <c r="AN93">
+        <v>-5.09</v>
+      </c>
+      <c r="AO93">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="AP93">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="AQ93">
+        <v>-6.6</v>
+      </c>
+      <c r="AR93">
+        <v>15.85</v>
+      </c>
+      <c r="AS93">
+        <v>5.54</v>
+      </c>
+      <c r="AT93">
+        <v>22.26</v>
+      </c>
+      <c r="AU93">
+        <v>0</v>
+      </c>
+      <c r="AV93">
+        <v>100</v>
+      </c>
+      <c r="AW93">
+        <v>100</v>
+      </c>
+      <c r="AX93">
+        <v>100</v>
+      </c>
+      <c r="AY93">
+        <v>100</v>
+      </c>
+      <c r="AZ93">
+        <v>20</v>
+      </c>
+      <c r="BA93">
+        <v>-0.82</v>
+      </c>
+      <c r="BB93">
+        <v>1</v>
+      </c>
+      <c r="BC93">
+        <v>2.79</v>
+      </c>
+      <c r="BD93">
+        <v>-2.99</v>
+      </c>
+      <c r="BE93">
+        <v>1.83</v>
+      </c>
+      <c r="BF93">
+        <v>4.46</v>
+      </c>
+      <c r="BG93">
+        <v>6.39</v>
+      </c>
+      <c r="BH93">
+        <v>30</v>
+      </c>
+      <c r="BI93">
+        <v>40</v>
+      </c>
+      <c r="BJ93">
+        <v>60</v>
+      </c>
+      <c r="BK93">
+        <v>100</v>
+      </c>
+      <c r="BL93">
+        <v>95</v>
+      </c>
+      <c r="BM93">
+        <v>1</v>
+      </c>
+      <c r="BN93">
+        <v>-6.27</v>
+      </c>
+      <c r="BO93">
+        <v>0.8</v>
+      </c>
+      <c r="BP93">
+        <v>5.01</v>
+      </c>
+      <c r="BQ93">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="BR93">
+        <v>7.54</v>
+      </c>
+      <c r="BS93">
+        <v>-15.55</v>
+      </c>
+      <c r="BT93">
+        <v>-9.17</v>
+      </c>
+      <c r="BU93">
+        <v>0</v>
+      </c>
+      <c r="BV93">
+        <v>100</v>
+      </c>
+      <c r="BW93">
+        <v>100</v>
+      </c>
+      <c r="BX93">
+        <v>0</v>
+      </c>
+      <c r="BY93">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -247,7 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250221</t>
+    <t>20250225</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY93"/>
+  <dimension ref="A1:BY95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18799,8 +18799,8 @@
       </c>
     </row>
     <row r="93" spans="1:77">
-      <c r="A93" t="s">
-        <v>77</v>
+      <c r="A93">
+        <v>20250221</v>
       </c>
       <c r="B93">
         <v>2872</v>
@@ -19028,6 +19028,394 @@
         <v>0</v>
       </c>
       <c r="BY93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:77">
+      <c r="A94">
+        <v>20250224</v>
+      </c>
+      <c r="B94">
+        <v>2778</v>
+      </c>
+      <c r="C94">
+        <v>2468</v>
+      </c>
+      <c r="D94">
+        <v>140</v>
+      </c>
+      <c r="E94">
+        <v>282</v>
+      </c>
+      <c r="F94">
+        <v>149</v>
+      </c>
+      <c r="G94">
+        <v>160</v>
+      </c>
+      <c r="H94">
+        <v>51</v>
+      </c>
+      <c r="I94">
+        <v>83</v>
+      </c>
+      <c r="J94">
+        <v>9</v>
+      </c>
+      <c r="K94">
+        <v>24</v>
+      </c>
+      <c r="L94">
+        <v>27</v>
+      </c>
+      <c r="M94">
+        <v>104</v>
+      </c>
+      <c r="N94">
+        <v>2.35</v>
+      </c>
+      <c r="O94">
+        <v>1.66</v>
+      </c>
+      <c r="P94">
+        <v>6.37</v>
+      </c>
+      <c r="Q94">
+        <v>-1.68</v>
+      </c>
+      <c r="R94">
+        <v>-0.65</v>
+      </c>
+      <c r="S94">
+        <v>10.61</v>
+      </c>
+      <c r="T94">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="U94">
+        <v>63.46</v>
+      </c>
+      <c r="V94">
+        <v>56.73</v>
+      </c>
+      <c r="W94">
+        <v>35.58</v>
+      </c>
+      <c r="X94">
+        <v>97.12</v>
+      </c>
+      <c r="Y94">
+        <v>90.38</v>
+      </c>
+      <c r="Z94">
+        <v>28</v>
+      </c>
+      <c r="AA94">
+        <v>1.54</v>
+      </c>
+      <c r="AB94">
+        <v>0.9</v>
+      </c>
+      <c r="AC94">
+        <v>5.81</v>
+      </c>
+      <c r="AD94">
+        <v>-2.81</v>
+      </c>
+      <c r="AE94">
+        <v>-0.63</v>
+      </c>
+      <c r="AF94">
+        <v>6.82</v>
+      </c>
+      <c r="AG94">
+        <v>6.11</v>
+      </c>
+      <c r="AH94">
+        <v>53.57</v>
+      </c>
+      <c r="AI94">
+        <v>53.57</v>
+      </c>
+      <c r="AJ94">
+        <v>28.57</v>
+      </c>
+      <c r="AK94">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="AL94">
+        <v>82.14</v>
+      </c>
+      <c r="AZ94">
+        <v>11</v>
+      </c>
+      <c r="BA94">
+        <v>-1.44</v>
+      </c>
+      <c r="BB94">
+        <v>-0.66</v>
+      </c>
+      <c r="BC94">
+        <v>2.82</v>
+      </c>
+      <c r="BD94">
+        <v>-4.66</v>
+      </c>
+      <c r="BE94">
+        <v>0.79</v>
+      </c>
+      <c r="BF94">
+        <v>-0.63</v>
+      </c>
+      <c r="BG94">
+        <v>0.08</v>
+      </c>
+      <c r="BH94">
+        <v>36.36</v>
+      </c>
+      <c r="BI94">
+        <v>36.36</v>
+      </c>
+      <c r="BJ94">
+        <v>36.36</v>
+      </c>
+      <c r="BK94">
+        <v>45.45</v>
+      </c>
+      <c r="BL94">
+        <v>54.55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:77">
+      <c r="A95" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95">
+        <v>1537</v>
+      </c>
+      <c r="C95">
+        <v>3735</v>
+      </c>
+      <c r="D95">
+        <v>112</v>
+      </c>
+      <c r="E95">
+        <v>210</v>
+      </c>
+      <c r="F95">
+        <v>83</v>
+      </c>
+      <c r="G95">
+        <v>126</v>
+      </c>
+      <c r="H95">
+        <v>23</v>
+      </c>
+      <c r="I95">
+        <v>54</v>
+      </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
+      <c r="K95">
+        <v>17</v>
+      </c>
+      <c r="L95">
+        <v>34</v>
+      </c>
+      <c r="M95">
+        <v>83</v>
+      </c>
+      <c r="N95">
+        <v>0.53</v>
+      </c>
+      <c r="O95">
+        <v>1.38</v>
+      </c>
+      <c r="P95">
+        <v>5.92</v>
+      </c>
+      <c r="Q95">
+        <v>-2.79</v>
+      </c>
+      <c r="R95">
+        <v>0.93</v>
+      </c>
+      <c r="S95">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="T95">
+        <v>9.51</v>
+      </c>
+      <c r="U95">
+        <v>42.17</v>
+      </c>
+      <c r="V95">
+        <v>44.58</v>
+      </c>
+      <c r="W95">
+        <v>43.37</v>
+      </c>
+      <c r="X95">
+        <v>87.95</v>
+      </c>
+      <c r="Y95">
+        <v>92.77</v>
+      </c>
+      <c r="Z95">
+        <v>24</v>
+      </c>
+      <c r="AA95">
+        <v>0.51</v>
+      </c>
+      <c r="AB95">
+        <v>1.59</v>
+      </c>
+      <c r="AC95">
+        <v>6.64</v>
+      </c>
+      <c r="AD95">
+        <v>-3.1</v>
+      </c>
+      <c r="AE95">
+        <v>1.23</v>
+      </c>
+      <c r="AF95">
+        <v>4.46</v>
+      </c>
+      <c r="AG95">
+        <v>5.56</v>
+      </c>
+      <c r="AH95">
+        <v>37.5</v>
+      </c>
+      <c r="AI95">
+        <v>45.83</v>
+      </c>
+      <c r="AJ95">
+        <v>41.67</v>
+      </c>
+      <c r="AK95">
+        <v>70.83</v>
+      </c>
+      <c r="AL95">
+        <v>79.17</v>
+      </c>
+      <c r="AM95">
+        <v>3</v>
+      </c>
+      <c r="AN95">
+        <v>-6.61</v>
+      </c>
+      <c r="AO95">
+        <v>-2.94</v>
+      </c>
+      <c r="AP95">
+        <v>3.51</v>
+      </c>
+      <c r="AQ95">
+        <v>-6.61</v>
+      </c>
+      <c r="AR95">
+        <v>3.96</v>
+      </c>
+      <c r="AS95">
+        <v>-4.59</v>
+      </c>
+      <c r="AT95">
+        <v>-0.86</v>
+      </c>
+      <c r="AU95">
+        <v>33.33</v>
+      </c>
+      <c r="AV95">
+        <v>33.33</v>
+      </c>
+      <c r="AW95">
+        <v>66.67</v>
+      </c>
+      <c r="AX95">
+        <v>33.33</v>
+      </c>
+      <c r="AY95">
+        <v>33.33</v>
+      </c>
+      <c r="AZ95">
+        <v>25</v>
+      </c>
+      <c r="BA95">
+        <v>-4.26</v>
+      </c>
+      <c r="BB95">
+        <v>-2.5</v>
+      </c>
+      <c r="BC95">
+        <v>1.32</v>
+      </c>
+      <c r="BD95">
+        <v>-5.86</v>
+      </c>
+      <c r="BE95">
+        <v>1.83</v>
+      </c>
+      <c r="BF95">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="BG95">
+        <v>1.07</v>
+      </c>
+      <c r="BH95">
+        <v>0</v>
+      </c>
+      <c r="BI95">
+        <v>20</v>
+      </c>
+      <c r="BJ95">
+        <v>60</v>
+      </c>
+      <c r="BK95">
+        <v>60</v>
+      </c>
+      <c r="BL95">
+        <v>60</v>
+      </c>
+      <c r="BM95">
+        <v>9</v>
+      </c>
+      <c r="BN95">
+        <v>-6.4</v>
+      </c>
+      <c r="BO95">
+        <v>-3.96</v>
+      </c>
+      <c r="BP95">
+        <v>1.2</v>
+      </c>
+      <c r="BQ95">
+        <v>-6.77</v>
+      </c>
+      <c r="BR95">
+        <v>2.59</v>
+      </c>
+      <c r="BS95">
+        <v>-11.33</v>
+      </c>
+      <c r="BT95">
+        <v>-9</v>
+      </c>
+      <c r="BU95">
+        <v>0</v>
+      </c>
+      <c r="BV95">
+        <v>22.22</v>
+      </c>
+      <c r="BW95">
+        <v>77.78</v>
+      </c>
+      <c r="BX95">
+        <v>0</v>
+      </c>
+      <c r="BY95">
         <v>0</v>
       </c>
     </row>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>日期</t>
   </si>
@@ -247,7 +247,10 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250225</t>
+    <t>20250226</t>
+  </si>
+  <si>
+    <t>20250227</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY95"/>
+  <dimension ref="A1:BY97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19187,8 +19190,8 @@
       </c>
     </row>
     <row r="95" spans="1:77">
-      <c r="A95" t="s">
-        <v>77</v>
+      <c r="A95">
+        <v>20250225</v>
       </c>
       <c r="B95">
         <v>1537</v>
@@ -19417,6 +19420,394 @@
       </c>
       <c r="BY95">
         <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:77">
+      <c r="A96" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96">
+        <v>4250</v>
+      </c>
+      <c r="C96">
+        <v>1054</v>
+      </c>
+      <c r="D96">
+        <v>81</v>
+      </c>
+      <c r="E96">
+        <v>361</v>
+      </c>
+      <c r="F96">
+        <v>14</v>
+      </c>
+      <c r="G96">
+        <v>207</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96">
+        <v>94</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>19</v>
+      </c>
+      <c r="L96">
+        <v>34</v>
+      </c>
+      <c r="M96">
+        <v>54</v>
+      </c>
+      <c r="N96">
+        <v>3.52</v>
+      </c>
+      <c r="O96">
+        <v>3.28</v>
+      </c>
+      <c r="P96">
+        <v>7.1</v>
+      </c>
+      <c r="Q96">
+        <v>-0.43</v>
+      </c>
+      <c r="R96">
+        <v>-0.14</v>
+      </c>
+      <c r="S96">
+        <v>13.44</v>
+      </c>
+      <c r="T96">
+        <v>13.16</v>
+      </c>
+      <c r="U96">
+        <v>64.81</v>
+      </c>
+      <c r="V96">
+        <v>66.67</v>
+      </c>
+      <c r="W96">
+        <v>35.19</v>
+      </c>
+      <c r="X96">
+        <v>98.15000000000001</v>
+      </c>
+      <c r="Y96">
+        <v>98.15000000000001</v>
+      </c>
+      <c r="Z96">
+        <v>17</v>
+      </c>
+      <c r="AA96">
+        <v>6.79</v>
+      </c>
+      <c r="AB96">
+        <v>5.74</v>
+      </c>
+      <c r="AC96">
+        <v>8.84</v>
+      </c>
+      <c r="AD96">
+        <v>1.51</v>
+      </c>
+      <c r="AE96">
+        <v>-0.9</v>
+      </c>
+      <c r="AF96">
+        <v>13.28</v>
+      </c>
+      <c r="AG96">
+        <v>12.14</v>
+      </c>
+      <c r="AH96">
+        <v>88.23999999999999</v>
+      </c>
+      <c r="AI96">
+        <v>70.59</v>
+      </c>
+      <c r="AJ96">
+        <v>23.53</v>
+      </c>
+      <c r="AK96">
+        <v>94.12</v>
+      </c>
+      <c r="AL96">
+        <v>94.12</v>
+      </c>
+      <c r="AM96">
+        <v>5</v>
+      </c>
+      <c r="AN96">
+        <v>-0.84</v>
+      </c>
+      <c r="AO96">
+        <v>0.03</v>
+      </c>
+      <c r="AP96">
+        <v>3.54</v>
+      </c>
+      <c r="AQ96">
+        <v>-4.46</v>
+      </c>
+      <c r="AR96">
+        <v>0.93</v>
+      </c>
+      <c r="AS96">
+        <v>3.34</v>
+      </c>
+      <c r="AT96">
+        <v>4.35</v>
+      </c>
+      <c r="AU96">
+        <v>20</v>
+      </c>
+      <c r="AV96">
+        <v>40</v>
+      </c>
+      <c r="AW96">
+        <v>40</v>
+      </c>
+      <c r="AX96">
+        <v>80</v>
+      </c>
+      <c r="AY96">
+        <v>60</v>
+      </c>
+      <c r="AZ96">
+        <v>34</v>
+      </c>
+      <c r="BA96">
+        <v>0.01</v>
+      </c>
+      <c r="BB96">
+        <v>3.4</v>
+      </c>
+      <c r="BC96">
+        <v>7.15</v>
+      </c>
+      <c r="BD96">
+        <v>-2.46</v>
+      </c>
+      <c r="BE96">
+        <v>3.46</v>
+      </c>
+      <c r="BF96">
+        <v>10.86</v>
+      </c>
+      <c r="BG96">
+        <v>14.65</v>
+      </c>
+      <c r="BH96">
+        <v>35.29</v>
+      </c>
+      <c r="BI96">
+        <v>61.76</v>
+      </c>
+      <c r="BJ96">
+        <v>79.41</v>
+      </c>
+      <c r="BK96">
+        <v>94.12</v>
+      </c>
+      <c r="BL96">
+        <v>100</v>
+      </c>
+      <c r="BM96">
+        <v>3</v>
+      </c>
+      <c r="BN96">
+        <v>1.05</v>
+      </c>
+      <c r="BO96">
+        <v>-0.06</v>
+      </c>
+      <c r="BP96">
+        <v>2.61</v>
+      </c>
+      <c r="BQ96">
+        <v>-3.1</v>
+      </c>
+      <c r="BR96">
+        <v>-1.09</v>
+      </c>
+      <c r="BS96">
+        <v>-0.83</v>
+      </c>
+      <c r="BT96">
+        <v>-1.91</v>
+      </c>
+      <c r="BU96">
+        <v>100</v>
+      </c>
+      <c r="BV96">
+        <v>66.67</v>
+      </c>
+      <c r="BW96">
+        <v>0</v>
+      </c>
+      <c r="BX96">
+        <v>33.33</v>
+      </c>
+      <c r="BY96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:64">
+      <c r="A97" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97">
+        <v>2133</v>
+      </c>
+      <c r="C97">
+        <v>3095</v>
+      </c>
+      <c r="D97">
+        <v>155</v>
+      </c>
+      <c r="E97">
+        <v>280</v>
+      </c>
+      <c r="F97">
+        <v>136</v>
+      </c>
+      <c r="G97">
+        <v>161</v>
+      </c>
+      <c r="H97">
+        <v>38</v>
+      </c>
+      <c r="I97">
+        <v>73</v>
+      </c>
+      <c r="J97">
+        <v>4</v>
+      </c>
+      <c r="K97">
+        <v>23</v>
+      </c>
+      <c r="L97">
+        <v>12</v>
+      </c>
+      <c r="M97">
+        <v>94</v>
+      </c>
+      <c r="N97">
+        <v>1.96</v>
+      </c>
+      <c r="O97">
+        <v>0.76</v>
+      </c>
+      <c r="P97">
+        <v>5.74</v>
+      </c>
+      <c r="Q97">
+        <v>-2.78</v>
+      </c>
+      <c r="R97">
+        <v>-1.14</v>
+      </c>
+      <c r="S97">
+        <v>10.86</v>
+      </c>
+      <c r="T97">
+        <v>9.56</v>
+      </c>
+      <c r="U97">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="V97">
+        <v>42.55</v>
+      </c>
+      <c r="W97">
+        <v>27.66</v>
+      </c>
+      <c r="X97">
+        <v>97.87</v>
+      </c>
+      <c r="Y97">
+        <v>94.68000000000001</v>
+      </c>
+      <c r="Z97">
+        <v>19</v>
+      </c>
+      <c r="AA97">
+        <v>3.11</v>
+      </c>
+      <c r="AB97">
+        <v>2.2</v>
+      </c>
+      <c r="AC97">
+        <v>8.15</v>
+      </c>
+      <c r="AD97">
+        <v>-1.28</v>
+      </c>
+      <c r="AE97">
+        <v>-0.73</v>
+      </c>
+      <c r="AF97">
+        <v>7.65</v>
+      </c>
+      <c r="AG97">
+        <v>6.72</v>
+      </c>
+      <c r="AH97">
+        <v>63.16</v>
+      </c>
+      <c r="AI97">
+        <v>52.63</v>
+      </c>
+      <c r="AJ97">
+        <v>21.05</v>
+      </c>
+      <c r="AK97">
+        <v>89.47</v>
+      </c>
+      <c r="AL97">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="AZ97">
+        <v>34</v>
+      </c>
+      <c r="BA97">
+        <v>-0.66</v>
+      </c>
+      <c r="BB97">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="BC97">
+        <v>3.81</v>
+      </c>
+      <c r="BD97">
+        <v>-4.12</v>
+      </c>
+      <c r="BE97">
+        <v>0.1</v>
+      </c>
+      <c r="BF97">
+        <v>4.01</v>
+      </c>
+      <c r="BG97">
+        <v>4.13</v>
+      </c>
+      <c r="BH97">
+        <v>29.41</v>
+      </c>
+      <c r="BI97">
+        <v>35.29</v>
+      </c>
+      <c r="BJ97">
+        <v>38.24</v>
+      </c>
+      <c r="BK97">
+        <v>88.23999999999999</v>
+      </c>
+      <c r="BL97">
+        <v>82.34999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>日期</t>
   </si>
@@ -247,10 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250226</t>
-  </si>
-  <si>
-    <t>20250227</t>
+    <t>20250228</t>
   </si>
 </sst>
 </file>
@@ -608,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY97"/>
+  <dimension ref="A1:BY98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19423,8 +19420,8 @@
       </c>
     </row>
     <row r="96" spans="1:77">
-      <c r="A96" t="s">
-        <v>77</v>
+      <c r="A96">
+        <v>20250226</v>
       </c>
       <c r="B96">
         <v>4250</v>
@@ -19655,9 +19652,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:64">
-      <c r="A97" t="s">
-        <v>78</v>
+    <row r="97" spans="1:77">
+      <c r="A97">
+        <v>20250227</v>
       </c>
       <c r="B97">
         <v>2133</v>
@@ -19808,6 +19805,200 @@
       </c>
       <c r="BL97">
         <v>82.34999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:77">
+      <c r="A98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98">
+        <v>570</v>
+      </c>
+      <c r="C98">
+        <v>4773</v>
+      </c>
+      <c r="D98">
+        <v>40</v>
+      </c>
+      <c r="E98">
+        <v>112</v>
+      </c>
+      <c r="F98">
+        <v>1343</v>
+      </c>
+      <c r="G98">
+        <v>68</v>
+      </c>
+      <c r="H98">
+        <v>583</v>
+      </c>
+      <c r="I98">
+        <v>44</v>
+      </c>
+      <c r="J98">
+        <v>39</v>
+      </c>
+      <c r="K98">
+        <v>13</v>
+      </c>
+      <c r="L98">
+        <v>21</v>
+      </c>
+      <c r="M98">
+        <v>73</v>
+      </c>
+      <c r="N98">
+        <v>1.87</v>
+      </c>
+      <c r="O98">
+        <v>-0.99</v>
+      </c>
+      <c r="P98">
+        <v>6.08</v>
+      </c>
+      <c r="Q98">
+        <v>-4.03</v>
+      </c>
+      <c r="R98">
+        <v>-2.76</v>
+      </c>
+      <c r="S98">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="T98">
+        <v>6.94</v>
+      </c>
+      <c r="U98">
+        <v>57.53</v>
+      </c>
+      <c r="V98">
+        <v>39.73</v>
+      </c>
+      <c r="W98">
+        <v>32.88</v>
+      </c>
+      <c r="X98">
+        <v>97.26000000000001</v>
+      </c>
+      <c r="Y98">
+        <v>83.56</v>
+      </c>
+      <c r="Z98">
+        <v>23</v>
+      </c>
+      <c r="AA98">
+        <v>2.7</v>
+      </c>
+      <c r="AB98">
+        <v>-3.11</v>
+      </c>
+      <c r="AC98">
+        <v>5.98</v>
+      </c>
+      <c r="AD98">
+        <v>-6.55</v>
+      </c>
+      <c r="AE98">
+        <v>-5.54</v>
+      </c>
+      <c r="AF98">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AG98">
+        <v>2.51</v>
+      </c>
+      <c r="AH98">
+        <v>65.22</v>
+      </c>
+      <c r="AI98">
+        <v>21.74</v>
+      </c>
+      <c r="AJ98">
+        <v>21.74</v>
+      </c>
+      <c r="AK98">
+        <v>95.65000000000001</v>
+      </c>
+      <c r="AL98">
+        <v>65.22</v>
+      </c>
+      <c r="AZ98">
+        <v>12</v>
+      </c>
+      <c r="BA98">
+        <v>-1.45</v>
+      </c>
+      <c r="BB98">
+        <v>-3.9</v>
+      </c>
+      <c r="BC98">
+        <v>1.27</v>
+      </c>
+      <c r="BD98">
+        <v>-6.2</v>
+      </c>
+      <c r="BE98">
+        <v>-2.55</v>
+      </c>
+      <c r="BF98">
+        <v>2.21</v>
+      </c>
+      <c r="BG98">
+        <v>-0.22</v>
+      </c>
+      <c r="BH98">
+        <v>16.67</v>
+      </c>
+      <c r="BI98">
+        <v>25</v>
+      </c>
+      <c r="BJ98">
+        <v>16.67</v>
+      </c>
+      <c r="BK98">
+        <v>66.67</v>
+      </c>
+      <c r="BL98">
+        <v>33.33</v>
+      </c>
+      <c r="BM98">
+        <v>4</v>
+      </c>
+      <c r="BN98">
+        <v>-1.96</v>
+      </c>
+      <c r="BO98">
+        <v>-5.31</v>
+      </c>
+      <c r="BP98">
+        <v>3.71</v>
+      </c>
+      <c r="BQ98">
+        <v>-7.98</v>
+      </c>
+      <c r="BR98">
+        <v>-3.4</v>
+      </c>
+      <c r="BS98">
+        <v>-11.25</v>
+      </c>
+      <c r="BT98">
+        <v>-14.26</v>
+      </c>
+      <c r="BU98">
+        <v>0</v>
+      </c>
+      <c r="BV98">
+        <v>25</v>
+      </c>
+      <c r="BW98">
+        <v>25</v>
+      </c>
+      <c r="BX98">
+        <v>0</v>
+      </c>
+      <c r="BY98">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -247,7 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250228</t>
+    <t>20250303</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY98"/>
+  <dimension ref="A1:BY99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19808,8 +19808,8 @@
       </c>
     </row>
     <row r="98" spans="1:77">
-      <c r="A98" t="s">
-        <v>77</v>
+      <c r="A98">
+        <v>20250228</v>
       </c>
       <c r="B98">
         <v>570</v>
@@ -19998,6 +19998,200 @@
         <v>0</v>
       </c>
       <c r="BY98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:77">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99">
+        <v>3223</v>
+      </c>
+      <c r="C99">
+        <v>1966</v>
+      </c>
+      <c r="D99">
+        <v>192</v>
+      </c>
+      <c r="E99">
+        <v>341</v>
+      </c>
+      <c r="F99">
+        <v>165</v>
+      </c>
+      <c r="G99">
+        <v>176</v>
+      </c>
+      <c r="H99">
+        <v>86</v>
+      </c>
+      <c r="I99">
+        <v>60</v>
+      </c>
+      <c r="J99">
+        <v>24</v>
+      </c>
+      <c r="K99">
+        <v>13</v>
+      </c>
+      <c r="L99">
+        <v>37</v>
+      </c>
+      <c r="M99">
+        <v>44</v>
+      </c>
+      <c r="N99">
+        <v>2.31</v>
+      </c>
+      <c r="O99">
+        <v>-0.17</v>
+      </c>
+      <c r="P99">
+        <v>6.25</v>
+      </c>
+      <c r="Q99">
+        <v>-4.06</v>
+      </c>
+      <c r="R99">
+        <v>-2.36</v>
+      </c>
+      <c r="S99">
+        <v>9.84</v>
+      </c>
+      <c r="T99">
+        <v>7.36</v>
+      </c>
+      <c r="U99">
+        <v>54.55</v>
+      </c>
+      <c r="V99">
+        <v>50</v>
+      </c>
+      <c r="W99">
+        <v>38.64</v>
+      </c>
+      <c r="X99">
+        <v>97.73</v>
+      </c>
+      <c r="Y99">
+        <v>75</v>
+      </c>
+      <c r="Z99">
+        <v>13</v>
+      </c>
+      <c r="AA99">
+        <v>4.24</v>
+      </c>
+      <c r="AB99">
+        <v>-1.2</v>
+      </c>
+      <c r="AC99">
+        <v>6.79</v>
+      </c>
+      <c r="AD99">
+        <v>-5.3</v>
+      </c>
+      <c r="AE99">
+        <v>-5.15</v>
+      </c>
+      <c r="AF99">
+        <v>7.74</v>
+      </c>
+      <c r="AG99">
+        <v>2.17</v>
+      </c>
+      <c r="AH99">
+        <v>69.23</v>
+      </c>
+      <c r="AI99">
+        <v>38.46</v>
+      </c>
+      <c r="AJ99">
+        <v>23.08</v>
+      </c>
+      <c r="AK99">
+        <v>100</v>
+      </c>
+      <c r="AL99">
+        <v>46.15</v>
+      </c>
+      <c r="AZ99">
+        <v>21</v>
+      </c>
+      <c r="BA99">
+        <v>-1.14</v>
+      </c>
+      <c r="BB99">
+        <v>-4.54</v>
+      </c>
+      <c r="BC99">
+        <v>3.43</v>
+      </c>
+      <c r="BD99">
+        <v>-6.82</v>
+      </c>
+      <c r="BE99">
+        <v>-3.31</v>
+      </c>
+      <c r="BF99">
+        <v>-0.98</v>
+      </c>
+      <c r="BG99">
+        <v>-4.21</v>
+      </c>
+      <c r="BH99">
+        <v>38.1</v>
+      </c>
+      <c r="BI99">
+        <v>23.81</v>
+      </c>
+      <c r="BJ99">
+        <v>28.57</v>
+      </c>
+      <c r="BK99">
+        <v>52.38</v>
+      </c>
+      <c r="BL99">
+        <v>47.62</v>
+      </c>
+      <c r="BM99">
+        <v>39</v>
+      </c>
+      <c r="BN99">
+        <v>-2.33</v>
+      </c>
+      <c r="BO99">
+        <v>-4.86</v>
+      </c>
+      <c r="BP99">
+        <v>-0.09</v>
+      </c>
+      <c r="BQ99">
+        <v>-6.48</v>
+      </c>
+      <c r="BR99">
+        <v>-2.58</v>
+      </c>
+      <c r="BS99">
+        <v>-10.1</v>
+      </c>
+      <c r="BT99">
+        <v>-12.42</v>
+      </c>
+      <c r="BU99">
+        <v>12.82</v>
+      </c>
+      <c r="BV99">
+        <v>10.26</v>
+      </c>
+      <c r="BW99">
+        <v>15.38</v>
+      </c>
+      <c r="BX99">
+        <v>0</v>
+      </c>
+      <c r="BY99">
         <v>0</v>
       </c>
     </row>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -247,7 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250303</t>
+    <t>20250305</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY99"/>
+  <dimension ref="A1:BY101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20002,8 +20002,8 @@
       </c>
     </row>
     <row r="99" spans="1:77">
-      <c r="A99" t="s">
-        <v>77</v>
+      <c r="A99">
+        <v>20250303</v>
       </c>
       <c r="B99">
         <v>3223</v>
@@ -20193,6 +20193,472 @@
       </c>
       <c r="BY99">
         <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:77">
+      <c r="A100">
+        <v>20250304</v>
+      </c>
+      <c r="B100">
+        <v>4050</v>
+      </c>
+      <c r="C100">
+        <v>1172</v>
+      </c>
+      <c r="D100">
+        <v>161</v>
+      </c>
+      <c r="E100">
+        <v>393</v>
+      </c>
+      <c r="F100">
+        <v>89</v>
+      </c>
+      <c r="G100">
+        <v>201</v>
+      </c>
+      <c r="H100">
+        <v>40</v>
+      </c>
+      <c r="I100">
+        <v>72</v>
+      </c>
+      <c r="J100">
+        <v>8</v>
+      </c>
+      <c r="K100">
+        <v>17</v>
+      </c>
+      <c r="L100">
+        <v>16</v>
+      </c>
+      <c r="M100">
+        <v>60</v>
+      </c>
+      <c r="N100">
+        <v>0.72</v>
+      </c>
+      <c r="O100">
+        <v>1.31</v>
+      </c>
+      <c r="P100">
+        <v>5.03</v>
+      </c>
+      <c r="Q100">
+        <v>-2.85</v>
+      </c>
+      <c r="R100">
+        <v>0.63</v>
+      </c>
+      <c r="S100">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="T100">
+        <v>9.82</v>
+      </c>
+      <c r="U100">
+        <v>48.33</v>
+      </c>
+      <c r="V100">
+        <v>51.67</v>
+      </c>
+      <c r="W100">
+        <v>53.33</v>
+      </c>
+      <c r="X100">
+        <v>96.67</v>
+      </c>
+      <c r="Y100">
+        <v>95</v>
+      </c>
+      <c r="Z100">
+        <v>13</v>
+      </c>
+      <c r="AA100">
+        <v>2.07</v>
+      </c>
+      <c r="AB100">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AC100">
+        <v>4.95</v>
+      </c>
+      <c r="AD100">
+        <v>-4.14</v>
+      </c>
+      <c r="AE100">
+        <v>-1.16</v>
+      </c>
+      <c r="AF100">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AG100">
+        <v>6.9</v>
+      </c>
+      <c r="AH100">
+        <v>46.15</v>
+      </c>
+      <c r="AI100">
+        <v>46.15</v>
+      </c>
+      <c r="AJ100">
+        <v>30.77</v>
+      </c>
+      <c r="AK100">
+        <v>84.62</v>
+      </c>
+      <c r="AL100">
+        <v>76.92</v>
+      </c>
+      <c r="AM100">
+        <v>3</v>
+      </c>
+      <c r="AN100">
+        <v>-4.75</v>
+      </c>
+      <c r="AO100">
+        <v>-1.18</v>
+      </c>
+      <c r="AP100">
+        <v>1.31</v>
+      </c>
+      <c r="AQ100">
+        <v>-4.76</v>
+      </c>
+      <c r="AR100">
+        <v>3.68</v>
+      </c>
+      <c r="AS100">
+        <v>-4.75</v>
+      </c>
+      <c r="AT100">
+        <v>-1.18</v>
+      </c>
+      <c r="AU100">
+        <v>33.33</v>
+      </c>
+      <c r="AV100">
+        <v>66.67</v>
+      </c>
+      <c r="AW100">
+        <v>66.67</v>
+      </c>
+      <c r="AX100">
+        <v>33.33</v>
+      </c>
+      <c r="AY100">
+        <v>66.67</v>
+      </c>
+      <c r="AZ100">
+        <v>36</v>
+      </c>
+      <c r="BA100">
+        <v>-2.83</v>
+      </c>
+      <c r="BB100">
+        <v>1.01</v>
+      </c>
+      <c r="BC100">
+        <v>3.38</v>
+      </c>
+      <c r="BD100">
+        <v>-4.26</v>
+      </c>
+      <c r="BE100">
+        <v>3.97</v>
+      </c>
+      <c r="BF100">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="BG100">
+        <v>4.4</v>
+      </c>
+      <c r="BH100">
+        <v>8.33</v>
+      </c>
+      <c r="BI100">
+        <v>69.44</v>
+      </c>
+      <c r="BJ100">
+        <v>77.78</v>
+      </c>
+      <c r="BK100">
+        <v>63.89</v>
+      </c>
+      <c r="BL100">
+        <v>86.11</v>
+      </c>
+      <c r="BM100">
+        <v>24</v>
+      </c>
+      <c r="BN100">
+        <v>-5.34</v>
+      </c>
+      <c r="BO100">
+        <v>-3.02</v>
+      </c>
+      <c r="BP100">
+        <v>-0.24</v>
+      </c>
+      <c r="BQ100">
+        <v>-6.6</v>
+      </c>
+      <c r="BR100">
+        <v>2.41</v>
+      </c>
+      <c r="BS100">
+        <v>-11.02</v>
+      </c>
+      <c r="BT100">
+        <v>-8.83</v>
+      </c>
+      <c r="BU100">
+        <v>4.17</v>
+      </c>
+      <c r="BV100">
+        <v>33.33</v>
+      </c>
+      <c r="BW100">
+        <v>70.83</v>
+      </c>
+      <c r="BX100">
+        <v>4.17</v>
+      </c>
+      <c r="BY100">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:77">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101">
+        <v>2358</v>
+      </c>
+      <c r="C101">
+        <v>2884</v>
+      </c>
+      <c r="D101">
+        <v>140</v>
+      </c>
+      <c r="E101">
+        <v>284</v>
+      </c>
+      <c r="F101">
+        <v>40</v>
+      </c>
+      <c r="G101">
+        <v>157</v>
+      </c>
+      <c r="H101">
+        <v>13</v>
+      </c>
+      <c r="I101">
+        <v>62</v>
+      </c>
+      <c r="J101">
+        <v>3</v>
+      </c>
+      <c r="K101">
+        <v>18</v>
+      </c>
+      <c r="L101">
+        <v>21</v>
+      </c>
+      <c r="M101">
+        <v>72</v>
+      </c>
+      <c r="N101">
+        <v>1.6</v>
+      </c>
+      <c r="O101">
+        <v>1.64</v>
+      </c>
+      <c r="P101">
+        <v>5.57</v>
+      </c>
+      <c r="Q101">
+        <v>-2</v>
+      </c>
+      <c r="R101">
+        <v>0.05</v>
+      </c>
+      <c r="S101">
+        <v>12.44</v>
+      </c>
+      <c r="T101">
+        <v>12.49</v>
+      </c>
+      <c r="U101">
+        <v>51.39</v>
+      </c>
+      <c r="V101">
+        <v>51.39</v>
+      </c>
+      <c r="W101">
+        <v>34.72</v>
+      </c>
+      <c r="X101">
+        <v>97.22</v>
+      </c>
+      <c r="Y101">
+        <v>95.83</v>
+      </c>
+      <c r="Z101">
+        <v>17</v>
+      </c>
+      <c r="AA101">
+        <v>2.44</v>
+      </c>
+      <c r="AB101">
+        <v>1.88</v>
+      </c>
+      <c r="AC101">
+        <v>7.38</v>
+      </c>
+      <c r="AD101">
+        <v>-2.75</v>
+      </c>
+      <c r="AE101">
+        <v>-0.52</v>
+      </c>
+      <c r="AF101">
+        <v>11.09</v>
+      </c>
+      <c r="AG101">
+        <v>10.57</v>
+      </c>
+      <c r="AH101">
+        <v>52.94</v>
+      </c>
+      <c r="AI101">
+        <v>58.82</v>
+      </c>
+      <c r="AJ101">
+        <v>41.18</v>
+      </c>
+      <c r="AK101">
+        <v>94.12</v>
+      </c>
+      <c r="AL101">
+        <v>88.23999999999999</v>
+      </c>
+      <c r="AM101">
+        <v>4</v>
+      </c>
+      <c r="AN101">
+        <v>-4.91</v>
+      </c>
+      <c r="AO101">
+        <v>-3.62</v>
+      </c>
+      <c r="AP101">
+        <v>-2.03</v>
+      </c>
+      <c r="AQ101">
+        <v>-5.96</v>
+      </c>
+      <c r="AR101">
+        <v>1.34</v>
+      </c>
+      <c r="AS101">
+        <v>-4.91</v>
+      </c>
+      <c r="AT101">
+        <v>-3.62</v>
+      </c>
+      <c r="AU101">
+        <v>0</v>
+      </c>
+      <c r="AV101">
+        <v>25</v>
+      </c>
+      <c r="AW101">
+        <v>50</v>
+      </c>
+      <c r="AX101">
+        <v>0</v>
+      </c>
+      <c r="AY101">
+        <v>25</v>
+      </c>
+      <c r="AZ101">
+        <v>16</v>
+      </c>
+      <c r="BA101">
+        <v>-2.16</v>
+      </c>
+      <c r="BB101">
+        <v>0.62</v>
+      </c>
+      <c r="BC101">
+        <v>2.96</v>
+      </c>
+      <c r="BD101">
+        <v>-3.93</v>
+      </c>
+      <c r="BE101">
+        <v>2.84</v>
+      </c>
+      <c r="BF101">
+        <v>3.7</v>
+      </c>
+      <c r="BG101">
+        <v>6.79</v>
+      </c>
+      <c r="BH101">
+        <v>12.5</v>
+      </c>
+      <c r="BI101">
+        <v>43.75</v>
+      </c>
+      <c r="BJ101">
+        <v>81.25</v>
+      </c>
+      <c r="BK101">
+        <v>75</v>
+      </c>
+      <c r="BL101">
+        <v>81.25</v>
+      </c>
+      <c r="BM101">
+        <v>8</v>
+      </c>
+      <c r="BN101">
+        <v>-5.72</v>
+      </c>
+      <c r="BO101">
+        <v>-3.23</v>
+      </c>
+      <c r="BP101">
+        <v>-0.36</v>
+      </c>
+      <c r="BQ101">
+        <v>-6.62</v>
+      </c>
+      <c r="BR101">
+        <v>2.62</v>
+      </c>
+      <c r="BS101">
+        <v>-8.529999999999999</v>
+      </c>
+      <c r="BT101">
+        <v>-6.12</v>
+      </c>
+      <c r="BU101">
+        <v>0</v>
+      </c>
+      <c r="BV101">
+        <v>37.5</v>
+      </c>
+      <c r="BW101">
+        <v>62.5</v>
+      </c>
+      <c r="BX101">
+        <v>0</v>
+      </c>
+      <c r="BY101">
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -247,7 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250305</t>
+    <t>20250306</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY101"/>
+  <dimension ref="A1:BY102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20429,8 +20429,8 @@
       </c>
     </row>
     <row r="101" spans="1:77">
-      <c r="A101" t="s">
-        <v>77</v>
+      <c r="A101">
+        <v>20250305</v>
       </c>
       <c r="B101">
         <v>2358</v>
@@ -20659,6 +20659,239 @@
       </c>
       <c r="BY101">
         <v>12.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:77">
+      <c r="A102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102">
+        <v>4275</v>
+      </c>
+      <c r="C102">
+        <v>974</v>
+      </c>
+      <c r="D102">
+        <v>131</v>
+      </c>
+      <c r="E102">
+        <v>447</v>
+      </c>
+      <c r="F102">
+        <v>24</v>
+      </c>
+      <c r="G102">
+        <v>239</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="I102">
+        <v>104</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>27</v>
+      </c>
+      <c r="L102">
+        <v>27</v>
+      </c>
+      <c r="M102">
+        <v>62</v>
+      </c>
+      <c r="N102">
+        <v>2.22</v>
+      </c>
+      <c r="O102">
+        <v>3.4</v>
+      </c>
+      <c r="P102">
+        <v>6.97</v>
+      </c>
+      <c r="Q102">
+        <v>-0.24</v>
+      </c>
+      <c r="R102">
+        <v>1.16</v>
+      </c>
+      <c r="S102">
+        <v>11.14</v>
+      </c>
+      <c r="T102">
+        <v>12.42</v>
+      </c>
+      <c r="U102">
+        <v>67.73999999999999</v>
+      </c>
+      <c r="V102">
+        <v>66.13</v>
+      </c>
+      <c r="W102">
+        <v>58.06</v>
+      </c>
+      <c r="X102">
+        <v>95.16</v>
+      </c>
+      <c r="Y102">
+        <v>95.16</v>
+      </c>
+      <c r="Z102">
+        <v>18</v>
+      </c>
+      <c r="AA102">
+        <v>3.5</v>
+      </c>
+      <c r="AB102">
+        <v>4.84</v>
+      </c>
+      <c r="AC102">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="AD102">
+        <v>1.23</v>
+      </c>
+      <c r="AE102">
+        <v>1.29</v>
+      </c>
+      <c r="AF102">
+        <v>9.35</v>
+      </c>
+      <c r="AG102">
+        <v>10.82</v>
+      </c>
+      <c r="AH102">
+        <v>77.78</v>
+      </c>
+      <c r="AI102">
+        <v>66.67</v>
+      </c>
+      <c r="AJ102">
+        <v>50</v>
+      </c>
+      <c r="AK102">
+        <v>88.89</v>
+      </c>
+      <c r="AL102">
+        <v>83.33</v>
+      </c>
+      <c r="AM102">
+        <v>2</v>
+      </c>
+      <c r="AN102">
+        <v>-5.09</v>
+      </c>
+      <c r="AO102">
+        <v>-4.84</v>
+      </c>
+      <c r="AP102">
+        <v>-4.35</v>
+      </c>
+      <c r="AQ102">
+        <v>-5.59</v>
+      </c>
+      <c r="AR102">
+        <v>0.25</v>
+      </c>
+      <c r="AS102">
+        <v>-5.09</v>
+      </c>
+      <c r="AT102">
+        <v>-4.84</v>
+      </c>
+      <c r="AU102">
+        <v>0</v>
+      </c>
+      <c r="AV102">
+        <v>50</v>
+      </c>
+      <c r="AW102">
+        <v>50</v>
+      </c>
+      <c r="AX102">
+        <v>0</v>
+      </c>
+      <c r="AY102">
+        <v>50</v>
+      </c>
+      <c r="AZ102">
+        <v>19</v>
+      </c>
+      <c r="BA102">
+        <v>-0.97</v>
+      </c>
+      <c r="BB102">
+        <v>1.48</v>
+      </c>
+      <c r="BC102">
+        <v>3.86</v>
+      </c>
+      <c r="BD102">
+        <v>-2.51</v>
+      </c>
+      <c r="BE102">
+        <v>2.52</v>
+      </c>
+      <c r="BF102">
+        <v>4.48</v>
+      </c>
+      <c r="BG102">
+        <v>7.05</v>
+      </c>
+      <c r="BH102">
+        <v>26.32</v>
+      </c>
+      <c r="BI102">
+        <v>68.42</v>
+      </c>
+      <c r="BJ102">
+        <v>68.42</v>
+      </c>
+      <c r="BK102">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="BL102">
+        <v>89.47</v>
+      </c>
+      <c r="BM102">
+        <v>3</v>
+      </c>
+      <c r="BN102">
+        <v>-3.4</v>
+      </c>
+      <c r="BO102">
+        <v>-2.35</v>
+      </c>
+      <c r="BP102">
+        <v>-1.92</v>
+      </c>
+      <c r="BQ102">
+        <v>-4.58</v>
+      </c>
+      <c r="BR102">
+        <v>1.05</v>
+      </c>
+      <c r="BS102">
+        <v>-6.13</v>
+      </c>
+      <c r="BT102">
+        <v>-5.15</v>
+      </c>
+      <c r="BU102">
+        <v>0</v>
+      </c>
+      <c r="BV102">
+        <v>66.67</v>
+      </c>
+      <c r="BW102">
+        <v>66.67</v>
+      </c>
+      <c r="BX102">
+        <v>0</v>
+      </c>
+      <c r="BY102">
+        <v>33.33</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -247,7 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250306</t>
+    <t>20250307</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY102"/>
+  <dimension ref="A1:BY103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20662,8 +20662,8 @@
       </c>
     </row>
     <row r="102" spans="1:77">
-      <c r="A102" t="s">
-        <v>77</v>
+      <c r="A102">
+        <v>20250306</v>
       </c>
       <c r="B102">
         <v>4275</v>
@@ -20892,6 +20892,239 @@
       </c>
       <c r="BY102">
         <v>33.33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:77">
+      <c r="A103" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103">
+        <v>1714</v>
+      </c>
+      <c r="C103">
+        <v>3556</v>
+      </c>
+      <c r="D103">
+        <v>111</v>
+      </c>
+      <c r="E103">
+        <v>234</v>
+      </c>
+      <c r="F103">
+        <v>122</v>
+      </c>
+      <c r="G103">
+        <v>143</v>
+      </c>
+      <c r="H103">
+        <v>42</v>
+      </c>
+      <c r="I103">
+        <v>50</v>
+      </c>
+      <c r="J103">
+        <v>7</v>
+      </c>
+      <c r="K103">
+        <v>19</v>
+      </c>
+      <c r="L103">
+        <v>39</v>
+      </c>
+      <c r="M103">
+        <v>104</v>
+      </c>
+      <c r="N103">
+        <v>1.44</v>
+      </c>
+      <c r="O103">
+        <v>0.44</v>
+      </c>
+      <c r="P103">
+        <v>5.59</v>
+      </c>
+      <c r="Q103">
+        <v>-2.59</v>
+      </c>
+      <c r="R103">
+        <v>-0.96</v>
+      </c>
+      <c r="S103">
+        <v>9.82</v>
+      </c>
+      <c r="T103">
+        <v>8.74</v>
+      </c>
+      <c r="U103">
+        <v>57.69</v>
+      </c>
+      <c r="V103">
+        <v>42.31</v>
+      </c>
+      <c r="W103">
+        <v>31.73</v>
+      </c>
+      <c r="X103">
+        <v>97.12</v>
+      </c>
+      <c r="Y103">
+        <v>93.27</v>
+      </c>
+      <c r="Z103">
+        <v>27</v>
+      </c>
+      <c r="AA103">
+        <v>0.31</v>
+      </c>
+      <c r="AB103">
+        <v>-0.71</v>
+      </c>
+      <c r="AC103">
+        <v>5.04</v>
+      </c>
+      <c r="AD103">
+        <v>-4.71</v>
+      </c>
+      <c r="AE103">
+        <v>-0.96</v>
+      </c>
+      <c r="AF103">
+        <v>6.65</v>
+      </c>
+      <c r="AG103">
+        <v>5.61</v>
+      </c>
+      <c r="AH103">
+        <v>37.04</v>
+      </c>
+      <c r="AI103">
+        <v>33.33</v>
+      </c>
+      <c r="AJ103">
+        <v>29.63</v>
+      </c>
+      <c r="AK103">
+        <v>96.3</v>
+      </c>
+      <c r="AL103">
+        <v>81.48</v>
+      </c>
+      <c r="AM103">
+        <v>1</v>
+      </c>
+      <c r="AN103">
+        <v>-9.93</v>
+      </c>
+      <c r="AO103">
+        <v>-9.93</v>
+      </c>
+      <c r="AP103">
+        <v>-9.93</v>
+      </c>
+      <c r="AQ103">
+        <v>-9.93</v>
+      </c>
+      <c r="AR103">
+        <v>0</v>
+      </c>
+      <c r="AS103">
+        <v>-9.93</v>
+      </c>
+      <c r="AT103">
+        <v>-9.93</v>
+      </c>
+      <c r="AU103">
+        <v>0</v>
+      </c>
+      <c r="AV103">
+        <v>0</v>
+      </c>
+      <c r="AW103">
+        <v>0</v>
+      </c>
+      <c r="AX103">
+        <v>0</v>
+      </c>
+      <c r="AY103">
+        <v>0</v>
+      </c>
+      <c r="AZ103">
+        <v>27</v>
+      </c>
+      <c r="BA103">
+        <v>-1.42</v>
+      </c>
+      <c r="BB103">
+        <v>-1.17</v>
+      </c>
+      <c r="BC103">
+        <v>3.2</v>
+      </c>
+      <c r="BD103">
+        <v>-3.92</v>
+      </c>
+      <c r="BE103">
+        <v>0.26</v>
+      </c>
+      <c r="BF103">
+        <v>5.35</v>
+      </c>
+      <c r="BG103">
+        <v>5.67</v>
+      </c>
+      <c r="BH103">
+        <v>11.11</v>
+      </c>
+      <c r="BI103">
+        <v>29.63</v>
+      </c>
+      <c r="BJ103">
+        <v>40.74</v>
+      </c>
+      <c r="BK103">
+        <v>100</v>
+      </c>
+      <c r="BL103">
+        <v>85.19</v>
+      </c>
+      <c r="BM103">
+        <v>1</v>
+      </c>
+      <c r="BN103">
+        <v>-9.93</v>
+      </c>
+      <c r="BO103">
+        <v>-9.93</v>
+      </c>
+      <c r="BP103">
+        <v>-9.93</v>
+      </c>
+      <c r="BQ103">
+        <v>-9.93</v>
+      </c>
+      <c r="BR103">
+        <v>0</v>
+      </c>
+      <c r="BS103">
+        <v>-9.93</v>
+      </c>
+      <c r="BT103">
+        <v>-9.93</v>
+      </c>
+      <c r="BU103">
+        <v>0</v>
+      </c>
+      <c r="BV103">
+        <v>0</v>
+      </c>
+      <c r="BW103">
+        <v>0</v>
+      </c>
+      <c r="BX103">
+        <v>0</v>
+      </c>
+      <c r="BY103">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -247,7 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250307</t>
+    <t>20250312</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY103"/>
+  <dimension ref="A1:BY106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20895,8 +20895,8 @@
       </c>
     </row>
     <row r="103" spans="1:77">
-      <c r="A103" t="s">
-        <v>77</v>
+      <c r="A103">
+        <v>20250307</v>
       </c>
       <c r="B103">
         <v>1714</v>
@@ -21125,6 +21125,705 @@
       </c>
       <c r="BY103">
         <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:77">
+      <c r="A104">
+        <v>20250310</v>
+      </c>
+      <c r="B104">
+        <v>3279</v>
+      </c>
+      <c r="C104">
+        <v>1953</v>
+      </c>
+      <c r="D104">
+        <v>149</v>
+      </c>
+      <c r="E104">
+        <v>267</v>
+      </c>
+      <c r="F104">
+        <v>88</v>
+      </c>
+      <c r="G104">
+        <v>149</v>
+      </c>
+      <c r="H104">
+        <v>41</v>
+      </c>
+      <c r="I104">
+        <v>74</v>
+      </c>
+      <c r="J104">
+        <v>6</v>
+      </c>
+      <c r="K104">
+        <v>12</v>
+      </c>
+      <c r="L104">
+        <v>16</v>
+      </c>
+      <c r="M104">
+        <v>50</v>
+      </c>
+      <c r="N104">
+        <v>2.24</v>
+      </c>
+      <c r="O104">
+        <v>0.72</v>
+      </c>
+      <c r="P104">
+        <v>5.85</v>
+      </c>
+      <c r="Q104">
+        <v>-2.43</v>
+      </c>
+      <c r="R104">
+        <v>-1.49</v>
+      </c>
+      <c r="S104">
+        <v>10.3</v>
+      </c>
+      <c r="T104">
+        <v>8.76</v>
+      </c>
+      <c r="U104">
+        <v>58</v>
+      </c>
+      <c r="V104">
+        <v>48</v>
+      </c>
+      <c r="W104">
+        <v>34</v>
+      </c>
+      <c r="X104">
+        <v>86</v>
+      </c>
+      <c r="Y104">
+        <v>84</v>
+      </c>
+      <c r="Z104">
+        <v>19</v>
+      </c>
+      <c r="AA104">
+        <v>1.46</v>
+      </c>
+      <c r="AB104">
+        <v>-0.6</v>
+      </c>
+      <c r="AC104">
+        <v>5.17</v>
+      </c>
+      <c r="AD104">
+        <v>-3.8</v>
+      </c>
+      <c r="AE104">
+        <v>-2.09</v>
+      </c>
+      <c r="AF104">
+        <v>6.37</v>
+      </c>
+      <c r="AG104">
+        <v>4.25</v>
+      </c>
+      <c r="AH104">
+        <v>42.11</v>
+      </c>
+      <c r="AI104">
+        <v>42.11</v>
+      </c>
+      <c r="AJ104">
+        <v>26.32</v>
+      </c>
+      <c r="AK104">
+        <v>68.42</v>
+      </c>
+      <c r="AL104">
+        <v>68.42</v>
+      </c>
+      <c r="AM104">
+        <v>2</v>
+      </c>
+      <c r="AN104">
+        <v>-5.62</v>
+      </c>
+      <c r="AO104">
+        <v>-9.039999999999999</v>
+      </c>
+      <c r="AP104">
+        <v>-4.16</v>
+      </c>
+      <c r="AQ104">
+        <v>-9.359999999999999</v>
+      </c>
+      <c r="AR104">
+        <v>-3.45</v>
+      </c>
+      <c r="AS104">
+        <v>-4.79</v>
+      </c>
+      <c r="AT104">
+        <v>-8.27</v>
+      </c>
+      <c r="AU104">
+        <v>0</v>
+      </c>
+      <c r="AV104">
+        <v>0</v>
+      </c>
+      <c r="AW104">
+        <v>0</v>
+      </c>
+      <c r="AX104">
+        <v>50</v>
+      </c>
+      <c r="AY104">
+        <v>0</v>
+      </c>
+      <c r="AZ104">
+        <v>38</v>
+      </c>
+      <c r="BA104">
+        <v>-0.46</v>
+      </c>
+      <c r="BB104">
+        <v>-0.77</v>
+      </c>
+      <c r="BC104">
+        <v>3.72</v>
+      </c>
+      <c r="BD104">
+        <v>-3.25</v>
+      </c>
+      <c r="BE104">
+        <v>-0.29</v>
+      </c>
+      <c r="BF104">
+        <v>5.23</v>
+      </c>
+      <c r="BG104">
+        <v>4.92</v>
+      </c>
+      <c r="BH104">
+        <v>36.84</v>
+      </c>
+      <c r="BI104">
+        <v>34.21</v>
+      </c>
+      <c r="BJ104">
+        <v>39.47</v>
+      </c>
+      <c r="BK104">
+        <v>86.84</v>
+      </c>
+      <c r="BL104">
+        <v>81.58</v>
+      </c>
+      <c r="BM104">
+        <v>7</v>
+      </c>
+      <c r="BN104">
+        <v>-4.8</v>
+      </c>
+      <c r="BO104">
+        <v>-3.85</v>
+      </c>
+      <c r="BP104">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="BQ104">
+        <v>-7.13</v>
+      </c>
+      <c r="BR104">
+        <v>0.99</v>
+      </c>
+      <c r="BS104">
+        <v>-11</v>
+      </c>
+      <c r="BT104">
+        <v>-10.09</v>
+      </c>
+      <c r="BU104">
+        <v>0</v>
+      </c>
+      <c r="BV104">
+        <v>28.57</v>
+      </c>
+      <c r="BW104">
+        <v>28.57</v>
+      </c>
+      <c r="BX104">
+        <v>0</v>
+      </c>
+      <c r="BY104">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:77">
+      <c r="A105">
+        <v>20250311</v>
+      </c>
+      <c r="B105">
+        <v>2881</v>
+      </c>
+      <c r="C105">
+        <v>2282</v>
+      </c>
+      <c r="D105">
+        <v>221</v>
+      </c>
+      <c r="E105">
+        <v>239</v>
+      </c>
+      <c r="F105">
+        <v>52</v>
+      </c>
+      <c r="G105">
+        <v>127</v>
+      </c>
+      <c r="H105">
+        <v>15</v>
+      </c>
+      <c r="I105">
+        <v>52</v>
+      </c>
+      <c r="J105">
+        <v>2</v>
+      </c>
+      <c r="K105">
+        <v>16</v>
+      </c>
+      <c r="L105">
+        <v>12</v>
+      </c>
+      <c r="M105">
+        <v>73</v>
+      </c>
+      <c r="N105">
+        <v>-0.21</v>
+      </c>
+      <c r="O105">
+        <v>1.56</v>
+      </c>
+      <c r="P105">
+        <v>4.35</v>
+      </c>
+      <c r="Q105">
+        <v>-2.74</v>
+      </c>
+      <c r="R105">
+        <v>1.78</v>
+      </c>
+      <c r="S105">
+        <v>7.54</v>
+      </c>
+      <c r="T105">
+        <v>9.42</v>
+      </c>
+      <c r="U105">
+        <v>32.88</v>
+      </c>
+      <c r="V105">
+        <v>54.79</v>
+      </c>
+      <c r="W105">
+        <v>58.9</v>
+      </c>
+      <c r="X105">
+        <v>95.89</v>
+      </c>
+      <c r="Y105">
+        <v>94.52</v>
+      </c>
+      <c r="Z105">
+        <v>12</v>
+      </c>
+      <c r="AA105">
+        <v>0.76</v>
+      </c>
+      <c r="AB105">
+        <v>4.53</v>
+      </c>
+      <c r="AC105">
+        <v>6.64</v>
+      </c>
+      <c r="AD105">
+        <v>-1.92</v>
+      </c>
+      <c r="AE105">
+        <v>3.78</v>
+      </c>
+      <c r="AF105">
+        <v>4.91</v>
+      </c>
+      <c r="AG105">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AH105">
+        <v>58.33</v>
+      </c>
+      <c r="AI105">
+        <v>66.67</v>
+      </c>
+      <c r="AJ105">
+        <v>83.33</v>
+      </c>
+      <c r="AK105">
+        <v>75</v>
+      </c>
+      <c r="AL105">
+        <v>75</v>
+      </c>
+      <c r="AM105">
+        <v>1</v>
+      </c>
+      <c r="AN105">
+        <v>-9.65</v>
+      </c>
+      <c r="AO105">
+        <v>-9.65</v>
+      </c>
+      <c r="AP105">
+        <v>-9.65</v>
+      </c>
+      <c r="AQ105">
+        <v>-9.65</v>
+      </c>
+      <c r="AR105">
+        <v>0</v>
+      </c>
+      <c r="AS105">
+        <v>-9.65</v>
+      </c>
+      <c r="AT105">
+        <v>-9.65</v>
+      </c>
+      <c r="AU105">
+        <v>0</v>
+      </c>
+      <c r="AV105">
+        <v>0</v>
+      </c>
+      <c r="AW105">
+        <v>0</v>
+      </c>
+      <c r="AX105">
+        <v>0</v>
+      </c>
+      <c r="AY105">
+        <v>0</v>
+      </c>
+      <c r="AZ105">
+        <v>15</v>
+      </c>
+      <c r="BA105">
+        <v>-3.31</v>
+      </c>
+      <c r="BB105">
+        <v>-1.5</v>
+      </c>
+      <c r="BC105">
+        <v>1.3</v>
+      </c>
+      <c r="BD105">
+        <v>-5.08</v>
+      </c>
+      <c r="BE105">
+        <v>1.88</v>
+      </c>
+      <c r="BF105">
+        <v>-1.49</v>
+      </c>
+      <c r="BG105">
+        <v>0.36</v>
+      </c>
+      <c r="BH105">
+        <v>6.67</v>
+      </c>
+      <c r="BI105">
+        <v>40</v>
+      </c>
+      <c r="BJ105">
+        <v>80</v>
+      </c>
+      <c r="BK105">
+        <v>53.33</v>
+      </c>
+      <c r="BL105">
+        <v>53.33</v>
+      </c>
+      <c r="BM105">
+        <v>6</v>
+      </c>
+      <c r="BN105">
+        <v>-4.31</v>
+      </c>
+      <c r="BO105">
+        <v>-0.47</v>
+      </c>
+      <c r="BP105">
+        <v>1.28</v>
+      </c>
+      <c r="BQ105">
+        <v>-5.21</v>
+      </c>
+      <c r="BR105">
+        <v>3.97</v>
+      </c>
+      <c r="BS105">
+        <v>-8.369999999999999</v>
+      </c>
+      <c r="BT105">
+        <v>-4.78</v>
+      </c>
+      <c r="BU105">
+        <v>16.67</v>
+      </c>
+      <c r="BV105">
+        <v>33.33</v>
+      </c>
+      <c r="BW105">
+        <v>83.33</v>
+      </c>
+      <c r="BX105">
+        <v>0</v>
+      </c>
+      <c r="BY105">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:77">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106">
+        <v>2627</v>
+      </c>
+      <c r="C106">
+        <v>2560</v>
+      </c>
+      <c r="D106">
+        <v>196</v>
+      </c>
+      <c r="E106">
+        <v>267</v>
+      </c>
+      <c r="F106">
+        <v>40</v>
+      </c>
+      <c r="G106">
+        <v>155</v>
+      </c>
+      <c r="H106">
+        <v>11</v>
+      </c>
+      <c r="I106">
+        <v>76</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>18</v>
+      </c>
+      <c r="L106">
+        <v>46</v>
+      </c>
+      <c r="M106">
+        <v>52</v>
+      </c>
+      <c r="N106">
+        <v>3.81</v>
+      </c>
+      <c r="O106">
+        <v>2.89</v>
+      </c>
+      <c r="P106">
+        <v>7.27</v>
+      </c>
+      <c r="Q106">
+        <v>-0.49</v>
+      </c>
+      <c r="R106">
+        <v>-0.86</v>
+      </c>
+      <c r="S106">
+        <v>14.45</v>
+      </c>
+      <c r="T106">
+        <v>13.43</v>
+      </c>
+      <c r="U106">
+        <v>78.84999999999999</v>
+      </c>
+      <c r="V106">
+        <v>59.62</v>
+      </c>
+      <c r="W106">
+        <v>38.46</v>
+      </c>
+      <c r="X106">
+        <v>100</v>
+      </c>
+      <c r="Y106">
+        <v>96.15000000000001</v>
+      </c>
+      <c r="Z106">
+        <v>16</v>
+      </c>
+      <c r="AA106">
+        <v>5.88</v>
+      </c>
+      <c r="AB106">
+        <v>4.6</v>
+      </c>
+      <c r="AC106">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="AD106">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AE106">
+        <v>-1.21</v>
+      </c>
+      <c r="AF106">
+        <v>11.97</v>
+      </c>
+      <c r="AG106">
+        <v>10.62</v>
+      </c>
+      <c r="AH106">
+        <v>93.75</v>
+      </c>
+      <c r="AI106">
+        <v>68.75</v>
+      </c>
+      <c r="AJ106">
+        <v>31.25</v>
+      </c>
+      <c r="AK106">
+        <v>100</v>
+      </c>
+      <c r="AL106">
+        <v>87.5</v>
+      </c>
+      <c r="AM106">
+        <v>4</v>
+      </c>
+      <c r="AN106">
+        <v>-5.69</v>
+      </c>
+      <c r="AO106">
+        <v>1.4</v>
+      </c>
+      <c r="AP106">
+        <v>3.09</v>
+      </c>
+      <c r="AQ106">
+        <v>-6.43</v>
+      </c>
+      <c r="AR106">
+        <v>7.66</v>
+      </c>
+      <c r="AS106">
+        <v>-3.88</v>
+      </c>
+      <c r="AT106">
+        <v>3.27</v>
+      </c>
+      <c r="AU106">
+        <v>0</v>
+      </c>
+      <c r="AV106">
+        <v>75</v>
+      </c>
+      <c r="AW106">
+        <v>75</v>
+      </c>
+      <c r="AX106">
+        <v>25</v>
+      </c>
+      <c r="AY106">
+        <v>75</v>
+      </c>
+      <c r="AZ106">
+        <v>12</v>
+      </c>
+      <c r="BA106">
+        <v>-0.52</v>
+      </c>
+      <c r="BB106">
+        <v>0.14</v>
+      </c>
+      <c r="BC106">
+        <v>3.37</v>
+      </c>
+      <c r="BD106">
+        <v>-3.4</v>
+      </c>
+      <c r="BE106">
+        <v>0.71</v>
+      </c>
+      <c r="BF106">
+        <v>7.2</v>
+      </c>
+      <c r="BG106">
+        <v>7.95</v>
+      </c>
+      <c r="BH106">
+        <v>41.67</v>
+      </c>
+      <c r="BI106">
+        <v>33.33</v>
+      </c>
+      <c r="BJ106">
+        <v>41.67</v>
+      </c>
+      <c r="BK106">
+        <v>100</v>
+      </c>
+      <c r="BL106">
+        <v>91.67</v>
+      </c>
+      <c r="BM106">
+        <v>2</v>
+      </c>
+      <c r="BN106">
+        <v>-9.85</v>
+      </c>
+      <c r="BO106">
+        <v>-0.13</v>
+      </c>
+      <c r="BP106">
+        <v>-0.13</v>
+      </c>
+      <c r="BQ106">
+        <v>-9.85</v>
+      </c>
+      <c r="BR106">
+        <v>10.76</v>
+      </c>
+      <c r="BS106">
+        <v>-9.85</v>
+      </c>
+      <c r="BT106">
+        <v>-0.13</v>
+      </c>
+      <c r="BU106">
+        <v>0</v>
+      </c>
+      <c r="BV106">
+        <v>50</v>
+      </c>
+      <c r="BW106">
+        <v>50</v>
+      </c>
+      <c r="BX106">
+        <v>0</v>
+      </c>
+      <c r="BY106">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -247,7 +247,7 @@
     <t>跌停_次日收盘盈利比例</t>
   </si>
   <si>
-    <t>20250312</t>
+    <t>20250314</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY106"/>
+  <dimension ref="A1:BY108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21594,8 +21594,8 @@
       </c>
     </row>
     <row r="106" spans="1:77">
-      <c r="A106" t="s">
-        <v>77</v>
+      <c r="A106">
+        <v>20250312</v>
       </c>
       <c r="B106">
         <v>2627</v>
@@ -21824,6 +21824,472 @@
       </c>
       <c r="BY106">
         <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:77">
+      <c r="A107">
+        <v>20250313</v>
+      </c>
+      <c r="B107">
+        <v>1494</v>
+      </c>
+      <c r="C107">
+        <v>3777</v>
+      </c>
+      <c r="D107">
+        <v>114</v>
+      </c>
+      <c r="E107">
+        <v>163</v>
+      </c>
+      <c r="F107">
+        <v>344</v>
+      </c>
+      <c r="G107">
+        <v>93</v>
+      </c>
+      <c r="H107">
+        <v>131</v>
+      </c>
+      <c r="I107">
+        <v>43</v>
+      </c>
+      <c r="J107">
+        <v>11</v>
+      </c>
+      <c r="K107">
+        <v>13</v>
+      </c>
+      <c r="L107">
+        <v>10</v>
+      </c>
+      <c r="M107">
+        <v>76</v>
+      </c>
+      <c r="N107">
+        <v>0.71</v>
+      </c>
+      <c r="O107">
+        <v>-0.34</v>
+      </c>
+      <c r="P107">
+        <v>4.47</v>
+      </c>
+      <c r="Q107">
+        <v>-3.68</v>
+      </c>
+      <c r="R107">
+        <v>-1.04</v>
+      </c>
+      <c r="S107">
+        <v>8.17</v>
+      </c>
+      <c r="T107">
+        <v>7.03</v>
+      </c>
+      <c r="U107">
+        <v>50</v>
+      </c>
+      <c r="V107">
+        <v>44.74</v>
+      </c>
+      <c r="W107">
+        <v>35.53</v>
+      </c>
+      <c r="X107">
+        <v>88.16</v>
+      </c>
+      <c r="Y107">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="Z107">
+        <v>18</v>
+      </c>
+      <c r="AA107">
+        <v>1.17</v>
+      </c>
+      <c r="AB107">
+        <v>2.33</v>
+      </c>
+      <c r="AC107">
+        <v>7.46</v>
+      </c>
+      <c r="AD107">
+        <v>-4.12</v>
+      </c>
+      <c r="AE107">
+        <v>1.16</v>
+      </c>
+      <c r="AF107">
+        <v>4.32</v>
+      </c>
+      <c r="AG107">
+        <v>5.46</v>
+      </c>
+      <c r="AH107">
+        <v>38.89</v>
+      </c>
+      <c r="AI107">
+        <v>61.11</v>
+      </c>
+      <c r="AJ107">
+        <v>44.44</v>
+      </c>
+      <c r="AK107">
+        <v>66.67</v>
+      </c>
+      <c r="AL107">
+        <v>72.22</v>
+      </c>
+      <c r="AM107">
+        <v>2</v>
+      </c>
+      <c r="AN107">
+        <v>-5.71</v>
+      </c>
+      <c r="AO107">
+        <v>-1.29</v>
+      </c>
+      <c r="AP107">
+        <v>-1.07</v>
+      </c>
+      <c r="AQ107">
+        <v>-5.71</v>
+      </c>
+      <c r="AR107">
+        <v>4.5</v>
+      </c>
+      <c r="AS107">
+        <v>3.99</v>
+      </c>
+      <c r="AT107">
+        <v>8.41</v>
+      </c>
+      <c r="AU107">
+        <v>0</v>
+      </c>
+      <c r="AV107">
+        <v>50</v>
+      </c>
+      <c r="AW107">
+        <v>50</v>
+      </c>
+      <c r="AX107">
+        <v>50</v>
+      </c>
+      <c r="AY107">
+        <v>100</v>
+      </c>
+      <c r="AZ107">
+        <v>45</v>
+      </c>
+      <c r="BA107">
+        <v>-1.33</v>
+      </c>
+      <c r="BB107">
+        <v>-1.27</v>
+      </c>
+      <c r="BC107">
+        <v>2.86</v>
+      </c>
+      <c r="BD107">
+        <v>-5.16</v>
+      </c>
+      <c r="BE107">
+        <v>0.08</v>
+      </c>
+      <c r="BF107">
+        <v>2.45</v>
+      </c>
+      <c r="BG107">
+        <v>2.53</v>
+      </c>
+      <c r="BH107">
+        <v>15.56</v>
+      </c>
+      <c r="BI107">
+        <v>44.44</v>
+      </c>
+      <c r="BJ107">
+        <v>48.89</v>
+      </c>
+      <c r="BK107">
+        <v>75.56</v>
+      </c>
+      <c r="BL107">
+        <v>62.22</v>
+      </c>
+      <c r="BM107">
+        <v>1</v>
+      </c>
+      <c r="BN107">
+        <v>-1.7</v>
+      </c>
+      <c r="BO107">
+        <v>7.15</v>
+      </c>
+      <c r="BP107">
+        <v>7.6</v>
+      </c>
+      <c r="BQ107">
+        <v>-1.7</v>
+      </c>
+      <c r="BR107">
+        <v>9</v>
+      </c>
+      <c r="BS107">
+        <v>-1.7</v>
+      </c>
+      <c r="BT107">
+        <v>7.15</v>
+      </c>
+      <c r="BU107">
+        <v>0</v>
+      </c>
+      <c r="BV107">
+        <v>100</v>
+      </c>
+      <c r="BW107">
+        <v>100</v>
+      </c>
+      <c r="BX107">
+        <v>0</v>
+      </c>
+      <c r="BY107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:77">
+      <c r="A108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108">
+        <v>4495</v>
+      </c>
+      <c r="C108">
+        <v>790</v>
+      </c>
+      <c r="D108">
+        <v>100</v>
+      </c>
+      <c r="E108">
+        <v>434</v>
+      </c>
+      <c r="F108">
+        <v>60</v>
+      </c>
+      <c r="G108">
+        <v>213</v>
+      </c>
+      <c r="H108">
+        <v>27</v>
+      </c>
+      <c r="I108">
+        <v>81</v>
+      </c>
+      <c r="J108">
+        <v>6</v>
+      </c>
+      <c r="K108">
+        <v>14</v>
+      </c>
+      <c r="L108">
+        <v>24</v>
+      </c>
+      <c r="M108">
+        <v>43</v>
+      </c>
+      <c r="N108">
+        <v>1.94</v>
+      </c>
+      <c r="O108">
+        <v>2.38</v>
+      </c>
+      <c r="P108">
+        <v>6.79</v>
+      </c>
+      <c r="Q108">
+        <v>-1.74</v>
+      </c>
+      <c r="R108">
+        <v>0.47</v>
+      </c>
+      <c r="S108">
+        <v>11.25</v>
+      </c>
+      <c r="T108">
+        <v>11.77</v>
+      </c>
+      <c r="U108">
+        <v>58.14</v>
+      </c>
+      <c r="V108">
+        <v>51.16</v>
+      </c>
+      <c r="W108">
+        <v>41.86</v>
+      </c>
+      <c r="X108">
+        <v>88.37</v>
+      </c>
+      <c r="Y108">
+        <v>88.37</v>
+      </c>
+      <c r="Z108">
+        <v>13</v>
+      </c>
+      <c r="AA108">
+        <v>-1.54</v>
+      </c>
+      <c r="AB108">
+        <v>0.13</v>
+      </c>
+      <c r="AC108">
+        <v>4.33</v>
+      </c>
+      <c r="AD108">
+        <v>-4.73</v>
+      </c>
+      <c r="AE108">
+        <v>1.8</v>
+      </c>
+      <c r="AF108">
+        <v>3.68</v>
+      </c>
+      <c r="AG108">
+        <v>5.55</v>
+      </c>
+      <c r="AH108">
+        <v>30.77</v>
+      </c>
+      <c r="AI108">
+        <v>46.15</v>
+      </c>
+      <c r="AJ108">
+        <v>38.46</v>
+      </c>
+      <c r="AK108">
+        <v>61.54</v>
+      </c>
+      <c r="AL108">
+        <v>69.23</v>
+      </c>
+      <c r="AM108">
+        <v>1</v>
+      </c>
+      <c r="AN108">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="AO108">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="AP108">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="AQ108">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="AR108">
+        <v>0</v>
+      </c>
+      <c r="AS108">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="AT108">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="AU108">
+        <v>0</v>
+      </c>
+      <c r="AV108">
+        <v>0</v>
+      </c>
+      <c r="AW108">
+        <v>0</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>0</v>
+      </c>
+      <c r="AZ108">
+        <v>10</v>
+      </c>
+      <c r="BA108">
+        <v>-1.55</v>
+      </c>
+      <c r="BB108">
+        <v>-1.11</v>
+      </c>
+      <c r="BC108">
+        <v>2.35</v>
+      </c>
+      <c r="BD108">
+        <v>-5.52</v>
+      </c>
+      <c r="BE108">
+        <v>0.43</v>
+      </c>
+      <c r="BF108">
+        <v>-0.58</v>
+      </c>
+      <c r="BG108">
+        <v>-0.09</v>
+      </c>
+      <c r="BH108">
+        <v>20</v>
+      </c>
+      <c r="BI108">
+        <v>50</v>
+      </c>
+      <c r="BJ108">
+        <v>50</v>
+      </c>
+      <c r="BK108">
+        <v>60</v>
+      </c>
+      <c r="BL108">
+        <v>60</v>
+      </c>
+      <c r="BM108">
+        <v>11</v>
+      </c>
+      <c r="BN108">
+        <v>-2.49</v>
+      </c>
+      <c r="BO108">
+        <v>-1.69</v>
+      </c>
+      <c r="BP108">
+        <v>0.54</v>
+      </c>
+      <c r="BQ108">
+        <v>-5.14</v>
+      </c>
+      <c r="BR108">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="BS108">
+        <v>-9.31</v>
+      </c>
+      <c r="BT108">
+        <v>-8.59</v>
+      </c>
+      <c r="BU108">
+        <v>18.18</v>
+      </c>
+      <c r="BV108">
+        <v>45.45</v>
+      </c>
+      <c r="BW108">
+        <v>54.55</v>
+      </c>
+      <c r="BX108">
+        <v>0</v>
+      </c>
+      <c r="BY108">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3CC021-7AAE-4907-B45A-B0FDE5AA3728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>日期</t>
   </si>
@@ -364,285 +358,18 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250205</t>
-  </si>
-  <si>
-    <t>20250206</t>
-  </si>
-  <si>
-    <t>20250207</t>
-  </si>
-  <si>
-    <t>20250210</t>
-  </si>
-  <si>
-    <t>20250211</t>
-  </si>
-  <si>
-    <t>20250212</t>
-  </si>
-  <si>
-    <t>20250213</t>
-  </si>
-  <si>
-    <t>20250214</t>
-  </si>
-  <si>
-    <t>20250217</t>
-  </si>
-  <si>
-    <t>20250218</t>
-  </si>
-  <si>
-    <t>20250219</t>
-  </si>
-  <si>
-    <t>20250220</t>
-  </si>
-  <si>
-    <t>20250221</t>
-  </si>
-  <si>
-    <t>20250224</t>
-  </si>
-  <si>
-    <t>20250225</t>
-  </si>
-  <si>
-    <t>20250226</t>
-  </si>
-  <si>
-    <t>20250227</t>
-  </si>
-  <si>
-    <t>20241101</t>
-  </si>
-  <si>
-    <t>20241104</t>
-  </si>
-  <si>
-    <t>20241105</t>
-  </si>
-  <si>
-    <t>20241106</t>
-  </si>
-  <si>
-    <t>20241107</t>
-  </si>
-  <si>
-    <t>20241108</t>
-  </si>
-  <si>
-    <t>20241111</t>
-  </si>
-  <si>
-    <t>20241112</t>
-  </si>
-  <si>
-    <t>20241113</t>
-  </si>
-  <si>
-    <t>20241114</t>
-  </si>
-  <si>
-    <t>20241115</t>
-  </si>
-  <si>
-    <t>20241118</t>
-  </si>
-  <si>
-    <t>20241119</t>
-  </si>
-  <si>
-    <t>20241120</t>
-  </si>
-  <si>
-    <t>20241121</t>
-  </si>
-  <si>
-    <t>20241122</t>
-  </si>
-  <si>
-    <t>20241125</t>
-  </si>
-  <si>
-    <t>20241126</t>
-  </si>
-  <si>
-    <t>20241127</t>
-  </si>
-  <si>
-    <t>20241128</t>
-  </si>
-  <si>
-    <t>20241129</t>
-  </si>
-  <si>
-    <t>20241202</t>
-  </si>
-  <si>
-    <t>20241203</t>
-  </si>
-  <si>
-    <t>20241204</t>
-  </si>
-  <si>
-    <t>20241205</t>
-  </si>
-  <si>
-    <t>20241206</t>
-  </si>
-  <si>
-    <t>20241209</t>
-  </si>
-  <si>
-    <t>20241210</t>
-  </si>
-  <si>
-    <t>20241211</t>
-  </si>
-  <si>
-    <t>20241212</t>
-  </si>
-  <si>
-    <t>20241213</t>
-  </si>
-  <si>
-    <t>20241216</t>
-  </si>
-  <si>
-    <t>20241217</t>
-  </si>
-  <si>
-    <t>20241218</t>
-  </si>
-  <si>
-    <t>20241219</t>
-  </si>
-  <si>
-    <t>20241220</t>
-  </si>
-  <si>
-    <t>20241223</t>
-  </si>
-  <si>
-    <t>20241224</t>
-  </si>
-  <si>
-    <t>20241225</t>
-  </si>
-  <si>
-    <t>20241226</t>
-  </si>
-  <si>
-    <t>20241227</t>
-  </si>
-  <si>
-    <t>20241230</t>
-  </si>
-  <si>
-    <t>20241231</t>
-  </si>
-  <si>
-    <t>20250102</t>
-  </si>
-  <si>
-    <t>20250103</t>
-  </si>
-  <si>
-    <t>20250106</t>
-  </si>
-  <si>
-    <t>20250107</t>
-  </si>
-  <si>
-    <t>20250108</t>
-  </si>
-  <si>
-    <t>20250109</t>
-  </si>
-  <si>
-    <t>20250110</t>
-  </si>
-  <si>
-    <t>20250113</t>
-  </si>
-  <si>
-    <t>20250114</t>
-  </si>
-  <si>
-    <t>20250115</t>
-  </si>
-  <si>
-    <t>20250116</t>
-  </si>
-  <si>
-    <t>20250117</t>
-  </si>
-  <si>
-    <t>20250120</t>
-  </si>
-  <si>
-    <t>20250121</t>
-  </si>
-  <si>
-    <t>20250122</t>
-  </si>
-  <si>
-    <t>20250123</t>
-  </si>
-  <si>
-    <t>20250124</t>
-  </si>
-  <si>
-    <t>20250127</t>
-  </si>
-  <si>
-    <t>20250228</t>
-  </si>
-  <si>
-    <t>20250303</t>
-  </si>
-  <si>
-    <t>20250304</t>
-  </si>
-  <si>
-    <t>20250305</t>
-  </si>
-  <si>
-    <t>20250306</t>
-  </si>
-  <si>
-    <t>20250307</t>
-  </si>
-  <si>
-    <t>20250310</t>
-  </si>
-  <si>
-    <t>20250311</t>
-  </si>
-  <si>
-    <t>20250312</t>
-  </si>
-  <si>
-    <t>20250313</t>
-  </si>
-  <si>
-    <t>20250314</t>
-  </si>
-  <si>
-    <t>20250317</t>
+    <t>20250318</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -650,15 +377,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -697,36 +417,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -764,7 +472,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -798,7 +506,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -833,10 +540,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1009,17 +715,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DJ91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:DJ92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:114">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1362,9 +1066,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>131</v>
+    <row r="2" spans="1:114">
+      <c r="A2">
+        <v>20241101</v>
       </c>
       <c r="B2">
         <v>976</v>
@@ -1430,10 +1134,10 @@
         <v>-0.88</v>
       </c>
       <c r="W2">
-        <v>89.6</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="X2">
-        <v>38.729999999999997</v>
+        <v>38.73</v>
       </c>
       <c r="Y2">
         <v>11.56</v>
@@ -1442,13 +1146,13 @@
         <v>98.84</v>
       </c>
       <c r="AA2">
-        <v>68.209999999999994</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="AB2">
-        <v>89.6</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="AC2">
-        <v>38.729999999999997</v>
+        <v>38.73</v>
       </c>
       <c r="AD2">
         <v>78</v>
@@ -1457,7 +1161,7 @@
         <v>5.9</v>
       </c>
       <c r="AF2">
-        <v>-2.2400000000000002</v>
+        <v>-2.24</v>
       </c>
       <c r="AG2">
         <v>8.74</v>
@@ -1478,16 +1182,16 @@
         <v>5.9</v>
       </c>
       <c r="AM2">
-        <v>-2.2400000000000002</v>
+        <v>-2.24</v>
       </c>
       <c r="AN2">
-        <v>89.74</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="AO2">
-        <v>32.049999999999997</v>
+        <v>32.05</v>
       </c>
       <c r="AP2">
-        <v>8.9700000000000006</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AQ2">
         <v>97.44</v>
@@ -1496,10 +1200,10 @@
         <v>46.15</v>
       </c>
       <c r="AS2">
-        <v>89.74</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="AT2">
-        <v>32.049999999999997</v>
+        <v>32.05</v>
       </c>
       <c r="AU2">
         <v>1</v>
@@ -1508,13 +1212,13 @@
         <v>-7.03</v>
       </c>
       <c r="AW2">
-        <v>-9.9499999999999993</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="AX2">
         <v>-5.95</v>
       </c>
       <c r="AY2">
-        <v>-9.9499999999999993</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="AZ2">
         <v>-3.14</v>
@@ -1523,7 +1227,7 @@
         <v>-1.6</v>
       </c>
       <c r="BB2">
-        <v>-4.6900000000000004</v>
+        <v>-4.69</v>
       </c>
       <c r="BC2">
         <v>-16.91</v>
@@ -1628,13 +1332,13 @@
         <v>-1.26</v>
       </c>
       <c r="CK2">
-        <v>-4.6500000000000004</v>
+        <v>-4.65</v>
       </c>
       <c r="CL2">
         <v>-9.32</v>
       </c>
       <c r="CM2">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="CN2">
         <v>15.29</v>
@@ -1643,7 +1347,7 @@
         <v>14.12</v>
       </c>
       <c r="CP2">
-        <v>78.819999999999993</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="CQ2">
         <v>36.47</v>
@@ -1706,9 +1410,9 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>132</v>
+    <row r="3" spans="1:114">
+      <c r="A3">
+        <v>20241104</v>
       </c>
       <c r="B3">
         <v>4496</v>
@@ -1756,7 +1460,7 @@
         <v>6.55</v>
       </c>
       <c r="Q3">
-        <v>-4.1500000000000004</v>
+        <v>-4.15</v>
       </c>
       <c r="R3">
         <v>-1.49</v>
@@ -1765,7 +1469,7 @@
         <v>10.33</v>
       </c>
       <c r="T3">
-        <v>8.6199999999999992</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="U3">
         <v>3.04</v>
@@ -1774,7 +1478,7 @@
         <v>1.46</v>
       </c>
       <c r="W3">
-        <v>65.260000000000005</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="X3">
         <v>53.68</v>
@@ -1789,7 +1493,7 @@
         <v>80</v>
       </c>
       <c r="AB3">
-        <v>65.260000000000005</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="AC3">
         <v>53.68</v>
@@ -1798,7 +1502,7 @@
         <v>40</v>
       </c>
       <c r="AE3">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="AF3">
         <v>1.31</v>
@@ -1810,7 +1514,7 @@
         <v>-5.68</v>
       </c>
       <c r="AI3">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="AJ3">
         <v>4.42</v>
@@ -1819,7 +1523,7 @@
         <v>3.73</v>
       </c>
       <c r="AL3">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="AM3">
         <v>1.31</v>
@@ -1954,7 +1658,7 @@
         <v>-2.02</v>
       </c>
       <c r="CE3">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="CF3">
         <v>4.05</v>
@@ -1972,7 +1676,7 @@
         <v>-1.42</v>
       </c>
       <c r="CK3">
-        <v>-9.5399999999999991</v>
+        <v>-9.539999999999999</v>
       </c>
       <c r="CL3">
         <v>-7.52</v>
@@ -1981,7 +1685,7 @@
         <v>28.3</v>
       </c>
       <c r="CN3">
-        <v>39.619999999999997</v>
+        <v>39.62</v>
       </c>
       <c r="CO3">
         <v>54.72</v>
@@ -2050,9 +1754,9 @@
         <v>39.19</v>
       </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>133</v>
+    <row r="4" spans="1:114">
+      <c r="A4">
+        <v>20241105</v>
       </c>
       <c r="B4">
         <v>5070</v>
@@ -2121,13 +1825,13 @@
         <v>80</v>
       </c>
       <c r="X4">
-        <v>88.57</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="Y4">
         <v>57.86</v>
       </c>
       <c r="Z4">
-        <v>99.29</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="AA4">
         <v>100</v>
@@ -2136,7 +1840,7 @@
         <v>80</v>
       </c>
       <c r="AC4">
-        <v>88.57</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="AD4">
         <v>50</v>
@@ -2217,7 +1921,7 @@
         <v>-6.27</v>
       </c>
       <c r="BD4">
-        <v>-2.2000000000000002</v>
+        <v>-2.2</v>
       </c>
       <c r="BE4">
         <v>20.83</v>
@@ -2250,7 +1954,7 @@
         <v>0.52</v>
       </c>
       <c r="BO4">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="BP4">
         <v>-6.56</v>
@@ -2262,10 +1966,10 @@
         <v>-5.49</v>
       </c>
       <c r="BS4">
-        <v>-0.28000000000000003</v>
+        <v>-0.28</v>
       </c>
       <c r="BT4">
-        <v>-8.3000000000000007</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="BU4">
         <v>-3.2</v>
@@ -2313,7 +2017,7 @@
         <v>3.4</v>
       </c>
       <c r="CJ4">
-        <v>8.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="CK4">
         <v>-5.48</v>
@@ -2340,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="CS4">
-        <v>34.479999999999997</v>
+        <v>34.48</v>
       </c>
       <c r="CT4">
         <v>169</v>
@@ -2358,7 +2062,7 @@
         <v>-0.5</v>
       </c>
       <c r="CY4">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="CZ4">
         <v>11.27</v>
@@ -2370,13 +2074,13 @@
         <v>2.14</v>
       </c>
       <c r="DC4">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="DD4">
         <v>68.64</v>
       </c>
       <c r="DE4">
-        <v>85.21</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="DF4">
         <v>61.54</v>
@@ -2391,12 +2095,12 @@
         <v>66.27</v>
       </c>
       <c r="DJ4">
-        <v>79.290000000000006</v>
+        <v>79.29000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>134</v>
+    <row r="5" spans="1:114">
+      <c r="A5">
+        <v>20241106</v>
       </c>
       <c r="B5">
         <v>2828</v>
@@ -2441,7 +2145,7 @@
         <v>5.21</v>
       </c>
       <c r="P5">
-        <v>9.11</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="Q5">
         <v>1.24</v>
@@ -2543,10 +2247,10 @@
         <v>-7.31</v>
       </c>
       <c r="AX5">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AY5">
-        <v>-8.8000000000000007</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AZ5">
         <v>-3.98</v>
@@ -2591,7 +2295,7 @@
         <v>-1.22</v>
       </c>
       <c r="CE5">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="CF5">
         <v>4.72</v>
@@ -2624,10 +2328,10 @@
         <v>54.55</v>
       </c>
       <c r="CP5">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="CQ5">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="CR5">
         <v>3.03</v>
@@ -2645,7 +2349,7 @@
         <v>4.37</v>
       </c>
       <c r="CW5">
-        <v>8.36</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="CX5">
         <v>0.39</v>
@@ -2669,7 +2373,7 @@
         <v>70.98</v>
       </c>
       <c r="DE5">
-        <v>78.239999999999995</v>
+        <v>78.23999999999999</v>
       </c>
       <c r="DF5">
         <v>45.08</v>
@@ -2687,9 +2391,9 @@
         <v>74.61</v>
       </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>135</v>
+    <row r="6" spans="1:114">
+      <c r="A6">
+        <v>20241107</v>
       </c>
       <c r="B6">
         <v>4528</v>
@@ -2761,13 +2465,13 @@
         <v>74.8</v>
       </c>
       <c r="Y6">
-        <v>40.159999999999997</v>
+        <v>40.16</v>
       </c>
       <c r="Z6">
         <v>91.34</v>
       </c>
       <c r="AA6">
-        <v>87.4</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="AB6">
         <v>73.23</v>
@@ -2830,13 +2534,13 @@
         <v>3</v>
       </c>
       <c r="BM6">
-        <v>-8.1999999999999993</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="BN6">
-        <v>-8.3800000000000008</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="BO6">
-        <v>-2.4300000000000002</v>
+        <v>-2.43</v>
       </c>
       <c r="BP6">
         <v>-10</v>
@@ -2923,7 +2627,7 @@
         <v>81.69</v>
       </c>
       <c r="CR6">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="CS6">
         <v>32.39</v>
@@ -2947,7 +2651,7 @@
         <v>1.25</v>
       </c>
       <c r="CZ6">
-        <v>8.0399999999999991</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="DA6">
         <v>9.26</v>
@@ -2971,7 +2675,7 @@
         <v>84.34</v>
       </c>
       <c r="DH6">
-        <v>85.35</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="DI6">
         <v>48.48</v>
@@ -2980,9 +2684,9 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>136</v>
+    <row r="7" spans="1:114">
+      <c r="A7">
+        <v>20241108</v>
       </c>
       <c r="B7">
         <v>2222</v>
@@ -3057,10 +2761,10 @@
         <v>21.16</v>
       </c>
       <c r="Z7">
-        <v>97.35</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="AA7">
-        <v>94.18</v>
+        <v>94.18000000000001</v>
       </c>
       <c r="AB7">
         <v>87.83</v>
@@ -3078,7 +2782,7 @@
         <v>2.48</v>
       </c>
       <c r="AG7">
-        <v>8.7200000000000006</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="AH7">
         <v>-1.38</v>
@@ -3132,13 +2836,13 @@
         <v>2.88</v>
       </c>
       <c r="BP7">
-        <v>-8.1199999999999992</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="BQ7">
         <v>1.67</v>
       </c>
       <c r="BR7">
-        <v>-8.7100000000000009</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="BS7">
         <v>-7.27</v>
@@ -3147,7 +2851,7 @@
         <v>-11.44</v>
       </c>
       <c r="BU7">
-        <v>-10.029999999999999</v>
+        <v>-10.03</v>
       </c>
       <c r="BV7">
         <v>14.29</v>
@@ -3213,7 +2917,7 @@
         <v>66.67</v>
       </c>
       <c r="CQ7">
-        <v>71.790000000000006</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="CR7">
         <v>5.13</v>
@@ -3249,7 +2953,7 @@
         <v>3.01</v>
       </c>
       <c r="DC7">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="DD7">
         <v>75.88</v>
@@ -3264,18 +2968,18 @@
         <v>92.11</v>
       </c>
       <c r="DH7">
-        <v>90.35</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="DI7">
-        <v>73.680000000000007</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="DJ7">
         <v>45.61</v>
       </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>137</v>
+    <row r="8" spans="1:114">
+      <c r="A8">
+        <v>20241111</v>
       </c>
       <c r="B8">
         <v>3940</v>
@@ -3329,7 +3033,7 @@
         <v>1.2</v>
       </c>
       <c r="S8">
-        <v>9.5299999999999994</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="T8">
         <v>10.88</v>
@@ -3350,10 +3054,10 @@
         <v>50.93</v>
       </c>
       <c r="Z8">
-        <v>87.04</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="AA8">
-        <v>87.04</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="AB8">
         <v>64.81</v>
@@ -3434,7 +3138,7 @@
         <v>-0.44</v>
       </c>
       <c r="BB8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="BC8">
         <v>-10.01</v>
@@ -3527,7 +3231,7 @@
         <v>3.59</v>
       </c>
       <c r="CG8">
-        <v>-4.5599999999999996</v>
+        <v>-4.56</v>
       </c>
       <c r="CH8">
         <v>2.48</v>
@@ -3542,7 +3246,7 @@
         <v>-7.31</v>
       </c>
       <c r="CL8">
-        <v>-4.9800000000000004</v>
+        <v>-4.98</v>
       </c>
       <c r="CM8">
         <v>16.07</v>
@@ -3551,13 +3255,13 @@
         <v>55.36</v>
       </c>
       <c r="CO8">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="CP8">
         <v>53.57</v>
       </c>
       <c r="CQ8">
-        <v>64.290000000000006</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="CR8">
         <v>3.57</v>
@@ -3578,7 +3282,7 @@
         <v>6.41</v>
       </c>
       <c r="CX8">
-        <v>-2.4900000000000002</v>
+        <v>-2.49</v>
       </c>
       <c r="CY8">
         <v>1.64</v>
@@ -3590,7 +3294,7 @@
         <v>7.73</v>
       </c>
       <c r="DB8">
-        <v>-0.81</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="DC8">
         <v>0.79</v>
@@ -3599,7 +3303,7 @@
         <v>48.17</v>
       </c>
       <c r="DE8">
-        <v>65.849999999999994</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="DF8">
         <v>57.93</v>
@@ -3617,9 +3321,9 @@
         <v>56.71</v>
       </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>138</v>
+    <row r="9" spans="1:114">
+      <c r="A9">
+        <v>20241112</v>
       </c>
       <c r="B9">
         <v>1486</v>
@@ -3676,7 +3380,7 @@
         <v>12.22</v>
       </c>
       <c r="T9">
-        <v>8.4700000000000006</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="U9">
         <v>3.41</v>
@@ -3697,7 +3401,7 @@
         <v>95.59</v>
       </c>
       <c r="AA9">
-        <v>85.29</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="AB9">
         <v>75</v>
@@ -3724,10 +3428,10 @@
         <v>-3.45</v>
       </c>
       <c r="AJ9">
-        <v>8.7899999999999991</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AK9">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="AL9">
         <v>3.25</v>
@@ -3739,7 +3443,7 @@
         <v>63.64</v>
       </c>
       <c r="AO9">
-        <v>40.909999999999997</v>
+        <v>40.91</v>
       </c>
       <c r="AP9">
         <v>18.18</v>
@@ -3754,34 +3458,34 @@
         <v>63.64</v>
       </c>
       <c r="AT9">
-        <v>40.909999999999997</v>
+        <v>40.91</v>
       </c>
       <c r="AU9">
         <v>8</v>
       </c>
       <c r="AV9">
-        <v>-8.6999999999999993</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AW9">
         <v>-6.81</v>
       </c>
       <c r="AX9">
-        <v>-4.8099999999999996</v>
+        <v>-4.81</v>
       </c>
       <c r="AY9">
-        <v>-9.6199999999999992</v>
+        <v>-9.619999999999999</v>
       </c>
       <c r="AZ9">
         <v>2.14</v>
       </c>
       <c r="BA9">
-        <v>-8.0500000000000007</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="BB9">
         <v>-6.19</v>
       </c>
       <c r="BC9">
-        <v>-9.5299999999999994</v>
+        <v>-9.529999999999999</v>
       </c>
       <c r="BD9">
         <v>-7.61</v>
@@ -3820,7 +3524,7 @@
         <v>-0.64</v>
       </c>
       <c r="BP9">
-        <v>-8.1999999999999993</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="BQ9">
         <v>1.49</v>
@@ -3835,7 +3539,7 @@
         <v>-11.11</v>
       </c>
       <c r="BU9">
-        <v>-9.7899999999999991</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="BV9">
         <v>0</v>
@@ -3892,16 +3596,16 @@
         <v>34.04</v>
       </c>
       <c r="CN9">
-        <v>19.149999999999999</v>
+        <v>19.15</v>
       </c>
       <c r="CO9">
         <v>23.4</v>
       </c>
       <c r="CP9">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="CQ9">
-        <v>65.959999999999994</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="CR9">
         <v>10.64</v>
@@ -3913,7 +3617,7 @@
         <v>183</v>
       </c>
       <c r="CU9">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="CV9">
         <v>-0.82</v>
@@ -3928,7 +3632,7 @@
         <v>-2.92</v>
       </c>
       <c r="CZ9">
-        <v>10.119999999999999</v>
+        <v>10.12</v>
       </c>
       <c r="DA9">
         <v>6.87</v>
@@ -3943,13 +3647,13 @@
         <v>64.48</v>
       </c>
       <c r="DE9">
-        <v>35.520000000000003</v>
+        <v>35.52</v>
       </c>
       <c r="DF9">
-        <v>18.579999999999998</v>
+        <v>18.58</v>
       </c>
       <c r="DG9">
-        <v>90.71</v>
+        <v>90.70999999999999</v>
       </c>
       <c r="DH9">
         <v>80.33</v>
@@ -3961,9 +3665,9 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>139</v>
+    <row r="10" spans="1:114">
+      <c r="A10">
+        <v>20241113</v>
       </c>
       <c r="B10">
         <v>2587</v>
@@ -4011,13 +3715,13 @@
         <v>4.7</v>
       </c>
       <c r="Q10">
-        <v>-4.9000000000000004</v>
+        <v>-4.9</v>
       </c>
       <c r="R10">
         <v>-0.95</v>
       </c>
       <c r="S10">
-        <v>8.61</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="T10">
         <v>7.52</v>
@@ -4041,7 +3745,7 @@
         <v>93.67</v>
       </c>
       <c r="AA10">
-        <v>83.54</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="AB10">
         <v>40.51</v>
@@ -4113,7 +3817,7 @@
         <v>1.94</v>
       </c>
       <c r="AY10">
-        <v>-8.2899999999999991</v>
+        <v>-8.289999999999999</v>
       </c>
       <c r="AZ10">
         <v>2.46</v>
@@ -4176,7 +3880,7 @@
         <v>-6.26</v>
       </c>
       <c r="BT10">
-        <v>-8.9600000000000009</v>
+        <v>-8.960000000000001</v>
       </c>
       <c r="BU10">
         <v>-8.08</v>
@@ -4212,13 +3916,13 @@
         <v>-1.43</v>
       </c>
       <c r="CF10">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="CG10">
         <v>-4.91</v>
       </c>
       <c r="CH10">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="CI10">
         <v>2.56</v>
@@ -4242,10 +3946,10 @@
         <v>49.02</v>
       </c>
       <c r="CP10">
-        <v>82.35</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="CQ10">
-        <v>78.430000000000007</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="CR10">
         <v>1.96</v>
@@ -4287,16 +3991,16 @@
         <v>30</v>
       </c>
       <c r="DE10">
-        <v>39.229999999999997</v>
+        <v>39.23</v>
       </c>
       <c r="DF10">
-        <v>40.770000000000003</v>
+        <v>40.77</v>
       </c>
       <c r="DG10">
         <v>89.23</v>
       </c>
       <c r="DH10">
-        <v>81.540000000000006</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="DI10">
         <v>25.38</v>
@@ -4305,9 +4009,9 @@
         <v>30.77</v>
       </c>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>140</v>
+    <row r="11" spans="1:114">
+      <c r="A11">
+        <v>20241114</v>
       </c>
       <c r="B11">
         <v>487</v>
@@ -4397,7 +4101,7 @@
         <v>18</v>
       </c>
       <c r="AE11">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="AF11">
         <v>2.27</v>
@@ -4412,13 +4116,13 @@
         <v>-0.22</v>
       </c>
       <c r="AJ11">
-        <v>9.0399999999999991</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="AK11">
-        <v>8.7899999999999991</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AL11">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="AM11">
         <v>2.27</v>
@@ -4457,7 +4161,7 @@
         <v>-1.62</v>
       </c>
       <c r="AY11">
-        <v>-9.0500000000000007</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="AZ11">
         <v>-4.42</v>
@@ -4466,7 +4170,7 @@
         <v>-0.43</v>
       </c>
       <c r="BB11">
-        <v>-4.9000000000000004</v>
+        <v>-4.9</v>
       </c>
       <c r="BC11">
         <v>-9.91</v>
@@ -4505,7 +4209,7 @@
         <v>-7.45</v>
       </c>
       <c r="BO11">
-        <v>-2.3199999999999998</v>
+        <v>-2.32</v>
       </c>
       <c r="BP11">
         <v>-8.16</v>
@@ -4601,16 +4305,16 @@
         <v>99</v>
       </c>
       <c r="CU11">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="CV11">
         <v>-2.36</v>
       </c>
       <c r="CW11">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="CX11">
-        <v>-4.7300000000000004</v>
+        <v>-4.73</v>
       </c>
       <c r="CY11">
         <v>-3.48</v>
@@ -4649,9 +4353,9 @@
         <v>29.29</v>
       </c>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>141</v>
+    <row r="12" spans="1:114">
+      <c r="A12">
+        <v>20241115</v>
       </c>
       <c r="B12">
         <v>929</v>
@@ -4693,7 +4397,7 @@
         <v>1.64</v>
       </c>
       <c r="O12">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="P12">
         <v>8.67</v>
@@ -4705,7 +4409,7 @@
         <v>2.61</v>
       </c>
       <c r="S12">
-        <v>9.0299999999999994</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="T12">
         <v>11.75</v>
@@ -4714,7 +4418,7 @@
         <v>1.64</v>
       </c>
       <c r="V12">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="W12">
         <v>53.12</v>
@@ -4747,10 +4451,10 @@
         <v>4.33</v>
       </c>
       <c r="AG12">
-        <v>9.2100000000000009</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="AH12">
-        <v>-2.2200000000000002</v>
+        <v>-2.22</v>
       </c>
       <c r="AI12">
         <v>2.62</v>
@@ -4855,7 +4559,7 @@
         <v>-7.67</v>
       </c>
       <c r="BQ12">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="BR12">
         <v>-9.99</v>
@@ -4876,7 +4580,7 @@
         <v>15.79</v>
       </c>
       <c r="BX12">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="BY12">
         <v>0</v>
@@ -4960,7 +4664,7 @@
         <v>1.4</v>
       </c>
       <c r="CZ12">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="DA12">
         <v>5.58</v>
@@ -4981,10 +4685,10 @@
         <v>53.23</v>
       </c>
       <c r="DG12">
-        <v>69.349999999999994</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="DH12">
-        <v>69.349999999999994</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="DI12">
         <v>29.03</v>
@@ -4993,9 +4697,9 @@
         <v>41.94</v>
       </c>
     </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>142</v>
+    <row r="13" spans="1:114">
+      <c r="A13">
+        <v>20241118</v>
       </c>
       <c r="B13">
         <v>1165</v>
@@ -5124,7 +4828,7 @@
         <v>100</v>
       </c>
       <c r="AR13">
-        <v>85.71</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="AS13">
         <v>80.95</v>
@@ -5148,7 +4852,7 @@
         <v>-4.54</v>
       </c>
       <c r="AZ13">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="BA13">
         <v>-0.32</v>
@@ -5202,10 +4906,10 @@
         <v>-1.43</v>
       </c>
       <c r="BR13">
-        <v>-8.0299999999999994</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="BS13">
-        <v>-9.3699999999999992</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="BT13">
         <v>-10.32</v>
@@ -5214,7 +4918,7 @@
         <v>-11.59</v>
       </c>
       <c r="BV13">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BW13">
         <v>26.09</v>
@@ -5226,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="BZ13">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="CA13">
         <v>0</v>
       </c>
       <c r="CB13">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="CC13">
         <v>30</v>
@@ -5241,7 +4945,7 @@
         <v>-1.27</v>
       </c>
       <c r="CE13">
-        <v>-4.4000000000000004</v>
+        <v>-4.4</v>
       </c>
       <c r="CF13">
         <v>1.89</v>
@@ -5337,9 +5041,9 @@
         <v>45.74</v>
       </c>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>143</v>
+    <row r="14" spans="1:114">
+      <c r="A14">
+        <v>20241119</v>
       </c>
       <c r="B14">
         <v>4517</v>
@@ -5387,7 +5091,7 @@
         <v>5.81</v>
       </c>
       <c r="Q14">
-        <v>-4.3899999999999997</v>
+        <v>-4.39</v>
       </c>
       <c r="R14">
         <v>1.24</v>
@@ -5570,7 +5274,7 @@
         <v>63.41</v>
       </c>
       <c r="CQ14">
-        <v>65.849999999999994</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="CR14">
         <v>2.44</v>
@@ -5585,7 +5289,7 @@
         <v>-0.74</v>
       </c>
       <c r="CV14">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="CW14">
         <v>4.16</v>
@@ -5630,9 +5334,9 @@
         <v>45.45</v>
       </c>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>144</v>
+    <row r="15" spans="1:114">
+      <c r="A15">
+        <v>20241120</v>
       </c>
       <c r="B15">
         <v>4573</v>
@@ -5698,10 +5402,10 @@
         <v>6.38</v>
       </c>
       <c r="W15">
-        <v>78.260000000000005</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="X15">
-        <v>95.65</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="Y15">
         <v>65.22</v>
@@ -5713,10 +5417,10 @@
         <v>100</v>
       </c>
       <c r="AB15">
-        <v>78.260000000000005</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="AC15">
-        <v>95.65</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="AD15">
         <v>28</v>
@@ -5752,7 +5456,7 @@
         <v>75</v>
       </c>
       <c r="AO15">
-        <v>96.43</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="AP15">
         <v>50</v>
@@ -5767,13 +5471,13 @@
         <v>75</v>
       </c>
       <c r="AT15">
-        <v>96.43</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="AU15">
         <v>11</v>
       </c>
       <c r="AV15">
-        <v>-1.1499999999999999</v>
+        <v>-1.15</v>
       </c>
       <c r="AW15">
         <v>3.96</v>
@@ -5797,7 +5501,7 @@
         <v>-5.45</v>
       </c>
       <c r="BD15">
-        <v>-0.56999999999999995</v>
+        <v>-0.57</v>
       </c>
       <c r="BE15">
         <v>18.18</v>
@@ -5836,7 +5540,7 @@
         <v>-5.89</v>
       </c>
       <c r="BQ15">
-        <v>8.9499999999999993</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="BR15">
         <v>-6.18</v>
@@ -5848,7 +5552,7 @@
         <v>-10.49</v>
       </c>
       <c r="BU15">
-        <v>-2.5099999999999998</v>
+        <v>-2.51</v>
       </c>
       <c r="BV15">
         <v>8.33</v>
@@ -5884,7 +5588,7 @@
         <v>5.17</v>
       </c>
       <c r="CG15">
-        <v>-4.8499999999999996</v>
+        <v>-4.85</v>
       </c>
       <c r="CH15">
         <v>6.61</v>
@@ -5947,7 +5651,7 @@
         <v>14.44</v>
       </c>
       <c r="DB15">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="DC15">
         <v>4.7</v>
@@ -5956,7 +5660,7 @@
         <v>60.66</v>
       </c>
       <c r="DE15">
-        <v>86.07</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="DF15">
         <v>72.13</v>
@@ -5971,12 +5675,12 @@
         <v>59.84</v>
       </c>
       <c r="DJ15">
-        <v>81.150000000000006</v>
+        <v>81.15000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>145</v>
+    <row r="16" spans="1:114">
+      <c r="A16">
+        <v>20241121</v>
       </c>
       <c r="B16">
         <v>2564</v>
@@ -6045,10 +5749,10 @@
         <v>74.66</v>
       </c>
       <c r="X16">
-        <v>68.489999999999995</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="Y16">
-        <v>40.409999999999997</v>
+        <v>40.41</v>
       </c>
       <c r="Z16">
         <v>98.63</v>
@@ -6060,7 +5764,7 @@
         <v>74.66</v>
       </c>
       <c r="AC16">
-        <v>68.489999999999995</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="AD16">
         <v>55</v>
@@ -6072,13 +5776,13 @@
         <v>4.2</v>
       </c>
       <c r="AG16">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH16">
         <v>0.52</v>
       </c>
       <c r="AI16">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="AJ16">
         <v>11.65</v>
@@ -6093,7 +5797,7 @@
         <v>4.2</v>
       </c>
       <c r="AN16">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AO16">
         <v>74.55</v>
@@ -6108,7 +5812,7 @@
         <v>96.36</v>
       </c>
       <c r="AS16">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AT16">
         <v>74.55</v>
@@ -6126,7 +5830,7 @@
         <v>2.11</v>
       </c>
       <c r="AY16">
-        <v>-5.0999999999999996</v>
+        <v>-5.1</v>
       </c>
       <c r="AZ16">
         <v>-3.49</v>
@@ -6222,7 +5926,7 @@
         <v>-1.59</v>
       </c>
       <c r="CE16">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="CF16">
         <v>4.21</v>
@@ -6231,13 +5935,13 @@
         <v>-3.28</v>
       </c>
       <c r="CH16">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="CI16">
         <v>5.96</v>
       </c>
       <c r="CJ16">
-        <v>8.2799999999999994</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="CK16">
         <v>-4.88</v>
@@ -6270,7 +5974,7 @@
         <v>172</v>
       </c>
       <c r="CU16">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="CV16">
         <v>2.77</v>
@@ -6306,7 +6010,7 @@
         <v>45.35</v>
       </c>
       <c r="DG16">
-        <v>96.51</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="DH16">
         <v>97.09</v>
@@ -6318,9 +6022,9 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="17" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>146</v>
+    <row r="17" spans="1:114">
+      <c r="A17">
+        <v>20241122</v>
       </c>
       <c r="B17">
         <v>429</v>
@@ -6386,7 +6090,7 @@
         <v>3.28</v>
       </c>
       <c r="W17">
-        <v>71.569999999999993</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="X17">
         <v>62.75</v>
@@ -6398,10 +6102,10 @@
         <v>92.16</v>
       </c>
       <c r="AA17">
-        <v>88.24</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="AB17">
-        <v>71.569999999999993</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="AC17">
         <v>62.75</v>
@@ -6413,10 +6117,10 @@
         <v>3.29</v>
       </c>
       <c r="AF17">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="AG17">
-        <v>8.1199999999999992</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AH17">
         <v>-0.51</v>
@@ -6428,13 +6132,13 @@
         <v>7.29</v>
       </c>
       <c r="AK17">
-        <v>8.1300000000000008</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AL17">
         <v>3.29</v>
       </c>
       <c r="AM17">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="AN17">
         <v>62</v>
@@ -6461,16 +6165,16 @@
         <v>3</v>
       </c>
       <c r="BM17">
-        <v>-4.2300000000000004</v>
+        <v>-4.23</v>
       </c>
       <c r="BN17">
-        <v>-9.61</v>
+        <v>-9.609999999999999</v>
       </c>
       <c r="BO17">
         <v>-2.16</v>
       </c>
       <c r="BP17">
-        <v>-9.6999999999999993</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="BQ17">
         <v>-5.59</v>
@@ -6572,7 +6276,7 @@
         <v>6.51</v>
       </c>
       <c r="CX17">
-        <v>-2.2599999999999998</v>
+        <v>-2.26</v>
       </c>
       <c r="CY17">
         <v>-0.17</v>
@@ -6611,9 +6315,9 @@
         <v>46.85</v>
       </c>
     </row>
-    <row r="18" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>147</v>
+    <row r="18" spans="1:114">
+      <c r="A18">
+        <v>20241125</v>
       </c>
       <c r="B18">
         <v>3734</v>
@@ -6661,7 +6365,7 @@
         <v>8.51</v>
       </c>
       <c r="Q18">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="R18">
         <v>2.21</v>
@@ -6679,7 +6383,7 @@
         <v>6.43</v>
       </c>
       <c r="W18">
-        <v>72.459999999999994</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="X18">
         <v>82.61</v>
@@ -6691,10 +6395,10 @@
         <v>91.3</v>
       </c>
       <c r="AA18">
-        <v>86.96</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="AB18">
-        <v>72.459999999999994</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="AC18">
         <v>82.61</v>
@@ -6775,13 +6479,13 @@
         <v>-7.98</v>
       </c>
       <c r="BT18">
-        <v>-9.2799999999999994</v>
+        <v>-9.279999999999999</v>
       </c>
       <c r="BU18">
         <v>-10.37</v>
       </c>
       <c r="BV18">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BW18">
         <v>33.33</v>
@@ -6811,10 +6515,10 @@
         <v>1.6</v>
       </c>
       <c r="CF18">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="CG18">
-        <v>-4.6100000000000003</v>
+        <v>-4.61</v>
       </c>
       <c r="CH18">
         <v>1.56</v>
@@ -6841,7 +6545,7 @@
         <v>53.73</v>
       </c>
       <c r="CP18">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="CQ18">
         <v>71.64</v>
@@ -6850,7 +6554,7 @@
         <v>14.93</v>
       </c>
       <c r="CS18">
-        <v>32.840000000000003</v>
+        <v>32.84</v>
       </c>
       <c r="CT18">
         <v>136</v>
@@ -6865,7 +6569,7 @@
         <v>6.65</v>
       </c>
       <c r="CX18">
-        <v>-2.5499999999999998</v>
+        <v>-2.55</v>
       </c>
       <c r="CY18">
         <v>1.89</v>
@@ -6874,7 +6578,7 @@
         <v>7.63</v>
       </c>
       <c r="DA18">
-        <v>9.7200000000000006</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="DB18">
         <v>-0.15</v>
@@ -6892,7 +6596,7 @@
         <v>51.47</v>
       </c>
       <c r="DG18">
-        <v>85.29</v>
+        <v>85.29000000000001</v>
       </c>
       <c r="DH18">
         <v>79.41</v>
@@ -6904,9 +6608,9 @@
         <v>58.09</v>
       </c>
     </row>
-    <row r="19" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>148</v>
+    <row r="19" spans="1:114">
+      <c r="A19">
+        <v>20241126</v>
       </c>
       <c r="B19">
         <v>1536</v>
@@ -6972,7 +6676,7 @@
         <v>-1.3</v>
       </c>
       <c r="W19">
-        <v>72.849999999999994</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="X19">
         <v>36.42</v>
@@ -6984,10 +6688,10 @@
         <v>92.05</v>
       </c>
       <c r="AA19">
-        <v>73.510000000000005</v>
+        <v>73.51000000000001</v>
       </c>
       <c r="AB19">
-        <v>72.849999999999994</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="AC19">
         <v>36.42</v>
@@ -7002,7 +6706,7 @@
         <v>-3.95</v>
       </c>
       <c r="AG19">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="AH19">
         <v>-5.54</v>
@@ -7110,7 +6814,7 @@
         <v>-8.43</v>
       </c>
       <c r="BQ19">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="BR19">
         <v>-11.18</v>
@@ -7155,7 +6859,7 @@
         <v>-5.32</v>
       </c>
       <c r="CF19">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="CG19">
         <v>-6.67</v>
@@ -7164,7 +6868,7 @@
         <v>-2.74</v>
       </c>
       <c r="CI19">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="CJ19">
         <v>-0.48</v>
@@ -7215,7 +6919,7 @@
         <v>-3.93</v>
       </c>
       <c r="CZ19">
-        <v>9.36</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="DA19">
         <v>4.99</v>
@@ -7239,7 +6943,7 @@
         <v>89.14</v>
       </c>
       <c r="DH19">
-        <v>72.569999999999993</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="DI19">
         <v>62.86</v>
@@ -7248,9 +6952,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>149</v>
+    <row r="20" spans="1:114">
+      <c r="A20">
+        <v>20241127</v>
       </c>
       <c r="B20">
         <v>4330</v>
@@ -7289,7 +6993,7 @@
         <v>90</v>
       </c>
       <c r="N20">
-        <v>-0.14000000000000001</v>
+        <v>-0.14</v>
       </c>
       <c r="O20">
         <v>1.36</v>
@@ -7307,10 +7011,10 @@
         <v>7.22</v>
       </c>
       <c r="T20">
-        <v>8.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="U20">
-        <v>-0.14000000000000001</v>
+        <v>-0.14</v>
       </c>
       <c r="V20">
         <v>1.36</v>
@@ -7340,7 +7044,7 @@
         <v>32</v>
       </c>
       <c r="AE20">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AF20">
         <v>1.71</v>
@@ -7349,7 +7053,7 @@
         <v>6.46</v>
       </c>
       <c r="AH20">
-        <v>-5.0999999999999996</v>
+        <v>-5.1</v>
       </c>
       <c r="AI20">
         <v>1.07</v>
@@ -7361,7 +7065,7 @@
         <v>4.82</v>
       </c>
       <c r="AL20">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AM20">
         <v>1.71</v>
@@ -7454,7 +7158,7 @@
         <v>-7.65</v>
       </c>
       <c r="BQ20">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="BR20">
         <v>-11.82</v>
@@ -7493,10 +7197,10 @@
         <v>58</v>
       </c>
       <c r="CD20">
-        <v>-4.2300000000000004</v>
+        <v>-4.23</v>
       </c>
       <c r="CE20">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="CF20">
         <v>3.05</v>
@@ -7526,7 +7230,7 @@
         <v>50</v>
       </c>
       <c r="CO20">
-        <v>87.93</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="CP20">
         <v>53.45</v>
@@ -7592,9 +7296,9 @@
         <v>35.14</v>
       </c>
     </row>
-    <row r="21" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>150</v>
+    <row r="21" spans="1:114">
+      <c r="A21">
+        <v>20241128</v>
       </c>
       <c r="B21">
         <v>2530</v>
@@ -7633,7 +7337,7 @@
         <v>95</v>
       </c>
       <c r="N21">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="O21">
         <v>3.89</v>
@@ -7654,13 +7358,13 @@
         <v>15.28</v>
       </c>
       <c r="U21">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="V21">
         <v>3.89</v>
       </c>
       <c r="W21">
-        <v>85.26</v>
+        <v>85.26000000000001</v>
       </c>
       <c r="X21">
         <v>72.63</v>
@@ -7675,7 +7379,7 @@
         <v>97.89</v>
       </c>
       <c r="AB21">
-        <v>85.26</v>
+        <v>85.26000000000001</v>
       </c>
       <c r="AC21">
         <v>72.63</v>
@@ -7801,7 +7505,7 @@
         <v>-2.59</v>
       </c>
       <c r="BR21">
-        <v>-4.3899999999999997</v>
+        <v>-4.39</v>
       </c>
       <c r="BS21">
         <v>-6.96</v>
@@ -7810,7 +7514,7 @@
         <v>-6.78</v>
       </c>
       <c r="BU21">
-        <v>-9.2100000000000009</v>
+        <v>-9.210000000000001</v>
       </c>
       <c r="BV21">
         <v>20</v>
@@ -7843,7 +7547,7 @@
         <v>0.66</v>
       </c>
       <c r="CF21">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="CG21">
         <v>-2.67</v>
@@ -7858,7 +7562,7 @@
         <v>7.64</v>
       </c>
       <c r="CK21">
-        <v>-4.1100000000000003</v>
+        <v>-4.11</v>
       </c>
       <c r="CL21">
         <v>-3.26</v>
@@ -7927,7 +7631,7 @@
         <v>99.13</v>
       </c>
       <c r="DH21">
-        <v>95.65</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="DI21">
         <v>72.17</v>
@@ -7936,9 +7640,9 @@
         <v>63.48</v>
       </c>
     </row>
-    <row r="22" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>151</v>
+    <row r="22" spans="1:114">
+      <c r="A22">
+        <v>20241129</v>
       </c>
       <c r="B22">
         <v>4291</v>
@@ -8007,7 +7711,7 @@
         <v>65.91</v>
       </c>
       <c r="X22">
-        <v>68.180000000000007</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="Y22">
         <v>53.41</v>
@@ -8016,13 +7720,13 @@
         <v>92.05</v>
       </c>
       <c r="AA22">
-        <v>93.18</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="AB22">
         <v>65.91</v>
       </c>
       <c r="AC22">
-        <v>68.180000000000007</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="AD22">
         <v>39</v>
@@ -8055,7 +7759,7 @@
         <v>4.7</v>
       </c>
       <c r="AN22">
-        <v>64.099999999999994</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="AO22">
         <v>69.23</v>
@@ -8067,10 +7771,10 @@
         <v>84.62</v>
       </c>
       <c r="AR22">
-        <v>89.74</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="AS22">
-        <v>64.099999999999994</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="AT22">
         <v>69.23</v>
@@ -8082,13 +7786,13 @@
         <v>-3.14</v>
       </c>
       <c r="AW22">
-        <v>-2.2599999999999998</v>
+        <v>-2.26</v>
       </c>
       <c r="AX22">
         <v>-2</v>
       </c>
       <c r="AY22">
-        <v>-8.5399999999999991</v>
+        <v>-8.539999999999999</v>
       </c>
       <c r="AZ22">
         <v>0.9</v>
@@ -8145,7 +7849,7 @@
         <v>-2.37</v>
       </c>
       <c r="BR22">
-        <v>-9.36</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="BS22">
         <v>-11.45</v>
@@ -8157,25 +7861,25 @@
         <v>-13.08</v>
       </c>
       <c r="BV22">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BW22">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BX22">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BY22">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BZ22">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CA22">
         <v>0</v>
       </c>
       <c r="CB22">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CC22">
         <v>59</v>
@@ -8196,7 +7900,7 @@
         <v>1.91</v>
       </c>
       <c r="CI22">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="CJ22">
         <v>2.08</v>
@@ -8211,7 +7915,7 @@
         <v>10.17</v>
       </c>
       <c r="CN22">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="CO22">
         <v>71.19</v>
@@ -8271,7 +7975,7 @@
         <v>80.27</v>
       </c>
       <c r="DH22">
-        <v>84.35</v>
+        <v>84.34999999999999</v>
       </c>
       <c r="DI22">
         <v>40.14</v>
@@ -8280,9 +7984,9 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="23" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>152</v>
+    <row r="23" spans="1:114">
+      <c r="A23">
+        <v>20241202</v>
       </c>
       <c r="B23">
         <v>4644</v>
@@ -8327,7 +8031,7 @@
         <v>5.53</v>
       </c>
       <c r="P23">
-        <v>8.86</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Q23">
         <v>0.68</v>
@@ -8351,13 +8055,13 @@
         <v>73.81</v>
       </c>
       <c r="X23">
-        <v>85.71</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="Y23">
         <v>66.67</v>
       </c>
       <c r="Z23">
-        <v>95.24</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="AA23">
         <v>96.03</v>
@@ -8366,7 +8070,7 @@
         <v>73.81</v>
       </c>
       <c r="AC23">
-        <v>85.71</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="AD23">
         <v>45</v>
@@ -8474,13 +8178,13 @@
         <v>7</v>
       </c>
       <c r="BM23">
-        <v>-5.0999999999999996</v>
+        <v>-5.1</v>
       </c>
       <c r="BN23">
         <v>-2.9</v>
       </c>
       <c r="BO23">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="BP23">
         <v>-7.03</v>
@@ -8489,7 +8193,7 @@
         <v>2.27</v>
       </c>
       <c r="BR23">
-        <v>-8.11</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="BS23">
         <v>-5.98</v>
@@ -8498,7 +8202,7 @@
         <v>-11.89</v>
       </c>
       <c r="BU23">
-        <v>-9.7899999999999991</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="BV23">
         <v>0</v>
@@ -8507,7 +8211,7 @@
         <v>14.29</v>
       </c>
       <c r="BX23">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="BY23">
         <v>0</v>
@@ -8576,7 +8280,7 @@
         <v>151</v>
       </c>
       <c r="CU23">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="CV23">
         <v>4.63</v>
@@ -8603,7 +8307,7 @@
         <v>3.87</v>
       </c>
       <c r="DD23">
-        <v>64.239999999999995</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="DE23">
         <v>80.13</v>
@@ -8615,18 +8319,18 @@
         <v>92.05</v>
       </c>
       <c r="DH23">
-        <v>94.04</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="DI23">
         <v>61.59</v>
       </c>
       <c r="DJ23">
-        <v>72.849999999999994</v>
+        <v>72.84999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>153</v>
+    <row r="24" spans="1:114">
+      <c r="A24">
+        <v>20241203</v>
       </c>
       <c r="B24">
         <v>2448</v>
@@ -8671,7 +8375,7 @@
         <v>2.44</v>
       </c>
       <c r="P24">
-        <v>8.0299999999999994</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="Q24">
         <v>-0.93</v>
@@ -8692,7 +8396,7 @@
         <v>2.44</v>
       </c>
       <c r="W24">
-        <v>83.54</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="X24">
         <v>61.39</v>
@@ -8707,7 +8411,7 @@
         <v>91.77</v>
       </c>
       <c r="AB24">
-        <v>83.54</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="AC24">
         <v>61.39</v>
@@ -8716,16 +8420,16 @@
         <v>60</v>
       </c>
       <c r="AE24">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="AF24">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="AG24">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AH24">
-        <v>-1.1399999999999999</v>
+        <v>-1.14</v>
       </c>
       <c r="AI24">
         <v>-2.25</v>
@@ -8737,10 +8441,10 @@
         <v>8.1</v>
       </c>
       <c r="AL24">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="AM24">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="AN24">
         <v>78.33</v>
@@ -8770,7 +8474,7 @@
         <v>-5.39</v>
       </c>
       <c r="AW24">
-        <v>-4.6500000000000004</v>
+        <v>-4.65</v>
       </c>
       <c r="AX24">
         <v>-1.07</v>
@@ -8782,7 +8486,7 @@
         <v>0.72</v>
       </c>
       <c r="BA24">
-        <v>-4.5199999999999996</v>
+        <v>-4.52</v>
       </c>
       <c r="BB24">
         <v>-3.77</v>
@@ -8824,10 +8528,10 @@
         <v>-6.52</v>
       </c>
       <c r="BO24">
-        <v>-2.4300000000000002</v>
+        <v>-2.43</v>
       </c>
       <c r="BP24">
-        <v>-8.6999999999999993</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="BQ24">
         <v>-0.62</v>
@@ -8938,10 +8642,10 @@
         <v>10.45</v>
       </c>
       <c r="DA24">
-        <v>8.7200000000000006</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="DB24">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="DC24">
         <v>0.42</v>
@@ -8968,9 +8672,9 @@
         <v>49.04</v>
       </c>
     </row>
-    <row r="25" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>154</v>
+    <row r="25" spans="1:114">
+      <c r="A25">
+        <v>20241204</v>
       </c>
       <c r="B25">
         <v>981</v>
@@ -9096,7 +8800,7 @@
         <v>25.45</v>
       </c>
       <c r="AQ25">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AR25">
         <v>63.64</v>
@@ -9192,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="BW25">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BX25">
         <v>33.33</v>
@@ -9219,7 +8923,7 @@
         <v>-2.52</v>
       </c>
       <c r="CF25">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="CG25">
         <v>-6.05</v>
@@ -9258,7 +8962,7 @@
         <v>2.17</v>
       </c>
       <c r="CS25">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="CT25">
         <v>159</v>
@@ -9267,13 +8971,13 @@
         <v>1.53</v>
       </c>
       <c r="CV25">
-        <v>-0.81</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="CW25">
         <v>5.52</v>
       </c>
       <c r="CX25">
-        <v>-4.4800000000000004</v>
+        <v>-4.48</v>
       </c>
       <c r="CY25">
         <v>-2.21</v>
@@ -9282,7 +8986,7 @@
         <v>7.21</v>
       </c>
       <c r="DA25">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="DB25">
         <v>-0.24</v>
@@ -9303,7 +9007,7 @@
         <v>79.25</v>
       </c>
       <c r="DH25">
-        <v>71.069999999999993</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="DI25">
         <v>50.31</v>
@@ -9312,9 +9016,9 @@
         <v>30.82</v>
       </c>
     </row>
-    <row r="26" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>155</v>
+    <row r="26" spans="1:114">
+      <c r="A26">
+        <v>20241205</v>
       </c>
       <c r="B26">
         <v>3824</v>
@@ -9353,7 +9057,7 @@
         <v>81</v>
       </c>
       <c r="N26">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="O26">
         <v>3.86</v>
@@ -9374,16 +9078,16 @@
         <v>11.51</v>
       </c>
       <c r="U26">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="V26">
         <v>3.86</v>
       </c>
       <c r="W26">
-        <v>67.900000000000006</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="X26">
-        <v>74.069999999999993</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="Y26">
         <v>51.85</v>
@@ -9395,10 +9099,10 @@
         <v>85.19</v>
       </c>
       <c r="AB26">
-        <v>67.900000000000006</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="AC26">
-        <v>74.069999999999993</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="AD26">
         <v>38</v>
@@ -9413,7 +9117,7 @@
         <v>7.19</v>
       </c>
       <c r="AH26">
-        <v>-2.0099999999999998</v>
+        <v>-2.01</v>
       </c>
       <c r="AI26">
         <v>2.04</v>
@@ -9440,10 +9144,10 @@
         <v>42.11</v>
       </c>
       <c r="AQ26">
-        <v>84.21</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="AR26">
-        <v>73.680000000000007</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="AS26">
         <v>55.26</v>
@@ -9479,7 +9183,7 @@
         <v>-10.98</v>
       </c>
       <c r="BD26">
-        <v>-8.2899999999999991</v>
+        <v>-8.289999999999999</v>
       </c>
       <c r="BE26">
         <v>0</v>
@@ -9569,7 +9273,7 @@
         <v>-4.43</v>
       </c>
       <c r="CH26">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="CI26">
         <v>-0.36</v>
@@ -9584,7 +9288,7 @@
         <v>-6.93</v>
       </c>
       <c r="CM26">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="CN26">
         <v>41.18</v>
@@ -9593,7 +9297,7 @@
         <v>68.63</v>
       </c>
       <c r="CP26">
-        <v>64.709999999999994</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="CQ26">
         <v>66.67</v>
@@ -9656,9 +9360,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>156</v>
+    <row r="27" spans="1:114">
+      <c r="A27">
+        <v>20241206</v>
       </c>
       <c r="B27">
         <v>3636</v>
@@ -9724,10 +9428,10 @@
         <v>3.27</v>
       </c>
       <c r="W27">
-        <v>78.150000000000006</v>
+        <v>78.15000000000001</v>
       </c>
       <c r="X27">
-        <v>68.069999999999993</v>
+        <v>68.06999999999999</v>
       </c>
       <c r="Y27">
         <v>39.5</v>
@@ -9736,28 +9440,28 @@
         <v>97.48</v>
       </c>
       <c r="AA27">
-        <v>91.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AB27">
-        <v>78.150000000000006</v>
+        <v>78.15000000000001</v>
       </c>
       <c r="AC27">
-        <v>68.069999999999993</v>
+        <v>68.06999999999999</v>
       </c>
       <c r="AD27">
         <v>45</v>
       </c>
       <c r="AE27">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="AF27">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="AG27">
         <v>8.23</v>
       </c>
       <c r="AH27">
-        <v>-2.0699999999999998</v>
+        <v>-2.07</v>
       </c>
       <c r="AI27">
         <v>-2.12</v>
@@ -9766,13 +9470,13 @@
         <v>10.96</v>
       </c>
       <c r="AK27">
-        <v>8.5299999999999994</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="AL27">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="AM27">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="AN27">
         <v>71.11</v>
@@ -9805,7 +9509,7 @@
         <v>-7.93</v>
       </c>
       <c r="AX27">
-        <v>-4.1399999999999997</v>
+        <v>-4.14</v>
       </c>
       <c r="AY27">
         <v>-8.49</v>
@@ -9901,7 +9605,7 @@
         <v>21</v>
       </c>
       <c r="CD27">
-        <v>-0.94</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="CE27">
         <v>-1.19</v>
@@ -9940,7 +9644,7 @@
         <v>76.19</v>
       </c>
       <c r="CQ27">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="CR27">
         <v>4.76</v>
@@ -9988,10 +9692,10 @@
         <v>40</v>
       </c>
       <c r="DG27">
-        <v>94.29</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="DH27">
-        <v>88.57</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="DI27">
         <v>67.14</v>
@@ -10000,9 +9704,9 @@
         <v>58.57</v>
       </c>
     </row>
-    <row r="28" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>157</v>
+    <row r="28" spans="1:114">
+      <c r="A28">
+        <v>20241209</v>
       </c>
       <c r="B28">
         <v>2040</v>
@@ -10050,7 +9754,7 @@
         <v>7.13</v>
       </c>
       <c r="Q28">
-        <v>-2.2400000000000002</v>
+        <v>-2.24</v>
       </c>
       <c r="R28">
         <v>-1.93</v>
@@ -10077,7 +9781,7 @@
         <v>22.81</v>
       </c>
       <c r="Z28">
-        <v>96.49</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="AA28">
         <v>87.72</v>
@@ -10104,10 +9808,10 @@
         <v>-3.18</v>
       </c>
       <c r="AI28">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="AJ28">
-        <v>8.5500000000000007</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="AK28">
         <v>7.41</v>
@@ -10128,7 +9832,7 @@
         <v>31.91</v>
       </c>
       <c r="AQ28">
-        <v>91.49</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="AR28">
         <v>72.34</v>
@@ -10164,7 +9868,7 @@
         <v>-5.32</v>
       </c>
       <c r="BC28">
-        <v>-9.3699999999999992</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="BD28">
         <v>-8.68</v>
@@ -10194,16 +9898,16 @@
         <v>6</v>
       </c>
       <c r="BM28">
-        <v>-8.39</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="BN28">
         <v>-3.3</v>
       </c>
       <c r="BO28">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="BP28">
-        <v>-8.39</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="BQ28">
         <v>5.41</v>
@@ -10308,10 +10012,10 @@
         <v>-3.16</v>
       </c>
       <c r="CY28">
-        <v>-1.1200000000000001</v>
+        <v>-1.12</v>
       </c>
       <c r="CZ28">
-        <v>8.0500000000000007</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="DA28">
         <v>6.74</v>
@@ -10320,7 +10024,7 @@
         <v>0.1</v>
       </c>
       <c r="DC28">
-        <v>-1.1200000000000001</v>
+        <v>-1.12</v>
       </c>
       <c r="DD28">
         <v>61.11</v>
@@ -10332,7 +10036,7 @@
         <v>28.4</v>
       </c>
       <c r="DG28">
-        <v>87.65</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="DH28">
         <v>80.86</v>
@@ -10344,9 +10048,9 @@
         <v>37.65</v>
       </c>
     </row>
-    <row r="29" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>158</v>
+    <row r="29" spans="1:114">
+      <c r="A29">
+        <v>20241210</v>
       </c>
       <c r="B29">
         <v>2891</v>
@@ -10385,7 +10089,7 @@
         <v>100</v>
       </c>
       <c r="N29">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="O29">
         <v>2.19</v>
@@ -10397,7 +10101,7 @@
         <v>-0.84</v>
       </c>
       <c r="R29">
-        <v>-2.4700000000000002</v>
+        <v>-2.47</v>
       </c>
       <c r="S29">
         <v>13.32</v>
@@ -10406,7 +10110,7 @@
         <v>10.55</v>
       </c>
       <c r="U29">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="V29">
         <v>2.19</v>
@@ -10505,7 +10209,7 @@
         <v>-2.99</v>
       </c>
       <c r="BB29">
-        <v>-1.1299999999999999</v>
+        <v>-1.13</v>
       </c>
       <c r="BC29">
         <v>-7.29</v>
@@ -10589,7 +10293,7 @@
         <v>36</v>
       </c>
       <c r="CD29">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="CE29">
         <v>0.45</v>
@@ -10610,10 +10314,10 @@
         <v>3.64</v>
       </c>
       <c r="CK29">
-        <v>-4.0199999999999996</v>
+        <v>-4.02</v>
       </c>
       <c r="CL29">
-        <v>-4.6500000000000004</v>
+        <v>-4.65</v>
       </c>
       <c r="CM29">
         <v>69.44</v>
@@ -10634,7 +10338,7 @@
         <v>8.33</v>
       </c>
       <c r="CS29">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CT29">
         <v>136</v>
@@ -10658,16 +10362,16 @@
         <v>10.94</v>
       </c>
       <c r="DA29">
-        <v>8.7200000000000006</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="DB29">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="DC29">
         <v>0.38</v>
       </c>
       <c r="DD29">
-        <v>83.82</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="DE29">
         <v>52.21</v>
@@ -10679,18 +10383,18 @@
         <v>90.44</v>
       </c>
       <c r="DH29">
-        <v>83.82</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="DI29">
-        <v>67.650000000000006</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="DJ29">
         <v>46.32</v>
       </c>
     </row>
-    <row r="30" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>159</v>
+    <row r="30" spans="1:114">
+      <c r="A30">
+        <v>20241211</v>
       </c>
       <c r="B30">
         <v>3854</v>
@@ -10747,7 +10451,7 @@
         <v>6.39</v>
       </c>
       <c r="T30">
-        <v>9.14</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="U30">
         <v>0.38</v>
@@ -10759,7 +10463,7 @@
         <v>47.12</v>
       </c>
       <c r="X30">
-        <v>66.349999999999994</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="Y30">
         <v>58.65</v>
@@ -10774,7 +10478,7 @@
         <v>47.12</v>
       </c>
       <c r="AC30">
-        <v>66.349999999999994</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="AD30">
         <v>47</v>
@@ -10783,7 +10487,7 @@
         <v>0.73</v>
       </c>
       <c r="AF30">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="AG30">
         <v>7.84</v>
@@ -10795,7 +10499,7 @@
         <v>3.75</v>
       </c>
       <c r="AJ30">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AK30">
         <v>8.91</v>
@@ -10804,7 +10508,7 @@
         <v>0.73</v>
       </c>
       <c r="AM30">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="AN30">
         <v>51.06</v>
@@ -10816,7 +10520,7 @@
         <v>61.7</v>
       </c>
       <c r="AQ30">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="AR30">
         <v>87.23</v>
@@ -10840,7 +10544,7 @@
         <v>-2.79</v>
       </c>
       <c r="AY30">
-        <v>-9.5299999999999994</v>
+        <v>-9.529999999999999</v>
       </c>
       <c r="AZ30">
         <v>-1.36</v>
@@ -10849,7 +10553,7 @@
         <v>-0.9</v>
       </c>
       <c r="BB30">
-        <v>-2.2000000000000002</v>
+        <v>-2.2</v>
       </c>
       <c r="BC30">
         <v>-15.1</v>
@@ -10897,10 +10601,10 @@
         <v>-1.52</v>
       </c>
       <c r="BR30">
-        <v>-8.6999999999999993</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="BS30">
-        <v>-10.199999999999999</v>
+        <v>-10.2</v>
       </c>
       <c r="BT30">
         <v>-13.51</v>
@@ -10933,7 +10637,7 @@
         <v>54</v>
       </c>
       <c r="CD30">
-        <v>-2.1800000000000002</v>
+        <v>-2.18</v>
       </c>
       <c r="CE30">
         <v>-0.3</v>
@@ -10966,7 +10670,7 @@
         <v>51.85</v>
       </c>
       <c r="CO30">
-        <v>74.069999999999993</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="CP30">
         <v>46.3</v>
@@ -11020,10 +10724,10 @@
         <v>63.92</v>
       </c>
       <c r="DG30">
-        <v>72.150000000000006</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="DH30">
-        <v>84.18</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="DI30">
         <v>32.28</v>
@@ -11032,9 +10736,9 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="31" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>160</v>
+    <row r="31" spans="1:114">
+      <c r="A31">
+        <v>20241212</v>
       </c>
       <c r="B31">
         <v>3537</v>
@@ -11100,10 +10804,10 @@
         <v>3.95</v>
       </c>
       <c r="W31">
-        <v>72.260000000000005</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="X31">
-        <v>70.069999999999993</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="Y31">
         <v>43.8</v>
@@ -11115,10 +10819,10 @@
         <v>95.62</v>
       </c>
       <c r="AB31">
-        <v>72.260000000000005</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="AC31">
-        <v>70.069999999999993</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="AD31">
         <v>45</v>
@@ -11127,7 +10831,7 @@
         <v>3.85</v>
       </c>
       <c r="AF31">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="AG31">
         <v>8.32</v>
@@ -11148,7 +10852,7 @@
         <v>3.85</v>
       </c>
       <c r="AM31">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="AN31">
         <v>75.56</v>
@@ -11178,10 +10882,10 @@
         <v>-2.46</v>
       </c>
       <c r="AW31">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AX31">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="AY31">
         <v>-5.83</v>
@@ -11199,10 +10903,10 @@
         <v>-7.85</v>
       </c>
       <c r="BD31">
-        <v>-4.3600000000000003</v>
+        <v>-4.36</v>
       </c>
       <c r="BE31">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BF31">
         <v>50</v>
@@ -11238,7 +10942,7 @@
         <v>-5.13</v>
       </c>
       <c r="BQ31">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="BR31">
         <v>-4.38</v>
@@ -11328,7 +11032,7 @@
         <v>167</v>
       </c>
       <c r="CU31">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="CV31">
         <v>3.42</v>
@@ -11376,9 +11080,9 @@
         <v>61.68</v>
       </c>
     </row>
-    <row r="32" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>161</v>
+    <row r="32" spans="1:114">
+      <c r="A32">
+        <v>20241213</v>
       </c>
       <c r="B32">
         <v>920</v>
@@ -11426,13 +11130,13 @@
         <v>7.14</v>
       </c>
       <c r="Q32">
-        <v>-2.4900000000000002</v>
+        <v>-2.49</v>
       </c>
       <c r="R32">
         <v>-0.77</v>
       </c>
       <c r="S32">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="T32">
         <v>9.32</v>
@@ -11453,7 +11157,7 @@
         <v>37.68</v>
       </c>
       <c r="Z32">
-        <v>94.93</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="AA32">
         <v>92.03</v>
@@ -11471,7 +11175,7 @@
         <v>2.65</v>
       </c>
       <c r="AF32">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="AG32">
         <v>8.67</v>
@@ -11492,7 +11196,7 @@
         <v>2.65</v>
       </c>
       <c r="AM32">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="AN32">
         <v>64.52</v>
@@ -11504,10 +11208,10 @@
         <v>41.94</v>
       </c>
       <c r="AQ32">
-        <v>88.71</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="AR32">
-        <v>82.26</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="AS32">
         <v>64.52</v>
@@ -11519,25 +11223,25 @@
         <v>1</v>
       </c>
       <c r="AV32">
-        <v>-9.9700000000000006</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="AW32">
-        <v>-9.9700000000000006</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="AX32">
         <v>-5.53</v>
       </c>
       <c r="AY32">
-        <v>-9.9700000000000006</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="AZ32">
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>-9.9700000000000006</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="BB32">
-        <v>-9.9700000000000006</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="BC32">
         <v>-12.56</v>
@@ -11582,7 +11286,7 @@
         <v>-9.25</v>
       </c>
       <c r="BQ32">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="BR32">
         <v>-11</v>
@@ -11630,7 +11334,7 @@
         <v>2.13</v>
       </c>
       <c r="CG32">
-        <v>-4.8899999999999997</v>
+        <v>-4.89</v>
       </c>
       <c r="CH32">
         <v>-0.39</v>
@@ -11708,10 +11412,10 @@
         <v>37.65</v>
       </c>
       <c r="DG32">
-        <v>91.18</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="DH32">
-        <v>87.65</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="DI32">
         <v>48.24</v>
@@ -11720,9 +11424,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>162</v>
+    <row r="33" spans="1:114">
+      <c r="A33">
+        <v>20241216</v>
       </c>
       <c r="B33">
         <v>1768</v>
@@ -11794,7 +11498,7 @@
         <v>56.25</v>
       </c>
       <c r="Y33">
-        <v>34.380000000000003</v>
+        <v>34.38</v>
       </c>
       <c r="Z33">
         <v>96.88</v>
@@ -11848,7 +11552,7 @@
         <v>32.61</v>
       </c>
       <c r="AQ33">
-        <v>95.65</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="AR33">
         <v>82.61</v>
@@ -11875,7 +11579,7 @@
         <v>-8.34</v>
       </c>
       <c r="AZ33">
-        <v>8.1300000000000008</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="BA33">
         <v>-6.14</v>
@@ -11926,13 +11630,13 @@
         <v>-6.7</v>
       </c>
       <c r="BQ33">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="BR33">
-        <v>-9.1300000000000008</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="BS33">
-        <v>-8.14</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="BT33">
         <v>-12.79</v>
@@ -11983,7 +11687,7 @@
         <v>2.46</v>
       </c>
       <c r="CJ33">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="CK33">
         <v>-6.96</v>
@@ -12031,7 +11735,7 @@
         <v>-1.57</v>
       </c>
       <c r="CZ33">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="DA33">
         <v>7.43</v>
@@ -12064,9 +11768,9 @@
         <v>42.96</v>
       </c>
     </row>
-    <row r="34" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>163</v>
+    <row r="34" spans="1:114">
+      <c r="A34">
+        <v>20241217</v>
       </c>
       <c r="B34">
         <v>554</v>
@@ -12120,7 +11824,7 @@
         <v>-5.42</v>
       </c>
       <c r="S34">
-        <v>9.6199999999999992</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="T34">
         <v>3.61</v>
@@ -12159,7 +11863,7 @@
         <v>2.25</v>
       </c>
       <c r="AF34">
-        <v>-4.7300000000000004</v>
+        <v>-4.73</v>
       </c>
       <c r="AG34">
         <v>4.21</v>
@@ -12180,7 +11884,7 @@
         <v>2.25</v>
       </c>
       <c r="AM34">
-        <v>-4.7300000000000004</v>
+        <v>-4.73</v>
       </c>
       <c r="AN34">
         <v>62.16</v>
@@ -12216,7 +11920,7 @@
         <v>-5.54</v>
       </c>
       <c r="AY34">
-        <v>-8.86</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="AZ34">
         <v>-1.91</v>
@@ -12228,7 +11932,7 @@
         <v>-4.26</v>
       </c>
       <c r="BC34">
-        <v>-8.3800000000000008</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="BD34">
         <v>-10.17</v>
@@ -12321,7 +12025,7 @@
         <v>-8.75</v>
       </c>
       <c r="CH34">
-        <v>-4.9800000000000004</v>
+        <v>-4.98</v>
       </c>
       <c r="CI34">
         <v>-0.95</v>
@@ -12342,7 +12046,7 @@
         <v>10.45</v>
       </c>
       <c r="CO34">
-        <v>8.9600000000000009</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="CP34">
         <v>46.27</v>
@@ -12354,7 +12058,7 @@
         <v>1.49</v>
       </c>
       <c r="CS34">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="CT34">
         <v>167</v>
@@ -12363,7 +12067,7 @@
         <v>0.42</v>
       </c>
       <c r="CV34">
-        <v>-4.8899999999999997</v>
+        <v>-4.89</v>
       </c>
       <c r="CW34">
         <v>3.08</v>
@@ -12396,21 +12100,21 @@
         <v>13.77</v>
       </c>
       <c r="DG34">
-        <v>74.849999999999994</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="DH34">
         <v>45.51</v>
       </c>
       <c r="DI34">
-        <v>40.119999999999997</v>
+        <v>40.12</v>
       </c>
       <c r="DJ34">
         <v>20.36</v>
       </c>
     </row>
-    <row r="35" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>164</v>
+    <row r="35" spans="1:114">
+      <c r="A35">
+        <v>20241218</v>
       </c>
       <c r="B35">
         <v>2802</v>
@@ -12464,7 +12168,7 @@
         <v>5.58</v>
       </c>
       <c r="S35">
-        <v>8.7899999999999991</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="T35">
         <v>14.85</v>
@@ -12485,7 +12189,7 @@
         <v>76.92</v>
       </c>
       <c r="Z35">
-        <v>88.46</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="AA35">
         <v>92.31</v>
@@ -12500,16 +12204,16 @@
         <v>13</v>
       </c>
       <c r="AE35">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="AF35">
-        <v>9.2899999999999991</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AG35">
-        <v>9.9700000000000006</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AH35">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AI35">
         <v>4.83</v>
@@ -12521,10 +12225,10 @@
         <v>13.62</v>
       </c>
       <c r="AL35">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="AM35">
-        <v>9.2899999999999991</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AN35">
         <v>76.92</v>
@@ -12572,10 +12276,10 @@
         <v>-5.81</v>
       </c>
       <c r="BC35">
-        <v>-9.7799999999999994</v>
+        <v>-9.779999999999999</v>
       </c>
       <c r="BD35">
-        <v>-8.11</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="BE35">
         <v>0</v>
@@ -12686,10 +12390,10 @@
         <v>38.24</v>
       </c>
       <c r="CO35">
-        <v>64.709999999999994</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="CP35">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="CQ35">
         <v>50</v>
@@ -12728,7 +12432,7 @@
         <v>-5.4</v>
       </c>
       <c r="DC35">
-        <v>-1.1100000000000001</v>
+        <v>-1.11</v>
       </c>
       <c r="DD35">
         <v>30</v>
@@ -12752,9 +12456,9 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="36" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>165</v>
+    <row r="36" spans="1:114">
+      <c r="A36">
+        <v>20241219</v>
       </c>
       <c r="B36">
         <v>2422</v>
@@ -12853,7 +12557,7 @@
         <v>7.95</v>
       </c>
       <c r="AH36">
-        <v>-4.2300000000000004</v>
+        <v>-4.23</v>
       </c>
       <c r="AI36">
         <v>-3.22</v>
@@ -13015,7 +12719,7 @@
         <v>4.29</v>
       </c>
       <c r="CJ36">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="CK36">
         <v>-6.42</v>
@@ -13033,16 +12737,16 @@
         <v>43.48</v>
       </c>
       <c r="CP36">
-        <v>78.260000000000005</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="CQ36">
-        <v>78.260000000000005</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="CR36">
         <v>0</v>
       </c>
       <c r="CS36">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="CT36">
         <v>120</v>
@@ -13063,7 +12767,7 @@
         <v>-0.91</v>
       </c>
       <c r="CZ36">
-        <v>9.7200000000000006</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="DA36">
         <v>8.66</v>
@@ -13096,9 +12800,9 @@
         <v>38.33</v>
       </c>
     </row>
-    <row r="37" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>166</v>
+    <row r="37" spans="1:114">
+      <c r="A37">
+        <v>20241220</v>
       </c>
       <c r="B37">
         <v>3556</v>
@@ -13296,7 +13000,7 @@
         <v>-5.21</v>
       </c>
       <c r="BO37">
-        <v>-0.56999999999999995</v>
+        <v>-0.57</v>
       </c>
       <c r="BP37">
         <v>-6.58</v>
@@ -13419,7 +13123,7 @@
         <v>-1.94</v>
       </c>
       <c r="DD37">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="DE37">
         <v>39.22</v>
@@ -13440,9 +13144,9 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="38" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>167</v>
+    <row r="38" spans="1:114">
+      <c r="A38">
+        <v>20241223</v>
       </c>
       <c r="B38">
         <v>555</v>
@@ -13541,7 +13245,7 @@
         <v>7.11</v>
       </c>
       <c r="AH38">
-        <v>-4.1100000000000003</v>
+        <v>-4.11</v>
       </c>
       <c r="AI38">
         <v>-1.01</v>
@@ -13559,7 +13263,7 @@
         <v>0.87</v>
       </c>
       <c r="AN38">
-        <v>64.709999999999994</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="AO38">
         <v>52.94</v>
@@ -13568,13 +13272,13 @@
         <v>23.53</v>
       </c>
       <c r="AQ38">
-        <v>82.35</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="AR38">
         <v>70.59</v>
       </c>
       <c r="AS38">
-        <v>64.709999999999994</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="AT38">
         <v>52.94</v>
@@ -13595,7 +13299,7 @@
         <v>-9.99</v>
       </c>
       <c r="AZ38">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="BA38">
         <v>-9.17</v>
@@ -13649,7 +13353,7 @@
         <v>-1.31</v>
       </c>
       <c r="BR38">
-        <v>-9.3800000000000008</v>
+        <v>-9.380000000000001</v>
       </c>
       <c r="BS38">
         <v>-10.85</v>
@@ -13667,7 +13371,7 @@
         <v>8.33</v>
       </c>
       <c r="BX38">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BY38">
         <v>0</v>
@@ -13694,7 +13398,7 @@
         <v>1.21</v>
       </c>
       <c r="CG38">
-        <v>-8.2899999999999991</v>
+        <v>-8.289999999999999</v>
       </c>
       <c r="CH38">
         <v>-5.03</v>
@@ -13754,10 +13458,10 @@
         <v>8.59</v>
       </c>
       <c r="DA38">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="DB38">
-        <v>-0.28999999999999998</v>
+        <v>-0.29</v>
       </c>
       <c r="DC38">
         <v>-3.93</v>
@@ -13784,9 +13488,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>168</v>
+    <row r="39" spans="1:114">
+      <c r="A39">
+        <v>20241224</v>
       </c>
       <c r="B39">
         <v>3913</v>
@@ -13825,10 +13529,10 @@
         <v>30</v>
       </c>
       <c r="N39">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="O39">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="P39">
         <v>8.16</v>
@@ -13846,10 +13550,10 @@
         <v>11.52</v>
       </c>
       <c r="U39">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="V39">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="W39">
         <v>86.67</v>
@@ -13882,7 +13586,7 @@
         <v>2.6</v>
       </c>
       <c r="AG39">
-        <v>8.3800000000000008</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="AH39">
         <v>-1.54</v>
@@ -13993,7 +13697,7 @@
         <v>-0.61</v>
       </c>
       <c r="BR39">
-        <v>-10.130000000000001</v>
+        <v>-10.13</v>
       </c>
       <c r="BS39">
         <v>-10.69</v>
@@ -14008,7 +13712,7 @@
         <v>10.42</v>
       </c>
       <c r="BW39">
-        <v>9.7200000000000006</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="BX39">
         <v>31.25</v>
@@ -14017,13 +13721,13 @@
         <v>0</v>
       </c>
       <c r="BZ39">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="CA39">
         <v>0</v>
       </c>
       <c r="CB39">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="CC39">
         <v>16</v>
@@ -14032,13 +13736,13 @@
         <v>-1.72</v>
       </c>
       <c r="CE39">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="CF39">
         <v>5.28</v>
       </c>
       <c r="CG39">
-        <v>-4.7699999999999996</v>
+        <v>-4.77</v>
       </c>
       <c r="CH39">
         <v>4.12</v>
@@ -14104,13 +13808,13 @@
         <v>0.08</v>
       </c>
       <c r="DC39">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="DD39">
         <v>60.87</v>
       </c>
       <c r="DE39">
-        <v>71.739999999999995</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="DF39">
         <v>54.35</v>
@@ -14119,7 +13823,7 @@
         <v>89.13</v>
       </c>
       <c r="DH39">
-        <v>80.430000000000007</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="DI39">
         <v>56.52</v>
@@ -14128,9 +13832,9 @@
         <v>54.35</v>
       </c>
     </row>
-    <row r="40" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>169</v>
+    <row r="40" spans="1:114">
+      <c r="A40">
+        <v>20241225</v>
       </c>
       <c r="B40">
         <v>911</v>
@@ -14256,10 +13960,10 @@
         <v>28.57</v>
       </c>
       <c r="AQ40">
-        <v>95.24</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="AR40">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AS40">
         <v>61.9</v>
@@ -14280,7 +13984,7 @@
         <v>-5.52</v>
       </c>
       <c r="AY40">
-        <v>-9.7200000000000006</v>
+        <v>-9.720000000000001</v>
       </c>
       <c r="AZ40">
         <v>-1.61</v>
@@ -14292,7 +13996,7 @@
         <v>-8.15</v>
       </c>
       <c r="BC40">
-        <v>-8.8699999999999992</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="BD40">
         <v>-10.41</v>
@@ -14376,7 +14080,7 @@
         <v>-2.71</v>
       </c>
       <c r="CE40">
-        <v>-4.8600000000000003</v>
+        <v>-4.86</v>
       </c>
       <c r="CF40">
         <v>0.79</v>
@@ -14385,13 +14089,13 @@
         <v>-7.22</v>
       </c>
       <c r="CH40">
-        <v>-2.2000000000000002</v>
+        <v>-2.2</v>
       </c>
       <c r="CI40">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="CJ40">
-        <v>-1.1299999999999999</v>
+        <v>-1.13</v>
       </c>
       <c r="CK40">
         <v>-6.3</v>
@@ -14433,13 +14137,13 @@
         <v>3.96</v>
       </c>
       <c r="CX40">
-        <v>-4.8099999999999996</v>
+        <v>-4.81</v>
       </c>
       <c r="CY40">
         <v>-2.62</v>
       </c>
       <c r="CZ40">
-        <v>8.1199999999999992</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="DA40">
         <v>5.26</v>
@@ -14472,9 +14176,9 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="41" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>170</v>
+    <row r="41" spans="1:114">
+      <c r="A41">
+        <v>20241226</v>
       </c>
       <c r="B41">
         <v>3649</v>
@@ -14567,10 +14271,10 @@
         <v>2.06</v>
       </c>
       <c r="AF41">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="AG41">
-        <v>9.1300000000000008</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="AH41">
         <v>-1.53</v>
@@ -14588,7 +14292,7 @@
         <v>2.06</v>
       </c>
       <c r="AM41">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="AN41">
         <v>60</v>
@@ -14615,13 +14319,13 @@
         <v>11</v>
       </c>
       <c r="AV41">
-        <v>-8.0399999999999991</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="AW41">
         <v>-0.78</v>
       </c>
       <c r="AX41">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="AY41">
         <v>-8.31</v>
@@ -14633,10 +14337,10 @@
         <v>-7</v>
       </c>
       <c r="BB41">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="BC41">
-        <v>-9.89</v>
+        <v>-9.890000000000001</v>
       </c>
       <c r="BD41">
         <v>-2.67</v>
@@ -14648,7 +14352,7 @@
         <v>45.45</v>
       </c>
       <c r="BG41">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="BH41">
         <v>9.09</v>
@@ -14672,7 +14376,7 @@
         <v>-2.17</v>
       </c>
       <c r="BO41">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="BP41">
         <v>-6.71</v>
@@ -14690,16 +14394,16 @@
         <v>-11.85</v>
       </c>
       <c r="BU41">
-        <v>-8.8699999999999992</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="BV41">
         <v>10.81</v>
       </c>
       <c r="BW41">
-        <v>37.840000000000003</v>
+        <v>37.84</v>
       </c>
       <c r="BX41">
-        <v>67.569999999999993</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="BY41">
         <v>0</v>
@@ -14738,7 +14442,7 @@
         <v>1.07</v>
       </c>
       <c r="CK41">
-        <v>-9.4700000000000006</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="CL41">
         <v>-6.02</v>
@@ -14792,7 +14496,7 @@
         <v>-1.63</v>
       </c>
       <c r="DC41">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="DD41">
         <v>39.22</v>
@@ -14804,10 +14508,10 @@
         <v>80.39</v>
       </c>
       <c r="DG41">
-        <v>82.35</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="DH41">
-        <v>88.24</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="DI41">
         <v>39.22</v>
@@ -14816,9 +14520,9 @@
         <v>62.75</v>
       </c>
     </row>
-    <row r="42" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>171</v>
+    <row r="42" spans="1:114">
+      <c r="A42">
+        <v>20241227</v>
       </c>
       <c r="B42">
         <v>3547</v>
@@ -14875,7 +14579,7 @@
         <v>11.95</v>
       </c>
       <c r="T42">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="U42">
         <v>1.83</v>
@@ -14893,7 +14597,7 @@
         <v>28.57</v>
       </c>
       <c r="Z42">
-        <v>98.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AA42">
         <v>92.31</v>
@@ -14926,7 +14630,7 @@
         <v>11.06</v>
       </c>
       <c r="AK42">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AL42">
         <v>3.14</v>
@@ -14962,7 +14666,7 @@
         <v>-3.72</v>
       </c>
       <c r="AW42">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="AX42">
         <v>3</v>
@@ -14974,7 +14678,7 @@
         <v>2.83</v>
       </c>
       <c r="BA42">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="BB42">
         <v>7.06</v>
@@ -14983,7 +14687,7 @@
         <v>-7.54</v>
       </c>
       <c r="BD42">
-        <v>-4.9400000000000004</v>
+        <v>-4.94</v>
       </c>
       <c r="BE42">
         <v>14.29</v>
@@ -14995,10 +14699,10 @@
         <v>57.14</v>
       </c>
       <c r="BH42">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="BI42">
-        <v>78.569999999999993</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="BJ42">
         <v>7.14</v>
@@ -15025,7 +14729,7 @@
         <v>4.33</v>
       </c>
       <c r="BR42">
-        <v>-9.2899999999999991</v>
+        <v>-9.289999999999999</v>
       </c>
       <c r="BS42">
         <v>-5.32</v>
@@ -15070,10 +14774,10 @@
         <v>1.92</v>
       </c>
       <c r="CG42">
-        <v>-4.6900000000000004</v>
+        <v>-4.69</v>
       </c>
       <c r="CH42">
-        <v>-1.1599999999999999</v>
+        <v>-1.16</v>
       </c>
       <c r="CI42">
         <v>2</v>
@@ -15097,13 +14801,13 @@
         <v>30.43</v>
       </c>
       <c r="CP42">
-        <v>69.569999999999993</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="CQ42">
         <v>73.91</v>
       </c>
       <c r="CR42">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="CS42">
         <v>0</v>
@@ -15112,7 +14816,7 @@
         <v>114</v>
       </c>
       <c r="CU42">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="CV42">
         <v>-0.47</v>
@@ -15127,7 +14831,7 @@
         <v>-1.6</v>
       </c>
       <c r="CZ42">
-        <v>9.9499999999999993</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="DA42">
         <v>8.18</v>
@@ -15142,7 +14846,7 @@
         <v>52.63</v>
       </c>
       <c r="DE42">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="DF42">
         <v>28.95</v>
@@ -15151,7 +14855,7 @@
         <v>92.98</v>
       </c>
       <c r="DH42">
-        <v>88.6</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="DI42">
         <v>49.12</v>
@@ -15160,9 +14864,9 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="43" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>172</v>
+    <row r="43" spans="1:114">
+      <c r="A43">
+        <v>20241230</v>
       </c>
       <c r="B43">
         <v>1322</v>
@@ -15216,7 +14920,7 @@
         <v>0.13</v>
       </c>
       <c r="S43">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T43">
         <v>9.33</v>
@@ -15279,7 +14983,7 @@
         <v>0.97</v>
       </c>
       <c r="AN43">
-        <v>78.569999999999993</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="AO43">
         <v>50</v>
@@ -15291,10 +14995,10 @@
         <v>92.86</v>
       </c>
       <c r="AR43">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AS43">
-        <v>78.569999999999993</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="AT43">
         <v>50</v>
@@ -15303,7 +15007,7 @@
         <v>3</v>
       </c>
       <c r="AV43">
-        <v>-9.11</v>
+        <v>-9.109999999999999</v>
       </c>
       <c r="AW43">
         <v>-6.87</v>
@@ -15312,10 +15016,10 @@
         <v>0.7</v>
       </c>
       <c r="AY43">
-        <v>-9.7899999999999991</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="AZ43">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="BA43">
         <v>-0.19</v>
@@ -15366,7 +15070,7 @@
         <v>-7.6</v>
       </c>
       <c r="BQ43">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="BR43">
         <v>-11.98</v>
@@ -15420,7 +15124,7 @@
         <v>-1.69</v>
       </c>
       <c r="CI43">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="CJ43">
         <v>-0.6</v>
@@ -15462,7 +15166,7 @@
         <v>-0.1</v>
       </c>
       <c r="CW43">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="CX43">
         <v>-3.54</v>
@@ -15489,24 +15193,24 @@
         <v>41.84</v>
       </c>
       <c r="DF43">
-        <v>36.729999999999997</v>
+        <v>36.73</v>
       </c>
       <c r="DG43">
         <v>86.73</v>
       </c>
       <c r="DH43">
-        <v>82.65</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="DI43">
-        <v>36.729999999999997</v>
+        <v>36.73</v>
       </c>
       <c r="DJ43">
         <v>34.69</v>
       </c>
     </row>
-    <row r="44" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>173</v>
+    <row r="44" spans="1:114">
+      <c r="A44">
+        <v>20241231</v>
       </c>
       <c r="B44">
         <v>705</v>
@@ -15614,7 +15318,7 @@
         <v>8.98</v>
       </c>
       <c r="AK44">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL44">
         <v>2.87</v>
@@ -15656,7 +15360,7 @@
         <v>-0.67</v>
       </c>
       <c r="AY44">
-        <v>-8.3699999999999992</v>
+        <v>-8.369999999999999</v>
       </c>
       <c r="AZ44">
         <v>4.25</v>
@@ -15671,7 +15375,7 @@
         <v>-12.12</v>
       </c>
       <c r="BD44">
-        <v>-8.5299999999999994</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="BE44">
         <v>0</v>
@@ -15707,7 +15411,7 @@
         <v>-0.39</v>
       </c>
       <c r="BP44">
-        <v>-8.9700000000000006</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="BQ44">
         <v>-2.95</v>
@@ -15785,7 +15489,7 @@
         <v>21.43</v>
       </c>
       <c r="CP44">
-        <v>78.569999999999993</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="CQ44">
         <v>35.71</v>
@@ -15803,7 +15507,7 @@
         <v>1.91</v>
       </c>
       <c r="CV44">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="CW44">
         <v>6.54</v>
@@ -15815,7 +15519,7 @@
         <v>-1.27</v>
       </c>
       <c r="CZ44">
-        <v>8.2899999999999991</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="DA44">
         <v>6.84</v>
@@ -15836,7 +15540,7 @@
         <v>35.19</v>
       </c>
       <c r="DG44">
-        <v>87.04</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="DH44">
         <v>79.63</v>
@@ -15848,9 +15552,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>174</v>
+    <row r="45" spans="1:114">
+      <c r="A45">
+        <v>20250102</v>
       </c>
       <c r="B45">
         <v>925</v>
@@ -15949,13 +15653,13 @@
         <v>7.59</v>
       </c>
       <c r="AH45">
-        <v>-2.3199999999999998</v>
+        <v>-2.32</v>
       </c>
       <c r="AI45">
         <v>0.15</v>
       </c>
       <c r="AJ45">
-        <v>9.9499999999999993</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AK45">
         <v>10.1</v>
@@ -16054,7 +15758,7 @@
         <v>-6.02</v>
       </c>
       <c r="BQ45">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="BR45">
         <v>-9.74</v>
@@ -16105,7 +15809,7 @@
         <v>-5.93</v>
       </c>
       <c r="CH45">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="CI45">
         <v>-1.99</v>
@@ -16120,7 +15824,7 @@
         <v>-6.23</v>
       </c>
       <c r="CM45">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CN45">
         <v>44.44</v>
@@ -16180,7 +15884,7 @@
         <v>47.62</v>
       </c>
       <c r="DG45">
-        <v>85.71</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="DH45">
         <v>80.95</v>
@@ -16192,9 +15896,9 @@
         <v>46.03</v>
       </c>
     </row>
-    <row r="46" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>175</v>
+    <row r="46" spans="1:114">
+      <c r="A46">
+        <v>20250103</v>
       </c>
       <c r="B46">
         <v>615</v>
@@ -16233,7 +15937,7 @@
         <v>58</v>
       </c>
       <c r="N46">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="O46">
         <v>-0.27</v>
@@ -16254,7 +15958,7 @@
         <v>7.98</v>
       </c>
       <c r="U46">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="V46">
         <v>-0.27</v>
@@ -16263,7 +15967,7 @@
         <v>68.97</v>
       </c>
       <c r="X46">
-        <v>39.659999999999997</v>
+        <v>39.66</v>
       </c>
       <c r="Y46">
         <v>29.31</v>
@@ -16278,7 +15982,7 @@
         <v>68.97</v>
       </c>
       <c r="AC46">
-        <v>39.659999999999997</v>
+        <v>39.66</v>
       </c>
       <c r="AD46">
         <v>18</v>
@@ -16344,7 +16048,7 @@
         <v>0.39</v>
       </c>
       <c r="AY46">
-        <v>-8.1300000000000008</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="AZ46">
         <v>-4.17</v>
@@ -16353,7 +16057,7 @@
         <v>5.27</v>
       </c>
       <c r="BB46">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="BC46">
         <v>-5.21</v>
@@ -16365,10 +16069,10 @@
         <v>50</v>
       </c>
       <c r="BF46">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BG46">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BH46">
         <v>66.67</v>
@@ -16377,10 +16081,10 @@
         <v>33.33</v>
       </c>
       <c r="BJ46">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BK46">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BL46">
         <v>13</v>
@@ -16401,7 +16105,7 @@
         <v>-3.24</v>
       </c>
       <c r="BR46">
-        <v>-8.0500000000000007</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="BS46">
         <v>-11.17</v>
@@ -16443,7 +16147,7 @@
         <v>-5</v>
       </c>
       <c r="CF46">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="CG46">
         <v>-7.57</v>
@@ -16461,7 +16165,7 @@
         <v>-6.31</v>
       </c>
       <c r="CL46">
-        <v>-9.1999999999999993</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="CM46">
         <v>8.57</v>
@@ -16473,7 +16177,7 @@
         <v>20</v>
       </c>
       <c r="CP46">
-        <v>85.71</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="CQ46">
         <v>40</v>
@@ -16491,7 +16195,7 @@
         <v>0.83</v>
       </c>
       <c r="CV46">
-        <v>-2.0499999999999998</v>
+        <v>-2.05</v>
       </c>
       <c r="CW46">
         <v>4.17</v>
@@ -16536,9 +16240,9 @@
         <v>29.03</v>
       </c>
     </row>
-    <row r="47" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>176</v>
+    <row r="47" spans="1:114">
+      <c r="A47">
+        <v>20250106</v>
       </c>
       <c r="B47">
         <v>2292</v>
@@ -16580,7 +16284,7 @@
         <v>0.72</v>
       </c>
       <c r="O47">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="P47">
         <v>6.9</v>
@@ -16595,13 +16299,13 @@
         <v>7.7</v>
       </c>
       <c r="T47">
-        <v>9.36</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="U47">
         <v>0.72</v>
       </c>
       <c r="V47">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="W47">
         <v>51.11</v>
@@ -16646,7 +16350,7 @@
         <v>5.59</v>
       </c>
       <c r="AK47">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="AL47">
         <v>0.39</v>
@@ -16661,10 +16365,10 @@
         <v>47.37</v>
       </c>
       <c r="AP47">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="AQ47">
-        <v>73.680000000000007</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="AR47">
         <v>63.16</v>
@@ -16700,7 +16404,7 @@
         <v>3.41</v>
       </c>
       <c r="BC47">
-        <v>-9.4700000000000006</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="BD47">
         <v>-3.71</v>
@@ -16739,7 +16443,7 @@
         <v>-1.69</v>
       </c>
       <c r="BP47">
-        <v>-8.61</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="BQ47">
         <v>-1.95</v>
@@ -16787,7 +16491,7 @@
         <v>-5.37</v>
       </c>
       <c r="CF47">
-        <v>-0.69</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="CG47">
         <v>-8.18</v>
@@ -16796,7 +16500,7 @@
         <v>-0.64</v>
       </c>
       <c r="CI47">
-        <v>-4.9800000000000004</v>
+        <v>-4.98</v>
       </c>
       <c r="CJ47">
         <v>-5.5</v>
@@ -16838,7 +16542,7 @@
         <v>0.04</v>
       </c>
       <c r="CW47">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="CX47">
         <v>-5.32</v>
@@ -16850,7 +16554,7 @@
         <v>4.07</v>
       </c>
       <c r="DA47">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="DB47">
         <v>-2.72</v>
@@ -16880,9 +16584,9 @@
         <v>46.03</v>
       </c>
     </row>
-    <row r="48" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>177</v>
+    <row r="48" spans="1:114">
+      <c r="A48">
+        <v>20250107</v>
       </c>
       <c r="B48">
         <v>4394</v>
@@ -16948,10 +16652,10 @@
         <v>3.19</v>
       </c>
       <c r="W48">
-        <v>67.239999999999995</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="X48">
-        <v>67.239999999999995</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="Y48">
         <v>55.17</v>
@@ -16963,10 +16667,10 @@
         <v>89.66</v>
       </c>
       <c r="AB48">
-        <v>67.239999999999995</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="AC48">
-        <v>67.239999999999995</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="AD48">
         <v>19</v>
@@ -17008,10 +16712,10 @@
         <v>47.37</v>
       </c>
       <c r="AQ48">
-        <v>94.74</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="AR48">
-        <v>73.680000000000007</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="AS48">
         <v>63.16</v>
@@ -17035,7 +16739,7 @@
         <v>-9.98</v>
       </c>
       <c r="AZ48">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="BA48">
         <v>-7.26</v>
@@ -17089,7 +16793,7 @@
         <v>4.43</v>
       </c>
       <c r="BR48">
-        <v>-9.36</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="BS48">
         <v>-5.37</v>
@@ -17188,10 +16892,10 @@
         <v>-2.98</v>
       </c>
       <c r="CY48">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="CZ48">
-        <v>8.64</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="DA48">
         <v>11.04</v>
@@ -17212,7 +16916,7 @@
         <v>64.47</v>
       </c>
       <c r="DG48">
-        <v>90.79</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="DH48">
         <v>88.16</v>
@@ -17224,9 +16928,9 @@
         <v>57.89</v>
       </c>
     </row>
-    <row r="49" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>178</v>
+    <row r="49" spans="1:114">
+      <c r="A49">
+        <v>20250108</v>
       </c>
       <c r="B49">
         <v>1978</v>
@@ -17295,7 +16999,7 @@
         <v>54.95</v>
       </c>
       <c r="X49">
-        <v>75.819999999999993</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="Y49">
         <v>68.13</v>
@@ -17310,7 +17014,7 @@
         <v>54.95</v>
       </c>
       <c r="AC49">
-        <v>75.819999999999993</v>
+        <v>75.81999999999999</v>
       </c>
       <c r="AD49">
         <v>21</v>
@@ -17376,7 +17080,7 @@
         <v>6.08</v>
       </c>
       <c r="AY49">
-        <v>-4.6100000000000003</v>
+        <v>-4.61</v>
       </c>
       <c r="AZ49">
         <v>6.17</v>
@@ -17553,24 +17257,24 @@
         <v>68.22</v>
       </c>
       <c r="DF49">
-        <v>64.489999999999995</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="DG49">
         <v>94.39</v>
       </c>
       <c r="DH49">
-        <v>93.46</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="DI49">
         <v>46.73</v>
       </c>
       <c r="DJ49">
-        <v>67.290000000000006</v>
+        <v>67.29000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>179</v>
+    <row r="50" spans="1:114">
+      <c r="A50">
+        <v>20250109</v>
       </c>
       <c r="B50">
         <v>2729</v>
@@ -17609,7 +17313,7 @@
         <v>64</v>
       </c>
       <c r="N50">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="O50">
         <v>3.45</v>
@@ -17630,7 +17334,7 @@
         <v>12.21</v>
       </c>
       <c r="U50">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="V50">
         <v>3.45</v>
@@ -17678,7 +17382,7 @@
         <v>10.09</v>
       </c>
       <c r="AK50">
-        <v>9.2799999999999994</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AL50">
         <v>3.51</v>
@@ -17828,7 +17532,7 @@
         <v>1.81</v>
       </c>
       <c r="CI50">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="CJ50">
         <v>4.37</v>
@@ -17888,7 +17592,7 @@
         <v>-0.38</v>
       </c>
       <c r="DC50">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="DD50">
         <v>44.32</v>
@@ -17912,9 +17616,9 @@
         <v>46.59</v>
       </c>
     </row>
-    <row r="51" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>180</v>
+    <row r="51" spans="1:114">
+      <c r="A51">
+        <v>20250110</v>
       </c>
       <c r="B51">
         <v>534</v>
@@ -17956,13 +17660,13 @@
         <v>1.3</v>
       </c>
       <c r="O51">
-        <v>-2.2000000000000002</v>
+        <v>-2.2</v>
       </c>
       <c r="P51">
         <v>5.05</v>
       </c>
       <c r="Q51">
-        <v>-4.3099999999999996</v>
+        <v>-4.31</v>
       </c>
       <c r="R51">
         <v>-3.45</v>
@@ -17977,7 +17681,7 @@
         <v>1.3</v>
       </c>
       <c r="V51">
-        <v>-2.2000000000000002</v>
+        <v>-2.2</v>
       </c>
       <c r="W51">
         <v>59.3</v>
@@ -18004,7 +17708,7 @@
         <v>30</v>
       </c>
       <c r="AE51">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF51">
         <v>-4.96</v>
@@ -18025,7 +17729,7 @@
         <v>-0.48</v>
       </c>
       <c r="AL51">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AM51">
         <v>-4.96</v>
@@ -18058,13 +17762,13 @@
         <v>-3.67</v>
       </c>
       <c r="AW51">
-        <v>-10.050000000000001</v>
+        <v>-10.05</v>
       </c>
       <c r="AX51">
         <v>1.77</v>
       </c>
       <c r="AY51">
-        <v>-10.050000000000001</v>
+        <v>-10.05</v>
       </c>
       <c r="AZ51">
         <v>-6.63</v>
@@ -18115,13 +17819,13 @@
         <v>-0.26</v>
       </c>
       <c r="BP51">
-        <v>-9.3000000000000007</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="BQ51">
         <v>-1.7</v>
       </c>
       <c r="BR51">
-        <v>-9.89</v>
+        <v>-9.890000000000001</v>
       </c>
       <c r="BS51">
         <v>-11.62</v>
@@ -18166,7 +17870,7 @@
         <v>3.02</v>
       </c>
       <c r="CG51">
-        <v>-4.6100000000000003</v>
+        <v>-4.61</v>
       </c>
       <c r="CH51">
         <v>-2.31</v>
@@ -18202,7 +17906,7 @@
         <v>5.56</v>
       </c>
       <c r="CS51">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CT51">
         <v>104</v>
@@ -18217,13 +17921,13 @@
         <v>4.7</v>
       </c>
       <c r="CX51">
-        <v>-4.3600000000000003</v>
+        <v>-4.36</v>
       </c>
       <c r="CY51">
         <v>-3.26</v>
       </c>
       <c r="CZ51">
-        <v>9.3800000000000008</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="DA51">
         <v>5.83</v>
@@ -18256,9 +17960,9 @@
         <v>27.88</v>
       </c>
     </row>
-    <row r="52" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>181</v>
+    <row r="52" spans="1:114">
+      <c r="A52">
+        <v>20250113</v>
       </c>
       <c r="B52">
         <v>3007</v>
@@ -18336,7 +18040,7 @@
         <v>92.11</v>
       </c>
       <c r="AA52">
-        <v>76.319999999999993</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="AB52">
         <v>52.63</v>
@@ -18471,13 +18175,13 @@
         <v>2.86</v>
       </c>
       <c r="CK52">
-        <v>-8.3000000000000007</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="CL52">
         <v>-6.62</v>
       </c>
       <c r="CM52">
-        <v>9.3800000000000008</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="CN52">
         <v>25</v>
@@ -18495,7 +18199,7 @@
         <v>3.12</v>
       </c>
       <c r="CS52">
-        <v>9.3800000000000008</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="CT52">
         <v>70</v>
@@ -18537,10 +18241,10 @@
         <v>47.14</v>
       </c>
       <c r="DG52">
-        <v>75.709999999999994</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="DH52">
-        <v>75.709999999999994</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="DI52">
         <v>30</v>
@@ -18549,9 +18253,9 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="53" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>182</v>
+    <row r="53" spans="1:114">
+      <c r="A53">
+        <v>20250114</v>
       </c>
       <c r="B53">
         <v>5334</v>
@@ -18596,7 +18300,7 @@
         <v>6.35</v>
       </c>
       <c r="P53">
-        <v>8.2799999999999994</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="Q53">
         <v>0.59</v>
@@ -18617,7 +18321,7 @@
         <v>6.35</v>
       </c>
       <c r="W53">
-        <v>76.739999999999995</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="X53">
         <v>100</v>
@@ -18632,7 +18336,7 @@
         <v>100</v>
       </c>
       <c r="AB53">
-        <v>76.739999999999995</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="AC53">
         <v>100</v>
@@ -18644,7 +18348,7 @@
         <v>3.5</v>
       </c>
       <c r="AF53">
-        <v>8.2799999999999994</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AG53">
         <v>9.43</v>
@@ -18665,7 +18369,7 @@
         <v>3.5</v>
       </c>
       <c r="AM53">
-        <v>8.2799999999999994</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AN53">
         <v>90.91</v>
@@ -18674,7 +18378,7 @@
         <v>100</v>
       </c>
       <c r="AP53">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AQ53">
         <v>100</v>
@@ -18704,7 +18408,7 @@
         <v>-5.38</v>
       </c>
       <c r="AZ53">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="BA53">
         <v>-1.22</v>
@@ -18722,7 +18426,7 @@
         <v>14.29</v>
       </c>
       <c r="BF53">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="BG53">
         <v>100</v>
@@ -18731,7 +18435,7 @@
         <v>42.86</v>
       </c>
       <c r="BI53">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="BJ53">
         <v>0</v>
@@ -18773,10 +18477,10 @@
         <v>21.43</v>
       </c>
       <c r="BW53">
-        <v>89.29</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="BX53">
-        <v>96.43</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="BY53">
         <v>0</v>
@@ -18797,7 +18501,7 @@
         <v>-2.1</v>
       </c>
       <c r="CE53">
-        <v>4.9400000000000004</v>
+        <v>4.94</v>
       </c>
       <c r="CF53">
         <v>6.53</v>
@@ -18857,10 +18561,10 @@
         <v>-0.74</v>
       </c>
       <c r="CY53">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="CZ53">
-        <v>9.7200000000000006</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="DA53">
         <v>14.21</v>
@@ -18893,9 +18597,9 @@
         <v>86.89</v>
       </c>
     </row>
-    <row r="54" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>183</v>
+    <row r="54" spans="1:114">
+      <c r="A54">
+        <v>20250115</v>
       </c>
       <c r="B54">
         <v>1666</v>
@@ -18937,7 +18641,7 @@
         <v>3.53</v>
       </c>
       <c r="O54">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="P54">
         <v>6.6</v>
@@ -18958,7 +18662,7 @@
         <v>3.53</v>
       </c>
       <c r="V54">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="W54">
         <v>80</v>
@@ -18991,13 +18695,13 @@
         <v>1.85</v>
       </c>
       <c r="AG54">
-        <v>8.5299999999999994</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="AH54">
         <v>-1.44</v>
       </c>
       <c r="AI54">
-        <v>-2.4500000000000002</v>
+        <v>-2.45</v>
       </c>
       <c r="AJ54">
         <v>12.26</v>
@@ -19087,7 +18791,7 @@
         <v>28</v>
       </c>
       <c r="CD54">
-        <v>-0.56999999999999995</v>
+        <v>-0.57</v>
       </c>
       <c r="CE54">
         <v>-1.9</v>
@@ -19126,7 +18830,7 @@
         <v>92.86</v>
       </c>
       <c r="CQ54">
-        <v>89.29</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="CR54">
         <v>3.57</v>
@@ -19159,7 +18863,7 @@
         <v>10.24</v>
       </c>
       <c r="DB54">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="DC54">
         <v>1.37</v>
@@ -19174,21 +18878,21 @@
         <v>32.28</v>
       </c>
       <c r="DG54">
-        <v>98.1</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="DH54">
         <v>93.67</v>
       </c>
       <c r="DI54">
-        <v>66.459999999999994</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="DJ54">
         <v>58.23</v>
       </c>
     </row>
-    <row r="55" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>184</v>
+    <row r="55" spans="1:114">
+      <c r="A55">
+        <v>20250116</v>
       </c>
       <c r="B55">
         <v>3368</v>
@@ -19242,7 +18946,7 @@
         <v>1.2</v>
       </c>
       <c r="S55">
-        <v>8.4600000000000009</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="T55">
         <v>9.73</v>
@@ -19266,7 +18970,7 @@
         <v>95.38</v>
       </c>
       <c r="AA55">
-        <v>93.85</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="AB55">
         <v>52.31</v>
@@ -19278,13 +18982,13 @@
         <v>30</v>
       </c>
       <c r="AE55">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AF55">
         <v>5.78</v>
       </c>
       <c r="AG55">
-        <v>8.7799999999999994</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="AH55">
         <v>0.85</v>
@@ -19296,10 +19000,10 @@
         <v>7.19</v>
       </c>
       <c r="AK55">
-        <v>8.6300000000000008</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="AL55">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AM55">
         <v>5.78</v>
@@ -19341,13 +19045,13 @@
         <v>-5.74</v>
       </c>
       <c r="BQ55">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="BR55">
         <v>-11.04</v>
       </c>
       <c r="BS55">
-        <v>-9.1300000000000008</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="BT55">
         <v>-13.15</v>
@@ -19362,7 +19066,7 @@
         <v>42.86</v>
       </c>
       <c r="BX55">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="BY55">
         <v>0</v>
@@ -19380,7 +19084,7 @@
         <v>23</v>
       </c>
       <c r="CD55">
-        <v>-2.5499999999999998</v>
+        <v>-2.55</v>
       </c>
       <c r="CE55">
         <v>-0.73</v>
@@ -19398,7 +19102,7 @@
         <v>-0.7</v>
       </c>
       <c r="CJ55">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="CK55">
         <v>-7.43</v>
@@ -19407,7 +19111,7 @@
         <v>-5.73</v>
       </c>
       <c r="CM55">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="CN55">
         <v>30.43</v>
@@ -19434,7 +19138,7 @@
         <v>0.88</v>
       </c>
       <c r="CV55">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="CW55">
         <v>5.85</v>
@@ -19458,7 +19162,7 @@
         <v>0.93</v>
       </c>
       <c r="DD55">
-        <v>40.909999999999997</v>
+        <v>40.91</v>
       </c>
       <c r="DE55">
         <v>53.41</v>
@@ -19479,9 +19183,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>185</v>
+    <row r="56" spans="1:114">
+      <c r="A56">
+        <v>20250117</v>
       </c>
       <c r="B56">
         <v>2620</v>
@@ -19535,7 +19239,7 @@
         <v>-1.88</v>
       </c>
       <c r="S56">
-        <v>8.7200000000000006</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="T56">
         <v>6.62</v>
@@ -19556,7 +19260,7 @@
         <v>27.14</v>
       </c>
       <c r="Z56">
-        <v>91.43</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="AA56">
         <v>82.86</v>
@@ -19580,7 +19284,7 @@
         <v>6.49</v>
       </c>
       <c r="AH56">
-        <v>-4.3099999999999996</v>
+        <v>-4.31</v>
       </c>
       <c r="AI56">
         <v>-2.48</v>
@@ -19631,7 +19335,7 @@
         <v>0.06</v>
       </c>
       <c r="BP56">
-        <v>-9.0299999999999994</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="BQ56">
         <v>1.36</v>
@@ -19703,7 +19407,7 @@
         <v>6.67</v>
       </c>
       <c r="CN56">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CO56">
         <v>26.67</v>
@@ -19772,9 +19476,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>186</v>
+    <row r="57" spans="1:114">
+      <c r="A57">
+        <v>20250120</v>
       </c>
       <c r="B57">
         <v>3618</v>
@@ -19840,7 +19544,7 @@
         <v>1.78</v>
       </c>
       <c r="W57">
-        <v>64.290000000000006</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="X57">
         <v>48.21</v>
@@ -19849,13 +19553,13 @@
         <v>35.71</v>
       </c>
       <c r="Z57">
-        <v>91.07</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="AA57">
-        <v>83.93</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="AB57">
-        <v>64.290000000000006</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="AC57">
         <v>48.21</v>
@@ -19867,7 +19571,7 @@
         <v>2.67</v>
       </c>
       <c r="AF57">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AG57">
         <v>6.3</v>
@@ -19879,7 +19583,7 @@
         <v>-2.52</v>
       </c>
       <c r="AJ57">
-        <v>9.2899999999999991</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AK57">
         <v>6.65</v>
@@ -19888,7 +19592,7 @@
         <v>2.67</v>
       </c>
       <c r="AM57">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AN57">
         <v>60</v>
@@ -19924,13 +19628,13 @@
         <v>-3.03</v>
       </c>
       <c r="AY57">
-        <v>-9.4600000000000009</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="AZ57">
         <v>-1.85</v>
       </c>
       <c r="BA57">
-        <v>-5.0599999999999996</v>
+        <v>-5.06</v>
       </c>
       <c r="BB57">
         <v>-6.89</v>
@@ -19939,7 +19643,7 @@
         <v>-7.45</v>
       </c>
       <c r="BD57">
-        <v>-9.1999999999999993</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="BE57">
         <v>0</v>
@@ -19972,7 +19676,7 @@
         <v>-2.25</v>
       </c>
       <c r="BO57">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="BP57">
         <v>-6.41</v>
@@ -20083,7 +19787,7 @@
         <v>-0.72</v>
       </c>
       <c r="CZ57">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="DA57">
         <v>7.9</v>
@@ -20101,7 +19805,7 @@
         <v>40.79</v>
       </c>
       <c r="DF57">
-        <v>38.159999999999997</v>
+        <v>38.16</v>
       </c>
       <c r="DG57">
         <v>86.84</v>
@@ -20113,12 +19817,12 @@
         <v>47.37</v>
       </c>
       <c r="DJ57">
-        <v>38.159999999999997</v>
+        <v>38.16</v>
       </c>
     </row>
-    <row r="58" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>187</v>
+    <row r="58" spans="1:114">
+      <c r="A58">
+        <v>20250121</v>
       </c>
       <c r="B58">
         <v>1985</v>
@@ -20175,7 +19879,7 @@
         <v>9.44</v>
       </c>
       <c r="T58">
-        <v>8.4700000000000006</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="U58">
         <v>2.54</v>
@@ -20184,7 +19888,7 @@
         <v>1.61</v>
       </c>
       <c r="W58">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="X58">
         <v>51.43</v>
@@ -20199,7 +19903,7 @@
         <v>90</v>
       </c>
       <c r="AB58">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AC58">
         <v>51.43</v>
@@ -20217,7 +19921,7 @@
         <v>7.71</v>
       </c>
       <c r="AH58">
-        <v>-2.4900000000000002</v>
+        <v>-2.49</v>
       </c>
       <c r="AI58">
         <v>-1.97</v>
@@ -20280,7 +19984,7 @@
         <v>-7.17</v>
       </c>
       <c r="BC58">
-        <v>-8.7100000000000009</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="BD58">
         <v>-7.73</v>
@@ -20328,7 +20032,7 @@
         <v>-9.31</v>
       </c>
       <c r="BS58">
-        <v>-9.39</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="BT58">
         <v>-11.21</v>
@@ -20343,7 +20047,7 @@
         <v>5.26</v>
       </c>
       <c r="BX58">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="BY58">
         <v>0</v>
@@ -20421,7 +20125,7 @@
         <v>4.82</v>
       </c>
       <c r="CX58">
-        <v>-2.2599999999999998</v>
+        <v>-2.26</v>
       </c>
       <c r="CY58">
         <v>-0.61</v>
@@ -20451,7 +20155,7 @@
         <v>92.23</v>
       </c>
       <c r="DH58">
-        <v>89.32</v>
+        <v>89.31999999999999</v>
       </c>
       <c r="DI58">
         <v>48.54</v>
@@ -20460,9 +20164,9 @@
         <v>36.89</v>
       </c>
     </row>
-    <row r="59" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>188</v>
+    <row r="59" spans="1:114">
+      <c r="A59">
+        <v>20250122</v>
       </c>
       <c r="B59">
         <v>1032</v>
@@ -20564,7 +20268,7 @@
         <v>-2.74</v>
       </c>
       <c r="AI59">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="AJ59">
         <v>6.65</v>
@@ -20612,7 +20316,7 @@
         <v>-3.43</v>
       </c>
       <c r="AY59">
-        <v>-8.6199999999999992</v>
+        <v>-8.619999999999999</v>
       </c>
       <c r="AZ59">
         <v>1.08</v>
@@ -20666,7 +20370,7 @@
         <v>-8.83</v>
       </c>
       <c r="BQ59">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="BR59">
         <v>-10.63</v>
@@ -20759,7 +20463,7 @@
         <v>0.04</v>
       </c>
       <c r="CV59">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="CW59">
         <v>3.53</v>
@@ -20786,27 +20490,27 @@
         <v>41.1</v>
       </c>
       <c r="DE59">
-        <v>32.880000000000003</v>
+        <v>32.88</v>
       </c>
       <c r="DF59">
         <v>28.77</v>
       </c>
       <c r="DG59">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="DH59">
         <v>64.38</v>
       </c>
       <c r="DI59">
-        <v>39.729999999999997</v>
+        <v>39.73</v>
       </c>
       <c r="DJ59">
         <v>30.14</v>
       </c>
     </row>
-    <row r="60" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>189</v>
+    <row r="60" spans="1:114">
+      <c r="A60">
+        <v>20250123</v>
       </c>
       <c r="B60">
         <v>2334</v>
@@ -20863,7 +20567,7 @@
         <v>12.92</v>
       </c>
       <c r="T60">
-        <v>8.86</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="U60">
         <v>4.74</v>
@@ -20872,7 +20576,7 @@
         <v>0.95</v>
       </c>
       <c r="W60">
-        <v>87.18</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="X60">
         <v>48.72</v>
@@ -20887,7 +20591,7 @@
         <v>82.05</v>
       </c>
       <c r="AB60">
-        <v>87.18</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="AC60">
         <v>48.72</v>
@@ -20902,7 +20606,7 @@
         <v>-0.39</v>
       </c>
       <c r="AG60">
-        <v>9.4499999999999993</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="AH60">
         <v>-6.07</v>
@@ -20935,7 +20639,7 @@
         <v>92.86</v>
       </c>
       <c r="AR60">
-        <v>64.290000000000006</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="AS60">
         <v>92.86</v>
@@ -20986,7 +20690,7 @@
         <v>8.33</v>
       </c>
       <c r="BI60">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BJ60">
         <v>8.33</v>
@@ -21019,7 +20723,7 @@
         <v>-7.21</v>
       </c>
       <c r="BT60">
-        <v>-8.9700000000000006</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="BU60">
         <v>-8.9</v>
@@ -21058,7 +20762,7 @@
         <v>1.89</v>
       </c>
       <c r="CG60">
-        <v>-4.8099999999999996</v>
+        <v>-4.81</v>
       </c>
       <c r="CH60">
         <v>-1.9</v>
@@ -21148,9 +20852,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>190</v>
+    <row r="61" spans="1:114">
+      <c r="A61">
+        <v>20250124</v>
       </c>
       <c r="B61">
         <v>3957</v>
@@ -21195,7 +20899,7 @@
         <v>1.59</v>
       </c>
       <c r="P61">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="Q61">
         <v>-2.87</v>
@@ -21255,7 +20959,7 @@
         <v>1.64</v>
       </c>
       <c r="AJ61">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="AK61">
         <v>6.28</v>
@@ -21300,7 +21004,7 @@
         <v>-4.2</v>
       </c>
       <c r="AY61">
-        <v>-9.0299999999999994</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="AZ61">
         <v>1.02</v>
@@ -21312,7 +21016,7 @@
         <v>-4.66</v>
       </c>
       <c r="BC61">
-        <v>-9.9499999999999993</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="BD61">
         <v>-9.02</v>
@@ -21354,7 +21058,7 @@
         <v>-8.93</v>
       </c>
       <c r="BQ61">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="BR61">
         <v>-12.08</v>
@@ -21393,7 +21097,7 @@
         <v>33</v>
       </c>
       <c r="CD61">
-        <v>-2.2599999999999998</v>
+        <v>-2.26</v>
       </c>
       <c r="CE61">
         <v>1.58</v>
@@ -21402,7 +21106,7 @@
         <v>3.56</v>
       </c>
       <c r="CG61">
-        <v>-4.2300000000000004</v>
+        <v>-4.23</v>
       </c>
       <c r="CH61">
         <v>3.89</v>
@@ -21414,7 +21118,7 @@
         <v>2.23</v>
       </c>
       <c r="CK61">
-        <v>-8.8699999999999992</v>
+        <v>-8.869999999999999</v>
       </c>
       <c r="CL61">
         <v>-5.32</v>
@@ -21426,7 +21130,7 @@
         <v>48.48</v>
       </c>
       <c r="CO61">
-        <v>75.760000000000005</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="CP61">
         <v>57.58</v>
@@ -21492,9 +21196,9 @@
         <v>34.25</v>
       </c>
     </row>
-    <row r="62" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>191</v>
+    <row r="62" spans="1:114">
+      <c r="A62">
+        <v>20250127</v>
       </c>
       <c r="B62">
         <v>1816</v>
@@ -21539,7 +21243,7 @@
         <v>-0.5</v>
       </c>
       <c r="P62">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="Q62">
         <v>-3.16</v>
@@ -21596,10 +21300,10 @@
         <v>-4.34</v>
       </c>
       <c r="AI62">
-        <v>-1.1100000000000001</v>
+        <v>-1.11</v>
       </c>
       <c r="AJ62">
-        <v>8.2899999999999991</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AK62">
         <v>7.09</v>
@@ -21653,7 +21357,7 @@
         <v>-2.98</v>
       </c>
       <c r="BB62">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="BC62">
         <v>-5.89</v>
@@ -21668,7 +21372,7 @@
         <v>35.71</v>
       </c>
       <c r="BG62">
-        <v>64.290000000000006</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="BH62">
         <v>21.43</v>
@@ -21836,9 +21540,9 @@
         <v>43.06</v>
       </c>
     </row>
-    <row r="63" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>114</v>
+    <row r="63" spans="1:114">
+      <c r="A63">
+        <v>20250205</v>
       </c>
       <c r="B63">
         <v>3433</v>
@@ -21892,7 +21596,7 @@
         <v>0.27</v>
       </c>
       <c r="S63">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T63">
         <v>8.99</v>
@@ -21913,10 +21617,10 @@
         <v>38.46</v>
       </c>
       <c r="Z63">
-        <v>89.74</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="AA63">
-        <v>87.18</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="AB63">
         <v>56.41</v>
@@ -21964,7 +21668,7 @@
         <v>45.45</v>
       </c>
       <c r="AQ63">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AR63">
         <v>72.73</v>
@@ -22012,7 +21716,7 @@
         <v>52.63</v>
       </c>
       <c r="BG63">
-        <v>73.680000000000007</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="BH63">
         <v>15.79</v>
@@ -22090,7 +21794,7 @@
         <v>1.68</v>
       </c>
       <c r="CG63">
-        <v>-4.3600000000000003</v>
+        <v>-4.36</v>
       </c>
       <c r="CH63">
         <v>-1.33</v>
@@ -22099,7 +21803,7 @@
         <v>0.19</v>
       </c>
       <c r="CJ63">
-        <v>-1.1399999999999999</v>
+        <v>-1.14</v>
       </c>
       <c r="CK63">
         <v>-6.04</v>
@@ -22135,7 +21839,7 @@
         <v>1.45</v>
       </c>
       <c r="CV63">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="CW63">
         <v>5.14</v>
@@ -22144,7 +21848,7 @@
         <v>-1.77</v>
       </c>
       <c r="CY63">
-        <v>-0.28999999999999998</v>
+        <v>-0.29</v>
       </c>
       <c r="CZ63">
         <v>5.72</v>
@@ -22180,9 +21884,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>115</v>
+    <row r="64" spans="1:114">
+      <c r="A64">
+        <v>20250206</v>
       </c>
       <c r="B64">
         <v>4802</v>
@@ -22251,22 +21955,22 @@
         <v>68.12</v>
       </c>
       <c r="X64">
-        <v>86.96</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="Y64">
-        <v>69.569999999999993</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="Z64">
-        <v>95.65</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="AA64">
-        <v>97.1</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AB64">
         <v>68.12</v>
       </c>
       <c r="AC64">
-        <v>86.96</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="AD64">
         <v>16</v>
@@ -22290,7 +21994,7 @@
         <v>7.46</v>
       </c>
       <c r="AK64">
-        <v>9.0500000000000007</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="AL64">
         <v>4.34</v>
@@ -22347,7 +22051,7 @@
         <v>-5.67</v>
       </c>
       <c r="BD64">
-        <v>-2.4900000000000002</v>
+        <v>-2.49</v>
       </c>
       <c r="BE64">
         <v>12.5</v>
@@ -22395,7 +22099,7 @@
         <v>-3.72</v>
       </c>
       <c r="BT64">
-        <v>-8.0299999999999994</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="BU64">
         <v>-4.91</v>
@@ -22425,16 +22129,16 @@
         <v>20</v>
       </c>
       <c r="CD64">
-        <v>-1.1299999999999999</v>
+        <v>-1.13</v>
       </c>
       <c r="CE64">
         <v>3.66</v>
       </c>
       <c r="CF64">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="CG64">
-        <v>-2.5099999999999998</v>
+        <v>-2.51</v>
       </c>
       <c r="CH64">
         <v>4.87</v>
@@ -22497,7 +22201,7 @@
         <v>10.18</v>
       </c>
       <c r="DB64">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="DC64">
         <v>3.75</v>
@@ -22509,7 +22213,7 @@
         <v>87.64</v>
       </c>
       <c r="DF64">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="DG64">
         <v>92.13</v>
@@ -22521,12 +22225,12 @@
         <v>53.93</v>
       </c>
       <c r="DJ64">
-        <v>78.650000000000006</v>
+        <v>78.65000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>116</v>
+    <row r="65" spans="1:114">
+      <c r="A65">
+        <v>20250207</v>
       </c>
       <c r="B65">
         <v>4170</v>
@@ -22676,7 +22380,7 @@
         <v>3.48</v>
       </c>
       <c r="AY65">
-        <v>-4.9400000000000004</v>
+        <v>-4.94</v>
       </c>
       <c r="AZ65">
         <v>3.63</v>
@@ -22697,7 +22401,7 @@
         <v>0</v>
       </c>
       <c r="BF65">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BG65">
         <v>83.33</v>
@@ -22712,7 +22416,7 @@
         <v>0</v>
       </c>
       <c r="BK65">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CC65">
         <v>22</v>
@@ -22736,10 +22440,10 @@
         <v>6.19</v>
       </c>
       <c r="CJ65">
-        <v>9.7899999999999991</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="CK65">
-        <v>-4.9400000000000004</v>
+        <v>-4.94</v>
       </c>
       <c r="CL65">
         <v>-1.75</v>
@@ -22751,7 +22455,7 @@
         <v>59.09</v>
       </c>
       <c r="CO65">
-        <v>68.180000000000007</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="CP65">
         <v>77.27</v>
@@ -22796,10 +22500,10 @@
         <v>3.4</v>
       </c>
       <c r="DD65">
-        <v>65.349999999999994</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="DE65">
-        <v>79.209999999999994</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="DF65">
         <v>60.4</v>
@@ -22808,18 +22512,18 @@
         <v>94.06</v>
       </c>
       <c r="DH65">
-        <v>99.01</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="DI65">
         <v>61.39</v>
       </c>
       <c r="DJ65">
-        <v>71.290000000000006</v>
+        <v>71.29000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>117</v>
+    <row r="66" spans="1:114">
+      <c r="A66">
+        <v>20250210</v>
       </c>
       <c r="B66">
         <v>4147</v>
@@ -22915,10 +22619,10 @@
         <v>4.38</v>
       </c>
       <c r="AG66">
-        <v>8.1300000000000008</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AH66">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="AI66">
         <v>0.43</v>
@@ -22927,7 +22631,7 @@
         <v>9.33</v>
       </c>
       <c r="AK66">
-        <v>9.7799999999999994</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AL66">
         <v>3.93</v>
@@ -23011,7 +22715,7 @@
         <v>44</v>
       </c>
       <c r="CD66">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="CE66">
         <v>1.91</v>
@@ -23041,7 +22745,7 @@
         <v>38.64</v>
       </c>
       <c r="CN66">
-        <v>68.180000000000007</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="CO66">
         <v>79.55</v>
@@ -23110,9 +22814,9 @@
         <v>56.41</v>
       </c>
     </row>
-    <row r="67" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>118</v>
+    <row r="67" spans="1:114">
+      <c r="A67">
+        <v>20250211</v>
       </c>
       <c r="B67">
         <v>1834</v>
@@ -23151,7 +22855,7 @@
         <v>106</v>
       </c>
       <c r="N67">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="O67">
         <v>1.48</v>
@@ -23160,7 +22864,7 @@
         <v>6.14</v>
       </c>
       <c r="Q67">
-        <v>-1.1599999999999999</v>
+        <v>-1.16</v>
       </c>
       <c r="R67">
         <v>-0.92</v>
@@ -23169,16 +22873,16 @@
         <v>10.31</v>
       </c>
       <c r="T67">
-        <v>9.2899999999999991</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="U67">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="V67">
         <v>1.48</v>
       </c>
       <c r="W67">
-        <v>66.040000000000006</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="X67">
         <v>46.23</v>
@@ -23193,7 +22897,7 @@
         <v>95.28</v>
       </c>
       <c r="AB67">
-        <v>66.040000000000006</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="AC67">
         <v>46.23</v>
@@ -23220,7 +22924,7 @@
         <v>9.07</v>
       </c>
       <c r="AK67">
-        <v>8.5299999999999994</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="AL67">
         <v>4.51</v>
@@ -23241,7 +22945,7 @@
         <v>100</v>
       </c>
       <c r="AR67">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AS67">
         <v>79.31</v>
@@ -23265,7 +22969,7 @@
         <v>-4.17</v>
       </c>
       <c r="CH67">
-        <v>-0.94</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="CI67">
         <v>2.02</v>
@@ -23304,7 +23008,7 @@
         <v>117</v>
       </c>
       <c r="CU67">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="CV67">
         <v>1.08</v>
@@ -23319,7 +23023,7 @@
         <v>-0.93</v>
       </c>
       <c r="CZ67">
-        <v>9.5299999999999994</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="DA67">
         <v>8.52</v>
@@ -23352,9 +23056,9 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="68" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>119</v>
+    <row r="68" spans="1:114">
+      <c r="A68">
+        <v>20250212</v>
       </c>
       <c r="B68">
         <v>3561</v>
@@ -23396,7 +23100,7 @@
         <v>2.09</v>
       </c>
       <c r="O68">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="P68">
         <v>6.34</v>
@@ -23408,7 +23112,7 @@
         <v>0.49</v>
       </c>
       <c r="S68">
-        <v>9.4700000000000006</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="T68">
         <v>10</v>
@@ -23417,7 +23121,7 @@
         <v>2.09</v>
       </c>
       <c r="V68">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="W68">
         <v>56.25</v>
@@ -23447,7 +23151,7 @@
         <v>3.19</v>
       </c>
       <c r="AF68">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="AG68">
         <v>7.25</v>
@@ -23468,7 +23172,7 @@
         <v>3.19</v>
       </c>
       <c r="AM68">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="AN68">
         <v>65.38</v>
@@ -23510,7 +23214,7 @@
         <v>2.02</v>
       </c>
       <c r="CI68">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="CJ68">
         <v>7.03</v>
@@ -23519,7 +23223,7 @@
         <v>-5.88</v>
       </c>
       <c r="CL68">
-        <v>-4.0199999999999996</v>
+        <v>-4.02</v>
       </c>
       <c r="CM68">
         <v>11.11</v>
@@ -23528,7 +23232,7 @@
         <v>48.15</v>
       </c>
       <c r="CO68">
-        <v>74.069999999999993</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="CP68">
         <v>88.89</v>
@@ -23561,16 +23265,16 @@
         <v>0.95</v>
       </c>
       <c r="CZ68">
-        <v>8.11</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="DA68">
-        <v>9.1199999999999992</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="DB68">
         <v>-0.27</v>
       </c>
       <c r="DC68">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="DD68">
         <v>42.86</v>
@@ -23582,7 +23286,7 @@
         <v>52.75</v>
       </c>
       <c r="DG68">
-        <v>91.21</v>
+        <v>91.20999999999999</v>
       </c>
       <c r="DH68">
         <v>87.91</v>
@@ -23594,9 +23298,9 @@
         <v>39.56</v>
       </c>
     </row>
-    <row r="69" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>120</v>
+    <row r="69" spans="1:114">
+      <c r="A69">
+        <v>20250213</v>
       </c>
       <c r="B69">
         <v>1152</v>
@@ -23665,10 +23369,10 @@
         <v>81.58</v>
       </c>
       <c r="X69">
-        <v>65.790000000000006</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="Y69">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="Z69">
         <v>100</v>
@@ -23680,7 +23384,7 @@
         <v>81.58</v>
       </c>
       <c r="AC69">
-        <v>65.790000000000006</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="AD69">
         <v>26</v>
@@ -23695,7 +23399,7 @@
         <v>8.74</v>
       </c>
       <c r="AH69">
-        <v>-2.3199999999999998</v>
+        <v>-2.32</v>
       </c>
       <c r="AI69">
         <v>-1.29</v>
@@ -23746,7 +23450,7 @@
         <v>2.76</v>
       </c>
       <c r="CG69">
-        <v>-4.5599999999999996</v>
+        <v>-4.56</v>
       </c>
       <c r="CH69">
         <v>1.48</v>
@@ -23797,13 +23501,13 @@
         <v>6.5</v>
       </c>
       <c r="CX69">
-        <v>-2.1800000000000002</v>
+        <v>-2.18</v>
       </c>
       <c r="CY69">
         <v>-0.36</v>
       </c>
       <c r="CZ69">
-        <v>10.220000000000001</v>
+        <v>10.22</v>
       </c>
       <c r="DA69">
         <v>9.82</v>
@@ -23824,21 +23528,21 @@
         <v>36.17</v>
       </c>
       <c r="DG69">
-        <v>94.68</v>
+        <v>94.68000000000001</v>
       </c>
       <c r="DH69">
-        <v>90.43</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="DI69">
-        <v>65.959999999999994</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="DJ69">
         <v>57.45</v>
       </c>
     </row>
-    <row r="70" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>121</v>
+    <row r="70" spans="1:114">
+      <c r="A70">
+        <v>20250214</v>
       </c>
       <c r="B70">
         <v>2400</v>
@@ -23967,7 +23671,7 @@
         <v>77.27</v>
       </c>
       <c r="AR70">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AS70">
         <v>59.09</v>
@@ -23979,7 +23683,7 @@
         <v>2</v>
       </c>
       <c r="BM70">
-        <v>-0.57999999999999996</v>
+        <v>-0.58</v>
       </c>
       <c r="BN70">
         <v>-2.8</v>
@@ -24048,7 +23752,7 @@
         <v>7.36</v>
       </c>
       <c r="DA70">
-        <v>8.1300000000000008</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="DB70">
         <v>-0.99</v>
@@ -24072,15 +23776,15 @@
         <v>82.42</v>
       </c>
       <c r="DI70">
-        <v>40.659999999999997</v>
+        <v>40.66</v>
       </c>
       <c r="DJ70">
-        <v>40.659999999999997</v>
+        <v>40.66</v>
       </c>
     </row>
-    <row r="71" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>122</v>
+    <row r="71" spans="1:114">
+      <c r="A71">
+        <v>20250217</v>
       </c>
       <c r="B71">
         <v>3675</v>
@@ -24131,7 +23835,7 @@
         <v>-0.53</v>
       </c>
       <c r="R71">
-        <v>-1.1399999999999999</v>
+        <v>-1.14</v>
       </c>
       <c r="S71">
         <v>15.84</v>
@@ -24146,7 +23850,7 @@
         <v>3.82</v>
       </c>
       <c r="W71">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="X71">
         <v>67.61</v>
@@ -24161,7 +23865,7 @@
         <v>94.37</v>
       </c>
       <c r="AB71">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="AC71">
         <v>67.61</v>
@@ -24188,7 +23892,7 @@
         <v>13.88</v>
       </c>
       <c r="AK71">
-        <v>9.86</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="AL71">
         <v>5.09</v>
@@ -24197,7 +23901,7 @@
         <v>1.37</v>
       </c>
       <c r="AN71">
-        <v>68.180000000000007</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="AO71">
         <v>59.09</v>
@@ -24209,10 +23913,10 @@
         <v>95.45</v>
       </c>
       <c r="AR71">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="AS71">
-        <v>68.180000000000007</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="AT71">
         <v>59.09</v>
@@ -24242,7 +23946,7 @@
         <v>-0.85</v>
       </c>
       <c r="BC71">
-        <v>-9.8800000000000008</v>
+        <v>-9.880000000000001</v>
       </c>
       <c r="BD71">
         <v>-4.16</v>
@@ -24299,7 +24003,7 @@
         <v>-6.72</v>
       </c>
       <c r="BV71">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BW71">
         <v>50</v>
@@ -24317,7 +24021,7 @@
         <v>0</v>
       </c>
       <c r="CB71">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CC71">
         <v>22</v>
@@ -24359,7 +24063,7 @@
         <v>45.45</v>
       </c>
       <c r="CP71">
-        <v>81.819999999999993</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="CQ71">
         <v>77.27</v>
@@ -24401,7 +24105,7 @@
         <v>2.1</v>
       </c>
       <c r="DD71">
-        <v>72.040000000000006</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="DE71">
         <v>64.52</v>
@@ -24413,7 +24117,7 @@
         <v>94.62</v>
       </c>
       <c r="DH71">
-        <v>90.32</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="DI71">
         <v>66.67</v>
@@ -24422,9 +24126,9 @@
         <v>58.06</v>
       </c>
     </row>
-    <row r="72" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>123</v>
+    <row r="72" spans="1:114">
+      <c r="A72">
+        <v>20250218</v>
       </c>
       <c r="B72">
         <v>731</v>
@@ -24478,10 +24182,10 @@
         <v>-1.63</v>
       </c>
       <c r="S72">
-        <v>9.89</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="T72">
-        <v>8.0500000000000007</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="U72">
         <v>2.36</v>
@@ -24565,7 +24269,7 @@
         <v>3</v>
       </c>
       <c r="AV72">
-        <v>-2.0299999999999998</v>
+        <v>-2.03</v>
       </c>
       <c r="AW72">
         <v>-0.91</v>
@@ -24628,7 +24332,7 @@
         <v>-8.27</v>
       </c>
       <c r="BQ72">
-        <v>-2.2000000000000002</v>
+        <v>-2.2</v>
       </c>
       <c r="BR72">
         <v>-13.5</v>
@@ -24700,10 +24404,10 @@
         <v>23.4</v>
       </c>
       <c r="CO72">
-        <v>19.149999999999999</v>
+        <v>19.15</v>
       </c>
       <c r="CP72">
-        <v>65.959999999999994</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="CQ72">
         <v>44.68</v>
@@ -24736,7 +24440,7 @@
         <v>6.86</v>
       </c>
       <c r="DA72">
-        <v>4.9400000000000004</v>
+        <v>4.94</v>
       </c>
       <c r="DB72">
         <v>-0.39</v>
@@ -24766,9 +24470,9 @@
         <v>35.42</v>
       </c>
     </row>
-    <row r="73" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>124</v>
+    <row r="73" spans="1:114">
+      <c r="A73">
+        <v>20250219</v>
       </c>
       <c r="B73">
         <v>4645</v>
@@ -24975,7 +24679,7 @@
         <v>5.84</v>
       </c>
       <c r="BR73">
-        <v>-8.6999999999999993</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="BS73">
         <v>-3.43</v>
@@ -25011,7 +24715,7 @@
         <v>24</v>
       </c>
       <c r="CD73">
-        <v>-2.5499999999999998</v>
+        <v>-2.55</v>
       </c>
       <c r="CE73">
         <v>2.82</v>
@@ -25026,7 +24730,7 @@
         <v>5.56</v>
       </c>
       <c r="CI73">
-        <v>-0.14000000000000001</v>
+        <v>-0.14</v>
       </c>
       <c r="CJ73">
         <v>5.35</v>
@@ -25095,13 +24799,13 @@
         <v>73.91</v>
       </c>
       <c r="DF73">
-        <v>71.010000000000005</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="DG73">
         <v>81.16</v>
       </c>
       <c r="DH73">
-        <v>86.96</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="DI73">
         <v>43.48</v>
@@ -25110,9 +24814,9 @@
         <v>59.42</v>
       </c>
     </row>
-    <row r="74" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>125</v>
+    <row r="74" spans="1:114">
+      <c r="A74">
+        <v>20250220</v>
       </c>
       <c r="B74">
         <v>3377</v>
@@ -25160,7 +24864,7 @@
         <v>6.51</v>
       </c>
       <c r="Q74">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="R74">
         <v>0.1</v>
@@ -25187,10 +24891,10 @@
         <v>43.27</v>
       </c>
       <c r="Z74">
-        <v>99.04</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="AA74">
-        <v>96.15</v>
+        <v>96.15000000000001</v>
       </c>
       <c r="AB74">
         <v>75</v>
@@ -25373,7 +25077,7 @@
         <v>8.1</v>
       </c>
       <c r="CJ74">
-        <v>8.4499999999999993</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="CK74">
         <v>-2.52</v>
@@ -25445,7 +25149,7 @@
         <v>99.12</v>
       </c>
       <c r="DH74">
-        <v>96.46</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="DI74">
         <v>69.91</v>
@@ -25454,9 +25158,9 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="75" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>126</v>
+    <row r="75" spans="1:114">
+      <c r="A75">
+        <v>20250221</v>
       </c>
       <c r="B75">
         <v>2872</v>
@@ -25531,7 +25235,7 @@
         <v>36.26</v>
       </c>
       <c r="Z75">
-        <v>98.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AA75">
         <v>92.31</v>
@@ -25561,7 +25265,7 @@
         <v>-1.39</v>
       </c>
       <c r="AJ75">
-        <v>9.4700000000000006</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="AK75">
         <v>7.98</v>
@@ -25600,10 +25304,10 @@
         <v>-5.09</v>
       </c>
       <c r="AW75">
-        <v>9.9600000000000009</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AX75">
-        <v>9.9600000000000009</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AY75">
         <v>-6.6</v>
@@ -25657,7 +25361,7 @@
         <v>5.01</v>
       </c>
       <c r="BP75">
-        <v>-8.0399999999999991</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="BQ75">
         <v>7.54</v>
@@ -25762,19 +25466,19 @@
         <v>-1.76</v>
       </c>
       <c r="CY75">
-        <v>-0.28999999999999998</v>
+        <v>-0.29</v>
       </c>
       <c r="CZ75">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="DA75">
-        <v>9.7200000000000006</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="DB75">
         <v>1.47</v>
       </c>
       <c r="DC75">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="DD75">
         <v>61.26</v>
@@ -25786,10 +25490,10 @@
         <v>40.54</v>
       </c>
       <c r="DG75">
-        <v>99.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="DH75">
-        <v>92.79</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="DI75">
         <v>56.76</v>
@@ -25798,9 +25502,9 @@
         <v>50.45</v>
       </c>
     </row>
-    <row r="76" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>127</v>
+    <row r="76" spans="1:114">
+      <c r="A76">
+        <v>20250224</v>
       </c>
       <c r="B76">
         <v>2778</v>
@@ -25857,7 +25561,7 @@
         <v>10.61</v>
       </c>
       <c r="T76">
-        <v>9.86</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="U76">
         <v>2.35</v>
@@ -25926,7 +25630,7 @@
         <v>28.57</v>
       </c>
       <c r="AQ76">
-        <v>89.29</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="AR76">
         <v>82.14</v>
@@ -26007,7 +25711,7 @@
         <v>-0.51</v>
       </c>
       <c r="CZ76">
-        <v>9.5399999999999991</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="DA76">
         <v>8.92</v>
@@ -26031,7 +25735,7 @@
         <v>92.17</v>
       </c>
       <c r="DH76">
-        <v>86.96</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="DI76">
         <v>57.39</v>
@@ -26040,9 +25744,9 @@
         <v>53.04</v>
       </c>
     </row>
-    <row r="77" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>128</v>
+    <row r="77" spans="1:114">
+      <c r="A77">
+        <v>20250225</v>
       </c>
       <c r="B77">
         <v>1537</v>
@@ -26096,7 +25800,7 @@
         <v>0.93</v>
       </c>
       <c r="S77">
-        <v>8.6199999999999992</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="T77">
         <v>9.51</v>
@@ -26258,7 +25962,7 @@
         <v>-11.93</v>
       </c>
       <c r="BU77">
-        <v>-9.61</v>
+        <v>-9.609999999999999</v>
       </c>
       <c r="BV77">
         <v>0</v>
@@ -26300,13 +26004,13 @@
         <v>1.83</v>
       </c>
       <c r="CI77">
-        <v>-0.69</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="CJ77">
         <v>1.07</v>
       </c>
       <c r="CK77">
-        <v>-8.7200000000000006</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="CL77">
         <v>-7.07</v>
@@ -26336,19 +26040,19 @@
         <v>108</v>
       </c>
       <c r="CU77">
-        <v>-0.57999999999999996</v>
+        <v>-0.58</v>
       </c>
       <c r="CV77">
         <v>0.48</v>
       </c>
       <c r="CW77">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="CX77">
         <v>-3.5</v>
       </c>
       <c r="CY77">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="CZ77">
         <v>6.47</v>
@@ -26360,10 +26064,10 @@
         <v>-1.61</v>
       </c>
       <c r="DC77">
-        <v>-0.56999999999999995</v>
+        <v>-0.57</v>
       </c>
       <c r="DD77">
-        <v>32.409999999999997</v>
+        <v>32.41</v>
       </c>
       <c r="DE77">
         <v>38.89</v>
@@ -26378,15 +26082,15 @@
         <v>85.19</v>
       </c>
       <c r="DI77">
-        <v>32.409999999999997</v>
+        <v>32.41</v>
       </c>
       <c r="DJ77">
         <v>36.11</v>
       </c>
     </row>
-    <row r="78" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>129</v>
+    <row r="78" spans="1:114">
+      <c r="A78">
+        <v>20250226</v>
       </c>
       <c r="B78">
         <v>4250</v>
@@ -26437,7 +26141,7 @@
         <v>-0.43</v>
       </c>
       <c r="R78">
-        <v>-0.14000000000000001</v>
+        <v>-0.14</v>
       </c>
       <c r="S78">
         <v>13.44</v>
@@ -26461,10 +26165,10 @@
         <v>35.19</v>
       </c>
       <c r="Z78">
-        <v>98.15</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="AA78">
-        <v>98.15</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="AB78">
         <v>64.81</v>
@@ -26503,7 +26207,7 @@
         <v>5.74</v>
       </c>
       <c r="AN78">
-        <v>88.24</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="AO78">
         <v>70.59</v>
@@ -26518,7 +26222,7 @@
         <v>94.12</v>
       </c>
       <c r="AS78">
-        <v>88.24</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="AT78">
         <v>70.59</v>
@@ -26545,10 +26249,10 @@
         <v>3.34</v>
       </c>
       <c r="BB78">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="BC78">
-        <v>-8.0500000000000007</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="BD78">
         <v>-7.26</v>
@@ -26590,7 +26294,7 @@
         <v>-3.1</v>
       </c>
       <c r="BQ78">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="BR78">
         <v>-0.83</v>
@@ -26671,7 +26375,7 @@
         <v>100</v>
       </c>
       <c r="CR78">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="CS78">
         <v>41.18</v>
@@ -26728,9 +26432,9 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="79" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>130</v>
+    <row r="79" spans="1:114">
+      <c r="A79">
+        <v>20250227</v>
       </c>
       <c r="B79">
         <v>2133</v>
@@ -26781,7 +26485,7 @@
         <v>-2.74</v>
       </c>
       <c r="R79">
-        <v>-1.1499999999999999</v>
+        <v>-1.15</v>
       </c>
       <c r="S79">
         <v>10.81</v>
@@ -26805,7 +26509,7 @@
         <v>27.96</v>
       </c>
       <c r="Z79">
-        <v>97.85</v>
+        <v>97.84999999999999</v>
       </c>
       <c r="AA79">
         <v>94.62</v>
@@ -26823,7 +26527,7 @@
         <v>3.11</v>
       </c>
       <c r="AF79">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AG79">
         <v>8.15</v>
@@ -26844,7 +26548,7 @@
         <v>3.11</v>
       </c>
       <c r="AM79">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AN79">
         <v>63.16</v>
@@ -26859,7 +26563,7 @@
         <v>89.47</v>
       </c>
       <c r="AR79">
-        <v>84.21</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="AS79">
         <v>63.16</v>
@@ -26871,7 +26575,7 @@
         <v>34</v>
       </c>
       <c r="CD79">
-        <v>-0.57999999999999996</v>
+        <v>-0.58</v>
       </c>
       <c r="CE79">
         <v>-0.49</v>
@@ -26886,7 +26590,7 @@
         <v>0.1</v>
       </c>
       <c r="CI79">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="CJ79">
         <v>4.22</v>
@@ -26907,16 +26611,16 @@
         <v>38.24</v>
       </c>
       <c r="CP79">
-        <v>88.24</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="CQ79">
-        <v>82.35</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="CR79">
         <v>5.88</v>
       </c>
       <c r="CS79">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="CT79">
         <v>127</v>
@@ -26946,13 +26650,13 @@
         <v>0.31</v>
       </c>
       <c r="DC79">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="DD79">
         <v>55.91</v>
       </c>
       <c r="DE79">
-        <v>40.159999999999997</v>
+        <v>40.16</v>
       </c>
       <c r="DF79">
         <v>30.71</v>
@@ -26970,9 +26674,9 @@
         <v>35.43</v>
       </c>
     </row>
-    <row r="80" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>192</v>
+    <row r="80" spans="1:114">
+      <c r="A80">
+        <v>20250228</v>
       </c>
       <c r="B80">
         <v>570</v>
@@ -27026,7 +26730,7 @@
         <v>-2.76</v>
       </c>
       <c r="S80">
-        <v>9.9700000000000006</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="T80">
         <v>6.94</v>
@@ -27041,13 +26745,13 @@
         <v>57.53</v>
       </c>
       <c r="X80">
-        <v>39.729999999999997</v>
+        <v>39.73</v>
       </c>
       <c r="Y80">
-        <v>32.880000000000003</v>
+        <v>32.88</v>
       </c>
       <c r="Z80">
-        <v>97.26</v>
+        <v>97.26000000000001</v>
       </c>
       <c r="AA80">
         <v>83.56</v>
@@ -27056,7 +26760,7 @@
         <v>57.53</v>
       </c>
       <c r="AC80">
-        <v>39.729999999999997</v>
+        <v>39.73</v>
       </c>
       <c r="AD80">
         <v>23</v>
@@ -27077,10 +26781,10 @@
         <v>-5.54</v>
       </c>
       <c r="AJ80">
-        <v>8.5500000000000007</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="AK80">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="AL80">
         <v>2.7</v>
@@ -27098,7 +26802,7 @@
         <v>21.74</v>
       </c>
       <c r="AQ80">
-        <v>95.65</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="AR80">
         <v>65.22</v>
@@ -27176,7 +26880,7 @@
         <v>-6.2</v>
       </c>
       <c r="CH80">
-        <v>-2.5499999999999998</v>
+        <v>-2.55</v>
       </c>
       <c r="CI80">
         <v>2.21</v>
@@ -27188,16 +26892,16 @@
         <v>-6.71</v>
       </c>
       <c r="CL80">
-        <v>-8.9600000000000009</v>
+        <v>-8.960000000000001</v>
       </c>
       <c r="CM80">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CN80">
         <v>25</v>
       </c>
       <c r="CO80">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CP80">
         <v>66.67</v>
@@ -27206,7 +26910,7 @@
         <v>33.33</v>
       </c>
       <c r="CR80">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CS80">
         <v>25</v>
@@ -27230,7 +26934,7 @@
         <v>-2.73</v>
       </c>
       <c r="CZ80">
-        <v>8.8699999999999992</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="DA80">
         <v>5.93</v>
@@ -27263,9 +26967,9 @@
         <v>37.65</v>
       </c>
     </row>
-    <row r="81" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>193</v>
+    <row r="81" spans="1:114">
+      <c r="A81">
+        <v>20250303</v>
       </c>
       <c r="B81">
         <v>3223</v>
@@ -27313,7 +27017,7 @@
         <v>6.25</v>
       </c>
       <c r="Q81">
-        <v>-4.0599999999999996</v>
+        <v>-4.06</v>
       </c>
       <c r="R81">
         <v>-2.36</v>
@@ -27409,7 +27113,7 @@
         <v>-2.33</v>
       </c>
       <c r="BN81">
-        <v>-4.8600000000000003</v>
+        <v>-4.86</v>
       </c>
       <c r="BO81">
         <v>-0.09</v>
@@ -27457,7 +27161,7 @@
         <v>21</v>
       </c>
       <c r="CD81">
-        <v>-1.1399999999999999</v>
+        <v>-1.14</v>
       </c>
       <c r="CE81">
         <v>-4.54</v>
@@ -27541,13 +27245,13 @@
         <v>41.54</v>
       </c>
       <c r="DF81">
-        <v>35.380000000000003</v>
+        <v>35.38</v>
       </c>
       <c r="DG81">
         <v>83.08</v>
       </c>
       <c r="DH81">
-        <v>66.150000000000006</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="DI81">
         <v>38.46</v>
@@ -27556,9 +27260,9 @@
         <v>33.85</v>
       </c>
     </row>
-    <row r="82" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>194</v>
+    <row r="82" spans="1:114">
+      <c r="A82">
+        <v>20250304</v>
       </c>
       <c r="B82">
         <v>4050</v>
@@ -27612,7 +27316,7 @@
         <v>0.63</v>
       </c>
       <c r="S82">
-        <v>9.1199999999999992</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="T82">
         <v>9.82</v>
@@ -27648,31 +27352,31 @@
         <v>13</v>
       </c>
       <c r="AE82">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="AF82">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AG82">
         <v>4.95</v>
       </c>
       <c r="AH82">
-        <v>-4.1399999999999997</v>
+        <v>-4.14</v>
       </c>
       <c r="AI82">
-        <v>-1.1599999999999999</v>
+        <v>-1.16</v>
       </c>
       <c r="AJ82">
-        <v>8.1199999999999992</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AK82">
         <v>6.9</v>
       </c>
       <c r="AL82">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="AM82">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AN82">
         <v>46.15</v>
@@ -27720,7 +27424,7 @@
         <v>-1.18</v>
       </c>
       <c r="BC82">
-        <v>-9.6199999999999992</v>
+        <v>-9.619999999999999</v>
       </c>
       <c r="BD82">
         <v>-6.34</v>
@@ -27816,10 +27520,10 @@
         <v>3.97</v>
       </c>
       <c r="CI82">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="CJ82">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="CK82">
         <v>-7.02</v>
@@ -27846,7 +27550,7 @@
         <v>0</v>
       </c>
       <c r="CS82">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CT82">
         <v>96</v>
@@ -27873,7 +27577,7 @@
         <v>7.79</v>
       </c>
       <c r="DB82">
-        <v>-2.1800000000000002</v>
+        <v>-2.18</v>
       </c>
       <c r="DC82">
         <v>-0.47</v>
@@ -27900,9 +27604,9 @@
         <v>38.54</v>
       </c>
     </row>
-    <row r="83" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>195</v>
+    <row r="83" spans="1:114">
+      <c r="A83">
+        <v>20250305</v>
       </c>
       <c r="B83">
         <v>2358</v>
@@ -27950,7 +27654,7 @@
         <v>5.47</v>
       </c>
       <c r="Q83">
-        <v>-2.0699999999999998</v>
+        <v>-2.07</v>
       </c>
       <c r="R83">
         <v>0.01</v>
@@ -27977,7 +27681,7 @@
         <v>34.25</v>
       </c>
       <c r="Z83">
-        <v>97.26</v>
+        <v>97.26000000000001</v>
       </c>
       <c r="AA83">
         <v>95.89</v>
@@ -28031,7 +27735,7 @@
         <v>94.12</v>
       </c>
       <c r="AR83">
-        <v>88.24</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="AS83">
         <v>52.94</v>
@@ -28049,7 +27753,7 @@
         <v>-3.62</v>
       </c>
       <c r="AX83">
-        <v>-2.0299999999999998</v>
+        <v>-2.03</v>
       </c>
       <c r="AY83">
         <v>-5.96</v>
@@ -28109,13 +27813,13 @@
         <v>2.62</v>
       </c>
       <c r="BR83">
-        <v>-8.5299999999999994</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="BS83">
         <v>-6.12</v>
       </c>
       <c r="BT83">
-        <v>-10.029999999999999</v>
+        <v>-10.03</v>
       </c>
       <c r="BU83">
         <v>-7.65</v>
@@ -28202,7 +27906,7 @@
         <v>1.39</v>
       </c>
       <c r="CW83">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="CX83">
         <v>-2.41</v>
@@ -28232,10 +27936,10 @@
         <v>42.7</v>
       </c>
       <c r="DG83">
-        <v>93.26</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="DH83">
-        <v>93.26</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="DI83">
         <v>41.57</v>
@@ -28244,9 +27948,9 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="84" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>196</v>
+    <row r="84" spans="1:114">
+      <c r="A84">
+        <v>20250306</v>
       </c>
       <c r="B84">
         <v>4275</v>
@@ -28285,7 +27989,7 @@
         <v>62</v>
       </c>
       <c r="N84">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="O84">
         <v>3.4</v>
@@ -28297,7 +28001,7 @@
         <v>-0.24</v>
       </c>
       <c r="R84">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="S84">
         <v>11.14</v>
@@ -28306,13 +28010,13 @@
         <v>12.42</v>
       </c>
       <c r="U84">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="V84">
         <v>3.4</v>
       </c>
       <c r="W84">
-        <v>67.739999999999995</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="X84">
         <v>66.13</v>
@@ -28327,7 +28031,7 @@
         <v>95.16</v>
       </c>
       <c r="AB84">
-        <v>67.739999999999995</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="AC84">
         <v>66.13</v>
@@ -28342,7 +28046,7 @@
         <v>4.84</v>
       </c>
       <c r="AG84">
-        <v>8.2899999999999991</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AH84">
         <v>1.23</v>
@@ -28393,7 +28097,7 @@
         <v>-4.84</v>
       </c>
       <c r="AX84">
-        <v>-4.3499999999999996</v>
+        <v>-4.35</v>
       </c>
       <c r="AY84">
         <v>-5.59</v>
@@ -28498,13 +28202,13 @@
         <v>3.86</v>
       </c>
       <c r="CG84">
-        <v>-2.5099999999999998</v>
+        <v>-2.51</v>
       </c>
       <c r="CH84">
         <v>2.52</v>
       </c>
       <c r="CI84">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="CJ84">
         <v>7.05</v>
@@ -28525,7 +28229,7 @@
         <v>68.42</v>
       </c>
       <c r="CP84">
-        <v>84.21</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="CQ84">
         <v>89.47</v>
@@ -28588,9 +28292,9 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="85" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>197</v>
+    <row r="85" spans="1:114">
+      <c r="A85">
+        <v>20250307</v>
       </c>
       <c r="B85">
         <v>1714</v>
@@ -28854,7 +28558,7 @@
         <v>5.67</v>
       </c>
       <c r="CK85">
-        <v>-4.8499999999999996</v>
+        <v>-4.85</v>
       </c>
       <c r="CL85">
         <v>-4.58</v>
@@ -28899,13 +28603,13 @@
         <v>-0.71</v>
       </c>
       <c r="CZ85">
-        <v>8.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="DA85">
-        <v>8.11</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="DB85">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="DC85">
         <v>-0.6</v>
@@ -28917,13 +28621,13 @@
         <v>39.69</v>
       </c>
       <c r="DF85">
-        <v>33.590000000000003</v>
+        <v>33.59</v>
       </c>
       <c r="DG85">
-        <v>97.71</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="DH85">
-        <v>91.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="DI85">
         <v>47.33</v>
@@ -28932,9 +28636,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="86" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>198</v>
+    <row r="86" spans="1:114">
+      <c r="A86">
+        <v>20250310</v>
       </c>
       <c r="B86">
         <v>3279</v>
@@ -28973,7 +28677,7 @@
         <v>50</v>
       </c>
       <c r="N86">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="O86">
         <v>0.72</v>
@@ -28982,7 +28686,7 @@
         <v>5.85</v>
       </c>
       <c r="Q86">
-        <v>-2.4300000000000002</v>
+        <v>-2.43</v>
       </c>
       <c r="R86">
         <v>-1.49</v>
@@ -28994,7 +28698,7 @@
         <v>8.76</v>
       </c>
       <c r="U86">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="V86">
         <v>0.72</v>
@@ -29078,13 +28782,13 @@
         <v>-5.62</v>
       </c>
       <c r="AW86">
-        <v>-9.0399999999999991</v>
+        <v>-9.039999999999999</v>
       </c>
       <c r="AX86">
         <v>-4.16</v>
       </c>
       <c r="AY86">
-        <v>-9.36</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="AZ86">
         <v>-3.45</v>
@@ -29132,7 +28836,7 @@
         <v>-3.85</v>
       </c>
       <c r="BO86">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="BP86">
         <v>-7.13</v>
@@ -29189,7 +28893,7 @@
         <v>-3.25</v>
       </c>
       <c r="CH86">
-        <v>-0.28999999999999998</v>
+        <v>-0.29</v>
       </c>
       <c r="CI86">
         <v>5.23</v>
@@ -29204,7 +28908,7 @@
         <v>-4.17</v>
       </c>
       <c r="CM86">
-        <v>36.840000000000003</v>
+        <v>36.84</v>
       </c>
       <c r="CN86">
         <v>34.21</v>
@@ -29243,7 +28947,7 @@
         <v>-0.98</v>
       </c>
       <c r="CZ86">
-        <v>8.11</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="DA86">
         <v>7.1</v>
@@ -29273,12 +28977,12 @@
         <v>38.64</v>
       </c>
       <c r="DJ86">
-        <v>34.090000000000003</v>
+        <v>34.09</v>
       </c>
     </row>
-    <row r="87" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>199</v>
+    <row r="87" spans="1:114">
+      <c r="A87">
+        <v>20250311</v>
       </c>
       <c r="B87">
         <v>2881</v>
@@ -29323,7 +29027,7 @@
         <v>1.56</v>
       </c>
       <c r="P87">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="Q87">
         <v>-2.74</v>
@@ -29344,7 +29048,7 @@
         <v>1.56</v>
       </c>
       <c r="W87">
-        <v>32.880000000000003</v>
+        <v>32.88</v>
       </c>
       <c r="X87">
         <v>54.79</v>
@@ -29359,7 +29063,7 @@
         <v>94.52</v>
       </c>
       <c r="AB87">
-        <v>32.880000000000003</v>
+        <v>32.88</v>
       </c>
       <c r="AC87">
         <v>54.79</v>
@@ -29386,7 +29090,7 @@
         <v>4.91</v>
       </c>
       <c r="AK87">
-        <v>8.8800000000000008</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="AL87">
         <v>0.76</v>
@@ -29470,7 +29174,7 @@
         <v>6</v>
       </c>
       <c r="BM87">
-        <v>-4.3099999999999996</v>
+        <v>-4.31</v>
       </c>
       <c r="BN87">
         <v>-0.47</v>
@@ -29485,7 +29189,7 @@
         <v>3.97</v>
       </c>
       <c r="BR87">
-        <v>-8.3699999999999992</v>
+        <v>-8.369999999999999</v>
       </c>
       <c r="BS87">
         <v>-4.78</v>
@@ -29497,7 +29201,7 @@
         <v>-6.91</v>
       </c>
       <c r="BV87">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BW87">
         <v>33.33</v>
@@ -29509,13 +29213,13 @@
         <v>0</v>
       </c>
       <c r="BZ87">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CA87">
         <v>0</v>
       </c>
       <c r="CB87">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CC87">
         <v>15</v>
@@ -29542,7 +29246,7 @@
         <v>0.36</v>
       </c>
       <c r="CK87">
-        <v>-8.7200000000000006</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="CL87">
         <v>-7</v>
@@ -29620,9 +29324,9 @@
         <v>47.73</v>
       </c>
     </row>
-    <row r="88" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>200</v>
+    <row r="88" spans="1:114">
+      <c r="A88">
+        <v>20250312</v>
       </c>
       <c r="B88">
         <v>2627</v>
@@ -29688,7 +29392,7 @@
         <v>2.89</v>
       </c>
       <c r="W88">
-        <v>78.849999999999994</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="X88">
         <v>59.62</v>
@@ -29700,10 +29404,10 @@
         <v>100</v>
       </c>
       <c r="AA88">
-        <v>96.15</v>
+        <v>96.15000000000001</v>
       </c>
       <c r="AB88">
-        <v>78.849999999999994</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="AC88">
         <v>59.62</v>
@@ -29715,13 +29419,13 @@
         <v>5.88</v>
       </c>
       <c r="AF88">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AG88">
-        <v>9.36</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="AH88">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AI88">
         <v>-1.21</v>
@@ -29736,7 +29440,7 @@
         <v>5.88</v>
       </c>
       <c r="AM88">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AN88">
         <v>93.75</v>
@@ -29868,7 +29572,7 @@
         <v>-0.52</v>
       </c>
       <c r="CE88">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="CF88">
         <v>3.37</v>
@@ -29886,7 +29590,7 @@
         <v>7.95</v>
       </c>
       <c r="CK88">
-        <v>-4.4800000000000004</v>
+        <v>-4.48</v>
       </c>
       <c r="CL88">
         <v>-3.87</v>
@@ -29910,7 +29614,7 @@
         <v>8.33</v>
       </c>
       <c r="CS88">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CT88">
         <v>64</v>
@@ -29928,7 +29632,7 @@
         <v>-1.04</v>
       </c>
       <c r="CY88">
-        <v>-0.56999999999999995</v>
+        <v>-0.57</v>
       </c>
       <c r="CZ88">
         <v>13.09</v>
@@ -29964,9 +29668,9 @@
         <v>51.56</v>
       </c>
     </row>
-    <row r="89" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>201</v>
+    <row r="89" spans="1:114">
+      <c r="A89">
+        <v>20250313</v>
       </c>
       <c r="B89">
         <v>1494</v>
@@ -30044,7 +29748,7 @@
         <v>88.16</v>
       </c>
       <c r="AA89">
-        <v>84.21</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="AB89">
         <v>50</v>
@@ -30068,7 +29772,7 @@
         <v>-4.12</v>
       </c>
       <c r="AI89">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AJ89">
         <v>4.32</v>
@@ -30224,10 +29928,10 @@
         <v>0.08</v>
       </c>
       <c r="CI89">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="CJ89">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="CK89">
         <v>-5.94</v>
@@ -30251,7 +29955,7 @@
         <v>62.22</v>
       </c>
       <c r="CR89">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="CS89">
         <v>11.11</v>
@@ -30269,7 +29973,7 @@
         <v>3.87</v>
       </c>
       <c r="CX89">
-        <v>-4.2300000000000004</v>
+        <v>-4.23</v>
       </c>
       <c r="CY89">
         <v>-0.63</v>
@@ -30302,15 +30006,15 @@
         <v>76.03</v>
       </c>
       <c r="DI89">
-        <v>32.229999999999997</v>
+        <v>32.23</v>
       </c>
       <c r="DJ89">
-        <v>32.229999999999997</v>
+        <v>32.23</v>
       </c>
     </row>
-    <row r="90" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>202</v>
+    <row r="90" spans="1:114">
+      <c r="A90">
+        <v>20250314</v>
       </c>
       <c r="B90">
         <v>4495</v>
@@ -30409,7 +30113,7 @@
         <v>4.33</v>
       </c>
       <c r="AH90">
-        <v>-4.7300000000000004</v>
+        <v>-4.73</v>
       </c>
       <c r="AI90">
         <v>1.8</v>
@@ -30451,31 +30155,31 @@
         <v>1</v>
       </c>
       <c r="AV90">
-        <v>-9.8000000000000007</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AW90">
-        <v>-9.8000000000000007</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AX90">
-        <v>-9.8000000000000007</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AY90">
-        <v>-9.8000000000000007</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AZ90">
         <v>0</v>
       </c>
       <c r="BA90">
-        <v>-9.8000000000000007</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="BB90">
-        <v>-9.8000000000000007</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="BC90">
-        <v>-9.8000000000000007</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="BD90">
-        <v>-9.8000000000000007</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="BE90">
         <v>0</v>
@@ -30502,7 +30206,7 @@
         <v>11</v>
       </c>
       <c r="BM90">
-        <v>-2.4900000000000002</v>
+        <v>-2.49</v>
       </c>
       <c r="BN90">
         <v>-1.69</v>
@@ -30514,7 +30218,7 @@
         <v>-5.14</v>
       </c>
       <c r="BQ90">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="BR90">
         <v>-9.31</v>
@@ -30556,7 +30260,7 @@
         <v>-1.55</v>
       </c>
       <c r="CE90">
-        <v>-1.1100000000000001</v>
+        <v>-1.11</v>
       </c>
       <c r="CF90">
         <v>2.35</v>
@@ -30568,13 +30272,13 @@
         <v>0.43</v>
       </c>
       <c r="CI90">
-        <v>-0.57999999999999996</v>
+        <v>-0.58</v>
       </c>
       <c r="CJ90">
         <v>-0.09</v>
       </c>
       <c r="CK90">
-        <v>-8.39</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="CL90">
         <v>-7.93</v>
@@ -30613,7 +30317,7 @@
         <v>5.96</v>
       </c>
       <c r="CX90">
-        <v>-2.4500000000000002</v>
+        <v>-2.45</v>
       </c>
       <c r="CY90">
         <v>0.46</v>
@@ -30622,7 +30326,7 @@
         <v>9.02</v>
       </c>
       <c r="DA90">
-        <v>9.5299999999999994</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="DB90">
         <v>-0.01</v>
@@ -30652,9 +30356,9 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="91" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>203</v>
+    <row r="91" spans="1:114">
+      <c r="A91">
+        <v>20250317</v>
       </c>
       <c r="B91">
         <v>3146</v>
@@ -30747,7 +30451,7 @@
         <v>5.94</v>
       </c>
       <c r="AF91">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="AG91">
         <v>9.48</v>
@@ -30768,13 +30472,13 @@
         <v>5.94</v>
       </c>
       <c r="AM91">
-        <v>4.8099999999999996</v>
+        <v>4.81</v>
       </c>
       <c r="AN91">
         <v>92.86</v>
       </c>
       <c r="AO91">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AP91">
         <v>21.43</v>
@@ -30783,13 +30487,13 @@
         <v>92.86</v>
       </c>
       <c r="AR91">
-        <v>78.569999999999993</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="AS91">
         <v>92.86</v>
       </c>
       <c r="AT91">
-        <v>71.430000000000007</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -30807,13 +30511,13 @@
         <v>-5.43</v>
       </c>
       <c r="AZ91">
-        <v>-5.0599999999999996</v>
+        <v>-5.06</v>
       </c>
       <c r="BA91">
         <v>6.87</v>
       </c>
       <c r="BB91">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="BC91">
         <v>-1.55</v>
@@ -30876,7 +30580,7 @@
         <v>0</v>
       </c>
       <c r="BW91">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="BX91">
         <v>33.33</v>
@@ -30906,7 +30610,7 @@
         <v>0.34</v>
       </c>
       <c r="CG91">
-        <v>-4.4000000000000004</v>
+        <v>-4.4</v>
       </c>
       <c r="CH91">
         <v>-0.44</v>
@@ -30924,10 +30628,10 @@
         <v>-7</v>
       </c>
       <c r="CM91">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CN91">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="CO91">
         <v>41.67</v>
@@ -30951,10 +30655,10 @@
         <v>1.8</v>
       </c>
       <c r="CV91">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="CW91">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="CX91">
         <v>-0.95</v>
@@ -30963,16 +30667,16 @@
         <v>-0.65</v>
       </c>
       <c r="CZ91">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="DA91">
         <v>8.93</v>
       </c>
       <c r="DB91">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="DC91">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="DD91">
         <v>61.9</v>
@@ -30984,7 +30688,7 @@
         <v>34.29</v>
       </c>
       <c r="DG91">
-        <v>91.43</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="DH91">
         <v>87.62</v>
@@ -30996,11 +30700,351 @@
         <v>44.76</v>
       </c>
     </row>
+    <row r="92" spans="1:114">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92">
+        <v>2985</v>
+      </c>
+      <c r="C92">
+        <v>2199</v>
+      </c>
+      <c r="D92">
+        <v>203</v>
+      </c>
+      <c r="E92">
+        <v>256</v>
+      </c>
+      <c r="F92">
+        <v>37</v>
+      </c>
+      <c r="G92">
+        <v>137</v>
+      </c>
+      <c r="H92">
+        <v>15</v>
+      </c>
+      <c r="I92">
+        <v>63</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>16</v>
+      </c>
+      <c r="L92">
+        <v>23</v>
+      </c>
+      <c r="M92">
+        <v>63</v>
+      </c>
+      <c r="N92">
+        <v>2.3</v>
+      </c>
+      <c r="O92">
+        <v>2.21</v>
+      </c>
+      <c r="P92">
+        <v>6.16</v>
+      </c>
+      <c r="Q92">
+        <v>-0.89</v>
+      </c>
+      <c r="R92">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="S92">
+        <v>9.19</v>
+      </c>
+      <c r="T92">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="U92">
+        <v>2.3</v>
+      </c>
+      <c r="V92">
+        <v>2.21</v>
+      </c>
+      <c r="W92">
+        <v>53.97</v>
+      </c>
+      <c r="X92">
+        <v>53.97</v>
+      </c>
+      <c r="Y92">
+        <v>38.1</v>
+      </c>
+      <c r="Z92">
+        <v>92.06</v>
+      </c>
+      <c r="AA92">
+        <v>87.3</v>
+      </c>
+      <c r="AB92">
+        <v>53.97</v>
+      </c>
+      <c r="AC92">
+        <v>53.97</v>
+      </c>
+      <c r="AD92">
+        <v>20</v>
+      </c>
+      <c r="AE92">
+        <v>2.63</v>
+      </c>
+      <c r="AF92">
+        <v>3.27</v>
+      </c>
+      <c r="AG92">
+        <v>7.36</v>
+      </c>
+      <c r="AH92">
+        <v>-0.98</v>
+      </c>
+      <c r="AI92">
+        <v>0.63</v>
+      </c>
+      <c r="AJ92">
+        <v>5.28</v>
+      </c>
+      <c r="AK92">
+        <v>6.03</v>
+      </c>
+      <c r="AL92">
+        <v>2.63</v>
+      </c>
+      <c r="AM92">
+        <v>3.27</v>
+      </c>
+      <c r="AN92">
+        <v>55</v>
+      </c>
+      <c r="AO92">
+        <v>60</v>
+      </c>
+      <c r="AP92">
+        <v>45</v>
+      </c>
+      <c r="AQ92">
+        <v>80</v>
+      </c>
+      <c r="AR92">
+        <v>65</v>
+      </c>
+      <c r="AS92">
+        <v>55</v>
+      </c>
+      <c r="AT92">
+        <v>60</v>
+      </c>
+      <c r="AU92">
+        <v>2</v>
+      </c>
+      <c r="AV92">
+        <v>-2.99</v>
+      </c>
+      <c r="AW92">
+        <v>-1.39</v>
+      </c>
+      <c r="AX92">
+        <v>0.52</v>
+      </c>
+      <c r="AY92">
+        <v>-4.29</v>
+      </c>
+      <c r="AZ92">
+        <v>1.63</v>
+      </c>
+      <c r="BA92">
+        <v>-2.65</v>
+      </c>
+      <c r="BB92">
+        <v>-1.03</v>
+      </c>
+      <c r="BC92">
+        <v>-3.88</v>
+      </c>
+      <c r="BD92">
+        <v>-2.31</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <v>50</v>
+      </c>
+      <c r="BG92">
+        <v>50</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>50</v>
+      </c>
+      <c r="BJ92">
+        <v>0</v>
+      </c>
+      <c r="BK92">
+        <v>0</v>
+      </c>
+      <c r="BL92">
+        <v>2</v>
+      </c>
+      <c r="BM92">
+        <v>-1.77</v>
+      </c>
+      <c r="BN92">
+        <v>-3.2</v>
+      </c>
+      <c r="BO92">
+        <v>-0.33</v>
+      </c>
+      <c r="BP92">
+        <v>-4.87</v>
+      </c>
+      <c r="BQ92">
+        <v>-1.43</v>
+      </c>
+      <c r="BR92">
+        <v>-4.33</v>
+      </c>
+      <c r="BS92">
+        <v>-5.7</v>
+      </c>
+      <c r="BT92">
+        <v>-4.62</v>
+      </c>
+      <c r="BU92">
+        <v>-5.97</v>
+      </c>
+      <c r="BV92">
+        <v>50</v>
+      </c>
+      <c r="BW92">
+        <v>0</v>
+      </c>
+      <c r="BX92">
+        <v>0</v>
+      </c>
+      <c r="BY92">
+        <v>0</v>
+      </c>
+      <c r="BZ92">
+        <v>0</v>
+      </c>
+      <c r="CA92">
+        <v>0</v>
+      </c>
+      <c r="CB92">
+        <v>0</v>
+      </c>
+      <c r="CC92">
+        <v>20</v>
+      </c>
+      <c r="CD92">
+        <v>-0.84</v>
+      </c>
+      <c r="CE92">
+        <v>-0.28</v>
+      </c>
+      <c r="CF92">
+        <v>3.06</v>
+      </c>
+      <c r="CG92">
+        <v>-2.82</v>
+      </c>
+      <c r="CH92">
+        <v>0.55</v>
+      </c>
+      <c r="CI92">
+        <v>4.74</v>
+      </c>
+      <c r="CJ92">
+        <v>5.36</v>
+      </c>
+      <c r="CK92">
+        <v>-4.63</v>
+      </c>
+      <c r="CL92">
+        <v>-4.11</v>
+      </c>
+      <c r="CM92">
+        <v>20</v>
+      </c>
+      <c r="CN92">
+        <v>30</v>
+      </c>
+      <c r="CO92">
+        <v>45</v>
+      </c>
+      <c r="CP92">
+        <v>85</v>
+      </c>
+      <c r="CQ92">
+        <v>90</v>
+      </c>
+      <c r="CR92">
+        <v>10</v>
+      </c>
+      <c r="CS92">
+        <v>15</v>
+      </c>
+      <c r="CT92">
+        <v>83</v>
+      </c>
+      <c r="CU92">
+        <v>1.54</v>
+      </c>
+      <c r="CV92">
+        <v>1.61</v>
+      </c>
+      <c r="CW92">
+        <v>5.42</v>
+      </c>
+      <c r="CX92">
+        <v>-1.36</v>
+      </c>
+      <c r="CY92">
+        <v>0.08</v>
+      </c>
+      <c r="CZ92">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="DA92">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="DB92">
+        <v>0.63</v>
+      </c>
+      <c r="DC92">
+        <v>0.68</v>
+      </c>
+      <c r="DD92">
+        <v>45.78</v>
+      </c>
+      <c r="DE92">
+        <v>48.19</v>
+      </c>
+      <c r="DF92">
+        <v>39.76</v>
+      </c>
+      <c r="DG92">
+        <v>90.36</v>
+      </c>
+      <c r="DH92">
+        <v>87.95</v>
+      </c>
+      <c r="DI92">
+        <v>43.37</v>
+      </c>
+      <c r="DJ92">
+        <v>44.58</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DJ92">
-    <sortCondition ref="A1:A92"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -358,7 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250318</t>
+    <t>20250319</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ92"/>
+  <dimension ref="A1:DJ93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30701,8 +30701,8 @@
       </c>
     </row>
     <row r="92" spans="1:114">
-      <c r="A92" t="s">
-        <v>114</v>
+      <c r="A92">
+        <v>20250318</v>
       </c>
       <c r="B92">
         <v>2985</v>
@@ -31042,6 +31042,299 @@
       </c>
       <c r="DJ92">
         <v>44.58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:114">
+      <c r="A93" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93">
+        <v>1493</v>
+      </c>
+      <c r="C93">
+        <v>3755</v>
+      </c>
+      <c r="D93">
+        <v>136</v>
+      </c>
+      <c r="E93">
+        <v>151</v>
+      </c>
+      <c r="F93">
+        <v>276</v>
+      </c>
+      <c r="G93">
+        <v>88</v>
+      </c>
+      <c r="H93">
+        <v>160</v>
+      </c>
+      <c r="I93">
+        <v>45</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>17</v>
+      </c>
+      <c r="L93">
+        <v>22</v>
+      </c>
+      <c r="M93">
+        <v>62</v>
+      </c>
+      <c r="N93">
+        <v>1.92</v>
+      </c>
+      <c r="O93">
+        <v>1.26</v>
+      </c>
+      <c r="P93">
+        <v>5.57</v>
+      </c>
+      <c r="Q93">
+        <v>-1.98</v>
+      </c>
+      <c r="R93">
+        <v>-0.63</v>
+      </c>
+      <c r="S93">
+        <v>9.52</v>
+      </c>
+      <c r="T93">
+        <v>8.75</v>
+      </c>
+      <c r="U93">
+        <v>1.92</v>
+      </c>
+      <c r="V93">
+        <v>1.26</v>
+      </c>
+      <c r="W93">
+        <v>59.68</v>
+      </c>
+      <c r="X93">
+        <v>45.16</v>
+      </c>
+      <c r="Y93">
+        <v>27.42</v>
+      </c>
+      <c r="Z93">
+        <v>95.16</v>
+      </c>
+      <c r="AA93">
+        <v>90.31999999999999</v>
+      </c>
+      <c r="AB93">
+        <v>59.68</v>
+      </c>
+      <c r="AC93">
+        <v>45.16</v>
+      </c>
+      <c r="AD93">
+        <v>15</v>
+      </c>
+      <c r="AE93">
+        <v>2.1</v>
+      </c>
+      <c r="AF93">
+        <v>5.16</v>
+      </c>
+      <c r="AG93">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="AH93">
+        <v>-0.05</v>
+      </c>
+      <c r="AI93">
+        <v>3.08</v>
+      </c>
+      <c r="AJ93">
+        <v>5.48</v>
+      </c>
+      <c r="AK93">
+        <v>8.66</v>
+      </c>
+      <c r="AL93">
+        <v>2.1</v>
+      </c>
+      <c r="AM93">
+        <v>5.16</v>
+      </c>
+      <c r="AN93">
+        <v>53.33</v>
+      </c>
+      <c r="AO93">
+        <v>73.33</v>
+      </c>
+      <c r="AP93">
+        <v>46.67</v>
+      </c>
+      <c r="AQ93">
+        <v>80</v>
+      </c>
+      <c r="AR93">
+        <v>80</v>
+      </c>
+      <c r="AS93">
+        <v>53.33</v>
+      </c>
+      <c r="AT93">
+        <v>73.33</v>
+      </c>
+      <c r="BL93">
+        <v>1</v>
+      </c>
+      <c r="BM93">
+        <v>-8.09</v>
+      </c>
+      <c r="BN93">
+        <v>-10.04</v>
+      </c>
+      <c r="BO93">
+        <v>-5.74</v>
+      </c>
+      <c r="BP93">
+        <v>-10.04</v>
+      </c>
+      <c r="BQ93">
+        <v>-2.12</v>
+      </c>
+      <c r="BR93">
+        <v>-10.48</v>
+      </c>
+      <c r="BS93">
+        <v>-12.38</v>
+      </c>
+      <c r="BT93">
+        <v>-17.17</v>
+      </c>
+      <c r="BU93">
+        <v>-18.93</v>
+      </c>
+      <c r="BV93">
+        <v>0</v>
+      </c>
+      <c r="BW93">
+        <v>0</v>
+      </c>
+      <c r="BX93">
+        <v>0</v>
+      </c>
+      <c r="BY93">
+        <v>0</v>
+      </c>
+      <c r="BZ93">
+        <v>0</v>
+      </c>
+      <c r="CA93">
+        <v>0</v>
+      </c>
+      <c r="CB93">
+        <v>0</v>
+      </c>
+      <c r="CC93">
+        <v>23</v>
+      </c>
+      <c r="CD93">
+        <v>-1.51</v>
+      </c>
+      <c r="CE93">
+        <v>-2.75</v>
+      </c>
+      <c r="CF93">
+        <v>1.31</v>
+      </c>
+      <c r="CG93">
+        <v>-4.51</v>
+      </c>
+      <c r="CH93">
+        <v>-1.24</v>
+      </c>
+      <c r="CI93">
+        <v>4.72</v>
+      </c>
+      <c r="CJ93">
+        <v>3.5</v>
+      </c>
+      <c r="CK93">
+        <v>-4.87</v>
+      </c>
+      <c r="CL93">
+        <v>-6.08</v>
+      </c>
+      <c r="CM93">
+        <v>17.39</v>
+      </c>
+      <c r="CN93">
+        <v>17.39</v>
+      </c>
+      <c r="CO93">
+        <v>21.74</v>
+      </c>
+      <c r="CP93">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="CQ93">
+        <v>73.91</v>
+      </c>
+      <c r="CR93">
+        <v>0</v>
+      </c>
+      <c r="CS93">
+        <v>4.35</v>
+      </c>
+      <c r="CT93">
+        <v>85</v>
+      </c>
+      <c r="CU93">
+        <v>1</v>
+      </c>
+      <c r="CV93">
+        <v>0.17</v>
+      </c>
+      <c r="CW93">
+        <v>4.42</v>
+      </c>
+      <c r="CX93">
+        <v>-2.67</v>
+      </c>
+      <c r="CY93">
+        <v>-0.8</v>
+      </c>
+      <c r="CZ93">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="DA93">
+        <v>7.33</v>
+      </c>
+      <c r="DB93">
+        <v>0.08</v>
+      </c>
+      <c r="DC93">
+        <v>-0.73</v>
+      </c>
+      <c r="DD93">
+        <v>48.24</v>
+      </c>
+      <c r="DE93">
+        <v>37.65</v>
+      </c>
+      <c r="DF93">
+        <v>25.88</v>
+      </c>
+      <c r="DG93">
+        <v>92.94</v>
+      </c>
+      <c r="DH93">
+        <v>85.88</v>
+      </c>
+      <c r="DI93">
+        <v>43.53</v>
+      </c>
+      <c r="DJ93">
+        <v>34.12</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -358,7 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250319</t>
+    <t>20250321</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ93"/>
+  <dimension ref="A1:DJ95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31045,8 +31045,8 @@
       </c>
     </row>
     <row r="93" spans="1:114">
-      <c r="A93" t="s">
-        <v>114</v>
+      <c r="A93">
+        <v>20250319</v>
       </c>
       <c r="B93">
         <v>1493</v>
@@ -31335,6 +31335,541 @@
       </c>
       <c r="DJ93">
         <v>34.12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:114">
+      <c r="A94">
+        <v>20250320</v>
+      </c>
+      <c r="B94">
+        <v>1980</v>
+      </c>
+      <c r="C94">
+        <v>3222</v>
+      </c>
+      <c r="D94">
+        <v>184</v>
+      </c>
+      <c r="E94">
+        <v>171</v>
+      </c>
+      <c r="F94">
+        <v>196</v>
+      </c>
+      <c r="G94">
+        <v>109</v>
+      </c>
+      <c r="H94">
+        <v>73</v>
+      </c>
+      <c r="I94">
+        <v>62</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>24</v>
+      </c>
+      <c r="L94">
+        <v>28</v>
+      </c>
+      <c r="M94">
+        <v>45</v>
+      </c>
+      <c r="N94">
+        <v>2.53</v>
+      </c>
+      <c r="O94">
+        <v>4.83</v>
+      </c>
+      <c r="P94">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="Q94">
+        <v>-0.18</v>
+      </c>
+      <c r="R94">
+        <v>2.34</v>
+      </c>
+      <c r="S94">
+        <v>10.35</v>
+      </c>
+      <c r="T94">
+        <v>12.9</v>
+      </c>
+      <c r="U94">
+        <v>2.53</v>
+      </c>
+      <c r="V94">
+        <v>4.83</v>
+      </c>
+      <c r="W94">
+        <v>57.78</v>
+      </c>
+      <c r="X94">
+        <v>75.56</v>
+      </c>
+      <c r="Y94">
+        <v>57.78</v>
+      </c>
+      <c r="Z94">
+        <v>95.56</v>
+      </c>
+      <c r="AA94">
+        <v>93.33</v>
+      </c>
+      <c r="AB94">
+        <v>57.78</v>
+      </c>
+      <c r="AC94">
+        <v>75.56</v>
+      </c>
+      <c r="AD94">
+        <v>17</v>
+      </c>
+      <c r="AE94">
+        <v>3.32</v>
+      </c>
+      <c r="AF94">
+        <v>4.49</v>
+      </c>
+      <c r="AG94">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="AH94">
+        <v>-0.48</v>
+      </c>
+      <c r="AI94">
+        <v>1.24</v>
+      </c>
+      <c r="AJ94">
+        <v>7.45</v>
+      </c>
+      <c r="AK94">
+        <v>8.73</v>
+      </c>
+      <c r="AL94">
+        <v>3.32</v>
+      </c>
+      <c r="AM94">
+        <v>4.49</v>
+      </c>
+      <c r="AN94">
+        <v>58.82</v>
+      </c>
+      <c r="AO94">
+        <v>58.82</v>
+      </c>
+      <c r="AP94">
+        <v>41.18</v>
+      </c>
+      <c r="AQ94">
+        <v>88.23999999999999</v>
+      </c>
+      <c r="AR94">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="AS94">
+        <v>58.82</v>
+      </c>
+      <c r="AT94">
+        <v>58.82</v>
+      </c>
+      <c r="BL94">
+        <v>2</v>
+      </c>
+      <c r="BM94">
+        <v>-4.14</v>
+      </c>
+      <c r="BN94">
+        <v>-6.2</v>
+      </c>
+      <c r="BO94">
+        <v>-2.82</v>
+      </c>
+      <c r="BP94">
+        <v>-6.62</v>
+      </c>
+      <c r="BQ94">
+        <v>-2.13</v>
+      </c>
+      <c r="BR94">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="BS94">
+        <v>-10.25</v>
+      </c>
+      <c r="BT94">
+        <v>-9.460000000000001</v>
+      </c>
+      <c r="BU94">
+        <v>-11.4</v>
+      </c>
+      <c r="BV94">
+        <v>0</v>
+      </c>
+      <c r="BW94">
+        <v>0</v>
+      </c>
+      <c r="BX94">
+        <v>0</v>
+      </c>
+      <c r="BY94">
+        <v>0</v>
+      </c>
+      <c r="BZ94">
+        <v>0</v>
+      </c>
+      <c r="CA94">
+        <v>0</v>
+      </c>
+      <c r="CB94">
+        <v>0</v>
+      </c>
+      <c r="CC94">
+        <v>22</v>
+      </c>
+      <c r="CD94">
+        <v>-2.09</v>
+      </c>
+      <c r="CE94">
+        <v>-0.37</v>
+      </c>
+      <c r="CF94">
+        <v>3.04</v>
+      </c>
+      <c r="CG94">
+        <v>-4.34</v>
+      </c>
+      <c r="CH94">
+        <v>1.79</v>
+      </c>
+      <c r="CI94">
+        <v>2.58</v>
+      </c>
+      <c r="CJ94">
+        <v>4.38</v>
+      </c>
+      <c r="CK94">
+        <v>-6.2</v>
+      </c>
+      <c r="CL94">
+        <v>-4.53</v>
+      </c>
+      <c r="CM94">
+        <v>9.09</v>
+      </c>
+      <c r="CN94">
+        <v>40.91</v>
+      </c>
+      <c r="CO94">
+        <v>50</v>
+      </c>
+      <c r="CP94">
+        <v>72.73</v>
+      </c>
+      <c r="CQ94">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="CR94">
+        <v>0</v>
+      </c>
+      <c r="CS94">
+        <v>18.18</v>
+      </c>
+      <c r="CT94">
+        <v>67</v>
+      </c>
+      <c r="CU94">
+        <v>1.01</v>
+      </c>
+      <c r="CV94">
+        <v>3.13</v>
+      </c>
+      <c r="CW94">
+        <v>6.74</v>
+      </c>
+      <c r="CX94">
+        <v>-1.55</v>
+      </c>
+      <c r="CY94">
+        <v>2.16</v>
+      </c>
+      <c r="CZ94">
+        <v>7.8</v>
+      </c>
+      <c r="DA94">
+        <v>10.1</v>
+      </c>
+      <c r="DB94">
+        <v>-0.34</v>
+      </c>
+      <c r="DC94">
+        <v>1.76</v>
+      </c>
+      <c r="DD94">
+        <v>41.79</v>
+      </c>
+      <c r="DE94">
+        <v>64.18000000000001</v>
+      </c>
+      <c r="DF94">
+        <v>55.22</v>
+      </c>
+      <c r="DG94">
+        <v>88.06</v>
+      </c>
+      <c r="DH94">
+        <v>89.55</v>
+      </c>
+      <c r="DI94">
+        <v>38.81</v>
+      </c>
+      <c r="DJ94">
+        <v>56.72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:114">
+      <c r="A95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95">
+        <v>996</v>
+      </c>
+      <c r="C95">
+        <v>4289</v>
+      </c>
+      <c r="D95">
+        <v>102</v>
+      </c>
+      <c r="E95">
+        <v>126</v>
+      </c>
+      <c r="F95">
+        <v>541</v>
+      </c>
+      <c r="G95">
+        <v>79</v>
+      </c>
+      <c r="H95">
+        <v>197</v>
+      </c>
+      <c r="I95">
+        <v>46</v>
+      </c>
+      <c r="J95">
+        <v>20</v>
+      </c>
+      <c r="K95">
+        <v>19</v>
+      </c>
+      <c r="L95">
+        <v>20</v>
+      </c>
+      <c r="M95">
+        <v>62</v>
+      </c>
+      <c r="N95">
+        <v>2.77</v>
+      </c>
+      <c r="O95">
+        <v>1.89</v>
+      </c>
+      <c r="P95">
+        <v>6.47</v>
+      </c>
+      <c r="Q95">
+        <v>-1.81</v>
+      </c>
+      <c r="R95">
+        <v>-0.85</v>
+      </c>
+      <c r="S95">
+        <v>11.69</v>
+      </c>
+      <c r="T95">
+        <v>10.8</v>
+      </c>
+      <c r="U95">
+        <v>2.77</v>
+      </c>
+      <c r="V95">
+        <v>1.89</v>
+      </c>
+      <c r="W95">
+        <v>58.06</v>
+      </c>
+      <c r="X95">
+        <v>54.84</v>
+      </c>
+      <c r="Y95">
+        <v>33.87</v>
+      </c>
+      <c r="Z95">
+        <v>96.77</v>
+      </c>
+      <c r="AA95">
+        <v>91.94</v>
+      </c>
+      <c r="AB95">
+        <v>58.06</v>
+      </c>
+      <c r="AC95">
+        <v>54.84</v>
+      </c>
+      <c r="AD95">
+        <v>24</v>
+      </c>
+      <c r="AE95">
+        <v>3.5</v>
+      </c>
+      <c r="AF95">
+        <v>3.2</v>
+      </c>
+      <c r="AG95">
+        <v>7.34</v>
+      </c>
+      <c r="AH95">
+        <v>-0.83</v>
+      </c>
+      <c r="AI95">
+        <v>-0.3</v>
+      </c>
+      <c r="AJ95">
+        <v>9.32</v>
+      </c>
+      <c r="AK95">
+        <v>8.98</v>
+      </c>
+      <c r="AL95">
+        <v>3.5</v>
+      </c>
+      <c r="AM95">
+        <v>3.2</v>
+      </c>
+      <c r="AN95">
+        <v>54.17</v>
+      </c>
+      <c r="AO95">
+        <v>75</v>
+      </c>
+      <c r="AP95">
+        <v>33.33</v>
+      </c>
+      <c r="AQ95">
+        <v>91.67</v>
+      </c>
+      <c r="AR95">
+        <v>87.5</v>
+      </c>
+      <c r="AS95">
+        <v>54.17</v>
+      </c>
+      <c r="AT95">
+        <v>75</v>
+      </c>
+      <c r="CC95">
+        <v>28</v>
+      </c>
+      <c r="CD95">
+        <v>-2.06</v>
+      </c>
+      <c r="CE95">
+        <v>-3.82</v>
+      </c>
+      <c r="CF95">
+        <v>1.45</v>
+      </c>
+      <c r="CG95">
+        <v>-5.95</v>
+      </c>
+      <c r="CH95">
+        <v>-1.81</v>
+      </c>
+      <c r="CI95">
+        <v>3.33</v>
+      </c>
+      <c r="CJ95">
+        <v>1.44</v>
+      </c>
+      <c r="CK95">
+        <v>-6.08</v>
+      </c>
+      <c r="CL95">
+        <v>-7.79</v>
+      </c>
+      <c r="CM95">
+        <v>10.71</v>
+      </c>
+      <c r="CN95">
+        <v>21.43</v>
+      </c>
+      <c r="CO95">
+        <v>21.43</v>
+      </c>
+      <c r="CP95">
+        <v>75</v>
+      </c>
+      <c r="CQ95">
+        <v>60.71</v>
+      </c>
+      <c r="CR95">
+        <v>3.57</v>
+      </c>
+      <c r="CS95">
+        <v>10.71</v>
+      </c>
+      <c r="CT95">
+        <v>90</v>
+      </c>
+      <c r="CU95">
+        <v>1.27</v>
+      </c>
+      <c r="CV95">
+        <v>0.12</v>
+      </c>
+      <c r="CW95">
+        <v>4.91</v>
+      </c>
+      <c r="CX95">
+        <v>-3.1</v>
+      </c>
+      <c r="CY95">
+        <v>-1.15</v>
+      </c>
+      <c r="CZ95">
+        <v>9.09</v>
+      </c>
+      <c r="DA95">
+        <v>7.89</v>
+      </c>
+      <c r="DB95">
+        <v>0.02</v>
+      </c>
+      <c r="DC95">
+        <v>-1.12</v>
+      </c>
+      <c r="DD95">
+        <v>43.33</v>
+      </c>
+      <c r="DE95">
+        <v>44.44</v>
+      </c>
+      <c r="DF95">
+        <v>30</v>
+      </c>
+      <c r="DG95">
+        <v>90</v>
+      </c>
+      <c r="DH95">
+        <v>82.22</v>
+      </c>
+      <c r="DI95">
+        <v>41.11</v>
+      </c>
+      <c r="DJ95">
+        <v>41.11</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>日期</t>
   </si>
@@ -358,16 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250331</t>
-  </si>
-  <si>
-    <t>20250401</t>
-  </si>
-  <si>
-    <t>20250402</t>
-  </si>
-  <si>
-    <t>20250403</t>
+    <t>20250407</t>
   </si>
 </sst>
 </file>
@@ -725,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ104"/>
+  <dimension ref="A1:DJ105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33551,8 +33542,8 @@
       </c>
     </row>
     <row r="101" spans="1:114">
-      <c r="A101" t="s">
-        <v>114</v>
+      <c r="A101">
+        <v>20250331</v>
       </c>
       <c r="B101">
         <v>1295</v>
@@ -33895,8 +33886,8 @@
       </c>
     </row>
     <row r="102" spans="1:114">
-      <c r="A102" t="s">
-        <v>115</v>
+      <c r="A102">
+        <v>20250401</v>
       </c>
       <c r="B102">
         <v>3854</v>
@@ -34239,8 +34230,8 @@
       </c>
     </row>
     <row r="103" spans="1:114">
-      <c r="A103" t="s">
-        <v>116</v>
+      <c r="A103">
+        <v>20250402</v>
       </c>
       <c r="B103">
         <v>2758</v>
@@ -34532,8 +34523,8 @@
       </c>
     </row>
     <row r="104" spans="1:114">
-      <c r="A104" t="s">
-        <v>117</v>
+      <c r="A104">
+        <v>20250403</v>
       </c>
       <c r="B104">
         <v>2075</v>
@@ -34873,6 +34864,350 @@
       </c>
       <c r="DJ104">
         <v>51.61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:114">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105">
+        <v>106</v>
+      </c>
+      <c r="C105">
+        <v>5284</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>54</v>
+      </c>
+      <c r="F105">
+        <v>5033</v>
+      </c>
+      <c r="G105">
+        <v>39</v>
+      </c>
+      <c r="H105">
+        <v>4818</v>
+      </c>
+      <c r="I105">
+        <v>22</v>
+      </c>
+      <c r="J105">
+        <v>2704</v>
+      </c>
+      <c r="K105">
+        <v>12</v>
+      </c>
+      <c r="L105">
+        <v>8</v>
+      </c>
+      <c r="M105">
+        <v>51</v>
+      </c>
+      <c r="N105">
+        <v>-0.1</v>
+      </c>
+      <c r="O105">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="P105">
+        <v>5.24</v>
+      </c>
+      <c r="Q105">
+        <v>-4.43</v>
+      </c>
+      <c r="R105">
+        <v>-0.82</v>
+      </c>
+      <c r="S105">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="T105">
+        <v>8.42</v>
+      </c>
+      <c r="U105">
+        <v>-0.1</v>
+      </c>
+      <c r="V105">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="W105">
+        <v>33.33</v>
+      </c>
+      <c r="X105">
+        <v>43.14</v>
+      </c>
+      <c r="Y105">
+        <v>25.49</v>
+      </c>
+      <c r="Z105">
+        <v>90.2</v>
+      </c>
+      <c r="AA105">
+        <v>74.51000000000001</v>
+      </c>
+      <c r="AB105">
+        <v>33.33</v>
+      </c>
+      <c r="AC105">
+        <v>43.14</v>
+      </c>
+      <c r="AD105">
+        <v>15</v>
+      </c>
+      <c r="AE105">
+        <v>-1</v>
+      </c>
+      <c r="AF105">
+        <v>-0.49</v>
+      </c>
+      <c r="AG105">
+        <v>4.95</v>
+      </c>
+      <c r="AH105">
+        <v>-4.23</v>
+      </c>
+      <c r="AI105">
+        <v>0.64</v>
+      </c>
+      <c r="AJ105">
+        <v>4.45</v>
+      </c>
+      <c r="AK105">
+        <v>4.95</v>
+      </c>
+      <c r="AL105">
+        <v>-1</v>
+      </c>
+      <c r="AM105">
+        <v>-0.49</v>
+      </c>
+      <c r="AN105">
+        <v>33.33</v>
+      </c>
+      <c r="AO105">
+        <v>53.33</v>
+      </c>
+      <c r="AP105">
+        <v>26.67</v>
+      </c>
+      <c r="AQ105">
+        <v>66.67</v>
+      </c>
+      <c r="AR105">
+        <v>73.33</v>
+      </c>
+      <c r="AS105">
+        <v>33.33</v>
+      </c>
+      <c r="AT105">
+        <v>53.33</v>
+      </c>
+      <c r="AU105">
+        <v>2</v>
+      </c>
+      <c r="AV105">
+        <v>-9.98</v>
+      </c>
+      <c r="AW105">
+        <v>-9.98</v>
+      </c>
+      <c r="AX105">
+        <v>-9.449999999999999</v>
+      </c>
+      <c r="AY105">
+        <v>-9.98</v>
+      </c>
+      <c r="AZ105">
+        <v>0</v>
+      </c>
+      <c r="BA105">
+        <v>-9.98</v>
+      </c>
+      <c r="BB105">
+        <v>-9.98</v>
+      </c>
+      <c r="BC105">
+        <v>-13.79</v>
+      </c>
+      <c r="BD105">
+        <v>-13.79</v>
+      </c>
+      <c r="BE105">
+        <v>0</v>
+      </c>
+      <c r="BF105">
+        <v>0</v>
+      </c>
+      <c r="BG105">
+        <v>0</v>
+      </c>
+      <c r="BH105">
+        <v>0</v>
+      </c>
+      <c r="BI105">
+        <v>0</v>
+      </c>
+      <c r="BJ105">
+        <v>0</v>
+      </c>
+      <c r="BK105">
+        <v>0</v>
+      </c>
+      <c r="BL105">
+        <v>23</v>
+      </c>
+      <c r="BM105">
+        <v>-9.94</v>
+      </c>
+      <c r="BN105">
+        <v>-10.29</v>
+      </c>
+      <c r="BO105">
+        <v>-8.890000000000001</v>
+      </c>
+      <c r="BP105">
+        <v>-10.43</v>
+      </c>
+      <c r="BQ105">
+        <v>-0.39</v>
+      </c>
+      <c r="BR105">
+        <v>-15.42</v>
+      </c>
+      <c r="BS105">
+        <v>-15.74</v>
+      </c>
+      <c r="BT105">
+        <v>-16.52</v>
+      </c>
+      <c r="BU105">
+        <v>-16.83</v>
+      </c>
+      <c r="BV105">
+        <v>0</v>
+      </c>
+      <c r="BW105">
+        <v>0</v>
+      </c>
+      <c r="BX105">
+        <v>4.35</v>
+      </c>
+      <c r="BY105">
+        <v>0</v>
+      </c>
+      <c r="BZ105">
+        <v>0</v>
+      </c>
+      <c r="CA105">
+        <v>0</v>
+      </c>
+      <c r="CB105">
+        <v>0</v>
+      </c>
+      <c r="CC105">
+        <v>13</v>
+      </c>
+      <c r="CD105">
+        <v>-7.33</v>
+      </c>
+      <c r="CE105">
+        <v>-8.92</v>
+      </c>
+      <c r="CF105">
+        <v>-2.44</v>
+      </c>
+      <c r="CG105">
+        <v>-10.99</v>
+      </c>
+      <c r="CH105">
+        <v>-1.64</v>
+      </c>
+      <c r="CI105">
+        <v>-0.03</v>
+      </c>
+      <c r="CJ105">
+        <v>-1.9</v>
+      </c>
+      <c r="CK105">
+        <v>-11.47</v>
+      </c>
+      <c r="CL105">
+        <v>-13.05</v>
+      </c>
+      <c r="CM105">
+        <v>0</v>
+      </c>
+      <c r="CN105">
+        <v>7.69</v>
+      </c>
+      <c r="CO105">
+        <v>7.69</v>
+      </c>
+      <c r="CP105">
+        <v>53.85</v>
+      </c>
+      <c r="CQ105">
+        <v>23.08</v>
+      </c>
+      <c r="CR105">
+        <v>0</v>
+      </c>
+      <c r="CS105">
+        <v>0</v>
+      </c>
+      <c r="CT105">
+        <v>64</v>
+      </c>
+      <c r="CU105">
+        <v>-1.57</v>
+      </c>
+      <c r="CV105">
+        <v>-2.56</v>
+      </c>
+      <c r="CW105">
+        <v>3.68</v>
+      </c>
+      <c r="CX105">
+        <v>-5.77</v>
+      </c>
+      <c r="CY105">
+        <v>-0.99</v>
+      </c>
+      <c r="CZ105">
+        <v>7.47</v>
+      </c>
+      <c r="DA105">
+        <v>6.32</v>
+      </c>
+      <c r="DB105">
+        <v>-2.41</v>
+      </c>
+      <c r="DC105">
+        <v>-3.4</v>
+      </c>
+      <c r="DD105">
+        <v>26.56</v>
+      </c>
+      <c r="DE105">
+        <v>35.94</v>
+      </c>
+      <c r="DF105">
+        <v>21.88</v>
+      </c>
+      <c r="DG105">
+        <v>82.81</v>
+      </c>
+      <c r="DH105">
+        <v>64.06</v>
+      </c>
+      <c r="DI105">
+        <v>26.56</v>
+      </c>
+      <c r="DJ105">
+        <v>34.38</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>日期</t>
   </si>
@@ -358,7 +358,10 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250407</t>
+    <t>20250408</t>
+  </si>
+  <si>
+    <t>20250409</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ105"/>
+  <dimension ref="A1:DJ107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -34867,8 +34870,8 @@
       </c>
     </row>
     <row r="105" spans="1:114">
-      <c r="A105" t="s">
-        <v>114</v>
+      <c r="A105">
+        <v>20250407</v>
       </c>
       <c r="B105">
         <v>106</v>
@@ -35208,6 +35211,694 @@
       </c>
       <c r="DJ105">
         <v>34.38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:114">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106">
+        <v>3299</v>
+      </c>
+      <c r="C106">
+        <v>2048</v>
+      </c>
+      <c r="D106">
+        <v>45</v>
+      </c>
+      <c r="E106">
+        <v>898</v>
+      </c>
+      <c r="F106">
+        <v>847</v>
+      </c>
+      <c r="G106">
+        <v>444</v>
+      </c>
+      <c r="H106">
+        <v>457</v>
+      </c>
+      <c r="I106">
+        <v>119</v>
+      </c>
+      <c r="J106">
+        <v>105</v>
+      </c>
+      <c r="K106">
+        <v>26</v>
+      </c>
+      <c r="L106">
+        <v>19</v>
+      </c>
+      <c r="M106">
+        <v>22</v>
+      </c>
+      <c r="N106">
+        <v>2.82</v>
+      </c>
+      <c r="O106">
+        <v>10.35</v>
+      </c>
+      <c r="P106">
+        <v>11.09</v>
+      </c>
+      <c r="Q106">
+        <v>-0.32</v>
+      </c>
+      <c r="R106">
+        <v>7.62</v>
+      </c>
+      <c r="S106">
+        <v>7.38</v>
+      </c>
+      <c r="T106">
+        <v>15.49</v>
+      </c>
+      <c r="U106">
+        <v>2.82</v>
+      </c>
+      <c r="V106">
+        <v>10.35</v>
+      </c>
+      <c r="W106">
+        <v>63.64</v>
+      </c>
+      <c r="X106">
+        <v>100</v>
+      </c>
+      <c r="Y106">
+        <v>72.73</v>
+      </c>
+      <c r="Z106">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="AA106">
+        <v>100</v>
+      </c>
+      <c r="AB106">
+        <v>63.64</v>
+      </c>
+      <c r="AC106">
+        <v>100</v>
+      </c>
+      <c r="AD106">
+        <v>12</v>
+      </c>
+      <c r="AE106">
+        <v>3.92</v>
+      </c>
+      <c r="AF106">
+        <v>9.94</v>
+      </c>
+      <c r="AG106">
+        <v>10.5</v>
+      </c>
+      <c r="AH106">
+        <v>2.44</v>
+      </c>
+      <c r="AI106">
+        <v>6.14</v>
+      </c>
+      <c r="AJ106">
+        <v>6.61</v>
+      </c>
+      <c r="AK106">
+        <v>12.95</v>
+      </c>
+      <c r="AL106">
+        <v>3.92</v>
+      </c>
+      <c r="AM106">
+        <v>9.94</v>
+      </c>
+      <c r="AN106">
+        <v>58.33</v>
+      </c>
+      <c r="AO106">
+        <v>100</v>
+      </c>
+      <c r="AP106">
+        <v>58.33</v>
+      </c>
+      <c r="AQ106">
+        <v>66.67</v>
+      </c>
+      <c r="AR106">
+        <v>100</v>
+      </c>
+      <c r="AS106">
+        <v>58.33</v>
+      </c>
+      <c r="AT106">
+        <v>100</v>
+      </c>
+      <c r="AU106">
+        <v>165</v>
+      </c>
+      <c r="AV106">
+        <v>-5.65</v>
+      </c>
+      <c r="AW106">
+        <v>-7.11</v>
+      </c>
+      <c r="AX106">
+        <v>-2.27</v>
+      </c>
+      <c r="AY106">
+        <v>-8.92</v>
+      </c>
+      <c r="AZ106">
+        <v>-1.49</v>
+      </c>
+      <c r="BA106">
+        <v>-5.41</v>
+      </c>
+      <c r="BB106">
+        <v>-6.86</v>
+      </c>
+      <c r="BC106">
+        <v>-7.88</v>
+      </c>
+      <c r="BD106">
+        <v>-9.31</v>
+      </c>
+      <c r="BE106">
+        <v>6.06</v>
+      </c>
+      <c r="BF106">
+        <v>6.67</v>
+      </c>
+      <c r="BG106">
+        <v>21.82</v>
+      </c>
+      <c r="BH106">
+        <v>7.27</v>
+      </c>
+      <c r="BI106">
+        <v>7.88</v>
+      </c>
+      <c r="BJ106">
+        <v>0.61</v>
+      </c>
+      <c r="BK106">
+        <v>1.82</v>
+      </c>
+      <c r="BL106">
+        <v>2702</v>
+      </c>
+      <c r="BM106">
+        <v>-1.73</v>
+      </c>
+      <c r="BN106">
+        <v>-2.12</v>
+      </c>
+      <c r="BO106">
+        <v>1.76</v>
+      </c>
+      <c r="BP106">
+        <v>-5.15</v>
+      </c>
+      <c r="BQ106">
+        <v>-0.4</v>
+      </c>
+      <c r="BR106">
+        <v>-7.17</v>
+      </c>
+      <c r="BS106">
+        <v>-7.58</v>
+      </c>
+      <c r="BT106">
+        <v>-8.76</v>
+      </c>
+      <c r="BU106">
+        <v>-9.16</v>
+      </c>
+      <c r="BV106">
+        <v>22.91</v>
+      </c>
+      <c r="BW106">
+        <v>33.38</v>
+      </c>
+      <c r="BX106">
+        <v>43.23</v>
+      </c>
+      <c r="BY106">
+        <v>0.52</v>
+      </c>
+      <c r="BZ106">
+        <v>3.33</v>
+      </c>
+      <c r="CA106">
+        <v>0.15</v>
+      </c>
+      <c r="CB106">
+        <v>1.33</v>
+      </c>
+      <c r="CC106">
+        <v>7</v>
+      </c>
+      <c r="CD106">
+        <v>-4.28</v>
+      </c>
+      <c r="CE106">
+        <v>6.26</v>
+      </c>
+      <c r="CF106">
+        <v>7.84</v>
+      </c>
+      <c r="CG106">
+        <v>-6.19</v>
+      </c>
+      <c r="CH106">
+        <v>11.21</v>
+      </c>
+      <c r="CI106">
+        <v>1.5</v>
+      </c>
+      <c r="CJ106">
+        <v>12.31</v>
+      </c>
+      <c r="CK106">
+        <v>-7.85</v>
+      </c>
+      <c r="CL106">
+        <v>2.18</v>
+      </c>
+      <c r="CM106">
+        <v>14.29</v>
+      </c>
+      <c r="CN106">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="CO106">
+        <v>100</v>
+      </c>
+      <c r="CP106">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CQ106">
+        <v>100</v>
+      </c>
+      <c r="CR106">
+        <v>0</v>
+      </c>
+      <c r="CS106">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CT106">
+        <v>29</v>
+      </c>
+      <c r="CU106">
+        <v>1.11</v>
+      </c>
+      <c r="CV106">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="CW106">
+        <v>10.3</v>
+      </c>
+      <c r="CX106">
+        <v>-1.74</v>
+      </c>
+      <c r="CY106">
+        <v>8.49</v>
+      </c>
+      <c r="CZ106">
+        <v>5.96</v>
+      </c>
+      <c r="DA106">
+        <v>14.72</v>
+      </c>
+      <c r="DB106">
+        <v>0.24</v>
+      </c>
+      <c r="DC106">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="DD106">
+        <v>51.72</v>
+      </c>
+      <c r="DE106">
+        <v>96.55</v>
+      </c>
+      <c r="DF106">
+        <v>79.31</v>
+      </c>
+      <c r="DG106">
+        <v>79.31</v>
+      </c>
+      <c r="DH106">
+        <v>100</v>
+      </c>
+      <c r="DI106">
+        <v>48.28</v>
+      </c>
+      <c r="DJ106">
+        <v>93.09999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:114">
+      <c r="A107" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107">
+        <v>4529</v>
+      </c>
+      <c r="C107">
+        <v>780</v>
+      </c>
+      <c r="D107">
+        <v>86</v>
+      </c>
+      <c r="E107">
+        <v>935</v>
+      </c>
+      <c r="F107">
+        <v>41</v>
+      </c>
+      <c r="G107">
+        <v>503</v>
+      </c>
+      <c r="H107">
+        <v>17</v>
+      </c>
+      <c r="I107">
+        <v>109</v>
+      </c>
+      <c r="J107">
+        <v>6</v>
+      </c>
+      <c r="K107">
+        <v>24</v>
+      </c>
+      <c r="L107">
+        <v>26</v>
+      </c>
+      <c r="M107">
+        <v>119</v>
+      </c>
+      <c r="N107">
+        <v>2.07</v>
+      </c>
+      <c r="O107">
+        <v>3.73</v>
+      </c>
+      <c r="P107">
+        <v>7.29</v>
+      </c>
+      <c r="Q107">
+        <v>-2.94</v>
+      </c>
+      <c r="R107">
+        <v>1.67</v>
+      </c>
+      <c r="S107">
+        <v>11.88</v>
+      </c>
+      <c r="T107">
+        <v>13.74</v>
+      </c>
+      <c r="U107">
+        <v>2.07</v>
+      </c>
+      <c r="V107">
+        <v>3.73</v>
+      </c>
+      <c r="W107">
+        <v>67.23</v>
+      </c>
+      <c r="X107">
+        <v>74.79000000000001</v>
+      </c>
+      <c r="Y107">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="Z107">
+        <v>98.31999999999999</v>
+      </c>
+      <c r="AA107">
+        <v>99.16</v>
+      </c>
+      <c r="AB107">
+        <v>67.23</v>
+      </c>
+      <c r="AC107">
+        <v>74.79000000000001</v>
+      </c>
+      <c r="AD107">
+        <v>26</v>
+      </c>
+      <c r="AE107">
+        <v>4.4</v>
+      </c>
+      <c r="AF107">
+        <v>5.95</v>
+      </c>
+      <c r="AG107">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH107">
+        <v>-0.36</v>
+      </c>
+      <c r="AI107">
+        <v>1.62</v>
+      </c>
+      <c r="AJ107">
+        <v>13.03</v>
+      </c>
+      <c r="AK107">
+        <v>14.82</v>
+      </c>
+      <c r="AL107">
+        <v>4.4</v>
+      </c>
+      <c r="AM107">
+        <v>5.95</v>
+      </c>
+      <c r="AN107">
+        <v>76.92</v>
+      </c>
+      <c r="AO107">
+        <v>80.77</v>
+      </c>
+      <c r="AP107">
+        <v>50</v>
+      </c>
+      <c r="AQ107">
+        <v>96.15000000000001</v>
+      </c>
+      <c r="AR107">
+        <v>100</v>
+      </c>
+      <c r="AS107">
+        <v>76.92</v>
+      </c>
+      <c r="AT107">
+        <v>80.77</v>
+      </c>
+      <c r="AU107">
+        <v>43</v>
+      </c>
+      <c r="AV107">
+        <v>-5.96</v>
+      </c>
+      <c r="AW107">
+        <v>-0.03</v>
+      </c>
+      <c r="AX107">
+        <v>2.57</v>
+      </c>
+      <c r="AY107">
+        <v>-9.77</v>
+      </c>
+      <c r="AZ107">
+        <v>6.38</v>
+      </c>
+      <c r="BA107">
+        <v>-4.38</v>
+      </c>
+      <c r="BB107">
+        <v>1.7</v>
+      </c>
+      <c r="BC107">
+        <v>-9.279999999999999</v>
+      </c>
+      <c r="BD107">
+        <v>-3.52</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>48.84</v>
+      </c>
+      <c r="BG107">
+        <v>93.02</v>
+      </c>
+      <c r="BH107">
+        <v>16.28</v>
+      </c>
+      <c r="BI107">
+        <v>53.49</v>
+      </c>
+      <c r="BJ107">
+        <v>0</v>
+      </c>
+      <c r="BK107">
+        <v>20.93</v>
+      </c>
+      <c r="BL107">
+        <v>105</v>
+      </c>
+      <c r="BM107">
+        <v>-5.33</v>
+      </c>
+      <c r="BN107">
+        <v>-0.2</v>
+      </c>
+      <c r="BO107">
+        <v>2.09</v>
+      </c>
+      <c r="BP107">
+        <v>-9.49</v>
+      </c>
+      <c r="BQ107">
+        <v>5.48</v>
+      </c>
+      <c r="BR107">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="BS107">
+        <v>-3.29</v>
+      </c>
+      <c r="BT107">
+        <v>-11.21</v>
+      </c>
+      <c r="BU107">
+        <v>-6.37</v>
+      </c>
+      <c r="BV107">
+        <v>1.9</v>
+      </c>
+      <c r="BW107">
+        <v>47.62</v>
+      </c>
+      <c r="BX107">
+        <v>95.23999999999999</v>
+      </c>
+      <c r="BY107">
+        <v>0</v>
+      </c>
+      <c r="BZ107">
+        <v>20</v>
+      </c>
+      <c r="CA107">
+        <v>0</v>
+      </c>
+      <c r="CB107">
+        <v>5.71</v>
+      </c>
+      <c r="CC107">
+        <v>19</v>
+      </c>
+      <c r="CD107">
+        <v>-1.31</v>
+      </c>
+      <c r="CE107">
+        <v>2.77</v>
+      </c>
+      <c r="CF107">
+        <v>5.32</v>
+      </c>
+      <c r="CG107">
+        <v>-6.46</v>
+      </c>
+      <c r="CH107">
+        <v>4.19</v>
+      </c>
+      <c r="CI107">
+        <v>6.54</v>
+      </c>
+      <c r="CJ107">
+        <v>10.87</v>
+      </c>
+      <c r="CK107">
+        <v>-4.2</v>
+      </c>
+      <c r="CL107">
+        <v>-0.24</v>
+      </c>
+      <c r="CM107">
+        <v>26.32</v>
+      </c>
+      <c r="CN107">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="CO107">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="CP107">
+        <v>89.47</v>
+      </c>
+      <c r="CQ107">
+        <v>89.47</v>
+      </c>
+      <c r="CR107">
+        <v>10.53</v>
+      </c>
+      <c r="CS107">
+        <v>63.16</v>
+      </c>
+      <c r="CT107">
+        <v>138</v>
+      </c>
+      <c r="CU107">
+        <v>1.6</v>
+      </c>
+      <c r="CV107">
+        <v>3.59</v>
+      </c>
+      <c r="CW107">
+        <v>7.02</v>
+      </c>
+      <c r="CX107">
+        <v>-3.42</v>
+      </c>
+      <c r="CY107">
+        <v>2.02</v>
+      </c>
+      <c r="CZ107">
+        <v>11.15</v>
+      </c>
+      <c r="DA107">
+        <v>13.35</v>
+      </c>
+      <c r="DB107">
+        <v>1.21</v>
+      </c>
+      <c r="DC107">
+        <v>3.18</v>
+      </c>
+      <c r="DD107">
+        <v>61.59</v>
+      </c>
+      <c r="DE107">
+        <v>74.64</v>
+      </c>
+      <c r="DF107">
+        <v>67.39</v>
+      </c>
+      <c r="DG107">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="DH107">
+        <v>97.83</v>
+      </c>
+      <c r="DI107">
+        <v>59.42</v>
+      </c>
+      <c r="DJ107">
+        <v>73.19</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>日期</t>
   </si>
@@ -358,10 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250408</t>
-  </si>
-  <si>
-    <t>20250409</t>
+    <t>20250410</t>
   </si>
 </sst>
 </file>
@@ -719,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ107"/>
+  <dimension ref="A1:DJ108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35214,8 +35211,8 @@
       </c>
     </row>
     <row r="106" spans="1:114">
-      <c r="A106" t="s">
-        <v>114</v>
+      <c r="A106">
+        <v>20250408</v>
       </c>
       <c r="B106">
         <v>3299</v>
@@ -35558,8 +35555,8 @@
       </c>
     </row>
     <row r="107" spans="1:114">
-      <c r="A107" t="s">
-        <v>115</v>
+      <c r="A107">
+        <v>20250409</v>
       </c>
       <c r="B107">
         <v>4529</v>
@@ -35899,6 +35896,350 @@
       </c>
       <c r="DJ107">
         <v>73.19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:114">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108">
+        <v>4950</v>
+      </c>
+      <c r="C108">
+        <v>386</v>
+      </c>
+      <c r="D108">
+        <v>59</v>
+      </c>
+      <c r="E108">
+        <v>724</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>338</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>147</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>28</v>
+      </c>
+      <c r="L108">
+        <v>46</v>
+      </c>
+      <c r="M108">
+        <v>109</v>
+      </c>
+      <c r="N108">
+        <v>2.08</v>
+      </c>
+      <c r="O108">
+        <v>4.81</v>
+      </c>
+      <c r="P108">
+        <v>7.92</v>
+      </c>
+      <c r="Q108">
+        <v>0.18</v>
+      </c>
+      <c r="R108">
+        <v>2.76</v>
+      </c>
+      <c r="S108">
+        <v>12.82</v>
+      </c>
+      <c r="T108">
+        <v>15.86</v>
+      </c>
+      <c r="U108">
+        <v>2.08</v>
+      </c>
+      <c r="V108">
+        <v>4.81</v>
+      </c>
+      <c r="W108">
+        <v>69.72</v>
+      </c>
+      <c r="X108">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="Y108">
+        <v>69.72</v>
+      </c>
+      <c r="Z108">
+        <v>94.5</v>
+      </c>
+      <c r="AA108">
+        <v>99.08</v>
+      </c>
+      <c r="AB108">
+        <v>69.72</v>
+      </c>
+      <c r="AC108">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="AD108">
+        <v>24</v>
+      </c>
+      <c r="AE108">
+        <v>0.64</v>
+      </c>
+      <c r="AF108">
+        <v>5.06</v>
+      </c>
+      <c r="AG108">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="AH108">
+        <v>-1.31</v>
+      </c>
+      <c r="AI108">
+        <v>4.62</v>
+      </c>
+      <c r="AJ108">
+        <v>5.23</v>
+      </c>
+      <c r="AK108">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="AL108">
+        <v>0.64</v>
+      </c>
+      <c r="AM108">
+        <v>5.06</v>
+      </c>
+      <c r="AN108">
+        <v>45.83</v>
+      </c>
+      <c r="AO108">
+        <v>70.83</v>
+      </c>
+      <c r="AP108">
+        <v>66.67</v>
+      </c>
+      <c r="AQ108">
+        <v>75</v>
+      </c>
+      <c r="AR108">
+        <v>95.83</v>
+      </c>
+      <c r="AS108">
+        <v>45.83</v>
+      </c>
+      <c r="AT108">
+        <v>70.83</v>
+      </c>
+      <c r="AU108">
+        <v>18</v>
+      </c>
+      <c r="AV108">
+        <v>1.29</v>
+      </c>
+      <c r="AW108">
+        <v>3.9</v>
+      </c>
+      <c r="AX108">
+        <v>7.32</v>
+      </c>
+      <c r="AY108">
+        <v>-0.12</v>
+      </c>
+      <c r="AZ108">
+        <v>2.68</v>
+      </c>
+      <c r="BA108">
+        <v>10.27</v>
+      </c>
+      <c r="BB108">
+        <v>13.18</v>
+      </c>
+      <c r="BC108">
+        <v>-2.2</v>
+      </c>
+      <c r="BD108">
+        <v>0.32</v>
+      </c>
+      <c r="BE108">
+        <v>72.22</v>
+      </c>
+      <c r="BF108">
+        <v>94.44</v>
+      </c>
+      <c r="BG108">
+        <v>77.78</v>
+      </c>
+      <c r="BH108">
+        <v>100</v>
+      </c>
+      <c r="BI108">
+        <v>100</v>
+      </c>
+      <c r="BJ108">
+        <v>22.22</v>
+      </c>
+      <c r="BK108">
+        <v>50</v>
+      </c>
+      <c r="BL108">
+        <v>6</v>
+      </c>
+      <c r="BM108">
+        <v>-3.93</v>
+      </c>
+      <c r="BN108">
+        <v>-1.34</v>
+      </c>
+      <c r="BO108">
+        <v>3.85</v>
+      </c>
+      <c r="BP108">
+        <v>-6.26</v>
+      </c>
+      <c r="BQ108">
+        <v>2.74</v>
+      </c>
+      <c r="BR108">
+        <v>-8.119999999999999</v>
+      </c>
+      <c r="BS108">
+        <v>-5.67</v>
+      </c>
+      <c r="BT108">
+        <v>-10.43</v>
+      </c>
+      <c r="BU108">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="BV108">
+        <v>33.33</v>
+      </c>
+      <c r="BW108">
+        <v>50</v>
+      </c>
+      <c r="BX108">
+        <v>100</v>
+      </c>
+      <c r="BY108">
+        <v>16.67</v>
+      </c>
+      <c r="BZ108">
+        <v>16.67</v>
+      </c>
+      <c r="CA108">
+        <v>0</v>
+      </c>
+      <c r="CB108">
+        <v>0</v>
+      </c>
+      <c r="CC108">
+        <v>24</v>
+      </c>
+      <c r="CD108">
+        <v>-1.61</v>
+      </c>
+      <c r="CE108">
+        <v>0.43</v>
+      </c>
+      <c r="CF108">
+        <v>4.12</v>
+      </c>
+      <c r="CG108">
+        <v>-2.93</v>
+      </c>
+      <c r="CH108">
+        <v>2.23</v>
+      </c>
+      <c r="CI108">
+        <v>5.67</v>
+      </c>
+      <c r="CJ108">
+        <v>7.8</v>
+      </c>
+      <c r="CK108">
+        <v>-4.55</v>
+      </c>
+      <c r="CL108">
+        <v>-2.57</v>
+      </c>
+      <c r="CM108">
+        <v>33.33</v>
+      </c>
+      <c r="CN108">
+        <v>54.17</v>
+      </c>
+      <c r="CO108">
+        <v>54.17</v>
+      </c>
+      <c r="CP108">
+        <v>79.17</v>
+      </c>
+      <c r="CQ108">
+        <v>83.33</v>
+      </c>
+      <c r="CR108">
+        <v>8.33</v>
+      </c>
+      <c r="CS108">
+        <v>16.67</v>
+      </c>
+      <c r="CT108">
+        <v>133</v>
+      </c>
+      <c r="CU108">
+        <v>1.41</v>
+      </c>
+      <c r="CV108">
+        <v>4.02</v>
+      </c>
+      <c r="CW108">
+        <v>7.23</v>
+      </c>
+      <c r="CX108">
+        <v>-0.38</v>
+      </c>
+      <c r="CY108">
+        <v>2.67</v>
+      </c>
+      <c r="CZ108">
+        <v>11.53</v>
+      </c>
+      <c r="DA108">
+        <v>14.41</v>
+      </c>
+      <c r="DB108">
+        <v>0.88</v>
+      </c>
+      <c r="DC108">
+        <v>3.48</v>
+      </c>
+      <c r="DD108">
+        <v>63.16</v>
+      </c>
+      <c r="DE108">
+        <v>78.95</v>
+      </c>
+      <c r="DF108">
+        <v>66.92</v>
+      </c>
+      <c r="DG108">
+        <v>91.73</v>
+      </c>
+      <c r="DH108">
+        <v>96.23999999999999</v>
+      </c>
+      <c r="DI108">
+        <v>58.65</v>
+      </c>
+      <c r="DJ108">
+        <v>72.18000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -358,7 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250410</t>
+    <t>20250411</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ108"/>
+  <dimension ref="A1:DJ109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35899,8 +35899,8 @@
       </c>
     </row>
     <row r="108" spans="1:114">
-      <c r="A108" t="s">
-        <v>114</v>
+      <c r="A108">
+        <v>20250410</v>
       </c>
       <c r="B108">
         <v>4950</v>
@@ -36240,6 +36240,299 @@
       </c>
       <c r="DJ108">
         <v>72.18000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:114">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>3292</v>
+      </c>
+      <c r="C109">
+        <v>1913</v>
+      </c>
+      <c r="D109">
+        <v>189</v>
+      </c>
+      <c r="E109">
+        <v>365</v>
+      </c>
+      <c r="F109">
+        <v>123</v>
+      </c>
+      <c r="G109">
+        <v>196</v>
+      </c>
+      <c r="H109">
+        <v>64</v>
+      </c>
+      <c r="I109">
+        <v>78</v>
+      </c>
+      <c r="J109">
+        <v>7</v>
+      </c>
+      <c r="K109">
+        <v>20</v>
+      </c>
+      <c r="L109">
+        <v>30</v>
+      </c>
+      <c r="M109">
+        <v>147</v>
+      </c>
+      <c r="N109">
+        <v>0.99</v>
+      </c>
+      <c r="O109">
+        <v>0.38</v>
+      </c>
+      <c r="P109">
+        <v>4.64</v>
+      </c>
+      <c r="Q109">
+        <v>-2.41</v>
+      </c>
+      <c r="R109">
+        <v>-0.58</v>
+      </c>
+      <c r="S109">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="T109">
+        <v>7.92</v>
+      </c>
+      <c r="U109">
+        <v>0.99</v>
+      </c>
+      <c r="V109">
+        <v>0.38</v>
+      </c>
+      <c r="W109">
+        <v>44.9</v>
+      </c>
+      <c r="X109">
+        <v>42.18</v>
+      </c>
+      <c r="Y109">
+        <v>35.37</v>
+      </c>
+      <c r="Z109">
+        <v>93.2</v>
+      </c>
+      <c r="AA109">
+        <v>91.84</v>
+      </c>
+      <c r="AB109">
+        <v>44.9</v>
+      </c>
+      <c r="AC109">
+        <v>42.18</v>
+      </c>
+      <c r="AD109">
+        <v>28</v>
+      </c>
+      <c r="AE109">
+        <v>3.36</v>
+      </c>
+      <c r="AF109">
+        <v>1.2</v>
+      </c>
+      <c r="AG109">
+        <v>7.23</v>
+      </c>
+      <c r="AH109">
+        <v>-1.96</v>
+      </c>
+      <c r="AI109">
+        <v>-2.09</v>
+      </c>
+      <c r="AJ109">
+        <v>9.58</v>
+      </c>
+      <c r="AK109">
+        <v>7.26</v>
+      </c>
+      <c r="AL109">
+        <v>3.36</v>
+      </c>
+      <c r="AM109">
+        <v>1.2</v>
+      </c>
+      <c r="AN109">
+        <v>67.86</v>
+      </c>
+      <c r="AO109">
+        <v>53.57</v>
+      </c>
+      <c r="AP109">
+        <v>17.86</v>
+      </c>
+      <c r="AQ109">
+        <v>92.86</v>
+      </c>
+      <c r="AR109">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="AS109">
+        <v>67.86</v>
+      </c>
+      <c r="AT109">
+        <v>53.57</v>
+      </c>
+      <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>-4.83</v>
+      </c>
+      <c r="AW109">
+        <v>-6.4</v>
+      </c>
+      <c r="AX109">
+        <v>0.1</v>
+      </c>
+      <c r="AY109">
+        <v>-8.56</v>
+      </c>
+      <c r="AZ109">
+        <v>-1.68</v>
+      </c>
+      <c r="BA109">
+        <v>-1.12</v>
+      </c>
+      <c r="BB109">
+        <v>-2.85</v>
+      </c>
+      <c r="BC109">
+        <v>-14.8</v>
+      </c>
+      <c r="BD109">
+        <v>-16.18</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>25</v>
+      </c>
+      <c r="BG109">
+        <v>25</v>
+      </c>
+      <c r="BH109">
+        <v>50</v>
+      </c>
+      <c r="BI109">
+        <v>25</v>
+      </c>
+      <c r="BJ109">
+        <v>0</v>
+      </c>
+      <c r="BK109">
+        <v>0</v>
+      </c>
+      <c r="CC109">
+        <v>46</v>
+      </c>
+      <c r="CD109">
+        <v>-1.6</v>
+      </c>
+      <c r="CE109">
+        <v>-0.25</v>
+      </c>
+      <c r="CF109">
+        <v>2.97</v>
+      </c>
+      <c r="CG109">
+        <v>-3.31</v>
+      </c>
+      <c r="CH109">
+        <v>1.36</v>
+      </c>
+      <c r="CI109">
+        <v>1.63</v>
+      </c>
+      <c r="CJ109">
+        <v>2.92</v>
+      </c>
+      <c r="CK109">
+        <v>-4.47</v>
+      </c>
+      <c r="CL109">
+        <v>-3.16</v>
+      </c>
+      <c r="CM109">
+        <v>13.04</v>
+      </c>
+      <c r="CN109">
+        <v>56.52</v>
+      </c>
+      <c r="CO109">
+        <v>63.04</v>
+      </c>
+      <c r="CP109">
+        <v>63.04</v>
+      </c>
+      <c r="CQ109">
+        <v>82.61</v>
+      </c>
+      <c r="CR109">
+        <v>2.17</v>
+      </c>
+      <c r="CS109">
+        <v>19.57</v>
+      </c>
+      <c r="CT109">
+        <v>193</v>
+      </c>
+      <c r="CU109">
+        <v>0.37</v>
+      </c>
+      <c r="CV109">
+        <v>0.23</v>
+      </c>
+      <c r="CW109">
+        <v>4.24</v>
+      </c>
+      <c r="CX109">
+        <v>-2.62</v>
+      </c>
+      <c r="CY109">
+        <v>-0.12</v>
+      </c>
+      <c r="CZ109">
+        <v>6.95</v>
+      </c>
+      <c r="DA109">
+        <v>6.73</v>
+      </c>
+      <c r="DB109">
+        <v>-0.31</v>
+      </c>
+      <c r="DC109">
+        <v>-0.46</v>
+      </c>
+      <c r="DD109">
+        <v>37.31</v>
+      </c>
+      <c r="DE109">
+        <v>45.6</v>
+      </c>
+      <c r="DF109">
+        <v>41.97</v>
+      </c>
+      <c r="DG109">
+        <v>86.01000000000001</v>
+      </c>
+      <c r="DH109">
+        <v>89.64</v>
+      </c>
+      <c r="DI109">
+        <v>34.72</v>
+      </c>
+      <c r="DJ109">
+        <v>36.79</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>日期</t>
   </si>
@@ -358,7 +358,22 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250411</t>
+    <t>20250414</t>
+  </si>
+  <si>
+    <t>20250415</t>
+  </si>
+  <si>
+    <t>20250416</t>
+  </si>
+  <si>
+    <t>20250417</t>
+  </si>
+  <si>
+    <t>20250418</t>
+  </si>
+  <si>
+    <t>20250421</t>
   </si>
 </sst>
 </file>
@@ -716,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ109"/>
+  <dimension ref="A1:DJ115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36243,8 +36258,8 @@
       </c>
     </row>
     <row r="109" spans="1:114">
-      <c r="A109" t="s">
-        <v>114</v>
+      <c r="A109">
+        <v>20250411</v>
       </c>
       <c r="B109">
         <v>3292</v>
@@ -36533,6 +36548,1917 @@
       </c>
       <c r="DJ109">
         <v>36.79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:114">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110">
+        <v>4552</v>
+      </c>
+      <c r="C110">
+        <v>757</v>
+      </c>
+      <c r="D110">
+        <v>84</v>
+      </c>
+      <c r="E110">
+        <v>412</v>
+      </c>
+      <c r="F110">
+        <v>18</v>
+      </c>
+      <c r="G110">
+        <v>206</v>
+      </c>
+      <c r="H110">
+        <v>7</v>
+      </c>
+      <c r="I110">
+        <v>101</v>
+      </c>
+      <c r="J110">
+        <v>2</v>
+      </c>
+      <c r="K110">
+        <v>21</v>
+      </c>
+      <c r="L110">
+        <v>31</v>
+      </c>
+      <c r="M110">
+        <v>79</v>
+      </c>
+      <c r="N110">
+        <v>2.83</v>
+      </c>
+      <c r="O110">
+        <v>2.81</v>
+      </c>
+      <c r="P110">
+        <v>6.67</v>
+      </c>
+      <c r="Q110">
+        <v>-0.32</v>
+      </c>
+      <c r="R110">
+        <v>0.05</v>
+      </c>
+      <c r="S110">
+        <v>11.84</v>
+      </c>
+      <c r="T110">
+        <v>11.83</v>
+      </c>
+      <c r="U110">
+        <v>2.83</v>
+      </c>
+      <c r="V110">
+        <v>2.81</v>
+      </c>
+      <c r="W110">
+        <v>74.68000000000001</v>
+      </c>
+      <c r="X110">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="Y110">
+        <v>43.04</v>
+      </c>
+      <c r="Z110">
+        <v>92.41</v>
+      </c>
+      <c r="AA110">
+        <v>92.41</v>
+      </c>
+      <c r="AB110">
+        <v>74.68000000000001</v>
+      </c>
+      <c r="AC110">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="AD110">
+        <v>21</v>
+      </c>
+      <c r="AE110">
+        <v>1.64</v>
+      </c>
+      <c r="AF110">
+        <v>1.69</v>
+      </c>
+      <c r="AG110">
+        <v>6.43</v>
+      </c>
+      <c r="AH110">
+        <v>-1.95</v>
+      </c>
+      <c r="AI110">
+        <v>0.11</v>
+      </c>
+      <c r="AJ110">
+        <v>5.13</v>
+      </c>
+      <c r="AK110">
+        <v>5.15</v>
+      </c>
+      <c r="AL110">
+        <v>1.64</v>
+      </c>
+      <c r="AM110">
+        <v>1.69</v>
+      </c>
+      <c r="AN110">
+        <v>61.9</v>
+      </c>
+      <c r="AO110">
+        <v>57.14</v>
+      </c>
+      <c r="AP110">
+        <v>38.1</v>
+      </c>
+      <c r="AQ110">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AR110">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AS110">
+        <v>61.9</v>
+      </c>
+      <c r="AT110">
+        <v>57.14</v>
+      </c>
+      <c r="BL110">
+        <v>7</v>
+      </c>
+      <c r="BM110">
+        <v>-7.16</v>
+      </c>
+      <c r="BN110">
+        <v>-1.54</v>
+      </c>
+      <c r="BO110">
+        <v>4.01</v>
+      </c>
+      <c r="BP110">
+        <v>-7.64</v>
+      </c>
+      <c r="BQ110">
+        <v>6.11</v>
+      </c>
+      <c r="BR110">
+        <v>-13.72</v>
+      </c>
+      <c r="BS110">
+        <v>-8.470000000000001</v>
+      </c>
+      <c r="BT110">
+        <v>-15.74</v>
+      </c>
+      <c r="BU110">
+        <v>-10.62</v>
+      </c>
+      <c r="BV110">
+        <v>0</v>
+      </c>
+      <c r="BW110">
+        <v>28.57</v>
+      </c>
+      <c r="BX110">
+        <v>100</v>
+      </c>
+      <c r="BY110">
+        <v>0</v>
+      </c>
+      <c r="BZ110">
+        <v>0</v>
+      </c>
+      <c r="CA110">
+        <v>0</v>
+      </c>
+      <c r="CB110">
+        <v>0</v>
+      </c>
+      <c r="CC110">
+        <v>27</v>
+      </c>
+      <c r="CD110">
+        <v>-0.78</v>
+      </c>
+      <c r="CE110">
+        <v>0.9</v>
+      </c>
+      <c r="CF110">
+        <v>3.97</v>
+      </c>
+      <c r="CG110">
+        <v>-2.77</v>
+      </c>
+      <c r="CH110">
+        <v>1.73</v>
+      </c>
+      <c r="CI110">
+        <v>3.39</v>
+      </c>
+      <c r="CJ110">
+        <v>5.14</v>
+      </c>
+      <c r="CK110">
+        <v>-4.95</v>
+      </c>
+      <c r="CL110">
+        <v>-3.34</v>
+      </c>
+      <c r="CM110">
+        <v>37.04</v>
+      </c>
+      <c r="CN110">
+        <v>44.44</v>
+      </c>
+      <c r="CO110">
+        <v>59.26</v>
+      </c>
+      <c r="CP110">
+        <v>81.48</v>
+      </c>
+      <c r="CQ110">
+        <v>81.48</v>
+      </c>
+      <c r="CR110">
+        <v>7.41</v>
+      </c>
+      <c r="CS110">
+        <v>22.22</v>
+      </c>
+      <c r="CT110">
+        <v>106</v>
+      </c>
+      <c r="CU110">
+        <v>1.91</v>
+      </c>
+      <c r="CV110">
+        <v>2.33</v>
+      </c>
+      <c r="CW110">
+        <v>5.98</v>
+      </c>
+      <c r="CX110">
+        <v>-0.95</v>
+      </c>
+      <c r="CY110">
+        <v>0.47</v>
+      </c>
+      <c r="CZ110">
+        <v>9.69</v>
+      </c>
+      <c r="DA110">
+        <v>10.12</v>
+      </c>
+      <c r="DB110">
+        <v>0.85</v>
+      </c>
+      <c r="DC110">
+        <v>1.25</v>
+      </c>
+      <c r="DD110">
+        <v>65.09</v>
+      </c>
+      <c r="DE110">
+        <v>65.09</v>
+      </c>
+      <c r="DF110">
+        <v>47.17</v>
+      </c>
+      <c r="DG110">
+        <v>89.62</v>
+      </c>
+      <c r="DH110">
+        <v>89.62</v>
+      </c>
+      <c r="DI110">
+        <v>57.55</v>
+      </c>
+      <c r="DJ110">
+        <v>59.43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:114">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111">
+        <v>2419</v>
+      </c>
+      <c r="C111">
+        <v>2814</v>
+      </c>
+      <c r="D111">
+        <v>158</v>
+      </c>
+      <c r="E111">
+        <v>189</v>
+      </c>
+      <c r="F111">
+        <v>115</v>
+      </c>
+      <c r="G111">
+        <v>106</v>
+      </c>
+      <c r="H111">
+        <v>42</v>
+      </c>
+      <c r="I111">
+        <v>58</v>
+      </c>
+      <c r="J111">
+        <v>8</v>
+      </c>
+      <c r="K111">
+        <v>12</v>
+      </c>
+      <c r="L111">
+        <v>24</v>
+      </c>
+      <c r="M111">
+        <v>101</v>
+      </c>
+      <c r="N111">
+        <v>1.61</v>
+      </c>
+      <c r="O111">
+        <v>-0.38</v>
+      </c>
+      <c r="P111">
+        <v>4.4</v>
+      </c>
+      <c r="Q111">
+        <v>-3.09</v>
+      </c>
+      <c r="R111">
+        <v>-1.96</v>
+      </c>
+      <c r="S111">
+        <v>9.5</v>
+      </c>
+      <c r="T111">
+        <v>7.39</v>
+      </c>
+      <c r="U111">
+        <v>1.61</v>
+      </c>
+      <c r="V111">
+        <v>-0.38</v>
+      </c>
+      <c r="W111">
+        <v>62.38</v>
+      </c>
+      <c r="X111">
+        <v>39.6</v>
+      </c>
+      <c r="Y111">
+        <v>22.77</v>
+      </c>
+      <c r="Z111">
+        <v>97.03</v>
+      </c>
+      <c r="AA111">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="AB111">
+        <v>62.38</v>
+      </c>
+      <c r="AC111">
+        <v>39.6</v>
+      </c>
+      <c r="AD111">
+        <v>21</v>
+      </c>
+      <c r="AE111">
+        <v>2.53</v>
+      </c>
+      <c r="AF111">
+        <v>0.08</v>
+      </c>
+      <c r="AG111">
+        <v>6.01</v>
+      </c>
+      <c r="AH111">
+        <v>-3.39</v>
+      </c>
+      <c r="AI111">
+        <v>-2.43</v>
+      </c>
+      <c r="AJ111">
+        <v>7.24</v>
+      </c>
+      <c r="AK111">
+        <v>4.68</v>
+      </c>
+      <c r="AL111">
+        <v>2.53</v>
+      </c>
+      <c r="AM111">
+        <v>0.08</v>
+      </c>
+      <c r="AN111">
+        <v>61.9</v>
+      </c>
+      <c r="AO111">
+        <v>52.38</v>
+      </c>
+      <c r="AP111">
+        <v>23.81</v>
+      </c>
+      <c r="AQ111">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="AR111">
+        <v>80.95</v>
+      </c>
+      <c r="AS111">
+        <v>61.9</v>
+      </c>
+      <c r="AT111">
+        <v>52.38</v>
+      </c>
+      <c r="AU111">
+        <v>5</v>
+      </c>
+      <c r="AV111">
+        <v>-3.47</v>
+      </c>
+      <c r="AW111">
+        <v>-4.91</v>
+      </c>
+      <c r="AX111">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AY111">
+        <v>-7.3</v>
+      </c>
+      <c r="AZ111">
+        <v>-1.45</v>
+      </c>
+      <c r="BA111">
+        <v>1.74</v>
+      </c>
+      <c r="BB111">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="BC111">
+        <v>-9.49</v>
+      </c>
+      <c r="BD111">
+        <v>-10.76</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>40</v>
+      </c>
+      <c r="BG111">
+        <v>40</v>
+      </c>
+      <c r="BH111">
+        <v>60</v>
+      </c>
+      <c r="BI111">
+        <v>40</v>
+      </c>
+      <c r="BJ111">
+        <v>0</v>
+      </c>
+      <c r="BK111">
+        <v>0</v>
+      </c>
+      <c r="BL111">
+        <v>2</v>
+      </c>
+      <c r="BM111">
+        <v>-2.5</v>
+      </c>
+      <c r="BN111">
+        <v>-8.869999999999999</v>
+      </c>
+      <c r="BO111">
+        <v>-1.28</v>
+      </c>
+      <c r="BP111">
+        <v>-9.220000000000001</v>
+      </c>
+      <c r="BQ111">
+        <v>-6.53</v>
+      </c>
+      <c r="BR111">
+        <v>-5.08</v>
+      </c>
+      <c r="BS111">
+        <v>-11.32</v>
+      </c>
+      <c r="BT111">
+        <v>-9.630000000000001</v>
+      </c>
+      <c r="BU111">
+        <v>-15.54</v>
+      </c>
+      <c r="BV111">
+        <v>0</v>
+      </c>
+      <c r="BW111">
+        <v>0</v>
+      </c>
+      <c r="BX111">
+        <v>0</v>
+      </c>
+      <c r="BY111">
+        <v>0</v>
+      </c>
+      <c r="BZ111">
+        <v>0</v>
+      </c>
+      <c r="CA111">
+        <v>0</v>
+      </c>
+      <c r="CB111">
+        <v>0</v>
+      </c>
+      <c r="CC111">
+        <v>31</v>
+      </c>
+      <c r="CD111">
+        <v>-1.03</v>
+      </c>
+      <c r="CE111">
+        <v>-2.3</v>
+      </c>
+      <c r="CF111">
+        <v>2.24</v>
+      </c>
+      <c r="CG111">
+        <v>-5.41</v>
+      </c>
+      <c r="CH111">
+        <v>-1.24</v>
+      </c>
+      <c r="CI111">
+        <v>4.7</v>
+      </c>
+      <c r="CJ111">
+        <v>3.44</v>
+      </c>
+      <c r="CK111">
+        <v>-4.95</v>
+      </c>
+      <c r="CL111">
+        <v>-6.19</v>
+      </c>
+      <c r="CM111">
+        <v>29.03</v>
+      </c>
+      <c r="CN111">
+        <v>22.58</v>
+      </c>
+      <c r="CO111">
+        <v>25.81</v>
+      </c>
+      <c r="CP111">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="CQ111">
+        <v>67.73999999999999</v>
+      </c>
+      <c r="CR111">
+        <v>9.68</v>
+      </c>
+      <c r="CS111">
+        <v>9.68</v>
+      </c>
+      <c r="CT111">
+        <v>132</v>
+      </c>
+      <c r="CU111">
+        <v>0.99</v>
+      </c>
+      <c r="CV111">
+        <v>-0.83</v>
+      </c>
+      <c r="CW111">
+        <v>3.89</v>
+      </c>
+      <c r="CX111">
+        <v>-3.63</v>
+      </c>
+      <c r="CY111">
+        <v>-1.79</v>
+      </c>
+      <c r="CZ111">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="DA111">
+        <v>6.47</v>
+      </c>
+      <c r="DB111">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DC111">
+        <v>-1.75</v>
+      </c>
+      <c r="DD111">
+        <v>54.55</v>
+      </c>
+      <c r="DE111">
+        <v>35.61</v>
+      </c>
+      <c r="DF111">
+        <v>23.48</v>
+      </c>
+      <c r="DG111">
+        <v>94.7</v>
+      </c>
+      <c r="DH111">
+        <v>84.84999999999999</v>
+      </c>
+      <c r="DI111">
+        <v>50</v>
+      </c>
+      <c r="DJ111">
+        <v>32.58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:114">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112">
+        <v>1010</v>
+      </c>
+      <c r="C112">
+        <v>4314</v>
+      </c>
+      <c r="D112">
+        <v>71</v>
+      </c>
+      <c r="E112">
+        <v>106</v>
+      </c>
+      <c r="F112">
+        <v>189</v>
+      </c>
+      <c r="G112">
+        <v>66</v>
+      </c>
+      <c r="H112">
+        <v>38</v>
+      </c>
+      <c r="I112">
+        <v>46</v>
+      </c>
+      <c r="J112">
+        <v>4</v>
+      </c>
+      <c r="K112">
+        <v>22</v>
+      </c>
+      <c r="L112">
+        <v>15</v>
+      </c>
+      <c r="M112">
+        <v>58</v>
+      </c>
+      <c r="N112">
+        <v>2.16</v>
+      </c>
+      <c r="O112">
+        <v>1.23</v>
+      </c>
+      <c r="P112">
+        <v>6.1</v>
+      </c>
+      <c r="Q112">
+        <v>-2.15</v>
+      </c>
+      <c r="R112">
+        <v>-0.86</v>
+      </c>
+      <c r="S112">
+        <v>9.93</v>
+      </c>
+      <c r="T112">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="U112">
+        <v>2.16</v>
+      </c>
+      <c r="V112">
+        <v>1.23</v>
+      </c>
+      <c r="W112">
+        <v>53.45</v>
+      </c>
+      <c r="X112">
+        <v>53.45</v>
+      </c>
+      <c r="Y112">
+        <v>25.86</v>
+      </c>
+      <c r="Z112">
+        <v>96.55</v>
+      </c>
+      <c r="AA112">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="AB112">
+        <v>53.45</v>
+      </c>
+      <c r="AC112">
+        <v>53.45</v>
+      </c>
+      <c r="AD112">
+        <v>12</v>
+      </c>
+      <c r="AE112">
+        <v>3.31</v>
+      </c>
+      <c r="AF112">
+        <v>4.04</v>
+      </c>
+      <c r="AG112">
+        <v>7.46</v>
+      </c>
+      <c r="AH112">
+        <v>-1.39</v>
+      </c>
+      <c r="AI112">
+        <v>0.76</v>
+      </c>
+      <c r="AJ112">
+        <v>7.22</v>
+      </c>
+      <c r="AK112">
+        <v>7.97</v>
+      </c>
+      <c r="AL112">
+        <v>3.31</v>
+      </c>
+      <c r="AM112">
+        <v>4.04</v>
+      </c>
+      <c r="AN112">
+        <v>66.67</v>
+      </c>
+      <c r="AO112">
+        <v>66.67</v>
+      </c>
+      <c r="AP112">
+        <v>33.33</v>
+      </c>
+      <c r="AQ112">
+        <v>91.67</v>
+      </c>
+      <c r="AR112">
+        <v>83.33</v>
+      </c>
+      <c r="AS112">
+        <v>66.67</v>
+      </c>
+      <c r="AT112">
+        <v>66.67</v>
+      </c>
+      <c r="BL112">
+        <v>8</v>
+      </c>
+      <c r="BM112">
+        <v>-5.73</v>
+      </c>
+      <c r="BN112">
+        <v>-3.77</v>
+      </c>
+      <c r="BO112">
+        <v>0.8</v>
+      </c>
+      <c r="BP112">
+        <v>-8.029999999999999</v>
+      </c>
+      <c r="BQ112">
+        <v>2.15</v>
+      </c>
+      <c r="BR112">
+        <v>-13.83</v>
+      </c>
+      <c r="BS112">
+        <v>-12.13</v>
+      </c>
+      <c r="BT112">
+        <v>-15.02</v>
+      </c>
+      <c r="BU112">
+        <v>-13.33</v>
+      </c>
+      <c r="BV112">
+        <v>0</v>
+      </c>
+      <c r="BW112">
+        <v>12.5</v>
+      </c>
+      <c r="BX112">
+        <v>50</v>
+      </c>
+      <c r="BY112">
+        <v>0</v>
+      </c>
+      <c r="BZ112">
+        <v>0</v>
+      </c>
+      <c r="CA112">
+        <v>0</v>
+      </c>
+      <c r="CB112">
+        <v>0</v>
+      </c>
+      <c r="CC112">
+        <v>24</v>
+      </c>
+      <c r="CD112">
+        <v>-2.13</v>
+      </c>
+      <c r="CE112">
+        <v>-2.51</v>
+      </c>
+      <c r="CF112">
+        <v>0.73</v>
+      </c>
+      <c r="CG112">
+        <v>-5.71</v>
+      </c>
+      <c r="CH112">
+        <v>-0.39</v>
+      </c>
+      <c r="CI112">
+        <v>1.47</v>
+      </c>
+      <c r="CJ112">
+        <v>1.03</v>
+      </c>
+      <c r="CK112">
+        <v>-6.87</v>
+      </c>
+      <c r="CL112">
+        <v>-7.3</v>
+      </c>
+      <c r="CM112">
+        <v>8.33</v>
+      </c>
+      <c r="CN112">
+        <v>16.67</v>
+      </c>
+      <c r="CO112">
+        <v>25</v>
+      </c>
+      <c r="CP112">
+        <v>79.17</v>
+      </c>
+      <c r="CQ112">
+        <v>62.5</v>
+      </c>
+      <c r="CR112">
+        <v>0</v>
+      </c>
+      <c r="CS112">
+        <v>4.17</v>
+      </c>
+      <c r="CT112">
+        <v>82</v>
+      </c>
+      <c r="CU112">
+        <v>0.9</v>
+      </c>
+      <c r="CV112">
+        <v>0.14</v>
+      </c>
+      <c r="CW112">
+        <v>4.53</v>
+      </c>
+      <c r="CX112">
+        <v>-3.19</v>
+      </c>
+      <c r="CY112">
+        <v>-0.72</v>
+      </c>
+      <c r="CZ112">
+        <v>7.46</v>
+      </c>
+      <c r="DA112">
+        <v>6.64</v>
+      </c>
+      <c r="DB112">
+        <v>-0.49</v>
+      </c>
+      <c r="DC112">
+        <v>-1.26</v>
+      </c>
+      <c r="DD112">
+        <v>40.24</v>
+      </c>
+      <c r="DE112">
+        <v>42.68</v>
+      </c>
+      <c r="DF112">
+        <v>25.61</v>
+      </c>
+      <c r="DG112">
+        <v>91.45999999999999</v>
+      </c>
+      <c r="DH112">
+        <v>76.83</v>
+      </c>
+      <c r="DI112">
+        <v>37.8</v>
+      </c>
+      <c r="DJ112">
+        <v>39.02</v>
+      </c>
+    </row>
+    <row r="113" spans="1:114">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113">
+        <v>3127</v>
+      </c>
+      <c r="C113">
+        <v>2039</v>
+      </c>
+      <c r="D113">
+        <v>229</v>
+      </c>
+      <c r="E113">
+        <v>246</v>
+      </c>
+      <c r="F113">
+        <v>37</v>
+      </c>
+      <c r="G113">
+        <v>144</v>
+      </c>
+      <c r="H113">
+        <v>11</v>
+      </c>
+      <c r="I113">
+        <v>86</v>
+      </c>
+      <c r="J113">
+        <v>2</v>
+      </c>
+      <c r="K113">
+        <v>25</v>
+      </c>
+      <c r="L113">
+        <v>20</v>
+      </c>
+      <c r="M113">
+        <v>46</v>
+      </c>
+      <c r="N113">
+        <v>1.29</v>
+      </c>
+      <c r="O113">
+        <v>3.94</v>
+      </c>
+      <c r="P113">
+        <v>6.58</v>
+      </c>
+      <c r="Q113">
+        <v>-1.46</v>
+      </c>
+      <c r="R113">
+        <v>2.7</v>
+      </c>
+      <c r="S113">
+        <v>10.12</v>
+      </c>
+      <c r="T113">
+        <v>13.05</v>
+      </c>
+      <c r="U113">
+        <v>1.29</v>
+      </c>
+      <c r="V113">
+        <v>3.94</v>
+      </c>
+      <c r="W113">
+        <v>43.48</v>
+      </c>
+      <c r="X113">
+        <v>65.22</v>
+      </c>
+      <c r="Y113">
+        <v>65.22</v>
+      </c>
+      <c r="Z113">
+        <v>93.48</v>
+      </c>
+      <c r="AA113">
+        <v>93.48</v>
+      </c>
+      <c r="AB113">
+        <v>43.48</v>
+      </c>
+      <c r="AC113">
+        <v>65.22</v>
+      </c>
+      <c r="AD113">
+        <v>22</v>
+      </c>
+      <c r="AE113">
+        <v>2.4</v>
+      </c>
+      <c r="AF113">
+        <v>5.18</v>
+      </c>
+      <c r="AG113">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH113">
+        <v>-1.01</v>
+      </c>
+      <c r="AI113">
+        <v>2.87</v>
+      </c>
+      <c r="AJ113">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="AK113">
+        <v>12.54</v>
+      </c>
+      <c r="AL113">
+        <v>2.4</v>
+      </c>
+      <c r="AM113">
+        <v>5.18</v>
+      </c>
+      <c r="AN113">
+        <v>54.55</v>
+      </c>
+      <c r="AO113">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AP113">
+        <v>63.64</v>
+      </c>
+      <c r="AQ113">
+        <v>90.91</v>
+      </c>
+      <c r="AR113">
+        <v>90.91</v>
+      </c>
+      <c r="AS113">
+        <v>54.55</v>
+      </c>
+      <c r="AT113">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AU113">
+        <v>2</v>
+      </c>
+      <c r="AV113">
+        <v>-0.55</v>
+      </c>
+      <c r="AW113">
+        <v>-1.02</v>
+      </c>
+      <c r="AX113">
+        <v>6.55</v>
+      </c>
+      <c r="AY113">
+        <v>-4.05</v>
+      </c>
+      <c r="AZ113">
+        <v>-0.48</v>
+      </c>
+      <c r="BA113">
+        <v>1.48</v>
+      </c>
+      <c r="BB113">
+        <v>1.02</v>
+      </c>
+      <c r="BC113">
+        <v>-3.73</v>
+      </c>
+      <c r="BD113">
+        <v>-4.21</v>
+      </c>
+      <c r="BE113">
+        <v>50</v>
+      </c>
+      <c r="BF113">
+        <v>0</v>
+      </c>
+      <c r="BG113">
+        <v>50</v>
+      </c>
+      <c r="BH113">
+        <v>100</v>
+      </c>
+      <c r="BI113">
+        <v>50</v>
+      </c>
+      <c r="BJ113">
+        <v>0</v>
+      </c>
+      <c r="BK113">
+        <v>0</v>
+      </c>
+      <c r="BL113">
+        <v>4</v>
+      </c>
+      <c r="BM113">
+        <v>-3.22</v>
+      </c>
+      <c r="BN113">
+        <v>-3.58</v>
+      </c>
+      <c r="BO113">
+        <v>0.28</v>
+      </c>
+      <c r="BP113">
+        <v>-4.48</v>
+      </c>
+      <c r="BQ113">
+        <v>-0.36</v>
+      </c>
+      <c r="BR113">
+        <v>-9.640000000000001</v>
+      </c>
+      <c r="BS113">
+        <v>-9.98</v>
+      </c>
+      <c r="BT113">
+        <v>-10.63</v>
+      </c>
+      <c r="BU113">
+        <v>-10.97</v>
+      </c>
+      <c r="BV113">
+        <v>0</v>
+      </c>
+      <c r="BW113">
+        <v>0</v>
+      </c>
+      <c r="BX113">
+        <v>50</v>
+      </c>
+      <c r="BY113">
+        <v>0</v>
+      </c>
+      <c r="BZ113">
+        <v>0</v>
+      </c>
+      <c r="CA113">
+        <v>0</v>
+      </c>
+      <c r="CB113">
+        <v>0</v>
+      </c>
+      <c r="CC113">
+        <v>15</v>
+      </c>
+      <c r="CD113">
+        <v>-1.83</v>
+      </c>
+      <c r="CE113">
+        <v>0.03</v>
+      </c>
+      <c r="CF113">
+        <v>3.28</v>
+      </c>
+      <c r="CG113">
+        <v>-4.73</v>
+      </c>
+      <c r="CH113">
+        <v>1.88</v>
+      </c>
+      <c r="CI113">
+        <v>-2.24</v>
+      </c>
+      <c r="CJ113">
+        <v>-0.41</v>
+      </c>
+      <c r="CK113">
+        <v>-7.28</v>
+      </c>
+      <c r="CL113">
+        <v>-5.53</v>
+      </c>
+      <c r="CM113">
+        <v>13.33</v>
+      </c>
+      <c r="CN113">
+        <v>46.67</v>
+      </c>
+      <c r="CO113">
+        <v>60</v>
+      </c>
+      <c r="CP113">
+        <v>40</v>
+      </c>
+      <c r="CQ113">
+        <v>53.33</v>
+      </c>
+      <c r="CR113">
+        <v>6.67</v>
+      </c>
+      <c r="CS113">
+        <v>20</v>
+      </c>
+      <c r="CT113">
+        <v>61</v>
+      </c>
+      <c r="CU113">
+        <v>0.52</v>
+      </c>
+      <c r="CV113">
+        <v>2.98</v>
+      </c>
+      <c r="CW113">
+        <v>5.77</v>
+      </c>
+      <c r="CX113">
+        <v>-2.26</v>
+      </c>
+      <c r="CY113">
+        <v>2.5</v>
+      </c>
+      <c r="CZ113">
+        <v>7.08</v>
+      </c>
+      <c r="DA113">
+        <v>9.74</v>
+      </c>
+      <c r="DB113">
+        <v>-0.82</v>
+      </c>
+      <c r="DC113">
+        <v>1.61</v>
+      </c>
+      <c r="DD113">
+        <v>36.07</v>
+      </c>
+      <c r="DE113">
+        <v>60.66</v>
+      </c>
+      <c r="DF113">
+        <v>63.93</v>
+      </c>
+      <c r="DG113">
+        <v>80.33</v>
+      </c>
+      <c r="DH113">
+        <v>83.61</v>
+      </c>
+      <c r="DI113">
+        <v>34.43</v>
+      </c>
+      <c r="DJ113">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:114">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114">
+        <v>2392</v>
+      </c>
+      <c r="C114">
+        <v>2741</v>
+      </c>
+      <c r="D114">
+        <v>261</v>
+      </c>
+      <c r="E114">
+        <v>171</v>
+      </c>
+      <c r="F114">
+        <v>188</v>
+      </c>
+      <c r="G114">
+        <v>102</v>
+      </c>
+      <c r="H114">
+        <v>81</v>
+      </c>
+      <c r="I114">
+        <v>56</v>
+      </c>
+      <c r="J114">
+        <v>9</v>
+      </c>
+      <c r="K114">
+        <v>18</v>
+      </c>
+      <c r="L114">
+        <v>21</v>
+      </c>
+      <c r="M114">
+        <v>84</v>
+      </c>
+      <c r="N114">
+        <v>1.26</v>
+      </c>
+      <c r="O114">
+        <v>-0.26</v>
+      </c>
+      <c r="P114">
+        <v>5.34</v>
+      </c>
+      <c r="Q114">
+        <v>-3.26</v>
+      </c>
+      <c r="R114">
+        <v>-1.49</v>
+      </c>
+      <c r="S114">
+        <v>10.76</v>
+      </c>
+      <c r="T114">
+        <v>9.1</v>
+      </c>
+      <c r="U114">
+        <v>1.26</v>
+      </c>
+      <c r="V114">
+        <v>-0.26</v>
+      </c>
+      <c r="W114">
+        <v>50</v>
+      </c>
+      <c r="X114">
+        <v>40.48</v>
+      </c>
+      <c r="Y114">
+        <v>28.57</v>
+      </c>
+      <c r="Z114">
+        <v>98.81</v>
+      </c>
+      <c r="AA114">
+        <v>91.67</v>
+      </c>
+      <c r="AB114">
+        <v>50</v>
+      </c>
+      <c r="AC114">
+        <v>40.48</v>
+      </c>
+      <c r="AD114">
+        <v>25</v>
+      </c>
+      <c r="AE114">
+        <v>1.88</v>
+      </c>
+      <c r="AF114">
+        <v>0.79</v>
+      </c>
+      <c r="AG114">
+        <v>7.34</v>
+      </c>
+      <c r="AH114">
+        <v>-3.14</v>
+      </c>
+      <c r="AI114">
+        <v>-1.06</v>
+      </c>
+      <c r="AJ114">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="AK114">
+        <v>6.96</v>
+      </c>
+      <c r="AL114">
+        <v>1.88</v>
+      </c>
+      <c r="AM114">
+        <v>0.79</v>
+      </c>
+      <c r="AN114">
+        <v>56</v>
+      </c>
+      <c r="AO114">
+        <v>56</v>
+      </c>
+      <c r="AP114">
+        <v>36</v>
+      </c>
+      <c r="AQ114">
+        <v>96</v>
+      </c>
+      <c r="AR114">
+        <v>76</v>
+      </c>
+      <c r="AS114">
+        <v>56</v>
+      </c>
+      <c r="AT114">
+        <v>56</v>
+      </c>
+      <c r="AU114">
+        <v>1</v>
+      </c>
+      <c r="AV114">
+        <v>-1.15</v>
+      </c>
+      <c r="AW114">
+        <v>-3.65</v>
+      </c>
+      <c r="AX114">
+        <v>0.38</v>
+      </c>
+      <c r="AY114">
+        <v>-4.41</v>
+      </c>
+      <c r="AZ114">
+        <v>-2.52</v>
+      </c>
+      <c r="BA114">
+        <v>5.32</v>
+      </c>
+      <c r="BB114">
+        <v>2.66</v>
+      </c>
+      <c r="BC114">
+        <v>-2.83</v>
+      </c>
+      <c r="BD114">
+        <v>-5.28</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>0</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>100</v>
+      </c>
+      <c r="BI114">
+        <v>100</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BL114">
+        <v>2</v>
+      </c>
+      <c r="BM114">
+        <v>-6.25</v>
+      </c>
+      <c r="BN114">
+        <v>-8.26</v>
+      </c>
+      <c r="BO114">
+        <v>-1.32</v>
+      </c>
+      <c r="BP114">
+        <v>-9.460000000000001</v>
+      </c>
+      <c r="BQ114">
+        <v>-2.01</v>
+      </c>
+      <c r="BR114">
+        <v>-14.32</v>
+      </c>
+      <c r="BS114">
+        <v>-16.26</v>
+      </c>
+      <c r="BT114">
+        <v>-15.26</v>
+      </c>
+      <c r="BU114">
+        <v>-17.13</v>
+      </c>
+      <c r="BV114">
+        <v>0</v>
+      </c>
+      <c r="BW114">
+        <v>0</v>
+      </c>
+      <c r="BX114">
+        <v>50</v>
+      </c>
+      <c r="BY114">
+        <v>0</v>
+      </c>
+      <c r="BZ114">
+        <v>0</v>
+      </c>
+      <c r="CA114">
+        <v>0</v>
+      </c>
+      <c r="CB114">
+        <v>0</v>
+      </c>
+      <c r="CC114">
+        <v>20</v>
+      </c>
+      <c r="CD114">
+        <v>-0.67</v>
+      </c>
+      <c r="CE114">
+        <v>-1.77</v>
+      </c>
+      <c r="CF114">
+        <v>1.48</v>
+      </c>
+      <c r="CG114">
+        <v>-3.47</v>
+      </c>
+      <c r="CH114">
+        <v>-1.12</v>
+      </c>
+      <c r="CI114">
+        <v>6.03</v>
+      </c>
+      <c r="CJ114">
+        <v>4.83</v>
+      </c>
+      <c r="CK114">
+        <v>-4.52</v>
+      </c>
+      <c r="CL114">
+        <v>-5.58</v>
+      </c>
+      <c r="CM114">
+        <v>20</v>
+      </c>
+      <c r="CN114">
+        <v>30</v>
+      </c>
+      <c r="CO114">
+        <v>30</v>
+      </c>
+      <c r="CP114">
+        <v>100</v>
+      </c>
+      <c r="CQ114">
+        <v>95</v>
+      </c>
+      <c r="CR114">
+        <v>0</v>
+      </c>
+      <c r="CS114">
+        <v>10</v>
+      </c>
+      <c r="CT114">
+        <v>104</v>
+      </c>
+      <c r="CU114">
+        <v>0.89</v>
+      </c>
+      <c r="CV114">
+        <v>-0.55</v>
+      </c>
+      <c r="CW114">
+        <v>4.6</v>
+      </c>
+      <c r="CX114">
+        <v>-3.3</v>
+      </c>
+      <c r="CY114">
+        <v>-1.42</v>
+      </c>
+      <c r="CZ114">
+        <v>9.85</v>
+      </c>
+      <c r="DA114">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="DB114">
+        <v>0.15</v>
+      </c>
+      <c r="DC114">
+        <v>-1.28</v>
+      </c>
+      <c r="DD114">
+        <v>44.23</v>
+      </c>
+      <c r="DE114">
+        <v>38.46</v>
+      </c>
+      <c r="DF114">
+        <v>28.85</v>
+      </c>
+      <c r="DG114">
+        <v>99.04000000000001</v>
+      </c>
+      <c r="DH114">
+        <v>92.31</v>
+      </c>
+      <c r="DI114">
+        <v>40.38</v>
+      </c>
+      <c r="DJ114">
+        <v>34.62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:114">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115">
+        <v>4363</v>
+      </c>
+      <c r="C115">
+        <v>875</v>
+      </c>
+      <c r="D115">
+        <v>156</v>
+      </c>
+      <c r="E115">
+        <v>465</v>
+      </c>
+      <c r="F115">
+        <v>47</v>
+      </c>
+      <c r="G115">
+        <v>234</v>
+      </c>
+      <c r="H115">
+        <v>19</v>
+      </c>
+      <c r="I115">
+        <v>97</v>
+      </c>
+      <c r="J115">
+        <v>10</v>
+      </c>
+      <c r="K115">
+        <v>28</v>
+      </c>
+      <c r="L115">
+        <v>20</v>
+      </c>
+      <c r="M115">
+        <v>56</v>
+      </c>
+      <c r="N115">
+        <v>1.56</v>
+      </c>
+      <c r="O115">
+        <v>2.83</v>
+      </c>
+      <c r="P115">
+        <v>5.81</v>
+      </c>
+      <c r="Q115">
+        <v>-1.85</v>
+      </c>
+      <c r="R115">
+        <v>1.27</v>
+      </c>
+      <c r="S115">
+        <v>10.3</v>
+      </c>
+      <c r="T115">
+        <v>11.66</v>
+      </c>
+      <c r="U115">
+        <v>1.56</v>
+      </c>
+      <c r="V115">
+        <v>2.83</v>
+      </c>
+      <c r="W115">
+        <v>60.71</v>
+      </c>
+      <c r="X115">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="Y115">
+        <v>62.5</v>
+      </c>
+      <c r="Z115">
+        <v>94.64</v>
+      </c>
+      <c r="AA115">
+        <v>94.64</v>
+      </c>
+      <c r="AB115">
+        <v>60.71</v>
+      </c>
+      <c r="AC115">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AD115">
+        <v>18</v>
+      </c>
+      <c r="AE115">
+        <v>2</v>
+      </c>
+      <c r="AF115">
+        <v>3.21</v>
+      </c>
+      <c r="AG115">
+        <v>7.21</v>
+      </c>
+      <c r="AH115">
+        <v>-3.32</v>
+      </c>
+      <c r="AI115">
+        <v>1.28</v>
+      </c>
+      <c r="AJ115">
+        <v>7.48</v>
+      </c>
+      <c r="AK115">
+        <v>8.69</v>
+      </c>
+      <c r="AL115">
+        <v>2</v>
+      </c>
+      <c r="AM115">
+        <v>3.21</v>
+      </c>
+      <c r="AN115">
+        <v>55.56</v>
+      </c>
+      <c r="AO115">
+        <v>66.67</v>
+      </c>
+      <c r="AP115">
+        <v>61.11</v>
+      </c>
+      <c r="AQ115">
+        <v>88.89</v>
+      </c>
+      <c r="AR115">
+        <v>88.89</v>
+      </c>
+      <c r="AS115">
+        <v>55.56</v>
+      </c>
+      <c r="AT115">
+        <v>66.67</v>
+      </c>
+      <c r="BL115">
+        <v>9</v>
+      </c>
+      <c r="BM115">
+        <v>-6.28</v>
+      </c>
+      <c r="BN115">
+        <v>-3.39</v>
+      </c>
+      <c r="BO115">
+        <v>1.02</v>
+      </c>
+      <c r="BP115">
+        <v>-7.34</v>
+      </c>
+      <c r="BQ115">
+        <v>3.17</v>
+      </c>
+      <c r="BR115">
+        <v>-12.03</v>
+      </c>
+      <c r="BS115">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="BT115">
+        <v>-14.05</v>
+      </c>
+      <c r="BU115">
+        <v>-11.42</v>
+      </c>
+      <c r="BV115">
+        <v>0</v>
+      </c>
+      <c r="BW115">
+        <v>11.11</v>
+      </c>
+      <c r="BX115">
+        <v>66.67</v>
+      </c>
+      <c r="BY115">
+        <v>0</v>
+      </c>
+      <c r="BZ115">
+        <v>11.11</v>
+      </c>
+      <c r="CA115">
+        <v>0</v>
+      </c>
+      <c r="CB115">
+        <v>0</v>
+      </c>
+      <c r="CC115">
+        <v>21</v>
+      </c>
+      <c r="CD115">
+        <v>-2.85</v>
+      </c>
+      <c r="CE115">
+        <v>-1.53</v>
+      </c>
+      <c r="CF115">
+        <v>0.75</v>
+      </c>
+      <c r="CG115">
+        <v>-4.54</v>
+      </c>
+      <c r="CH115">
+        <v>1.36</v>
+      </c>
+      <c r="CI115">
+        <v>-0.79</v>
+      </c>
+      <c r="CJ115">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="CK115">
+        <v>-7.78</v>
+      </c>
+      <c r="CL115">
+        <v>-6.53</v>
+      </c>
+      <c r="CM115">
+        <v>9.52</v>
+      </c>
+      <c r="CN115">
+        <v>47.62</v>
+      </c>
+      <c r="CO115">
+        <v>61.9</v>
+      </c>
+      <c r="CP115">
+        <v>57.14</v>
+      </c>
+      <c r="CQ115">
+        <v>57.14</v>
+      </c>
+      <c r="CR115">
+        <v>0</v>
+      </c>
+      <c r="CS115">
+        <v>4.76</v>
+      </c>
+      <c r="CT115">
+        <v>77</v>
+      </c>
+      <c r="CU115">
+        <v>0.36</v>
+      </c>
+      <c r="CV115">
+        <v>1.64</v>
+      </c>
+      <c r="CW115">
+        <v>4.43</v>
+      </c>
+      <c r="CX115">
+        <v>-2.59</v>
+      </c>
+      <c r="CY115">
+        <v>1.3</v>
+      </c>
+      <c r="CZ115">
+        <v>7.28</v>
+      </c>
+      <c r="DA115">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="DB115">
+        <v>-0.99</v>
+      </c>
+      <c r="DC115">
+        <v>0.28</v>
+      </c>
+      <c r="DD115">
+        <v>46.75</v>
+      </c>
+      <c r="DE115">
+        <v>64.94</v>
+      </c>
+      <c r="DF115">
+        <v>62.34</v>
+      </c>
+      <c r="DG115">
+        <v>84.42</v>
+      </c>
+      <c r="DH115">
+        <v>84.42</v>
+      </c>
+      <c r="DI115">
+        <v>44.16</v>
+      </c>
+      <c r="DJ115">
+        <v>53.25</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>日期</t>
   </si>
@@ -358,22 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250414</t>
-  </si>
-  <si>
-    <t>20250415</t>
-  </si>
-  <si>
-    <t>20250416</t>
-  </si>
-  <si>
-    <t>20250417</t>
-  </si>
-  <si>
-    <t>20250418</t>
-  </si>
-  <si>
-    <t>20250421</t>
+    <t>20250423</t>
   </si>
 </sst>
 </file>
@@ -731,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ115"/>
+  <dimension ref="A1:DJ117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36551,8 +36536,8 @@
       </c>
     </row>
     <row r="110" spans="1:114">
-      <c r="A110" t="s">
-        <v>114</v>
+      <c r="A110">
+        <v>20250414</v>
       </c>
       <c r="B110">
         <v>4552</v>
@@ -36844,8 +36829,8 @@
       </c>
     </row>
     <row r="111" spans="1:114">
-      <c r="A111" t="s">
-        <v>115</v>
+      <c r="A111">
+        <v>20250415</v>
       </c>
       <c r="B111">
         <v>2419</v>
@@ -37188,8 +37173,8 @@
       </c>
     </row>
     <row r="112" spans="1:114">
-      <c r="A112" t="s">
-        <v>116</v>
+      <c r="A112">
+        <v>20250416</v>
       </c>
       <c r="B112">
         <v>1010</v>
@@ -37481,8 +37466,8 @@
       </c>
     </row>
     <row r="113" spans="1:114">
-      <c r="A113" t="s">
-        <v>117</v>
+      <c r="A113">
+        <v>20250417</v>
       </c>
       <c r="B113">
         <v>3127</v>
@@ -37825,8 +37810,8 @@
       </c>
     </row>
     <row r="114" spans="1:114">
-      <c r="A114" t="s">
-        <v>118</v>
+      <c r="A114">
+        <v>20250418</v>
       </c>
       <c r="B114">
         <v>2392</v>
@@ -38169,8 +38154,8 @@
       </c>
     </row>
     <row r="115" spans="1:114">
-      <c r="A115" t="s">
-        <v>119</v>
+      <c r="A115">
+        <v>20250421</v>
       </c>
       <c r="B115">
         <v>4363</v>
@@ -38459,6 +38444,694 @@
       </c>
       <c r="DJ115">
         <v>53.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:114">
+      <c r="A116">
+        <v>20250422</v>
+      </c>
+      <c r="B116">
+        <v>2532</v>
+      </c>
+      <c r="C116">
+        <v>2671</v>
+      </c>
+      <c r="D116">
+        <v>189</v>
+      </c>
+      <c r="E116">
+        <v>202</v>
+      </c>
+      <c r="F116">
+        <v>111</v>
+      </c>
+      <c r="G116">
+        <v>118</v>
+      </c>
+      <c r="H116">
+        <v>43</v>
+      </c>
+      <c r="I116">
+        <v>79</v>
+      </c>
+      <c r="J116">
+        <v>12</v>
+      </c>
+      <c r="K116">
+        <v>28</v>
+      </c>
+      <c r="L116">
+        <v>21</v>
+      </c>
+      <c r="M116">
+        <v>95</v>
+      </c>
+      <c r="N116">
+        <v>1.86</v>
+      </c>
+      <c r="O116">
+        <v>2.2</v>
+      </c>
+      <c r="P116">
+        <v>6</v>
+      </c>
+      <c r="Q116">
+        <v>-1.19</v>
+      </c>
+      <c r="R116">
+        <v>0.4</v>
+      </c>
+      <c r="S116">
+        <v>11.18</v>
+      </c>
+      <c r="T116">
+        <v>11.53</v>
+      </c>
+      <c r="U116">
+        <v>1.86</v>
+      </c>
+      <c r="V116">
+        <v>2.2</v>
+      </c>
+      <c r="W116">
+        <v>68.42</v>
+      </c>
+      <c r="X116">
+        <v>60</v>
+      </c>
+      <c r="Y116">
+        <v>40</v>
+      </c>
+      <c r="Z116">
+        <v>95.79000000000001</v>
+      </c>
+      <c r="AA116">
+        <v>96.84</v>
+      </c>
+      <c r="AB116">
+        <v>68.42</v>
+      </c>
+      <c r="AC116">
+        <v>60</v>
+      </c>
+      <c r="AD116">
+        <v>27</v>
+      </c>
+      <c r="AE116">
+        <v>1.58</v>
+      </c>
+      <c r="AF116">
+        <v>4.31</v>
+      </c>
+      <c r="AG116">
+        <v>7.7</v>
+      </c>
+      <c r="AH116">
+        <v>-1.39</v>
+      </c>
+      <c r="AI116">
+        <v>2.87</v>
+      </c>
+      <c r="AJ116">
+        <v>7.57</v>
+      </c>
+      <c r="AK116">
+        <v>10.55</v>
+      </c>
+      <c r="AL116">
+        <v>1.58</v>
+      </c>
+      <c r="AM116">
+        <v>4.31</v>
+      </c>
+      <c r="AN116">
+        <v>66.67</v>
+      </c>
+      <c r="AO116">
+        <v>70.37</v>
+      </c>
+      <c r="AP116">
+        <v>55.56</v>
+      </c>
+      <c r="AQ116">
+        <v>88.89</v>
+      </c>
+      <c r="AR116">
+        <v>92.59</v>
+      </c>
+      <c r="AS116">
+        <v>66.67</v>
+      </c>
+      <c r="AT116">
+        <v>70.37</v>
+      </c>
+      <c r="AU116">
+        <v>8</v>
+      </c>
+      <c r="AV116">
+        <v>-7.63</v>
+      </c>
+      <c r="AW116">
+        <v>-5.37</v>
+      </c>
+      <c r="AX116">
+        <v>-2.84</v>
+      </c>
+      <c r="AY116">
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="AZ116">
+        <v>2.39</v>
+      </c>
+      <c r="BA116">
+        <v>-5.53</v>
+      </c>
+      <c r="BB116">
+        <v>-3.13</v>
+      </c>
+      <c r="BC116">
+        <v>-9.93</v>
+      </c>
+      <c r="BD116">
+        <v>-7.73</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>25</v>
+      </c>
+      <c r="BG116">
+        <v>37.5</v>
+      </c>
+      <c r="BH116">
+        <v>12.5</v>
+      </c>
+      <c r="BI116">
+        <v>25</v>
+      </c>
+      <c r="BJ116">
+        <v>0</v>
+      </c>
+      <c r="BK116">
+        <v>12.5</v>
+      </c>
+      <c r="BL116">
+        <v>9</v>
+      </c>
+      <c r="BM116">
+        <v>-7.68</v>
+      </c>
+      <c r="BN116">
+        <v>-6.9</v>
+      </c>
+      <c r="BO116">
+        <v>-4.28</v>
+      </c>
+      <c r="BP116">
+        <v>-8.9</v>
+      </c>
+      <c r="BQ116">
+        <v>0.86</v>
+      </c>
+      <c r="BR116">
+        <v>-9.619999999999999</v>
+      </c>
+      <c r="BS116">
+        <v>-8.789999999999999</v>
+      </c>
+      <c r="BT116">
+        <v>-11.51</v>
+      </c>
+      <c r="BU116">
+        <v>-10.72</v>
+      </c>
+      <c r="BV116">
+        <v>0</v>
+      </c>
+      <c r="BW116">
+        <v>11.11</v>
+      </c>
+      <c r="BX116">
+        <v>22.22</v>
+      </c>
+      <c r="BY116">
+        <v>0</v>
+      </c>
+      <c r="BZ116">
+        <v>11.11</v>
+      </c>
+      <c r="CA116">
+        <v>0</v>
+      </c>
+      <c r="CB116">
+        <v>0</v>
+      </c>
+      <c r="CC116">
+        <v>19</v>
+      </c>
+      <c r="CD116">
+        <v>-1.45</v>
+      </c>
+      <c r="CE116">
+        <v>-1.89</v>
+      </c>
+      <c r="CF116">
+        <v>1.74</v>
+      </c>
+      <c r="CG116">
+        <v>-3.66</v>
+      </c>
+      <c r="CH116">
+        <v>-0.49</v>
+      </c>
+      <c r="CI116">
+        <v>4.45</v>
+      </c>
+      <c r="CJ116">
+        <v>4.06</v>
+      </c>
+      <c r="CK116">
+        <v>-4.82</v>
+      </c>
+      <c r="CL116">
+        <v>-5.25</v>
+      </c>
+      <c r="CM116">
+        <v>26.32</v>
+      </c>
+      <c r="CN116">
+        <v>21.05</v>
+      </c>
+      <c r="CO116">
+        <v>21.05</v>
+      </c>
+      <c r="CP116">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="CQ116">
+        <v>78.95</v>
+      </c>
+      <c r="CR116">
+        <v>10.53</v>
+      </c>
+      <c r="CS116">
+        <v>5.26</v>
+      </c>
+      <c r="CT116">
+        <v>114</v>
+      </c>
+      <c r="CU116">
+        <v>1.31</v>
+      </c>
+      <c r="CV116">
+        <v>1.52</v>
+      </c>
+      <c r="CW116">
+        <v>5.29</v>
+      </c>
+      <c r="CX116">
+        <v>-1.6</v>
+      </c>
+      <c r="CY116">
+        <v>0.25</v>
+      </c>
+      <c r="CZ116">
+        <v>10.06</v>
+      </c>
+      <c r="DA116">
+        <v>10.28</v>
+      </c>
+      <c r="DB116">
+        <v>0.75</v>
+      </c>
+      <c r="DC116">
+        <v>0.96</v>
+      </c>
+      <c r="DD116">
+        <v>61.4</v>
+      </c>
+      <c r="DE116">
+        <v>53.51</v>
+      </c>
+      <c r="DF116">
+        <v>36.84</v>
+      </c>
+      <c r="DG116">
+        <v>93.86</v>
+      </c>
+      <c r="DH116">
+        <v>93.86</v>
+      </c>
+      <c r="DI116">
+        <v>58.77</v>
+      </c>
+      <c r="DJ116">
+        <v>50.88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:114">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <v>3185</v>
+      </c>
+      <c r="C117">
+        <v>2050</v>
+      </c>
+      <c r="D117">
+        <v>159</v>
+      </c>
+      <c r="E117">
+        <v>329</v>
+      </c>
+      <c r="F117">
+        <v>146</v>
+      </c>
+      <c r="G117">
+        <v>160</v>
+      </c>
+      <c r="H117">
+        <v>67</v>
+      </c>
+      <c r="I117">
+        <v>60</v>
+      </c>
+      <c r="J117">
+        <v>18</v>
+      </c>
+      <c r="K117">
+        <v>15</v>
+      </c>
+      <c r="L117">
+        <v>34</v>
+      </c>
+      <c r="M117">
+        <v>79</v>
+      </c>
+      <c r="N117">
+        <v>1.65</v>
+      </c>
+      <c r="O117">
+        <v>-1.18</v>
+      </c>
+      <c r="P117">
+        <v>4.78</v>
+      </c>
+      <c r="Q117">
+        <v>-2.87</v>
+      </c>
+      <c r="R117">
+        <v>-2.77</v>
+      </c>
+      <c r="S117">
+        <v>9.69</v>
+      </c>
+      <c r="T117">
+        <v>6.64</v>
+      </c>
+      <c r="U117">
+        <v>1.65</v>
+      </c>
+      <c r="V117">
+        <v>-1.18</v>
+      </c>
+      <c r="W117">
+        <v>54.43</v>
+      </c>
+      <c r="X117">
+        <v>35.44</v>
+      </c>
+      <c r="Y117">
+        <v>16.46</v>
+      </c>
+      <c r="Z117">
+        <v>93.67</v>
+      </c>
+      <c r="AA117">
+        <v>86.08</v>
+      </c>
+      <c r="AB117">
+        <v>54.43</v>
+      </c>
+      <c r="AC117">
+        <v>35.44</v>
+      </c>
+      <c r="AD117">
+        <v>28</v>
+      </c>
+      <c r="AE117">
+        <v>1.09</v>
+      </c>
+      <c r="AF117">
+        <v>-2.36</v>
+      </c>
+      <c r="AG117">
+        <v>4.05</v>
+      </c>
+      <c r="AH117">
+        <v>-4.15</v>
+      </c>
+      <c r="AI117">
+        <v>-3.38</v>
+      </c>
+      <c r="AJ117">
+        <v>6.41</v>
+      </c>
+      <c r="AK117">
+        <v>2.82</v>
+      </c>
+      <c r="AL117">
+        <v>1.09</v>
+      </c>
+      <c r="AM117">
+        <v>-2.36</v>
+      </c>
+      <c r="AN117">
+        <v>46.43</v>
+      </c>
+      <c r="AO117">
+        <v>32.14</v>
+      </c>
+      <c r="AP117">
+        <v>7.14</v>
+      </c>
+      <c r="AQ117">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="AR117">
+        <v>67.86</v>
+      </c>
+      <c r="AS117">
+        <v>46.43</v>
+      </c>
+      <c r="AT117">
+        <v>32.14</v>
+      </c>
+      <c r="AU117">
+        <v>7</v>
+      </c>
+      <c r="AV117">
+        <v>-8.23</v>
+      </c>
+      <c r="AW117">
+        <v>-4.56</v>
+      </c>
+      <c r="AX117">
+        <v>-3.47</v>
+      </c>
+      <c r="AY117">
+        <v>-8.789999999999999</v>
+      </c>
+      <c r="AZ117">
+        <v>3.95</v>
+      </c>
+      <c r="BA117">
+        <v>-8.23</v>
+      </c>
+      <c r="BB117">
+        <v>-4.56</v>
+      </c>
+      <c r="BC117">
+        <v>-8.23</v>
+      </c>
+      <c r="BD117">
+        <v>-4.56</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>28.57</v>
+      </c>
+      <c r="BG117">
+        <v>28.57</v>
+      </c>
+      <c r="BH117">
+        <v>0</v>
+      </c>
+      <c r="BI117">
+        <v>28.57</v>
+      </c>
+      <c r="BJ117">
+        <v>0</v>
+      </c>
+      <c r="BK117">
+        <v>28.57</v>
+      </c>
+      <c r="BL117">
+        <v>12</v>
+      </c>
+      <c r="BM117">
+        <v>-6.47</v>
+      </c>
+      <c r="BN117">
+        <v>-3.61</v>
+      </c>
+      <c r="BO117">
+        <v>-2.29</v>
+      </c>
+      <c r="BP117">
+        <v>-7.3</v>
+      </c>
+      <c r="BQ117">
+        <v>3.1</v>
+      </c>
+      <c r="BR117">
+        <v>-7.74</v>
+      </c>
+      <c r="BS117">
+        <v>-4.89</v>
+      </c>
+      <c r="BT117">
+        <v>-8.51</v>
+      </c>
+      <c r="BU117">
+        <v>-5.69</v>
+      </c>
+      <c r="BV117">
+        <v>8.33</v>
+      </c>
+      <c r="BW117">
+        <v>33.33</v>
+      </c>
+      <c r="BX117">
+        <v>25</v>
+      </c>
+      <c r="BY117">
+        <v>0</v>
+      </c>
+      <c r="BZ117">
+        <v>16.67</v>
+      </c>
+      <c r="CA117">
+        <v>0</v>
+      </c>
+      <c r="CB117">
+        <v>16.67</v>
+      </c>
+      <c r="CC117">
+        <v>20</v>
+      </c>
+      <c r="CD117">
+        <v>-2.4</v>
+      </c>
+      <c r="CE117">
+        <v>-4.54</v>
+      </c>
+      <c r="CF117">
+        <v>-0.09</v>
+      </c>
+      <c r="CG117">
+        <v>-5.74</v>
+      </c>
+      <c r="CH117">
+        <v>-2.19</v>
+      </c>
+      <c r="CI117">
+        <v>1.51</v>
+      </c>
+      <c r="CJ117">
+        <v>-0.73</v>
+      </c>
+      <c r="CK117">
+        <v>-6.2</v>
+      </c>
+      <c r="CL117">
+        <v>-8.26</v>
+      </c>
+      <c r="CM117">
+        <v>10</v>
+      </c>
+      <c r="CN117">
+        <v>15</v>
+      </c>
+      <c r="CO117">
+        <v>15</v>
+      </c>
+      <c r="CP117">
+        <v>80</v>
+      </c>
+      <c r="CQ117">
+        <v>45</v>
+      </c>
+      <c r="CR117">
+        <v>0</v>
+      </c>
+      <c r="CS117">
+        <v>0</v>
+      </c>
+      <c r="CT117">
+        <v>99</v>
+      </c>
+      <c r="CU117">
+        <v>0.84</v>
+      </c>
+      <c r="CV117">
+        <v>-1.86</v>
+      </c>
+      <c r="CW117">
+        <v>3.8</v>
+      </c>
+      <c r="CX117">
+        <v>-3.45</v>
+      </c>
+      <c r="CY117">
+        <v>-2.65</v>
+      </c>
+      <c r="CZ117">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="DA117">
+        <v>5.15</v>
+      </c>
+      <c r="DB117">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="DC117">
+        <v>-2.61</v>
+      </c>
+      <c r="DD117">
+        <v>45.45</v>
+      </c>
+      <c r="DE117">
+        <v>31.31</v>
+      </c>
+      <c r="DF117">
+        <v>16.16</v>
+      </c>
+      <c r="DG117">
+        <v>90.91</v>
+      </c>
+      <c r="DH117">
+        <v>77.78</v>
+      </c>
+      <c r="DI117">
+        <v>43.43</v>
+      </c>
+      <c r="DJ117">
+        <v>28.28</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -358,7 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250423</t>
+    <t>20250424</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ117"/>
+  <dimension ref="A1:DJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38791,8 +38791,8 @@
       </c>
     </row>
     <row r="117" spans="1:114">
-      <c r="A117" t="s">
-        <v>114</v>
+      <c r="A117">
+        <v>20250423</v>
       </c>
       <c r="B117">
         <v>3185</v>
@@ -39132,6 +39132,350 @@
       </c>
       <c r="DJ117">
         <v>28.28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:114">
+      <c r="A118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118">
+        <v>1545</v>
+      </c>
+      <c r="C118">
+        <v>3694</v>
+      </c>
+      <c r="D118">
+        <v>155</v>
+      </c>
+      <c r="E118">
+        <v>157</v>
+      </c>
+      <c r="F118">
+        <v>285</v>
+      </c>
+      <c r="G118">
+        <v>87</v>
+      </c>
+      <c r="H118">
+        <v>77</v>
+      </c>
+      <c r="I118">
+        <v>52</v>
+      </c>
+      <c r="J118">
+        <v>10</v>
+      </c>
+      <c r="K118">
+        <v>25</v>
+      </c>
+      <c r="L118">
+        <v>23</v>
+      </c>
+      <c r="M118">
+        <v>60</v>
+      </c>
+      <c r="N118">
+        <v>2.85</v>
+      </c>
+      <c r="O118">
+        <v>1.71</v>
+      </c>
+      <c r="P118">
+        <v>5.88</v>
+      </c>
+      <c r="Q118">
+        <v>-1.76</v>
+      </c>
+      <c r="R118">
+        <v>-1.08</v>
+      </c>
+      <c r="S118">
+        <v>10.54</v>
+      </c>
+      <c r="T118">
+        <v>9.33</v>
+      </c>
+      <c r="U118">
+        <v>2.85</v>
+      </c>
+      <c r="V118">
+        <v>1.71</v>
+      </c>
+      <c r="W118">
+        <v>66.67</v>
+      </c>
+      <c r="X118">
+        <v>50</v>
+      </c>
+      <c r="Y118">
+        <v>31.67</v>
+      </c>
+      <c r="Z118">
+        <v>100</v>
+      </c>
+      <c r="AA118">
+        <v>91.67</v>
+      </c>
+      <c r="AB118">
+        <v>66.67</v>
+      </c>
+      <c r="AC118">
+        <v>50</v>
+      </c>
+      <c r="AD118">
+        <v>15</v>
+      </c>
+      <c r="AE118">
+        <v>5.36</v>
+      </c>
+      <c r="AF118">
+        <v>5.67</v>
+      </c>
+      <c r="AG118">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH118">
+        <v>-0.53</v>
+      </c>
+      <c r="AI118">
+        <v>0.5</v>
+      </c>
+      <c r="AJ118">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AK118">
+        <v>10.01</v>
+      </c>
+      <c r="AL118">
+        <v>5.36</v>
+      </c>
+      <c r="AM118">
+        <v>5.67</v>
+      </c>
+      <c r="AN118">
+        <v>80</v>
+      </c>
+      <c r="AO118">
+        <v>80</v>
+      </c>
+      <c r="AP118">
+        <v>60</v>
+      </c>
+      <c r="AQ118">
+        <v>100</v>
+      </c>
+      <c r="AR118">
+        <v>93.33</v>
+      </c>
+      <c r="AS118">
+        <v>80</v>
+      </c>
+      <c r="AT118">
+        <v>80</v>
+      </c>
+      <c r="AU118">
+        <v>12</v>
+      </c>
+      <c r="AV118">
+        <v>-7.54</v>
+      </c>
+      <c r="AW118">
+        <v>-0.64</v>
+      </c>
+      <c r="AX118">
+        <v>1.45</v>
+      </c>
+      <c r="AY118">
+        <v>-8.6</v>
+      </c>
+      <c r="AZ118">
+        <v>7.5</v>
+      </c>
+      <c r="BA118">
+        <v>-7.54</v>
+      </c>
+      <c r="BB118">
+        <v>-0.64</v>
+      </c>
+      <c r="BC118">
+        <v>-8.65</v>
+      </c>
+      <c r="BD118">
+        <v>-1.83</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>50</v>
+      </c>
+      <c r="BG118">
+        <v>66.67</v>
+      </c>
+      <c r="BH118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>50</v>
+      </c>
+      <c r="BJ118">
+        <v>0</v>
+      </c>
+      <c r="BK118">
+        <v>41.67</v>
+      </c>
+      <c r="BL118">
+        <v>18</v>
+      </c>
+      <c r="BM118">
+        <v>-6.33</v>
+      </c>
+      <c r="BN118">
+        <v>-2.26</v>
+      </c>
+      <c r="BO118">
+        <v>0.79</v>
+      </c>
+      <c r="BP118">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="BQ118">
+        <v>4.47</v>
+      </c>
+      <c r="BR118">
+        <v>-8.76</v>
+      </c>
+      <c r="BS118">
+        <v>-4.66</v>
+      </c>
+      <c r="BT118">
+        <v>-9.74</v>
+      </c>
+      <c r="BU118">
+        <v>-5.68</v>
+      </c>
+      <c r="BV118">
+        <v>5.56</v>
+      </c>
+      <c r="BW118">
+        <v>33.33</v>
+      </c>
+      <c r="BX118">
+        <v>50</v>
+      </c>
+      <c r="BY118">
+        <v>0</v>
+      </c>
+      <c r="BZ118">
+        <v>33.33</v>
+      </c>
+      <c r="CA118">
+        <v>0</v>
+      </c>
+      <c r="CB118">
+        <v>27.78</v>
+      </c>
+      <c r="CC118">
+        <v>32</v>
+      </c>
+      <c r="CD118">
+        <v>-1.71</v>
+      </c>
+      <c r="CE118">
+        <v>-2.65</v>
+      </c>
+      <c r="CF118">
+        <v>1.48</v>
+      </c>
+      <c r="CG118">
+        <v>-4.86</v>
+      </c>
+      <c r="CH118">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="CI118">
+        <v>1.98</v>
+      </c>
+      <c r="CJ118">
+        <v>1.08</v>
+      </c>
+      <c r="CK118">
+        <v>-6.02</v>
+      </c>
+      <c r="CL118">
+        <v>-6.92</v>
+      </c>
+      <c r="CM118">
+        <v>12.5</v>
+      </c>
+      <c r="CN118">
+        <v>25</v>
+      </c>
+      <c r="CO118">
+        <v>34.38</v>
+      </c>
+      <c r="CP118">
+        <v>75</v>
+      </c>
+      <c r="CQ118">
+        <v>68.75</v>
+      </c>
+      <c r="CR118">
+        <v>0</v>
+      </c>
+      <c r="CS118">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="CT118">
+        <v>92</v>
+      </c>
+      <c r="CU118">
+        <v>1.26</v>
+      </c>
+      <c r="CV118">
+        <v>0.19</v>
+      </c>
+      <c r="CW118">
+        <v>4.35</v>
+      </c>
+      <c r="CX118">
+        <v>-2.84</v>
+      </c>
+      <c r="CY118">
+        <v>-1.03</v>
+      </c>
+      <c r="CZ118">
+        <v>7.56</v>
+      </c>
+      <c r="DA118">
+        <v>6.46</v>
+      </c>
+      <c r="DB118">
+        <v>-0.23</v>
+      </c>
+      <c r="DC118">
+        <v>-1.29</v>
+      </c>
+      <c r="DD118">
+        <v>47.83</v>
+      </c>
+      <c r="DE118">
+        <v>41.3</v>
+      </c>
+      <c r="DF118">
+        <v>32.61</v>
+      </c>
+      <c r="DG118">
+        <v>91.3</v>
+      </c>
+      <c r="DH118">
+        <v>83.7</v>
+      </c>
+      <c r="DI118">
+        <v>43.48</v>
+      </c>
+      <c r="DJ118">
+        <v>35.87</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -358,7 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250424</t>
+    <t>20250425</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ118"/>
+  <dimension ref="A1:DJ119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39135,8 +39135,8 @@
       </c>
     </row>
     <row r="118" spans="1:114">
-      <c r="A118" t="s">
-        <v>114</v>
+      <c r="A118">
+        <v>20250424</v>
       </c>
       <c r="B118">
         <v>1545</v>
@@ -39476,6 +39476,350 @@
       </c>
       <c r="DJ118">
         <v>35.87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:114">
+      <c r="A119" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119">
+        <v>2832</v>
+      </c>
+      <c r="C119">
+        <v>2371</v>
+      </c>
+      <c r="D119">
+        <v>190</v>
+      </c>
+      <c r="E119">
+        <v>188</v>
+      </c>
+      <c r="F119">
+        <v>162</v>
+      </c>
+      <c r="G119">
+        <v>104</v>
+      </c>
+      <c r="H119">
+        <v>63</v>
+      </c>
+      <c r="I119">
+        <v>64</v>
+      </c>
+      <c r="J119">
+        <v>16</v>
+      </c>
+      <c r="K119">
+        <v>13</v>
+      </c>
+      <c r="L119">
+        <v>27</v>
+      </c>
+      <c r="M119">
+        <v>52</v>
+      </c>
+      <c r="N119">
+        <v>1.75</v>
+      </c>
+      <c r="O119">
+        <v>-0.1</v>
+      </c>
+      <c r="P119">
+        <v>6.2</v>
+      </c>
+      <c r="Q119">
+        <v>-2.96</v>
+      </c>
+      <c r="R119">
+        <v>-1.75</v>
+      </c>
+      <c r="S119">
+        <v>10.6</v>
+      </c>
+      <c r="T119">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="U119">
+        <v>1.75</v>
+      </c>
+      <c r="V119">
+        <v>-0.1</v>
+      </c>
+      <c r="W119">
+        <v>67.31</v>
+      </c>
+      <c r="X119">
+        <v>50</v>
+      </c>
+      <c r="Y119">
+        <v>32.69</v>
+      </c>
+      <c r="Z119">
+        <v>94.23</v>
+      </c>
+      <c r="AA119">
+        <v>88.45999999999999</v>
+      </c>
+      <c r="AB119">
+        <v>67.31</v>
+      </c>
+      <c r="AC119">
+        <v>50</v>
+      </c>
+      <c r="AD119">
+        <v>25</v>
+      </c>
+      <c r="AE119">
+        <v>1.4</v>
+      </c>
+      <c r="AF119">
+        <v>-2.03</v>
+      </c>
+      <c r="AG119">
+        <v>6.58</v>
+      </c>
+      <c r="AH119">
+        <v>-4.86</v>
+      </c>
+      <c r="AI119">
+        <v>-3.24</v>
+      </c>
+      <c r="AJ119">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AK119">
+        <v>5.36</v>
+      </c>
+      <c r="AL119">
+        <v>1.4</v>
+      </c>
+      <c r="AM119">
+        <v>-2.03</v>
+      </c>
+      <c r="AN119">
+        <v>60</v>
+      </c>
+      <c r="AO119">
+        <v>36</v>
+      </c>
+      <c r="AP119">
+        <v>28</v>
+      </c>
+      <c r="AQ119">
+        <v>96</v>
+      </c>
+      <c r="AR119">
+        <v>80</v>
+      </c>
+      <c r="AS119">
+        <v>60</v>
+      </c>
+      <c r="AT119">
+        <v>36</v>
+      </c>
+      <c r="AU119">
+        <v>10</v>
+      </c>
+      <c r="AV119">
+        <v>-9.289999999999999</v>
+      </c>
+      <c r="AW119">
+        <v>-9.43</v>
+      </c>
+      <c r="AX119">
+        <v>-3.88</v>
+      </c>
+      <c r="AY119">
+        <v>-9.9</v>
+      </c>
+      <c r="AZ119">
+        <v>-0.14</v>
+      </c>
+      <c r="BA119">
+        <v>-4.2</v>
+      </c>
+      <c r="BB119">
+        <v>-4.34</v>
+      </c>
+      <c r="BC119">
+        <v>-10.14</v>
+      </c>
+      <c r="BD119">
+        <v>-10.28</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>20</v>
+      </c>
+      <c r="BH119">
+        <v>30</v>
+      </c>
+      <c r="BI119">
+        <v>30</v>
+      </c>
+      <c r="BJ119">
+        <v>0</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>9</v>
+      </c>
+      <c r="BM119">
+        <v>-7.87</v>
+      </c>
+      <c r="BN119">
+        <v>-7.66</v>
+      </c>
+      <c r="BO119">
+        <v>-3.8</v>
+      </c>
+      <c r="BP119">
+        <v>-8.880000000000001</v>
+      </c>
+      <c r="BQ119">
+        <v>0.26</v>
+      </c>
+      <c r="BR119">
+        <v>-9.99</v>
+      </c>
+      <c r="BS119">
+        <v>-9.81</v>
+      </c>
+      <c r="BT119">
+        <v>-10.32</v>
+      </c>
+      <c r="BU119">
+        <v>-10.13</v>
+      </c>
+      <c r="BV119">
+        <v>0</v>
+      </c>
+      <c r="BW119">
+        <v>0</v>
+      </c>
+      <c r="BX119">
+        <v>33.33</v>
+      </c>
+      <c r="BY119">
+        <v>0</v>
+      </c>
+      <c r="BZ119">
+        <v>0</v>
+      </c>
+      <c r="CA119">
+        <v>0</v>
+      </c>
+      <c r="CB119">
+        <v>0</v>
+      </c>
+      <c r="CC119">
+        <v>22</v>
+      </c>
+      <c r="CD119">
+        <v>-2.11</v>
+      </c>
+      <c r="CE119">
+        <v>-2.66</v>
+      </c>
+      <c r="CF119">
+        <v>1.27</v>
+      </c>
+      <c r="CG119">
+        <v>-4.27</v>
+      </c>
+      <c r="CH119">
+        <v>-0.53</v>
+      </c>
+      <c r="CI119">
+        <v>2.31</v>
+      </c>
+      <c r="CJ119">
+        <v>1.73</v>
+      </c>
+      <c r="CK119">
+        <v>-6.47</v>
+      </c>
+      <c r="CL119">
+        <v>-7</v>
+      </c>
+      <c r="CM119">
+        <v>13.64</v>
+      </c>
+      <c r="CN119">
+        <v>22.73</v>
+      </c>
+      <c r="CO119">
+        <v>36.36</v>
+      </c>
+      <c r="CP119">
+        <v>77.27</v>
+      </c>
+      <c r="CQ119">
+        <v>77.27</v>
+      </c>
+      <c r="CR119">
+        <v>0</v>
+      </c>
+      <c r="CS119">
+        <v>0</v>
+      </c>
+      <c r="CT119">
+        <v>74</v>
+      </c>
+      <c r="CU119">
+        <v>0.6</v>
+      </c>
+      <c r="CV119">
+        <v>-0.86</v>
+      </c>
+      <c r="CW119">
+        <v>4.73</v>
+      </c>
+      <c r="CX119">
+        <v>-3.35</v>
+      </c>
+      <c r="CY119">
+        <v>-1.39</v>
+      </c>
+      <c r="CZ119">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="DA119">
+        <v>6.57</v>
+      </c>
+      <c r="DB119">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="DC119">
+        <v>-2.15</v>
+      </c>
+      <c r="DD119">
+        <v>51.35</v>
+      </c>
+      <c r="DE119">
+        <v>41.89</v>
+      </c>
+      <c r="DF119">
+        <v>33.78</v>
+      </c>
+      <c r="DG119">
+        <v>89.19</v>
+      </c>
+      <c r="DH119">
+        <v>85.14</v>
+      </c>
+      <c r="DI119">
+        <v>47.3</v>
+      </c>
+      <c r="DJ119">
+        <v>35.14</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -358,7 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250425</t>
+    <t>20250428</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ119"/>
+  <dimension ref="A1:DJ120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39479,8 +39479,8 @@
       </c>
     </row>
     <row r="119" spans="1:114">
-      <c r="A119" t="s">
-        <v>114</v>
+      <c r="A119">
+        <v>20250425</v>
       </c>
       <c r="B119">
         <v>2832</v>
@@ -39820,6 +39820,350 @@
       </c>
       <c r="DJ119">
         <v>35.14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:114">
+      <c r="A120" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120">
+        <v>1216</v>
+      </c>
+      <c r="C120">
+        <v>4110</v>
+      </c>
+      <c r="D120">
+        <v>61</v>
+      </c>
+      <c r="E120">
+        <v>144</v>
+      </c>
+      <c r="F120">
+        <v>428</v>
+      </c>
+      <c r="G120">
+        <v>77</v>
+      </c>
+      <c r="H120">
+        <v>192</v>
+      </c>
+      <c r="I120">
+        <v>40</v>
+      </c>
+      <c r="J120">
+        <v>34</v>
+      </c>
+      <c r="K120">
+        <v>16</v>
+      </c>
+      <c r="L120">
+        <v>19</v>
+      </c>
+      <c r="M120">
+        <v>63</v>
+      </c>
+      <c r="N120">
+        <v>1.02</v>
+      </c>
+      <c r="O120">
+        <v>-0.6</v>
+      </c>
+      <c r="P120">
+        <v>4.13</v>
+      </c>
+      <c r="Q120">
+        <v>-3.39</v>
+      </c>
+      <c r="R120">
+        <v>-1.56</v>
+      </c>
+      <c r="S120">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="T120">
+        <v>6.96</v>
+      </c>
+      <c r="U120">
+        <v>1.02</v>
+      </c>
+      <c r="V120">
+        <v>-0.6</v>
+      </c>
+      <c r="W120">
+        <v>50.79</v>
+      </c>
+      <c r="X120">
+        <v>34.92</v>
+      </c>
+      <c r="Y120">
+        <v>22.22</v>
+      </c>
+      <c r="Z120">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="AA120">
+        <v>84.13</v>
+      </c>
+      <c r="AB120">
+        <v>50.79</v>
+      </c>
+      <c r="AC120">
+        <v>34.92</v>
+      </c>
+      <c r="AD120">
+        <v>13</v>
+      </c>
+      <c r="AE120">
+        <v>2.29</v>
+      </c>
+      <c r="AF120">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="AG120">
+        <v>4.94</v>
+      </c>
+      <c r="AH120">
+        <v>-2.81</v>
+      </c>
+      <c r="AI120">
+        <v>-2.75</v>
+      </c>
+      <c r="AJ120">
+        <v>6.54</v>
+      </c>
+      <c r="AK120">
+        <v>3.59</v>
+      </c>
+      <c r="AL120">
+        <v>2.29</v>
+      </c>
+      <c r="AM120">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="AN120">
+        <v>61.54</v>
+      </c>
+      <c r="AO120">
+        <v>30.77</v>
+      </c>
+      <c r="AP120">
+        <v>7.69</v>
+      </c>
+      <c r="AQ120">
+        <v>84.62</v>
+      </c>
+      <c r="AR120">
+        <v>76.92</v>
+      </c>
+      <c r="AS120">
+        <v>61.54</v>
+      </c>
+      <c r="AT120">
+        <v>30.77</v>
+      </c>
+      <c r="AU120">
+        <v>6</v>
+      </c>
+      <c r="AV120">
+        <v>-10.21</v>
+      </c>
+      <c r="AW120">
+        <v>-8.56</v>
+      </c>
+      <c r="AX120">
+        <v>-1.82</v>
+      </c>
+      <c r="AY120">
+        <v>-11.16</v>
+      </c>
+      <c r="AZ120">
+        <v>1.87</v>
+      </c>
+      <c r="BA120">
+        <v>-10.16</v>
+      </c>
+      <c r="BB120">
+        <v>-8.51</v>
+      </c>
+      <c r="BC120">
+        <v>-13.87</v>
+      </c>
+      <c r="BD120">
+        <v>-12.15</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>16.67</v>
+      </c>
+      <c r="BG120">
+        <v>50</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>16.67</v>
+      </c>
+      <c r="BJ120">
+        <v>0</v>
+      </c>
+      <c r="BK120">
+        <v>16.67</v>
+      </c>
+      <c r="BL120">
+        <v>15</v>
+      </c>
+      <c r="BM120">
+        <v>-7.93</v>
+      </c>
+      <c r="BN120">
+        <v>-9.390000000000001</v>
+      </c>
+      <c r="BO120">
+        <v>-3.01</v>
+      </c>
+      <c r="BP120">
+        <v>-10.31</v>
+      </c>
+      <c r="BQ120">
+        <v>-1.44</v>
+      </c>
+      <c r="BR120">
+        <v>-12.82</v>
+      </c>
+      <c r="BS120">
+        <v>-14.09</v>
+      </c>
+      <c r="BT120">
+        <v>-15.76</v>
+      </c>
+      <c r="BU120">
+        <v>-16.97</v>
+      </c>
+      <c r="BV120">
+        <v>6.67</v>
+      </c>
+      <c r="BW120">
+        <v>6.67</v>
+      </c>
+      <c r="BX120">
+        <v>20</v>
+      </c>
+      <c r="BY120">
+        <v>0</v>
+      </c>
+      <c r="BZ120">
+        <v>6.67</v>
+      </c>
+      <c r="CA120">
+        <v>0</v>
+      </c>
+      <c r="CB120">
+        <v>6.67</v>
+      </c>
+      <c r="CC120">
+        <v>27</v>
+      </c>
+      <c r="CD120">
+        <v>-2.36</v>
+      </c>
+      <c r="CE120">
+        <v>-2.72</v>
+      </c>
+      <c r="CF120">
+        <v>1.63</v>
+      </c>
+      <c r="CG120">
+        <v>-6.3</v>
+      </c>
+      <c r="CH120">
+        <v>-0.37</v>
+      </c>
+      <c r="CI120">
+        <v>-0.09</v>
+      </c>
+      <c r="CJ120">
+        <v>-0.5</v>
+      </c>
+      <c r="CK120">
+        <v>-7.9</v>
+      </c>
+      <c r="CL120">
+        <v>-8.25</v>
+      </c>
+      <c r="CM120">
+        <v>22.22</v>
+      </c>
+      <c r="CN120">
+        <v>29.63</v>
+      </c>
+      <c r="CO120">
+        <v>29.63</v>
+      </c>
+      <c r="CP120">
+        <v>66.67</v>
+      </c>
+      <c r="CQ120">
+        <v>40.74</v>
+      </c>
+      <c r="CR120">
+        <v>0</v>
+      </c>
+      <c r="CS120">
+        <v>14.81</v>
+      </c>
+      <c r="CT120">
+        <v>90</v>
+      </c>
+      <c r="CU120">
+        <v>0</v>
+      </c>
+      <c r="CV120">
+        <v>-1.24</v>
+      </c>
+      <c r="CW120">
+        <v>3.38</v>
+      </c>
+      <c r="CX120">
+        <v>-4.26</v>
+      </c>
+      <c r="CY120">
+        <v>-1.2</v>
+      </c>
+      <c r="CZ120">
+        <v>6.06</v>
+      </c>
+      <c r="DA120">
+        <v>4.73</v>
+      </c>
+      <c r="DB120">
+        <v>-1.66</v>
+      </c>
+      <c r="DC120">
+        <v>-2.9</v>
+      </c>
+      <c r="DD120">
+        <v>42.22</v>
+      </c>
+      <c r="DE120">
+        <v>33.33</v>
+      </c>
+      <c r="DF120">
+        <v>24.44</v>
+      </c>
+      <c r="DG120">
+        <v>85.56</v>
+      </c>
+      <c r="DH120">
+        <v>71.11</v>
+      </c>
+      <c r="DI120">
+        <v>35.56</v>
+      </c>
+      <c r="DJ120">
+        <v>28.89</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -358,7 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250428</t>
+    <t>20250429</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ120"/>
+  <dimension ref="A1:DJ121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39823,8 +39823,8 @@
       </c>
     </row>
     <row r="120" spans="1:114">
-      <c r="A120" t="s">
-        <v>114</v>
+      <c r="A120">
+        <v>20250428</v>
       </c>
       <c r="B120">
         <v>1216</v>
@@ -40164,6 +40164,350 @@
       </c>
       <c r="DJ120">
         <v>28.89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:114">
+      <c r="A121" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121">
+        <v>3557</v>
+      </c>
+      <c r="C121">
+        <v>1674</v>
+      </c>
+      <c r="D121">
+        <v>130</v>
+      </c>
+      <c r="E121">
+        <v>283</v>
+      </c>
+      <c r="F121">
+        <v>163</v>
+      </c>
+      <c r="G121">
+        <v>135</v>
+      </c>
+      <c r="H121">
+        <v>82</v>
+      </c>
+      <c r="I121">
+        <v>58</v>
+      </c>
+      <c r="J121">
+        <v>19</v>
+      </c>
+      <c r="K121">
+        <v>13</v>
+      </c>
+      <c r="L121">
+        <v>25</v>
+      </c>
+      <c r="M121">
+        <v>38</v>
+      </c>
+      <c r="N121">
+        <v>1.83</v>
+      </c>
+      <c r="O121">
+        <v>2.4</v>
+      </c>
+      <c r="P121">
+        <v>6.57</v>
+      </c>
+      <c r="Q121">
+        <v>-2.16</v>
+      </c>
+      <c r="R121">
+        <v>0.62</v>
+      </c>
+      <c r="S121">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="T121">
+        <v>9.09</v>
+      </c>
+      <c r="U121">
+        <v>1.83</v>
+      </c>
+      <c r="V121">
+        <v>2.4</v>
+      </c>
+      <c r="W121">
+        <v>50</v>
+      </c>
+      <c r="X121">
+        <v>63.16</v>
+      </c>
+      <c r="Y121">
+        <v>50</v>
+      </c>
+      <c r="Z121">
+        <v>89.47</v>
+      </c>
+      <c r="AA121">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="AB121">
+        <v>50</v>
+      </c>
+      <c r="AC121">
+        <v>63.16</v>
+      </c>
+      <c r="AD121">
+        <v>15</v>
+      </c>
+      <c r="AE121">
+        <v>1.85</v>
+      </c>
+      <c r="AF121">
+        <v>1.12</v>
+      </c>
+      <c r="AG121">
+        <v>5.81</v>
+      </c>
+      <c r="AH121">
+        <v>-3.41</v>
+      </c>
+      <c r="AI121">
+        <v>-0.67</v>
+      </c>
+      <c r="AJ121">
+        <v>6.94</v>
+      </c>
+      <c r="AK121">
+        <v>6.25</v>
+      </c>
+      <c r="AL121">
+        <v>1.85</v>
+      </c>
+      <c r="AM121">
+        <v>1.12</v>
+      </c>
+      <c r="AN121">
+        <v>46.67</v>
+      </c>
+      <c r="AO121">
+        <v>53.33</v>
+      </c>
+      <c r="AP121">
+        <v>40</v>
+      </c>
+      <c r="AQ121">
+        <v>73.33</v>
+      </c>
+      <c r="AR121">
+        <v>66.67</v>
+      </c>
+      <c r="AS121">
+        <v>46.67</v>
+      </c>
+      <c r="AT121">
+        <v>53.33</v>
+      </c>
+      <c r="AU121">
+        <v>6</v>
+      </c>
+      <c r="AV121">
+        <v>-11.07</v>
+      </c>
+      <c r="AW121">
+        <v>-11.66</v>
+      </c>
+      <c r="AX121">
+        <v>-10.23</v>
+      </c>
+      <c r="AY121">
+        <v>-11.66</v>
+      </c>
+      <c r="AZ121">
+        <v>-0.63</v>
+      </c>
+      <c r="BA121">
+        <v>-11.07</v>
+      </c>
+      <c r="BB121">
+        <v>-11.66</v>
+      </c>
+      <c r="BC121">
+        <v>-12.17</v>
+      </c>
+      <c r="BD121">
+        <v>-12.73</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>0</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
+      <c r="BH121">
+        <v>0</v>
+      </c>
+      <c r="BI121">
+        <v>0</v>
+      </c>
+      <c r="BJ121">
+        <v>0</v>
+      </c>
+      <c r="BK121">
+        <v>0</v>
+      </c>
+      <c r="BL121">
+        <v>29</v>
+      </c>
+      <c r="BM121">
+        <v>-4.87</v>
+      </c>
+      <c r="BN121">
+        <v>-5.47</v>
+      </c>
+      <c r="BO121">
+        <v>-2.24</v>
+      </c>
+      <c r="BP121">
+        <v>-6.95</v>
+      </c>
+      <c r="BQ121">
+        <v>-0.62</v>
+      </c>
+      <c r="BR121">
+        <v>-9.15</v>
+      </c>
+      <c r="BS121">
+        <v>-9.720000000000001</v>
+      </c>
+      <c r="BT121">
+        <v>-10.92</v>
+      </c>
+      <c r="BU121">
+        <v>-11.48</v>
+      </c>
+      <c r="BV121">
+        <v>10.34</v>
+      </c>
+      <c r="BW121">
+        <v>17.24</v>
+      </c>
+      <c r="BX121">
+        <v>27.59</v>
+      </c>
+      <c r="BY121">
+        <v>0</v>
+      </c>
+      <c r="BZ121">
+        <v>0</v>
+      </c>
+      <c r="CA121">
+        <v>0</v>
+      </c>
+      <c r="CB121">
+        <v>0</v>
+      </c>
+      <c r="CC121">
+        <v>18</v>
+      </c>
+      <c r="CD121">
+        <v>-3.13</v>
+      </c>
+      <c r="CE121">
+        <v>-3.01</v>
+      </c>
+      <c r="CF121">
+        <v>0.44</v>
+      </c>
+      <c r="CG121">
+        <v>-5.64</v>
+      </c>
+      <c r="CH121">
+        <v>0.14</v>
+      </c>
+      <c r="CI121">
+        <v>-1</v>
+      </c>
+      <c r="CJ121">
+        <v>-0.83</v>
+      </c>
+      <c r="CK121">
+        <v>-7.81</v>
+      </c>
+      <c r="CL121">
+        <v>-7.7</v>
+      </c>
+      <c r="CM121">
+        <v>11.11</v>
+      </c>
+      <c r="CN121">
+        <v>22.22</v>
+      </c>
+      <c r="CO121">
+        <v>50</v>
+      </c>
+      <c r="CP121">
+        <v>55.56</v>
+      </c>
+      <c r="CQ121">
+        <v>50</v>
+      </c>
+      <c r="CR121">
+        <v>0</v>
+      </c>
+      <c r="CS121">
+        <v>5.56</v>
+      </c>
+      <c r="CT121">
+        <v>56</v>
+      </c>
+      <c r="CU121">
+        <v>0.24</v>
+      </c>
+      <c r="CV121">
+        <v>0.66</v>
+      </c>
+      <c r="CW121">
+        <v>4.6</v>
+      </c>
+      <c r="CX121">
+        <v>-3.28</v>
+      </c>
+      <c r="CY121">
+        <v>0.46</v>
+      </c>
+      <c r="CZ121">
+        <v>5.37</v>
+      </c>
+      <c r="DA121">
+        <v>5.9</v>
+      </c>
+      <c r="DB121">
+        <v>-1.27</v>
+      </c>
+      <c r="DC121">
+        <v>-0.85</v>
+      </c>
+      <c r="DD121">
+        <v>37.5</v>
+      </c>
+      <c r="DE121">
+        <v>50</v>
+      </c>
+      <c r="DF121">
+        <v>50</v>
+      </c>
+      <c r="DG121">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="DH121">
+        <v>73.20999999999999</v>
+      </c>
+      <c r="DI121">
+        <v>33.93</v>
+      </c>
+      <c r="DJ121">
+        <v>44.64</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -358,7 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250429</t>
+    <t>20250430</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ121"/>
+  <dimension ref="A1:DJ122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40167,8 +40167,8 @@
       </c>
     </row>
     <row r="121" spans="1:114">
-      <c r="A121" t="s">
-        <v>114</v>
+      <c r="A121">
+        <v>20250429</v>
       </c>
       <c r="B121">
         <v>3557</v>
@@ -40508,6 +40508,350 @@
       </c>
       <c r="DJ121">
         <v>44.64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:114">
+      <c r="A122" t="s">
+        <v>114</v>
+      </c>
+      <c r="B122">
+        <v>3443</v>
+      </c>
+      <c r="C122">
+        <v>1770</v>
+      </c>
+      <c r="D122">
+        <v>147</v>
+      </c>
+      <c r="E122">
+        <v>361</v>
+      </c>
+      <c r="F122">
+        <v>111</v>
+      </c>
+      <c r="G122">
+        <v>167</v>
+      </c>
+      <c r="H122">
+        <v>44</v>
+      </c>
+      <c r="I122">
+        <v>68</v>
+      </c>
+      <c r="J122">
+        <v>10</v>
+      </c>
+      <c r="K122">
+        <v>12</v>
+      </c>
+      <c r="L122">
+        <v>26</v>
+      </c>
+      <c r="M122">
+        <v>58</v>
+      </c>
+      <c r="N122">
+        <v>1.21</v>
+      </c>
+      <c r="O122">
+        <v>1.33</v>
+      </c>
+      <c r="P122">
+        <v>5.19</v>
+      </c>
+      <c r="Q122">
+        <v>-2.32</v>
+      </c>
+      <c r="R122">
+        <v>0.14</v>
+      </c>
+      <c r="S122">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="T122">
+        <v>9.4</v>
+      </c>
+      <c r="U122">
+        <v>1.21</v>
+      </c>
+      <c r="V122">
+        <v>1.33</v>
+      </c>
+      <c r="W122">
+        <v>60.34</v>
+      </c>
+      <c r="X122">
+        <v>55.17</v>
+      </c>
+      <c r="Y122">
+        <v>41.38</v>
+      </c>
+      <c r="Z122">
+        <v>98.28</v>
+      </c>
+      <c r="AA122">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="AB122">
+        <v>60.34</v>
+      </c>
+      <c r="AC122">
+        <v>55.17</v>
+      </c>
+      <c r="AD122">
+        <v>13</v>
+      </c>
+      <c r="AE122">
+        <v>1.87</v>
+      </c>
+      <c r="AF122">
+        <v>1.27</v>
+      </c>
+      <c r="AG122">
+        <v>6.04</v>
+      </c>
+      <c r="AH122">
+        <v>-3.43</v>
+      </c>
+      <c r="AI122">
+        <v>-0.6</v>
+      </c>
+      <c r="AJ122">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="AK122">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="AL122">
+        <v>1.87</v>
+      </c>
+      <c r="AM122">
+        <v>1.27</v>
+      </c>
+      <c r="AN122">
+        <v>61.54</v>
+      </c>
+      <c r="AO122">
+        <v>53.85</v>
+      </c>
+      <c r="AP122">
+        <v>38.46</v>
+      </c>
+      <c r="AQ122">
+        <v>100</v>
+      </c>
+      <c r="AR122">
+        <v>76.92</v>
+      </c>
+      <c r="AS122">
+        <v>61.54</v>
+      </c>
+      <c r="AT122">
+        <v>53.85</v>
+      </c>
+      <c r="AU122">
+        <v>13</v>
+      </c>
+      <c r="AV122">
+        <v>-3.49</v>
+      </c>
+      <c r="AW122">
+        <v>-2.59</v>
+      </c>
+      <c r="AX122">
+        <v>1.91</v>
+      </c>
+      <c r="AY122">
+        <v>-5.05</v>
+      </c>
+      <c r="AZ122">
+        <v>0.99</v>
+      </c>
+      <c r="BA122">
+        <v>-2.67</v>
+      </c>
+      <c r="BB122">
+        <v>-1.78</v>
+      </c>
+      <c r="BC122">
+        <v>-5</v>
+      </c>
+      <c r="BD122">
+        <v>-4.08</v>
+      </c>
+      <c r="BE122">
+        <v>15.38</v>
+      </c>
+      <c r="BF122">
+        <v>38.46</v>
+      </c>
+      <c r="BG122">
+        <v>46.15</v>
+      </c>
+      <c r="BH122">
+        <v>30.77</v>
+      </c>
+      <c r="BI122">
+        <v>46.15</v>
+      </c>
+      <c r="BJ122">
+        <v>7.69</v>
+      </c>
+      <c r="BK122">
+        <v>30.77</v>
+      </c>
+      <c r="BL122">
+        <v>17</v>
+      </c>
+      <c r="BM122">
+        <v>-4.49</v>
+      </c>
+      <c r="BN122">
+        <v>-4.5</v>
+      </c>
+      <c r="BO122">
+        <v>1.13</v>
+      </c>
+      <c r="BP122">
+        <v>-6.71</v>
+      </c>
+      <c r="BQ122">
+        <v>0.08</v>
+      </c>
+      <c r="BR122">
+        <v>-5.94</v>
+      </c>
+      <c r="BS122">
+        <v>-5.89</v>
+      </c>
+      <c r="BT122">
+        <v>-7.56</v>
+      </c>
+      <c r="BU122">
+        <v>-7.48</v>
+      </c>
+      <c r="BV122">
+        <v>11.76</v>
+      </c>
+      <c r="BW122">
+        <v>23.53</v>
+      </c>
+      <c r="BX122">
+        <v>41.18</v>
+      </c>
+      <c r="BY122">
+        <v>5.88</v>
+      </c>
+      <c r="BZ122">
+        <v>23.53</v>
+      </c>
+      <c r="CA122">
+        <v>5.88</v>
+      </c>
+      <c r="CB122">
+        <v>17.65</v>
+      </c>
+      <c r="CC122">
+        <v>25</v>
+      </c>
+      <c r="CD122">
+        <v>-2.18</v>
+      </c>
+      <c r="CE122">
+        <v>-1.55</v>
+      </c>
+      <c r="CF122">
+        <v>2.61</v>
+      </c>
+      <c r="CG122">
+        <v>-4.33</v>
+      </c>
+      <c r="CH122">
+        <v>0.85</v>
+      </c>
+      <c r="CI122">
+        <v>4.06</v>
+      </c>
+      <c r="CJ122">
+        <v>5.02</v>
+      </c>
+      <c r="CK122">
+        <v>-5.89</v>
+      </c>
+      <c r="CL122">
+        <v>-5.22</v>
+      </c>
+      <c r="CM122">
+        <v>16</v>
+      </c>
+      <c r="CN122">
+        <v>24</v>
+      </c>
+      <c r="CO122">
+        <v>48</v>
+      </c>
+      <c r="CP122">
+        <v>84</v>
+      </c>
+      <c r="CQ122">
+        <v>76</v>
+      </c>
+      <c r="CR122">
+        <v>0</v>
+      </c>
+      <c r="CS122">
+        <v>20</v>
+      </c>
+      <c r="CT122">
+        <v>83</v>
+      </c>
+      <c r="CU122">
+        <v>0.19</v>
+      </c>
+      <c r="CV122">
+        <v>0.46</v>
+      </c>
+      <c r="CW122">
+        <v>4.41</v>
+      </c>
+      <c r="CX122">
+        <v>-2.92</v>
+      </c>
+      <c r="CY122">
+        <v>0.35</v>
+      </c>
+      <c r="CZ122">
+        <v>7.72</v>
+      </c>
+      <c r="DA122">
+        <v>8.08</v>
+      </c>
+      <c r="DB122">
+        <v>-0.93</v>
+      </c>
+      <c r="DC122">
+        <v>-0.64</v>
+      </c>
+      <c r="DD122">
+        <v>46.99</v>
+      </c>
+      <c r="DE122">
+        <v>45.78</v>
+      </c>
+      <c r="DF122">
+        <v>43.37</v>
+      </c>
+      <c r="DG122">
+        <v>93.98</v>
+      </c>
+      <c r="DH122">
+        <v>87.95</v>
+      </c>
+      <c r="DI122">
+        <v>42.17</v>
+      </c>
+      <c r="DJ122">
+        <v>44.58</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>日期</t>
   </si>
@@ -358,7 +358,10 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250430</t>
+    <t>20250506</t>
+  </si>
+  <si>
+    <t>20250507</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ122"/>
+  <dimension ref="A1:DJ124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40511,8 +40514,8 @@
       </c>
     </row>
     <row r="122" spans="1:114">
-      <c r="A122" t="s">
-        <v>114</v>
+      <c r="A122">
+        <v>20250430</v>
       </c>
       <c r="B122">
         <v>3443</v>
@@ -40852,6 +40855,643 @@
       </c>
       <c r="DJ122">
         <v>44.58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:114">
+      <c r="A123" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123">
+        <v>4962</v>
+      </c>
+      <c r="C123">
+        <v>379</v>
+      </c>
+      <c r="D123">
+        <v>45</v>
+      </c>
+      <c r="E123">
+        <v>715</v>
+      </c>
+      <c r="F123">
+        <v>30</v>
+      </c>
+      <c r="G123">
+        <v>268</v>
+      </c>
+      <c r="H123">
+        <v>12</v>
+      </c>
+      <c r="I123">
+        <v>95</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>26</v>
+      </c>
+      <c r="L123">
+        <v>20</v>
+      </c>
+      <c r="M123">
+        <v>68</v>
+      </c>
+      <c r="N123">
+        <v>2.69</v>
+      </c>
+      <c r="O123">
+        <v>4.16</v>
+      </c>
+      <c r="P123">
+        <v>6.11</v>
+      </c>
+      <c r="Q123">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R123">
+        <v>1.47</v>
+      </c>
+      <c r="S123">
+        <v>10.11</v>
+      </c>
+      <c r="T123">
+        <v>11.67</v>
+      </c>
+      <c r="U123">
+        <v>2.69</v>
+      </c>
+      <c r="V123">
+        <v>4.16</v>
+      </c>
+      <c r="W123">
+        <v>79.41</v>
+      </c>
+      <c r="X123">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="Y123">
+        <v>69.12</v>
+      </c>
+      <c r="Z123">
+        <v>97.06</v>
+      </c>
+      <c r="AA123">
+        <v>98.53</v>
+      </c>
+      <c r="AB123">
+        <v>79.41</v>
+      </c>
+      <c r="AC123">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="AD123">
+        <v>12</v>
+      </c>
+      <c r="AE123">
+        <v>3.47</v>
+      </c>
+      <c r="AF123">
+        <v>4.85</v>
+      </c>
+      <c r="AG123">
+        <v>7.96</v>
+      </c>
+      <c r="AH123">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="AI123">
+        <v>1.4</v>
+      </c>
+      <c r="AJ123">
+        <v>8.17</v>
+      </c>
+      <c r="AK123">
+        <v>9.52</v>
+      </c>
+      <c r="AL123">
+        <v>3.47</v>
+      </c>
+      <c r="AM123">
+        <v>4.85</v>
+      </c>
+      <c r="AN123">
+        <v>66.67</v>
+      </c>
+      <c r="AO123">
+        <v>83.33</v>
+      </c>
+      <c r="AP123">
+        <v>50</v>
+      </c>
+      <c r="AQ123">
+        <v>83.33</v>
+      </c>
+      <c r="AR123">
+        <v>91.67</v>
+      </c>
+      <c r="AS123">
+        <v>66.67</v>
+      </c>
+      <c r="AT123">
+        <v>83.33</v>
+      </c>
+      <c r="AU123">
+        <v>6</v>
+      </c>
+      <c r="AV123">
+        <v>-1.97</v>
+      </c>
+      <c r="AW123">
+        <v>0.65</v>
+      </c>
+      <c r="AX123">
+        <v>2.48</v>
+      </c>
+      <c r="AY123">
+        <v>-4</v>
+      </c>
+      <c r="AZ123">
+        <v>2.64</v>
+      </c>
+      <c r="BA123">
+        <v>-0.39</v>
+      </c>
+      <c r="BB123">
+        <v>2.28</v>
+      </c>
+      <c r="BC123">
+        <v>-8.609999999999999</v>
+      </c>
+      <c r="BD123">
+        <v>-6.21</v>
+      </c>
+      <c r="BE123">
+        <v>33.33</v>
+      </c>
+      <c r="BF123">
+        <v>66.67</v>
+      </c>
+      <c r="BG123">
+        <v>100</v>
+      </c>
+      <c r="BH123">
+        <v>66.67</v>
+      </c>
+      <c r="BI123">
+        <v>66.67</v>
+      </c>
+      <c r="BJ123">
+        <v>0</v>
+      </c>
+      <c r="BK123">
+        <v>16.67</v>
+      </c>
+      <c r="BL123">
+        <v>8</v>
+      </c>
+      <c r="BM123">
+        <v>-5.31</v>
+      </c>
+      <c r="BN123">
+        <v>-2.74</v>
+      </c>
+      <c r="BO123">
+        <v>-0.47</v>
+      </c>
+      <c r="BP123">
+        <v>-6.77</v>
+      </c>
+      <c r="BQ123">
+        <v>2.67</v>
+      </c>
+      <c r="BR123">
+        <v>-9.77</v>
+      </c>
+      <c r="BS123">
+        <v>-7.33</v>
+      </c>
+      <c r="BT123">
+        <v>-12.82</v>
+      </c>
+      <c r="BU123">
+        <v>-10.45</v>
+      </c>
+      <c r="BV123">
+        <v>0</v>
+      </c>
+      <c r="BW123">
+        <v>37.5</v>
+      </c>
+      <c r="BX123">
+        <v>62.5</v>
+      </c>
+      <c r="BY123">
+        <v>0</v>
+      </c>
+      <c r="BZ123">
+        <v>12.5</v>
+      </c>
+      <c r="CA123">
+        <v>0</v>
+      </c>
+      <c r="CB123">
+        <v>12.5</v>
+      </c>
+      <c r="CC123">
+        <v>26</v>
+      </c>
+      <c r="CD123">
+        <v>-0.22</v>
+      </c>
+      <c r="CE123">
+        <v>4.19</v>
+      </c>
+      <c r="CF123">
+        <v>5.36</v>
+      </c>
+      <c r="CG123">
+        <v>-1.42</v>
+      </c>
+      <c r="CH123">
+        <v>4.48</v>
+      </c>
+      <c r="CI123">
+        <v>4.09</v>
+      </c>
+      <c r="CJ123">
+        <v>8.74</v>
+      </c>
+      <c r="CK123">
+        <v>-4</v>
+      </c>
+      <c r="CL123">
+        <v>0.23</v>
+      </c>
+      <c r="CM123">
+        <v>46.15</v>
+      </c>
+      <c r="CN123">
+        <v>88.45999999999999</v>
+      </c>
+      <c r="CO123">
+        <v>92.31</v>
+      </c>
+      <c r="CP123">
+        <v>80.77</v>
+      </c>
+      <c r="CQ123">
+        <v>92.31</v>
+      </c>
+      <c r="CR123">
+        <v>3.85</v>
+      </c>
+      <c r="CS123">
+        <v>46.15</v>
+      </c>
+      <c r="CT123">
+        <v>94</v>
+      </c>
+      <c r="CU123">
+        <v>1.89</v>
+      </c>
+      <c r="CV123">
+        <v>4.17</v>
+      </c>
+      <c r="CW123">
+        <v>5.91</v>
+      </c>
+      <c r="CX123">
+        <v>-0.35</v>
+      </c>
+      <c r="CY123">
+        <v>2.3</v>
+      </c>
+      <c r="CZ123">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="DA123">
+        <v>10.86</v>
+      </c>
+      <c r="DB123">
+        <v>0.84</v>
+      </c>
+      <c r="DC123">
+        <v>3.08</v>
+      </c>
+      <c r="DD123">
+        <v>70.20999999999999</v>
+      </c>
+      <c r="DE123">
+        <v>87.23</v>
+      </c>
+      <c r="DF123">
+        <v>75.53</v>
+      </c>
+      <c r="DG123">
+        <v>92.55</v>
+      </c>
+      <c r="DH123">
+        <v>96.81</v>
+      </c>
+      <c r="DI123">
+        <v>58.51</v>
+      </c>
+      <c r="DJ123">
+        <v>75.53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:114">
+      <c r="A124" t="s">
+        <v>115</v>
+      </c>
+      <c r="B124">
+        <v>3293</v>
+      </c>
+      <c r="C124">
+        <v>1891</v>
+      </c>
+      <c r="D124">
+        <v>204</v>
+      </c>
+      <c r="E124">
+        <v>261</v>
+      </c>
+      <c r="F124">
+        <v>20</v>
+      </c>
+      <c r="G124">
+        <v>148</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>61</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>25</v>
+      </c>
+      <c r="L124">
+        <v>45</v>
+      </c>
+      <c r="M124">
+        <v>95</v>
+      </c>
+      <c r="N124">
+        <v>3.95</v>
+      </c>
+      <c r="O124">
+        <v>3.62</v>
+      </c>
+      <c r="P124">
+        <v>7.13</v>
+      </c>
+      <c r="Q124">
+        <v>0.57</v>
+      </c>
+      <c r="R124">
+        <v>-0.3</v>
+      </c>
+      <c r="S124">
+        <v>12.73</v>
+      </c>
+      <c r="T124">
+        <v>12.4</v>
+      </c>
+      <c r="U124">
+        <v>3.95</v>
+      </c>
+      <c r="V124">
+        <v>3.62</v>
+      </c>
+      <c r="W124">
+        <v>83.16</v>
+      </c>
+      <c r="X124">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="Y124">
+        <v>37.89</v>
+      </c>
+      <c r="Z124">
+        <v>100</v>
+      </c>
+      <c r="AA124">
+        <v>100</v>
+      </c>
+      <c r="AB124">
+        <v>83.16</v>
+      </c>
+      <c r="AC124">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="AD124">
+        <v>26</v>
+      </c>
+      <c r="AE124">
+        <v>5.24</v>
+      </c>
+      <c r="AF124">
+        <v>4.53</v>
+      </c>
+      <c r="AG124">
+        <v>8.66</v>
+      </c>
+      <c r="AH124">
+        <v>0.7</v>
+      </c>
+      <c r="AI124">
+        <v>-0.63</v>
+      </c>
+      <c r="AJ124">
+        <v>12.08</v>
+      </c>
+      <c r="AK124">
+        <v>11.43</v>
+      </c>
+      <c r="AL124">
+        <v>5.24</v>
+      </c>
+      <c r="AM124">
+        <v>4.53</v>
+      </c>
+      <c r="AN124">
+        <v>92.31</v>
+      </c>
+      <c r="AO124">
+        <v>80.77</v>
+      </c>
+      <c r="AP124">
+        <v>34.62</v>
+      </c>
+      <c r="AQ124">
+        <v>100</v>
+      </c>
+      <c r="AR124">
+        <v>100</v>
+      </c>
+      <c r="AS124">
+        <v>92.31</v>
+      </c>
+      <c r="AT124">
+        <v>80.77</v>
+      </c>
+      <c r="AU124">
+        <v>1</v>
+      </c>
+      <c r="AV124">
+        <v>-4.97</v>
+      </c>
+      <c r="AW124">
+        <v>5.37</v>
+      </c>
+      <c r="AX124">
+        <v>9.74</v>
+      </c>
+      <c r="AY124">
+        <v>-6.76</v>
+      </c>
+      <c r="AZ124">
+        <v>10.88</v>
+      </c>
+      <c r="BA124">
+        <v>3.24</v>
+      </c>
+      <c r="BB124">
+        <v>14.47</v>
+      </c>
+      <c r="BC124">
+        <v>-11.48</v>
+      </c>
+      <c r="BD124">
+        <v>-1.85</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>100</v>
+      </c>
+      <c r="BG124">
+        <v>100</v>
+      </c>
+      <c r="BH124">
+        <v>100</v>
+      </c>
+      <c r="BI124">
+        <v>100</v>
+      </c>
+      <c r="BJ124">
+        <v>0</v>
+      </c>
+      <c r="BK124">
+        <v>0</v>
+      </c>
+      <c r="CC124">
+        <v>20</v>
+      </c>
+      <c r="CD124">
+        <v>0.52</v>
+      </c>
+      <c r="CE124">
+        <v>0.46</v>
+      </c>
+      <c r="CF124">
+        <v>3.24</v>
+      </c>
+      <c r="CG124">
+        <v>-2.55</v>
+      </c>
+      <c r="CH124">
+        <v>-0.06</v>
+      </c>
+      <c r="CI124">
+        <v>4.18</v>
+      </c>
+      <c r="CJ124">
+        <v>4.13</v>
+      </c>
+      <c r="CK124">
+        <v>-3.98</v>
+      </c>
+      <c r="CL124">
+        <v>-4</v>
+      </c>
+      <c r="CM124">
+        <v>70</v>
+      </c>
+      <c r="CN124">
+        <v>45</v>
+      </c>
+      <c r="CO124">
+        <v>30</v>
+      </c>
+      <c r="CP124">
+        <v>80</v>
+      </c>
+      <c r="CQ124">
+        <v>80</v>
+      </c>
+      <c r="CR124">
+        <v>0</v>
+      </c>
+      <c r="CS124">
+        <v>10</v>
+      </c>
+      <c r="CT124">
+        <v>115</v>
+      </c>
+      <c r="CU124">
+        <v>3.36</v>
+      </c>
+      <c r="CV124">
+        <v>3.07</v>
+      </c>
+      <c r="CW124">
+        <v>6.45</v>
+      </c>
+      <c r="CX124">
+        <v>0.03</v>
+      </c>
+      <c r="CY124">
+        <v>-0.26</v>
+      </c>
+      <c r="CZ124">
+        <v>11.24</v>
+      </c>
+      <c r="DA124">
+        <v>10.96</v>
+      </c>
+      <c r="DB124">
+        <v>2.57</v>
+      </c>
+      <c r="DC124">
+        <v>2.3</v>
+      </c>
+      <c r="DD124">
+        <v>80.87</v>
+      </c>
+      <c r="DE124">
+        <v>68.7</v>
+      </c>
+      <c r="DF124">
+        <v>36.52</v>
+      </c>
+      <c r="DG124">
+        <v>96.52</v>
+      </c>
+      <c r="DH124">
+        <v>96.52</v>
+      </c>
+      <c r="DI124">
+        <v>68.7</v>
+      </c>
+      <c r="DJ124">
+        <v>62.61</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>日期</t>
   </si>
@@ -358,10 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250506</t>
-  </si>
-  <si>
-    <t>20250507</t>
+    <t>20250508</t>
   </si>
 </sst>
 </file>
@@ -719,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ124"/>
+  <dimension ref="A1:DJ125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40858,8 +40855,8 @@
       </c>
     </row>
     <row r="123" spans="1:114">
-      <c r="A123" t="s">
-        <v>114</v>
+      <c r="A123">
+        <v>20250506</v>
       </c>
       <c r="B123">
         <v>4962</v>
@@ -41202,8 +41199,8 @@
       </c>
     </row>
     <row r="124" spans="1:114">
-      <c r="A124" t="s">
-        <v>115</v>
+      <c r="A124">
+        <v>20250507</v>
       </c>
       <c r="B124">
         <v>3293</v>
@@ -41492,6 +41489,248 @@
       </c>
       <c r="DJ124">
         <v>62.61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:114">
+      <c r="A125" t="s">
+        <v>114</v>
+      </c>
+      <c r="B125">
+        <v>3839</v>
+      </c>
+      <c r="C125">
+        <v>1367</v>
+      </c>
+      <c r="D125">
+        <v>183</v>
+      </c>
+      <c r="E125">
+        <v>263</v>
+      </c>
+      <c r="F125">
+        <v>42</v>
+      </c>
+      <c r="G125">
+        <v>131</v>
+      </c>
+      <c r="H125">
+        <v>14</v>
+      </c>
+      <c r="I125">
+        <v>62</v>
+      </c>
+      <c r="J125">
+        <v>4</v>
+      </c>
+      <c r="K125">
+        <v>16</v>
+      </c>
+      <c r="L125">
+        <v>22</v>
+      </c>
+      <c r="M125">
+        <v>61</v>
+      </c>
+      <c r="N125">
+        <v>1.57</v>
+      </c>
+      <c r="O125">
+        <v>1.34</v>
+      </c>
+      <c r="P125">
+        <v>5.5</v>
+      </c>
+      <c r="Q125">
+        <v>-2.11</v>
+      </c>
+      <c r="R125">
+        <v>-0.21</v>
+      </c>
+      <c r="S125">
+        <v>8.33</v>
+      </c>
+      <c r="T125">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U125">
+        <v>1.57</v>
+      </c>
+      <c r="V125">
+        <v>1.34</v>
+      </c>
+      <c r="W125">
+        <v>49.18</v>
+      </c>
+      <c r="X125">
+        <v>47.54</v>
+      </c>
+      <c r="Y125">
+        <v>39.34</v>
+      </c>
+      <c r="Z125">
+        <v>90.16</v>
+      </c>
+      <c r="AA125">
+        <v>81.97</v>
+      </c>
+      <c r="AB125">
+        <v>49.18</v>
+      </c>
+      <c r="AC125">
+        <v>47.54</v>
+      </c>
+      <c r="AD125">
+        <v>25</v>
+      </c>
+      <c r="AE125">
+        <v>1.41</v>
+      </c>
+      <c r="AF125">
+        <v>0.59</v>
+      </c>
+      <c r="AG125">
+        <v>6.09</v>
+      </c>
+      <c r="AH125">
+        <v>-3.21</v>
+      </c>
+      <c r="AI125">
+        <v>-0.75</v>
+      </c>
+      <c r="AJ125">
+        <v>5.02</v>
+      </c>
+      <c r="AK125">
+        <v>4.22</v>
+      </c>
+      <c r="AL125">
+        <v>1.41</v>
+      </c>
+      <c r="AM125">
+        <v>0.59</v>
+      </c>
+      <c r="AN125">
+        <v>60</v>
+      </c>
+      <c r="AO125">
+        <v>44</v>
+      </c>
+      <c r="AP125">
+        <v>44</v>
+      </c>
+      <c r="AQ125">
+        <v>80</v>
+      </c>
+      <c r="AR125">
+        <v>68</v>
+      </c>
+      <c r="AS125">
+        <v>60</v>
+      </c>
+      <c r="AT125">
+        <v>44</v>
+      </c>
+      <c r="CC125">
+        <v>44</v>
+      </c>
+      <c r="CD125">
+        <v>-1.66</v>
+      </c>
+      <c r="CE125">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CF125">
+        <v>3.05</v>
+      </c>
+      <c r="CG125">
+        <v>-3.4</v>
+      </c>
+      <c r="CH125">
+        <v>1.75</v>
+      </c>
+      <c r="CI125">
+        <v>0.53</v>
+      </c>
+      <c r="CJ125">
+        <v>2.44</v>
+      </c>
+      <c r="CK125">
+        <v>-6.12</v>
+      </c>
+      <c r="CL125">
+        <v>-4.42</v>
+      </c>
+      <c r="CM125">
+        <v>9.09</v>
+      </c>
+      <c r="CN125">
+        <v>31.82</v>
+      </c>
+      <c r="CO125">
+        <v>63.64</v>
+      </c>
+      <c r="CP125">
+        <v>61.36</v>
+      </c>
+      <c r="CQ125">
+        <v>65.91</v>
+      </c>
+      <c r="CR125">
+        <v>2.27</v>
+      </c>
+      <c r="CS125">
+        <v>20.45</v>
+      </c>
+      <c r="CT125">
+        <v>105</v>
+      </c>
+      <c r="CU125">
+        <v>0.21</v>
+      </c>
+      <c r="CV125">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="CW125">
+        <v>4.48</v>
+      </c>
+      <c r="CX125">
+        <v>-2.65</v>
+      </c>
+      <c r="CY125">
+        <v>0.61</v>
+      </c>
+      <c r="CZ125">
+        <v>5.06</v>
+      </c>
+      <c r="DA125">
+        <v>5.75</v>
+      </c>
+      <c r="DB125">
+        <v>-1.66</v>
+      </c>
+      <c r="DC125">
+        <v>-1.07</v>
+      </c>
+      <c r="DD125">
+        <v>32.38</v>
+      </c>
+      <c r="DE125">
+        <v>40.95</v>
+      </c>
+      <c r="DF125">
+        <v>49.52</v>
+      </c>
+      <c r="DG125">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="DH125">
+        <v>75.23999999999999</v>
+      </c>
+      <c r="DI125">
+        <v>29.52</v>
+      </c>
+      <c r="DJ125">
+        <v>36.19</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -358,7 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250508</t>
+    <t>20250509</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ125"/>
+  <dimension ref="A1:DJ126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41492,8 +41492,8 @@
       </c>
     </row>
     <row r="125" spans="1:114">
-      <c r="A125" t="s">
-        <v>114</v>
+      <c r="A125">
+        <v>20250508</v>
       </c>
       <c r="B125">
         <v>3839</v>
@@ -41731,6 +41731,299 @@
       </c>
       <c r="DJ125">
         <v>36.19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:114">
+      <c r="A126" t="s">
+        <v>114</v>
+      </c>
+      <c r="B126">
+        <v>1213</v>
+      </c>
+      <c r="C126">
+        <v>4063</v>
+      </c>
+      <c r="D126">
+        <v>113</v>
+      </c>
+      <c r="E126">
+        <v>119</v>
+      </c>
+      <c r="F126">
+        <v>150</v>
+      </c>
+      <c r="G126">
+        <v>65</v>
+      </c>
+      <c r="H126">
+        <v>46</v>
+      </c>
+      <c r="I126">
+        <v>33</v>
+      </c>
+      <c r="J126">
+        <v>4</v>
+      </c>
+      <c r="K126">
+        <v>13</v>
+      </c>
+      <c r="L126">
+        <v>26</v>
+      </c>
+      <c r="M126">
+        <v>66</v>
+      </c>
+      <c r="N126">
+        <v>2.05</v>
+      </c>
+      <c r="O126">
+        <v>0.46</v>
+      </c>
+      <c r="P126">
+        <v>5.95</v>
+      </c>
+      <c r="Q126">
+        <v>-2.76</v>
+      </c>
+      <c r="R126">
+        <v>-1.53</v>
+      </c>
+      <c r="S126">
+        <v>11.24</v>
+      </c>
+      <c r="T126">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="U126">
+        <v>2.05</v>
+      </c>
+      <c r="V126">
+        <v>0.46</v>
+      </c>
+      <c r="W126">
+        <v>50</v>
+      </c>
+      <c r="X126">
+        <v>43.94</v>
+      </c>
+      <c r="Y126">
+        <v>22.73</v>
+      </c>
+      <c r="Z126">
+        <v>93.94</v>
+      </c>
+      <c r="AA126">
+        <v>86.36</v>
+      </c>
+      <c r="AB126">
+        <v>50</v>
+      </c>
+      <c r="AC126">
+        <v>43.94</v>
+      </c>
+      <c r="AD126">
+        <v>16</v>
+      </c>
+      <c r="AE126">
+        <v>4.46</v>
+      </c>
+      <c r="AF126">
+        <v>4.03</v>
+      </c>
+      <c r="AG126">
+        <v>10.02</v>
+      </c>
+      <c r="AH126">
+        <v>-1.15</v>
+      </c>
+      <c r="AI126">
+        <v>-0.12</v>
+      </c>
+      <c r="AJ126">
+        <v>8.9</v>
+      </c>
+      <c r="AK126">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AL126">
+        <v>4.46</v>
+      </c>
+      <c r="AM126">
+        <v>4.03</v>
+      </c>
+      <c r="AN126">
+        <v>62.5</v>
+      </c>
+      <c r="AO126">
+        <v>68.75</v>
+      </c>
+      <c r="AP126">
+        <v>37.5</v>
+      </c>
+      <c r="AQ126">
+        <v>87.5</v>
+      </c>
+      <c r="AR126">
+        <v>81.25</v>
+      </c>
+      <c r="AS126">
+        <v>62.5</v>
+      </c>
+      <c r="AT126">
+        <v>68.75</v>
+      </c>
+      <c r="BL126">
+        <v>4</v>
+      </c>
+      <c r="BM126">
+        <v>-4.76</v>
+      </c>
+      <c r="BN126">
+        <v>-3.75</v>
+      </c>
+      <c r="BO126">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="BP126">
+        <v>-6.71</v>
+      </c>
+      <c r="BQ126">
+        <v>1.17</v>
+      </c>
+      <c r="BR126">
+        <v>-10.56</v>
+      </c>
+      <c r="BS126">
+        <v>-9.710000000000001</v>
+      </c>
+      <c r="BT126">
+        <v>-11.89</v>
+      </c>
+      <c r="BU126">
+        <v>-11.02</v>
+      </c>
+      <c r="BV126">
+        <v>0</v>
+      </c>
+      <c r="BW126">
+        <v>0</v>
+      </c>
+      <c r="BX126">
+        <v>50</v>
+      </c>
+      <c r="BY126">
+        <v>0</v>
+      </c>
+      <c r="BZ126">
+        <v>0</v>
+      </c>
+      <c r="CA126">
+        <v>0</v>
+      </c>
+      <c r="CB126">
+        <v>0</v>
+      </c>
+      <c r="CC126">
+        <v>23</v>
+      </c>
+      <c r="CD126">
+        <v>-1.51</v>
+      </c>
+      <c r="CE126">
+        <v>-2.96</v>
+      </c>
+      <c r="CF126">
+        <v>1.44</v>
+      </c>
+      <c r="CG126">
+        <v>-4.98</v>
+      </c>
+      <c r="CH126">
+        <v>-1.48</v>
+      </c>
+      <c r="CI126">
+        <v>4.08</v>
+      </c>
+      <c r="CJ126">
+        <v>2.5</v>
+      </c>
+      <c r="CK126">
+        <v>-5.69</v>
+      </c>
+      <c r="CL126">
+        <v>-7.11</v>
+      </c>
+      <c r="CM126">
+        <v>26.09</v>
+      </c>
+      <c r="CN126">
+        <v>13.04</v>
+      </c>
+      <c r="CO126">
+        <v>21.74</v>
+      </c>
+      <c r="CP126">
+        <v>82.61</v>
+      </c>
+      <c r="CQ126">
+        <v>65.22</v>
+      </c>
+      <c r="CR126">
+        <v>0</v>
+      </c>
+      <c r="CS126">
+        <v>4.35</v>
+      </c>
+      <c r="CT126">
+        <v>89</v>
+      </c>
+      <c r="CU126">
+        <v>1.13</v>
+      </c>
+      <c r="CV126">
+        <v>-0.43</v>
+      </c>
+      <c r="CW126">
+        <v>4.78</v>
+      </c>
+      <c r="CX126">
+        <v>-3.33</v>
+      </c>
+      <c r="CY126">
+        <v>-1.52</v>
+      </c>
+      <c r="CZ126">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="DA126">
+        <v>7.73</v>
+      </c>
+      <c r="DB126">
+        <v>0.05</v>
+      </c>
+      <c r="DC126">
+        <v>-1.5</v>
+      </c>
+      <c r="DD126">
+        <v>43.82</v>
+      </c>
+      <c r="DE126">
+        <v>35.96</v>
+      </c>
+      <c r="DF126">
+        <v>22.47</v>
+      </c>
+      <c r="DG126">
+        <v>91.01000000000001</v>
+      </c>
+      <c r="DH126">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="DI126">
+        <v>37.08</v>
+      </c>
+      <c r="DJ126">
+        <v>33.71</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -358,7 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250509</t>
+    <t>20250512</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ126"/>
+  <dimension ref="A1:DJ127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41734,8 +41734,8 @@
       </c>
     </row>
     <row r="126" spans="1:114">
-      <c r="A126" t="s">
-        <v>114</v>
+      <c r="A126">
+        <v>20250509</v>
       </c>
       <c r="B126">
         <v>1213</v>
@@ -42024,6 +42024,350 @@
       </c>
       <c r="DJ126">
         <v>33.71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:114">
+      <c r="A127" t="s">
+        <v>114</v>
+      </c>
+      <c r="B127">
+        <v>4112</v>
+      </c>
+      <c r="C127">
+        <v>1101</v>
+      </c>
+      <c r="D127">
+        <v>176</v>
+      </c>
+      <c r="E127">
+        <v>311</v>
+      </c>
+      <c r="F127">
+        <v>26</v>
+      </c>
+      <c r="G127">
+        <v>149</v>
+      </c>
+      <c r="H127">
+        <v>8</v>
+      </c>
+      <c r="I127">
+        <v>49</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>17</v>
+      </c>
+      <c r="L127">
+        <v>24</v>
+      </c>
+      <c r="M127">
+        <v>33</v>
+      </c>
+      <c r="N127">
+        <v>2.62</v>
+      </c>
+      <c r="O127">
+        <v>2.25</v>
+      </c>
+      <c r="P127">
+        <v>6.49</v>
+      </c>
+      <c r="Q127">
+        <v>-1.74</v>
+      </c>
+      <c r="R127">
+        <v>-0.21</v>
+      </c>
+      <c r="S127">
+        <v>10.74</v>
+      </c>
+      <c r="T127">
+        <v>10.28</v>
+      </c>
+      <c r="U127">
+        <v>2.62</v>
+      </c>
+      <c r="V127">
+        <v>2.25</v>
+      </c>
+      <c r="W127">
+        <v>60.61</v>
+      </c>
+      <c r="X127">
+        <v>54.55</v>
+      </c>
+      <c r="Y127">
+        <v>45.45</v>
+      </c>
+      <c r="Z127">
+        <v>90.91</v>
+      </c>
+      <c r="AA127">
+        <v>90.91</v>
+      </c>
+      <c r="AB127">
+        <v>60.61</v>
+      </c>
+      <c r="AC127">
+        <v>54.55</v>
+      </c>
+      <c r="AD127">
+        <v>13</v>
+      </c>
+      <c r="AE127">
+        <v>1.32</v>
+      </c>
+      <c r="AF127">
+        <v>3.2</v>
+      </c>
+      <c r="AG127">
+        <v>6.22</v>
+      </c>
+      <c r="AH127">
+        <v>-2.59</v>
+      </c>
+      <c r="AI127">
+        <v>1.99</v>
+      </c>
+      <c r="AJ127">
+        <v>5.82</v>
+      </c>
+      <c r="AK127">
+        <v>7.82</v>
+      </c>
+      <c r="AL127">
+        <v>1.32</v>
+      </c>
+      <c r="AM127">
+        <v>3.2</v>
+      </c>
+      <c r="AN127">
+        <v>61.54</v>
+      </c>
+      <c r="AO127">
+        <v>61.54</v>
+      </c>
+      <c r="AP127">
+        <v>46.15</v>
+      </c>
+      <c r="AQ127">
+        <v>76.92</v>
+      </c>
+      <c r="AR127">
+        <v>76.92</v>
+      </c>
+      <c r="AS127">
+        <v>61.54</v>
+      </c>
+      <c r="AT127">
+        <v>61.54</v>
+      </c>
+      <c r="AU127">
+        <v>1</v>
+      </c>
+      <c r="AV127">
+        <v>-3.72</v>
+      </c>
+      <c r="AW127">
+        <v>0.25</v>
+      </c>
+      <c r="AX127">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AY127">
+        <v>-3.72</v>
+      </c>
+      <c r="AZ127">
+        <v>4.12</v>
+      </c>
+      <c r="BA127">
+        <v>-3.72</v>
+      </c>
+      <c r="BB127">
+        <v>0.25</v>
+      </c>
+      <c r="BC127">
+        <v>-3.72</v>
+      </c>
+      <c r="BD127">
+        <v>0.25</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>100</v>
+      </c>
+      <c r="BG127">
+        <v>100</v>
+      </c>
+      <c r="BH127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>100</v>
+      </c>
+      <c r="BJ127">
+        <v>0</v>
+      </c>
+      <c r="BK127">
+        <v>100</v>
+      </c>
+      <c r="BL127">
+        <v>4</v>
+      </c>
+      <c r="BM127">
+        <v>-5.51</v>
+      </c>
+      <c r="BN127">
+        <v>-4.38</v>
+      </c>
+      <c r="BO127">
+        <v>-0.17</v>
+      </c>
+      <c r="BP127">
+        <v>-7.18</v>
+      </c>
+      <c r="BQ127">
+        <v>1.22</v>
+      </c>
+      <c r="BR127">
+        <v>-14.22</v>
+      </c>
+      <c r="BS127">
+        <v>-13.13</v>
+      </c>
+      <c r="BT127">
+        <v>-14.52</v>
+      </c>
+      <c r="BU127">
+        <v>-13.43</v>
+      </c>
+      <c r="BV127">
+        <v>0</v>
+      </c>
+      <c r="BW127">
+        <v>25</v>
+      </c>
+      <c r="BX127">
+        <v>50</v>
+      </c>
+      <c r="BY127">
+        <v>0</v>
+      </c>
+      <c r="BZ127">
+        <v>25</v>
+      </c>
+      <c r="CA127">
+        <v>0</v>
+      </c>
+      <c r="CB127">
+        <v>25</v>
+      </c>
+      <c r="CC127">
+        <v>26</v>
+      </c>
+      <c r="CD127">
+        <v>-3.07</v>
+      </c>
+      <c r="CE127">
+        <v>1.98</v>
+      </c>
+      <c r="CF127">
+        <v>4.88</v>
+      </c>
+      <c r="CG127">
+        <v>-5.27</v>
+      </c>
+      <c r="CH127">
+        <v>5.47</v>
+      </c>
+      <c r="CI127">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="CJ127">
+        <v>5.14</v>
+      </c>
+      <c r="CK127">
+        <v>-8.17</v>
+      </c>
+      <c r="CL127">
+        <v>-3.51</v>
+      </c>
+      <c r="CM127">
+        <v>19.23</v>
+      </c>
+      <c r="CN127">
+        <v>46.15</v>
+      </c>
+      <c r="CO127">
+        <v>53.85</v>
+      </c>
+      <c r="CP127">
+        <v>57.69</v>
+      </c>
+      <c r="CQ127">
+        <v>76.92</v>
+      </c>
+      <c r="CR127">
+        <v>7.69</v>
+      </c>
+      <c r="CS127">
+        <v>30.77</v>
+      </c>
+      <c r="CT127">
+        <v>59</v>
+      </c>
+      <c r="CU127">
+        <v>0.11</v>
+      </c>
+      <c r="CV127">
+        <v>2.13</v>
+      </c>
+      <c r="CW127">
+        <v>5.78</v>
+      </c>
+      <c r="CX127">
+        <v>-3.3</v>
+      </c>
+      <c r="CY127">
+        <v>2.29</v>
+      </c>
+      <c r="CZ127">
+        <v>5.98</v>
+      </c>
+      <c r="DA127">
+        <v>8.02</v>
+      </c>
+      <c r="DB127">
+        <v>-2.14</v>
+      </c>
+      <c r="DC127">
+        <v>-0.29</v>
+      </c>
+      <c r="DD127">
+        <v>42.37</v>
+      </c>
+      <c r="DE127">
+        <v>50.85</v>
+      </c>
+      <c r="DF127">
+        <v>49.15</v>
+      </c>
+      <c r="DG127">
+        <v>76.27</v>
+      </c>
+      <c r="DH127">
+        <v>84.75</v>
+      </c>
+      <c r="DI127">
+        <v>37.29</v>
+      </c>
+      <c r="DJ127">
+        <v>44.07</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>日期</t>
   </si>
@@ -358,7 +358,10 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250512</t>
+    <t>20250513</t>
+  </si>
+  <si>
+    <t>20250514</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ127"/>
+  <dimension ref="A1:DJ129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42027,8 +42030,8 @@
       </c>
     </row>
     <row r="127" spans="1:114">
-      <c r="A127" t="s">
-        <v>114</v>
+      <c r="A127">
+        <v>20250512</v>
       </c>
       <c r="B127">
         <v>4112</v>
@@ -42368,6 +42371,592 @@
       </c>
       <c r="DJ127">
         <v>44.07</v>
+      </c>
+    </row>
+    <row r="128" spans="1:114">
+      <c r="A128" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128">
+        <v>1941</v>
+      </c>
+      <c r="C128">
+        <v>3234</v>
+      </c>
+      <c r="D128">
+        <v>216</v>
+      </c>
+      <c r="E128">
+        <v>160</v>
+      </c>
+      <c r="F128">
+        <v>84</v>
+      </c>
+      <c r="G128">
+        <v>87</v>
+      </c>
+      <c r="H128">
+        <v>26</v>
+      </c>
+      <c r="I128">
+        <v>48</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>16</v>
+      </c>
+      <c r="L128">
+        <v>18</v>
+      </c>
+      <c r="M128">
+        <v>49</v>
+      </c>
+      <c r="N128">
+        <v>4.07</v>
+      </c>
+      <c r="O128">
+        <v>1.78</v>
+      </c>
+      <c r="P128">
+        <v>7.02</v>
+      </c>
+      <c r="Q128">
+        <v>-0.79</v>
+      </c>
+      <c r="R128">
+        <v>-2.17</v>
+      </c>
+      <c r="S128">
+        <v>14.61</v>
+      </c>
+      <c r="T128">
+        <v>11.99</v>
+      </c>
+      <c r="U128">
+        <v>4.07</v>
+      </c>
+      <c r="V128">
+        <v>1.78</v>
+      </c>
+      <c r="W128">
+        <v>79.59</v>
+      </c>
+      <c r="X128">
+        <v>53.06</v>
+      </c>
+      <c r="Y128">
+        <v>20.41</v>
+      </c>
+      <c r="Z128">
+        <v>100</v>
+      </c>
+      <c r="AA128">
+        <v>100</v>
+      </c>
+      <c r="AB128">
+        <v>79.59</v>
+      </c>
+      <c r="AC128">
+        <v>53.06</v>
+      </c>
+      <c r="AD128">
+        <v>17</v>
+      </c>
+      <c r="AE128">
+        <v>4.98</v>
+      </c>
+      <c r="AF128">
+        <v>3.77</v>
+      </c>
+      <c r="AG128">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH128">
+        <v>0.15</v>
+      </c>
+      <c r="AI128">
+        <v>-1.11</v>
+      </c>
+      <c r="AJ128">
+        <v>17.46</v>
+      </c>
+      <c r="AK128">
+        <v>15.84</v>
+      </c>
+      <c r="AL128">
+        <v>4.98</v>
+      </c>
+      <c r="AM128">
+        <v>3.77</v>
+      </c>
+      <c r="AN128">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="AO128">
+        <v>70.59</v>
+      </c>
+      <c r="AP128">
+        <v>35.29</v>
+      </c>
+      <c r="AQ128">
+        <v>100</v>
+      </c>
+      <c r="AR128">
+        <v>100</v>
+      </c>
+      <c r="AS128">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="AT128">
+        <v>70.59</v>
+      </c>
+      <c r="AU128">
+        <v>3</v>
+      </c>
+      <c r="AV128">
+        <v>-0.58</v>
+      </c>
+      <c r="AW128">
+        <v>-2.98</v>
+      </c>
+      <c r="AX128">
+        <v>3.41</v>
+      </c>
+      <c r="AY128">
+        <v>-5.61</v>
+      </c>
+      <c r="AZ128">
+        <v>-2.43</v>
+      </c>
+      <c r="BA128">
+        <v>12.53</v>
+      </c>
+      <c r="BB128">
+        <v>10.09</v>
+      </c>
+      <c r="BC128">
+        <v>-5.93</v>
+      </c>
+      <c r="BD128">
+        <v>-8.08</v>
+      </c>
+      <c r="BE128">
+        <v>33.33</v>
+      </c>
+      <c r="BF128">
+        <v>33.33</v>
+      </c>
+      <c r="BG128">
+        <v>33.33</v>
+      </c>
+      <c r="BH128">
+        <v>100</v>
+      </c>
+      <c r="BI128">
+        <v>66.67</v>
+      </c>
+      <c r="BJ128">
+        <v>0</v>
+      </c>
+      <c r="BK128">
+        <v>33.33</v>
+      </c>
+      <c r="CC128">
+        <v>24</v>
+      </c>
+      <c r="CD128">
+        <v>0.21</v>
+      </c>
+      <c r="CE128">
+        <v>0.3</v>
+      </c>
+      <c r="CF128">
+        <v>3.96</v>
+      </c>
+      <c r="CG128">
+        <v>-2.88</v>
+      </c>
+      <c r="CH128">
+        <v>0.11</v>
+      </c>
+      <c r="CI128">
+        <v>3.89</v>
+      </c>
+      <c r="CJ128">
+        <v>3.95</v>
+      </c>
+      <c r="CK128">
+        <v>-3.73</v>
+      </c>
+      <c r="CL128">
+        <v>-3.64</v>
+      </c>
+      <c r="CM128">
+        <v>33.33</v>
+      </c>
+      <c r="CN128">
+        <v>33.33</v>
+      </c>
+      <c r="CO128">
+        <v>37.5</v>
+      </c>
+      <c r="CP128">
+        <v>70.83</v>
+      </c>
+      <c r="CQ128">
+        <v>79.17</v>
+      </c>
+      <c r="CR128">
+        <v>16.67</v>
+      </c>
+      <c r="CS128">
+        <v>25</v>
+      </c>
+      <c r="CT128">
+        <v>73</v>
+      </c>
+      <c r="CU128">
+        <v>2.8</v>
+      </c>
+      <c r="CV128">
+        <v>1.29</v>
+      </c>
+      <c r="CW128">
+        <v>6.01</v>
+      </c>
+      <c r="CX128">
+        <v>-1.48</v>
+      </c>
+      <c r="CY128">
+        <v>-1.42</v>
+      </c>
+      <c r="CZ128">
+        <v>11.08</v>
+      </c>
+      <c r="DA128">
+        <v>9.34</v>
+      </c>
+      <c r="DB128">
+        <v>1.51</v>
+      </c>
+      <c r="DC128">
+        <v>-0</v>
+      </c>
+      <c r="DD128">
+        <v>64.38</v>
+      </c>
+      <c r="DE128">
+        <v>46.58</v>
+      </c>
+      <c r="DF128">
+        <v>26.03</v>
+      </c>
+      <c r="DG128">
+        <v>90.41</v>
+      </c>
+      <c r="DH128">
+        <v>93.15000000000001</v>
+      </c>
+      <c r="DI128">
+        <v>58.9</v>
+      </c>
+      <c r="DJ128">
+        <v>43.84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:114">
+      <c r="A129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B129">
+        <v>2328</v>
+      </c>
+      <c r="C129">
+        <v>2816</v>
+      </c>
+      <c r="D129">
+        <v>247</v>
+      </c>
+      <c r="E129">
+        <v>188</v>
+      </c>
+      <c r="F129">
+        <v>31</v>
+      </c>
+      <c r="G129">
+        <v>113</v>
+      </c>
+      <c r="H129">
+        <v>9</v>
+      </c>
+      <c r="I129">
+        <v>61</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>22</v>
+      </c>
+      <c r="L129">
+        <v>21</v>
+      </c>
+      <c r="M129">
+        <v>48</v>
+      </c>
+      <c r="N129">
+        <v>1.55</v>
+      </c>
+      <c r="O129">
+        <v>4.45</v>
+      </c>
+      <c r="P129">
+        <v>7.11</v>
+      </c>
+      <c r="Q129">
+        <v>-0.88</v>
+      </c>
+      <c r="R129">
+        <v>2.93</v>
+      </c>
+      <c r="S129">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="T129">
+        <v>12.2</v>
+      </c>
+      <c r="U129">
+        <v>1.55</v>
+      </c>
+      <c r="V129">
+        <v>4.45</v>
+      </c>
+      <c r="W129">
+        <v>45.83</v>
+      </c>
+      <c r="X129">
+        <v>72.92</v>
+      </c>
+      <c r="Y129">
+        <v>64.58</v>
+      </c>
+      <c r="Z129">
+        <v>91.67</v>
+      </c>
+      <c r="AA129">
+        <v>95.83</v>
+      </c>
+      <c r="AB129">
+        <v>45.83</v>
+      </c>
+      <c r="AC129">
+        <v>72.92</v>
+      </c>
+      <c r="AD129">
+        <v>16</v>
+      </c>
+      <c r="AE129">
+        <v>2.97</v>
+      </c>
+      <c r="AF129">
+        <v>5.2</v>
+      </c>
+      <c r="AG129">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH129">
+        <v>-0.45</v>
+      </c>
+      <c r="AI129">
+        <v>2.31</v>
+      </c>
+      <c r="AJ129">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AK129">
+        <v>10.34</v>
+      </c>
+      <c r="AL129">
+        <v>2.97</v>
+      </c>
+      <c r="AM129">
+        <v>5.2</v>
+      </c>
+      <c r="AN129">
+        <v>56.25</v>
+      </c>
+      <c r="AO129">
+        <v>81.25</v>
+      </c>
+      <c r="AP129">
+        <v>56.25</v>
+      </c>
+      <c r="AQ129">
+        <v>81.25</v>
+      </c>
+      <c r="AR129">
+        <v>87.5</v>
+      </c>
+      <c r="AS129">
+        <v>56.25</v>
+      </c>
+      <c r="AT129">
+        <v>81.25</v>
+      </c>
+      <c r="BL129">
+        <v>1</v>
+      </c>
+      <c r="BM129">
+        <v>3.01</v>
+      </c>
+      <c r="BN129">
+        <v>1.01</v>
+      </c>
+      <c r="BO129">
+        <v>4.07</v>
+      </c>
+      <c r="BP129">
+        <v>-0.86</v>
+      </c>
+      <c r="BQ129">
+        <v>-1.94</v>
+      </c>
+      <c r="BR129">
+        <v>-6.36</v>
+      </c>
+      <c r="BS129">
+        <v>-8.18</v>
+      </c>
+      <c r="BT129">
+        <v>-6.55</v>
+      </c>
+      <c r="BU129">
+        <v>-8.359999999999999</v>
+      </c>
+      <c r="BV129">
+        <v>100</v>
+      </c>
+      <c r="BW129">
+        <v>100</v>
+      </c>
+      <c r="BX129">
+        <v>0</v>
+      </c>
+      <c r="BY129">
+        <v>0</v>
+      </c>
+      <c r="BZ129">
+        <v>0</v>
+      </c>
+      <c r="CA129">
+        <v>0</v>
+      </c>
+      <c r="CB129">
+        <v>0</v>
+      </c>
+      <c r="CC129">
+        <v>18</v>
+      </c>
+      <c r="CD129">
+        <v>-2.01</v>
+      </c>
+      <c r="CE129">
+        <v>-1.36</v>
+      </c>
+      <c r="CF129">
+        <v>1.47</v>
+      </c>
+      <c r="CG129">
+        <v>-4.82</v>
+      </c>
+      <c r="CH129">
+        <v>0.74</v>
+      </c>
+      <c r="CI129">
+        <v>0.4</v>
+      </c>
+      <c r="CJ129">
+        <v>1</v>
+      </c>
+      <c r="CK129">
+        <v>-7.23</v>
+      </c>
+      <c r="CL129">
+        <v>-6.67</v>
+      </c>
+      <c r="CM129">
+        <v>5.56</v>
+      </c>
+      <c r="CN129">
+        <v>33.33</v>
+      </c>
+      <c r="CO129">
+        <v>61.11</v>
+      </c>
+      <c r="CP129">
+        <v>55.56</v>
+      </c>
+      <c r="CQ129">
+        <v>55.56</v>
+      </c>
+      <c r="CR129">
+        <v>5.56</v>
+      </c>
+      <c r="CS129">
+        <v>0</v>
+      </c>
+      <c r="CT129">
+        <v>66</v>
+      </c>
+      <c r="CU129">
+        <v>0.58</v>
+      </c>
+      <c r="CV129">
+        <v>2.87</v>
+      </c>
+      <c r="CW129">
+        <v>5.57</v>
+      </c>
+      <c r="CX129">
+        <v>-1.95</v>
+      </c>
+      <c r="CY129">
+        <v>2.33</v>
+      </c>
+      <c r="CZ129">
+        <v>6.69</v>
+      </c>
+      <c r="DA129">
+        <v>9.15</v>
+      </c>
+      <c r="DB129">
+        <v>-0.84</v>
+      </c>
+      <c r="DC129">
+        <v>1.42</v>
+      </c>
+      <c r="DD129">
+        <v>34.85</v>
+      </c>
+      <c r="DE129">
+        <v>62.12</v>
+      </c>
+      <c r="DF129">
+        <v>63.64</v>
+      </c>
+      <c r="DG129">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="DH129">
+        <v>84.84999999999999</v>
+      </c>
+      <c r="DI129">
+        <v>34.85</v>
+      </c>
+      <c r="DJ129">
+        <v>53.03</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>日期</t>
   </si>
@@ -358,10 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250513</t>
-  </si>
-  <si>
-    <t>20250514</t>
+    <t>20250515</t>
   </si>
 </sst>
 </file>
@@ -719,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ129"/>
+  <dimension ref="A1:DJ130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42374,8 +42371,8 @@
       </c>
     </row>
     <row r="128" spans="1:114">
-      <c r="A128" t="s">
-        <v>114</v>
+      <c r="A128">
+        <v>20250513</v>
       </c>
       <c r="B128">
         <v>1941</v>
@@ -42642,7 +42639,7 @@
         <v>1.51</v>
       </c>
       <c r="DC128">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD128">
         <v>64.38</v>
@@ -42667,8 +42664,8 @@
       </c>
     </row>
     <row r="129" spans="1:114">
-      <c r="A129" t="s">
-        <v>115</v>
+      <c r="A129">
+        <v>20250514</v>
       </c>
       <c r="B129">
         <v>2328</v>
@@ -42957,6 +42954,299 @@
       </c>
       <c r="DJ129">
         <v>53.03</v>
+      </c>
+    </row>
+    <row r="130" spans="1:114">
+      <c r="A130" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130">
+        <v>1407</v>
+      </c>
+      <c r="C130">
+        <v>3856</v>
+      </c>
+      <c r="D130">
+        <v>127</v>
+      </c>
+      <c r="E130">
+        <v>148</v>
+      </c>
+      <c r="F130">
+        <v>149</v>
+      </c>
+      <c r="G130">
+        <v>82</v>
+      </c>
+      <c r="H130">
+        <v>39</v>
+      </c>
+      <c r="I130">
+        <v>49</v>
+      </c>
+      <c r="J130">
+        <v>4</v>
+      </c>
+      <c r="K130">
+        <v>21</v>
+      </c>
+      <c r="L130">
+        <v>20</v>
+      </c>
+      <c r="M130">
+        <v>61</v>
+      </c>
+      <c r="N130">
+        <v>2.55</v>
+      </c>
+      <c r="O130">
+        <v>2.41</v>
+      </c>
+      <c r="P130">
+        <v>7.59</v>
+      </c>
+      <c r="Q130">
+        <v>-1.3</v>
+      </c>
+      <c r="R130">
+        <v>-0.09</v>
+      </c>
+      <c r="S130">
+        <v>12.42</v>
+      </c>
+      <c r="T130">
+        <v>12.14</v>
+      </c>
+      <c r="U130">
+        <v>2.55</v>
+      </c>
+      <c r="V130">
+        <v>2.41</v>
+      </c>
+      <c r="W130">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="X130">
+        <v>59.02</v>
+      </c>
+      <c r="Y130">
+        <v>39.34</v>
+      </c>
+      <c r="Z130">
+        <v>95.08</v>
+      </c>
+      <c r="AA130">
+        <v>91.8</v>
+      </c>
+      <c r="AB130">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="AC130">
+        <v>59.02</v>
+      </c>
+      <c r="AD130">
+        <v>22</v>
+      </c>
+      <c r="AE130">
+        <v>2.5</v>
+      </c>
+      <c r="AF130">
+        <v>4.49</v>
+      </c>
+      <c r="AG130">
+        <v>8.19</v>
+      </c>
+      <c r="AH130">
+        <v>-1.21</v>
+      </c>
+      <c r="AI130">
+        <v>2.04</v>
+      </c>
+      <c r="AJ130">
+        <v>8.23</v>
+      </c>
+      <c r="AK130">
+        <v>10.31</v>
+      </c>
+      <c r="AL130">
+        <v>2.5</v>
+      </c>
+      <c r="AM130">
+        <v>4.49</v>
+      </c>
+      <c r="AN130">
+        <v>59.09</v>
+      </c>
+      <c r="AO130">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AP130">
+        <v>54.55</v>
+      </c>
+      <c r="AQ130">
+        <v>90.91</v>
+      </c>
+      <c r="AR130">
+        <v>86.36</v>
+      </c>
+      <c r="AS130">
+        <v>59.09</v>
+      </c>
+      <c r="AT130">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AU130">
+        <v>1</v>
+      </c>
+      <c r="AV130">
+        <v>-0.42</v>
+      </c>
+      <c r="AW130">
+        <v>9.17</v>
+      </c>
+      <c r="AX130">
+        <v>10</v>
+      </c>
+      <c r="AY130">
+        <v>-1.87</v>
+      </c>
+      <c r="AZ130">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="BA130">
+        <v>17.73</v>
+      </c>
+      <c r="BB130">
+        <v>29.06</v>
+      </c>
+      <c r="BC130">
+        <v>-3.63</v>
+      </c>
+      <c r="BD130">
+        <v>5.65</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>100</v>
+      </c>
+      <c r="BG130">
+        <v>100</v>
+      </c>
+      <c r="BH130">
+        <v>100</v>
+      </c>
+      <c r="BI130">
+        <v>100</v>
+      </c>
+      <c r="BJ130">
+        <v>0</v>
+      </c>
+      <c r="BK130">
+        <v>100</v>
+      </c>
+      <c r="CC130">
+        <v>21</v>
+      </c>
+      <c r="CD130">
+        <v>-1.37</v>
+      </c>
+      <c r="CE130">
+        <v>-4.3</v>
+      </c>
+      <c r="CF130">
+        <v>1.23</v>
+      </c>
+      <c r="CG130">
+        <v>-4.95</v>
+      </c>
+      <c r="CH130">
+        <v>-2.97</v>
+      </c>
+      <c r="CI130">
+        <v>3.77</v>
+      </c>
+      <c r="CJ130">
+        <v>0.71</v>
+      </c>
+      <c r="CK130">
+        <v>-5.56</v>
+      </c>
+      <c r="CL130">
+        <v>-8.34</v>
+      </c>
+      <c r="CM130">
+        <v>14.29</v>
+      </c>
+      <c r="CN130">
+        <v>4.76</v>
+      </c>
+      <c r="CO130">
+        <v>4.76</v>
+      </c>
+      <c r="CP130">
+        <v>80.95</v>
+      </c>
+      <c r="CQ130">
+        <v>61.9</v>
+      </c>
+      <c r="CR130">
+        <v>0</v>
+      </c>
+      <c r="CS130">
+        <v>0</v>
+      </c>
+      <c r="CT130">
+        <v>82</v>
+      </c>
+      <c r="CU130">
+        <v>1.55</v>
+      </c>
+      <c r="CV130">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="CW130">
+        <v>5.96</v>
+      </c>
+      <c r="CX130">
+        <v>-2.24</v>
+      </c>
+      <c r="CY130">
+        <v>-0.83</v>
+      </c>
+      <c r="CZ130">
+        <v>10.2</v>
+      </c>
+      <c r="DA130">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="DB130">
+        <v>0.48</v>
+      </c>
+      <c r="DC130">
+        <v>-0.35</v>
+      </c>
+      <c r="DD130">
+        <v>52.44</v>
+      </c>
+      <c r="DE130">
+        <v>45.12</v>
+      </c>
+      <c r="DF130">
+        <v>30.49</v>
+      </c>
+      <c r="DG130">
+        <v>91.45999999999999</v>
+      </c>
+      <c r="DH130">
+        <v>84.15000000000001</v>
+      </c>
+      <c r="DI130">
+        <v>48.78</v>
+      </c>
+      <c r="DJ130">
+        <v>43.9</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -358,7 +358,7 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250515</t>
+    <t>20250516</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ130"/>
+  <dimension ref="A1:DJ131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42957,8 +42957,8 @@
       </c>
     </row>
     <row r="130" spans="1:114">
-      <c r="A130" t="s">
-        <v>114</v>
+      <c r="A130">
+        <v>20250515</v>
       </c>
       <c r="B130">
         <v>1407</v>
@@ -43247,6 +43247,299 @@
       </c>
       <c r="DJ130">
         <v>43.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:114">
+      <c r="A131" t="s">
+        <v>114</v>
+      </c>
+      <c r="B131">
+        <v>3002</v>
+      </c>
+      <c r="C131">
+        <v>2187</v>
+      </c>
+      <c r="D131">
+        <v>202</v>
+      </c>
+      <c r="E131">
+        <v>217</v>
+      </c>
+      <c r="F131">
+        <v>48</v>
+      </c>
+      <c r="G131">
+        <v>119</v>
+      </c>
+      <c r="H131">
+        <v>21</v>
+      </c>
+      <c r="I131">
+        <v>56</v>
+      </c>
+      <c r="J131">
+        <v>3</v>
+      </c>
+      <c r="K131">
+        <v>21</v>
+      </c>
+      <c r="L131">
+        <v>28</v>
+      </c>
+      <c r="M131">
+        <v>49</v>
+      </c>
+      <c r="N131">
+        <v>2.04</v>
+      </c>
+      <c r="O131">
+        <v>1.63</v>
+      </c>
+      <c r="P131">
+        <v>6.11</v>
+      </c>
+      <c r="Q131">
+        <v>-2.64</v>
+      </c>
+      <c r="R131">
+        <v>-0.39</v>
+      </c>
+      <c r="S131">
+        <v>11.56</v>
+      </c>
+      <c r="T131">
+        <v>11.06</v>
+      </c>
+      <c r="U131">
+        <v>2.04</v>
+      </c>
+      <c r="V131">
+        <v>1.63</v>
+      </c>
+      <c r="W131">
+        <v>53.06</v>
+      </c>
+      <c r="X131">
+        <v>57.14</v>
+      </c>
+      <c r="Y131">
+        <v>32.65</v>
+      </c>
+      <c r="Z131">
+        <v>91.84</v>
+      </c>
+      <c r="AA131">
+        <v>89.8</v>
+      </c>
+      <c r="AB131">
+        <v>53.06</v>
+      </c>
+      <c r="AC131">
+        <v>57.14</v>
+      </c>
+      <c r="AD131">
+        <v>21</v>
+      </c>
+      <c r="AE131">
+        <v>1.39</v>
+      </c>
+      <c r="AF131">
+        <v>1.58</v>
+      </c>
+      <c r="AG131">
+        <v>6.52</v>
+      </c>
+      <c r="AH131">
+        <v>-3.38</v>
+      </c>
+      <c r="AI131">
+        <v>0.23</v>
+      </c>
+      <c r="AJ131">
+        <v>6.59</v>
+      </c>
+      <c r="AK131">
+        <v>6.86</v>
+      </c>
+      <c r="AL131">
+        <v>1.39</v>
+      </c>
+      <c r="AM131">
+        <v>1.58</v>
+      </c>
+      <c r="AN131">
+        <v>47.62</v>
+      </c>
+      <c r="AO131">
+        <v>57.14</v>
+      </c>
+      <c r="AP131">
+        <v>33.33</v>
+      </c>
+      <c r="AQ131">
+        <v>80.95</v>
+      </c>
+      <c r="AR131">
+        <v>76.19</v>
+      </c>
+      <c r="AS131">
+        <v>47.62</v>
+      </c>
+      <c r="AT131">
+        <v>57.14</v>
+      </c>
+      <c r="BL131">
+        <v>4</v>
+      </c>
+      <c r="BM131">
+        <v>-4.71</v>
+      </c>
+      <c r="BN131">
+        <v>1.85</v>
+      </c>
+      <c r="BO131">
+        <v>4.08</v>
+      </c>
+      <c r="BP131">
+        <v>-5.74</v>
+      </c>
+      <c r="BQ131">
+        <v>6.91</v>
+      </c>
+      <c r="BR131">
+        <v>-12.08</v>
+      </c>
+      <c r="BS131">
+        <v>-6.01</v>
+      </c>
+      <c r="BT131">
+        <v>-13.52</v>
+      </c>
+      <c r="BU131">
+        <v>-7.54</v>
+      </c>
+      <c r="BV131">
+        <v>0</v>
+      </c>
+      <c r="BW131">
+        <v>50</v>
+      </c>
+      <c r="BX131">
+        <v>100</v>
+      </c>
+      <c r="BY131">
+        <v>0</v>
+      </c>
+      <c r="BZ131">
+        <v>25</v>
+      </c>
+      <c r="CA131">
+        <v>0</v>
+      </c>
+      <c r="CB131">
+        <v>0</v>
+      </c>
+      <c r="CC131">
+        <v>18</v>
+      </c>
+      <c r="CD131">
+        <v>-2.69</v>
+      </c>
+      <c r="CE131">
+        <v>-2.38</v>
+      </c>
+      <c r="CF131">
+        <v>1.43</v>
+      </c>
+      <c r="CG131">
+        <v>-5.2</v>
+      </c>
+      <c r="CH131">
+        <v>0.32</v>
+      </c>
+      <c r="CI131">
+        <v>4.61</v>
+      </c>
+      <c r="CJ131">
+        <v>4.75</v>
+      </c>
+      <c r="CK131">
+        <v>-6.86</v>
+      </c>
+      <c r="CL131">
+        <v>-6.59</v>
+      </c>
+      <c r="CM131">
+        <v>11.11</v>
+      </c>
+      <c r="CN131">
+        <v>22.22</v>
+      </c>
+      <c r="CO131">
+        <v>38.89</v>
+      </c>
+      <c r="CP131">
+        <v>83.33</v>
+      </c>
+      <c r="CQ131">
+        <v>94.44</v>
+      </c>
+      <c r="CR131">
+        <v>5.56</v>
+      </c>
+      <c r="CS131">
+        <v>5.56</v>
+      </c>
+      <c r="CT131">
+        <v>67</v>
+      </c>
+      <c r="CU131">
+        <v>0.77</v>
+      </c>
+      <c r="CV131">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="CW131">
+        <v>4.85</v>
+      </c>
+      <c r="CX131">
+        <v>-3.32</v>
+      </c>
+      <c r="CY131">
+        <v>-0.2</v>
+      </c>
+      <c r="CZ131">
+        <v>9.69</v>
+      </c>
+      <c r="DA131">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="DB131">
+        <v>-0.35</v>
+      </c>
+      <c r="DC131">
+        <v>-0.58</v>
+      </c>
+      <c r="DD131">
+        <v>41.79</v>
+      </c>
+      <c r="DE131">
+        <v>47.76</v>
+      </c>
+      <c r="DF131">
+        <v>34.33</v>
+      </c>
+      <c r="DG131">
+        <v>89.55</v>
+      </c>
+      <c r="DH131">
+        <v>91.04000000000001</v>
+      </c>
+      <c r="DI131">
+        <v>40.3</v>
+      </c>
+      <c r="DJ131">
+        <v>43.28</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>日期</t>
   </si>
@@ -358,7 +358,10 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250516</t>
+    <t>20250519</t>
+  </si>
+  <si>
+    <t>20250520</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ131"/>
+  <dimension ref="A1:DJ133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43250,8 +43253,8 @@
       </c>
     </row>
     <row r="131" spans="1:114">
-      <c r="A131" t="s">
-        <v>114</v>
+      <c r="A131">
+        <v>20250516</v>
       </c>
       <c r="B131">
         <v>3002</v>
@@ -43540,6 +43543,592 @@
       </c>
       <c r="DJ131">
         <v>43.28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:114">
+      <c r="A132" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132">
+        <v>3564</v>
+      </c>
+      <c r="C132">
+        <v>1692</v>
+      </c>
+      <c r="D132">
+        <v>132</v>
+      </c>
+      <c r="E132">
+        <v>290</v>
+      </c>
+      <c r="F132">
+        <v>46</v>
+      </c>
+      <c r="G132">
+        <v>156</v>
+      </c>
+      <c r="H132">
+        <v>12</v>
+      </c>
+      <c r="I132">
+        <v>83</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>29</v>
+      </c>
+      <c r="L132">
+        <v>21</v>
+      </c>
+      <c r="M132">
+        <v>56</v>
+      </c>
+      <c r="N132">
+        <v>2.76</v>
+      </c>
+      <c r="O132">
+        <v>4.43</v>
+      </c>
+      <c r="P132">
+        <v>7.81</v>
+      </c>
+      <c r="Q132">
+        <v>-1.47</v>
+      </c>
+      <c r="R132">
+        <v>1.75</v>
+      </c>
+      <c r="S132">
+        <v>11.66</v>
+      </c>
+      <c r="T132">
+        <v>13.47</v>
+      </c>
+      <c r="U132">
+        <v>2.76</v>
+      </c>
+      <c r="V132">
+        <v>4.43</v>
+      </c>
+      <c r="W132">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="X132">
+        <v>75</v>
+      </c>
+      <c r="Y132">
+        <v>53.57</v>
+      </c>
+      <c r="Z132">
+        <v>92.86</v>
+      </c>
+      <c r="AA132">
+        <v>96.43000000000001</v>
+      </c>
+      <c r="AB132">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="AC132">
+        <v>75</v>
+      </c>
+      <c r="AD132">
+        <v>21</v>
+      </c>
+      <c r="AE132">
+        <v>1.02</v>
+      </c>
+      <c r="AF132">
+        <v>3.99</v>
+      </c>
+      <c r="AG132">
+        <v>7.8</v>
+      </c>
+      <c r="AH132">
+        <v>-3.75</v>
+      </c>
+      <c r="AI132">
+        <v>3.09</v>
+      </c>
+      <c r="AJ132">
+        <v>7.18</v>
+      </c>
+      <c r="AK132">
+        <v>10.35</v>
+      </c>
+      <c r="AL132">
+        <v>1.02</v>
+      </c>
+      <c r="AM132">
+        <v>3.99</v>
+      </c>
+      <c r="AN132">
+        <v>52.38</v>
+      </c>
+      <c r="AO132">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AP132">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AQ132">
+        <v>80.95</v>
+      </c>
+      <c r="AR132">
+        <v>90.48</v>
+      </c>
+      <c r="AS132">
+        <v>52.38</v>
+      </c>
+      <c r="AT132">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="BL132">
+        <v>3</v>
+      </c>
+      <c r="BM132">
+        <v>-3.19</v>
+      </c>
+      <c r="BN132">
+        <v>-4.06</v>
+      </c>
+      <c r="BO132">
+        <v>-1.41</v>
+      </c>
+      <c r="BP132">
+        <v>-6.26</v>
+      </c>
+      <c r="BQ132">
+        <v>-0.93</v>
+      </c>
+      <c r="BR132">
+        <v>-10.18</v>
+      </c>
+      <c r="BS132">
+        <v>-10.98</v>
+      </c>
+      <c r="BT132">
+        <v>-11.52</v>
+      </c>
+      <c r="BU132">
+        <v>-12.31</v>
+      </c>
+      <c r="BV132">
+        <v>0</v>
+      </c>
+      <c r="BW132">
+        <v>33.33</v>
+      </c>
+      <c r="BX132">
+        <v>33.33</v>
+      </c>
+      <c r="BY132">
+        <v>0</v>
+      </c>
+      <c r="BZ132">
+        <v>0</v>
+      </c>
+      <c r="CA132">
+        <v>0</v>
+      </c>
+      <c r="CB132">
+        <v>0</v>
+      </c>
+      <c r="CC132">
+        <v>28</v>
+      </c>
+      <c r="CD132">
+        <v>-1.16</v>
+      </c>
+      <c r="CE132">
+        <v>-1.74</v>
+      </c>
+      <c r="CF132">
+        <v>0.96</v>
+      </c>
+      <c r="CG132">
+        <v>-4.54</v>
+      </c>
+      <c r="CH132">
+        <v>-0.57</v>
+      </c>
+      <c r="CI132">
+        <v>5.63</v>
+      </c>
+      <c r="CJ132">
+        <v>4.94</v>
+      </c>
+      <c r="CK132">
+        <v>-4.54</v>
+      </c>
+      <c r="CL132">
+        <v>-5.11</v>
+      </c>
+      <c r="CM132">
+        <v>25</v>
+      </c>
+      <c r="CN132">
+        <v>21.43</v>
+      </c>
+      <c r="CO132">
+        <v>46.43</v>
+      </c>
+      <c r="CP132">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="CQ132">
+        <v>92.86</v>
+      </c>
+      <c r="CR132">
+        <v>3.57</v>
+      </c>
+      <c r="CS132">
+        <v>7.14</v>
+      </c>
+      <c r="CT132">
+        <v>84</v>
+      </c>
+      <c r="CU132">
+        <v>1.46</v>
+      </c>
+      <c r="CV132">
+        <v>2.37</v>
+      </c>
+      <c r="CW132">
+        <v>5.53</v>
+      </c>
+      <c r="CX132">
+        <v>-2.49</v>
+      </c>
+      <c r="CY132">
+        <v>0.97</v>
+      </c>
+      <c r="CZ132">
+        <v>9.65</v>
+      </c>
+      <c r="DA132">
+        <v>10.63</v>
+      </c>
+      <c r="DB132">
+        <v>0.33</v>
+      </c>
+      <c r="DC132">
+        <v>1.25</v>
+      </c>
+      <c r="DD132">
+        <v>59.52</v>
+      </c>
+      <c r="DE132">
+        <v>57.14</v>
+      </c>
+      <c r="DF132">
+        <v>51.19</v>
+      </c>
+      <c r="DG132">
+        <v>91.67</v>
+      </c>
+      <c r="DH132">
+        <v>95.23999999999999</v>
+      </c>
+      <c r="DI132">
+        <v>52.38</v>
+      </c>
+      <c r="DJ132">
+        <v>52.38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:114">
+      <c r="A133" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133">
+        <v>3837</v>
+      </c>
+      <c r="C133">
+        <v>1380</v>
+      </c>
+      <c r="D133">
+        <v>177</v>
+      </c>
+      <c r="E133">
+        <v>302</v>
+      </c>
+      <c r="F133">
+        <v>56</v>
+      </c>
+      <c r="G133">
+        <v>155</v>
+      </c>
+      <c r="H133">
+        <v>26</v>
+      </c>
+      <c r="I133">
+        <v>77</v>
+      </c>
+      <c r="J133">
+        <v>8</v>
+      </c>
+      <c r="K133">
+        <v>29</v>
+      </c>
+      <c r="L133">
+        <v>30</v>
+      </c>
+      <c r="M133">
+        <v>83</v>
+      </c>
+      <c r="N133">
+        <v>4.26</v>
+      </c>
+      <c r="O133">
+        <v>4.03</v>
+      </c>
+      <c r="P133">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="Q133">
+        <v>0.09</v>
+      </c>
+      <c r="R133">
+        <v>-0.18</v>
+      </c>
+      <c r="S133">
+        <v>11.93</v>
+      </c>
+      <c r="T133">
+        <v>11.79</v>
+      </c>
+      <c r="U133">
+        <v>4.26</v>
+      </c>
+      <c r="V133">
+        <v>4.03</v>
+      </c>
+      <c r="W133">
+        <v>81.93000000000001</v>
+      </c>
+      <c r="X133">
+        <v>67.47</v>
+      </c>
+      <c r="Y133">
+        <v>40.96</v>
+      </c>
+      <c r="Z133">
+        <v>98.8</v>
+      </c>
+      <c r="AA133">
+        <v>91.56999999999999</v>
+      </c>
+      <c r="AB133">
+        <v>81.93000000000001</v>
+      </c>
+      <c r="AC133">
+        <v>67.47</v>
+      </c>
+      <c r="AD133">
+        <v>29</v>
+      </c>
+      <c r="AE133">
+        <v>3.58</v>
+      </c>
+      <c r="AF133">
+        <v>2.21</v>
+      </c>
+      <c r="AG133">
+        <v>8.31</v>
+      </c>
+      <c r="AH133">
+        <v>-1.95</v>
+      </c>
+      <c r="AI133">
+        <v>-1.3</v>
+      </c>
+      <c r="AJ133">
+        <v>11.39</v>
+      </c>
+      <c r="AK133">
+        <v>10.07</v>
+      </c>
+      <c r="AL133">
+        <v>3.58</v>
+      </c>
+      <c r="AM133">
+        <v>2.21</v>
+      </c>
+      <c r="AN133">
+        <v>68.97</v>
+      </c>
+      <c r="AO133">
+        <v>58.62</v>
+      </c>
+      <c r="AP133">
+        <v>34.48</v>
+      </c>
+      <c r="AQ133">
+        <v>96.55</v>
+      </c>
+      <c r="AR133">
+        <v>75.86</v>
+      </c>
+      <c r="AS133">
+        <v>68.97</v>
+      </c>
+      <c r="AT133">
+        <v>58.62</v>
+      </c>
+      <c r="AU133">
+        <v>1</v>
+      </c>
+      <c r="AV133">
+        <v>-2.07</v>
+      </c>
+      <c r="AW133">
+        <v>-10.02</v>
+      </c>
+      <c r="AX133">
+        <v>1.61</v>
+      </c>
+      <c r="AY133">
+        <v>-10.02</v>
+      </c>
+      <c r="AZ133">
+        <v>-8.130000000000001</v>
+      </c>
+      <c r="BA133">
+        <v>1.51</v>
+      </c>
+      <c r="BB133">
+        <v>-6.74</v>
+      </c>
+      <c r="BC133">
+        <v>-13.16</v>
+      </c>
+      <c r="BD133">
+        <v>-20.22</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>0</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>100</v>
+      </c>
+      <c r="BI133">
+        <v>0</v>
+      </c>
+      <c r="BJ133">
+        <v>0</v>
+      </c>
+      <c r="BK133">
+        <v>0</v>
+      </c>
+      <c r="CC133">
+        <v>21</v>
+      </c>
+      <c r="CD133">
+        <v>-1.03</v>
+      </c>
+      <c r="CE133">
+        <v>-1.59</v>
+      </c>
+      <c r="CF133">
+        <v>1.24</v>
+      </c>
+      <c r="CG133">
+        <v>-3.67</v>
+      </c>
+      <c r="CH133">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="CI133">
+        <v>1.69</v>
+      </c>
+      <c r="CJ133">
+        <v>1.19</v>
+      </c>
+      <c r="CK133">
+        <v>-5.26</v>
+      </c>
+      <c r="CL133">
+        <v>-5.78</v>
+      </c>
+      <c r="CM133">
+        <v>28.57</v>
+      </c>
+      <c r="CN133">
+        <v>23.81</v>
+      </c>
+      <c r="CO133">
+        <v>42.86</v>
+      </c>
+      <c r="CP133">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CQ133">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CR133">
+        <v>0</v>
+      </c>
+      <c r="CS133">
+        <v>4.76</v>
+      </c>
+      <c r="CT133">
+        <v>104</v>
+      </c>
+      <c r="CU133">
+        <v>3.19</v>
+      </c>
+      <c r="CV133">
+        <v>2.9</v>
+      </c>
+      <c r="CW133">
+        <v>7.2</v>
+      </c>
+      <c r="CX133">
+        <v>-0.67</v>
+      </c>
+      <c r="CY133">
+        <v>-0.26</v>
+      </c>
+      <c r="CZ133">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="DA133">
+        <v>9.65</v>
+      </c>
+      <c r="DB133">
+        <v>2.34</v>
+      </c>
+      <c r="DC133">
+        <v>2.05</v>
+      </c>
+      <c r="DD133">
+        <v>71.15000000000001</v>
+      </c>
+      <c r="DE133">
+        <v>58.65</v>
+      </c>
+      <c r="DF133">
+        <v>41.35</v>
+      </c>
+      <c r="DG133">
+        <v>93.27</v>
+      </c>
+      <c r="DH133">
+        <v>87.5</v>
+      </c>
+      <c r="DI133">
+        <v>65.38</v>
+      </c>
+      <c r="DJ133">
+        <v>54.81</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>日期</t>
   </si>
@@ -358,10 +358,13 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250519</t>
+    <t>20250521</t>
   </si>
   <si>
-    <t>20250520</t>
+    <t>20250522</t>
+  </si>
+  <si>
+    <t>20250523</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ133"/>
+  <dimension ref="A1:DJ136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43546,8 +43549,8 @@
       </c>
     </row>
     <row r="132" spans="1:114">
-      <c r="A132" t="s">
-        <v>114</v>
+      <c r="A132">
+        <v>20250519</v>
       </c>
       <c r="B132">
         <v>3564</v>
@@ -43839,8 +43842,8 @@
       </c>
     </row>
     <row r="133" spans="1:114">
-      <c r="A133" t="s">
-        <v>115</v>
+      <c r="A133">
+        <v>20250520</v>
       </c>
       <c r="B133">
         <v>3837</v>
@@ -44129,6 +44132,987 @@
       </c>
       <c r="DJ133">
         <v>54.81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:114">
+      <c r="A134" t="s">
+        <v>114</v>
+      </c>
+      <c r="B134">
+        <v>1615</v>
+      </c>
+      <c r="C134">
+        <v>3604</v>
+      </c>
+      <c r="D134">
+        <v>171</v>
+      </c>
+      <c r="E134">
+        <v>172</v>
+      </c>
+      <c r="F134">
+        <v>125</v>
+      </c>
+      <c r="G134">
+        <v>91</v>
+      </c>
+      <c r="H134">
+        <v>50</v>
+      </c>
+      <c r="I134">
+        <v>53</v>
+      </c>
+      <c r="J134">
+        <v>3</v>
+      </c>
+      <c r="K134">
+        <v>22</v>
+      </c>
+      <c r="L134">
+        <v>19</v>
+      </c>
+      <c r="M134">
+        <v>77</v>
+      </c>
+      <c r="N134">
+        <v>3.55</v>
+      </c>
+      <c r="O134">
+        <v>1.4</v>
+      </c>
+      <c r="P134">
+        <v>7.03</v>
+      </c>
+      <c r="Q134">
+        <v>-1.98</v>
+      </c>
+      <c r="R134">
+        <v>-2.04</v>
+      </c>
+      <c r="S134">
+        <v>11.89</v>
+      </c>
+      <c r="T134">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="U134">
+        <v>3.55</v>
+      </c>
+      <c r="V134">
+        <v>1.4</v>
+      </c>
+      <c r="W134">
+        <v>66.23</v>
+      </c>
+      <c r="X134">
+        <v>49.35</v>
+      </c>
+      <c r="Y134">
+        <v>25.97</v>
+      </c>
+      <c r="Z134">
+        <v>98.7</v>
+      </c>
+      <c r="AA134">
+        <v>88.31</v>
+      </c>
+      <c r="AB134">
+        <v>66.23</v>
+      </c>
+      <c r="AC134">
+        <v>49.35</v>
+      </c>
+      <c r="AD134">
+        <v>29</v>
+      </c>
+      <c r="AE134">
+        <v>5.8</v>
+      </c>
+      <c r="AF134">
+        <v>2.92</v>
+      </c>
+      <c r="AG134">
+        <v>9.58</v>
+      </c>
+      <c r="AH134">
+        <v>-1.05</v>
+      </c>
+      <c r="AI134">
+        <v>-2.67</v>
+      </c>
+      <c r="AJ134">
+        <v>10.92</v>
+      </c>
+      <c r="AK134">
+        <v>7.86</v>
+      </c>
+      <c r="AL134">
+        <v>5.8</v>
+      </c>
+      <c r="AM134">
+        <v>2.92</v>
+      </c>
+      <c r="AN134">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="AO134">
+        <v>62.07</v>
+      </c>
+      <c r="AP134">
+        <v>24.14</v>
+      </c>
+      <c r="AQ134">
+        <v>96.55</v>
+      </c>
+      <c r="AR134">
+        <v>79.31</v>
+      </c>
+      <c r="AS134">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="AT134">
+        <v>62.07</v>
+      </c>
+      <c r="BL134">
+        <v>8</v>
+      </c>
+      <c r="BM134">
+        <v>-6.3</v>
+      </c>
+      <c r="BN134">
+        <v>-3.57</v>
+      </c>
+      <c r="BO134">
+        <v>3.8</v>
+      </c>
+      <c r="BP134">
+        <v>-9.039999999999999</v>
+      </c>
+      <c r="BQ134">
+        <v>2.94</v>
+      </c>
+      <c r="BR134">
+        <v>-14.01</v>
+      </c>
+      <c r="BS134">
+        <v>-11.53</v>
+      </c>
+      <c r="BT134">
+        <v>-15.21</v>
+      </c>
+      <c r="BU134">
+        <v>-12.78</v>
+      </c>
+      <c r="BV134">
+        <v>0</v>
+      </c>
+      <c r="BW134">
+        <v>25</v>
+      </c>
+      <c r="BX134">
+        <v>75</v>
+      </c>
+      <c r="BY134">
+        <v>0</v>
+      </c>
+      <c r="BZ134">
+        <v>0</v>
+      </c>
+      <c r="CA134">
+        <v>0</v>
+      </c>
+      <c r="CB134">
+        <v>0</v>
+      </c>
+      <c r="CC134">
+        <v>28</v>
+      </c>
+      <c r="CD134">
+        <v>-2.02</v>
+      </c>
+      <c r="CE134">
+        <v>-2.15</v>
+      </c>
+      <c r="CF134">
+        <v>2.85</v>
+      </c>
+      <c r="CG134">
+        <v>-5.64</v>
+      </c>
+      <c r="CH134">
+        <v>-0.13</v>
+      </c>
+      <c r="CI134">
+        <v>1.86</v>
+      </c>
+      <c r="CJ134">
+        <v>1.67</v>
+      </c>
+      <c r="CK134">
+        <v>-6.79</v>
+      </c>
+      <c r="CL134">
+        <v>-6.92</v>
+      </c>
+      <c r="CM134">
+        <v>3.57</v>
+      </c>
+      <c r="CN134">
+        <v>25</v>
+      </c>
+      <c r="CO134">
+        <v>39.29</v>
+      </c>
+      <c r="CP134">
+        <v>67.86</v>
+      </c>
+      <c r="CQ134">
+        <v>57.14</v>
+      </c>
+      <c r="CR134">
+        <v>3.57</v>
+      </c>
+      <c r="CS134">
+        <v>17.86</v>
+      </c>
+      <c r="CT134">
+        <v>105</v>
+      </c>
+      <c r="CU134">
+        <v>2.07</v>
+      </c>
+      <c r="CV134">
+        <v>0.45</v>
+      </c>
+      <c r="CW134">
+        <v>5.92</v>
+      </c>
+      <c r="CX134">
+        <v>-2.95</v>
+      </c>
+      <c r="CY134">
+        <v>-1.53</v>
+      </c>
+      <c r="CZ134">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="DA134">
+        <v>7.44</v>
+      </c>
+      <c r="DB134">
+        <v>0.8</v>
+      </c>
+      <c r="DC134">
+        <v>-0.82</v>
+      </c>
+      <c r="DD134">
+        <v>49.52</v>
+      </c>
+      <c r="DE134">
+        <v>42.86</v>
+      </c>
+      <c r="DF134">
+        <v>29.52</v>
+      </c>
+      <c r="DG134">
+        <v>90.48</v>
+      </c>
+      <c r="DH134">
+        <v>80</v>
+      </c>
+      <c r="DI134">
+        <v>49.52</v>
+      </c>
+      <c r="DJ134">
+        <v>40.95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:114">
+      <c r="A135" t="s">
+        <v>115</v>
+      </c>
+      <c r="B135">
+        <v>887</v>
+      </c>
+      <c r="C135">
+        <v>4451</v>
+      </c>
+      <c r="D135">
+        <v>48</v>
+      </c>
+      <c r="E135">
+        <v>115</v>
+      </c>
+      <c r="F135">
+        <v>279</v>
+      </c>
+      <c r="G135">
+        <v>67</v>
+      </c>
+      <c r="H135">
+        <v>101</v>
+      </c>
+      <c r="I135">
+        <v>39</v>
+      </c>
+      <c r="J135">
+        <v>12</v>
+      </c>
+      <c r="K135">
+        <v>16</v>
+      </c>
+      <c r="L135">
+        <v>26</v>
+      </c>
+      <c r="M135">
+        <v>53</v>
+      </c>
+      <c r="N135">
+        <v>1.98</v>
+      </c>
+      <c r="O135">
+        <v>1.14</v>
+      </c>
+      <c r="P135">
+        <v>7.01</v>
+      </c>
+      <c r="Q135">
+        <v>-2.56</v>
+      </c>
+      <c r="R135">
+        <v>-0.79</v>
+      </c>
+      <c r="S135">
+        <v>10.52</v>
+      </c>
+      <c r="T135">
+        <v>9.59</v>
+      </c>
+      <c r="U135">
+        <v>1.98</v>
+      </c>
+      <c r="V135">
+        <v>1.14</v>
+      </c>
+      <c r="W135">
+        <v>62.26</v>
+      </c>
+      <c r="X135">
+        <v>54.72</v>
+      </c>
+      <c r="Y135">
+        <v>35.85</v>
+      </c>
+      <c r="Z135">
+        <v>94.34</v>
+      </c>
+      <c r="AA135">
+        <v>90.56999999999999</v>
+      </c>
+      <c r="AB135">
+        <v>62.26</v>
+      </c>
+      <c r="AC135">
+        <v>54.72</v>
+      </c>
+      <c r="AD135">
+        <v>22</v>
+      </c>
+      <c r="AE135">
+        <v>3.26</v>
+      </c>
+      <c r="AF135">
+        <v>3.14</v>
+      </c>
+      <c r="AG135">
+        <v>8.81</v>
+      </c>
+      <c r="AH135">
+        <v>-1.64</v>
+      </c>
+      <c r="AI135">
+        <v>-0.01</v>
+      </c>
+      <c r="AJ135">
+        <v>7.24</v>
+      </c>
+      <c r="AK135">
+        <v>7.16</v>
+      </c>
+      <c r="AL135">
+        <v>3.26</v>
+      </c>
+      <c r="AM135">
+        <v>3.14</v>
+      </c>
+      <c r="AN135">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AO135">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AP135">
+        <v>40.91</v>
+      </c>
+      <c r="AQ135">
+        <v>86.36</v>
+      </c>
+      <c r="AR135">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="AS135">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AT135">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AU135">
+        <v>2</v>
+      </c>
+      <c r="AV135">
+        <v>-3.62</v>
+      </c>
+      <c r="AW135">
+        <v>1.39</v>
+      </c>
+      <c r="AX135">
+        <v>4.78</v>
+      </c>
+      <c r="AY135">
+        <v>-7.54</v>
+      </c>
+      <c r="AZ135">
+        <v>5.07</v>
+      </c>
+      <c r="BA135">
+        <v>0.48</v>
+      </c>
+      <c r="BB135">
+        <v>5.84</v>
+      </c>
+      <c r="BC135">
+        <v>-14.12</v>
+      </c>
+      <c r="BD135">
+        <v>-9.609999999999999</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>50</v>
+      </c>
+      <c r="BG135">
+        <v>100</v>
+      </c>
+      <c r="BH135">
+        <v>50</v>
+      </c>
+      <c r="BI135">
+        <v>50</v>
+      </c>
+      <c r="BJ135">
+        <v>0</v>
+      </c>
+      <c r="BK135">
+        <v>0</v>
+      </c>
+      <c r="BL135">
+        <v>3</v>
+      </c>
+      <c r="BM135">
+        <v>-4.69</v>
+      </c>
+      <c r="BN135">
+        <v>-4.04</v>
+      </c>
+      <c r="BO135">
+        <v>2.87</v>
+      </c>
+      <c r="BP135">
+        <v>-7.56</v>
+      </c>
+      <c r="BQ135">
+        <v>0.72</v>
+      </c>
+      <c r="BR135">
+        <v>-11.34</v>
+      </c>
+      <c r="BS135">
+        <v>-10.76</v>
+      </c>
+      <c r="BT135">
+        <v>-13.07</v>
+      </c>
+      <c r="BU135">
+        <v>-12.47</v>
+      </c>
+      <c r="BV135">
+        <v>0</v>
+      </c>
+      <c r="BW135">
+        <v>0</v>
+      </c>
+      <c r="BX135">
+        <v>66.67</v>
+      </c>
+      <c r="BY135">
+        <v>0</v>
+      </c>
+      <c r="BZ135">
+        <v>0</v>
+      </c>
+      <c r="CA135">
+        <v>0</v>
+      </c>
+      <c r="CB135">
+        <v>0</v>
+      </c>
+      <c r="CC135">
+        <v>19</v>
+      </c>
+      <c r="CD135">
+        <v>-2.9</v>
+      </c>
+      <c r="CE135">
+        <v>-2.29</v>
+      </c>
+      <c r="CF135">
+        <v>2.23</v>
+      </c>
+      <c r="CG135">
+        <v>-5.35</v>
+      </c>
+      <c r="CH135">
+        <v>0.6</v>
+      </c>
+      <c r="CI135">
+        <v>-0.38</v>
+      </c>
+      <c r="CJ135">
+        <v>0.25</v>
+      </c>
+      <c r="CK135">
+        <v>-8.48</v>
+      </c>
+      <c r="CL135">
+        <v>-7.91</v>
+      </c>
+      <c r="CM135">
+        <v>10.53</v>
+      </c>
+      <c r="CN135">
+        <v>36.84</v>
+      </c>
+      <c r="CO135">
+        <v>36.84</v>
+      </c>
+      <c r="CP135">
+        <v>63.16</v>
+      </c>
+      <c r="CQ135">
+        <v>63.16</v>
+      </c>
+      <c r="CR135">
+        <v>0</v>
+      </c>
+      <c r="CS135">
+        <v>15.79</v>
+      </c>
+      <c r="CT135">
+        <v>72</v>
+      </c>
+      <c r="CU135">
+        <v>0.7</v>
+      </c>
+      <c r="CV135">
+        <v>0.24</v>
+      </c>
+      <c r="CW135">
+        <v>5.75</v>
+      </c>
+      <c r="CX135">
+        <v>-3.29</v>
+      </c>
+      <c r="CY135">
+        <v>-0.43</v>
+      </c>
+      <c r="CZ135">
+        <v>7.64</v>
+      </c>
+      <c r="DA135">
+        <v>7.13</v>
+      </c>
+      <c r="DB135">
+        <v>-0.78</v>
+      </c>
+      <c r="DC135">
+        <v>-1.25</v>
+      </c>
+      <c r="DD135">
+        <v>48.61</v>
+      </c>
+      <c r="DE135">
+        <v>50</v>
+      </c>
+      <c r="DF135">
+        <v>36.11</v>
+      </c>
+      <c r="DG135">
+        <v>86.11</v>
+      </c>
+      <c r="DH135">
+        <v>83.33</v>
+      </c>
+      <c r="DI135">
+        <v>45.83</v>
+      </c>
+      <c r="DJ135">
+        <v>44.44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:114">
+      <c r="A136" t="s">
+        <v>116</v>
+      </c>
+      <c r="B136">
+        <v>1107</v>
+      </c>
+      <c r="C136">
+        <v>4204</v>
+      </c>
+      <c r="D136">
+        <v>77</v>
+      </c>
+      <c r="E136">
+        <v>130</v>
+      </c>
+      <c r="F136">
+        <v>151</v>
+      </c>
+      <c r="G136">
+        <v>79</v>
+      </c>
+      <c r="H136">
+        <v>48</v>
+      </c>
+      <c r="I136">
+        <v>40</v>
+      </c>
+      <c r="J136">
+        <v>9</v>
+      </c>
+      <c r="K136">
+        <v>15</v>
+      </c>
+      <c r="L136">
+        <v>25</v>
+      </c>
+      <c r="M136">
+        <v>39</v>
+      </c>
+      <c r="N136">
+        <v>2.83</v>
+      </c>
+      <c r="O136">
+        <v>0.6</v>
+      </c>
+      <c r="P136">
+        <v>6.92</v>
+      </c>
+      <c r="Q136">
+        <v>-3.51</v>
+      </c>
+      <c r="R136">
+        <v>-1.99</v>
+      </c>
+      <c r="S136">
+        <v>11.54</v>
+      </c>
+      <c r="T136">
+        <v>9.31</v>
+      </c>
+      <c r="U136">
+        <v>2.83</v>
+      </c>
+      <c r="V136">
+        <v>0.6</v>
+      </c>
+      <c r="W136">
+        <v>69.23</v>
+      </c>
+      <c r="X136">
+        <v>43.59</v>
+      </c>
+      <c r="Y136">
+        <v>25.64</v>
+      </c>
+      <c r="Z136">
+        <v>97.44</v>
+      </c>
+      <c r="AA136">
+        <v>82.05</v>
+      </c>
+      <c r="AB136">
+        <v>69.23</v>
+      </c>
+      <c r="AC136">
+        <v>43.59</v>
+      </c>
+      <c r="AD136">
+        <v>16</v>
+      </c>
+      <c r="AE136">
+        <v>4.56</v>
+      </c>
+      <c r="AF136">
+        <v>0.21</v>
+      </c>
+      <c r="AG136">
+        <v>7.82</v>
+      </c>
+      <c r="AH136">
+        <v>-5.29</v>
+      </c>
+      <c r="AI136">
+        <v>-3.8</v>
+      </c>
+      <c r="AJ136">
+        <v>10.68</v>
+      </c>
+      <c r="AK136">
+        <v>6.34</v>
+      </c>
+      <c r="AL136">
+        <v>4.56</v>
+      </c>
+      <c r="AM136">
+        <v>0.21</v>
+      </c>
+      <c r="AN136">
+        <v>75</v>
+      </c>
+      <c r="AO136">
+        <v>43.75</v>
+      </c>
+      <c r="AP136">
+        <v>25</v>
+      </c>
+      <c r="AQ136">
+        <v>93.75</v>
+      </c>
+      <c r="AR136">
+        <v>68.75</v>
+      </c>
+      <c r="AS136">
+        <v>75</v>
+      </c>
+      <c r="AT136">
+        <v>43.75</v>
+      </c>
+      <c r="AU136">
+        <v>4</v>
+      </c>
+      <c r="AV136">
+        <v>-5.2</v>
+      </c>
+      <c r="AW136">
+        <v>-3.27</v>
+      </c>
+      <c r="AX136">
+        <v>-0.49</v>
+      </c>
+      <c r="AY136">
+        <v>-6.1</v>
+      </c>
+      <c r="AZ136">
+        <v>1.99</v>
+      </c>
+      <c r="BA136">
+        <v>-0.89</v>
+      </c>
+      <c r="BB136">
+        <v>1.04</v>
+      </c>
+      <c r="BC136">
+        <v>-7.62</v>
+      </c>
+      <c r="BD136">
+        <v>-5.75</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>25</v>
+      </c>
+      <c r="BG136">
+        <v>75</v>
+      </c>
+      <c r="BH136">
+        <v>25</v>
+      </c>
+      <c r="BI136">
+        <v>50</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>0</v>
+      </c>
+      <c r="BL136">
+        <v>12</v>
+      </c>
+      <c r="BM136">
+        <v>-3.2</v>
+      </c>
+      <c r="BN136">
+        <v>-1.7</v>
+      </c>
+      <c r="BO136">
+        <v>2.02</v>
+      </c>
+      <c r="BP136">
+        <v>-5.29</v>
+      </c>
+      <c r="BQ136">
+        <v>1.57</v>
+      </c>
+      <c r="BR136">
+        <v>-6.84</v>
+      </c>
+      <c r="BS136">
+        <v>-5.31</v>
+      </c>
+      <c r="BT136">
+        <v>-9.609999999999999</v>
+      </c>
+      <c r="BU136">
+        <v>-8.16</v>
+      </c>
+      <c r="BV136">
+        <v>8.33</v>
+      </c>
+      <c r="BW136">
+        <v>25</v>
+      </c>
+      <c r="BX136">
+        <v>58.33</v>
+      </c>
+      <c r="BY136">
+        <v>0</v>
+      </c>
+      <c r="BZ136">
+        <v>16.67</v>
+      </c>
+      <c r="CA136">
+        <v>0</v>
+      </c>
+      <c r="CB136">
+        <v>8.33</v>
+      </c>
+      <c r="CC136">
+        <v>26</v>
+      </c>
+      <c r="CD136">
+        <v>-3.26</v>
+      </c>
+      <c r="CE136">
+        <v>-3.47</v>
+      </c>
+      <c r="CF136">
+        <v>1.44</v>
+      </c>
+      <c r="CG136">
+        <v>-6.2</v>
+      </c>
+      <c r="CH136">
+        <v>-0.23</v>
+      </c>
+      <c r="CI136">
+        <v>0.16</v>
+      </c>
+      <c r="CJ136">
+        <v>-0.11</v>
+      </c>
+      <c r="CK136">
+        <v>-8.050000000000001</v>
+      </c>
+      <c r="CL136">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="CM136">
+        <v>7.69</v>
+      </c>
+      <c r="CN136">
+        <v>26.92</v>
+      </c>
+      <c r="CO136">
+        <v>34.62</v>
+      </c>
+      <c r="CP136">
+        <v>69.23</v>
+      </c>
+      <c r="CQ136">
+        <v>50</v>
+      </c>
+      <c r="CR136">
+        <v>0</v>
+      </c>
+      <c r="CS136">
+        <v>7.69</v>
+      </c>
+      <c r="CT136">
+        <v>65</v>
+      </c>
+      <c r="CU136">
+        <v>0.39</v>
+      </c>
+      <c r="CV136">
+        <v>-1.03</v>
+      </c>
+      <c r="CW136">
+        <v>4.73</v>
+      </c>
+      <c r="CX136">
+        <v>-4.59</v>
+      </c>
+      <c r="CY136">
+        <v>-1.29</v>
+      </c>
+      <c r="CZ136">
+        <v>6.99</v>
+      </c>
+      <c r="DA136">
+        <v>5.54</v>
+      </c>
+      <c r="DB136">
+        <v>-1.52</v>
+      </c>
+      <c r="DC136">
+        <v>-2.96</v>
+      </c>
+      <c r="DD136">
+        <v>44.62</v>
+      </c>
+      <c r="DE136">
+        <v>36.92</v>
+      </c>
+      <c r="DF136">
+        <v>29.23</v>
+      </c>
+      <c r="DG136">
+        <v>86.15000000000001</v>
+      </c>
+      <c r="DH136">
+        <v>69.23</v>
+      </c>
+      <c r="DI136">
+        <v>41.54</v>
+      </c>
+      <c r="DJ136">
+        <v>29.23</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>日期</t>
   </si>
@@ -358,13 +358,10 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250521</t>
+    <t>20250526</t>
   </si>
   <si>
-    <t>20250522</t>
-  </si>
-  <si>
-    <t>20250523</t>
+    <t>20250527</t>
   </si>
 </sst>
 </file>
@@ -722,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ136"/>
+  <dimension ref="A1:DJ138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44135,8 +44132,8 @@
       </c>
     </row>
     <row r="134" spans="1:114">
-      <c r="A134" t="s">
-        <v>114</v>
+      <c r="A134">
+        <v>20250521</v>
       </c>
       <c r="B134">
         <v>1615</v>
@@ -44428,8 +44425,8 @@
       </c>
     </row>
     <row r="135" spans="1:114">
-      <c r="A135" t="s">
-        <v>115</v>
+      <c r="A135">
+        <v>20250522</v>
       </c>
       <c r="B135">
         <v>887</v>
@@ -44772,8 +44769,8 @@
       </c>
     </row>
     <row r="136" spans="1:114">
-      <c r="A136" t="s">
-        <v>116</v>
+      <c r="A136">
+        <v>20250523</v>
       </c>
       <c r="B136">
         <v>1107</v>
@@ -45113,6 +45110,643 @@
       </c>
       <c r="DJ136">
         <v>29.23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:114">
+      <c r="A137" t="s">
+        <v>114</v>
+      </c>
+      <c r="B137">
+        <v>3797</v>
+      </c>
+      <c r="C137">
+        <v>1432</v>
+      </c>
+      <c r="D137">
+        <v>156</v>
+      </c>
+      <c r="E137">
+        <v>249</v>
+      </c>
+      <c r="F137">
+        <v>44</v>
+      </c>
+      <c r="G137">
+        <v>135</v>
+      </c>
+      <c r="H137">
+        <v>14</v>
+      </c>
+      <c r="I137">
+        <v>62</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>16</v>
+      </c>
+      <c r="L137">
+        <v>23</v>
+      </c>
+      <c r="M137">
+        <v>40</v>
+      </c>
+      <c r="N137">
+        <v>1.17</v>
+      </c>
+      <c r="O137">
+        <v>2.54</v>
+      </c>
+      <c r="P137">
+        <v>6.56</v>
+      </c>
+      <c r="Q137">
+        <v>-1.91</v>
+      </c>
+      <c r="R137">
+        <v>1.4</v>
+      </c>
+      <c r="S137">
+        <v>10.16</v>
+      </c>
+      <c r="T137">
+        <v>11.72</v>
+      </c>
+      <c r="U137">
+        <v>1.17</v>
+      </c>
+      <c r="V137">
+        <v>2.54</v>
+      </c>
+      <c r="W137">
+        <v>62.5</v>
+      </c>
+      <c r="X137">
+        <v>60</v>
+      </c>
+      <c r="Y137">
+        <v>52.5</v>
+      </c>
+      <c r="Z137">
+        <v>97.5</v>
+      </c>
+      <c r="AA137">
+        <v>95</v>
+      </c>
+      <c r="AB137">
+        <v>62.5</v>
+      </c>
+      <c r="AC137">
+        <v>60</v>
+      </c>
+      <c r="AD137">
+        <v>15</v>
+      </c>
+      <c r="AE137">
+        <v>1.38</v>
+      </c>
+      <c r="AF137">
+        <v>3.24</v>
+      </c>
+      <c r="AG137">
+        <v>6.96</v>
+      </c>
+      <c r="AH137">
+        <v>-1.24</v>
+      </c>
+      <c r="AI137">
+        <v>1.95</v>
+      </c>
+      <c r="AJ137">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="AK137">
+        <v>10.88</v>
+      </c>
+      <c r="AL137">
+        <v>1.38</v>
+      </c>
+      <c r="AM137">
+        <v>3.24</v>
+      </c>
+      <c r="AN137">
+        <v>60</v>
+      </c>
+      <c r="AO137">
+        <v>66.67</v>
+      </c>
+      <c r="AP137">
+        <v>53.33</v>
+      </c>
+      <c r="AQ137">
+        <v>100</v>
+      </c>
+      <c r="AR137">
+        <v>100</v>
+      </c>
+      <c r="AS137">
+        <v>60</v>
+      </c>
+      <c r="AT137">
+        <v>66.67</v>
+      </c>
+      <c r="AU137">
+        <v>1</v>
+      </c>
+      <c r="AV137">
+        <v>-7.78</v>
+      </c>
+      <c r="AW137">
+        <v>-9.98</v>
+      </c>
+      <c r="AX137">
+        <v>-2.91</v>
+      </c>
+      <c r="AY137">
+        <v>-9.98</v>
+      </c>
+      <c r="AZ137">
+        <v>-2.39</v>
+      </c>
+      <c r="BA137">
+        <v>-7.78</v>
+      </c>
+      <c r="BB137">
+        <v>-9.98</v>
+      </c>
+      <c r="BC137">
+        <v>-13.11</v>
+      </c>
+      <c r="BD137">
+        <v>-15.19</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>0</v>
+      </c>
+      <c r="BG137">
+        <v>0</v>
+      </c>
+      <c r="BH137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>0</v>
+      </c>
+      <c r="BJ137">
+        <v>0</v>
+      </c>
+      <c r="BK137">
+        <v>0</v>
+      </c>
+      <c r="BL137">
+        <v>9</v>
+      </c>
+      <c r="BM137">
+        <v>-4.12</v>
+      </c>
+      <c r="BN137">
+        <v>-3.23</v>
+      </c>
+      <c r="BO137">
+        <v>0.78</v>
+      </c>
+      <c r="BP137">
+        <v>-7.34</v>
+      </c>
+      <c r="BQ137">
+        <v>0.93</v>
+      </c>
+      <c r="BR137">
+        <v>-9.74</v>
+      </c>
+      <c r="BS137">
+        <v>-9.01</v>
+      </c>
+      <c r="BT137">
+        <v>-11.62</v>
+      </c>
+      <c r="BU137">
+        <v>-10.83</v>
+      </c>
+      <c r="BV137">
+        <v>0</v>
+      </c>
+      <c r="BW137">
+        <v>22.22</v>
+      </c>
+      <c r="BX137">
+        <v>55.56</v>
+      </c>
+      <c r="BY137">
+        <v>0</v>
+      </c>
+      <c r="BZ137">
+        <v>0</v>
+      </c>
+      <c r="CA137">
+        <v>0</v>
+      </c>
+      <c r="CB137">
+        <v>0</v>
+      </c>
+      <c r="CC137">
+        <v>24</v>
+      </c>
+      <c r="CD137">
+        <v>-1.76</v>
+      </c>
+      <c r="CE137">
+        <v>-0.91</v>
+      </c>
+      <c r="CF137">
+        <v>2.22</v>
+      </c>
+      <c r="CG137">
+        <v>-4.39</v>
+      </c>
+      <c r="CH137">
+        <v>0.89</v>
+      </c>
+      <c r="CI137">
+        <v>2.32</v>
+      </c>
+      <c r="CJ137">
+        <v>3.27</v>
+      </c>
+      <c r="CK137">
+        <v>-6.74</v>
+      </c>
+      <c r="CL137">
+        <v>-5.88</v>
+      </c>
+      <c r="CM137">
+        <v>16.67</v>
+      </c>
+      <c r="CN137">
+        <v>33.33</v>
+      </c>
+      <c r="CO137">
+        <v>54.17</v>
+      </c>
+      <c r="CP137">
+        <v>79.17</v>
+      </c>
+      <c r="CQ137">
+        <v>83.33</v>
+      </c>
+      <c r="CR137">
+        <v>0</v>
+      </c>
+      <c r="CS137">
+        <v>16.67</v>
+      </c>
+      <c r="CT137">
+        <v>64</v>
+      </c>
+      <c r="CU137">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CV137">
+        <v>1.25</v>
+      </c>
+      <c r="CW137">
+        <v>4.93</v>
+      </c>
+      <c r="CX137">
+        <v>-2.84</v>
+      </c>
+      <c r="CY137">
+        <v>1.21</v>
+      </c>
+      <c r="CZ137">
+        <v>7.22</v>
+      </c>
+      <c r="DA137">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="DB137">
+        <v>-1.8</v>
+      </c>
+      <c r="DC137">
+        <v>-0.61</v>
+      </c>
+      <c r="DD137">
+        <v>45.31</v>
+      </c>
+      <c r="DE137">
+        <v>50</v>
+      </c>
+      <c r="DF137">
+        <v>53.12</v>
+      </c>
+      <c r="DG137">
+        <v>90.62</v>
+      </c>
+      <c r="DH137">
+        <v>90.62</v>
+      </c>
+      <c r="DI137">
+        <v>39.06</v>
+      </c>
+      <c r="DJ137">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:114">
+      <c r="A138" t="s">
+        <v>115</v>
+      </c>
+      <c r="B138">
+        <v>2637</v>
+      </c>
+      <c r="C138">
+        <v>2576</v>
+      </c>
+      <c r="D138">
+        <v>172</v>
+      </c>
+      <c r="E138">
+        <v>204</v>
+      </c>
+      <c r="F138">
+        <v>36</v>
+      </c>
+      <c r="G138">
+        <v>105</v>
+      </c>
+      <c r="H138">
+        <v>9</v>
+      </c>
+      <c r="I138">
+        <v>62</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>25</v>
+      </c>
+      <c r="L138">
+        <v>25</v>
+      </c>
+      <c r="M138">
+        <v>62</v>
+      </c>
+      <c r="N138">
+        <v>2.82</v>
+      </c>
+      <c r="O138">
+        <v>4.06</v>
+      </c>
+      <c r="P138">
+        <v>7.47</v>
+      </c>
+      <c r="Q138">
+        <v>0.18</v>
+      </c>
+      <c r="R138">
+        <v>1.23</v>
+      </c>
+      <c r="S138">
+        <v>12.72</v>
+      </c>
+      <c r="T138">
+        <v>14.1</v>
+      </c>
+      <c r="U138">
+        <v>2.82</v>
+      </c>
+      <c r="V138">
+        <v>4.06</v>
+      </c>
+      <c r="W138">
+        <v>74.19</v>
+      </c>
+      <c r="X138">
+        <v>67.73999999999999</v>
+      </c>
+      <c r="Y138">
+        <v>51.61</v>
+      </c>
+      <c r="Z138">
+        <v>100</v>
+      </c>
+      <c r="AA138">
+        <v>98.39</v>
+      </c>
+      <c r="AB138">
+        <v>74.19</v>
+      </c>
+      <c r="AC138">
+        <v>67.73999999999999</v>
+      </c>
+      <c r="AD138">
+        <v>16</v>
+      </c>
+      <c r="AE138">
+        <v>3.94</v>
+      </c>
+      <c r="AF138">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AG138">
+        <v>10.41</v>
+      </c>
+      <c r="AH138">
+        <v>2.06</v>
+      </c>
+      <c r="AI138">
+        <v>4.13</v>
+      </c>
+      <c r="AJ138">
+        <v>11.26</v>
+      </c>
+      <c r="AK138">
+        <v>15.86</v>
+      </c>
+      <c r="AL138">
+        <v>3.94</v>
+      </c>
+      <c r="AM138">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AN138">
+        <v>93.75</v>
+      </c>
+      <c r="AO138">
+        <v>93.75</v>
+      </c>
+      <c r="AP138">
+        <v>75</v>
+      </c>
+      <c r="AQ138">
+        <v>100</v>
+      </c>
+      <c r="AR138">
+        <v>100</v>
+      </c>
+      <c r="AS138">
+        <v>93.75</v>
+      </c>
+      <c r="AT138">
+        <v>93.75</v>
+      </c>
+      <c r="BL138">
+        <v>1</v>
+      </c>
+      <c r="BM138">
+        <v>-1.48</v>
+      </c>
+      <c r="BN138">
+        <v>2.71</v>
+      </c>
+      <c r="BO138">
+        <v>3.67</v>
+      </c>
+      <c r="BP138">
+        <v>-4.63</v>
+      </c>
+      <c r="BQ138">
+        <v>4.26</v>
+      </c>
+      <c r="BR138">
+        <v>-3.84</v>
+      </c>
+      <c r="BS138">
+        <v>0.26</v>
+      </c>
+      <c r="BT138">
+        <v>-8.66</v>
+      </c>
+      <c r="BU138">
+        <v>-4.78</v>
+      </c>
+      <c r="BV138">
+        <v>0</v>
+      </c>
+      <c r="BW138">
+        <v>100</v>
+      </c>
+      <c r="BX138">
+        <v>100</v>
+      </c>
+      <c r="BY138">
+        <v>0</v>
+      </c>
+      <c r="BZ138">
+        <v>100</v>
+      </c>
+      <c r="CA138">
+        <v>0</v>
+      </c>
+      <c r="CB138">
+        <v>0</v>
+      </c>
+      <c r="CC138">
+        <v>23</v>
+      </c>
+      <c r="CD138">
+        <v>-0.48</v>
+      </c>
+      <c r="CE138">
+        <v>0.27</v>
+      </c>
+      <c r="CF138">
+        <v>3.65</v>
+      </c>
+      <c r="CG138">
+        <v>-3.14</v>
+      </c>
+      <c r="CH138">
+        <v>0.77</v>
+      </c>
+      <c r="CI138">
+        <v>4.61</v>
+      </c>
+      <c r="CJ138">
+        <v>5.41</v>
+      </c>
+      <c r="CK138">
+        <v>-4.45</v>
+      </c>
+      <c r="CL138">
+        <v>-3.72</v>
+      </c>
+      <c r="CM138">
+        <v>34.78</v>
+      </c>
+      <c r="CN138">
+        <v>43.48</v>
+      </c>
+      <c r="CO138">
+        <v>52.17</v>
+      </c>
+      <c r="CP138">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="CQ138">
+        <v>82.61</v>
+      </c>
+      <c r="CR138">
+        <v>13.04</v>
+      </c>
+      <c r="CS138">
+        <v>21.74</v>
+      </c>
+      <c r="CT138">
+        <v>85</v>
+      </c>
+      <c r="CU138">
+        <v>1.93</v>
+      </c>
+      <c r="CV138">
+        <v>3.04</v>
+      </c>
+      <c r="CW138">
+        <v>6.44</v>
+      </c>
+      <c r="CX138">
+        <v>-0.72</v>
+      </c>
+      <c r="CY138">
+        <v>1.1</v>
+      </c>
+      <c r="CZ138">
+        <v>10.52</v>
+      </c>
+      <c r="DA138">
+        <v>11.75</v>
+      </c>
+      <c r="DB138">
+        <v>0.85</v>
+      </c>
+      <c r="DC138">
+        <v>1.96</v>
+      </c>
+      <c r="DD138">
+        <v>63.53</v>
+      </c>
+      <c r="DE138">
+        <v>61.18</v>
+      </c>
+      <c r="DF138">
+        <v>51.76</v>
+      </c>
+      <c r="DG138">
+        <v>96.47</v>
+      </c>
+      <c r="DH138">
+        <v>94.12</v>
+      </c>
+      <c r="DI138">
+        <v>57.65</v>
+      </c>
+      <c r="DJ138">
+        <v>55.29</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -358,10 +358,10 @@
     <t>曾涨停_次日高入收盘涨比</t>
   </si>
   <si>
-    <t>20250526</t>
+    <t>20250528</t>
   </si>
   <si>
-    <t>20250527</t>
+    <t>20250529</t>
   </si>
 </sst>
 </file>
@@ -719,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ138"/>
+  <dimension ref="A1:DJ140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45113,8 +45113,8 @@
       </c>
     </row>
     <row r="137" spans="1:114">
-      <c r="A137" t="s">
-        <v>114</v>
+      <c r="A137">
+        <v>20250526</v>
       </c>
       <c r="B137">
         <v>3797</v>
@@ -45457,8 +45457,8 @@
       </c>
     </row>
     <row r="138" spans="1:114">
-      <c r="A138" t="s">
-        <v>115</v>
+      <c r="A138">
+        <v>20250527</v>
       </c>
       <c r="B138">
         <v>2637</v>
@@ -45747,6 +45747,592 @@
       </c>
       <c r="DJ138">
         <v>55.29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:114">
+      <c r="A139" t="s">
+        <v>114</v>
+      </c>
+      <c r="B139">
+        <v>1751</v>
+      </c>
+      <c r="C139">
+        <v>3480</v>
+      </c>
+      <c r="D139">
+        <v>152</v>
+      </c>
+      <c r="E139">
+        <v>173</v>
+      </c>
+      <c r="F139">
+        <v>94</v>
+      </c>
+      <c r="G139">
+        <v>91</v>
+      </c>
+      <c r="H139">
+        <v>38</v>
+      </c>
+      <c r="I139">
+        <v>55</v>
+      </c>
+      <c r="J139">
+        <v>3</v>
+      </c>
+      <c r="K139">
+        <v>21</v>
+      </c>
+      <c r="L139">
+        <v>20</v>
+      </c>
+      <c r="M139">
+        <v>62</v>
+      </c>
+      <c r="N139">
+        <v>3.83</v>
+      </c>
+      <c r="O139">
+        <v>2.23</v>
+      </c>
+      <c r="P139">
+        <v>7.53</v>
+      </c>
+      <c r="Q139">
+        <v>-1.43</v>
+      </c>
+      <c r="R139">
+        <v>-1.52</v>
+      </c>
+      <c r="S139">
+        <v>12.46</v>
+      </c>
+      <c r="T139">
+        <v>10.68</v>
+      </c>
+      <c r="U139">
+        <v>3.83</v>
+      </c>
+      <c r="V139">
+        <v>2.23</v>
+      </c>
+      <c r="W139">
+        <v>74.19</v>
+      </c>
+      <c r="X139">
+        <v>50</v>
+      </c>
+      <c r="Y139">
+        <v>29.03</v>
+      </c>
+      <c r="Z139">
+        <v>98.39</v>
+      </c>
+      <c r="AA139">
+        <v>95.16</v>
+      </c>
+      <c r="AB139">
+        <v>74.19</v>
+      </c>
+      <c r="AC139">
+        <v>50</v>
+      </c>
+      <c r="AD139">
+        <v>25</v>
+      </c>
+      <c r="AE139">
+        <v>3.49</v>
+      </c>
+      <c r="AF139">
+        <v>2.46</v>
+      </c>
+      <c r="AG139">
+        <v>7.92</v>
+      </c>
+      <c r="AH139">
+        <v>-2.51</v>
+      </c>
+      <c r="AI139">
+        <v>-0.99</v>
+      </c>
+      <c r="AJ139">
+        <v>8.99</v>
+      </c>
+      <c r="AK139">
+        <v>7.86</v>
+      </c>
+      <c r="AL139">
+        <v>3.49</v>
+      </c>
+      <c r="AM139">
+        <v>2.46</v>
+      </c>
+      <c r="AN139">
+        <v>68</v>
+      </c>
+      <c r="AO139">
+        <v>52</v>
+      </c>
+      <c r="AP139">
+        <v>32</v>
+      </c>
+      <c r="AQ139">
+        <v>96</v>
+      </c>
+      <c r="AR139">
+        <v>88</v>
+      </c>
+      <c r="AS139">
+        <v>68</v>
+      </c>
+      <c r="AT139">
+        <v>52</v>
+      </c>
+      <c r="BL139">
+        <v>1</v>
+      </c>
+      <c r="BM139">
+        <v>-4.69</v>
+      </c>
+      <c r="BN139">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="BO139">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="BP139">
+        <v>-9.6</v>
+      </c>
+      <c r="BQ139">
+        <v>15.38</v>
+      </c>
+      <c r="BR139">
+        <v>-9.66</v>
+      </c>
+      <c r="BS139">
+        <v>4.24</v>
+      </c>
+      <c r="BT139">
+        <v>-11.68</v>
+      </c>
+      <c r="BU139">
+        <v>1.9</v>
+      </c>
+      <c r="BV139">
+        <v>0</v>
+      </c>
+      <c r="BW139">
+        <v>100</v>
+      </c>
+      <c r="BX139">
+        <v>100</v>
+      </c>
+      <c r="BY139">
+        <v>0</v>
+      </c>
+      <c r="BZ139">
+        <v>100</v>
+      </c>
+      <c r="CA139">
+        <v>0</v>
+      </c>
+      <c r="CB139">
+        <v>100</v>
+      </c>
+      <c r="CC139">
+        <v>18</v>
+      </c>
+      <c r="CD139">
+        <v>-1.08</v>
+      </c>
+      <c r="CE139">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="CF139">
+        <v>4.48</v>
+      </c>
+      <c r="CG139">
+        <v>-3.96</v>
+      </c>
+      <c r="CH139">
+        <v>1.06</v>
+      </c>
+      <c r="CI139">
+        <v>5.83</v>
+      </c>
+      <c r="CJ139">
+        <v>6.88</v>
+      </c>
+      <c r="CK139">
+        <v>-4.62</v>
+      </c>
+      <c r="CL139">
+        <v>-3.63</v>
+      </c>
+      <c r="CM139">
+        <v>33.33</v>
+      </c>
+      <c r="CN139">
+        <v>38.89</v>
+      </c>
+      <c r="CO139">
+        <v>38.89</v>
+      </c>
+      <c r="CP139">
+        <v>88.89</v>
+      </c>
+      <c r="CQ139">
+        <v>88.89</v>
+      </c>
+      <c r="CR139">
+        <v>5.56</v>
+      </c>
+      <c r="CS139">
+        <v>22.22</v>
+      </c>
+      <c r="CT139">
+        <v>80</v>
+      </c>
+      <c r="CU139">
+        <v>2.72</v>
+      </c>
+      <c r="CV139">
+        <v>1.71</v>
+      </c>
+      <c r="CW139">
+        <v>6.84</v>
+      </c>
+      <c r="CX139">
+        <v>-2</v>
+      </c>
+      <c r="CY139">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="CZ139">
+        <v>10.97</v>
+      </c>
+      <c r="DA139">
+        <v>9.82</v>
+      </c>
+      <c r="DB139">
+        <v>1.93</v>
+      </c>
+      <c r="DC139">
+        <v>0.91</v>
+      </c>
+      <c r="DD139">
+        <v>65</v>
+      </c>
+      <c r="DE139">
+        <v>47.5</v>
+      </c>
+      <c r="DF139">
+        <v>31.25</v>
+      </c>
+      <c r="DG139">
+        <v>96.25</v>
+      </c>
+      <c r="DH139">
+        <v>93.75</v>
+      </c>
+      <c r="DI139">
+        <v>58.75</v>
+      </c>
+      <c r="DJ139">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:114">
+      <c r="A140" t="s">
+        <v>115</v>
+      </c>
+      <c r="B140">
+        <v>4472</v>
+      </c>
+      <c r="C140">
+        <v>831</v>
+      </c>
+      <c r="D140">
+        <v>83</v>
+      </c>
+      <c r="E140">
+        <v>378</v>
+      </c>
+      <c r="F140">
+        <v>39</v>
+      </c>
+      <c r="G140">
+        <v>214</v>
+      </c>
+      <c r="H140">
+        <v>15</v>
+      </c>
+      <c r="I140">
+        <v>108</v>
+      </c>
+      <c r="J140">
+        <v>4</v>
+      </c>
+      <c r="K140">
+        <v>29</v>
+      </c>
+      <c r="L140">
+        <v>16</v>
+      </c>
+      <c r="M140">
+        <v>55</v>
+      </c>
+      <c r="N140">
+        <v>1.84</v>
+      </c>
+      <c r="O140">
+        <v>4.3</v>
+      </c>
+      <c r="P140">
+        <v>7.25</v>
+      </c>
+      <c r="Q140">
+        <v>-0.89</v>
+      </c>
+      <c r="R140">
+        <v>2.49</v>
+      </c>
+      <c r="S140">
+        <v>9.67</v>
+      </c>
+      <c r="T140">
+        <v>12.35</v>
+      </c>
+      <c r="U140">
+        <v>1.84</v>
+      </c>
+      <c r="V140">
+        <v>4.3</v>
+      </c>
+      <c r="W140">
+        <v>61.82</v>
+      </c>
+      <c r="X140">
+        <v>67.27</v>
+      </c>
+      <c r="Y140">
+        <v>56.36</v>
+      </c>
+      <c r="Z140">
+        <v>90.91</v>
+      </c>
+      <c r="AA140">
+        <v>94.55</v>
+      </c>
+      <c r="AB140">
+        <v>61.82</v>
+      </c>
+      <c r="AC140">
+        <v>67.27</v>
+      </c>
+      <c r="AD140">
+        <v>21</v>
+      </c>
+      <c r="AE140">
+        <v>1.66</v>
+      </c>
+      <c r="AF140">
+        <v>4.58</v>
+      </c>
+      <c r="AG140">
+        <v>7.26</v>
+      </c>
+      <c r="AH140">
+        <v>-0.33</v>
+      </c>
+      <c r="AI140">
+        <v>2.94</v>
+      </c>
+      <c r="AJ140">
+        <v>5.59</v>
+      </c>
+      <c r="AK140">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AL140">
+        <v>1.66</v>
+      </c>
+      <c r="AM140">
+        <v>4.58</v>
+      </c>
+      <c r="AN140">
+        <v>57.14</v>
+      </c>
+      <c r="AO140">
+        <v>66.67</v>
+      </c>
+      <c r="AP140">
+        <v>57.14</v>
+      </c>
+      <c r="AQ140">
+        <v>76.19</v>
+      </c>
+      <c r="AR140">
+        <v>90.48</v>
+      </c>
+      <c r="AS140">
+        <v>57.14</v>
+      </c>
+      <c r="AT140">
+        <v>66.67</v>
+      </c>
+      <c r="BL140">
+        <v>3</v>
+      </c>
+      <c r="BM140">
+        <v>-5</v>
+      </c>
+      <c r="BN140">
+        <v>-3.21</v>
+      </c>
+      <c r="BO140">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="BP140">
+        <v>-8.09</v>
+      </c>
+      <c r="BQ140">
+        <v>1.85</v>
+      </c>
+      <c r="BR140">
+        <v>-14.16</v>
+      </c>
+      <c r="BS140">
+        <v>-12.54</v>
+      </c>
+      <c r="BT140">
+        <v>-15.39</v>
+      </c>
+      <c r="BU140">
+        <v>-13.73</v>
+      </c>
+      <c r="BV140">
+        <v>0</v>
+      </c>
+      <c r="BW140">
+        <v>33.33</v>
+      </c>
+      <c r="BX140">
+        <v>33.33</v>
+      </c>
+      <c r="BY140">
+        <v>0</v>
+      </c>
+      <c r="BZ140">
+        <v>0</v>
+      </c>
+      <c r="CA140">
+        <v>0</v>
+      </c>
+      <c r="CB140">
+        <v>0</v>
+      </c>
+      <c r="CC140">
+        <v>20</v>
+      </c>
+      <c r="CD140">
+        <v>-2.6</v>
+      </c>
+      <c r="CE140">
+        <v>0.14</v>
+      </c>
+      <c r="CF140">
+        <v>2.4</v>
+      </c>
+      <c r="CG140">
+        <v>-4.31</v>
+      </c>
+      <c r="CH140">
+        <v>2.83</v>
+      </c>
+      <c r="CI140">
+        <v>0.67</v>
+      </c>
+      <c r="CJ140">
+        <v>3.59</v>
+      </c>
+      <c r="CK140">
+        <v>-6.99</v>
+      </c>
+      <c r="CL140">
+        <v>-4.4</v>
+      </c>
+      <c r="CM140">
+        <v>20</v>
+      </c>
+      <c r="CN140">
+        <v>40</v>
+      </c>
+      <c r="CO140">
+        <v>75</v>
+      </c>
+      <c r="CP140">
+        <v>70</v>
+      </c>
+      <c r="CQ140">
+        <v>75</v>
+      </c>
+      <c r="CR140">
+        <v>0</v>
+      </c>
+      <c r="CS140">
+        <v>15</v>
+      </c>
+      <c r="CT140">
+        <v>75</v>
+      </c>
+      <c r="CU140">
+        <v>0.65</v>
+      </c>
+      <c r="CV140">
+        <v>3.19</v>
+      </c>
+      <c r="CW140">
+        <v>5.96</v>
+      </c>
+      <c r="CX140">
+        <v>-1.8</v>
+      </c>
+      <c r="CY140">
+        <v>2.58</v>
+      </c>
+      <c r="CZ140">
+        <v>7.27</v>
+      </c>
+      <c r="DA140">
+        <v>10.01</v>
+      </c>
+      <c r="DB140">
+        <v>-0.52</v>
+      </c>
+      <c r="DC140">
+        <v>1.98</v>
+      </c>
+      <c r="DD140">
+        <v>50.67</v>
+      </c>
+      <c r="DE140">
+        <v>60</v>
+      </c>
+      <c r="DF140">
+        <v>61.33</v>
+      </c>
+      <c r="DG140">
+        <v>85.33</v>
+      </c>
+      <c r="DH140">
+        <v>89.33</v>
+      </c>
+      <c r="DI140">
+        <v>45.33</v>
+      </c>
+      <c r="DJ140">
+        <v>53.33</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ147"/>
+  <dimension ref="A1:DJ148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47122,10 +47122,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>20250530</t>
-        </is>
+      <c r="A141" t="n">
+        <v>20250530</v>
       </c>
       <c r="B141" t="n">
         <v>1116</v>
@@ -47434,10 +47432,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>20250603</t>
-        </is>
+      <c r="A142" t="n">
+        <v>20250603</v>
       </c>
       <c r="B142" t="n">
         <v>3390</v>
@@ -47780,10 +47776,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>20250604</t>
-        </is>
+      <c r="A143" t="n">
+        <v>20250604</v>
       </c>
       <c r="B143" t="n">
         <v>3964</v>
@@ -48126,10 +48120,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>20250605</t>
-        </is>
+      <c r="A144" t="n">
+        <v>20250605</v>
       </c>
       <c r="B144" t="n">
         <v>2677</v>
@@ -48438,10 +48430,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>20250606</t>
-        </is>
+      <c r="A145" t="n">
+        <v>20250606</v>
       </c>
       <c r="B145" t="n">
         <v>2601</v>
@@ -48750,10 +48740,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>20250609</t>
-        </is>
+      <c r="A146" t="n">
+        <v>20250609</v>
       </c>
       <c r="B146" t="n">
         <v>4121</v>
@@ -49062,10 +49050,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>20250610</t>
-        </is>
+      <c r="A147" t="n">
+        <v>20250610</v>
       </c>
       <c r="B147" t="n">
         <v>1263</v>
@@ -49405,6 +49391,318 @@
       </c>
       <c r="DJ147" t="n">
         <v>47.47</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>20250611</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3415</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1738</v>
+      </c>
+      <c r="D148" t="n">
+        <v>245</v>
+      </c>
+      <c r="E148" t="n">
+        <v>199</v>
+      </c>
+      <c r="F148" t="n">
+        <v>57</v>
+      </c>
+      <c r="G148" t="n">
+        <v>108</v>
+      </c>
+      <c r="H148" t="n">
+        <v>33</v>
+      </c>
+      <c r="I148" t="n">
+        <v>51</v>
+      </c>
+      <c r="J148" t="n">
+        <v>5</v>
+      </c>
+      <c r="K148" t="n">
+        <v>13</v>
+      </c>
+      <c r="L148" t="n">
+        <v>29</v>
+      </c>
+      <c r="M148" t="n">
+        <v>44</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O148" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="P148" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="R148" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="S148" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="T148" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="U148" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="W148" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="X148" t="n">
+        <v>56.82</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>95.45</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>90.91</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>56.82</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>86.67</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AU148" t="inlineStr"/>
+      <c r="AV148" t="inlineStr"/>
+      <c r="AW148" t="inlineStr"/>
+      <c r="AX148" t="inlineStr"/>
+      <c r="AY148" t="inlineStr"/>
+      <c r="AZ148" t="inlineStr"/>
+      <c r="BA148" t="inlineStr"/>
+      <c r="BB148" t="inlineStr"/>
+      <c r="BC148" t="inlineStr"/>
+      <c r="BD148" t="inlineStr"/>
+      <c r="BE148" t="inlineStr"/>
+      <c r="BF148" t="inlineStr"/>
+      <c r="BG148" t="inlineStr"/>
+      <c r="BH148" t="inlineStr"/>
+      <c r="BI148" t="inlineStr"/>
+      <c r="BJ148" t="inlineStr"/>
+      <c r="BK148" t="inlineStr"/>
+      <c r="BL148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="BQ148" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BR148" t="n">
+        <v>-10.75</v>
+      </c>
+      <c r="BS148" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="BT148" t="n">
+        <v>-11.57</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>-11</v>
+      </c>
+      <c r="BV148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW148" t="n">
+        <v>50</v>
+      </c>
+      <c r="BX148" t="n">
+        <v>50</v>
+      </c>
+      <c r="BY148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC148" t="n">
+        <v>28</v>
+      </c>
+      <c r="CD148" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="CE148" t="n">
+        <v>-3.67</v>
+      </c>
+      <c r="CF148" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="CG148" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="CH148" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="CI148" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="CJ148" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="CK148" t="n">
+        <v>-5.38</v>
+      </c>
+      <c r="CL148" t="n">
+        <v>-7.87</v>
+      </c>
+      <c r="CM148" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CN148" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="CO148" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="CP148" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="CQ148" t="n">
+        <v>50</v>
+      </c>
+      <c r="CR148" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="CS148" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="CT148" t="n">
+        <v>72</v>
+      </c>
+      <c r="CU148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="CV148" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="CW148" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="CX148" t="n">
+        <v>-3.17</v>
+      </c>
+      <c r="CY148" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="CZ148" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="DA148" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="DB148" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="DC148" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="DD148" t="n">
+        <v>51.39</v>
+      </c>
+      <c r="DE148" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="DF148" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="DG148" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="DH148" t="n">
+        <v>75</v>
+      </c>
+      <c r="DI148" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="DJ148" t="n">
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ148"/>
+  <dimension ref="A1:DJ151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49394,10 +49394,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>20250611</t>
-        </is>
+      <c r="A148" t="n">
+        <v>20250611</v>
       </c>
       <c r="B148" t="n">
         <v>3415</v>
@@ -49705,6 +49703,942 @@
         <v>37.5</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>20250612</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2327</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2868</v>
+      </c>
+      <c r="D149" t="n">
+        <v>203</v>
+      </c>
+      <c r="E149" t="n">
+        <v>217</v>
+      </c>
+      <c r="F149" t="n">
+        <v>34</v>
+      </c>
+      <c r="G149" t="n">
+        <v>119</v>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+      <c r="I149" t="n">
+        <v>62</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>20</v>
+      </c>
+      <c r="L149" t="n">
+        <v>16</v>
+      </c>
+      <c r="M149" t="n">
+        <v>51</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O149" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="P149" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="S149" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="T149" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="U149" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V149" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="W149" t="n">
+        <v>72.55</v>
+      </c>
+      <c r="X149" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>92.16</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>72.55</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="AU149" t="inlineStr"/>
+      <c r="AV149" t="inlineStr"/>
+      <c r="AW149" t="inlineStr"/>
+      <c r="AX149" t="inlineStr"/>
+      <c r="AY149" t="inlineStr"/>
+      <c r="AZ149" t="inlineStr"/>
+      <c r="BA149" t="inlineStr"/>
+      <c r="BB149" t="inlineStr"/>
+      <c r="BC149" t="inlineStr"/>
+      <c r="BD149" t="inlineStr"/>
+      <c r="BE149" t="inlineStr"/>
+      <c r="BF149" t="inlineStr"/>
+      <c r="BG149" t="inlineStr"/>
+      <c r="BH149" t="inlineStr"/>
+      <c r="BI149" t="inlineStr"/>
+      <c r="BJ149" t="inlineStr"/>
+      <c r="BK149" t="inlineStr"/>
+      <c r="BL149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>-5.49</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>-3.52</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>-8.31</v>
+      </c>
+      <c r="BQ149" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BR149" t="n">
+        <v>-13.04</v>
+      </c>
+      <c r="BS149" t="n">
+        <v>-11.22</v>
+      </c>
+      <c r="BT149" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="BV149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW149" t="n">
+        <v>20</v>
+      </c>
+      <c r="BX149" t="n">
+        <v>80</v>
+      </c>
+      <c r="BY149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC149" t="n">
+        <v>29</v>
+      </c>
+      <c r="CD149" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="CE149" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="CF149" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="CG149" t="n">
+        <v>-4.66</v>
+      </c>
+      <c r="CH149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CI149" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="CJ149" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="CK149" t="n">
+        <v>-7.49</v>
+      </c>
+      <c r="CL149" t="n">
+        <v>-5.22</v>
+      </c>
+      <c r="CM149" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="CN149" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="CO149" t="n">
+        <v>58.62</v>
+      </c>
+      <c r="CP149" t="n">
+        <v>68.97</v>
+      </c>
+      <c r="CQ149" t="n">
+        <v>72.41</v>
+      </c>
+      <c r="CR149" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS149" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="CT149" t="n">
+        <v>80</v>
+      </c>
+      <c r="CU149" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="CV149" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="CW149" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="CX149" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="CY149" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="CZ149" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="DA149" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="DB149" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="DC149" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="DD149" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="DE149" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="DF149" t="n">
+        <v>53.75</v>
+      </c>
+      <c r="DG149" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="DH149" t="n">
+        <v>85</v>
+      </c>
+      <c r="DI149" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="DJ149" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>20250613</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>849</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4477</v>
+      </c>
+      <c r="D150" t="n">
+        <v>72</v>
+      </c>
+      <c r="E150" t="n">
+        <v>141</v>
+      </c>
+      <c r="F150" t="n">
+        <v>329</v>
+      </c>
+      <c r="G150" t="n">
+        <v>96</v>
+      </c>
+      <c r="H150" t="n">
+        <v>102</v>
+      </c>
+      <c r="I150" t="n">
+        <v>55</v>
+      </c>
+      <c r="J150" t="n">
+        <v>6</v>
+      </c>
+      <c r="K150" t="n">
+        <v>9</v>
+      </c>
+      <c r="L150" t="n">
+        <v>11</v>
+      </c>
+      <c r="M150" t="n">
+        <v>61</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="P150" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>-4.89</v>
+      </c>
+      <c r="R150" t="n">
+        <v>-3.43</v>
+      </c>
+      <c r="S150" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="T150" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="U150" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="V150" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="W150" t="n">
+        <v>49.18</v>
+      </c>
+      <c r="X150" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>98.36</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>81.97</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>49.18</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>-5.97</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>-2.82</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>30</v>
+      </c>
+      <c r="AU150" t="inlineStr"/>
+      <c r="AV150" t="inlineStr"/>
+      <c r="AW150" t="inlineStr"/>
+      <c r="AX150" t="inlineStr"/>
+      <c r="AY150" t="inlineStr"/>
+      <c r="AZ150" t="inlineStr"/>
+      <c r="BA150" t="inlineStr"/>
+      <c r="BB150" t="inlineStr"/>
+      <c r="BC150" t="inlineStr"/>
+      <c r="BD150" t="inlineStr"/>
+      <c r="BE150" t="inlineStr"/>
+      <c r="BF150" t="inlineStr"/>
+      <c r="BG150" t="inlineStr"/>
+      <c r="BH150" t="inlineStr"/>
+      <c r="BI150" t="inlineStr"/>
+      <c r="BJ150" t="inlineStr"/>
+      <c r="BK150" t="inlineStr"/>
+      <c r="BL150" t="inlineStr"/>
+      <c r="BM150" t="inlineStr"/>
+      <c r="BN150" t="inlineStr"/>
+      <c r="BO150" t="inlineStr"/>
+      <c r="BP150" t="inlineStr"/>
+      <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
+      <c r="BS150" t="inlineStr"/>
+      <c r="BT150" t="inlineStr"/>
+      <c r="BU150" t="inlineStr"/>
+      <c r="BV150" t="inlineStr"/>
+      <c r="BW150" t="inlineStr"/>
+      <c r="BX150" t="inlineStr"/>
+      <c r="BY150" t="inlineStr"/>
+      <c r="BZ150" t="inlineStr"/>
+      <c r="CA150" t="inlineStr"/>
+      <c r="CB150" t="inlineStr"/>
+      <c r="CC150" t="n">
+        <v>16</v>
+      </c>
+      <c r="CD150" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="CE150" t="n">
+        <v>-3.35</v>
+      </c>
+      <c r="CF150" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="CG150" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="CH150" t="n">
+        <v>-2.57</v>
+      </c>
+      <c r="CI150" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="CJ150" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="CK150" t="n">
+        <v>-7.06</v>
+      </c>
+      <c r="CL150" t="n">
+        <v>-9.369999999999999</v>
+      </c>
+      <c r="CM150" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="CN150" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="CO150" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="CP150" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="CQ150" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="CR150" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="CS150" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="CT150" t="n">
+        <v>77</v>
+      </c>
+      <c r="CU150" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="CV150" t="n">
+        <v>-2.76</v>
+      </c>
+      <c r="CW150" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="CX150" t="n">
+        <v>-4.92</v>
+      </c>
+      <c r="CY150" t="n">
+        <v>-3.25</v>
+      </c>
+      <c r="CZ150" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="DA150" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="DB150" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="DC150" t="n">
+        <v>-4.01</v>
+      </c>
+      <c r="DD150" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="DE150" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="DF150" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="DG150" t="n">
+        <v>89.61</v>
+      </c>
+      <c r="DH150" t="n">
+        <v>74.03</v>
+      </c>
+      <c r="DI150" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="DJ150" t="n">
+        <v>25.97</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>20250616</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>3559</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1641</v>
+      </c>
+      <c r="D151" t="n">
+        <v>200</v>
+      </c>
+      <c r="E151" t="n">
+        <v>259</v>
+      </c>
+      <c r="F151" t="n">
+        <v>36</v>
+      </c>
+      <c r="G151" t="n">
+        <v>139</v>
+      </c>
+      <c r="H151" t="n">
+        <v>21</v>
+      </c>
+      <c r="I151" t="n">
+        <v>54</v>
+      </c>
+      <c r="J151" t="n">
+        <v>4</v>
+      </c>
+      <c r="K151" t="n">
+        <v>20</v>
+      </c>
+      <c r="L151" t="n">
+        <v>21</v>
+      </c>
+      <c r="M151" t="n">
+        <v>55</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O151" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="P151" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="R151" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S151" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="T151" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V151" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="W151" t="n">
+        <v>56.36</v>
+      </c>
+      <c r="X151" t="n">
+        <v>76.36</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>58.18</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>92.73</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>94.55</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>56.36</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>76.36</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>-10.45</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>-5.67</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>50</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="BQ151" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BR151" t="n">
+        <v>-6.85</v>
+      </c>
+      <c r="BS151" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BT151" t="n">
+        <v>-10.31</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>-7.85</v>
+      </c>
+      <c r="BV151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW151" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BX151" t="n">
+        <v>50</v>
+      </c>
+      <c r="BY151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ151" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="CA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC151" t="n">
+        <v>11</v>
+      </c>
+      <c r="CD151" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="CE151" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CF151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="CG151" t="n">
+        <v>-4.36</v>
+      </c>
+      <c r="CH151" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="CI151" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="CJ151" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="CK151" t="n">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="CL151" t="n">
+        <v>-5.77</v>
+      </c>
+      <c r="CM151" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="CN151" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="CO151" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="CP151" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="CQ151" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="CR151" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS151" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="CT151" t="n">
+        <v>66</v>
+      </c>
+      <c r="CU151" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="CV151" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="CW151" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="CX151" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="CY151" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="CZ151" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="DA151" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="DB151" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="DC151" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="DD151" t="n">
+        <v>50</v>
+      </c>
+      <c r="DE151" t="n">
+        <v>71.20999999999999</v>
+      </c>
+      <c r="DF151" t="n">
+        <v>56.06</v>
+      </c>
+      <c r="DG151" t="n">
+        <v>87.88</v>
+      </c>
+      <c r="DH151" t="n">
+        <v>90.91</v>
+      </c>
+      <c r="DI151" t="n">
+        <v>46.97</v>
+      </c>
+      <c r="DJ151" t="n">
+        <v>65.15000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ151"/>
+  <dimension ref="A1:DJ152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49704,10 +49704,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>20250612</t>
-        </is>
+      <c r="A149" t="n">
+        <v>20250612</v>
       </c>
       <c r="B149" t="n">
         <v>2327</v>
@@ -50016,10 +50014,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>20250613</t>
-        </is>
+      <c r="A150" t="n">
+        <v>20250613</v>
       </c>
       <c r="B150" t="n">
         <v>849</v>
@@ -50294,10 +50290,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>20250616</t>
-        </is>
+      <c r="A151" t="n">
+        <v>20250616</v>
       </c>
       <c r="B151" t="n">
         <v>3559</v>
@@ -50637,6 +50631,318 @@
       </c>
       <c r="DJ151" t="n">
         <v>65.15000000000001</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>20250617</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2250</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2921</v>
+      </c>
+      <c r="D152" t="n">
+        <v>235</v>
+      </c>
+      <c r="E152" t="n">
+        <v>146</v>
+      </c>
+      <c r="F152" t="n">
+        <v>116</v>
+      </c>
+      <c r="G152" t="n">
+        <v>80</v>
+      </c>
+      <c r="H152" t="n">
+        <v>49</v>
+      </c>
+      <c r="I152" t="n">
+        <v>44</v>
+      </c>
+      <c r="J152" t="n">
+        <v>6</v>
+      </c>
+      <c r="K152" t="n">
+        <v>12</v>
+      </c>
+      <c r="L152" t="n">
+        <v>19</v>
+      </c>
+      <c r="M152" t="n">
+        <v>54</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P152" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="R152" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="S152" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="T152" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V152" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W152" t="n">
+        <v>70.37</v>
+      </c>
+      <c r="X152" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>70.37</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>85</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>65</v>
+      </c>
+      <c r="AU152" t="inlineStr"/>
+      <c r="AV152" t="inlineStr"/>
+      <c r="AW152" t="inlineStr"/>
+      <c r="AX152" t="inlineStr"/>
+      <c r="AY152" t="inlineStr"/>
+      <c r="AZ152" t="inlineStr"/>
+      <c r="BA152" t="inlineStr"/>
+      <c r="BB152" t="inlineStr"/>
+      <c r="BC152" t="inlineStr"/>
+      <c r="BD152" t="inlineStr"/>
+      <c r="BE152" t="inlineStr"/>
+      <c r="BF152" t="inlineStr"/>
+      <c r="BG152" t="inlineStr"/>
+      <c r="BH152" t="inlineStr"/>
+      <c r="BI152" t="inlineStr"/>
+      <c r="BJ152" t="inlineStr"/>
+      <c r="BK152" t="inlineStr"/>
+      <c r="BL152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>-5.08</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>-7.06</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>-7.91</v>
+      </c>
+      <c r="BQ152" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="BR152" t="n">
+        <v>-7.83</v>
+      </c>
+      <c r="BS152" t="n">
+        <v>-9.81</v>
+      </c>
+      <c r="BT152" t="n">
+        <v>-10.72</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>-12.64</v>
+      </c>
+      <c r="BV152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX152" t="n">
+        <v>25</v>
+      </c>
+      <c r="BY152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ152" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC152" t="n">
+        <v>19</v>
+      </c>
+      <c r="CD152" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="CE152" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="CF152" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CG152" t="n">
+        <v>-4.62</v>
+      </c>
+      <c r="CH152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="CI152" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="CJ152" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK152" t="n">
+        <v>-5.32</v>
+      </c>
+      <c r="CL152" t="n">
+        <v>-4.35</v>
+      </c>
+      <c r="CM152" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="CN152" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="CO152" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="CP152" t="n">
+        <v>78.95</v>
+      </c>
+      <c r="CQ152" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="CR152" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="CS152" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="CT152" t="n">
+        <v>73</v>
+      </c>
+      <c r="CU152" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="CV152" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="CW152" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="CX152" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="CY152" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="CZ152" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="DA152" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="DB152" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DC152" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="DD152" t="n">
+        <v>60.27</v>
+      </c>
+      <c r="DE152" t="n">
+        <v>49.32</v>
+      </c>
+      <c r="DF152" t="n">
+        <v>36.99</v>
+      </c>
+      <c r="DG152" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="DH152" t="n">
+        <v>83.56</v>
+      </c>
+      <c r="DI152" t="n">
+        <v>53.42</v>
+      </c>
+      <c r="DJ152" t="n">
+        <v>45.21</v>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL209"/>
+  <dimension ref="A1:DL210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52280,46 +52280,126 @@
       <c r="H155" t="n">
         <v>78</v>
       </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr"/>
-      <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
-      <c r="Z155" t="inlineStr"/>
-      <c r="AA155" t="inlineStr"/>
-      <c r="AB155" t="inlineStr"/>
-      <c r="AC155" t="inlineStr"/>
-      <c r="AD155" t="inlineStr"/>
-      <c r="AE155" t="inlineStr"/>
-      <c r="AF155" t="inlineStr"/>
-      <c r="AG155" t="inlineStr"/>
-      <c r="AH155" t="inlineStr"/>
-      <c r="AI155" t="inlineStr"/>
-      <c r="AJ155" t="inlineStr"/>
-      <c r="AK155" t="inlineStr"/>
-      <c r="AL155" t="inlineStr"/>
-      <c r="AM155" t="inlineStr"/>
-      <c r="AN155" t="inlineStr"/>
-      <c r="AO155" t="inlineStr"/>
-      <c r="AP155" t="inlineStr"/>
-      <c r="AQ155" t="inlineStr"/>
-      <c r="AR155" t="inlineStr"/>
-      <c r="AS155" t="inlineStr"/>
-      <c r="AT155" t="inlineStr"/>
-      <c r="AU155" t="inlineStr"/>
-      <c r="AV155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>60</v>
+      </c>
+      <c r="J155" t="n">
+        <v>37</v>
+      </c>
+      <c r="K155" t="n">
+        <v>44</v>
+      </c>
+      <c r="L155" t="n">
+        <v>12</v>
+      </c>
+      <c r="M155" t="n">
+        <v>10</v>
+      </c>
+      <c r="N155" t="n">
+        <v>12</v>
+      </c>
+      <c r="O155" t="n">
+        <v>33</v>
+      </c>
+      <c r="P155" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R155" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="S155" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="T155" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="U155" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="V155" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="W155" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="X155" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>90.91</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>33.33</v>
+      </c>
       <c r="AW155" t="inlineStr"/>
       <c r="AX155" t="inlineStr"/>
       <c r="AY155" t="inlineStr"/>
@@ -52337,40 +52417,108 @@
       <c r="BK155" t="inlineStr"/>
       <c r="BL155" t="inlineStr"/>
       <c r="BM155" t="inlineStr"/>
-      <c r="BN155" t="inlineStr"/>
-      <c r="BO155" t="inlineStr"/>
-      <c r="BP155" t="inlineStr"/>
-      <c r="BQ155" t="inlineStr"/>
-      <c r="BR155" t="inlineStr"/>
-      <c r="BS155" t="inlineStr"/>
-      <c r="BT155" t="inlineStr"/>
-      <c r="BU155" t="inlineStr"/>
-      <c r="BV155" t="inlineStr"/>
-      <c r="BW155" t="inlineStr"/>
-      <c r="BX155" t="inlineStr"/>
-      <c r="BY155" t="inlineStr"/>
-      <c r="BZ155" t="inlineStr"/>
-      <c r="CA155" t="inlineStr"/>
-      <c r="CB155" t="inlineStr"/>
-      <c r="CC155" t="inlineStr"/>
-      <c r="CD155" t="inlineStr"/>
-      <c r="CE155" t="inlineStr"/>
-      <c r="CF155" t="inlineStr"/>
-      <c r="CG155" t="inlineStr"/>
-      <c r="CH155" t="inlineStr"/>
-      <c r="CI155" t="inlineStr"/>
-      <c r="CJ155" t="inlineStr"/>
-      <c r="CK155" t="inlineStr"/>
-      <c r="CL155" t="inlineStr"/>
-      <c r="CM155" t="inlineStr"/>
-      <c r="CN155" t="inlineStr"/>
-      <c r="CO155" t="inlineStr"/>
-      <c r="CP155" t="inlineStr"/>
-      <c r="CQ155" t="inlineStr"/>
-      <c r="CR155" t="inlineStr"/>
-      <c r="CS155" t="inlineStr"/>
-      <c r="CT155" t="inlineStr"/>
-      <c r="CU155" t="inlineStr"/>
+      <c r="BN155" t="n">
+        <v>11</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>-4.48</v>
+      </c>
+      <c r="BQ155" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="BR155" t="n">
+        <v>-6.74</v>
+      </c>
+      <c r="BS155" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="BT155" t="n">
+        <v>-11.82</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>-12.46</v>
+      </c>
+      <c r="BV155" t="n">
+        <v>-12.99</v>
+      </c>
+      <c r="BW155" t="n">
+        <v>-13.63</v>
+      </c>
+      <c r="BX155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY155" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="BZ155" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="CA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC155" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD155" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE155" t="n">
+        <v>14</v>
+      </c>
+      <c r="CF155" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="CG155" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="CH155" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="CI155" t="n">
+        <v>-6.23</v>
+      </c>
+      <c r="CJ155" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="CK155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CL155" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="CM155" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="CN155" t="n">
+        <v>-8.73</v>
+      </c>
+      <c r="CO155" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CP155" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CQ155" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CR155" t="n">
+        <v>50</v>
+      </c>
+      <c r="CS155" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="CT155" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU155" t="n">
+        <v>21.43</v>
+      </c>
       <c r="CV155" t="inlineStr"/>
       <c r="CW155" t="inlineStr"/>
       <c r="CX155" t="inlineStr"/>
@@ -52416,46 +52564,126 @@
       <c r="H156" t="n">
         <v>8</v>
       </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
-      <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr"/>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
-      <c r="Z156" t="inlineStr"/>
-      <c r="AA156" t="inlineStr"/>
-      <c r="AB156" t="inlineStr"/>
-      <c r="AC156" t="inlineStr"/>
-      <c r="AD156" t="inlineStr"/>
-      <c r="AE156" t="inlineStr"/>
-      <c r="AF156" t="inlineStr"/>
-      <c r="AG156" t="inlineStr"/>
-      <c r="AH156" t="inlineStr"/>
-      <c r="AI156" t="inlineStr"/>
-      <c r="AJ156" t="inlineStr"/>
-      <c r="AK156" t="inlineStr"/>
-      <c r="AL156" t="inlineStr"/>
-      <c r="AM156" t="inlineStr"/>
-      <c r="AN156" t="inlineStr"/>
-      <c r="AO156" t="inlineStr"/>
-      <c r="AP156" t="inlineStr"/>
-      <c r="AQ156" t="inlineStr"/>
-      <c r="AR156" t="inlineStr"/>
-      <c r="AS156" t="inlineStr"/>
-      <c r="AT156" t="inlineStr"/>
-      <c r="AU156" t="inlineStr"/>
-      <c r="AV156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>108</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3</v>
+      </c>
+      <c r="K156" t="n">
+        <v>70</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>18</v>
+      </c>
+      <c r="N156" t="n">
+        <v>15</v>
+      </c>
+      <c r="O156" t="n">
+        <v>44</v>
+      </c>
+      <c r="P156" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R156" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="S156" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U156" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="V156" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X156" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>70.45</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>61.36</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>97.73</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>70.45</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>60</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>90</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>100</v>
+      </c>
       <c r="AW156" t="inlineStr"/>
       <c r="AX156" t="inlineStr"/>
       <c r="AY156" t="inlineStr"/>
@@ -52473,40 +52701,108 @@
       <c r="BK156" t="inlineStr"/>
       <c r="BL156" t="inlineStr"/>
       <c r="BM156" t="inlineStr"/>
-      <c r="BN156" t="inlineStr"/>
-      <c r="BO156" t="inlineStr"/>
-      <c r="BP156" t="inlineStr"/>
-      <c r="BQ156" t="inlineStr"/>
-      <c r="BR156" t="inlineStr"/>
-      <c r="BS156" t="inlineStr"/>
-      <c r="BT156" t="inlineStr"/>
-      <c r="BU156" t="inlineStr"/>
-      <c r="BV156" t="inlineStr"/>
-      <c r="BW156" t="inlineStr"/>
-      <c r="BX156" t="inlineStr"/>
-      <c r="BY156" t="inlineStr"/>
-      <c r="BZ156" t="inlineStr"/>
-      <c r="CA156" t="inlineStr"/>
-      <c r="CB156" t="inlineStr"/>
-      <c r="CC156" t="inlineStr"/>
-      <c r="CD156" t="inlineStr"/>
-      <c r="CE156" t="inlineStr"/>
-      <c r="CF156" t="inlineStr"/>
-      <c r="CG156" t="inlineStr"/>
-      <c r="CH156" t="inlineStr"/>
-      <c r="CI156" t="inlineStr"/>
-      <c r="CJ156" t="inlineStr"/>
-      <c r="CK156" t="inlineStr"/>
-      <c r="CL156" t="inlineStr"/>
-      <c r="CM156" t="inlineStr"/>
-      <c r="CN156" t="inlineStr"/>
-      <c r="CO156" t="inlineStr"/>
-      <c r="CP156" t="inlineStr"/>
-      <c r="CQ156" t="inlineStr"/>
-      <c r="CR156" t="inlineStr"/>
-      <c r="CS156" t="inlineStr"/>
-      <c r="CT156" t="inlineStr"/>
-      <c r="CU156" t="inlineStr"/>
+      <c r="BN156" t="n">
+        <v>12</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>-2.74</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BQ156" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="BR156" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="BS156" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BT156" t="n">
+        <v>-8.02</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="BV156" t="n">
+        <v>-10.25</v>
+      </c>
+      <c r="BW156" t="n">
+        <v>-5.55</v>
+      </c>
+      <c r="BX156" t="n">
+        <v>25</v>
+      </c>
+      <c r="BY156" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="BZ156" t="n">
+        <v>100</v>
+      </c>
+      <c r="CA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB156" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="CC156" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD156" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="CE156" t="n">
+        <v>12</v>
+      </c>
+      <c r="CF156" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="CG156" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="CH156" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="CI156" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="CJ156" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="CK156" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="CL156" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="CM156" t="n">
+        <v>-7.42</v>
+      </c>
+      <c r="CN156" t="n">
+        <v>-5.46</v>
+      </c>
+      <c r="CO156" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="CP156" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="CQ156" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CR156" t="n">
+        <v>75</v>
+      </c>
+      <c r="CS156" t="n">
+        <v>75</v>
+      </c>
+      <c r="CT156" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU156" t="n">
+        <v>8.33</v>
+      </c>
       <c r="CV156" t="inlineStr"/>
       <c r="CW156" t="inlineStr"/>
       <c r="CX156" t="inlineStr"/>
@@ -52552,103 +52848,125 @@
       <c r="H157" t="n">
         <v>49</v>
       </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>109</v>
+      </c>
+      <c r="J157" t="n">
+        <v>39</v>
+      </c>
       <c r="K157" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L157" t="n">
         <v>18</v>
       </c>
       <c r="M157" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N157" t="n">
         <v>18</v>
       </c>
       <c r="O157" t="n">
-        <v>74</v>
-      </c>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr"/>
+        <v>69</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R157" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S157" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="U157" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="V157" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="X157" t="n">
+        <v>1.32</v>
+      </c>
       <c r="Y157" t="n">
-        <v>51.35</v>
+        <v>50</v>
       </c>
       <c r="Z157" t="n">
-        <v>55.41</v>
+        <v>54.41</v>
       </c>
       <c r="AA157" t="n">
-        <v>48.65</v>
+        <v>50</v>
       </c>
       <c r="AB157" t="n">
-        <v>83.78</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="AC157" t="n">
-        <v>87.84</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="AD157" t="n">
-        <v>51.35</v>
+        <v>50</v>
       </c>
       <c r="AE157" t="n">
-        <v>55.41</v>
+        <v>54.41</v>
       </c>
       <c r="AF157" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG157" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="AH157" t="n">
-        <v>1.5</v>
+        <v>0.87</v>
       </c>
       <c r="AI157" t="n">
-        <v>5.48</v>
+        <v>5.32</v>
       </c>
       <c r="AJ157" t="n">
-        <v>-2.4</v>
+        <v>-2.64</v>
       </c>
       <c r="AK157" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="AL157" t="n">
-        <v>5.06</v>
+        <v>5.11</v>
       </c>
       <c r="AM157" t="n">
-        <v>6.46</v>
+        <v>5.77</v>
       </c>
       <c r="AN157" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="AO157" t="n">
-        <v>1.5</v>
+        <v>0.87</v>
       </c>
       <c r="AP157" t="n">
-        <v>47.62</v>
+        <v>44.44</v>
       </c>
       <c r="AQ157" t="n">
-        <v>61.9</v>
+        <v>55.56</v>
       </c>
       <c r="AR157" t="n">
-        <v>33.33</v>
+        <v>27.78</v>
       </c>
       <c r="AS157" t="n">
-        <v>71.43000000000001</v>
+        <v>66.67</v>
       </c>
       <c r="AT157" t="n">
-        <v>76.19</v>
+        <v>72.22</v>
       </c>
       <c r="AU157" t="n">
-        <v>47.62</v>
+        <v>44.44</v>
       </c>
       <c r="AV157" t="n">
-        <v>61.9</v>
+        <v>55.56</v>
       </c>
       <c r="AW157" t="inlineStr"/>
       <c r="AX157" t="inlineStr"/>
@@ -52735,9 +53053,7 @@
       <c r="CU157" t="n">
         <v>6.67</v>
       </c>
-      <c r="CV157" t="n">
-        <v>89</v>
-      </c>
+      <c r="CV157" t="inlineStr"/>
       <c r="CW157" t="inlineStr"/>
       <c r="CX157" t="inlineStr"/>
       <c r="CY157" t="inlineStr"/>
@@ -52747,27 +53063,13 @@
       <c r="DC157" t="inlineStr"/>
       <c r="DD157" t="inlineStr"/>
       <c r="DE157" t="inlineStr"/>
-      <c r="DF157" t="n">
-        <v>48.31</v>
-      </c>
-      <c r="DG157" t="n">
-        <v>52.81</v>
-      </c>
-      <c r="DH157" t="n">
-        <v>47.19</v>
-      </c>
-      <c r="DI157" t="n">
-        <v>82.02</v>
-      </c>
-      <c r="DJ157" t="n">
-        <v>86.52</v>
-      </c>
-      <c r="DK157" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="DL157" t="n">
-        <v>47.19</v>
-      </c>
+      <c r="DF157" t="inlineStr"/>
+      <c r="DG157" t="inlineStr"/>
+      <c r="DH157" t="inlineStr"/>
+      <c r="DI157" t="inlineStr"/>
+      <c r="DJ157" t="inlineStr"/>
+      <c r="DK157" t="inlineStr"/>
+      <c r="DL157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -52796,173 +53098,143 @@
       <c r="H158" t="n">
         <v>21</v>
       </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>96</v>
+      </c>
+      <c r="J158" t="n">
+        <v>9</v>
+      </c>
       <c r="K158" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L158" t="n">
         <v>3</v>
       </c>
       <c r="M158" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N158" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O158" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P158" t="n">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="Q158" t="n">
-        <v>3.67</v>
+        <v>3.47</v>
       </c>
       <c r="R158" t="n">
-        <v>7.05</v>
+        <v>7.01</v>
       </c>
       <c r="S158" t="n">
-        <v>-0.26</v>
+        <v>-0.36</v>
       </c>
       <c r="T158" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="U158" t="n">
-        <v>11.84</v>
+        <v>12.11</v>
       </c>
       <c r="V158" t="n">
-        <v>12.32</v>
+        <v>12.43</v>
       </c>
       <c r="W158" t="n">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="X158" t="n">
-        <v>3.67</v>
+        <v>3.47</v>
       </c>
       <c r="Y158" t="n">
-        <v>81.94</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="Z158" t="n">
-        <v>69.44</v>
+        <v>68.12</v>
       </c>
       <c r="AA158" t="n">
-        <v>41.67</v>
+        <v>39.13</v>
       </c>
       <c r="AB158" t="n">
-        <v>98.61</v>
+        <v>98.55</v>
       </c>
       <c r="AC158" t="n">
-        <v>93.06</v>
+        <v>94.2</v>
       </c>
       <c r="AD158" t="n">
-        <v>81.94</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="AE158" t="n">
-        <v>69.44</v>
+        <v>68.12</v>
       </c>
       <c r="AF158" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AG158" t="n">
-        <v>3.43</v>
+        <v>3.6</v>
       </c>
       <c r="AH158" t="n">
-        <v>4.31</v>
+        <v>4.48</v>
       </c>
       <c r="AI158" t="n">
-        <v>8.289999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AJ158" t="n">
-        <v>-0.46</v>
+        <v>-0.23</v>
       </c>
       <c r="AK158" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AL158" t="n">
-        <v>9.279999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="AM158" t="n">
-        <v>10.22</v>
+        <v>10.28</v>
       </c>
       <c r="AN158" t="n">
-        <v>3.43</v>
+        <v>3.6</v>
       </c>
       <c r="AO158" t="n">
-        <v>4.31</v>
+        <v>4.48</v>
       </c>
       <c r="AP158" t="n">
-        <v>89.47</v>
+        <v>87.5</v>
       </c>
       <c r="AQ158" t="n">
-        <v>73.68000000000001</v>
+        <v>75</v>
       </c>
       <c r="AR158" t="n">
-        <v>47.37</v>
+        <v>43.75</v>
       </c>
       <c r="AS158" t="n">
-        <v>94.73999999999999</v>
+        <v>93.75</v>
       </c>
       <c r="AT158" t="n">
-        <v>89.47</v>
+        <v>93.75</v>
       </c>
       <c r="AU158" t="n">
-        <v>89.47</v>
+        <v>87.5</v>
       </c>
       <c r="AV158" t="n">
-        <v>73.68000000000001</v>
-      </c>
-      <c r="AW158" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX158" t="n">
-        <v>-5.61</v>
-      </c>
-      <c r="AY158" t="n">
-        <v>-4.94</v>
-      </c>
-      <c r="AZ158" t="n">
-        <v>-2.12</v>
-      </c>
-      <c r="BA158" t="n">
-        <v>-6.98</v>
-      </c>
-      <c r="BB158" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="BC158" t="n">
-        <v>-5.34</v>
-      </c>
-      <c r="BD158" t="n">
-        <v>-4.66</v>
-      </c>
-      <c r="BE158" t="n">
-        <v>-9.630000000000001</v>
-      </c>
-      <c r="BF158" t="n">
-        <v>-9.01</v>
-      </c>
-      <c r="BG158" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH158" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="BI158" t="n">
-        <v>57.89</v>
-      </c>
-      <c r="BJ158" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="BK158" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="BL158" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM158" t="n">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AW158" t="inlineStr"/>
+      <c r="AX158" t="inlineStr"/>
+      <c r="AY158" t="inlineStr"/>
+      <c r="AZ158" t="inlineStr"/>
+      <c r="BA158" t="inlineStr"/>
+      <c r="BB158" t="inlineStr"/>
+      <c r="BC158" t="inlineStr"/>
+      <c r="BD158" t="inlineStr"/>
+      <c r="BE158" t="inlineStr"/>
+      <c r="BF158" t="inlineStr"/>
+      <c r="BG158" t="inlineStr"/>
+      <c r="BH158" t="inlineStr"/>
+      <c r="BI158" t="inlineStr"/>
+      <c r="BJ158" t="inlineStr"/>
+      <c r="BK158" t="inlineStr"/>
+      <c r="BL158" t="inlineStr"/>
+      <c r="BM158" t="inlineStr"/>
       <c r="BN158" t="n">
         <v>18</v>
       </c>
@@ -53015,107 +53287,73 @@
         <v>5.56</v>
       </c>
       <c r="CE158" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CF158" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.99</v>
       </c>
       <c r="CG158" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="CH158" t="n">
-        <v>3.92</v>
+        <v>3.75</v>
       </c>
       <c r="CI158" t="n">
-        <v>-2.52</v>
+        <v>-2.59</v>
       </c>
       <c r="CJ158" t="n">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="CK158" t="n">
-        <v>4.32</v>
+        <v>4.5</v>
       </c>
       <c r="CL158" t="n">
-        <v>7.82</v>
+        <v>7.92</v>
       </c>
       <c r="CM158" t="n">
-        <v>-5.91</v>
+        <v>-5.83</v>
       </c>
       <c r="CN158" t="n">
         <v>-3.09</v>
       </c>
       <c r="CO158" t="n">
-        <v>16.67</v>
+        <v>17.65</v>
       </c>
       <c r="CP158" t="n">
-        <v>38.89</v>
+        <v>35.29</v>
       </c>
       <c r="CQ158" t="n">
-        <v>66.67</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="CR158" t="n">
-        <v>88.89</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="CS158" t="n">
-        <v>88.89</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="CT158" t="n">
         <v>0</v>
       </c>
       <c r="CU158" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="CV158" t="n">
-        <v>90</v>
-      </c>
-      <c r="CW158" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="CX158" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="CY158" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="CZ158" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="DA158" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="DB158" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="DC158" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="DD158" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="DE158" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="DF158" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="DG158" t="n">
-        <v>63.33</v>
-      </c>
-      <c r="DH158" t="n">
-        <v>46.67</v>
-      </c>
-      <c r="DI158" t="n">
-        <v>96.67</v>
-      </c>
-      <c r="DJ158" t="n">
-        <v>92.22</v>
-      </c>
-      <c r="DK158" t="n">
-        <v>65.56</v>
-      </c>
-      <c r="DL158" t="n">
-        <v>60</v>
-      </c>
+        <v>23.53</v>
+      </c>
+      <c r="CV158" t="inlineStr"/>
+      <c r="CW158" t="inlineStr"/>
+      <c r="CX158" t="inlineStr"/>
+      <c r="CY158" t="inlineStr"/>
+      <c r="CZ158" t="inlineStr"/>
+      <c r="DA158" t="inlineStr"/>
+      <c r="DB158" t="inlineStr"/>
+      <c r="DC158" t="inlineStr"/>
+      <c r="DD158" t="inlineStr"/>
+      <c r="DE158" t="inlineStr"/>
+      <c r="DF158" t="inlineStr"/>
+      <c r="DG158" t="inlineStr"/>
+      <c r="DH158" t="inlineStr"/>
+      <c r="DI158" t="inlineStr"/>
+      <c r="DJ158" t="inlineStr"/>
+      <c r="DK158" t="inlineStr"/>
+      <c r="DL158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -53144,326 +53382,262 @@
       <c r="H159" t="n">
         <v>19</v>
       </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>85</v>
+      </c>
+      <c r="J159" t="n">
+        <v>12</v>
+      </c>
       <c r="K159" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M159" t="n">
+        <v>23</v>
+      </c>
+      <c r="N159" t="n">
+        <v>22</v>
+      </c>
+      <c r="O159" t="n">
+        <v>66</v>
+      </c>
+      <c r="P159" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="R159" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="S159" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="T159" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="U159" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="V159" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="W159" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>34.85</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>95.45</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>87.88</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AF159" t="n">
         <v>24</v>
       </c>
-      <c r="N159" t="n">
-        <v>24</v>
-      </c>
-      <c r="O159" t="n">
-        <v>70</v>
-      </c>
-      <c r="P159" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q159" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R159" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="S159" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="T159" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="U159" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="V159" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="W159" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="X159" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y159" t="n">
-        <v>72.86</v>
-      </c>
-      <c r="Z159" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA159" t="n">
-        <v>34.29</v>
-      </c>
-      <c r="AB159" t="n">
-        <v>95.70999999999999</v>
-      </c>
-      <c r="AC159" t="n">
-        <v>88.56999999999999</v>
-      </c>
-      <c r="AD159" t="n">
-        <v>72.86</v>
-      </c>
-      <c r="AE159" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF159" t="n">
-        <v>28</v>
-      </c>
       <c r="AG159" t="n">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="AH159" t="n">
-        <v>2.81</v>
+        <v>2.43</v>
       </c>
       <c r="AI159" t="n">
-        <v>7.17</v>
+        <v>7.19</v>
       </c>
       <c r="AJ159" t="n">
-        <v>-0.43</v>
+        <v>-0.58</v>
       </c>
       <c r="AK159" t="n">
-        <v>-0.84</v>
+        <v>-1.14</v>
       </c>
       <c r="AL159" t="n">
-        <v>9.16</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AM159" t="n">
-        <v>8.42</v>
+        <v>8.35</v>
       </c>
       <c r="AN159" t="n">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="AO159" t="n">
-        <v>2.81</v>
+        <v>2.43</v>
       </c>
       <c r="AP159" t="n">
-        <v>67.86</v>
+        <v>66.67</v>
       </c>
       <c r="AQ159" t="n">
-        <v>60.71</v>
+        <v>54.17</v>
       </c>
       <c r="AR159" t="n">
         <v>25</v>
       </c>
       <c r="AS159" t="n">
-        <v>89.29000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="AT159" t="n">
-        <v>71.43000000000001</v>
+        <v>66.67</v>
       </c>
       <c r="AU159" t="n">
-        <v>67.86</v>
+        <v>66.67</v>
       </c>
       <c r="AV159" t="n">
-        <v>60.71</v>
-      </c>
-      <c r="AW159" t="n">
+        <v>54.17</v>
+      </c>
+      <c r="AW159" t="inlineStr"/>
+      <c r="AX159" t="inlineStr"/>
+      <c r="AY159" t="inlineStr"/>
+      <c r="AZ159" t="inlineStr"/>
+      <c r="BA159" t="inlineStr"/>
+      <c r="BB159" t="inlineStr"/>
+      <c r="BC159" t="inlineStr"/>
+      <c r="BD159" t="inlineStr"/>
+      <c r="BE159" t="inlineStr"/>
+      <c r="BF159" t="inlineStr"/>
+      <c r="BG159" t="inlineStr"/>
+      <c r="BH159" t="inlineStr"/>
+      <c r="BI159" t="inlineStr"/>
+      <c r="BJ159" t="inlineStr"/>
+      <c r="BK159" t="inlineStr"/>
+      <c r="BL159" t="inlineStr"/>
+      <c r="BM159" t="inlineStr"/>
+      <c r="BN159" t="n">
         <v>2</v>
       </c>
-      <c r="AX159" t="n">
-        <v>-4.96</v>
-      </c>
-      <c r="AY159" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="AZ159" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="BA159" t="n">
-        <v>-4.96</v>
-      </c>
-      <c r="BB159" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="BC159" t="n">
-        <v>-4.78</v>
-      </c>
-      <c r="BD159" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="BE159" t="n">
-        <v>-6.19</v>
-      </c>
-      <c r="BF159" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BG159" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH159" t="n">
+      <c r="BO159" t="n">
+        <v>-6.21</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="BQ159" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="BR159" t="n">
+        <v>-6.45</v>
+      </c>
+      <c r="BS159" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="BT159" t="n">
+        <v>-6.54</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="BV159" t="n">
+        <v>-8.220000000000001</v>
+      </c>
+      <c r="BW159" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BX159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY159" t="n">
         <v>100</v>
       </c>
-      <c r="BI159" t="n">
+      <c r="BZ159" t="n">
         <v>100</v>
       </c>
-      <c r="BJ159" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK159" t="n">
+      <c r="CA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB159" t="n">
         <v>100</v>
       </c>
-      <c r="BL159" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM159" t="n">
+      <c r="CC159" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD159" t="n">
         <v>100</v>
       </c>
-      <c r="BN159" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO159" t="n">
-        <v>-5.81</v>
-      </c>
-      <c r="BP159" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="BQ159" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="BR159" t="n">
-        <v>-5.96</v>
-      </c>
-      <c r="BS159" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="BT159" t="n">
-        <v>-8.289999999999999</v>
-      </c>
-      <c r="BU159" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="BV159" t="n">
-        <v>-9.67</v>
-      </c>
-      <c r="BW159" t="n">
-        <v>-0.62</v>
-      </c>
-      <c r="BX159" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY159" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="BZ159" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="CA159" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB159" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="CC159" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD159" t="n">
-        <v>66.67</v>
-      </c>
       <c r="CE159" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CF159" t="n">
-        <v>-1.61</v>
+        <v>-1.69</v>
       </c>
       <c r="CG159" t="n">
-        <v>-0.63</v>
+        <v>-0.95</v>
       </c>
       <c r="CH159" t="n">
-        <v>4.19</v>
+        <v>3.93</v>
       </c>
       <c r="CI159" t="n">
-        <v>-3.79</v>
+        <v>-3.93</v>
       </c>
       <c r="CJ159" t="n">
-        <v>1.01</v>
+        <v>0.76</v>
       </c>
       <c r="CK159" t="n">
-        <v>4.74</v>
+        <v>4.57</v>
       </c>
       <c r="CL159" t="n">
-        <v>5.58</v>
+        <v>5.16</v>
       </c>
       <c r="CM159" t="n">
-        <v>-5.4</v>
+        <v>-5.65</v>
       </c>
       <c r="CN159" t="n">
-        <v>-4.55</v>
+        <v>-5.03</v>
       </c>
       <c r="CO159" t="n">
-        <v>13.33</v>
+        <v>12.5</v>
       </c>
       <c r="CP159" t="n">
-        <v>26.67</v>
+        <v>25</v>
       </c>
       <c r="CQ159" t="n">
-        <v>46.67</v>
+        <v>43.75</v>
       </c>
       <c r="CR159" t="n">
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="CS159" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="CT159" t="n">
         <v>0</v>
       </c>
       <c r="CU159" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="CV159" t="n">
-        <v>85</v>
-      </c>
-      <c r="CW159" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="CX159" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="CY159" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="CZ159" t="n">
-        <v>-0.77</v>
-      </c>
-      <c r="DA159" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="DB159" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="DC159" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="DD159" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="DE159" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="DF159" t="n">
-        <v>62.35</v>
-      </c>
-      <c r="DG159" t="n">
-        <v>62.35</v>
-      </c>
-      <c r="DH159" t="n">
-        <v>36.47</v>
-      </c>
-      <c r="DI159" t="n">
-        <v>92.94</v>
-      </c>
-      <c r="DJ159" t="n">
-        <v>87.06</v>
-      </c>
-      <c r="DK159" t="n">
-        <v>60</v>
-      </c>
-      <c r="DL159" t="n">
-        <v>58.82</v>
-      </c>
+        <v>6.25</v>
+      </c>
+      <c r="CV159" t="inlineStr"/>
+      <c r="CW159" t="inlineStr"/>
+      <c r="CX159" t="inlineStr"/>
+      <c r="CY159" t="inlineStr"/>
+      <c r="CZ159" t="inlineStr"/>
+      <c r="DA159" t="inlineStr"/>
+      <c r="DB159" t="inlineStr"/>
+      <c r="DC159" t="inlineStr"/>
+      <c r="DD159" t="inlineStr"/>
+      <c r="DE159" t="inlineStr"/>
+      <c r="DF159" t="inlineStr"/>
+      <c r="DG159" t="inlineStr"/>
+      <c r="DH159" t="inlineStr"/>
+      <c r="DI159" t="inlineStr"/>
+      <c r="DJ159" t="inlineStr"/>
+      <c r="DK159" t="inlineStr"/>
+      <c r="DL159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -53492,125 +53666,127 @@
       <c r="H160" t="n">
         <v>22</v>
       </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>77</v>
+      </c>
+      <c r="J160" t="n">
+        <v>7</v>
+      </c>
       <c r="K160" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L160" t="n">
         <v>3</v>
       </c>
       <c r="M160" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N160" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O160" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P160" t="n">
-        <v>2.09</v>
+        <v>1.97</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="R160" t="n">
-        <v>6.73</v>
+        <v>6.69</v>
       </c>
       <c r="S160" t="n">
-        <v>-3.12</v>
+        <v>-3.11</v>
       </c>
       <c r="T160" t="n">
-        <v>-1.81</v>
+        <v>-1.64</v>
       </c>
       <c r="U160" t="n">
-        <v>10.9</v>
+        <v>10.92</v>
       </c>
       <c r="V160" t="n">
-        <v>8.76</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="W160" t="n">
-        <v>2.09</v>
+        <v>1.97</v>
       </c>
       <c r="X160" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="Y160" t="n">
-        <v>58.06</v>
+        <v>57.38</v>
       </c>
       <c r="Z160" t="n">
-        <v>38.71</v>
+        <v>39.34</v>
       </c>
       <c r="AA160" t="n">
-        <v>29.03</v>
+        <v>29.51</v>
       </c>
       <c r="AB160" t="n">
-        <v>91.94</v>
+        <v>91.8</v>
       </c>
       <c r="AC160" t="n">
-        <v>87.09999999999999</v>
+        <v>88.52</v>
       </c>
       <c r="AD160" t="n">
-        <v>58.06</v>
+        <v>57.38</v>
       </c>
       <c r="AE160" t="n">
-        <v>38.71</v>
+        <v>39.34</v>
       </c>
       <c r="AF160" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG160" t="n">
-        <v>2.76</v>
+        <v>2.46</v>
       </c>
       <c r="AH160" t="n">
-        <v>0.96</v>
+        <v>1.17</v>
       </c>
       <c r="AI160" t="n">
-        <v>8.09</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="AJ160" t="n">
-        <v>-2.59</v>
+        <v>-2.54</v>
       </c>
       <c r="AK160" t="n">
-        <v>-1.51</v>
+        <v>-1.04</v>
       </c>
       <c r="AL160" t="n">
-        <v>6.96</v>
+        <v>6.85</v>
       </c>
       <c r="AM160" t="n">
-        <v>5.21</v>
+        <v>5.6</v>
       </c>
       <c r="AN160" t="n">
-        <v>2.76</v>
+        <v>2.46</v>
       </c>
       <c r="AO160" t="n">
-        <v>0.96</v>
+        <v>1.17</v>
       </c>
       <c r="AP160" t="n">
-        <v>58.33</v>
+        <v>56.52</v>
       </c>
       <c r="AQ160" t="n">
-        <v>54.17</v>
+        <v>56.52</v>
       </c>
       <c r="AR160" t="n">
-        <v>37.5</v>
+        <v>39.13</v>
       </c>
       <c r="AS160" t="n">
-        <v>79.17</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="AT160" t="n">
-        <v>70.83</v>
+        <v>73.91</v>
       </c>
       <c r="AU160" t="n">
-        <v>58.33</v>
+        <v>56.52</v>
       </c>
       <c r="AV160" t="n">
-        <v>54.17</v>
-      </c>
-      <c r="AW160" t="n">
-        <v>1</v>
-      </c>
+        <v>56.52</v>
+      </c>
+      <c r="AW160" t="inlineStr"/>
       <c r="AX160" t="inlineStr"/>
       <c r="AY160" t="inlineStr"/>
       <c r="AZ160" t="inlineStr"/>
@@ -53620,47 +53796,51 @@
       <c r="BD160" t="inlineStr"/>
       <c r="BE160" t="inlineStr"/>
       <c r="BF160" t="inlineStr"/>
-      <c r="BG160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM160" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG160" t="inlineStr"/>
+      <c r="BH160" t="inlineStr"/>
+      <c r="BI160" t="inlineStr"/>
+      <c r="BJ160" t="inlineStr"/>
+      <c r="BK160" t="inlineStr"/>
+      <c r="BL160" t="inlineStr"/>
+      <c r="BM160" t="inlineStr"/>
       <c r="BN160" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO160" t="inlineStr"/>
-      <c r="BP160" t="inlineStr"/>
-      <c r="BQ160" t="inlineStr"/>
-      <c r="BR160" t="inlineStr"/>
-      <c r="BS160" t="inlineStr"/>
-      <c r="BT160" t="inlineStr"/>
-      <c r="BU160" t="inlineStr"/>
-      <c r="BV160" t="inlineStr"/>
-      <c r="BW160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BQ160" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BR160" t="n">
+        <v>-4.02</v>
+      </c>
+      <c r="BS160" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="BT160" t="n">
+        <v>-7.14</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>-6.32</v>
+      </c>
+      <c r="BV160" t="n">
+        <v>-9.720000000000001</v>
+      </c>
+      <c r="BW160" t="n">
+        <v>-8.92</v>
+      </c>
       <c r="BX160" t="n">
         <v>0</v>
       </c>
       <c r="BY160" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BZ160" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="CA160" t="n">
         <v>0</v>
@@ -53675,107 +53855,73 @@
         <v>0</v>
       </c>
       <c r="CE160" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="CF160" t="n">
-        <v>-2.11</v>
+        <v>-2.45</v>
       </c>
       <c r="CG160" t="n">
-        <v>-2.42</v>
+        <v>-2.63</v>
       </c>
       <c r="CH160" t="n">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="CI160" t="n">
-        <v>-4.96</v>
+        <v>-5.05</v>
       </c>
       <c r="CJ160" t="n">
-        <v>-0.35</v>
+        <v>-0.23</v>
       </c>
       <c r="CK160" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="CL160" t="n">
-        <v>2.42</v>
+        <v>2.49</v>
       </c>
       <c r="CM160" t="n">
-        <v>-6.4</v>
+        <v>-6.85</v>
       </c>
       <c r="CN160" t="n">
-        <v>-6.72</v>
+        <v>-7.06</v>
       </c>
       <c r="CO160" t="n">
-        <v>33.33</v>
+        <v>27.27</v>
       </c>
       <c r="CP160" t="n">
-        <v>25</v>
+        <v>22.73</v>
       </c>
       <c r="CQ160" t="n">
-        <v>41.67</v>
+        <v>40.91</v>
       </c>
       <c r="CR160" t="n">
-        <v>75</v>
+        <v>77.27</v>
       </c>
       <c r="CS160" t="n">
-        <v>75</v>
+        <v>77.27</v>
       </c>
       <c r="CT160" t="n">
         <v>0</v>
       </c>
       <c r="CU160" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="CV160" t="n">
-        <v>86</v>
-      </c>
-      <c r="CW160" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="CX160" t="n">
-        <v>-0.62</v>
-      </c>
-      <c r="CY160" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="CZ160" t="n">
-        <v>-3.63</v>
-      </c>
-      <c r="DA160" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="DB160" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="DC160" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="DD160" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="DE160" t="n">
-        <v>-1.82</v>
-      </c>
-      <c r="DF160" t="n">
-        <v>51.16</v>
-      </c>
-      <c r="DG160" t="n">
-        <v>34.88</v>
-      </c>
-      <c r="DH160" t="n">
-        <v>32.56</v>
-      </c>
-      <c r="DI160" t="n">
-        <v>87.20999999999999</v>
-      </c>
-      <c r="DJ160" t="n">
-        <v>83.72</v>
-      </c>
-      <c r="DK160" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="DL160" t="n">
-        <v>31.4</v>
-      </c>
+        <v>9.09</v>
+      </c>
+      <c r="CV160" t="inlineStr"/>
+      <c r="CW160" t="inlineStr"/>
+      <c r="CX160" t="inlineStr"/>
+      <c r="CY160" t="inlineStr"/>
+      <c r="CZ160" t="inlineStr"/>
+      <c r="DA160" t="inlineStr"/>
+      <c r="DB160" t="inlineStr"/>
+      <c r="DC160" t="inlineStr"/>
+      <c r="DD160" t="inlineStr"/>
+      <c r="DE160" t="inlineStr"/>
+      <c r="DF160" t="inlineStr"/>
+      <c r="DG160" t="inlineStr"/>
+      <c r="DH160" t="inlineStr"/>
+      <c r="DI160" t="inlineStr"/>
+      <c r="DJ160" t="inlineStr"/>
+      <c r="DK160" t="inlineStr"/>
+      <c r="DL160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -53804,8 +53950,12 @@
       <c r="H161" t="n">
         <v>8</v>
       </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>119</v>
+      </c>
+      <c r="J161" t="n">
+        <v>7</v>
+      </c>
       <c r="K161" t="n">
         <v>78</v>
       </c>
@@ -53819,158 +53969,124 @@
         <v>15</v>
       </c>
       <c r="O161" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P161" t="n">
         <v>2.78</v>
       </c>
       <c r="Q161" t="n">
-        <v>4.1</v>
+        <v>4.24</v>
       </c>
       <c r="R161" t="n">
-        <v>7.41</v>
+        <v>7.49</v>
       </c>
       <c r="S161" t="n">
-        <v>-0.83</v>
+        <v>-0.75</v>
       </c>
       <c r="T161" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="U161" t="n">
-        <v>12.88</v>
+        <v>12.99</v>
       </c>
       <c r="V161" t="n">
-        <v>14.34</v>
+        <v>14.6</v>
       </c>
       <c r="W161" t="n">
         <v>2.78</v>
       </c>
       <c r="X161" t="n">
-        <v>4.1</v>
+        <v>4.24</v>
       </c>
       <c r="Y161" t="n">
-        <v>69.09</v>
+        <v>68.52</v>
       </c>
       <c r="Z161" t="n">
-        <v>67.27</v>
+        <v>68.52</v>
       </c>
       <c r="AA161" t="n">
-        <v>45.45</v>
+        <v>46.3</v>
       </c>
       <c r="AB161" t="n">
-        <v>94.55</v>
+        <v>94.44</v>
       </c>
       <c r="AC161" t="n">
         <v>100</v>
       </c>
       <c r="AD161" t="n">
-        <v>69.09</v>
+        <v>68.52</v>
       </c>
       <c r="AE161" t="n">
-        <v>67.27</v>
+        <v>68.52</v>
       </c>
       <c r="AF161" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG161" t="n">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="AH161" t="n">
-        <v>8.609999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="AI161" t="n">
-        <v>9.800000000000001</v>
+        <v>10.38</v>
       </c>
       <c r="AJ161" t="n">
-        <v>0.99</v>
+        <v>1.48</v>
       </c>
       <c r="AK161" t="n">
-        <v>5.42</v>
+        <v>6.35</v>
       </c>
       <c r="AL161" t="n">
-        <v>9.630000000000001</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="AM161" t="n">
-        <v>15.39</v>
+        <v>16.62</v>
       </c>
       <c r="AN161" t="n">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="AO161" t="n">
-        <v>8.609999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="AP161" t="n">
-        <v>69.23</v>
+        <v>66.67</v>
       </c>
       <c r="AQ161" t="n">
-        <v>92.31</v>
+        <v>100</v>
       </c>
       <c r="AR161" t="n">
-        <v>69.23</v>
+        <v>75</v>
       </c>
       <c r="AS161" t="n">
-        <v>84.62</v>
+        <v>83.33</v>
       </c>
       <c r="AT161" t="n">
         <v>100</v>
       </c>
       <c r="AU161" t="n">
-        <v>69.23</v>
+        <v>66.67</v>
       </c>
       <c r="AV161" t="n">
-        <v>92.31</v>
-      </c>
-      <c r="AW161" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX161" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="AY161" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AZ161" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="BA161" t="n">
-        <v>-6.48</v>
-      </c>
-      <c r="BB161" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="BC161" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="BD161" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BE161" t="n">
-        <v>-8.33</v>
-      </c>
-      <c r="BF161" t="n">
-        <v>-3.15</v>
-      </c>
-      <c r="BG161" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH161" t="n">
         <v>100</v>
       </c>
-      <c r="BI161" t="n">
-        <v>100</v>
-      </c>
-      <c r="BJ161" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK161" t="n">
-        <v>100</v>
-      </c>
-      <c r="BL161" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM161" t="n">
-        <v>0</v>
-      </c>
+      <c r="AW161" t="inlineStr"/>
+      <c r="AX161" t="inlineStr"/>
+      <c r="AY161" t="inlineStr"/>
+      <c r="AZ161" t="inlineStr"/>
+      <c r="BA161" t="inlineStr"/>
+      <c r="BB161" t="inlineStr"/>
+      <c r="BC161" t="inlineStr"/>
+      <c r="BD161" t="inlineStr"/>
+      <c r="BE161" t="inlineStr"/>
+      <c r="BF161" t="inlineStr"/>
+      <c r="BG161" t="inlineStr"/>
+      <c r="BH161" t="inlineStr"/>
+      <c r="BI161" t="inlineStr"/>
+      <c r="BJ161" t="inlineStr"/>
+      <c r="BK161" t="inlineStr"/>
+      <c r="BL161" t="inlineStr"/>
+      <c r="BM161" t="inlineStr"/>
       <c r="BN161" t="n">
         <v>3</v>
       </c>
@@ -54023,41 +54139,57 @@
         <v>0</v>
       </c>
       <c r="CE161" t="n">
-        <v>25</v>
-      </c>
-      <c r="CF161" t="inlineStr"/>
-      <c r="CG161" t="inlineStr"/>
-      <c r="CH161" t="inlineStr"/>
-      <c r="CI161" t="inlineStr"/>
-      <c r="CJ161" t="inlineStr"/>
-      <c r="CK161" t="inlineStr"/>
-      <c r="CL161" t="inlineStr"/>
-      <c r="CM161" t="inlineStr"/>
-      <c r="CN161" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="CF161" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="CG161" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="CH161" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="CI161" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="CJ161" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CK161" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="CL161" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="CM161" t="n">
+        <v>-6.85</v>
+      </c>
+      <c r="CN161" t="n">
+        <v>-6.32</v>
+      </c>
       <c r="CO161" t="n">
-        <v>24</v>
+        <v>26.92</v>
       </c>
       <c r="CP161" t="n">
-        <v>28</v>
+        <v>34.62</v>
       </c>
       <c r="CQ161" t="n">
-        <v>32</v>
+        <v>38.46</v>
       </c>
       <c r="CR161" t="n">
-        <v>64</v>
+        <v>65.38</v>
       </c>
       <c r="CS161" t="n">
-        <v>72</v>
+        <v>76.92</v>
       </c>
       <c r="CT161" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="CU161" t="n">
-        <v>8</v>
-      </c>
-      <c r="CV161" t="n">
-        <v>80</v>
-      </c>
+        <v>11.54</v>
+      </c>
+      <c r="CV161" t="inlineStr"/>
       <c r="CW161" t="inlineStr"/>
       <c r="CX161" t="inlineStr"/>
       <c r="CY161" t="inlineStr"/>
@@ -54067,27 +54199,13 @@
       <c r="DC161" t="inlineStr"/>
       <c r="DD161" t="inlineStr"/>
       <c r="DE161" t="inlineStr"/>
-      <c r="DF161" t="n">
-        <v>55</v>
-      </c>
-      <c r="DG161" t="n">
-        <v>55</v>
-      </c>
-      <c r="DH161" t="n">
-        <v>41.25</v>
-      </c>
-      <c r="DI161" t="n">
-        <v>85</v>
-      </c>
-      <c r="DJ161" t="n">
-        <v>91.25</v>
-      </c>
-      <c r="DK161" t="n">
-        <v>48.75</v>
-      </c>
-      <c r="DL161" t="n">
-        <v>48.75</v>
-      </c>
+      <c r="DF161" t="inlineStr"/>
+      <c r="DG161" t="inlineStr"/>
+      <c r="DH161" t="inlineStr"/>
+      <c r="DI161" t="inlineStr"/>
+      <c r="DJ161" t="inlineStr"/>
+      <c r="DK161" t="inlineStr"/>
+      <c r="DL161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -54116,10 +54234,14 @@
       <c r="H162" t="n">
         <v>29</v>
       </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>89</v>
+      </c>
+      <c r="J162" t="n">
+        <v>12</v>
+      </c>
       <c r="K162" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L162" t="n">
         <v>3</v>
@@ -54128,7 +54250,7 @@
         <v>19</v>
       </c>
       <c r="N162" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O162" t="n">
         <v>78</v>
@@ -54232,57 +54354,23 @@
       <c r="AV162" t="n">
         <v>57.14</v>
       </c>
-      <c r="AW162" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX162" t="n">
-        <v>-4.84</v>
-      </c>
-      <c r="AY162" t="n">
-        <v>-4.88</v>
-      </c>
-      <c r="AZ162" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="BA162" t="n">
-        <v>-6.06</v>
-      </c>
-      <c r="BB162" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="BC162" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BD162" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="BE162" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="BF162" t="n">
-        <v>-6.42</v>
-      </c>
-      <c r="BG162" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH162" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI162" t="n">
-        <v>50</v>
-      </c>
-      <c r="BJ162" t="n">
-        <v>50</v>
-      </c>
-      <c r="BK162" t="n">
-        <v>50</v>
-      </c>
-      <c r="BL162" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM162" t="n">
-        <v>0</v>
-      </c>
+      <c r="AW162" t="inlineStr"/>
+      <c r="AX162" t="inlineStr"/>
+      <c r="AY162" t="inlineStr"/>
+      <c r="AZ162" t="inlineStr"/>
+      <c r="BA162" t="inlineStr"/>
+      <c r="BB162" t="inlineStr"/>
+      <c r="BC162" t="inlineStr"/>
+      <c r="BD162" t="inlineStr"/>
+      <c r="BE162" t="inlineStr"/>
+      <c r="BF162" t="inlineStr"/>
+      <c r="BG162" t="inlineStr"/>
+      <c r="BH162" t="inlineStr"/>
+      <c r="BI162" t="inlineStr"/>
+      <c r="BJ162" t="inlineStr"/>
+      <c r="BK162" t="inlineStr"/>
+      <c r="BL162" t="inlineStr"/>
+      <c r="BM162" t="inlineStr"/>
       <c r="BN162" t="n">
         <v>4</v>
       </c>
@@ -54385,57 +54473,23 @@
       <c r="CU162" t="n">
         <v>6.67</v>
       </c>
-      <c r="CV162" t="n">
-        <v>93</v>
-      </c>
-      <c r="CW162" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="CX162" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="CY162" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="CZ162" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="DA162" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="DB162" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="DC162" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="DD162" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="DE162" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="DF162" t="n">
-        <v>68.81999999999999</v>
-      </c>
-      <c r="DG162" t="n">
-        <v>61.29</v>
-      </c>
-      <c r="DH162" t="n">
-        <v>41.94</v>
-      </c>
-      <c r="DI162" t="n">
-        <v>97.84999999999999</v>
-      </c>
-      <c r="DJ162" t="n">
-        <v>89.25</v>
-      </c>
-      <c r="DK162" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="DL162" t="n">
-        <v>58.06</v>
-      </c>
+      <c r="CV162" t="inlineStr"/>
+      <c r="CW162" t="inlineStr"/>
+      <c r="CX162" t="inlineStr"/>
+      <c r="CY162" t="inlineStr"/>
+      <c r="CZ162" t="inlineStr"/>
+      <c r="DA162" t="inlineStr"/>
+      <c r="DB162" t="inlineStr"/>
+      <c r="DC162" t="inlineStr"/>
+      <c r="DD162" t="inlineStr"/>
+      <c r="DE162" t="inlineStr"/>
+      <c r="DF162" t="inlineStr"/>
+      <c r="DG162" t="inlineStr"/>
+      <c r="DH162" t="inlineStr"/>
+      <c r="DI162" t="inlineStr"/>
+      <c r="DJ162" t="inlineStr"/>
+      <c r="DK162" t="inlineStr"/>
+      <c r="DL162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -55172,15 +55226,33 @@
       <c r="BN165" t="n">
         <v>2</v>
       </c>
-      <c r="BO165" t="inlineStr"/>
-      <c r="BP165" t="inlineStr"/>
-      <c r="BQ165" t="inlineStr"/>
-      <c r="BR165" t="inlineStr"/>
-      <c r="BS165" t="inlineStr"/>
-      <c r="BT165" t="inlineStr"/>
-      <c r="BU165" t="inlineStr"/>
-      <c r="BV165" t="inlineStr"/>
-      <c r="BW165" t="inlineStr"/>
+      <c r="BO165" t="n">
+        <v>-8.710000000000001</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>-10.32</v>
+      </c>
+      <c r="BQ165" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="BR165" t="n">
+        <v>-10.32</v>
+      </c>
+      <c r="BS165" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="BT165" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>-16.6</v>
+      </c>
+      <c r="BV165" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="BW165" t="n">
+        <v>-16.6</v>
+      </c>
       <c r="BX165" t="n">
         <v>0</v>
       </c>
@@ -56440,21 +56512,11 @@
       <c r="J170" t="n">
         <v>12</v>
       </c>
-      <c r="K170" t="n">
-        <v>62</v>
-      </c>
-      <c r="L170" t="n">
-        <v>5</v>
-      </c>
-      <c r="M170" t="n">
-        <v>19</v>
-      </c>
-      <c r="N170" t="n">
-        <v>27</v>
-      </c>
-      <c r="O170" t="n">
-        <v>61</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
@@ -56464,78 +56526,30 @@
       <c r="V170" t="inlineStr"/>
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="n">
-        <v>72.13</v>
-      </c>
-      <c r="Z170" t="n">
-        <v>57.38</v>
-      </c>
-      <c r="AA170" t="n">
-        <v>32.79</v>
-      </c>
-      <c r="AB170" t="n">
-        <v>98.36</v>
-      </c>
-      <c r="AC170" t="n">
-        <v>90.16</v>
-      </c>
-      <c r="AD170" t="n">
-        <v>72.13</v>
-      </c>
-      <c r="AE170" t="n">
-        <v>57.38</v>
-      </c>
-      <c r="AF170" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG170" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AH170" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AI170" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="AJ170" t="n">
-        <v>-2.93</v>
-      </c>
-      <c r="AK170" t="n">
-        <v>-2.56</v>
-      </c>
-      <c r="AL170" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="AM170" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="AN170" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AO170" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AP170" t="n">
-        <v>73.91</v>
-      </c>
-      <c r="AQ170" t="n">
-        <v>60.87</v>
-      </c>
-      <c r="AR170" t="n">
-        <v>30.43</v>
-      </c>
-      <c r="AS170" t="n">
-        <v>100</v>
-      </c>
-      <c r="AT170" t="n">
-        <v>82.61</v>
-      </c>
-      <c r="AU170" t="n">
-        <v>73.91</v>
-      </c>
-      <c r="AV170" t="n">
-        <v>60.87</v>
-      </c>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr"/>
+      <c r="AF170" t="inlineStr"/>
+      <c r="AG170" t="inlineStr"/>
+      <c r="AH170" t="inlineStr"/>
+      <c r="AI170" t="inlineStr"/>
+      <c r="AJ170" t="inlineStr"/>
+      <c r="AK170" t="inlineStr"/>
+      <c r="AL170" t="inlineStr"/>
+      <c r="AM170" t="inlineStr"/>
+      <c r="AN170" t="inlineStr"/>
+      <c r="AO170" t="inlineStr"/>
+      <c r="AP170" t="inlineStr"/>
+      <c r="AQ170" t="inlineStr"/>
+      <c r="AR170" t="inlineStr"/>
+      <c r="AS170" t="inlineStr"/>
+      <c r="AT170" t="inlineStr"/>
+      <c r="AU170" t="inlineStr"/>
+      <c r="AV170" t="inlineStr"/>
       <c r="AW170" t="inlineStr"/>
       <c r="AX170" t="inlineStr"/>
       <c r="AY170" t="inlineStr"/>
@@ -56553,108 +56567,40 @@
       <c r="BK170" t="inlineStr"/>
       <c r="BL170" t="inlineStr"/>
       <c r="BM170" t="inlineStr"/>
-      <c r="BN170" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO170" t="n">
-        <v>-2.92</v>
-      </c>
-      <c r="BP170" t="n">
-        <v>-2.38</v>
-      </c>
-      <c r="BQ170" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="BR170" t="n">
-        <v>-6.26</v>
-      </c>
-      <c r="BS170" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="BT170" t="n">
-        <v>-9.17</v>
-      </c>
-      <c r="BU170" t="n">
-        <v>-8.67</v>
-      </c>
-      <c r="BV170" t="n">
-        <v>-10.52</v>
-      </c>
-      <c r="BW170" t="n">
-        <v>-10.01</v>
-      </c>
-      <c r="BX170" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY170" t="n">
-        <v>20</v>
-      </c>
-      <c r="BZ170" t="n">
-        <v>60</v>
-      </c>
-      <c r="CA170" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB170" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC170" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD170" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE170" t="n">
-        <v>20</v>
-      </c>
-      <c r="CF170" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="CG170" t="n">
-        <v>-2.68</v>
-      </c>
-      <c r="CH170" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="CI170" t="n">
-        <v>-4.82</v>
-      </c>
-      <c r="CJ170" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="CK170" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="CL170" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="CM170" t="n">
-        <v>-6.87</v>
-      </c>
-      <c r="CN170" t="n">
-        <v>-7.33</v>
-      </c>
-      <c r="CO170" t="n">
-        <v>15</v>
-      </c>
-      <c r="CP170" t="n">
-        <v>25</v>
-      </c>
-      <c r="CQ170" t="n">
-        <v>40</v>
-      </c>
-      <c r="CR170" t="n">
-        <v>75</v>
-      </c>
-      <c r="CS170" t="n">
-        <v>80</v>
-      </c>
-      <c r="CT170" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU170" t="n">
-        <v>5</v>
-      </c>
+      <c r="BN170" t="inlineStr"/>
+      <c r="BO170" t="inlineStr"/>
+      <c r="BP170" t="inlineStr"/>
+      <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
+      <c r="BS170" t="inlineStr"/>
+      <c r="BT170" t="inlineStr"/>
+      <c r="BU170" t="inlineStr"/>
+      <c r="BV170" t="inlineStr"/>
+      <c r="BW170" t="inlineStr"/>
+      <c r="BX170" t="inlineStr"/>
+      <c r="BY170" t="inlineStr"/>
+      <c r="BZ170" t="inlineStr"/>
+      <c r="CA170" t="inlineStr"/>
+      <c r="CB170" t="inlineStr"/>
+      <c r="CC170" t="inlineStr"/>
+      <c r="CD170" t="inlineStr"/>
+      <c r="CE170" t="inlineStr"/>
+      <c r="CF170" t="inlineStr"/>
+      <c r="CG170" t="inlineStr"/>
+      <c r="CH170" t="inlineStr"/>
+      <c r="CI170" t="inlineStr"/>
+      <c r="CJ170" t="inlineStr"/>
+      <c r="CK170" t="inlineStr"/>
+      <c r="CL170" t="inlineStr"/>
+      <c r="CM170" t="inlineStr"/>
+      <c r="CN170" t="inlineStr"/>
+      <c r="CO170" t="inlineStr"/>
+      <c r="CP170" t="inlineStr"/>
+      <c r="CQ170" t="inlineStr"/>
+      <c r="CR170" t="inlineStr"/>
+      <c r="CS170" t="inlineStr"/>
+      <c r="CT170" t="inlineStr"/>
+      <c r="CU170" t="inlineStr"/>
       <c r="CV170" t="inlineStr"/>
       <c r="CW170" t="inlineStr"/>
       <c r="CX170" t="inlineStr"/>
@@ -58126,21 +58072,11 @@
       <c r="J176" t="n">
         <v>1</v>
       </c>
-      <c r="K176" t="n">
-        <v>121</v>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="n">
-        <v>16</v>
-      </c>
-      <c r="N176" t="n">
-        <v>21</v>
-      </c>
-      <c r="O176" t="n">
-        <v>46</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr"/>
       <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
@@ -58150,78 +58086,30 @@
       <c r="V176" t="inlineStr"/>
       <c r="W176" t="inlineStr"/>
       <c r="X176" t="inlineStr"/>
-      <c r="Y176" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z176" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="AA176" t="n">
-        <v>54.35</v>
-      </c>
-      <c r="AB176" t="n">
-        <v>93.48</v>
-      </c>
-      <c r="AC176" t="n">
-        <v>89.13</v>
-      </c>
-      <c r="AD176" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE176" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="AF176" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG176" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AH176" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="AI176" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AJ176" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="AK176" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL176" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="AM176" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="AN176" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AO176" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="AP176" t="n">
-        <v>60</v>
-      </c>
-      <c r="AQ176" t="n">
-        <v>73.33</v>
-      </c>
-      <c r="AR176" t="n">
-        <v>53.33</v>
-      </c>
-      <c r="AS176" t="n">
-        <v>93.33</v>
-      </c>
-      <c r="AT176" t="n">
-        <v>86.67</v>
-      </c>
-      <c r="AU176" t="n">
-        <v>60</v>
-      </c>
-      <c r="AV176" t="n">
-        <v>73.33</v>
-      </c>
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
+      <c r="AA176" t="inlineStr"/>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="inlineStr"/>
+      <c r="AD176" t="inlineStr"/>
+      <c r="AE176" t="inlineStr"/>
+      <c r="AF176" t="inlineStr"/>
+      <c r="AG176" t="inlineStr"/>
+      <c r="AH176" t="inlineStr"/>
+      <c r="AI176" t="inlineStr"/>
+      <c r="AJ176" t="inlineStr"/>
+      <c r="AK176" t="inlineStr"/>
+      <c r="AL176" t="inlineStr"/>
+      <c r="AM176" t="inlineStr"/>
+      <c r="AN176" t="inlineStr"/>
+      <c r="AO176" t="inlineStr"/>
+      <c r="AP176" t="inlineStr"/>
+      <c r="AQ176" t="inlineStr"/>
+      <c r="AR176" t="inlineStr"/>
+      <c r="AS176" t="inlineStr"/>
+      <c r="AT176" t="inlineStr"/>
+      <c r="AU176" t="inlineStr"/>
+      <c r="AV176" t="inlineStr"/>
       <c r="AW176" t="inlineStr"/>
       <c r="AX176" t="inlineStr"/>
       <c r="AY176" t="inlineStr"/>
@@ -58239,108 +58127,40 @@
       <c r="BK176" t="inlineStr"/>
       <c r="BL176" t="inlineStr"/>
       <c r="BM176" t="inlineStr"/>
-      <c r="BN176" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO176" t="n">
-        <v>-2.66</v>
-      </c>
-      <c r="BP176" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BQ176" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="BR176" t="n">
-        <v>-4.01</v>
-      </c>
-      <c r="BS176" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="BT176" t="n">
-        <v>-7.68</v>
-      </c>
-      <c r="BU176" t="n">
-        <v>-7.35</v>
-      </c>
-      <c r="BV176" t="n">
-        <v>-11.48</v>
-      </c>
-      <c r="BW176" t="n">
-        <v>-11.16</v>
-      </c>
-      <c r="BX176" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY176" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ176" t="n">
-        <v>100</v>
-      </c>
-      <c r="CA176" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB176" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC176" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD176" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE176" t="n">
-        <v>20</v>
-      </c>
-      <c r="CF176" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="CG176" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="CH176" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="CI176" t="n">
-        <v>-3.53</v>
-      </c>
-      <c r="CJ176" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="CK176" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="CL176" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="CM176" t="n">
-        <v>-6.95</v>
-      </c>
-      <c r="CN176" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="CO176" t="n">
-        <v>30</v>
-      </c>
-      <c r="CP176" t="n">
-        <v>30</v>
-      </c>
-      <c r="CQ176" t="n">
-        <v>75</v>
-      </c>
-      <c r="CR176" t="n">
-        <v>75</v>
-      </c>
-      <c r="CS176" t="n">
-        <v>75</v>
-      </c>
-      <c r="CT176" t="n">
-        <v>5</v>
-      </c>
-      <c r="CU176" t="n">
-        <v>30</v>
-      </c>
+      <c r="BN176" t="inlineStr"/>
+      <c r="BO176" t="inlineStr"/>
+      <c r="BP176" t="inlineStr"/>
+      <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr"/>
+      <c r="BS176" t="inlineStr"/>
+      <c r="BT176" t="inlineStr"/>
+      <c r="BU176" t="inlineStr"/>
+      <c r="BV176" t="inlineStr"/>
+      <c r="BW176" t="inlineStr"/>
+      <c r="BX176" t="inlineStr"/>
+      <c r="BY176" t="inlineStr"/>
+      <c r="BZ176" t="inlineStr"/>
+      <c r="CA176" t="inlineStr"/>
+      <c r="CB176" t="inlineStr"/>
+      <c r="CC176" t="inlineStr"/>
+      <c r="CD176" t="inlineStr"/>
+      <c r="CE176" t="inlineStr"/>
+      <c r="CF176" t="inlineStr"/>
+      <c r="CG176" t="inlineStr"/>
+      <c r="CH176" t="inlineStr"/>
+      <c r="CI176" t="inlineStr"/>
+      <c r="CJ176" t="inlineStr"/>
+      <c r="CK176" t="inlineStr"/>
+      <c r="CL176" t="inlineStr"/>
+      <c r="CM176" t="inlineStr"/>
+      <c r="CN176" t="inlineStr"/>
+      <c r="CO176" t="inlineStr"/>
+      <c r="CP176" t="inlineStr"/>
+      <c r="CQ176" t="inlineStr"/>
+      <c r="CR176" t="inlineStr"/>
+      <c r="CS176" t="inlineStr"/>
+      <c r="CT176" t="inlineStr"/>
+      <c r="CU176" t="inlineStr"/>
       <c r="CV176" t="inlineStr"/>
       <c r="CW176" t="inlineStr"/>
       <c r="CX176" t="inlineStr"/>
@@ -58577,35 +58397,53 @@
       <c r="CE177" t="n">
         <v>21</v>
       </c>
-      <c r="CF177" t="inlineStr"/>
-      <c r="CG177" t="inlineStr"/>
-      <c r="CH177" t="inlineStr"/>
-      <c r="CI177" t="inlineStr"/>
-      <c r="CJ177" t="inlineStr"/>
-      <c r="CK177" t="inlineStr"/>
-      <c r="CL177" t="inlineStr"/>
-      <c r="CM177" t="inlineStr"/>
-      <c r="CN177" t="inlineStr"/>
+      <c r="CF177" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="CG177" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="CH177" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="CI177" t="n">
+        <v>-3.44</v>
+      </c>
+      <c r="CJ177" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="CK177" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="CL177" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="CM177" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="CN177" t="n">
+        <v>-2.26</v>
+      </c>
       <c r="CO177" t="n">
-        <v>23.81</v>
+        <v>25</v>
       </c>
       <c r="CP177" t="n">
-        <v>57.14</v>
+        <v>60</v>
       </c>
       <c r="CQ177" t="n">
-        <v>61.9</v>
+        <v>65</v>
       </c>
       <c r="CR177" t="n">
-        <v>80.95</v>
+        <v>85</v>
       </c>
       <c r="CS177" t="n">
-        <v>80.95</v>
+        <v>85</v>
       </c>
       <c r="CT177" t="n">
         <v>0</v>
       </c>
       <c r="CU177" t="n">
-        <v>33.33</v>
+        <v>35</v>
       </c>
       <c r="CV177" t="inlineStr"/>
       <c r="CW177" t="inlineStr"/>
@@ -58942,21 +58780,11 @@
       <c r="J179" t="n">
         <v>7</v>
       </c>
-      <c r="K179" t="n">
-        <v>73</v>
-      </c>
-      <c r="L179" t="n">
-        <v>0</v>
-      </c>
-      <c r="M179" t="n">
-        <v>23</v>
-      </c>
-      <c r="N179" t="n">
-        <v>19</v>
-      </c>
-      <c r="O179" t="n">
-        <v>50</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr"/>
@@ -58966,78 +58794,30 @@
       <c r="V179" t="inlineStr"/>
       <c r="W179" t="inlineStr"/>
       <c r="X179" t="inlineStr"/>
-      <c r="Y179" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z179" t="n">
-        <v>64</v>
-      </c>
-      <c r="AA179" t="n">
-        <v>52</v>
-      </c>
-      <c r="AB179" t="n">
-        <v>76</v>
-      </c>
-      <c r="AC179" t="n">
-        <v>72</v>
-      </c>
-      <c r="AD179" t="n">
-        <v>54</v>
-      </c>
-      <c r="AE179" t="n">
-        <v>64</v>
-      </c>
-      <c r="AF179" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG179" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AH179" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="AI179" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="AJ179" t="n">
-        <v>-3.15</v>
-      </c>
-      <c r="AK179" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AL179" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AM179" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AN179" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AO179" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="AP179" t="n">
-        <v>53.57</v>
-      </c>
-      <c r="AQ179" t="n">
-        <v>57.14</v>
-      </c>
-      <c r="AR179" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS179" t="n">
-        <v>67.86</v>
-      </c>
-      <c r="AT179" t="n">
-        <v>60.71</v>
-      </c>
-      <c r="AU179" t="n">
-        <v>53.57</v>
-      </c>
-      <c r="AV179" t="n">
-        <v>57.14</v>
-      </c>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr"/>
+      <c r="AA179" t="inlineStr"/>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr"/>
+      <c r="AE179" t="inlineStr"/>
+      <c r="AF179" t="inlineStr"/>
+      <c r="AG179" t="inlineStr"/>
+      <c r="AH179" t="inlineStr"/>
+      <c r="AI179" t="inlineStr"/>
+      <c r="AJ179" t="inlineStr"/>
+      <c r="AK179" t="inlineStr"/>
+      <c r="AL179" t="inlineStr"/>
+      <c r="AM179" t="inlineStr"/>
+      <c r="AN179" t="inlineStr"/>
+      <c r="AO179" t="inlineStr"/>
+      <c r="AP179" t="inlineStr"/>
+      <c r="AQ179" t="inlineStr"/>
+      <c r="AR179" t="inlineStr"/>
+      <c r="AS179" t="inlineStr"/>
+      <c r="AT179" t="inlineStr"/>
+      <c r="AU179" t="inlineStr"/>
+      <c r="AV179" t="inlineStr"/>
       <c r="AW179" t="inlineStr"/>
       <c r="AX179" t="inlineStr"/>
       <c r="AY179" t="inlineStr"/>
@@ -59055,108 +58835,40 @@
       <c r="BK179" t="inlineStr"/>
       <c r="BL179" t="inlineStr"/>
       <c r="BM179" t="inlineStr"/>
-      <c r="BN179" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO179" t="n">
-        <v>-3.52</v>
-      </c>
-      <c r="BP179" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BQ179" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="BR179" t="n">
-        <v>-4.65</v>
-      </c>
-      <c r="BS179" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="BT179" t="n">
-        <v>-9.76</v>
-      </c>
-      <c r="BU179" t="n">
-        <v>-5.26</v>
-      </c>
-      <c r="BV179" t="n">
-        <v>-12.59</v>
-      </c>
-      <c r="BW179" t="n">
-        <v>-8.279999999999999</v>
-      </c>
-      <c r="BX179" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY179" t="n">
-        <v>40</v>
-      </c>
-      <c r="BZ179" t="n">
-        <v>100</v>
-      </c>
-      <c r="CA179" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB179" t="n">
-        <v>20</v>
-      </c>
-      <c r="CC179" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD179" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE179" t="n">
-        <v>56</v>
-      </c>
-      <c r="CF179" t="n">
-        <v>-3.19</v>
-      </c>
-      <c r="CG179" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="CH179" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="CI179" t="n">
-        <v>-4.97</v>
-      </c>
-      <c r="CJ179" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="CK179" t="n">
-        <v>-2.14</v>
-      </c>
-      <c r="CL179" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="CM179" t="n">
-        <v>-9.58</v>
-      </c>
-      <c r="CN179" t="n">
-        <v>-6.73</v>
-      </c>
-      <c r="CO179" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="CP179" t="n">
-        <v>46.43</v>
-      </c>
-      <c r="CQ179" t="n">
-        <v>82.14</v>
-      </c>
-      <c r="CR179" t="n">
-        <v>50</v>
-      </c>
-      <c r="CS179" t="n">
-        <v>57.14</v>
-      </c>
-      <c r="CT179" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU179" t="n">
-        <v>10.71</v>
-      </c>
+      <c r="BN179" t="inlineStr"/>
+      <c r="BO179" t="inlineStr"/>
+      <c r="BP179" t="inlineStr"/>
+      <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr"/>
+      <c r="BS179" t="inlineStr"/>
+      <c r="BT179" t="inlineStr"/>
+      <c r="BU179" t="inlineStr"/>
+      <c r="BV179" t="inlineStr"/>
+      <c r="BW179" t="inlineStr"/>
+      <c r="BX179" t="inlineStr"/>
+      <c r="BY179" t="inlineStr"/>
+      <c r="BZ179" t="inlineStr"/>
+      <c r="CA179" t="inlineStr"/>
+      <c r="CB179" t="inlineStr"/>
+      <c r="CC179" t="inlineStr"/>
+      <c r="CD179" t="inlineStr"/>
+      <c r="CE179" t="inlineStr"/>
+      <c r="CF179" t="inlineStr"/>
+      <c r="CG179" t="inlineStr"/>
+      <c r="CH179" t="inlineStr"/>
+      <c r="CI179" t="inlineStr"/>
+      <c r="CJ179" t="inlineStr"/>
+      <c r="CK179" t="inlineStr"/>
+      <c r="CL179" t="inlineStr"/>
+      <c r="CM179" t="inlineStr"/>
+      <c r="CN179" t="inlineStr"/>
+      <c r="CO179" t="inlineStr"/>
+      <c r="CP179" t="inlineStr"/>
+      <c r="CQ179" t="inlineStr"/>
+      <c r="CR179" t="inlineStr"/>
+      <c r="CS179" t="inlineStr"/>
+      <c r="CT179" t="inlineStr"/>
+      <c r="CU179" t="inlineStr"/>
       <c r="CV179" t="inlineStr"/>
       <c r="CW179" t="inlineStr"/>
       <c r="CX179" t="inlineStr"/>
@@ -60389,7 +60101,7 @@
         <v>-2.95</v>
       </c>
       <c r="AK184" t="n">
-        <v>-1.1</v>
+        <v>-1.11</v>
       </c>
       <c r="AL184" t="n">
         <v>9.970000000000001</v>
@@ -63869,35 +63581,53 @@
       <c r="CE196" t="n">
         <v>28</v>
       </c>
-      <c r="CF196" t="inlineStr"/>
-      <c r="CG196" t="inlineStr"/>
-      <c r="CH196" t="inlineStr"/>
-      <c r="CI196" t="inlineStr"/>
-      <c r="CJ196" t="inlineStr"/>
-      <c r="CK196" t="inlineStr"/>
-      <c r="CL196" t="inlineStr"/>
-      <c r="CM196" t="inlineStr"/>
-      <c r="CN196" t="inlineStr"/>
+      <c r="CF196" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="CG196" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="CH196" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="CI196" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="CJ196" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="CK196" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="CL196" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="CM196" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="CN196" t="n">
+        <v>-0.4</v>
+      </c>
       <c r="CO196" t="n">
-        <v>53.57</v>
+        <v>55.56</v>
       </c>
       <c r="CP196" t="n">
-        <v>53.57</v>
+        <v>55.56</v>
       </c>
       <c r="CQ196" t="n">
-        <v>64.29000000000001</v>
+        <v>66.67</v>
       </c>
       <c r="CR196" t="n">
-        <v>78.56999999999999</v>
+        <v>81.48</v>
       </c>
       <c r="CS196" t="n">
-        <v>85.70999999999999</v>
+        <v>88.89</v>
       </c>
       <c r="CT196" t="n">
-        <v>21.43</v>
+        <v>22.22</v>
       </c>
       <c r="CU196" t="n">
-        <v>28.57</v>
+        <v>29.63</v>
       </c>
       <c r="CV196" t="inlineStr"/>
       <c r="CW196" t="inlineStr"/>
@@ -67609,6 +67339,290 @@
       <c r="DK209" t="inlineStr"/>
       <c r="DL209" t="inlineStr"/>
     </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>20250905</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>4857</v>
+      </c>
+      <c r="C210" t="n">
+        <v>473</v>
+      </c>
+      <c r="D210" t="n">
+        <v>87</v>
+      </c>
+      <c r="E210" t="n">
+        <v>690</v>
+      </c>
+      <c r="F210" t="n">
+        <v>29</v>
+      </c>
+      <c r="G210" t="n">
+        <v>334</v>
+      </c>
+      <c r="H210" t="n">
+        <v>17</v>
+      </c>
+      <c r="I210" t="n">
+        <v>197</v>
+      </c>
+      <c r="J210" t="n">
+        <v>7</v>
+      </c>
+      <c r="K210" t="n">
+        <v>96</v>
+      </c>
+      <c r="L210" t="n">
+        <v>3</v>
+      </c>
+      <c r="M210" t="n">
+        <v>11</v>
+      </c>
+      <c r="N210" t="n">
+        <v>16</v>
+      </c>
+      <c r="O210" t="n">
+        <v>41</v>
+      </c>
+      <c r="P210" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="R210" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="S210" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U210" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="V210" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X210" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>41.46</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>92.68000000000001</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>97.56</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>70</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>90</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW210" t="inlineStr"/>
+      <c r="AX210" t="inlineStr"/>
+      <c r="AY210" t="inlineStr"/>
+      <c r="AZ210" t="inlineStr"/>
+      <c r="BA210" t="inlineStr"/>
+      <c r="BB210" t="inlineStr"/>
+      <c r="BC210" t="inlineStr"/>
+      <c r="BD210" t="inlineStr"/>
+      <c r="BE210" t="inlineStr"/>
+      <c r="BF210" t="inlineStr"/>
+      <c r="BG210" t="inlineStr"/>
+      <c r="BH210" t="inlineStr"/>
+      <c r="BI210" t="inlineStr"/>
+      <c r="BJ210" t="inlineStr"/>
+      <c r="BK210" t="inlineStr"/>
+      <c r="BL210" t="inlineStr"/>
+      <c r="BM210" t="inlineStr"/>
+      <c r="BN210" t="n">
+        <v>32</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>-3.27</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BQ210" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BR210" t="n">
+        <v>-5.57</v>
+      </c>
+      <c r="BS210" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="BT210" t="n">
+        <v>-11.15</v>
+      </c>
+      <c r="BU210" t="n">
+        <v>-6.21</v>
+      </c>
+      <c r="BV210" t="n">
+        <v>-12.32</v>
+      </c>
+      <c r="BW210" t="n">
+        <v>-7.43</v>
+      </c>
+      <c r="BX210" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="BY210" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="BZ210" t="n">
+        <v>90.62</v>
+      </c>
+      <c r="CA210" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB210" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="CC210" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD210" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="CE210" t="n">
+        <v>29</v>
+      </c>
+      <c r="CF210" t="n">
+        <v>-2.74</v>
+      </c>
+      <c r="CG210" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="CH210" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="CI210" t="n">
+        <v>-5.37</v>
+      </c>
+      <c r="CJ210" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="CK210" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CL210" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="CM210" t="n">
+        <v>-7.33</v>
+      </c>
+      <c r="CN210" t="n">
+        <v>-4.01</v>
+      </c>
+      <c r="CO210" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="CP210" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="CQ210" t="n">
+        <v>75.86</v>
+      </c>
+      <c r="CR210" t="n">
+        <v>51.72</v>
+      </c>
+      <c r="CS210" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="CT210" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU210" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="CV210" t="inlineStr"/>
+      <c r="CW210" t="inlineStr"/>
+      <c r="CX210" t="inlineStr"/>
+      <c r="CY210" t="inlineStr"/>
+      <c r="CZ210" t="inlineStr"/>
+      <c r="DA210" t="inlineStr"/>
+      <c r="DB210" t="inlineStr"/>
+      <c r="DC210" t="inlineStr"/>
+      <c r="DD210" t="inlineStr"/>
+      <c r="DE210" t="inlineStr"/>
+      <c r="DF210" t="inlineStr"/>
+      <c r="DG210" t="inlineStr"/>
+      <c r="DH210" t="inlineStr"/>
+      <c r="DI210" t="inlineStr"/>
+      <c r="DJ210" t="inlineStr"/>
+      <c r="DK210" t="inlineStr"/>
+      <c r="DL210" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL210"/>
+  <dimension ref="A1:DL211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67623,6 +67623,290 @@
       <c r="DK210" t="inlineStr"/>
       <c r="DL210" t="inlineStr"/>
     </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>20250908</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>3957</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D211" t="n">
+        <v>112</v>
+      </c>
+      <c r="E211" t="n">
+        <v>389</v>
+      </c>
+      <c r="F211" t="n">
+        <v>86</v>
+      </c>
+      <c r="G211" t="n">
+        <v>189</v>
+      </c>
+      <c r="H211" t="n">
+        <v>44</v>
+      </c>
+      <c r="I211" t="n">
+        <v>119</v>
+      </c>
+      <c r="J211" t="n">
+        <v>24</v>
+      </c>
+      <c r="K211" t="n">
+        <v>69</v>
+      </c>
+      <c r="L211" t="n">
+        <v>3</v>
+      </c>
+      <c r="M211" t="n">
+        <v>12</v>
+      </c>
+      <c r="N211" t="n">
+        <v>26</v>
+      </c>
+      <c r="O211" t="n">
+        <v>96</v>
+      </c>
+      <c r="P211" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R211" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="S211" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="T211" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="U211" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="V211" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="W211" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>82.29000000000001</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>69.79000000000001</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>47.92</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>97.92</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>97.92</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>82.29000000000001</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>69.79000000000001</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>90.91</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>90.91</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="AW211" t="inlineStr"/>
+      <c r="AX211" t="inlineStr"/>
+      <c r="AY211" t="inlineStr"/>
+      <c r="AZ211" t="inlineStr"/>
+      <c r="BA211" t="inlineStr"/>
+      <c r="BB211" t="inlineStr"/>
+      <c r="BC211" t="inlineStr"/>
+      <c r="BD211" t="inlineStr"/>
+      <c r="BE211" t="inlineStr"/>
+      <c r="BF211" t="inlineStr"/>
+      <c r="BG211" t="inlineStr"/>
+      <c r="BH211" t="inlineStr"/>
+      <c r="BI211" t="inlineStr"/>
+      <c r="BJ211" t="inlineStr"/>
+      <c r="BK211" t="inlineStr"/>
+      <c r="BL211" t="inlineStr"/>
+      <c r="BM211" t="inlineStr"/>
+      <c r="BN211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>-7.87</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>-10.88</v>
+      </c>
+      <c r="BQ211" t="n">
+        <v>-2.81</v>
+      </c>
+      <c r="BR211" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="BS211" t="n">
+        <v>-3.18</v>
+      </c>
+      <c r="BT211" t="n">
+        <v>-10.83</v>
+      </c>
+      <c r="BU211" t="n">
+        <v>-13.7</v>
+      </c>
+      <c r="BV211" t="n">
+        <v>-12.13</v>
+      </c>
+      <c r="BW211" t="n">
+        <v>-14.95</v>
+      </c>
+      <c r="BX211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ211" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA211" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB211" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC211" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD211" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE211" t="n">
+        <v>16</v>
+      </c>
+      <c r="CF211" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="CG211" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="CH211" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="CI211" t="n">
+        <v>-3.17</v>
+      </c>
+      <c r="CJ211" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="CK211" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="CL211" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="CM211" t="n">
+        <v>-3.81</v>
+      </c>
+      <c r="CN211" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="CO211" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="CP211" t="n">
+        <v>75</v>
+      </c>
+      <c r="CQ211" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="CR211" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="CS211" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="CT211" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="CU211" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="CV211" t="inlineStr"/>
+      <c r="CW211" t="inlineStr"/>
+      <c r="CX211" t="inlineStr"/>
+      <c r="CY211" t="inlineStr"/>
+      <c r="CZ211" t="inlineStr"/>
+      <c r="DA211" t="inlineStr"/>
+      <c r="DB211" t="inlineStr"/>
+      <c r="DC211" t="inlineStr"/>
+      <c r="DD211" t="inlineStr"/>
+      <c r="DE211" t="inlineStr"/>
+      <c r="DF211" t="inlineStr"/>
+      <c r="DG211" t="inlineStr"/>
+      <c r="DH211" t="inlineStr"/>
+      <c r="DI211" t="inlineStr"/>
+      <c r="DJ211" t="inlineStr"/>
+      <c r="DK211" t="inlineStr"/>
+      <c r="DL211" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL211"/>
+  <dimension ref="A1:DL212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67907,6 +67907,290 @@
       <c r="DK211" t="inlineStr"/>
       <c r="DL211" t="inlineStr"/>
     </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>20250909</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1299</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4011</v>
+      </c>
+      <c r="D212" t="n">
+        <v>110</v>
+      </c>
+      <c r="E212" t="n">
+        <v>148</v>
+      </c>
+      <c r="F212" t="n">
+        <v>189</v>
+      </c>
+      <c r="G212" t="n">
+        <v>86</v>
+      </c>
+      <c r="H212" t="n">
+        <v>49</v>
+      </c>
+      <c r="I212" t="n">
+        <v>63</v>
+      </c>
+      <c r="J212" t="n">
+        <v>22</v>
+      </c>
+      <c r="K212" t="n">
+        <v>49</v>
+      </c>
+      <c r="L212" t="n">
+        <v>4</v>
+      </c>
+      <c r="M212" t="n">
+        <v>14</v>
+      </c>
+      <c r="N212" t="n">
+        <v>21</v>
+      </c>
+      <c r="O212" t="n">
+        <v>69</v>
+      </c>
+      <c r="P212" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R212" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="S212" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="T212" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="U212" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="V212" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X212" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>63.77</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>98.55</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>95.65000000000001</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>63.77</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW212" t="inlineStr"/>
+      <c r="AX212" t="inlineStr"/>
+      <c r="AY212" t="inlineStr"/>
+      <c r="AZ212" t="inlineStr"/>
+      <c r="BA212" t="inlineStr"/>
+      <c r="BB212" t="inlineStr"/>
+      <c r="BC212" t="inlineStr"/>
+      <c r="BD212" t="inlineStr"/>
+      <c r="BE212" t="inlineStr"/>
+      <c r="BF212" t="inlineStr"/>
+      <c r="BG212" t="inlineStr"/>
+      <c r="BH212" t="inlineStr"/>
+      <c r="BI212" t="inlineStr"/>
+      <c r="BJ212" t="inlineStr"/>
+      <c r="BK212" t="inlineStr"/>
+      <c r="BL212" t="inlineStr"/>
+      <c r="BM212" t="inlineStr"/>
+      <c r="BN212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>-4.83</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="BQ212" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="BR212" t="n">
+        <v>-7.73</v>
+      </c>
+      <c r="BS212" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BT212" t="n">
+        <v>-11.24</v>
+      </c>
+      <c r="BU212" t="n">
+        <v>-10.43</v>
+      </c>
+      <c r="BV212" t="n">
+        <v>-13.07</v>
+      </c>
+      <c r="BW212" t="n">
+        <v>-12.33</v>
+      </c>
+      <c r="BX212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY212" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BZ212" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CA212" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB212" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CC212" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD212" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE212" t="n">
+        <v>26</v>
+      </c>
+      <c r="CF212" t="n">
+        <v>-2.58</v>
+      </c>
+      <c r="CG212" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="CH212" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="CI212" t="n">
+        <v>-4.39</v>
+      </c>
+      <c r="CJ212" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="CK212" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="CL212" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="CM212" t="n">
+        <v>-6.87</v>
+      </c>
+      <c r="CN212" t="n">
+        <v>-5.06</v>
+      </c>
+      <c r="CO212" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="CP212" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="CQ212" t="n">
+        <v>57.69</v>
+      </c>
+      <c r="CR212" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="CS212" t="n">
+        <v>73.08</v>
+      </c>
+      <c r="CT212" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU212" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="CV212" t="inlineStr"/>
+      <c r="CW212" t="inlineStr"/>
+      <c r="CX212" t="inlineStr"/>
+      <c r="CY212" t="inlineStr"/>
+      <c r="CZ212" t="inlineStr"/>
+      <c r="DA212" t="inlineStr"/>
+      <c r="DB212" t="inlineStr"/>
+      <c r="DC212" t="inlineStr"/>
+      <c r="DD212" t="inlineStr"/>
+      <c r="DE212" t="inlineStr"/>
+      <c r="DF212" t="inlineStr"/>
+      <c r="DG212" t="inlineStr"/>
+      <c r="DH212" t="inlineStr"/>
+      <c r="DI212" t="inlineStr"/>
+      <c r="DJ212" t="inlineStr"/>
+      <c r="DK212" t="inlineStr"/>
+      <c r="DL212" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL212"/>
+  <dimension ref="A1:DL213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68191,6 +68191,290 @@
       <c r="DK212" t="inlineStr"/>
       <c r="DL212" t="inlineStr"/>
     </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>20250910</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2442</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2769</v>
+      </c>
+      <c r="D213" t="n">
+        <v>211</v>
+      </c>
+      <c r="E213" t="n">
+        <v>197</v>
+      </c>
+      <c r="F213" t="n">
+        <v>69</v>
+      </c>
+      <c r="G213" t="n">
+        <v>101</v>
+      </c>
+      <c r="H213" t="n">
+        <v>22</v>
+      </c>
+      <c r="I213" t="n">
+        <v>72</v>
+      </c>
+      <c r="J213" t="n">
+        <v>8</v>
+      </c>
+      <c r="K213" t="n">
+        <v>47</v>
+      </c>
+      <c r="L213" t="n">
+        <v>3</v>
+      </c>
+      <c r="M213" t="n">
+        <v>13</v>
+      </c>
+      <c r="N213" t="n">
+        <v>22</v>
+      </c>
+      <c r="O213" t="n">
+        <v>49</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R213" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="S213" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="T213" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U213" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="V213" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="W213" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>36.73</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>59.18</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>97.95999999999999</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>36.73</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>92.86</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="AW213" t="inlineStr"/>
+      <c r="AX213" t="inlineStr"/>
+      <c r="AY213" t="inlineStr"/>
+      <c r="AZ213" t="inlineStr"/>
+      <c r="BA213" t="inlineStr"/>
+      <c r="BB213" t="inlineStr"/>
+      <c r="BC213" t="inlineStr"/>
+      <c r="BD213" t="inlineStr"/>
+      <c r="BE213" t="inlineStr"/>
+      <c r="BF213" t="inlineStr"/>
+      <c r="BG213" t="inlineStr"/>
+      <c r="BH213" t="inlineStr"/>
+      <c r="BI213" t="inlineStr"/>
+      <c r="BJ213" t="inlineStr"/>
+      <c r="BK213" t="inlineStr"/>
+      <c r="BL213" t="inlineStr"/>
+      <c r="BM213" t="inlineStr"/>
+      <c r="BN213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BQ213" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="BR213" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="BS213" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="BT213" t="n">
+        <v>-6.84</v>
+      </c>
+      <c r="BU213" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="BV213" t="n">
+        <v>-8.48</v>
+      </c>
+      <c r="BW213" t="n">
+        <v>-4.68</v>
+      </c>
+      <c r="BX213" t="n">
+        <v>25</v>
+      </c>
+      <c r="BY213" t="n">
+        <v>50</v>
+      </c>
+      <c r="BZ213" t="n">
+        <v>75</v>
+      </c>
+      <c r="CA213" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB213" t="n">
+        <v>25</v>
+      </c>
+      <c r="CC213" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD213" t="n">
+        <v>25</v>
+      </c>
+      <c r="CE213" t="n">
+        <v>21</v>
+      </c>
+      <c r="CF213" t="n">
+        <v>-3.78</v>
+      </c>
+      <c r="CG213" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="CH213" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="CI213" t="n">
+        <v>-5.42</v>
+      </c>
+      <c r="CJ213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="CK213" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="CL213" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="CM213" t="n">
+        <v>-7.62</v>
+      </c>
+      <c r="CN213" t="n">
+        <v>-5.49</v>
+      </c>
+      <c r="CO213" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP213" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CQ213" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CR213" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="CS213" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="CT213" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU213" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CV213" t="inlineStr"/>
+      <c r="CW213" t="inlineStr"/>
+      <c r="CX213" t="inlineStr"/>
+      <c r="CY213" t="inlineStr"/>
+      <c r="CZ213" t="inlineStr"/>
+      <c r="DA213" t="inlineStr"/>
+      <c r="DB213" t="inlineStr"/>
+      <c r="DC213" t="inlineStr"/>
+      <c r="DD213" t="inlineStr"/>
+      <c r="DE213" t="inlineStr"/>
+      <c r="DF213" t="inlineStr"/>
+      <c r="DG213" t="inlineStr"/>
+      <c r="DH213" t="inlineStr"/>
+      <c r="DI213" t="inlineStr"/>
+      <c r="DJ213" t="inlineStr"/>
+      <c r="DK213" t="inlineStr"/>
+      <c r="DL213" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL213"/>
+  <dimension ref="A1:DL214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68475,6 +68475,290 @@
       <c r="DK213" t="inlineStr"/>
       <c r="DL213" t="inlineStr"/>
     </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>20250911</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>4221</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1047</v>
+      </c>
+      <c r="D214" t="n">
+        <v>153</v>
+      </c>
+      <c r="E214" t="n">
+        <v>400</v>
+      </c>
+      <c r="F214" t="n">
+        <v>14</v>
+      </c>
+      <c r="G214" t="n">
+        <v>215</v>
+      </c>
+      <c r="H214" t="n">
+        <v>4</v>
+      </c>
+      <c r="I214" t="n">
+        <v>149</v>
+      </c>
+      <c r="J214" t="n">
+        <v>4</v>
+      </c>
+      <c r="K214" t="n">
+        <v>87</v>
+      </c>
+      <c r="L214" t="n">
+        <v>3</v>
+      </c>
+      <c r="M214" t="n">
+        <v>14</v>
+      </c>
+      <c r="N214" t="n">
+        <v>14</v>
+      </c>
+      <c r="O214" t="n">
+        <v>47</v>
+      </c>
+      <c r="P214" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="R214" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="S214" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="T214" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="U214" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="V214" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="W214" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="X214" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>52.17</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="AW214" t="inlineStr"/>
+      <c r="AX214" t="inlineStr"/>
+      <c r="AY214" t="inlineStr"/>
+      <c r="AZ214" t="inlineStr"/>
+      <c r="BA214" t="inlineStr"/>
+      <c r="BB214" t="inlineStr"/>
+      <c r="BC214" t="inlineStr"/>
+      <c r="BD214" t="inlineStr"/>
+      <c r="BE214" t="inlineStr"/>
+      <c r="BF214" t="inlineStr"/>
+      <c r="BG214" t="inlineStr"/>
+      <c r="BH214" t="inlineStr"/>
+      <c r="BI214" t="inlineStr"/>
+      <c r="BJ214" t="inlineStr"/>
+      <c r="BK214" t="inlineStr"/>
+      <c r="BL214" t="inlineStr"/>
+      <c r="BM214" t="inlineStr"/>
+      <c r="BN214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>-4.48</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="BQ214" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BR214" t="n">
+        <v>-7.08</v>
+      </c>
+      <c r="BS214" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BT214" t="n">
+        <v>-7.97</v>
+      </c>
+      <c r="BU214" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="BV214" t="n">
+        <v>-10.08</v>
+      </c>
+      <c r="BW214" t="n">
+        <v>-6.58</v>
+      </c>
+      <c r="BX214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY214" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BZ214" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CA214" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB214" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CC214" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD214" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CE214" t="n">
+        <v>22</v>
+      </c>
+      <c r="CF214" t="n">
+        <v>-1.91</v>
+      </c>
+      <c r="CG214" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="CH214" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="CI214" t="n">
+        <v>-5.03</v>
+      </c>
+      <c r="CJ214" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="CK214" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="CL214" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="CM214" t="n">
+        <v>-5.87</v>
+      </c>
+      <c r="CN214" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="CO214" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="CP214" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="CQ214" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="CR214" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="CS214" t="n">
+        <v>86.36</v>
+      </c>
+      <c r="CT214" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU214" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="CV214" t="inlineStr"/>
+      <c r="CW214" t="inlineStr"/>
+      <c r="CX214" t="inlineStr"/>
+      <c r="CY214" t="inlineStr"/>
+      <c r="CZ214" t="inlineStr"/>
+      <c r="DA214" t="inlineStr"/>
+      <c r="DB214" t="inlineStr"/>
+      <c r="DC214" t="inlineStr"/>
+      <c r="DD214" t="inlineStr"/>
+      <c r="DE214" t="inlineStr"/>
+      <c r="DF214" t="inlineStr"/>
+      <c r="DG214" t="inlineStr"/>
+      <c r="DH214" t="inlineStr"/>
+      <c r="DI214" t="inlineStr"/>
+      <c r="DJ214" t="inlineStr"/>
+      <c r="DK214" t="inlineStr"/>
+      <c r="DL214" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL214"/>
+  <dimension ref="A1:DL215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68759,6 +68759,290 @@
       <c r="DK214" t="inlineStr"/>
       <c r="DL214" t="inlineStr"/>
     </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>20250912</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3373</v>
+      </c>
+      <c r="D215" t="n">
+        <v>125</v>
+      </c>
+      <c r="E215" t="n">
+        <v>210</v>
+      </c>
+      <c r="F215" t="n">
+        <v>64</v>
+      </c>
+      <c r="G215" t="n">
+        <v>132</v>
+      </c>
+      <c r="H215" t="n">
+        <v>20</v>
+      </c>
+      <c r="I215" t="n">
+        <v>93</v>
+      </c>
+      <c r="J215" t="n">
+        <v>8</v>
+      </c>
+      <c r="K215" t="n">
+        <v>66</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>23</v>
+      </c>
+      <c r="N215" t="n">
+        <v>23</v>
+      </c>
+      <c r="O215" t="n">
+        <v>87</v>
+      </c>
+      <c r="P215" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="R215" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="S215" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U215" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="V215" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="X215" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>67.81999999999999</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>56.32</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>67.81999999999999</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AW215" t="inlineStr"/>
+      <c r="AX215" t="inlineStr"/>
+      <c r="AY215" t="inlineStr"/>
+      <c r="AZ215" t="inlineStr"/>
+      <c r="BA215" t="inlineStr"/>
+      <c r="BB215" t="inlineStr"/>
+      <c r="BC215" t="inlineStr"/>
+      <c r="BD215" t="inlineStr"/>
+      <c r="BE215" t="inlineStr"/>
+      <c r="BF215" t="inlineStr"/>
+      <c r="BG215" t="inlineStr"/>
+      <c r="BH215" t="inlineStr"/>
+      <c r="BI215" t="inlineStr"/>
+      <c r="BJ215" t="inlineStr"/>
+      <c r="BK215" t="inlineStr"/>
+      <c r="BL215" t="inlineStr"/>
+      <c r="BM215" t="inlineStr"/>
+      <c r="BN215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BQ215" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="BR215" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="BS215" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="BT215" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="BU215" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BV215" t="n">
+        <v>-8.48</v>
+      </c>
+      <c r="BW215" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="BX215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY215" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BZ215" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CA215" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB215" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CC215" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD215" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CE215" t="n">
+        <v>14</v>
+      </c>
+      <c r="CF215" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="CG215" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="CH215" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="CI215" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="CJ215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="CK215" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="CL215" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="CM215" t="n">
+        <v>-5.33</v>
+      </c>
+      <c r="CN215" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="CO215" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP215" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="CQ215" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="CR215" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CS215" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CT215" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU215" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="CV215" t="inlineStr"/>
+      <c r="CW215" t="inlineStr"/>
+      <c r="CX215" t="inlineStr"/>
+      <c r="CY215" t="inlineStr"/>
+      <c r="CZ215" t="inlineStr"/>
+      <c r="DA215" t="inlineStr"/>
+      <c r="DB215" t="inlineStr"/>
+      <c r="DC215" t="inlineStr"/>
+      <c r="DD215" t="inlineStr"/>
+      <c r="DE215" t="inlineStr"/>
+      <c r="DF215" t="inlineStr"/>
+      <c r="DG215" t="inlineStr"/>
+      <c r="DH215" t="inlineStr"/>
+      <c r="DI215" t="inlineStr"/>
+      <c r="DJ215" t="inlineStr"/>
+      <c r="DK215" t="inlineStr"/>
+      <c r="DL215" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL215"/>
+  <dimension ref="A1:DL216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69043,6 +69043,290 @@
       <c r="DK215" t="inlineStr"/>
       <c r="DL215" t="inlineStr"/>
     </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>20250915</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1916</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3375</v>
+      </c>
+      <c r="D216" t="n">
+        <v>131</v>
+      </c>
+      <c r="E216" t="n">
+        <v>222</v>
+      </c>
+      <c r="F216" t="n">
+        <v>58</v>
+      </c>
+      <c r="G216" t="n">
+        <v>135</v>
+      </c>
+      <c r="H216" t="n">
+        <v>20</v>
+      </c>
+      <c r="I216" t="n">
+        <v>100</v>
+      </c>
+      <c r="J216" t="n">
+        <v>9</v>
+      </c>
+      <c r="K216" t="n">
+        <v>67</v>
+      </c>
+      <c r="L216" t="n">
+        <v>3</v>
+      </c>
+      <c r="M216" t="n">
+        <v>14</v>
+      </c>
+      <c r="N216" t="n">
+        <v>28</v>
+      </c>
+      <c r="O216" t="n">
+        <v>66</v>
+      </c>
+      <c r="P216" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R216" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="S216" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="T216" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="U216" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="V216" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="W216" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X216" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>96.92</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>90.77</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>95.45</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>77.27</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="AW216" t="inlineStr"/>
+      <c r="AX216" t="inlineStr"/>
+      <c r="AY216" t="inlineStr"/>
+      <c r="AZ216" t="inlineStr"/>
+      <c r="BA216" t="inlineStr"/>
+      <c r="BB216" t="inlineStr"/>
+      <c r="BC216" t="inlineStr"/>
+      <c r="BD216" t="inlineStr"/>
+      <c r="BE216" t="inlineStr"/>
+      <c r="BF216" t="inlineStr"/>
+      <c r="BG216" t="inlineStr"/>
+      <c r="BH216" t="inlineStr"/>
+      <c r="BI216" t="inlineStr"/>
+      <c r="BJ216" t="inlineStr"/>
+      <c r="BK216" t="inlineStr"/>
+      <c r="BL216" t="inlineStr"/>
+      <c r="BM216" t="inlineStr"/>
+      <c r="BN216" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="BQ216" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="BR216" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="BS216" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="BT216" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="BU216" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="BV216" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="BW216" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="BX216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY216" t="n">
+        <v>100</v>
+      </c>
+      <c r="BZ216" t="n">
+        <v>100</v>
+      </c>
+      <c r="CA216" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB216" t="n">
+        <v>100</v>
+      </c>
+      <c r="CC216" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD216" t="n">
+        <v>100</v>
+      </c>
+      <c r="CE216" t="n">
+        <v>23</v>
+      </c>
+      <c r="CF216" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="CG216" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="CH216" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="CI216" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="CJ216" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="CK216" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL216" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="CM216" t="n">
+        <v>-4.41</v>
+      </c>
+      <c r="CN216" t="n">
+        <v>-3.72</v>
+      </c>
+      <c r="CO216" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="CP216" t="n">
+        <v>52.17</v>
+      </c>
+      <c r="CQ216" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="CR216" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="CS216" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="CT216" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU216" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="CV216" t="inlineStr"/>
+      <c r="CW216" t="inlineStr"/>
+      <c r="CX216" t="inlineStr"/>
+      <c r="CY216" t="inlineStr"/>
+      <c r="CZ216" t="inlineStr"/>
+      <c r="DA216" t="inlineStr"/>
+      <c r="DB216" t="inlineStr"/>
+      <c r="DC216" t="inlineStr"/>
+      <c r="DD216" t="inlineStr"/>
+      <c r="DE216" t="inlineStr"/>
+      <c r="DF216" t="inlineStr"/>
+      <c r="DG216" t="inlineStr"/>
+      <c r="DH216" t="inlineStr"/>
+      <c r="DI216" t="inlineStr"/>
+      <c r="DJ216" t="inlineStr"/>
+      <c r="DK216" t="inlineStr"/>
+      <c r="DL216" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL216"/>
+  <dimension ref="A1:DL217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69327,6 +69327,290 @@
       <c r="DK216" t="inlineStr"/>
       <c r="DL216" t="inlineStr"/>
     </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>20250916</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>3629</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1689</v>
+      </c>
+      <c r="D217" t="n">
+        <v>104</v>
+      </c>
+      <c r="E217" t="n">
+        <v>327</v>
+      </c>
+      <c r="F217" t="n">
+        <v>25</v>
+      </c>
+      <c r="G217" t="n">
+        <v>167</v>
+      </c>
+      <c r="H217" t="n">
+        <v>6</v>
+      </c>
+      <c r="I217" t="n">
+        <v>109</v>
+      </c>
+      <c r="J217" t="n">
+        <v>3</v>
+      </c>
+      <c r="K217" t="n">
+        <v>70</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="n">
+        <v>22</v>
+      </c>
+      <c r="N217" t="n">
+        <v>28</v>
+      </c>
+      <c r="O217" t="n">
+        <v>67</v>
+      </c>
+      <c r="P217" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="R217" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="S217" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="T217" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="U217" t="n">
+        <v>11</v>
+      </c>
+      <c r="V217" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>64.18000000000001</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>95.52</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>95.52</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>64.18000000000001</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="AW217" t="inlineStr"/>
+      <c r="AX217" t="inlineStr"/>
+      <c r="AY217" t="inlineStr"/>
+      <c r="AZ217" t="inlineStr"/>
+      <c r="BA217" t="inlineStr"/>
+      <c r="BB217" t="inlineStr"/>
+      <c r="BC217" t="inlineStr"/>
+      <c r="BD217" t="inlineStr"/>
+      <c r="BE217" t="inlineStr"/>
+      <c r="BF217" t="inlineStr"/>
+      <c r="BG217" t="inlineStr"/>
+      <c r="BH217" t="inlineStr"/>
+      <c r="BI217" t="inlineStr"/>
+      <c r="BJ217" t="inlineStr"/>
+      <c r="BK217" t="inlineStr"/>
+      <c r="BL217" t="inlineStr"/>
+      <c r="BM217" t="inlineStr"/>
+      <c r="BN217" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BQ217" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BR217" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="BS217" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BT217" t="n">
+        <v>-12.67</v>
+      </c>
+      <c r="BU217" t="n">
+        <v>-9.390000000000001</v>
+      </c>
+      <c r="BV217" t="n">
+        <v>-12.84</v>
+      </c>
+      <c r="BW217" t="n">
+        <v>-9.550000000000001</v>
+      </c>
+      <c r="BX217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY217" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BZ217" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CA217" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB217" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC217" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD217" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE217" t="n">
+        <v>28</v>
+      </c>
+      <c r="CF217" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="CG217" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CH217" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="CI217" t="n">
+        <v>-2.96</v>
+      </c>
+      <c r="CJ217" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="CK217" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="CL217" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="CM217" t="n">
+        <v>-5.82</v>
+      </c>
+      <c r="CN217" t="n">
+        <v>-4.62</v>
+      </c>
+      <c r="CO217" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="CP217" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="CQ217" t="n">
+        <v>60.71</v>
+      </c>
+      <c r="CR217" t="n">
+        <v>75</v>
+      </c>
+      <c r="CS217" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CT217" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="CU217" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CV217" t="inlineStr"/>
+      <c r="CW217" t="inlineStr"/>
+      <c r="CX217" t="inlineStr"/>
+      <c r="CY217" t="inlineStr"/>
+      <c r="CZ217" t="inlineStr"/>
+      <c r="DA217" t="inlineStr"/>
+      <c r="DB217" t="inlineStr"/>
+      <c r="DC217" t="inlineStr"/>
+      <c r="DD217" t="inlineStr"/>
+      <c r="DE217" t="inlineStr"/>
+      <c r="DF217" t="inlineStr"/>
+      <c r="DG217" t="inlineStr"/>
+      <c r="DH217" t="inlineStr"/>
+      <c r="DI217" t="inlineStr"/>
+      <c r="DJ217" t="inlineStr"/>
+      <c r="DK217" t="inlineStr"/>
+      <c r="DL217" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL217"/>
+  <dimension ref="A1:DL218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69611,6 +69611,290 @@
       <c r="DK217" t="inlineStr"/>
       <c r="DL217" t="inlineStr"/>
     </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>20250917</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2504</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2757</v>
+      </c>
+      <c r="D218" t="n">
+        <v>160</v>
+      </c>
+      <c r="E218" t="n">
+        <v>262</v>
+      </c>
+      <c r="F218" t="n">
+        <v>43</v>
+      </c>
+      <c r="G218" t="n">
+        <v>140</v>
+      </c>
+      <c r="H218" t="n">
+        <v>14</v>
+      </c>
+      <c r="I218" t="n">
+        <v>104</v>
+      </c>
+      <c r="J218" t="n">
+        <v>4</v>
+      </c>
+      <c r="K218" t="n">
+        <v>69</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>18</v>
+      </c>
+      <c r="N218" t="n">
+        <v>23</v>
+      </c>
+      <c r="O218" t="n">
+        <v>70</v>
+      </c>
+      <c r="P218" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="R218" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="S218" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="T218" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U218" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="V218" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="W218" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>75.70999999999999</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>62.86</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>91.43000000000001</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>75.70999999999999</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>62.86</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>59.09</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>59.09</v>
+      </c>
+      <c r="AW218" t="inlineStr"/>
+      <c r="AX218" t="inlineStr"/>
+      <c r="AY218" t="inlineStr"/>
+      <c r="AZ218" t="inlineStr"/>
+      <c r="BA218" t="inlineStr"/>
+      <c r="BB218" t="inlineStr"/>
+      <c r="BC218" t="inlineStr"/>
+      <c r="BD218" t="inlineStr"/>
+      <c r="BE218" t="inlineStr"/>
+      <c r="BF218" t="inlineStr"/>
+      <c r="BG218" t="inlineStr"/>
+      <c r="BH218" t="inlineStr"/>
+      <c r="BI218" t="inlineStr"/>
+      <c r="BJ218" t="inlineStr"/>
+      <c r="BK218" t="inlineStr"/>
+      <c r="BL218" t="inlineStr"/>
+      <c r="BM218" t="inlineStr"/>
+      <c r="BN218" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>-5.73</v>
+      </c>
+      <c r="BQ218" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BR218" t="n">
+        <v>-7.04</v>
+      </c>
+      <c r="BS218" t="n">
+        <v>-7.13</v>
+      </c>
+      <c r="BT218" t="n">
+        <v>-6.91</v>
+      </c>
+      <c r="BU218" t="n">
+        <v>-13.55</v>
+      </c>
+      <c r="BV218" t="n">
+        <v>-6.91</v>
+      </c>
+      <c r="BW218" t="n">
+        <v>-13.55</v>
+      </c>
+      <c r="BX218" t="n">
+        <v>100</v>
+      </c>
+      <c r="BY218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ218" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB218" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC218" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD218" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE218" t="n">
+        <v>28</v>
+      </c>
+      <c r="CF218" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="CG218" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="CH218" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="CI218" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="CJ218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="CK218" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="CL218" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="CM218" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="CN218" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="CO218" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="CP218" t="n">
+        <v>39.29</v>
+      </c>
+      <c r="CQ218" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="CR218" t="n">
+        <v>100</v>
+      </c>
+      <c r="CS218" t="n">
+        <v>96.43000000000001</v>
+      </c>
+      <c r="CT218" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="CU218" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="CV218" t="inlineStr"/>
+      <c r="CW218" t="inlineStr"/>
+      <c r="CX218" t="inlineStr"/>
+      <c r="CY218" t="inlineStr"/>
+      <c r="CZ218" t="inlineStr"/>
+      <c r="DA218" t="inlineStr"/>
+      <c r="DB218" t="inlineStr"/>
+      <c r="DC218" t="inlineStr"/>
+      <c r="DD218" t="inlineStr"/>
+      <c r="DE218" t="inlineStr"/>
+      <c r="DF218" t="inlineStr"/>
+      <c r="DG218" t="inlineStr"/>
+      <c r="DH218" t="inlineStr"/>
+      <c r="DI218" t="inlineStr"/>
+      <c r="DJ218" t="inlineStr"/>
+      <c r="DK218" t="inlineStr"/>
+      <c r="DL218" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL218"/>
+  <dimension ref="A1:DL219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69895,6 +69895,256 @@
       <c r="DK218" t="inlineStr"/>
       <c r="DL218" t="inlineStr"/>
     </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>20250918</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4350</v>
+      </c>
+      <c r="D219" t="n">
+        <v>43</v>
+      </c>
+      <c r="E219" t="n">
+        <v>195</v>
+      </c>
+      <c r="F219" t="n">
+        <v>138</v>
+      </c>
+      <c r="G219" t="n">
+        <v>112</v>
+      </c>
+      <c r="H219" t="n">
+        <v>25</v>
+      </c>
+      <c r="I219" t="n">
+        <v>80</v>
+      </c>
+      <c r="J219" t="n">
+        <v>6</v>
+      </c>
+      <c r="K219" t="n">
+        <v>55</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>23</v>
+      </c>
+      <c r="N219" t="n">
+        <v>62</v>
+      </c>
+      <c r="O219" t="n">
+        <v>69</v>
+      </c>
+      <c r="P219" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R219" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="S219" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="T219" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="U219" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="V219" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="W219" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="X219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>72.45999999999999</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>62.32</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>98.55</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>95.65000000000001</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>72.45999999999999</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>62.32</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>61.11</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="AW219" t="inlineStr"/>
+      <c r="AX219" t="inlineStr"/>
+      <c r="AY219" t="inlineStr"/>
+      <c r="AZ219" t="inlineStr"/>
+      <c r="BA219" t="inlineStr"/>
+      <c r="BB219" t="inlineStr"/>
+      <c r="BC219" t="inlineStr"/>
+      <c r="BD219" t="inlineStr"/>
+      <c r="BE219" t="inlineStr"/>
+      <c r="BF219" t="inlineStr"/>
+      <c r="BG219" t="inlineStr"/>
+      <c r="BH219" t="inlineStr"/>
+      <c r="BI219" t="inlineStr"/>
+      <c r="BJ219" t="inlineStr"/>
+      <c r="BK219" t="inlineStr"/>
+      <c r="BL219" t="inlineStr"/>
+      <c r="BM219" t="inlineStr"/>
+      <c r="BN219" t="inlineStr"/>
+      <c r="BO219" t="inlineStr"/>
+      <c r="BP219" t="inlineStr"/>
+      <c r="BQ219" t="inlineStr"/>
+      <c r="BR219" t="inlineStr"/>
+      <c r="BS219" t="inlineStr"/>
+      <c r="BT219" t="inlineStr"/>
+      <c r="BU219" t="inlineStr"/>
+      <c r="BV219" t="inlineStr"/>
+      <c r="BW219" t="inlineStr"/>
+      <c r="BX219" t="inlineStr"/>
+      <c r="BY219" t="inlineStr"/>
+      <c r="BZ219" t="inlineStr"/>
+      <c r="CA219" t="inlineStr"/>
+      <c r="CB219" t="inlineStr"/>
+      <c r="CC219" t="inlineStr"/>
+      <c r="CD219" t="inlineStr"/>
+      <c r="CE219" t="n">
+        <v>23</v>
+      </c>
+      <c r="CF219" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="CG219" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="CH219" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="CI219" t="n">
+        <v>-4.52</v>
+      </c>
+      <c r="CJ219" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="CK219" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="CL219" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="CM219" t="n">
+        <v>-4.75</v>
+      </c>
+      <c r="CN219" t="n">
+        <v>-5.93</v>
+      </c>
+      <c r="CO219" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="CP219" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="CQ219" t="n">
+        <v>39.13</v>
+      </c>
+      <c r="CR219" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="CS219" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="CT219" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="CU219" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CV219" t="inlineStr"/>
+      <c r="CW219" t="inlineStr"/>
+      <c r="CX219" t="inlineStr"/>
+      <c r="CY219" t="inlineStr"/>
+      <c r="CZ219" t="inlineStr"/>
+      <c r="DA219" t="inlineStr"/>
+      <c r="DB219" t="inlineStr"/>
+      <c r="DC219" t="inlineStr"/>
+      <c r="DD219" t="inlineStr"/>
+      <c r="DE219" t="inlineStr"/>
+      <c r="DF219" t="inlineStr"/>
+      <c r="DG219" t="inlineStr"/>
+      <c r="DH219" t="inlineStr"/>
+      <c r="DI219" t="inlineStr"/>
+      <c r="DJ219" t="inlineStr"/>
+      <c r="DK219" t="inlineStr"/>
+      <c r="DL219" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL219"/>
+  <dimension ref="A1:DL220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70145,6 +70145,256 @@
       <c r="DK219" t="inlineStr"/>
       <c r="DL219" t="inlineStr"/>
     </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>20250919</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>50</v>
+      </c>
+      <c r="L220" t="n">
+        <v>21</v>
+      </c>
+      <c r="M220" t="n">
+        <v>15</v>
+      </c>
+      <c r="N220" t="n">
+        <v>23</v>
+      </c>
+      <c r="O220" t="n">
+        <v>55</v>
+      </c>
+      <c r="P220" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="R220" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="S220" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="T220" t="n">
+        <v>-4.75</v>
+      </c>
+      <c r="U220" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="V220" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="W220" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="X220" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>34.55</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>76.36</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>34.55</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>-5.23</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>-6.96</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>34.78</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>34.78</v>
+      </c>
+      <c r="AW220" t="inlineStr"/>
+      <c r="AX220" t="inlineStr"/>
+      <c r="AY220" t="inlineStr"/>
+      <c r="AZ220" t="inlineStr"/>
+      <c r="BA220" t="inlineStr"/>
+      <c r="BB220" t="inlineStr"/>
+      <c r="BC220" t="inlineStr"/>
+      <c r="BD220" t="inlineStr"/>
+      <c r="BE220" t="inlineStr"/>
+      <c r="BF220" t="inlineStr"/>
+      <c r="BG220" t="inlineStr"/>
+      <c r="BH220" t="inlineStr"/>
+      <c r="BI220" t="inlineStr"/>
+      <c r="BJ220" t="inlineStr"/>
+      <c r="BK220" t="inlineStr"/>
+      <c r="BL220" t="inlineStr"/>
+      <c r="BM220" t="inlineStr"/>
+      <c r="BN220" t="inlineStr"/>
+      <c r="BO220" t="inlineStr"/>
+      <c r="BP220" t="inlineStr"/>
+      <c r="BQ220" t="inlineStr"/>
+      <c r="BR220" t="inlineStr"/>
+      <c r="BS220" t="inlineStr"/>
+      <c r="BT220" t="inlineStr"/>
+      <c r="BU220" t="inlineStr"/>
+      <c r="BV220" t="inlineStr"/>
+      <c r="BW220" t="inlineStr"/>
+      <c r="BX220" t="inlineStr"/>
+      <c r="BY220" t="inlineStr"/>
+      <c r="BZ220" t="inlineStr"/>
+      <c r="CA220" t="inlineStr"/>
+      <c r="CB220" t="inlineStr"/>
+      <c r="CC220" t="inlineStr"/>
+      <c r="CD220" t="inlineStr"/>
+      <c r="CE220" t="n">
+        <v>62</v>
+      </c>
+      <c r="CF220" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="CG220" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="CH220" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="CI220" t="n">
+        <v>-4.91</v>
+      </c>
+      <c r="CJ220" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="CK220" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="CL220" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="CM220" t="n">
+        <v>-5.33</v>
+      </c>
+      <c r="CN220" t="n">
+        <v>-7.05</v>
+      </c>
+      <c r="CO220" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="CP220" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="CQ220" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="CR220" t="n">
+        <v>80.65000000000001</v>
+      </c>
+      <c r="CS220" t="n">
+        <v>66.13</v>
+      </c>
+      <c r="CT220" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="CU220" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="CV220" t="inlineStr"/>
+      <c r="CW220" t="inlineStr"/>
+      <c r="CX220" t="inlineStr"/>
+      <c r="CY220" t="inlineStr"/>
+      <c r="CZ220" t="inlineStr"/>
+      <c r="DA220" t="inlineStr"/>
+      <c r="DB220" t="inlineStr"/>
+      <c r="DC220" t="inlineStr"/>
+      <c r="DD220" t="inlineStr"/>
+      <c r="DE220" t="inlineStr"/>
+      <c r="DF220" t="inlineStr"/>
+      <c r="DG220" t="inlineStr"/>
+      <c r="DH220" t="inlineStr"/>
+      <c r="DI220" t="inlineStr"/>
+      <c r="DJ220" t="inlineStr"/>
+      <c r="DK220" t="inlineStr"/>
+      <c r="DL220" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL220"/>
+  <dimension ref="A1:DL221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70152,31 +70152,31 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1911</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>3404</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J220" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K220" t="n">
         <v>50</v>
@@ -70395,6 +70395,290 @@
       <c r="DK220" t="inlineStr"/>
       <c r="DL220" t="inlineStr"/>
     </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>20250922</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2175</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3153</v>
+      </c>
+      <c r="D221" t="n">
+        <v>90</v>
+      </c>
+      <c r="E221" t="n">
+        <v>296</v>
+      </c>
+      <c r="F221" t="n">
+        <v>110</v>
+      </c>
+      <c r="G221" t="n">
+        <v>177</v>
+      </c>
+      <c r="H221" t="n">
+        <v>41</v>
+      </c>
+      <c r="I221" t="n">
+        <v>119</v>
+      </c>
+      <c r="J221" t="n">
+        <v>20</v>
+      </c>
+      <c r="K221" t="n">
+        <v>65</v>
+      </c>
+      <c r="L221" t="n">
+        <v>8</v>
+      </c>
+      <c r="M221" t="n">
+        <v>15</v>
+      </c>
+      <c r="N221" t="n">
+        <v>19</v>
+      </c>
+      <c r="O221" t="n">
+        <v>50</v>
+      </c>
+      <c r="P221" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R221" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="S221" t="n">
+        <v>-2.56</v>
+      </c>
+      <c r="T221" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="U221" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="V221" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="W221" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="X221" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>74</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>98</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>84</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>74</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>-3.71</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="AW221" t="inlineStr"/>
+      <c r="AX221" t="inlineStr"/>
+      <c r="AY221" t="inlineStr"/>
+      <c r="AZ221" t="inlineStr"/>
+      <c r="BA221" t="inlineStr"/>
+      <c r="BB221" t="inlineStr"/>
+      <c r="BC221" t="inlineStr"/>
+      <c r="BD221" t="inlineStr"/>
+      <c r="BE221" t="inlineStr"/>
+      <c r="BF221" t="inlineStr"/>
+      <c r="BG221" t="inlineStr"/>
+      <c r="BH221" t="inlineStr"/>
+      <c r="BI221" t="inlineStr"/>
+      <c r="BJ221" t="inlineStr"/>
+      <c r="BK221" t="inlineStr"/>
+      <c r="BL221" t="inlineStr"/>
+      <c r="BM221" t="inlineStr"/>
+      <c r="BN221" t="n">
+        <v>21</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="BQ221" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="BR221" t="n">
+        <v>-6.45</v>
+      </c>
+      <c r="BS221" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BT221" t="n">
+        <v>-12.42</v>
+      </c>
+      <c r="BU221" t="n">
+        <v>-11.53</v>
+      </c>
+      <c r="BV221" t="n">
+        <v>-13.71</v>
+      </c>
+      <c r="BW221" t="n">
+        <v>-12.84</v>
+      </c>
+      <c r="BX221" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="BY221" t="n">
+        <v>23.81</v>
+      </c>
+      <c r="BZ221" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="CA221" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB221" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC221" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD221" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE221" t="n">
+        <v>23</v>
+      </c>
+      <c r="CF221" t="n">
+        <v>-1.91</v>
+      </c>
+      <c r="CG221" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="CH221" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="CI221" t="n">
+        <v>-4.54</v>
+      </c>
+      <c r="CJ221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="CK221" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="CL221" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="CM221" t="n">
+        <v>-6.45</v>
+      </c>
+      <c r="CN221" t="n">
+        <v>-5.46</v>
+      </c>
+      <c r="CO221" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="CP221" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="CQ221" t="n">
+        <v>60.87</v>
+      </c>
+      <c r="CR221" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="CS221" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="CT221" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="CU221" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CV221" t="inlineStr"/>
+      <c r="CW221" t="inlineStr"/>
+      <c r="CX221" t="inlineStr"/>
+      <c r="CY221" t="inlineStr"/>
+      <c r="CZ221" t="inlineStr"/>
+      <c r="DA221" t="inlineStr"/>
+      <c r="DB221" t="inlineStr"/>
+      <c r="DC221" t="inlineStr"/>
+      <c r="DD221" t="inlineStr"/>
+      <c r="DE221" t="inlineStr"/>
+      <c r="DF221" t="inlineStr"/>
+      <c r="DG221" t="inlineStr"/>
+      <c r="DH221" t="inlineStr"/>
+      <c r="DI221" t="inlineStr"/>
+      <c r="DJ221" t="inlineStr"/>
+      <c r="DK221" t="inlineStr"/>
+      <c r="DL221" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL221"/>
+  <dimension ref="A1:DL222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70679,6 +70679,290 @@
       <c r="DK221" t="inlineStr"/>
       <c r="DL221" t="inlineStr"/>
     </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>20250923</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1108</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4266</v>
+      </c>
+      <c r="D222" t="n">
+        <v>50</v>
+      </c>
+      <c r="E222" t="n">
+        <v>164</v>
+      </c>
+      <c r="F222" t="n">
+        <v>248</v>
+      </c>
+      <c r="G222" t="n">
+        <v>92</v>
+      </c>
+      <c r="H222" t="n">
+        <v>57</v>
+      </c>
+      <c r="I222" t="n">
+        <v>71</v>
+      </c>
+      <c r="J222" t="n">
+        <v>21</v>
+      </c>
+      <c r="K222" t="n">
+        <v>50</v>
+      </c>
+      <c r="L222" t="n">
+        <v>9</v>
+      </c>
+      <c r="M222" t="n">
+        <v>24</v>
+      </c>
+      <c r="N222" t="n">
+        <v>17</v>
+      </c>
+      <c r="O222" t="n">
+        <v>65</v>
+      </c>
+      <c r="P222" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R222" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="S222" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="T222" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="U222" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="V222" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="W222" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>73.84999999999999</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>53.85</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>35.38</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>95.38</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>73.84999999999999</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>53.85</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>86.67</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW222" t="inlineStr"/>
+      <c r="AX222" t="inlineStr"/>
+      <c r="AY222" t="inlineStr"/>
+      <c r="AZ222" t="inlineStr"/>
+      <c r="BA222" t="inlineStr"/>
+      <c r="BB222" t="inlineStr"/>
+      <c r="BC222" t="inlineStr"/>
+      <c r="BD222" t="inlineStr"/>
+      <c r="BE222" t="inlineStr"/>
+      <c r="BF222" t="inlineStr"/>
+      <c r="BG222" t="inlineStr"/>
+      <c r="BH222" t="inlineStr"/>
+      <c r="BI222" t="inlineStr"/>
+      <c r="BJ222" t="inlineStr"/>
+      <c r="BK222" t="inlineStr"/>
+      <c r="BL222" t="inlineStr"/>
+      <c r="BM222" t="inlineStr"/>
+      <c r="BN222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>-4.88</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>-5.23</v>
+      </c>
+      <c r="BQ222" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="BR222" t="n">
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="BS222" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="BT222" t="n">
+        <v>-10.26</v>
+      </c>
+      <c r="BU222" t="n">
+        <v>-10.92</v>
+      </c>
+      <c r="BV222" t="n">
+        <v>-11.42</v>
+      </c>
+      <c r="BW222" t="n">
+        <v>-12.04</v>
+      </c>
+      <c r="BX222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY222" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BZ222" t="n">
+        <v>25</v>
+      </c>
+      <c r="CA222" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB222" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC222" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD222" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE222" t="n">
+        <v>19</v>
+      </c>
+      <c r="CF222" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CG222" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="CH222" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="CI222" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="CJ222" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="CK222" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="CL222" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="CM222" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="CN222" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="CO222" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="CP222" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="CQ222" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="CR222" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="CS222" t="n">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="CT222" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="CU222" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="CV222" t="inlineStr"/>
+      <c r="CW222" t="inlineStr"/>
+      <c r="CX222" t="inlineStr"/>
+      <c r="CY222" t="inlineStr"/>
+      <c r="CZ222" t="inlineStr"/>
+      <c r="DA222" t="inlineStr"/>
+      <c r="DB222" t="inlineStr"/>
+      <c r="DC222" t="inlineStr"/>
+      <c r="DD222" t="inlineStr"/>
+      <c r="DE222" t="inlineStr"/>
+      <c r="DF222" t="inlineStr"/>
+      <c r="DG222" t="inlineStr"/>
+      <c r="DH222" t="inlineStr"/>
+      <c r="DI222" t="inlineStr"/>
+      <c r="DJ222" t="inlineStr"/>
+      <c r="DK222" t="inlineStr"/>
+      <c r="DL222" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL222"/>
+  <dimension ref="A1:DL223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70963,6 +70963,290 @@
       <c r="DK222" t="inlineStr"/>
       <c r="DL222" t="inlineStr"/>
     </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>20250924</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>4458</v>
+      </c>
+      <c r="C223" t="n">
+        <v>853</v>
+      </c>
+      <c r="D223" t="n">
+        <v>111</v>
+      </c>
+      <c r="E223" t="n">
+        <v>343</v>
+      </c>
+      <c r="F223" t="n">
+        <v>50</v>
+      </c>
+      <c r="G223" t="n">
+        <v>168</v>
+      </c>
+      <c r="H223" t="n">
+        <v>23</v>
+      </c>
+      <c r="I223" t="n">
+        <v>115</v>
+      </c>
+      <c r="J223" t="n">
+        <v>13</v>
+      </c>
+      <c r="K223" t="n">
+        <v>78</v>
+      </c>
+      <c r="L223" t="n">
+        <v>7</v>
+      </c>
+      <c r="M223" t="n">
+        <v>16</v>
+      </c>
+      <c r="N223" t="n">
+        <v>28</v>
+      </c>
+      <c r="O223" t="n">
+        <v>50</v>
+      </c>
+      <c r="P223" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R223" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="S223" t="n">
+        <v>-2.49</v>
+      </c>
+      <c r="T223" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="U223" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="V223" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>59.18</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>95.92</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>91.84</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>59.18</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>60.87</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>95.65000000000001</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>60.87</v>
+      </c>
+      <c r="AW223" t="inlineStr"/>
+      <c r="AX223" t="inlineStr"/>
+      <c r="AY223" t="inlineStr"/>
+      <c r="AZ223" t="inlineStr"/>
+      <c r="BA223" t="inlineStr"/>
+      <c r="BB223" t="inlineStr"/>
+      <c r="BC223" t="inlineStr"/>
+      <c r="BD223" t="inlineStr"/>
+      <c r="BE223" t="inlineStr"/>
+      <c r="BF223" t="inlineStr"/>
+      <c r="BG223" t="inlineStr"/>
+      <c r="BH223" t="inlineStr"/>
+      <c r="BI223" t="inlineStr"/>
+      <c r="BJ223" t="inlineStr"/>
+      <c r="BK223" t="inlineStr"/>
+      <c r="BL223" t="inlineStr"/>
+      <c r="BM223" t="inlineStr"/>
+      <c r="BN223" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="BQ223" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BR223" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="BS223" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BT223" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="BU223" t="n">
+        <v>-9.470000000000001</v>
+      </c>
+      <c r="BV223" t="n">
+        <v>-11.51</v>
+      </c>
+      <c r="BW223" t="n">
+        <v>-10.59</v>
+      </c>
+      <c r="BX223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY223" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="BZ223" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="CA223" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB223" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC223" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD223" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE223" t="n">
+        <v>17</v>
+      </c>
+      <c r="CF223" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="CG223" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="CH223" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="CI223" t="n">
+        <v>-4</v>
+      </c>
+      <c r="CJ223" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="CK223" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="CL223" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="CM223" t="n">
+        <v>-5.46</v>
+      </c>
+      <c r="CN223" t="n">
+        <v>-2.68</v>
+      </c>
+      <c r="CO223" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="CP223" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="CQ223" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="CR223" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="CS223" t="n">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="CT223" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU223" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="CV223" t="inlineStr"/>
+      <c r="CW223" t="inlineStr"/>
+      <c r="CX223" t="inlineStr"/>
+      <c r="CY223" t="inlineStr"/>
+      <c r="CZ223" t="inlineStr"/>
+      <c r="DA223" t="inlineStr"/>
+      <c r="DB223" t="inlineStr"/>
+      <c r="DC223" t="inlineStr"/>
+      <c r="DD223" t="inlineStr"/>
+      <c r="DE223" t="inlineStr"/>
+      <c r="DF223" t="inlineStr"/>
+      <c r="DG223" t="inlineStr"/>
+      <c r="DH223" t="inlineStr"/>
+      <c r="DI223" t="inlineStr"/>
+      <c r="DJ223" t="inlineStr"/>
+      <c r="DK223" t="inlineStr"/>
+      <c r="DL223" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL223"/>
+  <dimension ref="A1:DL224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71247,6 +71247,290 @@
       <c r="DK223" t="inlineStr"/>
       <c r="DL223" t="inlineStr"/>
     </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>20250925</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1477</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3877</v>
+      </c>
+      <c r="D224" t="n">
+        <v>72</v>
+      </c>
+      <c r="E224" t="n">
+        <v>169</v>
+      </c>
+      <c r="F224" t="n">
+        <v>101</v>
+      </c>
+      <c r="G224" t="n">
+        <v>91</v>
+      </c>
+      <c r="H224" t="n">
+        <v>32</v>
+      </c>
+      <c r="I224" t="n">
+        <v>67</v>
+      </c>
+      <c r="J224" t="n">
+        <v>11</v>
+      </c>
+      <c r="K224" t="n">
+        <v>41</v>
+      </c>
+      <c r="L224" t="n">
+        <v>6</v>
+      </c>
+      <c r="M224" t="n">
+        <v>10</v>
+      </c>
+      <c r="N224" t="n">
+        <v>19</v>
+      </c>
+      <c r="O224" t="n">
+        <v>78</v>
+      </c>
+      <c r="P224" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R224" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="S224" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="T224" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="U224" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="V224" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X224" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>70.51000000000001</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>48.72</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>93.59</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>70.51000000000001</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>48.72</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="AW224" t="inlineStr"/>
+      <c r="AX224" t="inlineStr"/>
+      <c r="AY224" t="inlineStr"/>
+      <c r="AZ224" t="inlineStr"/>
+      <c r="BA224" t="inlineStr"/>
+      <c r="BB224" t="inlineStr"/>
+      <c r="BC224" t="inlineStr"/>
+      <c r="BD224" t="inlineStr"/>
+      <c r="BE224" t="inlineStr"/>
+      <c r="BF224" t="inlineStr"/>
+      <c r="BG224" t="inlineStr"/>
+      <c r="BH224" t="inlineStr"/>
+      <c r="BI224" t="inlineStr"/>
+      <c r="BJ224" t="inlineStr"/>
+      <c r="BK224" t="inlineStr"/>
+      <c r="BL224" t="inlineStr"/>
+      <c r="BM224" t="inlineStr"/>
+      <c r="BN224" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>-5.43</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>-5.21</v>
+      </c>
+      <c r="BQ224" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="BR224" t="n">
+        <v>-6.95</v>
+      </c>
+      <c r="BS224" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BT224" t="n">
+        <v>-10.53</v>
+      </c>
+      <c r="BU224" t="n">
+        <v>-10.36</v>
+      </c>
+      <c r="BV224" t="n">
+        <v>-11.61</v>
+      </c>
+      <c r="BW224" t="n">
+        <v>-11.46</v>
+      </c>
+      <c r="BX224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY224" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="BZ224" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CA224" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB224" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC224" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD224" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE224" t="n">
+        <v>28</v>
+      </c>
+      <c r="CF224" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="CG224" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="CH224" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="CI224" t="n">
+        <v>-3.44</v>
+      </c>
+      <c r="CJ224" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="CK224" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="CL224" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="CM224" t="n">
+        <v>-5.76</v>
+      </c>
+      <c r="CN224" t="n">
+        <v>-6.13</v>
+      </c>
+      <c r="CO224" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="CP224" t="n">
+        <v>32.14</v>
+      </c>
+      <c r="CQ224" t="n">
+        <v>46.43</v>
+      </c>
+      <c r="CR224" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="CS224" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="CT224" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU224" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="CV224" t="inlineStr"/>
+      <c r="CW224" t="inlineStr"/>
+      <c r="CX224" t="inlineStr"/>
+      <c r="CY224" t="inlineStr"/>
+      <c r="CZ224" t="inlineStr"/>
+      <c r="DA224" t="inlineStr"/>
+      <c r="DB224" t="inlineStr"/>
+      <c r="DC224" t="inlineStr"/>
+      <c r="DD224" t="inlineStr"/>
+      <c r="DE224" t="inlineStr"/>
+      <c r="DF224" t="inlineStr"/>
+      <c r="DG224" t="inlineStr"/>
+      <c r="DH224" t="inlineStr"/>
+      <c r="DI224" t="inlineStr"/>
+      <c r="DJ224" t="inlineStr"/>
+      <c r="DK224" t="inlineStr"/>
+      <c r="DL224" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL224"/>
+  <dimension ref="A1:DL225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71531,6 +71531,290 @@
       <c r="DK224" t="inlineStr"/>
       <c r="DL224" t="inlineStr"/>
     </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>20250926</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1805</v>
+      </c>
+      <c r="C225" t="n">
+        <v>3414</v>
+      </c>
+      <c r="D225" t="n">
+        <v>207</v>
+      </c>
+      <c r="E225" t="n">
+        <v>141</v>
+      </c>
+      <c r="F225" t="n">
+        <v>294</v>
+      </c>
+      <c r="G225" t="n">
+        <v>80</v>
+      </c>
+      <c r="H225" t="n">
+        <v>79</v>
+      </c>
+      <c r="I225" t="n">
+        <v>63</v>
+      </c>
+      <c r="J225" t="n">
+        <v>36</v>
+      </c>
+      <c r="K225" t="n">
+        <v>47</v>
+      </c>
+      <c r="L225" t="n">
+        <v>21</v>
+      </c>
+      <c r="M225" t="n">
+        <v>12</v>
+      </c>
+      <c r="N225" t="n">
+        <v>23</v>
+      </c>
+      <c r="O225" t="n">
+        <v>41</v>
+      </c>
+      <c r="P225" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="R225" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="S225" t="n">
+        <v>-2.63</v>
+      </c>
+      <c r="T225" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="U225" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="V225" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X225" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>39.02</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>75.61</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>39.02</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>50</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>30</v>
+      </c>
+      <c r="AW225" t="inlineStr"/>
+      <c r="AX225" t="inlineStr"/>
+      <c r="AY225" t="inlineStr"/>
+      <c r="AZ225" t="inlineStr"/>
+      <c r="BA225" t="inlineStr"/>
+      <c r="BB225" t="inlineStr"/>
+      <c r="BC225" t="inlineStr"/>
+      <c r="BD225" t="inlineStr"/>
+      <c r="BE225" t="inlineStr"/>
+      <c r="BF225" t="inlineStr"/>
+      <c r="BG225" t="inlineStr"/>
+      <c r="BH225" t="inlineStr"/>
+      <c r="BI225" t="inlineStr"/>
+      <c r="BJ225" t="inlineStr"/>
+      <c r="BK225" t="inlineStr"/>
+      <c r="BL225" t="inlineStr"/>
+      <c r="BM225" t="inlineStr"/>
+      <c r="BN225" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>-5.76</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>-8.68</v>
+      </c>
+      <c r="BQ225" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="BR225" t="n">
+        <v>-9.74</v>
+      </c>
+      <c r="BS225" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="BT225" t="n">
+        <v>-11.36</v>
+      </c>
+      <c r="BU225" t="n">
+        <v>-14.09</v>
+      </c>
+      <c r="BV225" t="n">
+        <v>-14.15</v>
+      </c>
+      <c r="BW225" t="n">
+        <v>-16.77</v>
+      </c>
+      <c r="BX225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ225" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="CA225" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB225" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC225" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD225" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE225" t="n">
+        <v>19</v>
+      </c>
+      <c r="CF225" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="CG225" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="CH225" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="CI225" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="CJ225" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="CK225" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="CL225" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="CM225" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="CN225" t="n">
+        <v>-4.83</v>
+      </c>
+      <c r="CO225" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="CP225" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="CQ225" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="CR225" t="n">
+        <v>78.95</v>
+      </c>
+      <c r="CS225" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="CT225" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="CU225" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="CV225" t="inlineStr"/>
+      <c r="CW225" t="inlineStr"/>
+      <c r="CX225" t="inlineStr"/>
+      <c r="CY225" t="inlineStr"/>
+      <c r="CZ225" t="inlineStr"/>
+      <c r="DA225" t="inlineStr"/>
+      <c r="DB225" t="inlineStr"/>
+      <c r="DC225" t="inlineStr"/>
+      <c r="DD225" t="inlineStr"/>
+      <c r="DE225" t="inlineStr"/>
+      <c r="DF225" t="inlineStr"/>
+      <c r="DG225" t="inlineStr"/>
+      <c r="DH225" t="inlineStr"/>
+      <c r="DI225" t="inlineStr"/>
+      <c r="DJ225" t="inlineStr"/>
+      <c r="DK225" t="inlineStr"/>
+      <c r="DL225" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL225"/>
+  <dimension ref="A1:DL226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71815,6 +71815,290 @@
       <c r="DK225" t="inlineStr"/>
       <c r="DL225" t="inlineStr"/>
     </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>20250929</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>3576</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1658</v>
+      </c>
+      <c r="D226" t="n">
+        <v>186</v>
+      </c>
+      <c r="E226" t="n">
+        <v>276</v>
+      </c>
+      <c r="F226" t="n">
+        <v>50</v>
+      </c>
+      <c r="G226" t="n">
+        <v>140</v>
+      </c>
+      <c r="H226" t="n">
+        <v>17</v>
+      </c>
+      <c r="I226" t="n">
+        <v>96</v>
+      </c>
+      <c r="J226" t="n">
+        <v>8</v>
+      </c>
+      <c r="K226" t="n">
+        <v>53</v>
+      </c>
+      <c r="L226" t="n">
+        <v>2</v>
+      </c>
+      <c r="M226" t="n">
+        <v>10</v>
+      </c>
+      <c r="N226" t="n">
+        <v>22</v>
+      </c>
+      <c r="O226" t="n">
+        <v>47</v>
+      </c>
+      <c r="P226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R226" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="S226" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="T226" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="U226" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="V226" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X226" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>57.45</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>46.81</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>95.73999999999999</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>91.48999999999999</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>57.45</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW226" t="inlineStr"/>
+      <c r="AX226" t="inlineStr"/>
+      <c r="AY226" t="inlineStr"/>
+      <c r="AZ226" t="inlineStr"/>
+      <c r="BA226" t="inlineStr"/>
+      <c r="BB226" t="inlineStr"/>
+      <c r="BC226" t="inlineStr"/>
+      <c r="BD226" t="inlineStr"/>
+      <c r="BE226" t="inlineStr"/>
+      <c r="BF226" t="inlineStr"/>
+      <c r="BG226" t="inlineStr"/>
+      <c r="BH226" t="inlineStr"/>
+      <c r="BI226" t="inlineStr"/>
+      <c r="BJ226" t="inlineStr"/>
+      <c r="BK226" t="inlineStr"/>
+      <c r="BL226" t="inlineStr"/>
+      <c r="BM226" t="inlineStr"/>
+      <c r="BN226" t="n">
+        <v>21</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="BQ226" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BR226" t="n">
+        <v>-4.76</v>
+      </c>
+      <c r="BS226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BT226" t="n">
+        <v>-8.859999999999999</v>
+      </c>
+      <c r="BU226" t="n">
+        <v>-7.88</v>
+      </c>
+      <c r="BV226" t="n">
+        <v>-10.33</v>
+      </c>
+      <c r="BW226" t="n">
+        <v>-9.369999999999999</v>
+      </c>
+      <c r="BX226" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="BY226" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BZ226" t="n">
+        <v>52.38</v>
+      </c>
+      <c r="CA226" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="CB226" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CC226" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD226" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="CE226" t="n">
+        <v>23</v>
+      </c>
+      <c r="CF226" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="CG226" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CH226" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="CI226" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="CJ226" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="CK226" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="CL226" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="CM226" t="n">
+        <v>-4.89</v>
+      </c>
+      <c r="CN226" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="CO226" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="CP226" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="CQ226" t="n">
+        <v>65.22</v>
+      </c>
+      <c r="CR226" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="CS226" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="CT226" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU226" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CV226" t="inlineStr"/>
+      <c r="CW226" t="inlineStr"/>
+      <c r="CX226" t="inlineStr"/>
+      <c r="CY226" t="inlineStr"/>
+      <c r="CZ226" t="inlineStr"/>
+      <c r="DA226" t="inlineStr"/>
+      <c r="DB226" t="inlineStr"/>
+      <c r="DC226" t="inlineStr"/>
+      <c r="DD226" t="inlineStr"/>
+      <c r="DE226" t="inlineStr"/>
+      <c r="DF226" t="inlineStr"/>
+      <c r="DG226" t="inlineStr"/>
+      <c r="DH226" t="inlineStr"/>
+      <c r="DI226" t="inlineStr"/>
+      <c r="DJ226" t="inlineStr"/>
+      <c r="DK226" t="inlineStr"/>
+      <c r="DL226" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL226"/>
+  <dimension ref="A1:DL227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72099,6 +72099,290 @@
       <c r="DK226" t="inlineStr"/>
       <c r="DL226" t="inlineStr"/>
     </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>20250930</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2657</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2578</v>
+      </c>
+      <c r="D227" t="n">
+        <v>188</v>
+      </c>
+      <c r="E227" t="n">
+        <v>254</v>
+      </c>
+      <c r="F227" t="n">
+        <v>48</v>
+      </c>
+      <c r="G227" t="n">
+        <v>129</v>
+      </c>
+      <c r="H227" t="n">
+        <v>13</v>
+      </c>
+      <c r="I227" t="n">
+        <v>81</v>
+      </c>
+      <c r="J227" t="n">
+        <v>10</v>
+      </c>
+      <c r="K227" t="n">
+        <v>52</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="n">
+        <v>12</v>
+      </c>
+      <c r="N227" t="n">
+        <v>23</v>
+      </c>
+      <c r="O227" t="n">
+        <v>53</v>
+      </c>
+      <c r="P227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R227" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="S227" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="T227" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="U227" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="V227" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="W227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>66.04000000000001</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>64.15000000000001</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>98.11</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>94.34</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>66.04000000000001</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>64.15000000000001</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>70</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>90</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>80</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>70</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW227" t="inlineStr"/>
+      <c r="AX227" t="inlineStr"/>
+      <c r="AY227" t="inlineStr"/>
+      <c r="AZ227" t="inlineStr"/>
+      <c r="BA227" t="inlineStr"/>
+      <c r="BB227" t="inlineStr"/>
+      <c r="BC227" t="inlineStr"/>
+      <c r="BD227" t="inlineStr"/>
+      <c r="BE227" t="inlineStr"/>
+      <c r="BF227" t="inlineStr"/>
+      <c r="BG227" t="inlineStr"/>
+      <c r="BH227" t="inlineStr"/>
+      <c r="BI227" t="inlineStr"/>
+      <c r="BJ227" t="inlineStr"/>
+      <c r="BK227" t="inlineStr"/>
+      <c r="BL227" t="inlineStr"/>
+      <c r="BM227" t="inlineStr"/>
+      <c r="BN227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>-4.88</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>-7.79</v>
+      </c>
+      <c r="BQ227" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="BR227" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="BS227" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="BT227" t="n">
+        <v>-6.17</v>
+      </c>
+      <c r="BU227" t="n">
+        <v>-9.01</v>
+      </c>
+      <c r="BV227" t="n">
+        <v>-8.85</v>
+      </c>
+      <c r="BW227" t="n">
+        <v>-11.56</v>
+      </c>
+      <c r="BX227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ227" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA227" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB227" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC227" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD227" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE227" t="n">
+        <v>22</v>
+      </c>
+      <c r="CF227" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="CG227" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="CH227" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="CI227" t="n">
+        <v>-2.44</v>
+      </c>
+      <c r="CJ227" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="CK227" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="CL227" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="CM227" t="n">
+        <v>-4.28</v>
+      </c>
+      <c r="CN227" t="n">
+        <v>-4.49</v>
+      </c>
+      <c r="CO227" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="CP227" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="CQ227" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="CR227" t="n">
+        <v>77.27</v>
+      </c>
+      <c r="CS227" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="CT227" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="CU227" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="CV227" t="inlineStr"/>
+      <c r="CW227" t="inlineStr"/>
+      <c r="CX227" t="inlineStr"/>
+      <c r="CY227" t="inlineStr"/>
+      <c r="CZ227" t="inlineStr"/>
+      <c r="DA227" t="inlineStr"/>
+      <c r="DB227" t="inlineStr"/>
+      <c r="DC227" t="inlineStr"/>
+      <c r="DD227" t="inlineStr"/>
+      <c r="DE227" t="inlineStr"/>
+      <c r="DF227" t="inlineStr"/>
+      <c r="DG227" t="inlineStr"/>
+      <c r="DH227" t="inlineStr"/>
+      <c r="DI227" t="inlineStr"/>
+      <c r="DJ227" t="inlineStr"/>
+      <c r="DK227" t="inlineStr"/>
+      <c r="DL227" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL227"/>
+  <dimension ref="A1:DL228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72383,6 +72383,290 @@
       <c r="DK227" t="inlineStr"/>
       <c r="DL227" t="inlineStr"/>
     </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>20251009</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>3115</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2186</v>
+      </c>
+      <c r="D228" t="n">
+        <v>118</v>
+      </c>
+      <c r="E228" t="n">
+        <v>415</v>
+      </c>
+      <c r="F228" t="n">
+        <v>124</v>
+      </c>
+      <c r="G228" t="n">
+        <v>216</v>
+      </c>
+      <c r="H228" t="n">
+        <v>52</v>
+      </c>
+      <c r="I228" t="n">
+        <v>140</v>
+      </c>
+      <c r="J228" t="n">
+        <v>32</v>
+      </c>
+      <c r="K228" t="n">
+        <v>88</v>
+      </c>
+      <c r="L228" t="n">
+        <v>18</v>
+      </c>
+      <c r="M228" t="n">
+        <v>13</v>
+      </c>
+      <c r="N228" t="n">
+        <v>34</v>
+      </c>
+      <c r="O228" t="n">
+        <v>52</v>
+      </c>
+      <c r="P228" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R228" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="S228" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="T228" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="U228" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="V228" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="W228" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="X228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>70.59</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>60.78</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>94.12</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>80.39</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>70.59</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>60.78</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>75</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>75</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW228" t="inlineStr"/>
+      <c r="AX228" t="inlineStr"/>
+      <c r="AY228" t="inlineStr"/>
+      <c r="AZ228" t="inlineStr"/>
+      <c r="BA228" t="inlineStr"/>
+      <c r="BB228" t="inlineStr"/>
+      <c r="BC228" t="inlineStr"/>
+      <c r="BD228" t="inlineStr"/>
+      <c r="BE228" t="inlineStr"/>
+      <c r="BF228" t="inlineStr"/>
+      <c r="BG228" t="inlineStr"/>
+      <c r="BH228" t="inlineStr"/>
+      <c r="BI228" t="inlineStr"/>
+      <c r="BJ228" t="inlineStr"/>
+      <c r="BK228" t="inlineStr"/>
+      <c r="BL228" t="inlineStr"/>
+      <c r="BM228" t="inlineStr"/>
+      <c r="BN228" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BQ228" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="BR228" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="BS228" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="BT228" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="BU228" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BV228" t="n">
+        <v>-7.11</v>
+      </c>
+      <c r="BW228" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BX228" t="n">
+        <v>100</v>
+      </c>
+      <c r="BY228" t="n">
+        <v>100</v>
+      </c>
+      <c r="BZ228" t="n">
+        <v>100</v>
+      </c>
+      <c r="CA228" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB228" t="n">
+        <v>100</v>
+      </c>
+      <c r="CC228" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD228" t="n">
+        <v>100</v>
+      </c>
+      <c r="CE228" t="n">
+        <v>23</v>
+      </c>
+      <c r="CF228" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="CG228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="CH228" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="CI228" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="CJ228" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="CK228" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="CL228" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="CM228" t="n">
+        <v>-4.02</v>
+      </c>
+      <c r="CN228" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="CO228" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="CP228" t="n">
+        <v>65.22</v>
+      </c>
+      <c r="CQ228" t="n">
+        <v>60.87</v>
+      </c>
+      <c r="CR228" t="n">
+        <v>82.61</v>
+      </c>
+      <c r="CS228" t="n">
+        <v>82.61</v>
+      </c>
+      <c r="CT228" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="CU228" t="n">
+        <v>34.78</v>
+      </c>
+      <c r="CV228" t="inlineStr"/>
+      <c r="CW228" t="inlineStr"/>
+      <c r="CX228" t="inlineStr"/>
+      <c r="CY228" t="inlineStr"/>
+      <c r="CZ228" t="inlineStr"/>
+      <c r="DA228" t="inlineStr"/>
+      <c r="DB228" t="inlineStr"/>
+      <c r="DC228" t="inlineStr"/>
+      <c r="DD228" t="inlineStr"/>
+      <c r="DE228" t="inlineStr"/>
+      <c r="DF228" t="inlineStr"/>
+      <c r="DG228" t="inlineStr"/>
+      <c r="DH228" t="inlineStr"/>
+      <c r="DI228" t="inlineStr"/>
+      <c r="DJ228" t="inlineStr"/>
+      <c r="DK228" t="inlineStr"/>
+      <c r="DL228" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL228"/>
+  <dimension ref="A1:DL229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72667,6 +72667,290 @@
       <c r="DK228" t="inlineStr"/>
       <c r="DL228" t="inlineStr"/>
     </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>20251010</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2774</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2536</v>
+      </c>
+      <c r="D229" t="n">
+        <v>112</v>
+      </c>
+      <c r="E229" t="n">
+        <v>176</v>
+      </c>
+      <c r="F229" t="n">
+        <v>392</v>
+      </c>
+      <c r="G229" t="n">
+        <v>102</v>
+      </c>
+      <c r="H229" t="n">
+        <v>154</v>
+      </c>
+      <c r="I229" t="n">
+        <v>72</v>
+      </c>
+      <c r="J229" t="n">
+        <v>51</v>
+      </c>
+      <c r="K229" t="n">
+        <v>56</v>
+      </c>
+      <c r="L229" t="n">
+        <v>6</v>
+      </c>
+      <c r="M229" t="n">
+        <v>16</v>
+      </c>
+      <c r="N229" t="n">
+        <v>27</v>
+      </c>
+      <c r="O229" t="n">
+        <v>88</v>
+      </c>
+      <c r="P229" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R229" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="S229" t="n">
+        <v>-1.91</v>
+      </c>
+      <c r="T229" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="U229" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="V229" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X229" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>52.27</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>44.32</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>92.05</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>89.77</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>52.27</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="AW229" t="inlineStr"/>
+      <c r="AX229" t="inlineStr"/>
+      <c r="AY229" t="inlineStr"/>
+      <c r="AZ229" t="inlineStr"/>
+      <c r="BA229" t="inlineStr"/>
+      <c r="BB229" t="inlineStr"/>
+      <c r="BC229" t="inlineStr"/>
+      <c r="BD229" t="inlineStr"/>
+      <c r="BE229" t="inlineStr"/>
+      <c r="BF229" t="inlineStr"/>
+      <c r="BG229" t="inlineStr"/>
+      <c r="BH229" t="inlineStr"/>
+      <c r="BI229" t="inlineStr"/>
+      <c r="BJ229" t="inlineStr"/>
+      <c r="BK229" t="inlineStr"/>
+      <c r="BL229" t="inlineStr"/>
+      <c r="BM229" t="inlineStr"/>
+      <c r="BN229" t="n">
+        <v>18</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>-5.11</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>-5.65</v>
+      </c>
+      <c r="BQ229" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="BR229" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="BS229" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="BT229" t="n">
+        <v>-11.76</v>
+      </c>
+      <c r="BU229" t="n">
+        <v>-12.17</v>
+      </c>
+      <c r="BV229" t="n">
+        <v>-12.05</v>
+      </c>
+      <c r="BW229" t="n">
+        <v>-12.45</v>
+      </c>
+      <c r="BX229" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="BY229" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="BZ229" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CA229" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB229" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="CC229" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD229" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="CE229" t="n">
+        <v>34</v>
+      </c>
+      <c r="CF229" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="CG229" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="CH229" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="CI229" t="n">
+        <v>-5.14</v>
+      </c>
+      <c r="CJ229" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="CK229" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="CL229" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="CM229" t="n">
+        <v>-5.71</v>
+      </c>
+      <c r="CN229" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="CO229" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="CP229" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="CQ229" t="n">
+        <v>44.12</v>
+      </c>
+      <c r="CR229" t="n">
+        <v>70.59</v>
+      </c>
+      <c r="CS229" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="CT229" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="CU229" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="CV229" t="inlineStr"/>
+      <c r="CW229" t="inlineStr"/>
+      <c r="CX229" t="inlineStr"/>
+      <c r="CY229" t="inlineStr"/>
+      <c r="CZ229" t="inlineStr"/>
+      <c r="DA229" t="inlineStr"/>
+      <c r="DB229" t="inlineStr"/>
+      <c r="DC229" t="inlineStr"/>
+      <c r="DD229" t="inlineStr"/>
+      <c r="DE229" t="inlineStr"/>
+      <c r="DF229" t="inlineStr"/>
+      <c r="DG229" t="inlineStr"/>
+      <c r="DH229" t="inlineStr"/>
+      <c r="DI229" t="inlineStr"/>
+      <c r="DJ229" t="inlineStr"/>
+      <c r="DK229" t="inlineStr"/>
+      <c r="DL229" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL229"/>
+  <dimension ref="A1:DL230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72951,6 +72951,290 @@
       <c r="DK229" t="inlineStr"/>
       <c r="DL229" t="inlineStr"/>
     </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>20251013</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1684</v>
+      </c>
+      <c r="C230" t="n">
+        <v>3634</v>
+      </c>
+      <c r="D230" t="n">
+        <v>106</v>
+      </c>
+      <c r="E230" t="n">
+        <v>246</v>
+      </c>
+      <c r="F230" t="n">
+        <v>103</v>
+      </c>
+      <c r="G230" t="n">
+        <v>149</v>
+      </c>
+      <c r="H230" t="n">
+        <v>28</v>
+      </c>
+      <c r="I230" t="n">
+        <v>106</v>
+      </c>
+      <c r="J230" t="n">
+        <v>8</v>
+      </c>
+      <c r="K230" t="n">
+        <v>59</v>
+      </c>
+      <c r="L230" t="n">
+        <v>3</v>
+      </c>
+      <c r="M230" t="n">
+        <v>20</v>
+      </c>
+      <c r="N230" t="n">
+        <v>20</v>
+      </c>
+      <c r="O230" t="n">
+        <v>56</v>
+      </c>
+      <c r="P230" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R230" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="S230" t="n">
+        <v>-3.67</v>
+      </c>
+      <c r="T230" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U230" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="V230" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="W230" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="X230" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>91.06999999999999</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>92.86</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>-4.14</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>75</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="AW230" t="inlineStr"/>
+      <c r="AX230" t="inlineStr"/>
+      <c r="AY230" t="inlineStr"/>
+      <c r="AZ230" t="inlineStr"/>
+      <c r="BA230" t="inlineStr"/>
+      <c r="BB230" t="inlineStr"/>
+      <c r="BC230" t="inlineStr"/>
+      <c r="BD230" t="inlineStr"/>
+      <c r="BE230" t="inlineStr"/>
+      <c r="BF230" t="inlineStr"/>
+      <c r="BG230" t="inlineStr"/>
+      <c r="BH230" t="inlineStr"/>
+      <c r="BI230" t="inlineStr"/>
+      <c r="BJ230" t="inlineStr"/>
+      <c r="BK230" t="inlineStr"/>
+      <c r="BL230" t="inlineStr"/>
+      <c r="BM230" t="inlineStr"/>
+      <c r="BN230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>-8.56</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BQ230" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="BR230" t="n">
+        <v>-8.76</v>
+      </c>
+      <c r="BS230" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="BT230" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="BU230" t="n">
+        <v>-2.62</v>
+      </c>
+      <c r="BV230" t="n">
+        <v>-13.6</v>
+      </c>
+      <c r="BW230" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="BX230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY230" t="n">
+        <v>50</v>
+      </c>
+      <c r="BZ230" t="n">
+        <v>100</v>
+      </c>
+      <c r="CA230" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB230" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CC230" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD230" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CE230" t="n">
+        <v>27</v>
+      </c>
+      <c r="CF230" t="n">
+        <v>-5.45</v>
+      </c>
+      <c r="CG230" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="CH230" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="CI230" t="n">
+        <v>-6.58</v>
+      </c>
+      <c r="CJ230" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="CK230" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="CL230" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="CM230" t="n">
+        <v>-9.27</v>
+      </c>
+      <c r="CN230" t="n">
+        <v>-4.46</v>
+      </c>
+      <c r="CO230" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP230" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="CQ230" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="CR230" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="CS230" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="CT230" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU230" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="CV230" t="inlineStr"/>
+      <c r="CW230" t="inlineStr"/>
+      <c r="CX230" t="inlineStr"/>
+      <c r="CY230" t="inlineStr"/>
+      <c r="CZ230" t="inlineStr"/>
+      <c r="DA230" t="inlineStr"/>
+      <c r="DB230" t="inlineStr"/>
+      <c r="DC230" t="inlineStr"/>
+      <c r="DD230" t="inlineStr"/>
+      <c r="DE230" t="inlineStr"/>
+      <c r="DF230" t="inlineStr"/>
+      <c r="DG230" t="inlineStr"/>
+      <c r="DH230" t="inlineStr"/>
+      <c r="DI230" t="inlineStr"/>
+      <c r="DJ230" t="inlineStr"/>
+      <c r="DK230" t="inlineStr"/>
+      <c r="DL230" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CE9E67-B667-4C2A-8012-23250A0E3AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F8F84-8126-489B-8F49-B885A7527848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1463,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DX230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CZ190" workbookViewId="0">
-      <selection activeCell="DS200" sqref="DS200"/>
+    <sheetView tabSelected="1" topLeftCell="CZ196" workbookViewId="0">
+      <selection activeCell="DX232" sqref="DX232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -64424,8 +64424,14 @@
       <c r="CU209">
         <v>2.94</v>
       </c>
+      <c r="DM209">
+        <v>4.37</v>
+      </c>
+      <c r="DN209">
+        <v>2.5099999999999998</v>
+      </c>
       <c r="DO209">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="DP209">
         <v>3.7</v>
@@ -65838,8 +65844,14 @@
       <c r="CU214">
         <v>27.27</v>
       </c>
+      <c r="DM214">
+        <v>2.64</v>
+      </c>
+      <c r="DN214">
+        <v>2.76</v>
+      </c>
       <c r="DO214">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DP214">
         <v>3.35</v>
@@ -66400,8 +66412,14 @@
       <c r="CU216">
         <v>4.3499999999999996</v>
       </c>
+      <c r="DM216">
+        <v>2.13</v>
+      </c>
+      <c r="DN216">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="DO216">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DP216">
         <v>1.9</v>
@@ -68280,8 +68298,14 @@
       <c r="CU223">
         <v>17.649999999999999</v>
       </c>
+      <c r="DM223">
+        <v>2.46</v>
+      </c>
+      <c r="DN223">
+        <v>4.67</v>
+      </c>
       <c r="DO223">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="DP223">
         <v>3.9</v>
@@ -68860,11 +68884,14 @@
       <c r="DR225">
         <v>3</v>
       </c>
+      <c r="DS225">
+        <v>-2.2200000000000002</v>
+      </c>
       <c r="DT225">
         <v>-5.25</v>
       </c>
       <c r="DU225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DV225">
         <v>0.39</v>
@@ -69691,8 +69718,14 @@
       <c r="CU228">
         <v>34.78</v>
       </c>
+      <c r="DM228">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="DN228">
+        <v>0.97</v>
+      </c>
       <c r="DO228">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="DP228">
         <v>3.53</v>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX231"/>
+  <dimension ref="A1:DX232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76963,6 +76963,326 @@
         <v>12</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>20251015</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>4333</v>
+      </c>
+      <c r="C232" t="n">
+        <v>950</v>
+      </c>
+      <c r="D232" t="n">
+        <v>141</v>
+      </c>
+      <c r="E232" t="n">
+        <v>360</v>
+      </c>
+      <c r="F232" t="n">
+        <v>51</v>
+      </c>
+      <c r="G232" t="n">
+        <v>154</v>
+      </c>
+      <c r="H232" t="n">
+        <v>23</v>
+      </c>
+      <c r="I232" t="n">
+        <v>105</v>
+      </c>
+      <c r="J232" t="n">
+        <v>13</v>
+      </c>
+      <c r="K232" t="n">
+        <v>65</v>
+      </c>
+      <c r="L232" t="n">
+        <v>4</v>
+      </c>
+      <c r="M232" t="n">
+        <v>10</v>
+      </c>
+      <c r="N232" t="n">
+        <v>14</v>
+      </c>
+      <c r="O232" t="n">
+        <v>37</v>
+      </c>
+      <c r="P232" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R232" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="S232" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="T232" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="U232" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="V232" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="W232" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="X232" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>75.68000000000001</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>51.35</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>94.59</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>81.08</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>75.68000000000001</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>51.35</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>-6.88</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>-5.51</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>92.86</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="AW232" t="inlineStr"/>
+      <c r="AX232" t="inlineStr"/>
+      <c r="AY232" t="inlineStr"/>
+      <c r="AZ232" t="inlineStr"/>
+      <c r="BA232" t="inlineStr"/>
+      <c r="BB232" t="inlineStr"/>
+      <c r="BC232" t="inlineStr"/>
+      <c r="BD232" t="inlineStr"/>
+      <c r="BE232" t="inlineStr"/>
+      <c r="BF232" t="inlineStr"/>
+      <c r="BG232" t="inlineStr"/>
+      <c r="BH232" t="inlineStr"/>
+      <c r="BI232" t="inlineStr"/>
+      <c r="BJ232" t="inlineStr"/>
+      <c r="BK232" t="inlineStr"/>
+      <c r="BL232" t="inlineStr"/>
+      <c r="BM232" t="inlineStr"/>
+      <c r="BN232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>-4.14</v>
+      </c>
+      <c r="BP232" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BQ232" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="BR232" t="n">
+        <v>-5.54</v>
+      </c>
+      <c r="BS232" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="BT232" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="BU232" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="BV232" t="n">
+        <v>-9.59</v>
+      </c>
+      <c r="BW232" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="BX232" t="n">
+        <v>50</v>
+      </c>
+      <c r="BY232" t="n">
+        <v>100</v>
+      </c>
+      <c r="BZ232" t="n">
+        <v>100</v>
+      </c>
+      <c r="CA232" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB232" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC232" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD232" t="n">
+        <v>50</v>
+      </c>
+      <c r="CE232" t="n">
+        <v>44</v>
+      </c>
+      <c r="CF232" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="CG232" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="CH232" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="CI232" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="CJ232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="CK232" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CL232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="CM232" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="CN232" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="CO232" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="CP232" t="n">
+        <v>47.73</v>
+      </c>
+      <c r="CQ232" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="CR232" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="CS232" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="CT232" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="CU232" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="CV232" t="inlineStr"/>
+      <c r="CW232" t="inlineStr"/>
+      <c r="CX232" t="inlineStr"/>
+      <c r="CY232" t="inlineStr"/>
+      <c r="CZ232" t="inlineStr"/>
+      <c r="DA232" t="inlineStr"/>
+      <c r="DB232" t="inlineStr"/>
+      <c r="DC232" t="inlineStr"/>
+      <c r="DD232" t="inlineStr"/>
+      <c r="DE232" t="inlineStr"/>
+      <c r="DF232" t="inlineStr"/>
+      <c r="DG232" t="inlineStr"/>
+      <c r="DH232" t="inlineStr"/>
+      <c r="DI232" t="inlineStr"/>
+      <c r="DJ232" t="inlineStr"/>
+      <c r="DK232" t="inlineStr"/>
+      <c r="DL232" t="inlineStr"/>
+      <c r="DM232" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="DN232" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="DO232" t="n">
+        <v>22</v>
+      </c>
+      <c r="DP232" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="DQ232" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="DR232" t="n">
+        <v>3</v>
+      </c>
+      <c r="DS232" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="DT232" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="DU232" t="n">
+        <v>4</v>
+      </c>
+      <c r="DV232" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="DW232" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="DX232" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX232"/>
+  <dimension ref="A1:DX233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77283,6 +77283,326 @@
         <v>8</v>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>20251016</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C233" t="n">
+        <v>4171</v>
+      </c>
+      <c r="D233" t="n">
+        <v>80</v>
+      </c>
+      <c r="E233" t="n">
+        <v>133</v>
+      </c>
+      <c r="F233" t="n">
+        <v>125</v>
+      </c>
+      <c r="G233" t="n">
+        <v>75</v>
+      </c>
+      <c r="H233" t="n">
+        <v>35</v>
+      </c>
+      <c r="I233" t="n">
+        <v>55</v>
+      </c>
+      <c r="J233" t="n">
+        <v>14</v>
+      </c>
+      <c r="K233" t="n">
+        <v>40</v>
+      </c>
+      <c r="L233" t="n">
+        <v>5</v>
+      </c>
+      <c r="M233" t="n">
+        <v>16</v>
+      </c>
+      <c r="N233" t="n">
+        <v>18</v>
+      </c>
+      <c r="O233" t="n">
+        <v>65</v>
+      </c>
+      <c r="P233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R233" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="S233" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="T233" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="U233" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="V233" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="W233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="X233" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>43.08</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>43.08</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>70</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>90</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>70</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW233" t="inlineStr"/>
+      <c r="AX233" t="inlineStr"/>
+      <c r="AY233" t="inlineStr"/>
+      <c r="AZ233" t="inlineStr"/>
+      <c r="BA233" t="inlineStr"/>
+      <c r="BB233" t="inlineStr"/>
+      <c r="BC233" t="inlineStr"/>
+      <c r="BD233" t="inlineStr"/>
+      <c r="BE233" t="inlineStr"/>
+      <c r="BF233" t="inlineStr"/>
+      <c r="BG233" t="inlineStr"/>
+      <c r="BH233" t="inlineStr"/>
+      <c r="BI233" t="inlineStr"/>
+      <c r="BJ233" t="inlineStr"/>
+      <c r="BK233" t="inlineStr"/>
+      <c r="BL233" t="inlineStr"/>
+      <c r="BM233" t="inlineStr"/>
+      <c r="BN233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO233" t="n">
+        <v>-4.23</v>
+      </c>
+      <c r="BP233" t="n">
+        <v>-4.89</v>
+      </c>
+      <c r="BQ233" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="BR233" t="n">
+        <v>-6.21</v>
+      </c>
+      <c r="BS233" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="BT233" t="n">
+        <v>-7.98</v>
+      </c>
+      <c r="BU233" t="n">
+        <v>-8.619999999999999</v>
+      </c>
+      <c r="BV233" t="n">
+        <v>-9.65</v>
+      </c>
+      <c r="BW233" t="n">
+        <v>-10.25</v>
+      </c>
+      <c r="BX233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ233" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA233" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB233" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC233" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD233" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE233" t="n">
+        <v>14</v>
+      </c>
+      <c r="CF233" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="CG233" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="CH233" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="CI233" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="CJ233" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="CK233" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="CL233" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="CM233" t="n">
+        <v>-6.88</v>
+      </c>
+      <c r="CN233" t="n">
+        <v>-5.68</v>
+      </c>
+      <c r="CO233" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CP233" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="CQ233" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="CR233" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="CS233" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="CT233" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU233" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="CV233" t="inlineStr"/>
+      <c r="CW233" t="inlineStr"/>
+      <c r="CX233" t="inlineStr"/>
+      <c r="CY233" t="inlineStr"/>
+      <c r="CZ233" t="inlineStr"/>
+      <c r="DA233" t="inlineStr"/>
+      <c r="DB233" t="inlineStr"/>
+      <c r="DC233" t="inlineStr"/>
+      <c r="DD233" t="inlineStr"/>
+      <c r="DE233" t="inlineStr"/>
+      <c r="DF233" t="inlineStr"/>
+      <c r="DG233" t="inlineStr"/>
+      <c r="DH233" t="inlineStr"/>
+      <c r="DI233" t="inlineStr"/>
+      <c r="DJ233" t="inlineStr"/>
+      <c r="DK233" t="inlineStr"/>
+      <c r="DL233" t="inlineStr"/>
+      <c r="DM233" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="DN233" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="DO233" t="n">
+        <v>39</v>
+      </c>
+      <c r="DP233" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="DQ233" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="DR233" t="n">
+        <v>14</v>
+      </c>
+      <c r="DS233" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="DT233" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="DU233" t="n">
+        <v>2</v>
+      </c>
+      <c r="DV233" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="DW233" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="DX233" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX233"/>
+  <dimension ref="A1:DX234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77603,6 +77603,326 @@
         <v>10</v>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>20251017</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>602</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4783</v>
+      </c>
+      <c r="D234" t="n">
+        <v>46</v>
+      </c>
+      <c r="E234" t="n">
+        <v>84</v>
+      </c>
+      <c r="F234" t="n">
+        <v>629</v>
+      </c>
+      <c r="G234" t="n">
+        <v>57</v>
+      </c>
+      <c r="H234" t="n">
+        <v>172</v>
+      </c>
+      <c r="I234" t="n">
+        <v>46</v>
+      </c>
+      <c r="J234" t="n">
+        <v>60</v>
+      </c>
+      <c r="K234" t="n">
+        <v>37</v>
+      </c>
+      <c r="L234" t="n">
+        <v>22</v>
+      </c>
+      <c r="M234" t="n">
+        <v>12</v>
+      </c>
+      <c r="N234" t="n">
+        <v>14</v>
+      </c>
+      <c r="O234" t="n">
+        <v>40</v>
+      </c>
+      <c r="P234" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R234" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="S234" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="T234" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="U234" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="V234" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X234" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>85</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>75</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AW234" t="inlineStr"/>
+      <c r="AX234" t="inlineStr"/>
+      <c r="AY234" t="inlineStr"/>
+      <c r="AZ234" t="inlineStr"/>
+      <c r="BA234" t="inlineStr"/>
+      <c r="BB234" t="inlineStr"/>
+      <c r="BC234" t="inlineStr"/>
+      <c r="BD234" t="inlineStr"/>
+      <c r="BE234" t="inlineStr"/>
+      <c r="BF234" t="inlineStr"/>
+      <c r="BG234" t="inlineStr"/>
+      <c r="BH234" t="inlineStr"/>
+      <c r="BI234" t="inlineStr"/>
+      <c r="BJ234" t="inlineStr"/>
+      <c r="BK234" t="inlineStr"/>
+      <c r="BL234" t="inlineStr"/>
+      <c r="BM234" t="inlineStr"/>
+      <c r="BN234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO234" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>-7.45</v>
+      </c>
+      <c r="BQ234" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="BR234" t="n">
+        <v>-8.44</v>
+      </c>
+      <c r="BS234" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="BT234" t="n">
+        <v>-11.52</v>
+      </c>
+      <c r="BU234" t="n">
+        <v>-14.18</v>
+      </c>
+      <c r="BV234" t="n">
+        <v>-12.44</v>
+      </c>
+      <c r="BW234" t="n">
+        <v>-15.07</v>
+      </c>
+      <c r="BX234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ234" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA234" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB234" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC234" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD234" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE234" t="n">
+        <v>18</v>
+      </c>
+      <c r="CF234" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="CG234" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="CH234" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="CI234" t="n">
+        <v>-5.07</v>
+      </c>
+      <c r="CJ234" t="n">
+        <v>-2.81</v>
+      </c>
+      <c r="CK234" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="CL234" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="CM234" t="n">
+        <v>-5.54</v>
+      </c>
+      <c r="CN234" t="n">
+        <v>-8.19</v>
+      </c>
+      <c r="CO234" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="CP234" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="CQ234" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="CR234" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="CS234" t="n">
+        <v>50</v>
+      </c>
+      <c r="CT234" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="CU234" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="CV234" t="inlineStr"/>
+      <c r="CW234" t="inlineStr"/>
+      <c r="CX234" t="inlineStr"/>
+      <c r="CY234" t="inlineStr"/>
+      <c r="CZ234" t="inlineStr"/>
+      <c r="DA234" t="inlineStr"/>
+      <c r="DB234" t="inlineStr"/>
+      <c r="DC234" t="inlineStr"/>
+      <c r="DD234" t="inlineStr"/>
+      <c r="DE234" t="inlineStr"/>
+      <c r="DF234" t="inlineStr"/>
+      <c r="DG234" t="inlineStr"/>
+      <c r="DH234" t="inlineStr"/>
+      <c r="DI234" t="inlineStr"/>
+      <c r="DJ234" t="inlineStr"/>
+      <c r="DK234" t="inlineStr"/>
+      <c r="DL234" t="inlineStr"/>
+      <c r="DM234" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="DN234" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="DO234" t="n">
+        <v>16</v>
+      </c>
+      <c r="DP234" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="DQ234" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="DR234" t="n">
+        <v>7</v>
+      </c>
+      <c r="DS234" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="DT234" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="DU234" t="n">
+        <v>6</v>
+      </c>
+      <c r="DV234" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="DW234" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="DX234" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX234"/>
+  <dimension ref="A1:DX235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77923,6 +77923,326 @@
         <v>11</v>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>20251020</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>4064</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1253</v>
+      </c>
+      <c r="D235" t="n">
+        <v>113</v>
+      </c>
+      <c r="E235" t="n">
+        <v>277</v>
+      </c>
+      <c r="F235" t="n">
+        <v>52</v>
+      </c>
+      <c r="G235" t="n">
+        <v>144</v>
+      </c>
+      <c r="H235" t="n">
+        <v>20</v>
+      </c>
+      <c r="I235" t="n">
+        <v>107</v>
+      </c>
+      <c r="J235" t="n">
+        <v>10</v>
+      </c>
+      <c r="K235" t="n">
+        <v>76</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2</v>
+      </c>
+      <c r="M235" t="n">
+        <v>14</v>
+      </c>
+      <c r="N235" t="n">
+        <v>17</v>
+      </c>
+      <c r="O235" t="n">
+        <v>37</v>
+      </c>
+      <c r="P235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="R235" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="S235" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U235" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="V235" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>61.11</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>47.22</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>86.11</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>61.11</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>-3.69</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>75</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW235" t="inlineStr"/>
+      <c r="AX235" t="inlineStr"/>
+      <c r="AY235" t="inlineStr"/>
+      <c r="AZ235" t="inlineStr"/>
+      <c r="BA235" t="inlineStr"/>
+      <c r="BB235" t="inlineStr"/>
+      <c r="BC235" t="inlineStr"/>
+      <c r="BD235" t="inlineStr"/>
+      <c r="BE235" t="inlineStr"/>
+      <c r="BF235" t="inlineStr"/>
+      <c r="BG235" t="inlineStr"/>
+      <c r="BH235" t="inlineStr"/>
+      <c r="BI235" t="inlineStr"/>
+      <c r="BJ235" t="inlineStr"/>
+      <c r="BK235" t="inlineStr"/>
+      <c r="BL235" t="inlineStr"/>
+      <c r="BM235" t="inlineStr"/>
+      <c r="BN235" t="n">
+        <v>22</v>
+      </c>
+      <c r="BO235" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="BP235" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="BQ235" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BR235" t="n">
+        <v>-3.81</v>
+      </c>
+      <c r="BS235" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="BT235" t="n">
+        <v>-8.75</v>
+      </c>
+      <c r="BU235" t="n">
+        <v>-8.93</v>
+      </c>
+      <c r="BV235" t="n">
+        <v>-9.74</v>
+      </c>
+      <c r="BW235" t="n">
+        <v>-9.91</v>
+      </c>
+      <c r="BX235" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="BY235" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="BZ235" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="CA235" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB235" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="CC235" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD235" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE235" t="n">
+        <v>14</v>
+      </c>
+      <c r="CF235" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="CG235" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="CH235" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="CI235" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="CJ235" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="CK235" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="CL235" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="CM235" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="CN235" t="n">
+        <v>-4.46</v>
+      </c>
+      <c r="CO235" t="n">
+        <v>50</v>
+      </c>
+      <c r="CP235" t="n">
+        <v>50</v>
+      </c>
+      <c r="CQ235" t="n">
+        <v>50</v>
+      </c>
+      <c r="CR235" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="CS235" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CT235" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="CU235" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="CV235" t="inlineStr"/>
+      <c r="CW235" t="inlineStr"/>
+      <c r="CX235" t="inlineStr"/>
+      <c r="CY235" t="inlineStr"/>
+      <c r="CZ235" t="inlineStr"/>
+      <c r="DA235" t="inlineStr"/>
+      <c r="DB235" t="inlineStr"/>
+      <c r="DC235" t="inlineStr"/>
+      <c r="DD235" t="inlineStr"/>
+      <c r="DE235" t="inlineStr"/>
+      <c r="DF235" t="inlineStr"/>
+      <c r="DG235" t="inlineStr"/>
+      <c r="DH235" t="inlineStr"/>
+      <c r="DI235" t="inlineStr"/>
+      <c r="DJ235" t="inlineStr"/>
+      <c r="DK235" t="inlineStr"/>
+      <c r="DL235" t="inlineStr"/>
+      <c r="DM235" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="DN235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="DO235" t="n">
+        <v>14</v>
+      </c>
+      <c r="DP235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="DQ235" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="DR235" t="n">
+        <v>6</v>
+      </c>
+      <c r="DS235" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="DT235" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="DU235" t="n">
+        <v>5</v>
+      </c>
+      <c r="DV235" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="DW235" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="DX235" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX235"/>
+  <dimension ref="A1:DX236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78243,6 +78243,326 @@
         <v>11</v>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>20251021</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>4628</v>
+      </c>
+      <c r="C236" t="n">
+        <v>729</v>
+      </c>
+      <c r="D236" t="n">
+        <v>72</v>
+      </c>
+      <c r="E236" t="n">
+        <v>345</v>
+      </c>
+      <c r="F236" t="n">
+        <v>18</v>
+      </c>
+      <c r="G236" t="n">
+        <v>164</v>
+      </c>
+      <c r="H236" t="n">
+        <v>5</v>
+      </c>
+      <c r="I236" t="n">
+        <v>110</v>
+      </c>
+      <c r="J236" t="n">
+        <v>3</v>
+      </c>
+      <c r="K236" t="n">
+        <v>78</v>
+      </c>
+      <c r="L236" t="n">
+        <v>3</v>
+      </c>
+      <c r="M236" t="n">
+        <v>19</v>
+      </c>
+      <c r="N236" t="n">
+        <v>19</v>
+      </c>
+      <c r="O236" t="n">
+        <v>76</v>
+      </c>
+      <c r="P236" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R236" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="S236" t="n">
+        <v>-2.42</v>
+      </c>
+      <c r="T236" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="U236" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="V236" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X236" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>60.53</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>57.89</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>94.73999999999999</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>90.79000000000001</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>60.53</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>57.89</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AW236" t="inlineStr"/>
+      <c r="AX236" t="inlineStr"/>
+      <c r="AY236" t="inlineStr"/>
+      <c r="AZ236" t="inlineStr"/>
+      <c r="BA236" t="inlineStr"/>
+      <c r="BB236" t="inlineStr"/>
+      <c r="BC236" t="inlineStr"/>
+      <c r="BD236" t="inlineStr"/>
+      <c r="BE236" t="inlineStr"/>
+      <c r="BF236" t="inlineStr"/>
+      <c r="BG236" t="inlineStr"/>
+      <c r="BH236" t="inlineStr"/>
+      <c r="BI236" t="inlineStr"/>
+      <c r="BJ236" t="inlineStr"/>
+      <c r="BK236" t="inlineStr"/>
+      <c r="BL236" t="inlineStr"/>
+      <c r="BM236" t="inlineStr"/>
+      <c r="BN236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO236" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BP236" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="BQ236" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="BR236" t="n">
+        <v>-5.04</v>
+      </c>
+      <c r="BS236" t="n">
+        <v>-3.83</v>
+      </c>
+      <c r="BT236" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="BU236" t="n">
+        <v>-4.66</v>
+      </c>
+      <c r="BV236" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="BW236" t="n">
+        <v>-6.79</v>
+      </c>
+      <c r="BX236" t="n">
+        <v>50</v>
+      </c>
+      <c r="BY236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ236" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA236" t="n">
+        <v>50</v>
+      </c>
+      <c r="CB236" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC236" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD236" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE236" t="n">
+        <v>17</v>
+      </c>
+      <c r="CF236" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="CG236" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="CH236" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="CI236" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="CJ236" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="CK236" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="CL236" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="CM236" t="n">
+        <v>-3.86</v>
+      </c>
+      <c r="CN236" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="CO236" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="CP236" t="n">
+        <v>70.59</v>
+      </c>
+      <c r="CQ236" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="CR236" t="n">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="CS236" t="n">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="CT236" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU236" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="CV236" t="inlineStr"/>
+      <c r="CW236" t="inlineStr"/>
+      <c r="CX236" t="inlineStr"/>
+      <c r="CY236" t="inlineStr"/>
+      <c r="CZ236" t="inlineStr"/>
+      <c r="DA236" t="inlineStr"/>
+      <c r="DB236" t="inlineStr"/>
+      <c r="DC236" t="inlineStr"/>
+      <c r="DD236" t="inlineStr"/>
+      <c r="DE236" t="inlineStr"/>
+      <c r="DF236" t="inlineStr"/>
+      <c r="DG236" t="inlineStr"/>
+      <c r="DH236" t="inlineStr"/>
+      <c r="DI236" t="inlineStr"/>
+      <c r="DJ236" t="inlineStr"/>
+      <c r="DK236" t="inlineStr"/>
+      <c r="DL236" t="inlineStr"/>
+      <c r="DM236" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="DN236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="DO236" t="n">
+        <v>43</v>
+      </c>
+      <c r="DP236" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="DQ236" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="DR236" t="n">
+        <v>12</v>
+      </c>
+      <c r="DS236" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="DT236" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="DU236" t="n">
+        <v>7</v>
+      </c>
+      <c r="DV236" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="DW236" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="DX236" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX236"/>
+  <dimension ref="A1:DX237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78563,6 +78563,326 @@
         <v>14</v>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>20251022</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2280</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2965</v>
+      </c>
+      <c r="D237" t="n">
+        <v>184</v>
+      </c>
+      <c r="E237" t="n">
+        <v>162</v>
+      </c>
+      <c r="F237" t="n">
+        <v>89</v>
+      </c>
+      <c r="G237" t="n">
+        <v>96</v>
+      </c>
+      <c r="H237" t="n">
+        <v>33</v>
+      </c>
+      <c r="I237" t="n">
+        <v>75</v>
+      </c>
+      <c r="J237" t="n">
+        <v>14</v>
+      </c>
+      <c r="K237" t="n">
+        <v>56</v>
+      </c>
+      <c r="L237" t="n">
+        <v>5</v>
+      </c>
+      <c r="M237" t="n">
+        <v>24</v>
+      </c>
+      <c r="N237" t="n">
+        <v>21</v>
+      </c>
+      <c r="O237" t="n">
+        <v>78</v>
+      </c>
+      <c r="P237" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R237" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="S237" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T237" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="U237" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="V237" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="W237" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>62.82</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>41.03</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>98.72</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>97.44</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>62.82</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>78.95</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>52.63</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>94.73999999999999</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>78.95</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="AW237" t="inlineStr"/>
+      <c r="AX237" t="inlineStr"/>
+      <c r="AY237" t="inlineStr"/>
+      <c r="AZ237" t="inlineStr"/>
+      <c r="BA237" t="inlineStr"/>
+      <c r="BB237" t="inlineStr"/>
+      <c r="BC237" t="inlineStr"/>
+      <c r="BD237" t="inlineStr"/>
+      <c r="BE237" t="inlineStr"/>
+      <c r="BF237" t="inlineStr"/>
+      <c r="BG237" t="inlineStr"/>
+      <c r="BH237" t="inlineStr"/>
+      <c r="BI237" t="inlineStr"/>
+      <c r="BJ237" t="inlineStr"/>
+      <c r="BK237" t="inlineStr"/>
+      <c r="BL237" t="inlineStr"/>
+      <c r="BM237" t="inlineStr"/>
+      <c r="BN237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO237" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="BP237" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="BQ237" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BR237" t="n">
+        <v>-5.84</v>
+      </c>
+      <c r="BS237" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BT237" t="n">
+        <v>-7.33</v>
+      </c>
+      <c r="BU237" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="BV237" t="n">
+        <v>-10.09</v>
+      </c>
+      <c r="BW237" t="n">
+        <v>-7.88</v>
+      </c>
+      <c r="BX237" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BY237" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="BZ237" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CA237" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CB237" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CC237" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD237" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE237" t="n">
+        <v>19</v>
+      </c>
+      <c r="CF237" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="CG237" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="CH237" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="CI237" t="n">
+        <v>-4.52</v>
+      </c>
+      <c r="CJ237" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="CK237" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="CL237" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="CM237" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="CN237" t="n">
+        <v>-3.97</v>
+      </c>
+      <c r="CO237" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="CP237" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="CQ237" t="n">
+        <v>52.63</v>
+      </c>
+      <c r="CR237" t="n">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="CS237" t="n">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="CT237" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU237" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="CV237" t="inlineStr"/>
+      <c r="CW237" t="inlineStr"/>
+      <c r="CX237" t="inlineStr"/>
+      <c r="CY237" t="inlineStr"/>
+      <c r="CZ237" t="inlineStr"/>
+      <c r="DA237" t="inlineStr"/>
+      <c r="DB237" t="inlineStr"/>
+      <c r="DC237" t="inlineStr"/>
+      <c r="DD237" t="inlineStr"/>
+      <c r="DE237" t="inlineStr"/>
+      <c r="DF237" t="inlineStr"/>
+      <c r="DG237" t="inlineStr"/>
+      <c r="DH237" t="inlineStr"/>
+      <c r="DI237" t="inlineStr"/>
+      <c r="DJ237" t="inlineStr"/>
+      <c r="DK237" t="inlineStr"/>
+      <c r="DL237" t="inlineStr"/>
+      <c r="DM237" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="DN237" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="DO237" t="n">
+        <v>45</v>
+      </c>
+      <c r="DP237" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="DQ237" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="DR237" t="n">
+        <v>15</v>
+      </c>
+      <c r="DS237" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="DT237" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="DU237" t="n">
+        <v>11</v>
+      </c>
+      <c r="DV237" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="DW237" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="DX237" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX237"/>
+  <dimension ref="A1:DX238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78883,6 +78883,320 @@
         <v>7</v>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>20251023</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2994</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2302</v>
+      </c>
+      <c r="D238" t="n">
+        <v>135</v>
+      </c>
+      <c r="E238" t="n">
+        <v>163</v>
+      </c>
+      <c r="F238" t="n">
+        <v>114</v>
+      </c>
+      <c r="G238" t="n">
+        <v>100</v>
+      </c>
+      <c r="H238" t="n">
+        <v>46</v>
+      </c>
+      <c r="I238" t="n">
+        <v>74</v>
+      </c>
+      <c r="J238" t="n">
+        <v>21</v>
+      </c>
+      <c r="K238" t="n">
+        <v>58</v>
+      </c>
+      <c r="L238" t="n">
+        <v>8</v>
+      </c>
+      <c r="M238" t="n">
+        <v>12</v>
+      </c>
+      <c r="N238" t="n">
+        <v>14</v>
+      </c>
+      <c r="O238" t="n">
+        <v>56</v>
+      </c>
+      <c r="P238" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="R238" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="S238" t="n">
+        <v>-3.78</v>
+      </c>
+      <c r="T238" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="U238" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="V238" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X238" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>58.93</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>33.93</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>94.64</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>58.93</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>33.93</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>50</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="AW238" t="inlineStr"/>
+      <c r="AX238" t="inlineStr"/>
+      <c r="AY238" t="inlineStr"/>
+      <c r="AZ238" t="inlineStr"/>
+      <c r="BA238" t="inlineStr"/>
+      <c r="BB238" t="inlineStr"/>
+      <c r="BC238" t="inlineStr"/>
+      <c r="BD238" t="inlineStr"/>
+      <c r="BE238" t="inlineStr"/>
+      <c r="BF238" t="inlineStr"/>
+      <c r="BG238" t="inlineStr"/>
+      <c r="BH238" t="inlineStr"/>
+      <c r="BI238" t="inlineStr"/>
+      <c r="BJ238" t="inlineStr"/>
+      <c r="BK238" t="inlineStr"/>
+      <c r="BL238" t="inlineStr"/>
+      <c r="BM238" t="inlineStr"/>
+      <c r="BN238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO238" t="n">
+        <v>-4.79</v>
+      </c>
+      <c r="BP238" t="n">
+        <v>-5.83</v>
+      </c>
+      <c r="BQ238" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="BR238" t="n">
+        <v>-7.43</v>
+      </c>
+      <c r="BS238" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="BT238" t="n">
+        <v>-8.369999999999999</v>
+      </c>
+      <c r="BU238" t="n">
+        <v>-9.369999999999999</v>
+      </c>
+      <c r="BV238" t="n">
+        <v>-9.380000000000001</v>
+      </c>
+      <c r="BW238" t="n">
+        <v>-10.35</v>
+      </c>
+      <c r="BX238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ238" t="n">
+        <v>20</v>
+      </c>
+      <c r="CA238" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB238" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC238" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD238" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE238" t="n">
+        <v>21</v>
+      </c>
+      <c r="CF238" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="CG238" t="n">
+        <v>-4.48</v>
+      </c>
+      <c r="CH238" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CI238" t="n">
+        <v>-6.56</v>
+      </c>
+      <c r="CJ238" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="CK238" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="CL238" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="CM238" t="n">
+        <v>-7.82</v>
+      </c>
+      <c r="CN238" t="n">
+        <v>-9.640000000000001</v>
+      </c>
+      <c r="CO238" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CP238" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CQ238" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CR238" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="CS238" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="CT238" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU238" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="CV238" t="inlineStr"/>
+      <c r="CW238" t="inlineStr"/>
+      <c r="CX238" t="inlineStr"/>
+      <c r="CY238" t="inlineStr"/>
+      <c r="CZ238" t="inlineStr"/>
+      <c r="DA238" t="inlineStr"/>
+      <c r="DB238" t="inlineStr"/>
+      <c r="DC238" t="inlineStr"/>
+      <c r="DD238" t="inlineStr"/>
+      <c r="DE238" t="inlineStr"/>
+      <c r="DF238" t="inlineStr"/>
+      <c r="DG238" t="inlineStr"/>
+      <c r="DH238" t="inlineStr"/>
+      <c r="DI238" t="inlineStr"/>
+      <c r="DJ238" t="inlineStr"/>
+      <c r="DK238" t="inlineStr"/>
+      <c r="DL238" t="inlineStr"/>
+      <c r="DM238" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="DN238" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="DO238" t="n">
+        <v>33</v>
+      </c>
+      <c r="DP238" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="DQ238" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="DR238" t="n">
+        <v>13</v>
+      </c>
+      <c r="DS238" t="inlineStr"/>
+      <c r="DT238" t="inlineStr"/>
+      <c r="DU238" t="inlineStr"/>
+      <c r="DV238" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="DW238" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="DX238" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX238"/>
+  <dimension ref="A1:DX239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79197,6 +79197,326 @@
         <v>10</v>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>20251024</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>3028</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2274</v>
+      </c>
+      <c r="D239" t="n">
+        <v>130</v>
+      </c>
+      <c r="E239" t="n">
+        <v>303</v>
+      </c>
+      <c r="F239" t="n">
+        <v>71</v>
+      </c>
+      <c r="G239" t="n">
+        <v>152</v>
+      </c>
+      <c r="H239" t="n">
+        <v>36</v>
+      </c>
+      <c r="I239" t="n">
+        <v>101</v>
+      </c>
+      <c r="J239" t="n">
+        <v>18</v>
+      </c>
+      <c r="K239" t="n">
+        <v>57</v>
+      </c>
+      <c r="L239" t="n">
+        <v>7</v>
+      </c>
+      <c r="M239" t="n">
+        <v>13</v>
+      </c>
+      <c r="N239" t="n">
+        <v>20</v>
+      </c>
+      <c r="O239" t="n">
+        <v>58</v>
+      </c>
+      <c r="P239" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="R239" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S239" t="n">
+        <v>-4.28</v>
+      </c>
+      <c r="T239" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="U239" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="V239" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="X239" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>77.59</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>-4.75</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>75</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="AW239" t="inlineStr"/>
+      <c r="AX239" t="inlineStr"/>
+      <c r="AY239" t="inlineStr"/>
+      <c r="AZ239" t="inlineStr"/>
+      <c r="BA239" t="inlineStr"/>
+      <c r="BB239" t="inlineStr"/>
+      <c r="BC239" t="inlineStr"/>
+      <c r="BD239" t="inlineStr"/>
+      <c r="BE239" t="inlineStr"/>
+      <c r="BF239" t="inlineStr"/>
+      <c r="BG239" t="inlineStr"/>
+      <c r="BH239" t="inlineStr"/>
+      <c r="BI239" t="inlineStr"/>
+      <c r="BJ239" t="inlineStr"/>
+      <c r="BK239" t="inlineStr"/>
+      <c r="BL239" t="inlineStr"/>
+      <c r="BM239" t="inlineStr"/>
+      <c r="BN239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO239" t="n">
+        <v>-2.42</v>
+      </c>
+      <c r="BP239" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BQ239" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="BR239" t="n">
+        <v>-4.87</v>
+      </c>
+      <c r="BS239" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BT239" t="n">
+        <v>-6.73</v>
+      </c>
+      <c r="BU239" t="n">
+        <v>-3.45</v>
+      </c>
+      <c r="BV239" t="n">
+        <v>-9.039999999999999</v>
+      </c>
+      <c r="BW239" t="n">
+        <v>-5.78</v>
+      </c>
+      <c r="BX239" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BY239" t="n">
+        <v>50</v>
+      </c>
+      <c r="BZ239" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="CA239" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB239" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="CC239" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD239" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="CE239" t="n">
+        <v>14</v>
+      </c>
+      <c r="CF239" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="CG239" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="CH239" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="CI239" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="CJ239" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="CK239" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="CL239" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="CM239" t="n">
+        <v>-5.33</v>
+      </c>
+      <c r="CN239" t="n">
+        <v>-6.06</v>
+      </c>
+      <c r="CO239" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CP239" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="CQ239" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="CR239" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="CS239" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="CT239" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU239" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="CV239" t="inlineStr"/>
+      <c r="CW239" t="inlineStr"/>
+      <c r="CX239" t="inlineStr"/>
+      <c r="CY239" t="inlineStr"/>
+      <c r="CZ239" t="inlineStr"/>
+      <c r="DA239" t="inlineStr"/>
+      <c r="DB239" t="inlineStr"/>
+      <c r="DC239" t="inlineStr"/>
+      <c r="DD239" t="inlineStr"/>
+      <c r="DE239" t="inlineStr"/>
+      <c r="DF239" t="inlineStr"/>
+      <c r="DG239" t="inlineStr"/>
+      <c r="DH239" t="inlineStr"/>
+      <c r="DI239" t="inlineStr"/>
+      <c r="DJ239" t="inlineStr"/>
+      <c r="DK239" t="inlineStr"/>
+      <c r="DL239" t="inlineStr"/>
+      <c r="DM239" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="DN239" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="DO239" t="n">
+        <v>34</v>
+      </c>
+      <c r="DP239" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="DQ239" t="n">
+        <v>-4.43</v>
+      </c>
+      <c r="DR239" t="n">
+        <v>5</v>
+      </c>
+      <c r="DS239" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="DT239" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DU239" t="n">
+        <v>8</v>
+      </c>
+      <c r="DV239" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="DW239" t="n">
+        <v>-2.16</v>
+      </c>
+      <c r="DX239" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX239"/>
+  <dimension ref="A1:DX240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79517,6 +79517,326 @@
         <v>11</v>
       </c>
     </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>20251027</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>3361</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1862</v>
+      </c>
+      <c r="D240" t="n">
+        <v>208</v>
+      </c>
+      <c r="E240" t="n">
+        <v>288</v>
+      </c>
+      <c r="F240" t="n">
+        <v>59</v>
+      </c>
+      <c r="G240" t="n">
+        <v>147</v>
+      </c>
+      <c r="H240" t="n">
+        <v>24</v>
+      </c>
+      <c r="I240" t="n">
+        <v>89</v>
+      </c>
+      <c r="J240" t="n">
+        <v>17</v>
+      </c>
+      <c r="K240" t="n">
+        <v>50</v>
+      </c>
+      <c r="L240" t="n">
+        <v>5</v>
+      </c>
+      <c r="M240" t="n">
+        <v>17</v>
+      </c>
+      <c r="N240" t="n">
+        <v>29</v>
+      </c>
+      <c r="O240" t="n">
+        <v>57</v>
+      </c>
+      <c r="P240" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="R240" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="S240" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="T240" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="U240" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="V240" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="W240" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>69.64</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>41.07</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>94.64</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>96.43000000000001</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>69.64</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="AW240" t="inlineStr"/>
+      <c r="AX240" t="inlineStr"/>
+      <c r="AY240" t="inlineStr"/>
+      <c r="AZ240" t="inlineStr"/>
+      <c r="BA240" t="inlineStr"/>
+      <c r="BB240" t="inlineStr"/>
+      <c r="BC240" t="inlineStr"/>
+      <c r="BD240" t="inlineStr"/>
+      <c r="BE240" t="inlineStr"/>
+      <c r="BF240" t="inlineStr"/>
+      <c r="BG240" t="inlineStr"/>
+      <c r="BH240" t="inlineStr"/>
+      <c r="BI240" t="inlineStr"/>
+      <c r="BJ240" t="inlineStr"/>
+      <c r="BK240" t="inlineStr"/>
+      <c r="BL240" t="inlineStr"/>
+      <c r="BM240" t="inlineStr"/>
+      <c r="BN240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO240" t="n">
+        <v>-4.57</v>
+      </c>
+      <c r="BP240" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="BQ240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BR240" t="n">
+        <v>-7.14</v>
+      </c>
+      <c r="BS240" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BT240" t="n">
+        <v>-10.44</v>
+      </c>
+      <c r="BU240" t="n">
+        <v>-9.56</v>
+      </c>
+      <c r="BV240" t="n">
+        <v>-11.9</v>
+      </c>
+      <c r="BW240" t="n">
+        <v>-11.06</v>
+      </c>
+      <c r="BX240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY240" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="BZ240" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="CA240" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB240" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC240" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD240" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE240" t="n">
+        <v>20</v>
+      </c>
+      <c r="CF240" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="CG240" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="CH240" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="CI240" t="n">
+        <v>-4.66</v>
+      </c>
+      <c r="CJ240" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="CK240" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="CL240" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="CM240" t="n">
+        <v>-7.55</v>
+      </c>
+      <c r="CN240" t="n">
+        <v>-5.16</v>
+      </c>
+      <c r="CO240" t="n">
+        <v>30</v>
+      </c>
+      <c r="CP240" t="n">
+        <v>35</v>
+      </c>
+      <c r="CQ240" t="n">
+        <v>65</v>
+      </c>
+      <c r="CR240" t="n">
+        <v>65</v>
+      </c>
+      <c r="CS240" t="n">
+        <v>70</v>
+      </c>
+      <c r="CT240" t="n">
+        <v>10</v>
+      </c>
+      <c r="CU240" t="n">
+        <v>25</v>
+      </c>
+      <c r="CV240" t="inlineStr"/>
+      <c r="CW240" t="inlineStr"/>
+      <c r="CX240" t="inlineStr"/>
+      <c r="CY240" t="inlineStr"/>
+      <c r="CZ240" t="inlineStr"/>
+      <c r="DA240" t="inlineStr"/>
+      <c r="DB240" t="inlineStr"/>
+      <c r="DC240" t="inlineStr"/>
+      <c r="DD240" t="inlineStr"/>
+      <c r="DE240" t="inlineStr"/>
+      <c r="DF240" t="inlineStr"/>
+      <c r="DG240" t="inlineStr"/>
+      <c r="DH240" t="inlineStr"/>
+      <c r="DI240" t="inlineStr"/>
+      <c r="DJ240" t="inlineStr"/>
+      <c r="DK240" t="inlineStr"/>
+      <c r="DL240" t="inlineStr"/>
+      <c r="DM240" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="DN240" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="DO240" t="n">
+        <v>32</v>
+      </c>
+      <c r="DP240" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="DQ240" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="DR240" t="n">
+        <v>10</v>
+      </c>
+      <c r="DS240" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="DT240" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DU240" t="n">
+        <v>5</v>
+      </c>
+      <c r="DV240" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="DW240" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="DX240" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX240"/>
+  <dimension ref="A1:DX241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79837,6 +79837,326 @@
         <v>9</v>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>20251028</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>2366</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2908</v>
+      </c>
+      <c r="D241" t="n">
+        <v>158</v>
+      </c>
+      <c r="E241" t="n">
+        <v>214</v>
+      </c>
+      <c r="F241" t="n">
+        <v>103</v>
+      </c>
+      <c r="G241" t="n">
+        <v>108</v>
+      </c>
+      <c r="H241" t="n">
+        <v>37</v>
+      </c>
+      <c r="I241" t="n">
+        <v>79</v>
+      </c>
+      <c r="J241" t="n">
+        <v>13</v>
+      </c>
+      <c r="K241" t="n">
+        <v>58</v>
+      </c>
+      <c r="L241" t="n">
+        <v>4</v>
+      </c>
+      <c r="M241" t="n">
+        <v>17</v>
+      </c>
+      <c r="N241" t="n">
+        <v>18</v>
+      </c>
+      <c r="O241" t="n">
+        <v>50</v>
+      </c>
+      <c r="P241" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R241" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="S241" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U241" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="V241" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="W241" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="X241" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>74</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>96</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>94</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>74</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>94.12</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>88.23999999999999</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="AW241" t="inlineStr"/>
+      <c r="AX241" t="inlineStr"/>
+      <c r="AY241" t="inlineStr"/>
+      <c r="AZ241" t="inlineStr"/>
+      <c r="BA241" t="inlineStr"/>
+      <c r="BB241" t="inlineStr"/>
+      <c r="BC241" t="inlineStr"/>
+      <c r="BD241" t="inlineStr"/>
+      <c r="BE241" t="inlineStr"/>
+      <c r="BF241" t="inlineStr"/>
+      <c r="BG241" t="inlineStr"/>
+      <c r="BH241" t="inlineStr"/>
+      <c r="BI241" t="inlineStr"/>
+      <c r="BJ241" t="inlineStr"/>
+      <c r="BK241" t="inlineStr"/>
+      <c r="BL241" t="inlineStr"/>
+      <c r="BM241" t="inlineStr"/>
+      <c r="BN241" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO241" t="n">
+        <v>-2.44</v>
+      </c>
+      <c r="BP241" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="BQ241" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BR241" t="n">
+        <v>-6.27</v>
+      </c>
+      <c r="BS241" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="BT241" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="BU241" t="n">
+        <v>-13.85</v>
+      </c>
+      <c r="BV241" t="n">
+        <v>-13.03</v>
+      </c>
+      <c r="BW241" t="n">
+        <v>-14.55</v>
+      </c>
+      <c r="BX241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY241" t="n">
+        <v>20</v>
+      </c>
+      <c r="BZ241" t="n">
+        <v>20</v>
+      </c>
+      <c r="CA241" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB241" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC241" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD241" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE241" t="n">
+        <v>29</v>
+      </c>
+      <c r="CF241" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="CG241" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="CH241" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="CI241" t="n">
+        <v>-2.44</v>
+      </c>
+      <c r="CJ241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="CK241" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="CL241" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="CM241" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="CN241" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="CO241" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="CP241" t="n">
+        <v>51.72</v>
+      </c>
+      <c r="CQ241" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="CR241" t="n">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="CS241" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="CT241" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="CU241" t="n">
+        <v>17.24</v>
+      </c>
+      <c r="CV241" t="inlineStr"/>
+      <c r="CW241" t="inlineStr"/>
+      <c r="CX241" t="inlineStr"/>
+      <c r="CY241" t="inlineStr"/>
+      <c r="CZ241" t="inlineStr"/>
+      <c r="DA241" t="inlineStr"/>
+      <c r="DB241" t="inlineStr"/>
+      <c r="DC241" t="inlineStr"/>
+      <c r="DD241" t="inlineStr"/>
+      <c r="DE241" t="inlineStr"/>
+      <c r="DF241" t="inlineStr"/>
+      <c r="DG241" t="inlineStr"/>
+      <c r="DH241" t="inlineStr"/>
+      <c r="DI241" t="inlineStr"/>
+      <c r="DJ241" t="inlineStr"/>
+      <c r="DK241" t="inlineStr"/>
+      <c r="DL241" t="inlineStr"/>
+      <c r="DM241" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="DN241" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="DO241" t="n">
+        <v>29</v>
+      </c>
+      <c r="DP241" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="DQ241" t="n">
+        <v>-3.65</v>
+      </c>
+      <c r="DR241" t="n">
+        <v>3</v>
+      </c>
+      <c r="DS241" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="DT241" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="DU241" t="n">
+        <v>5</v>
+      </c>
+      <c r="DV241" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="DW241" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="DX241" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX241"/>
+  <dimension ref="A1:DX242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80157,6 +80157,326 @@
         <v>13</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>20251029</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>2672</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2621</v>
+      </c>
+      <c r="D242" t="n">
+        <v>139</v>
+      </c>
+      <c r="E242" t="n">
+        <v>371</v>
+      </c>
+      <c r="F242" t="n">
+        <v>80</v>
+      </c>
+      <c r="G242" t="n">
+        <v>185</v>
+      </c>
+      <c r="H242" t="n">
+        <v>31</v>
+      </c>
+      <c r="I242" t="n">
+        <v>112</v>
+      </c>
+      <c r="J242" t="n">
+        <v>13</v>
+      </c>
+      <c r="K242" t="n">
+        <v>60</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>12</v>
+      </c>
+      <c r="N242" t="n">
+        <v>30</v>
+      </c>
+      <c r="O242" t="n">
+        <v>58</v>
+      </c>
+      <c r="P242" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R242" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="S242" t="n">
+        <v>-2.11</v>
+      </c>
+      <c r="T242" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="U242" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="V242" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="W242" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="X242" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>36.21</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>70.59</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>70.59</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="AW242" t="inlineStr"/>
+      <c r="AX242" t="inlineStr"/>
+      <c r="AY242" t="inlineStr"/>
+      <c r="AZ242" t="inlineStr"/>
+      <c r="BA242" t="inlineStr"/>
+      <c r="BB242" t="inlineStr"/>
+      <c r="BC242" t="inlineStr"/>
+      <c r="BD242" t="inlineStr"/>
+      <c r="BE242" t="inlineStr"/>
+      <c r="BF242" t="inlineStr"/>
+      <c r="BG242" t="inlineStr"/>
+      <c r="BH242" t="inlineStr"/>
+      <c r="BI242" t="inlineStr"/>
+      <c r="BJ242" t="inlineStr"/>
+      <c r="BK242" t="inlineStr"/>
+      <c r="BL242" t="inlineStr"/>
+      <c r="BM242" t="inlineStr"/>
+      <c r="BN242" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO242" t="n">
+        <v>-4.49</v>
+      </c>
+      <c r="BP242" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="BQ242" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BR242" t="n">
+        <v>-5.77</v>
+      </c>
+      <c r="BS242" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BT242" t="n">
+        <v>-13.45</v>
+      </c>
+      <c r="BU242" t="n">
+        <v>-11.28</v>
+      </c>
+      <c r="BV242" t="n">
+        <v>-14.17</v>
+      </c>
+      <c r="BW242" t="n">
+        <v>-12.02</v>
+      </c>
+      <c r="BX242" t="n">
+        <v>25</v>
+      </c>
+      <c r="BY242" t="n">
+        <v>50</v>
+      </c>
+      <c r="BZ242" t="n">
+        <v>75</v>
+      </c>
+      <c r="CA242" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB242" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC242" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD242" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE242" t="n">
+        <v>18</v>
+      </c>
+      <c r="CF242" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="CG242" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="CH242" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="CI242" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="CJ242" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="CK242" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="CL242" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="CM242" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="CN242" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="CO242" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CP242" t="n">
+        <v>50</v>
+      </c>
+      <c r="CQ242" t="n">
+        <v>50</v>
+      </c>
+      <c r="CR242" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="CS242" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="CT242" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU242" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="CV242" t="inlineStr"/>
+      <c r="CW242" t="inlineStr"/>
+      <c r="CX242" t="inlineStr"/>
+      <c r="CY242" t="inlineStr"/>
+      <c r="CZ242" t="inlineStr"/>
+      <c r="DA242" t="inlineStr"/>
+      <c r="DB242" t="inlineStr"/>
+      <c r="DC242" t="inlineStr"/>
+      <c r="DD242" t="inlineStr"/>
+      <c r="DE242" t="inlineStr"/>
+      <c r="DF242" t="inlineStr"/>
+      <c r="DG242" t="inlineStr"/>
+      <c r="DH242" t="inlineStr"/>
+      <c r="DI242" t="inlineStr"/>
+      <c r="DJ242" t="inlineStr"/>
+      <c r="DK242" t="inlineStr"/>
+      <c r="DL242" t="inlineStr"/>
+      <c r="DM242" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="DN242" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="DO242" t="n">
+        <v>28</v>
+      </c>
+      <c r="DP242" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="DQ242" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DR242" t="n">
+        <v>11</v>
+      </c>
+      <c r="DS242" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="DT242" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="DU242" t="n">
+        <v>8</v>
+      </c>
+      <c r="DV242" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="DW242" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="DX242" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX242"/>
+  <dimension ref="A1:DX243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80477,6 +80477,326 @@
         <v>11</v>
       </c>
     </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>20251030</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1242</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4100</v>
+      </c>
+      <c r="D243" t="n">
+        <v>89</v>
+      </c>
+      <c r="E243" t="n">
+        <v>150</v>
+      </c>
+      <c r="F243" t="n">
+        <v>259</v>
+      </c>
+      <c r="G243" t="n">
+        <v>89</v>
+      </c>
+      <c r="H243" t="n">
+        <v>96</v>
+      </c>
+      <c r="I243" t="n">
+        <v>72</v>
+      </c>
+      <c r="J243" t="n">
+        <v>41</v>
+      </c>
+      <c r="K243" t="n">
+        <v>46</v>
+      </c>
+      <c r="L243" t="n">
+        <v>8</v>
+      </c>
+      <c r="M243" t="n">
+        <v>14</v>
+      </c>
+      <c r="N243" t="n">
+        <v>23</v>
+      </c>
+      <c r="O243" t="n">
+        <v>60</v>
+      </c>
+      <c r="P243" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R243" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="S243" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="T243" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="U243" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="V243" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="W243" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="X243" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>51.67</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>98.33</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>51.67</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>75</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AW243" t="inlineStr"/>
+      <c r="AX243" t="inlineStr"/>
+      <c r="AY243" t="inlineStr"/>
+      <c r="AZ243" t="inlineStr"/>
+      <c r="BA243" t="inlineStr"/>
+      <c r="BB243" t="inlineStr"/>
+      <c r="BC243" t="inlineStr"/>
+      <c r="BD243" t="inlineStr"/>
+      <c r="BE243" t="inlineStr"/>
+      <c r="BF243" t="inlineStr"/>
+      <c r="BG243" t="inlineStr"/>
+      <c r="BH243" t="inlineStr"/>
+      <c r="BI243" t="inlineStr"/>
+      <c r="BJ243" t="inlineStr"/>
+      <c r="BK243" t="inlineStr"/>
+      <c r="BL243" t="inlineStr"/>
+      <c r="BM243" t="inlineStr"/>
+      <c r="BN243" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO243" t="n">
+        <v>-2.87</v>
+      </c>
+      <c r="BP243" t="n">
+        <v>-9.960000000000001</v>
+      </c>
+      <c r="BQ243" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="BR243" t="n">
+        <v>-9.960000000000001</v>
+      </c>
+      <c r="BS243" t="n">
+        <v>-7.31</v>
+      </c>
+      <c r="BT243" t="n">
+        <v>-14.51</v>
+      </c>
+      <c r="BU243" t="n">
+        <v>-20.76</v>
+      </c>
+      <c r="BV243" t="n">
+        <v>-16.36</v>
+      </c>
+      <c r="BW243" t="n">
+        <v>-22.47</v>
+      </c>
+      <c r="BX243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ243" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA243" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB243" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC243" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD243" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE243" t="n">
+        <v>30</v>
+      </c>
+      <c r="CF243" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="CG243" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="CH243" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="CI243" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="CJ243" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="CK243" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="CL243" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="CM243" t="n">
+        <v>-5.77</v>
+      </c>
+      <c r="CN243" t="n">
+        <v>-4.52</v>
+      </c>
+      <c r="CO243" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="CP243" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="CQ243" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="CR243" t="n">
+        <v>80</v>
+      </c>
+      <c r="CS243" t="n">
+        <v>80</v>
+      </c>
+      <c r="CT243" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU243" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="CV243" t="inlineStr"/>
+      <c r="CW243" t="inlineStr"/>
+      <c r="CX243" t="inlineStr"/>
+      <c r="CY243" t="inlineStr"/>
+      <c r="CZ243" t="inlineStr"/>
+      <c r="DA243" t="inlineStr"/>
+      <c r="DB243" t="inlineStr"/>
+      <c r="DC243" t="inlineStr"/>
+      <c r="DD243" t="inlineStr"/>
+      <c r="DE243" t="inlineStr"/>
+      <c r="DF243" t="inlineStr"/>
+      <c r="DG243" t="inlineStr"/>
+      <c r="DH243" t="inlineStr"/>
+      <c r="DI243" t="inlineStr"/>
+      <c r="DJ243" t="inlineStr"/>
+      <c r="DK243" t="inlineStr"/>
+      <c r="DL243" t="inlineStr"/>
+      <c r="DM243" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="DN243" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="DO243" t="n">
+        <v>31</v>
+      </c>
+      <c r="DP243" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="DQ243" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="DR243" t="n">
+        <v>7</v>
+      </c>
+      <c r="DS243" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="DT243" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="DU243" t="n">
+        <v>8</v>
+      </c>
+      <c r="DV243" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="DW243" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="DX243" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX243"/>
+  <dimension ref="A1:DX244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80797,6 +80797,326 @@
         <v>14</v>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>20251031</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>3760</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1553</v>
+      </c>
+      <c r="D244" t="n">
+        <v>119</v>
+      </c>
+      <c r="E244" t="n">
+        <v>295</v>
+      </c>
+      <c r="F244" t="n">
+        <v>146</v>
+      </c>
+      <c r="G244" t="n">
+        <v>148</v>
+      </c>
+      <c r="H244" t="n">
+        <v>62</v>
+      </c>
+      <c r="I244" t="n">
+        <v>90</v>
+      </c>
+      <c r="J244" t="n">
+        <v>25</v>
+      </c>
+      <c r="K244" t="n">
+        <v>57</v>
+      </c>
+      <c r="L244" t="n">
+        <v>12</v>
+      </c>
+      <c r="M244" t="n">
+        <v>12</v>
+      </c>
+      <c r="N244" t="n">
+        <v>37</v>
+      </c>
+      <c r="O244" t="n">
+        <v>46</v>
+      </c>
+      <c r="P244" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R244" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="S244" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="T244" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="U244" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="V244" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X244" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>52.17</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>45.65</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>89.13</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>80.43000000000001</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>52.17</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="AW244" t="inlineStr"/>
+      <c r="AX244" t="inlineStr"/>
+      <c r="AY244" t="inlineStr"/>
+      <c r="AZ244" t="inlineStr"/>
+      <c r="BA244" t="inlineStr"/>
+      <c r="BB244" t="inlineStr"/>
+      <c r="BC244" t="inlineStr"/>
+      <c r="BD244" t="inlineStr"/>
+      <c r="BE244" t="inlineStr"/>
+      <c r="BF244" t="inlineStr"/>
+      <c r="BG244" t="inlineStr"/>
+      <c r="BH244" t="inlineStr"/>
+      <c r="BI244" t="inlineStr"/>
+      <c r="BJ244" t="inlineStr"/>
+      <c r="BK244" t="inlineStr"/>
+      <c r="BL244" t="inlineStr"/>
+      <c r="BM244" t="inlineStr"/>
+      <c r="BN244" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO244" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="BP244" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="BQ244" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BR244" t="n">
+        <v>-3.86</v>
+      </c>
+      <c r="BS244" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="BT244" t="n">
+        <v>-8.029999999999999</v>
+      </c>
+      <c r="BU244" t="n">
+        <v>-8.529999999999999</v>
+      </c>
+      <c r="BV244" t="n">
+        <v>-9.619999999999999</v>
+      </c>
+      <c r="BW244" t="n">
+        <v>-10.12</v>
+      </c>
+      <c r="BX244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY244" t="n">
+        <v>25</v>
+      </c>
+      <c r="BZ244" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA244" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB244" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC244" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD244" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE244" t="n">
+        <v>23</v>
+      </c>
+      <c r="CF244" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="CG244" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="CH244" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="CI244" t="n">
+        <v>-3.17</v>
+      </c>
+      <c r="CJ244" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="CK244" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="CL244" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="CM244" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="CN244" t="n">
+        <v>-2.96</v>
+      </c>
+      <c r="CO244" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="CP244" t="n">
+        <v>52.17</v>
+      </c>
+      <c r="CQ244" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="CR244" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="CS244" t="n">
+        <v>82.61</v>
+      </c>
+      <c r="CT244" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="CU244" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="CV244" t="inlineStr"/>
+      <c r="CW244" t="inlineStr"/>
+      <c r="CX244" t="inlineStr"/>
+      <c r="CY244" t="inlineStr"/>
+      <c r="CZ244" t="inlineStr"/>
+      <c r="DA244" t="inlineStr"/>
+      <c r="DB244" t="inlineStr"/>
+      <c r="DC244" t="inlineStr"/>
+      <c r="DD244" t="inlineStr"/>
+      <c r="DE244" t="inlineStr"/>
+      <c r="DF244" t="inlineStr"/>
+      <c r="DG244" t="inlineStr"/>
+      <c r="DH244" t="inlineStr"/>
+      <c r="DI244" t="inlineStr"/>
+      <c r="DJ244" t="inlineStr"/>
+      <c r="DK244" t="inlineStr"/>
+      <c r="DL244" t="inlineStr"/>
+      <c r="DM244" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="DN244" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="DO244" t="n">
+        <v>24</v>
+      </c>
+      <c r="DP244" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="DQ244" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="DR244" t="n">
+        <v>7</v>
+      </c>
+      <c r="DS244" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="DT244" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="DU244" t="n">
+        <v>7</v>
+      </c>
+      <c r="DV244" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="DW244" t="n">
+        <v>-5.16</v>
+      </c>
+      <c r="DX244" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX244"/>
+  <dimension ref="A1:DX245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81117,6 +81117,326 @@
         <v>8</v>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>20251103</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>3535</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1801</v>
+      </c>
+      <c r="D245" t="n">
+        <v>98</v>
+      </c>
+      <c r="E245" t="n">
+        <v>272</v>
+      </c>
+      <c r="F245" t="n">
+        <v>73</v>
+      </c>
+      <c r="G245" t="n">
+        <v>139</v>
+      </c>
+      <c r="H245" t="n">
+        <v>26</v>
+      </c>
+      <c r="I245" t="n">
+        <v>94</v>
+      </c>
+      <c r="J245" t="n">
+        <v>15</v>
+      </c>
+      <c r="K245" t="n">
+        <v>66</v>
+      </c>
+      <c r="L245" t="n">
+        <v>7</v>
+      </c>
+      <c r="M245" t="n">
+        <v>15</v>
+      </c>
+      <c r="N245" t="n">
+        <v>21</v>
+      </c>
+      <c r="O245" t="n">
+        <v>57</v>
+      </c>
+      <c r="P245" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R245" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="S245" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="T245" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="U245" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="V245" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="W245" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>77.19</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>54.39</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>96.48999999999999</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>92.98</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>77.19</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>75</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW245" t="inlineStr"/>
+      <c r="AX245" t="inlineStr"/>
+      <c r="AY245" t="inlineStr"/>
+      <c r="AZ245" t="inlineStr"/>
+      <c r="BA245" t="inlineStr"/>
+      <c r="BB245" t="inlineStr"/>
+      <c r="BC245" t="inlineStr"/>
+      <c r="BD245" t="inlineStr"/>
+      <c r="BE245" t="inlineStr"/>
+      <c r="BF245" t="inlineStr"/>
+      <c r="BG245" t="inlineStr"/>
+      <c r="BH245" t="inlineStr"/>
+      <c r="BI245" t="inlineStr"/>
+      <c r="BJ245" t="inlineStr"/>
+      <c r="BK245" t="inlineStr"/>
+      <c r="BL245" t="inlineStr"/>
+      <c r="BM245" t="inlineStr"/>
+      <c r="BN245" t="n">
+        <v>12</v>
+      </c>
+      <c r="BO245" t="n">
+        <v>-3.01</v>
+      </c>
+      <c r="BP245" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="BQ245" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BR245" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="BS245" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BT245" t="n">
+        <v>-9.449999999999999</v>
+      </c>
+      <c r="BU245" t="n">
+        <v>-7.3</v>
+      </c>
+      <c r="BV245" t="n">
+        <v>-10.88</v>
+      </c>
+      <c r="BW245" t="n">
+        <v>-8.73</v>
+      </c>
+      <c r="BX245" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="BY245" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="BZ245" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA245" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="CB245" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="CC245" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD245" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE245" t="n">
+        <v>37</v>
+      </c>
+      <c r="CF245" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="CG245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="CH245" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="CI245" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CJ245" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="CK245" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="CL245" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="CM245" t="n">
+        <v>-4.69</v>
+      </c>
+      <c r="CN245" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="CO245" t="n">
+        <v>45.95</v>
+      </c>
+      <c r="CP245" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="CQ245" t="n">
+        <v>59.46</v>
+      </c>
+      <c r="CR245" t="n">
+        <v>78.38</v>
+      </c>
+      <c r="CS245" t="n">
+        <v>75.68000000000001</v>
+      </c>
+      <c r="CT245" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="CU245" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="CV245" t="inlineStr"/>
+      <c r="CW245" t="inlineStr"/>
+      <c r="CX245" t="inlineStr"/>
+      <c r="CY245" t="inlineStr"/>
+      <c r="CZ245" t="inlineStr"/>
+      <c r="DA245" t="inlineStr"/>
+      <c r="DB245" t="inlineStr"/>
+      <c r="DC245" t="inlineStr"/>
+      <c r="DD245" t="inlineStr"/>
+      <c r="DE245" t="inlineStr"/>
+      <c r="DF245" t="inlineStr"/>
+      <c r="DG245" t="inlineStr"/>
+      <c r="DH245" t="inlineStr"/>
+      <c r="DI245" t="inlineStr"/>
+      <c r="DJ245" t="inlineStr"/>
+      <c r="DK245" t="inlineStr"/>
+      <c r="DL245" t="inlineStr"/>
+      <c r="DM245" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="DN245" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="DO245" t="n">
+        <v>32</v>
+      </c>
+      <c r="DP245" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="DQ245" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="DR245" t="n">
+        <v>8</v>
+      </c>
+      <c r="DS245" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="DT245" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="DU245" t="n">
+        <v>4</v>
+      </c>
+      <c r="DV245" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="DW245" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="DX245" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX245"/>
+  <dimension ref="A1:DX246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81437,6 +81437,326 @@
         <v>13</v>
       </c>
     </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>20251104</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3650</v>
+      </c>
+      <c r="D246" t="n">
+        <v>154</v>
+      </c>
+      <c r="E246" t="n">
+        <v>121</v>
+      </c>
+      <c r="F246" t="n">
+        <v>137</v>
+      </c>
+      <c r="G246" t="n">
+        <v>82</v>
+      </c>
+      <c r="H246" t="n">
+        <v>37</v>
+      </c>
+      <c r="I246" t="n">
+        <v>63</v>
+      </c>
+      <c r="J246" t="n">
+        <v>17</v>
+      </c>
+      <c r="K246" t="n">
+        <v>50</v>
+      </c>
+      <c r="L246" t="n">
+        <v>4</v>
+      </c>
+      <c r="M246" t="n">
+        <v>20</v>
+      </c>
+      <c r="N246" t="n">
+        <v>18</v>
+      </c>
+      <c r="O246" t="n">
+        <v>66</v>
+      </c>
+      <c r="P246" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R246" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="S246" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="T246" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="U246" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="V246" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="W246" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>75.76000000000001</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>46.97</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>75.76000000000001</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>80</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="AW246" t="inlineStr"/>
+      <c r="AX246" t="inlineStr"/>
+      <c r="AY246" t="inlineStr"/>
+      <c r="AZ246" t="inlineStr"/>
+      <c r="BA246" t="inlineStr"/>
+      <c r="BB246" t="inlineStr"/>
+      <c r="BC246" t="inlineStr"/>
+      <c r="BD246" t="inlineStr"/>
+      <c r="BE246" t="inlineStr"/>
+      <c r="BF246" t="inlineStr"/>
+      <c r="BG246" t="inlineStr"/>
+      <c r="BH246" t="inlineStr"/>
+      <c r="BI246" t="inlineStr"/>
+      <c r="BJ246" t="inlineStr"/>
+      <c r="BK246" t="inlineStr"/>
+      <c r="BL246" t="inlineStr"/>
+      <c r="BM246" t="inlineStr"/>
+      <c r="BN246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO246" t="n">
+        <v>-4.65</v>
+      </c>
+      <c r="BP246" t="n">
+        <v>-4.06</v>
+      </c>
+      <c r="BQ246" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="BR246" t="n">
+        <v>-7.34</v>
+      </c>
+      <c r="BS246" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="BT246" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="BU246" t="n">
+        <v>-9.789999999999999</v>
+      </c>
+      <c r="BV246" t="n">
+        <v>-11.23</v>
+      </c>
+      <c r="BW246" t="n">
+        <v>-10.65</v>
+      </c>
+      <c r="BX246" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="BY246" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="BZ246" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="CA246" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB246" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC246" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD246" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE246" t="n">
+        <v>21</v>
+      </c>
+      <c r="CF246" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="CG246" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="CH246" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="CI246" t="n">
+        <v>-4.75</v>
+      </c>
+      <c r="CJ246" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="CK246" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="CL246" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="CM246" t="n">
+        <v>-4.49</v>
+      </c>
+      <c r="CN246" t="n">
+        <v>-5.14</v>
+      </c>
+      <c r="CO246" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="CP246" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CQ246" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CR246" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="CS246" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="CT246" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CU246" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CV246" t="inlineStr"/>
+      <c r="CW246" t="inlineStr"/>
+      <c r="CX246" t="inlineStr"/>
+      <c r="CY246" t="inlineStr"/>
+      <c r="CZ246" t="inlineStr"/>
+      <c r="DA246" t="inlineStr"/>
+      <c r="DB246" t="inlineStr"/>
+      <c r="DC246" t="inlineStr"/>
+      <c r="DD246" t="inlineStr"/>
+      <c r="DE246" t="inlineStr"/>
+      <c r="DF246" t="inlineStr"/>
+      <c r="DG246" t="inlineStr"/>
+      <c r="DH246" t="inlineStr"/>
+      <c r="DI246" t="inlineStr"/>
+      <c r="DJ246" t="inlineStr"/>
+      <c r="DK246" t="inlineStr"/>
+      <c r="DL246" t="inlineStr"/>
+      <c r="DM246" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="DN246" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="DO246" t="n">
+        <v>42</v>
+      </c>
+      <c r="DP246" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="DQ246" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="DR246" t="n">
+        <v>8</v>
+      </c>
+      <c r="DS246" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="DT246" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DU246" t="n">
+        <v>6</v>
+      </c>
+      <c r="DV246" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="DW246" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="DX246" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX246"/>
+  <dimension ref="A1:DX247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81757,6 +81757,326 @@
         <v>10</v>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>20251105</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>3380</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D247" t="n">
+        <v>149</v>
+      </c>
+      <c r="E247" t="n">
+        <v>232</v>
+      </c>
+      <c r="F247" t="n">
+        <v>33</v>
+      </c>
+      <c r="G247" t="n">
+        <v>128</v>
+      </c>
+      <c r="H247" t="n">
+        <v>11</v>
+      </c>
+      <c r="I247" t="n">
+        <v>96</v>
+      </c>
+      <c r="J247" t="n">
+        <v>5</v>
+      </c>
+      <c r="K247" t="n">
+        <v>67</v>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="n">
+        <v>23</v>
+      </c>
+      <c r="N247" t="n">
+        <v>27</v>
+      </c>
+      <c r="O247" t="n">
+        <v>50</v>
+      </c>
+      <c r="P247" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="R247" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="S247" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="T247" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U247" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="V247" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X247" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>66</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>64</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>86</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>92</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>66</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>70</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>85</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW247" t="inlineStr"/>
+      <c r="AX247" t="inlineStr"/>
+      <c r="AY247" t="inlineStr"/>
+      <c r="AZ247" t="inlineStr"/>
+      <c r="BA247" t="inlineStr"/>
+      <c r="BB247" t="inlineStr"/>
+      <c r="BC247" t="inlineStr"/>
+      <c r="BD247" t="inlineStr"/>
+      <c r="BE247" t="inlineStr"/>
+      <c r="BF247" t="inlineStr"/>
+      <c r="BG247" t="inlineStr"/>
+      <c r="BH247" t="inlineStr"/>
+      <c r="BI247" t="inlineStr"/>
+      <c r="BJ247" t="inlineStr"/>
+      <c r="BK247" t="inlineStr"/>
+      <c r="BL247" t="inlineStr"/>
+      <c r="BM247" t="inlineStr"/>
+      <c r="BN247" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO247" t="n">
+        <v>-4.32</v>
+      </c>
+      <c r="BP247" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BQ247" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BR247" t="n">
+        <v>-5.46</v>
+      </c>
+      <c r="BS247" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="BT247" t="n">
+        <v>-12.68</v>
+      </c>
+      <c r="BU247" t="n">
+        <v>-7.79</v>
+      </c>
+      <c r="BV247" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="BW247" t="n">
+        <v>-8.960000000000001</v>
+      </c>
+      <c r="BX247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY247" t="n">
+        <v>50</v>
+      </c>
+      <c r="BZ247" t="n">
+        <v>100</v>
+      </c>
+      <c r="CA247" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB247" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC247" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD247" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE247" t="n">
+        <v>18</v>
+      </c>
+      <c r="CF247" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="CG247" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="CH247" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="CI247" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="CJ247" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="CK247" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="CL247" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="CM247" t="n">
+        <v>-6.61</v>
+      </c>
+      <c r="CN247" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="CO247" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="CP247" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="CQ247" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="CR247" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CS247" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="CT247" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU247" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CV247" t="inlineStr"/>
+      <c r="CW247" t="inlineStr"/>
+      <c r="CX247" t="inlineStr"/>
+      <c r="CY247" t="inlineStr"/>
+      <c r="CZ247" t="inlineStr"/>
+      <c r="DA247" t="inlineStr"/>
+      <c r="DB247" t="inlineStr"/>
+      <c r="DC247" t="inlineStr"/>
+      <c r="DD247" t="inlineStr"/>
+      <c r="DE247" t="inlineStr"/>
+      <c r="DF247" t="inlineStr"/>
+      <c r="DG247" t="inlineStr"/>
+      <c r="DH247" t="inlineStr"/>
+      <c r="DI247" t="inlineStr"/>
+      <c r="DJ247" t="inlineStr"/>
+      <c r="DK247" t="inlineStr"/>
+      <c r="DL247" t="inlineStr"/>
+      <c r="DM247" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="DN247" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="DO247" t="n">
+        <v>27</v>
+      </c>
+      <c r="DP247" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="DQ247" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="DR247" t="n">
+        <v>7</v>
+      </c>
+      <c r="DS247" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="DT247" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="DU247" t="n">
+        <v>4</v>
+      </c>
+      <c r="DV247" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="DW247" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="DX247" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX247"/>
+  <dimension ref="A1:DX248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82077,6 +82077,326 @@
         <v>12</v>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>20251106</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2880</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2388</v>
+      </c>
+      <c r="D248" t="n">
+        <v>166</v>
+      </c>
+      <c r="E248" t="n">
+        <v>250</v>
+      </c>
+      <c r="F248" t="n">
+        <v>79</v>
+      </c>
+      <c r="G248" t="n">
+        <v>129</v>
+      </c>
+      <c r="H248" t="n">
+        <v>39</v>
+      </c>
+      <c r="I248" t="n">
+        <v>94</v>
+      </c>
+      <c r="J248" t="n">
+        <v>26</v>
+      </c>
+      <c r="K248" t="n">
+        <v>62</v>
+      </c>
+      <c r="L248" t="n">
+        <v>9</v>
+      </c>
+      <c r="M248" t="n">
+        <v>16</v>
+      </c>
+      <c r="N248" t="n">
+        <v>33</v>
+      </c>
+      <c r="O248" t="n">
+        <v>67</v>
+      </c>
+      <c r="P248" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="R248" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="S248" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="T248" t="n">
+        <v>-2.68</v>
+      </c>
+      <c r="U248" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="V248" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="W248" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="X248" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>71.64</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>98.51000000000001</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>86.56999999999999</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>71.64</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>-2.32</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>60.87</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>95.65000000000001</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>73.91</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>60.87</v>
+      </c>
+      <c r="AW248" t="inlineStr"/>
+      <c r="AX248" t="inlineStr"/>
+      <c r="AY248" t="inlineStr"/>
+      <c r="AZ248" t="inlineStr"/>
+      <c r="BA248" t="inlineStr"/>
+      <c r="BB248" t="inlineStr"/>
+      <c r="BC248" t="inlineStr"/>
+      <c r="BD248" t="inlineStr"/>
+      <c r="BE248" t="inlineStr"/>
+      <c r="BF248" t="inlineStr"/>
+      <c r="BG248" t="inlineStr"/>
+      <c r="BH248" t="inlineStr"/>
+      <c r="BI248" t="inlineStr"/>
+      <c r="BJ248" t="inlineStr"/>
+      <c r="BK248" t="inlineStr"/>
+      <c r="BL248" t="inlineStr"/>
+      <c r="BM248" t="inlineStr"/>
+      <c r="BN248" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO248" t="n">
+        <v>-2.58</v>
+      </c>
+      <c r="BP248" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="BQ248" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="BR248" t="n">
+        <v>-2.58</v>
+      </c>
+      <c r="BS248" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="BT248" t="n">
+        <v>-5.56</v>
+      </c>
+      <c r="BU248" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BV248" t="n">
+        <v>-8.01</v>
+      </c>
+      <c r="BW248" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="BX248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY248" t="n">
+        <v>100</v>
+      </c>
+      <c r="BZ248" t="n">
+        <v>100</v>
+      </c>
+      <c r="CA248" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB248" t="n">
+        <v>100</v>
+      </c>
+      <c r="CC248" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD248" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE248" t="n">
+        <v>27</v>
+      </c>
+      <c r="CF248" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="CG248" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CH248" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="CI248" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="CJ248" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CK248" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="CL248" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="CM248" t="n">
+        <v>-3.28</v>
+      </c>
+      <c r="CN248" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="CO248" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="CP248" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="CQ248" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="CR248" t="n">
+        <v>100</v>
+      </c>
+      <c r="CS248" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="CT248" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="CU248" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="CV248" t="inlineStr"/>
+      <c r="CW248" t="inlineStr"/>
+      <c r="CX248" t="inlineStr"/>
+      <c r="CY248" t="inlineStr"/>
+      <c r="CZ248" t="inlineStr"/>
+      <c r="DA248" t="inlineStr"/>
+      <c r="DB248" t="inlineStr"/>
+      <c r="DC248" t="inlineStr"/>
+      <c r="DD248" t="inlineStr"/>
+      <c r="DE248" t="inlineStr"/>
+      <c r="DF248" t="inlineStr"/>
+      <c r="DG248" t="inlineStr"/>
+      <c r="DH248" t="inlineStr"/>
+      <c r="DI248" t="inlineStr"/>
+      <c r="DJ248" t="inlineStr"/>
+      <c r="DK248" t="inlineStr"/>
+      <c r="DL248" t="inlineStr"/>
+      <c r="DM248" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="DN248" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="DO248" t="n">
+        <v>42</v>
+      </c>
+      <c r="DP248" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="DQ248" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="DR248" t="n">
+        <v>6</v>
+      </c>
+      <c r="DS248" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="DT248" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="DU248" t="n">
+        <v>4</v>
+      </c>
+      <c r="DV248" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="DW248" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="DX248" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX248"/>
+  <dimension ref="A1:DX249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82397,6 +82397,326 @@
         <v>15</v>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>20251107</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>2101</v>
+      </c>
+      <c r="C249" t="n">
+        <v>3162</v>
+      </c>
+      <c r="D249" t="n">
+        <v>173</v>
+      </c>
+      <c r="E249" t="n">
+        <v>197</v>
+      </c>
+      <c r="F249" t="n">
+        <v>72</v>
+      </c>
+      <c r="G249" t="n">
+        <v>114</v>
+      </c>
+      <c r="H249" t="n">
+        <v>23</v>
+      </c>
+      <c r="I249" t="n">
+        <v>82</v>
+      </c>
+      <c r="J249" t="n">
+        <v>10</v>
+      </c>
+      <c r="K249" t="n">
+        <v>53</v>
+      </c>
+      <c r="L249" t="n">
+        <v>2</v>
+      </c>
+      <c r="M249" t="n">
+        <v>17</v>
+      </c>
+      <c r="N249" t="n">
+        <v>27</v>
+      </c>
+      <c r="O249" t="n">
+        <v>62</v>
+      </c>
+      <c r="P249" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R249" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="S249" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U249" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="V249" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X249" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>61.29</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>53.23</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>95.16</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>93.55</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>61.29</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>-2.79</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="AW249" t="inlineStr"/>
+      <c r="AX249" t="inlineStr"/>
+      <c r="AY249" t="inlineStr"/>
+      <c r="AZ249" t="inlineStr"/>
+      <c r="BA249" t="inlineStr"/>
+      <c r="BB249" t="inlineStr"/>
+      <c r="BC249" t="inlineStr"/>
+      <c r="BD249" t="inlineStr"/>
+      <c r="BE249" t="inlineStr"/>
+      <c r="BF249" t="inlineStr"/>
+      <c r="BG249" t="inlineStr"/>
+      <c r="BH249" t="inlineStr"/>
+      <c r="BI249" t="inlineStr"/>
+      <c r="BJ249" t="inlineStr"/>
+      <c r="BK249" t="inlineStr"/>
+      <c r="BL249" t="inlineStr"/>
+      <c r="BM249" t="inlineStr"/>
+      <c r="BN249" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO249" t="n">
+        <v>-2.64</v>
+      </c>
+      <c r="BP249" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="BQ249" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BR249" t="n">
+        <v>-5.12</v>
+      </c>
+      <c r="BS249" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="BT249" t="n">
+        <v>-10.63</v>
+      </c>
+      <c r="BU249" t="n">
+        <v>-7.41</v>
+      </c>
+      <c r="BV249" t="n">
+        <v>-11.34</v>
+      </c>
+      <c r="BW249" t="n">
+        <v>-8.130000000000001</v>
+      </c>
+      <c r="BX249" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="BY249" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="BZ249" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="CA249" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB249" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="CC249" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD249" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="CE249" t="n">
+        <v>33</v>
+      </c>
+      <c r="CF249" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="CG249" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="CH249" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="CI249" t="n">
+        <v>-3.74</v>
+      </c>
+      <c r="CJ249" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="CK249" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="CL249" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="CM249" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="CN249" t="n">
+        <v>-4.15</v>
+      </c>
+      <c r="CO249" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="CP249" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CQ249" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="CR249" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="CS249" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="CT249" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="CU249" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="CV249" t="inlineStr"/>
+      <c r="CW249" t="inlineStr"/>
+      <c r="CX249" t="inlineStr"/>
+      <c r="CY249" t="inlineStr"/>
+      <c r="CZ249" t="inlineStr"/>
+      <c r="DA249" t="inlineStr"/>
+      <c r="DB249" t="inlineStr"/>
+      <c r="DC249" t="inlineStr"/>
+      <c r="DD249" t="inlineStr"/>
+      <c r="DE249" t="inlineStr"/>
+      <c r="DF249" t="inlineStr"/>
+      <c r="DG249" t="inlineStr"/>
+      <c r="DH249" t="inlineStr"/>
+      <c r="DI249" t="inlineStr"/>
+      <c r="DJ249" t="inlineStr"/>
+      <c r="DK249" t="inlineStr"/>
+      <c r="DL249" t="inlineStr"/>
+      <c r="DM249" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="DN249" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="DO249" t="n">
+        <v>34</v>
+      </c>
+      <c r="DP249" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="DQ249" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="DR249" t="n">
+        <v>7</v>
+      </c>
+      <c r="DS249" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="DT249" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="DU249" t="n">
+        <v>2</v>
+      </c>
+      <c r="DV249" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DW249" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="DX249" t="n">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX249"/>
+  <dimension ref="A1:DX251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82717,6 +82717,646 @@
         <v>19</v>
       </c>
     </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>20251110</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>3376</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1957</v>
+      </c>
+      <c r="D250" t="n">
+        <v>106</v>
+      </c>
+      <c r="E250" t="n">
+        <v>294</v>
+      </c>
+      <c r="F250" t="n">
+        <v>78</v>
+      </c>
+      <c r="G250" t="n">
+        <v>150</v>
+      </c>
+      <c r="H250" t="n">
+        <v>31</v>
+      </c>
+      <c r="I250" t="n">
+        <v>96</v>
+      </c>
+      <c r="J250" t="n">
+        <v>18</v>
+      </c>
+      <c r="K250" t="n">
+        <v>71</v>
+      </c>
+      <c r="L250" t="n">
+        <v>6</v>
+      </c>
+      <c r="M250" t="n">
+        <v>16</v>
+      </c>
+      <c r="N250" t="n">
+        <v>43</v>
+      </c>
+      <c r="O250" t="n">
+        <v>53</v>
+      </c>
+      <c r="P250" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="R250" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="S250" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="T250" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="U250" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="V250" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="W250" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="X250" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>41.51</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>98.11</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>47.06</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>94.12</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>94.12</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="AW250" t="inlineStr"/>
+      <c r="AX250" t="inlineStr"/>
+      <c r="AY250" t="inlineStr"/>
+      <c r="AZ250" t="inlineStr"/>
+      <c r="BA250" t="inlineStr"/>
+      <c r="BB250" t="inlineStr"/>
+      <c r="BC250" t="inlineStr"/>
+      <c r="BD250" t="inlineStr"/>
+      <c r="BE250" t="inlineStr"/>
+      <c r="BF250" t="inlineStr"/>
+      <c r="BG250" t="inlineStr"/>
+      <c r="BH250" t="inlineStr"/>
+      <c r="BI250" t="inlineStr"/>
+      <c r="BJ250" t="inlineStr"/>
+      <c r="BK250" t="inlineStr"/>
+      <c r="BL250" t="inlineStr"/>
+      <c r="BM250" t="inlineStr"/>
+      <c r="BN250" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO250" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="BP250" t="n">
+        <v>-5.28</v>
+      </c>
+      <c r="BQ250" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="BR250" t="n">
+        <v>-7.22</v>
+      </c>
+      <c r="BS250" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="BT250" t="n">
+        <v>-6.88</v>
+      </c>
+      <c r="BU250" t="n">
+        <v>-8.57</v>
+      </c>
+      <c r="BV250" t="n">
+        <v>-8.07</v>
+      </c>
+      <c r="BW250" t="n">
+        <v>-9.81</v>
+      </c>
+      <c r="BX250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY250" t="n">
+        <v>50</v>
+      </c>
+      <c r="BZ250" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA250" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB250" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC250" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD250" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE250" t="n">
+        <v>27</v>
+      </c>
+      <c r="CF250" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CG250" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CH250" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="CI250" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="CJ250" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="CK250" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="CL250" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="CM250" t="n">
+        <v>-2.56</v>
+      </c>
+      <c r="CN250" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="CO250" t="n">
+        <v>70.37</v>
+      </c>
+      <c r="CP250" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="CQ250" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="CR250" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="CS250" t="n">
+        <v>85.19</v>
+      </c>
+      <c r="CT250" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="CU250" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="CV250" t="inlineStr"/>
+      <c r="CW250" t="inlineStr"/>
+      <c r="CX250" t="inlineStr"/>
+      <c r="CY250" t="inlineStr"/>
+      <c r="CZ250" t="inlineStr"/>
+      <c r="DA250" t="inlineStr"/>
+      <c r="DB250" t="inlineStr"/>
+      <c r="DC250" t="inlineStr"/>
+      <c r="DD250" t="inlineStr"/>
+      <c r="DE250" t="inlineStr"/>
+      <c r="DF250" t="inlineStr"/>
+      <c r="DG250" t="inlineStr"/>
+      <c r="DH250" t="inlineStr"/>
+      <c r="DI250" t="inlineStr"/>
+      <c r="DJ250" t="inlineStr"/>
+      <c r="DK250" t="inlineStr"/>
+      <c r="DL250" t="inlineStr"/>
+      <c r="DM250" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="DN250" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="DO250" t="n">
+        <v>26</v>
+      </c>
+      <c r="DP250" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="DQ250" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="DR250" t="n">
+        <v>13</v>
+      </c>
+      <c r="DS250" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="DT250" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="DU250" t="n">
+        <v>2</v>
+      </c>
+      <c r="DV250" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="DW250" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="DX250" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>20251111</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2785</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2504</v>
+      </c>
+      <c r="D251" t="n">
+        <v>150</v>
+      </c>
+      <c r="E251" t="n">
+        <v>214</v>
+      </c>
+      <c r="F251" t="n">
+        <v>71</v>
+      </c>
+      <c r="G251" t="n">
+        <v>122</v>
+      </c>
+      <c r="H251" t="n">
+        <v>21</v>
+      </c>
+      <c r="I251" t="n">
+        <v>95</v>
+      </c>
+      <c r="J251" t="n">
+        <v>7</v>
+      </c>
+      <c r="K251" t="n">
+        <v>67</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>24</v>
+      </c>
+      <c r="N251" t="n">
+        <v>28</v>
+      </c>
+      <c r="O251" t="n">
+        <v>71</v>
+      </c>
+      <c r="P251" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R251" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="S251" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="T251" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="U251" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="V251" t="n">
+        <v>12</v>
+      </c>
+      <c r="W251" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="X251" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>67.61</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>63.38</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>46.48</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>97.18000000000001</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>94.37</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>67.61</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>63.38</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AW251" t="inlineStr"/>
+      <c r="AX251" t="inlineStr"/>
+      <c r="AY251" t="inlineStr"/>
+      <c r="AZ251" t="inlineStr"/>
+      <c r="BA251" t="inlineStr"/>
+      <c r="BB251" t="inlineStr"/>
+      <c r="BC251" t="inlineStr"/>
+      <c r="BD251" t="inlineStr"/>
+      <c r="BE251" t="inlineStr"/>
+      <c r="BF251" t="inlineStr"/>
+      <c r="BG251" t="inlineStr"/>
+      <c r="BH251" t="inlineStr"/>
+      <c r="BI251" t="inlineStr"/>
+      <c r="BJ251" t="inlineStr"/>
+      <c r="BK251" t="inlineStr"/>
+      <c r="BL251" t="inlineStr"/>
+      <c r="BM251" t="inlineStr"/>
+      <c r="BN251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO251" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="BP251" t="n">
+        <v>-4.86</v>
+      </c>
+      <c r="BQ251" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="BR251" t="n">
+        <v>-6.51</v>
+      </c>
+      <c r="BS251" t="n">
+        <v>-2.63</v>
+      </c>
+      <c r="BT251" t="n">
+        <v>-8.33</v>
+      </c>
+      <c r="BU251" t="n">
+        <v>-10.71</v>
+      </c>
+      <c r="BV251" t="n">
+        <v>-8.779999999999999</v>
+      </c>
+      <c r="BW251" t="n">
+        <v>-11.14</v>
+      </c>
+      <c r="BX251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ251" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="CA251" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB251" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC251" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD251" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE251" t="n">
+        <v>43</v>
+      </c>
+      <c r="CF251" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="CG251" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="CH251" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="CI251" t="n">
+        <v>-3.53</v>
+      </c>
+      <c r="CJ251" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="CK251" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="CL251" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="CM251" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="CN251" t="n">
+        <v>-4.55</v>
+      </c>
+      <c r="CO251" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="CP251" t="n">
+        <v>27.91</v>
+      </c>
+      <c r="CQ251" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="CR251" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="CS251" t="n">
+        <v>79.06999999999999</v>
+      </c>
+      <c r="CT251" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="CU251" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="CV251" t="inlineStr"/>
+      <c r="CW251" t="inlineStr"/>
+      <c r="CX251" t="inlineStr"/>
+      <c r="CY251" t="inlineStr"/>
+      <c r="CZ251" t="inlineStr"/>
+      <c r="DA251" t="inlineStr"/>
+      <c r="DB251" t="inlineStr"/>
+      <c r="DC251" t="inlineStr"/>
+      <c r="DD251" t="inlineStr"/>
+      <c r="DE251" t="inlineStr"/>
+      <c r="DF251" t="inlineStr"/>
+      <c r="DG251" t="inlineStr"/>
+      <c r="DH251" t="inlineStr"/>
+      <c r="DI251" t="inlineStr"/>
+      <c r="DJ251" t="inlineStr"/>
+      <c r="DK251" t="inlineStr"/>
+      <c r="DL251" t="inlineStr"/>
+      <c r="DM251" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="DN251" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="DO251" t="n">
+        <v>36</v>
+      </c>
+      <c r="DP251" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="DQ251" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="DR251" t="n">
+        <v>8</v>
+      </c>
+      <c r="DS251" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="DT251" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="DU251" t="n">
+        <v>7</v>
+      </c>
+      <c r="DV251" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="DW251" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="DX251" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX251"/>
+  <dimension ref="A1:DX253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83357,6 +83357,646 @@
         <v>20</v>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>20251112</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1758</v>
+      </c>
+      <c r="C252" t="n">
+        <v>3563</v>
+      </c>
+      <c r="D252" t="n">
+        <v>120</v>
+      </c>
+      <c r="E252" t="n">
+        <v>186</v>
+      </c>
+      <c r="F252" t="n">
+        <v>150</v>
+      </c>
+      <c r="G252" t="n">
+        <v>101</v>
+      </c>
+      <c r="H252" t="n">
+        <v>50</v>
+      </c>
+      <c r="I252" t="n">
+        <v>76</v>
+      </c>
+      <c r="J252" t="n">
+        <v>18</v>
+      </c>
+      <c r="K252" t="n">
+        <v>58</v>
+      </c>
+      <c r="L252" t="n">
+        <v>5</v>
+      </c>
+      <c r="M252" t="n">
+        <v>21</v>
+      </c>
+      <c r="N252" t="n">
+        <v>19</v>
+      </c>
+      <c r="O252" t="n">
+        <v>67</v>
+      </c>
+      <c r="P252" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R252" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="S252" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="T252" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="U252" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="V252" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="W252" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="X252" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>74.63</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>53.73</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>37.31</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>94.03</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>74.63</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>53.73</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>54.17</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>95.83</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AW252" t="inlineStr"/>
+      <c r="AX252" t="inlineStr"/>
+      <c r="AY252" t="inlineStr"/>
+      <c r="AZ252" t="inlineStr"/>
+      <c r="BA252" t="inlineStr"/>
+      <c r="BB252" t="inlineStr"/>
+      <c r="BC252" t="inlineStr"/>
+      <c r="BD252" t="inlineStr"/>
+      <c r="BE252" t="inlineStr"/>
+      <c r="BF252" t="inlineStr"/>
+      <c r="BG252" t="inlineStr"/>
+      <c r="BH252" t="inlineStr"/>
+      <c r="BI252" t="inlineStr"/>
+      <c r="BJ252" t="inlineStr"/>
+      <c r="BK252" t="inlineStr"/>
+      <c r="BL252" t="inlineStr"/>
+      <c r="BM252" t="inlineStr"/>
+      <c r="BN252" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO252" t="n">
+        <v>-5.03</v>
+      </c>
+      <c r="BP252" t="n">
+        <v>-9.210000000000001</v>
+      </c>
+      <c r="BQ252" t="n">
+        <v>-3.02</v>
+      </c>
+      <c r="BR252" t="n">
+        <v>-9.67</v>
+      </c>
+      <c r="BS252" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="BT252" t="n">
+        <v>-10.04</v>
+      </c>
+      <c r="BU252" t="n">
+        <v>-14</v>
+      </c>
+      <c r="BV252" t="n">
+        <v>-11.85</v>
+      </c>
+      <c r="BW252" t="n">
+        <v>-15.73</v>
+      </c>
+      <c r="BX252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ252" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA252" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB252" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC252" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD252" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE252" t="n">
+        <v>28</v>
+      </c>
+      <c r="CF252" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="CG252" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="CH252" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="CI252" t="n">
+        <v>-5.66</v>
+      </c>
+      <c r="CJ252" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="CK252" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="CL252" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="CM252" t="n">
+        <v>-6.01</v>
+      </c>
+      <c r="CN252" t="n">
+        <v>-6.37</v>
+      </c>
+      <c r="CO252" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="CP252" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="CQ252" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="CR252" t="n">
+        <v>75</v>
+      </c>
+      <c r="CS252" t="n">
+        <v>67.86</v>
+      </c>
+      <c r="CT252" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU252" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="CV252" t="inlineStr"/>
+      <c r="CW252" t="inlineStr"/>
+      <c r="CX252" t="inlineStr"/>
+      <c r="CY252" t="inlineStr"/>
+      <c r="CZ252" t="inlineStr"/>
+      <c r="DA252" t="inlineStr"/>
+      <c r="DB252" t="inlineStr"/>
+      <c r="DC252" t="inlineStr"/>
+      <c r="DD252" t="inlineStr"/>
+      <c r="DE252" t="inlineStr"/>
+      <c r="DF252" t="inlineStr"/>
+      <c r="DG252" t="inlineStr"/>
+      <c r="DH252" t="inlineStr"/>
+      <c r="DI252" t="inlineStr"/>
+      <c r="DJ252" t="inlineStr"/>
+      <c r="DK252" t="inlineStr"/>
+      <c r="DL252" t="inlineStr"/>
+      <c r="DM252" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="DN252" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="DO252" t="n">
+        <v>42</v>
+      </c>
+      <c r="DP252" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="DQ252" t="n">
+        <v>-3.79</v>
+      </c>
+      <c r="DR252" t="n">
+        <v>3</v>
+      </c>
+      <c r="DS252" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="DT252" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="DU252" t="n">
+        <v>6</v>
+      </c>
+      <c r="DV252" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="DW252" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="DX252" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>20251113</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>3953</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1338</v>
+      </c>
+      <c r="D253" t="n">
+        <v>149</v>
+      </c>
+      <c r="E253" t="n">
+        <v>336</v>
+      </c>
+      <c r="F253" t="n">
+        <v>12</v>
+      </c>
+      <c r="G253" t="n">
+        <v>188</v>
+      </c>
+      <c r="H253" t="n">
+        <v>3</v>
+      </c>
+      <c r="I253" t="n">
+        <v>128</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
+      <c r="K253" t="n">
+        <v>85</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>23</v>
+      </c>
+      <c r="N253" t="n">
+        <v>41</v>
+      </c>
+      <c r="O253" t="n">
+        <v>58</v>
+      </c>
+      <c r="P253" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="R253" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="S253" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T253" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="U253" t="n">
+        <v>11</v>
+      </c>
+      <c r="V253" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="W253" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="X253" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>74.14</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>72.41</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>96.55</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>96.55</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>74.14</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>72.41</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>52.38</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>90.48</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>95.23999999999999</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="AW253" t="inlineStr"/>
+      <c r="AX253" t="inlineStr"/>
+      <c r="AY253" t="inlineStr"/>
+      <c r="AZ253" t="inlineStr"/>
+      <c r="BA253" t="inlineStr"/>
+      <c r="BB253" t="inlineStr"/>
+      <c r="BC253" t="inlineStr"/>
+      <c r="BD253" t="inlineStr"/>
+      <c r="BE253" t="inlineStr"/>
+      <c r="BF253" t="inlineStr"/>
+      <c r="BG253" t="inlineStr"/>
+      <c r="BH253" t="inlineStr"/>
+      <c r="BI253" t="inlineStr"/>
+      <c r="BJ253" t="inlineStr"/>
+      <c r="BK253" t="inlineStr"/>
+      <c r="BL253" t="inlineStr"/>
+      <c r="BM253" t="inlineStr"/>
+      <c r="BN253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO253" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="BP253" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="BQ253" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BR253" t="n">
+        <v>-4.44</v>
+      </c>
+      <c r="BS253" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BT253" t="n">
+        <v>-7.88</v>
+      </c>
+      <c r="BU253" t="n">
+        <v>-5.96</v>
+      </c>
+      <c r="BV253" t="n">
+        <v>-9.35</v>
+      </c>
+      <c r="BW253" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="BX253" t="n">
+        <v>20</v>
+      </c>
+      <c r="BY253" t="n">
+        <v>20</v>
+      </c>
+      <c r="BZ253" t="n">
+        <v>60</v>
+      </c>
+      <c r="CA253" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB253" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC253" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD253" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE253" t="n">
+        <v>19</v>
+      </c>
+      <c r="CF253" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="CG253" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="CH253" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="CI253" t="n">
+        <v>-3.23</v>
+      </c>
+      <c r="CJ253" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="CK253" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="CL253" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="CM253" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="CN253" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="CO253" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="CP253" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="CQ253" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="CR253" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="CS253" t="n">
+        <v>78.95</v>
+      </c>
+      <c r="CT253" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="CU253" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="CV253" t="inlineStr"/>
+      <c r="CW253" t="inlineStr"/>
+      <c r="CX253" t="inlineStr"/>
+      <c r="CY253" t="inlineStr"/>
+      <c r="CZ253" t="inlineStr"/>
+      <c r="DA253" t="inlineStr"/>
+      <c r="DB253" t="inlineStr"/>
+      <c r="DC253" t="inlineStr"/>
+      <c r="DD253" t="inlineStr"/>
+      <c r="DE253" t="inlineStr"/>
+      <c r="DF253" t="inlineStr"/>
+      <c r="DG253" t="inlineStr"/>
+      <c r="DH253" t="inlineStr"/>
+      <c r="DI253" t="inlineStr"/>
+      <c r="DJ253" t="inlineStr"/>
+      <c r="DK253" t="inlineStr"/>
+      <c r="DL253" t="inlineStr"/>
+      <c r="DM253" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="DN253" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="DO253" t="n">
+        <v>29</v>
+      </c>
+      <c r="DP253" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="DQ253" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="DR253" t="n">
+        <v>7</v>
+      </c>
+      <c r="DS253" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="DT253" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="DU253" t="n">
+        <v>6</v>
+      </c>
+      <c r="DV253" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="DW253" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="DX253" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX253"/>
+  <dimension ref="A1:DX254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83997,6 +83997,292 @@
         <v>16</v>
       </c>
     </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>20251114</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3323</v>
+      </c>
+      <c r="D254" t="n">
+        <v>154</v>
+      </c>
+      <c r="E254" t="n">
+        <v>188</v>
+      </c>
+      <c r="F254" t="n">
+        <v>176</v>
+      </c>
+      <c r="G254" t="n">
+        <v>118</v>
+      </c>
+      <c r="H254" t="n">
+        <v>57</v>
+      </c>
+      <c r="I254" t="n">
+        <v>91</v>
+      </c>
+      <c r="J254" t="n">
+        <v>35</v>
+      </c>
+      <c r="K254" t="n">
+        <v>70</v>
+      </c>
+      <c r="L254" t="n">
+        <v>6</v>
+      </c>
+      <c r="M254" t="n">
+        <v>25</v>
+      </c>
+      <c r="N254" t="n">
+        <v>29</v>
+      </c>
+      <c r="O254" t="n">
+        <v>85</v>
+      </c>
+      <c r="P254" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R254" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="S254" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="T254" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="U254" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="V254" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="X254" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>57.65</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>43.53</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>97.65000000000001</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>90.59</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>57.65</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>65.22</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>43.48</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>73.91</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>65.22</v>
+      </c>
+      <c r="AW254" t="inlineStr"/>
+      <c r="AX254" t="inlineStr"/>
+      <c r="AY254" t="inlineStr"/>
+      <c r="AZ254" t="inlineStr"/>
+      <c r="BA254" t="inlineStr"/>
+      <c r="BB254" t="inlineStr"/>
+      <c r="BC254" t="inlineStr"/>
+      <c r="BD254" t="inlineStr"/>
+      <c r="BE254" t="inlineStr"/>
+      <c r="BF254" t="inlineStr"/>
+      <c r="BG254" t="inlineStr"/>
+      <c r="BH254" t="inlineStr"/>
+      <c r="BI254" t="inlineStr"/>
+      <c r="BJ254" t="inlineStr"/>
+      <c r="BK254" t="inlineStr"/>
+      <c r="BL254" t="inlineStr"/>
+      <c r="BM254" t="inlineStr"/>
+      <c r="BN254" t="inlineStr"/>
+      <c r="BO254" t="inlineStr"/>
+      <c r="BP254" t="inlineStr"/>
+      <c r="BQ254" t="inlineStr"/>
+      <c r="BR254" t="inlineStr"/>
+      <c r="BS254" t="inlineStr"/>
+      <c r="BT254" t="inlineStr"/>
+      <c r="BU254" t="inlineStr"/>
+      <c r="BV254" t="inlineStr"/>
+      <c r="BW254" t="inlineStr"/>
+      <c r="BX254" t="inlineStr"/>
+      <c r="BY254" t="inlineStr"/>
+      <c r="BZ254" t="inlineStr"/>
+      <c r="CA254" t="inlineStr"/>
+      <c r="CB254" t="inlineStr"/>
+      <c r="CC254" t="inlineStr"/>
+      <c r="CD254" t="inlineStr"/>
+      <c r="CE254" t="n">
+        <v>41</v>
+      </c>
+      <c r="CF254" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="CG254" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="CH254" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="CI254" t="n">
+        <v>-4</v>
+      </c>
+      <c r="CJ254" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="CK254" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="CL254" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="CM254" t="n">
+        <v>-4.84</v>
+      </c>
+      <c r="CN254" t="n">
+        <v>-4.77</v>
+      </c>
+      <c r="CO254" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="CP254" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="CQ254" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="CR254" t="n">
+        <v>90.23999999999999</v>
+      </c>
+      <c r="CS254" t="n">
+        <v>90.23999999999999</v>
+      </c>
+      <c r="CT254" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="CU254" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="CV254" t="inlineStr"/>
+      <c r="CW254" t="inlineStr"/>
+      <c r="CX254" t="inlineStr"/>
+      <c r="CY254" t="inlineStr"/>
+      <c r="CZ254" t="inlineStr"/>
+      <c r="DA254" t="inlineStr"/>
+      <c r="DB254" t="inlineStr"/>
+      <c r="DC254" t="inlineStr"/>
+      <c r="DD254" t="inlineStr"/>
+      <c r="DE254" t="inlineStr"/>
+      <c r="DF254" t="inlineStr"/>
+      <c r="DG254" t="inlineStr"/>
+      <c r="DH254" t="inlineStr"/>
+      <c r="DI254" t="inlineStr"/>
+      <c r="DJ254" t="inlineStr"/>
+      <c r="DK254" t="inlineStr"/>
+      <c r="DL254" t="inlineStr"/>
+      <c r="DM254" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="DN254" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="DO254" t="n">
+        <v>41</v>
+      </c>
+      <c r="DP254" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="DQ254" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="DR254" t="n">
+        <v>10</v>
+      </c>
+      <c r="DS254" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="DT254" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="DU254" t="n">
+        <v>9</v>
+      </c>
+      <c r="DV254" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="DW254" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="DX254" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX254"/>
+  <dimension ref="A1:DX255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84283,6 +84283,326 @@
         <v>25</v>
       </c>
     </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>20251117</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2584</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2726</v>
+      </c>
+      <c r="D255" t="n">
+        <v>127</v>
+      </c>
+      <c r="E255" t="n">
+        <v>257</v>
+      </c>
+      <c r="F255" t="n">
+        <v>82</v>
+      </c>
+      <c r="G255" t="n">
+        <v>149</v>
+      </c>
+      <c r="H255" t="n">
+        <v>32</v>
+      </c>
+      <c r="I255" t="n">
+        <v>115</v>
+      </c>
+      <c r="J255" t="n">
+        <v>15</v>
+      </c>
+      <c r="K255" t="n">
+        <v>85</v>
+      </c>
+      <c r="L255" t="n">
+        <v>4</v>
+      </c>
+      <c r="M255" t="n">
+        <v>34</v>
+      </c>
+      <c r="N255" t="n">
+        <v>25</v>
+      </c>
+      <c r="O255" t="n">
+        <v>70</v>
+      </c>
+      <c r="P255" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R255" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="S255" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="T255" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="U255" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="V255" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="W255" t="n">
+        <v>3</v>
+      </c>
+      <c r="X255" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>92.86</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>88.56999999999999</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>72</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>64</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>80</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>72</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>72</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>64</v>
+      </c>
+      <c r="AW255" t="inlineStr"/>
+      <c r="AX255" t="inlineStr"/>
+      <c r="AY255" t="inlineStr"/>
+      <c r="AZ255" t="inlineStr"/>
+      <c r="BA255" t="inlineStr"/>
+      <c r="BB255" t="inlineStr"/>
+      <c r="BC255" t="inlineStr"/>
+      <c r="BD255" t="inlineStr"/>
+      <c r="BE255" t="inlineStr"/>
+      <c r="BF255" t="inlineStr"/>
+      <c r="BG255" t="inlineStr"/>
+      <c r="BH255" t="inlineStr"/>
+      <c r="BI255" t="inlineStr"/>
+      <c r="BJ255" t="inlineStr"/>
+      <c r="BK255" t="inlineStr"/>
+      <c r="BL255" t="inlineStr"/>
+      <c r="BM255" t="inlineStr"/>
+      <c r="BN255" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO255" t="n">
+        <v>-4.42</v>
+      </c>
+      <c r="BP255" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="BQ255" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BR255" t="n">
+        <v>-6.88</v>
+      </c>
+      <c r="BS255" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BT255" t="n">
+        <v>-11.52</v>
+      </c>
+      <c r="BU255" t="n">
+        <v>-10.19</v>
+      </c>
+      <c r="BV255" t="n">
+        <v>-12.95</v>
+      </c>
+      <c r="BW255" t="n">
+        <v>-11.73</v>
+      </c>
+      <c r="BX255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY255" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BZ255" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA255" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB255" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="CC255" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD255" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE255" t="n">
+        <v>29</v>
+      </c>
+      <c r="CF255" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="CG255" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="CH255" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="CI255" t="n">
+        <v>-2.81</v>
+      </c>
+      <c r="CJ255" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="CK255" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="CL255" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="CM255" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="CN255" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="CO255" t="n">
+        <v>46.43</v>
+      </c>
+      <c r="CP255" t="n">
+        <v>46.43</v>
+      </c>
+      <c r="CQ255" t="n">
+        <v>50</v>
+      </c>
+      <c r="CR255" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="CS255" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="CT255" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="CU255" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="CV255" t="inlineStr"/>
+      <c r="CW255" t="inlineStr"/>
+      <c r="CX255" t="inlineStr"/>
+      <c r="CY255" t="inlineStr"/>
+      <c r="CZ255" t="inlineStr"/>
+      <c r="DA255" t="inlineStr"/>
+      <c r="DB255" t="inlineStr"/>
+      <c r="DC255" t="inlineStr"/>
+      <c r="DD255" t="inlineStr"/>
+      <c r="DE255" t="inlineStr"/>
+      <c r="DF255" t="inlineStr"/>
+      <c r="DG255" t="inlineStr"/>
+      <c r="DH255" t="inlineStr"/>
+      <c r="DI255" t="inlineStr"/>
+      <c r="DJ255" t="inlineStr"/>
+      <c r="DK255" t="inlineStr"/>
+      <c r="DL255" t="inlineStr"/>
+      <c r="DM255" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="DN255" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="DO255" t="n">
+        <v>40</v>
+      </c>
+      <c r="DP255" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="DQ255" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="DR255" t="n">
+        <v>7</v>
+      </c>
+      <c r="DS255" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="DT255" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="DU255" t="n">
+        <v>9</v>
+      </c>
+      <c r="DV255" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="DW255" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="DX255" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX255"/>
+  <dimension ref="A1:DX256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84603,6 +84603,326 @@
         <v>14</v>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>20251118</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1278</v>
+      </c>
+      <c r="C256" t="n">
+        <v>4106</v>
+      </c>
+      <c r="D256" t="n">
+        <v>56</v>
+      </c>
+      <c r="E256" t="n">
+        <v>132</v>
+      </c>
+      <c r="F256" t="n">
+        <v>262</v>
+      </c>
+      <c r="G256" t="n">
+        <v>79</v>
+      </c>
+      <c r="H256" t="n">
+        <v>116</v>
+      </c>
+      <c r="I256" t="n">
+        <v>63</v>
+      </c>
+      <c r="J256" t="n">
+        <v>64</v>
+      </c>
+      <c r="K256" t="n">
+        <v>45</v>
+      </c>
+      <c r="L256" t="n">
+        <v>31</v>
+      </c>
+      <c r="M256" t="n">
+        <v>22</v>
+      </c>
+      <c r="N256" t="n">
+        <v>26</v>
+      </c>
+      <c r="O256" t="n">
+        <v>85</v>
+      </c>
+      <c r="P256" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="R256" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="S256" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="T256" t="n">
+        <v>-3</v>
+      </c>
+      <c r="U256" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="V256" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="W256" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="X256" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>73.48999999999999</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>39.76</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>97.59</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>77.11</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>73.48999999999999</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>39.76</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>-4.23</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>84.84999999999999</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>84.84999999999999</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="AW256" t="inlineStr"/>
+      <c r="AX256" t="inlineStr"/>
+      <c r="AY256" t="inlineStr"/>
+      <c r="AZ256" t="inlineStr"/>
+      <c r="BA256" t="inlineStr"/>
+      <c r="BB256" t="inlineStr"/>
+      <c r="BC256" t="inlineStr"/>
+      <c r="BD256" t="inlineStr"/>
+      <c r="BE256" t="inlineStr"/>
+      <c r="BF256" t="inlineStr"/>
+      <c r="BG256" t="inlineStr"/>
+      <c r="BH256" t="inlineStr"/>
+      <c r="BI256" t="inlineStr"/>
+      <c r="BJ256" t="inlineStr"/>
+      <c r="BK256" t="inlineStr"/>
+      <c r="BL256" t="inlineStr"/>
+      <c r="BM256" t="inlineStr"/>
+      <c r="BN256" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO256" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="BP256" t="n">
+        <v>-5.07</v>
+      </c>
+      <c r="BQ256" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="BR256" t="n">
+        <v>-8.07</v>
+      </c>
+      <c r="BS256" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="BT256" t="n">
+        <v>-9.73</v>
+      </c>
+      <c r="BU256" t="n">
+        <v>-12.22</v>
+      </c>
+      <c r="BV256" t="n">
+        <v>-10.53</v>
+      </c>
+      <c r="BW256" t="n">
+        <v>-13.02</v>
+      </c>
+      <c r="BX256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY256" t="n">
+        <v>25</v>
+      </c>
+      <c r="BZ256" t="n">
+        <v>25</v>
+      </c>
+      <c r="CA256" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB256" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC256" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD256" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE256" t="n">
+        <v>25</v>
+      </c>
+      <c r="CF256" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="CG256" t="n">
+        <v>-2.77</v>
+      </c>
+      <c r="CH256" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="CI256" t="n">
+        <v>-6.23</v>
+      </c>
+      <c r="CJ256" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="CK256" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="CL256" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="CM256" t="n">
+        <v>-5.61</v>
+      </c>
+      <c r="CN256" t="n">
+        <v>-6.94</v>
+      </c>
+      <c r="CO256" t="n">
+        <v>24</v>
+      </c>
+      <c r="CP256" t="n">
+        <v>24</v>
+      </c>
+      <c r="CQ256" t="n">
+        <v>36</v>
+      </c>
+      <c r="CR256" t="n">
+        <v>56</v>
+      </c>
+      <c r="CS256" t="n">
+        <v>48</v>
+      </c>
+      <c r="CT256" t="n">
+        <v>8</v>
+      </c>
+      <c r="CU256" t="n">
+        <v>8</v>
+      </c>
+      <c r="CV256" t="inlineStr"/>
+      <c r="CW256" t="inlineStr"/>
+      <c r="CX256" t="inlineStr"/>
+      <c r="CY256" t="inlineStr"/>
+      <c r="CZ256" t="inlineStr"/>
+      <c r="DA256" t="inlineStr"/>
+      <c r="DB256" t="inlineStr"/>
+      <c r="DC256" t="inlineStr"/>
+      <c r="DD256" t="inlineStr"/>
+      <c r="DE256" t="inlineStr"/>
+      <c r="DF256" t="inlineStr"/>
+      <c r="DG256" t="inlineStr"/>
+      <c r="DH256" t="inlineStr"/>
+      <c r="DI256" t="inlineStr"/>
+      <c r="DJ256" t="inlineStr"/>
+      <c r="DK256" t="inlineStr"/>
+      <c r="DL256" t="inlineStr"/>
+      <c r="DM256" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="DN256" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="DO256" t="n">
+        <v>34</v>
+      </c>
+      <c r="DP256" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="DQ256" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="DR256" t="n">
+        <v>10</v>
+      </c>
+      <c r="DS256" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="DT256" t="n">
+        <v>-2.26</v>
+      </c>
+      <c r="DU256" t="n">
+        <v>9</v>
+      </c>
+      <c r="DV256" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="DW256" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="DX256" t="n">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX256"/>
+  <dimension ref="A1:DX257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84923,6 +84923,326 @@
         <v>30</v>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>20251119</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C257" t="n">
+        <v>4175</v>
+      </c>
+      <c r="D257" t="n">
+        <v>67</v>
+      </c>
+      <c r="E257" t="n">
+        <v>144</v>
+      </c>
+      <c r="F257" t="n">
+        <v>190</v>
+      </c>
+      <c r="G257" t="n">
+        <v>83</v>
+      </c>
+      <c r="H257" t="n">
+        <v>69</v>
+      </c>
+      <c r="I257" t="n">
+        <v>66</v>
+      </c>
+      <c r="J257" t="n">
+        <v>39</v>
+      </c>
+      <c r="K257" t="n">
+        <v>54</v>
+      </c>
+      <c r="L257" t="n">
+        <v>22</v>
+      </c>
+      <c r="M257" t="n">
+        <v>24</v>
+      </c>
+      <c r="N257" t="n">
+        <v>21</v>
+      </c>
+      <c r="O257" t="n">
+        <v>45</v>
+      </c>
+      <c r="P257" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="R257" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="S257" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="T257" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="U257" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="V257" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="W257" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="X257" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>71.11</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>37.78</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>71.11</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>86.36</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>86.36</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="AW257" t="inlineStr"/>
+      <c r="AX257" t="inlineStr"/>
+      <c r="AY257" t="inlineStr"/>
+      <c r="AZ257" t="inlineStr"/>
+      <c r="BA257" t="inlineStr"/>
+      <c r="BB257" t="inlineStr"/>
+      <c r="BC257" t="inlineStr"/>
+      <c r="BD257" t="inlineStr"/>
+      <c r="BE257" t="inlineStr"/>
+      <c r="BF257" t="inlineStr"/>
+      <c r="BG257" t="inlineStr"/>
+      <c r="BH257" t="inlineStr"/>
+      <c r="BI257" t="inlineStr"/>
+      <c r="BJ257" t="inlineStr"/>
+      <c r="BK257" t="inlineStr"/>
+      <c r="BL257" t="inlineStr"/>
+      <c r="BM257" t="inlineStr"/>
+      <c r="BN257" t="n">
+        <v>31</v>
+      </c>
+      <c r="BO257" t="n">
+        <v>-3.45</v>
+      </c>
+      <c r="BP257" t="n">
+        <v>-3.68</v>
+      </c>
+      <c r="BQ257" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="BR257" t="n">
+        <v>-6.85</v>
+      </c>
+      <c r="BS257" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="BT257" t="n">
+        <v>-11.19</v>
+      </c>
+      <c r="BU257" t="n">
+        <v>-11.42</v>
+      </c>
+      <c r="BV257" t="n">
+        <v>-12.12</v>
+      </c>
+      <c r="BW257" t="n">
+        <v>-12.37</v>
+      </c>
+      <c r="BX257" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="BY257" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="BZ257" t="n">
+        <v>35.48</v>
+      </c>
+      <c r="CA257" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB257" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="CC257" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD257" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE257" t="n">
+        <v>26</v>
+      </c>
+      <c r="CF257" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="CG257" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="CH257" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="CI257" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="CJ257" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="CK257" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="CL257" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="CM257" t="n">
+        <v>-6.87</v>
+      </c>
+      <c r="CN257" t="n">
+        <v>-7.77</v>
+      </c>
+      <c r="CO257" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="CP257" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="CQ257" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="CR257" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="CS257" t="n">
+        <v>57.69</v>
+      </c>
+      <c r="CT257" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU257" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="CV257" t="inlineStr"/>
+      <c r="CW257" t="inlineStr"/>
+      <c r="CX257" t="inlineStr"/>
+      <c r="CY257" t="inlineStr"/>
+      <c r="CZ257" t="inlineStr"/>
+      <c r="DA257" t="inlineStr"/>
+      <c r="DB257" t="inlineStr"/>
+      <c r="DC257" t="inlineStr"/>
+      <c r="DD257" t="inlineStr"/>
+      <c r="DE257" t="inlineStr"/>
+      <c r="DF257" t="inlineStr"/>
+      <c r="DG257" t="inlineStr"/>
+      <c r="DH257" t="inlineStr"/>
+      <c r="DI257" t="inlineStr"/>
+      <c r="DJ257" t="inlineStr"/>
+      <c r="DK257" t="inlineStr"/>
+      <c r="DL257" t="inlineStr"/>
+      <c r="DM257" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="DN257" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="DO257" t="n">
+        <v>23</v>
+      </c>
+      <c r="DP257" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="DQ257" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="DR257" t="n">
+        <v>3</v>
+      </c>
+      <c r="DS257" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="DT257" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="DU257" t="n">
+        <v>6</v>
+      </c>
+      <c r="DV257" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="DW257" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="DX257" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX257"/>
+  <dimension ref="A1:DX258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85243,6 +85243,326 @@
         <v>13</v>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>20251120</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1453</v>
+      </c>
+      <c r="C258" t="n">
+        <v>3850</v>
+      </c>
+      <c r="D258" t="n">
+        <v>138</v>
+      </c>
+      <c r="E258" t="n">
+        <v>128</v>
+      </c>
+      <c r="F258" t="n">
+        <v>163</v>
+      </c>
+      <c r="G258" t="n">
+        <v>80</v>
+      </c>
+      <c r="H258" t="n">
+        <v>62</v>
+      </c>
+      <c r="I258" t="n">
+        <v>54</v>
+      </c>
+      <c r="J258" t="n">
+        <v>34</v>
+      </c>
+      <c r="K258" t="n">
+        <v>41</v>
+      </c>
+      <c r="L258" t="n">
+        <v>7</v>
+      </c>
+      <c r="M258" t="n">
+        <v>15</v>
+      </c>
+      <c r="N258" t="n">
+        <v>42</v>
+      </c>
+      <c r="O258" t="n">
+        <v>54</v>
+      </c>
+      <c r="P258" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="R258" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="S258" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="T258" t="n">
+        <v>-3.64</v>
+      </c>
+      <c r="U258" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="V258" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="W258" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="X258" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>62.96</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>98.15000000000001</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>74.06999999999999</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>62.96</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>95.83</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW258" t="inlineStr"/>
+      <c r="AX258" t="inlineStr"/>
+      <c r="AY258" t="inlineStr"/>
+      <c r="AZ258" t="inlineStr"/>
+      <c r="BA258" t="inlineStr"/>
+      <c r="BB258" t="inlineStr"/>
+      <c r="BC258" t="inlineStr"/>
+      <c r="BD258" t="inlineStr"/>
+      <c r="BE258" t="inlineStr"/>
+      <c r="BF258" t="inlineStr"/>
+      <c r="BG258" t="inlineStr"/>
+      <c r="BH258" t="inlineStr"/>
+      <c r="BI258" t="inlineStr"/>
+      <c r="BJ258" t="inlineStr"/>
+      <c r="BK258" t="inlineStr"/>
+      <c r="BL258" t="inlineStr"/>
+      <c r="BM258" t="inlineStr"/>
+      <c r="BN258" t="n">
+        <v>22</v>
+      </c>
+      <c r="BO258" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="BP258" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="BQ258" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BR258" t="n">
+        <v>-7.86</v>
+      </c>
+      <c r="BS258" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="BT258" t="n">
+        <v>-9.51</v>
+      </c>
+      <c r="BU258" t="n">
+        <v>-10.49</v>
+      </c>
+      <c r="BV258" t="n">
+        <v>-12.08</v>
+      </c>
+      <c r="BW258" t="n">
+        <v>-13</v>
+      </c>
+      <c r="BX258" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="BY258" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="BZ258" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="CA258" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB258" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="CC258" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD258" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="CE258" t="n">
+        <v>21</v>
+      </c>
+      <c r="CF258" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="CG258" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="CH258" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="CI258" t="n">
+        <v>-3.71</v>
+      </c>
+      <c r="CJ258" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="CK258" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="CL258" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="CM258" t="n">
+        <v>-5.92</v>
+      </c>
+      <c r="CN258" t="n">
+        <v>-6.33</v>
+      </c>
+      <c r="CO258" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="CP258" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CQ258" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CR258" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="CS258" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="CT258" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU258" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="CV258" t="inlineStr"/>
+      <c r="CW258" t="inlineStr"/>
+      <c r="CX258" t="inlineStr"/>
+      <c r="CY258" t="inlineStr"/>
+      <c r="CZ258" t="inlineStr"/>
+      <c r="DA258" t="inlineStr"/>
+      <c r="DB258" t="inlineStr"/>
+      <c r="DC258" t="inlineStr"/>
+      <c r="DD258" t="inlineStr"/>
+      <c r="DE258" t="inlineStr"/>
+      <c r="DF258" t="inlineStr"/>
+      <c r="DG258" t="inlineStr"/>
+      <c r="DH258" t="inlineStr"/>
+      <c r="DI258" t="inlineStr"/>
+      <c r="DJ258" t="inlineStr"/>
+      <c r="DK258" t="inlineStr"/>
+      <c r="DL258" t="inlineStr"/>
+      <c r="DM258" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="DN258" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="DO258" t="n">
+        <v>27</v>
+      </c>
+      <c r="DP258" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="DQ258" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="DR258" t="n">
+        <v>9</v>
+      </c>
+      <c r="DS258" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="DT258" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="DU258" t="n">
+        <v>6</v>
+      </c>
+      <c r="DV258" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="DW258" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="DX258" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX258"/>
+  <dimension ref="A1:DX259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85563,6 +85563,326 @@
         <v>12</v>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>20251121</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>354</v>
+      </c>
+      <c r="C259" t="n">
+        <v>5072</v>
+      </c>
+      <c r="D259" t="n">
+        <v>18</v>
+      </c>
+      <c r="E259" t="n">
+        <v>62</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1507</v>
+      </c>
+      <c r="G259" t="n">
+        <v>42</v>
+      </c>
+      <c r="H259" t="n">
+        <v>451</v>
+      </c>
+      <c r="I259" t="n">
+        <v>37</v>
+      </c>
+      <c r="J259" t="n">
+        <v>173</v>
+      </c>
+      <c r="K259" t="n">
+        <v>28</v>
+      </c>
+      <c r="L259" t="n">
+        <v>71</v>
+      </c>
+      <c r="M259" t="n">
+        <v>13</v>
+      </c>
+      <c r="N259" t="n">
+        <v>20</v>
+      </c>
+      <c r="O259" t="n">
+        <v>41</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="R259" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="S259" t="n">
+        <v>-4.32</v>
+      </c>
+      <c r="T259" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="U259" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="V259" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="W259" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="X259" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>41.46</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>85.37</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>80.48999999999999</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>41.46</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>-5.46</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>60</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>40</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW259" t="inlineStr"/>
+      <c r="AX259" t="inlineStr"/>
+      <c r="AY259" t="inlineStr"/>
+      <c r="AZ259" t="inlineStr"/>
+      <c r="BA259" t="inlineStr"/>
+      <c r="BB259" t="inlineStr"/>
+      <c r="BC259" t="inlineStr"/>
+      <c r="BD259" t="inlineStr"/>
+      <c r="BE259" t="inlineStr"/>
+      <c r="BF259" t="inlineStr"/>
+      <c r="BG259" t="inlineStr"/>
+      <c r="BH259" t="inlineStr"/>
+      <c r="BI259" t="inlineStr"/>
+      <c r="BJ259" t="inlineStr"/>
+      <c r="BK259" t="inlineStr"/>
+      <c r="BL259" t="inlineStr"/>
+      <c r="BM259" t="inlineStr"/>
+      <c r="BN259" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO259" t="n">
+        <v>-9.25</v>
+      </c>
+      <c r="BP259" t="n">
+        <v>-6.56</v>
+      </c>
+      <c r="BQ259" t="n">
+        <v>-2.96</v>
+      </c>
+      <c r="BR259" t="n">
+        <v>-9.69</v>
+      </c>
+      <c r="BS259" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BT259" t="n">
+        <v>-16.75</v>
+      </c>
+      <c r="BU259" t="n">
+        <v>-14.28</v>
+      </c>
+      <c r="BV259" t="n">
+        <v>-18.67</v>
+      </c>
+      <c r="BW259" t="n">
+        <v>-16.23</v>
+      </c>
+      <c r="BX259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY259" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="BZ259" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="CA259" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB259" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CC259" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD259" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CE259" t="n">
+        <v>42</v>
+      </c>
+      <c r="CF259" t="n">
+        <v>-4.17</v>
+      </c>
+      <c r="CG259" t="n">
+        <v>-5.48</v>
+      </c>
+      <c r="CH259" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="CI259" t="n">
+        <v>-6.94</v>
+      </c>
+      <c r="CJ259" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="CK259" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="CL259" t="n">
+        <v>-4</v>
+      </c>
+      <c r="CM259" t="n">
+        <v>-9.65</v>
+      </c>
+      <c r="CN259" t="n">
+        <v>-10.91</v>
+      </c>
+      <c r="CO259" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="CP259" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="CQ259" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CR259" t="n">
+        <v>54.76</v>
+      </c>
+      <c r="CS259" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CT259" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU259" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="CV259" t="inlineStr"/>
+      <c r="CW259" t="inlineStr"/>
+      <c r="CX259" t="inlineStr"/>
+      <c r="CY259" t="inlineStr"/>
+      <c r="CZ259" t="inlineStr"/>
+      <c r="DA259" t="inlineStr"/>
+      <c r="DB259" t="inlineStr"/>
+      <c r="DC259" t="inlineStr"/>
+      <c r="DD259" t="inlineStr"/>
+      <c r="DE259" t="inlineStr"/>
+      <c r="DF259" t="inlineStr"/>
+      <c r="DG259" t="inlineStr"/>
+      <c r="DH259" t="inlineStr"/>
+      <c r="DI259" t="inlineStr"/>
+      <c r="DJ259" t="inlineStr"/>
+      <c r="DK259" t="inlineStr"/>
+      <c r="DL259" t="inlineStr"/>
+      <c r="DM259" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="DN259" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="DO259" t="n">
+        <v>20</v>
+      </c>
+      <c r="DP259" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="DQ259" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="DR259" t="n">
+        <v>5</v>
+      </c>
+      <c r="DS259" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DT259" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="DU259" t="n">
+        <v>6</v>
+      </c>
+      <c r="DV259" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="DW259" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="DX259" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX259"/>
+  <dimension ref="A1:DX260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85883,6 +85883,326 @@
         <v>10</v>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>20251124</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>4228</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D260" t="n">
+        <v>108</v>
+      </c>
+      <c r="E260" t="n">
+        <v>353</v>
+      </c>
+      <c r="F260" t="n">
+        <v>98</v>
+      </c>
+      <c r="G260" t="n">
+        <v>174</v>
+      </c>
+      <c r="H260" t="n">
+        <v>53</v>
+      </c>
+      <c r="I260" t="n">
+        <v>105</v>
+      </c>
+      <c r="J260" t="n">
+        <v>34</v>
+      </c>
+      <c r="K260" t="n">
+        <v>66</v>
+      </c>
+      <c r="L260" t="n">
+        <v>23</v>
+      </c>
+      <c r="M260" t="n">
+        <v>19</v>
+      </c>
+      <c r="N260" t="n">
+        <v>20</v>
+      </c>
+      <c r="O260" t="n">
+        <v>28</v>
+      </c>
+      <c r="P260" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="R260" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="S260" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="T260" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="U260" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="V260" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="W260" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="X260" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>96.43000000000001</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>-5.08</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>76.92</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AW260" t="inlineStr"/>
+      <c r="AX260" t="inlineStr"/>
+      <c r="AY260" t="inlineStr"/>
+      <c r="AZ260" t="inlineStr"/>
+      <c r="BA260" t="inlineStr"/>
+      <c r="BB260" t="inlineStr"/>
+      <c r="BC260" t="inlineStr"/>
+      <c r="BD260" t="inlineStr"/>
+      <c r="BE260" t="inlineStr"/>
+      <c r="BF260" t="inlineStr"/>
+      <c r="BG260" t="inlineStr"/>
+      <c r="BH260" t="inlineStr"/>
+      <c r="BI260" t="inlineStr"/>
+      <c r="BJ260" t="inlineStr"/>
+      <c r="BK260" t="inlineStr"/>
+      <c r="BL260" t="inlineStr"/>
+      <c r="BM260" t="inlineStr"/>
+      <c r="BN260" t="n">
+        <v>71</v>
+      </c>
+      <c r="BO260" t="n">
+        <v>-3.46</v>
+      </c>
+      <c r="BP260" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="BQ260" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="BR260" t="n">
+        <v>-8.06</v>
+      </c>
+      <c r="BS260" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="BT260" t="n">
+        <v>-7.52</v>
+      </c>
+      <c r="BU260" t="n">
+        <v>-9.369999999999999</v>
+      </c>
+      <c r="BV260" t="n">
+        <v>-9.640000000000001</v>
+      </c>
+      <c r="BW260" t="n">
+        <v>-11.43</v>
+      </c>
+      <c r="BX260" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="BY260" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="BZ260" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="CA260" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB260" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="CC260" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD260" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE260" t="n">
+        <v>20</v>
+      </c>
+      <c r="CF260" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="CG260" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="CH260" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="CI260" t="n">
+        <v>-3.85</v>
+      </c>
+      <c r="CJ260" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="CK260" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="CL260" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="CM260" t="n">
+        <v>-7.59</v>
+      </c>
+      <c r="CN260" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="CO260" t="n">
+        <v>30</v>
+      </c>
+      <c r="CP260" t="n">
+        <v>70</v>
+      </c>
+      <c r="CQ260" t="n">
+        <v>65</v>
+      </c>
+      <c r="CR260" t="n">
+        <v>75</v>
+      </c>
+      <c r="CS260" t="n">
+        <v>75</v>
+      </c>
+      <c r="CT260" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU260" t="n">
+        <v>25</v>
+      </c>
+      <c r="CV260" t="inlineStr"/>
+      <c r="CW260" t="inlineStr"/>
+      <c r="CX260" t="inlineStr"/>
+      <c r="CY260" t="inlineStr"/>
+      <c r="CZ260" t="inlineStr"/>
+      <c r="DA260" t="inlineStr"/>
+      <c r="DB260" t="inlineStr"/>
+      <c r="DC260" t="inlineStr"/>
+      <c r="DD260" t="inlineStr"/>
+      <c r="DE260" t="inlineStr"/>
+      <c r="DF260" t="inlineStr"/>
+      <c r="DG260" t="inlineStr"/>
+      <c r="DH260" t="inlineStr"/>
+      <c r="DI260" t="inlineStr"/>
+      <c r="DJ260" t="inlineStr"/>
+      <c r="DK260" t="inlineStr"/>
+      <c r="DL260" t="inlineStr"/>
+      <c r="DM260" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="DN260" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="DO260" t="n">
+        <v>14</v>
+      </c>
+      <c r="DP260" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="DQ260" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="DR260" t="n">
+        <v>4</v>
+      </c>
+      <c r="DS260" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="DT260" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="DU260" t="n">
+        <v>2</v>
+      </c>
+      <c r="DV260" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="DW260" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="DX260" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX260"/>
+  <dimension ref="A1:DX261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86203,6 +86203,326 @@
         <v>8</v>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>20251125</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>4300</v>
+      </c>
+      <c r="C261" t="n">
+        <v>993</v>
+      </c>
+      <c r="D261" t="n">
+        <v>145</v>
+      </c>
+      <c r="E261" t="n">
+        <v>298</v>
+      </c>
+      <c r="F261" t="n">
+        <v>22</v>
+      </c>
+      <c r="G261" t="n">
+        <v>148</v>
+      </c>
+      <c r="H261" t="n">
+        <v>10</v>
+      </c>
+      <c r="I261" t="n">
+        <v>109</v>
+      </c>
+      <c r="J261" t="n">
+        <v>10</v>
+      </c>
+      <c r="K261" t="n">
+        <v>77</v>
+      </c>
+      <c r="L261" t="n">
+        <v>4</v>
+      </c>
+      <c r="M261" t="n">
+        <v>15</v>
+      </c>
+      <c r="N261" t="n">
+        <v>25</v>
+      </c>
+      <c r="O261" t="n">
+        <v>66</v>
+      </c>
+      <c r="P261" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R261" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="S261" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="T261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U261" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="V261" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X261" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>57.81</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>65.62</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>65.62</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>95.31</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>96.88</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>57.81</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>65.62</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>47.37</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>47.37</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="AW261" t="inlineStr"/>
+      <c r="AX261" t="inlineStr"/>
+      <c r="AY261" t="inlineStr"/>
+      <c r="AZ261" t="inlineStr"/>
+      <c r="BA261" t="inlineStr"/>
+      <c r="BB261" t="inlineStr"/>
+      <c r="BC261" t="inlineStr"/>
+      <c r="BD261" t="inlineStr"/>
+      <c r="BE261" t="inlineStr"/>
+      <c r="BF261" t="inlineStr"/>
+      <c r="BG261" t="inlineStr"/>
+      <c r="BH261" t="inlineStr"/>
+      <c r="BI261" t="inlineStr"/>
+      <c r="BJ261" t="inlineStr"/>
+      <c r="BK261" t="inlineStr"/>
+      <c r="BL261" t="inlineStr"/>
+      <c r="BM261" t="inlineStr"/>
+      <c r="BN261" t="n">
+        <v>23</v>
+      </c>
+      <c r="BO261" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="BP261" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="BQ261" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BR261" t="n">
+        <v>-6.28</v>
+      </c>
+      <c r="BS261" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BT261" t="n">
+        <v>-7.56</v>
+      </c>
+      <c r="BU261" t="n">
+        <v>-5.17</v>
+      </c>
+      <c r="BV261" t="n">
+        <v>-9.48</v>
+      </c>
+      <c r="BW261" t="n">
+        <v>-7.15</v>
+      </c>
+      <c r="BX261" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="BY261" t="n">
+        <v>52.17</v>
+      </c>
+      <c r="BZ261" t="n">
+        <v>78.26000000000001</v>
+      </c>
+      <c r="CA261" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="CB261" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="CC261" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="CD261" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CE261" t="n">
+        <v>20</v>
+      </c>
+      <c r="CF261" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="CG261" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="CH261" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="CI261" t="n">
+        <v>-3.31</v>
+      </c>
+      <c r="CJ261" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="CK261" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="CL261" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="CM261" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="CN261" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="CO261" t="n">
+        <v>30</v>
+      </c>
+      <c r="CP261" t="n">
+        <v>50</v>
+      </c>
+      <c r="CQ261" t="n">
+        <v>70</v>
+      </c>
+      <c r="CR261" t="n">
+        <v>80</v>
+      </c>
+      <c r="CS261" t="n">
+        <v>75</v>
+      </c>
+      <c r="CT261" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU261" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV261" t="inlineStr"/>
+      <c r="CW261" t="inlineStr"/>
+      <c r="CX261" t="inlineStr"/>
+      <c r="CY261" t="inlineStr"/>
+      <c r="CZ261" t="inlineStr"/>
+      <c r="DA261" t="inlineStr"/>
+      <c r="DB261" t="inlineStr"/>
+      <c r="DC261" t="inlineStr"/>
+      <c r="DD261" t="inlineStr"/>
+      <c r="DE261" t="inlineStr"/>
+      <c r="DF261" t="inlineStr"/>
+      <c r="DG261" t="inlineStr"/>
+      <c r="DH261" t="inlineStr"/>
+      <c r="DI261" t="inlineStr"/>
+      <c r="DJ261" t="inlineStr"/>
+      <c r="DK261" t="inlineStr"/>
+      <c r="DL261" t="inlineStr"/>
+      <c r="DM261" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="DN261" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="DO261" t="n">
+        <v>39</v>
+      </c>
+      <c r="DP261" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="DQ261" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="DR261" t="n">
+        <v>10</v>
+      </c>
+      <c r="DS261" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="DT261" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="DU261" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV261" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="DW261" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="DX261" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX261"/>
+  <dimension ref="A1:DX262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86523,6 +86523,326 @@
         <v>14</v>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>20251126</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1692</v>
+      </c>
+      <c r="C262" t="n">
+        <v>3593</v>
+      </c>
+      <c r="D262" t="n">
+        <v>149</v>
+      </c>
+      <c r="E262" t="n">
+        <v>185</v>
+      </c>
+      <c r="F262" t="n">
+        <v>101</v>
+      </c>
+      <c r="G262" t="n">
+        <v>110</v>
+      </c>
+      <c r="H262" t="n">
+        <v>37</v>
+      </c>
+      <c r="I262" t="n">
+        <v>90</v>
+      </c>
+      <c r="J262" t="n">
+        <v>21</v>
+      </c>
+      <c r="K262" t="n">
+        <v>68</v>
+      </c>
+      <c r="L262" t="n">
+        <v>3</v>
+      </c>
+      <c r="M262" t="n">
+        <v>24</v>
+      </c>
+      <c r="N262" t="n">
+        <v>23</v>
+      </c>
+      <c r="O262" t="n">
+        <v>77</v>
+      </c>
+      <c r="P262" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="R262" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="S262" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="T262" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="U262" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="V262" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="W262" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="X262" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>64.94</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>64.94</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AW262" t="inlineStr"/>
+      <c r="AX262" t="inlineStr"/>
+      <c r="AY262" t="inlineStr"/>
+      <c r="AZ262" t="inlineStr"/>
+      <c r="BA262" t="inlineStr"/>
+      <c r="BB262" t="inlineStr"/>
+      <c r="BC262" t="inlineStr"/>
+      <c r="BD262" t="inlineStr"/>
+      <c r="BE262" t="inlineStr"/>
+      <c r="BF262" t="inlineStr"/>
+      <c r="BG262" t="inlineStr"/>
+      <c r="BH262" t="inlineStr"/>
+      <c r="BI262" t="inlineStr"/>
+      <c r="BJ262" t="inlineStr"/>
+      <c r="BK262" t="inlineStr"/>
+      <c r="BL262" t="inlineStr"/>
+      <c r="BM262" t="inlineStr"/>
+      <c r="BN262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO262" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="BP262" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="BQ262" t="n">
+        <v>-3.55</v>
+      </c>
+      <c r="BR262" t="n">
+        <v>-8.640000000000001</v>
+      </c>
+      <c r="BS262" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="BT262" t="n">
+        <v>-12.21</v>
+      </c>
+      <c r="BU262" t="n">
+        <v>-14.51</v>
+      </c>
+      <c r="BV262" t="n">
+        <v>-12.72</v>
+      </c>
+      <c r="BW262" t="n">
+        <v>-15</v>
+      </c>
+      <c r="BX262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ262" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA262" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB262" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC262" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD262" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE262" t="n">
+        <v>25</v>
+      </c>
+      <c r="CF262" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="CG262" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="CH262" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="CI262" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="CJ262" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="CK262" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="CL262" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="CM262" t="n">
+        <v>-4.57</v>
+      </c>
+      <c r="CN262" t="n">
+        <v>-5.04</v>
+      </c>
+      <c r="CO262" t="n">
+        <v>28</v>
+      </c>
+      <c r="CP262" t="n">
+        <v>24</v>
+      </c>
+      <c r="CQ262" t="n">
+        <v>28</v>
+      </c>
+      <c r="CR262" t="n">
+        <v>88</v>
+      </c>
+      <c r="CS262" t="n">
+        <v>84</v>
+      </c>
+      <c r="CT262" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU262" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV262" t="inlineStr"/>
+      <c r="CW262" t="inlineStr"/>
+      <c r="CX262" t="inlineStr"/>
+      <c r="CY262" t="inlineStr"/>
+      <c r="CZ262" t="inlineStr"/>
+      <c r="DA262" t="inlineStr"/>
+      <c r="DB262" t="inlineStr"/>
+      <c r="DC262" t="inlineStr"/>
+      <c r="DD262" t="inlineStr"/>
+      <c r="DE262" t="inlineStr"/>
+      <c r="DF262" t="inlineStr"/>
+      <c r="DG262" t="inlineStr"/>
+      <c r="DH262" t="inlineStr"/>
+      <c r="DI262" t="inlineStr"/>
+      <c r="DJ262" t="inlineStr"/>
+      <c r="DK262" t="inlineStr"/>
+      <c r="DL262" t="inlineStr"/>
+      <c r="DM262" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="DN262" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="DO262" t="n">
+        <v>46</v>
+      </c>
+      <c r="DP262" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="DQ262" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="DR262" t="n">
+        <v>10</v>
+      </c>
+      <c r="DS262" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="DT262" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="DU262" t="n">
+        <v>10</v>
+      </c>
+      <c r="DV262" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="DW262" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="DX262" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX262"/>
+  <dimension ref="A1:DX263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86843,6 +86843,326 @@
         <v>11</v>
       </c>
     </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>20251127</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2790</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2447</v>
+      </c>
+      <c r="D263" t="n">
+        <v>197</v>
+      </c>
+      <c r="E263" t="n">
+        <v>180</v>
+      </c>
+      <c r="F263" t="n">
+        <v>86</v>
+      </c>
+      <c r="G263" t="n">
+        <v>105</v>
+      </c>
+      <c r="H263" t="n">
+        <v>35</v>
+      </c>
+      <c r="I263" t="n">
+        <v>74</v>
+      </c>
+      <c r="J263" t="n">
+        <v>16</v>
+      </c>
+      <c r="K263" t="n">
+        <v>53</v>
+      </c>
+      <c r="L263" t="n">
+        <v>8</v>
+      </c>
+      <c r="M263" t="n">
+        <v>14</v>
+      </c>
+      <c r="N263" t="n">
+        <v>34</v>
+      </c>
+      <c r="O263" t="n">
+        <v>68</v>
+      </c>
+      <c r="P263" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="R263" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="S263" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="T263" t="n">
+        <v>-2.44</v>
+      </c>
+      <c r="U263" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="V263" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X263" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>55.88</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>36.76</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>92.65000000000001</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>86.76000000000001</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>55.88</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>36.76</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>-4.67</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>-3.01</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>54.17</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>54.17</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AW263" t="inlineStr"/>
+      <c r="AX263" t="inlineStr"/>
+      <c r="AY263" t="inlineStr"/>
+      <c r="AZ263" t="inlineStr"/>
+      <c r="BA263" t="inlineStr"/>
+      <c r="BB263" t="inlineStr"/>
+      <c r="BC263" t="inlineStr"/>
+      <c r="BD263" t="inlineStr"/>
+      <c r="BE263" t="inlineStr"/>
+      <c r="BF263" t="inlineStr"/>
+      <c r="BG263" t="inlineStr"/>
+      <c r="BH263" t="inlineStr"/>
+      <c r="BI263" t="inlineStr"/>
+      <c r="BJ263" t="inlineStr"/>
+      <c r="BK263" t="inlineStr"/>
+      <c r="BL263" t="inlineStr"/>
+      <c r="BM263" t="inlineStr"/>
+      <c r="BN263" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO263" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="BP263" t="n">
+        <v>-8.98</v>
+      </c>
+      <c r="BQ263" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="BR263" t="n">
+        <v>-9.23</v>
+      </c>
+      <c r="BS263" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BT263" t="n">
+        <v>-7.78</v>
+      </c>
+      <c r="BU263" t="n">
+        <v>-11.66</v>
+      </c>
+      <c r="BV263" t="n">
+        <v>-11.18</v>
+      </c>
+      <c r="BW263" t="n">
+        <v>-14.89</v>
+      </c>
+      <c r="BX263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ263" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA263" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB263" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC263" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD263" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE263" t="n">
+        <v>23</v>
+      </c>
+      <c r="CF263" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="CG263" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="CH263" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="CI263" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="CJ263" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="CK263" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="CL263" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="CM263" t="n">
+        <v>-6.69</v>
+      </c>
+      <c r="CN263" t="n">
+        <v>-6.97</v>
+      </c>
+      <c r="CO263" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="CP263" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="CQ263" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="CR263" t="n">
+        <v>73.91</v>
+      </c>
+      <c r="CS263" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="CT263" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CU263" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="CV263" t="inlineStr"/>
+      <c r="CW263" t="inlineStr"/>
+      <c r="CX263" t="inlineStr"/>
+      <c r="CY263" t="inlineStr"/>
+      <c r="CZ263" t="inlineStr"/>
+      <c r="DA263" t="inlineStr"/>
+      <c r="DB263" t="inlineStr"/>
+      <c r="DC263" t="inlineStr"/>
+      <c r="DD263" t="inlineStr"/>
+      <c r="DE263" t="inlineStr"/>
+      <c r="DF263" t="inlineStr"/>
+      <c r="DG263" t="inlineStr"/>
+      <c r="DH263" t="inlineStr"/>
+      <c r="DI263" t="inlineStr"/>
+      <c r="DJ263" t="inlineStr"/>
+      <c r="DK263" t="inlineStr"/>
+      <c r="DL263" t="inlineStr"/>
+      <c r="DM263" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="DN263" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="DO263" t="n">
+        <v>38</v>
+      </c>
+      <c r="DP263" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="DQ263" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="DR263" t="n">
+        <v>12</v>
+      </c>
+      <c r="DS263" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="DT263" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="DU263" t="n">
+        <v>8</v>
+      </c>
+      <c r="DV263" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="DW263" t="n">
+        <v>-3.79</v>
+      </c>
+      <c r="DX263" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX263"/>
+  <dimension ref="A1:DX264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87163,6 +87163,326 @@
         <v>10</v>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>20251128</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>4122</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1193</v>
+      </c>
+      <c r="D264" t="n">
+        <v>118</v>
+      </c>
+      <c r="E264" t="n">
+        <v>265</v>
+      </c>
+      <c r="F264" t="n">
+        <v>29</v>
+      </c>
+      <c r="G264" t="n">
+        <v>131</v>
+      </c>
+      <c r="H264" t="n">
+        <v>15</v>
+      </c>
+      <c r="I264" t="n">
+        <v>98</v>
+      </c>
+      <c r="J264" t="n">
+        <v>8</v>
+      </c>
+      <c r="K264" t="n">
+        <v>70</v>
+      </c>
+      <c r="L264" t="n">
+        <v>3</v>
+      </c>
+      <c r="M264" t="n">
+        <v>16</v>
+      </c>
+      <c r="N264" t="n">
+        <v>27</v>
+      </c>
+      <c r="O264" t="n">
+        <v>53</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="R264" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="S264" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="T264" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="U264" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="V264" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="W264" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="X264" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>52.83</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>47.17</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>90.56999999999999</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>90.56999999999999</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>52.83</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AW264" t="inlineStr"/>
+      <c r="AX264" t="inlineStr"/>
+      <c r="AY264" t="inlineStr"/>
+      <c r="AZ264" t="inlineStr"/>
+      <c r="BA264" t="inlineStr"/>
+      <c r="BB264" t="inlineStr"/>
+      <c r="BC264" t="inlineStr"/>
+      <c r="BD264" t="inlineStr"/>
+      <c r="BE264" t="inlineStr"/>
+      <c r="BF264" t="inlineStr"/>
+      <c r="BG264" t="inlineStr"/>
+      <c r="BH264" t="inlineStr"/>
+      <c r="BI264" t="inlineStr"/>
+      <c r="BJ264" t="inlineStr"/>
+      <c r="BK264" t="inlineStr"/>
+      <c r="BL264" t="inlineStr"/>
+      <c r="BM264" t="inlineStr"/>
+      <c r="BN264" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO264" t="n">
+        <v>-6.03</v>
+      </c>
+      <c r="BP264" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="BQ264" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="BR264" t="n">
+        <v>-7.51</v>
+      </c>
+      <c r="BS264" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BT264" t="n">
+        <v>-12.32</v>
+      </c>
+      <c r="BU264" t="n">
+        <v>-10.91</v>
+      </c>
+      <c r="BV264" t="n">
+        <v>-13.58</v>
+      </c>
+      <c r="BW264" t="n">
+        <v>-12.19</v>
+      </c>
+      <c r="BX264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY264" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BZ264" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="CA264" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB264" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC264" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD264" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE264" t="n">
+        <v>34</v>
+      </c>
+      <c r="CF264" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="CG264" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="CH264" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="CI264" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="CJ264" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="CK264" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="CL264" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="CM264" t="n">
+        <v>-6.28</v>
+      </c>
+      <c r="CN264" t="n">
+        <v>-5.45</v>
+      </c>
+      <c r="CO264" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="CP264" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="CQ264" t="n">
+        <v>57.58</v>
+      </c>
+      <c r="CR264" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="CS264" t="n">
+        <v>78.79000000000001</v>
+      </c>
+      <c r="CT264" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU264" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="CV264" t="inlineStr"/>
+      <c r="CW264" t="inlineStr"/>
+      <c r="CX264" t="inlineStr"/>
+      <c r="CY264" t="inlineStr"/>
+      <c r="CZ264" t="inlineStr"/>
+      <c r="DA264" t="inlineStr"/>
+      <c r="DB264" t="inlineStr"/>
+      <c r="DC264" t="inlineStr"/>
+      <c r="DD264" t="inlineStr"/>
+      <c r="DE264" t="inlineStr"/>
+      <c r="DF264" t="inlineStr"/>
+      <c r="DG264" t="inlineStr"/>
+      <c r="DH264" t="inlineStr"/>
+      <c r="DI264" t="inlineStr"/>
+      <c r="DJ264" t="inlineStr"/>
+      <c r="DK264" t="inlineStr"/>
+      <c r="DL264" t="inlineStr"/>
+      <c r="DM264" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="DN264" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="DO264" t="n">
+        <v>32</v>
+      </c>
+      <c r="DP264" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="DQ264" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="DR264" t="n">
+        <v>4</v>
+      </c>
+      <c r="DS264" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="DT264" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="DU264" t="n">
+        <v>4</v>
+      </c>
+      <c r="DV264" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="DW264" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="DX264" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX264"/>
+  <dimension ref="A1:DX265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87483,6 +87483,326 @@
         <v>13</v>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>20251201</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>3398</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1872</v>
+      </c>
+      <c r="D265" t="n">
+        <v>162</v>
+      </c>
+      <c r="E265" t="n">
+        <v>248</v>
+      </c>
+      <c r="F265" t="n">
+        <v>48</v>
+      </c>
+      <c r="G265" t="n">
+        <v>121</v>
+      </c>
+      <c r="H265" t="n">
+        <v>21</v>
+      </c>
+      <c r="I265" t="n">
+        <v>85</v>
+      </c>
+      <c r="J265" t="n">
+        <v>8</v>
+      </c>
+      <c r="K265" t="n">
+        <v>64</v>
+      </c>
+      <c r="L265" t="n">
+        <v>3</v>
+      </c>
+      <c r="M265" t="n">
+        <v>23</v>
+      </c>
+      <c r="N265" t="n">
+        <v>27</v>
+      </c>
+      <c r="O265" t="n">
+        <v>70</v>
+      </c>
+      <c r="P265" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R265" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="S265" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="T265" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="U265" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="V265" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="W265" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X265" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>62.86</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>47.14</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>98.56999999999999</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>98.56999999999999</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>62.86</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>75</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>75</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AW265" t="inlineStr"/>
+      <c r="AX265" t="inlineStr"/>
+      <c r="AY265" t="inlineStr"/>
+      <c r="AZ265" t="inlineStr"/>
+      <c r="BA265" t="inlineStr"/>
+      <c r="BB265" t="inlineStr"/>
+      <c r="BC265" t="inlineStr"/>
+      <c r="BD265" t="inlineStr"/>
+      <c r="BE265" t="inlineStr"/>
+      <c r="BF265" t="inlineStr"/>
+      <c r="BG265" t="inlineStr"/>
+      <c r="BH265" t="inlineStr"/>
+      <c r="BI265" t="inlineStr"/>
+      <c r="BJ265" t="inlineStr"/>
+      <c r="BK265" t="inlineStr"/>
+      <c r="BL265" t="inlineStr"/>
+      <c r="BM265" t="inlineStr"/>
+      <c r="BN265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO265" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="BP265" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BQ265" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="BR265" t="n">
+        <v>-4.82</v>
+      </c>
+      <c r="BS265" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="BT265" t="n">
+        <v>-11.41</v>
+      </c>
+      <c r="BU265" t="n">
+        <v>-6.39</v>
+      </c>
+      <c r="BV265" t="n">
+        <v>-14.02</v>
+      </c>
+      <c r="BW265" t="n">
+        <v>-9.220000000000001</v>
+      </c>
+      <c r="BX265" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BY265" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="BZ265" t="n">
+        <v>100</v>
+      </c>
+      <c r="CA265" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB265" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC265" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD265" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE265" t="n">
+        <v>27</v>
+      </c>
+      <c r="CF265" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="CG265" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="CH265" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="CI265" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="CJ265" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="CK265" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="CL265" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="CM265" t="n">
+        <v>-3.69</v>
+      </c>
+      <c r="CN265" t="n">
+        <v>-4.36</v>
+      </c>
+      <c r="CO265" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="CP265" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="CQ265" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="CR265" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="CS265" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="CT265" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="CU265" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="CV265" t="inlineStr"/>
+      <c r="CW265" t="inlineStr"/>
+      <c r="CX265" t="inlineStr"/>
+      <c r="CY265" t="inlineStr"/>
+      <c r="CZ265" t="inlineStr"/>
+      <c r="DA265" t="inlineStr"/>
+      <c r="DB265" t="inlineStr"/>
+      <c r="DC265" t="inlineStr"/>
+      <c r="DD265" t="inlineStr"/>
+      <c r="DE265" t="inlineStr"/>
+      <c r="DF265" t="inlineStr"/>
+      <c r="DG265" t="inlineStr"/>
+      <c r="DH265" t="inlineStr"/>
+      <c r="DI265" t="inlineStr"/>
+      <c r="DJ265" t="inlineStr"/>
+      <c r="DK265" t="inlineStr"/>
+      <c r="DL265" t="inlineStr"/>
+      <c r="DM265" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="DN265" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="DO265" t="n">
+        <v>46</v>
+      </c>
+      <c r="DP265" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="DQ265" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="DR265" t="n">
+        <v>11</v>
+      </c>
+      <c r="DS265" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="DT265" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="DU265" t="n">
+        <v>5</v>
+      </c>
+      <c r="DV265" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="DW265" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="DX265" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX265"/>
+  <dimension ref="A1:DX266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87803,6 +87803,326 @@
         <v>8</v>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>20251202</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1544</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3740</v>
+      </c>
+      <c r="D266" t="n">
+        <v>152</v>
+      </c>
+      <c r="E266" t="n">
+        <v>119</v>
+      </c>
+      <c r="F266" t="n">
+        <v>53</v>
+      </c>
+      <c r="G266" t="n">
+        <v>67</v>
+      </c>
+      <c r="H266" t="n">
+        <v>18</v>
+      </c>
+      <c r="I266" t="n">
+        <v>57</v>
+      </c>
+      <c r="J266" t="n">
+        <v>9</v>
+      </c>
+      <c r="K266" t="n">
+        <v>47</v>
+      </c>
+      <c r="L266" t="n">
+        <v>2</v>
+      </c>
+      <c r="M266" t="n">
+        <v>21</v>
+      </c>
+      <c r="N266" t="n">
+        <v>19</v>
+      </c>
+      <c r="O266" t="n">
+        <v>64</v>
+      </c>
+      <c r="P266" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R266" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="S266" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="T266" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U266" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="V266" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="W266" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X266" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>89.06</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AW266" t="inlineStr"/>
+      <c r="AX266" t="inlineStr"/>
+      <c r="AY266" t="inlineStr"/>
+      <c r="AZ266" t="inlineStr"/>
+      <c r="BA266" t="inlineStr"/>
+      <c r="BB266" t="inlineStr"/>
+      <c r="BC266" t="inlineStr"/>
+      <c r="BD266" t="inlineStr"/>
+      <c r="BE266" t="inlineStr"/>
+      <c r="BF266" t="inlineStr"/>
+      <c r="BG266" t="inlineStr"/>
+      <c r="BH266" t="inlineStr"/>
+      <c r="BI266" t="inlineStr"/>
+      <c r="BJ266" t="inlineStr"/>
+      <c r="BK266" t="inlineStr"/>
+      <c r="BL266" t="inlineStr"/>
+      <c r="BM266" t="inlineStr"/>
+      <c r="BN266" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO266" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="BP266" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="BQ266" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="BR266" t="n">
+        <v>-5.81</v>
+      </c>
+      <c r="BS266" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BT266" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="BU266" t="n">
+        <v>-3.72</v>
+      </c>
+      <c r="BV266" t="n">
+        <v>-9.35</v>
+      </c>
+      <c r="BW266" t="n">
+        <v>-6.68</v>
+      </c>
+      <c r="BX266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY266" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="BZ266" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CA266" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB266" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CC266" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD266" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CE266" t="n">
+        <v>27</v>
+      </c>
+      <c r="CF266" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="CG266" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="CH266" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="CI266" t="n">
+        <v>-3.49</v>
+      </c>
+      <c r="CJ266" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="CK266" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="CL266" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CM266" t="n">
+        <v>-5.88</v>
+      </c>
+      <c r="CN266" t="n">
+        <v>-4.66</v>
+      </c>
+      <c r="CO266" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="CP266" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="CQ266" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="CR266" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="CS266" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="CT266" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU266" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="CV266" t="inlineStr"/>
+      <c r="CW266" t="inlineStr"/>
+      <c r="CX266" t="inlineStr"/>
+      <c r="CY266" t="inlineStr"/>
+      <c r="CZ266" t="inlineStr"/>
+      <c r="DA266" t="inlineStr"/>
+      <c r="DB266" t="inlineStr"/>
+      <c r="DC266" t="inlineStr"/>
+      <c r="DD266" t="inlineStr"/>
+      <c r="DE266" t="inlineStr"/>
+      <c r="DF266" t="inlineStr"/>
+      <c r="DG266" t="inlineStr"/>
+      <c r="DH266" t="inlineStr"/>
+      <c r="DI266" t="inlineStr"/>
+      <c r="DJ266" t="inlineStr"/>
+      <c r="DK266" t="inlineStr"/>
+      <c r="DL266" t="inlineStr"/>
+      <c r="DM266" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="DN266" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="DO266" t="n">
+        <v>37</v>
+      </c>
+      <c r="DP266" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="DQ266" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="DR266" t="n">
+        <v>13</v>
+      </c>
+      <c r="DS266" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="DT266" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="DU266" t="n">
+        <v>5</v>
+      </c>
+      <c r="DV266" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="DW266" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="DX266" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX266"/>
+  <dimension ref="A1:DM267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1016,62 +1016,7 @@
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>涨停_开板0_开盘收益</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>涨停_开板0_收盘收益</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>涨停_开板0_样本数</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>涨停_开板1_开盘收益</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>涨停_开板1_收盘收益</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>涨停_开板1_样本数</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>涨停_开板2_开盘收益</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>涨停_开板2_收盘收益</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>涨停_开板2_样本数</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>涨停_开板3+_开盘收益</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>涨停_开板3+_收盘收益</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>涨停_开板3+_样本数</t>
+          <t>涨停_开板收益明细</t>
         </is>
       </c>
     </row>
@@ -1423,17 +1368,6 @@
         <v>27.52</v>
       </c>
       <c r="DM2" t="inlineStr"/>
-      <c r="DN2" t="inlineStr"/>
-      <c r="DO2" t="inlineStr"/>
-      <c r="DP2" t="inlineStr"/>
-      <c r="DQ2" t="inlineStr"/>
-      <c r="DR2" t="inlineStr"/>
-      <c r="DS2" t="inlineStr"/>
-      <c r="DT2" t="inlineStr"/>
-      <c r="DU2" t="inlineStr"/>
-      <c r="DV2" t="inlineStr"/>
-      <c r="DW2" t="inlineStr"/>
-      <c r="DX2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1783,17 +1717,6 @@
         <v>39.19</v>
       </c>
       <c r="DM3" t="inlineStr"/>
-      <c r="DN3" t="inlineStr"/>
-      <c r="DO3" t="inlineStr"/>
-      <c r="DP3" t="inlineStr"/>
-      <c r="DQ3" t="inlineStr"/>
-      <c r="DR3" t="inlineStr"/>
-      <c r="DS3" t="inlineStr"/>
-      <c r="DT3" t="inlineStr"/>
-      <c r="DU3" t="inlineStr"/>
-      <c r="DV3" t="inlineStr"/>
-      <c r="DW3" t="inlineStr"/>
-      <c r="DX3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2143,17 +2066,6 @@
         <v>79.29000000000001</v>
       </c>
       <c r="DM4" t="inlineStr"/>
-      <c r="DN4" t="inlineStr"/>
-      <c r="DO4" t="inlineStr"/>
-      <c r="DP4" t="inlineStr"/>
-      <c r="DQ4" t="inlineStr"/>
-      <c r="DR4" t="inlineStr"/>
-      <c r="DS4" t="inlineStr"/>
-      <c r="DT4" t="inlineStr"/>
-      <c r="DU4" t="inlineStr"/>
-      <c r="DV4" t="inlineStr"/>
-      <c r="DW4" t="inlineStr"/>
-      <c r="DX4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2469,17 +2381,6 @@
         <v>74.61</v>
       </c>
       <c r="DM5" t="inlineStr"/>
-      <c r="DN5" t="inlineStr"/>
-      <c r="DO5" t="inlineStr"/>
-      <c r="DP5" t="inlineStr"/>
-      <c r="DQ5" t="inlineStr"/>
-      <c r="DR5" t="inlineStr"/>
-      <c r="DS5" t="inlineStr"/>
-      <c r="DT5" t="inlineStr"/>
-      <c r="DU5" t="inlineStr"/>
-      <c r="DV5" t="inlineStr"/>
-      <c r="DW5" t="inlineStr"/>
-      <c r="DX5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2795,17 +2696,6 @@
         <v>59.6</v>
       </c>
       <c r="DM6" t="inlineStr"/>
-      <c r="DN6" t="inlineStr"/>
-      <c r="DO6" t="inlineStr"/>
-      <c r="DP6" t="inlineStr"/>
-      <c r="DQ6" t="inlineStr"/>
-      <c r="DR6" t="inlineStr"/>
-      <c r="DS6" t="inlineStr"/>
-      <c r="DT6" t="inlineStr"/>
-      <c r="DU6" t="inlineStr"/>
-      <c r="DV6" t="inlineStr"/>
-      <c r="DW6" t="inlineStr"/>
-      <c r="DX6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3121,17 +3011,6 @@
         <v>45.61</v>
       </c>
       <c r="DM7" t="inlineStr"/>
-      <c r="DN7" t="inlineStr"/>
-      <c r="DO7" t="inlineStr"/>
-      <c r="DP7" t="inlineStr"/>
-      <c r="DQ7" t="inlineStr"/>
-      <c r="DR7" t="inlineStr"/>
-      <c r="DS7" t="inlineStr"/>
-      <c r="DT7" t="inlineStr"/>
-      <c r="DU7" t="inlineStr"/>
-      <c r="DV7" t="inlineStr"/>
-      <c r="DW7" t="inlineStr"/>
-      <c r="DX7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3481,17 +3360,6 @@
         <v>56.71</v>
       </c>
       <c r="DM8" t="inlineStr"/>
-      <c r="DN8" t="inlineStr"/>
-      <c r="DO8" t="inlineStr"/>
-      <c r="DP8" t="inlineStr"/>
-      <c r="DQ8" t="inlineStr"/>
-      <c r="DR8" t="inlineStr"/>
-      <c r="DS8" t="inlineStr"/>
-      <c r="DT8" t="inlineStr"/>
-      <c r="DU8" t="inlineStr"/>
-      <c r="DV8" t="inlineStr"/>
-      <c r="DW8" t="inlineStr"/>
-      <c r="DX8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3841,17 +3709,6 @@
         <v>33.33</v>
       </c>
       <c r="DM9" t="inlineStr"/>
-      <c r="DN9" t="inlineStr"/>
-      <c r="DO9" t="inlineStr"/>
-      <c r="DP9" t="inlineStr"/>
-      <c r="DQ9" t="inlineStr"/>
-      <c r="DR9" t="inlineStr"/>
-      <c r="DS9" t="inlineStr"/>
-      <c r="DT9" t="inlineStr"/>
-      <c r="DU9" t="inlineStr"/>
-      <c r="DV9" t="inlineStr"/>
-      <c r="DW9" t="inlineStr"/>
-      <c r="DX9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4201,17 +4058,6 @@
         <v>30.77</v>
       </c>
       <c r="DM10" t="inlineStr"/>
-      <c r="DN10" t="inlineStr"/>
-      <c r="DO10" t="inlineStr"/>
-      <c r="DP10" t="inlineStr"/>
-      <c r="DQ10" t="inlineStr"/>
-      <c r="DR10" t="inlineStr"/>
-      <c r="DS10" t="inlineStr"/>
-      <c r="DT10" t="inlineStr"/>
-      <c r="DU10" t="inlineStr"/>
-      <c r="DV10" t="inlineStr"/>
-      <c r="DW10" t="inlineStr"/>
-      <c r="DX10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4561,17 +4407,6 @@
         <v>29.29</v>
       </c>
       <c r="DM11" t="inlineStr"/>
-      <c r="DN11" t="inlineStr"/>
-      <c r="DO11" t="inlineStr"/>
-      <c r="DP11" t="inlineStr"/>
-      <c r="DQ11" t="inlineStr"/>
-      <c r="DR11" t="inlineStr"/>
-      <c r="DS11" t="inlineStr"/>
-      <c r="DT11" t="inlineStr"/>
-      <c r="DU11" t="inlineStr"/>
-      <c r="DV11" t="inlineStr"/>
-      <c r="DW11" t="inlineStr"/>
-      <c r="DX11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4921,17 +4756,6 @@
         <v>41.94</v>
       </c>
       <c r="DM12" t="inlineStr"/>
-      <c r="DN12" t="inlineStr"/>
-      <c r="DO12" t="inlineStr"/>
-      <c r="DP12" t="inlineStr"/>
-      <c r="DQ12" t="inlineStr"/>
-      <c r="DR12" t="inlineStr"/>
-      <c r="DS12" t="inlineStr"/>
-      <c r="DT12" t="inlineStr"/>
-      <c r="DU12" t="inlineStr"/>
-      <c r="DV12" t="inlineStr"/>
-      <c r="DW12" t="inlineStr"/>
-      <c r="DX12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5281,17 +5105,6 @@
         <v>45.74</v>
       </c>
       <c r="DM13" t="inlineStr"/>
-      <c r="DN13" t="inlineStr"/>
-      <c r="DO13" t="inlineStr"/>
-      <c r="DP13" t="inlineStr"/>
-      <c r="DQ13" t="inlineStr"/>
-      <c r="DR13" t="inlineStr"/>
-      <c r="DS13" t="inlineStr"/>
-      <c r="DT13" t="inlineStr"/>
-      <c r="DU13" t="inlineStr"/>
-      <c r="DV13" t="inlineStr"/>
-      <c r="DW13" t="inlineStr"/>
-      <c r="DX13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5607,17 +5420,6 @@
         <v>45.45</v>
       </c>
       <c r="DM14" t="inlineStr"/>
-      <c r="DN14" t="inlineStr"/>
-      <c r="DO14" t="inlineStr"/>
-      <c r="DP14" t="inlineStr"/>
-      <c r="DQ14" t="inlineStr"/>
-      <c r="DR14" t="inlineStr"/>
-      <c r="DS14" t="inlineStr"/>
-      <c r="DT14" t="inlineStr"/>
-      <c r="DU14" t="inlineStr"/>
-      <c r="DV14" t="inlineStr"/>
-      <c r="DW14" t="inlineStr"/>
-      <c r="DX14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5967,17 +5769,6 @@
         <v>81.15000000000001</v>
       </c>
       <c r="DM15" t="inlineStr"/>
-      <c r="DN15" t="inlineStr"/>
-      <c r="DO15" t="inlineStr"/>
-      <c r="DP15" t="inlineStr"/>
-      <c r="DQ15" t="inlineStr"/>
-      <c r="DR15" t="inlineStr"/>
-      <c r="DS15" t="inlineStr"/>
-      <c r="DT15" t="inlineStr"/>
-      <c r="DU15" t="inlineStr"/>
-      <c r="DV15" t="inlineStr"/>
-      <c r="DW15" t="inlineStr"/>
-      <c r="DX15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6327,17 +6118,6 @@
         <v>61.05</v>
       </c>
       <c r="DM16" t="inlineStr"/>
-      <c r="DN16" t="inlineStr"/>
-      <c r="DO16" t="inlineStr"/>
-      <c r="DP16" t="inlineStr"/>
-      <c r="DQ16" t="inlineStr"/>
-      <c r="DR16" t="inlineStr"/>
-      <c r="DS16" t="inlineStr"/>
-      <c r="DT16" t="inlineStr"/>
-      <c r="DU16" t="inlineStr"/>
-      <c r="DV16" t="inlineStr"/>
-      <c r="DW16" t="inlineStr"/>
-      <c r="DX16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6653,17 +6433,6 @@
         <v>46.85</v>
       </c>
       <c r="DM17" t="inlineStr"/>
-      <c r="DN17" t="inlineStr"/>
-      <c r="DO17" t="inlineStr"/>
-      <c r="DP17" t="inlineStr"/>
-      <c r="DQ17" t="inlineStr"/>
-      <c r="DR17" t="inlineStr"/>
-      <c r="DS17" t="inlineStr"/>
-      <c r="DT17" t="inlineStr"/>
-      <c r="DU17" t="inlineStr"/>
-      <c r="DV17" t="inlineStr"/>
-      <c r="DW17" t="inlineStr"/>
-      <c r="DX17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -6979,17 +6748,6 @@
         <v>58.09</v>
       </c>
       <c r="DM18" t="inlineStr"/>
-      <c r="DN18" t="inlineStr"/>
-      <c r="DO18" t="inlineStr"/>
-      <c r="DP18" t="inlineStr"/>
-      <c r="DQ18" t="inlineStr"/>
-      <c r="DR18" t="inlineStr"/>
-      <c r="DS18" t="inlineStr"/>
-      <c r="DT18" t="inlineStr"/>
-      <c r="DU18" t="inlineStr"/>
-      <c r="DV18" t="inlineStr"/>
-      <c r="DW18" t="inlineStr"/>
-      <c r="DX18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7339,17 +7097,6 @@
         <v>32</v>
       </c>
       <c r="DM19" t="inlineStr"/>
-      <c r="DN19" t="inlineStr"/>
-      <c r="DO19" t="inlineStr"/>
-      <c r="DP19" t="inlineStr"/>
-      <c r="DQ19" t="inlineStr"/>
-      <c r="DR19" t="inlineStr"/>
-      <c r="DS19" t="inlineStr"/>
-      <c r="DT19" t="inlineStr"/>
-      <c r="DU19" t="inlineStr"/>
-      <c r="DV19" t="inlineStr"/>
-      <c r="DW19" t="inlineStr"/>
-      <c r="DX19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7699,17 +7446,6 @@
         <v>35.14</v>
       </c>
       <c r="DM20" t="inlineStr"/>
-      <c r="DN20" t="inlineStr"/>
-      <c r="DO20" t="inlineStr"/>
-      <c r="DP20" t="inlineStr"/>
-      <c r="DQ20" t="inlineStr"/>
-      <c r="DR20" t="inlineStr"/>
-      <c r="DS20" t="inlineStr"/>
-      <c r="DT20" t="inlineStr"/>
-      <c r="DU20" t="inlineStr"/>
-      <c r="DV20" t="inlineStr"/>
-      <c r="DW20" t="inlineStr"/>
-      <c r="DX20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8059,17 +7795,6 @@
         <v>63.48</v>
       </c>
       <c r="DM21" t="inlineStr"/>
-      <c r="DN21" t="inlineStr"/>
-      <c r="DO21" t="inlineStr"/>
-      <c r="DP21" t="inlineStr"/>
-      <c r="DQ21" t="inlineStr"/>
-      <c r="DR21" t="inlineStr"/>
-      <c r="DS21" t="inlineStr"/>
-      <c r="DT21" t="inlineStr"/>
-      <c r="DU21" t="inlineStr"/>
-      <c r="DV21" t="inlineStr"/>
-      <c r="DW21" t="inlineStr"/>
-      <c r="DX21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8419,17 +8144,6 @@
         <v>44.9</v>
       </c>
       <c r="DM22" t="inlineStr"/>
-      <c r="DN22" t="inlineStr"/>
-      <c r="DO22" t="inlineStr"/>
-      <c r="DP22" t="inlineStr"/>
-      <c r="DQ22" t="inlineStr"/>
-      <c r="DR22" t="inlineStr"/>
-      <c r="DS22" t="inlineStr"/>
-      <c r="DT22" t="inlineStr"/>
-      <c r="DU22" t="inlineStr"/>
-      <c r="DV22" t="inlineStr"/>
-      <c r="DW22" t="inlineStr"/>
-      <c r="DX22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -8779,17 +8493,6 @@
         <v>72.84999999999999</v>
       </c>
       <c r="DM23" t="inlineStr"/>
-      <c r="DN23" t="inlineStr"/>
-      <c r="DO23" t="inlineStr"/>
-      <c r="DP23" t="inlineStr"/>
-      <c r="DQ23" t="inlineStr"/>
-      <c r="DR23" t="inlineStr"/>
-      <c r="DS23" t="inlineStr"/>
-      <c r="DT23" t="inlineStr"/>
-      <c r="DU23" t="inlineStr"/>
-      <c r="DV23" t="inlineStr"/>
-      <c r="DW23" t="inlineStr"/>
-      <c r="DX23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9139,17 +8842,6 @@
         <v>49.04</v>
       </c>
       <c r="DM24" t="inlineStr"/>
-      <c r="DN24" t="inlineStr"/>
-      <c r="DO24" t="inlineStr"/>
-      <c r="DP24" t="inlineStr"/>
-      <c r="DQ24" t="inlineStr"/>
-      <c r="DR24" t="inlineStr"/>
-      <c r="DS24" t="inlineStr"/>
-      <c r="DT24" t="inlineStr"/>
-      <c r="DU24" t="inlineStr"/>
-      <c r="DV24" t="inlineStr"/>
-      <c r="DW24" t="inlineStr"/>
-      <c r="DX24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9499,17 +9191,6 @@
         <v>30.82</v>
       </c>
       <c r="DM25" t="inlineStr"/>
-      <c r="DN25" t="inlineStr"/>
-      <c r="DO25" t="inlineStr"/>
-      <c r="DP25" t="inlineStr"/>
-      <c r="DQ25" t="inlineStr"/>
-      <c r="DR25" t="inlineStr"/>
-      <c r="DS25" t="inlineStr"/>
-      <c r="DT25" t="inlineStr"/>
-      <c r="DU25" t="inlineStr"/>
-      <c r="DV25" t="inlineStr"/>
-      <c r="DW25" t="inlineStr"/>
-      <c r="DX25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9859,17 +9540,6 @@
         <v>50</v>
       </c>
       <c r="DM26" t="inlineStr"/>
-      <c r="DN26" t="inlineStr"/>
-      <c r="DO26" t="inlineStr"/>
-      <c r="DP26" t="inlineStr"/>
-      <c r="DQ26" t="inlineStr"/>
-      <c r="DR26" t="inlineStr"/>
-      <c r="DS26" t="inlineStr"/>
-      <c r="DT26" t="inlineStr"/>
-      <c r="DU26" t="inlineStr"/>
-      <c r="DV26" t="inlineStr"/>
-      <c r="DW26" t="inlineStr"/>
-      <c r="DX26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10219,17 +9889,6 @@
         <v>58.57</v>
       </c>
       <c r="DM27" t="inlineStr"/>
-      <c r="DN27" t="inlineStr"/>
-      <c r="DO27" t="inlineStr"/>
-      <c r="DP27" t="inlineStr"/>
-      <c r="DQ27" t="inlineStr"/>
-      <c r="DR27" t="inlineStr"/>
-      <c r="DS27" t="inlineStr"/>
-      <c r="DT27" t="inlineStr"/>
-      <c r="DU27" t="inlineStr"/>
-      <c r="DV27" t="inlineStr"/>
-      <c r="DW27" t="inlineStr"/>
-      <c r="DX27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -10579,17 +10238,6 @@
         <v>37.65</v>
       </c>
       <c r="DM28" t="inlineStr"/>
-      <c r="DN28" t="inlineStr"/>
-      <c r="DO28" t="inlineStr"/>
-      <c r="DP28" t="inlineStr"/>
-      <c r="DQ28" t="inlineStr"/>
-      <c r="DR28" t="inlineStr"/>
-      <c r="DS28" t="inlineStr"/>
-      <c r="DT28" t="inlineStr"/>
-      <c r="DU28" t="inlineStr"/>
-      <c r="DV28" t="inlineStr"/>
-      <c r="DW28" t="inlineStr"/>
-      <c r="DX28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -10939,17 +10587,6 @@
         <v>46.32</v>
       </c>
       <c r="DM29" t="inlineStr"/>
-      <c r="DN29" t="inlineStr"/>
-      <c r="DO29" t="inlineStr"/>
-      <c r="DP29" t="inlineStr"/>
-      <c r="DQ29" t="inlineStr"/>
-      <c r="DR29" t="inlineStr"/>
-      <c r="DS29" t="inlineStr"/>
-      <c r="DT29" t="inlineStr"/>
-      <c r="DU29" t="inlineStr"/>
-      <c r="DV29" t="inlineStr"/>
-      <c r="DW29" t="inlineStr"/>
-      <c r="DX29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11299,17 +10936,6 @@
         <v>48.1</v>
       </c>
       <c r="DM30" t="inlineStr"/>
-      <c r="DN30" t="inlineStr"/>
-      <c r="DO30" t="inlineStr"/>
-      <c r="DP30" t="inlineStr"/>
-      <c r="DQ30" t="inlineStr"/>
-      <c r="DR30" t="inlineStr"/>
-      <c r="DS30" t="inlineStr"/>
-      <c r="DT30" t="inlineStr"/>
-      <c r="DU30" t="inlineStr"/>
-      <c r="DV30" t="inlineStr"/>
-      <c r="DW30" t="inlineStr"/>
-      <c r="DX30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11659,17 +11285,6 @@
         <v>61.68</v>
       </c>
       <c r="DM31" t="inlineStr"/>
-      <c r="DN31" t="inlineStr"/>
-      <c r="DO31" t="inlineStr"/>
-      <c r="DP31" t="inlineStr"/>
-      <c r="DQ31" t="inlineStr"/>
-      <c r="DR31" t="inlineStr"/>
-      <c r="DS31" t="inlineStr"/>
-      <c r="DT31" t="inlineStr"/>
-      <c r="DU31" t="inlineStr"/>
-      <c r="DV31" t="inlineStr"/>
-      <c r="DW31" t="inlineStr"/>
-      <c r="DX31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12019,17 +11634,6 @@
         <v>40</v>
       </c>
       <c r="DM32" t="inlineStr"/>
-      <c r="DN32" t="inlineStr"/>
-      <c r="DO32" t="inlineStr"/>
-      <c r="DP32" t="inlineStr"/>
-      <c r="DQ32" t="inlineStr"/>
-      <c r="DR32" t="inlineStr"/>
-      <c r="DS32" t="inlineStr"/>
-      <c r="DT32" t="inlineStr"/>
-      <c r="DU32" t="inlineStr"/>
-      <c r="DV32" t="inlineStr"/>
-      <c r="DW32" t="inlineStr"/>
-      <c r="DX32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12379,17 +11983,6 @@
         <v>42.96</v>
       </c>
       <c r="DM33" t="inlineStr"/>
-      <c r="DN33" t="inlineStr"/>
-      <c r="DO33" t="inlineStr"/>
-      <c r="DP33" t="inlineStr"/>
-      <c r="DQ33" t="inlineStr"/>
-      <c r="DR33" t="inlineStr"/>
-      <c r="DS33" t="inlineStr"/>
-      <c r="DT33" t="inlineStr"/>
-      <c r="DU33" t="inlineStr"/>
-      <c r="DV33" t="inlineStr"/>
-      <c r="DW33" t="inlineStr"/>
-      <c r="DX33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12739,17 +12332,6 @@
         <v>20.36</v>
       </c>
       <c r="DM34" t="inlineStr"/>
-      <c r="DN34" t="inlineStr"/>
-      <c r="DO34" t="inlineStr"/>
-      <c r="DP34" t="inlineStr"/>
-      <c r="DQ34" t="inlineStr"/>
-      <c r="DR34" t="inlineStr"/>
-      <c r="DS34" t="inlineStr"/>
-      <c r="DT34" t="inlineStr"/>
-      <c r="DU34" t="inlineStr"/>
-      <c r="DV34" t="inlineStr"/>
-      <c r="DW34" t="inlineStr"/>
-      <c r="DX34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -13099,17 +12681,6 @@
         <v>53.33</v>
       </c>
       <c r="DM35" t="inlineStr"/>
-      <c r="DN35" t="inlineStr"/>
-      <c r="DO35" t="inlineStr"/>
-      <c r="DP35" t="inlineStr"/>
-      <c r="DQ35" t="inlineStr"/>
-      <c r="DR35" t="inlineStr"/>
-      <c r="DS35" t="inlineStr"/>
-      <c r="DT35" t="inlineStr"/>
-      <c r="DU35" t="inlineStr"/>
-      <c r="DV35" t="inlineStr"/>
-      <c r="DW35" t="inlineStr"/>
-      <c r="DX35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -13459,17 +13030,6 @@
         <v>38.33</v>
       </c>
       <c r="DM36" t="inlineStr"/>
-      <c r="DN36" t="inlineStr"/>
-      <c r="DO36" t="inlineStr"/>
-      <c r="DP36" t="inlineStr"/>
-      <c r="DQ36" t="inlineStr"/>
-      <c r="DR36" t="inlineStr"/>
-      <c r="DS36" t="inlineStr"/>
-      <c r="DT36" t="inlineStr"/>
-      <c r="DU36" t="inlineStr"/>
-      <c r="DV36" t="inlineStr"/>
-      <c r="DW36" t="inlineStr"/>
-      <c r="DX36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13819,17 +13379,6 @@
         <v>33.33</v>
       </c>
       <c r="DM37" t="inlineStr"/>
-      <c r="DN37" t="inlineStr"/>
-      <c r="DO37" t="inlineStr"/>
-      <c r="DP37" t="inlineStr"/>
-      <c r="DQ37" t="inlineStr"/>
-      <c r="DR37" t="inlineStr"/>
-      <c r="DS37" t="inlineStr"/>
-      <c r="DT37" t="inlineStr"/>
-      <c r="DU37" t="inlineStr"/>
-      <c r="DV37" t="inlineStr"/>
-      <c r="DW37" t="inlineStr"/>
-      <c r="DX37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -14179,17 +13728,6 @@
         <v>30</v>
       </c>
       <c r="DM38" t="inlineStr"/>
-      <c r="DN38" t="inlineStr"/>
-      <c r="DO38" t="inlineStr"/>
-      <c r="DP38" t="inlineStr"/>
-      <c r="DQ38" t="inlineStr"/>
-      <c r="DR38" t="inlineStr"/>
-      <c r="DS38" t="inlineStr"/>
-      <c r="DT38" t="inlineStr"/>
-      <c r="DU38" t="inlineStr"/>
-      <c r="DV38" t="inlineStr"/>
-      <c r="DW38" t="inlineStr"/>
-      <c r="DX38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -14539,17 +14077,6 @@
         <v>54.35</v>
       </c>
       <c r="DM39" t="inlineStr"/>
-      <c r="DN39" t="inlineStr"/>
-      <c r="DO39" t="inlineStr"/>
-      <c r="DP39" t="inlineStr"/>
-      <c r="DQ39" t="inlineStr"/>
-      <c r="DR39" t="inlineStr"/>
-      <c r="DS39" t="inlineStr"/>
-      <c r="DT39" t="inlineStr"/>
-      <c r="DU39" t="inlineStr"/>
-      <c r="DV39" t="inlineStr"/>
-      <c r="DW39" t="inlineStr"/>
-      <c r="DX39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -14899,17 +14426,6 @@
         <v>30.3</v>
       </c>
       <c r="DM40" t="inlineStr"/>
-      <c r="DN40" t="inlineStr"/>
-      <c r="DO40" t="inlineStr"/>
-      <c r="DP40" t="inlineStr"/>
-      <c r="DQ40" t="inlineStr"/>
-      <c r="DR40" t="inlineStr"/>
-      <c r="DS40" t="inlineStr"/>
-      <c r="DT40" t="inlineStr"/>
-      <c r="DU40" t="inlineStr"/>
-      <c r="DV40" t="inlineStr"/>
-      <c r="DW40" t="inlineStr"/>
-      <c r="DX40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -15259,17 +14775,6 @@
         <v>62.75</v>
       </c>
       <c r="DM41" t="inlineStr"/>
-      <c r="DN41" t="inlineStr"/>
-      <c r="DO41" t="inlineStr"/>
-      <c r="DP41" t="inlineStr"/>
-      <c r="DQ41" t="inlineStr"/>
-      <c r="DR41" t="inlineStr"/>
-      <c r="DS41" t="inlineStr"/>
-      <c r="DT41" t="inlineStr"/>
-      <c r="DU41" t="inlineStr"/>
-      <c r="DV41" t="inlineStr"/>
-      <c r="DW41" t="inlineStr"/>
-      <c r="DX41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -15619,17 +15124,6 @@
         <v>31.58</v>
       </c>
       <c r="DM42" t="inlineStr"/>
-      <c r="DN42" t="inlineStr"/>
-      <c r="DO42" t="inlineStr"/>
-      <c r="DP42" t="inlineStr"/>
-      <c r="DQ42" t="inlineStr"/>
-      <c r="DR42" t="inlineStr"/>
-      <c r="DS42" t="inlineStr"/>
-      <c r="DT42" t="inlineStr"/>
-      <c r="DU42" t="inlineStr"/>
-      <c r="DV42" t="inlineStr"/>
-      <c r="DW42" t="inlineStr"/>
-      <c r="DX42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -15979,17 +15473,6 @@
         <v>34.69</v>
       </c>
       <c r="DM43" t="inlineStr"/>
-      <c r="DN43" t="inlineStr"/>
-      <c r="DO43" t="inlineStr"/>
-      <c r="DP43" t="inlineStr"/>
-      <c r="DQ43" t="inlineStr"/>
-      <c r="DR43" t="inlineStr"/>
-      <c r="DS43" t="inlineStr"/>
-      <c r="DT43" t="inlineStr"/>
-      <c r="DU43" t="inlineStr"/>
-      <c r="DV43" t="inlineStr"/>
-      <c r="DW43" t="inlineStr"/>
-      <c r="DX43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -16339,17 +15822,6 @@
         <v>50</v>
       </c>
       <c r="DM44" t="inlineStr"/>
-      <c r="DN44" t="inlineStr"/>
-      <c r="DO44" t="inlineStr"/>
-      <c r="DP44" t="inlineStr"/>
-      <c r="DQ44" t="inlineStr"/>
-      <c r="DR44" t="inlineStr"/>
-      <c r="DS44" t="inlineStr"/>
-      <c r="DT44" t="inlineStr"/>
-      <c r="DU44" t="inlineStr"/>
-      <c r="DV44" t="inlineStr"/>
-      <c r="DW44" t="inlineStr"/>
-      <c r="DX44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -16699,17 +16171,6 @@
         <v>46.03</v>
       </c>
       <c r="DM45" t="inlineStr"/>
-      <c r="DN45" t="inlineStr"/>
-      <c r="DO45" t="inlineStr"/>
-      <c r="DP45" t="inlineStr"/>
-      <c r="DQ45" t="inlineStr"/>
-      <c r="DR45" t="inlineStr"/>
-      <c r="DS45" t="inlineStr"/>
-      <c r="DT45" t="inlineStr"/>
-      <c r="DU45" t="inlineStr"/>
-      <c r="DV45" t="inlineStr"/>
-      <c r="DW45" t="inlineStr"/>
-      <c r="DX45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -17059,17 +16520,6 @@
         <v>29.03</v>
       </c>
       <c r="DM46" t="inlineStr"/>
-      <c r="DN46" t="inlineStr"/>
-      <c r="DO46" t="inlineStr"/>
-      <c r="DP46" t="inlineStr"/>
-      <c r="DQ46" t="inlineStr"/>
-      <c r="DR46" t="inlineStr"/>
-      <c r="DS46" t="inlineStr"/>
-      <c r="DT46" t="inlineStr"/>
-      <c r="DU46" t="inlineStr"/>
-      <c r="DV46" t="inlineStr"/>
-      <c r="DW46" t="inlineStr"/>
-      <c r="DX46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -17419,17 +16869,6 @@
         <v>46.03</v>
       </c>
       <c r="DM47" t="inlineStr"/>
-      <c r="DN47" t="inlineStr"/>
-      <c r="DO47" t="inlineStr"/>
-      <c r="DP47" t="inlineStr"/>
-      <c r="DQ47" t="inlineStr"/>
-      <c r="DR47" t="inlineStr"/>
-      <c r="DS47" t="inlineStr"/>
-      <c r="DT47" t="inlineStr"/>
-      <c r="DU47" t="inlineStr"/>
-      <c r="DV47" t="inlineStr"/>
-      <c r="DW47" t="inlineStr"/>
-      <c r="DX47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -17779,17 +17218,6 @@
         <v>57.89</v>
       </c>
       <c r="DM48" t="inlineStr"/>
-      <c r="DN48" t="inlineStr"/>
-      <c r="DO48" t="inlineStr"/>
-      <c r="DP48" t="inlineStr"/>
-      <c r="DQ48" t="inlineStr"/>
-      <c r="DR48" t="inlineStr"/>
-      <c r="DS48" t="inlineStr"/>
-      <c r="DT48" t="inlineStr"/>
-      <c r="DU48" t="inlineStr"/>
-      <c r="DV48" t="inlineStr"/>
-      <c r="DW48" t="inlineStr"/>
-      <c r="DX48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -18139,17 +17567,6 @@
         <v>67.29000000000001</v>
       </c>
       <c r="DM49" t="inlineStr"/>
-      <c r="DN49" t="inlineStr"/>
-      <c r="DO49" t="inlineStr"/>
-      <c r="DP49" t="inlineStr"/>
-      <c r="DQ49" t="inlineStr"/>
-      <c r="DR49" t="inlineStr"/>
-      <c r="DS49" t="inlineStr"/>
-      <c r="DT49" t="inlineStr"/>
-      <c r="DU49" t="inlineStr"/>
-      <c r="DV49" t="inlineStr"/>
-      <c r="DW49" t="inlineStr"/>
-      <c r="DX49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -18499,17 +17916,6 @@
         <v>46.59</v>
       </c>
       <c r="DM50" t="inlineStr"/>
-      <c r="DN50" t="inlineStr"/>
-      <c r="DO50" t="inlineStr"/>
-      <c r="DP50" t="inlineStr"/>
-      <c r="DQ50" t="inlineStr"/>
-      <c r="DR50" t="inlineStr"/>
-      <c r="DS50" t="inlineStr"/>
-      <c r="DT50" t="inlineStr"/>
-      <c r="DU50" t="inlineStr"/>
-      <c r="DV50" t="inlineStr"/>
-      <c r="DW50" t="inlineStr"/>
-      <c r="DX50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -18859,17 +18265,6 @@
         <v>27.88</v>
       </c>
       <c r="DM51" t="inlineStr"/>
-      <c r="DN51" t="inlineStr"/>
-      <c r="DO51" t="inlineStr"/>
-      <c r="DP51" t="inlineStr"/>
-      <c r="DQ51" t="inlineStr"/>
-      <c r="DR51" t="inlineStr"/>
-      <c r="DS51" t="inlineStr"/>
-      <c r="DT51" t="inlineStr"/>
-      <c r="DU51" t="inlineStr"/>
-      <c r="DV51" t="inlineStr"/>
-      <c r="DW51" t="inlineStr"/>
-      <c r="DX51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -19185,17 +18580,6 @@
         <v>28.57</v>
       </c>
       <c r="DM52" t="inlineStr"/>
-      <c r="DN52" t="inlineStr"/>
-      <c r="DO52" t="inlineStr"/>
-      <c r="DP52" t="inlineStr"/>
-      <c r="DQ52" t="inlineStr"/>
-      <c r="DR52" t="inlineStr"/>
-      <c r="DS52" t="inlineStr"/>
-      <c r="DT52" t="inlineStr"/>
-      <c r="DU52" t="inlineStr"/>
-      <c r="DV52" t="inlineStr"/>
-      <c r="DW52" t="inlineStr"/>
-      <c r="DX52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -19545,17 +18929,6 @@
         <v>86.89</v>
       </c>
       <c r="DM53" t="inlineStr"/>
-      <c r="DN53" t="inlineStr"/>
-      <c r="DO53" t="inlineStr"/>
-      <c r="DP53" t="inlineStr"/>
-      <c r="DQ53" t="inlineStr"/>
-      <c r="DR53" t="inlineStr"/>
-      <c r="DS53" t="inlineStr"/>
-      <c r="DT53" t="inlineStr"/>
-      <c r="DU53" t="inlineStr"/>
-      <c r="DV53" t="inlineStr"/>
-      <c r="DW53" t="inlineStr"/>
-      <c r="DX53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -19871,17 +19244,6 @@
         <v>58.23</v>
       </c>
       <c r="DM54" t="inlineStr"/>
-      <c r="DN54" t="inlineStr"/>
-      <c r="DO54" t="inlineStr"/>
-      <c r="DP54" t="inlineStr"/>
-      <c r="DQ54" t="inlineStr"/>
-      <c r="DR54" t="inlineStr"/>
-      <c r="DS54" t="inlineStr"/>
-      <c r="DT54" t="inlineStr"/>
-      <c r="DU54" t="inlineStr"/>
-      <c r="DV54" t="inlineStr"/>
-      <c r="DW54" t="inlineStr"/>
-      <c r="DX54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -20197,17 +19559,6 @@
         <v>50</v>
       </c>
       <c r="DM55" t="inlineStr"/>
-      <c r="DN55" t="inlineStr"/>
-      <c r="DO55" t="inlineStr"/>
-      <c r="DP55" t="inlineStr"/>
-      <c r="DQ55" t="inlineStr"/>
-      <c r="DR55" t="inlineStr"/>
-      <c r="DS55" t="inlineStr"/>
-      <c r="DT55" t="inlineStr"/>
-      <c r="DU55" t="inlineStr"/>
-      <c r="DV55" t="inlineStr"/>
-      <c r="DW55" t="inlineStr"/>
-      <c r="DX55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -20523,17 +19874,6 @@
         <v>31</v>
       </c>
       <c r="DM56" t="inlineStr"/>
-      <c r="DN56" t="inlineStr"/>
-      <c r="DO56" t="inlineStr"/>
-      <c r="DP56" t="inlineStr"/>
-      <c r="DQ56" t="inlineStr"/>
-      <c r="DR56" t="inlineStr"/>
-      <c r="DS56" t="inlineStr"/>
-      <c r="DT56" t="inlineStr"/>
-      <c r="DU56" t="inlineStr"/>
-      <c r="DV56" t="inlineStr"/>
-      <c r="DW56" t="inlineStr"/>
-      <c r="DX56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -20883,17 +20223,6 @@
         <v>38.16</v>
       </c>
       <c r="DM57" t="inlineStr"/>
-      <c r="DN57" t="inlineStr"/>
-      <c r="DO57" t="inlineStr"/>
-      <c r="DP57" t="inlineStr"/>
-      <c r="DQ57" t="inlineStr"/>
-      <c r="DR57" t="inlineStr"/>
-      <c r="DS57" t="inlineStr"/>
-      <c r="DT57" t="inlineStr"/>
-      <c r="DU57" t="inlineStr"/>
-      <c r="DV57" t="inlineStr"/>
-      <c r="DW57" t="inlineStr"/>
-      <c r="DX57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -21243,17 +20572,6 @@
         <v>36.89</v>
       </c>
       <c r="DM58" t="inlineStr"/>
-      <c r="DN58" t="inlineStr"/>
-      <c r="DO58" t="inlineStr"/>
-      <c r="DP58" t="inlineStr"/>
-      <c r="DQ58" t="inlineStr"/>
-      <c r="DR58" t="inlineStr"/>
-      <c r="DS58" t="inlineStr"/>
-      <c r="DT58" t="inlineStr"/>
-      <c r="DU58" t="inlineStr"/>
-      <c r="DV58" t="inlineStr"/>
-      <c r="DW58" t="inlineStr"/>
-      <c r="DX58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -21603,17 +20921,6 @@
         <v>30.14</v>
       </c>
       <c r="DM59" t="inlineStr"/>
-      <c r="DN59" t="inlineStr"/>
-      <c r="DO59" t="inlineStr"/>
-      <c r="DP59" t="inlineStr"/>
-      <c r="DQ59" t="inlineStr"/>
-      <c r="DR59" t="inlineStr"/>
-      <c r="DS59" t="inlineStr"/>
-      <c r="DT59" t="inlineStr"/>
-      <c r="DU59" t="inlineStr"/>
-      <c r="DV59" t="inlineStr"/>
-      <c r="DW59" t="inlineStr"/>
-      <c r="DX59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -21963,17 +21270,6 @@
         <v>40</v>
       </c>
       <c r="DM60" t="inlineStr"/>
-      <c r="DN60" t="inlineStr"/>
-      <c r="DO60" t="inlineStr"/>
-      <c r="DP60" t="inlineStr"/>
-      <c r="DQ60" t="inlineStr"/>
-      <c r="DR60" t="inlineStr"/>
-      <c r="DS60" t="inlineStr"/>
-      <c r="DT60" t="inlineStr"/>
-      <c r="DU60" t="inlineStr"/>
-      <c r="DV60" t="inlineStr"/>
-      <c r="DW60" t="inlineStr"/>
-      <c r="DX60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -22323,17 +21619,6 @@
         <v>34.25</v>
       </c>
       <c r="DM61" t="inlineStr"/>
-      <c r="DN61" t="inlineStr"/>
-      <c r="DO61" t="inlineStr"/>
-      <c r="DP61" t="inlineStr"/>
-      <c r="DQ61" t="inlineStr"/>
-      <c r="DR61" t="inlineStr"/>
-      <c r="DS61" t="inlineStr"/>
-      <c r="DT61" t="inlineStr"/>
-      <c r="DU61" t="inlineStr"/>
-      <c r="DV61" t="inlineStr"/>
-      <c r="DW61" t="inlineStr"/>
-      <c r="DX61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -22683,17 +21968,6 @@
         <v>43.06</v>
       </c>
       <c r="DM62" t="inlineStr"/>
-      <c r="DN62" t="inlineStr"/>
-      <c r="DO62" t="inlineStr"/>
-      <c r="DP62" t="inlineStr"/>
-      <c r="DQ62" t="inlineStr"/>
-      <c r="DR62" t="inlineStr"/>
-      <c r="DS62" t="inlineStr"/>
-      <c r="DT62" t="inlineStr"/>
-      <c r="DU62" t="inlineStr"/>
-      <c r="DV62" t="inlineStr"/>
-      <c r="DW62" t="inlineStr"/>
-      <c r="DX62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -23043,17 +22317,6 @@
         <v>50</v>
       </c>
       <c r="DM63" t="inlineStr"/>
-      <c r="DN63" t="inlineStr"/>
-      <c r="DO63" t="inlineStr"/>
-      <c r="DP63" t="inlineStr"/>
-      <c r="DQ63" t="inlineStr"/>
-      <c r="DR63" t="inlineStr"/>
-      <c r="DS63" t="inlineStr"/>
-      <c r="DT63" t="inlineStr"/>
-      <c r="DU63" t="inlineStr"/>
-      <c r="DV63" t="inlineStr"/>
-      <c r="DW63" t="inlineStr"/>
-      <c r="DX63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -23403,17 +22666,6 @@
         <v>78.65000000000001</v>
       </c>
       <c r="DM64" t="inlineStr"/>
-      <c r="DN64" t="inlineStr"/>
-      <c r="DO64" t="inlineStr"/>
-      <c r="DP64" t="inlineStr"/>
-      <c r="DQ64" t="inlineStr"/>
-      <c r="DR64" t="inlineStr"/>
-      <c r="DS64" t="inlineStr"/>
-      <c r="DT64" t="inlineStr"/>
-      <c r="DU64" t="inlineStr"/>
-      <c r="DV64" t="inlineStr"/>
-      <c r="DW64" t="inlineStr"/>
-      <c r="DX64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -23729,17 +22981,6 @@
         <v>71.29000000000001</v>
       </c>
       <c r="DM65" t="inlineStr"/>
-      <c r="DN65" t="inlineStr"/>
-      <c r="DO65" t="inlineStr"/>
-      <c r="DP65" t="inlineStr"/>
-      <c r="DQ65" t="inlineStr"/>
-      <c r="DR65" t="inlineStr"/>
-      <c r="DS65" t="inlineStr"/>
-      <c r="DT65" t="inlineStr"/>
-      <c r="DU65" t="inlineStr"/>
-      <c r="DV65" t="inlineStr"/>
-      <c r="DW65" t="inlineStr"/>
-      <c r="DX65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -24055,17 +23296,6 @@
         <v>56.41</v>
       </c>
       <c r="DM66" t="inlineStr"/>
-      <c r="DN66" t="inlineStr"/>
-      <c r="DO66" t="inlineStr"/>
-      <c r="DP66" t="inlineStr"/>
-      <c r="DQ66" t="inlineStr"/>
-      <c r="DR66" t="inlineStr"/>
-      <c r="DS66" t="inlineStr"/>
-      <c r="DT66" t="inlineStr"/>
-      <c r="DU66" t="inlineStr"/>
-      <c r="DV66" t="inlineStr"/>
-      <c r="DW66" t="inlineStr"/>
-      <c r="DX66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -24347,17 +23577,6 @@
         <v>41.88</v>
       </c>
       <c r="DM67" t="inlineStr"/>
-      <c r="DN67" t="inlineStr"/>
-      <c r="DO67" t="inlineStr"/>
-      <c r="DP67" t="inlineStr"/>
-      <c r="DQ67" t="inlineStr"/>
-      <c r="DR67" t="inlineStr"/>
-      <c r="DS67" t="inlineStr"/>
-      <c r="DT67" t="inlineStr"/>
-      <c r="DU67" t="inlineStr"/>
-      <c r="DV67" t="inlineStr"/>
-      <c r="DW67" t="inlineStr"/>
-      <c r="DX67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -24639,17 +23858,6 @@
         <v>39.56</v>
       </c>
       <c r="DM68" t="inlineStr"/>
-      <c r="DN68" t="inlineStr"/>
-      <c r="DO68" t="inlineStr"/>
-      <c r="DP68" t="inlineStr"/>
-      <c r="DQ68" t="inlineStr"/>
-      <c r="DR68" t="inlineStr"/>
-      <c r="DS68" t="inlineStr"/>
-      <c r="DT68" t="inlineStr"/>
-      <c r="DU68" t="inlineStr"/>
-      <c r="DV68" t="inlineStr"/>
-      <c r="DW68" t="inlineStr"/>
-      <c r="DX68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -24931,17 +24139,6 @@
         <v>57.45</v>
       </c>
       <c r="DM69" t="inlineStr"/>
-      <c r="DN69" t="inlineStr"/>
-      <c r="DO69" t="inlineStr"/>
-      <c r="DP69" t="inlineStr"/>
-      <c r="DQ69" t="inlineStr"/>
-      <c r="DR69" t="inlineStr"/>
-      <c r="DS69" t="inlineStr"/>
-      <c r="DT69" t="inlineStr"/>
-      <c r="DU69" t="inlineStr"/>
-      <c r="DV69" t="inlineStr"/>
-      <c r="DW69" t="inlineStr"/>
-      <c r="DX69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -25223,17 +24420,6 @@
         <v>40.66</v>
       </c>
       <c r="DM70" t="inlineStr"/>
-      <c r="DN70" t="inlineStr"/>
-      <c r="DO70" t="inlineStr"/>
-      <c r="DP70" t="inlineStr"/>
-      <c r="DQ70" t="inlineStr"/>
-      <c r="DR70" t="inlineStr"/>
-      <c r="DS70" t="inlineStr"/>
-      <c r="DT70" t="inlineStr"/>
-      <c r="DU70" t="inlineStr"/>
-      <c r="DV70" t="inlineStr"/>
-      <c r="DW70" t="inlineStr"/>
-      <c r="DX70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -25583,17 +24769,6 @@
         <v>58.06</v>
       </c>
       <c r="DM71" t="inlineStr"/>
-      <c r="DN71" t="inlineStr"/>
-      <c r="DO71" t="inlineStr"/>
-      <c r="DP71" t="inlineStr"/>
-      <c r="DQ71" t="inlineStr"/>
-      <c r="DR71" t="inlineStr"/>
-      <c r="DS71" t="inlineStr"/>
-      <c r="DT71" t="inlineStr"/>
-      <c r="DU71" t="inlineStr"/>
-      <c r="DV71" t="inlineStr"/>
-      <c r="DW71" t="inlineStr"/>
-      <c r="DX71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -25943,17 +25118,6 @@
         <v>35.42</v>
       </c>
       <c r="DM72" t="inlineStr"/>
-      <c r="DN72" t="inlineStr"/>
-      <c r="DO72" t="inlineStr"/>
-      <c r="DP72" t="inlineStr"/>
-      <c r="DQ72" t="inlineStr"/>
-      <c r="DR72" t="inlineStr"/>
-      <c r="DS72" t="inlineStr"/>
-      <c r="DT72" t="inlineStr"/>
-      <c r="DU72" t="inlineStr"/>
-      <c r="DV72" t="inlineStr"/>
-      <c r="DW72" t="inlineStr"/>
-      <c r="DX72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -26303,17 +25467,6 @@
         <v>59.42</v>
       </c>
       <c r="DM73" t="inlineStr"/>
-      <c r="DN73" t="inlineStr"/>
-      <c r="DO73" t="inlineStr"/>
-      <c r="DP73" t="inlineStr"/>
-      <c r="DQ73" t="inlineStr"/>
-      <c r="DR73" t="inlineStr"/>
-      <c r="DS73" t="inlineStr"/>
-      <c r="DT73" t="inlineStr"/>
-      <c r="DU73" t="inlineStr"/>
-      <c r="DV73" t="inlineStr"/>
-      <c r="DW73" t="inlineStr"/>
-      <c r="DX73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -26663,17 +25816,6 @@
         <v>57.52</v>
       </c>
       <c r="DM74" t="inlineStr"/>
-      <c r="DN74" t="inlineStr"/>
-      <c r="DO74" t="inlineStr"/>
-      <c r="DP74" t="inlineStr"/>
-      <c r="DQ74" t="inlineStr"/>
-      <c r="DR74" t="inlineStr"/>
-      <c r="DS74" t="inlineStr"/>
-      <c r="DT74" t="inlineStr"/>
-      <c r="DU74" t="inlineStr"/>
-      <c r="DV74" t="inlineStr"/>
-      <c r="DW74" t="inlineStr"/>
-      <c r="DX74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -27023,17 +26165,6 @@
         <v>50.45</v>
       </c>
       <c r="DM75" t="inlineStr"/>
-      <c r="DN75" t="inlineStr"/>
-      <c r="DO75" t="inlineStr"/>
-      <c r="DP75" t="inlineStr"/>
-      <c r="DQ75" t="inlineStr"/>
-      <c r="DR75" t="inlineStr"/>
-      <c r="DS75" t="inlineStr"/>
-      <c r="DT75" t="inlineStr"/>
-      <c r="DU75" t="inlineStr"/>
-      <c r="DV75" t="inlineStr"/>
-      <c r="DW75" t="inlineStr"/>
-      <c r="DX75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -27315,17 +26446,6 @@
         <v>53.04</v>
       </c>
       <c r="DM76" t="inlineStr"/>
-      <c r="DN76" t="inlineStr"/>
-      <c r="DO76" t="inlineStr"/>
-      <c r="DP76" t="inlineStr"/>
-      <c r="DQ76" t="inlineStr"/>
-      <c r="DR76" t="inlineStr"/>
-      <c r="DS76" t="inlineStr"/>
-      <c r="DT76" t="inlineStr"/>
-      <c r="DU76" t="inlineStr"/>
-      <c r="DV76" t="inlineStr"/>
-      <c r="DW76" t="inlineStr"/>
-      <c r="DX76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -27675,17 +26795,6 @@
         <v>36.11</v>
       </c>
       <c r="DM77" t="inlineStr"/>
-      <c r="DN77" t="inlineStr"/>
-      <c r="DO77" t="inlineStr"/>
-      <c r="DP77" t="inlineStr"/>
-      <c r="DQ77" t="inlineStr"/>
-      <c r="DR77" t="inlineStr"/>
-      <c r="DS77" t="inlineStr"/>
-      <c r="DT77" t="inlineStr"/>
-      <c r="DU77" t="inlineStr"/>
-      <c r="DV77" t="inlineStr"/>
-      <c r="DW77" t="inlineStr"/>
-      <c r="DX77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -28035,17 +27144,6 @@
         <v>56.82</v>
       </c>
       <c r="DM78" t="inlineStr"/>
-      <c r="DN78" t="inlineStr"/>
-      <c r="DO78" t="inlineStr"/>
-      <c r="DP78" t="inlineStr"/>
-      <c r="DQ78" t="inlineStr"/>
-      <c r="DR78" t="inlineStr"/>
-      <c r="DS78" t="inlineStr"/>
-      <c r="DT78" t="inlineStr"/>
-      <c r="DU78" t="inlineStr"/>
-      <c r="DV78" t="inlineStr"/>
-      <c r="DW78" t="inlineStr"/>
-      <c r="DX78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -28327,17 +27425,6 @@
         <v>35.43</v>
       </c>
       <c r="DM79" t="inlineStr"/>
-      <c r="DN79" t="inlineStr"/>
-      <c r="DO79" t="inlineStr"/>
-      <c r="DP79" t="inlineStr"/>
-      <c r="DQ79" t="inlineStr"/>
-      <c r="DR79" t="inlineStr"/>
-      <c r="DS79" t="inlineStr"/>
-      <c r="DT79" t="inlineStr"/>
-      <c r="DU79" t="inlineStr"/>
-      <c r="DV79" t="inlineStr"/>
-      <c r="DW79" t="inlineStr"/>
-      <c r="DX79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -28653,17 +27740,6 @@
         <v>37.65</v>
       </c>
       <c r="DM80" t="inlineStr"/>
-      <c r="DN80" t="inlineStr"/>
-      <c r="DO80" t="inlineStr"/>
-      <c r="DP80" t="inlineStr"/>
-      <c r="DQ80" t="inlineStr"/>
-      <c r="DR80" t="inlineStr"/>
-      <c r="DS80" t="inlineStr"/>
-      <c r="DT80" t="inlineStr"/>
-      <c r="DU80" t="inlineStr"/>
-      <c r="DV80" t="inlineStr"/>
-      <c r="DW80" t="inlineStr"/>
-      <c r="DX80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -28979,17 +28055,6 @@
         <v>33.85</v>
       </c>
       <c r="DM81" t="inlineStr"/>
-      <c r="DN81" t="inlineStr"/>
-      <c r="DO81" t="inlineStr"/>
-      <c r="DP81" t="inlineStr"/>
-      <c r="DQ81" t="inlineStr"/>
-      <c r="DR81" t="inlineStr"/>
-      <c r="DS81" t="inlineStr"/>
-      <c r="DT81" t="inlineStr"/>
-      <c r="DU81" t="inlineStr"/>
-      <c r="DV81" t="inlineStr"/>
-      <c r="DW81" t="inlineStr"/>
-      <c r="DX81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -29339,17 +28404,6 @@
         <v>38.54</v>
       </c>
       <c r="DM82" t="inlineStr"/>
-      <c r="DN82" t="inlineStr"/>
-      <c r="DO82" t="inlineStr"/>
-      <c r="DP82" t="inlineStr"/>
-      <c r="DQ82" t="inlineStr"/>
-      <c r="DR82" t="inlineStr"/>
-      <c r="DS82" t="inlineStr"/>
-      <c r="DT82" t="inlineStr"/>
-      <c r="DU82" t="inlineStr"/>
-      <c r="DV82" t="inlineStr"/>
-      <c r="DW82" t="inlineStr"/>
-      <c r="DX82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -29699,17 +28753,6 @@
         <v>46.07</v>
       </c>
       <c r="DM83" t="inlineStr"/>
-      <c r="DN83" t="inlineStr"/>
-      <c r="DO83" t="inlineStr"/>
-      <c r="DP83" t="inlineStr"/>
-      <c r="DQ83" t="inlineStr"/>
-      <c r="DR83" t="inlineStr"/>
-      <c r="DS83" t="inlineStr"/>
-      <c r="DT83" t="inlineStr"/>
-      <c r="DU83" t="inlineStr"/>
-      <c r="DV83" t="inlineStr"/>
-      <c r="DW83" t="inlineStr"/>
-      <c r="DX83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -30059,17 +29102,6 @@
         <v>55.56</v>
       </c>
       <c r="DM84" t="inlineStr"/>
-      <c r="DN84" t="inlineStr"/>
-      <c r="DO84" t="inlineStr"/>
-      <c r="DP84" t="inlineStr"/>
-      <c r="DQ84" t="inlineStr"/>
-      <c r="DR84" t="inlineStr"/>
-      <c r="DS84" t="inlineStr"/>
-      <c r="DT84" t="inlineStr"/>
-      <c r="DU84" t="inlineStr"/>
-      <c r="DV84" t="inlineStr"/>
-      <c r="DW84" t="inlineStr"/>
-      <c r="DX84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -30419,17 +29451,6 @@
         <v>37.4</v>
       </c>
       <c r="DM85" t="inlineStr"/>
-      <c r="DN85" t="inlineStr"/>
-      <c r="DO85" t="inlineStr"/>
-      <c r="DP85" t="inlineStr"/>
-      <c r="DQ85" t="inlineStr"/>
-      <c r="DR85" t="inlineStr"/>
-      <c r="DS85" t="inlineStr"/>
-      <c r="DT85" t="inlineStr"/>
-      <c r="DU85" t="inlineStr"/>
-      <c r="DV85" t="inlineStr"/>
-      <c r="DW85" t="inlineStr"/>
-      <c r="DX85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -30779,17 +29800,6 @@
         <v>34.09</v>
       </c>
       <c r="DM86" t="inlineStr"/>
-      <c r="DN86" t="inlineStr"/>
-      <c r="DO86" t="inlineStr"/>
-      <c r="DP86" t="inlineStr"/>
-      <c r="DQ86" t="inlineStr"/>
-      <c r="DR86" t="inlineStr"/>
-      <c r="DS86" t="inlineStr"/>
-      <c r="DT86" t="inlineStr"/>
-      <c r="DU86" t="inlineStr"/>
-      <c r="DV86" t="inlineStr"/>
-      <c r="DW86" t="inlineStr"/>
-      <c r="DX86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -31139,17 +30149,6 @@
         <v>47.73</v>
       </c>
       <c r="DM87" t="inlineStr"/>
-      <c r="DN87" t="inlineStr"/>
-      <c r="DO87" t="inlineStr"/>
-      <c r="DP87" t="inlineStr"/>
-      <c r="DQ87" t="inlineStr"/>
-      <c r="DR87" t="inlineStr"/>
-      <c r="DS87" t="inlineStr"/>
-      <c r="DT87" t="inlineStr"/>
-      <c r="DU87" t="inlineStr"/>
-      <c r="DV87" t="inlineStr"/>
-      <c r="DW87" t="inlineStr"/>
-      <c r="DX87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -31499,17 +30498,6 @@
         <v>51.56</v>
       </c>
       <c r="DM88" t="inlineStr"/>
-      <c r="DN88" t="inlineStr"/>
-      <c r="DO88" t="inlineStr"/>
-      <c r="DP88" t="inlineStr"/>
-      <c r="DQ88" t="inlineStr"/>
-      <c r="DR88" t="inlineStr"/>
-      <c r="DS88" t="inlineStr"/>
-      <c r="DT88" t="inlineStr"/>
-      <c r="DU88" t="inlineStr"/>
-      <c r="DV88" t="inlineStr"/>
-      <c r="DW88" t="inlineStr"/>
-      <c r="DX88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -31859,17 +30847,6 @@
         <v>32.23</v>
       </c>
       <c r="DM89" t="inlineStr"/>
-      <c r="DN89" t="inlineStr"/>
-      <c r="DO89" t="inlineStr"/>
-      <c r="DP89" t="inlineStr"/>
-      <c r="DQ89" t="inlineStr"/>
-      <c r="DR89" t="inlineStr"/>
-      <c r="DS89" t="inlineStr"/>
-      <c r="DT89" t="inlineStr"/>
-      <c r="DU89" t="inlineStr"/>
-      <c r="DV89" t="inlineStr"/>
-      <c r="DW89" t="inlineStr"/>
-      <c r="DX89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -32219,17 +31196,6 @@
         <v>43.4</v>
       </c>
       <c r="DM90" t="inlineStr"/>
-      <c r="DN90" t="inlineStr"/>
-      <c r="DO90" t="inlineStr"/>
-      <c r="DP90" t="inlineStr"/>
-      <c r="DQ90" t="inlineStr"/>
-      <c r="DR90" t="inlineStr"/>
-      <c r="DS90" t="inlineStr"/>
-      <c r="DT90" t="inlineStr"/>
-      <c r="DU90" t="inlineStr"/>
-      <c r="DV90" t="inlineStr"/>
-      <c r="DW90" t="inlineStr"/>
-      <c r="DX90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -32579,17 +31545,6 @@
         <v>44.76</v>
       </c>
       <c r="DM91" t="inlineStr"/>
-      <c r="DN91" t="inlineStr"/>
-      <c r="DO91" t="inlineStr"/>
-      <c r="DP91" t="inlineStr"/>
-      <c r="DQ91" t="inlineStr"/>
-      <c r="DR91" t="inlineStr"/>
-      <c r="DS91" t="inlineStr"/>
-      <c r="DT91" t="inlineStr"/>
-      <c r="DU91" t="inlineStr"/>
-      <c r="DV91" t="inlineStr"/>
-      <c r="DW91" t="inlineStr"/>
-      <c r="DX91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -32939,17 +31894,6 @@
         <v>44.58</v>
       </c>
       <c r="DM92" t="inlineStr"/>
-      <c r="DN92" t="inlineStr"/>
-      <c r="DO92" t="inlineStr"/>
-      <c r="DP92" t="inlineStr"/>
-      <c r="DQ92" t="inlineStr"/>
-      <c r="DR92" t="inlineStr"/>
-      <c r="DS92" t="inlineStr"/>
-      <c r="DT92" t="inlineStr"/>
-      <c r="DU92" t="inlineStr"/>
-      <c r="DV92" t="inlineStr"/>
-      <c r="DW92" t="inlineStr"/>
-      <c r="DX92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -33265,17 +32209,6 @@
         <v>34.12</v>
       </c>
       <c r="DM93" t="inlineStr"/>
-      <c r="DN93" t="inlineStr"/>
-      <c r="DO93" t="inlineStr"/>
-      <c r="DP93" t="inlineStr"/>
-      <c r="DQ93" t="inlineStr"/>
-      <c r="DR93" t="inlineStr"/>
-      <c r="DS93" t="inlineStr"/>
-      <c r="DT93" t="inlineStr"/>
-      <c r="DU93" t="inlineStr"/>
-      <c r="DV93" t="inlineStr"/>
-      <c r="DW93" t="inlineStr"/>
-      <c r="DX93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -33591,17 +32524,6 @@
         <v>56.72</v>
       </c>
       <c r="DM94" t="inlineStr"/>
-      <c r="DN94" t="inlineStr"/>
-      <c r="DO94" t="inlineStr"/>
-      <c r="DP94" t="inlineStr"/>
-      <c r="DQ94" t="inlineStr"/>
-      <c r="DR94" t="inlineStr"/>
-      <c r="DS94" t="inlineStr"/>
-      <c r="DT94" t="inlineStr"/>
-      <c r="DU94" t="inlineStr"/>
-      <c r="DV94" t="inlineStr"/>
-      <c r="DW94" t="inlineStr"/>
-      <c r="DX94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -33883,17 +32805,6 @@
         <v>41.11</v>
       </c>
       <c r="DM95" t="inlineStr"/>
-      <c r="DN95" t="inlineStr"/>
-      <c r="DO95" t="inlineStr"/>
-      <c r="DP95" t="inlineStr"/>
-      <c r="DQ95" t="inlineStr"/>
-      <c r="DR95" t="inlineStr"/>
-      <c r="DS95" t="inlineStr"/>
-      <c r="DT95" t="inlineStr"/>
-      <c r="DU95" t="inlineStr"/>
-      <c r="DV95" t="inlineStr"/>
-      <c r="DW95" t="inlineStr"/>
-      <c r="DX95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -34209,17 +33120,6 @@
         <v>41.79</v>
       </c>
       <c r="DM96" t="inlineStr"/>
-      <c r="DN96" t="inlineStr"/>
-      <c r="DO96" t="inlineStr"/>
-      <c r="DP96" t="inlineStr"/>
-      <c r="DQ96" t="inlineStr"/>
-      <c r="DR96" t="inlineStr"/>
-      <c r="DS96" t="inlineStr"/>
-      <c r="DT96" t="inlineStr"/>
-      <c r="DU96" t="inlineStr"/>
-      <c r="DV96" t="inlineStr"/>
-      <c r="DW96" t="inlineStr"/>
-      <c r="DX96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -34569,17 +33469,6 @@
         <v>40.85</v>
       </c>
       <c r="DM97" t="inlineStr"/>
-      <c r="DN97" t="inlineStr"/>
-      <c r="DO97" t="inlineStr"/>
-      <c r="DP97" t="inlineStr"/>
-      <c r="DQ97" t="inlineStr"/>
-      <c r="DR97" t="inlineStr"/>
-      <c r="DS97" t="inlineStr"/>
-      <c r="DT97" t="inlineStr"/>
-      <c r="DU97" t="inlineStr"/>
-      <c r="DV97" t="inlineStr"/>
-      <c r="DW97" t="inlineStr"/>
-      <c r="DX97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -34929,17 +33818,6 @@
         <v>43.24</v>
       </c>
       <c r="DM98" t="inlineStr"/>
-      <c r="DN98" t="inlineStr"/>
-      <c r="DO98" t="inlineStr"/>
-      <c r="DP98" t="inlineStr"/>
-      <c r="DQ98" t="inlineStr"/>
-      <c r="DR98" t="inlineStr"/>
-      <c r="DS98" t="inlineStr"/>
-      <c r="DT98" t="inlineStr"/>
-      <c r="DU98" t="inlineStr"/>
-      <c r="DV98" t="inlineStr"/>
-      <c r="DW98" t="inlineStr"/>
-      <c r="DX98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -35289,17 +34167,6 @@
         <v>26.37</v>
       </c>
       <c r="DM99" t="inlineStr"/>
-      <c r="DN99" t="inlineStr"/>
-      <c r="DO99" t="inlineStr"/>
-      <c r="DP99" t="inlineStr"/>
-      <c r="DQ99" t="inlineStr"/>
-      <c r="DR99" t="inlineStr"/>
-      <c r="DS99" t="inlineStr"/>
-      <c r="DT99" t="inlineStr"/>
-      <c r="DU99" t="inlineStr"/>
-      <c r="DV99" t="inlineStr"/>
-      <c r="DW99" t="inlineStr"/>
-      <c r="DX99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -35649,17 +34516,6 @@
         <v>25.71</v>
       </c>
       <c r="DM100" t="inlineStr"/>
-      <c r="DN100" t="inlineStr"/>
-      <c r="DO100" t="inlineStr"/>
-      <c r="DP100" t="inlineStr"/>
-      <c r="DQ100" t="inlineStr"/>
-      <c r="DR100" t="inlineStr"/>
-      <c r="DS100" t="inlineStr"/>
-      <c r="DT100" t="inlineStr"/>
-      <c r="DU100" t="inlineStr"/>
-      <c r="DV100" t="inlineStr"/>
-      <c r="DW100" t="inlineStr"/>
-      <c r="DX100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -36009,17 +34865,6 @@
         <v>40.38</v>
       </c>
       <c r="DM101" t="inlineStr"/>
-      <c r="DN101" t="inlineStr"/>
-      <c r="DO101" t="inlineStr"/>
-      <c r="DP101" t="inlineStr"/>
-      <c r="DQ101" t="inlineStr"/>
-      <c r="DR101" t="inlineStr"/>
-      <c r="DS101" t="inlineStr"/>
-      <c r="DT101" t="inlineStr"/>
-      <c r="DU101" t="inlineStr"/>
-      <c r="DV101" t="inlineStr"/>
-      <c r="DW101" t="inlineStr"/>
-      <c r="DX101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -36369,17 +35214,6 @@
         <v>43.75</v>
       </c>
       <c r="DM102" t="inlineStr"/>
-      <c r="DN102" t="inlineStr"/>
-      <c r="DO102" t="inlineStr"/>
-      <c r="DP102" t="inlineStr"/>
-      <c r="DQ102" t="inlineStr"/>
-      <c r="DR102" t="inlineStr"/>
-      <c r="DS102" t="inlineStr"/>
-      <c r="DT102" t="inlineStr"/>
-      <c r="DU102" t="inlineStr"/>
-      <c r="DV102" t="inlineStr"/>
-      <c r="DW102" t="inlineStr"/>
-      <c r="DX102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -36695,17 +35529,6 @@
         <v>38.82</v>
       </c>
       <c r="DM103" t="inlineStr"/>
-      <c r="DN103" t="inlineStr"/>
-      <c r="DO103" t="inlineStr"/>
-      <c r="DP103" t="inlineStr"/>
-      <c r="DQ103" t="inlineStr"/>
-      <c r="DR103" t="inlineStr"/>
-      <c r="DS103" t="inlineStr"/>
-      <c r="DT103" t="inlineStr"/>
-      <c r="DU103" t="inlineStr"/>
-      <c r="DV103" t="inlineStr"/>
-      <c r="DW103" t="inlineStr"/>
-      <c r="DX103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -37055,17 +35878,6 @@
         <v>51.61</v>
       </c>
       <c r="DM104" t="inlineStr"/>
-      <c r="DN104" t="inlineStr"/>
-      <c r="DO104" t="inlineStr"/>
-      <c r="DP104" t="inlineStr"/>
-      <c r="DQ104" t="inlineStr"/>
-      <c r="DR104" t="inlineStr"/>
-      <c r="DS104" t="inlineStr"/>
-      <c r="DT104" t="inlineStr"/>
-      <c r="DU104" t="inlineStr"/>
-      <c r="DV104" t="inlineStr"/>
-      <c r="DW104" t="inlineStr"/>
-      <c r="DX104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -37415,17 +36227,6 @@
         <v>34.38</v>
       </c>
       <c r="DM105" t="inlineStr"/>
-      <c r="DN105" t="inlineStr"/>
-      <c r="DO105" t="inlineStr"/>
-      <c r="DP105" t="inlineStr"/>
-      <c r="DQ105" t="inlineStr"/>
-      <c r="DR105" t="inlineStr"/>
-      <c r="DS105" t="inlineStr"/>
-      <c r="DT105" t="inlineStr"/>
-      <c r="DU105" t="inlineStr"/>
-      <c r="DV105" t="inlineStr"/>
-      <c r="DW105" t="inlineStr"/>
-      <c r="DX105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -37775,17 +36576,6 @@
         <v>93.09999999999999</v>
       </c>
       <c r="DM106" t="inlineStr"/>
-      <c r="DN106" t="inlineStr"/>
-      <c r="DO106" t="inlineStr"/>
-      <c r="DP106" t="inlineStr"/>
-      <c r="DQ106" t="inlineStr"/>
-      <c r="DR106" t="inlineStr"/>
-      <c r="DS106" t="inlineStr"/>
-      <c r="DT106" t="inlineStr"/>
-      <c r="DU106" t="inlineStr"/>
-      <c r="DV106" t="inlineStr"/>
-      <c r="DW106" t="inlineStr"/>
-      <c r="DX106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -38135,17 +36925,6 @@
         <v>73.19</v>
       </c>
       <c r="DM107" t="inlineStr"/>
-      <c r="DN107" t="inlineStr"/>
-      <c r="DO107" t="inlineStr"/>
-      <c r="DP107" t="inlineStr"/>
-      <c r="DQ107" t="inlineStr"/>
-      <c r="DR107" t="inlineStr"/>
-      <c r="DS107" t="inlineStr"/>
-      <c r="DT107" t="inlineStr"/>
-      <c r="DU107" t="inlineStr"/>
-      <c r="DV107" t="inlineStr"/>
-      <c r="DW107" t="inlineStr"/>
-      <c r="DX107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -38495,17 +37274,6 @@
         <v>72.18000000000001</v>
       </c>
       <c r="DM108" t="inlineStr"/>
-      <c r="DN108" t="inlineStr"/>
-      <c r="DO108" t="inlineStr"/>
-      <c r="DP108" t="inlineStr"/>
-      <c r="DQ108" t="inlineStr"/>
-      <c r="DR108" t="inlineStr"/>
-      <c r="DS108" t="inlineStr"/>
-      <c r="DT108" t="inlineStr"/>
-      <c r="DU108" t="inlineStr"/>
-      <c r="DV108" t="inlineStr"/>
-      <c r="DW108" t="inlineStr"/>
-      <c r="DX108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -38821,17 +37589,6 @@
         <v>36.79</v>
       </c>
       <c r="DM109" t="inlineStr"/>
-      <c r="DN109" t="inlineStr"/>
-      <c r="DO109" t="inlineStr"/>
-      <c r="DP109" t="inlineStr"/>
-      <c r="DQ109" t="inlineStr"/>
-      <c r="DR109" t="inlineStr"/>
-      <c r="DS109" t="inlineStr"/>
-      <c r="DT109" t="inlineStr"/>
-      <c r="DU109" t="inlineStr"/>
-      <c r="DV109" t="inlineStr"/>
-      <c r="DW109" t="inlineStr"/>
-      <c r="DX109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -39147,17 +37904,6 @@
         <v>59.43</v>
       </c>
       <c r="DM110" t="inlineStr"/>
-      <c r="DN110" t="inlineStr"/>
-      <c r="DO110" t="inlineStr"/>
-      <c r="DP110" t="inlineStr"/>
-      <c r="DQ110" t="inlineStr"/>
-      <c r="DR110" t="inlineStr"/>
-      <c r="DS110" t="inlineStr"/>
-      <c r="DT110" t="inlineStr"/>
-      <c r="DU110" t="inlineStr"/>
-      <c r="DV110" t="inlineStr"/>
-      <c r="DW110" t="inlineStr"/>
-      <c r="DX110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -39507,17 +38253,6 @@
         <v>32.58</v>
       </c>
       <c r="DM111" t="inlineStr"/>
-      <c r="DN111" t="inlineStr"/>
-      <c r="DO111" t="inlineStr"/>
-      <c r="DP111" t="inlineStr"/>
-      <c r="DQ111" t="inlineStr"/>
-      <c r="DR111" t="inlineStr"/>
-      <c r="DS111" t="inlineStr"/>
-      <c r="DT111" t="inlineStr"/>
-      <c r="DU111" t="inlineStr"/>
-      <c r="DV111" t="inlineStr"/>
-      <c r="DW111" t="inlineStr"/>
-      <c r="DX111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -39833,17 +38568,6 @@
         <v>39.02</v>
       </c>
       <c r="DM112" t="inlineStr"/>
-      <c r="DN112" t="inlineStr"/>
-      <c r="DO112" t="inlineStr"/>
-      <c r="DP112" t="inlineStr"/>
-      <c r="DQ112" t="inlineStr"/>
-      <c r="DR112" t="inlineStr"/>
-      <c r="DS112" t="inlineStr"/>
-      <c r="DT112" t="inlineStr"/>
-      <c r="DU112" t="inlineStr"/>
-      <c r="DV112" t="inlineStr"/>
-      <c r="DW112" t="inlineStr"/>
-      <c r="DX112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -40193,17 +38917,6 @@
         <v>54.1</v>
       </c>
       <c r="DM113" t="inlineStr"/>
-      <c r="DN113" t="inlineStr"/>
-      <c r="DO113" t="inlineStr"/>
-      <c r="DP113" t="inlineStr"/>
-      <c r="DQ113" t="inlineStr"/>
-      <c r="DR113" t="inlineStr"/>
-      <c r="DS113" t="inlineStr"/>
-      <c r="DT113" t="inlineStr"/>
-      <c r="DU113" t="inlineStr"/>
-      <c r="DV113" t="inlineStr"/>
-      <c r="DW113" t="inlineStr"/>
-      <c r="DX113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -40553,17 +39266,6 @@
         <v>34.62</v>
       </c>
       <c r="DM114" t="inlineStr"/>
-      <c r="DN114" t="inlineStr"/>
-      <c r="DO114" t="inlineStr"/>
-      <c r="DP114" t="inlineStr"/>
-      <c r="DQ114" t="inlineStr"/>
-      <c r="DR114" t="inlineStr"/>
-      <c r="DS114" t="inlineStr"/>
-      <c r="DT114" t="inlineStr"/>
-      <c r="DU114" t="inlineStr"/>
-      <c r="DV114" t="inlineStr"/>
-      <c r="DW114" t="inlineStr"/>
-      <c r="DX114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -40879,17 +39581,6 @@
         <v>53.25</v>
       </c>
       <c r="DM115" t="inlineStr"/>
-      <c r="DN115" t="inlineStr"/>
-      <c r="DO115" t="inlineStr"/>
-      <c r="DP115" t="inlineStr"/>
-      <c r="DQ115" t="inlineStr"/>
-      <c r="DR115" t="inlineStr"/>
-      <c r="DS115" t="inlineStr"/>
-      <c r="DT115" t="inlineStr"/>
-      <c r="DU115" t="inlineStr"/>
-      <c r="DV115" t="inlineStr"/>
-      <c r="DW115" t="inlineStr"/>
-      <c r="DX115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -41239,17 +39930,6 @@
         <v>50.88</v>
       </c>
       <c r="DM116" t="inlineStr"/>
-      <c r="DN116" t="inlineStr"/>
-      <c r="DO116" t="inlineStr"/>
-      <c r="DP116" t="inlineStr"/>
-      <c r="DQ116" t="inlineStr"/>
-      <c r="DR116" t="inlineStr"/>
-      <c r="DS116" t="inlineStr"/>
-      <c r="DT116" t="inlineStr"/>
-      <c r="DU116" t="inlineStr"/>
-      <c r="DV116" t="inlineStr"/>
-      <c r="DW116" t="inlineStr"/>
-      <c r="DX116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -41599,17 +40279,6 @@
         <v>28.28</v>
       </c>
       <c r="DM117" t="inlineStr"/>
-      <c r="DN117" t="inlineStr"/>
-      <c r="DO117" t="inlineStr"/>
-      <c r="DP117" t="inlineStr"/>
-      <c r="DQ117" t="inlineStr"/>
-      <c r="DR117" t="inlineStr"/>
-      <c r="DS117" t="inlineStr"/>
-      <c r="DT117" t="inlineStr"/>
-      <c r="DU117" t="inlineStr"/>
-      <c r="DV117" t="inlineStr"/>
-      <c r="DW117" t="inlineStr"/>
-      <c r="DX117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -41959,17 +40628,6 @@
         <v>35.87</v>
       </c>
       <c r="DM118" t="inlineStr"/>
-      <c r="DN118" t="inlineStr"/>
-      <c r="DO118" t="inlineStr"/>
-      <c r="DP118" t="inlineStr"/>
-      <c r="DQ118" t="inlineStr"/>
-      <c r="DR118" t="inlineStr"/>
-      <c r="DS118" t="inlineStr"/>
-      <c r="DT118" t="inlineStr"/>
-      <c r="DU118" t="inlineStr"/>
-      <c r="DV118" t="inlineStr"/>
-      <c r="DW118" t="inlineStr"/>
-      <c r="DX118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -42319,17 +40977,6 @@
         <v>35.14</v>
       </c>
       <c r="DM119" t="inlineStr"/>
-      <c r="DN119" t="inlineStr"/>
-      <c r="DO119" t="inlineStr"/>
-      <c r="DP119" t="inlineStr"/>
-      <c r="DQ119" t="inlineStr"/>
-      <c r="DR119" t="inlineStr"/>
-      <c r="DS119" t="inlineStr"/>
-      <c r="DT119" t="inlineStr"/>
-      <c r="DU119" t="inlineStr"/>
-      <c r="DV119" t="inlineStr"/>
-      <c r="DW119" t="inlineStr"/>
-      <c r="DX119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -42679,17 +41326,6 @@
         <v>28.89</v>
       </c>
       <c r="DM120" t="inlineStr"/>
-      <c r="DN120" t="inlineStr"/>
-      <c r="DO120" t="inlineStr"/>
-      <c r="DP120" t="inlineStr"/>
-      <c r="DQ120" t="inlineStr"/>
-      <c r="DR120" t="inlineStr"/>
-      <c r="DS120" t="inlineStr"/>
-      <c r="DT120" t="inlineStr"/>
-      <c r="DU120" t="inlineStr"/>
-      <c r="DV120" t="inlineStr"/>
-      <c r="DW120" t="inlineStr"/>
-      <c r="DX120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -43039,17 +41675,6 @@
         <v>44.64</v>
       </c>
       <c r="DM121" t="inlineStr"/>
-      <c r="DN121" t="inlineStr"/>
-      <c r="DO121" t="inlineStr"/>
-      <c r="DP121" t="inlineStr"/>
-      <c r="DQ121" t="inlineStr"/>
-      <c r="DR121" t="inlineStr"/>
-      <c r="DS121" t="inlineStr"/>
-      <c r="DT121" t="inlineStr"/>
-      <c r="DU121" t="inlineStr"/>
-      <c r="DV121" t="inlineStr"/>
-      <c r="DW121" t="inlineStr"/>
-      <c r="DX121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -43399,17 +42024,6 @@
         <v>44.58</v>
       </c>
       <c r="DM122" t="inlineStr"/>
-      <c r="DN122" t="inlineStr"/>
-      <c r="DO122" t="inlineStr"/>
-      <c r="DP122" t="inlineStr"/>
-      <c r="DQ122" t="inlineStr"/>
-      <c r="DR122" t="inlineStr"/>
-      <c r="DS122" t="inlineStr"/>
-      <c r="DT122" t="inlineStr"/>
-      <c r="DU122" t="inlineStr"/>
-      <c r="DV122" t="inlineStr"/>
-      <c r="DW122" t="inlineStr"/>
-      <c r="DX122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -43759,17 +42373,6 @@
         <v>75.53</v>
       </c>
       <c r="DM123" t="inlineStr"/>
-      <c r="DN123" t="inlineStr"/>
-      <c r="DO123" t="inlineStr"/>
-      <c r="DP123" t="inlineStr"/>
-      <c r="DQ123" t="inlineStr"/>
-      <c r="DR123" t="inlineStr"/>
-      <c r="DS123" t="inlineStr"/>
-      <c r="DT123" t="inlineStr"/>
-      <c r="DU123" t="inlineStr"/>
-      <c r="DV123" t="inlineStr"/>
-      <c r="DW123" t="inlineStr"/>
-      <c r="DX123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -44085,17 +42688,6 @@
         <v>62.61</v>
       </c>
       <c r="DM124" t="inlineStr"/>
-      <c r="DN124" t="inlineStr"/>
-      <c r="DO124" t="inlineStr"/>
-      <c r="DP124" t="inlineStr"/>
-      <c r="DQ124" t="inlineStr"/>
-      <c r="DR124" t="inlineStr"/>
-      <c r="DS124" t="inlineStr"/>
-      <c r="DT124" t="inlineStr"/>
-      <c r="DU124" t="inlineStr"/>
-      <c r="DV124" t="inlineStr"/>
-      <c r="DW124" t="inlineStr"/>
-      <c r="DX124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -44377,17 +42969,6 @@
         <v>36.19</v>
       </c>
       <c r="DM125" t="inlineStr"/>
-      <c r="DN125" t="inlineStr"/>
-      <c r="DO125" t="inlineStr"/>
-      <c r="DP125" t="inlineStr"/>
-      <c r="DQ125" t="inlineStr"/>
-      <c r="DR125" t="inlineStr"/>
-      <c r="DS125" t="inlineStr"/>
-      <c r="DT125" t="inlineStr"/>
-      <c r="DU125" t="inlineStr"/>
-      <c r="DV125" t="inlineStr"/>
-      <c r="DW125" t="inlineStr"/>
-      <c r="DX125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -44703,17 +43284,6 @@
         <v>33.71</v>
       </c>
       <c r="DM126" t="inlineStr"/>
-      <c r="DN126" t="inlineStr"/>
-      <c r="DO126" t="inlineStr"/>
-      <c r="DP126" t="inlineStr"/>
-      <c r="DQ126" t="inlineStr"/>
-      <c r="DR126" t="inlineStr"/>
-      <c r="DS126" t="inlineStr"/>
-      <c r="DT126" t="inlineStr"/>
-      <c r="DU126" t="inlineStr"/>
-      <c r="DV126" t="inlineStr"/>
-      <c r="DW126" t="inlineStr"/>
-      <c r="DX126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -45063,17 +43633,6 @@
         <v>44.07</v>
       </c>
       <c r="DM127" t="inlineStr"/>
-      <c r="DN127" t="inlineStr"/>
-      <c r="DO127" t="inlineStr"/>
-      <c r="DP127" t="inlineStr"/>
-      <c r="DQ127" t="inlineStr"/>
-      <c r="DR127" t="inlineStr"/>
-      <c r="DS127" t="inlineStr"/>
-      <c r="DT127" t="inlineStr"/>
-      <c r="DU127" t="inlineStr"/>
-      <c r="DV127" t="inlineStr"/>
-      <c r="DW127" t="inlineStr"/>
-      <c r="DX127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -45389,17 +43948,6 @@
         <v>43.84</v>
       </c>
       <c r="DM128" t="inlineStr"/>
-      <c r="DN128" t="inlineStr"/>
-      <c r="DO128" t="inlineStr"/>
-      <c r="DP128" t="inlineStr"/>
-      <c r="DQ128" t="inlineStr"/>
-      <c r="DR128" t="inlineStr"/>
-      <c r="DS128" t="inlineStr"/>
-      <c r="DT128" t="inlineStr"/>
-      <c r="DU128" t="inlineStr"/>
-      <c r="DV128" t="inlineStr"/>
-      <c r="DW128" t="inlineStr"/>
-      <c r="DX128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -45715,17 +44263,6 @@
         <v>53.03</v>
       </c>
       <c r="DM129" t="inlineStr"/>
-      <c r="DN129" t="inlineStr"/>
-      <c r="DO129" t="inlineStr"/>
-      <c r="DP129" t="inlineStr"/>
-      <c r="DQ129" t="inlineStr"/>
-      <c r="DR129" t="inlineStr"/>
-      <c r="DS129" t="inlineStr"/>
-      <c r="DT129" t="inlineStr"/>
-      <c r="DU129" t="inlineStr"/>
-      <c r="DV129" t="inlineStr"/>
-      <c r="DW129" t="inlineStr"/>
-      <c r="DX129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -46041,17 +44578,6 @@
         <v>43.9</v>
       </c>
       <c r="DM130" t="inlineStr"/>
-      <c r="DN130" t="inlineStr"/>
-      <c r="DO130" t="inlineStr"/>
-      <c r="DP130" t="inlineStr"/>
-      <c r="DQ130" t="inlineStr"/>
-      <c r="DR130" t="inlineStr"/>
-      <c r="DS130" t="inlineStr"/>
-      <c r="DT130" t="inlineStr"/>
-      <c r="DU130" t="inlineStr"/>
-      <c r="DV130" t="inlineStr"/>
-      <c r="DW130" t="inlineStr"/>
-      <c r="DX130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -46367,17 +44893,6 @@
         <v>43.28</v>
       </c>
       <c r="DM131" t="inlineStr"/>
-      <c r="DN131" t="inlineStr"/>
-      <c r="DO131" t="inlineStr"/>
-      <c r="DP131" t="inlineStr"/>
-      <c r="DQ131" t="inlineStr"/>
-      <c r="DR131" t="inlineStr"/>
-      <c r="DS131" t="inlineStr"/>
-      <c r="DT131" t="inlineStr"/>
-      <c r="DU131" t="inlineStr"/>
-      <c r="DV131" t="inlineStr"/>
-      <c r="DW131" t="inlineStr"/>
-      <c r="DX131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -46693,17 +45208,6 @@
         <v>52.38</v>
       </c>
       <c r="DM132" t="inlineStr"/>
-      <c r="DN132" t="inlineStr"/>
-      <c r="DO132" t="inlineStr"/>
-      <c r="DP132" t="inlineStr"/>
-      <c r="DQ132" t="inlineStr"/>
-      <c r="DR132" t="inlineStr"/>
-      <c r="DS132" t="inlineStr"/>
-      <c r="DT132" t="inlineStr"/>
-      <c r="DU132" t="inlineStr"/>
-      <c r="DV132" t="inlineStr"/>
-      <c r="DW132" t="inlineStr"/>
-      <c r="DX132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -47019,17 +45523,6 @@
         <v>54.81</v>
       </c>
       <c r="DM133" t="inlineStr"/>
-      <c r="DN133" t="inlineStr"/>
-      <c r="DO133" t="inlineStr"/>
-      <c r="DP133" t="inlineStr"/>
-      <c r="DQ133" t="inlineStr"/>
-      <c r="DR133" t="inlineStr"/>
-      <c r="DS133" t="inlineStr"/>
-      <c r="DT133" t="inlineStr"/>
-      <c r="DU133" t="inlineStr"/>
-      <c r="DV133" t="inlineStr"/>
-      <c r="DW133" t="inlineStr"/>
-      <c r="DX133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -47345,17 +45838,6 @@
         <v>40.95</v>
       </c>
       <c r="DM134" t="inlineStr"/>
-      <c r="DN134" t="inlineStr"/>
-      <c r="DO134" t="inlineStr"/>
-      <c r="DP134" t="inlineStr"/>
-      <c r="DQ134" t="inlineStr"/>
-      <c r="DR134" t="inlineStr"/>
-      <c r="DS134" t="inlineStr"/>
-      <c r="DT134" t="inlineStr"/>
-      <c r="DU134" t="inlineStr"/>
-      <c r="DV134" t="inlineStr"/>
-      <c r="DW134" t="inlineStr"/>
-      <c r="DX134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -47705,17 +46187,6 @@
         <v>44.44</v>
       </c>
       <c r="DM135" t="inlineStr"/>
-      <c r="DN135" t="inlineStr"/>
-      <c r="DO135" t="inlineStr"/>
-      <c r="DP135" t="inlineStr"/>
-      <c r="DQ135" t="inlineStr"/>
-      <c r="DR135" t="inlineStr"/>
-      <c r="DS135" t="inlineStr"/>
-      <c r="DT135" t="inlineStr"/>
-      <c r="DU135" t="inlineStr"/>
-      <c r="DV135" t="inlineStr"/>
-      <c r="DW135" t="inlineStr"/>
-      <c r="DX135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -48065,17 +46536,6 @@
         <v>29.23</v>
       </c>
       <c r="DM136" t="inlineStr"/>
-      <c r="DN136" t="inlineStr"/>
-      <c r="DO136" t="inlineStr"/>
-      <c r="DP136" t="inlineStr"/>
-      <c r="DQ136" t="inlineStr"/>
-      <c r="DR136" t="inlineStr"/>
-      <c r="DS136" t="inlineStr"/>
-      <c r="DT136" t="inlineStr"/>
-      <c r="DU136" t="inlineStr"/>
-      <c r="DV136" t="inlineStr"/>
-      <c r="DW136" t="inlineStr"/>
-      <c r="DX136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -48425,17 +46885,6 @@
         <v>43.75</v>
       </c>
       <c r="DM137" t="inlineStr"/>
-      <c r="DN137" t="inlineStr"/>
-      <c r="DO137" t="inlineStr"/>
-      <c r="DP137" t="inlineStr"/>
-      <c r="DQ137" t="inlineStr"/>
-      <c r="DR137" t="inlineStr"/>
-      <c r="DS137" t="inlineStr"/>
-      <c r="DT137" t="inlineStr"/>
-      <c r="DU137" t="inlineStr"/>
-      <c r="DV137" t="inlineStr"/>
-      <c r="DW137" t="inlineStr"/>
-      <c r="DX137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -48751,17 +47200,6 @@
         <v>55.29</v>
       </c>
       <c r="DM138" t="inlineStr"/>
-      <c r="DN138" t="inlineStr"/>
-      <c r="DO138" t="inlineStr"/>
-      <c r="DP138" t="inlineStr"/>
-      <c r="DQ138" t="inlineStr"/>
-      <c r="DR138" t="inlineStr"/>
-      <c r="DS138" t="inlineStr"/>
-      <c r="DT138" t="inlineStr"/>
-      <c r="DU138" t="inlineStr"/>
-      <c r="DV138" t="inlineStr"/>
-      <c r="DW138" t="inlineStr"/>
-      <c r="DX138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -49077,17 +47515,6 @@
         <v>43.75</v>
       </c>
       <c r="DM139" t="inlineStr"/>
-      <c r="DN139" t="inlineStr"/>
-      <c r="DO139" t="inlineStr"/>
-      <c r="DP139" t="inlineStr"/>
-      <c r="DQ139" t="inlineStr"/>
-      <c r="DR139" t="inlineStr"/>
-      <c r="DS139" t="inlineStr"/>
-      <c r="DT139" t="inlineStr"/>
-      <c r="DU139" t="inlineStr"/>
-      <c r="DV139" t="inlineStr"/>
-      <c r="DW139" t="inlineStr"/>
-      <c r="DX139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -49403,17 +47830,6 @@
         <v>53.33</v>
       </c>
       <c r="DM140" t="inlineStr"/>
-      <c r="DN140" t="inlineStr"/>
-      <c r="DO140" t="inlineStr"/>
-      <c r="DP140" t="inlineStr"/>
-      <c r="DQ140" t="inlineStr"/>
-      <c r="DR140" t="inlineStr"/>
-      <c r="DS140" t="inlineStr"/>
-      <c r="DT140" t="inlineStr"/>
-      <c r="DU140" t="inlineStr"/>
-      <c r="DV140" t="inlineStr"/>
-      <c r="DW140" t="inlineStr"/>
-      <c r="DX140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -49729,17 +48145,6 @@
         <v>34.96</v>
       </c>
       <c r="DM141" t="inlineStr"/>
-      <c r="DN141" t="inlineStr"/>
-      <c r="DO141" t="inlineStr"/>
-      <c r="DP141" t="inlineStr"/>
-      <c r="DQ141" t="inlineStr"/>
-      <c r="DR141" t="inlineStr"/>
-      <c r="DS141" t="inlineStr"/>
-      <c r="DT141" t="inlineStr"/>
-      <c r="DU141" t="inlineStr"/>
-      <c r="DV141" t="inlineStr"/>
-      <c r="DW141" t="inlineStr"/>
-      <c r="DX141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -50089,17 +48494,6 @@
         <v>57.38</v>
       </c>
       <c r="DM142" t="inlineStr"/>
-      <c r="DN142" t="inlineStr"/>
-      <c r="DO142" t="inlineStr"/>
-      <c r="DP142" t="inlineStr"/>
-      <c r="DQ142" t="inlineStr"/>
-      <c r="DR142" t="inlineStr"/>
-      <c r="DS142" t="inlineStr"/>
-      <c r="DT142" t="inlineStr"/>
-      <c r="DU142" t="inlineStr"/>
-      <c r="DV142" t="inlineStr"/>
-      <c r="DW142" t="inlineStr"/>
-      <c r="DX142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -50449,17 +48843,6 @@
         <v>50</v>
       </c>
       <c r="DM143" t="inlineStr"/>
-      <c r="DN143" t="inlineStr"/>
-      <c r="DO143" t="inlineStr"/>
-      <c r="DP143" t="inlineStr"/>
-      <c r="DQ143" t="inlineStr"/>
-      <c r="DR143" t="inlineStr"/>
-      <c r="DS143" t="inlineStr"/>
-      <c r="DT143" t="inlineStr"/>
-      <c r="DU143" t="inlineStr"/>
-      <c r="DV143" t="inlineStr"/>
-      <c r="DW143" t="inlineStr"/>
-      <c r="DX143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -50775,17 +49158,6 @@
         <v>31.91</v>
       </c>
       <c r="DM144" t="inlineStr"/>
-      <c r="DN144" t="inlineStr"/>
-      <c r="DO144" t="inlineStr"/>
-      <c r="DP144" t="inlineStr"/>
-      <c r="DQ144" t="inlineStr"/>
-      <c r="DR144" t="inlineStr"/>
-      <c r="DS144" t="inlineStr"/>
-      <c r="DT144" t="inlineStr"/>
-      <c r="DU144" t="inlineStr"/>
-      <c r="DV144" t="inlineStr"/>
-      <c r="DW144" t="inlineStr"/>
-      <c r="DX144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -51101,17 +49473,6 @@
         <v>43.18</v>
       </c>
       <c r="DM145" t="inlineStr"/>
-      <c r="DN145" t="inlineStr"/>
-      <c r="DO145" t="inlineStr"/>
-      <c r="DP145" t="inlineStr"/>
-      <c r="DQ145" t="inlineStr"/>
-      <c r="DR145" t="inlineStr"/>
-      <c r="DS145" t="inlineStr"/>
-      <c r="DT145" t="inlineStr"/>
-      <c r="DU145" t="inlineStr"/>
-      <c r="DV145" t="inlineStr"/>
-      <c r="DW145" t="inlineStr"/>
-      <c r="DX145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -51427,17 +49788,6 @@
         <v>48.65</v>
       </c>
       <c r="DM146" t="inlineStr"/>
-      <c r="DN146" t="inlineStr"/>
-      <c r="DO146" t="inlineStr"/>
-      <c r="DP146" t="inlineStr"/>
-      <c r="DQ146" t="inlineStr"/>
-      <c r="DR146" t="inlineStr"/>
-      <c r="DS146" t="inlineStr"/>
-      <c r="DT146" t="inlineStr"/>
-      <c r="DU146" t="inlineStr"/>
-      <c r="DV146" t="inlineStr"/>
-      <c r="DW146" t="inlineStr"/>
-      <c r="DX146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -51787,17 +50137,6 @@
         <v>47.47</v>
       </c>
       <c r="DM147" t="inlineStr"/>
-      <c r="DN147" t="inlineStr"/>
-      <c r="DO147" t="inlineStr"/>
-      <c r="DP147" t="inlineStr"/>
-      <c r="DQ147" t="inlineStr"/>
-      <c r="DR147" t="inlineStr"/>
-      <c r="DS147" t="inlineStr"/>
-      <c r="DT147" t="inlineStr"/>
-      <c r="DU147" t="inlineStr"/>
-      <c r="DV147" t="inlineStr"/>
-      <c r="DW147" t="inlineStr"/>
-      <c r="DX147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -52113,17 +50452,6 @@
         <v>37.5</v>
       </c>
       <c r="DM148" t="inlineStr"/>
-      <c r="DN148" t="inlineStr"/>
-      <c r="DO148" t="inlineStr"/>
-      <c r="DP148" t="inlineStr"/>
-      <c r="DQ148" t="inlineStr"/>
-      <c r="DR148" t="inlineStr"/>
-      <c r="DS148" t="inlineStr"/>
-      <c r="DT148" t="inlineStr"/>
-      <c r="DU148" t="inlineStr"/>
-      <c r="DV148" t="inlineStr"/>
-      <c r="DW148" t="inlineStr"/>
-      <c r="DX148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -52439,17 +50767,6 @@
         <v>42.5</v>
       </c>
       <c r="DM149" t="inlineStr"/>
-      <c r="DN149" t="inlineStr"/>
-      <c r="DO149" t="inlineStr"/>
-      <c r="DP149" t="inlineStr"/>
-      <c r="DQ149" t="inlineStr"/>
-      <c r="DR149" t="inlineStr"/>
-      <c r="DS149" t="inlineStr"/>
-      <c r="DT149" t="inlineStr"/>
-      <c r="DU149" t="inlineStr"/>
-      <c r="DV149" t="inlineStr"/>
-      <c r="DW149" t="inlineStr"/>
-      <c r="DX149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -52731,17 +51048,6 @@
         <v>25.97</v>
       </c>
       <c r="DM150" t="inlineStr"/>
-      <c r="DN150" t="inlineStr"/>
-      <c r="DO150" t="inlineStr"/>
-      <c r="DP150" t="inlineStr"/>
-      <c r="DQ150" t="inlineStr"/>
-      <c r="DR150" t="inlineStr"/>
-      <c r="DS150" t="inlineStr"/>
-      <c r="DT150" t="inlineStr"/>
-      <c r="DU150" t="inlineStr"/>
-      <c r="DV150" t="inlineStr"/>
-      <c r="DW150" t="inlineStr"/>
-      <c r="DX150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -53091,17 +51397,6 @@
         <v>65.15000000000001</v>
       </c>
       <c r="DM151" t="inlineStr"/>
-      <c r="DN151" t="inlineStr"/>
-      <c r="DO151" t="inlineStr"/>
-      <c r="DP151" t="inlineStr"/>
-      <c r="DQ151" t="inlineStr"/>
-      <c r="DR151" t="inlineStr"/>
-      <c r="DS151" t="inlineStr"/>
-      <c r="DT151" t="inlineStr"/>
-      <c r="DU151" t="inlineStr"/>
-      <c r="DV151" t="inlineStr"/>
-      <c r="DW151" t="inlineStr"/>
-      <c r="DX151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -53417,17 +51712,6 @@
         <v>45.21</v>
       </c>
       <c r="DM152" t="inlineStr"/>
-      <c r="DN152" t="inlineStr"/>
-      <c r="DO152" t="inlineStr"/>
-      <c r="DP152" t="inlineStr"/>
-      <c r="DQ152" t="inlineStr"/>
-      <c r="DR152" t="inlineStr"/>
-      <c r="DS152" t="inlineStr"/>
-      <c r="DT152" t="inlineStr"/>
-      <c r="DU152" t="inlineStr"/>
-      <c r="DV152" t="inlineStr"/>
-      <c r="DW152" t="inlineStr"/>
-      <c r="DX152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -53777,17 +52061,6 @@
         <v>38.1</v>
       </c>
       <c r="DM153" t="inlineStr"/>
-      <c r="DN153" t="inlineStr"/>
-      <c r="DO153" t="inlineStr"/>
-      <c r="DP153" t="inlineStr"/>
-      <c r="DQ153" t="inlineStr"/>
-      <c r="DR153" t="inlineStr"/>
-      <c r="DS153" t="inlineStr"/>
-      <c r="DT153" t="inlineStr"/>
-      <c r="DU153" t="inlineStr"/>
-      <c r="DV153" t="inlineStr"/>
-      <c r="DW153" t="inlineStr"/>
-      <c r="DX153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -54137,17 +52410,6 @@
         <v>43.64</v>
       </c>
       <c r="DM154" t="inlineStr"/>
-      <c r="DN154" t="inlineStr"/>
-      <c r="DO154" t="inlineStr"/>
-      <c r="DP154" t="inlineStr"/>
-      <c r="DQ154" t="inlineStr"/>
-      <c r="DR154" t="inlineStr"/>
-      <c r="DS154" t="inlineStr"/>
-      <c r="DT154" t="inlineStr"/>
-      <c r="DU154" t="inlineStr"/>
-      <c r="DV154" t="inlineStr"/>
-      <c r="DW154" t="inlineStr"/>
-      <c r="DX154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -54433,17 +52695,6 @@
       <c r="DK155" t="inlineStr"/>
       <c r="DL155" t="inlineStr"/>
       <c r="DM155" t="inlineStr"/>
-      <c r="DN155" t="inlineStr"/>
-      <c r="DO155" t="inlineStr"/>
-      <c r="DP155" t="inlineStr"/>
-      <c r="DQ155" t="inlineStr"/>
-      <c r="DR155" t="inlineStr"/>
-      <c r="DS155" t="inlineStr"/>
-      <c r="DT155" t="inlineStr"/>
-      <c r="DU155" t="inlineStr"/>
-      <c r="DV155" t="inlineStr"/>
-      <c r="DW155" t="inlineStr"/>
-      <c r="DX155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -54729,17 +52980,6 @@
       <c r="DK156" t="inlineStr"/>
       <c r="DL156" t="inlineStr"/>
       <c r="DM156" t="inlineStr"/>
-      <c r="DN156" t="inlineStr"/>
-      <c r="DO156" t="inlineStr"/>
-      <c r="DP156" t="inlineStr"/>
-      <c r="DQ156" t="inlineStr"/>
-      <c r="DR156" t="inlineStr"/>
-      <c r="DS156" t="inlineStr"/>
-      <c r="DT156" t="inlineStr"/>
-      <c r="DU156" t="inlineStr"/>
-      <c r="DV156" t="inlineStr"/>
-      <c r="DW156" t="inlineStr"/>
-      <c r="DX156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -54991,17 +53231,6 @@
       <c r="DK157" t="inlineStr"/>
       <c r="DL157" t="inlineStr"/>
       <c r="DM157" t="inlineStr"/>
-      <c r="DN157" t="inlineStr"/>
-      <c r="DO157" t="inlineStr"/>
-      <c r="DP157" t="inlineStr"/>
-      <c r="DQ157" t="inlineStr"/>
-      <c r="DR157" t="inlineStr"/>
-      <c r="DS157" t="inlineStr"/>
-      <c r="DT157" t="inlineStr"/>
-      <c r="DU157" t="inlineStr"/>
-      <c r="DV157" t="inlineStr"/>
-      <c r="DW157" t="inlineStr"/>
-      <c r="DX157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -55287,17 +53516,6 @@
       <c r="DK158" t="inlineStr"/>
       <c r="DL158" t="inlineStr"/>
       <c r="DM158" t="inlineStr"/>
-      <c r="DN158" t="inlineStr"/>
-      <c r="DO158" t="inlineStr"/>
-      <c r="DP158" t="inlineStr"/>
-      <c r="DQ158" t="inlineStr"/>
-      <c r="DR158" t="inlineStr"/>
-      <c r="DS158" t="inlineStr"/>
-      <c r="DT158" t="inlineStr"/>
-      <c r="DU158" t="inlineStr"/>
-      <c r="DV158" t="inlineStr"/>
-      <c r="DW158" t="inlineStr"/>
-      <c r="DX158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -55583,17 +53801,6 @@
       <c r="DK159" t="inlineStr"/>
       <c r="DL159" t="inlineStr"/>
       <c r="DM159" t="inlineStr"/>
-      <c r="DN159" t="inlineStr"/>
-      <c r="DO159" t="inlineStr"/>
-      <c r="DP159" t="inlineStr"/>
-      <c r="DQ159" t="inlineStr"/>
-      <c r="DR159" t="inlineStr"/>
-      <c r="DS159" t="inlineStr"/>
-      <c r="DT159" t="inlineStr"/>
-      <c r="DU159" t="inlineStr"/>
-      <c r="DV159" t="inlineStr"/>
-      <c r="DW159" t="inlineStr"/>
-      <c r="DX159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -55879,17 +54086,6 @@
       <c r="DK160" t="inlineStr"/>
       <c r="DL160" t="inlineStr"/>
       <c r="DM160" t="inlineStr"/>
-      <c r="DN160" t="inlineStr"/>
-      <c r="DO160" t="inlineStr"/>
-      <c r="DP160" t="inlineStr"/>
-      <c r="DQ160" t="inlineStr"/>
-      <c r="DR160" t="inlineStr"/>
-      <c r="DS160" t="inlineStr"/>
-      <c r="DT160" t="inlineStr"/>
-      <c r="DU160" t="inlineStr"/>
-      <c r="DV160" t="inlineStr"/>
-      <c r="DW160" t="inlineStr"/>
-      <c r="DX160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -56175,17 +54371,6 @@
       <c r="DK161" t="inlineStr"/>
       <c r="DL161" t="inlineStr"/>
       <c r="DM161" t="inlineStr"/>
-      <c r="DN161" t="inlineStr"/>
-      <c r="DO161" t="inlineStr"/>
-      <c r="DP161" t="inlineStr"/>
-      <c r="DQ161" t="inlineStr"/>
-      <c r="DR161" t="inlineStr"/>
-      <c r="DS161" t="inlineStr"/>
-      <c r="DT161" t="inlineStr"/>
-      <c r="DU161" t="inlineStr"/>
-      <c r="DV161" t="inlineStr"/>
-      <c r="DW161" t="inlineStr"/>
-      <c r="DX161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -56471,17 +54656,6 @@
       <c r="DK162" t="inlineStr"/>
       <c r="DL162" t="inlineStr"/>
       <c r="DM162" t="inlineStr"/>
-      <c r="DN162" t="inlineStr"/>
-      <c r="DO162" t="inlineStr"/>
-      <c r="DP162" t="inlineStr"/>
-      <c r="DQ162" t="inlineStr"/>
-      <c r="DR162" t="inlineStr"/>
-      <c r="DS162" t="inlineStr"/>
-      <c r="DT162" t="inlineStr"/>
-      <c r="DU162" t="inlineStr"/>
-      <c r="DV162" t="inlineStr"/>
-      <c r="DW162" t="inlineStr"/>
-      <c r="DX162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -56767,17 +54941,6 @@
       <c r="DK163" t="inlineStr"/>
       <c r="DL163" t="inlineStr"/>
       <c r="DM163" t="inlineStr"/>
-      <c r="DN163" t="inlineStr"/>
-      <c r="DO163" t="inlineStr"/>
-      <c r="DP163" t="inlineStr"/>
-      <c r="DQ163" t="inlineStr"/>
-      <c r="DR163" t="inlineStr"/>
-      <c r="DS163" t="inlineStr"/>
-      <c r="DT163" t="inlineStr"/>
-      <c r="DU163" t="inlineStr"/>
-      <c r="DV163" t="inlineStr"/>
-      <c r="DW163" t="inlineStr"/>
-      <c r="DX163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -57063,17 +55226,6 @@
       <c r="DK164" t="inlineStr"/>
       <c r="DL164" t="inlineStr"/>
       <c r="DM164" t="inlineStr"/>
-      <c r="DN164" t="inlineStr"/>
-      <c r="DO164" t="inlineStr"/>
-      <c r="DP164" t="inlineStr"/>
-      <c r="DQ164" t="inlineStr"/>
-      <c r="DR164" t="inlineStr"/>
-      <c r="DS164" t="inlineStr"/>
-      <c r="DT164" t="inlineStr"/>
-      <c r="DU164" t="inlineStr"/>
-      <c r="DV164" t="inlineStr"/>
-      <c r="DW164" t="inlineStr"/>
-      <c r="DX164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -57359,17 +55511,6 @@
       <c r="DK165" t="inlineStr"/>
       <c r="DL165" t="inlineStr"/>
       <c r="DM165" t="inlineStr"/>
-      <c r="DN165" t="inlineStr"/>
-      <c r="DO165" t="inlineStr"/>
-      <c r="DP165" t="inlineStr"/>
-      <c r="DQ165" t="inlineStr"/>
-      <c r="DR165" t="inlineStr"/>
-      <c r="DS165" t="inlineStr"/>
-      <c r="DT165" t="inlineStr"/>
-      <c r="DU165" t="inlineStr"/>
-      <c r="DV165" t="inlineStr"/>
-      <c r="DW165" t="inlineStr"/>
-      <c r="DX165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -57655,17 +55796,6 @@
       <c r="DK166" t="inlineStr"/>
       <c r="DL166" t="inlineStr"/>
       <c r="DM166" t="inlineStr"/>
-      <c r="DN166" t="inlineStr"/>
-      <c r="DO166" t="inlineStr"/>
-      <c r="DP166" t="inlineStr"/>
-      <c r="DQ166" t="inlineStr"/>
-      <c r="DR166" t="inlineStr"/>
-      <c r="DS166" t="inlineStr"/>
-      <c r="DT166" t="inlineStr"/>
-      <c r="DU166" t="inlineStr"/>
-      <c r="DV166" t="inlineStr"/>
-      <c r="DW166" t="inlineStr"/>
-      <c r="DX166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -57951,17 +56081,6 @@
       <c r="DK167" t="inlineStr"/>
       <c r="DL167" t="inlineStr"/>
       <c r="DM167" t="inlineStr"/>
-      <c r="DN167" t="inlineStr"/>
-      <c r="DO167" t="inlineStr"/>
-      <c r="DP167" t="inlineStr"/>
-      <c r="DQ167" t="inlineStr"/>
-      <c r="DR167" t="inlineStr"/>
-      <c r="DS167" t="inlineStr"/>
-      <c r="DT167" t="inlineStr"/>
-      <c r="DU167" t="inlineStr"/>
-      <c r="DV167" t="inlineStr"/>
-      <c r="DW167" t="inlineStr"/>
-      <c r="DX167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -58247,17 +56366,6 @@
       <c r="DK168" t="inlineStr"/>
       <c r="DL168" t="inlineStr"/>
       <c r="DM168" t="inlineStr"/>
-      <c r="DN168" t="inlineStr"/>
-      <c r="DO168" t="inlineStr"/>
-      <c r="DP168" t="inlineStr"/>
-      <c r="DQ168" t="inlineStr"/>
-      <c r="DR168" t="inlineStr"/>
-      <c r="DS168" t="inlineStr"/>
-      <c r="DT168" t="inlineStr"/>
-      <c r="DU168" t="inlineStr"/>
-      <c r="DV168" t="inlineStr"/>
-      <c r="DW168" t="inlineStr"/>
-      <c r="DX168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -58543,17 +56651,6 @@
       <c r="DK169" t="inlineStr"/>
       <c r="DL169" t="inlineStr"/>
       <c r="DM169" t="inlineStr"/>
-      <c r="DN169" t="inlineStr"/>
-      <c r="DO169" t="inlineStr"/>
-      <c r="DP169" t="inlineStr"/>
-      <c r="DQ169" t="inlineStr"/>
-      <c r="DR169" t="inlineStr"/>
-      <c r="DS169" t="inlineStr"/>
-      <c r="DT169" t="inlineStr"/>
-      <c r="DU169" t="inlineStr"/>
-      <c r="DV169" t="inlineStr"/>
-      <c r="DW169" t="inlineStr"/>
-      <c r="DX169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -58695,17 +56792,6 @@
       <c r="DK170" t="inlineStr"/>
       <c r="DL170" t="inlineStr"/>
       <c r="DM170" t="inlineStr"/>
-      <c r="DN170" t="inlineStr"/>
-      <c r="DO170" t="inlineStr"/>
-      <c r="DP170" t="inlineStr"/>
-      <c r="DQ170" t="inlineStr"/>
-      <c r="DR170" t="inlineStr"/>
-      <c r="DS170" t="inlineStr"/>
-      <c r="DT170" t="inlineStr"/>
-      <c r="DU170" t="inlineStr"/>
-      <c r="DV170" t="inlineStr"/>
-      <c r="DW170" t="inlineStr"/>
-      <c r="DX170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -58991,17 +57077,6 @@
       <c r="DK171" t="inlineStr"/>
       <c r="DL171" t="inlineStr"/>
       <c r="DM171" t="inlineStr"/>
-      <c r="DN171" t="inlineStr"/>
-      <c r="DO171" t="inlineStr"/>
-      <c r="DP171" t="inlineStr"/>
-      <c r="DQ171" t="inlineStr"/>
-      <c r="DR171" t="inlineStr"/>
-      <c r="DS171" t="inlineStr"/>
-      <c r="DT171" t="inlineStr"/>
-      <c r="DU171" t="inlineStr"/>
-      <c r="DV171" t="inlineStr"/>
-      <c r="DW171" t="inlineStr"/>
-      <c r="DX171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -59287,17 +57362,6 @@
       <c r="DK172" t="inlineStr"/>
       <c r="DL172" t="inlineStr"/>
       <c r="DM172" t="inlineStr"/>
-      <c r="DN172" t="inlineStr"/>
-      <c r="DO172" t="inlineStr"/>
-      <c r="DP172" t="inlineStr"/>
-      <c r="DQ172" t="inlineStr"/>
-      <c r="DR172" t="inlineStr"/>
-      <c r="DS172" t="inlineStr"/>
-      <c r="DT172" t="inlineStr"/>
-      <c r="DU172" t="inlineStr"/>
-      <c r="DV172" t="inlineStr"/>
-      <c r="DW172" t="inlineStr"/>
-      <c r="DX172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -59583,17 +57647,6 @@
       <c r="DK173" t="inlineStr"/>
       <c r="DL173" t="inlineStr"/>
       <c r="DM173" t="inlineStr"/>
-      <c r="DN173" t="inlineStr"/>
-      <c r="DO173" t="inlineStr"/>
-      <c r="DP173" t="inlineStr"/>
-      <c r="DQ173" t="inlineStr"/>
-      <c r="DR173" t="inlineStr"/>
-      <c r="DS173" t="inlineStr"/>
-      <c r="DT173" t="inlineStr"/>
-      <c r="DU173" t="inlineStr"/>
-      <c r="DV173" t="inlineStr"/>
-      <c r="DW173" t="inlineStr"/>
-      <c r="DX173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -59879,17 +57932,6 @@
       <c r="DK174" t="inlineStr"/>
       <c r="DL174" t="inlineStr"/>
       <c r="DM174" t="inlineStr"/>
-      <c r="DN174" t="inlineStr"/>
-      <c r="DO174" t="inlineStr"/>
-      <c r="DP174" t="inlineStr"/>
-      <c r="DQ174" t="inlineStr"/>
-      <c r="DR174" t="inlineStr"/>
-      <c r="DS174" t="inlineStr"/>
-      <c r="DT174" t="inlineStr"/>
-      <c r="DU174" t="inlineStr"/>
-      <c r="DV174" t="inlineStr"/>
-      <c r="DW174" t="inlineStr"/>
-      <c r="DX174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -60175,17 +58217,6 @@
       <c r="DK175" t="inlineStr"/>
       <c r="DL175" t="inlineStr"/>
       <c r="DM175" t="inlineStr"/>
-      <c r="DN175" t="inlineStr"/>
-      <c r="DO175" t="inlineStr"/>
-      <c r="DP175" t="inlineStr"/>
-      <c r="DQ175" t="inlineStr"/>
-      <c r="DR175" t="inlineStr"/>
-      <c r="DS175" t="inlineStr"/>
-      <c r="DT175" t="inlineStr"/>
-      <c r="DU175" t="inlineStr"/>
-      <c r="DV175" t="inlineStr"/>
-      <c r="DW175" t="inlineStr"/>
-      <c r="DX175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -60327,17 +58358,6 @@
       <c r="DK176" t="inlineStr"/>
       <c r="DL176" t="inlineStr"/>
       <c r="DM176" t="inlineStr"/>
-      <c r="DN176" t="inlineStr"/>
-      <c r="DO176" t="inlineStr"/>
-      <c r="DP176" t="inlineStr"/>
-      <c r="DQ176" t="inlineStr"/>
-      <c r="DR176" t="inlineStr"/>
-      <c r="DS176" t="inlineStr"/>
-      <c r="DT176" t="inlineStr"/>
-      <c r="DU176" t="inlineStr"/>
-      <c r="DV176" t="inlineStr"/>
-      <c r="DW176" t="inlineStr"/>
-      <c r="DX176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -60623,17 +58643,6 @@
       <c r="DK177" t="inlineStr"/>
       <c r="DL177" t="inlineStr"/>
       <c r="DM177" t="inlineStr"/>
-      <c r="DN177" t="inlineStr"/>
-      <c r="DO177" t="inlineStr"/>
-      <c r="DP177" t="inlineStr"/>
-      <c r="DQ177" t="inlineStr"/>
-      <c r="DR177" t="inlineStr"/>
-      <c r="DS177" t="inlineStr"/>
-      <c r="DT177" t="inlineStr"/>
-      <c r="DU177" t="inlineStr"/>
-      <c r="DV177" t="inlineStr"/>
-      <c r="DW177" t="inlineStr"/>
-      <c r="DX177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -60919,17 +58928,6 @@
       <c r="DK178" t="inlineStr"/>
       <c r="DL178" t="inlineStr"/>
       <c r="DM178" t="inlineStr"/>
-      <c r="DN178" t="inlineStr"/>
-      <c r="DO178" t="inlineStr"/>
-      <c r="DP178" t="inlineStr"/>
-      <c r="DQ178" t="inlineStr"/>
-      <c r="DR178" t="inlineStr"/>
-      <c r="DS178" t="inlineStr"/>
-      <c r="DT178" t="inlineStr"/>
-      <c r="DU178" t="inlineStr"/>
-      <c r="DV178" t="inlineStr"/>
-      <c r="DW178" t="inlineStr"/>
-      <c r="DX178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -61071,17 +59069,6 @@
       <c r="DK179" t="inlineStr"/>
       <c r="DL179" t="inlineStr"/>
       <c r="DM179" t="inlineStr"/>
-      <c r="DN179" t="inlineStr"/>
-      <c r="DO179" t="inlineStr"/>
-      <c r="DP179" t="inlineStr"/>
-      <c r="DQ179" t="inlineStr"/>
-      <c r="DR179" t="inlineStr"/>
-      <c r="DS179" t="inlineStr"/>
-      <c r="DT179" t="inlineStr"/>
-      <c r="DU179" t="inlineStr"/>
-      <c r="DV179" t="inlineStr"/>
-      <c r="DW179" t="inlineStr"/>
-      <c r="DX179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -61333,17 +59320,6 @@
       <c r="DK180" t="inlineStr"/>
       <c r="DL180" t="inlineStr"/>
       <c r="DM180" t="inlineStr"/>
-      <c r="DN180" t="inlineStr"/>
-      <c r="DO180" t="inlineStr"/>
-      <c r="DP180" t="inlineStr"/>
-      <c r="DQ180" t="inlineStr"/>
-      <c r="DR180" t="inlineStr"/>
-      <c r="DS180" t="inlineStr"/>
-      <c r="DT180" t="inlineStr"/>
-      <c r="DU180" t="inlineStr"/>
-      <c r="DV180" t="inlineStr"/>
-      <c r="DW180" t="inlineStr"/>
-      <c r="DX180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -61629,17 +59605,6 @@
       <c r="DK181" t="inlineStr"/>
       <c r="DL181" t="inlineStr"/>
       <c r="DM181" t="inlineStr"/>
-      <c r="DN181" t="inlineStr"/>
-      <c r="DO181" t="inlineStr"/>
-      <c r="DP181" t="inlineStr"/>
-      <c r="DQ181" t="inlineStr"/>
-      <c r="DR181" t="inlineStr"/>
-      <c r="DS181" t="inlineStr"/>
-      <c r="DT181" t="inlineStr"/>
-      <c r="DU181" t="inlineStr"/>
-      <c r="DV181" t="inlineStr"/>
-      <c r="DW181" t="inlineStr"/>
-      <c r="DX181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -61925,17 +59890,6 @@
       <c r="DK182" t="inlineStr"/>
       <c r="DL182" t="inlineStr"/>
       <c r="DM182" t="inlineStr"/>
-      <c r="DN182" t="inlineStr"/>
-      <c r="DO182" t="inlineStr"/>
-      <c r="DP182" t="inlineStr"/>
-      <c r="DQ182" t="inlineStr"/>
-      <c r="DR182" t="inlineStr"/>
-      <c r="DS182" t="inlineStr"/>
-      <c r="DT182" t="inlineStr"/>
-      <c r="DU182" t="inlineStr"/>
-      <c r="DV182" t="inlineStr"/>
-      <c r="DW182" t="inlineStr"/>
-      <c r="DX182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -62221,17 +60175,6 @@
       <c r="DK183" t="inlineStr"/>
       <c r="DL183" t="inlineStr"/>
       <c r="DM183" t="inlineStr"/>
-      <c r="DN183" t="inlineStr"/>
-      <c r="DO183" t="inlineStr"/>
-      <c r="DP183" t="inlineStr"/>
-      <c r="DQ183" t="inlineStr"/>
-      <c r="DR183" t="inlineStr"/>
-      <c r="DS183" t="inlineStr"/>
-      <c r="DT183" t="inlineStr"/>
-      <c r="DU183" t="inlineStr"/>
-      <c r="DV183" t="inlineStr"/>
-      <c r="DW183" t="inlineStr"/>
-      <c r="DX183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -62517,17 +60460,6 @@
       <c r="DK184" t="inlineStr"/>
       <c r="DL184" t="inlineStr"/>
       <c r="DM184" t="inlineStr"/>
-      <c r="DN184" t="inlineStr"/>
-      <c r="DO184" t="inlineStr"/>
-      <c r="DP184" t="inlineStr"/>
-      <c r="DQ184" t="inlineStr"/>
-      <c r="DR184" t="inlineStr"/>
-      <c r="DS184" t="inlineStr"/>
-      <c r="DT184" t="inlineStr"/>
-      <c r="DU184" t="inlineStr"/>
-      <c r="DV184" t="inlineStr"/>
-      <c r="DW184" t="inlineStr"/>
-      <c r="DX184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -62813,17 +60745,6 @@
       <c r="DK185" t="inlineStr"/>
       <c r="DL185" t="inlineStr"/>
       <c r="DM185" t="inlineStr"/>
-      <c r="DN185" t="inlineStr"/>
-      <c r="DO185" t="inlineStr"/>
-      <c r="DP185" t="inlineStr"/>
-      <c r="DQ185" t="inlineStr"/>
-      <c r="DR185" t="inlineStr"/>
-      <c r="DS185" t="inlineStr"/>
-      <c r="DT185" t="inlineStr"/>
-      <c r="DU185" t="inlineStr"/>
-      <c r="DV185" t="inlineStr"/>
-      <c r="DW185" t="inlineStr"/>
-      <c r="DX185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -63109,17 +61030,6 @@
       <c r="DK186" t="inlineStr"/>
       <c r="DL186" t="inlineStr"/>
       <c r="DM186" t="inlineStr"/>
-      <c r="DN186" t="inlineStr"/>
-      <c r="DO186" t="inlineStr"/>
-      <c r="DP186" t="inlineStr"/>
-      <c r="DQ186" t="inlineStr"/>
-      <c r="DR186" t="inlineStr"/>
-      <c r="DS186" t="inlineStr"/>
-      <c r="DT186" t="inlineStr"/>
-      <c r="DU186" t="inlineStr"/>
-      <c r="DV186" t="inlineStr"/>
-      <c r="DW186" t="inlineStr"/>
-      <c r="DX186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -63405,17 +61315,6 @@
       <c r="DK187" t="inlineStr"/>
       <c r="DL187" t="inlineStr"/>
       <c r="DM187" t="inlineStr"/>
-      <c r="DN187" t="inlineStr"/>
-      <c r="DO187" t="inlineStr"/>
-      <c r="DP187" t="inlineStr"/>
-      <c r="DQ187" t="inlineStr"/>
-      <c r="DR187" t="inlineStr"/>
-      <c r="DS187" t="inlineStr"/>
-      <c r="DT187" t="inlineStr"/>
-      <c r="DU187" t="inlineStr"/>
-      <c r="DV187" t="inlineStr"/>
-      <c r="DW187" t="inlineStr"/>
-      <c r="DX187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -63701,17 +61600,6 @@
       <c r="DK188" t="inlineStr"/>
       <c r="DL188" t="inlineStr"/>
       <c r="DM188" t="inlineStr"/>
-      <c r="DN188" t="inlineStr"/>
-      <c r="DO188" t="inlineStr"/>
-      <c r="DP188" t="inlineStr"/>
-      <c r="DQ188" t="inlineStr"/>
-      <c r="DR188" t="inlineStr"/>
-      <c r="DS188" t="inlineStr"/>
-      <c r="DT188" t="inlineStr"/>
-      <c r="DU188" t="inlineStr"/>
-      <c r="DV188" t="inlineStr"/>
-      <c r="DW188" t="inlineStr"/>
-      <c r="DX188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -63997,17 +61885,6 @@
       <c r="DK189" t="inlineStr"/>
       <c r="DL189" t="inlineStr"/>
       <c r="DM189" t="inlineStr"/>
-      <c r="DN189" t="inlineStr"/>
-      <c r="DO189" t="inlineStr"/>
-      <c r="DP189" t="inlineStr"/>
-      <c r="DQ189" t="inlineStr"/>
-      <c r="DR189" t="inlineStr"/>
-      <c r="DS189" t="inlineStr"/>
-      <c r="DT189" t="inlineStr"/>
-      <c r="DU189" t="inlineStr"/>
-      <c r="DV189" t="inlineStr"/>
-      <c r="DW189" t="inlineStr"/>
-      <c r="DX189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -64293,17 +62170,6 @@
       <c r="DK190" t="inlineStr"/>
       <c r="DL190" t="inlineStr"/>
       <c r="DM190" t="inlineStr"/>
-      <c r="DN190" t="inlineStr"/>
-      <c r="DO190" t="inlineStr"/>
-      <c r="DP190" t="inlineStr"/>
-      <c r="DQ190" t="inlineStr"/>
-      <c r="DR190" t="inlineStr"/>
-      <c r="DS190" t="inlineStr"/>
-      <c r="DT190" t="inlineStr"/>
-      <c r="DU190" t="inlineStr"/>
-      <c r="DV190" t="inlineStr"/>
-      <c r="DW190" t="inlineStr"/>
-      <c r="DX190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -64589,17 +62455,6 @@
       <c r="DK191" t="inlineStr"/>
       <c r="DL191" t="inlineStr"/>
       <c r="DM191" t="inlineStr"/>
-      <c r="DN191" t="inlineStr"/>
-      <c r="DO191" t="inlineStr"/>
-      <c r="DP191" t="inlineStr"/>
-      <c r="DQ191" t="inlineStr"/>
-      <c r="DR191" t="inlineStr"/>
-      <c r="DS191" t="inlineStr"/>
-      <c r="DT191" t="inlineStr"/>
-      <c r="DU191" t="inlineStr"/>
-      <c r="DV191" t="inlineStr"/>
-      <c r="DW191" t="inlineStr"/>
-      <c r="DX191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -64885,17 +62740,6 @@
       <c r="DK192" t="inlineStr"/>
       <c r="DL192" t="inlineStr"/>
       <c r="DM192" t="inlineStr"/>
-      <c r="DN192" t="inlineStr"/>
-      <c r="DO192" t="inlineStr"/>
-      <c r="DP192" t="inlineStr"/>
-      <c r="DQ192" t="inlineStr"/>
-      <c r="DR192" t="inlineStr"/>
-      <c r="DS192" t="inlineStr"/>
-      <c r="DT192" t="inlineStr"/>
-      <c r="DU192" t="inlineStr"/>
-      <c r="DV192" t="inlineStr"/>
-      <c r="DW192" t="inlineStr"/>
-      <c r="DX192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -65181,17 +63025,6 @@
       <c r="DK193" t="inlineStr"/>
       <c r="DL193" t="inlineStr"/>
       <c r="DM193" t="inlineStr"/>
-      <c r="DN193" t="inlineStr"/>
-      <c r="DO193" t="inlineStr"/>
-      <c r="DP193" t="inlineStr"/>
-      <c r="DQ193" t="inlineStr"/>
-      <c r="DR193" t="inlineStr"/>
-      <c r="DS193" t="inlineStr"/>
-      <c r="DT193" t="inlineStr"/>
-      <c r="DU193" t="inlineStr"/>
-      <c r="DV193" t="inlineStr"/>
-      <c r="DW193" t="inlineStr"/>
-      <c r="DX193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -65443,17 +63276,6 @@
       <c r="DK194" t="inlineStr"/>
       <c r="DL194" t="inlineStr"/>
       <c r="DM194" t="inlineStr"/>
-      <c r="DN194" t="inlineStr"/>
-      <c r="DO194" t="inlineStr"/>
-      <c r="DP194" t="inlineStr"/>
-      <c r="DQ194" t="inlineStr"/>
-      <c r="DR194" t="inlineStr"/>
-      <c r="DS194" t="inlineStr"/>
-      <c r="DT194" t="inlineStr"/>
-      <c r="DU194" t="inlineStr"/>
-      <c r="DV194" t="inlineStr"/>
-      <c r="DW194" t="inlineStr"/>
-      <c r="DX194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -65739,17 +63561,6 @@
       <c r="DK195" t="inlineStr"/>
       <c r="DL195" t="inlineStr"/>
       <c r="DM195" t="inlineStr"/>
-      <c r="DN195" t="inlineStr"/>
-      <c r="DO195" t="inlineStr"/>
-      <c r="DP195" t="inlineStr"/>
-      <c r="DQ195" t="inlineStr"/>
-      <c r="DR195" t="inlineStr"/>
-      <c r="DS195" t="inlineStr"/>
-      <c r="DT195" t="inlineStr"/>
-      <c r="DU195" t="inlineStr"/>
-      <c r="DV195" t="inlineStr"/>
-      <c r="DW195" t="inlineStr"/>
-      <c r="DX195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -66035,17 +63846,6 @@
       <c r="DK196" t="inlineStr"/>
       <c r="DL196" t="inlineStr"/>
       <c r="DM196" t="inlineStr"/>
-      <c r="DN196" t="inlineStr"/>
-      <c r="DO196" t="inlineStr"/>
-      <c r="DP196" t="inlineStr"/>
-      <c r="DQ196" t="inlineStr"/>
-      <c r="DR196" t="inlineStr"/>
-      <c r="DS196" t="inlineStr"/>
-      <c r="DT196" t="inlineStr"/>
-      <c r="DU196" t="inlineStr"/>
-      <c r="DV196" t="inlineStr"/>
-      <c r="DW196" t="inlineStr"/>
-      <c r="DX196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -66331,17 +64131,6 @@
       <c r="DK197" t="inlineStr"/>
       <c r="DL197" t="inlineStr"/>
       <c r="DM197" t="inlineStr"/>
-      <c r="DN197" t="inlineStr"/>
-      <c r="DO197" t="inlineStr"/>
-      <c r="DP197" t="inlineStr"/>
-      <c r="DQ197" t="inlineStr"/>
-      <c r="DR197" t="inlineStr"/>
-      <c r="DS197" t="inlineStr"/>
-      <c r="DT197" t="inlineStr"/>
-      <c r="DU197" t="inlineStr"/>
-      <c r="DV197" t="inlineStr"/>
-      <c r="DW197" t="inlineStr"/>
-      <c r="DX197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -66627,17 +64416,6 @@
       <c r="DK198" t="inlineStr"/>
       <c r="DL198" t="inlineStr"/>
       <c r="DM198" t="inlineStr"/>
-      <c r="DN198" t="inlineStr"/>
-      <c r="DO198" t="inlineStr"/>
-      <c r="DP198" t="inlineStr"/>
-      <c r="DQ198" t="inlineStr"/>
-      <c r="DR198" t="inlineStr"/>
-      <c r="DS198" t="inlineStr"/>
-      <c r="DT198" t="inlineStr"/>
-      <c r="DU198" t="inlineStr"/>
-      <c r="DV198" t="inlineStr"/>
-      <c r="DW198" t="inlineStr"/>
-      <c r="DX198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -66923,17 +64701,6 @@
       <c r="DK199" t="inlineStr"/>
       <c r="DL199" t="inlineStr"/>
       <c r="DM199" t="inlineStr"/>
-      <c r="DN199" t="inlineStr"/>
-      <c r="DO199" t="inlineStr"/>
-      <c r="DP199" t="inlineStr"/>
-      <c r="DQ199" t="inlineStr"/>
-      <c r="DR199" t="inlineStr"/>
-      <c r="DS199" t="inlineStr"/>
-      <c r="DT199" t="inlineStr"/>
-      <c r="DU199" t="inlineStr"/>
-      <c r="DV199" t="inlineStr"/>
-      <c r="DW199" t="inlineStr"/>
-      <c r="DX199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -67219,17 +64986,6 @@
       <c r="DK200" t="inlineStr"/>
       <c r="DL200" t="inlineStr"/>
       <c r="DM200" t="inlineStr"/>
-      <c r="DN200" t="inlineStr"/>
-      <c r="DO200" t="inlineStr"/>
-      <c r="DP200" t="inlineStr"/>
-      <c r="DQ200" t="inlineStr"/>
-      <c r="DR200" t="inlineStr"/>
-      <c r="DS200" t="inlineStr"/>
-      <c r="DT200" t="inlineStr"/>
-      <c r="DU200" t="inlineStr"/>
-      <c r="DV200" t="inlineStr"/>
-      <c r="DW200" t="inlineStr"/>
-      <c r="DX200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -67515,17 +65271,6 @@
       <c r="DK201" t="inlineStr"/>
       <c r="DL201" t="inlineStr"/>
       <c r="DM201" t="inlineStr"/>
-      <c r="DN201" t="inlineStr"/>
-      <c r="DO201" t="inlineStr"/>
-      <c r="DP201" t="inlineStr"/>
-      <c r="DQ201" t="inlineStr"/>
-      <c r="DR201" t="inlineStr"/>
-      <c r="DS201" t="inlineStr"/>
-      <c r="DT201" t="inlineStr"/>
-      <c r="DU201" t="inlineStr"/>
-      <c r="DV201" t="inlineStr"/>
-      <c r="DW201" t="inlineStr"/>
-      <c r="DX201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -67811,17 +65556,6 @@
       <c r="DK202" t="inlineStr"/>
       <c r="DL202" t="inlineStr"/>
       <c r="DM202" t="inlineStr"/>
-      <c r="DN202" t="inlineStr"/>
-      <c r="DO202" t="inlineStr"/>
-      <c r="DP202" t="inlineStr"/>
-      <c r="DQ202" t="inlineStr"/>
-      <c r="DR202" t="inlineStr"/>
-      <c r="DS202" t="inlineStr"/>
-      <c r="DT202" t="inlineStr"/>
-      <c r="DU202" t="inlineStr"/>
-      <c r="DV202" t="inlineStr"/>
-      <c r="DW202" t="inlineStr"/>
-      <c r="DX202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -68107,17 +65841,6 @@
       <c r="DK203" t="inlineStr"/>
       <c r="DL203" t="inlineStr"/>
       <c r="DM203" t="inlineStr"/>
-      <c r="DN203" t="inlineStr"/>
-      <c r="DO203" t="inlineStr"/>
-      <c r="DP203" t="inlineStr"/>
-      <c r="DQ203" t="inlineStr"/>
-      <c r="DR203" t="inlineStr"/>
-      <c r="DS203" t="inlineStr"/>
-      <c r="DT203" t="inlineStr"/>
-      <c r="DU203" t="inlineStr"/>
-      <c r="DV203" t="inlineStr"/>
-      <c r="DW203" t="inlineStr"/>
-      <c r="DX203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -68403,17 +66126,6 @@
       <c r="DK204" t="inlineStr"/>
       <c r="DL204" t="inlineStr"/>
       <c r="DM204" t="inlineStr"/>
-      <c r="DN204" t="inlineStr"/>
-      <c r="DO204" t="inlineStr"/>
-      <c r="DP204" t="inlineStr"/>
-      <c r="DQ204" t="inlineStr"/>
-      <c r="DR204" t="inlineStr"/>
-      <c r="DS204" t="inlineStr"/>
-      <c r="DT204" t="inlineStr"/>
-      <c r="DU204" t="inlineStr"/>
-      <c r="DV204" t="inlineStr"/>
-      <c r="DW204" t="inlineStr"/>
-      <c r="DX204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -68699,17 +66411,6 @@
       <c r="DK205" t="inlineStr"/>
       <c r="DL205" t="inlineStr"/>
       <c r="DM205" t="inlineStr"/>
-      <c r="DN205" t="inlineStr"/>
-      <c r="DO205" t="inlineStr"/>
-      <c r="DP205" t="inlineStr"/>
-      <c r="DQ205" t="inlineStr"/>
-      <c r="DR205" t="inlineStr"/>
-      <c r="DS205" t="inlineStr"/>
-      <c r="DT205" t="inlineStr"/>
-      <c r="DU205" t="inlineStr"/>
-      <c r="DV205" t="inlineStr"/>
-      <c r="DW205" t="inlineStr"/>
-      <c r="DX205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -68994,42 +66695,7 @@
       <c r="DJ206" t="inlineStr"/>
       <c r="DK206" t="inlineStr"/>
       <c r="DL206" t="inlineStr"/>
-      <c r="DM206" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="DN206" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="DO206" t="n">
-        <v>33</v>
-      </c>
-      <c r="DP206" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="DQ206" t="n">
-        <v>6</v>
-      </c>
-      <c r="DR206" t="n">
-        <v>11</v>
-      </c>
-      <c r="DS206" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="DT206" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="DU206" t="n">
-        <v>7</v>
-      </c>
-      <c r="DV206" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="DW206" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="DX206" t="n">
-        <v>13</v>
-      </c>
+      <c r="DM206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -69314,42 +66980,7 @@
       <c r="DJ207" t="inlineStr"/>
       <c r="DK207" t="inlineStr"/>
       <c r="DL207" t="inlineStr"/>
-      <c r="DM207" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="DN207" t="n">
-        <v>-0.82</v>
-      </c>
-      <c r="DO207" t="n">
-        <v>54</v>
-      </c>
-      <c r="DP207" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="DQ207" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="DR207" t="n">
-        <v>12</v>
-      </c>
-      <c r="DS207" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="DT207" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="DU207" t="n">
-        <v>10</v>
-      </c>
-      <c r="DV207" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="DW207" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="DX207" t="n">
-        <v>28</v>
-      </c>
+      <c r="DM207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -69634,42 +67265,7 @@
       <c r="DJ208" t="inlineStr"/>
       <c r="DK208" t="inlineStr"/>
       <c r="DL208" t="inlineStr"/>
-      <c r="DM208" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="DN208" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="DO208" t="n">
-        <v>24</v>
-      </c>
-      <c r="DP208" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="DQ208" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="DR208" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS208" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="DT208" t="n">
-        <v>-3.04</v>
-      </c>
-      <c r="DU208" t="n">
-        <v>4</v>
-      </c>
-      <c r="DV208" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="DW208" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="DX208" t="n">
-        <v>10</v>
-      </c>
+      <c r="DM208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -69954,42 +67550,7 @@
       <c r="DJ209" t="inlineStr"/>
       <c r="DK209" t="inlineStr"/>
       <c r="DL209" t="inlineStr"/>
-      <c r="DM209" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="DN209" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="DO209" t="n">
-        <v>15</v>
-      </c>
-      <c r="DP209" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="DQ209" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="DR209" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS209" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="DT209" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="DU209" t="n">
-        <v>2</v>
-      </c>
-      <c r="DV209" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="DW209" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="DX209" t="n">
-        <v>10</v>
-      </c>
+      <c r="DM209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -70274,42 +67835,7 @@
       <c r="DJ210" t="inlineStr"/>
       <c r="DK210" t="inlineStr"/>
       <c r="DL210" t="inlineStr"/>
-      <c r="DM210" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="DN210" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="DO210" t="n">
-        <v>24</v>
-      </c>
-      <c r="DP210" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="DQ210" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="DR210" t="n">
-        <v>4</v>
-      </c>
-      <c r="DS210" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="DT210" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="DU210" t="n">
-        <v>2</v>
-      </c>
-      <c r="DV210" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="DW210" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="DX210" t="n">
-        <v>11</v>
-      </c>
+      <c r="DM210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -70594,42 +68120,7 @@
       <c r="DJ211" t="inlineStr"/>
       <c r="DK211" t="inlineStr"/>
       <c r="DL211" t="inlineStr"/>
-      <c r="DM211" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="DN211" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="DO211" t="n">
-        <v>65</v>
-      </c>
-      <c r="DP211" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="DQ211" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="DR211" t="n">
-        <v>11</v>
-      </c>
-      <c r="DS211" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="DT211" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="DU211" t="n">
-        <v>3</v>
-      </c>
-      <c r="DV211" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="DW211" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="DX211" t="n">
-        <v>17</v>
-      </c>
+      <c r="DM211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -70914,42 +68405,7 @@
       <c r="DJ212" t="inlineStr"/>
       <c r="DK212" t="inlineStr"/>
       <c r="DL212" t="inlineStr"/>
-      <c r="DM212" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="DN212" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="DO212" t="n">
-        <v>43</v>
-      </c>
-      <c r="DP212" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="DQ212" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="DR212" t="n">
-        <v>7</v>
-      </c>
-      <c r="DS212" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="DT212" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="DU212" t="n">
-        <v>5</v>
-      </c>
-      <c r="DV212" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="DW212" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="DX212" t="n">
-        <v>14</v>
-      </c>
+      <c r="DM212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -71234,42 +68690,7 @@
       <c r="DJ213" t="inlineStr"/>
       <c r="DK213" t="inlineStr"/>
       <c r="DL213" t="inlineStr"/>
-      <c r="DM213" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="DN213" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="DO213" t="n">
-        <v>28</v>
-      </c>
-      <c r="DP213" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="DQ213" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="DR213" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS213" t="n">
-        <v>-2.01</v>
-      </c>
-      <c r="DT213" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="DU213" t="n">
-        <v>3</v>
-      </c>
-      <c r="DV213" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="DW213" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="DX213" t="n">
-        <v>12</v>
-      </c>
+      <c r="DM213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -71554,42 +68975,7 @@
       <c r="DJ214" t="inlineStr"/>
       <c r="DK214" t="inlineStr"/>
       <c r="DL214" t="inlineStr"/>
-      <c r="DM214" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="DN214" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="DO214" t="n">
-        <v>22</v>
-      </c>
-      <c r="DP214" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="DQ214" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="DR214" t="n">
-        <v>9</v>
-      </c>
-      <c r="DS214" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="DT214" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="DU214" t="n">
-        <v>2</v>
-      </c>
-      <c r="DV214" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="DW214" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="DX214" t="n">
-        <v>13</v>
-      </c>
+      <c r="DM214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -71874,42 +69260,7 @@
       <c r="DJ215" t="inlineStr"/>
       <c r="DK215" t="inlineStr"/>
       <c r="DL215" t="inlineStr"/>
-      <c r="DM215" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="DN215" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="DO215" t="n">
-        <v>52</v>
-      </c>
-      <c r="DP215" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="DQ215" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="DR215" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS215" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="DT215" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="DU215" t="n">
-        <v>6</v>
-      </c>
-      <c r="DV215" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="DW215" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="DX215" t="n">
-        <v>19</v>
-      </c>
+      <c r="DM215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -72194,42 +69545,7 @@
       <c r="DJ216" t="inlineStr"/>
       <c r="DK216" t="inlineStr"/>
       <c r="DL216" t="inlineStr"/>
-      <c r="DM216" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="DN216" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="DO216" t="n">
-        <v>28</v>
-      </c>
-      <c r="DP216" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="DQ216" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DR216" t="n">
-        <v>18</v>
-      </c>
-      <c r="DS216" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="DT216" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="DU216" t="n">
-        <v>4</v>
-      </c>
-      <c r="DV216" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="DW216" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="DX216" t="n">
-        <v>15</v>
-      </c>
+      <c r="DM216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -72514,42 +69830,7 @@
       <c r="DJ217" t="inlineStr"/>
       <c r="DK217" t="inlineStr"/>
       <c r="DL217" t="inlineStr"/>
-      <c r="DM217" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="DN217" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="DO217" t="n">
-        <v>36</v>
-      </c>
-      <c r="DP217" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="DQ217" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="DR217" t="n">
-        <v>9</v>
-      </c>
-      <c r="DS217" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="DT217" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="DU217" t="n">
-        <v>10</v>
-      </c>
-      <c r="DV217" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="DW217" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="DX217" t="n">
-        <v>12</v>
-      </c>
+      <c r="DM217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -72834,42 +70115,7 @@
       <c r="DJ218" t="inlineStr"/>
       <c r="DK218" t="inlineStr"/>
       <c r="DL218" t="inlineStr"/>
-      <c r="DM218" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="DN218" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="DO218" t="n">
-        <v>43</v>
-      </c>
-      <c r="DP218" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="DQ218" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="DR218" t="n">
-        <v>9</v>
-      </c>
-      <c r="DS218" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="DT218" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="DU218" t="n">
-        <v>4</v>
-      </c>
-      <c r="DV218" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="DW218" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="DX218" t="n">
-        <v>14</v>
-      </c>
+      <c r="DM218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -73120,42 +70366,7 @@
       <c r="DJ219" t="inlineStr"/>
       <c r="DK219" t="inlineStr"/>
       <c r="DL219" t="inlineStr"/>
-      <c r="DM219" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="DN219" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="DO219" t="n">
-        <v>36</v>
-      </c>
-      <c r="DP219" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="DQ219" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="DR219" t="n">
-        <v>14</v>
-      </c>
-      <c r="DS219" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="DT219" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="DU219" t="n">
-        <v>12</v>
-      </c>
-      <c r="DV219" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="DW219" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="DX219" t="n">
-        <v>7</v>
-      </c>
+      <c r="DM219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -73406,42 +70617,7 @@
       <c r="DJ220" t="inlineStr"/>
       <c r="DK220" t="inlineStr"/>
       <c r="DL220" t="inlineStr"/>
-      <c r="DM220" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="DN220" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="DO220" t="n">
-        <v>14</v>
-      </c>
-      <c r="DP220" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="DQ220" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="DR220" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS220" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="DT220" t="n">
-        <v>-1.76</v>
-      </c>
-      <c r="DU220" t="n">
-        <v>3</v>
-      </c>
-      <c r="DV220" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="DW220" t="n">
-        <v>-3.51</v>
-      </c>
-      <c r="DX220" t="n">
-        <v>32</v>
-      </c>
+      <c r="DM220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -73726,42 +70902,7 @@
       <c r="DJ221" t="inlineStr"/>
       <c r="DK221" t="inlineStr"/>
       <c r="DL221" t="inlineStr"/>
-      <c r="DM221" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="DN221" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO221" t="n">
-        <v>25</v>
-      </c>
-      <c r="DP221" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="DQ221" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="DR221" t="n">
-        <v>5</v>
-      </c>
-      <c r="DS221" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="DT221" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="DU221" t="n">
-        <v>3</v>
-      </c>
-      <c r="DV221" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="DW221" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="DX221" t="n">
-        <v>17</v>
-      </c>
+      <c r="DM221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -74046,42 +71187,7 @@
       <c r="DJ222" t="inlineStr"/>
       <c r="DK222" t="inlineStr"/>
       <c r="DL222" t="inlineStr"/>
-      <c r="DM222" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="DN222" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="DO222" t="n">
-        <v>37</v>
-      </c>
-      <c r="DP222" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="DQ222" t="n">
-        <v>-0.98</v>
-      </c>
-      <c r="DR222" t="n">
-        <v>7</v>
-      </c>
-      <c r="DS222" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="DT222" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="DU222" t="n">
-        <v>5</v>
-      </c>
-      <c r="DV222" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="DW222" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="DX222" t="n">
-        <v>16</v>
-      </c>
+      <c r="DM222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -74366,42 +71472,7 @@
       <c r="DJ223" t="inlineStr"/>
       <c r="DK223" t="inlineStr"/>
       <c r="DL223" t="inlineStr"/>
-      <c r="DM223" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="DN223" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="DO223" t="n">
-        <v>24</v>
-      </c>
-      <c r="DP223" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="DQ223" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="DR223" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS223" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="DT223" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="DU223" t="n">
-        <v>5</v>
-      </c>
-      <c r="DV223" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="DW223" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="DX223" t="n">
-        <v>14</v>
-      </c>
+      <c r="DM223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -74686,42 +71757,7 @@
       <c r="DJ224" t="inlineStr"/>
       <c r="DK224" t="inlineStr"/>
       <c r="DL224" t="inlineStr"/>
-      <c r="DM224" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="DN224" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="DO224" t="n">
-        <v>39</v>
-      </c>
-      <c r="DP224" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="DQ224" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="DR224" t="n">
-        <v>21</v>
-      </c>
-      <c r="DS224" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="DT224" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="DU224" t="n">
-        <v>5</v>
-      </c>
-      <c r="DV224" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="DW224" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="DX224" t="n">
-        <v>13</v>
-      </c>
+      <c r="DM224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -75006,42 +72042,7 @@
       <c r="DJ225" t="inlineStr"/>
       <c r="DK225" t="inlineStr"/>
       <c r="DL225" t="inlineStr"/>
-      <c r="DM225" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="DN225" t="n">
-        <v>-1.49</v>
-      </c>
-      <c r="DO225" t="n">
-        <v>25</v>
-      </c>
-      <c r="DP225" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="DQ225" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="DR225" t="n">
-        <v>3</v>
-      </c>
-      <c r="DS225" t="n">
-        <v>-2.22</v>
-      </c>
-      <c r="DT225" t="n">
-        <v>-5.25</v>
-      </c>
-      <c r="DU225" t="n">
-        <v>3</v>
-      </c>
-      <c r="DV225" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="DW225" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="DX225" t="n">
-        <v>9</v>
-      </c>
+      <c r="DM225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -75326,42 +72327,7 @@
       <c r="DJ226" t="inlineStr"/>
       <c r="DK226" t="inlineStr"/>
       <c r="DL226" t="inlineStr"/>
-      <c r="DM226" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="DN226" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="DO226" t="n">
-        <v>29</v>
-      </c>
-      <c r="DP226" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="DQ226" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="DR226" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS226" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT226" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="DU226" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV226" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="DW226" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="DX226" t="n">
-        <v>11</v>
-      </c>
+      <c r="DM226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -75646,41 +72612,10 @@
       <c r="DJ227" t="inlineStr"/>
       <c r="DK227" t="inlineStr"/>
       <c r="DL227" t="inlineStr"/>
-      <c r="DM227" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="DN227" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="DO227" t="n">
-        <v>29</v>
-      </c>
-      <c r="DP227" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="DQ227" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="DR227" t="n">
-        <v>9</v>
-      </c>
-      <c r="DS227" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="DT227" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="DU227" t="n">
-        <v>2</v>
-      </c>
-      <c r="DV227" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="DW227" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="DX227" t="n">
-        <v>13</v>
+      <c r="DM227" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.75, "收盘": 2.29, "样本": 29}, "1": {"开盘": 1.75, "收盘": 2.53, "样本": 9}, "2": {"开盘": 4.08, "收盘": 6.05, "样本": 2}, "3": {"开盘": 0.94, "收盘": 4.11, "样本": 3}, "4": {"开盘": 0.87, "收盘": 0.2, "样本": 6}, "6": {"开盘": -0.4, "收盘": 0.22, "样本": 3}, "8": {"开盘": 8.99, "收盘": 10.05, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="228">
@@ -75966,41 +72901,10 @@
       <c r="DJ228" t="inlineStr"/>
       <c r="DK228" t="inlineStr"/>
       <c r="DL228" t="inlineStr"/>
-      <c r="DM228" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="DN228" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="DO228" t="n">
-        <v>26</v>
-      </c>
-      <c r="DP228" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="DQ228" t="n">
-        <v>-2.44</v>
-      </c>
-      <c r="DR228" t="n">
-        <v>5</v>
-      </c>
-      <c r="DS228" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="DT228" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="DU228" t="n">
-        <v>3</v>
-      </c>
-      <c r="DV228" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="DW228" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="DX228" t="n">
-        <v>17</v>
+      <c r="DM228" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.47, "收盘": 0.97, "样本": 26}, "1": {"开盘": 3.53, "收盘": -2.44, "样本": 5}, "2": {"开盘": 1.52, "收盘": 0.57, "样本": 3}, "3": {"开盘": 1.57, "收盘": -0.77, "样本": 3}, "4": {"开盘": 7.43, "收盘": 7.73, "样本": 3}, "5": {"开盘": 4.62, "收盘": 2.08, "样本": 2}, "6": {"开盘": 4.77, "收盘": 9.99, "样本": 2}, "7": {"开盘": -1.53, "收盘": -6.03, "样本": 1}, "9": {"开盘": 6.56, "收盘": 9.97, "样本": 2}, "10": {"开盘": 5.04, "收盘": 9.98, "样本": 1}, "16": {"开盘": -2.21, "收盘": -5.57, "样本": 2}, "18": {"开盘": -0.66, "收盘": -3.27, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="229">
@@ -76286,41 +73190,10 @@
       <c r="DJ229" t="inlineStr"/>
       <c r="DK229" t="inlineStr"/>
       <c r="DL229" t="inlineStr"/>
-      <c r="DM229" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="DN229" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="DO229" t="n">
-        <v>42</v>
-      </c>
-      <c r="DP229" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="DQ229" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="DR229" t="n">
-        <v>12</v>
-      </c>
-      <c r="DS229" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="DT229" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="DU229" t="n">
-        <v>3</v>
-      </c>
-      <c r="DV229" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="DW229" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="DX229" t="n">
-        <v>31</v>
+      <c r="DM229" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.3, "收盘": 2.21, "样本": 42}, "1": {"开盘": 3.05, "收盘": 1.54, "样本": 12}, "2": {"开盘": 2.36, "收盘": 1.02, "样本": 3}, "3": {"开盘": -0.89, "收盘": -1.11, "样本": 4}, "4": {"开盘": 0.51, "收盘": 5.08, "样本": 5}, "5": {"开盘": -0.88, "收盘": 0.88, "样本": 7}, "6": {"开盘": 1.83, "收盘": -0.71, "样本": 2}, "7": {"开盘": 1.31, "收盘": -1.75, "样本": 1}, "8": {"开盘": -5.76, "收盘": -0.13, "样本": 1}, "9": {"开盘": 1.53, "收盘": 0.47, "样本": 2}, "11": {"开盘": -1.22, "收盘": -3.29, "样本": 3}, "12": {"开盘": 0.88, "收盘": -3.96, "样本": 1}, "15": {"开盘": -0.12, "收盘": -1.94, "样本": 1}, "16": {"开盘": 1.14, "收盘": -2.98, "样本": 1}, "18": {"开盘": -1.63, "收盘": -7.5, "样本": 1}, "24": {"开盘": -2.91, "收盘": -4.65, "样本": 1}, "26": {"开盘": -0.21, "收盘": -1.36, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="230">
@@ -76606,41 +73479,10 @@
       <c r="DJ230" t="inlineStr"/>
       <c r="DK230" t="inlineStr"/>
       <c r="DL230" t="inlineStr"/>
-      <c r="DM230" t="n">
-        <v>-1.74</v>
-      </c>
-      <c r="DN230" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="DO230" t="n">
-        <v>28</v>
-      </c>
-      <c r="DP230" t="n">
-        <v>-3.48</v>
-      </c>
-      <c r="DQ230" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DR230" t="n">
-        <v>8</v>
-      </c>
-      <c r="DS230" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="DT230" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="DU230" t="n">
-        <v>5</v>
-      </c>
-      <c r="DV230" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="DW230" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="DX230" t="n">
-        <v>15</v>
+      <c r="DM230" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": -1.74, "收盘": 2.02, "样本": 28}, "1": {"开盘": -3.48, "收盘": 0.08, "样本": 8}, "2": {"开盘": 0.52, "收盘": 7.03, "样本": 5}, "3": {"开盘": 5.3, "收盘": -0.04, "样本": 3}, "4": {"开盘": 0.26, "收盘": 3.98, "样本": 3}, "6": {"开盘": -5.76, "收盘": 0.07, "样本": 4}, "7": {"开盘": -4.88, "收盘": -2.12, "样本": 1}, "9": {"开盘": -1.84, "收盘": 1.57, "样本": 2}, "11": {"开盘": -5.03, "收盘": -4.6, "样本": 1}, "15": {"开盘": 0.13, "收盘": 5.13, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="231">
@@ -76926,41 +73768,10 @@
       <c r="DJ231" t="inlineStr"/>
       <c r="DK231" t="inlineStr"/>
       <c r="DL231" t="inlineStr"/>
-      <c r="DM231" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="DN231" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="DO231" t="n">
-        <v>28</v>
-      </c>
-      <c r="DP231" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="DQ231" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="DR231" t="n">
-        <v>12</v>
-      </c>
-      <c r="DS231" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="DT231" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="DU231" t="n">
-        <v>7</v>
-      </c>
-      <c r="DV231" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="DW231" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="DX231" t="n">
-        <v>12</v>
+      <c r="DM231" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 4.3, "收盘": 3.05, "样本": 28}, "1": {"开盘": 5.35, "收盘": 3.42, "样本": 12}, "2": {"开盘": 5.58, "收盘": 2.02, "样本": 7}, "3": {"开盘": 4.94, "收盘": 0.63, "样本": 3}, "4": {"开盘": 2.6, "收盘": 4.18, "样本": 3}, "6": {"开盘": 4.75, "收盘": -8.21, "样本": 1}, "7": {"开盘": 5.99, "收盘": 1.13, "样本": 3}, "10": {"开盘": 2.96, "收盘": -0.35, "样本": 2}}</t>
+        </is>
       </c>
     </row>
     <row r="232">
@@ -77246,41 +74057,10 @@
       <c r="DJ232" t="inlineStr"/>
       <c r="DK232" t="inlineStr"/>
       <c r="DL232" t="inlineStr"/>
-      <c r="DM232" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="DN232" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="DO232" t="n">
-        <v>22</v>
-      </c>
-      <c r="DP232" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="DQ232" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="DR232" t="n">
-        <v>3</v>
-      </c>
-      <c r="DS232" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="DT232" t="n">
-        <v>-1.13</v>
-      </c>
-      <c r="DU232" t="n">
-        <v>4</v>
-      </c>
-      <c r="DV232" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="DW232" t="n">
-        <v>-1.33</v>
-      </c>
-      <c r="DX232" t="n">
-        <v>8</v>
+      <c r="DM232" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.37, "收盘": 1.41, "样本": 22}, "1": {"开盘": 1.45, "收盘": 0.44, "样本": 3}, "2": {"开盘": 1.57, "收盘": -1.13, "样本": 4}, "3": {"开盘": 1.08, "收盘": 3.4, "样本": 1}, "4": {"开盘": 7.08, "收盘": 1.32, "样本": 1}, "6": {"开盘": 9.37, "收盘": -5.39, "样本": 1}, "8": {"开盘": 0.2, "收盘": -0.04, "样本": 2}, "11": {"开盘": -0.99, "收盘": -8.48, "样本": 1}, "39": {"开盘": -0.14, "收盘": 2.18, "样本": 1}, "49": {"开盘": 5.12, "收盘": -3.59, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="233">
@@ -77566,41 +74346,10 @@
       <c r="DJ233" t="inlineStr"/>
       <c r="DK233" t="inlineStr"/>
       <c r="DL233" t="inlineStr"/>
-      <c r="DM233" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="DN233" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="DO233" t="n">
-        <v>39</v>
-      </c>
-      <c r="DP233" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="DQ233" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="DR233" t="n">
-        <v>14</v>
-      </c>
-      <c r="DS233" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="DT233" t="n">
-        <v>-1.94</v>
-      </c>
-      <c r="DU233" t="n">
-        <v>2</v>
-      </c>
-      <c r="DV233" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="DW233" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="DX233" t="n">
-        <v>10</v>
+      <c r="DM233" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.81, "收盘": 1.35, "样本": 39}, "1": {"开盘": 3.01, "收盘": 2.22, "样本": 14}, "2": {"开盘": 3.29, "收盘": -1.94, "样本": 2}, "3": {"开盘": 1.8, "收盘": 7.22, "样本": 3}, "4": {"开盘": -3.27, "收盘": -3.31, "样本": 2}, "5": {"开盘": 2.93, "收盘": 10.02, "样本": 1}, "6": {"开盘": 1.26, "收盘": -0.54, "样本": 2}, "7": {"开盘": -4.39, "收盘": -6.04, "样本": 1}, "11": {"开盘": -2.42, "收盘": -7.59, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="234">
@@ -77886,41 +74635,10 @@
       <c r="DJ234" t="inlineStr"/>
       <c r="DK234" t="inlineStr"/>
       <c r="DL234" t="inlineStr"/>
-      <c r="DM234" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="DN234" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="DO234" t="n">
-        <v>16</v>
-      </c>
-      <c r="DP234" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="DQ234" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="DR234" t="n">
-        <v>7</v>
-      </c>
-      <c r="DS234" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="DT234" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="DU234" t="n">
-        <v>6</v>
-      </c>
-      <c r="DV234" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="DW234" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="DX234" t="n">
-        <v>11</v>
+      <c r="DM234" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.19, "收盘": 3.1, "样本": 16}, "1": {"开盘": 0.35, "收盘": 0.76, "样本": 7}, "2": {"开盘": 3.11, "收盘": 2.45, "样本": 6}, "3": {"开盘": 0.84, "收盘": 0.84, "样本": 4}, "4": {"开盘": 0.24, "收盘": 1.38, "样本": 2}, "6": {"开盘": -1.63, "收盘": -4.49, "样本": 1}, "8": {"开盘": -3.1, "收盘": -3.6, "样本": 2}, "9": {"开盘": 1.42, "收盘": 2.31, "样本": 1}, "11": {"开盘": -1.23, "收盘": -5.56, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="235">
@@ -78206,41 +74924,10 @@
       <c r="DJ235" t="inlineStr"/>
       <c r="DK235" t="inlineStr"/>
       <c r="DL235" t="inlineStr"/>
-      <c r="DM235" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="DN235" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="DO235" t="n">
-        <v>14</v>
-      </c>
-      <c r="DP235" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="DQ235" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="DR235" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS235" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="DT235" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="DU235" t="n">
-        <v>5</v>
-      </c>
-      <c r="DV235" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="DW235" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="DX235" t="n">
-        <v>11</v>
+      <c r="DM235" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 0.98, "收盘": 1.36, "样本": 14}, "1": {"开盘": 1.2, "收盘": 1.13, "样本": 6}, "2": {"开盘": 1.79, "收盘": 5.99, "样本": 5}, "3": {"开盘": -1.08, "收盘": 4.54, "样本": 4}, "4": {"开盘": 6.92, "收盘": 6.0, "样本": 2}, "5": {"开盘": 1.8, "收盘": -1.8, "样本": 1}, "6": {"开盘": 0.0, "收盘": 2.14, "样本": 1}, "7": {"开盘": 1.75, "收盘": 10.0, "样本": 1}, "8": {"开盘": 4.23, "收盘": 2.77, "样本": 2}}</t>
+        </is>
       </c>
     </row>
     <row r="236">
@@ -78526,41 +75213,10 @@
       <c r="DJ236" t="inlineStr"/>
       <c r="DK236" t="inlineStr"/>
       <c r="DL236" t="inlineStr"/>
-      <c r="DM236" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="DN236" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="DO236" t="n">
-        <v>43</v>
-      </c>
-      <c r="DP236" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="DQ236" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="DR236" t="n">
-        <v>12</v>
-      </c>
-      <c r="DS236" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="DT236" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="DU236" t="n">
-        <v>7</v>
-      </c>
-      <c r="DV236" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="DW236" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="DX236" t="n">
-        <v>14</v>
+      <c r="DM236" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.28, "收盘": 1.95, "样本": 43}, "1": {"开盘": 0.8, "收盘": 2.64, "样本": 12}, "2": {"开盘": -0.9, "收盘": 2.02, "样本": 7}, "3": {"开盘": -1.73, "收盘": -1.4, "样本": 2}, "4": {"开盘": 3.29, "收盘": 3.23, "样本": 4}, "5": {"开盘": -1.74, "收盘": -0.0, "样本": 3}, "6": {"开盘": 3.61, "收盘": 1.63, "样本": 2}, "8": {"开盘": -2.19, "收盘": 0.94, "样本": 1}, "14": {"开盘": 0.44, "收盘": -2.79, "样本": 1}, "22": {"开盘": -2.14, "收盘": -7.34, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="237">
@@ -78846,41 +75502,10 @@
       <c r="DJ237" t="inlineStr"/>
       <c r="DK237" t="inlineStr"/>
       <c r="DL237" t="inlineStr"/>
-      <c r="DM237" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="DN237" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="DO237" t="n">
-        <v>45</v>
-      </c>
-      <c r="DP237" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="DQ237" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="DR237" t="n">
-        <v>15</v>
-      </c>
-      <c r="DS237" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="DT237" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="DU237" t="n">
-        <v>11</v>
-      </c>
-      <c r="DV237" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="DW237" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="DX237" t="n">
-        <v>7</v>
+      <c r="DM237" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.27, "收盘": 2.38, "样本": 45}, "1": {"开盘": 4.1, "收盘": 3.58, "样本": 15}, "2": {"开盘": 2.26, "收盘": -0.19, "样本": 11}, "3": {"开盘": 3.21, "收盘": 5.4, "样本": 3}, "4": {"开盘": 0.32, "收盘": 2.86, "样本": 1}, "5": {"开盘": -0.44, "收盘": -1.99, "样本": 1}, "9": {"开盘": -9.99, "收盘": -9.99, "样本": 1}, "11": {"开盘": 5.13, "收盘": 10.01, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="238">
@@ -79166,35 +75791,10 @@
       <c r="DJ238" t="inlineStr"/>
       <c r="DK238" t="inlineStr"/>
       <c r="DL238" t="inlineStr"/>
-      <c r="DM238" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="DN238" t="n">
-        <v>-1.13</v>
-      </c>
-      <c r="DO238" t="n">
-        <v>33</v>
-      </c>
-      <c r="DP238" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="DQ238" t="n">
-        <v>-0.76</v>
-      </c>
-      <c r="DR238" t="n">
-        <v>13</v>
-      </c>
-      <c r="DS238" t="inlineStr"/>
-      <c r="DT238" t="inlineStr"/>
-      <c r="DU238" t="inlineStr"/>
-      <c r="DV238" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="DW238" t="n">
-        <v>-1.41</v>
-      </c>
-      <c r="DX238" t="n">
-        <v>10</v>
+      <c r="DM238" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 1.78, "收盘": -1.13, "样本": 33}, "1": {"开盘": 0.99, "收盘": -0.76, "样本": 13}, "3": {"开盘": 0.47, "收盘": -1.71, "样本": 5}, "4": {"开盘": -0.32, "收盘": -4.6, "样本": 2}, "5": {"开盘": -8.24, "收盘": -9.99, "样本": 1}, "8": {"开盘": 0.0, "收盘": 9.99, "样本": 1}, "10": {"开盘": -4.53, "收盘": 3.68, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="239">
@@ -79480,41 +76080,10 @@
       <c r="DJ239" t="inlineStr"/>
       <c r="DK239" t="inlineStr"/>
       <c r="DL239" t="inlineStr"/>
-      <c r="DM239" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="DN239" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="DO239" t="n">
-        <v>34</v>
-      </c>
-      <c r="DP239" t="n">
-        <v>-1.71</v>
-      </c>
-      <c r="DQ239" t="n">
-        <v>-4.43</v>
-      </c>
-      <c r="DR239" t="n">
-        <v>5</v>
-      </c>
-      <c r="DS239" t="n">
-        <v>-0.74</v>
-      </c>
-      <c r="DT239" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="DU239" t="n">
-        <v>8</v>
-      </c>
-      <c r="DV239" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="DW239" t="n">
-        <v>-2.16</v>
-      </c>
-      <c r="DX239" t="n">
-        <v>11</v>
+      <c r="DM239" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.33, "收盘": -1.5, "样本": 34}, "1": {"开盘": -1.71, "收盘": -4.43, "样本": 5}, "2": {"开盘": -0.74, "收盘": 0.42, "样本": 8}, "3": {"开盘": 2.18, "收盘": 3.23, "样本": 4}, "4": {"开盘": -3.64, "收盘": -4.06, "样本": 1}, "5": {"开盘": -0.54, "收盘": -2.23, "样本": 3}, "8": {"开盘": 2.03, "收盘": -10.04, "样本": 1}, "17": {"开盘": -3.93, "收盘": -6.42, "样本": 1}, "21": {"开盘": -6.47, "收盘": -9.46, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="240">
@@ -79800,41 +76369,10 @@
       <c r="DJ240" t="inlineStr"/>
       <c r="DK240" t="inlineStr"/>
       <c r="DL240" t="inlineStr"/>
-      <c r="DM240" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="DN240" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="DO240" t="n">
-        <v>32</v>
-      </c>
-      <c r="DP240" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="DQ240" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="DR240" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS240" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="DT240" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="DU240" t="n">
-        <v>5</v>
-      </c>
-      <c r="DV240" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="DW240" t="n">
-        <v>-0.67</v>
-      </c>
-      <c r="DX240" t="n">
-        <v>9</v>
+      <c r="DM240" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.23, "收盘": 3.74, "样本": 32}, "1": {"开盘": 4.41, "收盘": 3.62, "样本": 10}, "2": {"开盘": 0.44, "收盘": 0.42, "样本": 5}, "3": {"开盘": 9.73, "收盘": 3.87, "样本": 1}, "4": {"开盘": 1.72, "收盘": 0.78, "样本": 2}, "5": {"开盘": -0.5, "收盘": -0.25, "样本": 1}, "7": {"开盘": 2.18, "收盘": 1.4, "样本": 1}, "8": {"开盘": -1.23, "收盘": -2.14, "样本": 2}, "9": {"开盘": 4.02, "收盘": -4.46, "样本": 1}, "10": {"开盘": 0.73, "收盘": -3.85, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="241">
@@ -80120,41 +76658,10 @@
       <c r="DJ241" t="inlineStr"/>
       <c r="DK241" t="inlineStr"/>
       <c r="DL241" t="inlineStr"/>
-      <c r="DM241" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="DN241" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="DO241" t="n">
-        <v>29</v>
-      </c>
-      <c r="DP241" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="DQ241" t="n">
-        <v>-3.65</v>
-      </c>
-      <c r="DR241" t="n">
-        <v>3</v>
-      </c>
-      <c r="DS241" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="DT241" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="DU241" t="n">
-        <v>5</v>
-      </c>
-      <c r="DV241" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="DW241" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="DX241" t="n">
-        <v>13</v>
+      <c r="DM241" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.88, "收盘": 3.95, "样本": 29}, "1": {"开盘": 0.58, "收盘": -3.65, "样本": 3}, "2": {"开盘": 4.38, "收盘": 7.97, "样本": 5}, "3": {"开盘": 3.06, "收盘": 4.69, "样本": 2}, "4": {"开盘": 0.75, "收盘": 0.71, "样本": 3}, "5": {"开盘": 0.66, "收盘": -0.07, "样本": 3}, "6": {"开盘": -0.56, "收盘": 5.83, "样本": 1}, "7": {"开盘": 2.0, "收盘": 10.0, "样本": 1}, "11": {"开盘": -2.31, "收盘": 6.39, "样本": 1}, "12": {"开盘": 3.27, "收盘": 6.44, "样本": 1}, "16": {"开盘": 1.77, "收盘": 6.53, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="242">
@@ -80440,41 +76947,10 @@
       <c r="DJ242" t="inlineStr"/>
       <c r="DK242" t="inlineStr"/>
       <c r="DL242" t="inlineStr"/>
-      <c r="DM242" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="DN242" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="DO242" t="n">
-        <v>28</v>
-      </c>
-      <c r="DP242" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="DQ242" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="DR242" t="n">
-        <v>11</v>
-      </c>
-      <c r="DS242" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="DT242" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="DU242" t="n">
-        <v>8</v>
-      </c>
-      <c r="DV242" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DW242" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="DX242" t="n">
-        <v>11</v>
+      <c r="DM242" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.99, "收盘": 0.88, "样本": 28}, "1": {"开盘": 3.35, "收盘": 0.41, "样本": 11}, "2": {"开盘": 1.86, "收盘": 1.82, "样本": 8}, "3": {"开盘": 0.69, "收盘": 6.68, "样本": 5}, "5": {"开盘": 3.97, "收盘": 4.13, "样本": 1}, "10": {"开盘": -5.04, "收盘": 5.13, "样本": 1}, "12": {"开盘": -0.92, "收盘": -3.91, "样本": 2}, "14": {"开盘": 1.47, "收盘": 1.99, "样本": 2}}</t>
+        </is>
       </c>
     </row>
     <row r="243">
@@ -80760,41 +77236,10 @@
       <c r="DJ243" t="inlineStr"/>
       <c r="DK243" t="inlineStr"/>
       <c r="DL243" t="inlineStr"/>
-      <c r="DM243" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="DN243" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="DO243" t="n">
-        <v>31</v>
-      </c>
-      <c r="DP243" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="DQ243" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="DR243" t="n">
-        <v>7</v>
-      </c>
-      <c r="DS243" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="DT243" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="DU243" t="n">
-        <v>8</v>
-      </c>
-      <c r="DV243" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DW243" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="DX243" t="n">
-        <v>14</v>
+      <c r="DM243" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.49, "收盘": 1.61, "样本": 31}, "1": {"开盘": 2.81, "收盘": 0.34, "样本": 7}, "2": {"开盘": 2.14, "收盘": 0.25, "样本": 8}, "3": {"开盘": 0.36, "收盘": -0.76, "样本": 5}, "5": {"开盘": -1.02, "收盘": -4.5, "样本": 2}, "7": {"开盘": -0.21, "收盘": -6.11, "样本": 2}, "9": {"开盘": 0.9, "收盘": 2.88, "样本": 2}, "10": {"开盘": 1.99, "收盘": 3.52, "样本": 1}, "25": {"开盘": -0.22, "收盘": 10.0, "样本": 1}, "34": {"开盘": -1.79, "收盘": 0.17, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="244">
@@ -81080,41 +77525,10 @@
       <c r="DJ244" t="inlineStr"/>
       <c r="DK244" t="inlineStr"/>
       <c r="DL244" t="inlineStr"/>
-      <c r="DM244" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="DN244" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="DO244" t="n">
-        <v>24</v>
-      </c>
-      <c r="DP244" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="DQ244" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="DR244" t="n">
-        <v>7</v>
-      </c>
-      <c r="DS244" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="DT244" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="DU244" t="n">
-        <v>7</v>
-      </c>
-      <c r="DV244" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="DW244" t="n">
-        <v>-5.16</v>
-      </c>
-      <c r="DX244" t="n">
-        <v>8</v>
+      <c r="DM244" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 1.26, "收盘": 1.24, "样本": 24}, "1": {"开盘": -0.05, "收盘": 1.25, "样本": 7}, "2": {"开盘": 5.16, "收盘": 5.27, "样本": 7}, "3": {"开盘": -1.5, "收盘": -3.51, "样本": 2}, "4": {"开盘": -2.56, "收盘": -9.98, "样本": 2}, "5": {"开盘": -1.92, "收盘": -4.5, "样本": 2}, "7": {"开盘": -0.47, "收盘": 3.63, "样本": 1}, "24": {"开盘": -4.98, "收盘": -8.91, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="245">
@@ -81400,41 +77814,10 @@
       <c r="DJ245" t="inlineStr"/>
       <c r="DK245" t="inlineStr"/>
       <c r="DL245" t="inlineStr"/>
-      <c r="DM245" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="DN245" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="DO245" t="n">
-        <v>32</v>
-      </c>
-      <c r="DP245" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="DQ245" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="DR245" t="n">
-        <v>8</v>
-      </c>
-      <c r="DS245" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="DT245" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="DU245" t="n">
-        <v>4</v>
-      </c>
-      <c r="DV245" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="DW245" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="DX245" t="n">
-        <v>13</v>
+      <c r="DM245" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.72, "收盘": 3.18, "样本": 32}, "1": {"开盘": 4.49, "收盘": 2.65, "样本": 8}, "2": {"开盘": 3.28, "收盘": 2.93, "样本": 4}, "3": {"开盘": 0.25, "收盘": 0.8, "样本": 3}, "4": {"开盘": -1.49, "收盘": 1.51, "样本": 2}, "5": {"开盘": 3.08, "收盘": 6.65, "样本": 2}, "6": {"开盘": -5.48, "收盘": -8.56, "样本": 1}, "7": {"开盘": 1.02, "收盘": 6.64, "样本": 1}, "8": {"开盘": -1.61, "收盘": 2.81, "样本": 1}, "12": {"开盘": -0.12, "收盘": 1.86, "样本": 1}, "13": {"开盘": 0.0, "收盘": -2.14, "样本": 1}, "41": {"开盘": 3.03, "收盘": 3.69, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="246">
@@ -81720,41 +78103,10 @@
       <c r="DJ246" t="inlineStr"/>
       <c r="DK246" t="inlineStr"/>
       <c r="DL246" t="inlineStr"/>
-      <c r="DM246" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="DN246" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="DO246" t="n">
-        <v>42</v>
-      </c>
-      <c r="DP246" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="DQ246" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="DR246" t="n">
-        <v>8</v>
-      </c>
-      <c r="DS246" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="DT246" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DU246" t="n">
-        <v>6</v>
-      </c>
-      <c r="DV246" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="DW246" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="DX246" t="n">
-        <v>10</v>
+      <c r="DM246" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.98, "收盘": 2.89, "样本": 42}, "1": {"开盘": 3.72, "收盘": 2.84, "样本": 8}, "2": {"开盘": 1.07, "收盘": 0.4, "样本": 6}, "3": {"开盘": 4.77, "收盘": 5.84, "样本": 4}, "4": {"开盘": 5.54, "收盘": 3.84, "样本": 4}, "5": {"开盘": -0.93, "收盘": 3.05, "样本": 2}}</t>
+        </is>
       </c>
     </row>
     <row r="247">
@@ -82040,41 +78392,10 @@
       <c r="DJ247" t="inlineStr"/>
       <c r="DK247" t="inlineStr"/>
       <c r="DL247" t="inlineStr"/>
-      <c r="DM247" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="DN247" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="DO247" t="n">
-        <v>27</v>
-      </c>
-      <c r="DP247" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="DQ247" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="DR247" t="n">
-        <v>7</v>
-      </c>
-      <c r="DS247" t="n">
-        <v>-1.83</v>
-      </c>
-      <c r="DT247" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="DU247" t="n">
-        <v>4</v>
-      </c>
-      <c r="DV247" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="DW247" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="DX247" t="n">
-        <v>12</v>
+      <c r="DM247" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.02, "收盘": 3.85, "样本": 27}, "1": {"开盘": 0.84, "收盘": 4.08, "样本": 7}, "2": {"开盘": -1.83, "收盘": 0.11, "样本": 4}, "3": {"开盘": -1.61, "收盘": 5.87, "样本": 3}, "4": {"开盘": 4.38, "收盘": 5.64, "样本": 3}, "5": {"开盘": -2.64, "收盘": 0.06, "样本": 2}, "6": {"开盘": 8.89, "收盘": 10.01, "样本": 1}, "10": {"开盘": -7.17, "收盘": -10.01, "样本": 1}, "15": {"开盘": -1.1, "收盘": 10.05, "样本": 2}}</t>
+        </is>
       </c>
     </row>
     <row r="248">
@@ -82360,41 +78681,10 @@
       <c r="DJ248" t="inlineStr"/>
       <c r="DK248" t="inlineStr"/>
       <c r="DL248" t="inlineStr"/>
-      <c r="DM248" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="DN248" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="DO248" t="n">
-        <v>42</v>
-      </c>
-      <c r="DP248" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="DQ248" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="DR248" t="n">
-        <v>6</v>
-      </c>
-      <c r="DS248" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="DT248" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="DU248" t="n">
-        <v>4</v>
-      </c>
-      <c r="DV248" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="DW248" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
-      <c r="DX248" t="n">
-        <v>15</v>
+      <c r="DM248" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 4.23, "收盘": 0.96, "样本": 42}, "1": {"开盘": 1.62, "收盘": -0.61, "样本": 6}, "2": {"开盘": 2.32, "收盘": 2.91, "样本": 4}, "3": {"开盘": 1.93, "收盘": -3.39, "样本": 2}, "4": {"开盘": 1.38, "收盘": -0.79, "样本": 5}, "5": {"开盘": -0.5, "收盘": 0.5, "样本": 1}, "6": {"开盘": 6.66, "收盘": 3.37, "样本": 3}, "7": {"开盘": -0.57, "收盘": -1.84, "样本": 2}, "10": {"开盘": 0.02, "收盘": 3.37, "样本": 1}, "18": {"开盘": 1.8, "收盘": -9.97, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="249">
@@ -82680,41 +78970,10 @@
       <c r="DJ249" t="inlineStr"/>
       <c r="DK249" t="inlineStr"/>
       <c r="DL249" t="inlineStr"/>
-      <c r="DM249" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="DN249" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="DO249" t="n">
-        <v>34</v>
-      </c>
-      <c r="DP249" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="DQ249" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="DR249" t="n">
-        <v>7</v>
-      </c>
-      <c r="DS249" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="DT249" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="DU249" t="n">
-        <v>2</v>
-      </c>
-      <c r="DV249" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="DW249" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="DX249" t="n">
-        <v>19</v>
+      <c r="DM249" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 1.87, "收盘": 1.47, "样本": 34}, "1": {"开盘": 1.32, "收盘": 5.07, "样本": 7}, "2": {"开盘": 0.96, "收盘": -0.27, "样本": 2}, "3": {"开盘": 0.77, "收盘": 3.29, "样本": 3}, "4": {"开盘": 0.45, "收盘": 6.01, "样本": 6}, "5": {"开盘": 1.19, "收盘": 11.67, "样本": 3}, "8": {"开盘": -0.82, "收盘": 19.97, "样本": 1}, "12": {"开盘": -2.17, "收盘": 1.03, "样本": 2}, "13": {"开盘": -1.51, "收盘": -3.21, "样本": 1}, "14": {"开盘": 0.82, "收盘": 5.33, "样本": 2}, "26": {"开盘": -1.56, "收盘": -2.92, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="250">
@@ -83000,41 +79259,10 @@
       <c r="DJ250" t="inlineStr"/>
       <c r="DK250" t="inlineStr"/>
       <c r="DL250" t="inlineStr"/>
-      <c r="DM250" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="DN250" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="DO250" t="n">
-        <v>26</v>
-      </c>
-      <c r="DP250" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="DQ250" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="DR250" t="n">
-        <v>13</v>
-      </c>
-      <c r="DS250" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="DT250" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="DU250" t="n">
-        <v>2</v>
-      </c>
-      <c r="DV250" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="DW250" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="DX250" t="n">
-        <v>12</v>
+      <c r="DM250" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 5.61, "收盘": 3.82, "样本": 26}, "1": {"开盘": 3.86, "收盘": 3.1, "样本": 13}, "2": {"开盘": 0.58, "收盘": 2.75, "样本": 2}, "3": {"开盘": 0.81, "收盘": 1.87, "样本": 2}, "4": {"开盘": 6.33, "收盘": 2.9, "样本": 3}, "5": {"开盘": 2.74, "收盘": 3.08, "样本": 2}, "7": {"开盘": 0.24, "收盘": -2.36, "样本": 2}, "9": {"开盘": 6.83, "收盘": 8.02, "样本": 1}, "10": {"开盘": 5.98, "收盘": 2.62, "样本": 1}, "13": {"开盘": 4.15, "收盘": 9.99, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="251">
@@ -83320,41 +79548,10 @@
       <c r="DJ251" t="inlineStr"/>
       <c r="DK251" t="inlineStr"/>
       <c r="DL251" t="inlineStr"/>
-      <c r="DM251" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="DN251" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="DO251" t="n">
-        <v>36</v>
-      </c>
-      <c r="DP251" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="DQ251" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="DR251" t="n">
-        <v>8</v>
-      </c>
-      <c r="DS251" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="DT251" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="DU251" t="n">
-        <v>7</v>
-      </c>
-      <c r="DV251" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="DW251" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="DX251" t="n">
-        <v>20</v>
+      <c r="DM251" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.01, "收盘": 2.44, "样本": 36}, "1": {"开盘": 4.76, "收盘": 6.22, "样本": 8}, "2": {"开盘": 4.87, "收盘": 8.53, "样本": 7}, "3": {"开盘": 1.66, "收盘": 1.72, "样本": 8}, "4": {"开盘": 0.66, "收盘": 3.02, "样本": 3}, "5": {"开盘": 2.7, "收盘": 0.55, "样本": 4}, "7": {"开盘": 3.45, "收盘": -2.87, "样本": 1}, "8": {"开盘": 3.59, "收盘": 8.31, "样本": 2}, "9": {"开盘": -0.57, "收盘": 2.29, "样本": 1}, "11": {"开盘": -0.43, "收盘": -0.74, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="252">
@@ -83640,41 +79837,10 @@
       <c r="DJ252" t="inlineStr"/>
       <c r="DK252" t="inlineStr"/>
       <c r="DL252" t="inlineStr"/>
-      <c r="DM252" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="DN252" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="DO252" t="n">
-        <v>42</v>
-      </c>
-      <c r="DP252" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="DQ252" t="n">
-        <v>-3.79</v>
-      </c>
-      <c r="DR252" t="n">
-        <v>3</v>
-      </c>
-      <c r="DS252" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="DT252" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="DU252" t="n">
-        <v>6</v>
-      </c>
-      <c r="DV252" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="DW252" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="DX252" t="n">
-        <v>16</v>
+      <c r="DM252" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.78, "收盘": 2.31, "样本": 42}, "1": {"开盘": 2.23, "收盘": -3.79, "样本": 3}, "2": {"开盘": -0.1, "收盘": -0.31, "样本": 6}, "3": {"开盘": 3.81, "收盘": 4.17, "样本": 6}, "5": {"开盘": 0.66, "收盘": 4.39, "样本": 3}, "6": {"开盘": 0.21, "收盘": -1.16, "样本": 3}, "13": {"开盘": 1.82, "收盘": 0.0, "样本": 1}, "14": {"开盘": -4.15, "收盘": -2.12, "样本": 1}, "23": {"开盘": 0.31, "收盘": 7.03, "样本": 1}, "37": {"开盘": 0.4, "收盘": 10.04, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="253">
@@ -83960,41 +80126,10 @@
       <c r="DJ253" t="inlineStr"/>
       <c r="DK253" t="inlineStr"/>
       <c r="DL253" t="inlineStr"/>
-      <c r="DM253" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="DN253" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="DO253" t="n">
-        <v>29</v>
-      </c>
-      <c r="DP253" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="DQ253" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="DR253" t="n">
-        <v>7</v>
-      </c>
-      <c r="DS253" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="DT253" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="DU253" t="n">
-        <v>6</v>
-      </c>
-      <c r="DV253" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="DW253" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="DX253" t="n">
-        <v>16</v>
+      <c r="DM253" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.51, "收盘": 4.24, "样本": 29}, "1": {"开盘": 3.56, "收盘": 4.92, "样本": 7}, "2": {"开盘": 3.45, "收盘": 3.24, "样本": 6}, "3": {"开盘": 0.48, "收盘": -1.92, "样本": 2}, "4": {"开盘": -0.71, "收盘": 2.93, "样本": 4}, "5": {"开盘": 3.38, "收盘": 5.48, "样本": 2}, "6": {"开盘": 4.53, "收盘": 10.0, "样本": 1}, "7": {"开盘": -2.63, "收盘": -2.63, "样本": 1}, "9": {"开盘": 1.34, "收盘": 3.23, "样本": 2}, "11": {"开盘": 2.75, "收盘": 6.74, "样本": 3}, "12": {"开盘": -4.02, "收盘": -8.22, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="254">
@@ -84246,41 +80381,10 @@
       <c r="DJ254" t="inlineStr"/>
       <c r="DK254" t="inlineStr"/>
       <c r="DL254" t="inlineStr"/>
-      <c r="DM254" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="DN254" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="DO254" t="n">
-        <v>41</v>
-      </c>
-      <c r="DP254" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="DQ254" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="DR254" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS254" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="DT254" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="DU254" t="n">
-        <v>9</v>
-      </c>
-      <c r="DV254" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="DW254" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="DX254" t="n">
-        <v>25</v>
+      <c r="DM254" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.62, "收盘": 1.96, "样本": 41}, "1": {"开盘": 2.22, "收盘": 3.59, "样本": 10}, "2": {"开盘": 1.26, "收盘": 2.08, "样本": 9}, "3": {"开盘": 1.52, "收盘": 3.88, "样本": 4}, "4": {"开盘": -0.29, "收盘": -0.16, "样本": 5}, "5": {"开盘": -1.82, "收盘": 1.29, "样本": 3}, "6": {"开盘": 0.0, "收盘": -1.33, "样本": 1}, "8": {"开盘": 0.89, "收盘": 0.81, "样本": 1}, "9": {"开盘": 3.62, "收盘": 9.96, "样本": 1}, "10": {"开盘": -4.35, "收盘": -7.15, "样本": 1}, "13": {"开盘": -0.5, "收盘": -4.24, "样本": 1}, "15": {"开盘": -1.23, "收盘": 2.76, "样本": 2}, "16": {"开盘": -2.65, "收盘": -5.62, "样本": 2}, "20": {"开盘": 2.5, "收盘": 3.4, "样本": 1}, "25": {"开盘": -0.32, "收盘": 5.03, "样本": 1}, "26": {"开盘": -3.83, "收盘": -0.0, "样本": 2}}</t>
+        </is>
       </c>
     </row>
     <row r="255">
@@ -84566,41 +80670,10 @@
       <c r="DJ255" t="inlineStr"/>
       <c r="DK255" t="inlineStr"/>
       <c r="DL255" t="inlineStr"/>
-      <c r="DM255" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="DN255" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="DO255" t="n">
-        <v>40</v>
-      </c>
-      <c r="DP255" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="DQ255" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="DR255" t="n">
-        <v>7</v>
-      </c>
-      <c r="DS255" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="DT255" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="DU255" t="n">
-        <v>9</v>
-      </c>
-      <c r="DV255" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="DW255" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="DX255" t="n">
-        <v>14</v>
+      <c r="DM255" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.98, "收盘": 1.83, "样本": 40}, "1": {"开盘": 7.35, "收盘": 6.48, "样本": 7}, "2": {"开盘": 1.94, "收盘": 3.12, "样本": 9}, "3": {"开盘": -0.98, "收盘": -3.75, "样本": 1}, "4": {"开盘": 1.74, "收盘": 2.8, "样本": 5}, "5": {"开盘": -5.22, "收盘": -8.38, "样本": 1}, "8": {"开盘": 0.06, "收盘": -3.59, "样本": 2}, "11": {"开盘": 2.84, "收盘": 8.01, "样本": 3}, "12": {"开盘": 0.64, "收盘": 10.06, "样本": 1}, "24": {"开盘": 9.99, "收盘": 9.99, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="256">
@@ -84886,41 +80959,10 @@
       <c r="DJ256" t="inlineStr"/>
       <c r="DK256" t="inlineStr"/>
       <c r="DL256" t="inlineStr"/>
-      <c r="DM256" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="DN256" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DO256" t="n">
-        <v>34</v>
-      </c>
-      <c r="DP256" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="DQ256" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="DR256" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS256" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="DT256" t="n">
-        <v>-2.26</v>
-      </c>
-      <c r="DU256" t="n">
-        <v>9</v>
-      </c>
-      <c r="DV256" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="DW256" t="n">
-        <v>-1.86</v>
-      </c>
-      <c r="DX256" t="n">
-        <v>30</v>
+      <c r="DM256" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.85, "收盘": 1.42, "样本": 34}, "1": {"开盘": 3.62, "收盘": 0.96, "样本": 10}, "2": {"开盘": 2.92, "收盘": -2.26, "样本": 9}, "3": {"开盘": 1.08, "收盘": -2.82, "样本": 7}, "4": {"开盘": 1.87, "收盘": 1.34, "样本": 7}, "5": {"开盘": 4.76, "收盘": -2.05, "样本": 4}, "6": {"开盘": -0.59, "收盘": -9.98, "样本": 1}, "7": {"开盘": 0.71, "收盘": -3.65, "样本": 1}, "8": {"开盘": 1.88, "收盘": 0.63, "样本": 1}, "9": {"开盘": -3.16, "收盘": -10.08, "样本": 1}, "10": {"开盘": 7.34, "收盘": -4.52, "样本": 1}, "11": {"开盘": -0.34, "收盘": -4.62, "样本": 1}, "14": {"开盘": 3.07, "收盘": -2.02, "样本": 1}, "18": {"开盘": 2.87, "收盘": 9.98, "样本": 1}, "27": {"开盘": 3.03, "收盘": -3.41, "样本": 1}, "29": {"开盘": 0.36, "收盘": 6.49, "样本": 1}, "34": {"开盘": -8.0, "收盘": -9.94, "样本": 1}, "37": {"开盘": -0.61, "收盘": -6.15, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="257">
@@ -85206,41 +81248,10 @@
       <c r="DJ257" t="inlineStr"/>
       <c r="DK257" t="inlineStr"/>
       <c r="DL257" t="inlineStr"/>
-      <c r="DM257" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="DN257" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="DO257" t="n">
-        <v>23</v>
-      </c>
-      <c r="DP257" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="DQ257" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="DR257" t="n">
-        <v>3</v>
-      </c>
-      <c r="DS257" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="DT257" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="DU257" t="n">
-        <v>6</v>
-      </c>
-      <c r="DV257" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="DW257" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="DX257" t="n">
-        <v>13</v>
+      <c r="DM257" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.38, "收盘": 3.7, "样本": 23}, "1": {"开盘": 4.92, "收盘": 3.75, "样本": 3}, "2": {"开盘": 3.26, "收盘": 0.32, "样本": 6}, "3": {"开盘": 3.97, "收盘": 5.52, "样本": 3}, "4": {"开盘": 3.15, "收盘": 6.84, "样本": 2}, "5": {"开盘": 5.76, "收盘": 5.05, "样本": 2}, "6": {"开盘": -2.72, "收盘": -6.63, "样本": 2}, "7": {"开盘": -7.16, "收盘": -10.0, "样本": 1}, "8": {"开盘": -2.77, "收盘": 3.14, "样本": 1}, "10": {"开盘": -1.62, "收盘": 4.89, "样本": 1}, "11": {"开盘": 2.28, "收盘": -0.68, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="258">
@@ -85526,41 +81537,10 @@
       <c r="DJ258" t="inlineStr"/>
       <c r="DK258" t="inlineStr"/>
       <c r="DL258" t="inlineStr"/>
-      <c r="DM258" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="DN258" t="n">
-        <v>-3.95</v>
-      </c>
-      <c r="DO258" t="n">
-        <v>27</v>
-      </c>
-      <c r="DP258" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="DQ258" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="DR258" t="n">
-        <v>9</v>
-      </c>
-      <c r="DS258" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="DT258" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="DU258" t="n">
-        <v>6</v>
-      </c>
-      <c r="DV258" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="DW258" t="n">
-        <v>-2.05</v>
-      </c>
-      <c r="DX258" t="n">
-        <v>12</v>
+      <c r="DM258" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.8, "收盘": -3.95, "样本": 27}, "1": {"开盘": 2.27, "收盘": 4.56, "样本": 9}, "2": {"开盘": 5.45, "收盘": 3.41, "样本": 6}, "3": {"开盘": -0.49, "收盘": -4.96, "样本": 2}, "4": {"开盘": 0.0, "收盘": -10.03, "样本": 1}, "5": {"开盘": 3.51, "收盘": -0.14, "样本": 2}, "6": {"开盘": -0.8, "收盘": -6.41, "样本": 1}, "8": {"开盘": -1.15, "收盘": -3.24, "样本": 2}, "9": {"开盘": 0.38, "收盘": 3.56, "样本": 1}, "13": {"开盘": 3.65, "收盘": 5.3, "样本": 2}, "19": {"开盘": -0.72, "收盘": -5.61, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="259">
@@ -85846,41 +81826,10 @@
       <c r="DJ259" t="inlineStr"/>
       <c r="DK259" t="inlineStr"/>
       <c r="DL259" t="inlineStr"/>
-      <c r="DM259" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="DN259" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="DO259" t="n">
-        <v>20</v>
-      </c>
-      <c r="DP259" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="DQ259" t="n">
-        <v>-3.07</v>
-      </c>
-      <c r="DR259" t="n">
-        <v>5</v>
-      </c>
-      <c r="DS259" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DT259" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="DU259" t="n">
-        <v>6</v>
-      </c>
-      <c r="DV259" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="DW259" t="n">
-        <v>-4.37</v>
-      </c>
-      <c r="DX259" t="n">
-        <v>10</v>
+      <c r="DM259" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.14, "收盘": 0.83, "样本": 20}, "1": {"开盘": -1.18, "收盘": -3.07, "样本": 5}, "2": {"开盘": -1.0, "收盘": 0.98, "样本": 6}, "3": {"开盘": 0.28, "收盘": -2.4, "样本": 2}, "4": {"开盘": -1.19, "收盘": 0.0, "样本": 2}, "5": {"开盘": -8.33, "收盘": -10.01, "样本": 1}, "8": {"开盘": -4.79, "收盘": -5.06, "样本": 3}, "9": {"开盘": 0.0, "收盘": -3.69, "样本": 1}, "10": {"开盘": -0.44, "收盘": -10.01, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="260">
@@ -86166,41 +82115,10 @@
       <c r="DJ260" t="inlineStr"/>
       <c r="DK260" t="inlineStr"/>
       <c r="DL260" t="inlineStr"/>
-      <c r="DM260" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="DN260" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="DO260" t="n">
-        <v>14</v>
-      </c>
-      <c r="DP260" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="DQ260" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="DR260" t="n">
-        <v>4</v>
-      </c>
-      <c r="DS260" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="DT260" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="DU260" t="n">
-        <v>2</v>
-      </c>
-      <c r="DV260" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="DW260" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="DX260" t="n">
-        <v>8</v>
+      <c r="DM260" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 6.48, "收盘": 3.17, "样本": 14}, "1": {"开盘": 5.02, "收盘": 3.89, "样本": 4}, "2": {"开盘": -0.26, "收盘": 5.8, "样本": 2}, "3": {"开盘": 3.68, "收盘": 2.61, "样本": 3}, "4": {"开盘": -3.02, "收盘": 9.74, "样本": 2}, "7": {"开盘": 1.34, "收盘": 10.0, "样本": 1}, "8": {"开盘": 4.42, "收盘": 0.08, "样本": 1}, "9": {"开盘": -2.44, "收盘": 10.1, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="261">
@@ -86486,41 +82404,10 @@
       <c r="DJ261" t="inlineStr"/>
       <c r="DK261" t="inlineStr"/>
       <c r="DL261" t="inlineStr"/>
-      <c r="DM261" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="DN261" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="DO261" t="n">
-        <v>39</v>
-      </c>
-      <c r="DP261" t="n">
-        <v>-0.98</v>
-      </c>
-      <c r="DQ261" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="DR261" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS261" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="DT261" t="n">
-        <v>-0.77</v>
-      </c>
-      <c r="DU261" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV261" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="DW261" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="DX261" t="n">
-        <v>14</v>
+      <c r="DM261" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.73, "收盘": 3.84, "样本": 39}, "1": {"开盘": -0.98, "收盘": 0.48, "样本": 10}, "2": {"开盘": -0.9, "收盘": -0.77, "样本": 1}, "3": {"开盘": -0.84, "收盘": -1.72, "样本": 3}, "4": {"开盘": 1.28, "收盘": 0.42, "样本": 5}, "5": {"开盘": -4.24, "收盘": 3.46, "样本": 3}, "6": {"开盘": 0.74, "收盘": 4.91, "样本": 2}, "11": {"开盘": -2.76, "收盘": -1.43, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="262">
@@ -86806,41 +82693,10 @@
       <c r="DJ262" t="inlineStr"/>
       <c r="DK262" t="inlineStr"/>
       <c r="DL262" t="inlineStr"/>
-      <c r="DM262" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="DN262" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="DO262" t="n">
-        <v>46</v>
-      </c>
-      <c r="DP262" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="DQ262" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="DR262" t="n">
-        <v>10</v>
-      </c>
-      <c r="DS262" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="DT262" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="DU262" t="n">
-        <v>10</v>
-      </c>
-      <c r="DV262" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="DW262" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="DX262" t="n">
-        <v>11</v>
+      <c r="DM262" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.31, "收盘": 3.87, "样本": 46}, "1": {"开盘": 1.45, "收盘": 2.32, "样本": 10}, "2": {"开盘": 2.38, "收盘": -0.54, "样本": 10}, "3": {"开盘": 3.71, "收盘": 4.21, "样本": 3}, "4": {"开盘": -3.96, "收盘": 2.48, "样本": 1}, "5": {"开盘": -1.28, "收盘": -3.49, "样本": 1}, "8": {"开盘": 4.26, "收盘": 10.16, "样本": 1}, "10": {"开盘": -1.59, "收盘": -0.94, "样本": 1}, "11": {"开盘": 0.28, "收盘": -2.83, "样本": 1}, "12": {"开盘": -0.23, "收盘": 1.61, "样本": 1}, "13": {"开盘": -1.75, "收盘": -3.82, "样本": 1}, "21": {"开盘": 0.8, "收盘": 20.0, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="263">
@@ -87126,41 +82982,10 @@
       <c r="DJ263" t="inlineStr"/>
       <c r="DK263" t="inlineStr"/>
       <c r="DL263" t="inlineStr"/>
-      <c r="DM263" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="DN263" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="DO263" t="n">
-        <v>38</v>
-      </c>
-      <c r="DP263" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="DQ263" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="DR263" t="n">
-        <v>12</v>
-      </c>
-      <c r="DS263" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="DT263" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="DU263" t="n">
-        <v>8</v>
-      </c>
-      <c r="DV263" t="n">
-        <v>-2.01</v>
-      </c>
-      <c r="DW263" t="n">
-        <v>-3.79</v>
-      </c>
-      <c r="DX263" t="n">
-        <v>10</v>
+      <c r="DM263" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.14, "收盘": -1.09, "样本": 38}, "1": {"开盘": 1.96, "收盘": 1.13, "样本": 12}, "2": {"开盘": 2.26, "收盘": -0.2, "样本": 8}, "3": {"开盘": -1.06, "收盘": -3.91, "样本": 3}, "4": {"开盘": -3.27, "收盘": -3.27, "样本": 1}, "6": {"开盘": -4.69, "收盘": -6.8, "样本": 2}, "7": {"开盘": -0.74, "收盘": 2.14, "样本": 2}, "8": {"开盘": -1.56, "收盘": -9.73, "样本": 1}, "22": {"开盘": -1.21, "收盘": -3.82, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="264">
@@ -87446,41 +83271,10 @@
       <c r="DJ264" t="inlineStr"/>
       <c r="DK264" t="inlineStr"/>
       <c r="DL264" t="inlineStr"/>
-      <c r="DM264" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="DN264" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="DO264" t="n">
-        <v>32</v>
-      </c>
-      <c r="DP264" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="DQ264" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="DR264" t="n">
-        <v>4</v>
-      </c>
-      <c r="DS264" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="DT264" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="DU264" t="n">
-        <v>4</v>
-      </c>
-      <c r="DV264" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="DW264" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="DX264" t="n">
-        <v>13</v>
+      <c r="DM264" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 1.54, "收盘": 1.92, "样本": 32}, "1": {"开盘": 2.92, "收盘": -1.15, "样本": 4}, "2": {"开盘": 0.53, "收盘": -0.53, "样本": 4}, "3": {"开盘": -1.33, "收盘": -2.47, "样本": 6}, "4": {"开盘": -3.57, "收盘": 0.0, "样本": 2}, "5": {"开盘": -4.0, "收盘": -5.31, "样本": 1}, "6": {"开盘": -1.69, "收盘": -3.38, "样本": 1}, "8": {"开盘": -2.75, "收盘": -1.25, "样本": 1}, "9": {"开盘": -2.35, "收盘": 7.84, "样本": 2}}</t>
+        </is>
       </c>
     </row>
     <row r="265">
@@ -87766,41 +83560,10 @@
       <c r="DJ265" t="inlineStr"/>
       <c r="DK265" t="inlineStr"/>
       <c r="DL265" t="inlineStr"/>
-      <c r="DM265" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="DN265" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="DO265" t="n">
-        <v>46</v>
-      </c>
-      <c r="DP265" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="DQ265" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="DR265" t="n">
-        <v>11</v>
-      </c>
-      <c r="DS265" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="DT265" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="DU265" t="n">
-        <v>5</v>
-      </c>
-      <c r="DV265" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="DW265" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="DX265" t="n">
-        <v>8</v>
+      <c r="DM265" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.92, "收盘": 2.75, "样本": 46}, "1": {"开盘": 0.96, "收盘": 2.71, "样本": 11}, "2": {"开盘": 2.49, "收盘": 3.94, "样本": 5}, "3": {"开盘": -0.04, "收盘": 1.55, "样本": 4}, "4": {"开盘": 3.0, "收盘": 6.99, "样本": 2}, "12": {"开盘": 2.33, "收盘": 10.01, "样本": 1}, "14": {"开盘": 0.94, "收盘": 6.77, "样本": 1}}</t>
+        </is>
       </c>
     </row>
     <row r="266">
@@ -88086,41 +83849,299 @@
       <c r="DJ266" t="inlineStr"/>
       <c r="DK266" t="inlineStr"/>
       <c r="DL266" t="inlineStr"/>
-      <c r="DM266" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="DN266" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="DO266" t="n">
-        <v>37</v>
-      </c>
-      <c r="DP266" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DQ266" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="DR266" t="n">
-        <v>13</v>
-      </c>
-      <c r="DS266" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="DT266" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="DU266" t="n">
-        <v>5</v>
-      </c>
-      <c r="DV266" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="DW266" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="DX266" t="n">
-        <v>9</v>
+      <c r="DM266" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.55, "收盘": 2.56, "样本": 37}, "1": {"开盘": 0.08, "收盘": 0.19, "样本": 13}, "2": {"开盘": 2.68, "收盘": -0.53, "样本": 5}, "3": {"开盘": 7.14, "收盘": 6.29, "样本": 2}, "4": {"开盘": 1.79, "收盘": 1.23, "样本": 1}, "5": {"开盘": 0.0, "收盘": 3.06, "样本": 1}, "6": {"开盘": 2.23, "收盘": 9.95, "样本": 2}, "30": {"开盘": 1.96, "收盘": 2.82, "样本": 1}, "42": {"开盘": -2.5, "收盘": -3.46, "样本": 1}, "45": {"开盘": 2.6, "收盘": 0.74, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>20251203</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1443</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3876</v>
+      </c>
+      <c r="D267" t="n">
+        <v>123</v>
+      </c>
+      <c r="E267" t="n">
+        <v>136</v>
+      </c>
+      <c r="F267" t="n">
+        <v>135</v>
+      </c>
+      <c r="G267" t="n">
+        <v>78</v>
+      </c>
+      <c r="H267" t="n">
+        <v>47</v>
+      </c>
+      <c r="I267" t="n">
+        <v>61</v>
+      </c>
+      <c r="J267" t="n">
+        <v>25</v>
+      </c>
+      <c r="K267" t="n">
+        <v>48</v>
+      </c>
+      <c r="L267" t="n">
+        <v>8</v>
+      </c>
+      <c r="M267" t="n">
+        <v>14</v>
+      </c>
+      <c r="N267" t="n">
+        <v>25</v>
+      </c>
+      <c r="O267" t="n">
+        <v>47</v>
+      </c>
+      <c r="P267" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R267" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="S267" t="n">
+        <v>-2.87</v>
+      </c>
+      <c r="T267" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="U267" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="V267" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="W267" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="X267" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>70.20999999999999</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>53.19</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>40.43</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>70.20999999999999</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>53.19</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>-4.84</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>-3.78</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="AW267" t="inlineStr"/>
+      <c r="AX267" t="inlineStr"/>
+      <c r="AY267" t="inlineStr"/>
+      <c r="AZ267" t="inlineStr"/>
+      <c r="BA267" t="inlineStr"/>
+      <c r="BB267" t="inlineStr"/>
+      <c r="BC267" t="inlineStr"/>
+      <c r="BD267" t="inlineStr"/>
+      <c r="BE267" t="inlineStr"/>
+      <c r="BF267" t="inlineStr"/>
+      <c r="BG267" t="inlineStr"/>
+      <c r="BH267" t="inlineStr"/>
+      <c r="BI267" t="inlineStr"/>
+      <c r="BJ267" t="inlineStr"/>
+      <c r="BK267" t="inlineStr"/>
+      <c r="BL267" t="inlineStr"/>
+      <c r="BM267" t="inlineStr"/>
+      <c r="BN267" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO267" t="n">
+        <v>-3.49</v>
+      </c>
+      <c r="BP267" t="n">
+        <v>-9.460000000000001</v>
+      </c>
+      <c r="BQ267" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="BR267" t="n">
+        <v>-12.25</v>
+      </c>
+      <c r="BS267" t="n">
+        <v>-6.15</v>
+      </c>
+      <c r="BT267" t="n">
+        <v>-17.89</v>
+      </c>
+      <c r="BU267" t="n">
+        <v>-23.05</v>
+      </c>
+      <c r="BV267" t="n">
+        <v>-17.89</v>
+      </c>
+      <c r="BW267" t="n">
+        <v>-23.05</v>
+      </c>
+      <c r="BX267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ267" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA267" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB267" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC267" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD267" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE267" t="n">
+        <v>19</v>
+      </c>
+      <c r="CF267" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="CG267" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="CH267" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="CI267" t="n">
+        <v>-3.66</v>
+      </c>
+      <c r="CJ267" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="CK267" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="CL267" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="CM267" t="n">
+        <v>-4.17</v>
+      </c>
+      <c r="CN267" t="n">
+        <v>-3.51</v>
+      </c>
+      <c r="CO267" t="n">
+        <v>52.63</v>
+      </c>
+      <c r="CP267" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="CQ267" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="CR267" t="n">
+        <v>94.73999999999999</v>
+      </c>
+      <c r="CS267" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="CT267" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="CU267" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="CV267" t="inlineStr"/>
+      <c r="CW267" t="inlineStr"/>
+      <c r="CX267" t="inlineStr"/>
+      <c r="CY267" t="inlineStr"/>
+      <c r="CZ267" t="inlineStr"/>
+      <c r="DA267" t="inlineStr"/>
+      <c r="DB267" t="inlineStr"/>
+      <c r="DC267" t="inlineStr"/>
+      <c r="DD267" t="inlineStr"/>
+      <c r="DE267" t="inlineStr"/>
+      <c r="DF267" t="inlineStr"/>
+      <c r="DG267" t="inlineStr"/>
+      <c r="DH267" t="inlineStr"/>
+      <c r="DI267" t="inlineStr"/>
+      <c r="DJ267" t="inlineStr"/>
+      <c r="DK267" t="inlineStr"/>
+      <c r="DL267" t="inlineStr"/>
+      <c r="DM267" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.92, "收盘": 1.72, "样本": 25}, "1": {"开盘": 2.66, "收盘": 1.43, "样本": 11}, "2": {"开盘": 0.91, "收盘": 5.39, "样本": 6}, "3": {"开盘": 1.77, "收盘": -10.0, "样本": 1}, "4": {"开盘": -1.32, "收盘": -6.8, "样本": 2}, "13": {"开盘": -6.1, "收盘": -10.02, "样本": 1}, "47": {"开盘": 0.0, "收盘": 2.92, "样本": 1}}</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM267"/>
+  <dimension ref="A1:DM268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84144,6 +84144,295 @@
         </is>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>20251204</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1455</v>
+      </c>
+      <c r="C268" t="n">
+        <v>3878</v>
+      </c>
+      <c r="D268" t="n">
+        <v>107</v>
+      </c>
+      <c r="E268" t="n">
+        <v>127</v>
+      </c>
+      <c r="F268" t="n">
+        <v>153</v>
+      </c>
+      <c r="G268" t="n">
+        <v>67</v>
+      </c>
+      <c r="H268" t="n">
+        <v>50</v>
+      </c>
+      <c r="I268" t="n">
+        <v>49</v>
+      </c>
+      <c r="J268" t="n">
+        <v>28</v>
+      </c>
+      <c r="K268" t="n">
+        <v>38</v>
+      </c>
+      <c r="L268" t="n">
+        <v>13</v>
+      </c>
+      <c r="M268" t="n">
+        <v>11</v>
+      </c>
+      <c r="N268" t="n">
+        <v>26</v>
+      </c>
+      <c r="O268" t="n">
+        <v>48</v>
+      </c>
+      <c r="P268" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R268" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="S268" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="T268" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="U268" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="V268" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="W268" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X268" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>57.45</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>46.81</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>89.36</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>87.23</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>57.45</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>46.81</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>-3.45</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW268" t="inlineStr"/>
+      <c r="AX268" t="inlineStr"/>
+      <c r="AY268" t="inlineStr"/>
+      <c r="AZ268" t="inlineStr"/>
+      <c r="BA268" t="inlineStr"/>
+      <c r="BB268" t="inlineStr"/>
+      <c r="BC268" t="inlineStr"/>
+      <c r="BD268" t="inlineStr"/>
+      <c r="BE268" t="inlineStr"/>
+      <c r="BF268" t="inlineStr"/>
+      <c r="BG268" t="inlineStr"/>
+      <c r="BH268" t="inlineStr"/>
+      <c r="BI268" t="inlineStr"/>
+      <c r="BJ268" t="inlineStr"/>
+      <c r="BK268" t="inlineStr"/>
+      <c r="BL268" t="inlineStr"/>
+      <c r="BM268" t="inlineStr"/>
+      <c r="BN268" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO268" t="n">
+        <v>-3.74</v>
+      </c>
+      <c r="BP268" t="n">
+        <v>-4.43</v>
+      </c>
+      <c r="BQ268" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BR268" t="n">
+        <v>-7.08</v>
+      </c>
+      <c r="BS268" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="BT268" t="n">
+        <v>-12.74</v>
+      </c>
+      <c r="BU268" t="n">
+        <v>-13.28</v>
+      </c>
+      <c r="BV268" t="n">
+        <v>-14.33</v>
+      </c>
+      <c r="BW268" t="n">
+        <v>-14.92</v>
+      </c>
+      <c r="BX268" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY268" t="n">
+        <v>25</v>
+      </c>
+      <c r="BZ268" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="CA268" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB268" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="CC268" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD268" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE268" t="n">
+        <v>25</v>
+      </c>
+      <c r="CF268" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="CG268" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="CH268" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="CI268" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="CJ268" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="CK268" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="CL268" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="CM268" t="n">
+        <v>-8.02</v>
+      </c>
+      <c r="CN268" t="n">
+        <v>-8.73</v>
+      </c>
+      <c r="CO268" t="n">
+        <v>12</v>
+      </c>
+      <c r="CP268" t="n">
+        <v>24</v>
+      </c>
+      <c r="CQ268" t="n">
+        <v>36</v>
+      </c>
+      <c r="CR268" t="n">
+        <v>76</v>
+      </c>
+      <c r="CS268" t="n">
+        <v>68</v>
+      </c>
+      <c r="CT268" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU268" t="n">
+        <v>4</v>
+      </c>
+      <c r="CV268" t="inlineStr"/>
+      <c r="CW268" t="inlineStr"/>
+      <c r="CX268" t="inlineStr"/>
+      <c r="CY268" t="inlineStr"/>
+      <c r="CZ268" t="inlineStr"/>
+      <c r="DA268" t="inlineStr"/>
+      <c r="DB268" t="inlineStr"/>
+      <c r="DC268" t="inlineStr"/>
+      <c r="DD268" t="inlineStr"/>
+      <c r="DE268" t="inlineStr"/>
+      <c r="DF268" t="inlineStr"/>
+      <c r="DG268" t="inlineStr"/>
+      <c r="DH268" t="inlineStr"/>
+      <c r="DI268" t="inlineStr"/>
+      <c r="DJ268" t="inlineStr"/>
+      <c r="DK268" t="inlineStr"/>
+      <c r="DL268" t="inlineStr"/>
+      <c r="DM268" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 4.53, "收盘": 2.93, "样本": 18}, "1": {"开盘": 2.68, "收盘": 2.47, "样本": 9}, "2": {"开盘": 2.15, "收盘": 1.36, "样本": 6}, "3": {"开盘": -2.53, "收盘": -5.25, "样本": 3}, "4": {"开盘": -0.9, "收盘": -2.85, "样本": 6}, "5": {"开盘": -0.54, "收盘": -9.67, "样本": 1}, "7": {"开盘": 2.52, "收盘": -6.02, "样本": 1}, "10": {"开盘": -4.31, "收盘": -6.71, "样本": 2}, "14": {"开盘": -2.22, "收盘": -9.99, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM268"/>
+  <dimension ref="A1:DM269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84433,6 +84433,295 @@
         </is>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>20251205</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>4387</v>
+      </c>
+      <c r="C269" t="n">
+        <v>975</v>
+      </c>
+      <c r="D269" t="n">
+        <v>76</v>
+      </c>
+      <c r="E269" t="n">
+        <v>295</v>
+      </c>
+      <c r="F269" t="n">
+        <v>40</v>
+      </c>
+      <c r="G269" t="n">
+        <v>160</v>
+      </c>
+      <c r="H269" t="n">
+        <v>12</v>
+      </c>
+      <c r="I269" t="n">
+        <v>111</v>
+      </c>
+      <c r="J269" t="n">
+        <v>5</v>
+      </c>
+      <c r="K269" t="n">
+        <v>73</v>
+      </c>
+      <c r="L269" t="n">
+        <v>2</v>
+      </c>
+      <c r="M269" t="n">
+        <v>19</v>
+      </c>
+      <c r="N269" t="n">
+        <v>21</v>
+      </c>
+      <c r="O269" t="n">
+        <v>38</v>
+      </c>
+      <c r="P269" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R269" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="S269" t="n">
+        <v>-2.64</v>
+      </c>
+      <c r="T269" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="U269" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="V269" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="W269" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="X269" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>92.11</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>55.26</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AW269" t="inlineStr"/>
+      <c r="AX269" t="inlineStr"/>
+      <c r="AY269" t="inlineStr"/>
+      <c r="AZ269" t="inlineStr"/>
+      <c r="BA269" t="inlineStr"/>
+      <c r="BB269" t="inlineStr"/>
+      <c r="BC269" t="inlineStr"/>
+      <c r="BD269" t="inlineStr"/>
+      <c r="BE269" t="inlineStr"/>
+      <c r="BF269" t="inlineStr"/>
+      <c r="BG269" t="inlineStr"/>
+      <c r="BH269" t="inlineStr"/>
+      <c r="BI269" t="inlineStr"/>
+      <c r="BJ269" t="inlineStr"/>
+      <c r="BK269" t="inlineStr"/>
+      <c r="BL269" t="inlineStr"/>
+      <c r="BM269" t="inlineStr"/>
+      <c r="BN269" t="n">
+        <v>13</v>
+      </c>
+      <c r="BO269" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="BP269" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BQ269" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BR269" t="n">
+        <v>-4.47</v>
+      </c>
+      <c r="BS269" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="BT269" t="n">
+        <v>-8.970000000000001</v>
+      </c>
+      <c r="BU269" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="BV269" t="n">
+        <v>-10.96</v>
+      </c>
+      <c r="BW269" t="n">
+        <v>-6.61</v>
+      </c>
+      <c r="BX269" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="BY269" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="BZ269" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="CA269" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB269" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="CC269" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD269" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="CE269" t="n">
+        <v>26</v>
+      </c>
+      <c r="CF269" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="CG269" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="CH269" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="CI269" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="CJ269" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="CK269" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="CL269" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="CM269" t="n">
+        <v>-6.43</v>
+      </c>
+      <c r="CN269" t="n">
+        <v>-4.32</v>
+      </c>
+      <c r="CO269" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="CP269" t="n">
+        <v>53.85</v>
+      </c>
+      <c r="CQ269" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="CR269" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="CS269" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="CT269" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="CU269" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="CV269" t="inlineStr"/>
+      <c r="CW269" t="inlineStr"/>
+      <c r="CX269" t="inlineStr"/>
+      <c r="CY269" t="inlineStr"/>
+      <c r="CZ269" t="inlineStr"/>
+      <c r="DA269" t="inlineStr"/>
+      <c r="DB269" t="inlineStr"/>
+      <c r="DC269" t="inlineStr"/>
+      <c r="DD269" t="inlineStr"/>
+      <c r="DE269" t="inlineStr"/>
+      <c r="DF269" t="inlineStr"/>
+      <c r="DG269" t="inlineStr"/>
+      <c r="DH269" t="inlineStr"/>
+      <c r="DI269" t="inlineStr"/>
+      <c r="DJ269" t="inlineStr"/>
+      <c r="DK269" t="inlineStr"/>
+      <c r="DL269" t="inlineStr"/>
+      <c r="DM269" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 4.38, "收盘": 3.36, "样本": 14}, "1": {"开盘": 2.73, "收盘": -0.88, "样本": 7}, "2": {"开盘": 1.46, "收盘": 2.81, "样本": 3}, "3": {"开盘": 1.1, "收盘": 3.08, "样本": 8}, "6": {"开盘": -3.12, "收盘": -5.69, "样本": 2}, "7": {"开盘": 0.0, "收盘": -1.6, "样本": 1}, "11": {"开盘": -3.52, "收盘": -4.18, "样本": 1}, "12": {"开盘": -0.04, "收盘": -10.0, "样本": 1}, "13": {"开盘": 3.1, "收盘": 10.08, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM269"/>
+  <dimension ref="A1:DM270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84722,6 +84722,295 @@
         </is>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>20251208</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>3409</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1866</v>
+      </c>
+      <c r="D270" t="n">
+        <v>165</v>
+      </c>
+      <c r="E270" t="n">
+        <v>300</v>
+      </c>
+      <c r="F270" t="n">
+        <v>25</v>
+      </c>
+      <c r="G270" t="n">
+        <v>161</v>
+      </c>
+      <c r="H270" t="n">
+        <v>6</v>
+      </c>
+      <c r="I270" t="n">
+        <v>116</v>
+      </c>
+      <c r="J270" t="n">
+        <v>3</v>
+      </c>
+      <c r="K270" t="n">
+        <v>74</v>
+      </c>
+      <c r="L270" t="n">
+        <v>2</v>
+      </c>
+      <c r="M270" t="n">
+        <v>28</v>
+      </c>
+      <c r="N270" t="n">
+        <v>28</v>
+      </c>
+      <c r="O270" t="n">
+        <v>73</v>
+      </c>
+      <c r="P270" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="R270" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="S270" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="T270" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U270" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="V270" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="W270" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X270" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>81.94</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>59.72</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>81.94</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>52.63</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="AW270" t="inlineStr"/>
+      <c r="AX270" t="inlineStr"/>
+      <c r="AY270" t="inlineStr"/>
+      <c r="AZ270" t="inlineStr"/>
+      <c r="BA270" t="inlineStr"/>
+      <c r="BB270" t="inlineStr"/>
+      <c r="BC270" t="inlineStr"/>
+      <c r="BD270" t="inlineStr"/>
+      <c r="BE270" t="inlineStr"/>
+      <c r="BF270" t="inlineStr"/>
+      <c r="BG270" t="inlineStr"/>
+      <c r="BH270" t="inlineStr"/>
+      <c r="BI270" t="inlineStr"/>
+      <c r="BJ270" t="inlineStr"/>
+      <c r="BK270" t="inlineStr"/>
+      <c r="BL270" t="inlineStr"/>
+      <c r="BM270" t="inlineStr"/>
+      <c r="BN270" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO270" t="n">
+        <v>-3.38</v>
+      </c>
+      <c r="BP270" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="BQ270" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BR270" t="n">
+        <v>-5.75</v>
+      </c>
+      <c r="BS270" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BT270" t="n">
+        <v>-9.380000000000001</v>
+      </c>
+      <c r="BU270" t="n">
+        <v>-6.73</v>
+      </c>
+      <c r="BV270" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="BW270" t="n">
+        <v>-6.75</v>
+      </c>
+      <c r="BX270" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY270" t="n">
+        <v>50</v>
+      </c>
+      <c r="BZ270" t="n">
+        <v>100</v>
+      </c>
+      <c r="CA270" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB270" t="n">
+        <v>50</v>
+      </c>
+      <c r="CC270" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD270" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE270" t="n">
+        <v>21</v>
+      </c>
+      <c r="CF270" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CG270" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="CH270" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="CI270" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="CJ270" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="CK270" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="CL270" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="CM270" t="n">
+        <v>-3.72</v>
+      </c>
+      <c r="CN270" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="CO270" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="CP270" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CQ270" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CR270" t="n">
+        <v>90.48</v>
+      </c>
+      <c r="CS270" t="n">
+        <v>90.48</v>
+      </c>
+      <c r="CT270" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="CU270" t="n">
+        <v>23.81</v>
+      </c>
+      <c r="CV270" t="inlineStr"/>
+      <c r="CW270" t="inlineStr"/>
+      <c r="CX270" t="inlineStr"/>
+      <c r="CY270" t="inlineStr"/>
+      <c r="CZ270" t="inlineStr"/>
+      <c r="DA270" t="inlineStr"/>
+      <c r="DB270" t="inlineStr"/>
+      <c r="DC270" t="inlineStr"/>
+      <c r="DD270" t="inlineStr"/>
+      <c r="DE270" t="inlineStr"/>
+      <c r="DF270" t="inlineStr"/>
+      <c r="DG270" t="inlineStr"/>
+      <c r="DH270" t="inlineStr"/>
+      <c r="DI270" t="inlineStr"/>
+      <c r="DJ270" t="inlineStr"/>
+      <c r="DK270" t="inlineStr"/>
+      <c r="DL270" t="inlineStr"/>
+      <c r="DM270" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 4.48, "收盘": 5.69, "样本": 45}, "1": {"开盘": 3.19, "收盘": 6.3, "样本": 9}, "2": {"开盘": 1.38, "收盘": 4.99, "样本": 9}, "3": {"开盘": 2.36, "收盘": 4.96, "样本": 4}, "4": {"开盘": 9.96, "收盘": 9.96, "样本": 1}, "5": {"开盘": 6.02, "收盘": 10.04, "样本": 1}, "6": {"开盘": 1.51, "收盘": 2.44, "样本": 1}, "8": {"开盘": 5.04, "收盘": 1.71, "样本": 2}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM270"/>
+  <dimension ref="A1:DM271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85011,6 +85011,295 @@
         </is>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>20251209</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1308</v>
+      </c>
+      <c r="C271" t="n">
+        <v>4058</v>
+      </c>
+      <c r="D271" t="n">
+        <v>75</v>
+      </c>
+      <c r="E271" t="n">
+        <v>144</v>
+      </c>
+      <c r="F271" t="n">
+        <v>98</v>
+      </c>
+      <c r="G271" t="n">
+        <v>89</v>
+      </c>
+      <c r="H271" t="n">
+        <v>30</v>
+      </c>
+      <c r="I271" t="n">
+        <v>67</v>
+      </c>
+      <c r="J271" t="n">
+        <v>13</v>
+      </c>
+      <c r="K271" t="n">
+        <v>53</v>
+      </c>
+      <c r="L271" t="n">
+        <v>7</v>
+      </c>
+      <c r="M271" t="n">
+        <v>20</v>
+      </c>
+      <c r="N271" t="n">
+        <v>23</v>
+      </c>
+      <c r="O271" t="n">
+        <v>74</v>
+      </c>
+      <c r="P271" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>2</v>
+      </c>
+      <c r="R271" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="S271" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="T271" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="U271" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="V271" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="W271" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X271" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>60.27</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>93.15000000000001</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>89.04000000000001</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>64.38</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>60.27</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>60.71</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>75</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>60.71</v>
+      </c>
+      <c r="AW271" t="inlineStr"/>
+      <c r="AX271" t="inlineStr"/>
+      <c r="AY271" t="inlineStr"/>
+      <c r="AZ271" t="inlineStr"/>
+      <c r="BA271" t="inlineStr"/>
+      <c r="BB271" t="inlineStr"/>
+      <c r="BC271" t="inlineStr"/>
+      <c r="BD271" t="inlineStr"/>
+      <c r="BE271" t="inlineStr"/>
+      <c r="BF271" t="inlineStr"/>
+      <c r="BG271" t="inlineStr"/>
+      <c r="BH271" t="inlineStr"/>
+      <c r="BI271" t="inlineStr"/>
+      <c r="BJ271" t="inlineStr"/>
+      <c r="BK271" t="inlineStr"/>
+      <c r="BL271" t="inlineStr"/>
+      <c r="BM271" t="inlineStr"/>
+      <c r="BN271" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO271" t="n">
+        <v>-7.81</v>
+      </c>
+      <c r="BP271" t="n">
+        <v>-7.58</v>
+      </c>
+      <c r="BQ271" t="n">
+        <v>-6.18</v>
+      </c>
+      <c r="BR271" t="n">
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="BS271" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BT271" t="n">
+        <v>-7.81</v>
+      </c>
+      <c r="BU271" t="n">
+        <v>-7.58</v>
+      </c>
+      <c r="BV271" t="n">
+        <v>-7.81</v>
+      </c>
+      <c r="BW271" t="n">
+        <v>-7.58</v>
+      </c>
+      <c r="BX271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ271" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA271" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB271" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC271" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD271" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE271" t="n">
+        <v>28</v>
+      </c>
+      <c r="CF271" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="CG271" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="CH271" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="CI271" t="n">
+        <v>-4.15</v>
+      </c>
+      <c r="CJ271" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="CK271" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="CL271" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="CM271" t="n">
+        <v>-5.11</v>
+      </c>
+      <c r="CN271" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="CO271" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CP271" t="n">
+        <v>39.29</v>
+      </c>
+      <c r="CQ271" t="n">
+        <v>39.29</v>
+      </c>
+      <c r="CR271" t="n">
+        <v>82.14</v>
+      </c>
+      <c r="CS271" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="CT271" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU271" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="CV271" t="inlineStr"/>
+      <c r="CW271" t="inlineStr"/>
+      <c r="CX271" t="inlineStr"/>
+      <c r="CY271" t="inlineStr"/>
+      <c r="CZ271" t="inlineStr"/>
+      <c r="DA271" t="inlineStr"/>
+      <c r="DB271" t="inlineStr"/>
+      <c r="DC271" t="inlineStr"/>
+      <c r="DD271" t="inlineStr"/>
+      <c r="DE271" t="inlineStr"/>
+      <c r="DF271" t="inlineStr"/>
+      <c r="DG271" t="inlineStr"/>
+      <c r="DH271" t="inlineStr"/>
+      <c r="DI271" t="inlineStr"/>
+      <c r="DJ271" t="inlineStr"/>
+      <c r="DK271" t="inlineStr"/>
+      <c r="DL271" t="inlineStr"/>
+      <c r="DM271" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.66, "收盘": 2.43, "样本": 44}, "1": {"开盘": 1.56, "收盘": 0.79, "样本": 10}, "2": {"开盘": 3.0, "收盘": 4.02, "样本": 5}, "3": {"开盘": 2.04, "收盘": 1.02, "样本": 4}, "4": {"开盘": -0.19, "收盘": -1.21, "样本": 2}, "5": {"开盘": 0.0, "收盘": 2.41, "样本": 1}, "6": {"开盘": -9.99, "收盘": -9.99, "样本": 1}, "7": {"开盘": -2.42, "收盘": 3.12, "样本": 1}, "8": {"开盘": 2.52, "收盘": 6.84, "样本": 1}, "15": {"开盘": 4.17, "收盘": 0.62, "样本": 1}, "16": {"开盘": 0.12, "收盘": 6.3, "样本": 1}, "17": {"开盘": 6.26, "收盘": 10.1, "样本": 1}, "24": {"开盘": -5.54, "收盘": -10.02, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM271"/>
+  <dimension ref="A1:DM272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85300,6 +85300,295 @@
         </is>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>20251210</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2435</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2844</v>
+      </c>
+      <c r="D272" t="n">
+        <v>159</v>
+      </c>
+      <c r="E272" t="n">
+        <v>176</v>
+      </c>
+      <c r="F272" t="n">
+        <v>48</v>
+      </c>
+      <c r="G272" t="n">
+        <v>104</v>
+      </c>
+      <c r="H272" t="n">
+        <v>16</v>
+      </c>
+      <c r="I272" t="n">
+        <v>72</v>
+      </c>
+      <c r="J272" t="n">
+        <v>8</v>
+      </c>
+      <c r="K272" t="n">
+        <v>57</v>
+      </c>
+      <c r="L272" t="n">
+        <v>3</v>
+      </c>
+      <c r="M272" t="n">
+        <v>20</v>
+      </c>
+      <c r="N272" t="n">
+        <v>28</v>
+      </c>
+      <c r="O272" t="n">
+        <v>53</v>
+      </c>
+      <c r="P272" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R272" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="S272" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="T272" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="U272" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="V272" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="W272" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="X272" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>62.26</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>45.28</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>37.74</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>90.56999999999999</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>62.26</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>45.28</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>75</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>95</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>80</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>75</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW272" t="inlineStr"/>
+      <c r="AX272" t="inlineStr"/>
+      <c r="AY272" t="inlineStr"/>
+      <c r="AZ272" t="inlineStr"/>
+      <c r="BA272" t="inlineStr"/>
+      <c r="BB272" t="inlineStr"/>
+      <c r="BC272" t="inlineStr"/>
+      <c r="BD272" t="inlineStr"/>
+      <c r="BE272" t="inlineStr"/>
+      <c r="BF272" t="inlineStr"/>
+      <c r="BG272" t="inlineStr"/>
+      <c r="BH272" t="inlineStr"/>
+      <c r="BI272" t="inlineStr"/>
+      <c r="BJ272" t="inlineStr"/>
+      <c r="BK272" t="inlineStr"/>
+      <c r="BL272" t="inlineStr"/>
+      <c r="BM272" t="inlineStr"/>
+      <c r="BN272" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO272" t="n">
+        <v>-6.75</v>
+      </c>
+      <c r="BP272" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="BQ272" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BR272" t="n">
+        <v>-7.43</v>
+      </c>
+      <c r="BS272" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="BT272" t="n">
+        <v>-10</v>
+      </c>
+      <c r="BU272" t="n">
+        <v>-5.12</v>
+      </c>
+      <c r="BV272" t="n">
+        <v>-11.32</v>
+      </c>
+      <c r="BW272" t="n">
+        <v>-6.53</v>
+      </c>
+      <c r="BX272" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY272" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="BZ272" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="CA272" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB272" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CC272" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD272" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CE272" t="n">
+        <v>23</v>
+      </c>
+      <c r="CF272" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="CG272" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="CH272" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="CI272" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="CJ272" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="CK272" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="CL272" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="CM272" t="n">
+        <v>-5.77</v>
+      </c>
+      <c r="CN272" t="n">
+        <v>-5.97</v>
+      </c>
+      <c r="CO272" t="n">
+        <v>43.48</v>
+      </c>
+      <c r="CP272" t="n">
+        <v>43.48</v>
+      </c>
+      <c r="CQ272" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="CR272" t="n">
+        <v>82.61</v>
+      </c>
+      <c r="CS272" t="n">
+        <v>73.91</v>
+      </c>
+      <c r="CT272" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="CU272" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CV272" t="inlineStr"/>
+      <c r="CW272" t="inlineStr"/>
+      <c r="CX272" t="inlineStr"/>
+      <c r="CY272" t="inlineStr"/>
+      <c r="CZ272" t="inlineStr"/>
+      <c r="DA272" t="inlineStr"/>
+      <c r="DB272" t="inlineStr"/>
+      <c r="DC272" t="inlineStr"/>
+      <c r="DD272" t="inlineStr"/>
+      <c r="DE272" t="inlineStr"/>
+      <c r="DF272" t="inlineStr"/>
+      <c r="DG272" t="inlineStr"/>
+      <c r="DH272" t="inlineStr"/>
+      <c r="DI272" t="inlineStr"/>
+      <c r="DJ272" t="inlineStr"/>
+      <c r="DK272" t="inlineStr"/>
+      <c r="DL272" t="inlineStr"/>
+      <c r="DM272" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 4.04, "收盘": 3.87, "样本": 28}, "1": {"开盘": 0.77, "收盘": -2.47, "样本": 8}, "2": {"开盘": 1.7, "收盘": -3.66, "样本": 3}, "3": {"开盘": 1.28, "收盘": 0.42, "样本": 6}, "4": {"开盘": 6.58, "收盘": 0.24, "样本": 3}, "5": {"开盘": 0.0, "收盘": 2.55, "样本": 1}, "12": {"开盘": -1.4, "收盘": -1.24, "样本": 1}, "15": {"开盘": -5.42, "收盘": -7.16, "样本": 1}, "16": {"开盘": 7.02, "收盘": -1.78, "样本": 1}, "85": {"开盘": -2.44, "收盘": 4.78, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM272"/>
+  <dimension ref="A1:DM273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85589,6 +85589,295 @@
         </is>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>20251211</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1033</v>
+      </c>
+      <c r="C273" t="n">
+        <v>4378</v>
+      </c>
+      <c r="D273" t="n">
+        <v>31</v>
+      </c>
+      <c r="E273" t="n">
+        <v>133</v>
+      </c>
+      <c r="F273" t="n">
+        <v>240</v>
+      </c>
+      <c r="G273" t="n">
+        <v>79</v>
+      </c>
+      <c r="H273" t="n">
+        <v>79</v>
+      </c>
+      <c r="I273" t="n">
+        <v>55</v>
+      </c>
+      <c r="J273" t="n">
+        <v>35</v>
+      </c>
+      <c r="K273" t="n">
+        <v>34</v>
+      </c>
+      <c r="L273" t="n">
+        <v>19</v>
+      </c>
+      <c r="M273" t="n">
+        <v>11</v>
+      </c>
+      <c r="N273" t="n">
+        <v>27</v>
+      </c>
+      <c r="O273" t="n">
+        <v>56</v>
+      </c>
+      <c r="P273" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="R273" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="S273" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="T273" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="U273" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="V273" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="W273" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="X273" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>44.64</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>98.20999999999999</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>83.93000000000001</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>44.64</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>-3.77</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>95</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>75</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>80</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW273" t="inlineStr"/>
+      <c r="AX273" t="inlineStr"/>
+      <c r="AY273" t="inlineStr"/>
+      <c r="AZ273" t="inlineStr"/>
+      <c r="BA273" t="inlineStr"/>
+      <c r="BB273" t="inlineStr"/>
+      <c r="BC273" t="inlineStr"/>
+      <c r="BD273" t="inlineStr"/>
+      <c r="BE273" t="inlineStr"/>
+      <c r="BF273" t="inlineStr"/>
+      <c r="BG273" t="inlineStr"/>
+      <c r="BH273" t="inlineStr"/>
+      <c r="BI273" t="inlineStr"/>
+      <c r="BJ273" t="inlineStr"/>
+      <c r="BK273" t="inlineStr"/>
+      <c r="BL273" t="inlineStr"/>
+      <c r="BM273" t="inlineStr"/>
+      <c r="BN273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO273" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="BP273" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="BQ273" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BR273" t="n">
+        <v>-6.02</v>
+      </c>
+      <c r="BS273" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="BT273" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BU273" t="n">
+        <v>-5.41</v>
+      </c>
+      <c r="BV273" t="n">
+        <v>-9.050000000000001</v>
+      </c>
+      <c r="BW273" t="n">
+        <v>-9.43</v>
+      </c>
+      <c r="BX273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ273" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CA273" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB273" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC273" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD273" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE273" t="n">
+        <v>28</v>
+      </c>
+      <c r="CF273" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="CG273" t="n">
+        <v>-3.77</v>
+      </c>
+      <c r="CH273" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="CI273" t="n">
+        <v>-5.38</v>
+      </c>
+      <c r="CJ273" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="CK273" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="CL273" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="CM273" t="n">
+        <v>-7.03</v>
+      </c>
+      <c r="CN273" t="n">
+        <v>-9.119999999999999</v>
+      </c>
+      <c r="CO273" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CP273" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CQ273" t="n">
+        <v>25</v>
+      </c>
+      <c r="CR273" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CS273" t="n">
+        <v>50</v>
+      </c>
+      <c r="CT273" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="CU273" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="CV273" t="inlineStr"/>
+      <c r="CW273" t="inlineStr"/>
+      <c r="CX273" t="inlineStr"/>
+      <c r="CY273" t="inlineStr"/>
+      <c r="CZ273" t="inlineStr"/>
+      <c r="DA273" t="inlineStr"/>
+      <c r="DB273" t="inlineStr"/>
+      <c r="DC273" t="inlineStr"/>
+      <c r="DD273" t="inlineStr"/>
+      <c r="DE273" t="inlineStr"/>
+      <c r="DF273" t="inlineStr"/>
+      <c r="DG273" t="inlineStr"/>
+      <c r="DH273" t="inlineStr"/>
+      <c r="DI273" t="inlineStr"/>
+      <c r="DJ273" t="inlineStr"/>
+      <c r="DK273" t="inlineStr"/>
+      <c r="DL273" t="inlineStr"/>
+      <c r="DM273" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 4.25, "收盘": 1.12, "样本": 29}, "1": {"开盘": 5.28, "收盘": -0.49, "样本": 6}, "2": {"开盘": 4.74, "收盘": 0.0, "样本": 4}, "3": {"开盘": -0.0, "收盘": 2.01, "样本": 5}, "4": {"开盘": -0.49, "收盘": -4.93, "样本": 2}, "5": {"开盘": -1.97, "收盘": -5.22, "样本": 4}, "6": {"开盘": 1.89, "收盘": -2.62, "样本": 1}, "7": {"开盘": -2.87, "收盘": -7.15, "样本": 2}, "10": {"开盘": 2.69, "收盘": -4.82, "样本": 1}, "11": {"开盘": 0.1, "收盘": -6.01, "样本": 1}, "28": {"开盘": 0.46, "收盘": -0.06, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM273"/>
+  <dimension ref="A1:DM274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85878,6 +85878,295 @@
         </is>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>20251212</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2683</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2612</v>
+      </c>
+      <c r="D274" t="n">
+        <v>149</v>
+      </c>
+      <c r="E274" t="n">
+        <v>259</v>
+      </c>
+      <c r="F274" t="n">
+        <v>107</v>
+      </c>
+      <c r="G274" t="n">
+        <v>152</v>
+      </c>
+      <c r="H274" t="n">
+        <v>46</v>
+      </c>
+      <c r="I274" t="n">
+        <v>113</v>
+      </c>
+      <c r="J274" t="n">
+        <v>28</v>
+      </c>
+      <c r="K274" t="n">
+        <v>78</v>
+      </c>
+      <c r="L274" t="n">
+        <v>15</v>
+      </c>
+      <c r="M274" t="n">
+        <v>19</v>
+      </c>
+      <c r="N274" t="n">
+        <v>12</v>
+      </c>
+      <c r="O274" t="n">
+        <v>34</v>
+      </c>
+      <c r="P274" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="R274" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="S274" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="T274" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U274" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="V274" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="W274" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="X274" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>52.94</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>58.82</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>85.29000000000001</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>52.94</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>-5.12</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="AW274" t="inlineStr"/>
+      <c r="AX274" t="inlineStr"/>
+      <c r="AY274" t="inlineStr"/>
+      <c r="AZ274" t="inlineStr"/>
+      <c r="BA274" t="inlineStr"/>
+      <c r="BB274" t="inlineStr"/>
+      <c r="BC274" t="inlineStr"/>
+      <c r="BD274" t="inlineStr"/>
+      <c r="BE274" t="inlineStr"/>
+      <c r="BF274" t="inlineStr"/>
+      <c r="BG274" t="inlineStr"/>
+      <c r="BH274" t="inlineStr"/>
+      <c r="BI274" t="inlineStr"/>
+      <c r="BJ274" t="inlineStr"/>
+      <c r="BK274" t="inlineStr"/>
+      <c r="BL274" t="inlineStr"/>
+      <c r="BM274" t="inlineStr"/>
+      <c r="BN274" t="n">
+        <v>19</v>
+      </c>
+      <c r="BO274" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="BP274" t="n">
+        <v>-4.67</v>
+      </c>
+      <c r="BQ274" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BR274" t="n">
+        <v>-6.72</v>
+      </c>
+      <c r="BS274" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="BT274" t="n">
+        <v>-9.83</v>
+      </c>
+      <c r="BU274" t="n">
+        <v>-10.88</v>
+      </c>
+      <c r="BV274" t="n">
+        <v>-11.23</v>
+      </c>
+      <c r="BW274" t="n">
+        <v>-12.26</v>
+      </c>
+      <c r="BX274" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="BY274" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="BZ274" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="CA274" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB274" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="CC274" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD274" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE274" t="n">
+        <v>26</v>
+      </c>
+      <c r="CF274" t="n">
+        <v>-2</v>
+      </c>
+      <c r="CG274" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="CH274" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="CI274" t="n">
+        <v>-3.77</v>
+      </c>
+      <c r="CJ274" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="CK274" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="CL274" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="CM274" t="n">
+        <v>-7.04</v>
+      </c>
+      <c r="CN274" t="n">
+        <v>-4.03</v>
+      </c>
+      <c r="CO274" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="CP274" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="CQ274" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="CR274" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="CS274" t="n">
+        <v>76.92</v>
+      </c>
+      <c r="CT274" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU274" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="CV274" t="inlineStr"/>
+      <c r="CW274" t="inlineStr"/>
+      <c r="CX274" t="inlineStr"/>
+      <c r="CY274" t="inlineStr"/>
+      <c r="CZ274" t="inlineStr"/>
+      <c r="DA274" t="inlineStr"/>
+      <c r="DB274" t="inlineStr"/>
+      <c r="DC274" t="inlineStr"/>
+      <c r="DD274" t="inlineStr"/>
+      <c r="DE274" t="inlineStr"/>
+      <c r="DF274" t="inlineStr"/>
+      <c r="DG274" t="inlineStr"/>
+      <c r="DH274" t="inlineStr"/>
+      <c r="DI274" t="inlineStr"/>
+      <c r="DJ274" t="inlineStr"/>
+      <c r="DK274" t="inlineStr"/>
+      <c r="DL274" t="inlineStr"/>
+      <c r="DM274" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.88, "收盘": 6.11, "样本": 17}, "1": {"开盘": 1.84, "收盘": 6.16, "样本": 5}, "2": {"开盘": -2.69, "收盘": -7.3, "样本": 3}, "4": {"开盘": 3.35, "收盘": 3.32, "样本": 3}, "7": {"开盘": 0.0, "收盘": 10.01, "样本": 1}, "8": {"开盘": -6.17, "收盘": -0.13, "样本": 1}, "9": {"开盘": 0.87, "收盘": 3.48, "样本": 1}, "16": {"开盘": -0.68, "收盘": -4.75, "样本": 1}, "19": {"开盘": 0.0, "收盘": 2.16, "样本": 1}, "29": {"开盘": -0.16, "收盘": 6.9, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM274"/>
+  <dimension ref="A1:DM275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86167,6 +86167,295 @@
         </is>
       </c>
     </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>20251215</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2314</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2968</v>
+      </c>
+      <c r="D275" t="n">
+        <v>161</v>
+      </c>
+      <c r="E275" t="n">
+        <v>191</v>
+      </c>
+      <c r="F275" t="n">
+        <v>138</v>
+      </c>
+      <c r="G275" t="n">
+        <v>104</v>
+      </c>
+      <c r="H275" t="n">
+        <v>50</v>
+      </c>
+      <c r="I275" t="n">
+        <v>77</v>
+      </c>
+      <c r="J275" t="n">
+        <v>23</v>
+      </c>
+      <c r="K275" t="n">
+        <v>59</v>
+      </c>
+      <c r="L275" t="n">
+        <v>9</v>
+      </c>
+      <c r="M275" t="n">
+        <v>15</v>
+      </c>
+      <c r="N275" t="n">
+        <v>33</v>
+      </c>
+      <c r="O275" t="n">
+        <v>78</v>
+      </c>
+      <c r="P275" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R275" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="S275" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="T275" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="U275" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="V275" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="W275" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X275" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>55.84</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>58.44</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>93.51000000000001</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>55.84</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>58.44</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>94.73999999999999</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="AW275" t="inlineStr"/>
+      <c r="AX275" t="inlineStr"/>
+      <c r="AY275" t="inlineStr"/>
+      <c r="AZ275" t="inlineStr"/>
+      <c r="BA275" t="inlineStr"/>
+      <c r="BB275" t="inlineStr"/>
+      <c r="BC275" t="inlineStr"/>
+      <c r="BD275" t="inlineStr"/>
+      <c r="BE275" t="inlineStr"/>
+      <c r="BF275" t="inlineStr"/>
+      <c r="BG275" t="inlineStr"/>
+      <c r="BH275" t="inlineStr"/>
+      <c r="BI275" t="inlineStr"/>
+      <c r="BJ275" t="inlineStr"/>
+      <c r="BK275" t="inlineStr"/>
+      <c r="BL275" t="inlineStr"/>
+      <c r="BM275" t="inlineStr"/>
+      <c r="BN275" t="n">
+        <v>14</v>
+      </c>
+      <c r="BO275" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="BP275" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="BQ275" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BR275" t="n">
+        <v>-5.98</v>
+      </c>
+      <c r="BS275" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BT275" t="n">
+        <v>-5.91</v>
+      </c>
+      <c r="BU275" t="n">
+        <v>-5.77</v>
+      </c>
+      <c r="BV275" t="n">
+        <v>-8.619999999999999</v>
+      </c>
+      <c r="BW275" t="n">
+        <v>-8.52</v>
+      </c>
+      <c r="BX275" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="BY275" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="BZ275" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA275" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB275" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="CC275" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD275" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="CE275" t="n">
+        <v>12</v>
+      </c>
+      <c r="CF275" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="CG275" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="CH275" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="CI275" t="n">
+        <v>-3.94</v>
+      </c>
+      <c r="CJ275" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CK275" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="CL275" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="CM275" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="CN275" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="CO275" t="n">
+        <v>50</v>
+      </c>
+      <c r="CP275" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="CQ275" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="CR275" t="n">
+        <v>75</v>
+      </c>
+      <c r="CS275" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="CT275" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="CU275" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="CV275" t="inlineStr"/>
+      <c r="CW275" t="inlineStr"/>
+      <c r="CX275" t="inlineStr"/>
+      <c r="CY275" t="inlineStr"/>
+      <c r="CZ275" t="inlineStr"/>
+      <c r="DA275" t="inlineStr"/>
+      <c r="DB275" t="inlineStr"/>
+      <c r="DC275" t="inlineStr"/>
+      <c r="DD275" t="inlineStr"/>
+      <c r="DE275" t="inlineStr"/>
+      <c r="DF275" t="inlineStr"/>
+      <c r="DG275" t="inlineStr"/>
+      <c r="DH275" t="inlineStr"/>
+      <c r="DI275" t="inlineStr"/>
+      <c r="DJ275" t="inlineStr"/>
+      <c r="DK275" t="inlineStr"/>
+      <c r="DL275" t="inlineStr"/>
+      <c r="DM275" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.49, "收盘": 1.75, "样本": 47}, "1": {"开盘": 1.49, "收盘": 1.05, "样本": 15}, "2": {"开盘": 1.84, "收盘": 0.81, "样本": 5}, "3": {"开盘": 0.47, "收盘": 1.16, "样本": 5}, "4": {"开盘": -1.74, "收盘": 0.39, "样本": 2}, "6": {"开盘": 6.58, "收盘": 1.76, "样本": 1}, "7": {"开盘": 1.7, "收盘": 9.98, "样本": 1}, "27": {"开盘": 0.0, "收盘": -2.38, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM275"/>
+  <dimension ref="A1:DM276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86456,6 +86456,295 @@
         </is>
       </c>
     </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>20251216</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1091</v>
+      </c>
+      <c r="C276" t="n">
+        <v>4302</v>
+      </c>
+      <c r="D276" t="n">
+        <v>52</v>
+      </c>
+      <c r="E276" t="n">
+        <v>123</v>
+      </c>
+      <c r="F276" t="n">
+        <v>331</v>
+      </c>
+      <c r="G276" t="n">
+        <v>72</v>
+      </c>
+      <c r="H276" t="n">
+        <v>104</v>
+      </c>
+      <c r="I276" t="n">
+        <v>56</v>
+      </c>
+      <c r="J276" t="n">
+        <v>41</v>
+      </c>
+      <c r="K276" t="n">
+        <v>42</v>
+      </c>
+      <c r="L276" t="n">
+        <v>15</v>
+      </c>
+      <c r="M276" t="n">
+        <v>15</v>
+      </c>
+      <c r="N276" t="n">
+        <v>19</v>
+      </c>
+      <c r="O276" t="n">
+        <v>59</v>
+      </c>
+      <c r="P276" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="R276" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="S276" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="T276" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="U276" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="V276" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X276" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>59.32</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>40.68</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>88.14</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>59.32</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>40.68</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>60</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>86.67</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW276" t="inlineStr"/>
+      <c r="AX276" t="inlineStr"/>
+      <c r="AY276" t="inlineStr"/>
+      <c r="AZ276" t="inlineStr"/>
+      <c r="BA276" t="inlineStr"/>
+      <c r="BB276" t="inlineStr"/>
+      <c r="BC276" t="inlineStr"/>
+      <c r="BD276" t="inlineStr"/>
+      <c r="BE276" t="inlineStr"/>
+      <c r="BF276" t="inlineStr"/>
+      <c r="BG276" t="inlineStr"/>
+      <c r="BH276" t="inlineStr"/>
+      <c r="BI276" t="inlineStr"/>
+      <c r="BJ276" t="inlineStr"/>
+      <c r="BK276" t="inlineStr"/>
+      <c r="BL276" t="inlineStr"/>
+      <c r="BM276" t="inlineStr"/>
+      <c r="BN276" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO276" t="n">
+        <v>-2.67</v>
+      </c>
+      <c r="BP276" t="n">
+        <v>-6.35</v>
+      </c>
+      <c r="BQ276" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="BR276" t="n">
+        <v>-8.890000000000001</v>
+      </c>
+      <c r="BS276" t="n">
+        <v>-3.74</v>
+      </c>
+      <c r="BT276" t="n">
+        <v>-8.49</v>
+      </c>
+      <c r="BU276" t="n">
+        <v>-11.97</v>
+      </c>
+      <c r="BV276" t="n">
+        <v>-9.16</v>
+      </c>
+      <c r="BW276" t="n">
+        <v>-12.61</v>
+      </c>
+      <c r="BX276" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BY276" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BZ276" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="CA276" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB276" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC276" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD276" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE276" t="n">
+        <v>33</v>
+      </c>
+      <c r="CF276" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="CG276" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="CH276" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="CI276" t="n">
+        <v>-5.08</v>
+      </c>
+      <c r="CJ276" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="CK276" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="CL276" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="CM276" t="n">
+        <v>-4.92</v>
+      </c>
+      <c r="CN276" t="n">
+        <v>-5.99</v>
+      </c>
+      <c r="CO276" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="CP276" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="CQ276" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="CR276" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="CS276" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="CT276" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="CU276" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="CV276" t="inlineStr"/>
+      <c r="CW276" t="inlineStr"/>
+      <c r="CX276" t="inlineStr"/>
+      <c r="CY276" t="inlineStr"/>
+      <c r="CZ276" t="inlineStr"/>
+      <c r="DA276" t="inlineStr"/>
+      <c r="DB276" t="inlineStr"/>
+      <c r="DC276" t="inlineStr"/>
+      <c r="DD276" t="inlineStr"/>
+      <c r="DE276" t="inlineStr"/>
+      <c r="DF276" t="inlineStr"/>
+      <c r="DG276" t="inlineStr"/>
+      <c r="DH276" t="inlineStr"/>
+      <c r="DI276" t="inlineStr"/>
+      <c r="DJ276" t="inlineStr"/>
+      <c r="DK276" t="inlineStr"/>
+      <c r="DL276" t="inlineStr"/>
+      <c r="DM276" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 1.68, "收盘": -0.03, "样本": 36}, "1": {"开盘": -1.24, "收盘": -1.09, "样本": 8}, "2": {"开盘": 5.59, "收盘": 4.38, "样本": 6}, "3": {"开盘": 0.9, "收盘": -1.62, "样本": 3}, "4": {"开盘": 8.0, "收盘": -3.54, "样本": 1}, "7": {"开盘": 3.85, "收盘": 9.95, "样本": 1}, "14": {"开盘": -4.76, "收盘": -12.88, "样本": 1}, "17": {"开盘": -2.91, "收盘": 0.65, "样本": 1}, "30": {"开盘": 6.21, "收盘": -3.01, "样本": 1}, "33": {"开盘": 6.19, "收盘": -9.96, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM276"/>
+  <dimension ref="A1:DM277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86745,6 +86745,295 @@
         </is>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>20251217</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>3626</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1635</v>
+      </c>
+      <c r="D277" t="n">
+        <v>185</v>
+      </c>
+      <c r="E277" t="n">
+        <v>266</v>
+      </c>
+      <c r="F277" t="n">
+        <v>109</v>
+      </c>
+      <c r="G277" t="n">
+        <v>125</v>
+      </c>
+      <c r="H277" t="n">
+        <v>65</v>
+      </c>
+      <c r="I277" t="n">
+        <v>79</v>
+      </c>
+      <c r="J277" t="n">
+        <v>36</v>
+      </c>
+      <c r="K277" t="n">
+        <v>49</v>
+      </c>
+      <c r="L277" t="n">
+        <v>19</v>
+      </c>
+      <c r="M277" t="n">
+        <v>8</v>
+      </c>
+      <c r="N277" t="n">
+        <v>20</v>
+      </c>
+      <c r="O277" t="n">
+        <v>42</v>
+      </c>
+      <c r="P277" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="R277" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="S277" t="n">
+        <v>-4.06</v>
+      </c>
+      <c r="T277" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="U277" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="V277" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X277" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>59.52</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>45.24</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>59.52</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>45.24</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>-4.11</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>-2.42</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>60</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="AW277" t="inlineStr"/>
+      <c r="AX277" t="inlineStr"/>
+      <c r="AY277" t="inlineStr"/>
+      <c r="AZ277" t="inlineStr"/>
+      <c r="BA277" t="inlineStr"/>
+      <c r="BB277" t="inlineStr"/>
+      <c r="BC277" t="inlineStr"/>
+      <c r="BD277" t="inlineStr"/>
+      <c r="BE277" t="inlineStr"/>
+      <c r="BF277" t="inlineStr"/>
+      <c r="BG277" t="inlineStr"/>
+      <c r="BH277" t="inlineStr"/>
+      <c r="BI277" t="inlineStr"/>
+      <c r="BJ277" t="inlineStr"/>
+      <c r="BK277" t="inlineStr"/>
+      <c r="BL277" t="inlineStr"/>
+      <c r="BM277" t="inlineStr"/>
+      <c r="BN277" t="n">
+        <v>15</v>
+      </c>
+      <c r="BO277" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="BP277" t="n">
+        <v>-4.66</v>
+      </c>
+      <c r="BQ277" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="BR277" t="n">
+        <v>-6.86</v>
+      </c>
+      <c r="BS277" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="BT277" t="n">
+        <v>-11.16</v>
+      </c>
+      <c r="BU277" t="n">
+        <v>-11.73</v>
+      </c>
+      <c r="BV277" t="n">
+        <v>-12.05</v>
+      </c>
+      <c r="BW277" t="n">
+        <v>-12.61</v>
+      </c>
+      <c r="BX277" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="BY277" t="n">
+        <v>20</v>
+      </c>
+      <c r="BZ277" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CA277" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB277" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC277" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD277" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE277" t="n">
+        <v>19</v>
+      </c>
+      <c r="CF277" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="CG277" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="CH277" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="CI277" t="n">
+        <v>-5.38</v>
+      </c>
+      <c r="CJ277" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="CK277" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="CL277" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="CM277" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="CN277" t="n">
+        <v>-7.79</v>
+      </c>
+      <c r="CO277" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="CP277" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="CQ277" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="CR277" t="n">
+        <v>78.95</v>
+      </c>
+      <c r="CS277" t="n">
+        <v>52.63</v>
+      </c>
+      <c r="CT277" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="CU277" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="CV277" t="inlineStr"/>
+      <c r="CW277" t="inlineStr"/>
+      <c r="CX277" t="inlineStr"/>
+      <c r="CY277" t="inlineStr"/>
+      <c r="CZ277" t="inlineStr"/>
+      <c r="DA277" t="inlineStr"/>
+      <c r="DB277" t="inlineStr"/>
+      <c r="DC277" t="inlineStr"/>
+      <c r="DD277" t="inlineStr"/>
+      <c r="DE277" t="inlineStr"/>
+      <c r="DF277" t="inlineStr"/>
+      <c r="DG277" t="inlineStr"/>
+      <c r="DH277" t="inlineStr"/>
+      <c r="DI277" t="inlineStr"/>
+      <c r="DJ277" t="inlineStr"/>
+      <c r="DK277" t="inlineStr"/>
+      <c r="DL277" t="inlineStr"/>
+      <c r="DM277" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 1.51, "收盘": 0.18, "样本": 26}, "1": {"开盘": 0.93, "收盘": 1.55, "样本": 6}, "2": {"开盘": 0.0, "收盘": -10.0, "样本": 1}, "3": {"开盘": 1.51, "收盘": 1.3, "样本": 3}, "4": {"开盘": 0.35, "收盘": -3.67, "样本": 2}, "5": {"开盘": -0.97, "收盘": -3.63, "样本": 1}, "7": {"开盘": 0.04, "收盘": 4.28, "样本": 1}, "9": {"开盘": 2.92, "收盘": -9.98, "样本": 1}, "13": {"开盘": -0.43, "收盘": -8.01, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM277"/>
+  <dimension ref="A1:DM278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87034,6 +87034,295 @@
         </is>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>20251218</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2845</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2416</v>
+      </c>
+      <c r="D278" t="n">
+        <v>188</v>
+      </c>
+      <c r="E278" t="n">
+        <v>173</v>
+      </c>
+      <c r="F278" t="n">
+        <v>83</v>
+      </c>
+      <c r="G278" t="n">
+        <v>108</v>
+      </c>
+      <c r="H278" t="n">
+        <v>24</v>
+      </c>
+      <c r="I278" t="n">
+        <v>80</v>
+      </c>
+      <c r="J278" t="n">
+        <v>10</v>
+      </c>
+      <c r="K278" t="n">
+        <v>61</v>
+      </c>
+      <c r="L278" t="n">
+        <v>4</v>
+      </c>
+      <c r="M278" t="n">
+        <v>24</v>
+      </c>
+      <c r="N278" t="n">
+        <v>19</v>
+      </c>
+      <c r="O278" t="n">
+        <v>49</v>
+      </c>
+      <c r="P278" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="R278" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="S278" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="T278" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="U278" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="V278" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="W278" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="X278" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>79.17</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>64.58</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>97.92</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>97.92</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>79.17</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>64.58</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW278" t="inlineStr"/>
+      <c r="AX278" t="inlineStr"/>
+      <c r="AY278" t="inlineStr"/>
+      <c r="AZ278" t="inlineStr"/>
+      <c r="BA278" t="inlineStr"/>
+      <c r="BB278" t="inlineStr"/>
+      <c r="BC278" t="inlineStr"/>
+      <c r="BD278" t="inlineStr"/>
+      <c r="BE278" t="inlineStr"/>
+      <c r="BF278" t="inlineStr"/>
+      <c r="BG278" t="inlineStr"/>
+      <c r="BH278" t="inlineStr"/>
+      <c r="BI278" t="inlineStr"/>
+      <c r="BJ278" t="inlineStr"/>
+      <c r="BK278" t="inlineStr"/>
+      <c r="BL278" t="inlineStr"/>
+      <c r="BM278" t="inlineStr"/>
+      <c r="BN278" t="n">
+        <v>19</v>
+      </c>
+      <c r="BO278" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="BP278" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="BQ278" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BR278" t="n">
+        <v>-5.62</v>
+      </c>
+      <c r="BS278" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="BT278" t="n">
+        <v>-9.449999999999999</v>
+      </c>
+      <c r="BU278" t="n">
+        <v>-6.32</v>
+      </c>
+      <c r="BV278" t="n">
+        <v>-11.22</v>
+      </c>
+      <c r="BW278" t="n">
+        <v>-8.16</v>
+      </c>
+      <c r="BX278" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="BY278" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="BZ278" t="n">
+        <v>78.95</v>
+      </c>
+      <c r="CA278" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB278" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="CC278" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD278" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="CE278" t="n">
+        <v>20</v>
+      </c>
+      <c r="CF278" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="CG278" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="CH278" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="CI278" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="CJ278" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CK278" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="CL278" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="CM278" t="n">
+        <v>-6.13</v>
+      </c>
+      <c r="CN278" t="n">
+        <v>-5.08</v>
+      </c>
+      <c r="CO278" t="n">
+        <v>15</v>
+      </c>
+      <c r="CP278" t="n">
+        <v>30</v>
+      </c>
+      <c r="CQ278" t="n">
+        <v>55</v>
+      </c>
+      <c r="CR278" t="n">
+        <v>75</v>
+      </c>
+      <c r="CS278" t="n">
+        <v>65</v>
+      </c>
+      <c r="CT278" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU278" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV278" t="inlineStr"/>
+      <c r="CW278" t="inlineStr"/>
+      <c r="CX278" t="inlineStr"/>
+      <c r="CY278" t="inlineStr"/>
+      <c r="CZ278" t="inlineStr"/>
+      <c r="DA278" t="inlineStr"/>
+      <c r="DB278" t="inlineStr"/>
+      <c r="DC278" t="inlineStr"/>
+      <c r="DD278" t="inlineStr"/>
+      <c r="DE278" t="inlineStr"/>
+      <c r="DF278" t="inlineStr"/>
+      <c r="DG278" t="inlineStr"/>
+      <c r="DH278" t="inlineStr"/>
+      <c r="DI278" t="inlineStr"/>
+      <c r="DJ278" t="inlineStr"/>
+      <c r="DK278" t="inlineStr"/>
+      <c r="DL278" t="inlineStr"/>
+      <c r="DM278" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.48, "收盘": 2.63, "样本": 24}, "1": {"开盘": 3.37, "收盘": 6.7, "样本": 5}, "2": {"开盘": 3.16, "收盘": 5.96, "样本": 6}, "3": {"开盘": 0.0, "收盘": 5.47, "样本": 4}, "4": {"开盘": -0.42, "收盘": -1.63, "样本": 2}, "5": {"开盘": 1.82, "收盘": -1.64, "样本": 2}, "7": {"开盘": 1.11, "收盘": -1.32, "样本": 2}, "8": {"开盘": 4.49, "收盘": 9.99, "样本": 1}, "16": {"开盘": 9.97, "收盘": 9.97, "样本": 1}, "17": {"开盘": 2.59, "收盘": 2.53, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM278"/>
+  <dimension ref="A1:DM279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87323,6 +87323,295 @@
         </is>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>20251219</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>4477</v>
+      </c>
+      <c r="C279" t="n">
+        <v>905</v>
+      </c>
+      <c r="D279" t="n">
+        <v>66</v>
+      </c>
+      <c r="E279" t="n">
+        <v>282</v>
+      </c>
+      <c r="F279" t="n">
+        <v>43</v>
+      </c>
+      <c r="G279" t="n">
+        <v>140</v>
+      </c>
+      <c r="H279" t="n">
+        <v>20</v>
+      </c>
+      <c r="I279" t="n">
+        <v>97</v>
+      </c>
+      <c r="J279" t="n">
+        <v>10</v>
+      </c>
+      <c r="K279" t="n">
+        <v>70</v>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="n">
+        <v>21</v>
+      </c>
+      <c r="N279" t="n">
+        <v>22</v>
+      </c>
+      <c r="O279" t="n">
+        <v>61</v>
+      </c>
+      <c r="P279" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="R279" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="S279" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="T279" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U279" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="V279" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X279" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>57.38</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>93.44</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>95.08</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>70.83</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>70.83</v>
+      </c>
+      <c r="AW279" t="inlineStr"/>
+      <c r="AX279" t="inlineStr"/>
+      <c r="AY279" t="inlineStr"/>
+      <c r="AZ279" t="inlineStr"/>
+      <c r="BA279" t="inlineStr"/>
+      <c r="BB279" t="inlineStr"/>
+      <c r="BC279" t="inlineStr"/>
+      <c r="BD279" t="inlineStr"/>
+      <c r="BE279" t="inlineStr"/>
+      <c r="BF279" t="inlineStr"/>
+      <c r="BG279" t="inlineStr"/>
+      <c r="BH279" t="inlineStr"/>
+      <c r="BI279" t="inlineStr"/>
+      <c r="BJ279" t="inlineStr"/>
+      <c r="BK279" t="inlineStr"/>
+      <c r="BL279" t="inlineStr"/>
+      <c r="BM279" t="inlineStr"/>
+      <c r="BN279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO279" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="BP279" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="BQ279" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="BR279" t="n">
+        <v>-6.99</v>
+      </c>
+      <c r="BS279" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="BT279" t="n">
+        <v>-15.62</v>
+      </c>
+      <c r="BU279" t="n">
+        <v>-17.02</v>
+      </c>
+      <c r="BV279" t="n">
+        <v>-17</v>
+      </c>
+      <c r="BW279" t="n">
+        <v>-18.36</v>
+      </c>
+      <c r="BX279" t="n">
+        <v>25</v>
+      </c>
+      <c r="BY279" t="n">
+        <v>25</v>
+      </c>
+      <c r="BZ279" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA279" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB279" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC279" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD279" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE279" t="n">
+        <v>19</v>
+      </c>
+      <c r="CF279" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="CG279" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="CH279" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="CI279" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="CJ279" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="CK279" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="CL279" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="CM279" t="n">
+        <v>-5.43</v>
+      </c>
+      <c r="CN279" t="n">
+        <v>-2.79</v>
+      </c>
+      <c r="CO279" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="CP279" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="CQ279" t="n">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="CR279" t="n">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="CS279" t="n">
+        <v>78.95</v>
+      </c>
+      <c r="CT279" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU279" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="CV279" t="inlineStr"/>
+      <c r="CW279" t="inlineStr"/>
+      <c r="CX279" t="inlineStr"/>
+      <c r="CY279" t="inlineStr"/>
+      <c r="CZ279" t="inlineStr"/>
+      <c r="DA279" t="inlineStr"/>
+      <c r="DB279" t="inlineStr"/>
+      <c r="DC279" t="inlineStr"/>
+      <c r="DD279" t="inlineStr"/>
+      <c r="DE279" t="inlineStr"/>
+      <c r="DF279" t="inlineStr"/>
+      <c r="DG279" t="inlineStr"/>
+      <c r="DH279" t="inlineStr"/>
+      <c r="DI279" t="inlineStr"/>
+      <c r="DJ279" t="inlineStr"/>
+      <c r="DK279" t="inlineStr"/>
+      <c r="DL279" t="inlineStr"/>
+      <c r="DM279" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.31, "收盘": 2.49, "样本": 37}, "1": {"开盘": 2.47, "收盘": 1.79, "样本": 7}, "2": {"开盘": 0.87, "收盘": 9.66, "样本": 3}, "3": {"开盘": -1.44, "收盘": 5.35, "样本": 3}, "4": {"开盘": -6.04, "收盘": 9.99, "样本": 1}, "5": {"开盘": 1.63, "收盘": 5.45, "样本": 4}, "6": {"开盘": -0.07, "收盘": -1.58, "样本": 3}, "7": {"开盘": -3.89, "收盘": 9.99, "样本": 1}, "28": {"开盘": -5.63, "收盘": -2.15, "样本": 1}, "54": {"开盘": 1.8, "收盘": 6.89, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM279"/>
+  <dimension ref="A1:DM280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87612,6 +87612,295 @@
         </is>
       </c>
     </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>20251222</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2984</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2265</v>
+      </c>
+      <c r="D280" t="n">
+        <v>195</v>
+      </c>
+      <c r="E280" t="n">
+        <v>298</v>
+      </c>
+      <c r="F280" t="n">
+        <v>58</v>
+      </c>
+      <c r="G280" t="n">
+        <v>169</v>
+      </c>
+      <c r="H280" t="n">
+        <v>29</v>
+      </c>
+      <c r="I280" t="n">
+        <v>110</v>
+      </c>
+      <c r="J280" t="n">
+        <v>17</v>
+      </c>
+      <c r="K280" t="n">
+        <v>80</v>
+      </c>
+      <c r="L280" t="n">
+        <v>8</v>
+      </c>
+      <c r="M280" t="n">
+        <v>18</v>
+      </c>
+      <c r="N280" t="n">
+        <v>32</v>
+      </c>
+      <c r="O280" t="n">
+        <v>70</v>
+      </c>
+      <c r="P280" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R280" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="S280" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="T280" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="U280" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="V280" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="W280" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="X280" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>76.81</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>63.77</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>40.58</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>92.75</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>76.81</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>63.77</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>52.38</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>23.81</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>52.38</v>
+      </c>
+      <c r="AW280" t="inlineStr"/>
+      <c r="AX280" t="inlineStr"/>
+      <c r="AY280" t="inlineStr"/>
+      <c r="AZ280" t="inlineStr"/>
+      <c r="BA280" t="inlineStr"/>
+      <c r="BB280" t="inlineStr"/>
+      <c r="BC280" t="inlineStr"/>
+      <c r="BD280" t="inlineStr"/>
+      <c r="BE280" t="inlineStr"/>
+      <c r="BF280" t="inlineStr"/>
+      <c r="BG280" t="inlineStr"/>
+      <c r="BH280" t="inlineStr"/>
+      <c r="BI280" t="inlineStr"/>
+      <c r="BJ280" t="inlineStr"/>
+      <c r="BK280" t="inlineStr"/>
+      <c r="BL280" t="inlineStr"/>
+      <c r="BM280" t="inlineStr"/>
+      <c r="BN280" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO280" t="n">
+        <v>-6.82</v>
+      </c>
+      <c r="BP280" t="n">
+        <v>-8.65</v>
+      </c>
+      <c r="BQ280" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="BR280" t="n">
+        <v>-9.84</v>
+      </c>
+      <c r="BS280" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="BT280" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="BU280" t="n">
+        <v>-8.73</v>
+      </c>
+      <c r="BV280" t="n">
+        <v>-12.84</v>
+      </c>
+      <c r="BW280" t="n">
+        <v>-14.55</v>
+      </c>
+      <c r="BX280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ280" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA280" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB280" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC280" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD280" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE280" t="n">
+        <v>22</v>
+      </c>
+      <c r="CF280" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="CG280" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="CH280" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="CI280" t="n">
+        <v>-2.57</v>
+      </c>
+      <c r="CJ280" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="CK280" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="CL280" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="CM280" t="n">
+        <v>-3.64</v>
+      </c>
+      <c r="CN280" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="CO280" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="CP280" t="n">
+        <v>59.09</v>
+      </c>
+      <c r="CQ280" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="CR280" t="n">
+        <v>90.91</v>
+      </c>
+      <c r="CS280" t="n">
+        <v>95.45</v>
+      </c>
+      <c r="CT280" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="CU280" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="CV280" t="inlineStr"/>
+      <c r="CW280" t="inlineStr"/>
+      <c r="CX280" t="inlineStr"/>
+      <c r="CY280" t="inlineStr"/>
+      <c r="CZ280" t="inlineStr"/>
+      <c r="DA280" t="inlineStr"/>
+      <c r="DB280" t="inlineStr"/>
+      <c r="DC280" t="inlineStr"/>
+      <c r="DD280" t="inlineStr"/>
+      <c r="DE280" t="inlineStr"/>
+      <c r="DF280" t="inlineStr"/>
+      <c r="DG280" t="inlineStr"/>
+      <c r="DH280" t="inlineStr"/>
+      <c r="DI280" t="inlineStr"/>
+      <c r="DJ280" t="inlineStr"/>
+      <c r="DK280" t="inlineStr"/>
+      <c r="DL280" t="inlineStr"/>
+      <c r="DM280" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.94, "收盘": 2.25, "样本": 38}, "1": {"开盘": 3.32, "收盘": 0.35, "样本": 11}, "2": {"开盘": 3.11, "收盘": 2.88, "样本": 10}, "3": {"开盘": 2.62, "收盘": 5.54, "样本": 2}, "4": {"开盘": 7.12, "收盘": 3.7, "样本": 1}, "5": {"开盘": 9.99, "收盘": 9.99, "样本": 1}, "6": {"开盘": -0.69, "收盘": -4.47, "样本": 1}, "7": {"开盘": 2.63, "收盘": 1.69, "样本": 1}, "8": {"开盘": 0.0, "收盘": 7.6, "样本": 1}, "9": {"开盘": 4.92, "收盘": 9.99, "样本": 1}, "10": {"开盘": 4.14, "收盘": 3.1, "样本": 1}, "17": {"开盘": -4.42, "收盘": -10.0, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM280"/>
+  <dimension ref="A1:DM281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87901,6 +87901,295 @@
         </is>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>20251223</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1512</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3856</v>
+      </c>
+      <c r="D281" t="n">
+        <v>81</v>
+      </c>
+      <c r="E281" t="n">
+        <v>178</v>
+      </c>
+      <c r="F281" t="n">
+        <v>153</v>
+      </c>
+      <c r="G281" t="n">
+        <v>100</v>
+      </c>
+      <c r="H281" t="n">
+        <v>53</v>
+      </c>
+      <c r="I281" t="n">
+        <v>77</v>
+      </c>
+      <c r="J281" t="n">
+        <v>30</v>
+      </c>
+      <c r="K281" t="n">
+        <v>54</v>
+      </c>
+      <c r="L281" t="n">
+        <v>9</v>
+      </c>
+      <c r="M281" t="n">
+        <v>19</v>
+      </c>
+      <c r="N281" t="n">
+        <v>21</v>
+      </c>
+      <c r="O281" t="n">
+        <v>80</v>
+      </c>
+      <c r="P281" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R281" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="S281" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="T281" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="U281" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="V281" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="W281" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="X281" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>53.75</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>96.25</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>53.75</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>61.11</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>61.11</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="AW281" t="inlineStr"/>
+      <c r="AX281" t="inlineStr"/>
+      <c r="AY281" t="inlineStr"/>
+      <c r="AZ281" t="inlineStr"/>
+      <c r="BA281" t="inlineStr"/>
+      <c r="BB281" t="inlineStr"/>
+      <c r="BC281" t="inlineStr"/>
+      <c r="BD281" t="inlineStr"/>
+      <c r="BE281" t="inlineStr"/>
+      <c r="BF281" t="inlineStr"/>
+      <c r="BG281" t="inlineStr"/>
+      <c r="BH281" t="inlineStr"/>
+      <c r="BI281" t="inlineStr"/>
+      <c r="BJ281" t="inlineStr"/>
+      <c r="BK281" t="inlineStr"/>
+      <c r="BL281" t="inlineStr"/>
+      <c r="BM281" t="inlineStr"/>
+      <c r="BN281" t="n">
+        <v>7</v>
+      </c>
+      <c r="BO281" t="n">
+        <v>-6.96</v>
+      </c>
+      <c r="BP281" t="n">
+        <v>-7.01</v>
+      </c>
+      <c r="BQ281" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="BR281" t="n">
+        <v>-8.359999999999999</v>
+      </c>
+      <c r="BS281" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="BT281" t="n">
+        <v>-12.21</v>
+      </c>
+      <c r="BU281" t="n">
+        <v>-12.33</v>
+      </c>
+      <c r="BV281" t="n">
+        <v>-13.29</v>
+      </c>
+      <c r="BW281" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="BX281" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY281" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="BZ281" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CA281" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB281" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC281" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD281" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE281" t="n">
+        <v>32</v>
+      </c>
+      <c r="CF281" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="CG281" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="CH281" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="CI281" t="n">
+        <v>-3.82</v>
+      </c>
+      <c r="CJ281" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="CK281" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="CL281" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="CM281" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="CN281" t="n">
+        <v>-3.83</v>
+      </c>
+      <c r="CO281" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="CP281" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="CQ281" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="CR281" t="n">
+        <v>78.12</v>
+      </c>
+      <c r="CS281" t="n">
+        <v>65.62</v>
+      </c>
+      <c r="CT281" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="CU281" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="CV281" t="inlineStr"/>
+      <c r="CW281" t="inlineStr"/>
+      <c r="CX281" t="inlineStr"/>
+      <c r="CY281" t="inlineStr"/>
+      <c r="CZ281" t="inlineStr"/>
+      <c r="DA281" t="inlineStr"/>
+      <c r="DB281" t="inlineStr"/>
+      <c r="DC281" t="inlineStr"/>
+      <c r="DD281" t="inlineStr"/>
+      <c r="DE281" t="inlineStr"/>
+      <c r="DF281" t="inlineStr"/>
+      <c r="DG281" t="inlineStr"/>
+      <c r="DH281" t="inlineStr"/>
+      <c r="DI281" t="inlineStr"/>
+      <c r="DJ281" t="inlineStr"/>
+      <c r="DK281" t="inlineStr"/>
+      <c r="DL281" t="inlineStr"/>
+      <c r="DM281" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.02, "收盘": 0.84, "样本": 41}, "1": {"开盘": 3.28, "收盘": 2.16, "样本": 9}, "2": {"开盘": 0.89, "收盘": -0.23, "样本": 8}, "3": {"开盘": 4.25, "收盘": 3.92, "样本": 2}, "4": {"开盘": 6.39, "收盘": -9.79, "样本": 1}, "5": {"开盘": 4.28, "收盘": 4.32, "样本": 8}, "6": {"开盘": 5.23, "收盘": 0.85, "样本": 1}, "7": {"开盘": 0.0, "收盘": -1.05, "样本": 1}, "10": {"开盘": 4.08, "收盘": 9.7, "样本": 1}, "11": {"开盘": 2.1, "收盘": -0.1, "样本": 1}, "12": {"开盘": 1.07, "收盘": 9.99, "样本": 1}, "13": {"开盘": 4.62, "收盘": -0.61, "样本": 1}, "14": {"开盘": 6.91, "收盘": 10.05, "样本": 1}, "16": {"开盘": 0.53, "收盘": -3.85, "样本": 2}, "18": {"开盘": 3.18, "收盘": 4.03, "样本": 1}, "19": {"开盘": 3.08, "收盘": -1.29, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM281"/>
+  <dimension ref="A1:DM282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88190,6 +88190,295 @@
         </is>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>20251224</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>4128</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1137</v>
+      </c>
+      <c r="D282" t="n">
+        <v>186</v>
+      </c>
+      <c r="E282" t="n">
+        <v>306</v>
+      </c>
+      <c r="F282" t="n">
+        <v>27</v>
+      </c>
+      <c r="G282" t="n">
+        <v>159</v>
+      </c>
+      <c r="H282" t="n">
+        <v>14</v>
+      </c>
+      <c r="I282" t="n">
+        <v>109</v>
+      </c>
+      <c r="J282" t="n">
+        <v>9</v>
+      </c>
+      <c r="K282" t="n">
+        <v>76</v>
+      </c>
+      <c r="L282" t="n">
+        <v>4</v>
+      </c>
+      <c r="M282" t="n">
+        <v>21</v>
+      </c>
+      <c r="N282" t="n">
+        <v>21</v>
+      </c>
+      <c r="O282" t="n">
+        <v>54</v>
+      </c>
+      <c r="P282" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="R282" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="S282" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="T282" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="U282" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="V282" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="W282" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="X282" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>60.38</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>45.28</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>94.34</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>60.38</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>84.20999999999999</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>89.47</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>63.16</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="AW282" t="inlineStr"/>
+      <c r="AX282" t="inlineStr"/>
+      <c r="AY282" t="inlineStr"/>
+      <c r="AZ282" t="inlineStr"/>
+      <c r="BA282" t="inlineStr"/>
+      <c r="BB282" t="inlineStr"/>
+      <c r="BC282" t="inlineStr"/>
+      <c r="BD282" t="inlineStr"/>
+      <c r="BE282" t="inlineStr"/>
+      <c r="BF282" t="inlineStr"/>
+      <c r="BG282" t="inlineStr"/>
+      <c r="BH282" t="inlineStr"/>
+      <c r="BI282" t="inlineStr"/>
+      <c r="BJ282" t="inlineStr"/>
+      <c r="BK282" t="inlineStr"/>
+      <c r="BL282" t="inlineStr"/>
+      <c r="BM282" t="inlineStr"/>
+      <c r="BN282" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO282" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="BP282" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="BQ282" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="BR282" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="BS282" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="BT282" t="n">
+        <v>-11.07</v>
+      </c>
+      <c r="BU282" t="n">
+        <v>-7.64</v>
+      </c>
+      <c r="BV282" t="n">
+        <v>-12.21</v>
+      </c>
+      <c r="BW282" t="n">
+        <v>-8.82</v>
+      </c>
+      <c r="BX282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY282" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BZ282" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="CA282" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB282" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="CC282" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD282" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="CE282" t="n">
+        <v>21</v>
+      </c>
+      <c r="CF282" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="CG282" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="CH282" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="CI282" t="n">
+        <v>-2.84</v>
+      </c>
+      <c r="CJ282" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="CK282" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="CL282" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="CM282" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="CN282" t="n">
+        <v>-3.23</v>
+      </c>
+      <c r="CO282" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CP282" t="n">
+        <v>52.38</v>
+      </c>
+      <c r="CQ282" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="CR282" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CS282" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CT282" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="CU282" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CV282" t="inlineStr"/>
+      <c r="CW282" t="inlineStr"/>
+      <c r="CX282" t="inlineStr"/>
+      <c r="CY282" t="inlineStr"/>
+      <c r="CZ282" t="inlineStr"/>
+      <c r="DA282" t="inlineStr"/>
+      <c r="DB282" t="inlineStr"/>
+      <c r="DC282" t="inlineStr"/>
+      <c r="DD282" t="inlineStr"/>
+      <c r="DE282" t="inlineStr"/>
+      <c r="DF282" t="inlineStr"/>
+      <c r="DG282" t="inlineStr"/>
+      <c r="DH282" t="inlineStr"/>
+      <c r="DI282" t="inlineStr"/>
+      <c r="DJ282" t="inlineStr"/>
+      <c r="DK282" t="inlineStr"/>
+      <c r="DL282" t="inlineStr"/>
+      <c r="DM282" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.96, "收盘": 3.09, "样本": 25}, "1": {"开盘": -0.22, "收盘": 0.66, "样本": 9}, "2": {"开盘": 0.99, "收盘": -2.48, "样本": 3}, "3": {"开盘": -1.12, "收盘": -0.09, "样本": 3}, "4": {"开盘": 3.95, "收盘": 6.02, "样本": 2}, "5": {"开盘": 3.44, "收盘": 8.88, "样本": 3}, "6": {"开盘": 1.25, "收盘": -0.59, "样本": 1}, "8": {"开盘": -1.6, "收盘": -5.48, "样本": 1}, "13": {"开盘": 1.54, "收盘": 5.08, "样本": 1}, "14": {"开盘": -3.51, "收盘": 6.9, "样本": 2}, "21": {"开盘": 3.89, "收盘": 6.22, "样本": 1}, "39": {"开盘": -3.24, "收盘": 10.01, "样本": 1}, "42": {"开盘": 2.09, "收盘": -0.94, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM282"/>
+  <dimension ref="A1:DM283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88479,6 +88479,295 @@
         </is>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>20251225</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>3773</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1473</v>
+      </c>
+      <c r="D283" t="n">
+        <v>208</v>
+      </c>
+      <c r="E283" t="n">
+        <v>283</v>
+      </c>
+      <c r="F283" t="n">
+        <v>19</v>
+      </c>
+      <c r="G283" t="n">
+        <v>153</v>
+      </c>
+      <c r="H283" t="n">
+        <v>4</v>
+      </c>
+      <c r="I283" t="n">
+        <v>118</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>79</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>24</v>
+      </c>
+      <c r="N283" t="n">
+        <v>24</v>
+      </c>
+      <c r="O283" t="n">
+        <v>75</v>
+      </c>
+      <c r="P283" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R283" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="S283" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="T283" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="U283" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="V283" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="W283" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="X283" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>70.67</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>68</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>70.67</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>68</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>95.23999999999999</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="AW283" t="inlineStr"/>
+      <c r="AX283" t="inlineStr"/>
+      <c r="AY283" t="inlineStr"/>
+      <c r="AZ283" t="inlineStr"/>
+      <c r="BA283" t="inlineStr"/>
+      <c r="BB283" t="inlineStr"/>
+      <c r="BC283" t="inlineStr"/>
+      <c r="BD283" t="inlineStr"/>
+      <c r="BE283" t="inlineStr"/>
+      <c r="BF283" t="inlineStr"/>
+      <c r="BG283" t="inlineStr"/>
+      <c r="BH283" t="inlineStr"/>
+      <c r="BI283" t="inlineStr"/>
+      <c r="BJ283" t="inlineStr"/>
+      <c r="BK283" t="inlineStr"/>
+      <c r="BL283" t="inlineStr"/>
+      <c r="BM283" t="inlineStr"/>
+      <c r="BN283" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO283" t="n">
+        <v>-3.13</v>
+      </c>
+      <c r="BP283" t="n">
+        <v>-3.54</v>
+      </c>
+      <c r="BQ283" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="BR283" t="n">
+        <v>-6.68</v>
+      </c>
+      <c r="BS283" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="BT283" t="n">
+        <v>-7.36</v>
+      </c>
+      <c r="BU283" t="n">
+        <v>-7.74</v>
+      </c>
+      <c r="BV283" t="n">
+        <v>-9.710000000000001</v>
+      </c>
+      <c r="BW283" t="n">
+        <v>-10.09</v>
+      </c>
+      <c r="BX283" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY283" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ283" t="n">
+        <v>50</v>
+      </c>
+      <c r="CA283" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB283" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC283" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD283" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE283" t="n">
+        <v>21</v>
+      </c>
+      <c r="CF283" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="CG283" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="CH283" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="CI283" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="CJ283" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="CK283" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="CL283" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="CM283" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="CN283" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="CO283" t="n">
+        <v>23.81</v>
+      </c>
+      <c r="CP283" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="CQ283" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CR283" t="n">
+        <v>90.48</v>
+      </c>
+      <c r="CS283" t="n">
+        <v>90.48</v>
+      </c>
+      <c r="CT283" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="CU283" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="CV283" t="inlineStr"/>
+      <c r="CW283" t="inlineStr"/>
+      <c r="CX283" t="inlineStr"/>
+      <c r="CY283" t="inlineStr"/>
+      <c r="CZ283" t="inlineStr"/>
+      <c r="DA283" t="inlineStr"/>
+      <c r="DB283" t="inlineStr"/>
+      <c r="DC283" t="inlineStr"/>
+      <c r="DD283" t="inlineStr"/>
+      <c r="DE283" t="inlineStr"/>
+      <c r="DF283" t="inlineStr"/>
+      <c r="DG283" t="inlineStr"/>
+      <c r="DH283" t="inlineStr"/>
+      <c r="DI283" t="inlineStr"/>
+      <c r="DJ283" t="inlineStr"/>
+      <c r="DK283" t="inlineStr"/>
+      <c r="DL283" t="inlineStr"/>
+      <c r="DM283" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.81, "收盘": 2.04, "样本": 38}, "1": {"开盘": 4.47, "收盘": 6.1, "样本": 12}, "2": {"开盘": 1.87, "收盘": 6.48, "样本": 6}, "3": {"开盘": 1.48, "收盘": 2.79, "样本": 6}, "4": {"开盘": 0.59, "收盘": 3.8, "样本": 5}, "5": {"开盘": 1.36, "收盘": 2.75, "样本": 2}, "7": {"开盘": -3.82, "收盘": 6.84, "样本": 1}, "8": {"开盘": -1.79, "收盘": -6.25, "样本": 1}, "10": {"开盘": 5.0, "收盘": 9.99, "样本": 1}, "15": {"开盘": 0.56, "收盘": 11.71, "样本": 1}, "20": {"开盘": 0.0, "收盘": -2.52, "样本": 1}, "38": {"开盘": 6.64, "收盘": 4.3, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM283"/>
+  <dimension ref="A1:DM284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88768,6 +88768,261 @@
         </is>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>20251226</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1866</v>
+      </c>
+      <c r="C284" t="n">
+        <v>3414</v>
+      </c>
+      <c r="D284" t="n">
+        <v>173</v>
+      </c>
+      <c r="E284" t="n">
+        <v>224</v>
+      </c>
+      <c r="F284" t="n">
+        <v>39</v>
+      </c>
+      <c r="G284" t="n">
+        <v>137</v>
+      </c>
+      <c r="H284" t="n">
+        <v>14</v>
+      </c>
+      <c r="I284" t="n">
+        <v>105</v>
+      </c>
+      <c r="J284" t="n">
+        <v>7</v>
+      </c>
+      <c r="K284" t="n">
+        <v>82</v>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="n">
+        <v>32</v>
+      </c>
+      <c r="N284" t="n">
+        <v>19</v>
+      </c>
+      <c r="O284" t="n">
+        <v>78</v>
+      </c>
+      <c r="P284" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R284" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="S284" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="T284" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U284" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="V284" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="W284" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="X284" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>98.72</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>96.15000000000001</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>73.91</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>95.65000000000001</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>73.91</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AW284" t="inlineStr"/>
+      <c r="AX284" t="inlineStr"/>
+      <c r="AY284" t="inlineStr"/>
+      <c r="AZ284" t="inlineStr"/>
+      <c r="BA284" t="inlineStr"/>
+      <c r="BB284" t="inlineStr"/>
+      <c r="BC284" t="inlineStr"/>
+      <c r="BD284" t="inlineStr"/>
+      <c r="BE284" t="inlineStr"/>
+      <c r="BF284" t="inlineStr"/>
+      <c r="BG284" t="inlineStr"/>
+      <c r="BH284" t="inlineStr"/>
+      <c r="BI284" t="inlineStr"/>
+      <c r="BJ284" t="inlineStr"/>
+      <c r="BK284" t="inlineStr"/>
+      <c r="BL284" t="inlineStr"/>
+      <c r="BM284" t="inlineStr"/>
+      <c r="BN284" t="inlineStr"/>
+      <c r="BO284" t="inlineStr"/>
+      <c r="BP284" t="inlineStr"/>
+      <c r="BQ284" t="inlineStr"/>
+      <c r="BR284" t="inlineStr"/>
+      <c r="BS284" t="inlineStr"/>
+      <c r="BT284" t="inlineStr"/>
+      <c r="BU284" t="inlineStr"/>
+      <c r="BV284" t="inlineStr"/>
+      <c r="BW284" t="inlineStr"/>
+      <c r="BX284" t="inlineStr"/>
+      <c r="BY284" t="inlineStr"/>
+      <c r="BZ284" t="inlineStr"/>
+      <c r="CA284" t="inlineStr"/>
+      <c r="CB284" t="inlineStr"/>
+      <c r="CC284" t="inlineStr"/>
+      <c r="CD284" t="inlineStr"/>
+      <c r="CE284" t="n">
+        <v>24</v>
+      </c>
+      <c r="CF284" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="CG284" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="CH284" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="CI284" t="n">
+        <v>-3.45</v>
+      </c>
+      <c r="CJ284" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="CK284" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="CL284" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="CM284" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="CN284" t="n">
+        <v>-4.56</v>
+      </c>
+      <c r="CO284" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="CP284" t="n">
+        <v>45.83</v>
+      </c>
+      <c r="CQ284" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="CR284" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="CS284" t="n">
+        <v>70.83</v>
+      </c>
+      <c r="CT284" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="CU284" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="CV284" t="inlineStr"/>
+      <c r="CW284" t="inlineStr"/>
+      <c r="CX284" t="inlineStr"/>
+      <c r="CY284" t="inlineStr"/>
+      <c r="CZ284" t="inlineStr"/>
+      <c r="DA284" t="inlineStr"/>
+      <c r="DB284" t="inlineStr"/>
+      <c r="DC284" t="inlineStr"/>
+      <c r="DD284" t="inlineStr"/>
+      <c r="DE284" t="inlineStr"/>
+      <c r="DF284" t="inlineStr"/>
+      <c r="DG284" t="inlineStr"/>
+      <c r="DH284" t="inlineStr"/>
+      <c r="DI284" t="inlineStr"/>
+      <c r="DJ284" t="inlineStr"/>
+      <c r="DK284" t="inlineStr"/>
+      <c r="DL284" t="inlineStr"/>
+      <c r="DM284" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.4, "收盘": 2.82, "样本": 43}, "1": {"开盘": 0.52, "收盘": 1.96, "样本": 10}, "2": {"开盘": 2.43, "收盘": 4.0, "样本": 12}, "3": {"开盘": 2.2, "收盘": 1.5, "样本": 4}, "4": {"开盘": 2.47, "收盘": 5.37, "样本": 3}, "6": {"开盘": 6.36, "收盘": 5.26, "样本": 1}, "7": {"开盘": -0.02, "收盘": -0.83, "样本": 2}, "8": {"开盘": -1.0, "收盘": -3.4, "样本": 1}, "13": {"开盘": -0.66, "收盘": 0.93, "样本": 1}, "26": {"开盘": 5.88, "收盘": 1.74, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM284"/>
+  <dimension ref="A1:DM285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89023,6 +89023,295 @@
         </is>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>20251229</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C285" t="n">
+        <v>3332</v>
+      </c>
+      <c r="D285" t="n">
+        <v>128</v>
+      </c>
+      <c r="E285" t="n">
+        <v>217</v>
+      </c>
+      <c r="F285" t="n">
+        <v>141</v>
+      </c>
+      <c r="G285" t="n">
+        <v>132</v>
+      </c>
+      <c r="H285" t="n">
+        <v>58</v>
+      </c>
+      <c r="I285" t="n">
+        <v>102</v>
+      </c>
+      <c r="J285" t="n">
+        <v>33</v>
+      </c>
+      <c r="K285" t="n">
+        <v>72</v>
+      </c>
+      <c r="L285" t="n">
+        <v>16</v>
+      </c>
+      <c r="M285" t="n">
+        <v>21</v>
+      </c>
+      <c r="N285" t="n">
+        <v>26</v>
+      </c>
+      <c r="O285" t="n">
+        <v>81</v>
+      </c>
+      <c r="P285" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="R285" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="S285" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="T285" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="U285" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="V285" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X285" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>54.32</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>49.38</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>81.48</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>54.32</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>49.38</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>-2.68</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>58.06</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>61.29</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>45.16</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>83.87</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>70.97</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>58.06</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>61.29</v>
+      </c>
+      <c r="AW285" t="inlineStr"/>
+      <c r="AX285" t="inlineStr"/>
+      <c r="AY285" t="inlineStr"/>
+      <c r="AZ285" t="inlineStr"/>
+      <c r="BA285" t="inlineStr"/>
+      <c r="BB285" t="inlineStr"/>
+      <c r="BC285" t="inlineStr"/>
+      <c r="BD285" t="inlineStr"/>
+      <c r="BE285" t="inlineStr"/>
+      <c r="BF285" t="inlineStr"/>
+      <c r="BG285" t="inlineStr"/>
+      <c r="BH285" t="inlineStr"/>
+      <c r="BI285" t="inlineStr"/>
+      <c r="BJ285" t="inlineStr"/>
+      <c r="BK285" t="inlineStr"/>
+      <c r="BL285" t="inlineStr"/>
+      <c r="BM285" t="inlineStr"/>
+      <c r="BN285" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO285" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="BP285" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="BQ285" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BR285" t="n">
+        <v>-3.25</v>
+      </c>
+      <c r="BS285" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="BT285" t="n">
+        <v>-4.61</v>
+      </c>
+      <c r="BU285" t="n">
+        <v>-6.82</v>
+      </c>
+      <c r="BV285" t="n">
+        <v>-6.42</v>
+      </c>
+      <c r="BW285" t="n">
+        <v>-8.58</v>
+      </c>
+      <c r="BX285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ285" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA285" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB285" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC285" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD285" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE285" t="n">
+        <v>19</v>
+      </c>
+      <c r="CF285" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="CG285" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="CH285" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="CI285" t="n">
+        <v>-3.86</v>
+      </c>
+      <c r="CJ285" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="CK285" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="CL285" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="CM285" t="n">
+        <v>-5.53</v>
+      </c>
+      <c r="CN285" t="n">
+        <v>-7.22</v>
+      </c>
+      <c r="CO285" t="n">
+        <v>52.63</v>
+      </c>
+      <c r="CP285" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="CQ285" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="CR285" t="n">
+        <v>78.95</v>
+      </c>
+      <c r="CS285" t="n">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="CT285" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="CU285" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV285" t="inlineStr"/>
+      <c r="CW285" t="inlineStr"/>
+      <c r="CX285" t="inlineStr"/>
+      <c r="CY285" t="inlineStr"/>
+      <c r="CZ285" t="inlineStr"/>
+      <c r="DA285" t="inlineStr"/>
+      <c r="DB285" t="inlineStr"/>
+      <c r="DC285" t="inlineStr"/>
+      <c r="DD285" t="inlineStr"/>
+      <c r="DE285" t="inlineStr"/>
+      <c r="DF285" t="inlineStr"/>
+      <c r="DG285" t="inlineStr"/>
+      <c r="DH285" t="inlineStr"/>
+      <c r="DI285" t="inlineStr"/>
+      <c r="DJ285" t="inlineStr"/>
+      <c r="DK285" t="inlineStr"/>
+      <c r="DL285" t="inlineStr"/>
+      <c r="DM285" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 1.59, "收盘": 0.61, "样本": 36}, "1": {"开盘": 0.79, "收盘": -1.62, "样本": 12}, "2": {"开盘": 3.67, "收盘": 0.68, "样本": 8}, "3": {"开盘": 1.61, "收盘": 5.08, "样本": 7}, "4": {"开盘": -2.3, "收盘": -1.59, "样本": 2}, "5": {"开盘": -2.71, "收盘": 2.72, "样本": 3}, "7": {"开盘": 3.41, "收盘": 6.38, "样本": 3}, "9": {"开盘": -0.69, "收盘": -7.07, "样本": 5}, "10": {"开盘": 0.07, "收盘": -4.22, "样本": 1}, "11": {"开盘": 0.08, "收盘": 0.74, "样本": 1}, "17": {"开盘": 3.98, "收盘": -1.22, "样本": 1}, "19": {"开盘": -5.83, "收盘": -9.99, "样本": 1}, "26": {"开盘": 0.0, "收盘": 7.78, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM285"/>
+  <dimension ref="A1:DM286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89312,6 +89312,295 @@
         </is>
       </c>
     </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>20251230</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C286" t="n">
+        <v>3481</v>
+      </c>
+      <c r="D286" t="n">
+        <v>136</v>
+      </c>
+      <c r="E286" t="n">
+        <v>199</v>
+      </c>
+      <c r="F286" t="n">
+        <v>129</v>
+      </c>
+      <c r="G286" t="n">
+        <v>115</v>
+      </c>
+      <c r="H286" t="n">
+        <v>50</v>
+      </c>
+      <c r="I286" t="n">
+        <v>84</v>
+      </c>
+      <c r="J286" t="n">
+        <v>24</v>
+      </c>
+      <c r="K286" t="n">
+        <v>54</v>
+      </c>
+      <c r="L286" t="n">
+        <v>13</v>
+      </c>
+      <c r="M286" t="n">
+        <v>21</v>
+      </c>
+      <c r="N286" t="n">
+        <v>26</v>
+      </c>
+      <c r="O286" t="n">
+        <v>72</v>
+      </c>
+      <c r="P286" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R286" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="S286" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="T286" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="U286" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="V286" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X286" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>58.57</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>48.57</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>41.43</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>92.86</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>84.29000000000001</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>58.57</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>48.57</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>60</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>80</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>75</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW286" t="inlineStr"/>
+      <c r="AX286" t="inlineStr"/>
+      <c r="AY286" t="inlineStr"/>
+      <c r="AZ286" t="inlineStr"/>
+      <c r="BA286" t="inlineStr"/>
+      <c r="BB286" t="inlineStr"/>
+      <c r="BC286" t="inlineStr"/>
+      <c r="BD286" t="inlineStr"/>
+      <c r="BE286" t="inlineStr"/>
+      <c r="BF286" t="inlineStr"/>
+      <c r="BG286" t="inlineStr"/>
+      <c r="BH286" t="inlineStr"/>
+      <c r="BI286" t="inlineStr"/>
+      <c r="BJ286" t="inlineStr"/>
+      <c r="BK286" t="inlineStr"/>
+      <c r="BL286" t="inlineStr"/>
+      <c r="BM286" t="inlineStr"/>
+      <c r="BN286" t="n">
+        <v>15</v>
+      </c>
+      <c r="BO286" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="BP286" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="BQ286" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="BR286" t="n">
+        <v>-8.15</v>
+      </c>
+      <c r="BS286" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BT286" t="n">
+        <v>-11.27</v>
+      </c>
+      <c r="BU286" t="n">
+        <v>-10.01</v>
+      </c>
+      <c r="BV286" t="n">
+        <v>-12.19</v>
+      </c>
+      <c r="BW286" t="n">
+        <v>-10.95</v>
+      </c>
+      <c r="BX286" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY286" t="n">
+        <v>20</v>
+      </c>
+      <c r="BZ286" t="n">
+        <v>40</v>
+      </c>
+      <c r="CA286" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB286" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="CC286" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD286" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="CE286" t="n">
+        <v>26</v>
+      </c>
+      <c r="CF286" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="CG286" t="n">
+        <v>-2.62</v>
+      </c>
+      <c r="CH286" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="CI286" t="n">
+        <v>-5.43</v>
+      </c>
+      <c r="CJ286" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="CK286" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="CL286" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CM286" t="n">
+        <v>-6.44</v>
+      </c>
+      <c r="CN286" t="n">
+        <v>-6.71</v>
+      </c>
+      <c r="CO286" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="CP286" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="CQ286" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="CR286" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="CS286" t="n">
+        <v>57.69</v>
+      </c>
+      <c r="CT286" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU286" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="CV286" t="inlineStr"/>
+      <c r="CW286" t="inlineStr"/>
+      <c r="CX286" t="inlineStr"/>
+      <c r="CY286" t="inlineStr"/>
+      <c r="CZ286" t="inlineStr"/>
+      <c r="DA286" t="inlineStr"/>
+      <c r="DB286" t="inlineStr"/>
+      <c r="DC286" t="inlineStr"/>
+      <c r="DD286" t="inlineStr"/>
+      <c r="DE286" t="inlineStr"/>
+      <c r="DF286" t="inlineStr"/>
+      <c r="DG286" t="inlineStr"/>
+      <c r="DH286" t="inlineStr"/>
+      <c r="DI286" t="inlineStr"/>
+      <c r="DJ286" t="inlineStr"/>
+      <c r="DK286" t="inlineStr"/>
+      <c r="DL286" t="inlineStr"/>
+      <c r="DM286" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.28, "收盘": 0.4, "样本": 34}, "1": {"开盘": 0.68, "收盘": 0.17, "样本": 12}, "2": {"开盘": 3.11, "收盘": 4.31, "样本": 6}, "3": {"开盘": 5.73, "收盘": 4.58, "样本": 2}, "4": {"开盘": 0.36, "收盘": 0.9, "样本": 3}, "5": {"开盘": 2.15, "收盘": 1.37, "样本": 3}, "6": {"开盘": -0.07, "收盘": 8.34, "样本": 2}, "9": {"开盘": -9.97, "收盘": 9.97, "样本": 1}, "10": {"开盘": -10.08, "收盘": -10.08, "样本": 1}, "11": {"开盘": 2.33, "收盘": 3.21, "样本": 2}, "12": {"开盘": -3.59, "收盘": -10.01, "样本": 1}, "15": {"开盘": 2.21, "收盘": 10.0, "样本": 1}, "17": {"开盘": -3.39, "收盘": -7.23, "样本": 1}, "19": {"开盘": -0.34, "收盘": 4.44, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM286"/>
+  <dimension ref="A1:DM287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89601,6 +89601,295 @@
         </is>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>20251231</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2474</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2776</v>
+      </c>
+      <c r="D287" t="n">
+        <v>208</v>
+      </c>
+      <c r="E287" t="n">
+        <v>220</v>
+      </c>
+      <c r="F287" t="n">
+        <v>81</v>
+      </c>
+      <c r="G287" t="n">
+        <v>132</v>
+      </c>
+      <c r="H287" t="n">
+        <v>32</v>
+      </c>
+      <c r="I287" t="n">
+        <v>86</v>
+      </c>
+      <c r="J287" t="n">
+        <v>16</v>
+      </c>
+      <c r="K287" t="n">
+        <v>57</v>
+      </c>
+      <c r="L287" t="n">
+        <v>6</v>
+      </c>
+      <c r="M287" t="n">
+        <v>17</v>
+      </c>
+      <c r="N287" t="n">
+        <v>19</v>
+      </c>
+      <c r="O287" t="n">
+        <v>54</v>
+      </c>
+      <c r="P287" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R287" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="S287" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="T287" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="U287" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="V287" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="W287" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X287" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>64.15000000000001</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>49.06</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>41.51</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>90.56999999999999</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>64.15000000000001</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>49.06</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>65</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>85</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>85</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>65</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW287" t="inlineStr"/>
+      <c r="AX287" t="inlineStr"/>
+      <c r="AY287" t="inlineStr"/>
+      <c r="AZ287" t="inlineStr"/>
+      <c r="BA287" t="inlineStr"/>
+      <c r="BB287" t="inlineStr"/>
+      <c r="BC287" t="inlineStr"/>
+      <c r="BD287" t="inlineStr"/>
+      <c r="BE287" t="inlineStr"/>
+      <c r="BF287" t="inlineStr"/>
+      <c r="BG287" t="inlineStr"/>
+      <c r="BH287" t="inlineStr"/>
+      <c r="BI287" t="inlineStr"/>
+      <c r="BJ287" t="inlineStr"/>
+      <c r="BK287" t="inlineStr"/>
+      <c r="BL287" t="inlineStr"/>
+      <c r="BM287" t="inlineStr"/>
+      <c r="BN287" t="n">
+        <v>12</v>
+      </c>
+      <c r="BO287" t="n">
+        <v>-3.26</v>
+      </c>
+      <c r="BP287" t="n">
+        <v>-4.24</v>
+      </c>
+      <c r="BQ287" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BR287" t="n">
+        <v>-7.26</v>
+      </c>
+      <c r="BS287" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="BT287" t="n">
+        <v>-6.57</v>
+      </c>
+      <c r="BU287" t="n">
+        <v>-7.54</v>
+      </c>
+      <c r="BV287" t="n">
+        <v>-7.57</v>
+      </c>
+      <c r="BW287" t="n">
+        <v>-8.550000000000001</v>
+      </c>
+      <c r="BX287" t="n">
+        <v>25</v>
+      </c>
+      <c r="BY287" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="BZ287" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="CA287" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB287" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="CC287" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD287" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="CE287" t="n">
+        <v>26</v>
+      </c>
+      <c r="CF287" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="CG287" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="CH287" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="CI287" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="CJ287" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="CK287" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="CL287" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="CM287" t="n">
+        <v>-5.56</v>
+      </c>
+      <c r="CN287" t="n">
+        <v>-3.69</v>
+      </c>
+      <c r="CO287" t="n">
+        <v>34.62</v>
+      </c>
+      <c r="CP287" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="CQ287" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="CR287" t="n">
+        <v>76.92</v>
+      </c>
+      <c r="CS287" t="n">
+        <v>76.92</v>
+      </c>
+      <c r="CT287" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU287" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="CV287" t="inlineStr"/>
+      <c r="CW287" t="inlineStr"/>
+      <c r="CX287" t="inlineStr"/>
+      <c r="CY287" t="inlineStr"/>
+      <c r="CZ287" t="inlineStr"/>
+      <c r="DA287" t="inlineStr"/>
+      <c r="DB287" t="inlineStr"/>
+      <c r="DC287" t="inlineStr"/>
+      <c r="DD287" t="inlineStr"/>
+      <c r="DE287" t="inlineStr"/>
+      <c r="DF287" t="inlineStr"/>
+      <c r="DG287" t="inlineStr"/>
+      <c r="DH287" t="inlineStr"/>
+      <c r="DI287" t="inlineStr"/>
+      <c r="DJ287" t="inlineStr"/>
+      <c r="DK287" t="inlineStr"/>
+      <c r="DL287" t="inlineStr"/>
+      <c r="DM287" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.67, "收盘": 3.02, "样本": 25}, "1": {"开盘": 0.9, "收盘": 0.69, "样本": 10}, "2": {"开盘": 3.28, "收盘": 2.99, "样本": 4}, "3": {"开盘": -0.38, "收盘": -2.45, "样本": 4}, "4": {"开盘": 0.51, "收盘": 1.9, "样本": 3}, "5": {"开盘": 0.94, "收盘": 4.04, "样本": 2}, "6": {"开盘": 0.29, "收盘": -1.39, "样本": 1}, "7": {"开盘": 5.29, "收盘": -3.46, "样本": 1}, "8": {"开盘": 10.0, "收盘": 10.0, "样本": 1}, "10": {"开盘": 6.31, "收盘": 10.04, "样本": 1}, "11": {"开盘": -0.53, "收盘": -3.63, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM287"/>
+  <dimension ref="A1:DM288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89890,6 +89890,295 @@
         </is>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>20260105</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>4185</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1168</v>
+      </c>
+      <c r="D288" t="n">
+        <v>104</v>
+      </c>
+      <c r="E288" t="n">
+        <v>518</v>
+      </c>
+      <c r="F288" t="n">
+        <v>63</v>
+      </c>
+      <c r="G288" t="n">
+        <v>283</v>
+      </c>
+      <c r="H288" t="n">
+        <v>28</v>
+      </c>
+      <c r="I288" t="n">
+        <v>185</v>
+      </c>
+      <c r="J288" t="n">
+        <v>17</v>
+      </c>
+      <c r="K288" t="n">
+        <v>108</v>
+      </c>
+      <c r="L288" t="n">
+        <v>8</v>
+      </c>
+      <c r="M288" t="n">
+        <v>18</v>
+      </c>
+      <c r="N288" t="n">
+        <v>26</v>
+      </c>
+      <c r="O288" t="n">
+        <v>57</v>
+      </c>
+      <c r="P288" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R288" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="S288" t="n">
+        <v>-2.78</v>
+      </c>
+      <c r="T288" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="U288" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="V288" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="W288" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="X288" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>56.14</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>94.73999999999999</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>92.98</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>56.14</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>-4.96</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>-2.78</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>47.06</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>52.94</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>47.06</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>52.94</v>
+      </c>
+      <c r="AW288" t="inlineStr"/>
+      <c r="AX288" t="inlineStr"/>
+      <c r="AY288" t="inlineStr"/>
+      <c r="AZ288" t="inlineStr"/>
+      <c r="BA288" t="inlineStr"/>
+      <c r="BB288" t="inlineStr"/>
+      <c r="BC288" t="inlineStr"/>
+      <c r="BD288" t="inlineStr"/>
+      <c r="BE288" t="inlineStr"/>
+      <c r="BF288" t="inlineStr"/>
+      <c r="BG288" t="inlineStr"/>
+      <c r="BH288" t="inlineStr"/>
+      <c r="BI288" t="inlineStr"/>
+      <c r="BJ288" t="inlineStr"/>
+      <c r="BK288" t="inlineStr"/>
+      <c r="BL288" t="inlineStr"/>
+      <c r="BM288" t="inlineStr"/>
+      <c r="BN288" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO288" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="BP288" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="BQ288" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BR288" t="n">
+        <v>-5.52</v>
+      </c>
+      <c r="BS288" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BT288" t="n">
+        <v>-9.369999999999999</v>
+      </c>
+      <c r="BU288" t="n">
+        <v>-7.88</v>
+      </c>
+      <c r="BV288" t="n">
+        <v>-11.25</v>
+      </c>
+      <c r="BW288" t="n">
+        <v>-9.779999999999999</v>
+      </c>
+      <c r="BX288" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="BY288" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BZ288" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CA288" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB288" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="CC288" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD288" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="CE288" t="n">
+        <v>19</v>
+      </c>
+      <c r="CF288" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="CG288" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="CH288" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="CI288" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="CJ288" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="CK288" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="CL288" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="CM288" t="n">
+        <v>-4.77</v>
+      </c>
+      <c r="CN288" t="n">
+        <v>-4.39</v>
+      </c>
+      <c r="CO288" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="CP288" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="CQ288" t="n">
+        <v>52.63</v>
+      </c>
+      <c r="CR288" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="CS288" t="n">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="CT288" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="CU288" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="CV288" t="inlineStr"/>
+      <c r="CW288" t="inlineStr"/>
+      <c r="CX288" t="inlineStr"/>
+      <c r="CY288" t="inlineStr"/>
+      <c r="CZ288" t="inlineStr"/>
+      <c r="DA288" t="inlineStr"/>
+      <c r="DB288" t="inlineStr"/>
+      <c r="DC288" t="inlineStr"/>
+      <c r="DD288" t="inlineStr"/>
+      <c r="DE288" t="inlineStr"/>
+      <c r="DF288" t="inlineStr"/>
+      <c r="DG288" t="inlineStr"/>
+      <c r="DH288" t="inlineStr"/>
+      <c r="DI288" t="inlineStr"/>
+      <c r="DJ288" t="inlineStr"/>
+      <c r="DK288" t="inlineStr"/>
+      <c r="DL288" t="inlineStr"/>
+      <c r="DM288" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.08, "收盘": 2.98, "样本": 36}, "1": {"开盘": 4.4, "收盘": 7.75, "样本": 3}, "2": {"开盘": 2.34, "收盘": 1.59, "样本": 5}, "3": {"开盘": -1.06, "收盘": -7.32, "样本": 2}, "4": {"开盘": 2.64, "收盘": 2.77, "样本": 5}, "5": {"开盘": 0.01, "收盘": 0.96, "样本": 2}, "6": {"开盘": -2.39, "收盘": -9.99, "样本": 1}, "7": {"开盘": -8.29, "收盘": -9.99, "样本": 1}, "8": {"开盘": 5.14, "收盘": -9.99, "样本": 1}, "9": {"开盘": -1.4, "收盘": 6.03, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM288"/>
+  <dimension ref="A1:DM289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90179,6 +90179,295 @@
         </is>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>20260106</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>4108</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D289" t="n">
+        <v>129</v>
+      </c>
+      <c r="E289" t="n">
+        <v>395</v>
+      </c>
+      <c r="F289" t="n">
+        <v>28</v>
+      </c>
+      <c r="G289" t="n">
+        <v>224</v>
+      </c>
+      <c r="H289" t="n">
+        <v>8</v>
+      </c>
+      <c r="I289" t="n">
+        <v>162</v>
+      </c>
+      <c r="J289" t="n">
+        <v>3</v>
+      </c>
+      <c r="K289" t="n">
+        <v>120</v>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="n">
+        <v>47</v>
+      </c>
+      <c r="N289" t="n">
+        <v>25</v>
+      </c>
+      <c r="O289" t="n">
+        <v>108</v>
+      </c>
+      <c r="P289" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="R289" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="S289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T289" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U289" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="V289" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="W289" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="X289" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>80.56</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>82.41</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>97.22</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>80.56</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>82.41</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="AW289" t="inlineStr"/>
+      <c r="AX289" t="inlineStr"/>
+      <c r="AY289" t="inlineStr"/>
+      <c r="AZ289" t="inlineStr"/>
+      <c r="BA289" t="inlineStr"/>
+      <c r="BB289" t="inlineStr"/>
+      <c r="BC289" t="inlineStr"/>
+      <c r="BD289" t="inlineStr"/>
+      <c r="BE289" t="inlineStr"/>
+      <c r="BF289" t="inlineStr"/>
+      <c r="BG289" t="inlineStr"/>
+      <c r="BH289" t="inlineStr"/>
+      <c r="BI289" t="inlineStr"/>
+      <c r="BJ289" t="inlineStr"/>
+      <c r="BK289" t="inlineStr"/>
+      <c r="BL289" t="inlineStr"/>
+      <c r="BM289" t="inlineStr"/>
+      <c r="BN289" t="n">
+        <v>8</v>
+      </c>
+      <c r="BO289" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="BP289" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="BQ289" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BR289" t="n">
+        <v>-5.67</v>
+      </c>
+      <c r="BS289" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BT289" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="BU289" t="n">
+        <v>-7.25</v>
+      </c>
+      <c r="BV289" t="n">
+        <v>-11.14</v>
+      </c>
+      <c r="BW289" t="n">
+        <v>-8.85</v>
+      </c>
+      <c r="BX289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY289" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BZ289" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="CA289" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB289" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC289" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD289" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE289" t="n">
+        <v>26</v>
+      </c>
+      <c r="CF289" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="CG289" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="CH289" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="CI289" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="CJ289" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="CK289" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="CL289" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="CM289" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="CN289" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="CO289" t="n">
+        <v>34.62</v>
+      </c>
+      <c r="CP289" t="n">
+        <v>57.69</v>
+      </c>
+      <c r="CQ289" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="CR289" t="n">
+        <v>73.08</v>
+      </c>
+      <c r="CS289" t="n">
+        <v>80.77</v>
+      </c>
+      <c r="CT289" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="CU289" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="CV289" t="inlineStr"/>
+      <c r="CW289" t="inlineStr"/>
+      <c r="CX289" t="inlineStr"/>
+      <c r="CY289" t="inlineStr"/>
+      <c r="CZ289" t="inlineStr"/>
+      <c r="DA289" t="inlineStr"/>
+      <c r="DB289" t="inlineStr"/>
+      <c r="DC289" t="inlineStr"/>
+      <c r="DD289" t="inlineStr"/>
+      <c r="DE289" t="inlineStr"/>
+      <c r="DF289" t="inlineStr"/>
+      <c r="DG289" t="inlineStr"/>
+      <c r="DH289" t="inlineStr"/>
+      <c r="DI289" t="inlineStr"/>
+      <c r="DJ289" t="inlineStr"/>
+      <c r="DK289" t="inlineStr"/>
+      <c r="DL289" t="inlineStr"/>
+      <c r="DM289" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 5.27, "收盘": 6.48, "样本": 55}, "1": {"开盘": 3.43, "收盘": 6.07, "样本": 22}, "2": {"开盘": 3.18, "收盘": 2.9, "样本": 5}, "3": {"开盘": 4.32, "收盘": 5.8, "样本": 14}, "4": {"开盘": 4.25, "收盘": 8.86, "样本": 6}, "5": {"开盘": 0.0, "收盘": 7.11, "样本": 1}, "6": {"开盘": -0.22, "收盘": 2.48, "样本": 1}, "7": {"开盘": 5.36, "收盘": 9.99, "样本": 1}, "8": {"开盘": 0.0, "收盘": -3.64, "样本": 1}, "10": {"开盘": 13.99, "收盘": 20.0, "样本": 1}, "12": {"开盘": 2.28, "收盘": 0.55, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM289"/>
+  <dimension ref="A1:DM290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90468,6 +90468,295 @@
         </is>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>20260107</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2173</v>
+      </c>
+      <c r="C290" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D290" t="n">
+        <v>97</v>
+      </c>
+      <c r="E290" t="n">
+        <v>337</v>
+      </c>
+      <c r="F290" t="n">
+        <v>66</v>
+      </c>
+      <c r="G290" t="n">
+        <v>195</v>
+      </c>
+      <c r="H290" t="n">
+        <v>23</v>
+      </c>
+      <c r="I290" t="n">
+        <v>130</v>
+      </c>
+      <c r="J290" t="n">
+        <v>13</v>
+      </c>
+      <c r="K290" t="n">
+        <v>80</v>
+      </c>
+      <c r="L290" t="n">
+        <v>3</v>
+      </c>
+      <c r="M290" t="n">
+        <v>25</v>
+      </c>
+      <c r="N290" t="n">
+        <v>44</v>
+      </c>
+      <c r="O290" t="n">
+        <v>120</v>
+      </c>
+      <c r="P290" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R290" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="S290" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="T290" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="U290" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="V290" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="W290" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X290" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>97.45999999999999</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>47</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>71.11</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>57.78</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>71.11</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>57.78</v>
+      </c>
+      <c r="AW290" t="inlineStr"/>
+      <c r="AX290" t="inlineStr"/>
+      <c r="AY290" t="inlineStr"/>
+      <c r="AZ290" t="inlineStr"/>
+      <c r="BA290" t="inlineStr"/>
+      <c r="BB290" t="inlineStr"/>
+      <c r="BC290" t="inlineStr"/>
+      <c r="BD290" t="inlineStr"/>
+      <c r="BE290" t="inlineStr"/>
+      <c r="BF290" t="inlineStr"/>
+      <c r="BG290" t="inlineStr"/>
+      <c r="BH290" t="inlineStr"/>
+      <c r="BI290" t="inlineStr"/>
+      <c r="BJ290" t="inlineStr"/>
+      <c r="BK290" t="inlineStr"/>
+      <c r="BL290" t="inlineStr"/>
+      <c r="BM290" t="inlineStr"/>
+      <c r="BN290" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO290" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="BP290" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="BQ290" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BR290" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="BS290" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="BT290" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="BU290" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="BV290" t="n">
+        <v>-4.62</v>
+      </c>
+      <c r="BW290" t="n">
+        <v>-5.79</v>
+      </c>
+      <c r="BX290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ290" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA290" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB290" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC290" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD290" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE290" t="n">
+        <v>25</v>
+      </c>
+      <c r="CF290" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="CG290" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="CH290" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="CI290" t="n">
+        <v>-3.61</v>
+      </c>
+      <c r="CJ290" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="CK290" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="CL290" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="CM290" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="CN290" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="CO290" t="n">
+        <v>20</v>
+      </c>
+      <c r="CP290" t="n">
+        <v>32</v>
+      </c>
+      <c r="CQ290" t="n">
+        <v>48</v>
+      </c>
+      <c r="CR290" t="n">
+        <v>76</v>
+      </c>
+      <c r="CS290" t="n">
+        <v>88</v>
+      </c>
+      <c r="CT290" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU290" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV290" t="inlineStr"/>
+      <c r="CW290" t="inlineStr"/>
+      <c r="CX290" t="inlineStr"/>
+      <c r="CY290" t="inlineStr"/>
+      <c r="CZ290" t="inlineStr"/>
+      <c r="DA290" t="inlineStr"/>
+      <c r="DB290" t="inlineStr"/>
+      <c r="DC290" t="inlineStr"/>
+      <c r="DD290" t="inlineStr"/>
+      <c r="DE290" t="inlineStr"/>
+      <c r="DF290" t="inlineStr"/>
+      <c r="DG290" t="inlineStr"/>
+      <c r="DH290" t="inlineStr"/>
+      <c r="DI290" t="inlineStr"/>
+      <c r="DJ290" t="inlineStr"/>
+      <c r="DK290" t="inlineStr"/>
+      <c r="DL290" t="inlineStr"/>
+      <c r="DM290" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.53, "收盘": 2.06, "样本": 63}, "1": {"开盘": 1.93, "收盘": 0.61, "样本": 17}, "2": {"开盘": 3.17, "收盘": 3.12, "样本": 10}, "3": {"开盘": -1.05, "收盘": -1.71, "样本": 10}, "4": {"开盘": 2.22, "收盘": -0.34, "样本": 6}, "5": {"开盘": -3.65, "收盘": -4.32, "样本": 2}, "7": {"开盘": -1.61, "收盘": -4.8, "样本": 2}, "8": {"开盘": -1.0, "收盘": 0.65, "样本": 1}, "9": {"开盘": -5.3, "收盘": -4.85, "样本": 1}, "10": {"开盘": 2.41, "收盘": 1.59, "样本": 1}, "11": {"开盘": 5.81, "收盘": 9.99, "样本": 1}, "12": {"开盘": 1.79, "收盘": -4.04, "样本": 1}, "14": {"开盘": -1.25, "收盘": -3.56, "样本": 2}, "19": {"开盘": 0.49, "收盘": 10.02, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM290"/>
+  <dimension ref="A1:DM291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90757,6 +90757,295 @@
         </is>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>20260108</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>3731</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1595</v>
+      </c>
+      <c r="D291" t="n">
+        <v>133</v>
+      </c>
+      <c r="E291" t="n">
+        <v>388</v>
+      </c>
+      <c r="F291" t="n">
+        <v>43</v>
+      </c>
+      <c r="G291" t="n">
+        <v>194</v>
+      </c>
+      <c r="H291" t="n">
+        <v>13</v>
+      </c>
+      <c r="I291" t="n">
+        <v>136</v>
+      </c>
+      <c r="J291" t="n">
+        <v>6</v>
+      </c>
+      <c r="K291" t="n">
+        <v>92</v>
+      </c>
+      <c r="L291" t="n">
+        <v>3</v>
+      </c>
+      <c r="M291" t="n">
+        <v>35</v>
+      </c>
+      <c r="N291" t="n">
+        <v>29</v>
+      </c>
+      <c r="O291" t="n">
+        <v>80</v>
+      </c>
+      <c r="P291" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R291" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="S291" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="T291" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="U291" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="V291" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="W291" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="X291" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>98.75</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>96.25</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>72</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>92</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>96</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>92</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>72</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>92</v>
+      </c>
+      <c r="AW291" t="inlineStr"/>
+      <c r="AX291" t="inlineStr"/>
+      <c r="AY291" t="inlineStr"/>
+      <c r="AZ291" t="inlineStr"/>
+      <c r="BA291" t="inlineStr"/>
+      <c r="BB291" t="inlineStr"/>
+      <c r="BC291" t="inlineStr"/>
+      <c r="BD291" t="inlineStr"/>
+      <c r="BE291" t="inlineStr"/>
+      <c r="BF291" t="inlineStr"/>
+      <c r="BG291" t="inlineStr"/>
+      <c r="BH291" t="inlineStr"/>
+      <c r="BI291" t="inlineStr"/>
+      <c r="BJ291" t="inlineStr"/>
+      <c r="BK291" t="inlineStr"/>
+      <c r="BL291" t="inlineStr"/>
+      <c r="BM291" t="inlineStr"/>
+      <c r="BN291" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO291" t="n">
+        <v>-7.07</v>
+      </c>
+      <c r="BP291" t="n">
+        <v>-5.39</v>
+      </c>
+      <c r="BQ291" t="n">
+        <v>-3.23</v>
+      </c>
+      <c r="BR291" t="n">
+        <v>-10.15</v>
+      </c>
+      <c r="BS291" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BT291" t="n">
+        <v>-7.07</v>
+      </c>
+      <c r="BU291" t="n">
+        <v>-5.39</v>
+      </c>
+      <c r="BV291" t="n">
+        <v>-10.71</v>
+      </c>
+      <c r="BW291" t="n">
+        <v>-9.15</v>
+      </c>
+      <c r="BX291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ291" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CA291" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB291" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC291" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD291" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE291" t="n">
+        <v>44</v>
+      </c>
+      <c r="CF291" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="CG291" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="CH291" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="CI291" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="CJ291" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="CK291" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="CL291" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="CM291" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="CN291" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="CO291" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="CP291" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="CQ291" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="CR291" t="n">
+        <v>77.27</v>
+      </c>
+      <c r="CS291" t="n">
+        <v>79.55</v>
+      </c>
+      <c r="CT291" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="CU291" t="n">
+        <v>25</v>
+      </c>
+      <c r="CV291" t="inlineStr"/>
+      <c r="CW291" t="inlineStr"/>
+      <c r="CX291" t="inlineStr"/>
+      <c r="CY291" t="inlineStr"/>
+      <c r="CZ291" t="inlineStr"/>
+      <c r="DA291" t="inlineStr"/>
+      <c r="DB291" t="inlineStr"/>
+      <c r="DC291" t="inlineStr"/>
+      <c r="DD291" t="inlineStr"/>
+      <c r="DE291" t="inlineStr"/>
+      <c r="DF291" t="inlineStr"/>
+      <c r="DG291" t="inlineStr"/>
+      <c r="DH291" t="inlineStr"/>
+      <c r="DI291" t="inlineStr"/>
+      <c r="DJ291" t="inlineStr"/>
+      <c r="DK291" t="inlineStr"/>
+      <c r="DL291" t="inlineStr"/>
+      <c r="DM291" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 4.56, "收盘": 3.37, "样本": 40}, "1": {"开盘": -0.32, "收盘": 3.83, "样本": 9}, "2": {"开盘": 1.86, "收盘": 6.21, "样本": 10}, "3": {"开盘": 16.72, "收盘": 19.98, "样本": 1}, "4": {"开盘": 9.07, "收盘": 16.67, "样本": 3}, "5": {"开盘": 1.57, "收盘": 1.71, "样本": 4}, "6": {"开盘": 3.3, "收盘": -0.74, "样本": 3}, "8": {"开盘": 1.55, "收盘": 4.11, "样本": 3}, "9": {"开盘": 0.79, "收盘": 5.07, "样本": 2}, "10": {"开盘": 0.03, "收盘": 1.25, "样本": 2}, "16": {"开盘": 2.98, "收盘": 6.21, "样本": 2}, "35": {"开盘": 1.82, "收盘": 2.82, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM291"/>
+  <dimension ref="A1:DM292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91046,6 +91046,295 @@
         </is>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>20260109</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>3920</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1349</v>
+      </c>
+      <c r="D292" t="n">
+        <v>190</v>
+      </c>
+      <c r="E292" t="n">
+        <v>477</v>
+      </c>
+      <c r="F292" t="n">
+        <v>37</v>
+      </c>
+      <c r="G292" t="n">
+        <v>268</v>
+      </c>
+      <c r="H292" t="n">
+        <v>11</v>
+      </c>
+      <c r="I292" t="n">
+        <v>168</v>
+      </c>
+      <c r="J292" t="n">
+        <v>5</v>
+      </c>
+      <c r="K292" t="n">
+        <v>94</v>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="n">
+        <v>22</v>
+      </c>
+      <c r="N292" t="n">
+        <v>46</v>
+      </c>
+      <c r="O292" t="n">
+        <v>92</v>
+      </c>
+      <c r="P292" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="R292" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="S292" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="T292" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="U292" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="V292" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="W292" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="X292" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>67.03</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>64.84</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>67.03</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>64.84</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>68.56999999999999</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>97.14</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>68.56999999999999</v>
+      </c>
+      <c r="AW292" t="inlineStr"/>
+      <c r="AX292" t="inlineStr"/>
+      <c r="AY292" t="inlineStr"/>
+      <c r="AZ292" t="inlineStr"/>
+      <c r="BA292" t="inlineStr"/>
+      <c r="BB292" t="inlineStr"/>
+      <c r="BC292" t="inlineStr"/>
+      <c r="BD292" t="inlineStr"/>
+      <c r="BE292" t="inlineStr"/>
+      <c r="BF292" t="inlineStr"/>
+      <c r="BG292" t="inlineStr"/>
+      <c r="BH292" t="inlineStr"/>
+      <c r="BI292" t="inlineStr"/>
+      <c r="BJ292" t="inlineStr"/>
+      <c r="BK292" t="inlineStr"/>
+      <c r="BL292" t="inlineStr"/>
+      <c r="BM292" t="inlineStr"/>
+      <c r="BN292" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO292" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="BP292" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="BQ292" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BR292" t="n">
+        <v>-3.88</v>
+      </c>
+      <c r="BS292" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BT292" t="n">
+        <v>-5.39</v>
+      </c>
+      <c r="BU292" t="n">
+        <v>-3.55</v>
+      </c>
+      <c r="BV292" t="n">
+        <v>-7.11</v>
+      </c>
+      <c r="BW292" t="n">
+        <v>-5.28</v>
+      </c>
+      <c r="BX292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY292" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BZ292" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CA292" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB292" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC292" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD292" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE292" t="n">
+        <v>29</v>
+      </c>
+      <c r="CF292" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="CG292" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="CH292" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="CI292" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="CJ292" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="CK292" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="CL292" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="CM292" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="CN292" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="CO292" t="n">
+        <v>34.48</v>
+      </c>
+      <c r="CP292" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="CQ292" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="CR292" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="CS292" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="CT292" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="CU292" t="n">
+        <v>41.38</v>
+      </c>
+      <c r="CV292" t="inlineStr"/>
+      <c r="CW292" t="inlineStr"/>
+      <c r="CX292" t="inlineStr"/>
+      <c r="CY292" t="inlineStr"/>
+      <c r="CZ292" t="inlineStr"/>
+      <c r="DA292" t="inlineStr"/>
+      <c r="DB292" t="inlineStr"/>
+      <c r="DC292" t="inlineStr"/>
+      <c r="DD292" t="inlineStr"/>
+      <c r="DE292" t="inlineStr"/>
+      <c r="DF292" t="inlineStr"/>
+      <c r="DG292" t="inlineStr"/>
+      <c r="DH292" t="inlineStr"/>
+      <c r="DI292" t="inlineStr"/>
+      <c r="DJ292" t="inlineStr"/>
+      <c r="DK292" t="inlineStr"/>
+      <c r="DL292" t="inlineStr"/>
+      <c r="DM292" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 4.29, "收盘": 3.8, "样本": 49}, "1": {"开盘": 5.12, "收盘": 4.13, "样本": 6}, "2": {"开盘": 1.25, "收盘": -0.6, "样本": 11}, "3": {"开盘": 3.88, "收盘": 3.86, "样本": 6}, "4": {"开盘": 2.25, "收盘": 3.8, "样本": 7}, "5": {"开盘": 3.42, "收盘": 0.02, "样本": 2}, "6": {"开盘": 2.87, "收盘": 3.93, "样本": 3}, "8": {"开盘": 2.3, "收盘": -2.0, "样本": 1}, "9": {"开盘": -0.24, "收盘": 2.39, "样本": 1}, "11": {"开盘": 1.64, "收盘": -1.6, "样本": 1}, "15": {"开盘": 6.37, "收盘": 4.4, "样本": 1}, "18": {"开盘": 3.37, "收盘": 7.09, "样本": 1}, "47": {"开盘": -0.23, "收盘": 1.57, "样本": 1}, "52": {"开盘": -0.98, "收盘": -2.44, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM292"/>
+  <dimension ref="A1:DM293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91335,6 +91335,295 @@
         </is>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>20260112</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>4144</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1182</v>
+      </c>
+      <c r="D293" t="n">
+        <v>133</v>
+      </c>
+      <c r="E293" t="n">
+        <v>863</v>
+      </c>
+      <c r="F293" t="n">
+        <v>36</v>
+      </c>
+      <c r="G293" t="n">
+        <v>520</v>
+      </c>
+      <c r="H293" t="n">
+        <v>12</v>
+      </c>
+      <c r="I293" t="n">
+        <v>358</v>
+      </c>
+      <c r="J293" t="n">
+        <v>7</v>
+      </c>
+      <c r="K293" t="n">
+        <v>183</v>
+      </c>
+      <c r="L293" t="n">
+        <v>3</v>
+      </c>
+      <c r="M293" t="n">
+        <v>56</v>
+      </c>
+      <c r="N293" t="n">
+        <v>48</v>
+      </c>
+      <c r="O293" t="n">
+        <v>94</v>
+      </c>
+      <c r="P293" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="R293" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="S293" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="T293" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U293" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="V293" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="W293" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="X293" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>90.43000000000001</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>96.81</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>98.94</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>90.43000000000001</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>86.36</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>95.45</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>86.36</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>95.45</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>86.36</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>95.45</v>
+      </c>
+      <c r="AW293" t="inlineStr"/>
+      <c r="AX293" t="inlineStr"/>
+      <c r="AY293" t="inlineStr"/>
+      <c r="AZ293" t="inlineStr"/>
+      <c r="BA293" t="inlineStr"/>
+      <c r="BB293" t="inlineStr"/>
+      <c r="BC293" t="inlineStr"/>
+      <c r="BD293" t="inlineStr"/>
+      <c r="BE293" t="inlineStr"/>
+      <c r="BF293" t="inlineStr"/>
+      <c r="BG293" t="inlineStr"/>
+      <c r="BH293" t="inlineStr"/>
+      <c r="BI293" t="inlineStr"/>
+      <c r="BJ293" t="inlineStr"/>
+      <c r="BK293" t="inlineStr"/>
+      <c r="BL293" t="inlineStr"/>
+      <c r="BM293" t="inlineStr"/>
+      <c r="BN293" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO293" t="n">
+        <v>-4.69</v>
+      </c>
+      <c r="BP293" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="BQ293" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR293" t="n">
+        <v>-6.25</v>
+      </c>
+      <c r="BS293" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BT293" t="n">
+        <v>-14.29</v>
+      </c>
+      <c r="BU293" t="n">
+        <v>-12.41</v>
+      </c>
+      <c r="BV293" t="n">
+        <v>-14.29</v>
+      </c>
+      <c r="BW293" t="n">
+        <v>-12.41</v>
+      </c>
+      <c r="BX293" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY293" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ293" t="n">
+        <v>100</v>
+      </c>
+      <c r="CA293" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB293" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC293" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD293" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE293" t="n">
+        <v>46</v>
+      </c>
+      <c r="CF293" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="CG293" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="CH293" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="CI293" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="CJ293" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="CK293" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="CL293" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="CM293" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="CN293" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="CO293" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="CP293" t="n">
+        <v>76.09</v>
+      </c>
+      <c r="CQ293" t="n">
+        <v>76.09</v>
+      </c>
+      <c r="CR293" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="CS293" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="CT293" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="CU293" t="n">
+        <v>52.17</v>
+      </c>
+      <c r="CV293" t="inlineStr"/>
+      <c r="CW293" t="inlineStr"/>
+      <c r="CX293" t="inlineStr"/>
+      <c r="CY293" t="inlineStr"/>
+      <c r="CZ293" t="inlineStr"/>
+      <c r="DA293" t="inlineStr"/>
+      <c r="DB293" t="inlineStr"/>
+      <c r="DC293" t="inlineStr"/>
+      <c r="DD293" t="inlineStr"/>
+      <c r="DE293" t="inlineStr"/>
+      <c r="DF293" t="inlineStr"/>
+      <c r="DG293" t="inlineStr"/>
+      <c r="DH293" t="inlineStr"/>
+      <c r="DI293" t="inlineStr"/>
+      <c r="DJ293" t="inlineStr"/>
+      <c r="DK293" t="inlineStr"/>
+      <c r="DL293" t="inlineStr"/>
+      <c r="DM293" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 5.55, "收盘": 5.35, "样本": 44}, "1": {"开盘": 6.26, "收盘": 6.95, "样本": 13}, "2": {"开盘": 8.31, "收盘": 11.48, "样本": 9}, "3": {"开盘": 6.09, "收盘": 13.33, "样本": 3}, "4": {"开盘": 10.5, "收盘": 14.25, "样本": 2}, "5": {"开盘": 4.99, "收盘": 7.4, "样本": 8}, "6": {"开盘": 4.66, "收盘": 15.0, "样本": 2}, "8": {"开盘": 2.4, "收盘": 1.85, "样本": 2}, "9": {"开盘": 4.96, "收盘": 7.24, "样本": 3}, "12": {"开盘": 4.95, "收盘": 5.57, "样本": 3}, "13": {"开盘": 7.19, "收盘": 10.0, "样本": 1}, "15": {"开盘": 6.8, "收盘": 10.03, "样本": 1}, "18": {"开盘": 2.98, "收盘": 5.47, "样本": 1}, "34": {"开盘": 4.11, "收盘": 5.34, "样本": 1}, "46": {"开盘": -0.85, "收盘": 2.56, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM293"/>
+  <dimension ref="A1:DM294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91624,6 +91624,295 @@
         </is>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>20260113</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1622</v>
+      </c>
+      <c r="C294" t="n">
+        <v>3729</v>
+      </c>
+      <c r="D294" t="n">
+        <v>101</v>
+      </c>
+      <c r="E294" t="n">
+        <v>231</v>
+      </c>
+      <c r="F294" t="n">
+        <v>530</v>
+      </c>
+      <c r="G294" t="n">
+        <v>142</v>
+      </c>
+      <c r="H294" t="n">
+        <v>252</v>
+      </c>
+      <c r="I294" t="n">
+        <v>110</v>
+      </c>
+      <c r="J294" t="n">
+        <v>146</v>
+      </c>
+      <c r="K294" t="n">
+        <v>66</v>
+      </c>
+      <c r="L294" t="n">
+        <v>49</v>
+      </c>
+      <c r="M294" t="n">
+        <v>30</v>
+      </c>
+      <c r="N294" t="n">
+        <v>62</v>
+      </c>
+      <c r="O294" t="n">
+        <v>183</v>
+      </c>
+      <c r="P294" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="R294" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="S294" t="n">
+        <v>-2.81</v>
+      </c>
+      <c r="T294" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="U294" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="V294" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="W294" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="X294" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>86.11</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>52.22</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>98.89</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>84.44</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>86.11</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>52.22</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>-2.43</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>-4.87</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>56.36</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>98.18000000000001</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>69.09</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>56.36</v>
+      </c>
+      <c r="AW294" t="inlineStr"/>
+      <c r="AX294" t="inlineStr"/>
+      <c r="AY294" t="inlineStr"/>
+      <c r="AZ294" t="inlineStr"/>
+      <c r="BA294" t="inlineStr"/>
+      <c r="BB294" t="inlineStr"/>
+      <c r="BC294" t="inlineStr"/>
+      <c r="BD294" t="inlineStr"/>
+      <c r="BE294" t="inlineStr"/>
+      <c r="BF294" t="inlineStr"/>
+      <c r="BG294" t="inlineStr"/>
+      <c r="BH294" t="inlineStr"/>
+      <c r="BI294" t="inlineStr"/>
+      <c r="BJ294" t="inlineStr"/>
+      <c r="BK294" t="inlineStr"/>
+      <c r="BL294" t="inlineStr"/>
+      <c r="BM294" t="inlineStr"/>
+      <c r="BN294" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO294" t="n">
+        <v>-6.56</v>
+      </c>
+      <c r="BP294" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="BQ294" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="BR294" t="n">
+        <v>-7.01</v>
+      </c>
+      <c r="BS294" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BT294" t="n">
+        <v>-9.16</v>
+      </c>
+      <c r="BU294" t="n">
+        <v>-7.63</v>
+      </c>
+      <c r="BV294" t="n">
+        <v>-9.609999999999999</v>
+      </c>
+      <c r="BW294" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="BX294" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BY294" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BZ294" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CA294" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB294" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC294" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD294" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE294" t="n">
+        <v>48</v>
+      </c>
+      <c r="CF294" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="CG294" t="n">
+        <v>-3.86</v>
+      </c>
+      <c r="CH294" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="CI294" t="n">
+        <v>-5.65</v>
+      </c>
+      <c r="CJ294" t="n">
+        <v>-3.53</v>
+      </c>
+      <c r="CK294" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="CL294" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="CM294" t="n">
+        <v>-3.11</v>
+      </c>
+      <c r="CN294" t="n">
+        <v>-6.53</v>
+      </c>
+      <c r="CO294" t="n">
+        <v>40.43</v>
+      </c>
+      <c r="CP294" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="CQ294" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="CR294" t="n">
+        <v>89.36</v>
+      </c>
+      <c r="CS294" t="n">
+        <v>57.45</v>
+      </c>
+      <c r="CT294" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="CU294" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="CV294" t="inlineStr"/>
+      <c r="CW294" t="inlineStr"/>
+      <c r="CX294" t="inlineStr"/>
+      <c r="CY294" t="inlineStr"/>
+      <c r="CZ294" t="inlineStr"/>
+      <c r="DA294" t="inlineStr"/>
+      <c r="DB294" t="inlineStr"/>
+      <c r="DC294" t="inlineStr"/>
+      <c r="DD294" t="inlineStr"/>
+      <c r="DE294" t="inlineStr"/>
+      <c r="DF294" t="inlineStr"/>
+      <c r="DG294" t="inlineStr"/>
+      <c r="DH294" t="inlineStr"/>
+      <c r="DI294" t="inlineStr"/>
+      <c r="DJ294" t="inlineStr"/>
+      <c r="DK294" t="inlineStr"/>
+      <c r="DL294" t="inlineStr"/>
+      <c r="DM294" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 6.63, "收盘": 3.52, "样本": 70}, "1": {"开盘": 8.53, "收盘": 2.58, "样本": 21}, "2": {"开盘": 5.27, "收盘": 0.13, "样本": 17}, "3": {"开盘": 3.74, "收盘": -2.24, "样本": 15}, "4": {"开盘": 2.98, "收盘": -0.7, "样本": 13}, "5": {"开盘": 8.03, "收盘": 0.42, "样本": 5}, "6": {"开盘": 2.28, "收盘": -1.81, "样本": 4}, "7": {"开盘": 4.96, "收盘": -2.36, "样本": 2}, "8": {"开盘": 7.85, "收盘": 2.58, "样本": 2}, "9": {"开盘": 3.75, "收盘": -2.08, "样本": 4}, "10": {"开盘": 4.49, "收盘": -0.43, "样本": 6}, "11": {"开盘": 4.01, "收盘": -1.26, "样本": 2}, "12": {"开盘": -1.86, "收盘": -10.0, "样本": 2}, "13": {"开盘": 1.27, "收盘": -3.98, "样本": 2}, "14": {"开盘": 9.12, "收盘": 1.12, "样本": 1}, "15": {"开盘": 2.96, "收盘": 1.2, "样本": 2}, "16": {"开盘": 0.72, "收盘": 4.33, "样本": 1}, "17": {"开盘": -0.99, "收盘": -9.77, "样本": 2}, "18": {"开盘": 0.29, "收盘": 1.46, "样本": 2}, "19": {"开盘": -0.45, "收盘": -1.45, "样本": 1}, "20": {"开盘": 2.02, "收盘": -4.12, "样本": 2}, "21": {"开盘": -0.02, "收盘": -10.0, "样本": 1}, "23": {"开盘": 2.29, "收盘": 8.58, "样本": 1}, "25": {"开盘": 0.75, "收盘": -2.55, "样本": 1}, "53": {"开盘": 9.69, "收盘": 0.09, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM294"/>
+  <dimension ref="A1:DM295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91913,6 +91913,295 @@
         </is>
       </c>
     </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>20260114</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2747</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2592</v>
+      </c>
+      <c r="D295" t="n">
+        <v>115</v>
+      </c>
+      <c r="E295" t="n">
+        <v>407</v>
+      </c>
+      <c r="F295" t="n">
+        <v>74</v>
+      </c>
+      <c r="G295" t="n">
+        <v>253</v>
+      </c>
+      <c r="H295" t="n">
+        <v>36</v>
+      </c>
+      <c r="I295" t="n">
+        <v>175</v>
+      </c>
+      <c r="J295" t="n">
+        <v>25</v>
+      </c>
+      <c r="K295" t="n">
+        <v>102</v>
+      </c>
+      <c r="L295" t="n">
+        <v>14</v>
+      </c>
+      <c r="M295" t="n">
+        <v>37</v>
+      </c>
+      <c r="N295" t="n">
+        <v>59</v>
+      </c>
+      <c r="O295" t="n">
+        <v>66</v>
+      </c>
+      <c r="P295" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="R295" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="S295" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="T295" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U295" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="V295" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="W295" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="X295" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>49.23</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>72.31</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>63.08</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>93.84999999999999</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>49.23</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>72.31</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>-2.16</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>48.28</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>68.97</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>62.07</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>89.66</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>48.28</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>82.76000000000001</v>
+      </c>
+      <c r="AW295" t="inlineStr"/>
+      <c r="AX295" t="inlineStr"/>
+      <c r="AY295" t="inlineStr"/>
+      <c r="AZ295" t="inlineStr"/>
+      <c r="BA295" t="inlineStr"/>
+      <c r="BB295" t="inlineStr"/>
+      <c r="BC295" t="inlineStr"/>
+      <c r="BD295" t="inlineStr"/>
+      <c r="BE295" t="inlineStr"/>
+      <c r="BF295" t="inlineStr"/>
+      <c r="BG295" t="inlineStr"/>
+      <c r="BH295" t="inlineStr"/>
+      <c r="BI295" t="inlineStr"/>
+      <c r="BJ295" t="inlineStr"/>
+      <c r="BK295" t="inlineStr"/>
+      <c r="BL295" t="inlineStr"/>
+      <c r="BM295" t="inlineStr"/>
+      <c r="BN295" t="n">
+        <v>49</v>
+      </c>
+      <c r="BO295" t="n">
+        <v>-4.89</v>
+      </c>
+      <c r="BP295" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BQ295" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BR295" t="n">
+        <v>-6.94</v>
+      </c>
+      <c r="BS295" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BT295" t="n">
+        <v>-12.05</v>
+      </c>
+      <c r="BU295" t="n">
+        <v>-11.38</v>
+      </c>
+      <c r="BV295" t="n">
+        <v>-12.63</v>
+      </c>
+      <c r="BW295" t="n">
+        <v>-11.98</v>
+      </c>
+      <c r="BX295" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BY295" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="BZ295" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="CA295" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB295" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="CC295" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD295" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="CE295" t="n">
+        <v>62</v>
+      </c>
+      <c r="CF295" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="CG295" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="CH295" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="CI295" t="n">
+        <v>-2.96</v>
+      </c>
+      <c r="CJ295" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="CK295" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="CL295" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="CM295" t="n">
+        <v>-6.04</v>
+      </c>
+      <c r="CN295" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="CO295" t="n">
+        <v>41.94</v>
+      </c>
+      <c r="CP295" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="CQ295" t="n">
+        <v>75.81</v>
+      </c>
+      <c r="CR295" t="n">
+        <v>58.06</v>
+      </c>
+      <c r="CS295" t="n">
+        <v>82.26000000000001</v>
+      </c>
+      <c r="CT295" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="CU295" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="CV295" t="inlineStr"/>
+      <c r="CW295" t="inlineStr"/>
+      <c r="CX295" t="inlineStr"/>
+      <c r="CY295" t="inlineStr"/>
+      <c r="CZ295" t="inlineStr"/>
+      <c r="DA295" t="inlineStr"/>
+      <c r="DB295" t="inlineStr"/>
+      <c r="DC295" t="inlineStr"/>
+      <c r="DD295" t="inlineStr"/>
+      <c r="DE295" t="inlineStr"/>
+      <c r="DF295" t="inlineStr"/>
+      <c r="DG295" t="inlineStr"/>
+      <c r="DH295" t="inlineStr"/>
+      <c r="DI295" t="inlineStr"/>
+      <c r="DJ295" t="inlineStr"/>
+      <c r="DK295" t="inlineStr"/>
+      <c r="DL295" t="inlineStr"/>
+      <c r="DM295" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.65, "收盘": 5.06, "样本": 31}, "1": {"开盘": 1.11, "收盘": 8.56, "样本": 8}, "2": {"开盘": 2.9, "收盘": 5.37, "样本": 3}, "3": {"开盘": -3.52, "收盘": -0.27, "样本": 7}, "4": {"开盘": 3.82, "收盘": 5.97, "样本": 1}, "5": {"开盘": -1.41, "收盘": 1.52, "样本": 2}, "6": {"开盘": -0.08, "收盘": -2.27, "样本": 1}, "7": {"开盘": 1.76, "收盘": 9.05, "样本": 3}, "8": {"开盘": -2.0, "收盘": -3.46, "样本": 1}, "11": {"开盘": -2.02, "收盘": -3.6, "样本": 1}, "14": {"开盘": -7.88, "收盘": 1.4, "样本": 1}, "15": {"开盘": -2.44, "收盘": 4.89, "样本": 1}, "16": {"开盘": -6.53, "收盘": 11.59, "样本": 1}, "19": {"开盘": -0.62, "收盘": 1.6, "样本": 1}, "20": {"开盘": -2.48, "收盘": -1.15, "样本": 1}, "28": {"开盘": -1.28, "收盘": -9.72, "样本": 1}, "31": {"开盘": -3.12, "收盘": 10.0, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM295"/>
+  <dimension ref="A1:DM296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92202,6 +92202,295 @@
         </is>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>20260115</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2230</v>
+      </c>
+      <c r="C296" t="n">
+        <v>3121</v>
+      </c>
+      <c r="D296" t="n">
+        <v>106</v>
+      </c>
+      <c r="E296" t="n">
+        <v>213</v>
+      </c>
+      <c r="F296" t="n">
+        <v>312</v>
+      </c>
+      <c r="G296" t="n">
+        <v>120</v>
+      </c>
+      <c r="H296" t="n">
+        <v>182</v>
+      </c>
+      <c r="I296" t="n">
+        <v>85</v>
+      </c>
+      <c r="J296" t="n">
+        <v>127</v>
+      </c>
+      <c r="K296" t="n">
+        <v>55</v>
+      </c>
+      <c r="L296" t="n">
+        <v>63</v>
+      </c>
+      <c r="M296" t="n">
+        <v>16</v>
+      </c>
+      <c r="N296" t="n">
+        <v>18</v>
+      </c>
+      <c r="O296" t="n">
+        <v>102</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="R296" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S296" t="n">
+        <v>-5.63</v>
+      </c>
+      <c r="T296" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="U296" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="V296" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="W296" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X296" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>51.96</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>93.14</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>78.43000000000001</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>51.96</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>-5.52</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>-9.029999999999999</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>-5.52</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>83.78</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>56.76</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="AW296" t="inlineStr"/>
+      <c r="AX296" t="inlineStr"/>
+      <c r="AY296" t="inlineStr"/>
+      <c r="AZ296" t="inlineStr"/>
+      <c r="BA296" t="inlineStr"/>
+      <c r="BB296" t="inlineStr"/>
+      <c r="BC296" t="inlineStr"/>
+      <c r="BD296" t="inlineStr"/>
+      <c r="BE296" t="inlineStr"/>
+      <c r="BF296" t="inlineStr"/>
+      <c r="BG296" t="inlineStr"/>
+      <c r="BH296" t="inlineStr"/>
+      <c r="BI296" t="inlineStr"/>
+      <c r="BJ296" t="inlineStr"/>
+      <c r="BK296" t="inlineStr"/>
+      <c r="BL296" t="inlineStr"/>
+      <c r="BM296" t="inlineStr"/>
+      <c r="BN296" t="n">
+        <v>14</v>
+      </c>
+      <c r="BO296" t="n">
+        <v>-5.98</v>
+      </c>
+      <c r="BP296" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="BQ296" t="n">
+        <v>-3.71</v>
+      </c>
+      <c r="BR296" t="n">
+        <v>-8.66</v>
+      </c>
+      <c r="BS296" t="n">
+        <v>-2.32</v>
+      </c>
+      <c r="BT296" t="n">
+        <v>-8.01</v>
+      </c>
+      <c r="BU296" t="n">
+        <v>-10.18</v>
+      </c>
+      <c r="BV296" t="n">
+        <v>-11</v>
+      </c>
+      <c r="BW296" t="n">
+        <v>-13.08</v>
+      </c>
+      <c r="BX296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ296" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="CA296" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB296" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC296" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD296" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE296" t="n">
+        <v>59</v>
+      </c>
+      <c r="CF296" t="n">
+        <v>-3.53</v>
+      </c>
+      <c r="CG296" t="n">
+        <v>-5.37</v>
+      </c>
+      <c r="CH296" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="CI296" t="n">
+        <v>-7.35</v>
+      </c>
+      <c r="CJ296" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="CK296" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="CL296" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="CM296" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="CN296" t="n">
+        <v>-8.359999999999999</v>
+      </c>
+      <c r="CO296" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP296" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="CQ296" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="CR296" t="n">
+        <v>81.36</v>
+      </c>
+      <c r="CS296" t="n">
+        <v>62.71</v>
+      </c>
+      <c r="CT296" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU296" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="CV296" t="inlineStr"/>
+      <c r="CW296" t="inlineStr"/>
+      <c r="CX296" t="inlineStr"/>
+      <c r="CY296" t="inlineStr"/>
+      <c r="CZ296" t="inlineStr"/>
+      <c r="DA296" t="inlineStr"/>
+      <c r="DB296" t="inlineStr"/>
+      <c r="DC296" t="inlineStr"/>
+      <c r="DD296" t="inlineStr"/>
+      <c r="DE296" t="inlineStr"/>
+      <c r="DF296" t="inlineStr"/>
+      <c r="DG296" t="inlineStr"/>
+      <c r="DH296" t="inlineStr"/>
+      <c r="DI296" t="inlineStr"/>
+      <c r="DJ296" t="inlineStr"/>
+      <c r="DK296" t="inlineStr"/>
+      <c r="DL296" t="inlineStr"/>
+      <c r="DM296" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.24, "收盘": 0.6, "样本": 35}, "1": {"开盘": 0.5, "收盘": -3.39, "样本": 14}, "2": {"开盘": -1.85, "收盘": 0.08, "样本": 2}, "3": {"开盘": -2.16, "收盘": -6.83, "样本": 7}, "4": {"开盘": 1.01, "收盘": -2.28, "样本": 5}, "5": {"开盘": -3.27, "收盘": -8.68, "样本": 6}, "6": {"开盘": -0.84, "收盘": -4.97, "样本": 3}, "7": {"开盘": -0.32, "收盘": -0.37, "样本": 5}, "8": {"开盘": -3.1, "收盘": 2.1, "样本": 3}, "9": {"开盘": 1.24, "收盘": -3.52, "样本": 2}, "10": {"开盘": -1.7, "收盘": -1.88, "样本": 2}, "11": {"开盘": -4.14, "收盘": -8.31, "样本": 4}, "12": {"开盘": 2.77, "收盘": 0.59, "样本": 1}, "13": {"开盘": -4.67, "收盘": -6.08, "样本": 3}, "14": {"开盘": 3.63, "收盘": -2.42, "样本": 1}, "16": {"开盘": -8.89, "收盘": -0.01, "样本": 2}, "17": {"开盘": -10.99, "收盘": -13.72, "样本": 1}, "18": {"开盘": -2.02, "收盘": -4.81, "样本": 2}, "20": {"开盘": -0.91, "收盘": -2.48, "样本": 1}, "22": {"开盘": -5.19, "收盘": -9.75, "样本": 1}, "23": {"开盘": -5.01, "收盘": -10.02, "样本": 1}, "27": {"开盘": -1.85, "收盘": 2.65, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM296"/>
+  <dimension ref="A1:DM297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92491,6 +92491,295 @@
         </is>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>20260116</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2371</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2973</v>
+      </c>
+      <c r="D297" t="n">
+        <v>116</v>
+      </c>
+      <c r="E297" t="n">
+        <v>320</v>
+      </c>
+      <c r="F297" t="n">
+        <v>234</v>
+      </c>
+      <c r="G297" t="n">
+        <v>170</v>
+      </c>
+      <c r="H297" t="n">
+        <v>123</v>
+      </c>
+      <c r="I297" t="n">
+        <v>105</v>
+      </c>
+      <c r="J297" t="n">
+        <v>82</v>
+      </c>
+      <c r="K297" t="n">
+        <v>58</v>
+      </c>
+      <c r="L297" t="n">
+        <v>46</v>
+      </c>
+      <c r="M297" t="n">
+        <v>10</v>
+      </c>
+      <c r="N297" t="n">
+        <v>39</v>
+      </c>
+      <c r="O297" t="n">
+        <v>55</v>
+      </c>
+      <c r="P297" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="R297" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="S297" t="n">
+        <v>-3.04</v>
+      </c>
+      <c r="T297" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="U297" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="V297" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X297" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>83.64</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>74.55</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>-4.71</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>-6.97</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>-2.96</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>-4.71</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW297" t="inlineStr"/>
+      <c r="AX297" t="inlineStr"/>
+      <c r="AY297" t="inlineStr"/>
+      <c r="AZ297" t="inlineStr"/>
+      <c r="BA297" t="inlineStr"/>
+      <c r="BB297" t="inlineStr"/>
+      <c r="BC297" t="inlineStr"/>
+      <c r="BD297" t="inlineStr"/>
+      <c r="BE297" t="inlineStr"/>
+      <c r="BF297" t="inlineStr"/>
+      <c r="BG297" t="inlineStr"/>
+      <c r="BH297" t="inlineStr"/>
+      <c r="BI297" t="inlineStr"/>
+      <c r="BJ297" t="inlineStr"/>
+      <c r="BK297" t="inlineStr"/>
+      <c r="BL297" t="inlineStr"/>
+      <c r="BM297" t="inlineStr"/>
+      <c r="BN297" t="n">
+        <v>63</v>
+      </c>
+      <c r="BO297" t="n">
+        <v>-5.77</v>
+      </c>
+      <c r="BP297" t="n">
+        <v>-6.61</v>
+      </c>
+      <c r="BQ297" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="BR297" t="n">
+        <v>-8.24</v>
+      </c>
+      <c r="BS297" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="BT297" t="n">
+        <v>-10.54</v>
+      </c>
+      <c r="BU297" t="n">
+        <v>-11.33</v>
+      </c>
+      <c r="BV297" t="n">
+        <v>-12.12</v>
+      </c>
+      <c r="BW297" t="n">
+        <v>-12.87</v>
+      </c>
+      <c r="BX297" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="BY297" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="BZ297" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="CA297" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB297" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC297" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD297" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE297" t="n">
+        <v>18</v>
+      </c>
+      <c r="CF297" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="CG297" t="n">
+        <v>-3.55</v>
+      </c>
+      <c r="CH297" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="CI297" t="n">
+        <v>-4.99</v>
+      </c>
+      <c r="CJ297" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="CK297" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="CL297" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="CM297" t="n">
+        <v>-6.66</v>
+      </c>
+      <c r="CN297" t="n">
+        <v>-8.49</v>
+      </c>
+      <c r="CO297" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="CP297" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="CQ297" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CR297" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CS297" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="CT297" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="CU297" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="CV297" t="inlineStr"/>
+      <c r="CW297" t="inlineStr"/>
+      <c r="CX297" t="inlineStr"/>
+      <c r="CY297" t="inlineStr"/>
+      <c r="CZ297" t="inlineStr"/>
+      <c r="DA297" t="inlineStr"/>
+      <c r="DB297" t="inlineStr"/>
+      <c r="DC297" t="inlineStr"/>
+      <c r="DD297" t="inlineStr"/>
+      <c r="DE297" t="inlineStr"/>
+      <c r="DF297" t="inlineStr"/>
+      <c r="DG297" t="inlineStr"/>
+      <c r="DH297" t="inlineStr"/>
+      <c r="DI297" t="inlineStr"/>
+      <c r="DJ297" t="inlineStr"/>
+      <c r="DK297" t="inlineStr"/>
+      <c r="DL297" t="inlineStr"/>
+      <c r="DM297" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.66, "收盘": -0.16, "样本": 32}, "1": {"开盘": 1.28, "收盘": 1.25, "样本": 5}, "2": {"开盘": -1.63, "收盘": -1.21, "样本": 5}, "3": {"开盘": -0.33, "收盘": -0.76, "样本": 5}, "4": {"开盘": 9.99, "收盘": 9.99, "样本": 1}, "7": {"开盘": 5.99, "收盘": 0.36, "样本": 2}, "10": {"开盘": -2.2, "收盘": -5.51, "样本": 3}, "18": {"开盘": 0.29, "收盘": -0.86, "样本": 1}, "22": {"开盘": -9.99, "收盘": -9.99, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM297"/>
+  <dimension ref="A1:DM298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92780,6 +92780,295 @@
         </is>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>20260119</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>3527</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1828</v>
+      </c>
+      <c r="D298" t="n">
+        <v>106</v>
+      </c>
+      <c r="E298" t="n">
+        <v>400</v>
+      </c>
+      <c r="F298" t="n">
+        <v>108</v>
+      </c>
+      <c r="G298" t="n">
+        <v>207</v>
+      </c>
+      <c r="H298" t="n">
+        <v>60</v>
+      </c>
+      <c r="I298" t="n">
+        <v>122</v>
+      </c>
+      <c r="J298" t="n">
+        <v>39</v>
+      </c>
+      <c r="K298" t="n">
+        <v>88</v>
+      </c>
+      <c r="L298" t="n">
+        <v>23</v>
+      </c>
+      <c r="M298" t="n">
+        <v>23</v>
+      </c>
+      <c r="N298" t="n">
+        <v>20</v>
+      </c>
+      <c r="O298" t="n">
+        <v>58</v>
+      </c>
+      <c r="P298" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R298" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="S298" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="T298" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="U298" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="V298" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="W298" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X298" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>68.97</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>70.69</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>58.62</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>98.28</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>98.28</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>68.97</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>70.69</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>-4.92</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>-2.77</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>70</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>90</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>90</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>70</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW298" t="inlineStr"/>
+      <c r="AX298" t="inlineStr"/>
+      <c r="AY298" t="inlineStr"/>
+      <c r="AZ298" t="inlineStr"/>
+      <c r="BA298" t="inlineStr"/>
+      <c r="BB298" t="inlineStr"/>
+      <c r="BC298" t="inlineStr"/>
+      <c r="BD298" t="inlineStr"/>
+      <c r="BE298" t="inlineStr"/>
+      <c r="BF298" t="inlineStr"/>
+      <c r="BG298" t="inlineStr"/>
+      <c r="BH298" t="inlineStr"/>
+      <c r="BI298" t="inlineStr"/>
+      <c r="BJ298" t="inlineStr"/>
+      <c r="BK298" t="inlineStr"/>
+      <c r="BL298" t="inlineStr"/>
+      <c r="BM298" t="inlineStr"/>
+      <c r="BN298" t="n">
+        <v>46</v>
+      </c>
+      <c r="BO298" t="n">
+        <v>-6.63</v>
+      </c>
+      <c r="BP298" t="n">
+        <v>-4.68</v>
+      </c>
+      <c r="BQ298" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="BR298" t="n">
+        <v>-7.91</v>
+      </c>
+      <c r="BS298" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BT298" t="n">
+        <v>-8.31</v>
+      </c>
+      <c r="BU298" t="n">
+        <v>-6.33</v>
+      </c>
+      <c r="BV298" t="n">
+        <v>-10.52</v>
+      </c>
+      <c r="BW298" t="n">
+        <v>-8.58</v>
+      </c>
+      <c r="BX298" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="BY298" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="BZ298" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="CA298" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CB298" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="CC298" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="CD298" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="CE298" t="n">
+        <v>39</v>
+      </c>
+      <c r="CF298" t="n">
+        <v>-2.43</v>
+      </c>
+      <c r="CG298" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="CH298" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="CI298" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="CJ298" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="CK298" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CL298" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="CM298" t="n">
+        <v>-7.38</v>
+      </c>
+      <c r="CN298" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="CO298" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="CP298" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="CQ298" t="n">
+        <v>87.18000000000001</v>
+      </c>
+      <c r="CR298" t="n">
+        <v>53.85</v>
+      </c>
+      <c r="CS298" t="n">
+        <v>74.36</v>
+      </c>
+      <c r="CT298" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU298" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CV298" t="inlineStr"/>
+      <c r="CW298" t="inlineStr"/>
+      <c r="CX298" t="inlineStr"/>
+      <c r="CY298" t="inlineStr"/>
+      <c r="CZ298" t="inlineStr"/>
+      <c r="DA298" t="inlineStr"/>
+      <c r="DB298" t="inlineStr"/>
+      <c r="DC298" t="inlineStr"/>
+      <c r="DD298" t="inlineStr"/>
+      <c r="DE298" t="inlineStr"/>
+      <c r="DF298" t="inlineStr"/>
+      <c r="DG298" t="inlineStr"/>
+      <c r="DH298" t="inlineStr"/>
+      <c r="DI298" t="inlineStr"/>
+      <c r="DJ298" t="inlineStr"/>
+      <c r="DK298" t="inlineStr"/>
+      <c r="DL298" t="inlineStr"/>
+      <c r="DM298" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.59, "收盘": 2.15, "样本": 36}, "1": {"开盘": 0.78, "收盘": 0.04, "样本": 5}, "2": {"开盘": 0.91, "收盘": 2.53, "样本": 6}, "3": {"开盘": 0.05, "收盘": 2.85, "样本": 1}, "4": {"开盘": 2.17, "收盘": 6.43, "样本": 3}, "5": {"开盘": -0.53, "收盘": 9.99, "样本": 1}, "10": {"开盘": 2.23, "收盘": 6.94, "样本": 2}, "12": {"开盘": 1.96, "收盘": 3.45, "样本": 1}, "16": {"开盘": 0.0, "收盘": 9.94, "样本": 1}, "19": {"开盘": 0.96, "收盘": 5.74, "样本": 1}, "22": {"开盘": 3.22, "收盘": 10.0, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM298"/>
+  <dimension ref="A1:DM299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93069,6 +93069,295 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>20260120</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2233</v>
+      </c>
+      <c r="C299" t="n">
+        <v>3102</v>
+      </c>
+      <c r="D299" t="n">
+        <v>132</v>
+      </c>
+      <c r="E299" t="n">
+        <v>191</v>
+      </c>
+      <c r="F299" t="n">
+        <v>237</v>
+      </c>
+      <c r="G299" t="n">
+        <v>112</v>
+      </c>
+      <c r="H299" t="n">
+        <v>83</v>
+      </c>
+      <c r="I299" t="n">
+        <v>77</v>
+      </c>
+      <c r="J299" t="n">
+        <v>33</v>
+      </c>
+      <c r="K299" t="n">
+        <v>54</v>
+      </c>
+      <c r="L299" t="n">
+        <v>16</v>
+      </c>
+      <c r="M299" t="n">
+        <v>13</v>
+      </c>
+      <c r="N299" t="n">
+        <v>15</v>
+      </c>
+      <c r="O299" t="n">
+        <v>88</v>
+      </c>
+      <c r="P299" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R299" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="S299" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="T299" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="U299" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="V299" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X299" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>64.77</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>69.31999999999999</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>48.86</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>64.77</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>69.31999999999999</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>39.13</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AW299" t="inlineStr"/>
+      <c r="AX299" t="inlineStr"/>
+      <c r="AY299" t="inlineStr"/>
+      <c r="AZ299" t="inlineStr"/>
+      <c r="BA299" t="inlineStr"/>
+      <c r="BB299" t="inlineStr"/>
+      <c r="BC299" t="inlineStr"/>
+      <c r="BD299" t="inlineStr"/>
+      <c r="BE299" t="inlineStr"/>
+      <c r="BF299" t="inlineStr"/>
+      <c r="BG299" t="inlineStr"/>
+      <c r="BH299" t="inlineStr"/>
+      <c r="BI299" t="inlineStr"/>
+      <c r="BJ299" t="inlineStr"/>
+      <c r="BK299" t="inlineStr"/>
+      <c r="BL299" t="inlineStr"/>
+      <c r="BM299" t="inlineStr"/>
+      <c r="BN299" t="n">
+        <v>23</v>
+      </c>
+      <c r="BO299" t="n">
+        <v>-2.62</v>
+      </c>
+      <c r="BP299" t="n">
+        <v>-6.04</v>
+      </c>
+      <c r="BQ299" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="BR299" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="BS299" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="BT299" t="n">
+        <v>-4.58</v>
+      </c>
+      <c r="BU299" t="n">
+        <v>-7.96</v>
+      </c>
+      <c r="BV299" t="n">
+        <v>-6.03</v>
+      </c>
+      <c r="BW299" t="n">
+        <v>-9.34</v>
+      </c>
+      <c r="BX299" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="BY299" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BZ299" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="CA299" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="CB299" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC299" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD299" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE299" t="n">
+        <v>20</v>
+      </c>
+      <c r="CF299" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="CG299" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="CH299" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="CI299" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="CJ299" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="CK299" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="CL299" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="CM299" t="n">
+        <v>-4.13</v>
+      </c>
+      <c r="CN299" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="CO299" t="n">
+        <v>15</v>
+      </c>
+      <c r="CP299" t="n">
+        <v>30</v>
+      </c>
+      <c r="CQ299" t="n">
+        <v>50</v>
+      </c>
+      <c r="CR299" t="n">
+        <v>85</v>
+      </c>
+      <c r="CS299" t="n">
+        <v>75</v>
+      </c>
+      <c r="CT299" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU299" t="n">
+        <v>15</v>
+      </c>
+      <c r="CV299" t="inlineStr"/>
+      <c r="CW299" t="inlineStr"/>
+      <c r="CX299" t="inlineStr"/>
+      <c r="CY299" t="inlineStr"/>
+      <c r="CZ299" t="inlineStr"/>
+      <c r="DA299" t="inlineStr"/>
+      <c r="DB299" t="inlineStr"/>
+      <c r="DC299" t="inlineStr"/>
+      <c r="DD299" t="inlineStr"/>
+      <c r="DE299" t="inlineStr"/>
+      <c r="DF299" t="inlineStr"/>
+      <c r="DG299" t="inlineStr"/>
+      <c r="DH299" t="inlineStr"/>
+      <c r="DI299" t="inlineStr"/>
+      <c r="DJ299" t="inlineStr"/>
+      <c r="DK299" t="inlineStr"/>
+      <c r="DL299" t="inlineStr"/>
+      <c r="DM299" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 1.72, "收盘": 1.97, "样本": 46}, "1": {"开盘": 2.49, "收盘": 2.93, "样本": 11}, "2": {"开盘": 2.75, "收盘": 4.55, "样本": 8}, "3": {"开盘": 0.07, "收盘": 3.64, "样本": 1}, "4": {"开盘": 0.05, "收盘": -0.19, "样本": 4}, "5": {"开盘": 3.38, "收盘": 4.72, "样本": 3}, "6": {"开盘": 1.56, "收盘": 2.65, "样本": 3}, "7": {"开盘": 6.36, "收盘": 6.77, "样本": 1}, "8": {"开盘": 2.81, "收盘": 2.4, "样本": 3}, "10": {"开盘": -0.83, "收盘": 2.36, "样本": 1}, "11": {"开盘": 2.96, "收盘": -0.79, "样本": 2}, "12": {"开盘": -7.58, "收盘": -1.78, "样本": 1}, "13": {"开盘": -0.96, "收盘": 3.57, "样本": 1}, "15": {"开盘": -4.31, "收盘": 6.99, "样本": 1}, "22": {"开盘": 2.01, "收盘": 3.23, "样本": 1}, "30": {"开盘": 0.79, "收盘": 3.3, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM299"/>
+  <dimension ref="A1:DM300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93358,6 +93358,295 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>3096</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2197</v>
+      </c>
+      <c r="D300" t="n">
+        <v>172</v>
+      </c>
+      <c r="E300" t="n">
+        <v>348</v>
+      </c>
+      <c r="F300" t="n">
+        <v>72</v>
+      </c>
+      <c r="G300" t="n">
+        <v>194</v>
+      </c>
+      <c r="H300" t="n">
+        <v>30</v>
+      </c>
+      <c r="I300" t="n">
+        <v>132</v>
+      </c>
+      <c r="J300" t="n">
+        <v>14</v>
+      </c>
+      <c r="K300" t="n">
+        <v>79</v>
+      </c>
+      <c r="L300" t="n">
+        <v>4</v>
+      </c>
+      <c r="M300" t="n">
+        <v>11</v>
+      </c>
+      <c r="N300" t="n">
+        <v>25</v>
+      </c>
+      <c r="O300" t="n">
+        <v>54</v>
+      </c>
+      <c r="P300" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R300" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="S300" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="T300" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="U300" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="V300" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="W300" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="X300" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>62.26</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>62.26</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>-2.43</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>38.46</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>76.92</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AW300" t="inlineStr"/>
+      <c r="AX300" t="inlineStr"/>
+      <c r="AY300" t="inlineStr"/>
+      <c r="AZ300" t="inlineStr"/>
+      <c r="BA300" t="inlineStr"/>
+      <c r="BB300" t="inlineStr"/>
+      <c r="BC300" t="inlineStr"/>
+      <c r="BD300" t="inlineStr"/>
+      <c r="BE300" t="inlineStr"/>
+      <c r="BF300" t="inlineStr"/>
+      <c r="BG300" t="inlineStr"/>
+      <c r="BH300" t="inlineStr"/>
+      <c r="BI300" t="inlineStr"/>
+      <c r="BJ300" t="inlineStr"/>
+      <c r="BK300" t="inlineStr"/>
+      <c r="BL300" t="inlineStr"/>
+      <c r="BM300" t="inlineStr"/>
+      <c r="BN300" t="n">
+        <v>16</v>
+      </c>
+      <c r="BO300" t="n">
+        <v>-4.92</v>
+      </c>
+      <c r="BP300" t="n">
+        <v>-3.72</v>
+      </c>
+      <c r="BQ300" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="BR300" t="n">
+        <v>-6.78</v>
+      </c>
+      <c r="BS300" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BT300" t="n">
+        <v>-8.76</v>
+      </c>
+      <c r="BU300" t="n">
+        <v>-7.58</v>
+      </c>
+      <c r="BV300" t="n">
+        <v>-10.79</v>
+      </c>
+      <c r="BW300" t="n">
+        <v>-9.66</v>
+      </c>
+      <c r="BX300" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY300" t="n">
+        <v>25</v>
+      </c>
+      <c r="BZ300" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="CA300" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB300" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="CC300" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD300" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE300" t="n">
+        <v>15</v>
+      </c>
+      <c r="CF300" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="CG300" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="CH300" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="CI300" t="n">
+        <v>-3.31</v>
+      </c>
+      <c r="CJ300" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="CK300" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="CL300" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="CM300" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="CN300" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="CO300" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="CP300" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="CQ300" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CR300" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CS300" t="n">
+        <v>80</v>
+      </c>
+      <c r="CT300" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="CU300" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="CV300" t="inlineStr"/>
+      <c r="CW300" t="inlineStr"/>
+      <c r="CX300" t="inlineStr"/>
+      <c r="CY300" t="inlineStr"/>
+      <c r="CZ300" t="inlineStr"/>
+      <c r="DA300" t="inlineStr"/>
+      <c r="DB300" t="inlineStr"/>
+      <c r="DC300" t="inlineStr"/>
+      <c r="DD300" t="inlineStr"/>
+      <c r="DE300" t="inlineStr"/>
+      <c r="DF300" t="inlineStr"/>
+      <c r="DG300" t="inlineStr"/>
+      <c r="DH300" t="inlineStr"/>
+      <c r="DI300" t="inlineStr"/>
+      <c r="DJ300" t="inlineStr"/>
+      <c r="DK300" t="inlineStr"/>
+      <c r="DL300" t="inlineStr"/>
+      <c r="DM300" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.81, "收盘": 1.96, "样本": 37}, "1": {"开盘": 0.73, "收盘": 0.83, "样本": 6}, "2": {"开盘": -0.17, "收盘": 1.96, "样本": 4}, "3": {"开盘": -0.55, "收盘": 0.01, "样本": 2}, "4": {"开盘": -3.6, "收盘": -3.2, "样本": 1}, "5": {"开盘": 4.45, "收盘": 5.71, "样本": 2}, "8": {"开盘": 1.15, "收盘": -9.61, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM300"/>
+  <dimension ref="A1:DM301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93647,6 +93647,295 @@
         </is>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>20260122</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>3577</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1777</v>
+      </c>
+      <c r="D301" t="n">
+        <v>112</v>
+      </c>
+      <c r="E301" t="n">
+        <v>297</v>
+      </c>
+      <c r="F301" t="n">
+        <v>51</v>
+      </c>
+      <c r="G301" t="n">
+        <v>158</v>
+      </c>
+      <c r="H301" t="n">
+        <v>20</v>
+      </c>
+      <c r="I301" t="n">
+        <v>109</v>
+      </c>
+      <c r="J301" t="n">
+        <v>8</v>
+      </c>
+      <c r="K301" t="n">
+        <v>73</v>
+      </c>
+      <c r="L301" t="n">
+        <v>2</v>
+      </c>
+      <c r="M301" t="n">
+        <v>23</v>
+      </c>
+      <c r="N301" t="n">
+        <v>27</v>
+      </c>
+      <c r="O301" t="n">
+        <v>79</v>
+      </c>
+      <c r="P301" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R301" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="S301" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="T301" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U301" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="V301" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X301" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>63.29</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>46.84</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>98.73</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>98.73</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>63.29</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>90.91</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>100</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="AW301" t="inlineStr"/>
+      <c r="AX301" t="inlineStr"/>
+      <c r="AY301" t="inlineStr"/>
+      <c r="AZ301" t="inlineStr"/>
+      <c r="BA301" t="inlineStr"/>
+      <c r="BB301" t="inlineStr"/>
+      <c r="BC301" t="inlineStr"/>
+      <c r="BD301" t="inlineStr"/>
+      <c r="BE301" t="inlineStr"/>
+      <c r="BF301" t="inlineStr"/>
+      <c r="BG301" t="inlineStr"/>
+      <c r="BH301" t="inlineStr"/>
+      <c r="BI301" t="inlineStr"/>
+      <c r="BJ301" t="inlineStr"/>
+      <c r="BK301" t="inlineStr"/>
+      <c r="BL301" t="inlineStr"/>
+      <c r="BM301" t="inlineStr"/>
+      <c r="BN301" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO301" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="BP301" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="BQ301" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BR301" t="n">
+        <v>-7.55</v>
+      </c>
+      <c r="BS301" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="BT301" t="n">
+        <v>-9.65</v>
+      </c>
+      <c r="BU301" t="n">
+        <v>-2.43</v>
+      </c>
+      <c r="BV301" t="n">
+        <v>-10.77</v>
+      </c>
+      <c r="BW301" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="BX301" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY301" t="n">
+        <v>50</v>
+      </c>
+      <c r="BZ301" t="n">
+        <v>75</v>
+      </c>
+      <c r="CA301" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB301" t="n">
+        <v>25</v>
+      </c>
+      <c r="CC301" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD301" t="n">
+        <v>25</v>
+      </c>
+      <c r="CE301" t="n">
+        <v>25</v>
+      </c>
+      <c r="CF301" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="CG301" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="CH301" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="CI301" t="n">
+        <v>-4.44</v>
+      </c>
+      <c r="CJ301" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="CK301" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="CL301" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="CM301" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="CN301" t="n">
+        <v>-3.11</v>
+      </c>
+      <c r="CO301" t="n">
+        <v>32</v>
+      </c>
+      <c r="CP301" t="n">
+        <v>60</v>
+      </c>
+      <c r="CQ301" t="n">
+        <v>60</v>
+      </c>
+      <c r="CR301" t="n">
+        <v>68</v>
+      </c>
+      <c r="CS301" t="n">
+        <v>84</v>
+      </c>
+      <c r="CT301" t="n">
+        <v>8</v>
+      </c>
+      <c r="CU301" t="n">
+        <v>32</v>
+      </c>
+      <c r="CV301" t="inlineStr"/>
+      <c r="CW301" t="inlineStr"/>
+      <c r="CX301" t="inlineStr"/>
+      <c r="CY301" t="inlineStr"/>
+      <c r="CZ301" t="inlineStr"/>
+      <c r="DA301" t="inlineStr"/>
+      <c r="DB301" t="inlineStr"/>
+      <c r="DC301" t="inlineStr"/>
+      <c r="DD301" t="inlineStr"/>
+      <c r="DE301" t="inlineStr"/>
+      <c r="DF301" t="inlineStr"/>
+      <c r="DG301" t="inlineStr"/>
+      <c r="DH301" t="inlineStr"/>
+      <c r="DI301" t="inlineStr"/>
+      <c r="DJ301" t="inlineStr"/>
+      <c r="DK301" t="inlineStr"/>
+      <c r="DL301" t="inlineStr"/>
+      <c r="DM301" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.64, "收盘": 2.1, "样本": 50}, "1": {"开盘": 2.57, "收盘": 6.68, "样本": 12}, "2": {"开盘": -0.88, "收盘": -2.4, "样本": 3}, "3": {"开盘": 1.87, "收盘": 4.11, "样本": 6}, "4": {"开盘": -6.16, "收盘": -1.73, "样本": 1}, "5": {"开盘": 2.3, "收盘": 1.07, "样本": 3}, "6": {"开盘": -4.92, "收盘": 0.17, "样本": 2}, "7": {"开盘": -3.73, "收盘": 10.04, "样本": 1}, "17": {"开盘": -3.83, "收盘": 0.88, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM301"/>
+  <dimension ref="A1:DM302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93936,6 +93936,295 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>20260123</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>3941</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1390</v>
+      </c>
+      <c r="D302" t="n">
+        <v>136</v>
+      </c>
+      <c r="E302" t="n">
+        <v>522</v>
+      </c>
+      <c r="F302" t="n">
+        <v>39</v>
+      </c>
+      <c r="G302" t="n">
+        <v>276</v>
+      </c>
+      <c r="H302" t="n">
+        <v>9</v>
+      </c>
+      <c r="I302" t="n">
+        <v>180</v>
+      </c>
+      <c r="J302" t="n">
+        <v>1</v>
+      </c>
+      <c r="K302" t="n">
+        <v>104</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>15</v>
+      </c>
+      <c r="N302" t="n">
+        <v>18</v>
+      </c>
+      <c r="O302" t="n">
+        <v>73</v>
+      </c>
+      <c r="P302" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R302" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="S302" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="T302" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U302" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="V302" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="W302" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="X302" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>63.01</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>57.53</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>49.32</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>98.63</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>95.89</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>63.01</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>57.53</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>-1.85</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>95.65000000000001</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="AW302" t="inlineStr"/>
+      <c r="AX302" t="inlineStr"/>
+      <c r="AY302" t="inlineStr"/>
+      <c r="AZ302" t="inlineStr"/>
+      <c r="BA302" t="inlineStr"/>
+      <c r="BB302" t="inlineStr"/>
+      <c r="BC302" t="inlineStr"/>
+      <c r="BD302" t="inlineStr"/>
+      <c r="BE302" t="inlineStr"/>
+      <c r="BF302" t="inlineStr"/>
+      <c r="BG302" t="inlineStr"/>
+      <c r="BH302" t="inlineStr"/>
+      <c r="BI302" t="inlineStr"/>
+      <c r="BJ302" t="inlineStr"/>
+      <c r="BK302" t="inlineStr"/>
+      <c r="BL302" t="inlineStr"/>
+      <c r="BM302" t="inlineStr"/>
+      <c r="BN302" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO302" t="n">
+        <v>-9.93</v>
+      </c>
+      <c r="BP302" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="BQ302" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="BR302" t="n">
+        <v>-9.93</v>
+      </c>
+      <c r="BS302" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="BT302" t="n">
+        <v>-12.93</v>
+      </c>
+      <c r="BU302" t="n">
+        <v>-3.48</v>
+      </c>
+      <c r="BV302" t="n">
+        <v>-13.54</v>
+      </c>
+      <c r="BW302" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="BX302" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY302" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ302" t="n">
+        <v>100</v>
+      </c>
+      <c r="CA302" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB302" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC302" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD302" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE302" t="n">
+        <v>27</v>
+      </c>
+      <c r="CF302" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="CG302" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CH302" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="CI302" t="n">
+        <v>-2.68</v>
+      </c>
+      <c r="CJ302" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="CK302" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="CL302" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="CM302" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="CN302" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="CO302" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="CP302" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="CQ302" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="CR302" t="n">
+        <v>85.19</v>
+      </c>
+      <c r="CS302" t="n">
+        <v>85.19</v>
+      </c>
+      <c r="CT302" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="CU302" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="CV302" t="inlineStr"/>
+      <c r="CW302" t="inlineStr"/>
+      <c r="CX302" t="inlineStr"/>
+      <c r="CY302" t="inlineStr"/>
+      <c r="CZ302" t="inlineStr"/>
+      <c r="DA302" t="inlineStr"/>
+      <c r="DB302" t="inlineStr"/>
+      <c r="DC302" t="inlineStr"/>
+      <c r="DD302" t="inlineStr"/>
+      <c r="DE302" t="inlineStr"/>
+      <c r="DF302" t="inlineStr"/>
+      <c r="DG302" t="inlineStr"/>
+      <c r="DH302" t="inlineStr"/>
+      <c r="DI302" t="inlineStr"/>
+      <c r="DJ302" t="inlineStr"/>
+      <c r="DK302" t="inlineStr"/>
+      <c r="DL302" t="inlineStr"/>
+      <c r="DM302" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.67, "收盘": 2.03, "样本": 40}, "1": {"开盘": -0.87, "收盘": -0.24, "样本": 12}, "2": {"开盘": 3.65, "收盘": 2.57, "样本": 5}, "3": {"开盘": 3.09, "收盘": 4.1, "样本": 5}, "4": {"开盘": -1.86, "收盘": -3.64, "样本": 2}, "5": {"开盘": -0.2, "收盘": 0.28, "样本": 1}, "6": {"开盘": 1.48, "收盘": 1.66, "样本": 2}, "7": {"开盘": 5.76, "收盘": 10.0, "样本": 1}, "8": {"开盘": 0.21, "收盘": 5.25, "样本": 3}, "19": {"开盘": 0.47, "收盘": 3.53, "样本": 1}, "41": {"开盘": 1.81, "收盘": -0.6, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM302"/>
+  <dimension ref="A1:DM303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94225,6 +94225,261 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>20260126</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3771</v>
+      </c>
+      <c r="D303" t="n">
+        <v>88</v>
+      </c>
+      <c r="E303" t="n">
+        <v>252</v>
+      </c>
+      <c r="F303" t="n">
+        <v>470</v>
+      </c>
+      <c r="G303" t="n">
+        <v>152</v>
+      </c>
+      <c r="H303" t="n">
+        <v>200</v>
+      </c>
+      <c r="I303" t="n">
+        <v>116</v>
+      </c>
+      <c r="J303" t="n">
+        <v>102</v>
+      </c>
+      <c r="K303" t="n">
+        <v>70</v>
+      </c>
+      <c r="L303" t="n">
+        <v>30</v>
+      </c>
+      <c r="M303" t="n">
+        <v>20</v>
+      </c>
+      <c r="N303" t="n">
+        <v>40</v>
+      </c>
+      <c r="O303" t="n">
+        <v>104</v>
+      </c>
+      <c r="P303" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R303" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="S303" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="T303" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="U303" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="V303" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="W303" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="X303" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>45.63</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>98.06</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>89.31999999999999</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>45.63</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>-4.23</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>92.86</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="AW303" t="inlineStr"/>
+      <c r="AX303" t="inlineStr"/>
+      <c r="AY303" t="inlineStr"/>
+      <c r="AZ303" t="inlineStr"/>
+      <c r="BA303" t="inlineStr"/>
+      <c r="BB303" t="inlineStr"/>
+      <c r="BC303" t="inlineStr"/>
+      <c r="BD303" t="inlineStr"/>
+      <c r="BE303" t="inlineStr"/>
+      <c r="BF303" t="inlineStr"/>
+      <c r="BG303" t="inlineStr"/>
+      <c r="BH303" t="inlineStr"/>
+      <c r="BI303" t="inlineStr"/>
+      <c r="BJ303" t="inlineStr"/>
+      <c r="BK303" t="inlineStr"/>
+      <c r="BL303" t="inlineStr"/>
+      <c r="BM303" t="inlineStr"/>
+      <c r="BN303" t="inlineStr"/>
+      <c r="BO303" t="inlineStr"/>
+      <c r="BP303" t="inlineStr"/>
+      <c r="BQ303" t="inlineStr"/>
+      <c r="BR303" t="inlineStr"/>
+      <c r="BS303" t="inlineStr"/>
+      <c r="BT303" t="inlineStr"/>
+      <c r="BU303" t="inlineStr"/>
+      <c r="BV303" t="inlineStr"/>
+      <c r="BW303" t="inlineStr"/>
+      <c r="BX303" t="inlineStr"/>
+      <c r="BY303" t="inlineStr"/>
+      <c r="BZ303" t="inlineStr"/>
+      <c r="CA303" t="inlineStr"/>
+      <c r="CB303" t="inlineStr"/>
+      <c r="CC303" t="inlineStr"/>
+      <c r="CD303" t="inlineStr"/>
+      <c r="CE303" t="n">
+        <v>18</v>
+      </c>
+      <c r="CF303" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="CG303" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="CH303" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="CI303" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="CJ303" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="CK303" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="CL303" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="CM303" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="CN303" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="CO303" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="CP303" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="CQ303" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="CR303" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="CS303" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="CT303" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="CU303" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="CV303" t="inlineStr"/>
+      <c r="CW303" t="inlineStr"/>
+      <c r="CX303" t="inlineStr"/>
+      <c r="CY303" t="inlineStr"/>
+      <c r="CZ303" t="inlineStr"/>
+      <c r="DA303" t="inlineStr"/>
+      <c r="DB303" t="inlineStr"/>
+      <c r="DC303" t="inlineStr"/>
+      <c r="DD303" t="inlineStr"/>
+      <c r="DE303" t="inlineStr"/>
+      <c r="DF303" t="inlineStr"/>
+      <c r="DG303" t="inlineStr"/>
+      <c r="DH303" t="inlineStr"/>
+      <c r="DI303" t="inlineStr"/>
+      <c r="DJ303" t="inlineStr"/>
+      <c r="DK303" t="inlineStr"/>
+      <c r="DL303" t="inlineStr"/>
+      <c r="DM303" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.39, "收盘": 0.35, "样本": 54}, "1": {"开盘": 3.54, "收盘": 0.86, "样本": 15}, "2": {"开盘": 4.52, "收盘": 1.27, "样本": 7}, "3": {"开盘": -0.07, "收盘": -2.34, "样本": 5}, "4": {"开盘": 1.88, "收盘": -1.12, "样本": 5}, "5": {"开盘": 7.41, "收盘": 2.71, "样本": 3}, "6": {"开盘": -1.15, "收盘": -10.0, "样本": 1}, "7": {"开盘": -2.5, "收盘": -7.75, "样本": 1}, "8": {"开盘": 4.97, "收盘": 1.46, "样本": 2}, "9": {"开盘": 2.84, "收盘": -3.44, "样本": 1}, "10": {"开盘": -0.67, "收盘": 0.12, "样本": 3}, "12": {"开盘": -1.3, "收盘": 2.57, "样本": 1}, "13": {"开盘": -0.54, "收盘": -2.71, "样本": 1}, "17": {"开盘": 0.7, "收盘": -9.85, "样本": 1}, "20": {"开盘": 9.98, "收盘": 9.98, "样本": 1}, "23": {"开盘": 6.41, "收盘": 10.06, "样本": 1}, "46": {"开盘": -0.44, "收盘": -1.13, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM303"/>
+  <dimension ref="A1:DM304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94480,6 +94480,295 @@
         </is>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>20260127</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C304" t="n">
+        <v>3454</v>
+      </c>
+      <c r="D304" t="n">
+        <v>81</v>
+      </c>
+      <c r="E304" t="n">
+        <v>267</v>
+      </c>
+      <c r="F304" t="n">
+        <v>105</v>
+      </c>
+      <c r="G304" t="n">
+        <v>147</v>
+      </c>
+      <c r="H304" t="n">
+        <v>36</v>
+      </c>
+      <c r="I304" t="n">
+        <v>94</v>
+      </c>
+      <c r="J304" t="n">
+        <v>9</v>
+      </c>
+      <c r="K304" t="n">
+        <v>53</v>
+      </c>
+      <c r="L304" t="n">
+        <v>2</v>
+      </c>
+      <c r="M304" t="n">
+        <v>20</v>
+      </c>
+      <c r="N304" t="n">
+        <v>18</v>
+      </c>
+      <c r="O304" t="n">
+        <v>70</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R304" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="S304" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="T304" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U304" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="V304" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="W304" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X304" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>67.14</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>68.56999999999999</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>91.43000000000001</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>67.14</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>-5.41</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>80</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>90</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW304" t="inlineStr"/>
+      <c r="AX304" t="inlineStr"/>
+      <c r="AY304" t="inlineStr"/>
+      <c r="AZ304" t="inlineStr"/>
+      <c r="BA304" t="inlineStr"/>
+      <c r="BB304" t="inlineStr"/>
+      <c r="BC304" t="inlineStr"/>
+      <c r="BD304" t="inlineStr"/>
+      <c r="BE304" t="inlineStr"/>
+      <c r="BF304" t="inlineStr"/>
+      <c r="BG304" t="inlineStr"/>
+      <c r="BH304" t="inlineStr"/>
+      <c r="BI304" t="inlineStr"/>
+      <c r="BJ304" t="inlineStr"/>
+      <c r="BK304" t="inlineStr"/>
+      <c r="BL304" t="inlineStr"/>
+      <c r="BM304" t="inlineStr"/>
+      <c r="BN304" t="n">
+        <v>30</v>
+      </c>
+      <c r="BO304" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="BP304" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BQ304" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BR304" t="n">
+        <v>-4.59</v>
+      </c>
+      <c r="BS304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BT304" t="n">
+        <v>-9.66</v>
+      </c>
+      <c r="BU304" t="n">
+        <v>-7.43</v>
+      </c>
+      <c r="BV304" t="n">
+        <v>-10.67</v>
+      </c>
+      <c r="BW304" t="n">
+        <v>-8.449999999999999</v>
+      </c>
+      <c r="BX304" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY304" t="n">
+        <v>50</v>
+      </c>
+      <c r="BZ304" t="n">
+        <v>80</v>
+      </c>
+      <c r="CA304" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB304" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="CC304" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD304" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="CE304" t="n">
+        <v>40</v>
+      </c>
+      <c r="CF304" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="CG304" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="CH304" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="CI304" t="n">
+        <v>-6.09</v>
+      </c>
+      <c r="CJ304" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="CK304" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="CL304" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="CM304" t="n">
+        <v>-6.29</v>
+      </c>
+      <c r="CN304" t="n">
+        <v>-4.89</v>
+      </c>
+      <c r="CO304" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="CP304" t="n">
+        <v>30</v>
+      </c>
+      <c r="CQ304" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="CR304" t="n">
+        <v>65</v>
+      </c>
+      <c r="CS304" t="n">
+        <v>70</v>
+      </c>
+      <c r="CT304" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU304" t="n">
+        <v>15</v>
+      </c>
+      <c r="CV304" t="inlineStr"/>
+      <c r="CW304" t="inlineStr"/>
+      <c r="CX304" t="inlineStr"/>
+      <c r="CY304" t="inlineStr"/>
+      <c r="CZ304" t="inlineStr"/>
+      <c r="DA304" t="inlineStr"/>
+      <c r="DB304" t="inlineStr"/>
+      <c r="DC304" t="inlineStr"/>
+      <c r="DD304" t="inlineStr"/>
+      <c r="DE304" t="inlineStr"/>
+      <c r="DF304" t="inlineStr"/>
+      <c r="DG304" t="inlineStr"/>
+      <c r="DH304" t="inlineStr"/>
+      <c r="DI304" t="inlineStr"/>
+      <c r="DJ304" t="inlineStr"/>
+      <c r="DK304" t="inlineStr"/>
+      <c r="DL304" t="inlineStr"/>
+      <c r="DM304" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 1.03, "收盘": 2.79, "样本": 41}, "1": {"开盘": -1.06, "收盘": 1.09, "样本": 6}, "2": {"开盘": -3.58, "收盘": 1.4, "样本": 6}, "3": {"开盘": -0.79, "收盘": 4.1, "样本": 3}, "4": {"开盘": -3.81, "收盘": 3.88, "样本": 2}, "5": {"开盘": -4.02, "收盘": 1.85, "样本": 2}, "7": {"开盘": 4.38, "收盘": 2.13, "样本": 3}, "9": {"开盘": -3.57, "收盘": -4.73, "样本": 1}, "13": {"开盘": 0.0, "收盘": 9.99, "样本": 1}, "16": {"开盘": -2.68, "收盘": 11.21, "样本": 1}, "18": {"开盘": 0.02, "收盘": 10.01, "样本": 1}, "22": {"开盘": 0.05, "收盘": 2.91, "样本": 1}, "28": {"开盘": -0.14, "收盘": 9.99, "样本": 1}, "38": {"开盘": -0.27, "收盘": -1.24, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM304"/>
+  <dimension ref="A1:DM306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94769,6 +94769,584 @@
         </is>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>20260128</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1739</v>
+      </c>
+      <c r="C305" t="n">
+        <v>3640</v>
+      </c>
+      <c r="D305" t="n">
+        <v>85</v>
+      </c>
+      <c r="E305" t="n">
+        <v>274</v>
+      </c>
+      <c r="F305" t="n">
+        <v>171</v>
+      </c>
+      <c r="G305" t="n">
+        <v>169</v>
+      </c>
+      <c r="H305" t="n">
+        <v>58</v>
+      </c>
+      <c r="I305" t="n">
+        <v>122</v>
+      </c>
+      <c r="J305" t="n">
+        <v>22</v>
+      </c>
+      <c r="K305" t="n">
+        <v>80</v>
+      </c>
+      <c r="L305" t="n">
+        <v>5</v>
+      </c>
+      <c r="M305" t="n">
+        <v>25</v>
+      </c>
+      <c r="N305" t="n">
+        <v>26</v>
+      </c>
+      <c r="O305" t="n">
+        <v>53</v>
+      </c>
+      <c r="P305" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R305" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="S305" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="T305" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="U305" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="V305" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="W305" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="X305" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>62.26</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>94.34</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>62.26</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>70</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>90</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>95</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>70</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW305" t="inlineStr"/>
+      <c r="AX305" t="inlineStr"/>
+      <c r="AY305" t="inlineStr"/>
+      <c r="AZ305" t="inlineStr"/>
+      <c r="BA305" t="inlineStr"/>
+      <c r="BB305" t="inlineStr"/>
+      <c r="BC305" t="inlineStr"/>
+      <c r="BD305" t="inlineStr"/>
+      <c r="BE305" t="inlineStr"/>
+      <c r="BF305" t="inlineStr"/>
+      <c r="BG305" t="inlineStr"/>
+      <c r="BH305" t="inlineStr"/>
+      <c r="BI305" t="inlineStr"/>
+      <c r="BJ305" t="inlineStr"/>
+      <c r="BK305" t="inlineStr"/>
+      <c r="BL305" t="inlineStr"/>
+      <c r="BM305" t="inlineStr"/>
+      <c r="BN305" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO305" t="n">
+        <v>-6.95</v>
+      </c>
+      <c r="BP305" t="n">
+        <v>-7.76</v>
+      </c>
+      <c r="BQ305" t="n">
+        <v>-5.66</v>
+      </c>
+      <c r="BR305" t="n">
+        <v>-8.18</v>
+      </c>
+      <c r="BS305" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="BT305" t="n">
+        <v>-6.95</v>
+      </c>
+      <c r="BU305" t="n">
+        <v>-7.76</v>
+      </c>
+      <c r="BV305" t="n">
+        <v>-7.78</v>
+      </c>
+      <c r="BW305" t="n">
+        <v>-8.57</v>
+      </c>
+      <c r="BX305" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY305" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ305" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA305" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB305" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC305" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD305" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE305" t="n">
+        <v>18</v>
+      </c>
+      <c r="CF305" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="CG305" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="CH305" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="CI305" t="n">
+        <v>-4.38</v>
+      </c>
+      <c r="CJ305" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="CK305" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="CL305" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="CM305" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="CN305" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="CO305" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="CP305" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="CQ305" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="CR305" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="CS305" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="CT305" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="CU305" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="CV305" t="inlineStr"/>
+      <c r="CW305" t="inlineStr"/>
+      <c r="CX305" t="inlineStr"/>
+      <c r="CY305" t="inlineStr"/>
+      <c r="CZ305" t="inlineStr"/>
+      <c r="DA305" t="inlineStr"/>
+      <c r="DB305" t="inlineStr"/>
+      <c r="DC305" t="inlineStr"/>
+      <c r="DD305" t="inlineStr"/>
+      <c r="DE305" t="inlineStr"/>
+      <c r="DF305" t="inlineStr"/>
+      <c r="DG305" t="inlineStr"/>
+      <c r="DH305" t="inlineStr"/>
+      <c r="DI305" t="inlineStr"/>
+      <c r="DJ305" t="inlineStr"/>
+      <c r="DK305" t="inlineStr"/>
+      <c r="DL305" t="inlineStr"/>
+      <c r="DM305" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.34, "收盘": 1.25, "样本": 29}, "1": {"开盘": -0.11, "收盘": 0.18, "样本": 8}, "2": {"开盘": 2.31, "收盘": 0.01, "样本": 7}, "3": {"开盘": 5.96, "收盘": 6.01, "样本": 3}, "4": {"开盘": 5.3, "收盘": 10.0, "样本": 1}, "12": {"开盘": 6.49, "收盘": 10.01, "样本": 1}, "16": {"开盘": -0.46, "收盘": 1.26, "样本": 1}, "20": {"开盘": 0.16, "收盘": 10.04, "样本": 1}, "21": {"开盘": 1.69, "收盘": 10.02, "样本": 1}, "29": {"开盘": 6.15, "收盘": 10.0, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>20260129</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1803</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3566</v>
+      </c>
+      <c r="D306" t="n">
+        <v>96</v>
+      </c>
+      <c r="E306" t="n">
+        <v>244</v>
+      </c>
+      <c r="F306" t="n">
+        <v>309</v>
+      </c>
+      <c r="G306" t="n">
+        <v>155</v>
+      </c>
+      <c r="H306" t="n">
+        <v>84</v>
+      </c>
+      <c r="I306" t="n">
+        <v>117</v>
+      </c>
+      <c r="J306" t="n">
+        <v>33</v>
+      </c>
+      <c r="K306" t="n">
+        <v>82</v>
+      </c>
+      <c r="L306" t="n">
+        <v>12</v>
+      </c>
+      <c r="M306" t="n">
+        <v>22</v>
+      </c>
+      <c r="N306" t="n">
+        <v>35</v>
+      </c>
+      <c r="O306" t="n">
+        <v>80</v>
+      </c>
+      <c r="P306" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="R306" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="S306" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="T306" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="U306" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="V306" t="n">
+        <v>12</v>
+      </c>
+      <c r="W306" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="X306" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>61.25</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>61.25</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>76</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>48</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>88</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>80</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>76</v>
+      </c>
+      <c r="AW306" t="inlineStr"/>
+      <c r="AX306" t="inlineStr"/>
+      <c r="AY306" t="inlineStr"/>
+      <c r="AZ306" t="inlineStr"/>
+      <c r="BA306" t="inlineStr"/>
+      <c r="BB306" t="inlineStr"/>
+      <c r="BC306" t="inlineStr"/>
+      <c r="BD306" t="inlineStr"/>
+      <c r="BE306" t="inlineStr"/>
+      <c r="BF306" t="inlineStr"/>
+      <c r="BG306" t="inlineStr"/>
+      <c r="BH306" t="inlineStr"/>
+      <c r="BI306" t="inlineStr"/>
+      <c r="BJ306" t="inlineStr"/>
+      <c r="BK306" t="inlineStr"/>
+      <c r="BL306" t="inlineStr"/>
+      <c r="BM306" t="inlineStr"/>
+      <c r="BN306" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO306" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="BP306" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="BQ306" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BR306" t="n">
+        <v>-5.22</v>
+      </c>
+      <c r="BS306" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="BT306" t="n">
+        <v>-9.92</v>
+      </c>
+      <c r="BU306" t="n">
+        <v>-9.51</v>
+      </c>
+      <c r="BV306" t="n">
+        <v>-10.72</v>
+      </c>
+      <c r="BW306" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="BX306" t="n">
+        <v>20</v>
+      </c>
+      <c r="BY306" t="n">
+        <v>20</v>
+      </c>
+      <c r="BZ306" t="n">
+        <v>60</v>
+      </c>
+      <c r="CA306" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB306" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC306" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD306" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE306" t="n">
+        <v>26</v>
+      </c>
+      <c r="CF306" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="CG306" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="CH306" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="CI306" t="n">
+        <v>-3.25</v>
+      </c>
+      <c r="CJ306" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="CK306" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="CL306" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="CM306" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="CN306" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="CO306" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="CP306" t="n">
+        <v>57.69</v>
+      </c>
+      <c r="CQ306" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="CR306" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="CS306" t="n">
+        <v>76.92</v>
+      </c>
+      <c r="CT306" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="CU306" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="CV306" t="inlineStr"/>
+      <c r="CW306" t="inlineStr"/>
+      <c r="CX306" t="inlineStr"/>
+      <c r="CY306" t="inlineStr"/>
+      <c r="CZ306" t="inlineStr"/>
+      <c r="DA306" t="inlineStr"/>
+      <c r="DB306" t="inlineStr"/>
+      <c r="DC306" t="inlineStr"/>
+      <c r="DD306" t="inlineStr"/>
+      <c r="DE306" t="inlineStr"/>
+      <c r="DF306" t="inlineStr"/>
+      <c r="DG306" t="inlineStr"/>
+      <c r="DH306" t="inlineStr"/>
+      <c r="DI306" t="inlineStr"/>
+      <c r="DJ306" t="inlineStr"/>
+      <c r="DK306" t="inlineStr"/>
+      <c r="DL306" t="inlineStr"/>
+      <c r="DM306" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.11, "收盘": 1.47, "样本": 34}, "1": {"开盘": 3.89, "收盘": 3.95, "样本": 9}, "2": {"开盘": 5.93, "收盘": 3.4, "样本": 8}, "3": {"开盘": 4.59, "收盘": 6.12, "样本": 4}, "4": {"开盘": 4.12, "收盘": 0.39, "样本": 1}, "5": {"开盘": 4.11, "收盘": 9.31, "样本": 4}, "6": {"开盘": 4.48, "收盘": 2.47, "样本": 2}, "7": {"开盘": 4.24, "收盘": 9.48, "样本": 4}, "9": {"开盘": 2.38, "收盘": 7.28, "样本": 1}, "10": {"开盘": 3.33, "收盘": -2.22, "样本": 1}, "12": {"开盘": 2.94, "收盘": 5.74, "样本": 2}, "13": {"开盘": -2.9, "收盘": -5.95, "样本": 1}, "15": {"开盘": 5.35, "收盘": 4.23, "样本": 2}, "16": {"开盘": 0.05, "收盘": -1.06, "样本": 1}, "18": {"开盘": 7.32, "收盘": 9.99, "样本": 2}, "19": {"开盘": 2.97, "收盘": -1.62, "样本": 1}, "24": {"开盘": -1.25, "收盘": 5.19, "样本": 1}, "25": {"开盘": 1.84, "收盘": 1.84, "样本": 1}, "27": {"开盘": 2.45, "收盘": -1.65, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM306"/>
+  <dimension ref="A1:DM307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95347,6 +95347,295 @@
         </is>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>20260130</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>2453</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2896</v>
+      </c>
+      <c r="D307" t="n">
+        <v>113</v>
+      </c>
+      <c r="E307" t="n">
+        <v>230</v>
+      </c>
+      <c r="F307" t="n">
+        <v>299</v>
+      </c>
+      <c r="G307" t="n">
+        <v>118</v>
+      </c>
+      <c r="H307" t="n">
+        <v>149</v>
+      </c>
+      <c r="I307" t="n">
+        <v>83</v>
+      </c>
+      <c r="J307" t="n">
+        <v>94</v>
+      </c>
+      <c r="K307" t="n">
+        <v>48</v>
+      </c>
+      <c r="L307" t="n">
+        <v>52</v>
+      </c>
+      <c r="M307" t="n">
+        <v>9</v>
+      </c>
+      <c r="N307" t="n">
+        <v>21</v>
+      </c>
+      <c r="O307" t="n">
+        <v>82</v>
+      </c>
+      <c r="P307" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="R307" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S307" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="T307" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="U307" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="V307" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="W307" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="X307" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>40.24</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>91.45999999999999</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>40.24</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>-5.93</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>59.09</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="AW307" t="inlineStr"/>
+      <c r="AX307" t="inlineStr"/>
+      <c r="AY307" t="inlineStr"/>
+      <c r="AZ307" t="inlineStr"/>
+      <c r="BA307" t="inlineStr"/>
+      <c r="BB307" t="inlineStr"/>
+      <c r="BC307" t="inlineStr"/>
+      <c r="BD307" t="inlineStr"/>
+      <c r="BE307" t="inlineStr"/>
+      <c r="BF307" t="inlineStr"/>
+      <c r="BG307" t="inlineStr"/>
+      <c r="BH307" t="inlineStr"/>
+      <c r="BI307" t="inlineStr"/>
+      <c r="BJ307" t="inlineStr"/>
+      <c r="BK307" t="inlineStr"/>
+      <c r="BL307" t="inlineStr"/>
+      <c r="BM307" t="inlineStr"/>
+      <c r="BN307" t="n">
+        <v>12</v>
+      </c>
+      <c r="BO307" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="BP307" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="BQ307" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BR307" t="n">
+        <v>-5.07</v>
+      </c>
+      <c r="BS307" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BT307" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="BU307" t="n">
+        <v>-9.279999999999999</v>
+      </c>
+      <c r="BV307" t="n">
+        <v>-11.28</v>
+      </c>
+      <c r="BW307" t="n">
+        <v>-10.07</v>
+      </c>
+      <c r="BX307" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="BY307" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="BZ307" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CA307" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB307" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="CC307" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD307" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="CE307" t="n">
+        <v>35</v>
+      </c>
+      <c r="CF307" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="CG307" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="CH307" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="CI307" t="n">
+        <v>-6.21</v>
+      </c>
+      <c r="CJ307" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="CK307" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="CL307" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="CM307" t="n">
+        <v>-6.88</v>
+      </c>
+      <c r="CN307" t="n">
+        <v>-6.24</v>
+      </c>
+      <c r="CO307" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CP307" t="n">
+        <v>37.14</v>
+      </c>
+      <c r="CQ307" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="CR307" t="n">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="CS307" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="CT307" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU307" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="CV307" t="inlineStr"/>
+      <c r="CW307" t="inlineStr"/>
+      <c r="CX307" t="inlineStr"/>
+      <c r="CY307" t="inlineStr"/>
+      <c r="CZ307" t="inlineStr"/>
+      <c r="DA307" t="inlineStr"/>
+      <c r="DB307" t="inlineStr"/>
+      <c r="DC307" t="inlineStr"/>
+      <c r="DD307" t="inlineStr"/>
+      <c r="DE307" t="inlineStr"/>
+      <c r="DF307" t="inlineStr"/>
+      <c r="DG307" t="inlineStr"/>
+      <c r="DH307" t="inlineStr"/>
+      <c r="DI307" t="inlineStr"/>
+      <c r="DJ307" t="inlineStr"/>
+      <c r="DK307" t="inlineStr"/>
+      <c r="DL307" t="inlineStr"/>
+      <c r="DM307" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 0.47, "收盘": -1.99, "样本": 32}, "1": {"开盘": 0.79, "收盘": -0.58, "样本": 10}, "2": {"开盘": 1.02, "收盘": 0.3, "样本": 12}, "3": {"开盘": -2.56, "收盘": -3.74, "样本": 5}, "4": {"开盘": -2.46, "收盘": 1.88, "样本": 4}, "5": {"开盘": 1.69, "收盘": 1.32, "样本": 5}, "6": {"开盘": -1.28, "收盘": 0.31, "样本": 2}, "7": {"开盘": -1.72, "收盘": -3.87, "样本": 2}, "8": {"开盘": 9.97, "收盘": 9.97, "样本": 1}, "9": {"开盘": 0.0, "收盘": -5.26, "样本": 1}, "10": {"开盘": -1.4, "收盘": -6.38, "样本": 1}, "11": {"开盘": -6.67, "收盘": -6.62, "样本": 3}, "14": {"开盘": 1.96, "收盘": -6.92, "样本": 1}, "16": {"开盘": -3.23, "收盘": 3.23, "样本": 1}, "17": {"开盘": -2.19, "收盘": 6.44, "样本": 1}, "25": {"开盘": -0.85, "收盘": 0.99, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM307"/>
+  <dimension ref="A1:DM308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95636,6 +95636,295 @@
         </is>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>20260202</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>771</v>
+      </c>
+      <c r="C308" t="n">
+        <v>4652</v>
+      </c>
+      <c r="D308" t="n">
+        <v>41</v>
+      </c>
+      <c r="E308" t="n">
+        <v>99</v>
+      </c>
+      <c r="F308" t="n">
+        <v>843</v>
+      </c>
+      <c r="G308" t="n">
+        <v>61</v>
+      </c>
+      <c r="H308" t="n">
+        <v>389</v>
+      </c>
+      <c r="I308" t="n">
+        <v>47</v>
+      </c>
+      <c r="J308" t="n">
+        <v>197</v>
+      </c>
+      <c r="K308" t="n">
+        <v>36</v>
+      </c>
+      <c r="L308" t="n">
+        <v>98</v>
+      </c>
+      <c r="M308" t="n">
+        <v>13</v>
+      </c>
+      <c r="N308" t="n">
+        <v>18</v>
+      </c>
+      <c r="O308" t="n">
+        <v>48</v>
+      </c>
+      <c r="P308" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="R308" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="S308" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="T308" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="U308" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="V308" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X308" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>35.42</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AW308" t="inlineStr"/>
+      <c r="AX308" t="inlineStr"/>
+      <c r="AY308" t="inlineStr"/>
+      <c r="AZ308" t="inlineStr"/>
+      <c r="BA308" t="inlineStr"/>
+      <c r="BB308" t="inlineStr"/>
+      <c r="BC308" t="inlineStr"/>
+      <c r="BD308" t="inlineStr"/>
+      <c r="BE308" t="inlineStr"/>
+      <c r="BF308" t="inlineStr"/>
+      <c r="BG308" t="inlineStr"/>
+      <c r="BH308" t="inlineStr"/>
+      <c r="BI308" t="inlineStr"/>
+      <c r="BJ308" t="inlineStr"/>
+      <c r="BK308" t="inlineStr"/>
+      <c r="BL308" t="inlineStr"/>
+      <c r="BM308" t="inlineStr"/>
+      <c r="BN308" t="n">
+        <v>52</v>
+      </c>
+      <c r="BO308" t="n">
+        <v>-8.359999999999999</v>
+      </c>
+      <c r="BP308" t="n">
+        <v>-7.95</v>
+      </c>
+      <c r="BQ308" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="BR308" t="n">
+        <v>-9.06</v>
+      </c>
+      <c r="BS308" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="BT308" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="BU308" t="n">
+        <v>-10.82</v>
+      </c>
+      <c r="BV308" t="n">
+        <v>-12.79</v>
+      </c>
+      <c r="BW308" t="n">
+        <v>-12.42</v>
+      </c>
+      <c r="BX308" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BY308" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="BZ308" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="CA308" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB308" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="CC308" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD308" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="CE308" t="n">
+        <v>21</v>
+      </c>
+      <c r="CF308" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="CG308" t="n">
+        <v>-5.93</v>
+      </c>
+      <c r="CH308" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="CI308" t="n">
+        <v>-6.67</v>
+      </c>
+      <c r="CJ308" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="CK308" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="CL308" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="CM308" t="n">
+        <v>-8.02</v>
+      </c>
+      <c r="CN308" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="CO308" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="CP308" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="CQ308" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="CR308" t="n">
+        <v>52.38</v>
+      </c>
+      <c r="CS308" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="CT308" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU308" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="CV308" t="inlineStr"/>
+      <c r="CW308" t="inlineStr"/>
+      <c r="CX308" t="inlineStr"/>
+      <c r="CY308" t="inlineStr"/>
+      <c r="CZ308" t="inlineStr"/>
+      <c r="DA308" t="inlineStr"/>
+      <c r="DB308" t="inlineStr"/>
+      <c r="DC308" t="inlineStr"/>
+      <c r="DD308" t="inlineStr"/>
+      <c r="DE308" t="inlineStr"/>
+      <c r="DF308" t="inlineStr"/>
+      <c r="DG308" t="inlineStr"/>
+      <c r="DH308" t="inlineStr"/>
+      <c r="DI308" t="inlineStr"/>
+      <c r="DJ308" t="inlineStr"/>
+      <c r="DK308" t="inlineStr"/>
+      <c r="DL308" t="inlineStr"/>
+      <c r="DM308" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.97, "收盘": 2.91, "样本": 28}, "1": {"开盘": 0.28, "收盘": -2.1, "样本": 8}, "2": {"开盘": -0.13, "收盘": 5.99, "样本": 3}, "3": {"开盘": 3.13, "收盘": -2.29, "样本": 1}, "4": {"开盘": 0.76, "收盘": -2.38, "样本": 2}, "6": {"开盘": -2.0, "收盘": -5.24, "样本": 1}, "8": {"开盘": -0.29, "收盘": -1.98, "样本": 2}, "9": {"开盘": -4.87, "收盘": -8.15, "样本": 1}, "12": {"开盘": -10.0, "收盘": -10.0, "样本": 1}, "14": {"开盘": -3.89, "收盘": -7.09, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM308"/>
+  <dimension ref="A1:DM309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95925,6 +95925,295 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>20260203</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>4856</v>
+      </c>
+      <c r="C309" t="n">
+        <v>532</v>
+      </c>
+      <c r="D309" t="n">
+        <v>77</v>
+      </c>
+      <c r="E309" t="n">
+        <v>542</v>
+      </c>
+      <c r="F309" t="n">
+        <v>34</v>
+      </c>
+      <c r="G309" t="n">
+        <v>263</v>
+      </c>
+      <c r="H309" t="n">
+        <v>17</v>
+      </c>
+      <c r="I309" t="n">
+        <v>142</v>
+      </c>
+      <c r="J309" t="n">
+        <v>14</v>
+      </c>
+      <c r="K309" t="n">
+        <v>69</v>
+      </c>
+      <c r="L309" t="n">
+        <v>9</v>
+      </c>
+      <c r="M309" t="n">
+        <v>14</v>
+      </c>
+      <c r="N309" t="n">
+        <v>18</v>
+      </c>
+      <c r="O309" t="n">
+        <v>36</v>
+      </c>
+      <c r="P309" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="R309" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="S309" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="T309" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U309" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="V309" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="W309" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X309" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>97.22</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>97.22</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AL309" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="AM309" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>92.31</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="AW309" t="inlineStr"/>
+      <c r="AX309" t="inlineStr"/>
+      <c r="AY309" t="inlineStr"/>
+      <c r="AZ309" t="inlineStr"/>
+      <c r="BA309" t="inlineStr"/>
+      <c r="BB309" t="inlineStr"/>
+      <c r="BC309" t="inlineStr"/>
+      <c r="BD309" t="inlineStr"/>
+      <c r="BE309" t="inlineStr"/>
+      <c r="BF309" t="inlineStr"/>
+      <c r="BG309" t="inlineStr"/>
+      <c r="BH309" t="inlineStr"/>
+      <c r="BI309" t="inlineStr"/>
+      <c r="BJ309" t="inlineStr"/>
+      <c r="BK309" t="inlineStr"/>
+      <c r="BL309" t="inlineStr"/>
+      <c r="BM309" t="inlineStr"/>
+      <c r="BN309" t="n">
+        <v>98</v>
+      </c>
+      <c r="BO309" t="n">
+        <v>-4.06</v>
+      </c>
+      <c r="BP309" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="BQ309" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BR309" t="n">
+        <v>-5.83</v>
+      </c>
+      <c r="BS309" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BT309" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="BU309" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="BV309" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="BW309" t="n">
+        <v>-4.55</v>
+      </c>
+      <c r="BX309" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="BY309" t="n">
+        <v>46.94</v>
+      </c>
+      <c r="BZ309" t="n">
+        <v>75.51000000000001</v>
+      </c>
+      <c r="CA309" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="CB309" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="CC309" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="CD309" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="CE309" t="n">
+        <v>18</v>
+      </c>
+      <c r="CF309" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="CG309" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="CH309" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="CI309" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="CJ309" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="CK309" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="CL309" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="CM309" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="CN309" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="CO309" t="n">
+        <v>61.11</v>
+      </c>
+      <c r="CP309" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="CQ309" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="CR309" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="CS309" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="CT309" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="CU309" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="CV309" t="inlineStr"/>
+      <c r="CW309" t="inlineStr"/>
+      <c r="CX309" t="inlineStr"/>
+      <c r="CY309" t="inlineStr"/>
+      <c r="CZ309" t="inlineStr"/>
+      <c r="DA309" t="inlineStr"/>
+      <c r="DB309" t="inlineStr"/>
+      <c r="DC309" t="inlineStr"/>
+      <c r="DD309" t="inlineStr"/>
+      <c r="DE309" t="inlineStr"/>
+      <c r="DF309" t="inlineStr"/>
+      <c r="DG309" t="inlineStr"/>
+      <c r="DH309" t="inlineStr"/>
+      <c r="DI309" t="inlineStr"/>
+      <c r="DJ309" t="inlineStr"/>
+      <c r="DK309" t="inlineStr"/>
+      <c r="DL309" t="inlineStr"/>
+      <c r="DM309" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 2.25, "收盘": 4.01, "样本": 25}, "1": {"开盘": -0.21, "收盘": 9.99, "样本": 1}, "2": {"开盘": -1.11, "收盘": 6.23, "样本": 2}, "3": {"开盘": -3.79, "收盘": 3.67, "样本": 1}, "4": {"开盘": 0.73, "收盘": 6.5, "样本": 4}, "6": {"开盘": -1.71, "收盘": 9.99, "样本": 1}, "9": {"开盘": 0.06, "收盘": 3.9, "样本": 1}, "14": {"开盘": 2.95, "收盘": 1.84, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/market_analysis.xlsx
+++ b/excel/market_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM309"/>
+  <dimension ref="A1:DM312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96214,6 +96214,873 @@
         </is>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>20260204</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>3254</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2130</v>
+      </c>
+      <c r="D310" t="n">
+        <v>84</v>
+      </c>
+      <c r="E310" t="n">
+        <v>251</v>
+      </c>
+      <c r="F310" t="n">
+        <v>126</v>
+      </c>
+      <c r="G310" t="n">
+        <v>131</v>
+      </c>
+      <c r="H310" t="n">
+        <v>63</v>
+      </c>
+      <c r="I310" t="n">
+        <v>84</v>
+      </c>
+      <c r="J310" t="n">
+        <v>29</v>
+      </c>
+      <c r="K310" t="n">
+        <v>68</v>
+      </c>
+      <c r="L310" t="n">
+        <v>5</v>
+      </c>
+      <c r="M310" t="n">
+        <v>13</v>
+      </c>
+      <c r="N310" t="n">
+        <v>19</v>
+      </c>
+      <c r="O310" t="n">
+        <v>69</v>
+      </c>
+      <c r="P310" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="R310" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="S310" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="T310" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="U310" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V310" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="W310" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="X310" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>81.16</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>73.91</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>52.17</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>81.16</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>73.91</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>92.86</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="AW310" t="inlineStr"/>
+      <c r="AX310" t="inlineStr"/>
+      <c r="AY310" t="inlineStr"/>
+      <c r="AZ310" t="inlineStr"/>
+      <c r="BA310" t="inlineStr"/>
+      <c r="BB310" t="inlineStr"/>
+      <c r="BC310" t="inlineStr"/>
+      <c r="BD310" t="inlineStr"/>
+      <c r="BE310" t="inlineStr"/>
+      <c r="BF310" t="inlineStr"/>
+      <c r="BG310" t="inlineStr"/>
+      <c r="BH310" t="inlineStr"/>
+      <c r="BI310" t="inlineStr"/>
+      <c r="BJ310" t="inlineStr"/>
+      <c r="BK310" t="inlineStr"/>
+      <c r="BL310" t="inlineStr"/>
+      <c r="BM310" t="inlineStr"/>
+      <c r="BN310" t="n">
+        <v>9</v>
+      </c>
+      <c r="BO310" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="BP310" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BQ310" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="BR310" t="n">
+        <v>-3.23</v>
+      </c>
+      <c r="BS310" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="BT310" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="BU310" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BV310" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="BW310" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BX310" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="BY310" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="BZ310" t="n">
+        <v>100</v>
+      </c>
+      <c r="CA310" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="CB310" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="CC310" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="CD310" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="CE310" t="n">
+        <v>18</v>
+      </c>
+      <c r="CF310" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="CG310" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="CH310" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="CI310" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="CJ310" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="CK310" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="CL310" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="CM310" t="n">
+        <v>-2.49</v>
+      </c>
+      <c r="CN310" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="CO310" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="CP310" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="CQ310" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="CR310" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="CS310" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="CT310" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU310" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="CV310" t="inlineStr"/>
+      <c r="CW310" t="inlineStr"/>
+      <c r="CX310" t="inlineStr"/>
+      <c r="CY310" t="inlineStr"/>
+      <c r="CZ310" t="inlineStr"/>
+      <c r="DA310" t="inlineStr"/>
+      <c r="DB310" t="inlineStr"/>
+      <c r="DC310" t="inlineStr"/>
+      <c r="DD310" t="inlineStr"/>
+      <c r="DE310" t="inlineStr"/>
+      <c r="DF310" t="inlineStr"/>
+      <c r="DG310" t="inlineStr"/>
+      <c r="DH310" t="inlineStr"/>
+      <c r="DI310" t="inlineStr"/>
+      <c r="DJ310" t="inlineStr"/>
+      <c r="DK310" t="inlineStr"/>
+      <c r="DL310" t="inlineStr"/>
+      <c r="DM310" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 3.62, "收盘": 4.73, "样本": 35}, "1": {"开盘": 3.15, "收盘": 1.52, "样本": 14}, "2": {"开盘": 1.59, "收盘": 4.26, "样本": 5}, "3": {"开盘": 2.36, "收盘": 4.1, "样本": 4}, "4": {"开盘": 4.02, "收盘": 1.17, "样本": 4}, "5": {"开盘": 2.7, "收盘": -1.61, "样本": 1}, "7": {"开盘": 0.55, "收盘": 0.0, "样本": 1}, "8": {"开盘": 2.38, "收盘": 3.33, "样本": 2}, "10": {"开盘": 2.85, "收盘": 2.04, "样本": 2}, "17": {"开盘": 0.0, "收盘": 4.23, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>20260205</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1618</v>
+      </c>
+      <c r="C311" t="n">
+        <v>3719</v>
+      </c>
+      <c r="D311" t="n">
+        <v>130</v>
+      </c>
+      <c r="E311" t="n">
+        <v>130</v>
+      </c>
+      <c r="F311" t="n">
+        <v>246</v>
+      </c>
+      <c r="G311" t="n">
+        <v>78</v>
+      </c>
+      <c r="H311" t="n">
+        <v>92</v>
+      </c>
+      <c r="I311" t="n">
+        <v>58</v>
+      </c>
+      <c r="J311" t="n">
+        <v>42</v>
+      </c>
+      <c r="K311" t="n">
+        <v>44</v>
+      </c>
+      <c r="L311" t="n">
+        <v>15</v>
+      </c>
+      <c r="M311" t="n">
+        <v>14</v>
+      </c>
+      <c r="N311" t="n">
+        <v>10</v>
+      </c>
+      <c r="O311" t="n">
+        <v>68</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R311" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="S311" t="n">
+        <v>-2.77</v>
+      </c>
+      <c r="T311" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="U311" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="V311" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="W311" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X311" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>44.12</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>44.12</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>94.12</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>95.59</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>39.71</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>44.12</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>-4.17</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>53.85</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>53.85</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="AW311" t="inlineStr"/>
+      <c r="AX311" t="inlineStr"/>
+      <c r="AY311" t="inlineStr"/>
+      <c r="AZ311" t="inlineStr"/>
+      <c r="BA311" t="inlineStr"/>
+      <c r="BB311" t="inlineStr"/>
+      <c r="BC311" t="inlineStr"/>
+      <c r="BD311" t="inlineStr"/>
+      <c r="BE311" t="inlineStr"/>
+      <c r="BF311" t="inlineStr"/>
+      <c r="BG311" t="inlineStr"/>
+      <c r="BH311" t="inlineStr"/>
+      <c r="BI311" t="inlineStr"/>
+      <c r="BJ311" t="inlineStr"/>
+      <c r="BK311" t="inlineStr"/>
+      <c r="BL311" t="inlineStr"/>
+      <c r="BM311" t="inlineStr"/>
+      <c r="BN311" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO311" t="n">
+        <v>-6.05</v>
+      </c>
+      <c r="BP311" t="n">
+        <v>-2.73</v>
+      </c>
+      <c r="BQ311" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="BR311" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="BS311" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BT311" t="n">
+        <v>-12.47</v>
+      </c>
+      <c r="BU311" t="n">
+        <v>-9.41</v>
+      </c>
+      <c r="BV311" t="n">
+        <v>-13.07</v>
+      </c>
+      <c r="BW311" t="n">
+        <v>-10.01</v>
+      </c>
+      <c r="BX311" t="n">
+        <v>20</v>
+      </c>
+      <c r="BY311" t="n">
+        <v>20</v>
+      </c>
+      <c r="BZ311" t="n">
+        <v>80</v>
+      </c>
+      <c r="CA311" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB311" t="n">
+        <v>20</v>
+      </c>
+      <c r="CC311" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD311" t="n">
+        <v>20</v>
+      </c>
+      <c r="CE311" t="n">
+        <v>19</v>
+      </c>
+      <c r="CF311" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="CG311" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="CH311" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="CI311" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="CJ311" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="CK311" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="CL311" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="CM311" t="n">
+        <v>-5.04</v>
+      </c>
+      <c r="CN311" t="n">
+        <v>-3.72</v>
+      </c>
+      <c r="CO311" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="CP311" t="n">
+        <v>57.89</v>
+      </c>
+      <c r="CQ311" t="n">
+        <v>57.89</v>
+      </c>
+      <c r="CR311" t="n">
+        <v>68.42</v>
+      </c>
+      <c r="CS311" t="n">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="CT311" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="CU311" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="CV311" t="inlineStr"/>
+      <c r="CW311" t="inlineStr"/>
+      <c r="CX311" t="inlineStr"/>
+      <c r="CY311" t="inlineStr"/>
+      <c r="CZ311" t="inlineStr"/>
+      <c r="DA311" t="inlineStr"/>
+      <c r="DB311" t="inlineStr"/>
+      <c r="DC311" t="inlineStr"/>
+      <c r="DD311" t="inlineStr"/>
+      <c r="DE311" t="inlineStr"/>
+      <c r="DF311" t="inlineStr"/>
+      <c r="DG311" t="inlineStr"/>
+      <c r="DH311" t="inlineStr"/>
+      <c r="DI311" t="inlineStr"/>
+      <c r="DJ311" t="inlineStr"/>
+      <c r="DK311" t="inlineStr"/>
+      <c r="DL311" t="inlineStr"/>
+      <c r="DM311" t="inlineStr">
+        <is>
+          <t>{"0": {"开盘": 0.61, "收盘": 0.73, "样本": 43}, "1": {"开盘": -0.36, "收盘": 0.74, "样本": 7}, "2": {"开盘": -0.31, "收盘": 1.25, "样本": 4}, "3": {"开盘": 0.05, "收盘": 1.19, "样本": 7}, "5": {"开盘": -2.9, "收盘": -8.58, "样本": 3}, "6": {"开盘": 6.08, "收盘": 10.05, "样本": 1}, "7": {"开盘": -1.65, "收盘": -4.12, "样本": 1}, "8": {"开盘": -6.73, "收盘": -5.55, "样本": 1}, "36": {"开盘": 0.9, "收盘": 2.75, "样本": 1}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>20260206</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>2749</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2550</v>
+      </c>
+      <c r="D312" t="n">
+        <v>167</v>
+      </c>
+      <c r="E312" t="n">
+        <v>194</v>
+      </c>
+      <c r="F312" t="n">
+        <v>80</v>
+      </c>
+      <c r="G312" t="n">
+        <v>105</v>
+      </c>
+      <c r="H312" t="n">
+        <v>33</v>
+      </c>
+      <c r="I312" t="n">
+        <v>78</v>
+      </c>
+      <c r="J312" t="n">
+        <v>10</v>
+      </c>
+      <c r="K312" t="n">
+        <v>55</v>
+      </c>
+      <c r="L312" t="n">
+        <v>5</v>
+      </c>
+      <c r="M312" t="n">
+        <v>13</v>
+      </c>
+      <c r="N312" t="n">
+        <v>26</v>
+      </c>
+      <c r="O312" t="n">
+        <v>44</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="R312" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="S312" t="n">
+        <v>-3.65</v>
+      </c>
+      <c r="T312" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="U312" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V312" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="W312" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="X312" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>95.45</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>97.73</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>-1.58</v>
+      </c>